--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA1F49-4696-44B1-B146-6BFC9364FE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD3151-B4D1-4471-B227-F3DFDE09F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5000E4F2-6D6D-4D8E-9E6D-335E2725F001}"/>
   </bookViews>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564C2B7B-DC54-4D6A-A3CD-E105CAFF878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D7324-4A97-4262-8C1E-3145DBBB0084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC72731F-C442-4C97-A655-A22CF6AA2E2B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1342">
   <si>
     <t>Fecha</t>
   </si>
@@ -4049,9 +4049,6 @@
   </si>
   <si>
     <t>['incondicional']</t>
-  </si>
-  <si>
-    <t>neg7</t>
   </si>
 </sst>
 </file>
@@ -4896,7 +4893,7 @@
   <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="G497" sqref="G497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7312,7 +7309,7 @@
         <v>298</v>
       </c>
       <c r="G91" t="s">
-        <v>1342</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
         <v>86</v>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D7324-4A97-4262-8C1E-3145DBBB0084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620DD46D-4DB6-45BA-A524-6AB381374709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC72731F-C442-4C97-A655-A22CF6AA2E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5CAA307-58D1-4699-B525-B473CF5DD118}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$496</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="2002">
   <si>
     <t>Fecha</t>
   </si>
@@ -4049,6 +4046,1986 @@
   </si>
   <si>
     <t>['incondicional']</t>
+  </si>
+  <si>
+    <t>Encuentro del candidato Iván Cepeda con empresarios de AmCham fue rechazado por el uribismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxOR2JoZ1ZESHg3SW9jLTJtcWh2WG5JOEFGdFhZWk5MUGpXZXA0eW00bjFqSl9CcWpZOHpTZDlMcVZzR2pUSG1VTEFuaHZvRWdQLW9vQXZqN0FIRmRBZnNRQ08wV1ZpMEpUV3JNR0YwMzRFZnlVVmhHb21IOXFmbklRa2dtdTFaRkNJRHdKd2tBV29NYnc2WGlhamsxQXNza1pJT0pMQWk5bXExUUdwOFI2VWo5UXI2TWFQcW9GSElMY1dCUFZDUzJsVFFRQm84TWh5WlVwNXgwMFpOU0YwSUhFdGxZNjRFWUlIbTlkNENXWdIB9AFBVV95cUxOaDdKeXR6U1Nxc0h0ZjFsTDRWVnhteE5JOG9kMGtjNGg4SGtxZTlRTEhyTllUbGRPSUVfcVFwU2w0blFfN1VWaFBlVHE2Skc4TW9yMHJOR05EZno2WFc4RXMzVmtmcWN6X2VZd1VpSDNycUhFQzE2TTNIendqTmlIaDFqSTREOUlfY3llRWZOYzI1bXV2aXdaREV6MEhwVVhOaThKNzl1QTUyX1oySGdJcmVKN2tkLWtOREw3NngycEVDdFF4X0RrUDVHZzk0MXdIaldYOG9lWmJIeE9GUGlKMjV5OEgxQW91TUxQRE0tal9xZEN4?oc=5</t>
+  </si>
+  <si>
+    <t>Reunión de Iván Cepeda en Amcham Colombia generó incomodidad: desde la derecha cuestionan el encuentro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxNTGVIX2ZGUjRnaWJVRHcyb3JTOTc5TlhQVXlBOVl5VXlacXI3QWNNeS1Ud3pERGNvNm9Sa2l3MWZWUUxpQXJWVXg0NFNNUTNERXlJaURwTkhsVnlyRmlMeXI5b3EzN3dsa08yc2UxWFRkSVJLY0FMRWVuVjYwc01zU3BmdUpjLUhqX2E0UlAxbWxUMC1wS1JUTmEtYmQxX0tqN0pWdkZaMlVrcDVZeURERk5EUUN6YUlaWk0tMnV2dGQ5UlRTak9Tazh2SDVTRmRVNjdxZmdidnpaUEtSMTVfY1o1ejU?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: La reunión de Iván Cepeda con empresarios que generó cuestionamientos y sinsabores</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNeDVmRlpBa3FaZEVFT0lQU0NldWdCanROSXd4OG4wX2hfSnhiRGdna1Z4SFN0YVNnVERxWG1qamhNcWU4UkFrVHRiWXdYakZja1BfaVRMSzZqLWlLT3dSd2hiY2ZiNjMzVlZQcUZibnZKc2k4ODRvOU9CZXlSMWF0aWNSaENxeGRXRlBmUFptcTBKdmJsVFRSdkVZTFZhWnBtdy1iWFdUUV9RSUJQQzIzZl8zUi01R2pIX2JxM1pIdFpGTHhFRUpOU09sOXEzZ9IB4gFBVV95cUxQa2xYTTR0WHpXWHktZThBdGU4MjluOXhyOHdYNjFsMm56VTZoNm1yLU5lemIwQ09iVDQzZnRQMHV3NlJDWmRqZkZOQXNxWjZ2WnZGRmR5cGZQOEhPc2RXQWE5REFCWU0zZno0SUJyTFhlbGdpNTM4QWJyalFfUWt5V0Z3Y0JuaUVTM1pFYjNyMG5ZazhMdzJXLUR2MTE3cXlHaUMxZkRaVXNHanZwSUpZWGtnOVdRbldWQlFKT1BiOGxVNG5oS0xSQmxqV0Y3WGl0U21XWmNaTlR0N191OGU5WmlB?oc=5</t>
+  </si>
+  <si>
+    <t>La foto: Iván Cepeda se reúne con los empresarios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxOSzhNQldud3hfbTdpYjF5YVA4OXBfN1NRS3dxaUd4RU9rNktKQ25Vb3VfZkJodnQtOUN1emlWdzRIM1B1Y0EzYXpFcTNSZExDaVNteGdCTWEtSVhvQk11YlVWSUUwRXplWWFuc3l6WjNwc01kbm1GRWN0MVQ5dE1WUlVyRFRpdW5ZUjluU3YwNA?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda lanzó críticas al uribismo desde Popayán</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNVHFzTUotenNyM1Boc3M5TGRsbjVmWmxVeVNocVRsekxKVHp5OWVDSXVyeWtEd00yNVBhU2pwZHVGbmJqM1VwZGphMEJ1RmVHallHTlpUYXd6RElPOE1HMVlOakhBZDhjZjZCU3ozN2tqR0JBTDdhU3BqN0l2cFFLWlY4cDJLOHhfTHJkbkJB0gGTAUFVX3lxTE1RYTR5WDI1bExuam9ydEY0a3NhUUQ2SlhFTVFPRWo2cjZ4WEo2Vks1amN3WjUxSHc0LVZ4SjRadFJqNHVxN2NzRnNwMTZZRmFwdmtlbmRKQjB6SkwtTUo1WDVFN01QeEIybFlUQ3hIY2pabE5IX1pLd2d5OGUwNmYyNmhxYkNpWlE5S2JDTjJadGpjVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe y Centro Democrático estallan contra presidenta de AmCham por invitación a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxPWTdOODdEQkR4blF5MkpWdi1OWmlEcndzbjUtU2F4NDJZb1gtX3YtNDlDa1BOT3psZE0wZGd6czF5VF9RcmxrdFZGaGFCVy1BQVV0WkRlWnNDbm5yWDk0VlFYWnN6bTZUclFQUEJfZWhDRjR6cmgwMEFMYjRORVpIUHVoenY4bC1Wb01jdUdLVS1TWFE0Q080ZXNkMFlOdUhYdlJqdllFRDhabzhYR2VERF9fb0J2MHc5OE9rVWMyNmRteU5zcUpKZzVIN2loUXJKb0ZYOTlsY9IB1wFBVV95cUxNanh3WjdEdFNyb0p6QUJMekhKVXJjSjdyX2U2UU5RLTktRzVJWTBLUUd5clR5S01mOThndlpGZEUxZWlKc0ZUTF9mbVZHQnozbmN2M3RwTGE4Zk42VHFqODlaUHZhZTRwMjNNYTM0MENKWHRFWkNQeVNzZ1QtMGY2ZmlGTlM2MEdwbnEybzlSVGhuRV96ZjBGMFNEM0l5ZjF2ZmVneG9FUTRBalRrVWp0ZzhHMEhRWVdCYnFUWDZZNGEwVURCT3l6VzA3MG5SMWs5WmFVNlRUbw?oc=5</t>
+  </si>
+  <si>
+    <t>Reunión de AmCham con Iván Cepeda desata tormenta en el uribismo: estas fueron las duras reacciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxObzhKcFpzVTRfUUNsR1VBbjB2WGx2Z28zVTBnSWNNbmhIeG5FV2I5YWpyM2FETGhySE03UjBJWHVfQ2VReXdWNDhMTG5TcGRnZ0tCZms3TmlSdTFXQjJTUEt0RkRaWDR0TjcxM2FGSTd6cEtpWjl6WTlaTjVLX1RZU19SdHJrdzFVeVZSMkxtOXViazR2dmlSZUFVUnY5ZHN6VTBQbWJ5a0lLXzBFN0pIbHdQYlNXQTY3S0EtZnRUMUZzeHUzN3drZ05hSDl2RHpOR1Uzby1ic0FIRHVxZU9ocERTQ2xVSklNdzZTempZbC1XSkJFeFE?oc=5</t>
+  </si>
+  <si>
+    <t>Andrés Forero recordó trino de Iván Cepeda apoyando una constituyente: “Quiere embarcar al país en una aventura chavista”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxOZ2pOQ1R0WFFvTDM0Y2JTSHozY0lBVFJJUm1XSGpFTUJJR1RVNWh6TGFWRnp2bGZ6MGpmQ1BQZkpxa19sZld1eFlSMDUxVGRRSDZKOUhzT2VibjhObDJzdm44enc2aG5weENNYUpMek5LdGxuM0VETHk1cHkzWm9wWGVneG9jTzFRU29QVnRhaEZMWGlYNElsTGlIMHNTRlh2SUNoYmQtMGJGVHdMWWhta0VzTkpIRXo2TkVFdmc1a2U2OUF6ejhoOGd3d2VzcHRuSkg4TVhCZUJPQTVhOGotQU1nTVFjWjQ5UzBKYXRmcEZvRUlzQkJiVW9oalhEM2ZhbHfSAZwCQVVfeXFMTi14SngtV2RDTWFNelhubUtkQV9ZaUVwMnlyWnNMUGpseElyZlh3b1ZIbHhXWW1SaktVMTdNNVU4TDJ3OG5vb3F1TFFoRUhha01ycGpzQnpBcTZ2UmhyNzQ2cXRhem5keW92WnM3S0s3WFRSdWMtS1BTUnNOdC1JM09XSzhlaEQxX1hLZEVTUHRINmg1QlNqMzEzbVRBREZaOUR5LXQ2eDNMTDFuWmZ5S0JUVUFEc081WEpNVXF4M0pLXzQxVTFRdUl0Q1F3VzhVczRCTVJOaTdmNjVFZ3E4LU5tSTNwWGljM0NkUVowMzJQMUVTU0RTbUFZd0tya09SSFgwdUFhbXc5MXpWWDFKNW02Q1pRR2gxR21OQkk?oc=5</t>
+  </si>
+  <si>
+    <t>['constituyente', 'chavista']</t>
+  </si>
+  <si>
+    <t>La Revolución Ética De Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5IRWJ4WWF2MEZTUmtWWFkyR1RWSlhvdHd4djFUSFNmeEctcHhRVTkyb0c2bXk5c1ROZ0hub1c0VHM1aHF6REFLWXdqQThTdmlHS0pBX2c0WkkzQnBOV3Z0Tjk2ZTdnaGxGenNVdg?oc=5</t>
+  </si>
+  <si>
+    <t>pares.com.co</t>
+  </si>
+  <si>
+    <t>Cepeda y la constituyente: su propuesta de convocar un “Acuerdo Nacional y un Proceso Constituyente” es un ejemplo de reciclar ideas que el resto del continente ya jubiló hace décadas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxOVGF5OHk1UE1OYTQ0dEZFbl9jRG13Q2xaR0ExazEta3Ywb0t0WElWSElORzlGTHk3OWlCRjYyU1lpQWt6YVEwYU91Yk11RW1fNUwtUktlazlvWmtwYm1ia0I5TzZ2WWJVeXEyUlBTdndPMEc2d3R1R3RCNThELXR0d25GLXdxS2xKUXZJNlF4ZGNncFV4dms3a1NkSWdQVFRxX28zNk0xOEPSAagBQVVfeXFMTTlEUVJkcmU5WUJJT3ZkdmZuUjIwUzdpMTBNOUhvcS1RVENxeUtEOG0yekxsb2Vfdy0zQ1lqSVVhYWxSRDgxY3FqbEtkdmY2SUNwZzlnRkloTmtQMmtsZmNqZmxRaEVja190VW5jRURKeTl3dlFxeDlZbEE4TVZhUEJWdF9Pd1hObE1YUnhuYjJWck56Q0RsTGVNWkM0czNNOVppU3FjbmRn?oc=5</t>
+  </si>
+  <si>
+    <t>['constituyente']</t>
+  </si>
+  <si>
+    <t>Ante más de 6.000 asistentes, Cepeda presentó su ruta de austeridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxONFN1Qy16SGVhYjNrZU94LU1nTDBXQVh1c3B5dktLZHdfb3M0UnE0ZHhLYWpqMmZzV09aQi1jODZRMnVzM0tSR3J1WGJyd3VQb196VkN0bnlXUFJ1RHJQbjlSY0Y2SF9seEpaQ3JRY0lKLVFOUVdMQkhfSDBMQk50SlRqZDN4TWhVMWtMX3lnZjdzNVVmZHZHWGRQczhmNUnSAaQBQVVfeXFMTmVaRGY4SXQ3ZWdvNlJZMGg3MlpOd3V3RTVIMGl2a21DYjFCS0hJM0M4QkhOTVBXQ0dEV1NQVUJjdTRTLUU5M21oaVVKOUFWT2QxNFRXenhrdGpkWjl4S2xvWmdyaExvWWJhNG90dzFTYWF4cFN0VFQzU1RsaGpGZzNiSFZieHdTRGhqOGdpa3E0b2xOMnByOXBUX3ZMTjU2azdPTXM?oc=5</t>
+  </si>
+  <si>
+    <t>María Fernanda Cabal apoyó crítica de Uribe a propuesta de Iván Cepeda: “Arruinaron al campesinado”</t>
+  </si>
+  <si>
+    <t>['campesinado']</t>
+  </si>
+  <si>
+    <t>La cantante Marbelle salió en defensa de Abelardo de la Espriella tras polémica entrevista con Juan Diego Alvira en la que él cuestionara al precandidato sobre si su campaña “estaba construida a punta de mercadeo”: “Está ardido”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxPbmc4MzVZSHVQQ0RzR2dLZHRxbUQ1dVY4SmNUUHZVVm1fc1VCQ2VoRU85VXp4UWR3dWhkbXFtdkFfdnJYNVY3NWdoRkhuYWtmTkhNaEhMLU9HQUJHcnRGRG40ellkQ3NQSkZMZ2RiNmhFSHZINEFYbWVNMVQ4Mm45SDVUczR0SldIX01vZkRabGthZVlaTW9LVS1Na01hSnBqazZCQkV1b2d2a1hhcS0tV3pyUjA1MmJFWEhPV183SUZTRGVaRkxGY2pYV0pjREVLZlliTlFHTEZha0xWZDV2Z3pQQ0lPZjZPelhPRFRn0gGIAkFVX3lxTFBET0tkdmlrdFg4MTNKYzh0UWNETU42NEd2Z3V5cWZ1TXFKTU1Nam43andNcWFSa2M5SndzQVc4U2haTGxLZGRTaTRLSkZQcEd6ejQtQVZJSElpYTl5Um41bnhUdWxLN1dOOExJdFhyb3dPUUdlQWFDZ0o4a3ZmV01JTHd3SXlKeC1UdThYLUtlU2NYTHh5M2Z0SWg2aURQaXBINDFjYlQtOEZ6LUt4ODRWbl8zY01wd0tXQUhYTk1PNXQ3X2ExUEE2b2FrWUctanozdWV1ekxfNnlSQ3FZclc4dkRiVm52WUNaZGVYSXdFM3VIdHpJNW5UYkZCT05pWU9JbVl4OXQ4dQ?oc=5</t>
+  </si>
+  <si>
+    <t>['ardido']</t>
+  </si>
+  <si>
+    <t>Carlos Felipe Mejía , exsenador uribista quiere volver al Congreso, pero no con el Centro Democrático: así se inscribió en lista afín a Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxPX05CeVJZYUZ0N1dVOWdEZzNKdTZYUW9JRzhHaFZOVjM5YkhLYV94QTk1VEtTRE16TkxpUGwzX2pBZUlnTjhJLTl4NTZxUXlTSU9IcFFpc041T09yR0hrT2xzdHhYMzZhMmtORkpiVUZfZnFJOGszdkRGTHpCU1JlUGFXVVVSakhSWnJsOXdPa0ZQOHFvb2VyRnpmZWYycktYSE9adnFxT0h2c1FkNGVKUWdpVGhmN1BLc0RBajhlYmFwVExNN3YwRnk2UWJFa2ZOdEJGb3A2dzhobWE3MUdYckZBR2ZwZHBPVTJIMXZ3NjdUOGUxM0pYOVJZZkJHU281TmlfTnpBV1lhTWFTYnfSAagCQVVfeXFMT083Q19RdXkyaklsWHpyNDVEUUlwYm0yRVdmZ243NE52NHk0Y3ZpMV80ZG1XczliYUk4MzY1UWJYSElSNHFSTmx1Qmc0RUk3cU55WnhZd1J1dEw3WlI0VDlNb3oxODJSVENqdHdFSzU4X01ST25HMkhrdkdKNlNlT1ZoU2g1TEdibnMwVlJFSHB2R1RBajF2UWp3WHBzM25Qa2VBUExVYlU5WFhreDVrRnJWdmZBSkRtcDV6X0hJRE11WV9YZUI2WGdnNHRMU01DS2dQUmJ5di1nN1ctbFUxczlQdVM4T3lrODdDcjBSLWRsTWVvY0xwSmlVeC1yVkNWV0h1X0xDZWhYMDdKOVF1RXU5X2Jmdy01ODFWY2J5QXBOYVl6V3c5M0w?oc=5</t>
+  </si>
+  <si>
+    <t>['afín']</t>
+  </si>
+  <si>
+    <t>Qué ganan y qué arriesgan Sergio Fajardo y Abelardo De la Espriella al no ir a consulta en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxQazNGd1cxQzN1ekY4dW1vRE93amY1alB5WmJqbEt1NXROaDNmLTFBUjRLdjFVXzV4WnRzS0NkY0xiZVRIdnhGdW1Ja2VreVJ2QTVYeUtKYkpZVWk1dkluZHktY3BQUkp3N0FwWkVzdGdGQThtRko4bnNkRzVyWHFLRFNrRFFVeUtTU3U0NFI2MkVzdVRVbzZ1b19ZOXRPdmFLTjNvdlZMSUVpN2tJNS0xbC16d0Z2b0hBbkhtaUpxc3RwVV9nWFRTNnBocV9DemtlOHMyV3VBSdIB8gFBVV95cUxNVl9id2NScElfMEFjNHpzV0M1My1ndUZDQ0ZGaVdGQnE1TXRRa2l5ZlJHZFhyeTdpMVc4T0Fya2k4MlFpbjBHd1pnd1hNbFc5d05USGdyR0xFSmo1UkdoMmlqYWw5Vk8xQWdEZmxCa0hldzlaRmp4cDh5WFQ3YXhvaV9nczNCRXFiUy1wckNzbVkxWFNhS0xZMnk0OGRtSklXb1FnNkdZNjlCNUlXTExsZGQtXzBBTjl2S0NlbVhieXRtS0lESmJ6dmdNclkwaWlyVFJWcllzeFhjdGlEOXlVRmVRNTRqdTl6MW9IamVGRDVQQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Lo que ganan y pierden Fajardo y De la Espriella al no ir a consulta | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxORTZtRGFpN1RSWXVFSlN3MDI3bWxHWTBHbWZqekdXSUdvSDd1RzJ6WnBhYXV3cVd0UGE2T1R5dU9YWW5COENvNHJtZGVSUVpKQ2ZnWE9fX3RqMmNOYmFiVEtxNFc5MW1wUWl0bl9iZGlIWnl0Skk4Z1NIYVdycUhRZW9fVkRuWjd0U1BPZGpIWHAwZ0lyOGFMQUR2NTVFcG9PNUZxR9IBpAFBVV95cUxORTZtRGFpN1RSWXVFSlN3MDI3bWxHWTBHbWZqekdXSUdvSDd1RzJ6WnBhYXV3cVd0UGE2T1R5dU9YWW5COENvNHJtZGVSUVpKQ2ZnWE9fX3RqMmNOYmFiVEtxNFc5MW1wUWl0bl9iZGlIWnl0Skk4Z1NIYVdycUhRZW9fVkRuWjd0U1BPZGpIWHAwZ0lyOGFMQUR2NTVFcG9PNUZxRw?oc=5</t>
+  </si>
+  <si>
+    <t>pierde</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: en debate, Cabal, Valencia y Holguín aseguraron que recibirían apoyo de De la Espriella y podrían unir fuerzas con Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPVHFWeFY5YUh3UDMzanNCZEdZSHhSQ29LUm5tSGQtcnB0UGk2NmNDbHJXZkw4bXZ2Qk5YN0FEaTJnQW1CdV8xMFRoRk1kQm5BaG5VaVZhNmZxUzB6ajJpQVNvcXp2M3NqaEdWS2ZNOUFVVXVNd182MkY5b1ZtMGVkMFZyQk9qNTlEZE1jRmxra0pLSWFtU2xVYi03dXAyTDc0b29TR3k1ZkY2WGt1QzY0WVRmYWNEdldZdGfSAboBQVVfeXFMT2dGaXN3SGY2ZkRKMkJvRG9iMkZ1VW9qNG93YVhla2o4dm9oNUlOWG5xZXhFUDlKVm9vQlRjbWthMU1VMFF6cmM5bEs3MW9CYy1zcTBqTVEtakRGU2dqR0puVW9fWTN1UnVkZmpNYmVISXpYQU9pQW9LdDlidVZKbG9YZXl1dGRScVdhcXVBS1RoQ0NYY0ItVVRROFlKWDBmb1NCVUZTTk5MOUFSOG95ZnpuTm9Rb192SFhB?oc=5</t>
+  </si>
+  <si>
+    <t>Consulta de centroderecha no perdería vigencia porque De la Espriella se excluya</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOUDExS2NpZ2VlSTNNSFg3TDRXbkEwUHdUT3FUMFozeTFyUFNyY0o3dWZtZWxFNnptYnRFLUtnQ19fclltN3FvcXBWMGROcXdITk9MTzBmaFVLQVo0d2gzVENWVHA1bE9zOEM1eFM2UU5ldFh3R0dvZ1RpVlViMFlRT2ZtU3hWcDQtNVNGZ1lZN3I1RzZwYWhSdExMakxHM1NWenN0cW8tQmNzWllnQklGak5jQ1FIdXNvekdTNkV3?oc=5</t>
+  </si>
+  <si>
+    <t>perdería</t>
+  </si>
+  <si>
+    <t>SIC rechaza solicitud realizada por Sergio Fajardo. Esto pedía el precandidato presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQbTdPU0tfVVRfcFFBa19JVnpEek00aDR1cDN0M0xaWHZnNHB6MnFacHAxZExPQU44MHJsRDFYY05HZVczWGhuTDZsNjlnR2tORE9UU01wUXNSbTZ0UFEtOXgwR1hXUi1ZYWtUWFM1ZE1mYnZhUE9WMkJBQS14ZFd2bmpuZXJPU3FjN1pzb0d1Q1NScU1Jemozd0hLTkJxcmNDeFMwMkdhM2QxX255UFRBSFJJU014MGxNMEdYS1lNcEJPZktib0JvMFZ4OGpkeXZzcVZob09GQzVxM0x1U2F2OHN30gHnAUFVX3lxTE55NEppMTJJa1JPMmJ5cVAzT3JFYjJKQnp6bjVBSl9aMGxMQmpxU2tZcm5LU1g4QXlsR3o5VVFfUl85T2d5UFBpNU1HVUJiTzNFUFRPSnNsWVNwbzMwbjA0RG1tbTh0NUJjM29BNVlIOVVoNXJTMEZUd1JQSi1lYXFfaEt0WVo0b3pzbE5GOUR3dkhrc0VpdHJnX25yYmtBMUdNRVNZRDRyQnh4Y3E1WXROQ241TS1LemlfSHVzb3R0dlA0NzdCcW83X2k3aGp6cDB4QXluRmVnZVZqNnVmXzEyN0xINzZ0NA?oc=5</t>
+  </si>
+  <si>
+    <t>['realizada', 'presidencial']</t>
+  </si>
+  <si>
+    <t>David Luna le pide a Sergio Fajardo reconsiderar la decisión de no ir a una consulta interpartidista en marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxQaThfVlV3cTdMamlKeEU4YnNVYXFyckNWMS1vT29SbEpRaHZSbXNpMHJQN0EzWjlvY1RKem4tVUtmUHIwNzhJaTNpWF92enoxT3oxdnJHOEh4ajRTYUh0cl9fVV9jYk9QclhGUFJwbk40amhfV29XQWFOTXlQaHR1MWV5TFlVaEtoaU9janhsN0tVX1pqWUpHU2F4emx0YUNsTVFtZzkyWVd5dlF5cTQzam5hSXl2aHAyS2dieVhpa3RGUUJPTkZ3QnFhVjNLUG45QTRFZHhJN1lLcnpMZm9SVTd3NVgxN0E0Wnl2dnFLZ9IB9AFBVV95cUxPR2lmT2dMRTVEZTNUb2h5ak5iOW5lNVlhV3k1ZUdGaFE2WWFrOXpWNF9jZDl4bm16OEVwMHFPUTN2bTl3U3VTMDQxUlpFcVE4RFAyeUhVT1dNeXZZcWwyRjJQZ2IzLWhqbENjcWVnRExmQnV5OUZxY3g0MkxFWWxmZVZqLTU5cWVrTHI4Q0pFWS14aDF3UmJIWk9TMWVFTXRvdzNoQVlNVXY0OWxhZzZEM0d6aFh5VnJmUkFoYkRXZ1R1WkpPeFV2dVo4bjF3N3E5ZHZ0RDFVODdPU0JOaVVQZTJCb19qRGt2ZFpGZG9xQzYyNWhy?oc=5</t>
+  </si>
+  <si>
+    <t>Superintendencia de Industria y Comercio rechaza solicitud de Sergio Fajardo de bloquear video de TikTok publicado por Felipe Córdoba</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxPN2VyZi15Tmd4blJ5RkJIQVZvOEJjTGtqaGtPVEx2QzUzTjR1OE9fX1pxdmRzMlIyOFJzbW9CZHEtQnNuV1JqWHQ0V1FtVFg1UWlFbE5aNUZPNmRyS29jek1HVF8wekJoNzZybXFpYjk3em0tMG1EUERJUFFlUW8ySF9sYUxHRFo2R21QNHp5S3hvNFJ1S3NhZ3ZBZ1FQeTlWU3lOOW52WFBoMVRUU3F5TVBsUjQ0Z25LUHo5d25TSjlYblpiQkh2ak5aLTBWeTN30gHkAUFVX3lxTE1mZ0s5eUlUSjZERnkxQ2N2elZkTUFkYndiWWEteFhadmZ4V3NvaEl6cFZCQzRtWWNzcWJqakU1X0Y2X1FTaEpCRUd1dlFBOTRqVDZJS1BrS3FJVWNCbW1HMUE1WW1Eb2xGaG1uSHNHTV9aOGdXVkpvemNRYUhTaWt3c2I0cXdIQ1lObDJYVGFIbzM0Q2dCX3dpUVpYaHllQ3NTNm9qeUNZdHRxbndDcTZSMWhCQVI3MENJT01BUnByTmlDbWZVci1WUm9JaXlKYl9xdVQyMnl1WENPeGh5YnU3V2V1ZQ?oc=5</t>
+  </si>
+  <si>
+    <t>['publicado']</t>
+  </si>
+  <si>
+    <t>“Colombia está mamada de la polarización”: Sergio Fajardo reiteró que no participará en consultas ‘extremistas’</t>
+  </si>
+  <si>
+    <t>['mamada', 'extremistas', '’']</t>
+  </si>
+  <si>
+    <t>SIC niega solicitud de Sergio Fajardo para bloquear un video de Carlos Felipe Córdoba en el que habla sobre Hidroituango</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxONW9LYTVqTU5nT2taODYwN2UyZU1fX05kRVBlUlI3UXpPUEY4SDl1X3lMamxESDl6dmJCclllZlg3RFZzMDZKcmVLUllWV091OURja1RXZjZQWURWVHNJend0RWFXWkRfVGg3RnJRYXVjRHlWSnBQMm16SnJETHpYZzcwMS04RE9scV9jbzh0YlJWaDZLOUhGNGxMLU5jSHRfdWVXQXVtNG1VV05FUVdHdHVTYllGUkc4SnZFXzZzRU5udmpNaDhTbWhOTEdEZw?oc=5</t>
+  </si>
+  <si>
+    <t>['ex']</t>
+  </si>
+  <si>
+    <t>Los riesgos que asume Sergio Fajardo al no ir a una consulta: ¿Conseguirá los seis millones de votos necesarios para superar la primera vuelta?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPS3dZdWRad3pjWnpLaDh1Wk1yOXYycnhSMy04STVDemh3QXVTdVNYWEtJeUFxSnEydDBYeVJFSXFQUGRnbGFQLV9RdnhRVDNuU01zdzZMVTg3cVdLbHpKWktxOWtyWks0X1BJQnlfZmZfUVBib0FDaDlya3RaQVJmSjZDajZsc3dfX3l6OEQxR2J1OUoybXNiQXRsTmRoamR0NlBHVzhUUzB3eDhVWDNnMA?oc=5</t>
+  </si>
+  <si>
+    <t>SIC niega petición de Sergio Fajardo de eliminar un video de Tiktok de Carlos Felipe Córdoba; ¿de qué es la grabación?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxPN3ZzRVBYMzZadUtDb1kzSnBqS2o1MXpTc21DT2E4ZDlhejFfcWRZYjA5WWhNTG1wajVBMHltelJlNjJLN0NCRGk5UUNXeWJ2MmY2MVpSQ1pfTldRdEtOTTd1cjRoblA1Uk5zZGw5bng0b0lMRWxWT0hDaTE5d1FrZkNENEtrVGd2aHBoODJPSEJ5YXQwd3BSQ0hueVZyVEZMam1tLXp4Ti1Qbmpjajc0WjNfQlV2XzlVSUVGNGl1cFJ1WFU0VXF6a2NKZmlEQmpm0gHWAUFVX3lxTE9qVkxZY0FSMzJKWklQcFBXQ21FSnBNdjRfZFJrbzgta1hhcExiSG1aVlFVRThGVHQ1SkFCYXJOS0stbzRuM0VMLWY0ZmFHV05GalgxQUhMZmIxWG52a3VlT001SV9rUFlkTllJZnRjNWswVThUODRWUzZuT1huWmttMXVBNTZDTmJrX05fb05oNUMxNVVCLS1SOG9VUGo2SlpGR3kyODctMGtTSzBGWW9DQ2RTVUdzYzhDam9zTHZJODBsdVI2SE1VdGpWanAtcE5vaUlKREE?oc=5</t>
+  </si>
+  <si>
+    <t>Sobre Fajardo y las percepciones: al ir solo niega la posibilidad de maniobrar en tiempo real y poner en práctica su relato de concertación que sigue sin ser probado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxPSTktUEh6c3pOX2lmQWljVURYNHhzbDBGSUNfdlpEN3d6N1FYZmZwMk9wWF9vdzVqcmVjeG9mWTZmMi1qQXR0ZnpEN0ZaNDhiMVFsRmU1MzFVRndJMmp3Q2E3cjAtS2N3VFp2aGEzTUtNcGhtQnpMd2lwS1pfNW9DLTJibTFWNEtTUEtJSHNMZjlmYWdUVnNNdTZWRlXSAbABQVVfeXFMTmlzMk9VS3NPZXB2TzhhckE5VWxGZVpYR2ZUTmVRdU52ZUtfaV9BSGZqSUhTSTVid1pmMFk0VjhUTjFhOC01VnN4bmNWYWVFOG42WnFoYWsyTHU5cUxjc1hmVkt6dlk5VHZYVGR6YmRNaUc5WlJyTWlBT1h4Mm12NF9uU1dScFFNYmtVd3EyazVYVTljWVZvYUdCOEtLakZWQW1vUGlOX3JsS2Zfc1RlTHQ?oc=5</t>
+  </si>
+  <si>
+    <t>Mi fe en Fajardo está intacta: Él es el mejor por mucho, el único que tiene talla de estadista. Hay que salir a votar por él y llevarlo a segunda vuelta.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPUmxpZHFWSThNNjZvWjhZVENldUs1c3pfR1J6UjlYd1Q2QXRYY3VFZnpjbW90elF3amVoVGc2eFVwbl82Z0J5Z3NfMlBoTHBzUVRsUkYya1RMS3ZsTGFhU3dTcW43d2JvRElzV0U1OUJXcmQtbzZjR1dQLUZiT1BGNFl0blhocWZ1WjI4eTUySVVhaDBYZ0lYLUZlc2FfZ9IBsgFBVV95cUxPaGZSRzl6Wm5BVll4Rm5PQzdMeDZOanhEZzZ6VmhGc2tRRDJDa2trOUJvTHlwd1Nxb1NZbEY4NXRWcUhVYVRXVE9mdFhSQ2lZYXNlMUY1Nm9FUFVWV3FLaTNJYlRIRXM0UXlwbzEyTU9fMW5oOVgzbkthdGtqWE5VS2lJSTFBZG5heUlrYVVsanlnTE5VckpLWndXWFd2c1BlNjU3V25yOGU2V3oxd2FTWDlR?oc=5</t>
+  </si>
+  <si>
+    <t>['intacta']</t>
+  </si>
+  <si>
+    <t>Fajardo, Oviedo, Palacios, Peñalosa y Armitage hablan de sus propuestas para la comunidad afro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwJBVV95cUxQQV9tbnZvOVVMWVZoSVVTeDQ3NTV0Ym5tbUk3WmlkZ0FtMDhsYjNEN1dRQ1oyYTNrdUZKQlU2RXBseHN6cVhzQS1HY2dkQlNoNlFDTHFkaTYxZHcyb1AycmtzUXdlLXdlZ3gyc3dZOUUwYk1RaEVVME9HOEszNE1LZG1ocWYxc0xmOUZjNE1HWm5Ya2xuTVJfNWJIQzFJUkJKUFJkRTh6YnNHRTFXbWVJUlNaUjFzZE5IeEtFeEtMQ1l0T1J0dGNIVGRwVmtib0ZFNi1aUUVRakcwSlcyYzNSMTJiSWJpeDRGd3Z2a1BVS1FReEhNcDg5bXoyZ2NfZ1Z1TDFQZ3Q5T2dwOXhGeXpGZXMya0xXdjRfNlpMRUpReWVkWkJLdnp0NWZSeXFsU3I3dW5sRGlUbHF1aU3SAc8CQVVfeXFMUGdQbGY4andDSzZRZkJSc3pHZ1J3Um84bXQ4UnF6alRBbFVzUF90Wmkya0hZZ0pvRkhIQmJGcHlXZ2x5Y3ZkY2UyNF9lTS1TNHJhaS1DanFXdDQ1aXhNQS01ckQtNEF2SUFCcjN6cU9tc0g0R0RHNGZMZWFDd2w3cjlFcWQ3a0ZPbXgtdENpTVVCSExpMTVFcE9nemt3d0ltUWdNd3Z0SWppNE5qZTV6UHp2TXpadWVIRWxBb0x3Ry1RSEkzNWRWV09pQmE0OGMyMlVpY29aYzRxTk0yaGRLb2pmLVVtLXY2M1hjcTNiT2ZmaldaYVVJOExydTZaZXh5MWlaalExbU5qWmVBcTRjS1RMMy12ZGRXc2lwNWRITE9uTTd2SnFldk5Dd1NVaVFIRTJxLVNqSUxDdEtoOVhTTmFlbXBXMzA4QjZzRVZzR3c?oc=5</t>
+  </si>
+  <si>
+    <t>Llanero solitario: pros y contras de la estrategia de Fajardo para el 26</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQZmtnd0RUb0RXdHBtTnpIc2NsSmFXTjU0cnhXOVdVY1JYSVRSaTFKbTg2bU15dkdjUldNUTlSRElMMEs2ZGdocVZEZzY5b2VxVkdWOXZ4amVPUDlSSXpYWTlqX2k5TXdzYUlLbEFVZm5tVHJacUhlVGdiMzRGMHJublhrMC15R2NaRVN6eVRraVhYTVpEaUhpSkM5QXhJeHRNY1FtMXpaVHQya1JiZklOV2xqNVBoUEU?oc=5</t>
+  </si>
+  <si>
+    <t>['solitario']</t>
+  </si>
+  <si>
+    <t>Luna y Oviedo cuestionan a Fajardo por retirarse de la interpartidista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNa25iRjlRWU42S1IyMVdQQzZmVGFfYmVsVXNPTVpTTlBFdlFESVdzU3VWTnhDYzBPX2xzTU5GakhMR3JpQmdiWWZnYWV5bmFtVXExZ2RGU2hseEx1MTZFQmNMbk9PbzU5alYwbkt6eDF0R2s0SlJtckNra0txSmpZOV91aVhCWG9KX0duelY4Q05Lajl1QUY5TFh2a19YT1ZWcmlUNTBXRzVyTkZk?oc=5</t>
+  </si>
+  <si>
+    <t>Fajardo: Lo que tiene y lo que le falta para llegar solo al 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPRnZQMW5HSVZiRm5KZ21SVHZlR0I4TGRlRFpWQUxGVnlxVzduNHpYSFFycGZHUzMtbTRuRXhCbnJmNEZvZjlLWUFpclVJaGYzd1VNUXhwYUtfb05zOEpsc2N3LVlfRXJpa3hZVi0zdF9HVkg0b3lIcWtudWptU2RDbmMtd3IxNWhTNmpSWU0yT2twNTdjbFlIb1Nwal90UjQ5YlhsM1FkSGFIYVM2Wk12ZFFobEZKcDVSbjNwc3AtNW1MXzYwUENLZVY3dEo?oc=5</t>
+  </si>
+  <si>
+    <t>Sin Abelardo, sin Uribe L. y sin Fajardo en la consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE04dEtHQmV1M3V6UVlwRmlTejNSM0drdmpQYWVFaEM3TzBnSkluWjVHeDcwb3BQd29LSE1RYzNUT0VySlRxQ2JWaDRVMWhFTThSRVBXbmo2QjZUbVhYRklvOGU2V3FOZk52LXVxU1RZek5vdW5TOU12YmRlNTVoUdIBgwFBVV95cUxOZDg2RWNPemZHeFRSemFVQVBDS3NpT1hRU0V3LW5yeU9vbnBaMjBjdVlyN0VNNGRSaTNoSUlQRjctYnQ3eUdnSk91azBwNU1GeV9hcTl0eEhVVmhmeVFOS1hiMlNaVVdPZ3A0alFjbTR5QVVrVUVwN25hUkREcHk4bTdnMA?oc=5</t>
+  </si>
+  <si>
+    <t>‘Sin Abelardo hasta Fajardo’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxNUjByck1GY2t0YU1fREMyWDJ0d3NwRGZRMDVsZzZubWx1MHl4clVBSFFGQm9RUlZiNjFsSF80elF0ejRQUTlsdGdiNHBPWGFETldLLV9nNzZIclNiUzRvQzE0dG5FRjFFVFFOSTNmVW9mcktrZ0pKaDRjbW5DdEd2WkVR?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe y César Gaviria no lograron el objetivo de hacer una consulta que fuera “desde Abelardo hasta Fajardo”: duro revés de los expresidentes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxNMlM2QTEzNzM1bkg1UlZoVkdTT2g5NTltUUtNZzJvRWJmZ1J4eTZjbjJDMVNndnVwOXlqeEp1NUwwUmZQdkdPZkRCYmJoaWp3Ty14ZjJZbklJSGktRUlTVWFWczlPN3YwUTh6Z1dvaDN4TFNPclZxN0tTNDBPM0FOT2s4OFNRTFh2RVVTaEtpeGg5MngwZ2lCNXFmcHdXbkxrX3JuTURmMm96aVdHTmc4bjhMOVIxazZsQUVFOWxEQW9pai1aOHNLc2JQazRxbXpjVzNtaUUxTF9qWmNRb19ucy0zOTliUEVMTjNQUFE0TWhHNWUzQ29DeU5ablRDcEdRNHk2dWFLOTROLWZnOWtaZUs3MlZ0WEdSRWfSAbQCQVVfeXFMT3dtTTBqcEZhV0RJOUdZdHVtNFpLd3NhVWR0MGNtTVB5QXpjOUEzNzJ2UkFQU0VsSVVkWnprdlI5OXk5UnlkYUNEVXp4dUdCNEI0c1dQLTBPMEI5VFN4TWZUSHU1Wmg5b0M5aHU4VGRBY0NTVlFfRXdUZ3JHMFA0OW82MVU2ZW5ZWmpRYVBrUDVjVkNrdndxaXVnVVdlWXFMdXJFV0QyVmVOSXFMOVMwWjUyeFJ5VzZmeWMyVTBrMllHNWhYTXgwTW8wcmw0YWROU2xiQ19GUVNFWE4tMzNJM2FWUkt1eldudkxYMUtvUUdIQVRoN0l6ZkIwUUlJcFZOSjJVQkcyMEZkS25mbFcwUlRjZkxYOUxwNHpWcjVNTVByUkIxRm9RWm05UGVhSUdsTUpSc3g?oc=5</t>
+  </si>
+  <si>
+    <t>Claudia López no descarta una consulta interpartidista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxQU2dQcWJjWWVYVjFQWnlJTF95Xzlpa2VodmQyak1rRFpqM0xfdlB5NXpkUjcxVTI1WTJkSkhZN1JlVnR4VXEwZElQUzcwWlhUcHhqNUloU0t0T25vdlhhZnRNQUQ4MFJNX0ZLeE5saWJ2VjlabDkwdkN5aUxMdmttNGRfUVFLTWRQR1NoMENXdmltWnJIRXFB?oc=5</t>
+  </si>
+  <si>
+    <t>Claudia López rechazó exclusión de Alejandro Gaviria como cabeza de lista al Senado: “Lo ilusionaron, luego lo vetaron”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQTmpwa0o0aFdQY2taQ1BxRkNVY0x4Q01YWTR1ODdiX2ZGdHMxYnByRTkxRVBlOE9HUzJEem5jS0JITXJuRU4yTUVvRUoyWENBYm14SGJxTTlMakU4NDNvT3lhUTRrWS15TUE2eC0xam5KMmM1SWstZFdoUkx6ZnFIaE85MXJFOUkwV2xtekpjU2hVbUpqck1fbEtzdndPcGxBWEdOX1RPa0hSbzhfekVRWUhXZDZiVFBwekZTQnRfZUc1YTZic1hqUmYtM29hNDV5alFFX3EwbjlMSjd5aDIwYlZ4OFpVb2RJbFNsYnJhNlF0d9IBjAJBVV95cUxNTm41Q1lTN0YwdHF3ZWFlakprd3FqN29OeWJ5ejFvMWJuSFZKdVhUbzNDM1BqYjVzZjBLZTZGQWkyUWhjd3lXQzFZUjVhczd1b2Roc3pYUFRkNGtuS2hxQm8zdnJZZjVhZ3l1SFNEYTQ4RHd0QWozZ3pzOElERGZYZ1dwNzNSTGlxSW5ha0dRR3JCLXhUVEllX3NYb2FwemlZTEVfQks1OVRDM2RmYmJUaVZCS1Rsdi1GRl8yS01pZnpWQTZxMHBXdHVLME9RVUJqSUNRcEMxRU9NOFpZZEtuOUp6MmVvRnA0YXVqdGIyQk81VGd1TzYzV0JWMHE1VWI4dDhSRExqcUp4RURO?oc=5</t>
+  </si>
+  <si>
+    <t>Cambio Radical confirma inscripción a consulta interpartidista: “Siguiendo el llamado de Germán Vargas Lleras”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxNemxxZktOYXdra0h2OGxULWg4bkI1bUF4ckNJMXRnU1FFSWt0WUZpT2FxcWNfS2hMQU56OGZkQUJDM0RQX1RhZGtxWklZSDE5dDFocWp5Y1BMN0FHbzZwWElJdTJSRU5XTDFfSUU3ckZYVXcxeGRiTldjdGpIWmpJWXgwQmE5U0hFY2FYWFNDWGtjREFqMDc4b09Bc0tXMkkwVDJvam1ZRk95aEpxQzEzVlVJQTVOLWNyb2FjZ2JkakxnZGdJM24zWmVvZTBScUtPbnZBRVAxcUxja3VfOG01SDVmRGRMSVozSlBHUNIB8gFBVV95cUxPSlBNSC05ZGpRcTR0RWxrSjlhXzVRS1ZIZnZONFgySUlTYWpldnJoMU1nM3Q5bXUycFdXdzhqcS1GVkgxMkV1YWhxOVVSR1R3alRVYWw5SHUzU3FELXNVQWp2Y0lqcUpyMy1VNmhwSXFmUzVFbkhfdHhEajctZmdHRkFiNTVXSXV4RXgyVUttYVpGZ2NNLWRaUTc4d2tWS3lCMmdFdGNJWnlzbHBKdC1Ud2tfejg0S1FuQ2tLX25HaU13SzlFWVVmelE5ajdBSGhqVXAtblJvZTJMNTFwOVgzQUhGUjhDa1pPcGhVaFpBYnphdw?oc=5</t>
+  </si>
+  <si>
+    <t>Paloma Valencia, María Fernanda Cabal y Paola Holguín lanzaron sus propuestas y revelaron posibles alianzas: “Seguridad y justicia”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxNV3JmZlhhRUVWM2gwX0o3aU9lbmU4THV6c0lGTUFHTU1zUUNTNVJpZ0ltd0tuOFdqQ2Etc1BFLUI2eExrd3dfaExETWV0THFuaTc1cmxTc3paUjcxdEtvYWlYMlhpLTdXOUZUV2hQMDl0R3VPYnlTb0FIb2JGOUptMnhxbGNTT0hEREdXLU5iTTJkSkhMYVE5Um00WlE5bTRjaW1BaDgzU2hYY21pVTh4cUpYNkFsU0NSYjJ2M2VETkNqZk5WUUdVSHIwclQ3bmdIcDJFRTFaWUl4ejBGM0ZLeDhoMTZ4dVZuX0g4Z1JZcW9PTVhPaGNOb3cycE9zUk1oV0HSAZwCQVVfeXFMTkdCMlNwSC1CV1ZRNGh4SUhPZ1ZUblBmc3F6WkM1Zl83SzI4RFpNMzU1aEttWlNXamtHZDNDS0tSNWJkdGVRd1VEazhEQ1BDYzg4MmRiYTVDcFhWN21rb1BhTzNYM2lWQ1VkMkJmY0FlWWFqUVI3TmFybGh0R28tNmRuTmdTdGtsOE1LYU5DMXMtRTJTY3NIVEM0aFR4bTBlWU4xb3hraVJsdWdJaWNXZnV4bXNYLTM5QVBLZGVYRzBLMXdjci1CY3VpTjd5enBBYjJHT2o2a0NoTDV3RmJYVlNxM3AwbThTUEpfRTJXd2xlbERobjBiRExsM1JfTlNiS3pzandBSHFLdURvVXNLNUZaUldNaU12NGVtQlk?oc=5</t>
+  </si>
+  <si>
+    <t>['posibles']</t>
+  </si>
+  <si>
+    <t>María Fernanda Cabal denunció con cifras despilfarro multimillonario en el Ministerio de la Igualdad que impulsa Petro: “Para pagar favores políticos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAJBVV95cUxOOHlSaHFCdEVqQTBEVENIMXBJN1dzX29PZVpYZ05kbDJwMjNNd1NqOTNyWmxMTmp4WU9jQmxzWHB4bFoyYmpCZlVWRXFJY21VMjhMMWszZENkdTlmbHRmcEF2amFIWVZBX05DR2FNaEFXd1VnemRFX3JZam56UEZubXJyaldCN045ZGI3Mk1zeTJLZmpVREtNY2puUV9mcU53V1FRX2hZalYzNkx4Y1djS0ZudGNXOVlfSXNkXzlmXzU5a0pmRWp0LU92eDNkSFpIZGEyRGIxb0xZOWFjUDhodDFoVEdXb2xaWXVuMlhNaHVzcVFYbm9rNF9FdnY3dTBUazdPc0lFaEhwZVdJV1lpeWtfMVFjdjdTN3RXVdIBtwJBVV95cUxOUWhFTmVIeTRONGdLYjlQd0kzRzNGSTBIbEpPbkhIT2lpMkVrMXRMRFdVWnVZZEFMWWpfRXVkRjFMTnlOaTJ5ejhkZEpnc1IxcDN5YW1wdFVSUncyWUNINWdNaF9udGFfa2U4bXhvNHNqUE1jNnVacHFDUVJadXBqaEZ3MWN3VGNqbnlVOFNYbmhTd0FSQXBtNnkzeWhCcUJIRVAwdktXN3ZNdjZZcFF0YVRRWnRjTVZmdEtDbFFJNlUwRmRVUXdYeFpqQjgtREVHdFRNcFkzV1pDOVYwalZYdmJoaU85Rk12eUlkUmpDbldrTzVjbkVHS0JwQ19oeGVRN21RcUctZGliSk9RSXFVelFrNjBEM0J3WTltd0hWWjFQYjFVeHBUajlEcjdGMjlJNHVRUTVjWQ?oc=5</t>
+  </si>
+  <si>
+    <t>['despilfarro', 'multimillonario', 'políticos']</t>
+  </si>
+  <si>
+    <t>impulsa</t>
+  </si>
+  <si>
+    <t>“Lo que sobran son ladrones”: María Fernanda Cabal lanzó pulla al Gobierno Petro tras hundimiento de la reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxOaHo5YUJOYUkwMlRwZ0lULVpoQU55RGVXc1dvaV82WVZfOUhHc1lQYTc1MEozV1FMMHowRzRYU2ptSkxOVHVsLUx1TmRveDlvLVU2SElLYlNFTmVLZVlWdklxRDEyeDlUMzZmVWt4RGFfMTlsZFZxdi1JX3BoN29tMl9rMGkyTU9oaEhuei1xa0pnX0JaODlfX1c4VEFuODFocWRtY0FlY2NGRnpnTEM4UFdYV0prLUV4dW0yVEdxOTdzVXJXVGdvTktKTWhEcU5JY0hhOTFRZE1ZdE9lSng1NFpWdWZFUF9PZzJ2dDFQeWp6WFhZTHJj0gGSAkFVX3lxTE83UjFhSkRfbGl6Y1A3YnFDMzNWQWNwSDNtVkxxLURXRkpwRG9VNHdBTzdpQVU1cnFwUXhDc0JxZ0tOYXJiQ01CVC14bEt2aUdzdy1fMlRFckFGRV9mclVfUU81ZTJVNkQ4SEZ0eFpaWEtWbTJuQk9YOFlma1ZmZ2oyNEowZFFDcmVzSHc3eXVCZFgtMDJVUHlpd0dia0xDUHNYR0UtdWlXWDhBdS1xR0x4OVNJU1Q5Y3VYajU2dmw2LUhjTzU1cEljbHlRcDlyU0FXN2VSc3FBOUg5NEtxcEcwbXp1VGVCLVM1d0YzOXVpWnJZUHAtdTBKWkFjNHNHU3F4ZEtZTTB2RXBrVE5xeWZYN1E?oc=5</t>
+  </si>
+  <si>
+    <t>Corte Suprema niega recusación del exgobernador Camilo Romero contra el magistrado Ariel Torres en caso por la licorera de Nariño</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxPbjlFeXAycEFxM3p2VlFZS0l6TWxzN083Q2NfLS13RUozLXJsbmhOMGdPNTZBemdHSkNqQmw1YXhHZUFyYU82MC11MF9OVURZQUVHOFg3VkZQQWlnMEkwM2gzRFA0M21LRHJ4SVprbm5fckZHOHlVZmJPcGszS2hnYlEzLXc4STJUZzRjQ1I1aUE5MndqZEhkNld4T3hzWHVibm55akhmYlJHTVlobzVfNTNUYndwVU5qTEFtX3BPYVUyMVltVXZkTGRqcTZOaXlvT1UzZzFfQzBfeS03VWVQRDBhbHNtcU5nazNFeHk0a2JUTWVhaEN5QVl4N3lIYjAxVVZkck5kWlBhd9IBjwJBVV95cUxNUDJGNkNqb1licE5NTVNyaHU1OG0zcW5XYkJQMzFfWkNJOVEyVXd3OFhjdWhUdlduTWY2b0dzLUc2cFVkSVYzUThFRjhBdWdNMEs4cHI1X2NROG1qLTBCdU93SFdjcE1wczdkRlpOUnJaMEp6Vk9OWHI1YVZQZmVUTXZiaS1EMHYtWjdITGMzVVJjNzhjUzM4Y3NpNEQ2ckJGSHZfQnZRQVJtSTdNZUtkTnhNQk1UTEo0Q0VYNnlac3RqWVptdTRpbTZrd1VtcUZuc3p1WFppeXJtbzItaTVtelNENHE0Z0xTLXFmLUlYaXpHOHVxeDdXM0FEWHlDTWxlTmh1Q2VWNGsyamp6aWRJ?oc=5</t>
+  </si>
+  <si>
+    <t>Camilo Romero</t>
+  </si>
+  <si>
+    <t>Corte declaró infundada recusación de Camilo Romero contra magistrado Ariel Torres</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNVm9fWkFMc0lMRDhpbm1CYlNYdlROVUloYmlSSUt2Znh1S0VfdXJfdGxfWEFmQnlJVHZ3NndvRTJuek1yQ0p2Wk5vOS1RMEF2MFFHWkVqRnd6U21JWGg5MVRMMFlxdmIzTzBmYUs3ei1lQ0dBaTZUaG5lTjFZS1p2N2NBTnkyMVQ5ZlFRZ00xVGh4cDgtZnhQQ1E1d0s1ZlhaYWJWaVd4SEdpUi14N3F2Q2JWRDJ5YjgyUHA0bkJqYzBPQklqbzZRZTNyTGVVRlZT0gHQAUFVX3lxTE1Wb19aQUxzSUxEOGlubUJiU1h2VE5VSWhiaVJJS3ZmeHVLRV91cl90bF9YQWZCeUlUdnc2d29FMm56TXJDSnZaTm85LVEwQXYwUUdaRWpGd3pTbUlYaDkxVEwwWXF2YjNPMGZhSzd6LWVDR0FpNlRobmVOMVlLWnY3Y0FOeTIxVDlmUVFnTTFUaHhwOC1meFBDUTV3SzVmWFphYlZpV3hIR2lSLXg3cXZDYlZEMnliODJQcDRuQmpjME9CSWpvNlFlM3JMZVVGVlM?oc=5</t>
+  </si>
+  <si>
+    <t>['infundada']</t>
+  </si>
+  <si>
+    <t>Corte Suprema rechazó recusación del exgobernador Camilo Romero contra magistrado clave en juicio por contrato de licores en Nariño</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxQS0RyTXVxZjgwR3g4N1BoMGljTEFFN3E2Ml9zeGprN0R5ZFpSd3J5VGwzRzVJTmRjWHN6aEVySFRROTNfZ3NBVXN0T0tKak1UUUJnem5LR09mMk5CZGtLWXdDem1QcEYyd211Rml0b250Y1puU0hJdmlld185YW1wVEpFNzhtRHI5bkZFWmNYbDY2eW9qSHFQYXVwZ2xJUjB4TU9FZHVZX1d3OTNDam1sb0pJUl9aRDZSM085MGYzVmtMbjZOcUdrNGo0cXBnbGthUjZ5TWxJOGdwQjlTbW5VSEVGb21haEhrdlIxQXlaZGI5aTlCV0ZBY1ZidGx1VTNTMmZXeG1wQdIBogJBVV95cUxPNTAyaU1YNGw4b1hCaGMzRmhrR0hlZldPRlJCT3ZYNXlMYWlzX0xkYWpDUVhDeU4wMXdnYmNUbnp4VXhxczNGMEdMSXJBcndZU2VkWkE3ZDVtZnFWVHg5U0VzNHluTE8yWW5zNE1FSzNTd1E2Nm91VllGVHA0TElhQUdwYWFxVFdacTBybnNNS0dJS3FkUXpXZTIyN3FZRkpKbW8taU1tNC0zUEV6U3hJM2o2cHk3N0xXSGRoUkptS0ZrR19SNjR2LUxGMnZpa0dpLVNzWlphS0FDblJJM2xCcV9oV0FhWXBPY1pXQUZMNEdCM0xudFoxOEhzU3BCN0dNUFp4MUN6UVR4UkZwLXVMdHFCd0xRRlMwRm5mRnhOajRJdw?oc=5</t>
+  </si>
+  <si>
+    <t>“La política de paz total realmente fracasó”: Luis Gilberto Murillo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogJBVV95cUxPc2RjU3l0N2RvV28xdHdYajk2TERHR2lya2I0eHU4VGgya21lRk5JYm84ZUZqUE5Xd2lZRnZvYkYwWmp6cVo2Q0JJajI2REt6QV9DR3A2OTh1b1p1VnBkU3dFQ1pFalZHY0lobEowempPbEZER2lCOEw0aFdtVWY4NWNuQVFRNlIyU2ZxVGNqV2lSUTdBMFdVcHZEY1YxWWh6SW1vRHVadlgzQTJORmV0d05tVGVScldlRzNtLVRlQnBEMk1zeVFvRWx3dmdBaVh3QUhzMm9zdmx6REtoUGxQV19rdU94YmlTRjZ4emkzUWxBcFIwLW05MlJudjFhWGtJRzlaQW5pT1pmcXgzXzZfWW9QdWJzX195WVdua3ViYlFTQdIBtgJBVV95cUxNdXZmMU9mb1RKbmFlUU9uZVhzMVpXT3lzRmdxMGJjYllzTjUzZ2ozRVlPNjB0SzZXOU5sZF82R3p0aS1wUHQwMjNYSWlnRWYxVUM5d2p4aFZGeGN3SU42ckxDNVd5cnkzbVZnV0Q1b0ViQ3ZvX2dWRmVUcGxVWWxYTF9oWVhDSXE1NjRwWjhoT05zQlR6Rm5EWW5ST1B2UWJJY0h2VERPRXRHV0FvQ0VrcjZlT3ZTR0xTUmpLUFpnWExLa3FCemoyLXhtQ2FSQWY1NE1MYUtsMTZzT2MxQm9YQlFLNW1qY2lKR1FRNFlETkxaOVJURVRIUkhBcy1EbkVYaGtTQ3d5X09wX1FXSjA4RGpodTFWS1JKZDNTb18wVGlTaVR5YUN1YWhqX1lBN2kzVGdvSGpR?oc=5</t>
+  </si>
+  <si>
+    <t>['total']</t>
+  </si>
+  <si>
+    <t>Excanciller Luis Gilberto Murillo inscribió su candidatura por firmas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPYXA0dHBpTnR5a1JuLVpsUWJPSHRhWW5vd0g1NXRxT1g3a2owbXhkaW1XY0lVd3pVME5USE1GbWNPMHhmbWFDMlNIUmtnaHk0V3gwNEw4UlMtWGt4cm42T0x3SFpfcHRYcnU2R0c3eUpXOWNhZVZ1U0NBTTVSb0o5ZU91UzJRRUZoMTBhcWlJdzJrVWVBRTd6X0NmRWFuZkZ1TUE1X0U4enVFSE0?oc=5</t>
+  </si>
+  <si>
+    <t>Luis Gilberto Murillo oficializó su aspiración a la Presidencia de Colombia con 1,2 millones de firmas: “Exigencia de soluciones”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxQX2thRk84aFZHYjF3Tk1Yd3hSVVJQMFoycDlaakZRU053blVlSWg4TWZxa05CVjRPakpxX0ZHV3ZBNW11bDRFa3otTlU4eGtVT1YyR2N4a3cyNmdIY2xVQTFPYS1WZVVoTkFNbnJxNTFDWHRuUEtROGE5RGduWi1TTjNvVWo5UXpCNGVORHczZjVZaGtfWDNFblhhTGZLdEVkZWhOQ2N3Uld3RnRRSTZEZnA0LVM1M2I0cWtEVXVDalNDdl84MC0xczdzenJHMWltOXN4Rk5pS1E2Nk5aR2tNd0tfUmZlMUtYRWNGdjVKcVNsbjVqcThKSkdvb2o1RGPSAZoCQVVfeXFMTlhfMEpoQXk2dnpXR2RxT20yWmtiRzB4dndJRS04UzQwcnc5NjNMajBNTXJYX0RKMm9URUROcFRHWjZ3WUxGVWM4ZVdUdnREcC1fTGxjdEpTbE9XLV9xUlNYajlpY19JSFY2b3J1NVBrRHNXeWFLTGRMa0N3NHh5QlpFNlFURnVjMGNnVkFwYXB5Zi1CT2pPWnV0bW03WFlRTEEwMHZJbmV1QWdmb1dlNGxaOUdXa3VwMTB0NDR0OHFzOVltSmFQb25ZZDdHNmplZUFLZm9Zck9vRnluYmM2dzVUaFRlZkEtQmc2dDBGV2Mwc2l2WG41OGdPX2FEWWFZNGc0VHRaRVJUaTgyR3cxblQyTXNQX3J6Z2pn?oc=5</t>
+  </si>
+  <si>
+    <t>Mauricio Cárdenas se desmarca de Juan Manuel Santos y dice que no tiene jefes políticos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxPRXhRNTRJWW5qR015ZFdTWmItWUxydWRKanlKY3ZSUDFHWkhSc1ZlclNxVXA1NkJ1aVNRQmVlcXRQOGtXWmdjRU0taWFaMENoZWZjSHpJX1U5MDBlanE0S21uVVM4VWlFbDRySlQzZHdpd0RPakNlQ0V2S2wxR19rSHRWcGZUVFlWTzNuSHF0V3dldUgwTV9DS1UweWpYWEEwcjE1NEVtZElrMXJoODRUaFY4ZEp4N0F2OEY0eFJTNFJCajNia0E5ek1FMUZOdUV3UEHSAdcBQVVfeXFMTUUtVWs0WTVKZHRSVXJpU09aRE51UEZLVDBUY1RFVjBBbGJHVWVWSmt0SmN6VnZwVEdwQ3IwbE5zR245V2FlelVIWEpnUlp3YjBYWkw1d015NFBXeE1ZdVFLQjhmVngyT3FyTWdOaEQ0amMxc24tWHlGWEJrekZzcHA0WFhDdXNCNG94QlEzYmFVdnNDU2J5XzJ0VE9YeFE4dGxlWTBtR2VGenNlWmd4X2l0anVIMmlEQ1d5Y3IyY0RSNHZacXJ0TnRjMVhUQXotanVYeEdxbDg?oc=5</t>
+  </si>
+  <si>
+    <t>Mauricio Cárdenas se inscribió como candidato presidencial y hace llamado a la unidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNbzBseVg1dGtkcUZYMkpXUWJocmxNMXF0dFFCLXBEV1BSN3hsTERTeUViYUN3NXhlM1BmZjhMd2VkZ2dFMXViNEFuZHF6b241aERGZ2hlS2hsTmRZMkVGV25NZEk5bS1rMzZHWmVOTnMtVjVSMGhuTFdONmFEWWlFRmlxVmZxS0tVVW9pLXdCNklBVmtUNVBsUG9xY0ZlaEJZSDlmdGFWYnFnSExvTWtvSzBfVGdwWkE2UFB6dU1VYmpTZXB4VzA2VVdDZTBmaFNqUjNPLTBJMHRtdWNRMDhKelJCNVVSZ9IB6wFBVV95cUxPbHFld2JwbTJzdXpsbEpUckRfbE1MaHNHZWpPVnJNakJ6T2xMeGlEWWxfNFFOdW1tRHpxYVZzS3hpMmlHSzJDWk9WazhyTEl3dm9pOGtERHZiZHlOZzM0SFJodFBac2ZIb3I4enNzbVZ0aUhzbGRXNzFLTmNWNjRhUzUxUUdVUEZaUWRMRWJnVFRUcWNyUDF0RUJUeDQzQU5zZ2VFRUhic2NZcGZLUTVoX1ZPQl9QWFhoaGJXMjZHRUU3b1Z2S0RSTGpiYk4tRXFlSTQtSGN0OVZNMWRJZEtOWDVrbV9IX3JBdlJN?oc=5</t>
+  </si>
+  <si>
+    <t>['presidencial', 'llamado']</t>
+  </si>
+  <si>
+    <t>Mauricio Cárdenas inscribió su candidatura por firmas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxQSUdyczVoLThUTDZWeExnbTM3U0lYdnRrWWpwNXVyeVMtOUl6R2V2ZTRmVXlMajhybFU0SnJzOXNPWFdIWlhpWTNBOFo4UGU5Rk4zZEhzMlFUYXl0dDJpSzFIM3lsTzB1NlgzemtCbDFvbkdZb3A3Rm15RGlNQk5QLUJIbERaX25FenZIY1VlaU9DNl9oa2c?oc=5</t>
+  </si>
+  <si>
+    <t>Mauricio Gómez Amín advirtió que el Gobierno "tiene listo el decreto de emergencia económica”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNT2c1dlFRX1FQR2phcGpfOHJlQWEzMWVBenlhSmw4eUtONUZWTHBEZjc3U29UMmZmZS1OWkoxV1hTRmdqaVdld2V0Q1ZXUTNLYW5CanF1NFRsTWk0Z0hQLWxvM0FXTW8zTzRtS29wOGpDa3dzV0dFU1JjdHd4dWNzaGpPV3I5ZW9udjVfbTNTc1cyNHhZa1BRVG5UWk5UalFORGVJTGh3WjNaS0lLeS1iZUFxTmhQb2x0V2FsT24tcjlNR3Vhd1pteGl30gHXAUFVX3lxTE5UeTRhOXBLa3h3SURDQllfamlMUnlUdzBVSVpJU1pKSmdFVENrZVo5SkZEUDIwNTdNNWIzMTBBWEZ5TTA3THNaRk9SQ1prbF92MmRhOUVWYlEzSklqRGxmb2gyOEpoZkdmV1c3MlVhMXpoLU4xeVY1RFY4a1R6SjRneTgteWV5QXctOG9pd19FcTlDUUt2b0hRbzB4Nkxaa2huTzZhTHA1ZWJuRVlnR1hGTGZKMndhV3lITW9RRnhBQWdQdkNmZVRlNlRjWU5MU0U3cFVxY25R?oc=5</t>
+  </si>
+  <si>
+    <t>Mauricio Gómez Amín</t>
+  </si>
+  <si>
+    <t>['listo', 'económica']</t>
+  </si>
+  <si>
+    <t>Las cinco con los pre: Mauricio Lizcano recomienda un municipio de Caldas y habla de su equipo favorito</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPcjgwelc1eWF4YjZxa2VWcGxvbXRFNEtrUHJtejlPXzhDTFl2X1BCYWQwNzZUaDhPVXdITnoxTFlTRURDajE0d196LVI5YlhTSUFsRHI3dFM3XzRXYk5DN0ctdW04NTZMaG9wT2hHaThTSUU3dklYUk54NE9ndmcyZUVCTE9LZlhwWE13Z0ltT2F1VU50elBzU0RvRlNZZGZZNEVHLUU3dm5xUUstTGpRcEFrNGFXNmJuN011Rw?oc=5</t>
+  </si>
+  <si>
+    <t>Mauricio Lizcano</t>
+  </si>
+  <si>
+    <t>['favorito']</t>
+  </si>
+  <si>
+    <t>Juan Fernando Cristo propone crear policías locales para enfrentar los problemas de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQeFZpb0lMTDYxaHJwbEJ6N3VlaDJ1UGpPZ09pS1ZaNEVZcmNVSHZ5TmJTUDFoa2VaRlhXS3hNb0U0OHh4VHNCWVltUTdGTFNiZVVZay1XMnpnWFNaOThEVklFeXl4cGJXY1ZoSW1vMGVYOHIwREVKT1FWUE1ld1JxcEtiejN2ZXc4NHNSS1BIV2trWkZLbE96OWpjZHIzZHlOUzVaQ0RNTnA3Y1ZUcnphVGhkWmUxOWdneTg1cTAtRDljOWxjZVNGWkJKbEJDVWl0a0ZkVFdwZEZaQdIB3wFBVV95cUxPZnhoRFdXbkdGZWYyQWpBSXNKZlZMQmR4c3k2UmxXaWNiejlIWDZwOE9IanJhRVBSVzhtNGF2djQ3WXFMSFJhMms3dHNBQWdVTkYzaFRKSGxwTzNxM09OYWstQnBaSjMyVGpqZ2Z0dTVISVR0SmwyN0ZXbDg0ZDlCdlZnRWlkT3dWVkthalpfSjhKWEtOendJUFBUMElvYm1oTDdlZVVqdDlMU2V1VVJNYnBNaG82Nm80TlRwRHhjY2wzYzNnRzh2TlE3QVNPb1IxSjM2amdWWDY0NjJFRG0w?oc=5</t>
+  </si>
+  <si>
+    <t>['locales']</t>
+  </si>
+  <si>
+    <t>“Hoy no hay Frente Amplio”: Juan Fernando Cristo sobre la consulta interpartidista de la izquierda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxOc0RRTlNsUGk2eV9ycGVlUzMtRHA3dldJcnJVaHlLUWY5VnJIaEJndkNidGpVNnNrZ1pIUUpuLWJlZi1MLWZ6d3NEb1diMFNMRHhHNmkyZFVOZHd4TXZFM3RHY3daNThqNm51UG1MM2Vqb2RRYzhlcDhhNkxWNHVyckdWOXpIakFXWHdTb3pDNUtFN3MzZHlqWndnaG84OGlFa1BXUWQ3cFV6aXNFZkFJSHhPTEVKZXVkb0NZbElJOFJmRFhWZDdQb0tLY1JuSlJTdXc?oc=5</t>
+  </si>
+  <si>
+    <t>El peso de Juan Fernando Cristo para que Lucho Garzón les ganara la cabeza de lista a Angélica Lozano y JP Hernández</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNYUduTzBkN3B2dG01dVNCZXIxTXJWQW1YYnBmVUFtVmMxV1U4UlhCZm1pQkhjWVZpMW9ZaHYzVnJ0SzFSaTRYVG5TYWhnaktmM3Bkcm16N3dwLXlSRl9nUExnZEtpN1MxdWVCUndrY2RjRE1DZnl6ZHFyZ095OGRyRGpVS3hJMjBVdm95akFCZnRRdTJCbEpjbk44aTRLcVRENXBmTjFYSmpDLTVWTnVILXhmT3FkOFhkdzZsZEV2UWZkMDg3aVJuS2E4RXBxMDh5azVwSVNCRlp2SEZE?oc=5</t>
+  </si>
+  <si>
+    <t>Juan Fernando Cristo advierte: “No podemos enfrentar este fenómeno con un modelo policial insuficiente”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxOd2t0MVN2N2E3UnV1WHBvUVhlcGNTQWhEeEUzUzdSQ2I5RkRhOWdmSDVybmVjWVRYamRWb0NhSm9tMllIYUo1RUdoM3JsX0J6MDRTOUdSbkhjYS1BVEtsNzZMellFT1puci1NRjJ1X084cUFNeHFaMGsteWE4MWhGb2toMXVSeWFxQU9ZTzJmWHJuU0x2ZVI1dzI4ZkhaUlRXdVRhWDhkTVR3Rnd4eV9KQ0h4NU8tdC04Qmk0TEFNZFhZeW10NW5BS0FBZDVicFgzR0lSb1lTSndsdUZWaHc?oc=5</t>
+  </si>
+  <si>
+    <t>['policial', 'insuficiente']</t>
+  </si>
+  <si>
+    <t>Gobierno defiende viaje de Francia Márquez a África; es la cuarta visita de la vicepresidenta al continente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNc04yRnVQTGp5VWJTeE4yYWVEWHAtSTJZZXFBQmpNRVIwbExfY2VqUWp6S1BrZThFRkVVNWVZcnExT0lidDJHM2l4R211NmpmeTNJNW9OZVphODVDbkZfbEFrU1dpejYzR1ZFZkxUWDRNQU1yRGxfYndEd0pTSXNCZlJfbl9TNDd2MVVxNEctY2pnOHFZTm1wWmVua1NsZlNSbWN4bjNRR21EMDlLYmdUNEdHSm1JZTdwaEEwVlV5M19LYzNlNjJPRTdMcHFxZzdNWXZGZVpYQzZXSW91WVdrSG5TNjJ5d9IB6wFBVV95cUxNS1RBUHRDMmZHcVNFZmVpMlNOQ1lQM2dsSGROcy1namoxZ3E1WmFfWkZCYzNCc0lqcGNlX3JOcE4wQ043Mkx0Um5Dd3JaeU1iazVBdk80SlpxMThkLWdlSUhEWjlmMDBCRVczZ0ZISnZRR0ZTaFp2SGdwbEpXdjZyRGxaRmZFZmlYdllrcjJQWkRVUnMtaHM4b2NIWE44S3hheXRUVnVxeXoxQlZXNjctUERUT2hNMjhsV2x5TS1iek40dUFUZzRSMkpOR0FZaE5WQTgwQVVqZEZPUEEyd2xjUDhUVkdQY0o2bTlF?oc=5</t>
+  </si>
+  <si>
+    <t>CNE</t>
+  </si>
+  <si>
+    <t>['cuarta']</t>
+  </si>
+  <si>
+    <t>Más de 30 partidos quieren participar en consultas interpartidistas para las elecciones presidenciales de 2026, confirmó el CNE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAJBVV95cUxQU2p2VnE0M1psQkN5SkdSZWQ2Y21Xa2lKbDItUDlXUngzLXJaUE42bXRRd0s5V2VsVVFoRVlZNWxvOFUzNnNKanZTY2hFd19GcGNUb2NjSHJrOGhYVjNsZHBacFYwYjhETDVSaW54WlpJM3VkbFNMc3lNWE1iNWdvUkZQWGhqUXVibTJPUWdORWFFNkNPbHVaOS1reXNPOTdQTFBRbE1GWjEwbUxiSVVmWEEyYlkyeVRVdUJYYkt5dGNiRGFkRU1mWHpBR3UzNzhqaTQyVWYxUWQxdjBDWENkVk5UQ0dYMzA5Vjk0amZhSXp3YVZZNGtSa1Fsb29HWFhN0gGbAkFVX3lxTE1jZDRpTTNMWGFzSnAtSmc1MldHeFFNNUo5LTNPUVk2ZEZhb0c3UUFUai1qbzRnd0w2MXg0ckJBVjdyTWJsN2EzZmkxN2N3dk03QUt4c25tYUtxOXlvbzYwNERNVjZ4WUFENjFIQ0p3bkZmb0xwTU1NcVNuODBrUWg0M2FIVkZCdW5yLXM4LTkwQzRfeVNvRFE5RUFoNmRxbzJ4TGlXWHF6SWdhWDRQZDFYRnA4TW1DZGNPaDlLWkx6aXVrZmZWRHp4UEtLeHRCaTM4WGpSMDducXYzNzFIN3B5enZYVGJoLWJ1VF83WklfNXJsVEZNX1ZKaXpQSi1BOTNfV0w2aVVjQ0M4cTV6WG12czk2ZmduT1B5SHM?oc=5</t>
+  </si>
+  <si>
+    <t>['interpartidistas', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>Registraduría reporta aumento de candidatos al Congreso respecto al 2022 y se prepara para recibir firmas de 10 presidenciables esta semana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwJBVV95cUxOM0t0NHBoVFAzd19QdDN3RzFKYWJZdWRVckJyTml6NXBNbnZuYWFKdlZxekhpLTdkcjhKMTliY3p1TXhoUFV4d1JpVEV4b0JzRzEydEhsQWFEaWtSUjZnRDhTSVQ5TUYwdXdJcm1OVEQ3THBOSk40S2lHQmhMa1doUGxVeUNpdTlVQmRLQlh0SU0yMXRkQm4xR3BnaUNYTkZaVW03MUxOUFh2M3U0dFMtTlQ2LUE0a1N0MldpTTFpc3pfSzZ3REY0d3VicG1EcW81dFMyTWxRNjNYTkg0NXh4M3JFRkxEV0x6T1dkYTFBNEZaZkp6dkhUUFpiNVZra2VxSFB2QXhJQThVUElYMVRsalp0VzNNR3FUMUZn0gGgAkFVX3lxTFAtYmtHSmhISzRMWEdwZmRCYlhHQUt1cDVvblVXRHVoS0RSVWFIOVBZVXYxVmhyekd2YktNS250eV9NYTNleWhPUHFGVFdFME1iajZxbzdsOWRqN09tTlRMYndPeDhYSWh6Qkk3cVBMNWo4c3hucmdqaFJOLUNfSUtjOGtnUjhWTGRxZGdRdm5ubllRNTFTS0lKWUZTR0RCNmZWVVFPRHUwY0p0ZUZrOGJmam1kWjYtcVlIMUxaMEhnbTU3UTI1LW00RjRXNWJpU0JPSHVUX3B5bVFqS2tPRF9ldmRoRjNyLVVpeVpjUlpjV2p3eTZMTW5OV1RqMDdCOEQxYnhyVFRDLTg2TmRVNVdOR1I3eWJYNXRPR3gwN1loZw?oc=5</t>
+  </si>
+  <si>
+    <t>Se inscribieron más de 500 listas para las elecciones legislativas del 2026 en Colombia, según la Registraduría</t>
+  </si>
+  <si>
+    <t>‘Hemos perdido apoyo de la fiscal general, preocupada por su inclusión en la lista Clinton’: presidente Gustavo Petro en defensa a la ‘paz total’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxQZUpHUlNweWpoZGdCWW1hUUMtdVUweXNMajNDMEJ2Wi1KZXVTUHJOM2Y4ampzU2FWZU1JX1NudjFWYzRkaktLR3FkWXRGSFp3NjRMbFhoWFltZHVrcWZ2NFpxQ3RHSFRKbGdqRXZGcmFuS1lVZG5McXRTLTBiRmlYai1Sc2lxN2hIcm9IQnhObHNBVVZEWEJydVp2UExaS185eW9SSXhveURuSlpXU1ZzS0d2WHp6QWFrZ3AwdUM2aGxLUGhVYVlmOTYxS01iY29wSnlsQjBDWGlqR19ZN3hZTGgyUnpGY2ZGdkdtaDNXZ1VVSmpaMWZpQ01qcDlNWHhNdHBXazVkTTZLRUNmN09tSWVRU1lPa0lzUFHSAZ8CQVVfeXFMT01oZEpHSXo3Sk9DYTZzNU90T1NYVmV4ZkZ5SlQ3bjVIOGRKd3BBREJLTnhLSTBrWUhxZGRpVGFfc1hwUkRhSDhMSGFjeFRvbjd1Ykc4QzRjYVllMVBOcms3ejNJRVEwTGJJOHdUVkdidjkyYTBCdzI3bTRkM0RTX25iaUFMbzlqTkM1UTFib1BvUjVDb09Gend2aDRjSVBRUFNGckE3S1pXLTM4Ql82LTV0SXpDRlVVVVVyS01WczhkeUFpUVJqY0M5d0VDc2RtMUhPVF95VGQ1VTV6ODdVbWJWWXFBT291TTJzWjRGYnAxY0dGLWtEZm9QTWdXMmdkMmx0S1g0MTEweVpET3l4b1MxZGhUTmpPRlVWeEp3VXc?oc=5</t>
+  </si>
+  <si>
+    <t>['general', 'preocupada', '‘', 'total']</t>
+  </si>
+  <si>
+    <t>inclusión</t>
+  </si>
+  <si>
+    <t>Se reabrió disputa con tinte electoral entre el Congreso y el gobierno de Gustavo Petro: ¿qué viene tras el archivo de la reforma tributaria?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPWFo0b0ZaT3hpRkdFeE9NUUoxSUJsakdMZ056OGR3aUZtQmpmWl9VajJPWUVxTWl2cGtkN2h1bEhZM2N2bEltdEltdTl2NWduTFlpQVpXLTJKUC1qY2U3Q2EyWktMYXY5djFiV2ZKajFVUW8xRjh6czBOVFhFQjBhVndXQ3lEYmRfMWpuXzVfNHduck43VHJKems0ZnNydUQzMW5UNVNWSDFCUjFGaWdkNktoLUtvRXkzejd0TEhIVUtOTHFxeFNzVVZfUnZmNnFvQ2E0VGVNR0M3MEgwc1BhajB6OWZFYjZBT2kzNmVkbWlUNnBSQXBJOFdrODMtd2VVV2fSAYcCQVVfeXFMTTA5Tjh2MDRMWlVSWDUxbGxSWlZRUUdLajVzdERveWxvMHN6d3duSDJkcTBUU05hV1RGMjBuZkxGMlVGa2o1VDM2cXRYbVBETFAzeWlHcHd5cHF6b3c2QmlRLVFFeDk3Z0wyTWlJYl9rNzIyb251ME9lRFpPMjFET0pCUVk3ZmozOFVKTHVUVk5uV2pHU0xaVFlJb3ctbTd0ZzZLX1oxak9EZ3ViUXY3U2g0S2RpaU82Q1VIUFJvUGZPM2NxVDhEMkZ3UnBpNG1XSEFveHhhVFdzNkE0dmhJYjVvZGRsekVYUmZjODVtSi04anJJMTNRWEJCVmxwSE5iNTk4Z0RzOEk?oc=5</t>
+  </si>
+  <si>
+    <t>['electoral', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Esta es la lista actualizada de los 378 colombianos que están en la 'Lista Clinton', en la que también aparece el presidente Gustavo Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxObEZNRjlnSTNjb2tKS0lZUW55czd6dG1YaHVhRFgwWW5rOS1wVGd2eEhEZGNndmQySUtaT2tvMzRENEYwZ01wNkFhNFNhOHh1ZjFxak1DelhXYUxTOHdQY2ZNUGxTX2VjYjh6YVR4a1Bjcl9PbkVkRW1nSnAtUmJRVHFnVURYQXU4VklDcUZLekRLU2VFbjliYnFLQ1ZwUThRN0I4YThLSFA2M0VISC1xRmRYZzVyTGI5MXhQZHhpd3J5S2p4c3FBTGE5SlY2UTgzZ3dIQVk1ZktiU2JWWjFqa3BzdW05WjUzejB0eGpFdFNpVHpmZTBrN0tpRUE3bHVQSUJkZg?oc=5</t>
+  </si>
+  <si>
+    <t>['actualizada']</t>
+  </si>
+  <si>
+    <t>¿Por qué la reforma tributaria del presidente Gustavo Petro estaba destinada al archivo?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNaTM4NW5WWEFEd05SUmhZT2RvNFFpajR2VUVDSkJWVTRhSUxyZnRZMXlNNnY4Z3U3QWJlOUdobDJyU2FxYkJQb05fM045UXlSU0E3eUUxUlVSMzBGVmN5ekl0ZE9MZTdYbHczR3M4TDJDdzN4RFEyMHBrODFUR3lnS1pQOHlhSEN3aFpKQ0FmSEtjaUFacnJQT0F2WXBwZjh1SkVqeUNNeXR4azZPbGlQZ041OUpFUFdGY0NVSUlEbndEWGdSQUNTWkhlYzVLXzA3bUdj0gHYAUFVX3lxTE5KOXgxcktkMHlFTnV4V0N3dnlVV0VGT2trM085SjJqMTJwaWZLbzAtSS1VcEZDWUpDUC15WWRYdUsxWUxsc3ZPQzNBLWU0SXpPTUlScFRmWXEyZGRVSHo1ajktSmNBUTl3M0FPbkN0Q0NIM2ZUM2x0VjY1VlJSWXNYU0F1bWt0T3J1aDhmY29kRTQwUjlrb3l4YWZOYXBuVmtJS3VxbERGU0lvQWpiQ0VRMmpiS2tPNDBneWhwTDdpLWE0OW52STJMZGthOFRRVUhtYm9xckJ6bg?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'destinada']</t>
+  </si>
+  <si>
+    <t>Presidente Gustavo Petro denuncia que disidencias de ‘Mordisco’ asesinaron a patrullera que estaba de vacaciones en La Plata, Huila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxOTnFSZ0VSUkdsc0dBTjg5NzlpYk9yYTVFOWlFaHpSQmlnSUxySjNRVzNEWlVjTTFwS0FjaXFQV1EzcHdvMlZIM0E2NzdKWlRPQTg2ektXa1NySnVxaElUeno1U3ZJRlBJUGpsR19hQXZ6UjdydUZBYkJGVS1ubGY3eVJFUGU5cEl0RVI1QkpFMk5aM0plTE1laUFYWGJPaGtzR1pYeXBxa2JGMkYxeXp1RHhmQnpORV9QR3pabUxBaHdUbHJ0Q1pwdGtFUTg1d3VoX0JBYkt2MzVyeWhVS1VpVTd4d3o4dDZrNjBkdERrdmotM05OWUYzMmJjTGlsUEFXeHFndTBLN2tEOGvSAZACQVVfeXFMTU9yYUEwck5CaURpcEhCNHB6T0czYjBhcXBsZ3dqMnY5OU1IZU5xU2pvRFROMnp6TnNmQ2VtVXRZLXRIbGxMTVBmVDBJZ1NGRW8tZHdIeXozNlIwVTNjVjM5ZUZIUDlJQ2Q2MVZkMk1jN0xpSUNncjNibWJCRUVwbnFzQ2dab0V5YkFRU1N4WGQ1X3VDOUtaMFlwcXpsd3ExRUN5aUhpN3E1VHBtWXpfck1RcjRCMFVsM19Zem5QVWZ4OFNuRkJxYXhYQnFQUHppZU9RQ3pMZ0pES2ZZbGpaQkMwSlZtNnNjaElmVlgwY0l2VkdVS2RmVUNCbnVDaml1YnVFN0tod29NYmk5MVBLOW4?oc=5</t>
+  </si>
+  <si>
+    <t>Las reacciones de sectores políticos tras hundimiento de la reforma tributaria del gobierno de Gustavo Petro: Comisión del Senado votó en contra</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxQZE5KdUlGVWU0TEV5c3NidTVXeEVSSXVFR1hQamo2clZCOE5aZFY0SjZtUDVyWWFXdEpTVlZ5TTBnbW9tX1Z4aFNNa1JBd3hnVVFMaFJFQm5PMEN1cHFiUFJEUTFidmg2RWJNVEZmMTlINkVtcnYxRUV4WW9VM1VmdG5RdWhmaWI2WUZQNFcyR1N3dGFnTU9Cem5YMXpTSzFzMnNXeDk1ZGNqdGZWUzA0OUp4NjlpamFhSEhFc1pwUmJMR2x0cFc2QnlROVZ4bFU?oc=5</t>
+  </si>
+  <si>
+    <t>['políticos', 'tributaria']</t>
+  </si>
+  <si>
+    <t>El mal vaticinio para Gustavo Petro en la última semana del Congreso: reformas y un ministerio en el limbo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxOQml4WFFWQ1BuLU1QblVfalE3Smtkd1RNNnp3Ty1QN3kzdE4zdzBTbGJjekRqYm5JQmRnQ01IQUdaY29VdGdfOFljVUk2SGJzQWUtZlBxb1BST1dTOUJqRTFPU3FwSEJmNXdfbjcyZThzcC1uWnQ3eTB3TTRFd0NQSDZhaWVHU0stYTBhQW45Wmh1WWRzWjVPMXR6aHZZVVhZTHlQUjRyYWJ2cmNURjhmMF9oZWVfSjBjS3FQaVpjdnk2NU9pOWFMUHVZTVA4MlBSbi1kd25PTUUtaExURUNTYkt4a2VRT093S2fSAe8BQVVfeXFMTlhaVDhEdkt6WTl4NTN3bmFkSzhQc3pTTHpMOF9QaFpCeGJRWmJNOE5JNkQzUEZtUk45aVNfcUp0NGJicXFUQnY0d3BmZjZoakN4X1Y4UGt0OEluYllOeE1KSDQ2ZlVod01YcE9KYzVCUDBfZkFwOTM3VXpVZGRHWldSdlluMWFIX25XLWlDUElkelVWdV9YMWZiejMwZ1BoeUZJQjZXRTFpRjJHVkFNak1aZEtiZzMxeG9KSFNkZS00WExPY0pPODFFV1lUR1NiczA1Y0M0T2lkY2xYUFBKS2FyNkxrbkdqWE5YQXRROW8?oc=5</t>
+  </si>
+  <si>
+    <t>['mal', 'última']</t>
+  </si>
+  <si>
+    <t>Iván Mordisco desafió a Gustavo Petro: aprovechó su visita al Huila para tomarse a Tesalia; sus hombres pasearon un cadáver entre pólvora y balas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAJBVV95cUxOTVJaTGtyVHdXaVd4MUg2R2F1akFJb1VnSW9VUno0UjVpLXdYREN2VGJ5eWNCRnF2Qm5kdThQSTBxYVdiTGZfZ0l6VFBITEhibHR5ZkItV3ZsT05vOGpXUnhkdV9nclRZby1pMWR0bWRQMVZidE1XV251MVljSGx6NDlvUWNzR1M4cjFEbTF5b2RiUWJiZlpKbG9mckpUTzNYdFp5YWxRTTIxNFdzSTJKYW93Y0dValZSczlPMHhsRThOVGxHQ0NZS19sbkphN2RJS1BqbWNNMTBLWVRUVnpiYmRYeWJCSENvV3U3aU5rXzRvbEl1eHFBR0RTVzJwbHo4bm5IVzhqR0U1ajBhOHU1Z1hGdy1yN2U5cVpOR9IBogJBVV95cUxPMlZhdWhsMl9XeExqcFc0czdGQjlZQUJ1OGhJMVhMckVTWHBQWi1ZbmJpTmZEcVEySmVJUkNhcUJQbWRFc1NyU3lrRFVUOVNXcnJoZk9SWU1NSy1XU1NDWjF6WVBGc0JNd0wxZkdSYlk5S3pWRWdOYW80cEhZdDZCSHVTbFB2T3NqeUJyaVRXNEVEOVg1MzkzMmUzRGNuODI5ZmNDYlAyWUFxUU1ibTY1Q0ZMWGQ5dlp2WXVlUTNndC0ySU1Pdk9oT3pPeEtIWGh5OHRnNERHVjdzN0l3SkpzNDI3YVhIeHlVcXZnd2xDVE9ISE1sSmJfN2N4Rzg4dFFVVk5wRWNlc0N6dTMyVjZuU2lkSDBDMmtJci16dmZVbHF0dw?oc=5</t>
+  </si>
+  <si>
+    <t>polvo</t>
+  </si>
+  <si>
+    <t>Gustavo Petro reaccionó al hundimiento de su reforma tributaria y advirtió “consecuencias”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNUDRNcXpOLU9QZFEzSjRsQVdjeU0wd1ZucGNzbXBlNHRsWGc2TmJfRVFQNmVBX2c2b2gyNUQzczEzZDFUTXZYUUlNMzhXTjZoMkk2T3BCNjlza0wyUjU4MlpzQUlPbVZUdnZva0pVSVlRcWRfVmowZFdwT01hTTRhZHFDaVBBOS1oWHphb0Z0SUhSYzZNNnBNWXg2aFFTZXpUWVpEUkZTTEtoRXl0RV9VQURRdHZoQld3dHNuM1E4VnNXMTI2T2JZOGVSelJhTEZlN29j0gHYAUFVX3lxTE1EX0lFSkZ5Sl9PV04xNkdOS196ZkNQX05oSU5QdGlGVXFNVFkwblJib2dwNTdfbnZQMXk0ZDlZdFNBZGpiTUZMR1NreW4tQmJBZTJoX1VNdzdYbE03S2dBTjRaTzYxcVlYQURjTFlDeUF4bERobkpreXlRWlREbDNWQURTQW9rTzNyQVp2VHlEQldOYVdMVjY3ZVFwbGFPbS1tRVlkcENQVEpLODZUeXFQTFZQcFViV25SV1J4Z2ZwOVlyM3oycjhMc1RqMXhod29XRjY4aFdQcA?oc=5</t>
+  </si>
+  <si>
+    <t>“El consumo de drogas no es criminal”: Gustavo Petro impactó en reunión con las Policías de América</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNcFlaV2dic0FuNzFYeFFtX01qZmRSM2s1R2tMZlZEYVhmRGNxTnhFaWtLZnBreG5aVXh2ZHFsQmJackEyQVBVQlVfVlFzSGRpUFhVNTVnb3NabzgyaE5Nd3ZNZ191V21hang3RDA4a3E5ZnZHYzRHX1ZBS0JlUGhFWUJGMWoyUEVSY0hjNG42WmV0OVU5REh4b1lmUllBQWFrU0tHV0NJVFlObE56M2ZvR0h6MWo3NklmWUlCWm84dmUyLWdQSWtmWnJybXpNWHRLUnBfN3FMR3pQejBkMUHSAeMBQVVfeXFMT2FRbzN6c0RpeEpULXNVb09IcE9EUzJ2aWswMHVXQ1dsbW8wbHBaOUptWk5JNGFpOUhIaExUMTVoVTZGT3EyaURocUtoQ2Q0NlR0Qm50c2ZlYTU0NFBPU2dJYmZPbUNFWWQtUkUwdUZkdGk1aTRxWEktUjd4enAtM09LbHQwSTZMS3JPUjI5c0N4S1FXaDl2bVBNSVNjcTR1QXg2VjlZMHdSdkU0U3hnOVpNeVVMQjA3eWE2ZmdfTWxJcEFCUWtwdWRLamEzZzVpZkVFbVZBRnZVTVF2QjNJdVF6OGM?oc=5</t>
+  </si>
+  <si>
+    <t>['criminal']</t>
+  </si>
+  <si>
+    <t>Gustavo Petro reveló detalles del asesinato de una patrullera en el Huila: fue delante de su hermana y su hijo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxNVDVaQUtiU2RFTFhtWnU1ekNmaW1zcDBWZ05NQkxXZjFXcFY4VjRzS2hfTXRpdUhBaEJlV085UVlLcUw4WlBoc0VmX3B5M2UyLUd2S3Y3SHRLY0VqRl8zWHNHeUN5aVVMdW50c0ZwTWxKSGZlOFc3czlGbDZDc2ktM2FkVG9udGdQcElNZVZSTE03WnlaVl9EVnBQVDRURndHbjBVOGNCZmN3LWRXbF9teFhMT1F1czhPVWthak95LTRrVDRQdmxaelFvVUJ6emlMWTBseGRBSGhuVUxTcVJVSm1vX3ZNMTkwV01IdUgwb9IB9AFBVV95cUxNX1hMQlJuMGRWTDFlclJJTGhZNmVpQ2d4eG1jcHZ2V2NyeWtsdU1aOEtNNXpGMWlGSm4yd3V0UlZWRGdZdk0tMFhGOHp4a0I4NDM5cTRWX0tMVVN1NFBOYUhFYkZsTDYta2w1RXREbzdwNXNXZHlPN3Z1ZHJnTmJnNkdwTEoyZkhwV1NvYXZjTUw3a2NaRzUwNlpMcXg4RWI2eVZXWHZuYTR6NHRBNVNkbXE0WmU0R2tEdnNWaDU1YTNmSDRhRW4zWGtKYklwYmgxc0JwRU5iY3luT05rSktXbHM5S3F6MWhkRG93ZmQyakxpdDFT?oc=5</t>
+  </si>
+  <si>
+    <t>Esta fue la segunda reforma tributaria que le tumbaron al Gobierno de Gustavo Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxPcmpzUUxnWVJzX0ljb21GZU5kWWdWNmdXRGlnN1RzLUZvZHcxZ3k1QXdZRjZrWVlNdW9KRkJmN1NFQ1hYb1BQRTFGaVVEVVFod2Q5cEFkWE9Yc2ZWZXlIdjRILWRnSmx6cm9jQWVsOGtRSE83T0wzRGVSelpSWExEUXg1S0JHQmtIcTdxY092WHBvZ9IBkgFBVV95cUxOSzdFMU5xY3pINC0xODAyQlFJVkotZnYxUWpqZ2dROVRIY09jQTRDYkJ1Zk8zLVpnSlFuNG54WHhYMjUyM0dibEtUaGtBekhxdXdESHlXY012a25QNmlvTnZZNDZDZTVsQlJITG53Y3pVbVZKRUFlTGhmZ2FPZ1V5OTg3Sll0eE9KM2hoeEl5dm1vdw?oc=5</t>
+  </si>
+  <si>
+    <t>['segunda', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Gustavo Petro afronta la inminencia de un recorte del gasto en el cierre de su mandato</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPenJVbW84ZUxfdGFRc2xwTVk0UEZFYTdla0dBQlY4NHBiVzRIaEw5STE5LXM4TEtZZHpja3g2anVjS19GelVsUW5GN1ozSHIxRlBwa3lqaVl1WklWNGFOZVBhQWhxMHVmSG5Xam5NV1d2bGtBQjVWeE5VQUlmYWdjWjN0cDJHdzRORGh5Q3VubUpRTlpGZWtEVjV5T1hzSzk5QWluR1VKVGc5dFlFcHQtUXZuNjl0aTlYaVEtaTF6T0o0OXFPWW9aQW1tbEhlenFTeEtTV9IB6AFBVV95cUxQMEVXeFB0MC1VX0JnTGNtaDQ2Zm5vd3d3Xy1hVlJJR1c1VjRBU0JuTjRtSGhwTXNoSFhKN0R0ckN2MW9WdWMxc0dyUHA5eVNua0lZZ3cyREVQeW5RU2VtTDhvb3BkemR3QnYwOEdlNTNVczl4TnhjVmUtN182a1FBbFhHdjB4VG1SaVEya2hzNTZYd2ZScHZhRGZ4c1JHd2VGQXkzQkpyR19laFlZQllTQ3hVdElwMmhmVDJLVEdpU0QtVTZ5VmZhaUZSVnptMzBJTU1HWGtTSkpVMkFTcHloMUUySkNXcnln?oc=5</t>
+  </si>
+  <si>
+    <t>Duro reclamo de médica a Gustavo Petro en pleno discurso presidencial se viraliza en redes sociales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxOei0tWFRCbWpRSHViYUVlSlZmNnpUV2ExSTB1Q1N3aHpYRVg2bXR0R3VZdG1Zc0s3RE8zemRoQU55eEJqWTZQbFBSdXMzdHg2cFRaWjlFcGJra0lJa2xnTmtUTzB0MGVBOGRiR0ZiajAwZF9hanItUm9EWEZzYWNoQTdsdEh6S0JyQ19Qcm1PM0ZjbEdQajRtNmJacWpVRThqZ2lPUzNXbjloY0gxVi1Hdm9zNFLSAboBQVVfeXFMT3dXcHppV3lLS1ZBTnQxYnU4d0tTa0RrbDRhb3N6Skd3YXpWUHRiWk1wQ0gyQXBfbDVTVlZJWGZSVkw3SEJ1YXMtQllBZVZtTFc1SVNYaEdQVGlQVnlWRzd2cUNRT3hFLUdxenM0Tk14aVo3U2FiU2RvNTZ3bUVFTHR4SVRMTExiM3diVGxTU1RtSkhCWmFDWkc1LVZhSk5POFZBS3hiTjdWT1VaMGpCMDlZekhDWUZaOXB3?oc=5</t>
+  </si>
+  <si>
+    <t>['Duro', 'pleno', 'presidencial', 'sociales']</t>
+  </si>
+  <si>
+    <t>Cero y van dos: Congreso hundió la reforma tributaria del gobierno de Gustavo Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQWWllWUVwcWtDYkVhN2x3M3k4UlAteUNmZUxkU2ZqaHB0cmVIejBEamdsQnB5TTY2MnI1RGt6LWdoMzdPclBBNmJMaVJKLVlvYlR0MkpaWFMyT0VVMkV6QXk0R0ZBQlI0am9wa2tfSVhvcXR4QzdRdnl4ZVA5LTc4MXRBMVVOM2ZFV2NhX0l2ZUlKUkFmR3l2TVhpMUFWTTZFSEhNUEtKQ0pkLTY3bXkyenRDMlpsN01UV04xN2FmTXpXY2lf?oc=5</t>
+  </si>
+  <si>
+    <t>Archivo de la reforma tributaria obligará a Gustavo Petro a recortar el presupuesto: “El Gobierno fabrica la emergencia”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxPdUYxSVQ2Y19WZnJWZlFBQnBnbVJEVWdGNzZVMnVmOHc0N2d3Z0FXM1RfM19fMEtWS1Z4MmJBRlFIRTJYRHBablNCMVNnMGtZR3AtYXg1aG4wclJIYmR3cGVkWjRtVnhqMnJtRERSOVNjaTludFVMaVFQOURDOHpSbkd3Y3lLcE1HU3hrMlVucmdOcTFTUHRQUUNhZUZldE9ZcFpoUUFpYkM5b084M1B3dmVzVUQzR0NhMDB0T25OcV9ZblJmenI4NExWMXB6ZVpzYXRxLWdvaHFObklfd1o5dnltaWxhMXhTQTh4QW1IaXFySGJB0gGPAkFVX3lxTE1OM2VuR0xRX085VGJoWm14akdnVW9qeERwZ2UtX2JzOWFoUFhEeWtVRFRuV0t3OS1XVFRVMDVwX2tHVjRaeU9UcTkwbjUzcXhmTTBqd1NxNDRaWkpDQ3Q2NFVESGhOcjctRndueEJaS0FpNTNmSXdiRUlOT2E1UDRGWUNIdFg4M0VHMzcyVUxJSzl1SW1ZS3EyTnBFVTU3YVJWY1l0YlF1NW4wMnFQX05IUkZDaVNGSDJTaUV4QS1wUVNiV00wVmtIRWhEdDVXeXZjMGhxTmZZMGxuQUs3aTdlZENvZ0NYalc1dDVYWlMxOExCNXluZDFZbVZJZnlKdndPb3VVNkJSam81WndOUXM?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso hunde reforma tributaria: nuevo revés para el Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxPY0pMR00xZ1VsaUlhTVM5ZktHYVZ5RE1HVjduel83d0pwNVFDcnBtY0J0UF9kQjBnSlpONG1Gak5iRlZVY21zS25sel9uUVlESnRXYk1pX0JFU3U5MTNaVzJrMVRtMU1rcS1qSW1rVzFGTzJuc0xaWjNTa2JYeFJSc19oR2x4QUxEbTVuRWZtNjlGUlpWZUtJeVYxeU9LRXNFQ052RW9Cc2lhcFMzdnZLNmV0S3FJQk3SAbwBQVVfeXFMUF9BS0psZlpGbzV6VVNvRXdadEFUa1BmVHN4N2ZYVE9iRkYzQ1VfZTRiN2hKekZLclFlMVFoMTNwR1QtRlJ6eGtFbzFjeWNOZE52WmU5YW0zR29xdGhQMzIyY3FEUmFzMlFWTjZLZ1I2YUtvSDF5WVpWRVEzTUVFVFhjUEljSzhaSkRmemRkMi00LWRyNnJMYjNINUtJODdxb0pfOXc0VFhHS0x3TEdCa3ZYcGVLWktMUVU0LWw?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'nuevo']</t>
+  </si>
+  <si>
+    <t>Hundida la reforma tributaria del Gobierno Petro en el Senado: nueve votos en contra</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQZmt4VW5LaE5XWUo4bUFydm10SHhmOG9mS2FyWjZtbUpvN1pobTBxLW1iZE1Cek5nM1h0SFhIdThQcnJ2ZkxmVUFfVW40cGxOS3NHOXpDOFUweUozT0J3UGV3Y2hQQVBhYVJzZUVMVFg2bE1wY0JyT1BvOU50NHZrUVVHTVJ5aXJJU1ppTG96LTlvSGg0UlVfaERfdnV2YXFidS0ydWNzQmNUVlNNVjBYb3RkMndXNEw1UjNkUlhSZU8wcW9yeGJEQ0NQalFBVDJ10gHYAUFVX3lxTE5MdGFsMTF0RmdqVURWUDNYMkpaLThVcUhGdzJKSGtDUWFLb25LSWpBcHVpTE03UGVVdzRMVC1kWG5vMW9XNW1JeUZ4VWVJcWdHcDJseHZ4WnZjT0RTT2dvSXJBbDhSMDVqUVBSV1ZIQjdYMFFOSXd5aFRoN3hjZkN4eTJmUjNrSGNDYV9uV0tJdml3Y0hWaHVUdVZQMG05LS1MRy1DUWxHRWtzWm1nb0FaTUYzWEg2eWZIdm1zYzFDTFRWN1Naa21pV2QwMnJQQTFfeVd6cldzVA?oc=5</t>
+  </si>
+  <si>
+    <t>['Hundida', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Presidente Petro reacciona a hundimiento de la reforma tributaria: 'No es más que el desarrollo del odio político por encima del interés nacional'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwJBVV95cUxNQy1OVE53VkxJbFcyZVFtbmdiZUZvU1kzZlUtM2hVVmwxT0xlSFpaMVNIVml4aUlyMGhUNkpwNGU1QzJzcC1WVVVWVWdtcEVFYXViZ0o5TDBxcmEyQUt0UHRteGRrMEdMLV9NcWpoYkp1bTZrX0lnNFlXVG4xcG9OWjVfcUtRTy1kVWNTTktnV3M2SUNGU21UMVAydVpGbmRDVkw2bmV3Um5jX2NmM084U2NVeUJvcElCa0hVNFpVMmlQdDFZNE44eXp0QUEzWnBWYl8zQlYyWHFMUmZpcnJCVkFHeExJOG4xRjZrWXplZGFacFpKaVQtc251WWM5WU05VWlRZnJFcGJ5b3c5SHJ3VUhXYW5hUFF4eGNOOFVaWdIBpAJBVV95cUxNTTluR0tNTE5yczdSVlItVHd1UVRiMTR0QmZsNjRQbzJqaV9CazlITHcxWFpKVFFFY0hrRXFlbGFXSWZ1X0ZpaE9CMU1Xa0tOc082emRabklvSFFYQ2dNZmhYaXZZNXRiRnFMaXR1RW16OGxwM282dm9JeUhYaTA0STlZeWR4Z3BRb0d4QmswWHg3Q0FxMU44NHBOdnBaSkJPejBuOGNxYWZVb3VGSHo2bE1fUWJ5TXVEbjhLRXhmMUprd3c0LVd4bEtlNTk3NWI4YW5aOEROVWw2RVZmcHRsN3g1OFpneG9pQkR5WGRmR0VfdTBqOWhWRE9zanFraTFFTDgxTTU5T2ZyYlFVUWwxaHpNRVBJV1pEazBWUTRmY2NkcXAx?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'político', 'nacional']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro alista un Conpes para la producción de hidrógeno de bajas emisiones en Colombia y reducir la dependencia de combustibles fósiles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwJBVV95cUxPaGJMc2d6ckNKSkZlb2RtMUtpcUt3dFIyTVc4alM5cDIyeHJmZXdrVEVNdnhUcFMyTVlQSWVDSWhBVXp5MDVVWWdwdEJYV0dFVUhhbkRWRmh2NXVReXkxaXdwZ3dsUW9KV1AzdkFMWVEwczR3ck0xRlpCQndweXVfVzNSNmFydlR6ZjlianZDTUZzdlVKUFBHeXdPZkxBZV9kbGxWaUttSi1iTmFFTEhlYkpMZmJvX1JQMDhJd0xMTGozSWhOMlh6Rk52ZjJhZF9BaTdXOWk0UDIxUXoxeWpWRlZhZkFfV1F1WWNEUjYwRVNoZjBuZkNtOTdEbjJrSWo4VjhtNTFpYVZrRklvemY5ZUphYzRwR29RM091amFja9IBpAJBVV95cUxQQlB2VWRMVktWRFdIdTBvdGUzSThRaUtKb3F3dVc2X1VkUlI5SzQ2b3Z3eDRDVEx6Wnd3QWx6SXowYlhMX0dnVmhzTlk5ZlFrY1BVZnNaTlJrZkJOQ1ZjOU1HaGhaNkdjT01MdTVJV3VjcFJjcXV5bEVHdEJNTXlCY1U4amlzYVpzMnFxcDBJNzJJNVZxVFlpVkVaY0hvQ2ZwUzBxSUMzWURycXJFZXhzQVRVcWZocUZwbFBkMkgxLXZBNnBlQ1FIMjg2T1FsUEZhZEozcDNUZzA5dXVKOGo4ckhxOVQ0QnRPQzl3TkFjazRhNjM3VHJKVDYtNjZ1d0hUZkRhSWs3b2U2WGZfYWd4dGhUUlJIbzk5N2p0eTM1WjN6YnhY?oc=5</t>
+  </si>
+  <si>
+    <t>['fósiles']</t>
+  </si>
+  <si>
+    <t>“No saben administrar”: las críticas del representante John Edgar Pérez al Gobierno Petro tras caída de reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxPYmg4eFRvZUJmV21DQnpFUzMzY1NnNHFCdG1GdGJCV1hjYWM4ZjJLTnFvY3V0a29rLTN2NWxoVUZ5eHZUSmFiV19YQWl0cm1BN0N4V0pmRllCX0s3NjhGb1RWSzljMkFseXlZa0xaanJOV3ZyTFBsdU4wZXU3UjN0dy1GNXFvdGRYaV9yV3pXWmJoa3V4VHFZbDBheEdJV3U1OUdLc1lKUEV3TXk4RGNMLXFKNktWbDcwbjc1dFE5VG83bkowUWF2ckpEaFNyQTQ3X2t4a3dkZU85aE02SnZnYTZBV3BOaFQyVGxmT1A2eURscXZJNzdWY21VMzdpdDl1b0lnTNIBigJBVV95cUxNWjQzdmhkYnppNHhwYVdvOG9jM1JmdExIS2x2Um8yZjREZC0zZkFpU2lXT19yN3hwdFVaOGRCYXFuU2I5MlNhaGJ0ZDR4MWowc3pONndmaWxEZzE5NmZKblJSSF9DdmplbndQejVEYUR5NF9pY18temR5N19VdjdZMUQtcUhVd3VDMkFHMUV3eEE1QVBJck45QV9oUDlKZjQ3ZXZ6Vi1KdEtwUlNPeURlYjRmZ1ppcG15MzJKa2lWVDBMX1ZlN3pBdGhVV00xUm9ycmppaWVPUVZib1JOc0p5N2IzZklwWVpjLU9CcGNLTGN6dXlta0dIU0kyWW9wd1VJQnRVakRUYTZhdw?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro destapa los efectos del hundimiento de la reforma tributaria: anticipa crisis económica y afectación a política social</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxOVEpaa0hXOU9Rc0dXSHYwNktacTRrdWxPOFhvbWlrb19BVkd4SFNPXzNEb0N4bTJqQmtVTzEyY25sc1hoVGxURW5UYU5JOVdwUFU1MVJNUUVDVWhNM1V5TmZHUk1uU1FqMnA4TFRLOU1rdVFFdHV3MnZzcTFvOTNfSEZpRkMyMHNvWEs5UU10elR2OXdDTzZIekxOOFVKMHpVYVNzRUhMX1FOZGYydDRVVFZNeDZOSVpxSW9xd1FHWG9Da1BUdm4zOXZUT1RSTl9YMkkzZERkY2lzdHluaS04SmFwWGZCakw2ZWZ5cXIxVy1HcFJZYmoyRGw4akU4bTZVVm15ckZSTGxYT0FNRFHSAZMCQVVfeXFMT1VkUzZlMFl4Uk9lanNEMlVmTDBPc1J4VjN0ZnJVWG9iVnFxZGJEemlwY1hTNjVVYnZGOEFmMUM4UXlxX2FXeXJuWEVLU0tPYVZqSmNJRDZwMDIxTjJ4NnU1ZkI0Z2I4dTlYQVpZLWI4SDZGNlFhczlLX190cHJpUGw1czJkT0NPNHJSel9JQV9qY3AyTVpobzFEaGFWeF94TUxpbmtCaG84dXdlN3BHaGNTamw3ZFRwWV9DZmdGc1ltNmt0UmVCSGpPR3h4M25palR3SzJaYjRIenlmamlOdzlrNWZ0aWljbmFrZ2t3Q0xMT0RSNHRHMTJ5dVVLRjBMOW1PWW9yeV9CSGpVZU5WdjhreWs?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'económica', 'social']</t>
+  </si>
+  <si>
+    <t>crisis, afecta</t>
+  </si>
+  <si>
+    <t>Ministro de Trabajo, Antonio Sanguino, consultará propuestas de alza en Salario mínimo 2026 con el presidente Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxQNV9NaU9VWF8wQmtOekU3YzBIXy1pd184U1Y0eGlLdEUyV2cyZks2anFnQkNKeXJLVVo1bjhOOFBwYng1ZUVfdWc1MHNIX0FhVm5ncHhwRkZfam02ZUN1Y1g4XzFOSnVYRlZKQXV5M1ZkaGZjUDlfeHFMb0s1THNCakJPcW5JV2p2Vy1YM1B6a3FEY2h4MWcwZjN5ZzhnVkQ3SGFrUzFQSWN4ZXhpNXJHSEczbkhMbFdVZ1lJTzhFSjBOTGd4dGxfbl9SNTktUVFLYUxiVnY3UlNOWTlZV0doNk91ZFF5OXR0MG51eC1NV3hfSXRROWVnUkVXbXbSAYICQVVfeXFMTUd6aG1JWEtpZzBjbEYtZXBScGxQMk9hQmJ2M2x4Zm9RQ3l6YVdwQ1ltOXltd1FNZHJmSWw4b2dSOHUxNlhyX2tZd1llYTN6RHJuOUhoVEdXN1kwWGhLYnYteF9POHRMNUt0bkpSdkJMR3FSWEM5cnFLMGJSbmZ2SDBzODUxa0w0MzE5Y1plMFItb29QQ2k2Mk1jWGRtZW5taGVlNnNyLVJOWU54QVpmbHF1bnpBOUVFU3VoU2xBOFgyUnFwaFVuUjd4dVVObTBFSnBmWkVBQ2FZSW9GSi1tckRtYl9vd29FYkxDRkM4RmhiYk1NX2pNUkxmQzhOaGxwTThn?oc=5</t>
+  </si>
+  <si>
+    <t>['mínimo']</t>
+  </si>
+  <si>
+    <t>Emergencia económica: el plan B del Gobierno Petro tras derrota con la reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxQTHBYSVdadC11OWZKRzF1ZTFNTXN3NVFkb0VtRXBNb3FnMjViY25yd0VjUkNxMXNaYW1rSGhKY2Nqb1FsUzMxd01Wb0xacEo0c2lMaUVjRVhqbXdqWUU0MkF4M19WdGZtaXBHZFc4TmE5ZmFJUW83Mk5lZ1ZjaUlVLWdKQVFqRTM2Ri1fWkFraVU1S2hGZVhqZWRxN1JtR3pzckRUMHRCZ1JJak0xMVJDUGFWWlNqWFpHMEtkY0hsNzZwbWZhblN0YzVINHFhb0Q2Tldr0gHYAUFVX3lxTE9PVXU0WkdVWThoWF95M2VpM2RmVkhxZGFCbDNQVzljUzBXWHE1Z2tkN0t6WWZneUdPR1ZCc2VaUWV3V1Z4RllEVjNhQUlSVndhWlRYOXZfaG9NUnVrbGp5NGVybUtiQ1kzSnpKdkNFNE1vRUJZOXlHalRjQjlLSmMtY21BSkRNN2NjMHRxTUpoNWVIN2hzRTJKUmhxT0J6ZW9MVGg3dFB1U2dmWnctV1gyQ2RGbXMyeVFIMFFTcF9yZU5HNlp2YlZTMEtUMG5EOHJ6aFpUY0I3Sw?oc=5</t>
+  </si>
+  <si>
+    <t>['económica', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro, derrotado con reforma tributaria: oposición enciende alarmas por posibles ‘decretazos’ e izquierda anticipa crisis</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgJBVV95cUxOZFhReDZraDg3T3FPWEE2bE1NbG5VcDBnbzdaYXhueFVSWElMbXRVY0dNZjFsZXBNZ2tpeVd1dlJfMTZrcDEtS0RIRUhmRU5OcVdmNi10NWgwU0NmLWRNa1dvdWZWeWIzZExDRjdzZFJyeXZZaWppdHVoUUdONmlzVUZRczhQWng5WG82UGNQbWpWQ0NMVk5Ya2g4UVhWTUh5YjVkYmt5MnVFY3lWM2E2STVkWGZmcUxUOWdjX1k1UVdSWjFNWndrUnBhZ1BUSzJxWmEzUWw2RlV6VVBJeUhpVk5zQlJvVmQxMk9lQURWTDlwclZ2LXRiT0RieXVBSlVMZGZsUHZ30gGLAkFVX3lxTE5tc0NmT2JtZlhFQ0loa3RlUHM3WTZSR0FMWHZ0SjJSbU1MUi1qVWJPTGFuNVdjY1E2VDFVQ2R3RXZFRmI0cDFpWmwxUTZDTE8zRUtaVWdpcWpGc1BpSTJFekFVQ3E2d3NJM0ZtUG5GYndXaG03bDFneWhlclpRUGpIZ3F5eHc5LWZTR1FtNW5PUU44MDRQRi15cEtTTW9UcmRaZ1oyS0RESWxLdnpqck1qT1ZHVGtpWGhXOWpTWVk3V0JYOV93V2pjdlFVZlBnR1ZhbGxVZHY3Nlh5SjdXMURiVXExZXp0TnFHOXdQczRwYlpYb2dKYU4wY2dxMFdyT2Q3Y2dRSDN4Yk5yUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['derrotado', 'tributaria', 'posibles']</t>
+  </si>
+  <si>
+    <t>crisis, arma, armas</t>
+  </si>
+  <si>
+    <t>Con paquete de decretos, el gobierno de Petro aspira a revivir medidas negadas por el Congreso en la reforma laboral</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxOZWlzTlpYWllUVi01YTlyMm5saDJ1N0NQRDBrLWNPTUJLM1B0M3hybzRSTk16T3JHOTVTcGxULUkzRTZIWUF0eWs3VkpMRTRMZnJTRV9MU3paekVKSU4zM1EzRkVPZktGZU00WGVBbXRpSWV4OW1BTUxEblJyM1VBT2lRbGVmVC1GZVdqdjF1bnJtWUtvN2ducXplMWU1aE1vc0pCVzlRNk1VMUp6ckVPbV96SG85bFJoVVZXYW9OVkNYME0waHg2cERXU0FQbkxnd1Q5cGh1MmlSMFpCWVNSUjd4NVZzZmI5OG5PTlY2eHhNdklPbjYzQjRGcm1mVUw1LUFR0gGIAkFVX3lxTE14Slp3dFpuRkNnclc5N1dMU19tWDk2NnhseDlPbW9HOVRBWnNvQk1SMGRKcHAyZFk0ZHh2c183MUlPY0VXMEN6am91Y25VVDlXaDQ5eVc5Mmktd1FXRU9rM05lYWk5bGtrTElfLWFBVFpZZW5IY2JSdkhUMXZGRTVZSGRJeEdRWGtTc1FvOEljZmtXNF8zZGV0S1lESVNDaWJIdHJvTlhpdjI5QnEzV3VYNlhtU2w1WE9Da1pJRDlabjZCUWRMWHhXLUlLcGV2X3I2NDI0cHBiRHNOV0pMcUhCMzRzX0duem9Bek9wYzNTNjM5TFdEQjdyMHpua1pVQ2hKNC0zTFJ0dg?oc=5</t>
+  </si>
+  <si>
+    <t>['negadas', 'laboral']</t>
+  </si>
+  <si>
+    <t>Peligroso disidente de las Farc escapó el Día de las Velitas de la cárcel de máxima seguridad de Itagüí, donde están los del Tarimazo de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowJBVV95cUxPa2JieXVya2J0ZTRpQ082Znk5LUhGVXkzM00zX2RhT1NpOC1mSEIwVVZQcGZibHQyODRoSzBVQ2ZNTl92OFFzb3JZYktRMzVrVDJKUlFwZUh2NTY2WE5ubzhBZzBaMG9HZXpRTjF1X19VeFJUZ1RKQVhDNjlHQ0cwZV81Yk1pcmJ4VnVobkRtSGhwa2lDX0lmUmJkc2YtODA1Y1pDcjN5V1lYcXFWUFdoakFZV21YVmxMSVhfekdSWFI0ckNZQ2M4bk9JbHhVRUtpdDBtRVRyLWJHdTVQbXo0V3JDZkcwYUM4SWl4RUJoOUpIWENXZHJ4dkJwM0kwSUlnSzJtMXUtNWlkOFFNXzZWc1pfWk1nU1ltSm9ybWY5TEhhTHfSAagCQVVfeXFMTVlaVlRsRjFFdmlwazlyajhRUEN4NS1VNTcwMlBFeTBlYlM2T0dsdC1NQ2J4NmwyQzhjb0lrVHNDbHprQVV1MUJjUUZCc202cWp6MmpYRXRiNkViZmdXODAtV1hhWmJvNlBkaDRvYjk4X2k3b1FFdHl4Ulk3d1FCakRCMDFJcXRTX1VmenZNcHR0UTZPZDY3aTNxcGlxWG9pTlR0UEU1VjE4UzlBZzhMbkZFSXh4WUItMFoweVhHc1FSSmI3c1lLaUxEQklacjVhR2kta3dPZVVhNUZDUjJyYk5yR01KajgtcDZsc1FqOTA0Tm9ndmxVdEFLc3RWZEItbmp6RWdOTGZNZEZNdUt5VXJMRzlLUWRQWmdSNExVNi01WE5nd2dsLUg?oc=5</t>
+  </si>
+  <si>
+    <t>['disidente', 'máxima']</t>
+  </si>
+  <si>
+    <t>peligroso</t>
+  </si>
+  <si>
+    <t>Crítica jornada para Gobierno Petro en el Congreso: sin tributaria y con tres proyectos por hundirse</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNUnNKZnNMVUNWcGQ0S3NXXzhlbV9fb3V4LUt2VTBGYjNCS0R0NGtPd0dMUWxMZDRZSGhHWHBySjh5Q1lGZ2wtb1d3SkhBbGVKUUF2bFJrT2pHaDVoYVhDdldwdXlaZlVrbG9MNy1tMlFVcnd4NE1EOTFlU2Z0SnZJQW5Wa1VxejEzUFc3X09OSDUyVTYydWlNVWhjT3ZQa3ZNY3RfWE85OUlrLUoxWGVzXzJxak5ZNlJnYkwzZ1lrTDF2WGV0VXlndlJhb1hJdUNqUTdtcXRYS0kxd9IB7gFBVV95cUxQSmNUeksxNUFjUVdnUXdfU1loZWhZOVJhMmJ4Vm0tUERVZWFXNk4wUkx5SkpGb2lQemZIQnJGc0ZXQ2RFbDEzcHhzYXk5YmVrLUtMR2tITGQ4XzNtbVZzZnZaVlp3RWticGtwajlNTVBzUWoyMGxsMGNYOEZuaEV3N3FLVWVicjdXM2o5UHRnajQtcTJHSVMxRmhUUm50OUxEcC1ldzRPOV9SSE5xYVZIR3pPMnFjMktDRjBYODROQXRVblR1anZWNXhEX3lhZFd1VUxYZE5lMjItMGhBeEFVUHhoWC1ZSFE0T25PSFdn?oc=5</t>
+  </si>
+  <si>
+    <t>['Crítica']</t>
+  </si>
+  <si>
+    <t>Petro se pronunció sobre segundo paquete de chats de la disidencia de Calarcá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxNQ3QxTF9vSWpEdEpEZ21KWkFZQnUtNnV6VkhfMFd1Qzk5V0EtczR2RjVYLXQ5RHM1VTMweUdKQzJ2YjVqWm1yMHVVNko5M2ZvaFd2Vm90UlEtYkV1cnphZFB0RGRka1pzcExRajAtTlhiMVd3WDNLbVJhZi16QTFMWjNJN0F4NkwwM1pCZ2hLR25taTVSaDFNY2xNU0J0YWVUX2gwbTlMUmZlN2ZYN0s1a2NsUlk4R3hBY1Z4dmpFUTlWRmtrTHIzR3hTdmkweDZtOEJHVk1Vc3JBdUkxNkFTd0l5UW1VajN5TkhVNHZfcTFyNk9tTVE5ZtIBjAJBVV95cUxOVG1BMmxMX3VEUGVQTnM4Ynh6VVBQb1hXRXU2U3BiMnlnNVBMUUFoTVZERkU2X0pTMVYtX3BMSnRsR3dwWHRwOWEtMC1TWkMzaklsMVVDZVpsOGEzR1dMZWZVTHgxYnhwR185TXZFYVpkckJwQ0x1NUV6bmhKQ0FCZnV5SzVPNVZSZTZFMENvX3NERm82clNBZ1RSeXI0eFpDeFNVZVU5NVhsVVF6WkpDNDVlSUYxZGgwNjN2TjVkQ0FmZzR4SkgyOUotYWc4RHVVVktRemdIZDZfZDZfb2FPWUppbkZIaVF6Y0FEMWp5amRQbzM0ZUFuRGFac1VBcWxOUGVRTm1Wby01SmlX?oc=5</t>
+  </si>
+  <si>
+    <t>['segundo']</t>
+  </si>
+  <si>
+    <t>Sobre la incoherencia de Petro y la Corte Constitucional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOQkdsdldTNklBbDNsVDMwYjVSRWhjNEllR29sSnI5QnlRbmgyYzVMcnFMazhQdUVZN2p6OVRVSlB0cjhaV0Q4aFdldE5TSXBOZ1VlZUI3NlE2OWxPbVQxRTdieWxfVWlvNWM3U21qZko3ZWJNLUlBRTR2REdjQ1E2ZWpFWllRTVVLcDFwaEE2YVV0SnE5LXpLOVN5NHE2M1ptMlZOTDVUeW02M0hlaWFZ0gHDAUFVX3lxTE4tMEpsRk4yaGlZdnpvbGctdUtiN1N1ZXNBdHBhRkV3UGVRR0dYUWRDRkNoOTAwOFNrdkV5TXRjLUJYNFgyNjNGaFJlc0N2OV9LQmlrdlJhcDRNclZNWWlubUpuaXhsYmthVTBNT2ZaeE9GMDNxRmtORUI4TUZyS2N4Z0xkRDJSYlBxMDNIM1AwNHhWS25kSEFSMlNOQWJzV2hhWElkbkVSUzEyZzVEeGRVQzhseDdmbndiVkxqMVNrbG9pbw?oc=5</t>
+  </si>
+  <si>
+    <t>“Pagarán los pobres”: presidente Petro cuestionó hundimiento de reforma tributaria en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxOajBkendNWEFfSExkd0tnMkFZdEFJZklkREtNc1JLWlFHMk04T2V4bEJHMEJPdkhtelBMRzBnTlAwaE5Ub2hTZFN6TnBLMkdta1pMSjdvNE9weUlYVmJsQXd3cVVPRE1CMTNxV0JFeUp2OU1PVUhYbmo1VTVYako4cldaVkltRFdPYW9OZGpZUGN4YjhhWWNscVlPRzJrTktENmN5Y3c1Y0RaZS1QOUNTY25nd3RqSENCczFpVHl6M1dBQVlzNTZjUmpmV1A0bWxKZ3lQdDdJYWEwMDFZaVdGVjRTYkwxQlE5RXBkVHBlYTNncFRMUFJR0gGLAkFVX3lxTE9nVU5aTzF5V1B1ZnlNUC1HelZWUHBhTllWMndmd1E5X2wtMEctWXAwOW9CWHR0dFVQSGtQVXd0eVFVVjJTajRsMllZWU1QSXAzbTAweFprbjZEa3o0aERNYi0xS3JvSkc4a3U4bUNzMmh5RHM3NVVpZjlyNTBmR1lORTdzM2FFMXFRN0dSdkZvODhfTTAzM3N4UzhVM2dnMlE5eFpkWG1yNmxrbC1tYm9TNjJUN3FxcUNJUnJRclg3TmpRMWYtMk9Xa3dGTEZUSlNaZGxnZm9HbXU5TEpseGdHOTZnNXRZTDQzSUdsdkNRTXdjYk5JUDdaRjBUYWpFU2JjOHl2RUZKN1BPRQ?oc=5</t>
+  </si>
+  <si>
+    <t>['pobres', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Reforma tributaria de Petro se cae con voto negativo de comisión cuarta del Senado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOSXNLeGdvODcyTHdCRmh2R2ZVZkZMaXlSbVZLYWFETFdyRmFuTF8wejFOWnpCOWEydzFVLVJCbXA5UUF1WkZLd0xmMmNtYWNOVXhMcFlPQzMteG9sLW1TUklLY0c1V3ZOcnMzbTc4MktXZ0l0ZmxLZXhESktZcmR1XzZ6UkkwYjNYdGdyOGtFanpnMWRCY19rdTVVTDJJYTBLb0g0R18tZ1cySEJFeXc?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'negativo', 'cuarta']</t>
+  </si>
+  <si>
+    <t>Podcast #RegresandoACasa | Otra tributaria de Petro que se hunde en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQaElNZFNKbGpTTjBNX05MbGt5SVF2d2lHLXZYbU0zLTVVQ3JVSFZ3Skw2bGFPU3E4SXlLUi1nYVlmcV9xMnpmTElWdFJURngyeDZ6ZVlwd2Z0R05oVWl2eGIzTUhscEpyb19rdF9xeF82endMWDhBWWx4MTA4SzhETWx1QUd2dnJacTlMbWNZMG1tVEhTdzN3N0tLUzBDeXhhQkt1WXVXU2NYYlRoTjFrMXlYT0dEejh3V0pXSXdlY3g2eUM4cms0?oc=5</t>
+  </si>
+  <si>
+    <t>Petro aceptó reincidencia de disidencias de ‘Calarcá’: “hemos perdido apoyo de la fiscal General”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOY0MzWnItWVhSTTFzMHUwOVpCWGU3azJpNUpOV2RWZlJCQTNUbUYxYWx2dnlwa3Z4RDM0Q2QxWGQ5WHNBVmpwZTBhdUE0dnhIMFNaN3prcG5CUkJnYXFWTmJCQjdzejFGUXdYWm5hQTBMdENEaUtQQUFPTjRjcExGQ2VXUENCUk8xcmNVTGNBWnBZemxpbWJQaUg4WmtSRHhmelVfVWg5S1dmUmNkbFF1RzFZVE9uQXdqd18xQUl3U1pnWVhtRUHSAdoBQVVfeXFMT01sdE1rS3d5VGFsdWpWdnpkbm9ZVTJVLW5NeHIzMnZJNDJJVzZnOWdtSjl3U2FESy1aWC1jV25FeGdlWDdURmIwaHJRclIzbl9HcVp3VlZRY25ldlRaaVFiTFV5M0RZSEYxMDBpclBqZDRCZ0o2b2ZjU1Q1WmgxY0VTYmtMYlZUSmFjUWFkZlR1UF9neDFsRVE0MXUtTWNEZXJpYjFRTHg1MnV4aVJDMWh1QzNxZHRNV2pMblgxdGhtR1ZzTVpPWEtXSDZaNjFROF9INVFfS2hhS1E?oc=5</t>
+  </si>
+  <si>
+    <t>Enterrados permanecen los cuerpos hallados en Puerto López, en La Guajira, que Petro pide investigar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNMlJMRC16clpMbHgyYzZ6bFNOSEJ3VkIwUURmS3Q2cmpONEhqMzY0WV9kdUhGZERaWHJ3aEdhMEttbE1sMGo0eE5UUGNvNjFVTkJGWnJ0bTFrUHR0VV9qRTUtclFrRWctWWxULUVMMWRCV3h5ZUNQc1R3bXVqVmM2MWl0ZmFtQ2t5bkFuai1hNlFUbmk0cWo1eThjTV9Vd18ycGZSdk9yOW5NUUZhNzBTQUkyamViV2x4WVZzQ1NuMDZvN0NXTmxBVnhBRzNIQdIB4gFBVV95cUxPVWFrWl9vc3dKVDZINVlma2JZRUQ3aEllVUd6cDFQaUl5SlRJbnF6Z1JCcUFEMVdteUloT2tLTXZ1QUhhOEl6ai1wem9UMGpuOVVxNVlGeXY2S3hDekFIWE5MejVCNHlqVlkyZzYtRXBzMjlkZXF6UUlFQXRTNVUtMHllMXBMNXM2aER3OENPYTdiejNsV2d5TS1WR1JfR1E4QjQzMXk3c3N0MGZJWVpfV2VBbUQxaGU3VXRnS3BwODA4WVVKeEExZFNINi1zUm4xT2R5UzVycGMyTkY2dTJLZ2V3?oc=5</t>
+  </si>
+  <si>
+    <t>MinTrabajo presentará propuesta a presidente Petro sobre incremento del salario mínimo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQakdlazRXYno0eDdHM1FVdHFMMkdCc0liT1ZMWnplQUZySW1lbDRWLWR1T21NNHF5MWhsT28tX1MzMmlLZG5aOUVRRTJac3hPSUhOWTVvUjRGbzZvM19tRGtBNHFiWUJfUzRJUVdfVDZLdVJDQlRtLUlKcnY4R0hfeWV2VzJOSW1yZGo4bnhJWG1URGVWNkVyQWs3emJYSklqdTFWaUpqc2loNnJNVmw1TzB1M0lJSldDbjJfSVl30gHSAUFVX3lxTFAwajloZHl2dUpCTWFyMklXR0tMenpGa052TnBTUEFvc19uck9sRXhSVDBUTTJsMmlGREVSejBHekx0XzlidDkxdjJOZ3RJclVZeUFiZWtDaVdLSHFsNk5sMEhPOGpjcUo2UVJzbFNMU3llNEZFNS1QaVp1Ry1SeUw3OGk0MVZ4WEtodjhCaHM4bFZIeTMwSEthYTdsbHNkcU94SmtVenNVSGhYTGJDaHpqcFlEdkRIMUU1TVNleV9uX2pEOHJvWFFobkxOeVRZUmRUUQ?oc=5</t>
+  </si>
+  <si>
+    <t>No es más que el desarrollo del odio político por encima del interés nacional: Petro por tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxOQ01DMFRacVdSb1dqWTZMVGFwSDdYOFUyUEFUUFkwOXpkcnpsRk5FUHZjRlNiVnZSSjJKVlczOGxhblJYTzg2S2FNYmtySjJZWUZHVWMxMXJzR2xzcFN4azd4QkxZRWVWWGdPZXBaZlFBUlI1RW9ibGQ0TkZDUUNzSnB2RlhVQUE0T1NQdGRZUGpIVjRJODN0c1h0SmhfRzRiekVfMlVYeW95VlZic3dsRFZVLXpvUnJOeFhrQ2lfTkVBMzlzVUY3bmg0ZGZsd9IB4gFBVV95cUxPckJlUXZwMHdJaVF0US11M2JiN3BmekhFcVo4aHdtRlRHMDJVdzdjclFQQzd0dU1DbHF1UmI1WFRNeEctME5iQlV2Z0tXa1Fua1NVaENtcEgyX2JDbnJhQWU5dkJibHN6NkhwZDQ3bVg4dHg2dTR6WFo2NXVQSkZPeEU3STE1RXFTamFxdUZCSzFiZ1pHYUc1bWd1eHVTWTcxdTBSY0JHQzl5bFJkTHRlaS1GUUM5SEF0dllCZVBqM1RZNTU0eHBpd1NIcngyMmxKM2lfcF9wWWU3aHNsMk5NZ0NR?oc=5</t>
+  </si>
+  <si>
+    <t>['político', 'nacional']</t>
+  </si>
+  <si>
+    <t>Congreso hunde reforma tributaria del Gobierno Petro por $16.3 billones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQZVBYSXRFdkw5clVxakhHT0xaaUpYb2JReGNYN1ZhZzhaVDR0YWU3MUVFRVU5MVN2MWpMeUloUmJnXzNLT2lRbHZzVFVOTzVnU0VwMDc1SC04SzFzLVB1SlBjcGhtSUQwR0xfNzU3YVpuaHFRQUplQk1BamxzU1MyUkRVQWJjSWhFcE5FQWVtWUUzNDhULS1uSng1NnpkT1JuektzWGZZWdIBuwFBVV95cUxPdW1BUU01Vkp1djFSelc1UXV3Y2VlUWxGRUxsTk1FZkZhOGYtZW5EQU5YYUlPOWtCRy1RRzhBUWdLd0JPTllkVlAxQ3RPQTZ3OUVyTHhBWFBxMFo0UFRGMmgzTlNUMFNzaHdSSmNTOVRVOHRZZV96Y0N5Yk9RMFdjc0lWaVVFOWZxYjY0M3lSc3BOX1F3LXlwTTdrY21RVFFCSWFOcFRpY0N3MkVGVzdnTE1uNDYySUpFNV9Z?oc=5</t>
+  </si>
+  <si>
+    <t>“Hemos perdido apoyo de la fiscal, preocupada por su inclusión a la Lista Clinton”: presidente Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOT3lXTUg2ZkZFUmVrbml2MW4wcDNTWDg0UjJ3OEpIMmZYQ3FEZ0ZEZnhLcmRfUkg3VjY5SHJOOFpQdm9HTEZYd0F1YldpVHI4VjNvY1VadlY0N0VrTjdacXVaYTBKS0gtaUF1T0xCUFhOSDRLbm4xVUNWY0I4aVdoUkNMckFJWEZtRWtWeUFvMnRCTmZyOUxNdjRRQl9FNDZjTXpoZm10SXdmNm0ybFBkeVlKeGVUZ1V2NmdsVXB1dW5ZcmV5Sl9PUk5Nb1dUYlHSAeMBQVVfeXFMUENmSklSZzZVb2otMThsdWk0eFNMSFVtQzN0b1QxVlJRUDR0TWYzOWM5aWdDMnQtM05GRWNJbkdDcmxiNk5NcFJpZGU3RmZMZXlTcm5rc2ZwS2NBSzFtNlBfSXZWb2lETXlnVUxxdTJDTGUzMERJVExsd1h1R2swcFVQa1NYODBiRmRUWVRFdTFSMlBDN0FYYTZock5jVjVZUjBhMGFYSlRiOUVrTEZaaGxCQ1R2YUtTSW9Od0d3WGlmd2tSMDNpMXgtLWI0SVVUSEc3VnM0ZFhJM3JsV200bnN3SEk?oc=5</t>
+  </si>
+  <si>
+    <t>['preocupada']</t>
+  </si>
+  <si>
+    <t>Petro tras hundimiento de reforma tributaria: “Desarrolla el odio por encima del interés nacional”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNRVZ5bl9LaFl3RjN6Tm93M3AtWE83NE9KTW1ZTFlYRkhLZ3hGRXQ4clBDUjkzVVYybEt1Y2d1MnF5M19xMXcyVWtNUmxHYmZ6NUxucW53Tk1TV2d5dC1WQjZxR3ZEZjA3SDZIRDhKdHlSaHVqSnZnOGY4NkQ4WDlUeUVOLWI5eEJpeTZGQUNuRDl2MXByV05POXNoNk9MZ2djdk5TUk5jUHcxSzlGUzdGZmRhUXlLVVM0NkxaeEJNYUZObGVJU0lsMmZqQ2JVZ9IB4gFBVV95cUxQTzQ0MV9JMFhyTUU1VWlkYWZ1aDMweXAxLS1QakFsWk5FNVpfOUNYMWY0VFkzU1k3dmFvNl9wZmhqVENxT0g3eDlxblRCWmF0NE10MWFoZ2J3dGJzZ2xDVzVKVXRWcnZvdVhlUkEzcHlaMS1MV20xdFRHY1lWeWgtYU9VZlRxNjF0WWZWQW5EbVpDdHB2dzA1TG1sb0Z3aVF4RmlYckRvRlplZXlJeHlISnJGeklyU3NINUZCc2pGR1VybkRDYzJjb3c5dUtJdS1oU05iVG55U3pnNHZFQnU5T1l3?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'nacional']</t>
+  </si>
+  <si>
+    <t>Se hundió la reforma tributaria del Gobierno Petro: Comisión Cuarta del Senado archivó el proyecto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPRnJHTk1USDVqVF9VU1BWMmRTZVhSS1h1eFhnYmcwZDlCaUx6SlV4Um5NVnQ4QjVYMjkwZUdoZmplSWtmZEhocjctQTMtQ2djT2kzRzQwZUhSeXh2RFZEMTg5bFVNemVmVUg3QUVXY3BxdFJfSnRPcjE5amdKME5ISnk1ekpMYnFGMTFiUS1QWVIyUm5vVERvdmQ4VlNzWFUwbzFYZmJYdjVQLWNnQ3hJZmt3WEZfUUN6aUhlZVdGdjhta0dxR1BxMEs1NkZnNUHSAeMBQVVfeXFMT1BhSDdJYnZsQ0dmU1V1RjlSMzZ4TWQ1NklvOTY2Wm8xdmlSWmlScTNNY3FZNC13T295NWo4YmdsRHdDTUxmY25veVhoRHFlQm1QdENCZm9RS3VuMFlaT1hJRm9ZdW5nb09oNkQ0MjdRTkkzYnBjMjFsNkFJZW84azN1M1dYbWdVbFNQNWJTVW1sQm4yaW1nbWRDYVYydzNaRUtHdWdDeTRlZ2t6U1pjQTFDOG11UmE4RDc5V2piTUhfMHpBS3lXNFVmdlk5MGdTaXE0VEc4UUJWQ1BKMFB2RlpJY0E?oc=5</t>
+  </si>
+  <si>
+    <t>Tras caída de la segunda reforma tributaria, Petro amenaza con recortes a inversión, vías 4G y Metro de Bogotá | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNRHduaUt2VTdtZlVyWDVmYXNxTjJYWEFvTmFjS251NGlNajBMdXFkYlYxZzJGZVZyRUx6Qk82aVZ0cGNPeFdqamxDRmNTODNDSDhoeFRpQ3hNOWdZUG9lZGw3azgwMl9jRTdFXzJUNVYweUpSUzNmLW50cWRLZFU1cjF0aVZZWnQzZ2VYcUEtYWY2akFHaXBhQy1FMTVJdUphMXJPcWRtNVRma042WEJTYzhpONIBuAFBVV95cUxOX0VHUU50d3hIWkZhOXlUZW5yTGlqTFBsa25aUnZnMV9GRXJERUJuNDZtN0RhWmwzaDQ3MzViNzFjM0hGZnRtTktuNTZBZ09xZVJtM09qd2lVemk2anlqUUQzWWpWZEhjb2tidy0yY01tUEplcHZyRDdIcXFaMW5ZNDNESmE5cUxOMVpib0ZJYWZoSlF0VTNNVVJpQ1NGWkllRjNfRkZxdlJUZ0ttRmo2djhiSThPNEU5?oc=5</t>
+  </si>
+  <si>
+    <t>El congreso no le camina a Petro: cae tributaria y la de salud en vilo | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPd2ZoTWJjNmlYOUVpcElPRWl2RldyaHNHdGdndVd2ZTJtQVdGNEhWaEQxQUNERGZvU0pNM0FoRWpwdzFDN0JjbGJlcUY4X040dXRmMDQ0S0tDRVhhQ3BlcXItUDkybDF2empTYTZwNFUyWFBpbGRFNURYM0UydmZiSFVtT2tqaTlpQmcxTEtxZlNMa0VuUGJKQUtBcVREd0c3Y21HSVVkVjVSUdIBrwFBVV95cUxPeUhGWEFzTDBzdThWSjYxVkE1eVU4OFotRmpKSURMQXdvWmF3NVJNaU9tT3NWdXdQbS1UUnNyVEpXRDhxRVVFQkZ2Nzg1aTVDRXp2MGI5UkxBWGVmUDhadkpCbTZjN2pFTXA5WUtiOWpaVHM0U19ZdWJQczVURlQzel9Sb2VJUFhnanFoQkhoOERKaklCTGRnYndGS2F5VThFWGZJQ1lSTjBjZEpzN1N3?oc=5</t>
+  </si>
+  <si>
+    <t>Petro arremete contra el Congreso tras la caída de la reforma tributaria en las Comisiones Económicas Conjuntas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxQLTRLLXhtcmR2U1p6RmhDd3pSMEI3elZBR0VYLUhQbnVlcUxUVHhiQW1fMVVhYWoxNmpEdHEzaWF6TlQ1YWYxWGNSb3pfMFNXYm5tOG14OEtmeklqUGRoVkh4Q3g2R1VLTzhMRFR5UVVCbUZ6czRlV19wbjFGVndGLWdOa1RreElCOEpRY09wN3hQbDVMdE1rZ0Rkb1AxX3ZkbE1PSk8yZjJCbU5GRjNZVVlJWGZheEFQU3ZvUTFCd1lRN1JpYmE2cjBmVDVmNGRLcUpxTVBUTlY0V2VtaUJSZ3k4eXZpdkozRnpnQ0dB0gGIAkFVX3lxTE9vVE50czlMdE9Rc3VkQ25JdXUtOFZkRUlsRzV5bEUyTVN6NGxFTDc5Qk1zLThqc2NVV3YxVTZ5TTBMOG8xaGptX0hVbjdBWWIzcDNBVHZlcE1hRTFuS0dqaFFrZEl3TDk2LVUxeTUxQUtrVG9MZ2Z3OFoyUUc0RVYycDNFY1pkZTRVd2Jud0lDeWFKRmQ4V1RSLUcxdHdva2F0Rkw3R0c2eW8wS0ZLRG9EcHFtZUtUblg5dS1hYUswdVNkY3prLUJEX1l5QWEwN2VDOGF3akRMOWZPanF1SjZKWWZvdW9NNU1ielBfa3Yyc3FpZGNlcFF3bHlGaHNWT0VTODVGZzZuUg?oc=5</t>
+  </si>
+  <si>
+    <t>Comisiones Económicas Conjuntas hunden la reforma tributaria de Petro en primer debate</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxOTjNjN2RfTUozLTQ5S25hV3JUT2MtY2VLRXhNYm9kbDNBV0VQRnBkVHVqTWhjakFIdGFPcnozakVIWFhsdjVPR1lIRDVZUl9uRjdxVWhJRVZNSkNHeGNDRUJWWE50YVNDRS1CUkdmcGEySHBOUVlUcTdDTTFtc3hYTFJtLVItdzdZYTEzdnplcnBIRzBCVWpjVVdoekduOFExNjh1NGRDWHZJVVAzdEdWT3dnU096QkR4SmRhUGo4bjA3YnFmYVNmbWstd0nSAecBQVVfeXFMTVVuUjF6Y3dYMEF0aW1ocEVBTjBETVZVZF9sZkc0aTR5UkVVdlVrdmNuMDlRSU9GX0tFa2lTVlVjd0dIZ1RtTFd6M2RDX21ZTXoyWWpRZGlzN3lVMHA1VDM4czc5UUd2Ukx1QXdudDNYbGY0bGpxcXJVNHgxUmZVTHpMNFdJZGt3ZHNiQ1AxWWQyX3U5Ty11aHlSN2pPeGpUaHV4UmJqVElHLWpITGo2VHJQZnZzSjNXeWUzZEN6MktTX2hWTWFiOENpVDYybGdlT1ltYWc3QnpfSHNMVW8zTTRpZS1DaFk4?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'primer']</t>
+  </si>
+  <si>
+    <t>Durante el gobierno de Petro ha habido más homicidios que en el mismo periodo de Duque y Santos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxPeXRBQVdsXzZ2aWQtNjMwVG1JbGFER3JqUmlVakkwNTQzS0RhTldzb0VSNlNIb1ZicVJQWWd3T21yZ3NDcmRxZ3RhMzlocWdBa2YyVm1DWW5sUldDUzFkRjA2c09LenJUekNrNlBHb1ZwamtHRVhyZGpfdm55T2x4em9uTFFibUpjYnI2a3ltQndzbF9IazBQMHhkRHJwaFV6b2FGRFdsU0ZyemxEOUF1bDI5dHl0d3cxZzB2UXFsUjVFbDkzUjhDTmdpX0hwNVF4Vl9HMVp1NXfSAfMBQVVfeXFMTngxUUM1R2VUT05raUk0YkhKVzliZzUxVlpXVlcyQWZPZ05wQ1BpLXVoa2hQX0EyZGpXeGRNR3pGa3h1VWdhTHFzSy14TmV2bFZmQ01kZkU5aEVPSWNBV0dNMFJfX1llSVNLdkxrRUV6MjJPUHpuZXgzb0tOTS1JbGFZVl90blgwdU0ta0JRR1lSOWpCM0ZTY0JLeEJCV3AxZG05NV9SQUFfUjllQmVLUlJKaTdsSC1UeGxkU2hFajRhMS0wQjhacjF6TjYzTmk4X0RxakpRTVRXUlJmV1RyOG4wQmo0QTFUcm8zMXhmQ3NQUmJF?oc=5</t>
+  </si>
+  <si>
+    <t>homicidio, dura, homicidios, homicidio</t>
+  </si>
+  <si>
+    <t>El enredo del combustible para el avión presidencial: lo que dijo Petro vs. la versión de la FAC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNdmJ4MHVqTlNPY2ZqQ25CUjd0SWRzdldONTFySzY1Wk5paWRtYlhkTXlfNFg0WHdGZG1qbmZlMmo0TG1ZU2Q4MFM1SnJ2MS15dkotbENPREVEdzFIaWRnQjhGM0UtVkttVnVvcVRaYlc1NUg0eEV3V1VGUktXdVJRQUZMc09TNHFfSktpY21sS3IzdHJMMjVfbUxsYXZVMWdTTXZmTnZuVEtJOVo5ZmdKaGVtRk8yVWIxeVRzdllNMlhZYXo1NEMtb1Izb9IB2AFBVV95cUxNNHMzOUlkUWZCeTBkYlZtS19PV2hVX0FDaDVPNlNLN2I5bDdiLTM1VlZuemhXUzNPNzJHUjlNTkdsajBoSUNqY3RmZUFoTjZ5ekZyXzZMRE5NWjBjejRYZzlqOExXOGxYanBfLUhtbWw1UnJ4RXlfdmtrZnN4Nm56aTFWU09BNnhJdGtlZ0ZuQjRJUnQtaDh1STFpQ1gzejdUM0pnN05PdVMwbHpXTXBZZEN6SE1KY25FalprMWR5VkpvaF9qQm9BeG5BUHBvY0hid1F6WmFSWGw?oc=5</t>
+  </si>
+  <si>
+    <t>Derrota para el Gobierno Petro: se hunde la reforma tributaria por segundo año consecutivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQWjRmdUtEUzFSOEVGeG5KcVk5eFBteTcxeXN0d19XZ0ZnMURGM3I4QkREQzcyWXAxaEw0X2pZUTFacnV0aUQ4dFJ0LXZ4Ykt5S0VsdU5DNlBkTUU2MzlCenhRRU9DU2JVb01obmpUR3lPTHhtSVBZS0RJMlg0czYwN2ZhYmppamVURVBBNDUxbVN2YXpjZ2lOR05aQWJxY0xpTXN6ZC1pb213ZFN6ZTlZRnhobkfSAcIBQVVfeXFMTXY4RGFrcW56d0dBZHdMRHVPZUd6cURLYzRwUVhFNldvdldFNmV2S2R3M0dRX0RGbHAyaThLSVZpRXV6MDU0ZTUxLXlXZkJMUDlLeUNFemNNbXdBU09hTkk5QzVxTWRDM3ZNVUl4VzFkdDB5VXpSaW9vVnlGVlVEUERNeWRNd013VWc4V1daOXVOQUZSYlhUVjRyMXpCLWdzUVpiT1ZjdFItbEo2RWxIVlZHS1g4aGExUjZoZ2hWS09jUEE?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'segundo', 'consecutivo']</t>
+  </si>
+  <si>
+    <t>De una conversación entre Petro y Rodríguez Zapatero sobre Estados Unidos y América Latina</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNZjN4b0dlVVFLNTY2Mk9oYmQtMFhGYTVPTlhnbENrMFpuRHpwUFlsSnFXQnVYWnFvTHNRSEl6QlUwYzREOG5hc01tZ1haMG9kTURCaU1WWlBQeklTUVM3OUlyQnE3U0VoY2ZKX0xGLWJ1djNBUFl0WHUtS25mRExjdTM2U1hmLTVTY0ZXWk9EdW4wRnFOV3FIOG4tWjZnNmpvaHVzV1ltdEY3SldVcWdXejN1UEw0cXVNbWJSbnlCYWkzMDFxWThXSGxBdkJjSjBteElNbGRVUjhKcnEtdWJZa0pMbTBDQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Senado rechaza reforma tributaria: el Gobierno de Petro afronta nuevos recortes presupuestarios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPajdyMzVCZGtPTmxmeGtVdkgzdFl2X0J5WFU5SS16U3dwb2ZsVUk2WVE2ZmZPWF9oOXdtZlpSd05IcldhbWN3VFFINXNZRm9RVXExUE9PMFV0elFiVzdKUWVoSEVTWXpwQjV6Z25nVXotNTVha3BOc2prQWZydEgwc2V5YnprOUZMMUZ5M1NxVHc3ZXpUM294ZjRUaUkwRVFpcGkxOUtLUFpUUVdFLTM1aV9LVXl3dkJLU29TY2xkYzBxZw?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'nuevos', 'presupuestarios']</t>
+  </si>
+  <si>
+    <t>El Congreso hunde la reforma tributaria de Petro y deja desfinanciado el presupuesto de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNRklSVW9PbjhmUDRjSVpxRGpqa2lKSUtlc25PZmFITUhWN1hTd1haQkRrYlB4T2o2aWZKVlRIT1hEWXRaVndnZWVnQS1rVmp3MF9aSGVDSEVmU1NlUWlDc0pVeHd6VTlmSFFXcjN4RUhOV1lobThERUZTTFhOZExzU21xTVZBQzFvemZ5U3N4R1JLOFZSR01LTkd6NG5CQlBxb3fSAbYBQVVfeXFMUEFER08zN3liZGlDMGJ6ZlQzYkYxcDFWMGVPRHVDVFZHUU5IZ3Y4NzVhODVNcksxaElQeU1oN1VjSkNBb25ocjQ0SmxqbUViV3IyS25uNTE1Rk9wMXJ0WkF0WFp5VElfU0U5NE5IREpBbnpOYWtWMzhhLUE5Z0k3R1FsLXd4ZGRnSnc4VEtQZW1YRUVJc1FIak90dXkxcko0Vm5iREhiUll2ZzNLLWM5UEdtTHRoTGc?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'desfinanciado']</t>
+  </si>
+  <si>
+    <t>La derrota de Petro con la tributaria muestra que su frágil vía legislativa se cierra del todo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPb2E1NjhrUDl4SFlXZzlkYmNpTFB5aXJMUWU5eXdSNXFQNndqb2UzN0wzNXFnR2pSWHdGSkZJMkNFdUI4UURITWhZa003b2V1SDlldHVLTDJUZmxPVXV4WWtkaXB2c1ZqVThWbnhUT24wWWRpUTZkRzJqS0stanpKX1VYUUg0RzY1ZUpERWNxMHJ1LTZJcXlWdE9CX0k2VngxTWI0XzdOMEdMdVBBdFMxRDdONmwzVFBwSVdJOTQ0c1NhWnVTNi1paWFta003MmVJT24yLTgxN2lfajNSNHlV0gHzAUFVX3lxTE5ZVUV2bE42ZTFTb1hlSmk4SkE3dE5ENHFncl9qam91VjhHdDVlaHVWeHZRLXg4UkRVYjlCcnpwOVN1Mlk2clZZdll4Q0tlX3VzTnpMR2laWElvZVhvRUtXUklmcU95QW9ya2h2SW8wRWtjdm9TazhHN1ZFU0tORWZ5cmJfS2hBbnNaNDBRbGNvOWNub1VsZUZ0aVFYVTF3dHZrWGUzdDRUUGk2WS1uSHdLMWlIYjVYOWtPNHBQWWxsdUlNWGxkRUFLT3doQ2RDcGEwVV84ZjQzcFRNYXpfcVBjTVRvR0tGak1ha25UY0ZSOWw5WQ?oc=5</t>
+  </si>
+  <si>
+    <t>['frágil', 'legislativa']</t>
+  </si>
+  <si>
+    <t>Petro habló de fiscal Camargo y dio a conocer aparente distanciamiento: "Hemos perdido apoyo"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNbl9MR05UWnNUb1pOYzE3UGw3eDBoNmVldzdJWF8zSEhhSkowU1hxR2pVNFJxSG9oSE5lTl9TdVl2S1htZTV3bDlYcW9QLVFoeENOUUhYcjRrdDE2bWwybWNNYTFONzhFWWt2X2RMaHpIZ1hzTFNMSFVWRmMyYjVjbWZobGtLZ1p3UXoyenJVYUtCNXd4d0RXc0lLQ3lPYkttem5ETtIBqgFBVV95cUxPMFNSZEZBZlc0M0lWQ0dLQmpacU55ZldwU0UzNTNwOGNTaGJ5el83UE45NXEtdHA4aUFpRDZHdk9jLU9yOEd5c2lGUWlmM0FqZmdHdGpkMEhibGw4X0pIb3Uxdnh6QmhTNTlFWDZkTXlDRDFQeDcyM2xUS0lVNzhTRzk5Uk5SX0RGQjZTYzRLZVRCc010M1ZJS2lDMWt4UHptRTdvRzFGU1pydw?oc=5</t>
+  </si>
+  <si>
+    <t>['aparente']</t>
+  </si>
+  <si>
+    <t>Reforma tributaria de Petro se hundió en el Congreso (por segundo año consecutivo)</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxObnRvY3pGTVZRZHpfbEhEc2tkTGc4NExWYTJLVGpVM2Q0RWlwODJWVzd1eXRuUEdEX1lHcGtUUUNEOWhEcHN0NF8zOHhPLWVzTG9BeG1vX0ZodFp1ejVkNkNoN3VCYV9ZUlRrVUV0bVdDWUh2RUFuOVhieEl3NkVTX3hwQ0lEdDJPcDdpUlcxYUN3UjNRMDBaVzloM3Q1VW9SZzdSRFRRSXVtX1ItRXfSAbMBQVVfeXFMTXN6UVhacFlraXZGby1SeEFwbWtTbUFVZEEwcm1tcnlUMmRGWXFTbG5RSUU2UjZTMmlCQ3NtbEZBRDVldzBZeDA2c1ZqbE1HWmUyRHBJNDNZOVNRUFktTHlWYmYySnBiQjZ1cW94ckVTNmI2SUU5RHVQbnJyaTdCNk5VT244RUZvMW44ZVd1ZXBFWVZsUmFYQ2hFNUxRRURZZFVLV2ZpTnRVUU04Vm10b3F1N28?oc=5</t>
+  </si>
+  <si>
+    <t>Filtración de documentos secretos: Petro responde a crímenes y retos en el proceso de paz con disidencias</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxONkhBUkw3S1I0RlFfY2w3T1BsNTRSLWxtbTNMYU5lcThfWlNhSDZaMm9HUlJRUDF0OWZMM3Q1YWdQMHdHQS1ZR1ZZcGxnUlctR2I1OGZrZ25ZWi1CZ2JTWXUzclRIVHhqNkVtLVhRQW9FSVRBa2ZkSXh5NENsWUNVNS1PdjhrTjJTSWdZY2RYd3c4UWxXM2t0ckVBcUg3d2xOampRMXBhb0VSZm1TM0k5RmhtMlhpRlpSWVVyQ0VwTTRFWm85YnAxR1BySDLSAdIBQVVfeXFMTWxzSzFDTnRPeHMxbmwybjdieDZOdnlTRDhZYlBmMVpmN19XdWFmU2hBYUpJZ0FQaXVKZjhwOTQ3RXhRSDZaTEUtUWsyMlFyNmh2MWNZZUxzUEhnZnBpMkxTMFF3MDV4aGtTYzU4NWNVWXFZN3Y4Y0ZqN0o0c2xialJnOVNObldQbGRJVl9rc2laODZNVS1ROFdxUTZvWGhoTU0zTnBSbkZjR0VvWExZVmRnT01wVE9zNFFiRndBWDIwbWw5czU0ZURiZ2RtN3pQeU9n?oc=5</t>
+  </si>
+  <si>
+    <t>['secretos']</t>
+  </si>
+  <si>
+    <t>crimen</t>
+  </si>
+  <si>
+    <t>Petro salió molesto por hundimiento de reforma tributaria e hizo señalamientos: "Odio político"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxQeUpDcDJDTncyRzVKVnduTHJlb3VqaFVFZlVwTkdqcnVxaG5pak5LNkMyMU1RNkxRQTFSai1lUDY3b0ZGM2oxMEF5M0lqaE42QXJnNnV6NE5XSGU0bHZ2dG15TWNZbVoyN2FNTHNzbmNwX3A3WlhURXl1cE1jWHFnU2VLMDl5QVJJRjVzZDdhSDVYSVVvc2VZLWo5N0JubWNaTm43RWxzcHjSAa4BQVVfeXFMUG5EVW5hcHZlM3M5MUFWQVd2V0NVLWV3eDdNNFdKTk5SWmk2LWZWZV9zdUJOZElOUzNZdzNVQllsM3dZZVFqc3Y4TmxDOF9HZ1FfSnNkLXRub1VkR29LVTlqcEVjUWhzM2dTZU1QZnV4QkdhbjFORjhnamhGSkZ4aTVPYVlEa3FlN3VhdEZ5ZXJNeWl3cWF6ejczYkt5VHB3Tnh5YVBXbXVHcjZXZzF3?oc=5</t>
+  </si>
+  <si>
+    <t>['molesto', 'tributaria', 'político']</t>
+  </si>
+  <si>
+    <t>Asesinan a patrullera al frente de su hijo pequeño: Petro habló del crimen y señaló a responsables</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPMmJUYXN5d1NIMml4bXdTMmVGQTlGSVkyWF9tMklDdWs5aHQ3WTI5dzlTLWwtaFc5aURrNGlIbzFNRTlkam1tTkh6UHdXT3lqZjNJdVVvY1haTENIamdHRHpuZ2ZYeG1mal9BaUs4R2Ezb1VOUHRjS0UtalkxM2EySXY3VVpGWXlqeV9yaHg5WGtPa0c2b3FacEM3MVRna25fRjh0adIBqgFBVV95cUxQSS1iWEdYZEZNdUZUZVpPZ2h4aVhxdldaXy1TQzdZX1RMVi0xeXI3WDM3aVJwYW1ZZVRnbjl6OGZXUXIxa2FBNjk0cnRZVDBxMlpVTEhPLVBkaWVLM1l3aW1GazdIQVJaclJYakVDWmNibnFIM0NxWlc5cFVabDZHdk4xMFQyVmZicmgwcWlvQThXUzNLd0JwbXJnMXgtYWQyZ3FIV053Wllndw?oc=5</t>
+  </si>
+  <si>
+    <t>['pequeño']</t>
+  </si>
+  <si>
+    <t>asesinan, crimen</t>
+  </si>
+  <si>
+    <t>Reforma tributaria se hunde en el Senado: nuevo revés para Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNTVdZdVpDVlYwVEdOQjhkRE4xRUxzSVp5T0FONGpVRlVEY0RaRnF4a1NMMGNxX3o1QTNFV0xrTnhDM0REcHEwZTBrSk9XMXFrZ2QxdWZfUEEwVW51R0pWUzI1VnJtSFFvMHVocnhQNzI2TUdqY0tycXAxTElHNHpERFZPUFhwMFB4QkhFYUt6UWkzTmVvZzlHcTBWcFRwVEFnSXdfTHJrYVQtcHZmT2dkWHZoYk9idw?oc=5</t>
+  </si>
+  <si>
+    <t>Homicidios aumentaron durante el Gobierno Petro: estas son las cifras</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxObG5kM1hobU9pYTBDMC1jUkdMTDlEcHlBVFUyVk1NbVd3R3pjRk4yUXBDQ01HdlY2ZTZOSXl3VGpfVzc5Mzk2SGhVLVBzQUIzLUR3Y3BKVFdMamZ6YmljSjhaZW1uNVZmUEZreFByTVRZMkM1MVJBMFpkUk55Vk1fZTZMS2dBeTV0ZUx1OWlGcFpiaWJ6c0Z0d01lOVZCLVpiRHFZYmpWNUpWQkhwTlVscHhET0E5TURSb0lUMg?oc=5</t>
+  </si>
+  <si>
+    <t>“Es odio político”: Petro sobre hundimiento de la reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxQdF83ZFF3Wk9xbGNNMm1XRGowMWNLczdOUnpKbkxjN1VScmp3TU44NnpoczFMbkhZYUYxTE0wUE9JdHhWXzdYRlk5RGRUWTdGeVo4NkJSbHBpenpLQmhJWHdwekFBZ2FJOUxuZG1XYjA2QjZhaVY3Z0xEMmJJc3RaUWxUYklnejZmNzRqQVdtdDZWWUVXc2tsMktnSUNtNjRkTW56dVQtd3VhWUdmMVVva1NrTUVfczNv?oc=5</t>
+  </si>
+  <si>
+    <t>['político', 'tributaria']</t>
+  </si>
+  <si>
+    <t>“A pesar de mi agarrón con Trump, yo no quito la cooperación”: Petro sobre la lucha contra el narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOaDl5ZGZpcEx2ZXVycjFaT3Y5bzJyMnpoWDA1eWowNWxCTjhzLTlxdW1iWlM4VzRnc1g3Nmd3eUdKQV93UDFIN216MHJaVHZHVm9NbjlLcDYtNXB2VzRxREwxWTZkSGpNWmdwVDhNMy1laUc1Z3NIZE1KQ0RUTU04dmQ0QmE4cWVGNkM2S202ZldEaXlLN1BGTnhUV2JZLVg1WUlNcXNEeDhzRmZYbWdOTV9ITFFQeWtnRVpleE1maWphTGJjWWp5LUh6OWFKZ2ZlTEQ4Nk9fbU1BdTQteUFFWmFEWQ?oc=5</t>
+  </si>
+  <si>
+    <t>narco, narcotráfico</t>
+  </si>
+  <si>
+    <t>“Colombia aprendió que el consumo de droga no es criminal”: Petro pide modificar la lucha contra el narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxNa01PeElSVzNFYkpoSmRXQl9KSy1YeERORFBXckhyeHU2TTBKc0ZOUmU3WVpwZUdRdTZiZ0tUVTRMNHczM0ZxUkpSX1c2QVBjYkFHQmQydG1SdFRGNkVqdUNnWHpnTU1MVTgtWnJ4RDJ1LVV4MDdPRmJMNnRtLVp3QmhKOFc2c25DYVQ0bW5CMV84RjB6SUdnWGZOU3VUM0hxMWpwak9KUzNlMTNfSkQ2dUt6UFV5LUhGemY0RlR0TlM4eTBoZmdmWGVkZE4xbUZaeklzZGxRNWJCYnFwOWtxTTFMY2pGVllZVVAtMw?oc=5</t>
+  </si>
+  <si>
+    <t>“No quieren perder un peso de su riqueza”: Petro reacciona al hundimiento de la reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOajluU09sc0pfSEFmLW5ESnAxN1I0ajUwNVpEM1NoTnY2ZnJvRzZGSWhONnl6LVJUamN3dS05R3ZaVG1iS3N2RERGSXRUcWVQczFrUS12anlFc0hkWFNzYloyc05mQzd2ODEyNFdMRmxiWGQzN2YtZGozd0tNZ3NKczlIX1lvSEdpdTF2dVoyWkdpV0F2RG81RDZDRmJYNllHdFBuSE81RmQwX3lfUVdiM0hPdDcycm9CemFsZTcwM3dRaHBIY2VSdkdZbVdVQ0g4ZXJ3SnB1S0ctQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Urgente: hundieron la reforma tributaria del gobierno Petro en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPMy03eS1RNGpNbV84U0FHZENsYjAtRE9vQkIxVXJPeG5LTEpzZlFjMGduQ1JnNWZydTVlNmxBamJZUlE1SEs2alJWQ3NuLTlUaThLVWcycnlYZWpWVDRSR2g5RlBOX3JlQUk4QkYtWnVkSHpFX09wWFRSOGZ5WHlSSkI3eFY1R2h1YVVqTkVnM0NBdTNWdm9kT2NtWkJXT0tyakJEYlJydF9vSEgyRV9Gakc3cTRvcnZsaWRhbQ?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro arremetió contra el Congreso por hundimiento de la reforma tributaria y advirtió consecuencias</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxObUpGZUFnZzZPOElkajhicURQM1NrcUpXNjVZQ3ZoYTRPcFRGcjZ5M1VRX1Bha29uOWZwaE1oQklyakMxRk5qeFkzb2tMMjRtRGZVWEtLT05UdHpiWW9CMTVHUnFpRlFyR2VzUGh0bUY1VVp4N0o2SVFZTHZsLTNYMThRR1JJR1JhMlIxcEVZTHl3bEIxSngzQnBadFhGTFFMRF9yLU5yRnN0eldLR3ZVa2p4M2tNYTdjNk9JY29mZEU5Q210bVJHNklUSDQwc1hVRmpiUnREa295cUd2TDNzalhlOEZfR0RfWHA5WtIB8gFBVV95cUxQN0U0ckJqVVl5aVd4ajU5T1cyb1dyMzh1NjRzNVBUMld2dDZDWnV1Snc5NjRBTm5pbGJNaldMYmEycHRsMTdmWXk4UlFfMVV1QnJMcTB4ejEzOGdFbG9JTWVsN2l4LWhrVnJPTnBwMVFKb1JCSVA1SjEyZkg2Wlh6SjI4dmpMQUxqdEV4ZVkyWW1zZkplbVctQzNmRkZOWEpoLTZLZmxaOEhOQzFWWHFqdFJ0RVJQdF9NYVpLNzB0OWZCUWVKaW5xczFfblRsSWw2NGFWcGV5VHl0WkZrX1A3dFZ6ckk4THZQeGowWTVkeGQ5UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Conmoción por asesinato de patrullera en La Plata, Huila; Petro atribuye el hecho al Estado Mayor Central de las Farc</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxNZnJFMUZwelhnX2tHRUJEX1dYb2xkSWM4ZHNYRGdMNTh5YzBabV9CUnM0aGdOTm9OaGxRMThscUVBdGY0OE05Ul91V3lUbEE1OF9zdVBhZFZ3SW9UQTEya3JaYzRsY2E4cHRxcVZCdm9jZE13MGhvV1BNRmxGRDBaS1Zna2hSOXA1NktpUExwbkQwRlpUVE1JLXhXY05NODc4VDEtbUxLaU84dzgtOVY1aEVacTF4a3M3THhRYUtLdG5kVk1oSVdFS3ZfOFhwQnduenJjX055azhoTzdxbzVpVkE4WE9xQXNVU3d4ZVlNU0w2Z9IB9wFBVV95cUxQVzhnX2hsV1BRbGsxcUtLelFiN3p6UHRwaGtMTTM3N3pSa0dUdjZsTVkteUpQZHBuQl9ZSFl0QkM0NDg4ZmdhMWUyUEtQWXZKOVhaWWViSG1RS3hreFZWVG1QaTBiSF9zVEFLanZheGZyUmtXbXJkMmtJZVUzX0ljaEtaV0tqRllER19DOTZkR2UzME9VQ1lrRWZsSUF2dkdHZ3VZbUZNX1RqdXBQTHYtZ2pqbU8wZFdIYjZjMjFrdUFEcC1YU0F0VnBLUHVmZTktMHBQUFNoaF9PZkNraVRkNkxDbXNlY3B0ODF3eTNzZWxOd2ZmSFY0?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso hundió la reforma tributaria; duro golpe al Gobierno de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQRTdLRFlJS1NiM0k3dHBCSjRsM081dGw4WEc0cHZTbU14WlNvemtnWUgtaXpTZHJrTnVrM1RXajlDa1JHYm8wS0dqV2pRX18zMnVzM1VKc3ZiWldWWnp4VHNROXJBeGhTSHVhWGpwQ0Y5T2c5QTFfUEJJSWN2T0JKQVBjLVVGZ2Jnb1EzZXZPS3BfXzBSeTNUZlZSZ0FaYllHUVBnZlNTb9IBrAFBVV95cUxPM3NiSWozUk9lM01jb3dCQmVGX1pudFlFNmlDNTFmd3pNclBJZWtaY1YwZzhPUFc1RWxidVd5Mi1YdVpLWXNET3E0V2p2am1iV1FPbElNOVRRSnlGcGhiOHYyNE54Zng1V0o5YlBBS3V6WjEwNEtwSGhBbVRrUnQwMkFqWkFIenp0OXBwU3dONUVEMUUyd1FBSEpkQndwWkpCVVRZNW1mNDFTT054?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'duro']</t>
+  </si>
+  <si>
+    <t>Así reaccionó el mundo político al hundimiento de la reforma tributaria del presidente Petro; hay choque entre Gobierno y oposición</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPR3licmJHSjdQT2ZhYXZUTGU2d1F6VmFLWWI3aGpybVBETUJBMkZQanNfdDl5OTJYMWZ2VV83MEt6YTB1bkNVTTFySUw5bmJGTDAtdFBvZ2sxeWFHdUhCRFMzTDhRVDVNOTNHNDNsdXZjNUloS1AzOVZLZ3ZhcHRwNzZqR29FajBaalR3SWd4TkhKZFZJX016ZVp4d1JZekk4NHZRa2hXcVV5RmZqMGRYU3NJRFlqNnZrYVZaNDlpdHVFZkNKVFFON3NaaWdMY19wZ253YnMzcFpWNG1FU2pBdDE3d1d4X21uY0hF0gHwAUFVX3lxTE1EN19za1BMZ3hKRXVFWTJycjlUVl8zZ3pQUWMtNnpKR3o2eTV1RW5Sa214WmUwRk96cHdvcjY1SXZoTWJfclhod1JzZ1RaVmlMd1dQcmhJZWdQV2lROGx5aUczOWRsMVFPSHppZmRfT1l2TEZBRGlmOEFmU29ESDZ6SXRCWV91Uzh6ZWR1VU94UWs3N081dHNCeGh6MWh6eERBWU1QSEtTVE9meWhKUGJiQUstZk1LQ1htc1B5NExDS195dkVhbFNQWWxxRXpob3hoM2NlVm5TNHBFaHNVbFEwM2tQRWZXcTJRdHdEOEhPcg?oc=5</t>
+  </si>
+  <si>
+    <t>Petro admite a medias la veracidad de investigación periodística que expone la crueldad de ‘Calarcá’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxOQ0xMNF92bU1wVlhoZFVCYkRsc0RUbGh3VUM1N1RiOG9lTDVLTFgyVlk2bEx4YlpMTVdvSGE1VXNLVXFkLWpWUE5fZXphWU9WcE5fQUlPa0U4a1N2SHlmN2pxTkhBc1JKTDY0X0NrUDRQdG5MdEZ3VTJxeVdidVFwZmFtanVFUk1pQUZzeUNEMkhwekptOVBqdXlCdzZ5d242SmpFem16Wk5Sa2IwUlQ2djBRSnJDRjZxdmZyY1NabVRLT1dvdWxCUUZ2STN6MU1HdWlKQTY1amNXMDTSAeABQVVfeXFMTU1ELU9JQ090cF9BSFBtRE10dWxOLXdiR3VxY3JyN0Vpam9IS0dwbGRKQjM2MHMxTWU2OEpFUnd2VlN6cTVUUkxybTkxNGpQdFlnZC1TSHRXWk9CMGJ0dXUyemZoNmpUTG5XeUY5RXlYQVBWbnJsTWxRX0lkRFkwaWFWYXZnSF9VSHo1UExad0xzelU3Z3JvLWJCQXNoX3FnUFlVUTJYYTZJbFBNT3hTTTFZMWY5RnRfaC1kWG9KdjlwbHB5SDlNTmxnVW1sbm55S0RfM0JseXI2M0xxV3dDMGE?oc=5</t>
+  </si>
+  <si>
+    <t>['periodística']</t>
+  </si>
+  <si>
+    <t>¡Atención! Petro perdió otro pulso en el Congreso: le tumbaron la reforma tributaria que quería clavar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPUzU0aXhuWGtWYkpkNjlMa2gzbElhSko4V2tZTmtSZEFzTm5ZRGJ3SkRGZk15blNWYXJFajhhX3B2ejdtaDA0Ykc1bjVwbWU5ZVZna3NOVGFvdjRRRlpJZENvZkpFOUlOQ1pxcXBTQW4zNlBMenZ5c2lqVk55dWtqZ25pR1kzV2Zzd2N3SEgxOWRnWWhkRUFfbFctU3hfcldjMmhYYS1UdjZScE9hSi1Bdm90b3J0V3hkY1ppOXR6U1YtN0x6ZUVROW1Mc25JUdIB0wFBVV95cUxOQlZ6dG1KN0s3NGtPamM0VXhsVDNranNySVpGZmxZNmw3bFljajlrdVJicG9pcmYzckxaVVBqeFpqVkJGOUFodTFlZDZlUm8zY3VKNXAzcUhmaDh5V2l2Zml1MDljaFdUUlBnNExOZ3pyeE80X0QyY1pIaUgtR3p0bnRUY1gtWmVkSERENkk0RW5EdWZ0VkEydDRsa2ZJNzdjNG8wMjMwbXAxb0VKLTczaEpLNHIyN3EtbW9FSzMyMlpiOVMzNVNDZWVVZVFRdzJBbzUw?oc=5</t>
+  </si>
+  <si>
+    <t>Se hundió por segundo año consecutivo la reforma tributaria del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPME45al94NWRQR2JQZGJDdkxFeE1RYlktRkVWcU80OTYxTkNkbkk0bXEybEFaU1d4czhDZDlWSWdPLWhRTlloNEd0NTZUTVZrc2dSQW1HM3RtaTNQa0ZNRUZnMnVVT3BfS0FZRGstM1dfajNhY0hmSWtPNDM5QktQVzluSDV6OTdNTk1US2xqWjhNWTJRaUhsem03NGI2U0ZydE1aZzVoY29xT1JSZXpob9IBtgFBVV95cUxOaEhQOVBIWkZIREdsVzQ2MWNzNU93UG1Kc0tnYzZnTFBkMERsM0VJYnJWb0tBdjRKdUhtcW15NjR5QjNOaVFRSnQ5clRKVHd5b0VQb3RDREMwZUdYVDZpNkVkY2xWTjQtS3BoalFKaEdUSGRfd3FUejhMUVN5ckU3NmEwTVhWWVIyQk9NbnVPSkI2WGtiS1RCMkNrb3dncmpWdklIczJpNmNTM3B1SkFQSnNUZXdCZw?oc=5</t>
+  </si>
+  <si>
+    <t>['segundo', 'consecutivo', 'tributaria']</t>
+  </si>
+  <si>
+    <t>¿Por qué en el gobierno Petro hubo más homicidios que en los de Duque y Santos?: U Externado dice que son 40.000</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxQZG81VGJiSFFNcGViRGplTG45dTZDUmJtZnpLMjZhSWxjaDlBMEI1bmx1VHBlREJ3aGFHT25TMnFWSFBabnA1VWk0UjJWWUlwNi10WVVQQjI3SXFab1p2NXJBS0hEcS05bGV0Njc3T3A0Z3NQdk5CbUF3UlFTcHR3M25uejJhc3A4cmMtbWdkTlVMUGJIUW9CX3dJSWZGRjk0dmVDUG9ZNEZwUks5ZjBkRjM0dzdQU2hlbjY3N1pXS1R6Z0RkbkRGaDh30gHKAUFVX3lxTFAzZjNKeHFlWnhZU1E5ajJrWTBNYlZPek9NMXRiTnctX2wtWW5zZC1CMWlwVnZtNHMxYWtENmRJRFR3cjZxTFNuQ09xZ3BocWJVMURDVXlGNmJHVHlPNmY3RWVjYkhTT3dJVDN5a0MtZ3NwMGN3dmJBQmRGWFNsa2RZejZwQVVRLWh6Z0x1QndOUGZJOWZlMnhLdjItUXl2NnlXS1BIU05FMDlUWTA2dDZEWUxidDZyMzJKWGRBUV93TUZaa3lDS3hSN0E?oc=5</t>
+  </si>
+  <si>
+    <t>Contraloría alerta fallas fiscales en programa clave del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPbnFQdzFGUjR4WEFqaXRtVHdNaExrbWlCYThUQTJCSWlNcVk5aXpNRkFRZnlQS0dFVFVtMk5jcC1WaGR1NlhLNXdJMHF4a0g1RDJHQkRSVlctVTVTcnhlVDAyMWx3OW9XZno1b1NyQlI2c0dmOTJHUnRTRWRkdzl5R0laTFh5aFZ1SWdVdnd4NmdJVkFSaTBvOXU5dWdnMVpFcmhYNFRfTEpIeFVRb3FpWFBqNnE2VndtT05IVGNmUW1JQ2llUmRuTkV4N25sc3pPRkNB0gHTAUFVX3lxTE1PZ0hPeTgwcmE1U0NmaUlQZmVjN3ROVjlRaTdaMUxvT0x4NFlScXk4VkRTRkhTTVFOM1JNejhZQU9vRjUyM18tVklGZThWWmx0THFjMS1yUURXNnBhUFJUWmMwSnhQcmY5MW9RcWxkMWk5RDhZc0JuMEYydjdDSkhmYTlsY3UzVlVXWU1nTW9lTXN4U1JFalpRT2RXMnJVaEdCa1BjVV9UY21rT0U1Ukl2ZVk2TmhzM1dJVUI2WnlFLVJJVzByVU9naWdKaFB1V1JIMnc?oc=5</t>
+  </si>
+  <si>
+    <t>['fiscales']</t>
+  </si>
+  <si>
+    <t>Petro reconoce que disidencias de alias Calarcá continúan reclutando menores y asesinando firmantes de paz</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNUFZxNEItUTdaM29fcTlpUlZIVW5peDEzRkVReW1HMFZQVy1IUnRpeDJBbE5TQldwZG9kOTRfN0xONWRUQnVmTkU4Q2l1cVFIYWlKYV9ncV9zdjJQZ0JERlNMaWdpcDJRWndIWWZKYzFKS2FCcVdDdW8xZ1BUZHVNYVhDOFY5eTNubVpVMjdlZ0gtZExlTDk4cUpJOXNmcG4xZ1p1ZlhwanBTZkJiWWduVlo0UHRZek43bXphQUVtQ0pGVDNBSF9YXzVla0JGMWRCZUljeXRTRlZqRTNPQ0U0Q1VHQzBuenfSAecBQVVfeXFMUGt6Z3dPMXR4YktCdXgta1pnYjZEeFU3TTlLVE5fN3NUZ2xORmh1WXNsVkdDbmZJTlpzYjZWLXAyTXVfN1NQV0RDc2NSRlNDRW5jUmVrQ1piQlNxczlrTzE2ak9fOUlIR3p0ZWh4MDRJNWhfTHo2OUtXZm1ScmlDWGFaT2Nfb2ROR3ZMaFZmNy1sUnJXM3VXMjlvVXUwZkQ1ZXV4OHZ4ODZuQTBIOE1hYnU0Q215Ym9wQU9waEV3elo3SzYxVU90RFNPVVRGRkZnTmJueFROWUZqOHJjYWduMm41VmxXQXFN?oc=5</t>
+  </si>
+  <si>
+    <t>['menores']</t>
+  </si>
+  <si>
+    <t>asesinan</t>
+  </si>
+  <si>
+    <t>“Odio político por encima del interés nacional”: Petro al Congreso tras el hundimiento de la tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOTFh4U2haRk5XTndZX29vTkpPMmVIRG1xRlluLU05bHdKaVAySGtLQWtwTGE4djAyV1dzNXQyX0NhdWRYTVJzaUhucmoyQlluMF92LXhWcS1RU195aDNnREFPZHJvR3pLdGoxR1FjMGRzYTZvN1ZTVWRQOXpuNDZsTmw4WDd0ajRDY1Z1OTluMmdvRERoT1c5THhNTFR5aGVjNXZpc1ZEd9IBpwFBVV95cUxPNzhIM1kyeF9uMDBxdGhWV25JRFpwOUFEOHhGQldOeG42YXBfa1NOQ21rZHc4QUlRYXhwVGtoZGJJb1JqbXFuU0FZWmJYNlJzZTdsYkIzVnVDQzNTM1REbkQ5LTdRLVlKUXczaHNWU3RUd0NGb2J4Tk01eXJ3YVRMVVJSbVQwcjZ2dTZoWHQ5aEFQN0ZXRkYtTnhEWEs1ZmRseFNXZ3R2bw?oc=5</t>
+  </si>
+  <si>
+    <t>La reforma tributaria del gobierno Petro que no despegó</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxQSTF0cEZjUEhwaXZEV0o1UnNkejVIVFRrRC1hYnZwM2drWHNsWEFnc1dJOHZDampsdnVMT1FNMFVsMFdna2dQU1BYd2VRYTZpVHNXbGxUM0JnUnlnRWdjbTRvSDRISFMyVlBSYWI3YVZNMWZoVmFIVGR4SXRTZzVtQklhNUc3clBZRk9fLTJqZDNFTHBLMFdjallneHZkRzJQQUh5V3Q1cGRmdw?oc=5</t>
+  </si>
+  <si>
+    <t>Hundimiento de la tributaria representa 'el desarrollo del odio político por encima del interés nacional': Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOaG5nWjJRRUlYSkZHMFI1Y2dySjR5dlhnaVZGYVlNUjlaNTNyeGNZaGRtSU1xaE9Ud0dlVnNxM08tTzVvWWJGU3VBQlpucV9uWXRfYVFHX2ZlUHN1T3JoeXdmWG1ORzU1dkxycGYxcUpFX3FOSHluZUlBOUxVdVdrbGIxcHVJdVBGd0QyWDlkT2tNanRUaEZCVmpGbDRKWU0yMkdRbUgydVlkVm0yUWx2YWhvU3NlOF8yTmNnMDNUZnMtV1haVWIwVS0tNDduaEZDdy1xWkgwc1JBUVhpTlNUSGp3TjlyY1VUaVZ0azd3YVU1Zw?oc=5</t>
+  </si>
+  <si>
+    <t>“No hay medicamentos”: médica enfrenta a Petro en pleno evento del Gobierno</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOc2VOWU41NUNpa1NpVktFenQ2dTNyWjExdV81MFRZTHVnX0ZicmczVjZxbTBDMnh0M3hHTmZwVGU0bUJlU3h5VEJmNFNsUDFPTWVXZHlmbFBBRndNTHVaLVhNMzN4N01sQ1ZfQUlUVUZBLWtTWjkzTWMtV0hwOU45VWRhTndtOGZyWUQ4MFMzOS1uNmpWa1U2eU96cWtaS2gyTEF4Wmo0NjZraE5nVXdtSUNZWUtJZUU2R2ZhYQ?oc=5</t>
+  </si>
+  <si>
+    <t>['”', 'médica', 'pleno']</t>
+  </si>
+  <si>
+    <t>Congreso hunde la reforma tributaria de Petro: Presupuesto de 2026 deberá recortarse</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFBGd0k0dUFTZkVPcmUxbFRwRXhBd0hJbDJyZThUZmx0YVh2aE90T0V0ZEVGREpXSElGXzk2YWpYV3JlQm9Jbk9rdTBWNFdrM29wSUJDUE4xZWdyeUFSWXRsdDl6SkJlSE1rbV9VSEJ1V0dIUm80Zm5VM2IxUTctOUHSAYQBQVVfeXFMTjZyTmZQUGZpLVhfQ1Z6Mk5lNzNwOGNwVVRnWGQxTUZwcVhCeTVBSkgyVk8wOTVrdmlOSGpKR1U5b0I0Q3ZqWDFYYnpOUDEyNDBOMUZxUVBHeG9ZSmR0eVVQT0ZlNXlROHN1eWVWYkVNME9yM1hveUtKZzFnbTRTbHlvaW5O?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro se gastó todo el espacio fiscal que le generó estrategia de manejo de deuda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxPcE1sMTMwTFc5SkFzenBYNG9od0dqR1dKYXVfc3pnSC1TVkR0VmY4eGNzN1pkUnotNkhFWXJMemtkemNJSFVGQkpSRGYyUm12WTJ5bUF2MlRLZDdSTUd1dGVHYlVLZEprZ3ZTUXlfT0EwUkduUXNBSW1yTTJacjBSZVNFUDVyZVNUT2xHUlZIQkpWeUF4c1h4TzVtbngzYUFwMTlfdUJRalNtZ2NsRmxKVkt0RVVCWC1PLWMtbDFRRdIBxAFBVV95cUxQNFVzYXNtUEw4VVJCUmNMcUEzU1V5MmNud2Jpd2I0YlRVeVNlMkpoSDU1eDFvdDRtdUx0dHBIdHhNYm5pbzZWb0tSYnFxTmxacDVJQ2Y2OWFSUmVoa3VoaXR2QmNrdjNJMXVobkdEVnJDYmJuMWhTaXVSbnVEYVR2Ym5mZmtuemxxZjhTMFBQMzZsQzFqQ3BnSUhxN3dGYURSRHNRbUQxM0ZFT2hwSHNKNHhhRU1ZZTFYU2FiU192S2FRTmEy?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso Hunde la Reforma Tributaria de Petro y Deja un Hueco en el Presupuesto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxOSUFuMXptZ3dMNVYwVm9lQUp5REtsd2pSQ1VFemJTV1B5SFVuTUoxdy12eTlvZU1PYUhmNGcyczV3NzA2TXUyV3BVWDBJLWxSaXFYNU1hc1o5QlFkZENZZFJTNy1DLUhrZzM5WVM2N3VhdksyaW1Wbk8yRWg2WGJZMnJXZWhSQXNmSlo3alVUN2c2dTduLTVxS25JUzhXTDFiZE8wWVlyeFBieURDNEhGbGhR?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro dijo que hundimiento de la Ley de Financiamiento no es más que ‘desarrollo del odio político por encima del interés nacional’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxNem5JZ2VnSjVSVnhUaHdoUVo4WlY5bnhqTkZuOHBsVUdWLWJDOV9RZkxrSTB5ZzFkT1Jpb21HeTlFcEdnMTk4UGFhRWZvUTNCNEc5dTZyVTZuSWwzNDdiNEY2a1NMbXRHYUVoQkpMR3NHWjh6cER0VHMxd3daN2lpelZaY1pKNFZaSTJhYzEtNC1jVXgxTW8yNFR4RzYwaUVkS2R2NU4yNkhMalZjNWtGYzdyMWRRZkxkMERBbmVfclNyM1BGdkV3TjJHR1NoVDRfanVGRlhfRTBpNGxTVlQ1a1hqLWN3YWpRTXlzeVlOYXpfaDBXVkx4ZjZieV83OEZYSWU0?oc=5</t>
+  </si>
+  <si>
+    <t>Petro Lanza Advertencia Tras Hundimiento de la Tributaria: Habla de «Odio Político»</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxObHYxM0VpbzZfTTF5ZWVEcTBSbWZIVGNKWFFRUlRJWTVNdmNfcktDcmJrS0dhR2IzUVlpUGxMQVBlRFloc2oya2xVLVZmNEZ3Vm9nSU95WmFra21ZSUJ1U0JVRVBDT1RidXI3cTJMb2MtbmtYT2JYNW1rRHhuZkRsSldkanNnY0dLOHBnaEViWFJsYXo3NUhGblZBcUtYZXlKV2o4c09vaGtobUF1N2hiRW9pbw?oc=5</t>
+  </si>
+  <si>
+    <t>Senado archiva la reforma tributaria y profundiza la crisis política entre el Congreso y el Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQMHp2MG55dUJZbUNlYWJTeTFNREtqd0hUbksxVnpCTXJGQU04MGZmWm1yVWxjU0ZmWFRFV25qOTlOQkJDOWZxb0o4Q29Qa0FvZjVOVGVHdlJZRXFXbjY3dGRfUHVuWF9pU0J6T1BOLWFnZDRQM0RVXzIxald4SjUtRzYyZFNLdWp1a0c0UmhwMXQzSWZLbmtLVWY2bjhmLUFjUnRCdklnMEIxRkZnZUlLczVEVUxDdWFJcTBtUzZRcmlWQklOaEQ2OUg4aG51RWEtVUZfLWdn?oc=5</t>
+  </si>
+  <si>
+    <t>['archiva', 'tributaria', 'política']</t>
+  </si>
+  <si>
+    <t>Petro lanza advertencia tras el hundimiento de su reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNb3puNE82azlrMzFLR21FWGc5ZEZRTXpmU0JPcjJIcVZ0LTdhckRIM1o4b0EyWFJwYVFteFM1WDlVWkFKYUpzeHpRSThkdmVyclMwX0wxYTRUVFlBRG4xOGMtM09La3RZRWhvTENZZ2k1b1p2bFctWVNBUlB4YldXWEk3eUowMUcySDFEbUMzUGRienVWYktCZTVmNW83RjRIQ0xB?oc=5</t>
+  </si>
+  <si>
+    <t>Senado hunde oficialmente la reforma tributaria del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNc0xrb201OS1oN0FCaHBXdkd2U0VjOF9CU0RJWkk4Q3F1NTE0MUN3TjdST3A5Z0pZZmdrbk1JYWdfYlM3RGhIMFlvU1p0X1dDcjRYbVdMUUZCVzYyXzlSUmpzZUJCMHZmSy1lTXhWTTFLa2pnMGNRUXFGWERNQUVJbFlyRWZfWUdGWjNCallKRmJpZVhxMmI3ejBJTndqUnpOS2xGSjJkemJPcjFDLVZMSHJXOA?oc=5</t>
+  </si>
+  <si>
+    <t>Entre el 60 y el 65 % de votantes no van a estar con el candidato de Petro: Lemos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOSHl0aDNTQ2NaVmtPYVp1RDZ3eW9HRm9SWTBuWFFyNWtpLS0tM1paOGoxcjl5QUVUTWxXalcxYmppT0xIcFQ1WEpfRW1NZGZwVW1vam1nSEl6OWh3OUJPLW9tMms3cy02emZTVkQydDgxUWhRUURKNG5nQXhqaDlnRF9zVUJEUWxHV3hnUGdnWkkxSkYwamRDUTdkQnRGOXFxdHNmLUR6N1BYekhYWDAtQ0VZbTJ0VmRFeE1Fc1k4SDZjTHczcGNGTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol produce hidrógeno verde para bus del SITP de Bogotá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPY3MwaFpYVXlOZXlZSkhlZGdmZXN3d053LTlrQ1A2N0N2YkdwVjZ6NnRYOWdMRUZJbml0UkQ3WGo5ZmFPVUI2dFFpMGxQdmh5TUsyWjlpNmlaS1VMT215aVg3My1OZ1hLcjV6N3ZJZHJnRTRsVFktQ3FuS21SOFVzR2pnT3FZVm10X1o3dWNxdmh2QnAxVnUxTXRCaUozWEY0cXkyeg?oc=5</t>
+  </si>
+  <si>
+    <t>['verde']</t>
+  </si>
+  <si>
+    <t>Petro pide fortalecer con urgencia la coordinación global de las inteligencias policiales en Ameripol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQUF8wSHpKVjRQeGZodkRHVm5nNVlhVTlhZXhOYndkVEtkUkxjeVZGSzQ3VmpTSUpfZ3d6dnZXdk5QNGJIZVh1ZTh6dW03UHNESm1lQUdHWnlhVENlNXk3RTFwbzlXN3hxTDlRSFhyR1N1cmc2TUNIMGRwdjNvTkpscWFEN2NBOWd4Tk5WY2wtYWJSQXgyTzFxSVE3aVgweVZSMFhCSVhienVYcTZlZmNzMElfMmJsdm5iXzM5aEJ4dTlCR3dYUDdhYi1PTVM4Uk0wY1pBOGpPNjB3U0k5bEhYZmV3?oc=5</t>
+  </si>
+  <si>
+    <t>['global', 'policiales']</t>
+  </si>
+  <si>
+    <t>Reforma tributaria propuesta por Petro naufraga en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxQdmZvMmIwM3k3a1g2Nzh6Q1E4WjhaOEhwZmNnWVNOVHRBU3BUU2NfQTVsVjZUZU93WGdEb0UxREFlbmxoRUdjdXFsT05PQ1UxMnV2Y21YSjRlY3U1Yy04R05NVjlfNmRqakJoMWVscWphWHhJZnBzcVkxVndZcU9JZTRPSk1NXzBGeWk0X29sVUQ3eUNwR3lCZjh1M3Q?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'propuesta']</t>
+  </si>
+  <si>
+    <t>Se hunde la reforma tributaría y Petro culpa al Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQSm5WSGJudG9teEgwMXk3Vi1KYUVFdkt2X0VoU3dubkdVM0xXUjlqRFVHbnlXalBKd29LTHM2dkxXWktKMDMwVE5EUm1ma1p1QUYyUHZWTGdnYWJBYlRuLW1sOFJlSjNXM00waXJCUXZDdGZMRDBEYmZncUxUTjZuVy03a2EyeEp6OU5VbGdzeENaM0xqNV9BcWZnS0Fud1hC?oc=5</t>
+  </si>
+  <si>
+    <t>Última tributaria de Petro naufragó</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxPT0MzRE81R2dsV0ZVNDBrZ2M1RkJsUllmQTV6UFMyR3dHZlJkMGdFa2lxbFFrVnd0MlplRkZoY0R4N1NVYkZkT1pDZEpEUzBfdEJBOV9OVTZodmE3RUh1cXRKdTZXNHhmVVpFakFSd1JtNHpuZW1VRkFxTHZJLVRDbVE0QlM?oc=5</t>
+  </si>
+  <si>
+    <t>['Última']</t>
+  </si>
+  <si>
+    <t>Petro lanzó advertencia por hundimiento de su reforma tributaria: aseguró que las consecuencias “comienzan a verse desde el día de hoy”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxNSGZGT0RxYV9DZTNFZkVpWlpiUUVmY2tBWWlPRlp2dkhqeUtoUFFURXVodTRud2RPbDFCR1Vmdm5jLWE4RkdaU1hYQXhIdGZieG04WkxwbWdqMFVVY1l2YlZXM1pYRE1rdGpoLXpRUFRoNkExNDNXd3dSZkZJR0c1T19FNDhDNVh3cldsS1NZbVA2NXRKN0k3Q1luM0IxLVlzSW5aZE9YelpINElWcy1iRVRxdE5RUzV0RlpvbVNiRTJfdjMtcTR4elBaMEMtU2xvLUlRTjdleW94TTJKZzRPZE41M0pIUGVONFVPdnRiQXN1SjRiVVRzNVRYczdVVzBxUlB0d25oei3SAaMCQVVfeXFMTVJvcl9WSG11WWttMUNySGpnX0FvOWN2Q0tkd0xNY3RGSmZBYnZ2R2F2UEpYa2JlVkpnbGh4bmNtb3pZRG1nOUtvY0Yya2Jvb1RWVWlXNnZjTGozT1l1QWgydzk4NW0wR25HWEpLTnd3elhSb09CbjVKVE9xTml5UzVtMy1iU3UzcWJadF9TemQxOEU5bm04Zy1KemwtN1VfcnZfVk03QjJqMmVsZ1hXa2NDSlFXbUhkYkMwM09QVk5Qb01FTmRHZzFJcjhJa0RMNC1GVkR0S21vNHRsWXVHZXV2N1hlUW1uVGNKdmhfQWRUMEZEemtCNmRfNUVWSE9fZWVKMjlWZEU4enZKZjhoVE1wQk81UFRiRzI1ZlhYVWkxNnl3?oc=5</t>
+  </si>
+  <si>
+    <t>Petro fue cuestionado en pleno evento por médica que denunció crisis de medicamentos y atención en salud: así fue el incómodo momento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxOY2RlM0FxazRjYlBuQThkakwzekp6dEduT29kczdGYjhUOHNkQ3g5SUw5VHAtRGd0dHpMOUlweHl4UU1YVklqR0J6NVJaZnYwY1JHaXJwVWFwNGFTUDh5ek1WczA2SHd1T2FWRmpCaEk0NkxLNDZfZ3hUOG91bV9xaV9jOGNmYWczd05raHVtWU1pemNqVzFOZ0xQSXBPU1J4bm9GcE1GQXcybTE0SnR6SF9jaTR1dkJTLWpNUnZ1MEtoYWJxcDFnOS1BbFZTSlJ6bDF5T2lKREJfd3dpaUlHTmtheVlXRndSbG9NTnBvTXZkenV6NUJwUkxCaWFCNHdIdlFnVVkzV1XSAaMCQVVfeXFMT0QyUndYVTZyc2w2MUNiYlNlQms5X2ZZVHZaUGNIWEtFVW4ySGVZZXZuZkZrMTVGNGszYTR5Q3lxaWhqLUNxaG9mMmZXY0Q5WWdwZ19YbmxpN1pEeHhLY0l3Y1pOVUsxRlZxclhfRktyY0M5MGNXN0VhRVdPZVBRMjBtU1pMX2UtNE40a29qRzNMaTRxTURTa0pnNlN1Q0pnUVlpXy1yRzJQNDZkYlBoNlp0N3pfU21xZUY3cHBKeUt2SHZLV293SVNuUDFXb1ZJRnR5d1VfUHFZb0VzZVZ1Zk95WXpDX0h1WTEwX01GOV9pUUh6TlBUUGdOUGlicU1ldlhIUmF4eXV1RlJjbDZuYi1QT28zY1R3VXhlWGxWZlJqaGg4?oc=5</t>
+  </si>
+  <si>
+    <t>['pleno', 'médica', 'incómodo']</t>
+  </si>
+  <si>
+    <t>María Jimena Duzán lanzó una feroz crítica contra el presidente frente al Acuerdo de Paz: “De Duque no esperábamos nada, pero de Petro…”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxPakVHZ01XVmdvcVZqZ0NvVk1CRFhkeVlwWHVRczdFc3dfZkVNeFo4SVlLYTZMeUVhN25SYW9kcWtoYmJPNDBFQ3VpNVRBUE9uLS1SS1RQRVZDS2F0NkFhV1YxWFBlSHNXRmNza05RMFd3Y1gwcURBTDNudE1ORnFFY0ZyRzBxTldVbERGM0NKQU1weGtZaHVnOXlLUG82Q3huTWJlZWl4WDQxdEU1bjFzV0JNVkpod3RFZDFKdmFhdDBBUmZfMXc5eXFRYVhpSXd1TjdXckZGYU8tenlTcXVOMi01Z1VfbjRrczY1UjU2UWpxMnVUMEtjZFFQT2ZvUVFvaFI5OS1PMA?oc=5</t>
+  </si>
+  <si>
+    <t>['feroz']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro recibió dura derrota en el Congreso en su último esfuerzo por salvar el polémico Ministerio de la Igualdad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxPR1FLN1QzbjlGSE0wVGxGZ21hUFNyM3hudFg1eGgwQ1lucGFUN0tqYTEzcnd3NEhFcWdmZVpuOXlxckpWd3pGSG5BRzZqWEtDd1k4bVZ3MEhtNGZ2SkNQUVBaR2hzQkc5UUc5dWZCOU9meWtSOEFQekNnallPUE5CUFRHRFJKS3cyVThWU04xaFY0bGNCS3JSYTg4Z3A0clFLUDdWeU52Q0ltZTRhQVF3OGVzLTZOMTNGenVZZVNzRWRrbjltd3psdEE1TlJRNWowLXNWaV9CUEl6S2JWNkt5UFhXemhERHl3NUJiM25sWVZoZVhTd2tuakln0gGUAkFVX3lxTE5nOGcxeFBSdFAzbU15VlU4OGt5MG1jdElyOTEyOFllMHNXWHBVS1FvcVpUci01MnYxNmxaYkh6Ylg4Qk80czlIMTdGMWJzVlhxTE42MmxheHNHUjNmM1RnUGFHZnFwTFBGV09NRzJBcXBwT2hoYVUydkVhX1RDX3Aza2RsM05jNm1NRlN2c2szQ0NjZ1kzM2p2M04yVl9wV2xwZk9Fa1BveFRSMjZlbVoybFE5eUluNzY2T1F1dU1aQ2l3X3pVQmd6b3Q1UlFDMU9lRzBWOHNsek55YVRJN1l2czMwZGhtcHhWRkY5emhfb2JEV2F2QmxQRXNSWGw0ZXp3bVdBeUgycU5Wc19ra1g5aVItTg?oc=5</t>
+  </si>
+  <si>
+    <t>['dura', 'último', 'polémico']</t>
+  </si>
+  <si>
+    <t>Petro sorprendió en un escenario internacional al decir que el consumo de drogas no es criminal: “En Colombia hemos aprendido”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxNSTBhTlpNT0Z5eTQ3V295enc1Y2VTenIzZGZYajMzZUEwUnBENEwxd0JlcWpHd19Odm9PSUN0MFQzeTQyTW5NU3NReGUzbVlWb2JwWURtc1VnMnRnbjZvTERfRkNsWEdMOWtKd0NSR2V2elZPNlhid1E4SVZ2bVN5cGFqa21Ja1VDRjNXS2tWQ3dIYWQ3RHktbXB6SF9PVGVGNHlQN0NyRG8ybk5Jd3pKdEk0MnhjcjU5U29VampKRFJMMTJuVWprUEY4Z0l6QXRXTExVSjdPOW9HNXBlMFJJYkVoV00xamFFSnVFX2I0aWFDNmJOU0RPTXBRdHHSAZcCQVVfeXFMTnFROUpfY3lNeC1VSm9DNGgydTIzWWdOQ1dZcHRJSXVrSUdtOGU2bll2MUtZcE5mUWo4X0pTTTd3bU1qMWZZdkpVUGFmS2sxSHhwUFV2ZlR4ZERjQmFOby1WTDlyeGcyV2FldWdMMVBlRkZJLVd3d2xMRE9hVlBhc3FZb040QUdqajJneFFDckxHRlludmhiLWR4eE9vWi1OYVhnVzBFUXV1MUNhSHFlbkQ4OHMyVl9GSkNUa09nUlVwSGMyc3JIV1YtRWFvbUx4aGM1eUNaUkZzUFBocUJrd1ZwckJ3Wm9KSXVkd0JueWtqSndJRDloX0NCMndoRUtFZUJ3RVZ0NU9taHhLeEwwaXhSN0ZmcXc0?oc=5</t>
+  </si>
+  <si>
+    <t>['internacional', 'criminal']</t>
+  </si>
+  <si>
+    <t>Ministerio de Hacienda confirmó que el Gobierno Petro podría declarar emergencia económica tras el hundimiento de la reforma tributaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxQNXlhUXFMT3A2dTAtUDZyUXpCTVIxaEU3WjFRbDM5bHFwbEZGdm96NFRHZl9XSUFpc3BubUZHOEw3QXQ4OE93LUJWTUNWV2NlX1pQUmIyX2xnZnZVNVg5Q1JTSGxvWFpORFE0WldMTU4zeHJIRTczZU03UjZrOHJLZHBZRU1abENFRTRfSnp3Yzk4NzhyUDF6QnRRUzMxWTVGYnhjUWlGUWtnOG9uTkhNMU1Jd0xJeDNnT3BsbGk0UElvY3VqOVFsdTB3T2RjV0VoTWt6aFRjOFgtTWpzZEdISzZ1eW9WTFVUYzlkaWFVdno1UnRsclk4ODl4OGpIRV95VVcyTGJNQVhDdUFo0gGnAkFVX3lxTE1MS0x2TndfOVFKWlNVaTFZQW9qcVpOYmpRaHFDU2N1VzQyTWFCaHUxMGc5MGduODNxcnkwQVVqdXBhQkxNd1ZlTndvX3hPNS05NmRYQjJCbFItbUxralBlWjB0VVkzYWpPNzdzTXVqQ29aQWV1dXdhWDlwQXJCRHM1N0NZMjN6X2pObHBfclFEMGpTVGp6WV9JcFZ4WDlULWd0aTJRc3JOdlk2OGp1UmRTZTRwdkNEODVZcXRwU2U2V2l5emp4Wm9zZWtLcnllbHd6bVZrNEVKNl9NNVQxVVlwWHdFVzI2bXF4TUxtOU9jaGdRU01mNWthUUdUdVk5WnFwRXZGTUtBVnB3c2R3Q2tyVHY5WUlyaGpabkZoU2hOSHR4dm55ZWc?oc=5</t>
+  </si>
+  <si>
+    <t>Aumento del salario mínimo de 2026 en Colombia dependerá de Petro: “Tendrá la última palabra”, confirmó el ministro del Trabajo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxNdjJuVE1ITHpvQ01EbkJSWElRODNwbnpmR0lQS09IRkZwVmwyZC1jLTA5UE1Nb0xQNndySFRCS19sc1hUczBETWdBcV9YcU02TlNxSUZKb0tPNU41ekl2NGs3cG1GRHdlWFdCZ2t1MHBuLXk1bkVnTzVQSUpCQ2tfWVJXMlRrVzZuNlliZm9fM2VpUkljN1pmS1pvaWl0MEh2Z2ZndEpKRUE4ZFdLQ1NlZW9aZTlDaXlDRnlUckM1R0JTTFpHZXVkSXV4aTllQ0I2a0RHR1NvVWp2a0t3aG5MZExwaDFxR25ueXhJVU5LQ2MzYmEzMTNPdUoyLV_SAZcCQVVfeXFMT0N4ZTFJZEJjRTRqR2pqdmpqMnUxMXNYUTlHMFJBdHZpSjBjcDBUYTZKbmY4OHF6RTNranRRMWY5My1tS3NRU0FGcUVObENDMGxCeVBEOWRZZkYyb1JRM0pfVjhIa0UyZHFxNzByamlBdXJ5VU1MWldaanAzZ1lMTGZMR0NoMkFkc3RMQmI3dTNRZ2NONXNpN3FmY3IzUkFsMW1jZjVUbnVrTVUtYU5IUmNxRHMySkx2ZGo5Z1pRWjh0NHNzRmxNMFZHWV9sdkZnbGIzeDJIVEZ6cTZ2ZlM5anllc2YxbzY4TEhPTXhEbmxKNUJtbjNmU3lWdHFnRHB6OGlqbGJaeXM2SkM3T1dUSFo1aW5oWktj?oc=5</t>
+  </si>
+  <si>
+    <t>['mínimo', 'última', '”']</t>
+  </si>
+  <si>
+    <t>Amiga de la familia Petro explicó su relación con el empresario chino fotografiado junto a disidencias de las Farc: “Lo conocí hace diez años”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxQdEdwdXRqVWRxbXVQckVRYWxwRG9uYkhmWXhId3Z4b2had25yOXBrZnZHQWFHRy1YSWJaTm04Qm1QWHY4SGVqWktPaGlkbi13dVFhbm8xQm9CZE5vcTZCSFpleTNKYlJ3dVplXzhIckpJOU1uV0xTa3pnVTJ3bTctSXQ0UmRlT0pDaEVPWUtWdl82YWFaNlFEYWs5Sk1SOEVvMGt6TGoxQ2FaRnJmVV94T3dxZko0d3JqUEtzbGdmZGZJem51VzZSeVl6NFZ2c2djUlR6WVgxUGM4RHQyVWZGSEhudmxra1lBeFFPcHpyc21sNWIwTFVibk54Tnk4ZnJiZUZOZnVLMVZyaDd2R0HSAagCQVVfeXFMT3djNlM0LTRDUFRVSjZBbF9ZeGxzU2VRNEFIRGNsTkxsWGtyV0NSbzdyeUM5Nlc4U0pNeVNURVNuMTZQQ2RlQlhoRHNPVGhTRUpWbjF2RFNmMzNkbGJ2bEZ0dlRMYTRHWkVQLUpQeGg3blBCRU90RFVHQU85SjNXR09VRHpsUjFOS2R1NktxUWROLVN4MnRmbDE5dXg2S20zN1AzdUpKMzNHcE0wQm1YcVl4Sm9uMzhYaWhjWHVqZHpsb2ZwQnpkSTJnUWd0alY5NzJHR1dHT3hJNUc2M0xLVWdHeEJyQTc0OWVGajBvem1tcmprNW9id1VCSFI0Wk9CTUxCTGxhS3BCS3ZaWE1ZMDRfaHpodW9oak92cWtNT1pTcEhKYUxKWlE?oc=5</t>
+  </si>
+  <si>
+    <t>['chino', 'fotografiado', 'junto', 'conocí', '”']</t>
+  </si>
+  <si>
+    <t>Petro justificó las nuevas revelaciones de las disidencias de las Farc: “El grupo de ‘Calarcá’ no es de ángeles”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxQMW45Wkp3ZGNmNEZGVGk0dGwtS0ZvR3ZQeHRiUmMyT01qdV9IQlNaUTlGUEs1aFBfU2NEc2FSOGhzRjgxcWZaZnpZeTZsRUp5b2ZLd01rQ3dTNHlQbTc2SUFabC1Fekw4alRIaEF2VWtQM3NGTV82b3hvbmhiLXE5SWZGYklNdGpCMGtwYlhfOXR2dnk1cUdLRDVTeG1pTE4wR2tOSjgwUV9hOFNqdGpaVmRlQkVoeHMzWmQ0cDZtR3JUUXNjRFBXRkhhemo0cW43SUpwS2I0RF9LV0VQem1PMHdiSmlyb03SAYICQVVfeXFMTmZHRlltQ0w1SEZIU2d2OGdkZ2hVWE9tanZHYjEza1k2ZXhDU0dCY0U5ZE9pS1hkZXVqclNKdHcyaDhFOG5zLU1hQy16dnNtemo2NGRfaUItMmdORnJjX2JsWG1mZkY0Y09fOFN5TG1CUmN3WWVGOHRhNjFjakdXTHBwQXdXMHNxQkVhNE04WHdSNVhDaFQ4NmJMSWEwdFlGc0NGa2dPdktnUElzU1lzYm52Z0o5ZlRFczVkazFPdDRhb0EtX1hxckJZaW5xS00wWG1BYmphS2dMdENsSHVGZms2SG9HY0FfczRsSVZzSU9KRHNCaFFpR3Z5UENtY1YwaDR3?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevas']</t>
+  </si>
+  <si>
+    <t>Gobernación del Atlántico convoca elecciones atípicas en Ponedera: se reconfigura el mapa político local y comienza la puja por la alcaldía</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwJBVV95cUxQbzZXWl95ZnZOQWQwVFpLX2F3U01GLUhsdmdib0h1NVloNnlfLXNXaU9RU1REd21nWkZzOWlXNHRPcWlwSkNRdk51c0lwdWV2NVVuNkRJOXBoSzUwTEtQeHZndVgxZmdkRU5QaDQ2d2h1UWF1cUxrUkFTbGViR2dlQlA2X2lPbjV3WnVycGV5czhEVUhRcjJ4ejBUc2lDblY5RHNwR0JHUzItQUtRMjBTSFJ0TU1Pa0pkZkZlOVd4X3Y4VWI4MUt1bFVNRjBLZUhEaDU5aFJIY2lKYWg4R1JrUE4wTXFIdGlPdkdfdmtaaGlXdWFkY3JnbkpKUldtdmEzZHd5dWNHUTllalVJRGcyZzZiY285LXFKY0NUajJBaW1BN2RXd2hDS3VyONIBsAJBVV95cUxNaG5zUkVTeDVaY3pyd3ZCTVgyZFZQQjFER2NDZlBYVHZWR1U2aW5fS2xvVWRpVDRPaGh4WFptZHhjenVYRHU4aHNtanNJVkNnZW9UeEktdlZCeGl1OFpCX3k1Si1Kc01JTGRvaHFpWXNSRWZET25ZeFA1elN6ZDFzSjdjUm5ZQmgtQzlldGJmTm9scHVZQ1A1ZE1WSHk1ek1iMEFRLWpIdzNQN2tPZjNXckc3WGxMNHgtZkxBMF8tVW5TUWFabXhOSW1FN2ZZbjBlY2tGM1pTMW5qQ2ZjaFhzcG5QdjI2Z1g2TDZXanBvTEMwWVF3eG1VUk1GeEYxUXZBaGQ3eUV2alJMUG5Qb01DU2hJdW54TUVKaV8wa0ZaYlVNZXF1Vy1vemRhOEJSLUxh?oc=5</t>
+  </si>
+  <si>
+    <t>['atípicas', 'político', 'local']</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: 34 partidos y movimientos ciudadanos anunciaron su intención de participar en las consultas presidenciales de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAJBVV95cUxQbXF3dzRjanl3Qy1iRkVVdEtRalVkU3A4Qm9MNUdxcmpnN0xRSklyUnZrWEFwWW1GMVJzbGZwV3FpMzRfdmg2WFBiUkxRY081NFNWYzE2Y0VVdWJUNkNOZ2M4MkNwaEJIbHc1TG5VMUlmNkw5WFlyQnI1QlY2bXJrNUhVcEJadkVjblR2aDg4SFItNTh2SzIyNUV6a2gySlRrbG1sVGJ4Q2RxT0JEeXV0Z0hHYlJtWTktdEZydE5IbmNVU0ZoTEhSQ2VrWUJZOHJkQ0Y1aU10Rm92STk3RGVuZjBlRkUtTng4MUJONW12NXBLcE9rcE9IUGlya0xVTHlnMjZZbEU1Skk5Y1dRalpFNHh6Y2hzRGtK0gGeAkFVX3lxTE1aWm9qa1ZkYlR6eTExT1JiWTFyVXBVa1VmdVR1d3JFQmVWemhwS09OMXA5dmJTUmdWLUhEcW41bVliNGJNMENIMHhxMDVXenFCeWNDVlFlblFlSXFUNlA3czVIMFR2UjdXZ2h3Z0ZwUXQtenpLSWE4UlM0T0VNdHd0blRsSF9jeW0wTzh3ajJhNE1FbTRvUEp4XzhSQmhvdUo1alpwbjVTUnJWU2tFdGE2UFlvZV9sRExLcWtkT25EclljdUR6M1NZRlpiRE5DZDBOQy1GRTFYdVVuUVZmWTk1RTZYN2g0RkE1Ukg1SGpfenFEcFg1SXcyd0lVUUJIZ2ptMFVrSXA2YmtGN09Ld0YzYTlpT1BDbFhuYk1DLXc?oc=5</t>
+  </si>
+  <si>
+    <t>['ciudadanos', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: Los nombres cuestionados y que generan polémica en las principales listas al Senado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxNdXVCSzRNOUVEU0MwUHVBVVVYR1ZtQmJnLXB0dDgtbWhMZnBodFNhZjFidE1TelBlRGNnSzFjR3NINFhKRkd6Y0F5ZGRGQU9Na3MxUDBCeTlNVUNFSTR4T3FlWU1fQ0VncVNaVENZUTM2MmZ2NVRiMWYtcHJfX3dVTW1XbDFqejJuVS16MHJMZlhoVWFsdzZjOVNaalRwQTZMVTZJcXVlVHRVOHpSbzh2WHdPY2ZnWU9hNVVMYVNqbThMVWs3cWJaWHZpd01VbjlyaFhRUjI3NFJ5bkx3T1M4bENxc1BrRlFzSjNieTd2SkNDM1V2VTQ1SXRn0gH_AUFVX3lxTE5VVERGaW96SktISkl5ODRnWEVZcWxqX1BJYW44ZzNiZkg2d2gzbFA5TGdIeVZRVUE4YlBlTnJIaUMzTHZaVmtQMUFnRmg2NFFUNWhMdlY0NF9wOWR2V1hLVkdsVkkyQzhuY0RCUmZTbVRrQmRMWkJwdmJFX0tBSC16UGwxb2E2Q0VLMlVJSzIwVk4wdHJpenkwRzBOakF0Y0g1cC12SFRMdkllSnNKejFBeXZBMm53N29mM1FqVVpCTGh3X0ZCYVROY0phcENzcXVnay1OYUU2XzhGZWxrN0MwZVBWZHJDQ1hvSktqVzFkWHZSVDNVNHJPQW5PcmQxbw?oc=5</t>
+  </si>
+  <si>
+    <t>['cuestionados', 'principales']</t>
+  </si>
+  <si>
+    <t>Cristian Portilla, candidato en elecciones atípicas en Bucaramanga, propone decreto para prohibir consumo de drogas en parques</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxQR01Kc1dQTkFaOTdFQ1BvRjJCVDhuWTJsSGtmMF9zYjlsTHh0anloVWVxYkRrTS1Vckh6aEdUcTdkSmNEc1RGd0F6UFZOR1h6enhGbEdyVk5kTkROVFhTQmpGX3lsMm54WW16N1Q0UHRxdWtzVUQwVFpLVDFPcy03TzFYMnJFZzR2SGVYXzFiUnNpS3NrTEZ4SWh2aEdEQ3NNY0NTNzV4T3lYSXdvSzd3Q1lnOHhncHZZZ2lUaDA0Q3JBbVVUcFpzYXdnZEwtQks3RHJrbVdhRWdlS2FsTkRmalFLTV9sbHpmcVdtc3c3aURMSWIxZnUxWUMxMWdCbk1yVEtXM016OFJqLTZIZlF0V9IBlgJBVV95cUxOcGQ2VnlCbmRoelg4WGxIeGtfcEJLUFBNSjNjUlhMcXpXcVI5d0ZxSDJlS1FGLUpwVVppVW1mcFloU0xoc0x4ek1UcXlMN2t1czJQclAtRmVuOHRrYzVNMVVtS19qcjdlSEVqU0VtcXp6c1BOaTJZbE41WWNvXzdsQnR4QTdxbTRBZERqdlpfRlo3YjM1VS16akpob19QR3lTcWFldkdXbEFyMHI4cTFEaXBOWXJKU3c3aGZUWm93cFVocGlzOW51NHhiRTlCWWR3S1ZkaUhIUzVhWVhGS1h1bE02OWFUTzJOeTZ3SnNVYWZ4VC1ibU1DRnVseHBxQUVpQXpqZjNpaF9JUW9MSjhkMGpuaDQ5Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Liberal le ofrece su aval a Daniel Palacios para las elecciones del 2026; le piden que participe de una consulta interpartidista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxOWEh3WXNXUTZiTHNBYnUxSEw3aEZXQXdrYzVEOXo2Q2xMTGxNQmRkUmZnWkJFNE93QjNYM0d4WU9aQV9mVHNCUFpWZ1VhVnlGVHZ4cGxZd1dmU00talZRN2FBeVY2VWNkWk5QN1BKV3ppaWpUN0xpSjFySThXRWZnRFdxamdEdkF6S2FfdjcycFJMd2VvQUlrRU9tR2lVR2hPaTN0V01EdUtRZEREUmthQUJ6bXNCRXd0dVlZc001VnJoX3h4RXF0UE9rQjVpRkZQVGFnaS1FdHBWRUpqaS1EeEN5VExXaUFLOVdDSVlKOXlxLXBwTE9zbzdRRUVkZzJRLXRlZDd1dGxzSHd3UWNpV3Zn0gGXAkFVX3lxTE9UNGhLeXVUVEg5OWE4Si12SWdidGpYSkltZTdva09ZcElmcnhzY2NnWVlwNFZqa29fc09PWEFrLVQwckFPQUZfM2FIT01JNUdVWUNnWTlleDFjSjNBczdHMUd6ZDV2WVlRZlVuYm9aem5UaHFIeENXTUtzcTh3NlBtT2ZuZGxyMEpzRXJxVUN2RHRWY21aak1DeWdMZW52eDZ4VFRhY09JLUlVRWdJX2syMjVHQ2V5U3QzQlcwbERibjRnd1U3Z0xFOWFwTFNnQ2V2bHBTOFdINmlwU1k1Zksyb2hvTW1lMUVZSW0ySE45R1Via004cFdjVXN4cE44WUsxaXpfSVR5XzJ6UHRnb0xDdzdQRE80SQ?oc=5</t>
+  </si>
+  <si>
+    <t>Así quedó la lista de candidatos al Senado del Partido de la U para las elecciones de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxObDFNZ01ZanlfelNDdDQ1aEEyaEJQMVQxMHgtWHJwQzd0aDRzV1Jsa3cyVlR4WkNPZ0UybE9hRm1UQWk3SW9WX1IzTzE2RURQT2ZROUpFTU8yRDQxbmROeGIyRW9mTWkta1Viai1qVk5yTTl2Z0N5UW1oNlNZSGZIR2hrODhsdWQtVklOaU83S2ZxTE04dTA2MFh1YmNTWlpiTjg3WGZlN1FYWFNlZzRKM1VTbjhEYXl3RHVCaHB3S1gxRFhiZjNwNWEzcUtvYXhpQ0R0NlJR0gHbAUFVX3lxTE5sYi12el94X3p3ajBqOTY2aFBXN2NVVVV5b1lrb2xJbnloM3o3SnkyMEl3cWx4anRXemxxY01KWHJ5VkpHaTlMLWRka1pCeGtkNng2OUprbkg5VGNHZlI0SWVRQ2VVVW1uWWxFdHlXNzg3Q0NXV0NfYno2dTh0bkM0NVhjM09DRVZMRjNUSm95QlZ4V2NhZXhMc21TVzNaa3YyaGVzcE15eGhJaE0zYU4xUzI1dW9pZnJibTMycE50dlZuQUxtRmlCZzBqbm5zUWh5ZUc0bXdrQ1UxSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: Fueron registradas 122 listas de las curules de paz que aspiran al Congreso</t>
+  </si>
+  <si>
+    <t>Convocan elecciones atípicas en Ponedera luego del fallo del Consejo de Estado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQRzNLM3VkdXl2TXpvTzIxaFlmSm9VN0xEMmQwMEwzNXZaaWk2cnFvQ1h2YWJmYXZFc29xVnJNMGsxRGhKX1Y3Q1dTQk10Zm1YZnRQLVlWRGlOenpuVlphTHRoRFNqSV9peFVBLUJsSHJaUUxBS3JkMElwOGxYRXdyV2x6V2NhWUdhbk5CZC1MZVVscDhFTHVmWTVMOTlrSlVSR3g3aGs3Q1NUa2hXdl8tQVBVc9IBxwFBVV95cUxOMHExeGVQdl9kZTRKXy15dlJaTElyWEpQbmw1T1p6WU9CNENfTTNtN2J5RExFTktvdXZBYWMwVlhBNk84cXRTb202SE9hdW1GMm9ZcE1jOWNnNmd3U2NtZXZWQTlPU1pwZGxlalBvd192aDIwTmd3djVhM3dHUWI3Ynpqa0M3YVU1UTR2dHF6cEVTOUp5dEUwTndkRFdPcnBNckZ1ZnIzQnBXX2Jfemd6U1JJWFFBekxwNnE5U0p6VEE2N0pDaVNZ?oc=5</t>
+  </si>
+  <si>
+    <t>Más de 532 mil personas están habilitadas para votar en elecciones atípicas de Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQcE55ZFVKQ2xCMlhzSHlWZEFNNXBpYkllSTctUWdrOVRKS2p6LS02RzIzN3gxOHd0RVJES2l2TFBjeGJoTm9hLURfR2xSVTRoNFk4RkNSRE5zeW9hcUJ1V0pWMklCX1RxbEtxM3ZpZWRDUGF2XzRENDFaQV83VkxBRnhlb1pIdW5PMnEyZmhSbnNrZmNvcjZnb05kcmlaRzVkbU1yeWJncTA3d0VRVWcxcnVlZTVhNHc4V0JGYUlncXNhSDjSAdcBQVVfeXFMTXBOd3hTN3AtbmNmUkpHajB4TmVIYkpTY0ZtRTVHYnRyTUhPMWZlQjVvUjJRZDU5ekVTZnpTejBDRnhtLTgwYVlueWxZYmdzWHVHSjU1bkViOXlXMVpVZVhfSkxPVVZKTzlNUXBpSUdxM2p1VHpqd016OENRRWhYZHp0OGpMUHhsZWpmbTMyMk1pWUU4ajZpdFJRUTc5RG1FVC1scEtCa0xqY0MzT0lWeDVrRnVBNTV5TFlTYnY3a1BtZmkydVVUNWFaOVphSHc5Nlo4YnRuNUk?oc=5</t>
+  </si>
+  <si>
+    <t>['habilitadas', 'atípicas']</t>
+  </si>
+  <si>
+    <t>Más de 530 mil personas están habilitadas para votar en elecciones atípicas de Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNcWZLcWd3RUtPbnZoLVpWNnJ3cEZCWEg1V1d0cVdPRTRXMTVaRWJUZEpZd1ZsU1JYakVkMTVLUDRlSUZVRFZwcjJKZHFlZGNFOGFJUnAyWE5od1JCV1I4eTFPNDJOOVJ4SU1MOWFlOWVoSXZZeUFjNExaNXRNMWZ0UXBOYjNwSXlCRjdpZWZsT3VNM3hQX19NRG84aEVGWFZxbGdFNkhhMkpjelZMUkdGaUU4ZFRJVmFlam1qdlVpREFIUUnSAdcBQVVfeXFMUGNlUEFja1FzNV9lVHc4eGtRMmFGS1dEOG5TYjdvMFNRcHhENkdPb25yRVlFWThmeHBBUElxQU9oV0JxWW5lVHdYQTBEU1RaRElmUjBHUnpaWUtTOG0tVHc4NTZUT2tld1FWYjlkeWVVeU5SOTRTZko4RDhLV0poMWtzUzFZaHVscjJmQVlBdHAzQWNTN0ZlUFVUTjZCZEJnZ05YaVBlSTdKNTV3TXFVMFktYTg3UjhqUmVjbjFjZWY1SXoyUkM0TGlXZElkb0Q0RDNWTDFhd0k?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Liberal le ofrece su aval al precandidato Daniel Palacios para las elecciones de 2026 | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQVWZpNGR5LVE3Y04xRHNic2RScEVPZ3NtT0xUdXM3NzdvNEpoaUNyd0JPX2FNZ0JIUWpvZm85SXBNX0VQU2N3MkdtbGxLZkhrWEU4aHFHc0gxTVJEVlk5R19QU0t2cU9TZUtMSlRmcUtmOXZUTldESlZNby1jd29IRUVKbVJyTEdnT0lsN3IzRjRkWmF0WDNqREVZekNHQlBfR2d3UDBnNk1JX0lxSzhkR3F0YVXSAbQBQVVfeXFMUFVmaTRkeS1RN2NOMURzYnNkUnBFT2dzbU9MVHVzNzc3bzRKaGlDcndCT19hTWdCSFFqb2ZvOUlwTV9FUFNjdzJHbWxsS2ZIa1hFOGhxR3NIMU1SRFZZOUdfUFNLdnFPU2VLTEpUZnFLZjl2VE5XREpWTW8tY3dvSEVFSm1SckxHZ09JbDdyM0Y0ZFphdFgzakRFWXpDR0JQX0dnd1AwZzZNSV9JcUs4ZEdxdGFV?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: así serían las coaliciones antes de primera vuelta presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxQZ3VMQ09fOFk0bEVobFhGUzB4enNaLVh3QmJWZmR6djloNVlYQzR4R3FZQ0tnMFhMNUgtb0wteFpsbWpuVEpPVWoyMHNXQ2tNeUlKbHZsNHV6YUF4X0dMSHJ1SkhkWGVueklPbkVLRExlUFpxMUxNM3R3VTU3aGlwUjcwSUZxb1NkVHItVmpnaUk0TW9YTVd6ZzJ2c1EtMm5ydGVzVWVSb2xWZnd0d2ZRbmFZRnlvbnk0SXlKMlpwQUE1UFpYclpkMmRrTzAtMkpyRjJLSFBFX043U092VnhYNkFIMEYyVUoxOXhobGZXTlBNR01aZEE0cl9sY1J5TFpRNGFfbzBiNEwtd0t2R1VSaQ?oc=5</t>
+  </si>
+  <si>
+    <t>“La izquierda está desesperada”: Miguel Polo Polo destapó sus cartas para las elecciones del 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxPVXB6VkMxYklHRFlFYnNiNWYtbF9zaWEyS3FvUngyRnFIRGRKN3g3X0YzZDZhWkp4V3g1VmRPcW1fX3J5WllxQWFldzJaNWxxV3kzUWNPNE5na3lPTWNzaklNRlkwSjVvRWxBaE1kZ0FLazlQWEhDUUpKRjdEeDNPckcwdFAyZWppUkJLNEtiRjY1R0dBS1pORlJicEM4R194U3NQRDVEbWhmMTFNcmZvNEJVMGNPSU9GQUM4a1Y4SktjZERpOG1mNkZCVTNwQkhJbWVkelBCeDQ?oc=5</t>
+  </si>
+  <si>
+    <t>['desesperada']</t>
+  </si>
+  <si>
+    <t>Este es el gran número de candidatos inscritos para las elecciones al Congreso; así quedó el listado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxOY0JicXl3UzBYS3VfeGt2dTdTSm9XOGVZOWJxc0hjdWVxR25DX2xWVFFnLV9UZ3JrWVlXX3NXZUwweHg2UUYyQkhOck8xR09MWF9qVXdLSjFoMjNRU2lPTlVPdzhfMWlJcldvVkxXNEpaU2t3VnJmY21UWDUzNXBpQlU0WVp6TnN1dlNvOU1rRUVGRXpXbVZoUWtXaVF6VEZiXzRhMHZsMS10SjBsT2xkTHc0elRSSS1iQlRpNFhGdXJNcDdUM3poZ2JyYmI5ZjRzTmZPMEY2UTc2a1h00gHiAUFVX3lxTE51UDUzMmpiakdfUDhoY0FsVk1RWWdlNkRIT1FpWGd3UDRaSzc4T2IzeExLT2pFRVdhdHdRT0xPVkt2dE0xaEZQSGtCLWZpTGppVnE0dUxBTzlwYng3eTRycC1aZ3RhNmlRMDYtVHpyNW9DWTloNzZHZnhHSDJRWm5naXBGS2JHVHA4ZlpYM05DdzJ5enhTUWFiaTVjbEFLdUYyZ3FwMlRIY1kyZFItZ0hUNHZVOHJYb2VLZ0FsYVpfVGprTGdGYmoxcDRSZXlKQ0x5SVVPb0FiRDZDRkNLVy1CWGc?oc=5</t>
+  </si>
+  <si>
+    <t>['gran', 'inscritos']</t>
+  </si>
+  <si>
+    <t>Así quedaron las listas a Senado y Cámara para las elecciones de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxOZzhObVJfTVZKdFdGYlFnUGVGYTYzN29XZWRaLXB0YWhqM2dzYkw4OGFaNVQ4TkJKU3haZGdOOEJPekpxN0JJSmpiWUhidzFRWXpyU2QtcUtfY2d2MkFwZk1FczBzcDZ5NUpyTEJDRzhUV3M0U19JTExya2F3V3FwWkNDZi1IN0N5Y2ROQUZRTmFEVzVaZVd5NllGcmxwWElYSFHSAacBQVVfeXFMTXlSSEh1czREN3EtY25FOWFKVnpfQ01DdEhSNVFBM25ia0ZJSEJCaGlfbmFTN2dSX3RwZzYtWkV6d0twck00aGVEdWs1emtWazNZcVI0Z2NCY3FreXpXd1pkeXJTcDNSNnRZRENpR3BNclN1bkN3ZU5mdjdQYVJWczJ3ZWZ0RHAxY0RPZWxkUWRMUW9hZXJuTjAzekt4MkluUTVkR2JiLXc?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Liberal coavalará a Daniel Palacios para las elecciones presidenciales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPQW5KbzlROFFmeHNLVm5ZR3pDd0g1MkpodmVQN01Mck9vZGxDZjU1QUhhTE9UazhGaE1oNER3TG1TYTZFNmlxRFNUSEp3VW95V0EtbzlDWFQwdnp5X01tR0hzTGxWY2FCVTVpazFqZC1iaXR6bXBOSXp6Z1RjMERORnpkVW1qMDdsT0FVUS1OVUVYWnU4YnA5ME9Md2lMVUlUSURmcU5ISXR6cm5rb1FybWN3QmUwLWNBZUHSAboBQVVfeXFMTXBObFZVYUtSUFdCdE9HT0piVDVRTUw2MTNPd2Z0bml0NnlucVF6ODYzLUJ0RFIwN053R1pvZEF2QVhaOWE4WmVmUG1HbnNCZEVPeGNsRW5ZMUJOOHNOa1VTNVhHSHZrMnZwRG94anF3bHVGTWoyVWg1aWJOajFPdW1qLVpqVTQtUk1tNG5jOVRpQkxRYkZHYk5OVXRGcmZFeGt5X0FMbXlsSU1aUEI0N1VlRXh1ci1QSjlB?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: en total 3.231 candidatos se inscribieron para llegar al Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOSnB5WWRWUzdYeTlJbkJkT3dMY2lsNWoybzVlV3VtOG1nTVFLd0dLQlFkbi1zZ2VIa0Fpb2ppTVJ0d2NxQTUxNHo3bk9fTTlUb3o2QVBlZ0Mwc3pFcVlwY0xSTDJkOTB2dFZ3YnNaRUlScG9PRS1fbUJydjJtUS1reTJCNkhELXRNTXZTTGliaHRjYmpsZFdvUGJiNVdCTTN0Y0R1TWc5cHQwT3gxY2hyZVlPbDFWel9jZzQ0VNIBvAFBVV95cUxOYjVBajFKSnVEdzcyc2NaSFpGTGNka3FoZVhvaVZEOFlIMjBQcnNTbzZzdjlLYXFMUEtGZkdWSkZzY285bFRramVFM1dudFF0R3lxQ2VraHJGN0poeVQzcXktZzNqcm54MGdCY0Vlc1ZnMzNvQlNLd2w0VFIwbEJwaEY4bUFwRXN0aVhXTU9XZC04UEI2MWt5V3FnOTFWN3ZIcDNUUE9YXzdhX0lNMmVHUjRoc2xvWkZjRWtpdQ?oc=5</t>
+  </si>
+  <si>
+    <t>Avanza la carrera electoral: 3.231 candidatos inscritos para las elecciones de Congreso de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQVkUtajZMa0hGSUpramxldGZEWkRPMEU3U3hKa3o2UXF5U0pBMEpseTBIREEybENyV2o2YlBOYnNrSmJFb0dLa3JOZk1YbHI5cUZiZm52aFFTT0RMRkNyMDZ2N29tLXl3V2VTTWRtRjZrdEUwS3hrMGNwOHJEZDBtbjNBNUdWWWV6RUE1Xzd2dUN6VEZkT3RrSi1mVndqZEV1QUg4ZjhqY0lFMm1uSlNrNG1saWRaaUlHbU1CU1lXOW1UNFNM0gHKAUFVX3lxTFBYVXVzOUM3Mm5ZUHNTVU9NTzFVcmNQVFhkcjllWlU2cmFnaG5pZG1LbVRnSEpGaWdMenRYUDVVNmhGOHU2aHlFYnpUYkw5NDdDT3pLNi1BN0xuTmxxSDZOa2FMVFZ3M1hLVlVBSU8zZVJTOU9nbXZhb3BYLWdTRlZEQndrdXM4RS1uSWo2NFdiWVczTmJFSWc4WEJIYzA5aTdnZURVUEp1bjVRMTRtUlllaHlsMzdRZ3FVTGpfX0NPLTZLaHFJOFVaZGc?oc=5</t>
+  </si>
+  <si>
+    <t>['electoral', 'inscritos']</t>
+  </si>
+  <si>
+    <t>avanza</t>
+  </si>
+  <si>
+    <t>Mauricio Cárdenas radica firmas para elecciones de 2026: así está la puja entre aspirantes a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPb09mdl9Hak5nQjRFZFJSanZDb29JNzNjc2pHVXBCLXJiaXp0ODRFNjgzaGl4ZVNQZTJBNHhnQUhkZFY1bmg4QTg1anBiTENacnpHVjduX0xtRzAxSTIyQnVHbGJ5aXdFT3VIaXRtV21PbE9Kckl2dUg3Umw5QWhUT3MxRmxNWjhaYzNKUHBlcnlaVnliZlJDMDdCakwzc0ZUOG1aTEJlMW1DS3RtZXU4aXFQLTJsU0Flb0oyb2l5d1I5d25VVkdERWFieDJ2V3cySFZRTtIB2gFBVV95cUxPdlhZRHlfbWlGV2VTelZrQXgwWmh6dUloWE1TU29KUjAtTklLYXFHbS1wRUNzVVh4TkpQSGRleFlKajJVaGRLMzVBbVNOeGR2T3IwS2NuX0FhbDBFd3VhY2NSWjhnMTJpSGVDY3NNTTl2YzMzYm45Zk5tRlNIbmdNWG11QWxYcHVMTHZpRTlUajNLTlpraGZwa0Z5aGxxbGxrYkZiaHZXUmZIT3YwQm14Vjk1NmxpTkdqNjNkYTZaR01nZDVBS29HRmZjOUw2Vk5VYXNZZWh2MFpNUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Quedan 3 meses para las elecciones que definirán gobernabilidad del nuevo presidente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTFBnYndFeGxydU9wUEJtQ1B0LVE2eGpoV2JMRm4wRmxmd0hvYkd0a1FqVnNveXhfX0VhbW41QjNDb3IteGl0clVvT1UxZmp4QjZjUVh3Wm00ZThLRHRzNjRyMUZabGU?oc=5</t>
+  </si>
+  <si>
+    <t>Gobernación del Atlántico convoca elecciones atípicas en Ponedera tras fallo del Consejo de Estado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNa084TmdldC1Ya2o0ZHRuVl9USGNlaWFTeVgxTko3Ml80anlYMFV1dHY3RUR3bU5TTkZoTlpmek9LTWRsNVMxX0ZVbkswVEtlMTFDSnV4RkFxRXVRTnpjLWxuYUtSMHJUckRaNWNBY1NEWjhHbjlfNVkwUzZWa3MyX01wTms4Q1BNbXhIeHFJeEpYRWxQeHRRY19YaHdQUENxaHE1c00zeXlVSlV0VUtqbW9KYzBlalpBUUtUOUpOVGdQV2VxYmF3SGhSMnZLSFY3ZmNUdzllRUpzdUJzNEE?oc=5</t>
+  </si>
+  <si>
+    <t>3.231 candidatos fueron inscritos para las elecciones de Congreso de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQRzdIX1NLM285dThSN3pvS2JJZEo2alRKRGxBOFdZd2NFd1ZHNExwdWJKUzRaZkg5aG9heDBjMXpTN1pEWndRWm8tcVgxVmhwN29ma2VRR1B0RU1RQ0V4TjJMSUFsS19xX1VkNDU5Q1ZhaVBBNGxhQ0FMQzdmazg5bERrWDFnczdZNmxBNkVqYlU5VnBVeml1bWlTblJDOTVxV1JxZjZKaGRuX1hMaGhtcHNsZExpZw?oc=5</t>
+  </si>
+  <si>
+    <t>527 listas y 3.231 candidatos fueron inscritos para las elecciones al Congreso 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTFA3b2hJWWo4UF82RFVtOGhUVXQtTzFYWFcxeHlNdTNyWEFIYkdCSV8wbnRVRHlELUxEWUthTHZHa3Y0VDEwNkZoc3E0VU56aE15SnA2QWdORDFiM1RC?oc=5</t>
+  </si>
+  <si>
+    <t>Quindío se alista para las parlamentarias 2026: 10 listas, nuevas coaliciones y caras por definir</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZXNWYjlZOEREUGRyNnVqWjdiNV9URHFoOHc0LXM1VEFTWXFSTmhacDhFMVhKQnlwYkhpazRiUC0wYlR3c3BXdDRpZ3ZLYWtubXQ3MjFWYTYtTjc0YXJ0cTNjUlRGUXVIaVJMWXJ5SmZYal9WNVFieEt1ZWk2S2RDckNNUl9INF95b3hpSld5U09QYTE2eGprYTNnNGI0STVmOWlNMWpIbXhBcnR3bHNsUkN6cjNKVXNvZkpnUzYwZjBIQkJ1V0Y1bGZyUjJpWVl6SVJyNNIB2gFBVV95cUxOMmJiekhUUHRzUHJHYXZJUlJvOHVDV19vMHREM0xKUHcwRElWekhmOVVhZ3RuUlppZFFnMS1jTU83aVJxMUZCSFJGRzdSdXJFSkZ4UkhJM09sNnFZcThtNjdOWDlOV0hEcmt0VmsxaGI5OTdrRlR4SjYtRGVxRGpIcF9YYVV6ckxUU3gxa3ZndmN0VVJhYzNhNDZkRlNjaHdwZE9GalRXTWVOVXlKSF9WLWV6d1RscXBvVlRTT1pMSHZnQnExdkJqX0xoTkZ3eXJwYmIySjExazM2dw?oc=5</t>
+  </si>
+  <si>
+    <t>Pacto Histórico elimina a William Dau de su lista al Senado: la razón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOTDhicm1UZU5ELW9ZNEgwRXNHcXNZbTVfVVc4MTNJYTZQY1pQU1FmdjV3cmFHcmc5Vm1EN2ZXQ2k1ZW1Za19MZHY4UjF5eWdNYVV0eGN1WEluQmVnY2dEUDg3ek5COWNIUDBRYWNYdkdJZ0pockFoOUx2REF6eTUwekF1NFZCRE5PdTgwVVJzWGw4cUZ2ellHN0w5Um9IbnVnU0lGMF9tRFpPRXVsM2NMYkd1ZDhRdVE5XzFJZw?oc=5</t>
+  </si>
+  <si>
+    <t>El Congreso de Colombia inscribe candidatos investigados por corrupción: manchados los partidos Conservador, Liberal, de la U, ASI y Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAJBVV95cUxNQ0VMWm9mNFZtcWNjOGpROEdzczRsQ3JWYUpBY2lrVzRzV3hZQU9HVm9PakNFMGdTblNGLUM5X1czNlZFOThBWWl5a3FteXNPUGhjcFd1SWx5NGVRT3ZhdloybXotWWdHSkVHM1dqQm1BNUdCNllqbS03YWtyZ25jS014RmF5RXltSk55WXdYUmlNNzJZY3UxLVg5WVBta0hfOXBoVFpjVDJ3RkpRLUJraTNoTUpyV2VxRjN6cDVWUUVFYXJSVktqSXJFZlFydUJ4aGgya1NGcm9rMFRiTlgtZ1E1Z05jN3A1b21jbXFYVUFKZHcxUGtRd0tQVDZIaUFNR1ZwY0piZ2dpUEtJcHUtSnUxWlRYMkVO0gGzAkFVX3lxTE00YzNfeGV0bUdPNVFQQ2FzZTQ2OV9qZ2tjN04tbVZuTWNnUE56dUFlcHQycldPU2IxYjgzVUVXSXpiYUMxM3J2cG94NlQzSmtBbXgtVzNSMVQycTF4VEM1c1NpR0h2a1VCUnhrRFJyUnFtZXNrSnA5ZW5FMF93NTBxTkZJcVZJRFZoNW00VGFYeFBzQ1hNTllzRm91V1VHcG9aLTl5Zkt1bWQyYUtiSjZFQTdMN3JvaW5mamxnNFN4OTR0RTYybmJPM3dySWN2dlJLOFA0N2YtdUFwektrYmliaU9CV1FPY0ZuTzFKcnFadzdfNk5GZnFDYzlfMjNhUkxGMnVMN3lpMWUyXzZnWndDaTFLeHdIS2FSWks0SC11RGVvOThzNk5RbGxjaTJkVmlUcGs?oc=5</t>
+  </si>
+  <si>
+    <t>['investigados', 'Conservador']</t>
+  </si>
+  <si>
+    <t>El representante de Cambio Radical, Óscar Campo, denuncia que el “Cauca vive las torpezas de la Paz Total”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxNVFZFeHFmRnJhcHRGVDdfMTkzbms5bWUzVEtfby0xV1JyZ0VBaHlnRFlUWTZYb2czYXZ2bm5XWHdJSGJLdVRva0FHVTVhTEUzb1ROVWpfcnRqdWpBMmVRNEtVU0NlSldheENabWFTUTRSS1gxSHAtQlZmM1BQamN6eTZsY1FZc056a2ZfRHp1bzZ3bHdYVzRCRkNaRjdzVW1qUS1ZT2xXR3hOTFpiQTRvaUVQZGY1V3RPMjF2TVpNQkt5Qm9HV3ZCTXR6dTUyazFPUG1UaUpzRFBsLTZJYi1UU9IB5gFBVV95cUxPRXVtT1JOeXZCcVlsRm9fOUZkd0hIbC1vQUpJd2lkZWl4cWZYNGROS0ZvdjJVT0oycGR1LThVRnNuRFg3QTdaTDRXVHZUMmdJQkJYTTU2aE9keF9NVDBkT040NUtlU3V2Y2xRRjFjYmNzc1pSbUc0M2xzV2luWXBWdnYyZjlfc2pIdXRMZUdPTW4xdVBHRGN1NWwwa2syemlWOHV2a0FYZVlKdW5NdjNEaDZGSC1rOU9Cb19IRGpldVkwaUptTk1VM2w3WHNxbFk2djhUM19ZMlZKb0RKWFltaFlIZUFMZw?oc=5</t>
+  </si>
+  <si>
+    <t>Cambio Radical confirma respaldo a Cristian Portilla para la Alcaldía de Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxOb0RhbnJpVGVrakFyVVJSTm5YVmpDM004bU40eldyYkx5QWhtMmtCdU9jTmpubUJ5Ny13Q1lWQVZpU1lHdlJLckZEYTBYRWFwWE05OWdaS2N4YkdCcDhVcEZMc2xLakh4LVJfdXI0T25ocm1qajA3Y0d2OVdrQXNHZWdKTTdSS0k3b1JxMm1fenpmQkJGbmhRUjJmZlJKMFRBcW5rb3dKZTh5a2kzTHlfSl9jaHFZbUNSdFZ2T0I1NXlCcGxaLXlNclRGWkc?oc=5</t>
+  </si>
+  <si>
+    <t>Influencer Felipe Saruma entra a la política con Cambio Radical</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNS0RuTi1NWW52ZU5zcllHRVMwNjNaSDEwcnVfTUFXZGlFak5LODNSdGVuLU04NUh3XzhSRTAyU3BBQkl4a0stNmlIcFJmRHhpN1NJT3Y0Z1BTWFlUd1E1Q011MDZvV0N3bFdOSEV3VE9VeWlHODZGVW43MXc2dmhWYW9jcmY2dlBueEJqS3dEVVJPalU5SkR6bFotSnVQUWFHZ2w3VmtBVmlGV28?oc=5</t>
+  </si>
+  <si>
+    <t>Esto dijeron las precandidatas del Centro Democrático sobre el caso Miguel Uribe y la unidad del partido: “Nadie es capaz de hacer campaña sobre sangre”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwJBVV95cUxQdm9mcm1TU0xRckxON0FudzR2R1ZQR2ZGNDNuT2tCUDhWeGJhVThsQ1lvRmZNZEpoRC1UbmtIbnRJN2ZteWxjTV9sMmIySW4wVHI1eDhOQkdiMUZsU3dWMUdaOXdOX0JQSDZHNUJnXzBGeURqc0xZWVliSjZEQ25DUVoteUpaeXQ4b3E1dFpwRG8tTUUxOXNPMHRFNFgzWGlfajJINTE4QkRSdWhVUVZKU1FzMThKalB3NVA0Y0JNWUR1UWdCeXY5NjRiYXNxbFh3aEx1b2Z2bmEwOUpWWGFQSVhGSkljSFFpSVg2cjRnQWtlQkE2elpwdF9kZ0xIeEYtRTdfUURSY2xLQjI3RmpRdjJZV0ZINW9kd25ZM0wyMNIBugJBVV95cUxPbUdYUmw4NVFSNEdPY0pCSlBuZE42cG5MYlFiVzRFWXoyekpOd20tOGE2Q242T1l0NGlEaWdwa2FXX29FS1YxaTRWNUdwdTZpTlpOSXd6M2hEelBZb29BUkdxbWRoY2JqYjJpbFdlak02R3JVTWZmSGdvZjdGbVgyc1hoZTRXdjlvVmxRem1JX3BsZkJyS0pQNVVYUjEwZXVEYXdnRnlJekI5TjBCSlBES3doeUNWZENEMk16aUo2aHhqSHN1V05TbXpldjduZDBXd0t2UkU4eUdKeFUyX0lzNUhLWFdnbFRNX0U4MkpLZXE0S2FCV2NSY0pkY1VqZ21wWG5tb2JsdkZxaVltV2JQZkxaRjJmLUlBZWJ3aVRXWFM2TEpKQ3kwTW1SeTdaM1JrcDlBcHBBYlhrQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['capaz']</t>
+  </si>
+  <si>
+    <t>Partido de la U presentó lista al senado en cabeza de Juan Felipe Lemos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPcVFQUndobXRHRldPWkNKMUNCcU5ILU9vZml6MzVDTnFLUWVMZTBDaFB6TktPc0VlWDlEUzNYVmRMSjZKLXlUenUzVXRsc2hBdE1SV29lUkRhRGZCNno5WndySGIxTEJwZ2tsX3Z5SGVmSnJZUm0zVVBHVFFManBISWFZTk1STkFtd0tfNzBzYVAwVTl6bGZiT0VKdFg0LWpzVGJBemREdjVJeW9BbTBkQlA1MmZGR2pKd2RJ0gHIAUFVX3lxTFA3OW1RcDB2cmY1MHB4OUh1TVM0VTdDT1NCZWdNc2tsNFdPdG9OcjZzZ1JhSEtDZU14MVZYU3o4NUpNc1lWdGIwazhNeHZoalZmR0UyOUZPczdYTTZzRVkzMmctR3U3U2VBWXhOdzVQNWtoY2NpcjFNS3Q2MWwtUWtzbC0tNTdHZHp6NjNJYUpsZHZQM3JBeFg2S1JwTEdXTVN2V1FrV1cyd3VJWkp0SEZwQU4ybER3SWZlWWk4S2FnRndnd2xkbDJH?oc=5</t>
+  </si>
+  <si>
+    <t>['senado']</t>
+  </si>
+  <si>
+    <t>Partido Alianza Verde no irá a ninguna consulta interpartidista en marzo: 'No presentó carta ni hizo ninguna solicitud'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwJBVV95cUxOZHUySElrZHdpeFpYOF9XWEpTNlhfeWVVV3FVZVp0VEt0VVVibEU4RXY5V1NUTU8xZ0hNZlhCWUIzOUp4Z0p5d2kzd3hzSS02RUxaUnZwVW1ROEMzVUVKaERORjFadmJReDJKemlEMmhVMndJdVdGNkxISkpQOE8zUTNlMDI0dzhabXYyZ0NnQjVOQkZmZVl2cENNbzVxZmY5amU5d3lIZlJDZ2hBeXVQWXVLczRmRWFwM3AwQW0tbFRqNFFmcm9TSnFhQVJmRlF5d1pCeVNlXzNFQnUxUU5oZjBMTU5aaHR2ZF8tZGltdjN6NjhRTlVURDdMLTRlUXNUVTducWE1dWtfY0lsMGhRWTlXSjlmcG5LS0RoNXFpMkxoOTJsT3FkMldpeVZ5U2M3dEdjTEk3SdIBvAJBVV95cUxNV1hBRHByTTdVUUpQSlJVNVNrTjEteXZIMDFmTjQtamdIOHJIdmRLNjNTSTVaNXd0ZlpkNUdKSEdYb2o4SXJoZE1QQ3Q1ZkF0bGVFZXdUczd2bXB2bnI5NmFnQXlvNXJyNzVPcjlyeXRNNTVhOFBTQ2M2TmtZZDdqRHJ4QTd0MXRDcUM3YkZNZ3RwS1NpZTJYZmgzeE1oZmN1T0NkV3hFbGc4c3BFTmhMR09fV25zbU9oU01GSEt6bWhhM004NW5YVzBiQUJxUlBpX3hWZjhuQ1J2Zl9EWlRDYU56QkFScXVJUFVhLThhVGxyUEFBVmlhWVU5aEVqZnYxMExsZDloaE5MeVR5bVBaWFNqRE4zdGlJaGd1ZWFOck9NRHVjaXh1VkUtTFlDUExYblp6OHFEUGhxcjZf?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Alianza Verde anuncia que no irá a una consulta interpartidista en marzo, estas son las opciones que tienen</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxOOUUtWDR2WGFOVkt1UmoxN2xJWVlzOEpOcHdnYko0eWxuU1NGWlVFNHNZMlZ1U1ZoTV9BTWpjMDJFVWdtRnpRSE80NGYzNWkxZC1qb1NfY091dk4yYWJUempLS3RsaU1iOVotWmN2Vkl6Rnk2MDNNaktTNzJWVUJuZ1IxU1g5Y3FwYmppV3FaM3NJVDhnNXlTMzR3cEdjOXIyN0pUQkx1QlBvZE01UFUwR1g2NnRxZktkb1hHWkREc3Fta2N3REhtNHoxc1dzOUZrZ0p6dzdaVXlxR1pWQ3RDc3huME8xVHc4VUpSbUdNdXNfdlhKT3fSAfsBQVVfeXFMT0RUVUdiM19GM2JoUVBMcElRWncwZmszWGFraGNHdGk0Sy1kTzY4VGVaQzlCMkJqdy1jSVF4aFlOUkE4MjdzcXRaa2tBMXNmSkoyUlRFa2YzWUt1R2hFZXdKc00yaXVCSVJhaDMtTTNITkVieG93S2w4cTBDSXJ5VDc0d2Vic1AzQmZ4dERHNGM2SXVGLUdoZExCdWZiYTFoVHZuVTFVTF9lamMzQ1JrRkxNRnVRczlETkZLTWJuQ19wOXhEWkVQR3AtUXBGOC05WTZZaWxVOEtYUm5xTHZrX2M5RnNiMnh4TldpcVUyVldPNWZkdTFkZHZlbHc?oc=5</t>
+  </si>
+  <si>
+    <t>Alianza Verde no participará en ninguna consulta interpartidista: dejó en libertad a sus militantes para apoyar cualquier candidato</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxOdllxOUJwcmdxNFJBd0dFOUEwSm1HN2d4QkZPWnV5elZ4bVBvc0tLLVhQVkRITEs5TEo1dS1zSllOQkhhOWVpVWI4WC1OQml0T1VTelR0UGIyeGVNUERVSDhwck1lQUVqdzBaTVdFbDBpSkJTNXVDM2E5bTBpbEJ5MTJuRjZkeE1KSy1BOVhiMFpubGxjS3FaanlpTmE4N1FabFotdVh4SnhJdG5JdUo4RkI0c3ByRE8xMWRYQ3poMWxTLVZuc2JQR2hR0gHkAUFVX3lxTE14Y0FGSlJlSXd4LXdteUVvNlZHamtlblVkMnNSVjR3U1ljMjYwOWI4bUd6czBxNGtnbGN0QW5rVXJGa3BhZTZrQWtMMDlDUHp3SlQ0aVpFNTI2c1FGTUlIQVRGendub3lGZFFKQWJkQW5WeXM1eG5pbTBQODAtajFfY3dhbXRIcGZXMF9tVnk5T2xabHhXTDhKZE02c2FPclUxN241bUw3bnNpaVZkcU93RXBtQVluQkd6OUxYeEctQ1gyaGVxc1ZhaXNoSkxtdU9rN3pHU3d1R1NfWDJzbGU4TkowcQ?oc=5</t>
+  </si>
+  <si>
+    <t>Alianza Verde no participará en consultas y deja en libertad a su militancia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxQNjdEc2oydkpqVDZEcl83d0h3VWttOGxqazRjWFh6c0ZTTWpSUVpfUGt5b3ctM3Z1Nl9nalo0SWpCbzlSMVY3b1VHZFlacTJnTWhFZ2pjYlhuVDNJWlpoSFZWS0RpdjNsMWtYdVpSaWEyU3g2Z3NnV0pXOWdZUVFoMXY4QVpaSG00UldzSGFRRnpCWHF2d05BZ0dRTXZ5aUtRYURfM0MySFZacGtyTUdQblJjSTJLUXVGbl9HanEwOUpfNGpwMzRrdmlB?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Alianza Verde se bajó de las consultas interpartidistas de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE9LYVNoOUROTFZPZ3JvSTNSSnNWdnhiNzZNam9LNTNmaGl1YkFiVWNhNTF1STIyNGV2Z3c3VlhyS2lLR2VaV3Z4NDZnVFF3Q2RST3VyMDl1NEd5TnM1?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Liberal invita a Daniel Palacios a ser coavalado por la colectividad y a participar en la consulta de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwJBVV95cUxOUkhjMTlsVjN5ZDI0dGRRbVpLT3VvRGZJYzBJWXlHRnFLUTNGdHN2TG0telEzTElIMEJQb2xHZWlYN0hWQWU0QnNtWlEtZmh1Yl9wanROem9fOWVEQlEzdHFoNEYxeHZidk5EMkFJWWlwMXBTOUJMR0ZmYmN4ejd6amtleTdWWEtEX2tJN0lWSWlBSzc2MUR0Qy1QV25XVlNROGt6WnNfNE1qY245LTRzaVNrSnI5Q1dJUWk1YklMXzBqdzdHXzljaHNlM3ZYazFqMkg5TUJiX0JRcGZWNHBUWnI4aVdHTzBIUl94SHFsbVA2bm9ZYXFRUTd4TWo2SFZ2aFd6dEswaGgxX25pMktv0gGUAkFVX3lxTE4tREdzM2kwUXc5RTNWcDRuTWlYUUsyU0QtVzdCUDZ1cHc5eVhFVTJabld3VkdDZDRJdTZZVDRtWWFlSk9odTVmcF9RTFVyTy02ZkZtRzJhVW01NDdjZUtDUklMYWxlbU5CQ09veEhrNFVsWUMxNmEtc1VWSjl6Y2oxc0tFTVI3LVg1MUpmaVFxMVNhRFdNb1ZSNjNjNjhUbVpaSF9zLXM5ekhqc3JKSDBZczJBWVVPd2RFRkFIdUhiajNKSVBMWFRNTDQtbWY2VFlaanBCVi1XQ241MFZaYjdaUFBpeVBmSTVYSWJISzVUZUhfRk5maHlObWVLYlNEQWZKcHhrRUVHcHBzMVh0ckV6OGVRXw?oc=5</t>
+  </si>
+  <si>
+    <t>Nuevo Liberalismo ganó disputa jurídica y no tendrá que cambiar su logo como lo pidió el Partido Liberal: 'Intentaron borrar un legado'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxOUGwwSzRZd09URnlKRk12elVpMFhrVkV3QU0tSjhqMmREQ0hOTDBfaktKUlBlUFEzLWN6RWFFSUlvRC1ZWEYwaVA0OVNLT0haMUpqZXpTbHFQdnFqdkswbHlOaldpN2Y4OHoxdzdabDE0aGFvRzdISEh2YmVzWVFXLTgxYVJ1aVpEU3JnRnRoSW5jOThwcmVFb2ZMVzZMOGtNRzlpWHllLXpyWnNId3MxLVF6WjIyMnFTbmtacHBfZzFDbnpkVWFfM0hZeEFFZVdST3NneTBKSlFTQzM4eUNKRHN5SzVON0RnT2plbXRKWUszMWZsVVQ3RlNfLTJBeXJ4TF9XVtIBigJBVV95cUxOOGZ1V3NKVEhuWlBtaDNfeWlwbl9NMmhoelEzdzQ1eTlqUURlTnlNNnNub00yanlPSW9KOUV6T3dzaUZzakNpX0pOeWViR3ZYTlBUd3E2Nmw1WFNHZ21ZOVZDWFZjeGljbDAxRHBiV2FxbFZxRDRXMjF5ZkdnaUtPQThMZG80dGJYNnJsaWRabGExa1ZxYkxsQVprdmhQSUluZEh5UE1TMmF0bHRzRGFYUGZTMU9NVnhvTTZEZzkzRHRlUml0Q04zdjNpNXdwU3hwZzl6WmJITHBvYTBmZlZTdVJ2OHh6eDhMb3N6MnJuLXZIOWFFdnFfM0tRY2p4MWsyM0hZUThDRmNiUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['Nuevo', 'jurídica']</t>
+  </si>
+  <si>
+    <t>“Los niños son invisibles simplemente porque no votan”: María Fernanda Restrepo se lanza al Senado por el Partido Liberal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQSjlxaVdVZ0N4SWVoU01sNW1tUWRKeFBnSVR1eUhQZ2s1NWlnZ2xVSGhuczhXd1ptRVZWbWhZSXp5QkxPZEtmUFpST3NycEpHQUJqMHRFa3htZXVodE1uazZielJlcC0zdE4teU02TnVtc3E5ay1ObkNXQWptSWFabk1hRmJFMVZ4XzhnOF9Xc2RYeEFWdm1YaVFfUDFBbVh3ZzdoY05YMjROZUl4dEZCRUVXUlYxazhlVGp5aE02dXJJTXlWRnJBb3lyMGNFRXV5NUxCMlFXU2pRdXhzZEw2eV9OQU93U3BNUTNVMFdZUFpUNDBPd0dXOFBmVdIBgAJBVV95cUxPeFNKekU4SlFGazdMWnNZMUw3Y3E5RkhOT0FCSl9nbGtVNjJ3d0FiNlRUQXlNRndZdE5salFhUXdHclN5MnRfWUROa25QaWdOaG1OQW4tZDRwUml1RGVINm9nVnZJQUcyR1VOVGx1dVItc3l6VHI1cUFjZ0h4VDR6dms1UnRxbjZNalR2cHEtLXdCZWQzN1hsYVFfUF9VNW1CRTE2SU1pUklKcVFHTlhmajB3VklpRjJGeFk0cWxUbTlBaU9aRlNNLXlDYVA0WjRLUERGOU11UDRSLU43eXVRZ25nSy12dHM4UzNVem54bC1IOHRtR2JPTTM2aFJjdXR0?oc=5</t>
+  </si>
+  <si>
+    <t>['invisibles']</t>
+  </si>
+  <si>
+    <t>Partido Liberal entregó coaval para consultas de marzo al exministro Daniel Palacios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxOZURELS1CMWlLWVI4aUROVlFLUFI5eDlSbGdzTFVMekJSUk9CaDdEVEQyVEFFeWwwSjJ0TmQ3bEl1c25od0NqcnM3Y3kyMG5JZkl4V3NCelpkVk1oSWFQckNlUjZPN1AzZXhnNzVkMldxVDlkZmZUZnRBb19qX1BjWnptNzJJM0Jad3Z4Z1JmQU1CZk1hQ0ViWi1pX2FOMU94WkRDajkzSDk4ZFpkZ0VyeHZRU3ZBWmxhZU5MckE2c2ZMWEp4T1p0QklwcE9hT2RENXdZbFhmRjVTanNScUN1MGdlajBISWxtanJvY013R0JQZG9DdVZEQjR5bV8yYmJhTldRVHktejJEd9IBnwJBVV95cUxOOGVMd0t6V3ZMRUdEc0toSGJQX1o0VmN0ajNDUm1IaXdaNmY1VUtJZnVDVmpTQ242dndqTlQySkRkVTVhVXNTOWstS1VSVGljdlpzQVJiMmRjNTBURGhqdFlfOXpxUklUQTZRQUI3WDlhUDRsUGw2RWtOQ09GeHVzMFlMY1pJVkZPRV9sdFozOUw2QVRuOEpGdHNMZUdHckg3RTZWWnVqY2hRQ1QwMU5nV2J5TVVxVjV2UWptalk5S3hGT2hydFVjR0hXZlBmT3o5UmRTZWlxWU5ZTUVJYTlDV0ZCSU92VlNsNURSRUhPNktlRGNLcWgwZUlDWWxfV1VYNUIwQXlnbExaalNhamlxSTNBSWlOaXFJdjFYY2t3NA?oc=5</t>
+  </si>
+  <si>
+    <t>Partido Liberal coavala a Daniel Palacios para consultas interpartidistas de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOS0MyT3V5U2FOckVwUF9YczY1ejJjVjNEVlY3RXVyblVuVG1ob1FzUjlqb043OTNNQVZ0R2JISFViNWlxbUg5cmhTTlFrTmVzYWxHbnJHQnNsV2dYOW1NaG1HR19kSVB2cTNib0FTaFZVRERUMGw0UHNwSVIwN0VSYWo5dkhLN3JFMFJ0YVhYUzlvS3VpVlM1MVhrZ1dKSF84VlEyMVY4bGM1UXhzT01OMU84V203TEEy0gHMAUFVX3lxTFBxTWJjc3NZOHNCaE1NMVBVWEt6aVNWTXNhU0I3Y1FvU3ZjelFEUFQzZEszVExjbW5LajJJcmtpa2RJYUxvXzVUYy10VUJsM04tTHU4aWVHTkdqTWVGWjZxZnlXZFNnYWVzX1JqcUVWelpWWFRMc3k2bWNTYVNPN3RPaThZU3FuNTRNX245SEhHdVVKZzZHaUdZSVllSE1KY25PNWMzSXhSZjNIWnl1dGRSVmpvd2VNY1VTdG5zenU1V2NQMVNvNWlDMk80Ug?oc=5</t>
+  </si>
+  <si>
+    <t>“Pusieron alfombra roja a lo peor de la política”: Losada sobre listas del Partido Liberal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQSnlZTk8xMmNrcGlHTlA3NG9OMS1aUFNxX1NlS3cyQTR3YlYwZnFYak5yVFJBNk1HSlJreHhrQVNibFhtOGJ5UTY2YWdiRjltNWNmczZxdVlDdU9zZzVWVDc3SS1RRUZfWlZibEgyWURGSXZXeWFNUDh1TklZREtWZ2oyVGptNndkZnhNODM5YTRhZTIta29IYTVscVRVRXBzVzd4OVBPN0JhZDhMeXZlNFFQZ0FZdXpvX0RBakJMSDUzTG_SAdcBQVVfeXFMTTg5b3Q1N2hrc3VtNHRKN1RDQ0dMRnRqeEZadnlGcUpNcWhDcUp2eDVRVDFDbGhfVkNnTERTeGdYYkhCbGtpdXNCcURncTZCLWxrTGxhOWt3UXN2ZUpXS09LNkN2V3ZWcjNuTjZpakJzU2NHWWUxSW94b2Y4Zkh1STZPNTFoRERES2Itcmg4UG9jczA1UnVRMHBrUXI3eGl6QzNrQTlxU3Z5STdKVXJjUWlELUlyZnEwNk1oNGZrQ01UaDEzdkxsTDNNbi1TSzB2VjlOYjVSdkE?oc=5</t>
+  </si>
+  <si>
+    <t>['roja', 'peor']</t>
+  </si>
+  <si>
+    <t>Daniel Palacios acepta coaval del Partido Liberal para su candidatura presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOUHpaalF4bGZYV1Y2dEYtY1g1NWdNNkUtdW5xbjBta3JCUHhxN0hQQWU2ckFlUUNCa2V4UFlpeG96WkZkVDhBaXlwanJzOVJ4UmZjczR1MnpIQTFxa19oYnMtQ2x0Tmw4aXJ4YjlraTdQWnJ0UHRvSUhEcWk5ZTVqMHpoclVBejdlNDNUR1BOdnJWa2JjcndGOUFNdUxGOENGZW1fT0ZwRHpqQXRWVVZ0YU1HU095Tng2OThiMTVB0gHLAUFVX3lxTE1pRVdVM2gyM3lLUmVYaW9qMmFocHJUaGRZby1xREx4ZHJBMzBBWWVlb1gtbHNsQkx4T25QcFNXcWFUM0ZrTTNoNWVFeHJrRVZZd01aOFVlYkp2c0t4aDV3WHRHeG1hNVFoa3BQNmgxaUhYZVJ4S3RvMWRIckNmODMzbzFLY2p1VkZqeDA1THpVLTRJWFhWVGVCOE9fRkpnYXdwTU8wNzlkNm5DYlBwTzd0MjBTZUVCX1l6a0dDcFN5bDdEZW5wbnZjWTJJ?oc=5</t>
+  </si>
+  <si>
+    <t>['coaval', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Partido Liberal inscribe su lista a la Cámara por Bolívar para 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNNElBTHQtSEFyeTRDcXJEZnd3NjN5YWl2MWo1bGhycThHRUdHZEZ1LWRNTV9UVVBNdzdKNkh2aDhWelNIVGdDX294amwydmkyYWZrdDNtZ3JQbmVpT1VKaTlvTkZianlIZXBOYjdlekhlRlMwSjFkcTEtTkh4MnA2MFFrMUQ2NnBibDAwR1ZZNl9OQnhwVEIyOEl5eWRWSkFSYlVMQnpTY21uSDRWbHd5Q1l1bEk?oc=5</t>
+  </si>
+  <si>
+    <t>Dairo “Yayo” Bustillo anuncia su candidatura a la Cámara de Representantes por el Partido Liberal con el número 104</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOLVA4TWc5M0VaeTZpclhBRnFUdzJhVWJGVVFwSHVYb29CaEdFbWh1VFBWbXkwLVhqdGRjTVNhMUcxTk9BYS1VY011MDZWVzNmaDZrbTdqTXpKMUJzMWk3c3FHd0N1S0tFdXlHZW1HXzJpcno5WjN4T3lxY0JZVTd1T1dvcmtzS2xva056TTU1ZGxCanhfbC11cWctSFdkUnBGcEFpYTg0V2NjVXQ4MThfS3dUNHV3YW1xZFhnWjVlb2JqMVZhVEdwWFFfbkN1V2lPdmJQeWdIWGh0anE4NlFwS0I0aEMtYk1scDc2T1pwYXFyUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Congresista del Partido Liberal calificó la lista al Senado como “vergonzosa” y lanzó dardos a César Gaviria: estos son los motivos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxOWnBNWm9vVGhTQ2pmc0hNMmdOOFJnbEtSLVUtNlpISmN2MThmd1NfOS0zcDZZUVBFdFZEQUo0cnloUEdmeGlmZTJmYURBVG95Y2p6YXdXN1pVTTJWNzhOa2g3Yi1sM3B3NGc1NjVMeDMwQV9FSmRYTm9DYXMtek44a3BqdEhPOUdlU1pxMTZod0pjd3NKQnRMYzc0Q09sYS1PN0ljX1pTRTVoaVZYeW52b1hxQ3pRYVhLdGRERU1BWDRGOWU0dnV5LWtmN3hHRzd6MjhEN09RTE1VcHdxSlJITVRha1g4c1I4UVR6UDc3bGNQSWNpMVpXTTZKR0dWYk1yTFIw0gGeAkFVX3lxTE9tNUZteTNwVnVVcTRUOWJxNTBkdm9QTHRMSkZOOFJvblRlSzVYdFg3VHd6NE1yR1Zac3NKblMwUXBWNi00Q3F2dlpVaVV4SkhmM0xBcmtwdzJQSkpqYjZpSU9vM1dNNGZFa3Y0c2RfUjZGYmV0TVVNTHFCcnp0b1czZnJfRW94bHVfNDRnUjhBdEpQUnAxeDFkYkpOWGdmM0t0UXRscW1JempUd09YcmN5OFhpLTJVZW4tS1UyRG9oTS0wU1ktTWVkRVpGMEthQmZVb1lKRnRGSkhfcks1SG14R0VVa0ViTU1zazZWdFA5dlR4RnVNdXVLYVh5MVlpTE95UjE1QWVRb2VlMVVRM2N3SGVsRmJyNndTQkRKYUE?oc=5</t>
+  </si>
+  <si>
+    <t>['vergonzosa', '”', 'dardos']</t>
+  </si>
+  <si>
+    <t>Partido Liberal ofrece coaval a Daniel Palacios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOeDBfQ0dGamYyNGN3YU5WQWYzTF9PNU9SeGFqWngzaTJETTJGNHhyNWZvdHl2S2lqOWxXaTNlRjBkcDNlZWZlbXFxaGlIeGE2Z0VCaWdqN3VFeFZ3R2ZnYUsxa1hnU2VBMFplekd3dkRxRkplaWlLdW5ic3lxWGNWSW9XeU4yTzlvUVB2R2xKTi1nZGpxQnRtcUM0MkZYUXMwTFVv?oc=5</t>
+  </si>
+  <si>
+    <t>['coaval']</t>
+  </si>
+  <si>
+    <t>Juana Carolina Londoño le pide al Partido Conservador hacer una convención nacional para elegir a su candidato a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxPbWFfcUVlQVI3aTZ4YThYY0lqeXJLU3hhOHBHSEg2NjMtQzBYODJmLUxpdGZ0Y3lpQjBuTVlmdy1UN241eG5XWWp0eGhLRE5ac1ptaks1ZEtRRUhGaTVDWmNhYzBqd25oS1VoUDVSaE9idHFEcy12N2t1SFJ4YXktNEY0elBWSXhKQVMxdExVT2VxaVYyYlJxeGExVG9vajc3Nm5nWkRicUttcUZzVkNTcnd2STdremlEVEo5c1BPdjUzeDlLQTdRRjhFQTU0Q2RHLS1vcnMzQnlES3hLS0JxeW9tWjV1OGYxSGdIRzJKMnlDUzVMMFZvM2xFcF85YmhHNGdkNjlOc9IBjAJBVV95cUxOOXdKVlJvUHB1UnNBXzU0ZGZ6U3dieER4LWxZVFhMRGRUeWRkcEpnQVFnMWstYjJ1Vi00SXZEbG1uQXA2cGxfZ2xVTVE2LUpXLWMxaGFrSlFIajFLZzFTa2FGRU5kUTBuNFB4SU1qNkRsY3ZSSXJBZTdWRTUxQ3gtZVZrTmpIdi1OZzA4UTFDWWZZMk16QTF0Tnl1N1RzMzl3a1E5ZUZoa25PNk5IRmI1RW9pSVpOemJDMGdfOC0wVHVISkRnOEtVYXpETTBqU2hIZ1ZkLUlFLUUzY0Y2ZGRMSHhQLV9RYnhaV0otSVdiQXN1WDJaRUJLekpMLVM3dlpRbGwwMnpEWS1lMlRp?oc=5</t>
+  </si>
+  <si>
+    <t>['nacional']</t>
+  </si>
+  <si>
+    <t>Felipe Córdoba será presidenciable por el partido Conservador</t>
+  </si>
+  <si>
+    <t>'Pipe' Córdoba se queda con el Partido Conservador</t>
+  </si>
+  <si>
+    <t>Quién es ‘Pechy Player’, el ‘influencer’ que criticó la dieta del Doctor Bayter y se lanzó al Congreso por el Partido Conservador</t>
+  </si>
+  <si>
+    <t>Tribunal rechazó tutela y avaló nombre e imagen del Nuevo Liberalismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPMlp3bUVIWUhRaWxrcExNZFg3U2cxTTFLS1ZWcWktemRHVlo5dksxVU5uRmhVNmZNNWMwV29KbXdxQ1JVaWxxUUlTc0xWMlhXQ3BRVFBCNnREMVN2Y2tKaEdvUFgwaEF1R3hCZ2VuUWc1ZFExSWU2cUJIQldyVE1iaDgyWG5NU0lvZXpjRXhhRXhRdVBERFBlVUd3V1U5cFNZdDhGSdIBqgFBVV95cUxPMUZab3VRTXV1VHdDalBOVnkyb1I5aHJBOUJWNnh5bUllVGlKTDBzXzRUQWJNWC14N2dWeEo0VTFCanFKNVlBS3dGeFo4eW1KbzJSVUtPc2xBa2Q3blJFMGRObVlEV0U4Ni1CRktsMk1Kdkd6MUZ0enBJa0k5Z1JOcVUtc2U5NGVtMjc0Q2ZqQy1sdlJVeVBDMXN2MGhvRXE2WWFzWVljX3Awdw?oc=5</t>
+  </si>
+  <si>
+    <t>Expresidente Álvaro Uribe le envió un mensaje a María Corina Machado, premio Nobel de la Paz 2025: 'Luchadora superior por la libertad'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxPVlVKcmNoWGJkY1N6ekdhRXlEWE5ITERLZ080OXNQR1RvMFgtOFdNcXdXLW5iX1FzMFBnRTJ2b05CcC05YUhaVHhXcW81a3JGckhWcWxabFVEeEF2RXVNU2xxUUdzMUhFVk5qMGJadGlrVV9FNmxPcHlCTUpJNkhkWjM0VWd2WHdhazlFcTNwZW9pMDdTUXhCN3p1OHVXZG5lMTJCUGRwUDhyV2tyekRWMFNqWGdtQVVzc1drYk9TQk8xSzYzaWZCd2loMGllSS0zZjQzOEtLQmVuZjNneVdGOXhEUnNOQ3FKdnpSdm1Nb29OYVdFMXBPZXdzTG9BVHRCaVZ3?oc=5</t>
+  </si>
+  <si>
+    <t>“Te necesitamos”: los halagos de Álvaro Uribe a María Corina Machado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxQTmJObDl0UjRjSXBPalBGaTVlM3E1b05WclVkN19TRzV4RC1aY1lmUDdaaXlaM0VtZjlYRHlaZDdKV0lXVHpOX0VNX0hwbUxHblZJLVoycklFZVhZV3VxdHoyYkdwX21DNWFRU0RjUmhTeUxESVRZc2ltR0R0R1lBLXRPYlZlX3JkM0l0NVMtVkFsZzZ4RXBnczRvNU9OZDZyUTlpdXBxTmJ0NkJLRGdsQXlveFN6Ym5tMlh1etIBwgFBVV95cUxNeGZDWG11NXlndWVMT01FMExsTXpZU0xxZkc2LTNVZVRtMC1XdjlsOEtGaDRDOVJJX3JmSTVMV1ZJbmdnQVhFY0JYYTE5N21YMXotcWZWYXloX2pjZEdxaHdySEN1VnNqQVg1eERISmZyUHpBS0NfXzdOMDI1Z3ZQR2xidXZfNk1TU29kcnp5WHk0aTB1RC1TbmptZWptNGpLcWt6Szk4MlJIckpVNXdBOEtLWjJ2Mnl5VTVlRl8tbW9PZw?oc=5</t>
+  </si>
+  <si>
+    <t>Magistrada Cristina Lombana denunció “conductas abusivas” de César Reyes en procesos contra Álvaro Uribe y Armando Benedetti</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxOcVVCQTZlbVFVeTZKU0tlVGVmUHhBR3dLM045Z0VwNnBSN05IZ1NXRUNuU3luRGZtUFdQNWVSeEZPMmt1X0tqdDJBVHhxOTB0THUzcVN1ZlYzdjE3QnNmdFFNYUFZb25Ra0FfeVdMZUZZdnpRRkNfN2pDUEpBdVM2ajlOZDFBOXFLMlFfUXlISy1LVk1kMzh1LW92Y0hwSEpzZXI2Z2k0R0hIS2tMMUpFS1FRZzhCLU9wZFo0N2RHTVpwLWhMcGtxMllZc1VMMmdVb1ZoRmM4UTJDMU90bkhMOG9kM0VDTlk3MEpMbnpMZk1fcGx5RmtYd1ljcTUyUdIBgwJBVV95cUxOM2t1ekpSUmxjTlh3NzUxSmVYN0FUZjdNQTFkdThaNnRjbXVCblVfd05PRTFyVlVpWnpGQUV6Nk03UEFtTndkc0dSYV93THA2R3N5R1Z1OEdNTkJaTnRWelVsWFRJZm5Ia0ltb0hmZWxTRS1aeEtocHJoRWlVMnA4VTI1aVFrc0owa0VzdXh0TjAxaVZTMFRsN1dQM0dfeU9kN01Zb25ueTk2QkQtZG9rSFFKSmxQQll5VXhtdTUtbmRBNWEwU3JHeHZ3NlhjQWhTTDA4cHNiZkk4SDVxREc4SXloYTNsWVNyRnRETmQ4ajRVTkVQVDAtYWloVy0tTmRrdWg0?oc=5</t>
+  </si>
+  <si>
+    <t>['abusivas']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe abre la puerta a que el candidato de la derecha no se escoja en consulta; esta es su propuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNMHNiemZxSGNSMVljR0hiV25McjVkYWZFX1BERDdqUmNCak1qaC1Qd3E3MFRHb1dlN3VLRW52bXJCcFhEem9rTFR2NjRuWVdJTUFpaU43MXV5bENhdl9zVEhTVFluRHJNdDBWVUZJNmsxN0h3YUUxa2xNZ1N1NXpFMmFPa01DYk9KdHBmUmlqdzJjQnBXSUtCcFgxejZCMjlIbjVKaWN4RFFrNDlzNmJTdGQtTmdSd19Ic2h4UjVjcEJiay01eWs0YW92c3RXSVdlNDJqSy1HSGR2Nk9BbGVJMW12T2JqWkhrdldn0gHwAUFVX3lxTE9yLXNoZ0Z3MmpWemFaMWF0SU1LZVNkcGpSOXZWeC1obGpXaDJiTWpWdDBNMEppSlFqeEh2UjlLaENqMTVTaTNPdVJuMGc5RXNZbEd4TzlKZmtVYUdxSXF0eDlWY0JuQnM1allhLWdoOGNfN1hmQkpZdzlrYk9Ma2ctZ2JlZ2hZTENMNFFFVDZRSXhLX1ZZNzZodDFRMk4za0o5dk0zTUl0N0V3bTFFbUZGTURtcTFlN0R0MkRjUUhNdnpHNWtsbG5UaUhGWnlfQjBJMmFWang1WURmVmsweWZjQmd6a2FpWmNiel95SmZRaA?oc=5</t>
+  </si>
+  <si>
+    <t>“Tengo derecho a manifestar”: Jessica Cediel se defendió de las críticas por su cariño a Álvaro Uribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxOWnZSdEVFaVUxak1TMzA2RGxDeTk0VmZMTDhqVmtPaHJnZ0pKbHdjV2JZeXJDeTU4bGlPZ0xDQ2IxZ3dDQ20xbXFIMzMxQ01tNmhvdTRxeUNVWHRVMW52UWg1Y215Ul9wdDdYekFPWUZRUUpGY01LbE03N01CZHNlZUh6T18xWk15QTJTS2dUVTBDZlcxc2hEMjlseUI3b2REWXhETWp1d3lNSHBxd2hEZmx6MTFZdGl4OXc3TXp6bXdiQ2x6OFFjUTd4UkRXQnFXWDZGZ0c1MVoxbzhRdDEyM0lvR2RHLXc?oc=5</t>
+  </si>
+  <si>
+    <t>“Un gremio no puede legitimar esas propuestas”: Álvaro Uribe sobre reunión de Iván Cepeda con AmCham</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxQbHBjaS1OSUItZV9GejRMVlRacDdIREltUElnWGItRWs3YXRUU2lIR0l2U2p5cldwbDJiTGoxb1JmalY4al8yLUNtMHoxNHA5QW94Q1YwRDh2OU83S0t6ZU12VTlZNlVHajVhTV9SaFh2eFZQbTZsVC1xM3laSFNhcmEyaW1lT3VWSXlicWE0cjBEY2RiMnlPOWZhX3NjU2N6d0JsZHl0c29KaU5UcWRzUm1FOUNkYk9tRGVxMXJBaWNQcFhuNVBJT1g4cVpsdjc0U1Vj0gHTAUFVX3lxTE9MVG1CVHNVOGxlS3V5RU5PZHJ0b202Nk0wb3BSSVlYdnhsZ3hsWFhMcDVlYTdpeDNrOWtoMEJTWnZrV3M0anp4NHB1T3I5S3d1aXhpbG9LeUg0elkxX1NKVXUyMWFoSXBqMjNxOXhDUHhmZ1J3amNIY3AweUpqU1lhSks2SGJ3Uld2YlB4eGlPQVNUTjhWTXVwSFJEUElHQ0tqLUV4NmxKT1lod2pZRDJIa2YtaTZBM3E4ZnFCTTNpLTg5aGhYcTZQem1JU0lOR0hvOE0?oc=5</t>
+  </si>
+  <si>
+    <t>Jessica Cediel causa polémica tras foto con Álvaro Uribe: así respondió a quienes la criticaron</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxPel8wNHZhNU9USmZUZE1OS2J4eVEwSkpxMlljOGlwSkNwV1U2R3d2QjhHVTFnWVMwRTJNQVZSLUpBYkQ3Qm94aTN3dUI4RkY1Q3R0cW9jTmMtTDRCZVR3SlFzTkpGSklvT0F4TXVqYlVmeUVUY1AwNXUxXzhBNnJjNmEyTzhINGsyMy1TTVh3azJRS3ZhOF84d3BqTzRBR1AxcnJJRnFuSVZtejlsWDVIUkxFYXFKZExTMzZRVEpvb1diRWxoNk1DRVhubGczQ3dNc0dWNWtBYm42MzhyTmZkQ2dDbVpTQ3QxeGNObVZmWWFndw?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe envió un mensaje a María Corina Machado por su Nobel de Paz: “Te apreciamos, te necesitamos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxNYlp5Ym50ZEw3YVlLRVJkUGx0bmp2X2ZlVkk5X3dfcHVvMnYxeTdERTdVSjFtWmZsY09qMFU2ZWtZdnp6RUFrVF93TlZvUm1WS210TXpKQXFvMVFDT1N3S0VnWVZYWkE3S3FSNUZqdmRsZGlhejNvUE5TdEt1aVFXeDd3TFY4ZzgydTBCYldlcGhIRE91b0VrSTZhc3lNUFJVQXhqTklzQU5TdnloYkV5eE1wVm1DOTl4QmZyTlk4SkJLSGJTT1ZDc2o4QWRkUnBWU19DdWZEam9RT3ZhY1hJ0gH6AUFVX3lxTE5YRndjeS1aT2lENVZPNGRzSDBodlVrX1Q1WU94LXRmSy1uQVozY1otUHlNcDBDbnBkWHJ5bDdCc29Ba29lb3VJUzUySk83eThpSHNISTdwMzBOc2hPMmNJVGI5WklXQTFpV29uNWRPbl90T3JENk5KcC00aFBfOV81dlEwOE1QSlk5SjVXTlV0bHpKRkVreGZTRGQyenh3NGZQZEVFOXRoSUdremZhaXVyeXp5V3QwR0VCa1FkMWJzUldoZ3JCS3lrbGNoQmlqWUxrMWJ5S0U5VlQwU0wzZUlTNHIyTThydVNpOHlEWTM0WHpodGNCYlNSVHc?oc=5</t>
+  </si>
+  <si>
+    <t>María Paz Gaviria, hija del expresidente César Gaviria, quiere llegar al Senado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPcTBoMmhmd3RHeTBVS2JubHdKQllVbGVuRl9yNjZQX3lJVVctdEhHLXZkMFdnczRfdUFXcU1Xa0h2Uks1dXBRa3VwMWxEZzNOSk5wUDVKX19OU1FYUVpPM3dSaW5SV3F2X2p4RTl6NkJyQWVUbTVKc3dGUUJUZTNxVVRfX3drdnk1a1ZmRzMtM2ZHZWQ2RllwTU5OblNGT3JaR2NqYWdZdGdkSjNuNnlWTEp5dm5qMGY0djdEc09lLWFDQjFJNXfSAcsBQVVfeXFMTjNVNkFBS3k2RTBqMlF1ZVpaUHh0S2ZKQ1M2cnFIa1cwQlhRcEhkV2U1OE5vZ010dElzdlB5anYtc19jN1psR3NwYkpEbWVVTnNrWmNVa1NxS0dkQXJvWEtFb1hDVlc0YTlQbXFRZVh4dFJ2aE81MUh0NVo0OXh2ajVRWkMzSjR6OGhudVlwYk1tdmZ0dThCMm5pRUpWRl9Zemh6dWQtdEpUSHdZa242WVMtWVlnNDlNNFByZ3d0UzJOa0FPU3o5RHlRZlk?oc=5</t>
+  </si>
+  <si>
+    <t>César Gaviria</t>
+  </si>
+  <si>
+    <t>María Paz Gaviria, hija del expresidente César Gaviria, se refirió a la llegada de influenciadores al Congreso: “Alejarnos de la política de los likes”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAJBVV95cUxPWkFlTGsyeFBUak53SWVPZ2l6MS03S3I1TzR1Q1lsN09NUTM1YVdGa0duTkdSeGl5ZGNXdDJiLTk3YkxXbUN4TzJ4SmJHeUVhanI3UzhLOVZra1BjQXFxYWNlYU1SbXJpWWZwWkdINVBCcjhzX0x3a3dPZGpSMWhYNHRvUTVyMGdkZW1RYXdEVWJxaDE2bE1haGpRNFFxNTlRdWxUNEJpUUpLcndGb3pKc2w4cTVkMzd3UzNqVmNQb2NBb1VTN1R2YlltZ0p6bXJMWWc3Zy1fdEE3YmhNcnd3RGNaSlpGcWlPVU1TZW92bHM5dGdlcXpkOF9IQnBZbTFGMTExU25UazQ4cnFsTUY5dllsd2JMLVVPcm92SWZqdmRLZVJZQ1VlNmpfeEgzWTREb21wUkh5VmXSAb4CQVVfeXFMT1diRHhIWE1lMlpWZVVHd3pYR1pSb1lWeF8tMnFmSEVWUlZra1plWlZTUDFXX1VJek5BakV6ejBCM3IyY1d3T3JkSl96UU91ZXJVUEV1M2Z0NnF6bF8tWHA5YmdIR3dPN3ZGTnZrenUzaHpHbk9lVHdELWRiaTFyYnpiMHM3dEV1bU14U1lpN3RNYWhtUl94cWF0V3I0d2ZxV3ZVT09fTjZhMHVGaDlUVVd1MVozazg1YU93cFBsMmpRMnB1VE1jZjI0YzB4RmR0R3AxS0tONXl5UC1zZTY1Rkd0UlIzakV4R3ozUUZsZXAxOVlqc3BYbDJ4VmR4S1F4NzBHeXF1R1BJZ3gxSVV5MlpZeERRbGEtLUNNeklScFNoR1FhRVQ5bDFRckxFSkhtdndjZHJOVFh6eWpYLUNB?oc=5</t>
+  </si>
+  <si>
+    <t>Hija del expresidente César Gaviria pidió alejarse de la “política de los likes” ante la futura presencia de influenciadores en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwJBVV95cUxQbGxUbWwzV2dVS2JtOGlzYXlJZjlkQm5KYnJqLUVLcXczbHplX3N0VjVURldsVHRKZW1HdVZnenl5WGZjMEZ3a194Q002dnduYldRSHhFWHNTbkEzU05uM3BESFJ5eVJJM3ZPd0hpazNlbUxyN2Y5Wlk4MzA2Ym1vODJUZ3gwSGZ6MUV0N1RIREl4Q3ZEaFUwYkV4UGQwa3BaemNpZlVVTVpmYk8zeWxOUmE3NHZKRk9aTjhBQjBiUlZBV1l2aHhYMUp3cmVHQnVXSy1iSXBYdFpWZklmbE5SMHo0MmdHTGg5NXlGWk5NSUw5M0xEMTI5QXNQLTMwb2lyQmFMQ3hzN2ZVWjVRanA40gGqAkFVX3lxTE1SalJKRFMwRnZBWlREUmdwT1pGVUdYUmtaalppdF83YnJkQWVZVE5VWHJSSWZwbkFpSkVHV1o0V2t4cGV5Y2dkWHloVXFYVXd0ZGljY0oyYUZuTERrck42SHpKVGlaWnpGdzg2R1MyeHBERklQYmVpdEF6LU1PMG5XX3U1T0dnMVU4WmNDWHhjTWZ3RldtY1BaLUdOTnpXY1dyZ2kxWk5GOHlMaE1GdzZVQWo1ZGtPT1laWXJwZ21vNEtJNDRQVjNhOVptaklwNXZMLW83WlMybk50Y2dRR3JNMWxFY3NKdUlicUxUYzNHRlNaclN3RkJCLTJNaW1heHpNUW1lOEhMaFBnb3BTUEF4eGl2aDFzclk1bzN1TXZlNUhoZ0h4NjY5RUE?oc=5</t>
+  </si>
+  <si>
+    <t>['política', 'futura']</t>
+  </si>
+  <si>
+    <t>Lideresa nariñense Claudia Cabrera inscribió su candidatura a la Cámara de Representantes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNTzJIR1NURlFUNDd6Y1A2cUJxZ1ZGRDdwXzRESjRiclROeDJkdG9fM2t0OUJnMHlSd0dQZ29EWVprbnBBby1qMjEwMW5HVUxKYkcxRzhiQnNzUHhrTTdYOXpxbWZQQmlZRk03MlhQRWtQdDlYWWdiRF9IV1pxWmh0amd6VkI4aDZHc3RJLUFHMHM0N2RSVnBnSXFVOG53VGYxZm9KZFUzVnlVa1dRcUtrd2tiMXNzc3VXQUctQjl4RWdyelVMOHdUX2tHZWVzR1RyN3RpUWJid3BXUzVT0gHiAUFVX3lxTE1UVkRERnlWR0xGWE9qb3VNT1FVUXBiLV9YWG15QzNYWFNJNW1PX3loZXhpUGZNZmRaLUd1eVVNZTFTRW0xVXdkeWh4VVJuQUJOc2QwZlpBX3ZNb2JWZTdjM1BjTlUyeVY1QVpfal9mUTlHX25kNFlMZUpzMVlDMXljRWl2SGJmQllpZjVXUDJpYXlwREdLVlJKN0hQRV9EcERfS2p4Z0tKUDB5bzFOQWZhMm5Mcm1Rb1lPa0JDdXdNSjNpaXB2Q19Ia2VOdXI3VURpNEViNExQTjFkM18wc0J4aGc?oc=5</t>
+  </si>
+  <si>
+    <t>['nariñense']</t>
+  </si>
+  <si>
+    <t>El excongresista Federico Hoyos volverá a aspirar a la Cámara de Representantes; este es el partido que lo avaló</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxOT1oxcV82eWZpRDJLZzlPTXJLV3pWaXVnUzE0bGxjd3M4NlNGVWRtclFZUGtxbzdQV3kxUXFwYjFnbGNaLXUxZEhMci02Mk0zZy1qTnp0M0tmclYwTWNQZ0k2dzZKOXdwZlRWWWZDRkZfdXVHR1YzMmo0amo4YTUxSFViVlFFWjhQQWJkZ2FMRk5xenE3YjdxLXNqcWNuUk02b3dYZGlSdDdsT244aVRROXlqYVVWNmhPaHNNeENCUXh4c1I2WnhnQjIwdHVmakhhSmpPb3l6em5jSnNQMTYxbUF1TXRHazJDbFZGODdxVzg1VjA4aUU2eE9RUdIBgAJBVV95cUxNSFE1eU9wcFkwbjRZUGRzX2I2RkQyTkF4UDZnd2RuQ0ZpbkgzSkQ3UkNwLVdwQU16M3NxTTFxMExtNzJQNnJGWV9WRkc4SERTSFJtU3RnbkoyLWlIQnl1alcyMmFzY3hwV2VtWG1qMXVrRVlvTnpFWDJDNDgycEo1Wkl2RFUzZHQxeVVCZ29rYnhrMG9oX2JnUUhaNmR5N2V3REYyTVZZRWNPTExwdmYwdGRCV2k3RGJWc0tZMmEyM0tyQ0d0VUF4SzNpazRGXzV4SHNpVG5YR204LS1wcTNpczBCdlA3Nm5uczlMY2JzMFppYzVLUENzN0dhT0JrV3ZZ?oc=5</t>
+  </si>
+  <si>
+    <t>Cuestionan a alcalde caldense por entregar unas flores a una candidata a la Cámara de Representantes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQV05IZG0xUmd2Yl8wSDNrSl80RlVmVVZJMjZCd2xNUHVCM3VyVG5UcTRrTFJjSFdiSk1vbHRDdDVQYUdNQjdJSzhZdDlFRDlLNnpybTJqQTFfTjNEdjU5aUdPakdNUTJXd2k1MDdzTFNZZF9fQnVPbm9JZk5vRjd0TmR4LThZQjBGSElOMUVMal83S2lNemtERnZhSUlfaVg1SXc5WHVQVFF3YjZZcS0yeE1kV3lEbHk2azBldV9aUjdWdjJtcTZybjE2LTRrTklN0gHkAUFVX3lxTE9TOXhKamlpbHFOWEM0eXdfcWVnMmR4eDF3MXY3OGRXVkxvcnFuUERORUV4blNaa1pWQW90TFhlQ2RIZk1sSzFwblNXSWYySHBnM0RrcVNMTDBuRDFWNW4wYWxmeVd3Q0Q1WF83bDE3U3VndXhsVU42TnVmM1gzZGY4QUFOTHR5T0hsZW5oNENWbXJRRkdVdWl6QnhTT1UzMTdxUkxTYnNBLVZhSEhwMDE5UE83YmlkZE5IVWVWVVY2VDk2eHZwbW16eUJtaGJtQkxBMTdJQ0poZ1ZrVzhzYS1Xbm1QOQ?oc=5</t>
+  </si>
+  <si>
+    <t>['caldense']</t>
+  </si>
+  <si>
+    <t>Conozca la lista de los candidatos a la Cámara de Representantes por Caldas para el 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQeDRXZnlOUGVtcUNKVmp2VlpreTAteDdfMGt6b3RqYlJHVXhneTdpT3NacWVkdHNPd1RxUGZ4WXlRcjlUVUMyOVhsOHRVbVRIR0tLRXplN2puMDgtQ2NveXNJM0E3cUFaYVNiRDdVSmJ4Z1BGLTFGMHhrVm9mdnU4NUVNb2E2T2o5MXA1b2VjSXl1Y3pBRXBZcVpHaXcyOEM5RDI3X3ZvaGFDbUh1dU9fcS1kX2JDNldaS0UtWHJnZVXSAdQBQVVfeXFMUE9YQXhYTEJjQnR2Z0VmR2pwVTZWY2Q3UXE0dzliRi14RjJZdzRkRHFFdmFvRzdZeGdpNDAyd3E4XzhFc282bmx5dGVaZDdmTWJUREgxU1VvRjhaYkE5QnV5V2liejlzcTQ4cnNHYm8tenNXYUhkZ1p4RXZoU3gxYjBLMHprcmhtVmZyYzI0M0UtVjJBT01mZEFjT2kwVllWY0F4R2I1bzFENllpVHFIR2ZXVndibmN1aVVTQm01TDBhY0RTY2xqTW8wVnlscjdhbkkxSEQ?oc=5</t>
+  </si>
+  <si>
+    <t>Córdoba tendrá más de 60 aspirantes a la Cámara de Representantes: así se conformaron las listas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPNlFmLVRINWx2bW94YUdQU2NEcjJlR2pHZVRsV0l5SXh3cldKd0dDS3NmM1gyeEZiTU9RNnlwT3JycmpmbEdvS3pVNldrMWxoS0lqS1ByN3J3cF9USk1xeW8xQ1pqb2s4c003QkhqVWdiUHVodkxaN0t5S25kZHFMMEM2RzR2aWlpOTlkVWc0SDJoREZMQ05EQ1FmbHd6RGFLVC1uOFpHN2J2bWxZZG1UU0s5VEd1V093SU9DZEE5M1UtbnhEMTFOczJqaS1Od9IB4gFBVV95cUxNNEUxel9JcDdITFpBdlBVZndFZGdhbmxsZm9ESDhCUmhzbi1PNDAybUZxTlJmRllvNTFEYUkwRXpJZkk0YkdRM2ttNFBTdmRMUDZNenZjMHhWeTdHYWFGYzIyRGpoVVVVUTVqUERhSUZyQzRSYTMwRHJMY0syRmFqckwyM0NTaktBSkdlQzU0SkRWdk5tR1V0a1EtZmZrUlhkZlRWeTJOS3NjZG42WXVpS19rbGM5UGdMTFBvUC1NUE1aUlN6dGptLV9oY1g4bDB2RS1leDcxUV82Yk9vUjRGaXpB?oc=5</t>
+  </si>
+  <si>
+    <t>Mile Jarava aspira a su tercer período en la Cámara de Representantes por Sucre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOMnBiY2xtUHNYZjdCVkxMSDNCUlRFWUt5VzhYU28wTUtyUERNZXBaYUI2S1gzekZSMzk5aFBhSHZtMHVIdnF2UW5jOXZQdk9USExfN21wY3BrSERqel9hY0hDclE2aS1laUtZMDY5bmptZm96MVl0eno1Q0lhMVNDM3pxNmxsM2MzWlpXemxYanFCOHhaMmxlVnhPWThGR2FVQlJDOGVXUC1jbXlfSmpyTVBTdU1feENKRkdJVWMzTdIB2gFBVV95cUxNMlJ0emw3VmlDMnNXTm5UaGg4anpHbjlhdTFTQXRjRXlhdVNsUXRaN1l0MER4NXlEdDF0SEo5cEZIN0FCRkpQTnBENDdsd0VSSWRPN25mRWZSM0xaaF83czcxU1BxSW5TV1llaWxHenppTjFaRTFBTFZ6SFcyMWphUmI2MlNObGdDeGd3LTdyeFpNRXZLYU50eTlCLUZpdFJwcUhNVlBWWTNicHpnVURFX2FmdlNCODZQRjdldS1Vbk0xbEtsYzc2SkZpUGhHcWJwenA4VXEwX0NoUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['tercer']</t>
+  </si>
+  <si>
+    <t>¿Cuántos candidatos hay por Bolívar para la Cámara de Representantes?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPRTBqZGUzT3Z1Zm1SaTdVM3NUUTV2eVB3SXhFbUJoTERZajJsREd6S3dXSXF4ZGdBWkwwVWRfVmN6cFBqZGY0RjZ0VDNhem9IMENVTFpTVTAwdXhUX0t0bzZQemZKd2xIN3dISVZMUVIzVmVWS1kzVmZPU2htQ0FyTUltRkxCR3JhMzJpTjhZaTZjQ3lheVRFWjJKN0FNUVVaMnU1MDBlZFdXaTR4aGxWZm9wV21ibjhtZ3g0?oc=5</t>
+  </si>
+  <si>
+    <t>Uribismo quedó ‘partido’ por lista a la Cámara de Representantes por Santander</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPMHI4TjhuSlpSdWJUclp2WjRXbndQQTJyOWdyZW8zbkFFend1U3U0eThIcFhlZUtuRmRsVUZpUTdGVDhoUWpCS0xoNGMtSWI4YkVXeGo5N1Vud3E2SlpaVUt1MTZhRXd0ZE52SXp6LXl5THUzU3ZuVFdfVzZhcnU4ZkIxVkZScXd0ckxnNm9nNHMtOGppdGVIczlSWTZ5WUUwSVlrOXZhVHA5RTFjOTVCcWM5ZkwwZm5CVVFibnFucHVwQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Chadán Rosado se inscribió a la Cámara de Representantes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNdnRRVVdHdTFZc2g3QnI5VzBkX2MtREhac1c2cDhkS3NjS2FxSG1LbnJ6RjNnMDBuRTZQd1pzdUtVWHN4aktSazlQUjRkaEtkajFsd3lyV0ZqQVBaZFVCbl9KYmFza1RwcWMwMHdRa2Rub0Z2NzA5YlJnemg5S2t6dHZNNUxDQUt0SjA3eTdYaXJOMThNakFqS1RDSnhFMHhDbWRtbzln?oc=5</t>
+  </si>
+  <si>
+    <t>Caldas registra 48 candidatos a la Cámara de Representantes, conozca quiénes son y a qué partidos pertenecen</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxQYVFtd0hLNlEwbnZuU0VzMUJWcW9Sd2ZDUkpjdDljRXh4Z2RXZVpGLUNoSmdmMXBDQjloOGMxU2xrWnJJX2xDQTAyTTJfal9ZT2l6X3FkeU9rM2UyRjVhTEdmdGRIb3daaGlPYmVCYkYxTnNLWEF5aXlsbjltX3lpWG9uTjZOM2hFbTc3aUtJbTVxcDJkLXo1QV9vUWZZUXRNU2JvelNRaVhfMV9ya00yTHhUUEVpMmt3?oc=5</t>
+  </si>
+  <si>
+    <t>Escándalo de la UNGRD: Wadith Manzur y Martha Peralta responden críticas por postular sus nombres al Senado a pesar de indagación en su contra</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAJBVV95cUxOdkZxX3RVS3FVU0U2X2RxekRnZnp4ZUJ3NkFBekJ6ZFZSSXhyYkl5S21oN25oOGdDM21sSXlONmNTdXl0Wk02eFRuUURQZkpWQU5sUEd1VVZPbUN3eS1mcGlEaGdiUVlFY3VrZHpUbjVFUzJsNXJBeGMtQWpOc2k5NkV5bXBYcUdHZFQ5VFQ1LTVvWTduZW5pSFdReURLY0Z3T3I1UVhqQ1I0a3JudzFaa1oyOWh4X3NFZDhZeE4zQ0ZvMDBFS3NibEt6WGVZWUc1T1o0QUVyUi02aTBKUTNaV3pUMDBneUJMckN4djBiQ2hvNjRrVVhfS1BnQjFILXNhZVo3UkVlZC1VN2RDbENiZXdJV2pLX2hBU0hTOVJSbHA?oc=5</t>
+  </si>
+  <si>
+    <t>Las aspiraciones al Senado ya se mueven en Atlántico: pastor e ingeniero David Reyes presentó su inscripción por el partido Oxígeno</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxPNHNzNFFWSEZNWUNReWdfZFRrb3RjOGJNUk1OUTVnVGowdnZGT0JueTF0Yy1WSFRjVzBwOHVuOXVDc2FvTnBTSVdNUGpkLWFaRW0yeUtBbEdvU0VUX2xxb2tNc1lBRlk5SHdaTWtscVJBT0Jtc1FBQmp0dUhQY19MZ21WMmhCa2pYWU5EN2ItcTI0T001REdnTS15bkgzQ1hUWGhHdlNETTBZUTRfa3U2RWhMZmpzLVk0WVZ2QWM0VEljZFAyLVVicjA3THNoUlNDT2VQb056VHdBclo1bXd1M0JpZ1dITTdyb1QwZnhmNE5LeEkycjlsT3hUODlvNW9PdDdNaE9GX1UyMlJKSUp0WFVJd9IBmAJBVV95cUxNWkd1SG5BT2U2XzFWSk1fdmlNdW1yNmhBRVFxTTY0N0VIa015Z2E3c1NKYU9kYWlidm9RX1ZjSjZLakJ5M180UVk2Y3RuNHRtblZNeEFrNGsxM0ltTHlhU09VUEZORmxRRlloWmZHU2VWWWpvZDdmUFdEc3NaQ003b3FxeFlXZkljWlVLemZrYVI1MkIxQ1d0RDUwRVYxNWduUC0tNDhnY3FEU2RyVTBYenFYTmc1c3hoejNScVE5a0hlaEFOaWZqbTlGS3hRUGgxTElYVmhBWmxRUXVxcDBnRHNEb0tqRGN6T1RxaTVsRkFSV3NWNzdKdjhJMk5HLThwUXJza3g0aTRaRXhrYm94XzVoV2dELXV4?oc=5</t>
+  </si>
+  <si>
+    <t>María Paz Gaviria responde a quienes piensan que su aspiración al Senado es por ser hija de un expresidente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxQa1RBY003cUthODZ1cS1KS0gyV205LU16elRYdnB6M0dBY0c5Ukk5S3FISkJtdGdiQVdzUzhQbTRYUkFaN2JPRWtiWVRvSi1sa0tneWMzUmoxR25QVjR0Wkoxal95WnJDVEdFRkNXV0lqdkxrX2FDWERuVGZrYkRkNXNtRTFaSWNWWHM0V2VINUw4Z2JQNHRkZ1VWdnNsbUN6eW5INmF4LXZLUTY3RnVNTWRrWlotM1Z1RXlNb2FfM0VfTjM4NW5GSnJENmk2bUJGR3VRcVZuOU9YY1RUbGlBeDBJOWQtSkZ2NW1pSGFHYlAwZkdKVnllV1p2S3oydmJYLThpbNIBigJBVV95cUxONWRNa1h3RVdDM2pTdVZ1NGx4dkJvRHh6QlJHQUs5VXlUTVZiZEI5NGFTTnpoTUp4ZWNCTEV1M2VDR3B1bEpWUGNTZlBKU2t6bDN5T3Z2WWVHMTBLTG5Sa0NzUkxYdUVrREVvYmN1TWp2eFpoQlRHQnBydGdnUHhLX1VPSzd5ZGZvVUs1WHgyVm9tUlhuZUZ1SXZRSkt6WkxYTGVxb0FXVnBWc0xqN0ZoV01mb3dlV28ydzg3RFllZGRvZkFBTUdTUEZXR19QY21lbklsZmU0NV9jMGpWTmVfQXpJV19FRGxfTk10bGxtRzhRcVcwYUlXRXdXQnNsR04wbzFrNXdxOGViQQ?oc=5</t>
+  </si>
+  <si>
+    <t>“Senadores generaron desfinanciación irresponsable del presupuesto 2026”: minHacienda, Germán Ávila, tras archivo de reforma tributaria de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxQMUI0S0IxX05OekxvX3dHZlpqU2tWRml4VTRiLUNYVUR4OWhhcjVYc3YzNkxJbGMtQlpicWdZS3FHVkZUclBzcnRVQzRaUzk3eEs5YXZ1UUotV3FESE0zVXpBNlBCRmdEZktfY25qcVZOYlRoQ2lRem9BUXR6NHVCYzdZdVFuRm11Q3Y4MjFFbk95U1RxYXkyMmtrbVdhaVJCZ2hFS1RjYVNPdzJpOVVQTEZlMmd6Rl9fV3dUcklpMHBwVjNMMXdmOURTTWwxQ2c2NVRla1I3VUtUZVUxaTJpYnQ2el94WDVjNDBKR1NXa0RJbmZ6Sm94Q1BZUUNtWkZQRlpNVy1Kek1EWGNPa2JOako3NNIBmAJBVV95cUxNbFBwQmFwWGhwS3FFZnBfN19FZWNXaVJmQ3VmOWhwcHRScDg5VmR1VUFsXzN3SGhzZnd1SjQ2aDVuaWM1d2RhMnFraWtBNzAza3pydkx3UkZVdVNFYUdheXVDbThLeXFiTGEyeFo2cy1yY1dRRTBySlM3OXVPUWJpNldJN2NTS0VYNU1zUTI5UWFnNVFhS0FWWTBBOEs1R0JrSmFEanRWWmo3TjRRMjRrbF9ERE94ZjBjM0UwYjVpVG9uZFBkVkVvUGQtbjBvS0N3emRrNnlnQjFJVmQtY2M2UUVwY0JaWWQxXzN4ZjFIVk5hVG1SVFFqN20wQ0pKb0FFWDFzU19rR3VnczQ2ZWtFVTMtRGs1cnVR?oc=5</t>
+  </si>
+  <si>
+    <t>['irresponsable', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Así quedó la lista de “influencers” que aspiran por llegar al Senado y a la Cámara</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxNdlFpMklOOHVGbkxXSEx6LXZFTjBKcTNQWUdtXzNXR3ozdC1hS0lWWlhORXFzRzJaQnhGZksxSzR4YWg0UjFKX0VzSmFjRlFlQzNwWUxJRlJqYXJDQ1ZnTmhiUWRqektFT1h5cmNoNXVnNjN3YkFUbHgtcmVCTW9PSzZuTWRlZUVQWGlhWVQzX2ROU1RFRUs2cTZnVDNfOXFiUVMxTDc4QmthVjBFcHVaekhrYzhPemRVOFJBREhLSzdCOV9hMmJsV1ZRR0wxdWthUGpwTUhNQlVHbEFGNklqQjViN3RsaGNsT0IwYTROZFBCVlVpVkRJ0gGLAkFVX3lxTE5JVkhxOFZVckl1OUFoZllCU05KM2tZSkZwVFppWmhyUDVMdS1IR3E3aDgwY25qckRJU0VoeDdKT3QtSVdVSWJZRTRjeEM0cnBzMzBaaC1fYmk2akpvejdCaGNKeXBpaERJLU9NTkZQWEItQmZaWWZUSEpYaXRJQzdBVXY3RmZTZkRzaVMwbGlBeTgzODcyV3g3MklHblRfcXdKeE9WVldYNDdIS1pCdHlQOGNUclBEaFI4cGd4Y0VKMlJlWVE0Rm8wNDlJTDNlbWRBQVZRbVZidERkRHBaejJHeXlfRlhEYnowTExrTnJvUXE3Y2J0V3NIbGYxY3pmTXJfMVpFTG01Q2RGTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Comisión Cuarta del Senado tumbó proyecto de reforma tributaria por $16,3 billones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxOSU9maktZR0g2VFJ3cHFya09WV0Mtb3VlM01BTlNnbDVnWngtMWxkcHgyaUQtdW5TSl9QZHdfVFRRWEp0M2Y2cnMxNkhyOGVhb3N2cTNEcXdQUks3SmVzYXJHY0FRRUdOR2dGZkFpOVZiZmtad1JUQTd1aXVQUmpBMC1sSUVTcmZBODVLbFViMDJMdzg2M1lhSDN3c2tNTTFWSk9VT0hidUFXUURxNjUyWWZzSTZiWG5FWTNSa2FVSEtDdE3SAcMBQVVfeXFMTmU5RVozYTY3QWZVQ2tmcTlJcnR4aDFQWnZGZEh0WDVac1hvQXQwLW9FOEhFZGFZYm1aSzNyQXlSRFd2cVEydDl0bzc5WVdZald3ZEticHpLSHNaWHk3bU4yOFhkU2ZLOG5vNlJmdk9zZ3h6eE5WU1UxTWdoTlExdlQ3cVdvcVZqTG9PS1A3UThablRZUkJyeUxaMDVyb3JfQURIWWFUWDVvZzhHVG84WkNLdEk5TWI1NC1faTdUdHQ0RGk0?oc=5</t>
+  </si>
+  <si>
+    <t>Lista la organización de listas a Senado y Cámara en Norte de Santander</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNRFVVSndnb3UzSTRyT1NTWGRSVkRtSGNtR1U5VzJrZWJ1UW5xYWVkVDlrTVJfTUNvOEwxbWQ5Vmo0TkZ4QTlzV05SeDZ2OGQxaHlfQ19BbVU2VnVMZ0xndXRfd3BFMUR0Q0o0dHdFNXZTbG43bjlrQzE1ZXNHMXJfNVVWVGJpU0pKR2JidGFfaVEwQlpydWhJeHd5SXJNSlhac2VsZlpveUlVZ9IBvgFBVV95cUxQR2J5aE0zbThqeXNjM2xKeEFwaW4yaThlOFdkQmZJUUxWU3Q5dWxUTU5qS1gwLUV2TGh2eW9MLXZCbmVoWU9Mc3Iyd05NQ2tRZGdiZjIxdmFqR1M1RXdQcTZQNVBnd3JEQXdtQ0JIUzVPa3htRDJQdHhNRDF5TjRYVWszYlRJMWlMUm1fT3VXRDZwbC0zRFB5S3k3aEtWMmprTlJjU3dMVFJkM0RMU3d5WUYxdG84NmxNNko4dGxR?oc=5</t>
+  </si>
+  <si>
+    <t>¡Urgente! Senado tumbó oficialmente el proyecto de reforma tributaria de Petro | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxOdXJSUnFNaXMybF9CTndmYXBRUEhabUx0RmNrR2lXLVIteGRTWEJBNFNsVjZlSXp2R0tlTGZtZmJwSUNHeXg2V2tNNG5neVlFbGlLMzZwN0NtTWdDdFdOVEhfeFpDMlZLYWxsWGptMnJ2SlBfRi05TERLVEw2SGNsSy1CTko4WmQ1MGdaTVBxdmVsdFdhNmZSRHVWQ3dSVk5GN3Z5bEZR0gGrAUFVX3lxTFA2MmhUS2Z6dXZpR2tPRFY4eDg3X1JUeFdyUFNlNm1wZ2hpdjNNUllwT3AyWWpsSEU2TlRRSkdrZnh6QjlVMTlGTWo2NE5IN0VadnFuU3JZbDdqU053VDdlTlY3X3RMenFTMGpmYnloVkhIN25BQ1ZzSXlRb3g4UDB0MHFiOVlVTGV4bXd5TWk3ZmV2MkFqU1U0NGNkNTd2X0VsbkpyM1JnaDFyVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Los mensajes detrás del bolígrafo de Uribe en su lista al Senado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOdDZMSHI2TkJCVDUtMXI3WjFXRTVpNnFoV3dTOW05VzQ2UnBDaWxyeEltM1AycGNVcklFbkdCTXNjMVpyUFZqMlpuRGw1TVNmdHBZdjNOUTA0OXF1VVNfUERWQjhxTEgzUV9lQmFNYUgxLWtFTzhHeHRZOFpTOXZoVmF5UzhwZXozbjA1MlBNZEoyNGdkUFFacnR1TVE4YlBCZ1Y5Sk5nVXpSUTlDdWc?oc=5</t>
+  </si>
+  <si>
+    <t>Enrique Gómez lidera la apuesta al Senado de Salvación Nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxQdFljeXV5czNnZ3MtaHhvSUVYR29VNHRxYS1VeTdIcFNTZkNfd3ZtdnhVaUxCcDZTRFVwQU04c2NXU2V3QllTWS1aeFlSdWE0RzZBZFdvZzdDbkQ2bkRlQTZiN1lVcEtraFFYVFJZeU1UNGk3Mjd3VFFLT2VpUUZJRDFMcWNKbXJhTFd2NHY2SEU0NHBrU3dhOWliSHp3S3l0aFNF?oc=5</t>
+  </si>
+  <si>
+    <t>Movimiento de Salvación Nacional</t>
+  </si>
+  <si>
+    <t>“Es delicado”: candidata al Senado sobre situación de orden público en Cúcuta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxOMEtMMS1wNVVrVzcyRjBMQkswTmJ0RVRyRXJLX3NvQUszV0x2b2RhVEVOR1FZejRNTzQwY3kyWVZYN0txcUpBNWF0N2N4M2pySk5HZmVWVFFjbm42QTZBdXdyanlFeDNXX0g0Zld2NWVuXzc0d3lfTHltLXJKNTJfZ3RrWkxHQjRrTXM2eTJib0pRU28zSXFFOFJvMHRnS0hVNW9jSUxkamZzNWJNa0JqOTFIX3FGRFBWQ3Mwc0U1OGxGVG_SAdABQVVfeXFMUHFleTFqMThoXzVxSTZzbzNsalJpRGhfQjBtZjdTZDNyOG1leG5nM0N3Z3g4cHU3M2xjdDVtQUN4Q3JweDRLY2hERXV1SjFLeVRPRFg5R1FkMTVrY05kZDI5YWM0cEI1SHdDVlhKbU5XbHlKR3o2bTdaUnFZVEhqdlRLS0txXzAwdUhSUFNjeXlaV1VQN1FWTjBDakNlQ2tTZ3BfbWIzSk1iZDhyc3J3Sk14Y19ET1hGQVV1VnZIaHYxcDVvdWctUmVvVVpaU2QxVg?oc=5</t>
+  </si>
+  <si>
+    <t>['delicado', 'público']</t>
+  </si>
+  <si>
+    <t>Candidatos al Senado 2026: líderes de cada partido y sus propuestas clave</t>
+  </si>
+  <si>
+    <t>DOS SENADORES SE VAN Y DOS DEBEN LLEGAR</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxQMTUtZzFrcmJDS3Q3TEUxbVJHTkxqVkhZbTBTY1lnS0ZOTVBBMWdTbXNtdno0NVpEUV9GY2NHZFc1aU1fR0Jkd1FBVGtmV1hhT25wVVV1aW80Sko4VzY0VW5ubGpWWUdzLXZ3UTdScVk5WHRqTWlfZ2trRXJvMVU5Z1dR?oc=5</t>
+  </si>
+  <si>
+    <t>Senado archiva la reforma tributaria de Gustavo Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxPYjAxOGo4c1FTNks2NEtHVzdSeWtNdk54eHZCTER1X3FWSmd1X0lDX2lqV3d6NlhfckRWT1BZNU14c09Jdy00WnVjTllDdnpTY19HdFJ4MVF4NkdON0VmWDZqUnBSUjR4ZDVvanZVVl9mczNnc3lLa1VKbklBVFFmZS1JQ2lZa2JHLXdNQjllWTk?oc=5</t>
+  </si>
+  <si>
+    <t>['archiva', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Diez listas a la Cámara y cuatro aspirantes al Senado inscriben su candidatura por el Quindío</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxPTkFkTGdNd0M4eEdtQWJCb1JYMk10dVh2bm1kaUhkcWItc2gzYmRvLUxORWUwN3VTWmhEQng4dFlINnNiQ05VNnVLX0Jfd3Nmb2pwSTFHWFE4RVdIM3R2ZHBQNTFUbmotcnI0QUN1dkh3QTNaS2hTT2h2YVduMFNsT0JaMWdRYW5KSUlLeUJWVTFKMFp4YTg3MDhfSTV6UFdpMS0zQW95VU5wNUJhQ245MGFPYWRHaEtwWXRuLWJMYklpekpTSVhuSnJ1OURWWl9HWHp1Y0IyQl9senh1?oc=5</t>
+  </si>
+  <si>
+    <t>Senado hundió la reforma tributaria del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQQ3N2cTBJN3dHMk5pT3F5WGl2dlozem5KWjRvdXBqcllCWXdrQjMyaU9GTGZKcWg1Q3ZDeHc3NGh6QzJwVmZjdUFic2pGcnNOaW1tcFR5WWJHcWE0SnN6QmVmcnluXzdMc2tIbUk4Wjljb084SFEzNlVhODNCMVVBT1RqTjZyU1RLWDFWRGlfSUpJWFFjYlNWY3RvbUMyZHZGMk53eUpvbFlqbnZvRjNha1dpR25IWEI3b042R1VMSVU3NkpEMVZROWRLcUXSAecBQVVfeXFMUG5pejF3alhidmc2VnN5aWFVQzVOOTNCRTRYdXdGS2Frbzk1VDV5XzNPeFNSV3pGR2pnelBRVWJma1VITU1qVWVFQ2UtVnpHY1pJdGdQQUJkVjRDMUdCRGZGVmtfeUZnRWpvQmFnUTRCSkhWUDJZSm80Z3RCRk5DdHZ5MEJaODZQVEt4WVVFUWVGUmxoZVEtUXpvY3ltNmJDb3VpeXN0a1o0R0V0RExkYWE0SGQ5UjQzREtJSGpiNE94Wks0QmRQbi1nZzBzbFdUZ3VqN0dQbTlCOUZ5LWp5dktYTXpxdDZv?oc=5</t>
+  </si>
+  <si>
+    <t>Los candidatos indagados por la Corte Suprema que buscan repetir curul en el Congreso: hay hasta cabezas de lista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPcXVlNXJpTV9JaXVOaFhHR1FHc3I5czZBMUkyRFNfZlFYNk5aNFdfYUJLSEgwZFB1bTRlQk5lWWxBcDR2QXppbmhsbkRLZ0JLdWdpT0pZNUpUb0szYURxRW1TWGc2SDFQUHhXa3VEdjg3Q3M3cmg5alphXy1fYmlxeFAwdkJDWk5wZ1lOaXBlRFlKOExNZXU1R280WWZDMVRhVmxNaW5LS0NmbHJmUTdZOE8tYzAtWGJONm1IRnNDMEpkeHJEWG9pWWFNZVFPb2Q3TEp3WERkZGJncU9IMmhKZk5fcVhJZ25WOTFF?oc=5</t>
+  </si>
+  <si>
+    <t>['indagados']</t>
+  </si>
+  <si>
+    <t>Famosos que se lanzarán al Congreso en 2026: estos son los detalles de sus campañas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNX05HMzhkNHg2anJrSmprdmJfc2dFTk1oYVpwdEt4U2VpYl81bGF4Nlk1cXlEZV9pMy1FeDRoUHdZSkNkM0d0NXRpSDFCS0xCckJBNzRvYTg2cUVXdWxtdElWRmgtYUJIQTI0V1dmWFloeTg1eldtcVFBV0JuLW5DUWItREtEZ0cwaEFRNVdyUGxzeS1PV0hRYzMwQ2tORjBleEtiSFFFamE2am1OSHlpVUtnVzU2c0NMSUx0TWV4WUhsaDBKTmRz0gHMAUFVX3lxTE1XMGFOV1dRakRkWmJyWS1sdmh0ZXMxbDNxQWJNVVVJV2xmVEY5MHhZNm5kdUxnMUY3c3BUVmhQS2F1cnZ6VVVhd3FKeTdwcU1aNUo2SllKTEFmTTRzazhrSE5QdGJmcEdYRFFYY0hMakxKaGotZU0zZER5Yl9XbDFDUHhZdzF1MmxNZU5obEJpZnFFN0lsdVJWandzQmI0cjdVZWt3VUFWeWh2MmN4dnFQWFNYc21DMjJLbEdkc3UtbDBqSUdNSTFiMFZNVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Reforma tributaria de Petro se hundió en el Congreso de la República. Votación negativa fue mayoritaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxNMk90UUVyMzc2UDJZLVhzSGFtRVBkUC12QkRoS0dkZHJvcS1aYWFUZUNvdW9nQ2kyem1Qc2VVbi1KWDVXRUhGUlcyalgydU85bXNxWTRkeFQ2RFc3dUx0cGlBWjRjUXp0eHVpbE52VWxmUTFhR0Y3TU9hd1Vod0g1dTVHUDhUY29mYnA5S19XUi13TmZLWXdhQW5SUjFDYWoyclE4WkhoUTlRbUpNYlE3ODUwdWZIZTlmQmtDeXlUMng2dHd3ZEVNV2RUYmxDa0lzWEF5N1huZ184NkgyQWU4YjFKeWhvTWdrTE5ObdIB8gFBVV95cUxQNUdsdmZMNm9wWHUwNXljbEEwUVFBaDAyc3hoUXd3bHFFTzlQWXhibUlMbTFpbGZ6Y0R3amc1ckFMaENFSG43RFZjajVKWllSbUMxcVhMekg4T3g5dGVUa3hpdUx5UE9zN2Y0dktEUUlIcDdQLWFUcGNNVnQ3UWhsUmNCOGwwZTJ6WmlmODdaWjhXR3lqUks5VWFPUGRIMTlRRFFyS09PU0hPTVUyRi1HU3VNT2xtZFNNTEFrNkhtMGdTTFhSVjlibm1wZ3pfLUhJU3F5eTdfM1hkTUJTckxuQjd3QkZKczIzT25pQ3IxZG9lQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'negativa', 'mayoritaria']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro perdió otro round en el Congreso en su intento por tramitar el Ministerio de la Igualdad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPcklxbUd3QThxSXZQSkZQT2VSbWV5c0xTNzVyUVMzTXpJTlNySFhOcElUNkNwRV9sZC1lc1o5cmw4dDlQN29rYnFURXBkZnBnNF9OZnY4aU5FT3hBZnA4SjJwa2ladGo3X29CcXhYdkdzZVdncDlQb3lTa0p2cnRucXhHeWlEakpQTDBpeHY3eXlBLW11MDd4V0w2M09VdVdacTg4UGZQdW44eW1RYWRXazZkaDVFMmduY29ycEtrcHAybkFCU0R6NzQ3b3poNTRxS25sR3lCSlJLRU8tekHSAeMBQVVfeXFMTXZEeE9Xd1ZXaFFBTzViaS1wRXhYZ09jeHFKVlFwMUh1U0N5MmJUUFktMVhjeG1ZM1F2X0p4SE10b2p5NjMxSVRDUkgwQlBaT1RQTm1fVlN1eENkc3dRYV8zdHdHYU9zN2hKbk9mNE0wVFE2VTh0WXVKc1htRTdvc3cyekE0YXBpVDBqUHNHWUVnRnBsUGdla2Zqa0U0NUh1TlljeFdCYllJOW1GMlVoNEhSb3ZaS0hxU01iMUVxTU1DWWQ0QkVBLV93LUNDTkEzZGVuTGdpWlI3RzhISzFhMVM1NkE?oc=5</t>
+  </si>
+  <si>
+    <t>¿Ley de paz total en la cuerda floja? Gobierno admite que está evaluando si proyecto sigue en el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxQMHpSSWhQa2REYmZqZ1BMcWJVME5ySFZZdVREaVUxZWhFS0ZLRkJNNi11a3Y5b21pT1VEa3gyTVFlaUdsYnRGLVRnUkJPbmEyd3lXcmVRc0hCc216NUplem9ucFZMbFg2cHM3UVZuOXc2STFiTUVYTlJXOFlWdV9tb0kzdlI2b0l1NExjWmpLNXpRdFN2Q21yR1lvMl82aHZ3VTItajVpRXhWSWV6SUkwSjRfcEJqZnhhMnFpSUNlNFlBa0NzYzczVUM1YU1fb3BBdEJyRmpKNHZ3VzB6Q0syVGJTWUlnaU85NklYbExSNGNlbkZoYVNoTNIBjAJBVV95cUxPVnVOSER6QmlHaS0waTZiN2JuVUM2TjNaN0VQM1BlRnBhYmpEaXV0SVNZUlZYVDg3VzlaRWU5UjZqcGZSa0owZnJVd3draW5UQ3gwSG5wdXZ1M01yWXJCTHR1SGUxV0JBeHltbGQxdVh0SVladldxY1pFMkhSYk1YSVBZamZoM2otYWVqVzh6QllPTlpFVm1ZMXBIYTBWQUUySzkyRmF3YXZzUFpkYlRnVnB1U09PQzdOanpyTU1tRHRpZ3VvTUxyMXBwN2FlbW5CX3A2dTE2RW5uLUUtQ1NuWnd1OXpMNkx5dzJXQzRIeDhTcEVfR2t1b29Oc2VZZ01pRXBGVkk5M3VVX0E3?oc=5</t>
+  </si>
+  <si>
+    <t>['total', 'floja']</t>
+  </si>
+  <si>
+    <t>Qué dijeron Minhacienda, Congreso y analistas tras la caída de la reforma tributaria de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxPNDVENXRYcjl3NHBCWkFWbmZuM3NveVhGU1lZRzdud0dEMEh6TFdIbTBZQ2dvak5Bckx1S2c2ZXNkdHlGZkY5ZnVidzZEeHhyaEZNZHpEYnU1cElPMWk1THF6dDRBYV9pck9nbmREZEY1a05OSG9sczNvQVltWTlpd0R3SnRDakxSZXh6V1hJdkpfQUpMTktaYW5yLWd0SENZdHFXbm5UdXhkM3psVEZHRG9RLURHSThqbXJyYXVhQVRIRHlDTEdRd0paTkNqb3Rm?oc=5</t>
+  </si>
+  <si>
+    <t>Carlos Carrillo lanzó alerta por candidatos al Congreso salpicados en caso de la Ungrd</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxQVEoyb0FiWjVxTl9LMlNiclNvVmxvQ1VvSDFKT0wtdVhVcHdZV2FjalJMUVVvXzk0UWxxWkVFb3BwS0hXbVFkclNYQ196M0ZZRGMybENSZDZVeXB0UGtmWXU4M2tlaUhaR1JLM3ZaX0s5NUM4N0JIXzBuNXNXY1ZTRk1meXVSRzhsQjlKSlVvSnlSVkdIdmgwMUlGUWVBV2lQTGVkeVdGU1FlVElKejFFZW03T1l6M3VYczk4MFZTdDAwMmVlUndReXludVdnWUd0UnIzTU1XRFVuLXNQU0JsaFQwbTRhSFJBVi1POFVQRjJxQzU5WFHSAYoCQVVfeXFMT0YyeGxhM0o1UVExdDl0eHVFN1o2eGc5YTRxTDhETjF6XzYxWjFVX3MzWEMxSXFUd0ZjTXJpaEdmRU5KM3ExZ2tUNXg1eG5pSk91SWNQdml6MVJ2S0EwR0wxTzVfVFhzbHMtRU4tRUo4NEhoSTJiVGhweG00RVJZOS1OQ2k0Y1FfT2xZX2Q5SnNZNFFnUVpQNEdTLXFIUV8xYzl0TEFHWml2Q21RbGtRMXA2LWxpZ2JDM3Vkc1MzeGo4UFotTTdLUG5oMklqYWo2WmVEX2xsb2hVVW5XTzJzbkMySmI2ZE9fZzM3N1NlMVJiNXJSd0Flcmlwd0NYeWFRbXM0MG5LQ1NXdVE?oc=5</t>
+  </si>
+  <si>
+    <t>Listas al congreso y el futuro de las consultas, ¿Cómo está el mapa político?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPQzg1R0pCNkpHOVdvcE5pMVE3WWU3eVkzNWdJd1VxTjBmZDAyMi1DLTB1a3B3YXZmc1UwZTNtU3duQVFNLTAtS1RRdmhnZDBpQ0VuQlBTZ1M3RUFPN3ZqckcxYnl3akEtTlZvQk5OMDVQMXFKV0JVbGlKa3RXLVdQRTZNZFFUYnZKRVBfck9NbXhiOHJCakxHWWFFSHV4dkc1SFdWSXhSbXl2cFAxU3fSAcIBQVVfeXFMTmtVMC1NaF9qN1VaTnBSVmRXZmdyTGFZWHRBZjdRZ2ZrdWxUTU9vbWJVWmhMa05qSU1wM1ZDbU1VdFo3TWFTYjlOTkVBWHRHaU5YYkJ2akVwMlgtaE5XdFdDbU50WXFHWndFa0hTNmFJZzl3N0Q2cTFyQ0xYdmtYeDd4WVA0eXVLWHNNNGMxUjhGZDFkaEpGX0lqeTZLbk9TWGU1MUJ0NjhjTllWdkx5Q2k4bkhHT2YzaHNvcDd4V1RMRVE?oc=5</t>
+  </si>
+  <si>
+    <t>La nueva apuesta de Juliana Guerrero: reapareció apoyando lista al Congreso en Cesar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPLUx4bHBNWnpZOXc0akhVM3FoMG9zUVUtdnF5OURUMDJVVV9qbFBsMWpPSko5ZXFudHV3R1pQZ2tGY2RnVFJ0RWRVSmI4UGlsRS1QZjFLSDRmc3B4a3R1cTdTZFNOYjZfZzVHSy1FME9hNFRGWGlBRUxwQUIxeTZtd0RvYWIzYTJSeE9lT2V5TXZNU3R4SW0wS0VadlRtcE1ERlJBRkUtTm9tU2xUYlF1dU5JMXd6cnN2bFHSAc4BQVVfeXFMTVVxVG1kTUdXV0RZa1Ytb203bEtkVTAzaEVjdlJ5Q09pQUxCN2JuQTZsdzd4b3F5VHEyLUZSZ0p4VnBYZG40NVU4NXFYMW0teXZtbDBJdTdEcXFCcVI0TXlPVGVadkNXTjJMaERvYkNKVEdtRlY0OGxvZkd2UUVhRi1Cd0U3bHFHUGZrXzZPeXlOY3NvdzJUV3JXOVV2UU5saTFOamVnZ3FuLXBMS1FkVUZFOGY3YXVSSHEwdGRSdmtvZVkwSElTY2F6Sm15MWc?oc=5</t>
+  </si>
+  <si>
+    <t>Así quedó el tablero político de Norte de Santander para el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaThlTURQRlVvaEItRnBXdmEtM0VlWFRVY0JQcTh1dW16VF9MbFZzbkVtN3ZaZThoTFBNZThjNVJOa3BYTEFYNU5oUVE1eU5TYnhydVRXanNEakF5R0FmMlU4YmlOZWI5U0dVbDZBVEJ4djNZU1QyQ2tDVmFPSVJqRm9NX0Y0YVZDVkRXTkt2elFxa19KQmdWTXJqREx2cTFHWkhCSGxR0gG6AUFVX3lxTE9Ia1BrUVd1RWl0NmZCNTNmNVhZdEJZdGY2T0RDdllyQm1iQkNnU1VLZ0VVemppc05SZlgzYWJTNy1ZOGN2QlNRUmlOekpJS2hEZmVaRXNrMC1YaHlfVUJxdjAtWkNQVXF5b0V6bTVNYVhzZXZzWnY3VmV0ZmZ1b3NZVUM3Ynh0cjMxZnB1RTBoNm11UmJYcmMzS3kyWlVQTVJiNlRsQUJrVFN3TFE0X1NEQ0lMUFllQnotUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Alianzas inesperadas y nuevas caras, lo que dejan ver las inscripciones de candidatos al Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxPN0lnOVFRdlZhVkhnMUlFbmlDVXhGTnhUTHd6OU1GNHVEN1UwN1BwRDZwc1N1MUZ2bUJsWnVLTFRIaEMyTzJhMnZ3NVhJM2ZnbXN6VjJpVTJGOWZXNjJyYVVQeVVWOXp5Zk8zX3NhQ0lxRnVCaGxGUklwbnRoSnVaeG5vZG1vaG1XM0lna0xaRjUyRFJMZktXbFFNYkxHb2IteERFUElUenBNUHkxeGhSdV9PMjVCUlkwT01oOFJieVY0dWVXcldqQjQyUDIwQ05ZZk9LX3hWSm9TUdIB9AFBVV95cUxNZ0tWeXJDZ1ZLbG94YmQzeWNkMTBZMUN0VlRBTlVxS05GNVZRUE5WdC1pYk1iZ0Q4eFRVUmFGLTlTdFhtVmFCaHU3ckE1NE5oWUEwSE84SWplVllabUphTGRaYXU1NFpCVGU5VDlPb0FxMGllSlIwSmJ3dWxxZGNIN3QyOTVzOVZMTXN5TTNVTnNha05KMmlGaVdBLXByeHNfLXhjay1ySWhmd2xJcUxXYjFIN2tCQjI5VlFmWHhJWGxHejdTcEZXSWVXWUdoWTFQQTh2bU0zcmdlMVJqcTc3Z2tNdjg1SFVqNlpELWltMmFTMnI3?oc=5</t>
+  </si>
+  <si>
+    <t>['inesperadas', 'nuevas']</t>
+  </si>
+  <si>
+    <t>Laura Gallego, la exseñorita Antioquia del polémico video “darle bala”, busca llegar al Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQblVfYTczWGVaS3VlYzlJZXBSVnFwWDd3R1g3eWw1cnZKdTFvOVFYTjRIamdQMW1JY2poaC1OaFl2RlI2VEtRSG1uYmtuWEdJS1F4al9JdlFHYVB3djAzQ1c0c3JtQWc4QnNIeGRxNmpEQlE1WHc5VFlrak4yR1pBb0dDbTJmWUd6QkloaXctZU03OXZKeXdJaVFMdi1YN0c5OExPbjlfR3FiLV9P0gHHAUFVX3lxTE1ueGJKaHVCOGxSNHhqeTFhbEZ1czJnWHFQaGUwVm5QbnF4ZEZrOFB4Z3NUS2ZwYUp6Tk40a3M2and1Y0o1blczY0VQRkU3MjBKZnl6N3ZqQWxMR3VMTlBaTGFzQ2t2TnRjQzduWmN6UU42bU04LVROU3BkY3AtdFY3NG5EU3dmTWx2RkUyUFY2aWpkQzItU3dKQXFnVmMxZHBwQnpyT2ozNXNBYnlVZlJEcnVaYUliRHUtbFFXQmtSVnl5ZUtUems?oc=5</t>
+  </si>
+  <si>
+    <t>['polémico', '”']</t>
+  </si>
+  <si>
+    <t>Reforma tributaria: Congreso hunde la ley de financiamiento, en nueva derrota del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNRWFLZHRDRktWcTB3dER1OVZOaXEzemJGZE1JMlZGSmplY18zNXRBWjB0Tm9JWEFrOGVTODhPekN4SVJfS3lDOHVCUlJVUEJtTklRaUJVd1Q3eV9xejBhRWxZSHZfNVFNTGc4T2pHVUJzWk9iOGk2TUVCbmVIRm5IdkRqWmhpLVBGUnlYNGZWRGZtTDRNLVYxeEgzN0ZiMU5Md1lMaE9JX0RFNnU2UWNRVzVrWlVGdjRlNUFnUnQyRDdSdXM1dW94NEY3VXLSAcwBQVVfeXFMT0pvNW5xZ0tBU1kyWm1xRHdGS0JJS1V1dHpaZktxV3NHVUhQVWtDdUFCUFYzNGZIc2NPWE1hQXgxWU5EdFViank0Wk5EbllPdkhiT0plSThPSzZEcFJEVTlWYWN3cjAxdmdTUS1CaFBCUDBIeV91TE4xOEJfN2NzWmtrMHhfUTZjWVVNS2xFZkhjaTBBS21fa3BzcTllUEdzajd5aWl3dmZ2WEduNlQzZDNDWi15SUdnRExaRFJvelFsb1Bod0ZGZ2ZkemhH?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'nueva']</t>
+  </si>
+  <si>
+    <t>El Congreso archiva la reforma tributaria del Gobierno: deja sin financiamiento el presupuesto de 2026.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPNlpIQkJDaW10dXdoZ2p2TWE3dmhETGhsY01vOThNaVNrT0JQNmhOdkpLR1ltcDVwZlBJS0tPNGVTbUNKVjhGdzV5bWpmNWxSZWYtbENUeUxJN1d6MWRaTTMwRkk1NU03RFMza2t6UzVjN2NGXzNodExiRXNuaDA3TkVKZE9lamowRWtmNXpleFVCbkFwOU94LWFrVC1QS2gyT0xhMjBPemk1QkZaM1NHQ3paOU5BSFM2ajF5MGZFLWhuU0ZuLTBxT0dvLTBNSms?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso rechaza la reforma tributaria del Gobierno Petro y pone en riesgo el presupuesto 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOQ3ozT0JPZXhFRGsyOUlwVzhHUVZzUDZQT2hjZ2JvRmtvSmJBVElTdm5WNHl2M0NXSm4yOEFqaWhwMjNfTWNEV0I5UE9LNUx1TEdaX1l0LWhCM0l0MlZRTlUzNDFJd0xzXzZpTjI5YXJWcC03WC16WmpCb0tiVnVwU0hmM2ZFMVd5SWdOSldQemtfZFZyOXhRWVVReWFRcEs5NW1yY2QyQjVpaV9PQ0Nzc1J6RDcteUt1X0RSdDFR?oc=5</t>
+  </si>
+  <si>
+    <t>Más de 41 millones de colombianos podrán sufragar este 8 de marzo para el Congreso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE9jS2dlaHJvT1V4WDJWeTR2NVd0V3gxM1JyYnFuUHkwblYzSTZxNzRjdVhjczI0cWJ3aTNjU2U3YmY1Rm5DeThJc2x3b0wxa3pJaGhlelg5U2Nlem9zUV9rZGxn?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso archivó la reforma tributaria del Gobierno Petro por segunda vez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPcG5nV2tlNDBKZW5FZEdVX0RUWEprYl9RYWdzcVdOWC1HakNucmZtOFp4MlVmQ1l5eVJMVUxhTnZqTk9aUUtBREMwMG0yZzB6UXJMUnI4cEpxZmdOMVB5VXBOS1ZwbVBaRFR3WEgzRlNvSTZtM0lwZnZVM2pjQUN4WWl4WEdwRElHVzk3NnNTbTg0VlJxRndjeS0xcFRQZktrUlE?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'segunda']</t>
+  </si>
+  <si>
+    <t>Reforma tributaria de Petro hundida en el Congreso: así quedó el panorama tras el debate del 9 de diciembre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxQQmxmX0czM25XZDdhNExBQUxLWFVVanA4bk9QMDNDSUNpYS10NklsanRNZ3NwdHRxcU5sNWt3bnMzUU1OWlZsVWhxMFhMWVZpNGY3azVMeWItTzZJckplWlJKd2t6NWQ3NXdCMi1CVndMRTBXbjY3MVBYRy04Q0lQdzhXT3RkaG8tVGVlMmh3anAyT2FwbjFibldUUFpnWUxVN2JPRlRUSW12UGxkQkFUNTZaeXJYTXhUckYwYUE1d2JINk53c1JoNzhR?oc=5</t>
+  </si>
+  <si>
+    <t>['tributaria', 'hundida']</t>
+  </si>
+  <si>
+    <t>Armando Benedetti ‘estalló’ por el hundimiento de la ley de financiamiento de Petro: “El Congreso vota con las vísceras”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOUHdqWnlyb1BXTGtQUzRURVBHbzlwbU9XYllIRVNiZ2g2N1BtQkE2ZllhMzdFY2pPMGFkSjc0YzhuR095endodW95anZhTmpxNzgzMkxvY21LT0RSX29kZUVMdTFIcGMzVXBLdUpOTnl1b3FhVENCTlVLNnRZZlRmaWJ6MWFVSUViVHRVZVF4R0Z0dUJZSTU4SzZIWE5PZkhjSXFmMTBhSUo4bWtrWGp4elRzMHdKT19wNEIzRmRQTzV1SjQyT2M3MkRlLVBoRE1HVGJQV0RGRGg4TGZ0dVpGNmV2UlhBUdIBgAJBVV95cUxNYjQ3NHhwSWZiNFdEbHlMUFpkblNnSnNYSVVFWVRTeEkzdV9Sd3BYb3QxNDFsWHRMM1FXTThtNkJocTFQUUJCM1ZMZTVZWGMzWVJWbW9YRXJ5R3NCeGZ0blAzQWZPel9QV3V1SFpFc2UwdGFCMEFHendfTlVINGtQY2ZOZXAySmlQVGx4cDRGRS0taXY2QldtZTVBNTJuNFNuTXZpXzBoVHBBYkc2SEVVMUVBY21uX1lnQXNDRVE0NV9nSWxwWDdwdnk5dXdzbmx5dzRCX1l3ZTJaeU5vb2tFeGFCdnZhZWRWb3hGcFg1VWotM24xX0h0QmRfeUZFYUZz?oc=5</t>
+  </si>
+  <si>
+    <t>Congreso hundió la reforma tributaria del gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxQbEhZdU9WcHFSWlZhdklkR2NBV3huUVJ3UUZiZFlkdjV2WHFUVjk5aS1RYUowTE51VmItZE9FY21sM01EZFl2WngwZ2w3bUVYMGdfR1g1b1JUR2o3aFNjdmFPRjR0Vl91T09zNENzTVRUemhJYWhQU1ZULXpZZ0JHdjktTmQ0dDQ?oc=5</t>
   </si>
 </sst>
 </file>
@@ -4889,17 +6866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA0BA48-4CA2-4598-B7CC-38C4D8622F93}">
-  <dimension ref="A1:I496"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
+  <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G497" sqref="G497"/>
+    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
+      <selection sqref="A1:A765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="168.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18094,8 +20068,7148 @@
         <v>40</v>
       </c>
     </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D497" t="s">
+        <v>83</v>
+      </c>
+      <c r="E497" t="s">
+        <v>41</v>
+      </c>
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
+        <v>23</v>
+      </c>
+      <c r="I497" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D498" t="s">
+        <v>40</v>
+      </c>
+      <c r="E498" t="s">
+        <v>41</v>
+      </c>
+      <c r="F498" t="s">
+        <v>19</v>
+      </c>
+      <c r="G498" t="s">
+        <v>23</v>
+      </c>
+      <c r="I498" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D499" t="s">
+        <v>62</v>
+      </c>
+      <c r="E499" t="s">
+        <v>41</v>
+      </c>
+      <c r="F499" t="s">
+        <v>19</v>
+      </c>
+      <c r="G499" t="s">
+        <v>23</v>
+      </c>
+      <c r="I499" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D500" t="s">
+        <v>17</v>
+      </c>
+      <c r="E500" t="s">
+        <v>41</v>
+      </c>
+      <c r="F500" t="s">
+        <v>19</v>
+      </c>
+      <c r="G500" t="s">
+        <v>23</v>
+      </c>
+      <c r="I500" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D501" t="s">
+        <v>140</v>
+      </c>
+      <c r="E501" t="s">
+        <v>41</v>
+      </c>
+      <c r="F501" t="s">
+        <v>19</v>
+      </c>
+      <c r="G501" t="s">
+        <v>23</v>
+      </c>
+      <c r="I501" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D502" t="s">
+        <v>66</v>
+      </c>
+      <c r="E502" t="s">
+        <v>99</v>
+      </c>
+      <c r="F502" t="s">
+        <v>19</v>
+      </c>
+      <c r="G502" t="s">
+        <v>23</v>
+      </c>
+      <c r="I502" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D503" t="s">
+        <v>31</v>
+      </c>
+      <c r="E503" t="s">
+        <v>41</v>
+      </c>
+      <c r="F503" t="s">
+        <v>381</v>
+      </c>
+      <c r="G503" t="s">
+        <v>23</v>
+      </c>
+      <c r="H503" t="s">
+        <v>382</v>
+      </c>
+      <c r="I503" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D504" t="s">
+        <v>31</v>
+      </c>
+      <c r="E504" t="s">
+        <v>41</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G504" t="s">
+        <v>20</v>
+      </c>
+      <c r="I504" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E505" t="s">
+        <v>41</v>
+      </c>
+      <c r="F505" t="s">
+        <v>19</v>
+      </c>
+      <c r="G505" t="s">
+        <v>14</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D506" t="s">
+        <v>185</v>
+      </c>
+      <c r="E506" t="s">
+        <v>41</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G506" t="s">
+        <v>20</v>
+      </c>
+      <c r="I506" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D507" t="s">
+        <v>140</v>
+      </c>
+      <c r="E507" t="s">
+        <v>41</v>
+      </c>
+      <c r="F507" t="s">
+        <v>19</v>
+      </c>
+      <c r="G507" t="s">
+        <v>14</v>
+      </c>
+      <c r="I507" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D508" t="s">
+        <v>31</v>
+      </c>
+      <c r="E508" t="s">
+        <v>41</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G508" t="s">
+        <v>23</v>
+      </c>
+      <c r="I508" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D509" t="s">
+        <v>31</v>
+      </c>
+      <c r="E509" t="s">
+        <v>18</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G509" t="s">
+        <v>23</v>
+      </c>
+      <c r="H509" t="s">
+        <v>697</v>
+      </c>
+      <c r="I509" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D510" t="s">
+        <v>31</v>
+      </c>
+      <c r="E510" t="s">
+        <v>18</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G510" t="s">
+        <v>14</v>
+      </c>
+      <c r="I510" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D511" t="s">
+        <v>31</v>
+      </c>
+      <c r="E511" t="s">
+        <v>49</v>
+      </c>
+      <c r="F511" t="s">
+        <v>19</v>
+      </c>
+      <c r="G511" t="s">
+        <v>23</v>
+      </c>
+      <c r="I511" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D512" t="s">
+        <v>154</v>
+      </c>
+      <c r="E512" t="s">
+        <v>18</v>
+      </c>
+      <c r="F512" t="s">
+        <v>19</v>
+      </c>
+      <c r="G512" t="s">
+        <v>23</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I512" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D513" t="s">
+        <v>66</v>
+      </c>
+      <c r="E513" t="s">
+        <v>18</v>
+      </c>
+      <c r="F513" t="s">
+        <v>19</v>
+      </c>
+      <c r="G513" t="s">
+        <v>23</v>
+      </c>
+      <c r="I513" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D514" t="s">
+        <v>109</v>
+      </c>
+      <c r="E514" t="s">
+        <v>18</v>
+      </c>
+      <c r="F514" t="s">
+        <v>19</v>
+      </c>
+      <c r="G514" t="s">
+        <v>23</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I514" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D515" t="s">
+        <v>40</v>
+      </c>
+      <c r="E515" t="s">
+        <v>49</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G515" t="s">
+        <v>20</v>
+      </c>
+      <c r="I515" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D516" t="s">
+        <v>40</v>
+      </c>
+      <c r="E516" t="s">
+        <v>49</v>
+      </c>
+      <c r="F516" t="s">
+        <v>63</v>
+      </c>
+      <c r="G516" t="s">
+        <v>20</v>
+      </c>
+      <c r="I516" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D517" t="s">
+        <v>206</v>
+      </c>
+      <c r="E517" t="s">
+        <v>49</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G517" t="s">
+        <v>20</v>
+      </c>
+      <c r="I517" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D518" t="s">
+        <v>26</v>
+      </c>
+      <c r="E518" t="s">
+        <v>49</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G518" t="s">
+        <v>14</v>
+      </c>
+      <c r="I518" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D519" t="s">
+        <v>79</v>
+      </c>
+      <c r="E519" t="s">
+        <v>49</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G519" t="s">
+        <v>20</v>
+      </c>
+      <c r="I519" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D520" t="s">
+        <v>559</v>
+      </c>
+      <c r="E520" t="s">
+        <v>49</v>
+      </c>
+      <c r="F520" t="s">
+        <v>19</v>
+      </c>
+      <c r="G520" t="s">
+        <v>20</v>
+      </c>
+      <c r="H520" t="s">
+        <v>771</v>
+      </c>
+      <c r="I520" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D521" t="s">
+        <v>86</v>
+      </c>
+      <c r="E521" t="s">
+        <v>49</v>
+      </c>
+      <c r="F521" t="s">
+        <v>19</v>
+      </c>
+      <c r="G521" t="s">
+        <v>20</v>
+      </c>
+      <c r="I521" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D522" t="s">
+        <v>36</v>
+      </c>
+      <c r="E522" t="s">
+        <v>49</v>
+      </c>
+      <c r="F522" t="s">
+        <v>19</v>
+      </c>
+      <c r="G522" t="s">
+        <v>20</v>
+      </c>
+      <c r="I522" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D523" t="s">
+        <v>36</v>
+      </c>
+      <c r="E523" t="s">
+        <v>49</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G523" t="s">
+        <v>14</v>
+      </c>
+      <c r="I523" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D524" t="s">
+        <v>36</v>
+      </c>
+      <c r="E524" t="s">
+        <v>49</v>
+      </c>
+      <c r="F524" t="s">
+        <v>19</v>
+      </c>
+      <c r="G524" t="s">
+        <v>23</v>
+      </c>
+      <c r="I524" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D525" t="s">
+        <v>17</v>
+      </c>
+      <c r="E525" t="s">
+        <v>49</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G525" t="s">
+        <v>23</v>
+      </c>
+      <c r="I525" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D526" t="s">
+        <v>17</v>
+      </c>
+      <c r="E526" t="s">
+        <v>49</v>
+      </c>
+      <c r="F526" t="s">
+        <v>19</v>
+      </c>
+      <c r="G526" t="s">
+        <v>20</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I526" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D527" t="s">
+        <v>17</v>
+      </c>
+      <c r="E527" t="s">
+        <v>49</v>
+      </c>
+      <c r="F527" t="s">
+        <v>19</v>
+      </c>
+      <c r="G527" t="s">
+        <v>23</v>
+      </c>
+      <c r="I527" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D528" t="s">
+        <v>140</v>
+      </c>
+      <c r="E528" t="s">
+        <v>49</v>
+      </c>
+      <c r="F528" t="s">
+        <v>19</v>
+      </c>
+      <c r="G528" t="s">
+        <v>23</v>
+      </c>
+      <c r="I528" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D529" t="s">
+        <v>676</v>
+      </c>
+      <c r="E529" t="s">
+        <v>49</v>
+      </c>
+      <c r="F529" t="s">
+        <v>19</v>
+      </c>
+      <c r="G529" t="s">
+        <v>23</v>
+      </c>
+      <c r="I529" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D530" t="s">
+        <v>31</v>
+      </c>
+      <c r="E530" t="s">
+        <v>49</v>
+      </c>
+      <c r="F530" t="s">
+        <v>520</v>
+      </c>
+      <c r="G530" t="s">
+        <v>20</v>
+      </c>
+      <c r="H530" t="s">
+        <v>151</v>
+      </c>
+      <c r="I530" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D531" t="s">
+        <v>17</v>
+      </c>
+      <c r="E531" t="s">
+        <v>32</v>
+      </c>
+      <c r="F531" t="s">
+        <v>63</v>
+      </c>
+      <c r="G531" t="s">
+        <v>23</v>
+      </c>
+      <c r="I531" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D532" t="s">
+        <v>31</v>
+      </c>
+      <c r="E532" t="s">
+        <v>32</v>
+      </c>
+      <c r="F532" t="s">
+        <v>160</v>
+      </c>
+      <c r="G532" t="s">
+        <v>23</v>
+      </c>
+      <c r="I532" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D533" t="s">
+        <v>40</v>
+      </c>
+      <c r="E533" t="s">
+        <v>564</v>
+      </c>
+      <c r="F533" t="s">
+        <v>63</v>
+      </c>
+      <c r="G533" t="s">
+        <v>23</v>
+      </c>
+      <c r="I533" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D534" t="s">
+        <v>31</v>
+      </c>
+      <c r="E534" t="s">
+        <v>106</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G534" t="s">
+        <v>14</v>
+      </c>
+      <c r="I534" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D535" t="s">
+        <v>31</v>
+      </c>
+      <c r="E535" t="s">
+        <v>12</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G535" t="s">
+        <v>14</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I535" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D536" t="s">
+        <v>31</v>
+      </c>
+      <c r="E536" t="s">
+        <v>12</v>
+      </c>
+      <c r="F536" t="s">
+        <v>503</v>
+      </c>
+      <c r="G536" t="s">
+        <v>23</v>
+      </c>
+      <c r="I536" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D537" t="s">
+        <v>83</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F537" t="s">
+        <v>19</v>
+      </c>
+      <c r="G537" t="s">
+        <v>20</v>
+      </c>
+      <c r="I537" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D538" t="s">
+        <v>206</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G538" t="s">
+        <v>20</v>
+      </c>
+      <c r="I538" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D539" t="s">
+        <v>31</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F539" t="s">
+        <v>19</v>
+      </c>
+      <c r="G539" t="s">
+        <v>20</v>
+      </c>
+      <c r="I539" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D540" t="s">
+        <v>36</v>
+      </c>
+      <c r="E540" t="s">
+        <v>472</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G540" t="s">
+        <v>23</v>
+      </c>
+      <c r="H540" t="s">
+        <v>617</v>
+      </c>
+      <c r="I540" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D541" t="s">
+        <v>17</v>
+      </c>
+      <c r="E541" t="s">
+        <v>472</v>
+      </c>
+      <c r="F541" t="s">
+        <v>19</v>
+      </c>
+      <c r="G541" t="s">
+        <v>14</v>
+      </c>
+      <c r="I541" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D542" t="s">
+        <v>31</v>
+      </c>
+      <c r="E542" t="s">
+        <v>472</v>
+      </c>
+      <c r="F542" t="s">
+        <v>19</v>
+      </c>
+      <c r="G542" t="s">
+        <v>14</v>
+      </c>
+      <c r="I542" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D543" t="s">
+        <v>40</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F543" t="s">
+        <v>410</v>
+      </c>
+      <c r="G543" t="s">
+        <v>23</v>
+      </c>
+      <c r="I543" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D544" t="s">
+        <v>40</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G544" t="s">
+        <v>14</v>
+      </c>
+      <c r="I544" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D545" t="s">
+        <v>17</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F545" t="s">
+        <v>19</v>
+      </c>
+      <c r="G545" t="s">
+        <v>14</v>
+      </c>
+      <c r="I545" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D546" t="s">
+        <v>79</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G546" t="s">
+        <v>14</v>
+      </c>
+      <c r="I546" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D547" t="s">
+        <v>196</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G547" t="s">
+        <v>14</v>
+      </c>
+      <c r="I547" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D548" t="s">
+        <v>40</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G548" t="s">
+        <v>14</v>
+      </c>
+      <c r="H548" t="s">
+        <v>137</v>
+      </c>
+      <c r="I548" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D549" t="s">
+        <v>559</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F549" t="s">
+        <v>63</v>
+      </c>
+      <c r="G549" t="s">
+        <v>23</v>
+      </c>
+      <c r="I549" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D550" t="s">
+        <v>277</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F550" t="s">
+        <v>19</v>
+      </c>
+      <c r="G550" t="s">
+        <v>23</v>
+      </c>
+      <c r="I550" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D551" t="s">
+        <v>31</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G551" t="s">
+        <v>14</v>
+      </c>
+      <c r="I551" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D552" t="s">
+        <v>86</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G552" t="s">
+        <v>23</v>
+      </c>
+      <c r="I552" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D553" t="s">
+        <v>31</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G553" t="s">
+        <v>23</v>
+      </c>
+      <c r="I553" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D554" t="s">
+        <v>83</v>
+      </c>
+      <c r="E554" t="s">
+        <v>362</v>
+      </c>
+      <c r="F554" t="s">
+        <v>19</v>
+      </c>
+      <c r="G554" t="s">
+        <v>23</v>
+      </c>
+      <c r="I554" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D555" t="s">
+        <v>31</v>
+      </c>
+      <c r="E555" t="s">
+        <v>362</v>
+      </c>
+      <c r="F555" t="s">
+        <v>500</v>
+      </c>
+      <c r="G555" t="s">
+        <v>23</v>
+      </c>
+      <c r="I555" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D556" t="s">
+        <v>83</v>
+      </c>
+      <c r="E556" t="s">
+        <v>37</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G556" t="s">
+        <v>20</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I556" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D557" t="s">
+        <v>83</v>
+      </c>
+      <c r="E557" t="s">
+        <v>37</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G557" t="s">
+        <v>20</v>
+      </c>
+      <c r="I557" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D558" t="s">
+        <v>83</v>
+      </c>
+      <c r="E558" t="s">
+        <v>37</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G558" t="s">
+        <v>20</v>
+      </c>
+      <c r="I558" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D559" t="s">
+        <v>83</v>
+      </c>
+      <c r="E559" t="s">
+        <v>37</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G559" t="s">
+        <v>20</v>
+      </c>
+      <c r="I559" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D560" t="s">
+        <v>83</v>
+      </c>
+      <c r="E560" t="s">
+        <v>37</v>
+      </c>
+      <c r="F560" t="s">
+        <v>19</v>
+      </c>
+      <c r="G560" t="s">
+        <v>20</v>
+      </c>
+      <c r="H560" t="s">
+        <v>308</v>
+      </c>
+      <c r="I560" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D561" t="s">
+        <v>83</v>
+      </c>
+      <c r="E561" t="s">
+        <v>37</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G561" t="s">
+        <v>20</v>
+      </c>
+      <c r="I561" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D562" t="s">
+        <v>40</v>
+      </c>
+      <c r="E562" t="s">
+        <v>37</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G562" t="s">
+        <v>20</v>
+      </c>
+      <c r="H562" t="s">
+        <v>232</v>
+      </c>
+      <c r="I562" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D563" t="s">
+        <v>40</v>
+      </c>
+      <c r="E563" t="s">
+        <v>37</v>
+      </c>
+      <c r="F563" t="s">
+        <v>19</v>
+      </c>
+      <c r="G563" t="s">
+        <v>20</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I563" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D564" t="s">
+        <v>40</v>
+      </c>
+      <c r="E564" t="s">
+        <v>37</v>
+      </c>
+      <c r="F564" t="s">
+        <v>503</v>
+      </c>
+      <c r="G564" t="s">
+        <v>20</v>
+      </c>
+      <c r="I564" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D565" t="s">
+        <v>40</v>
+      </c>
+      <c r="E565" t="s">
+        <v>37</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G565" t="s">
+        <v>20</v>
+      </c>
+      <c r="H565" t="s">
+        <v>266</v>
+      </c>
+      <c r="I565" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D566" t="s">
+        <v>40</v>
+      </c>
+      <c r="E566" t="s">
+        <v>37</v>
+      </c>
+      <c r="F566" t="s">
+        <v>19</v>
+      </c>
+      <c r="G566" t="s">
+        <v>20</v>
+      </c>
+      <c r="H566" t="s">
+        <v>666</v>
+      </c>
+      <c r="I566" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D567" t="s">
+        <v>185</v>
+      </c>
+      <c r="E567" t="s">
+        <v>37</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G567" t="s">
+        <v>20</v>
+      </c>
+      <c r="I567" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D568" t="s">
+        <v>587</v>
+      </c>
+      <c r="E568" t="s">
+        <v>37</v>
+      </c>
+      <c r="F568" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568" t="s">
+        <v>20</v>
+      </c>
+      <c r="I568" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D569" t="s">
+        <v>86</v>
+      </c>
+      <c r="E569" t="s">
+        <v>37</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G569" t="s">
+        <v>20</v>
+      </c>
+      <c r="H569" t="s">
+        <v>151</v>
+      </c>
+      <c r="I569" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D570" t="s">
+        <v>676</v>
+      </c>
+      <c r="E570" t="s">
+        <v>37</v>
+      </c>
+      <c r="F570" t="s">
+        <v>503</v>
+      </c>
+      <c r="G570" t="s">
+        <v>20</v>
+      </c>
+      <c r="I570" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D571" t="s">
+        <v>31</v>
+      </c>
+      <c r="E571" t="s">
+        <v>37</v>
+      </c>
+      <c r="F571" t="s">
+        <v>503</v>
+      </c>
+      <c r="G571" t="s">
+        <v>20</v>
+      </c>
+      <c r="I571" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D572" t="s">
+        <v>83</v>
+      </c>
+      <c r="E572" t="s">
+        <v>37</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G572" t="s">
+        <v>20</v>
+      </c>
+      <c r="I572" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D573" t="s">
+        <v>83</v>
+      </c>
+      <c r="E573" t="s">
+        <v>37</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G573" t="s">
+        <v>20</v>
+      </c>
+      <c r="I573" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D574" t="s">
+        <v>83</v>
+      </c>
+      <c r="E574" t="s">
+        <v>37</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G574" t="s">
+        <v>20</v>
+      </c>
+      <c r="I574" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D575" t="s">
+        <v>83</v>
+      </c>
+      <c r="E575" t="s">
+        <v>37</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G575" t="s">
+        <v>14</v>
+      </c>
+      <c r="I575" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D576" t="s">
+        <v>40</v>
+      </c>
+      <c r="E576" t="s">
+        <v>37</v>
+      </c>
+      <c r="F576" t="s">
+        <v>503</v>
+      </c>
+      <c r="G576" t="s">
+        <v>20</v>
+      </c>
+      <c r="I576" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D577" t="s">
+        <v>40</v>
+      </c>
+      <c r="E577" t="s">
+        <v>37</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G577" t="s">
+        <v>20</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I577" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D578" t="s">
+        <v>40</v>
+      </c>
+      <c r="E578" t="s">
+        <v>37</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G578" t="s">
+        <v>14</v>
+      </c>
+      <c r="I578" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D579" t="s">
+        <v>40</v>
+      </c>
+      <c r="E579" t="s">
+        <v>37</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G579" t="s">
+        <v>20</v>
+      </c>
+      <c r="I579" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D580" t="s">
+        <v>40</v>
+      </c>
+      <c r="E580" t="s">
+        <v>37</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G580" t="s">
+        <v>20</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I580" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D581" t="s">
+        <v>40</v>
+      </c>
+      <c r="E581" t="s">
+        <v>37</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G581" t="s">
+        <v>20</v>
+      </c>
+      <c r="I581" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D582" t="s">
+        <v>40</v>
+      </c>
+      <c r="E582" t="s">
+        <v>37</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G582" t="s">
+        <v>20</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I582" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D583" t="s">
+        <v>36</v>
+      </c>
+      <c r="E583" t="s">
+        <v>37</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G583" t="s">
+        <v>20</v>
+      </c>
+      <c r="I583" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D584" t="s">
+        <v>36</v>
+      </c>
+      <c r="E584" t="s">
+        <v>37</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G584" t="s">
+        <v>23</v>
+      </c>
+      <c r="I584" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D585" t="s">
+        <v>36</v>
+      </c>
+      <c r="E585" t="s">
+        <v>37</v>
+      </c>
+      <c r="F585" t="s">
+        <v>19</v>
+      </c>
+      <c r="G585" t="s">
+        <v>20</v>
+      </c>
+      <c r="I585" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D586" t="s">
+        <v>36</v>
+      </c>
+      <c r="E586" t="s">
+        <v>37</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G586" t="s">
+        <v>20</v>
+      </c>
+      <c r="I586" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D587" t="s">
+        <v>36</v>
+      </c>
+      <c r="E587" t="s">
+        <v>37</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G587" t="s">
+        <v>20</v>
+      </c>
+      <c r="H587" t="s">
+        <v>902</v>
+      </c>
+      <c r="I587" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D588" t="s">
+        <v>185</v>
+      </c>
+      <c r="E588" t="s">
+        <v>37</v>
+      </c>
+      <c r="F588" t="s">
+        <v>19</v>
+      </c>
+      <c r="G588" t="s">
+        <v>20</v>
+      </c>
+      <c r="I588" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D589" t="s">
+        <v>62</v>
+      </c>
+      <c r="E589" t="s">
+        <v>37</v>
+      </c>
+      <c r="F589" t="s">
+        <v>19</v>
+      </c>
+      <c r="G589" t="s">
+        <v>20</v>
+      </c>
+      <c r="I589" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D590" t="s">
+        <v>62</v>
+      </c>
+      <c r="E590" t="s">
+        <v>37</v>
+      </c>
+      <c r="F590" t="s">
+        <v>867</v>
+      </c>
+      <c r="G590" t="s">
+        <v>20</v>
+      </c>
+      <c r="H590" t="s">
+        <v>873</v>
+      </c>
+      <c r="I590" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D591" t="s">
+        <v>62</v>
+      </c>
+      <c r="E591" t="s">
+        <v>37</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G591" t="s">
+        <v>14</v>
+      </c>
+      <c r="I591" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D592" t="s">
+        <v>62</v>
+      </c>
+      <c r="E592" t="s">
+        <v>37</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G592" t="s">
+        <v>20</v>
+      </c>
+      <c r="I592" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D593" t="s">
+        <v>62</v>
+      </c>
+      <c r="E593" t="s">
+        <v>37</v>
+      </c>
+      <c r="F593" t="s">
+        <v>503</v>
+      </c>
+      <c r="G593" t="s">
+        <v>20</v>
+      </c>
+      <c r="I593" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D594" t="s">
+        <v>206</v>
+      </c>
+      <c r="E594" t="s">
+        <v>37</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G594" t="s">
+        <v>23</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I594" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D595" t="s">
+        <v>206</v>
+      </c>
+      <c r="E595" t="s">
+        <v>37</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G595" t="s">
+        <v>20</v>
+      </c>
+      <c r="I595" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D596" t="s">
+        <v>206</v>
+      </c>
+      <c r="E596" t="s">
+        <v>37</v>
+      </c>
+      <c r="F596" t="s">
+        <v>503</v>
+      </c>
+      <c r="G596" t="s">
+        <v>20</v>
+      </c>
+      <c r="I596" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D597" t="s">
+        <v>154</v>
+      </c>
+      <c r="E597" t="s">
+        <v>37</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G597" t="s">
+        <v>20</v>
+      </c>
+      <c r="I597" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D598" t="s">
+        <v>154</v>
+      </c>
+      <c r="E598" t="s">
+        <v>37</v>
+      </c>
+      <c r="F598" t="s">
+        <v>503</v>
+      </c>
+      <c r="G598" t="s">
+        <v>20</v>
+      </c>
+      <c r="H598" t="s">
+        <v>902</v>
+      </c>
+      <c r="I598" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D599" t="s">
+        <v>26</v>
+      </c>
+      <c r="E599" t="s">
+        <v>37</v>
+      </c>
+      <c r="F599" t="s">
+        <v>503</v>
+      </c>
+      <c r="G599" t="s">
+        <v>20</v>
+      </c>
+      <c r="I599" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D600" t="s">
+        <v>26</v>
+      </c>
+      <c r="E600" t="s">
+        <v>37</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G600" t="s">
+        <v>20</v>
+      </c>
+      <c r="I600" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D601" t="s">
+        <v>26</v>
+      </c>
+      <c r="E601" t="s">
+        <v>37</v>
+      </c>
+      <c r="F601" t="s">
+        <v>19</v>
+      </c>
+      <c r="G601" t="s">
+        <v>20</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I601" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D602" t="s">
+        <v>79</v>
+      </c>
+      <c r="E602" t="s">
+        <v>37</v>
+      </c>
+      <c r="F602" t="s">
+        <v>170</v>
+      </c>
+      <c r="G602" t="s">
+        <v>23</v>
+      </c>
+      <c r="I602" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D603" t="s">
+        <v>79</v>
+      </c>
+      <c r="E603" t="s">
+        <v>37</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G603" t="s">
+        <v>20</v>
+      </c>
+      <c r="I603" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D604" t="s">
+        <v>559</v>
+      </c>
+      <c r="E604" t="s">
+        <v>37</v>
+      </c>
+      <c r="F604" t="s">
+        <v>19</v>
+      </c>
+      <c r="G604" t="s">
+        <v>23</v>
+      </c>
+      <c r="I604" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D605" t="s">
+        <v>559</v>
+      </c>
+      <c r="E605" t="s">
+        <v>37</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G605" t="s">
+        <v>20</v>
+      </c>
+      <c r="I605" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D606" t="s">
+        <v>587</v>
+      </c>
+      <c r="E606" t="s">
+        <v>37</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G606" t="s">
+        <v>20</v>
+      </c>
+      <c r="I606" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D607" t="s">
+        <v>587</v>
+      </c>
+      <c r="E607" t="s">
+        <v>37</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G607" t="s">
+        <v>20</v>
+      </c>
+      <c r="I607" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D608" t="s">
+        <v>70</v>
+      </c>
+      <c r="E608" t="s">
+        <v>37</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G608" t="s">
+        <v>20</v>
+      </c>
+      <c r="I608" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D609" t="s">
+        <v>70</v>
+      </c>
+      <c r="E609" t="s">
+        <v>37</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G609" t="s">
+        <v>20</v>
+      </c>
+      <c r="I609" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D610" t="s">
+        <v>70</v>
+      </c>
+      <c r="E610" t="s">
+        <v>37</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G610" t="s">
+        <v>20</v>
+      </c>
+      <c r="H610" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I610" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D611" t="s">
+        <v>70</v>
+      </c>
+      <c r="E611" t="s">
+        <v>37</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G611" t="s">
+        <v>20</v>
+      </c>
+      <c r="I611" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D612" t="s">
+        <v>70</v>
+      </c>
+      <c r="E612" t="s">
+        <v>37</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G612" t="s">
+        <v>20</v>
+      </c>
+      <c r="H612" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I612" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D613" t="s">
+        <v>157</v>
+      </c>
+      <c r="E613" t="s">
+        <v>37</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G613" t="s">
+        <v>20</v>
+      </c>
+      <c r="I613" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D614" t="s">
+        <v>157</v>
+      </c>
+      <c r="E614" t="s">
+        <v>37</v>
+      </c>
+      <c r="F614" t="s">
+        <v>19</v>
+      </c>
+      <c r="G614" t="s">
+        <v>20</v>
+      </c>
+      <c r="H614" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I614" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D615" t="s">
+        <v>157</v>
+      </c>
+      <c r="E615" t="s">
+        <v>37</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G615" t="s">
+        <v>20</v>
+      </c>
+      <c r="I615" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D616" t="s">
+        <v>89</v>
+      </c>
+      <c r="E616" t="s">
+        <v>37</v>
+      </c>
+      <c r="F616" t="s">
+        <v>19</v>
+      </c>
+      <c r="G616" t="s">
+        <v>23</v>
+      </c>
+      <c r="H616" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I616" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D617" t="s">
+        <v>89</v>
+      </c>
+      <c r="E617" t="s">
+        <v>37</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G617" t="s">
+        <v>23</v>
+      </c>
+      <c r="H617" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I617" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D618" t="s">
+        <v>89</v>
+      </c>
+      <c r="E618" t="s">
+        <v>37</v>
+      </c>
+      <c r="F618" t="s">
+        <v>503</v>
+      </c>
+      <c r="G618" t="s">
+        <v>20</v>
+      </c>
+      <c r="I618" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D619" t="s">
+        <v>89</v>
+      </c>
+      <c r="E619" t="s">
+        <v>37</v>
+      </c>
+      <c r="F619" t="s">
+        <v>503</v>
+      </c>
+      <c r="G619" t="s">
+        <v>20</v>
+      </c>
+      <c r="I619" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D620" t="s">
+        <v>86</v>
+      </c>
+      <c r="E620" t="s">
+        <v>37</v>
+      </c>
+      <c r="F620" t="s">
+        <v>503</v>
+      </c>
+      <c r="G620" t="s">
+        <v>20</v>
+      </c>
+      <c r="I620" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D621" t="s">
+        <v>86</v>
+      </c>
+      <c r="E621" t="s">
+        <v>37</v>
+      </c>
+      <c r="F621" t="s">
+        <v>19</v>
+      </c>
+      <c r="G621" t="s">
+        <v>20</v>
+      </c>
+      <c r="H621" t="s">
+        <v>666</v>
+      </c>
+      <c r="I621" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D622" t="s">
+        <v>86</v>
+      </c>
+      <c r="E622" t="s">
+        <v>37</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G622" t="s">
+        <v>20</v>
+      </c>
+      <c r="H622" t="s">
+        <v>151</v>
+      </c>
+      <c r="I622" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D623" t="s">
+        <v>86</v>
+      </c>
+      <c r="E623" t="s">
+        <v>37</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G623" t="s">
+        <v>20</v>
+      </c>
+      <c r="I623" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D624" t="s">
+        <v>86</v>
+      </c>
+      <c r="E624" t="s">
+        <v>37</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G624" t="s">
+        <v>20</v>
+      </c>
+      <c r="I624" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D625" t="s">
+        <v>11</v>
+      </c>
+      <c r="E625" t="s">
+        <v>37</v>
+      </c>
+      <c r="F625" t="s">
+        <v>503</v>
+      </c>
+      <c r="G625" t="s">
+        <v>20</v>
+      </c>
+      <c r="I625" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D626" t="s">
+        <v>140</v>
+      </c>
+      <c r="E626" t="s">
+        <v>37</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G626" t="s">
+        <v>20</v>
+      </c>
+      <c r="I626" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D627" t="s">
+        <v>66</v>
+      </c>
+      <c r="E627" t="s">
+        <v>37</v>
+      </c>
+      <c r="F627" t="s">
+        <v>19</v>
+      </c>
+      <c r="G627" t="s">
+        <v>20</v>
+      </c>
+      <c r="H627" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I627" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D628" t="s">
+        <v>66</v>
+      </c>
+      <c r="E628" t="s">
+        <v>37</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G628" t="s">
+        <v>20</v>
+      </c>
+      <c r="I628" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D629" t="s">
+        <v>66</v>
+      </c>
+      <c r="E629" t="s">
+        <v>37</v>
+      </c>
+      <c r="F629" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G629" t="s">
+        <v>20</v>
+      </c>
+      <c r="H629" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I629" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D630" t="s">
+        <v>66</v>
+      </c>
+      <c r="E630" t="s">
+        <v>37</v>
+      </c>
+      <c r="F630" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G630" t="s">
+        <v>20</v>
+      </c>
+      <c r="I630" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D631" t="s">
+        <v>676</v>
+      </c>
+      <c r="E631" t="s">
+        <v>37</v>
+      </c>
+      <c r="F631" t="s">
+        <v>503</v>
+      </c>
+      <c r="G631" t="s">
+        <v>20</v>
+      </c>
+      <c r="I631" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D632" t="s">
+        <v>676</v>
+      </c>
+      <c r="E632" t="s">
+        <v>37</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G632" t="s">
+        <v>20</v>
+      </c>
+      <c r="I632" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D633" t="s">
+        <v>395</v>
+      </c>
+      <c r="E633" t="s">
+        <v>37</v>
+      </c>
+      <c r="F633" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G633" t="s">
+        <v>20</v>
+      </c>
+      <c r="I633" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D634" t="s">
+        <v>243</v>
+      </c>
+      <c r="E634" t="s">
+        <v>37</v>
+      </c>
+      <c r="F634" t="s">
+        <v>503</v>
+      </c>
+      <c r="G634" t="s">
+        <v>20</v>
+      </c>
+      <c r="I634" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D635" t="s">
+        <v>243</v>
+      </c>
+      <c r="E635" t="s">
+        <v>37</v>
+      </c>
+      <c r="F635" t="s">
+        <v>219</v>
+      </c>
+      <c r="G635" t="s">
+        <v>20</v>
+      </c>
+      <c r="I635" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D636" t="s">
+        <v>577</v>
+      </c>
+      <c r="E636" t="s">
+        <v>37</v>
+      </c>
+      <c r="F636" t="s">
+        <v>19</v>
+      </c>
+      <c r="G636" t="s">
+        <v>20</v>
+      </c>
+      <c r="I636" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D637" t="s">
+        <v>577</v>
+      </c>
+      <c r="E637" t="s">
+        <v>37</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G637" t="s">
+        <v>20</v>
+      </c>
+      <c r="I637" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D638" t="s">
+        <v>577</v>
+      </c>
+      <c r="E638" t="s">
+        <v>37</v>
+      </c>
+      <c r="F638" t="s">
+        <v>19</v>
+      </c>
+      <c r="G638" t="s">
+        <v>20</v>
+      </c>
+      <c r="I638" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D639" t="s">
+        <v>577</v>
+      </c>
+      <c r="E639" t="s">
+        <v>37</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G639" t="s">
+        <v>20</v>
+      </c>
+      <c r="H639" t="s">
+        <v>405</v>
+      </c>
+      <c r="I639" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D640" t="s">
+        <v>577</v>
+      </c>
+      <c r="E640" t="s">
+        <v>37</v>
+      </c>
+      <c r="F640" t="s">
+        <v>503</v>
+      </c>
+      <c r="G640" t="s">
+        <v>20</v>
+      </c>
+      <c r="I640" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D641" t="s">
+        <v>178</v>
+      </c>
+      <c r="E641" t="s">
+        <v>37</v>
+      </c>
+      <c r="F641" t="s">
+        <v>503</v>
+      </c>
+      <c r="G641" t="s">
+        <v>20</v>
+      </c>
+      <c r="I641" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D642" t="s">
+        <v>109</v>
+      </c>
+      <c r="E642" t="s">
+        <v>37</v>
+      </c>
+      <c r="F642" t="s">
+        <v>19</v>
+      </c>
+      <c r="G642" t="s">
+        <v>23</v>
+      </c>
+      <c r="I642" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D643" t="s">
+        <v>109</v>
+      </c>
+      <c r="E643" t="s">
+        <v>37</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G643" t="s">
+        <v>23</v>
+      </c>
+      <c r="I643" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D644" t="s">
+        <v>92</v>
+      </c>
+      <c r="E644" t="s">
+        <v>37</v>
+      </c>
+      <c r="F644" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G644" t="s">
+        <v>20</v>
+      </c>
+      <c r="H644" t="s">
+        <v>762</v>
+      </c>
+      <c r="I644" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D645" t="s">
+        <v>196</v>
+      </c>
+      <c r="E645" t="s">
+        <v>37</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G645" t="s">
+        <v>20</v>
+      </c>
+      <c r="I645" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D646" t="s">
+        <v>413</v>
+      </c>
+      <c r="E646" t="s">
+        <v>37</v>
+      </c>
+      <c r="F646" t="s">
+        <v>19</v>
+      </c>
+      <c r="G646" t="s">
+        <v>20</v>
+      </c>
+      <c r="I646" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D647" t="s">
+        <v>413</v>
+      </c>
+      <c r="E647" t="s">
+        <v>37</v>
+      </c>
+      <c r="F647" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G647" t="s">
+        <v>20</v>
+      </c>
+      <c r="I647" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D648" t="s">
+        <v>31</v>
+      </c>
+      <c r="E648" t="s">
+        <v>37</v>
+      </c>
+      <c r="F648" t="s">
+        <v>503</v>
+      </c>
+      <c r="G648" t="s">
+        <v>20</v>
+      </c>
+      <c r="I648" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D649" t="s">
+        <v>31</v>
+      </c>
+      <c r="E649" t="s">
+        <v>37</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G649" t="s">
+        <v>20</v>
+      </c>
+      <c r="H649" t="s">
+        <v>405</v>
+      </c>
+      <c r="I649" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D650" t="s">
+        <v>31</v>
+      </c>
+      <c r="E650" t="s">
+        <v>37</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G650" t="s">
+        <v>20</v>
+      </c>
+      <c r="I650" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D651" t="s">
+        <v>31</v>
+      </c>
+      <c r="E651" t="s">
+        <v>37</v>
+      </c>
+      <c r="F651" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G651" t="s">
+        <v>20</v>
+      </c>
+      <c r="H651" t="s">
+        <v>382</v>
+      </c>
+      <c r="I651" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D652" t="s">
+        <v>31</v>
+      </c>
+      <c r="E652" t="s">
+        <v>37</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G652" t="s">
+        <v>23</v>
+      </c>
+      <c r="H652" t="s">
+        <v>266</v>
+      </c>
+      <c r="I652" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D653" t="s">
+        <v>31</v>
+      </c>
+      <c r="E653" t="s">
+        <v>37</v>
+      </c>
+      <c r="F653" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G653" t="s">
+        <v>20</v>
+      </c>
+      <c r="I653" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D654" t="s">
+        <v>31</v>
+      </c>
+      <c r="E654" t="s">
+        <v>37</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G654" t="s">
+        <v>23</v>
+      </c>
+      <c r="I654" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D655" t="s">
+        <v>31</v>
+      </c>
+      <c r="E655" t="s">
+        <v>37</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G655" t="s">
+        <v>23</v>
+      </c>
+      <c r="I655" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D656" t="s">
+        <v>31</v>
+      </c>
+      <c r="E656" t="s">
+        <v>37</v>
+      </c>
+      <c r="F656" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G656" t="s">
+        <v>20</v>
+      </c>
+      <c r="I656" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D657" t="s">
+        <v>83</v>
+      </c>
+      <c r="E657" t="s">
+        <v>396</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G657" t="s">
+        <v>23</v>
+      </c>
+      <c r="I657" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D658" t="s">
+        <v>83</v>
+      </c>
+      <c r="E658" t="s">
+        <v>396</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G658" t="s">
+        <v>23</v>
+      </c>
+      <c r="H658" t="s">
+        <v>757</v>
+      </c>
+      <c r="I658" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D659" t="s">
+        <v>83</v>
+      </c>
+      <c r="E659" t="s">
+        <v>116</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G659" t="s">
+        <v>23</v>
+      </c>
+      <c r="H659" t="s">
+        <v>697</v>
+      </c>
+      <c r="I659" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D660" t="s">
+        <v>40</v>
+      </c>
+      <c r="E660" t="s">
+        <v>396</v>
+      </c>
+      <c r="F660" t="s">
+        <v>397</v>
+      </c>
+      <c r="G660" t="s">
+        <v>23</v>
+      </c>
+      <c r="H660" t="s">
+        <v>266</v>
+      </c>
+      <c r="I660" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D661" t="s">
+        <v>40</v>
+      </c>
+      <c r="E661" t="s">
+        <v>253</v>
+      </c>
+      <c r="F661" t="s">
+        <v>63</v>
+      </c>
+      <c r="G661" t="s">
+        <v>23</v>
+      </c>
+      <c r="I661" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D662" t="s">
+        <v>40</v>
+      </c>
+      <c r="E662" t="s">
+        <v>128</v>
+      </c>
+      <c r="F662" t="s">
+        <v>19</v>
+      </c>
+      <c r="G662" t="s">
+        <v>23</v>
+      </c>
+      <c r="I662" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C663" t="s">
+        <v>975</v>
+      </c>
+      <c r="D663" t="s">
+        <v>36</v>
+      </c>
+      <c r="E663" t="s">
+        <v>116</v>
+      </c>
+      <c r="F663" t="s">
+        <v>19</v>
+      </c>
+      <c r="G663" t="s">
+        <v>23</v>
+      </c>
+      <c r="I663" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D664" t="s">
+        <v>62</v>
+      </c>
+      <c r="E664" t="s">
+        <v>396</v>
+      </c>
+      <c r="F664" t="s">
+        <v>397</v>
+      </c>
+      <c r="G664" t="s">
+        <v>23</v>
+      </c>
+      <c r="I664" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D665" t="s">
+        <v>62</v>
+      </c>
+      <c r="E665" t="s">
+        <v>396</v>
+      </c>
+      <c r="F665" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G665" t="s">
+        <v>23</v>
+      </c>
+      <c r="I665" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D666" t="s">
+        <v>62</v>
+      </c>
+      <c r="E666" t="s">
+        <v>396</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G666" t="s">
+        <v>23</v>
+      </c>
+      <c r="I666" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D667" t="s">
+        <v>154</v>
+      </c>
+      <c r="E667" t="s">
+        <v>253</v>
+      </c>
+      <c r="F667" t="s">
+        <v>19</v>
+      </c>
+      <c r="G667" t="s">
+        <v>23</v>
+      </c>
+      <c r="I667" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D668" t="s">
+        <v>559</v>
+      </c>
+      <c r="E668" t="s">
+        <v>396</v>
+      </c>
+      <c r="F668" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G668" t="s">
+        <v>23</v>
+      </c>
+      <c r="I668" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D669" t="s">
+        <v>89</v>
+      </c>
+      <c r="E669" t="s">
+        <v>396</v>
+      </c>
+      <c r="F669" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G669" t="s">
+        <v>23</v>
+      </c>
+      <c r="I669" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D670" t="s">
+        <v>86</v>
+      </c>
+      <c r="E670" t="s">
+        <v>116</v>
+      </c>
+      <c r="F670" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G670" t="s">
+        <v>23</v>
+      </c>
+      <c r="I670" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D671" t="s">
+        <v>140</v>
+      </c>
+      <c r="E671" t="s">
+        <v>116</v>
+      </c>
+      <c r="F671" t="s">
+        <v>19</v>
+      </c>
+      <c r="G671" t="s">
+        <v>23</v>
+      </c>
+      <c r="I671" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D672" t="s">
+        <v>66</v>
+      </c>
+      <c r="E672" t="s">
+        <v>253</v>
+      </c>
+      <c r="F672" t="s">
+        <v>163</v>
+      </c>
+      <c r="G672" t="s">
+        <v>23</v>
+      </c>
+      <c r="I672" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D673" t="s">
+        <v>66</v>
+      </c>
+      <c r="E673" t="s">
+        <v>116</v>
+      </c>
+      <c r="F673" t="s">
+        <v>19</v>
+      </c>
+      <c r="G673" t="s">
+        <v>23</v>
+      </c>
+      <c r="I673" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D674" t="s">
+        <v>243</v>
+      </c>
+      <c r="E674" t="s">
+        <v>116</v>
+      </c>
+      <c r="F674" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G674" t="s">
+        <v>23</v>
+      </c>
+      <c r="H674" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I674" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D675" t="s">
+        <v>243</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F675" t="s">
+        <v>19</v>
+      </c>
+      <c r="G675" t="s">
+        <v>23</v>
+      </c>
+      <c r="I675" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D676" t="s">
+        <v>577</v>
+      </c>
+      <c r="E676" t="s">
+        <v>116</v>
+      </c>
+      <c r="F676" t="s">
+        <v>930</v>
+      </c>
+      <c r="G676" t="s">
+        <v>23</v>
+      </c>
+      <c r="I676" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D677" t="s">
+        <v>92</v>
+      </c>
+      <c r="E677" t="s">
+        <v>396</v>
+      </c>
+      <c r="F677" t="s">
+        <v>397</v>
+      </c>
+      <c r="G677" t="s">
+        <v>23</v>
+      </c>
+      <c r="I677" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D678" t="s">
+        <v>413</v>
+      </c>
+      <c r="E678" t="s">
+        <v>396</v>
+      </c>
+      <c r="F678" t="s">
+        <v>19</v>
+      </c>
+      <c r="G678" t="s">
+        <v>23</v>
+      </c>
+      <c r="I678" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E679" t="s">
+        <v>116</v>
+      </c>
+      <c r="F679" t="s">
+        <v>19</v>
+      </c>
+      <c r="G679" t="s">
+        <v>23</v>
+      </c>
+      <c r="I679" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D680" t="s">
+        <v>70</v>
+      </c>
+      <c r="E680" t="s">
+        <v>116</v>
+      </c>
+      <c r="F680" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G680" t="s">
+        <v>23</v>
+      </c>
+      <c r="I680" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D681" t="s">
+        <v>157</v>
+      </c>
+      <c r="E681" t="s">
+        <v>93</v>
+      </c>
+      <c r="F681" t="s">
+        <v>19</v>
+      </c>
+      <c r="G681" t="s">
+        <v>23</v>
+      </c>
+      <c r="I681" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D682" t="s">
+        <v>31</v>
+      </c>
+      <c r="E682" t="s">
+        <v>116</v>
+      </c>
+      <c r="F682" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G682" t="s">
+        <v>20</v>
+      </c>
+      <c r="H682" t="s">
+        <v>54</v>
+      </c>
+      <c r="I682" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D683" t="s">
+        <v>86</v>
+      </c>
+      <c r="E683" t="s">
+        <v>37</v>
+      </c>
+      <c r="F683" t="s">
+        <v>19</v>
+      </c>
+      <c r="G683" t="s">
+        <v>20</v>
+      </c>
+      <c r="I683" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D684" t="s">
+        <v>395</v>
+      </c>
+      <c r="E684" t="s">
+        <v>131</v>
+      </c>
+      <c r="F684" t="s">
+        <v>19</v>
+      </c>
+      <c r="G684" t="s">
+        <v>23</v>
+      </c>
+      <c r="I684" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D685" t="s">
+        <v>828</v>
+      </c>
+      <c r="E685" t="s">
+        <v>131</v>
+      </c>
+      <c r="F685" t="s">
+        <v>19</v>
+      </c>
+      <c r="G685" t="s">
+        <v>23</v>
+      </c>
+      <c r="I685" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D686" t="s">
+        <v>31</v>
+      </c>
+      <c r="E686" t="s">
+        <v>106</v>
+      </c>
+      <c r="F686" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G686" t="s">
+        <v>23</v>
+      </c>
+      <c r="I686" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D687" t="s">
+        <v>79</v>
+      </c>
+      <c r="E687" t="s">
+        <v>128</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G687" t="s">
+        <v>23</v>
+      </c>
+      <c r="I687" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D688" t="s">
+        <v>83</v>
+      </c>
+      <c r="E688" t="s">
+        <v>96</v>
+      </c>
+      <c r="F688" t="s">
+        <v>63</v>
+      </c>
+      <c r="G688" t="s">
+        <v>23</v>
+      </c>
+      <c r="I688" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D689" t="s">
+        <v>40</v>
+      </c>
+      <c r="E689" t="s">
+        <v>96</v>
+      </c>
+      <c r="F689" t="s">
+        <v>63</v>
+      </c>
+      <c r="G689" t="s">
+        <v>23</v>
+      </c>
+      <c r="I689" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D690" t="s">
+        <v>31</v>
+      </c>
+      <c r="E690" t="s">
+        <v>96</v>
+      </c>
+      <c r="F690" t="s">
+        <v>63</v>
+      </c>
+      <c r="G690" t="s">
+        <v>23</v>
+      </c>
+      <c r="I690" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E691" t="s">
+        <v>96</v>
+      </c>
+      <c r="F691" t="s">
+        <v>19</v>
+      </c>
+      <c r="G691" t="s">
+        <v>23</v>
+      </c>
+      <c r="I691" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E692" t="s">
+        <v>96</v>
+      </c>
+      <c r="F692" t="s">
+        <v>166</v>
+      </c>
+      <c r="G692" t="s">
+        <v>23</v>
+      </c>
+      <c r="I692" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D693" t="s">
+        <v>83</v>
+      </c>
+      <c r="E693" t="s">
+        <v>253</v>
+      </c>
+      <c r="F693" t="s">
+        <v>19</v>
+      </c>
+      <c r="G693" t="s">
+        <v>23</v>
+      </c>
+      <c r="I693" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D694" t="s">
+        <v>83</v>
+      </c>
+      <c r="E694" t="s">
+        <v>253</v>
+      </c>
+      <c r="F694" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G694" t="s">
+        <v>14</v>
+      </c>
+      <c r="I694" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D695" t="s">
+        <v>40</v>
+      </c>
+      <c r="E695" t="s">
+        <v>253</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G695" t="s">
+        <v>20</v>
+      </c>
+      <c r="I695" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D696" t="s">
+        <v>36</v>
+      </c>
+      <c r="E696" t="s">
+        <v>253</v>
+      </c>
+      <c r="F696" t="s">
+        <v>19</v>
+      </c>
+      <c r="G696" t="s">
+        <v>23</v>
+      </c>
+      <c r="I696" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D697" t="s">
+        <v>62</v>
+      </c>
+      <c r="E697" t="s">
+        <v>253</v>
+      </c>
+      <c r="F697" t="s">
+        <v>166</v>
+      </c>
+      <c r="G697" t="s">
+        <v>23</v>
+      </c>
+      <c r="I697" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D698" t="s">
+        <v>206</v>
+      </c>
+      <c r="E698" t="s">
+        <v>253</v>
+      </c>
+      <c r="F698" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G698" t="s">
+        <v>20</v>
+      </c>
+      <c r="I698" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D699" t="s">
+        <v>79</v>
+      </c>
+      <c r="E699" t="s">
+        <v>253</v>
+      </c>
+      <c r="F699" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G699" t="s">
+        <v>23</v>
+      </c>
+      <c r="I699" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D700" t="s">
+        <v>92</v>
+      </c>
+      <c r="E700" t="s">
+        <v>253</v>
+      </c>
+      <c r="F700" t="s">
+        <v>19</v>
+      </c>
+      <c r="G700" t="s">
+        <v>23</v>
+      </c>
+      <c r="I700" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D701" t="s">
+        <v>92</v>
+      </c>
+      <c r="E701" t="s">
+        <v>253</v>
+      </c>
+      <c r="F701" t="s">
+        <v>19</v>
+      </c>
+      <c r="G701" t="s">
+        <v>23</v>
+      </c>
+      <c r="I701" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D702" t="s">
+        <v>31</v>
+      </c>
+      <c r="E702" t="s">
+        <v>253</v>
+      </c>
+      <c r="F702" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G702" t="s">
+        <v>20</v>
+      </c>
+      <c r="I702" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E703" t="s">
+        <v>253</v>
+      </c>
+      <c r="F703" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G703" t="s">
+        <v>23</v>
+      </c>
+      <c r="I703" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D704" t="s">
+        <v>40</v>
+      </c>
+      <c r="E704" t="s">
+        <v>27</v>
+      </c>
+      <c r="F704" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G704" t="s">
+        <v>23</v>
+      </c>
+      <c r="I704" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D705" t="s">
+        <v>17</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F705" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G705" t="s">
+        <v>14</v>
+      </c>
+      <c r="I705" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D706" t="s">
+        <v>66</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F706" t="s">
+        <v>19</v>
+      </c>
+      <c r="G706" t="s">
+        <v>14</v>
+      </c>
+      <c r="I706" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D707" t="s">
+        <v>31</v>
+      </c>
+      <c r="E707" t="s">
+        <v>27</v>
+      </c>
+      <c r="F707" t="s">
+        <v>19</v>
+      </c>
+      <c r="G707" t="s">
+        <v>23</v>
+      </c>
+      <c r="I707" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D708" t="s">
+        <v>140</v>
+      </c>
+      <c r="E708" t="s">
+        <v>256</v>
+      </c>
+      <c r="F708" t="s">
+        <v>260</v>
+      </c>
+      <c r="G708" t="s">
+        <v>14</v>
+      </c>
+      <c r="I708" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D709" t="s">
+        <v>83</v>
+      </c>
+      <c r="E709" t="s">
+        <v>99</v>
+      </c>
+      <c r="F709" t="s">
+        <v>304</v>
+      </c>
+      <c r="G709" t="s">
+        <v>23</v>
+      </c>
+      <c r="I709" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D710" t="s">
+        <v>40</v>
+      </c>
+      <c r="E710" t="s">
+        <v>99</v>
+      </c>
+      <c r="F710" t="s">
+        <v>19</v>
+      </c>
+      <c r="G710" t="s">
+        <v>23</v>
+      </c>
+      <c r="I710" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D711" t="s">
+        <v>40</v>
+      </c>
+      <c r="E711" t="s">
+        <v>99</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G711" t="s">
+        <v>20</v>
+      </c>
+      <c r="H711" t="s">
+        <v>424</v>
+      </c>
+      <c r="I711" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D712" t="s">
+        <v>40</v>
+      </c>
+      <c r="E712" t="s">
+        <v>99</v>
+      </c>
+      <c r="F712" t="s">
+        <v>19</v>
+      </c>
+      <c r="G712" t="s">
+        <v>23</v>
+      </c>
+      <c r="I712" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D713" t="s">
+        <v>89</v>
+      </c>
+      <c r="E713" t="s">
+        <v>99</v>
+      </c>
+      <c r="F713" t="s">
+        <v>19</v>
+      </c>
+      <c r="G713" t="s">
+        <v>23</v>
+      </c>
+      <c r="I713" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D714" t="s">
+        <v>66</v>
+      </c>
+      <c r="E714" t="s">
+        <v>99</v>
+      </c>
+      <c r="F714" t="s">
+        <v>19</v>
+      </c>
+      <c r="G714" t="s">
+        <v>23</v>
+      </c>
+      <c r="I714" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D715" t="s">
+        <v>395</v>
+      </c>
+      <c r="E715" t="s">
+        <v>99</v>
+      </c>
+      <c r="F715" t="s">
+        <v>19</v>
+      </c>
+      <c r="G715" t="s">
+        <v>20</v>
+      </c>
+      <c r="H715" t="s">
+        <v>697</v>
+      </c>
+      <c r="I715" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D716" t="s">
+        <v>31</v>
+      </c>
+      <c r="E716" t="s">
+        <v>99</v>
+      </c>
+      <c r="F716" t="s">
+        <v>19</v>
+      </c>
+      <c r="G716" t="s">
+        <v>23</v>
+      </c>
+      <c r="I716" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D717" t="s">
+        <v>40</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F717" t="s">
+        <v>19</v>
+      </c>
+      <c r="G717" t="s">
+        <v>23</v>
+      </c>
+      <c r="I717" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D718" t="s">
+        <v>40</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F718" t="s">
+        <v>19</v>
+      </c>
+      <c r="G718" t="s">
+        <v>23</v>
+      </c>
+      <c r="I718" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D719" t="s">
+        <v>31</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F719" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G719" t="s">
+        <v>23</v>
+      </c>
+      <c r="I719" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D720" t="s">
+        <v>40</v>
+      </c>
+      <c r="E720" t="s">
+        <v>116</v>
+      </c>
+      <c r="F720" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G720" t="s">
+        <v>23</v>
+      </c>
+      <c r="I720" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D721" t="s">
+        <v>40</v>
+      </c>
+      <c r="E721" t="s">
+        <v>116</v>
+      </c>
+      <c r="F721" t="s">
+        <v>19</v>
+      </c>
+      <c r="G721" t="s">
+        <v>23</v>
+      </c>
+      <c r="I721" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D722" t="s">
+        <v>62</v>
+      </c>
+      <c r="E722" t="s">
+        <v>116</v>
+      </c>
+      <c r="F722" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G722" t="s">
+        <v>23</v>
+      </c>
+      <c r="I722" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D723" t="s">
+        <v>62</v>
+      </c>
+      <c r="E723" t="s">
+        <v>116</v>
+      </c>
+      <c r="F723" t="s">
+        <v>19</v>
+      </c>
+      <c r="G723" t="s">
+        <v>23</v>
+      </c>
+      <c r="I723" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D724" t="s">
+        <v>206</v>
+      </c>
+      <c r="E724" t="s">
+        <v>116</v>
+      </c>
+      <c r="F724" t="s">
+        <v>19</v>
+      </c>
+      <c r="G724" t="s">
+        <v>23</v>
+      </c>
+      <c r="I724" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D725" t="s">
+        <v>26</v>
+      </c>
+      <c r="E725" t="s">
+        <v>116</v>
+      </c>
+      <c r="F725" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G725" t="s">
+        <v>23</v>
+      </c>
+      <c r="I725" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D726" t="s">
+        <v>157</v>
+      </c>
+      <c r="E726" t="s">
+        <v>116</v>
+      </c>
+      <c r="F726" t="s">
+        <v>19</v>
+      </c>
+      <c r="G726" t="s">
+        <v>23</v>
+      </c>
+      <c r="I726" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D727" t="s">
+        <v>395</v>
+      </c>
+      <c r="E727" t="s">
+        <v>116</v>
+      </c>
+      <c r="F727" t="s">
+        <v>19</v>
+      </c>
+      <c r="G727" t="s">
+        <v>23</v>
+      </c>
+      <c r="I727" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D728" t="s">
+        <v>92</v>
+      </c>
+      <c r="E728" t="s">
+        <v>116</v>
+      </c>
+      <c r="F728" t="s">
+        <v>19</v>
+      </c>
+      <c r="G728" t="s">
+        <v>23</v>
+      </c>
+      <c r="I728" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A729" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D729" t="s">
+        <v>196</v>
+      </c>
+      <c r="E729" t="s">
+        <v>116</v>
+      </c>
+      <c r="F729" t="s">
+        <v>19</v>
+      </c>
+      <c r="G729" t="s">
+        <v>23</v>
+      </c>
+      <c r="I729" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A730" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D730" t="s">
+        <v>83</v>
+      </c>
+      <c r="E730" t="s">
+        <v>116</v>
+      </c>
+      <c r="F730" t="s">
+        <v>19</v>
+      </c>
+      <c r="G730" t="s">
+        <v>23</v>
+      </c>
+      <c r="H730" t="s">
+        <v>216</v>
+      </c>
+      <c r="I730" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D731" t="s">
+        <v>40</v>
+      </c>
+      <c r="E731" t="s">
+        <v>116</v>
+      </c>
+      <c r="F731" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G731" t="s">
+        <v>23</v>
+      </c>
+      <c r="I731" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D732" t="s">
+        <v>40</v>
+      </c>
+      <c r="E732" t="s">
+        <v>116</v>
+      </c>
+      <c r="F732" t="s">
+        <v>19</v>
+      </c>
+      <c r="G732" t="s">
+        <v>23</v>
+      </c>
+      <c r="I732" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D733" t="s">
+        <v>40</v>
+      </c>
+      <c r="E733" t="s">
+        <v>37</v>
+      </c>
+      <c r="F733" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G733" t="s">
+        <v>20</v>
+      </c>
+      <c r="I733" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D734" t="s">
+        <v>36</v>
+      </c>
+      <c r="E734" t="s">
+        <v>116</v>
+      </c>
+      <c r="F734" t="s">
+        <v>160</v>
+      </c>
+      <c r="G734" t="s">
+        <v>23</v>
+      </c>
+      <c r="I734" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D735" t="s">
+        <v>185</v>
+      </c>
+      <c r="E735" t="s">
+        <v>116</v>
+      </c>
+      <c r="F735" t="s">
+        <v>503</v>
+      </c>
+      <c r="G735" t="s">
+        <v>23</v>
+      </c>
+      <c r="I735" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A736" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D736" t="s">
+        <v>62</v>
+      </c>
+      <c r="E736" t="s">
+        <v>116</v>
+      </c>
+      <c r="F736" t="s">
+        <v>19</v>
+      </c>
+      <c r="G736" t="s">
+        <v>23</v>
+      </c>
+      <c r="I736" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A737" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D737" t="s">
+        <v>154</v>
+      </c>
+      <c r="E737" t="s">
+        <v>37</v>
+      </c>
+      <c r="F737" t="s">
+        <v>503</v>
+      </c>
+      <c r="G737" t="s">
+        <v>20</v>
+      </c>
+      <c r="I737" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A738" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D738" t="s">
+        <v>17</v>
+      </c>
+      <c r="E738" t="s">
+        <v>116</v>
+      </c>
+      <c r="F738" t="s">
+        <v>19</v>
+      </c>
+      <c r="G738" t="s">
+        <v>23</v>
+      </c>
+      <c r="I738" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A739" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D739" t="s">
+        <v>17</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F739" t="s">
+        <v>19</v>
+      </c>
+      <c r="G739" t="s">
+        <v>23</v>
+      </c>
+      <c r="I739" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A740" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D740" t="s">
+        <v>79</v>
+      </c>
+      <c r="E740" t="s">
+        <v>116</v>
+      </c>
+      <c r="F740" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G740" t="s">
+        <v>20</v>
+      </c>
+      <c r="I740" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A741" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D741" t="s">
+        <v>559</v>
+      </c>
+      <c r="E741" t="s">
+        <v>116</v>
+      </c>
+      <c r="F741" t="s">
+        <v>19</v>
+      </c>
+      <c r="G741" t="s">
+        <v>23</v>
+      </c>
+      <c r="I741" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A742" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D742" t="s">
+        <v>178</v>
+      </c>
+      <c r="E742" t="s">
+        <v>116</v>
+      </c>
+      <c r="F742" t="s">
+        <v>19</v>
+      </c>
+      <c r="G742" t="s">
+        <v>23</v>
+      </c>
+      <c r="I742" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A743" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D743" t="s">
+        <v>145</v>
+      </c>
+      <c r="E743" t="s">
+        <v>37</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G743" t="s">
+        <v>20</v>
+      </c>
+      <c r="I743" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A744" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D744" t="s">
+        <v>145</v>
+      </c>
+      <c r="E744" t="s">
+        <v>116</v>
+      </c>
+      <c r="F744" t="s">
+        <v>19</v>
+      </c>
+      <c r="G744" t="s">
+        <v>23</v>
+      </c>
+      <c r="I744" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A745" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D745" t="s">
+        <v>31</v>
+      </c>
+      <c r="E745" t="s">
+        <v>37</v>
+      </c>
+      <c r="F745" t="s">
+        <v>503</v>
+      </c>
+      <c r="G745" t="s">
+        <v>20</v>
+      </c>
+      <c r="I745" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A746" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D746" t="s">
+        <v>83</v>
+      </c>
+      <c r="E746" t="s">
+        <v>116</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G746" t="s">
+        <v>23</v>
+      </c>
+      <c r="I746" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A747" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D747" t="s">
+        <v>40</v>
+      </c>
+      <c r="E747" t="s">
+        <v>116</v>
+      </c>
+      <c r="F747" t="s">
+        <v>19</v>
+      </c>
+      <c r="G747" t="s">
+        <v>23</v>
+      </c>
+      <c r="I747" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A748" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D748" t="s">
+        <v>40</v>
+      </c>
+      <c r="E748" t="s">
+        <v>37</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G748" t="s">
+        <v>20</v>
+      </c>
+      <c r="I748" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A749" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D749" t="s">
+        <v>40</v>
+      </c>
+      <c r="E749" t="s">
+        <v>37</v>
+      </c>
+      <c r="F749" t="s">
+        <v>19</v>
+      </c>
+      <c r="G749" t="s">
+        <v>20</v>
+      </c>
+      <c r="I749" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A750" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D750" t="s">
+        <v>36</v>
+      </c>
+      <c r="E750" t="s">
+        <v>116</v>
+      </c>
+      <c r="F750" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G750" t="s">
+        <v>23</v>
+      </c>
+      <c r="I750" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A751" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D751" t="s">
+        <v>36</v>
+      </c>
+      <c r="E751" t="s">
+        <v>37</v>
+      </c>
+      <c r="F751" t="s">
+        <v>503</v>
+      </c>
+      <c r="G751" t="s">
+        <v>20</v>
+      </c>
+      <c r="I751" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A752" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D752" t="s">
+        <v>36</v>
+      </c>
+      <c r="E752" t="s">
+        <v>116</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G752" t="s">
+        <v>23</v>
+      </c>
+      <c r="I752" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D753" t="s">
+        <v>62</v>
+      </c>
+      <c r="E753" t="s">
+        <v>116</v>
+      </c>
+      <c r="F753" t="s">
+        <v>385</v>
+      </c>
+      <c r="G753" t="s">
+        <v>23</v>
+      </c>
+      <c r="I753" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D754" t="s">
+        <v>62</v>
+      </c>
+      <c r="E754" t="s">
+        <v>116</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G754" t="s">
+        <v>23</v>
+      </c>
+      <c r="I754" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D755" t="s">
+        <v>62</v>
+      </c>
+      <c r="E755" t="s">
+        <v>116</v>
+      </c>
+      <c r="F755" t="s">
+        <v>385</v>
+      </c>
+      <c r="G755" t="s">
+        <v>23</v>
+      </c>
+      <c r="I755" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D756" t="s">
+        <v>26</v>
+      </c>
+      <c r="E756" t="s">
+        <v>116</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G756" t="s">
+        <v>23</v>
+      </c>
+      <c r="I756" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D757" t="s">
+        <v>26</v>
+      </c>
+      <c r="E757" t="s">
+        <v>116</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G757" t="s">
+        <v>23</v>
+      </c>
+      <c r="I757" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D758" t="s">
+        <v>66</v>
+      </c>
+      <c r="E758" t="s">
+        <v>37</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G758" t="s">
+        <v>20</v>
+      </c>
+      <c r="I758" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D759" t="s">
+        <v>577</v>
+      </c>
+      <c r="E759" t="s">
+        <v>37</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G759" t="s">
+        <v>20</v>
+      </c>
+      <c r="I759" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D760" t="s">
+        <v>577</v>
+      </c>
+      <c r="E760" t="s">
+        <v>37</v>
+      </c>
+      <c r="F760" t="s">
+        <v>503</v>
+      </c>
+      <c r="G760" t="s">
+        <v>20</v>
+      </c>
+      <c r="H760" t="s">
+        <v>771</v>
+      </c>
+      <c r="I760" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D761" t="s">
+        <v>577</v>
+      </c>
+      <c r="E761" t="s">
+        <v>116</v>
+      </c>
+      <c r="F761" t="s">
+        <v>19</v>
+      </c>
+      <c r="G761" t="s">
+        <v>23</v>
+      </c>
+      <c r="I761" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D762" t="s">
+        <v>577</v>
+      </c>
+      <c r="E762" t="s">
+        <v>37</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G762" t="s">
+        <v>20</v>
+      </c>
+      <c r="I762" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D763" t="s">
+        <v>577</v>
+      </c>
+      <c r="E763" t="s">
+        <v>37</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G763" t="s">
+        <v>20</v>
+      </c>
+      <c r="I763" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D764" t="s">
+        <v>31</v>
+      </c>
+      <c r="E764" t="s">
+        <v>37</v>
+      </c>
+      <c r="F764" t="s">
+        <v>19</v>
+      </c>
+      <c r="G764" t="s">
+        <v>20</v>
+      </c>
+      <c r="H764" t="s">
+        <v>424</v>
+      </c>
+      <c r="I764" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E765" t="s">
+        <v>37</v>
+      </c>
+      <c r="F765" t="s">
+        <v>503</v>
+      </c>
+      <c r="G765" t="s">
+        <v>20</v>
+      </c>
+      <c r="I765" t="s">
+        <v>1317</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I496" xr:uid="{9AA0BA48-4CA2-4598-B7CC-38C4D8622F93}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341BA90-97CB-4BA2-A712-E80E3231D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299CA07-EBF7-4B83-9775-504F39A13183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5CAA307-58D1-4699-B525-B473CF5DD118}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7219" uniqueCount="2492">
   <si>
     <t>Fecha</t>
   </si>
@@ -6070,9 +6070,6 @@
     <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQenhQeWt3Nnh2UkpyZnh3YThkS2ZFVFYzOHFKU0ZxTThUbnE1by0wVWVEdEl6MkxtQ2hXdURIV1hFdl9VMWtXWDRQam5nQnpSNFRKQTA1QUlaRnlYanNBT1ZoemxIVER1WHBKd3dlNWxidWVMc1l3ZWlFQmYxVVY3N01QM2dQamhJdHAzUFlkNlNNUTNHcUh3MlZtbktNZjhsMnlUd1pmLWwybkhfcmlHVEFZbFlKS1BQMDhrc0haNDdoT2gtUVZCczNwTzNobk9HQzJGY2Rn?oc=5</t>
   </si>
   <si>
-    <t>débil</t>
-  </si>
-  <si>
     <t>Iván Cancino cuestionó a las altas cortes tras negar recusación en el caso contra el exgobernador Camilo Romero: “Cosas que solo pasan en Colombia”</t>
   </si>
   <si>
@@ -6247,9 +6244,6 @@
     <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNS255TC1tbDRldUNCRUtyWWpSenN1anJmOTU5X2RpSFV0aGdCS3VHaXFqMXNUSWZtbDZSTTg3dFI5MWNpVWdKem1pWGwxNl9GMFpkVHNDekNOaGFzT2w2Y1lYbXNGZFhwS0JGOEhfdU5NTDBnRjJiUU9CM1RUNnFLdFFYTWdCUmhJaTNTZEhoWDJWaHdDeTF6R1lFWTk3NGgzV0tZYzE1VXFHY1FLQXJwazBFY9IBuAFBVV95cUxPVHluOGM1Mm1OSDA2OWVyT2lQUFl6WnN5RHlIcm5qMUtKU0diV2d3dWF1VXYtNmwxV2xpRkt0b1BQTHpOU2xUX08yMV96ZnVBMGg4bWlRUHdfMDJfQUNndngyRzJ1TTJYVjB4eU5raF8takxOODZQOHByV1NYbTdnYldLbWt6YWRhQ0M0UC1TNG5Ta1F3cGs0YVNZLXhJcHY2Q1o5dVhZUGM2blAyeUxycEU5QW1Pd1FX?oc=5</t>
   </si>
   <si>
-    <t>avance</t>
-  </si>
-  <si>
     <t>Proyecto de ley que busca devolver la mesada 14 a los docentes de educación pública avanza en el Senado</t>
   </si>
   <si>
@@ -6580,9 +6574,6 @@
     <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxQaHk1UW5RSXFzcFdrWkZJSzZlU0hOdHFxSTdNV2g4bkRUazBEVFRXVV8teTVVTm1lWVVxTVdab2VTRUJyQklhYXZJN1lZS0dETW5jVnJZYTdTSTVqdUh4Zi1sWENDRDdQOXl2X1NCNS02OHAzOUFoWElfQTY1RXBiTzJBNnk3UlIxR0NqQlBBczFfYlJJQU9oNUt2V2NOaVpYRnBlYjhxMFd3QXNuQW9CYjhFbm8yNUVxc2R5VEt2Z1MyQVQ1NlItRjVobnBIVndSX252MXgwZ1lxenZJRUJMS1VmeVFKTlZZbklCUk43bnB0VDZCT0HSAfsBQVVfeXFMT29TdmYxeGhRX0RGbDZEQkN1N1RKY1F0d043SHowcWRLWXlBdmVRcHpqaEdvLWY3XzhRZUUteVV2TVZ2cDJndWZVSVh6QmljU1lnLW81anVNTzdpeFNXX0RzUXkyMGFkaWFXdnYzbTJKWFlZWlpVR2tXR0hnd3pJUlNudmotTFdRVHpqM1ZuWVlJN1ZyNlo2NkpSRFg2WTNKVWxqdGo0aE40U1pjcXBmUG1KQXVScXFHbFBlaDdNNl9UNTB6ZG40MGdXME1FMmV0aXBCR1ZVNlQwdUY4V3ZRQUJsVDhGOGxsRG55N29vMndkc0pUZUtzbFFEYUk?oc=5</t>
   </si>
   <si>
-    <t>mal, mala</t>
-  </si>
-  <si>
     <t>¿Cómo reaccionó Petro al discurso de Jørgen Watne Frydnes contra Maduro en la ceremonia del Nobel de Paz a María Corina Machado? “deberían distribuirlo a todo el Pacto Histórico”</t>
   </si>
   <si>
@@ -6643,9 +6634,6 @@
     <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxOcnFQOHprWEE0bzE1LUFZT05hOTBhVEh5ZFo1UENZTGJCQ3JBckVUX0g1Wllud3duQU9xbF9Yb1hCV2x4anZPSXpLVDBtUXFKb3FmZmVoT09VVXVzbk92cGVsa1M2QmN1ZGdqMno2WlkzS0RoVVJkLWtKM2pCU3pLcHh5cjZHa3dka3hXQkgtMlBxWUdvYWpCS1llbHc2ck1yWC1Tc0hTQmdsWXVGUzRwWVgwOW9MWVNkbW9rdEkzRTNTYjE4Vk1mMGJDVGJJamJJell2VFlCNHBWN1VwMzRaRTVRT0fSAfgBQVVfeXFMTjR4akNVWl85TnZ0enpLUnprWURHdzBmRXpvVkdrUEdZRGFfa1gzVTV4eDRLN2UzS3BEVXRudHpjR1hEVG9Nc2lRSUpMUUQ1Z3dBMnNZbElkbWFwWFU5NFI3RGZjMkJpM1lOTEswNXRFTDhLRmV6VnI4Q0JLM3pySTJ1QktBSFY1NDN4em9raGJ4RERBWUFzeVlPMDAtN0dRRUxVYVd4LUllRVRrN3hvSnVEMVdpT3Z2eFdBUHBoakpON1F2R2ZHOC1oR0g4ZWxpY2ZnMDNzTmNqU0NkcUF1V0pYdTRkRUNDc25BT19rUnl2dHBFMTBBQ1k?oc=5</t>
   </si>
   <si>
-    <t>impulsa, sismo</t>
-  </si>
-  <si>
     <t>Opinión: Bogotá camina insegura y el alcalde no es Petro</t>
   </si>
   <si>
@@ -6778,9 +6766,6 @@
     <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOWGdMcVdjNndScktMSEZiaXhNb25NdGZYWDJGZnNVOURoTmZQWVNFNk5tVHJNUjMzWEJIdFVBeDVaX2FNbDdqbUk4RW1CWXJTVDcwY3k2b2dZZy1ING8yV185T1lUUnBIclBOSC1zOHBjbzhVbVgzTzFWNWJiRlZvTlM5elg3cmZKQWhOSWRyYy1BWXowTHoyUWhqb1MtaFE0bURhMFVrZWx0T2IyQ1JvRDRRTjRzTUJyZFpDedIBwgFBVV95cUxQZkJ6QWdvNFNLOFdEbkEwQTl4OTBnLXk1bDhVcm9HSk1XOGFDdzRvNkFiQVlscUhiUFdLNmRva2Z4YXpzdGNSYnp0NktuRmptdmpNWEFheENCS0hud3N3b2RLd190MkRXNlJxSmFTeDY1SVB0T3RzM2xibDVPb0tfcHo0QjhFUXhWSVludFkwZzBkTWV6dmdyYlItVGd5OHBkNFF1YnZ2VTRZX3lpY19ySUYzYWxSa3VnS3lUb1dmS2R3UQ?oc=5</t>
   </si>
   <si>
-    <t>dura, denuncian, militares</t>
-  </si>
-  <si>
     <t>Gobierno Petro buscaba plata con la tributaria, pero cuatro sectores tienen $18 billones de inversión sin ejecutar | El Colombiano</t>
   </si>
   <si>
@@ -6793,9 +6778,6 @@
     <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxOc1ZuNTh3RjA5NnFpWXNzX04waHEwMWJ3UkFONzIwTTcxVDBCNEdJbUhyZ0x1R2Z3ckVrNkxRYlVadmNGY2FUQzZfVUFlUGpxdlFPQ3ZVQ1BuZW9DUHZDMnBqdk05U19HMVVXWW9MQm5PZ3lmLU1Nb2R4LWNUMGlzU09oUUU2MWVodUJHZlpnSWNocVhuSlQxYnZkSm4yaEZJc0lncDV4SHHSAa4BQVVfeXFMTUk1al9Wa3FIbUlobGdVcnlNTGp5V3dOQm9MOTEweTBpcGxjbThVOXZjQVZMQ1Q0ZXNDanFzWVgwNENOUUVSbF96WWpocDBJdDNqSEM5MFV4dVo3bFdCTkRJcENQamlqQ0pUdGFERDRSRFJkcWdfWU92ekdtN1ZCamRqWFRQN29pal9RTDVqV3ZycVc1NXdJbHNuUElUYjFXZ3VzMVhnOWdxbmlOUkN3?oc=5</t>
   </si>
   <si>
-    <t>crisis, mal</t>
-  </si>
-  <si>
     <t>Petro propone amnistía general y gobierno de transición para Venezuela | El Colombiano</t>
   </si>
   <si>
@@ -6832,9 +6814,6 @@
     <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQd0hCcEhQMldxQXFma2FoZzNkVmQyZHF2bHZKTXJFc1psUzJZaWd6eUtLWWJyRV9RV1FMYnl5ZjFoODNDYWFnQjlzUlVpdXZYR0NhTmpRaHI0NTJyb0RtZGFDMUxlZHNWNVpYOXpLT0tnS3FHcmRrZUh2Snh0NUdpcTFXNm1sOU00dzM5V2c3dTljeHhkMHdLRFJZZ0VnQzFId0E3MWZvQXlnTHky?oc=5</t>
   </si>
   <si>
-    <t>dura, duro</t>
-  </si>
-  <si>
     <t>Primicia | Petro sacaría al ministro Florián después de que se hunda esa cartera en el Congreso | El Colombiano</t>
   </si>
   <si>
@@ -6889,9 +6868,6 @@
     <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQU3RlZHVDT0VfSUZBUXVaNzNoYXBhTE1IN19VVGdxdjlIX25WOEhQSnJHa1dIZEJ4UXpYNlcxQy1lSWg3T3VHR0djaFVwS3BfaFlXTWFBZ0ZPMDl2b3gtbnJzR3pqbFR0SGdCbHJJamNrVjA3M1IzblJnUVZIY25aOXRHTWRmWll0Q0p5amZtbEI4RXBHQkE1aEZoYnMteFlhOU05WmRNeGlSUEVKZC1WWTJOTDhudVRlQXZIUktRRThRTUNHSzcySXB2c3lYaEdXWF9aZ0ZUb2MyZEHSAfYBQVVfeXFMUHA2ZXBmblA3X0NoZ0ZJWHZKSHJaeklkUURiWnpVVDlzSVlET3Foam1HeFl4bWpOQ2ZtY2h3VTdOREFMU0dTWFF2UFpFQ3NMVjJOUzZqNmg4dWhneVU0YWZxQzdoRnctZnoxcGNiWWNlYWV3UXFCek9RSVpvbEhHNlprSG5OUkJrTlNzSDMwQWNWTmJudGp5aTRBdlByNVVnY2FuMzNlN1k5R3R6Q0hiTmNzNmcyZ1NMUGZPeDktcnhhWjdlNnVXS2Q0SlNqalpVOHppVmhqaWNaQW9RS21nMExTcFBxdEFyQkcyTWo1OVBaRTNWMTBB?oc=5</t>
   </si>
   <si>
-    <t>dura, denuncian</t>
-  </si>
-  <si>
     <t>‘Pactar con criminales trae consecuencias’: reacciones a la advertencia de Trump a Petro de que “será el siguiente”</t>
   </si>
   <si>
@@ -6916,9 +6892,6 @@
     <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNc0dhQllPRlVqdXR1X3RnbkNkWVZ0cG1kRTN1ZmxoLWFOeVM5TlRPNTNyUXNPYnRyTUViZXBRZjBJdHZRZzhpQzFmb3phXzhOcnZwcU1leWtuU0FieFRaaDl1X0RZUXBoTFY4VEJIWVZ6NklZU2Y3T054UHJ0V2k5WDRhRS1hd21QUzRpM25MXy1DOEVTNHdwLUxQTGdMUzhhWXdmTHpjMmpEWXhSNW5mWklQdEk1WWJIOGpuTGRKNzAwX05uUXhsbi0xTnHSAdoBQVVfeXFMTS1yX1pmV1ZUemRsMXU5dTloTUJncTVjeUI1YWwxWmRxTGVSNkVpQTFFczJZajRRUlhGdlhyN29OelBWMmNZOUdyeGVIejA2clNMN09OdENZM2JOenRYWmc1ek1XS1ZjbHF1ajluczI3dmExLWJrV08zejhvOTdodjlsTFctNHFMY3VoempwTC0wOVpJNmYyNEtBVm8yRHdmdjlWUU5hWkxSdnZvd0xUMHlVVC1vUHdoM2hGY0pIcG1YQ0dEeXVRMllvemlNRUxNazJqaDZHUGNoTHc?oc=5</t>
   </si>
   <si>
-    <t>avance, débil</t>
-  </si>
-  <si>
     <t>"Es hora de una amnistía general y un Gobierno de transición": Petro sobre Venezuela</t>
   </si>
   <si>
@@ -6967,9 +6940,6 @@
     <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWFdNSU5DcjFaN0loa1pWYTR2X0tZS3FjUlZ5UU9xdFJ3X1NKTTJwaGYzUnNrNk5wWjZiOFRGaWN2VE5KTXZuc2xMbEs1OVNfT0o0Z2dSaFdxX3VlNHJ1ZXp3RmhZbzEySUlLNS1nd0FXRUhKbndzMTNFbUJETVQ4LTIzTW9fX3pNLXNOLU5uVVJnb29zVktfQXMwMUg0bnlMVzdj0gGoAUFVX3lxTFB0SmJkOUdjY2lHaVl3UDN6Zzh4empOQlBlaWdYeldNQVpPS0dvaHJZTmJUTG05aUpDWVJuN2ZFeDlSVXJyQU9QeDdGQzc1UzlHb1d4WU9ma0VyWS1Mc19aZm81YkRySHpPWkh0OEE0RHFnM3Q0d0wzT0M2dUlpcU5GNkl5M0ZjZE1TUTRsT2tfSWFPaUp2Z016U2VxOUh6WXpIVUZ1ZG9aWg?oc=5</t>
   </si>
   <si>
-    <t>asesinado</t>
-  </si>
-  <si>
     <t>Petro reiteró que quiere darle la Cruz de Boyacá a Karol G y la comparó con otros artistas</t>
   </si>
   <si>
@@ -7072,9 +7042,6 @@
     <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxNX2Zaa0xBeGpBbFF6azNNaElmVlNuNEtBdXNpTWtvVnhRZ2U5X3JoZjJwQmFNR2xPZEtRcWpQRUpqUE1jZkp2TWJITFlRZDRiRDBIejA3U3NFQ3o2VGVJRDZRVzdXc0JSc3FGWUw3MXpUMHhZQjIxLWUtTV9nWFZGTzJZWkhUVVFnbjdwWTJzNmNtb09CVUdiVy1ieWs1eXNrclhsX0dUeDgzWXlFdGNuaUpKb2RsNldKc19yUGJPanNaLXo0bXV5ZUF3aHp6SDh5d1Uxay1XUXplUGxiVFFROUVtU1NvTFQ10gHuAUFVX3lxTE93RjZoeFI4Tkp3RTFyTDYtclpSNEZKWWpTbTNmN05BOVNPMzRaZ25pZkRzcXNma2pVeVJZSlg5aWJVZUQ4V2YzeXJYM0VmUDh6aEptOWdWMnp2WVUzU2poeUxPY19ZaExGUjVVXzZQMWZzbFFSXzJla3FyNkJETDNiQkQtdjdudC0wOElMbXpRcS11LVVfb3JwaE5BMVJ4cDUweWV5ajNEV1NtQk5WMHJCUUxKWGktLWRSa21TUnA0djBFbzM1cmtHUGppSk83ZmdEZF9uUFhGTDhBblFqa08zWW14a21YRGRXYlFPNWc?oc=5</t>
   </si>
   <si>
-    <t>celebra, duro</t>
-  </si>
-  <si>
     <t>Presidente Petro denuncia que “lancheros bombardeados” hallados en Colombia podrían ser dominicanos</t>
   </si>
   <si>
@@ -7087,9 +7054,6 @@
     <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPbC12c0hMOVJLTFBSVTFYU25wS215dmdHYjdDMHRLZnVreTdpSHNTLTlCVVZGb0hSQ1A1UE16SmxrT3RiS282c1doUEM4Y2EyYTRFOUxEMG9OdWl4SzcybUJyaFJENGR3U1VpRmkxT0VSU0l4SU8xSk9aWVNsZlhZdEZES2I1cFY2TVBNaDNJVE0ybFZINkJoMEtMb0loU2JQT3fSAacBQVVfeXFMUHlEekVVUjdsaXJoRnB1U3VaaklRNUVOVjRGQkUzX3pyWmRpZWp6Skx2QVp2SHBlaDBxVmJLQlE5NVBHV0NHaVVuc0ZNYVpodjJ4d3F3QzhpM1VsU2NaVGtMT0lQNk1BT0t3dmFKMXZRVFdjWk84MjdhaTFxajVTMzBqdGREUkRfSHp0Qmc2by11S3p2U0lPdklVUnpDTEQtNFhKZXVGdm8?oc=5</t>
   </si>
   <si>
-    <t>crisis, bombardeo</t>
-  </si>
-  <si>
     <t>Los reclamos de Margarita Rosa de Francisco a Petro</t>
   </si>
   <si>
@@ -7192,9 +7156,6 @@
     <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPSXo2VTBwMVRaaW93RzZ0dWpIZlJhRGNFZ1lMaHByUzBKeVdIUUt0N2MwVmRJbTlIekRzQnA5OTJ0VlR4NUdTX1hJSDE3a1owT1otVHNXV1BEUHhBQk9pVkUtaFBZMzBNenZLSFNtWGN6aGhDTzAxS3NWVlpoelB6aHhVQ0h3ZTg1eUtoVHI0eENCRWhWakdzTG54YmFCN3ZBS2xwQmZR?oc=5</t>
   </si>
   <si>
-    <t>problema, grave</t>
-  </si>
-  <si>
     <t>Trump advierte a Petro: "Va a meterse en grandes problemas si no espabila"</t>
   </si>
   <si>
@@ -7249,27 +7210,18 @@
     <t>https://news.google.com/rss/articles/CBMihgJBVV95cUxQUTJEQXZwSWZsa2ozNE1za0hqaXlLZ041WDdoelhtZ3hLUDdkUnNkMFNIWXk1SXVpLWxxUkdzZTF3TF9XQ2JmaHVIMlFwcFZZM2JyODdSQnJZOUVmSVpSREhsaElabF9kdW16YUkyWG1fRzJoMWlVM25IbTl6bldza1hPZUstZk5UMDRlSkZFcnQ0WFRwUWZhV0ItcWZ0Q3RRcloyWDRRTnZYZDk2MzVmazBYWFJIRFcxUXVhOEhhWkE3YTVWekN1RWpwQ0ktcU85cWVhcFhUVG9aNGE1NDM0VE1zbjV2bTJZYXlCcGkwOGw2SlNOTDJTeHZMM0NhLW9yOGNXT3JR0gGgAkFVX3lxTE00bEhkZHl4MnhaZDlBZmJOLXo4MnJFN21GZ0ZvcmFzdUVhR2lIdkJKZVNhREswdFNGdWRobTNNTG5oT19SMDJnbXJqclVCOXVjSjJkenBuMl91cjNNVWJiSEx2SVFJNnk0YnhQdWJKTUgyTlMwemlfc2t5c0liVVVhZkJRRUZlc21tTWFRaGtJYzhTQjNwaE92enZHS0hxMDFoMmFXOHMzYzZLYUNza09WSTU1WWtaQ05Ca2xlZkZfWTA0Mk1aYUhyaEYwVEdFeHFRV0VhSUpPSk0ybmdENmlHWGo0aTFUVVl3Slh4eWMySUx3MWFlOUFWWmF1OWxBWTkwY0JrckctOXhVOWRDMXJSSjR6TXljRWphdGdBVm80MQ?oc=5</t>
   </si>
   <si>
-    <t>problema, dura</t>
-  </si>
-  <si>
     <t>Nicolás Maduro lanzó polémica propuesta de alianza a Petro ante crisis con EE. UU.: “Tenemos que refundar la Gran Colombia”</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxOWGFWbUxiV1g2Vm55NFlPNkp4YVU5d0lYZ3gzZHc4aTJTNGVlaklISUN3a0ZLLTdyM1R6SExJMlY0c1RiU0NDalR4cDZRMUFjRnMwUnpTMWM0eWdjRUo2UEtIWl91cm9uSmdyNlFlc3kzT29CVWRpeEgxblcxVVNBVDYxT0NSMk9ZV0paaU5rMVkyS0g0cllDQlN0VDlJNlRuaDA3aVVhUVI1VVlINkM3QTgxeHVhUG5VWmRZRUdiam5pZElZWnltWmxGWk1HdVhMODNiemRyRGsyV3VFV0hETXBwWDVZRU50X2ZoaFJvSFY1czV0b2fSAZACQVVfeXFMTU1ZT1lnSExZc3NfdUFJX1pLNk0yaUV4NHBzZ1l3UjJKVHoyNmRoSVBIOHotV2pSNDVGVktwMTkzOFhpb1R2ZkV1ak12REgyc0FYdms0emM3cVBpVTlMQU9OOXJHczJPekZtWkYyUEJOMEp3b0hENlFFTUd2bjhBRnZJYkJlQ0VjWHVPSWJwcWF4Y3Rva2hqOXhlYlNkVjY4aXpwWHVwY1I5NS1Ycmc0dTlEdVVQLU5UZGpXWGZ2bzB2U2pIR0Z2VFBFTmdRbWU1U1dUS1N5aE1fTHp5a3JjbWFETk1icmtrOUxrY0g0NkE2NXZQTDRjR0RCQ08zY0JUMUxIQzhrbVpMM1h4ZmlWb2Q?oc=5</t>
   </si>
   <si>
-    <t>crisis, duro, polémica</t>
-  </si>
-  <si>
     <t>Francisco Barbosa afirma que “Petro le entregó el país a los narcotraficantes” tras cifras sobre operativos</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxOQVFhbWR1TU5vMUk5NF9IUkdENE9NZUZpaDJ3Z1VHOE1zczBFWWlud1lCSWNZLUhERmxTVzBsNGgxYVlqWEw3YkJyYUdmdkhkYm9xR2Y2YVZuODZvYzJ2NHg4V2tRVGE5aTdlNkx1OXdGR25sUFpoUEtFNkQ5dl9sN2tJdXpFVHhvcTFhZGkxLTJ2VExKQzhwX3gwZ2pjdjJvZGxZNGRlQTJsTFNzUFlid3NkWFVkblJraXpBc0ZQRjhFTVhZXzY4ZDdWMld1UnU1bVg3aFFKOVhIRHprdjctQmItTXHSAf8BQVVfeXFMTVpoODlfeUpSaG9oSS02dS1leXg5RTlSZUdxMFVDMEJiNzJZejAwcEFPUUdONkxnVGpEXzF4RXVYRWhEc3Z0cXcwV1BMNWVUS0VqZk9JcE01N2xHQXFfd3NlMHVyWDAzUVFEcExWY1pBNDVQOV9Na0ZtY0xXanpCRGZCMURTWWVBV0JkMnpkblVROG9temRtZlNia0dKR0N6RUV1YkxETDh6YmlhYkJUNEd4OUlpcEYxSkx5aklmRWozT1JNUEQ0bHYtYndPNUd5ZWRpc1oyWWR1c1hFY1pWb0loMWY4UjVZS21lSEVaV2V4OG5CZWNvV2dVZ3hLMTg0?oc=5</t>
   </si>
   <si>
-    <t>narco, narcotraficantes, narcotraficante, operativos</t>
-  </si>
-  <si>
     <t>La agenda busca “radicalizar” decisiones impulsadas por el Gobierno: Uribe sobre reunión de Iván Cepeda con AmCham</t>
   </si>
   <si>
@@ -7286,9 +7238,6 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxNNjI5bExtczdqUUwzc01sdlFwZ2NwS0tSVjJSdmZGeUxIWGxJOWc3VGExZHBVNjN3OUozTUl1ZWUxRllLNmlzNmxseGp2QjBGWWROT1lVQ19WUlc2TnJ3RFJCakNBRGQtbF9sb0hFX1ZIOVRfR3BLOFVlcEV6UXlOVEp3MUpmR3hKdEFLOG5XVzliVndXdWxoci1JbkZGMWlpOHlkcVF4TklYOVVzX2Q1QW83SjVVaG5mSzI3cnRDNmNfd2lES3BZcHFIQ01LVzhlMmFXVmgwUUJrMEdQWkJmVmtFY0tVVDREcE0yV3k3cDVSWVhTRWRjek1nMWp1TzN1ZXBjX2MtOF8zWVFMVGhXSmUyUdIBrgJBVV95cUxOLU8wNFk5NXh0RG1hM2wtbEQtTlhyaXA2cjVDeGt0OG1GU3pEY0RpckZocVZ3OXd5eUZKQXZzLUtfbk01VlZfMGtfVGRIMVdER0NXT292bnBPUDI4cW1zNlE2czkzVEZvY1U0c1NlVmJuaENWUEJSeFFxUUFudFdjVkRySDV3d3p0NTRFa2EzelMzSEN6Tmo5blA5UkgwUFNNa1VGaEd4WGhYbng4ZjZ4ZEszUVQ2T0tTVEsyT0ZYTDFwdkhRUXZacE1ZczBkMkM4aklYRUNiQzhlRnpxYXY3YTZzQ2NUdjB4b1FKcWkxNXBjd1FkN3R3YXJfcEd3eHJaWXJ2X1U1Y2dDZU1BNW9HRkhpT3VTQV9ZeklXSW1qX3l2R0NEN0pkNnhrVUNkdw?oc=5</t>
-  </si>
-  <si>
-    <t>narco, narcotraficantes, narcotraficante</t>
   </si>
   <si>
     <t>Álvaro Uribe cuestionó reunión de AmCham con Iván Cepeda y advirtió riesgos para el sector: “No puede legitimar esas propuestas”</t>
@@ -28773,6 +28722,9 @@
       <c r="F766" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G766" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H766" t="s">
         <v>31</v>
       </c>
@@ -28796,7 +28748,9 @@
       <c r="F767" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G767" s="3"/>
+      <c r="G767" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H767" s="3" t="s">
         <v>2012</v>
       </c>
@@ -28806,10 +28760,10 @@
         <v>46002</v>
       </c>
       <c r="B768" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C768" s="4" t="s">
         <v>2016</v>
-      </c>
-      <c r="C768" s="4" t="s">
-        <v>2017</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>31</v>
@@ -28818,6 +28772,9 @@
         <v>1439</v>
       </c>
       <c r="F768" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G768" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H768" t="s">
@@ -28829,10 +28786,10 @@
         <v>46002</v>
       </c>
       <c r="B769" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C769" s="4" t="s">
         <v>2018</v>
-      </c>
-      <c r="C769" s="4" t="s">
-        <v>2019</v>
       </c>
       <c r="D769" s="3" t="s">
         <v>83</v>
@@ -28841,6 +28798,9 @@
         <v>1054</v>
       </c>
       <c r="F769" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G769" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H769" t="s">
@@ -28852,10 +28812,10 @@
         <v>46002</v>
       </c>
       <c r="B770" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C770" s="4" t="s">
         <v>2020</v>
-      </c>
-      <c r="C770" s="4" t="s">
-        <v>2021</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>79</v>
@@ -28866,7 +28826,9 @@
       <c r="F770" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G770" s="3"/>
+      <c r="G770" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H770" s="3" t="s">
         <v>79</v>
       </c>
@@ -28876,10 +28838,10 @@
         <v>46002</v>
       </c>
       <c r="B771" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C771" s="4" t="s">
         <v>2022</v>
-      </c>
-      <c r="C771" s="4" t="s">
-        <v>2023</v>
       </c>
       <c r="D771" s="3" t="s">
         <v>92</v>
@@ -28890,7 +28852,9 @@
       <c r="F771" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G771" s="3"/>
+      <c r="G771" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H771" s="3" t="s">
         <v>92</v>
       </c>
@@ -28900,10 +28864,10 @@
         <v>46002</v>
       </c>
       <c r="B772" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C772" s="4" t="s">
         <v>2024</v>
-      </c>
-      <c r="C772" s="4" t="s">
-        <v>2025</v>
       </c>
       <c r="D772" s="3" t="s">
         <v>36</v>
@@ -28912,6 +28876,9 @@
         <v>106</v>
       </c>
       <c r="F772" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G772" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H772" t="s">
@@ -28923,10 +28890,10 @@
         <v>46002</v>
       </c>
       <c r="B773" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C773" s="4" t="s">
         <v>2026</v>
-      </c>
-      <c r="C773" s="4" t="s">
-        <v>2027</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>86</v>
@@ -28935,6 +28902,9 @@
         <v>106</v>
       </c>
       <c r="F773" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G773" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H773" t="s">
@@ -28946,10 +28916,10 @@
         <v>46002</v>
       </c>
       <c r="B774" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C774" s="4" t="s">
         <v>2028</v>
-      </c>
-      <c r="C774" s="4" t="s">
-        <v>2029</v>
       </c>
       <c r="D774" s="3" t="s">
         <v>40</v>
@@ -28958,6 +28928,9 @@
         <v>32</v>
       </c>
       <c r="F774" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G774" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H774" t="s">
@@ -28969,10 +28942,10 @@
         <v>46002</v>
       </c>
       <c r="B775" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C775" s="4" t="s">
         <v>2030</v>
-      </c>
-      <c r="C775" s="4" t="s">
-        <v>2031</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>36</v>
@@ -28981,6 +28954,9 @@
         <v>32</v>
       </c>
       <c r="F775" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G775" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H775" t="s">
@@ -28992,10 +28968,10 @@
         <v>46002</v>
       </c>
       <c r="B776" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C776" s="4" t="s">
         <v>2032</v>
-      </c>
-      <c r="C776" s="4" t="s">
-        <v>2033</v>
       </c>
       <c r="D776" s="3" t="s">
         <v>62</v>
@@ -29004,6 +28980,9 @@
         <v>32</v>
       </c>
       <c r="F776" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G776" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H776" t="s">
@@ -29015,10 +28994,10 @@
         <v>46002</v>
       </c>
       <c r="B777" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C777" s="4" t="s">
         <v>2034</v>
-      </c>
-      <c r="C777" s="4" t="s">
-        <v>2035</v>
       </c>
       <c r="D777" s="3" t="s">
         <v>17</v>
@@ -29027,6 +29006,9 @@
         <v>32</v>
       </c>
       <c r="F777" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G777" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H777" t="s">
@@ -29038,10 +29020,10 @@
         <v>46002</v>
       </c>
       <c r="B778" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C778" s="4" t="s">
         <v>2036</v>
-      </c>
-      <c r="C778" s="4" t="s">
-        <v>2037</v>
       </c>
       <c r="D778" s="3" t="s">
         <v>26</v>
@@ -29050,6 +29032,9 @@
         <v>32</v>
       </c>
       <c r="F778" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G778" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H778" t="s">
@@ -29061,10 +29046,10 @@
         <v>46002</v>
       </c>
       <c r="B779" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C779" s="4" t="s">
         <v>2040</v>
-      </c>
-      <c r="C779" s="4" t="s">
-        <v>2041</v>
       </c>
       <c r="D779" s="3" t="s">
         <v>86</v>
@@ -29073,6 +29058,9 @@
         <v>32</v>
       </c>
       <c r="F779" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G779" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H779" t="s">
@@ -29084,10 +29072,10 @@
         <v>46002</v>
       </c>
       <c r="B780" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C780" s="4" t="s">
         <v>2042</v>
-      </c>
-      <c r="C780" s="4" t="s">
-        <v>2043</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>31</v>
@@ -29096,6 +29084,9 @@
         <v>32</v>
       </c>
       <c r="F780" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G780" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H780" t="s">
@@ -29107,10 +29098,10 @@
         <v>46002</v>
       </c>
       <c r="B781" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C781" s="4" t="s">
         <v>2046</v>
-      </c>
-      <c r="C781" s="4" t="s">
-        <v>2047</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>40</v>
@@ -29121,7 +29112,9 @@
       <c r="F781" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G781" s="3"/>
+      <c r="G781" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H781" s="3" t="s">
         <v>40</v>
       </c>
@@ -29131,10 +29124,10 @@
         <v>46002</v>
       </c>
       <c r="B782" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C782" s="4" t="s">
         <v>2050</v>
-      </c>
-      <c r="C782" s="4" t="s">
-        <v>2051</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>62</v>
@@ -29145,7 +29138,9 @@
       <c r="F782" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G782" s="3"/>
+      <c r="G782" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H782" s="3" t="s">
         <v>62</v>
       </c>
@@ -29155,10 +29150,10 @@
         <v>46002</v>
       </c>
       <c r="B783" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C783" s="4" t="s">
         <v>2054</v>
-      </c>
-      <c r="C783" s="4" t="s">
-        <v>2055</v>
       </c>
       <c r="D783" s="3" t="s">
         <v>577</v>
@@ -29169,7 +29164,9 @@
       <c r="F783" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G783" s="3"/>
+      <c r="G783" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H783" s="3" t="s">
         <v>577</v>
       </c>
@@ -29179,10 +29176,10 @@
         <v>46002</v>
       </c>
       <c r="B784" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C784" s="4" t="s">
         <v>2056</v>
-      </c>
-      <c r="C784" s="4" t="s">
-        <v>2057</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>577</v>
@@ -29193,7 +29190,9 @@
       <c r="F784" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G784" s="3"/>
+      <c r="G784" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H784" s="3" t="s">
         <v>577</v>
       </c>
@@ -29203,10 +29202,10 @@
         <v>46002</v>
       </c>
       <c r="B785" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C785" s="4" t="s">
         <v>2060</v>
-      </c>
-      <c r="C785" s="4" t="s">
-        <v>2061</v>
       </c>
       <c r="D785" s="3" t="s">
         <v>40</v>
@@ -29217,7 +29216,9 @@
       <c r="F785" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G785" s="3"/>
+      <c r="G785" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H785" s="3" t="s">
         <v>40</v>
       </c>
@@ -29227,10 +29228,10 @@
         <v>46002</v>
       </c>
       <c r="B786" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C786" s="4" t="s">
         <v>2062</v>
-      </c>
-      <c r="C786" s="4" t="s">
-        <v>2063</v>
       </c>
       <c r="D786" s="3" t="s">
         <v>40</v>
@@ -29241,7 +29242,9 @@
       <c r="F786" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G786" s="3"/>
+      <c r="G786" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H786" s="3" t="s">
         <v>40</v>
       </c>
@@ -29251,10 +29254,10 @@
         <v>46002</v>
       </c>
       <c r="B787" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C787" s="4" t="s">
         <v>2064</v>
-      </c>
-      <c r="C787" s="4" t="s">
-        <v>2065</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>62</v>
@@ -29266,7 +29269,7 @@
         <v>23</v>
       </c>
       <c r="G787" s="3" t="s">
-        <v>762</v>
+        <v>23</v>
       </c>
       <c r="H787" s="3" t="s">
         <v>62</v>
@@ -29277,10 +29280,10 @@
         <v>46002</v>
       </c>
       <c r="B788" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C788" s="4" t="s">
         <v>2066</v>
-      </c>
-      <c r="C788" s="4" t="s">
-        <v>2067</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>62</v>
@@ -29291,7 +29294,9 @@
       <c r="F788" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G788" s="3"/>
+      <c r="G788" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H788" s="3" t="s">
         <v>62</v>
       </c>
@@ -29301,10 +29306,10 @@
         <v>46002</v>
       </c>
       <c r="B789" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C789" s="4" t="s">
         <v>2068</v>
-      </c>
-      <c r="C789" s="4" t="s">
-        <v>2069</v>
       </c>
       <c r="D789" s="3" t="s">
         <v>154</v>
@@ -29315,7 +29320,9 @@
       <c r="F789" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G789" s="3"/>
+      <c r="G789" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H789" s="3" t="s">
         <v>154</v>
       </c>
@@ -29325,10 +29332,10 @@
         <v>46002</v>
       </c>
       <c r="B790" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C790" s="4" t="s">
         <v>2070</v>
-      </c>
-      <c r="C790" s="4" t="s">
-        <v>2071</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>86</v>
@@ -29339,7 +29346,9 @@
       <c r="F790" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G790" s="3"/>
+      <c r="G790" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H790" s="3" t="s">
         <v>86</v>
       </c>
@@ -29349,10 +29358,10 @@
         <v>46002</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D791" s="3" t="s">
         <v>676</v>
@@ -29364,7 +29373,7 @@
         <v>23</v>
       </c>
       <c r="G791" s="3" t="s">
-        <v>1795</v>
+        <v>23</v>
       </c>
       <c r="H791" s="3" t="s">
         <v>676</v>
@@ -29375,10 +29384,10 @@
         <v>46002</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D792" s="3" t="s">
         <v>109</v>
@@ -29389,7 +29398,9 @@
       <c r="F792" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G792" s="3"/>
+      <c r="G792" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H792" s="3" t="s">
         <v>109</v>
       </c>
@@ -29399,10 +29410,10 @@
         <v>46002</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>109</v>
@@ -29413,7 +29424,9 @@
       <c r="F793" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G793" s="3"/>
+      <c r="G793" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H793" s="3" t="s">
         <v>109</v>
       </c>
@@ -29423,10 +29436,10 @@
         <v>46002</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D794" s="3" t="s">
         <v>145</v>
@@ -29437,7 +29450,9 @@
       <c r="F794" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G794" s="3"/>
+      <c r="G794" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H794" s="3" t="s">
         <v>145</v>
       </c>
@@ -29447,10 +29462,10 @@
         <v>46002</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D795" s="3" t="s">
         <v>92</v>
@@ -29462,7 +29477,7 @@
         <v>23</v>
       </c>
       <c r="G795" s="3" t="s">
-        <v>1795</v>
+        <v>23</v>
       </c>
       <c r="H795" s="3" t="s">
         <v>92</v>
@@ -29473,10 +29488,10 @@
         <v>46002</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D796" s="3" t="s">
         <v>83</v>
@@ -29487,7 +29502,9 @@
       <c r="F796" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G796" s="3"/>
+      <c r="G796" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H796" s="3" t="s">
         <v>83</v>
       </c>
@@ -29497,10 +29514,10 @@
         <v>46002</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D797" s="3" t="s">
         <v>83</v>
@@ -29511,7 +29528,9 @@
       <c r="F797" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G797" s="3"/>
+      <c r="G797" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H797" s="3" t="s">
         <v>83</v>
       </c>
@@ -29521,10 +29540,10 @@
         <v>46002</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="D798" s="3" t="s">
         <v>36</v>
@@ -29536,7 +29555,7 @@
         <v>23</v>
       </c>
       <c r="G798" s="3" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H798" s="3" t="s">
         <v>36</v>
@@ -29547,10 +29566,10 @@
         <v>46002</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D799" s="3" t="s">
         <v>62</v>
@@ -29561,7 +29580,9 @@
       <c r="F799" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G799" s="3"/>
+      <c r="G799" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H799" s="3" t="s">
         <v>62</v>
       </c>
@@ -29571,10 +29592,10 @@
         <v>46002</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>62</v>
@@ -29585,7 +29606,9 @@
       <c r="F800" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G800" s="3"/>
+      <c r="G800" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H800" s="3" t="s">
         <v>62</v>
       </c>
@@ -29595,10 +29618,10 @@
         <v>46002</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D801" s="3" t="s">
         <v>206</v>
@@ -29609,7 +29632,9 @@
       <c r="F801" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G801" s="3"/>
+      <c r="G801" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H801" s="3" t="s">
         <v>206</v>
       </c>
@@ -29619,10 +29644,10 @@
         <v>46002</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>70</v>
@@ -29634,7 +29659,7 @@
         <v>23</v>
       </c>
       <c r="G802" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H802" s="3" t="s">
         <v>70</v>
@@ -29645,10 +29670,10 @@
         <v>46002</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>86</v>
@@ -29660,7 +29685,7 @@
         <v>23</v>
       </c>
       <c r="G803" s="3" t="s">
-        <v>617</v>
+        <v>23</v>
       </c>
       <c r="H803" s="3" t="s">
         <v>86</v>
@@ -29671,10 +29696,10 @@
         <v>46002</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D804" s="3" t="s">
         <v>11</v>
@@ -29685,7 +29710,9 @@
       <c r="F804" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G804" s="3"/>
+      <c r="G804" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H804" s="3" t="s">
         <v>11</v>
       </c>
@@ -29695,10 +29722,10 @@
         <v>46002</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>577</v>
@@ -29709,7 +29736,9 @@
       <c r="F805" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G805" s="3"/>
+      <c r="G805" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H805" s="3" t="s">
         <v>577</v>
       </c>
@@ -29719,7 +29748,7 @@
         <v>46002</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="C806" s="4" t="s">
         <v>1993</v>
@@ -29733,7 +29762,9 @@
       <c r="F806" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G806" s="3"/>
+      <c r="G806" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H806" s="3" t="s">
         <v>577</v>
       </c>
@@ -29743,10 +29774,10 @@
         <v>46002</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D807" s="3" t="s">
         <v>145</v>
@@ -29757,7 +29788,9 @@
       <c r="F807" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G807" s="3"/>
+      <c r="G807" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H807" s="3" t="s">
         <v>145</v>
       </c>
@@ -29767,10 +29800,10 @@
         <v>46002</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D808" s="3" t="s">
         <v>196</v>
@@ -29781,7 +29814,9 @@
       <c r="F808" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G808" s="3"/>
+      <c r="G808" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H808" s="3" t="s">
         <v>196</v>
       </c>
@@ -29791,10 +29826,10 @@
         <v>46002</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D809" s="3" t="s">
         <v>196</v>
@@ -29805,7 +29840,9 @@
       <c r="F809" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G809" s="3"/>
+      <c r="G809" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H809" s="3" t="s">
         <v>196</v>
       </c>
@@ -29815,18 +29852,21 @@
         <v>46002</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D810" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F810" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G810" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H810" t="s">
@@ -29838,10 +29878,10 @@
         <v>46002</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>26</v>
@@ -29852,7 +29892,9 @@
       <c r="F811" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G811" s="3"/>
+      <c r="G811" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H811" s="3" t="s">
         <v>26</v>
       </c>
@@ -29862,10 +29904,10 @@
         <v>46002</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D812" s="3" t="s">
         <v>92</v>
@@ -29876,7 +29918,9 @@
       <c r="F812" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G812" s="3"/>
+      <c r="G812" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H812" s="3" t="s">
         <v>92</v>
       </c>
@@ -29886,10 +29930,10 @@
         <v>46002</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D813" s="3" t="s">
         <v>83</v>
@@ -29901,7 +29945,7 @@
         <v>20</v>
       </c>
       <c r="G813" s="3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H813" s="3" t="s">
         <v>83</v>
@@ -29912,10 +29956,10 @@
         <v>46002</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D814" s="3" t="s">
         <v>83</v>
@@ -29926,7 +29970,9 @@
       <c r="F814" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G814" s="3"/>
+      <c r="G814" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H814" s="3" t="s">
         <v>83</v>
       </c>
@@ -29936,10 +29982,10 @@
         <v>46002</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D815" s="3" t="s">
         <v>83</v>
@@ -29950,7 +29996,9 @@
       <c r="F815" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G815" s="3"/>
+      <c r="G815" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H815" s="3" t="s">
         <v>83</v>
       </c>
@@ -29960,10 +30008,10 @@
         <v>46002</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D816" s="3" t="s">
         <v>40</v>
@@ -29974,7 +30022,9 @@
       <c r="F816" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G816" s="3"/>
+      <c r="G816" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H816" s="3" t="s">
         <v>40</v>
       </c>
@@ -29984,10 +30034,10 @@
         <v>46002</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D817" s="3" t="s">
         <v>40</v>
@@ -29999,7 +30049,7 @@
         <v>23</v>
       </c>
       <c r="G817" s="3" t="s">
-        <v>771</v>
+        <v>23</v>
       </c>
       <c r="H817" s="3" t="s">
         <v>40</v>
@@ -30010,10 +30060,10 @@
         <v>46002</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D818" s="3" t="s">
         <v>40</v>
@@ -30025,7 +30075,7 @@
         <v>23</v>
       </c>
       <c r="G818" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H818" s="3" t="s">
         <v>40</v>
@@ -30036,10 +30086,10 @@
         <v>46002</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D819" s="3" t="s">
         <v>40</v>
@@ -30051,7 +30101,7 @@
         <v>23</v>
       </c>
       <c r="G819" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H819" s="3" t="s">
         <v>40</v>
@@ -30062,10 +30112,10 @@
         <v>46002</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D820" s="3" t="s">
         <v>40</v>
@@ -30077,7 +30127,7 @@
         <v>23</v>
       </c>
       <c r="G820" s="3" t="s">
-        <v>873</v>
+        <v>23</v>
       </c>
       <c r="H820" s="3" t="s">
         <v>40</v>
@@ -30088,10 +30138,10 @@
         <v>46002</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D821" s="3" t="s">
         <v>206</v>
@@ -30102,7 +30152,9 @@
       <c r="F821" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G821" s="3"/>
+      <c r="G821" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H821" s="3" t="s">
         <v>206</v>
       </c>
@@ -30112,10 +30164,10 @@
         <v>46002</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D822" s="3" t="s">
         <v>559</v>
@@ -30127,7 +30179,7 @@
         <v>23</v>
       </c>
       <c r="G822" s="3" t="s">
-        <v>1490</v>
+        <v>23</v>
       </c>
       <c r="H822" s="3" t="s">
         <v>559</v>
@@ -30138,10 +30190,10 @@
         <v>46002</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D823" s="3" t="s">
         <v>86</v>
@@ -30152,7 +30204,9 @@
       <c r="F823" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G823" s="3"/>
+      <c r="G823" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H823" s="3" t="s">
         <v>86</v>
       </c>
@@ -30162,10 +30216,10 @@
         <v>46002</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>86</v>
@@ -30177,7 +30231,7 @@
         <v>20</v>
       </c>
       <c r="G824" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="H824" s="3" t="s">
         <v>86</v>
@@ -30188,10 +30242,10 @@
         <v>46002</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D825" s="3" t="s">
         <v>66</v>
@@ -30203,7 +30257,7 @@
         <v>20</v>
       </c>
       <c r="G825" s="3" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="H825" s="3" t="s">
         <v>66</v>
@@ -30214,10 +30268,10 @@
         <v>46002</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D826" s="3" t="s">
         <v>395</v>
@@ -30228,7 +30282,9 @@
       <c r="F826" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G826" s="3"/>
+      <c r="G826" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H826" s="3" t="s">
         <v>395</v>
       </c>
@@ -30238,10 +30294,10 @@
         <v>46002</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D827" s="3" t="s">
         <v>196</v>
@@ -30252,7 +30308,9 @@
       <c r="F827" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G827" s="3"/>
+      <c r="G827" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H827" s="3" t="s">
         <v>196</v>
       </c>
@@ -30262,10 +30320,10 @@
         <v>46002</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D828" s="3" t="s">
         <v>31</v>
@@ -30277,7 +30335,7 @@
         <v>20</v>
       </c>
       <c r="G828" s="3" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="H828" s="3" t="s">
         <v>31</v>
@@ -30288,10 +30346,10 @@
         <v>46002</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D829" s="3" t="s">
         <v>31</v>
@@ -30302,7 +30360,9 @@
       <c r="F829" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G829" s="3"/>
+      <c r="G829" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H829" s="3" t="s">
         <v>31</v>
       </c>
@@ -30312,10 +30372,10 @@
         <v>46002</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D830" s="3" t="s">
         <v>83</v>
@@ -30326,7 +30386,9 @@
       <c r="F830" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G830" s="3"/>
+      <c r="G830" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H830" s="3" t="s">
         <v>83</v>
       </c>
@@ -30336,10 +30398,10 @@
         <v>46002</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D831" s="3" t="s">
         <v>40</v>
@@ -30350,7 +30412,9 @@
       <c r="F831" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G831" s="3"/>
+      <c r="G831" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H831" s="3" t="s">
         <v>40</v>
       </c>
@@ -30360,10 +30424,10 @@
         <v>46002</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D832" s="3" t="s">
         <v>40</v>
@@ -30375,7 +30439,7 @@
         <v>23</v>
       </c>
       <c r="G832" s="3" t="s">
-        <v>2185</v>
+        <v>23</v>
       </c>
       <c r="H832" s="3" t="s">
         <v>40</v>
@@ -30386,10 +30450,10 @@
         <v>46002</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="D833" s="3" t="s">
         <v>40</v>
@@ -30401,7 +30465,7 @@
         <v>23</v>
       </c>
       <c r="G833" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H833" s="3" t="s">
         <v>40</v>
@@ -30412,10 +30476,10 @@
         <v>46002</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="D834" s="3" t="s">
         <v>40</v>
@@ -30426,7 +30490,9 @@
       <c r="F834" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G834" s="3"/>
+      <c r="G834" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H834" s="3" t="s">
         <v>40</v>
       </c>
@@ -30436,10 +30502,10 @@
         <v>46002</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="D835" s="3" t="s">
         <v>40</v>
@@ -30450,7 +30516,9 @@
       <c r="F835" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G835" s="3"/>
+      <c r="G835" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H835" s="3" t="s">
         <v>40</v>
       </c>
@@ -30460,10 +30528,10 @@
         <v>46002</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="D836" s="3" t="s">
         <v>36</v>
@@ -30474,7 +30542,9 @@
       <c r="F836" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G836" s="3"/>
+      <c r="G836" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H836" s="3" t="s">
         <v>36</v>
       </c>
@@ -30484,10 +30554,10 @@
         <v>46002</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="D837" s="3" t="s">
         <v>36</v>
@@ -30498,7 +30568,9 @@
       <c r="F837" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G837" s="3"/>
+      <c r="G837" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H837" s="3" t="s">
         <v>36</v>
       </c>
@@ -30508,10 +30580,10 @@
         <v>46002</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="D838" s="3" t="s">
         <v>36</v>
@@ -30523,7 +30595,7 @@
         <v>23</v>
       </c>
       <c r="G838" s="3" t="s">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="H838" s="3" t="s">
         <v>36</v>
@@ -30534,10 +30606,10 @@
         <v>46002</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="D839" s="3" t="s">
         <v>36</v>
@@ -30548,7 +30620,9 @@
       <c r="F839" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G839" s="3"/>
+      <c r="G839" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H839" s="3" t="s">
         <v>36</v>
       </c>
@@ -30558,10 +30632,10 @@
         <v>46002</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="D840" s="3" t="s">
         <v>36</v>
@@ -30573,7 +30647,7 @@
         <v>14</v>
       </c>
       <c r="G840" s="3" t="s">
-        <v>2206</v>
+        <v>14</v>
       </c>
       <c r="H840" s="3" t="s">
         <v>36</v>
@@ -30584,10 +30658,10 @@
         <v>46002</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="D841" s="3" t="s">
         <v>36</v>
@@ -30598,7 +30672,9 @@
       <c r="F841" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G841" s="3"/>
+      <c r="G841" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H841" s="3" t="s">
         <v>36</v>
       </c>
@@ -30608,10 +30684,10 @@
         <v>46002</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="D842" s="3" t="s">
         <v>185</v>
@@ -30622,7 +30698,9 @@
       <c r="F842" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G842" s="3"/>
+      <c r="G842" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H842" s="3" t="s">
         <v>185</v>
       </c>
@@ -30632,10 +30710,10 @@
         <v>46002</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="D843" s="3" t="s">
         <v>185</v>
@@ -30646,7 +30724,9 @@
       <c r="F843" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G843" s="3"/>
+      <c r="G843" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H843" s="3" t="s">
         <v>185</v>
       </c>
@@ -30656,10 +30736,10 @@
         <v>46002</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="D844" s="3" t="s">
         <v>62</v>
@@ -30670,7 +30750,9 @@
       <c r="F844" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G844" s="3"/>
+      <c r="G844" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H844" s="3" t="s">
         <v>62</v>
       </c>
@@ -30680,10 +30762,10 @@
         <v>46002</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D845" s="3" t="s">
         <v>62</v>
@@ -30694,7 +30776,9 @@
       <c r="F845" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G845" s="3"/>
+      <c r="G845" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H845" s="3" t="s">
         <v>62</v>
       </c>
@@ -30704,10 +30788,10 @@
         <v>46002</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="D846" s="3" t="s">
         <v>62</v>
@@ -30718,7 +30802,9 @@
       <c r="F846" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G846" s="3"/>
+      <c r="G846" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H846" s="3" t="s">
         <v>62</v>
       </c>
@@ -30728,10 +30814,10 @@
         <v>46002</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>62</v>
@@ -30742,7 +30828,9 @@
       <c r="F847" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G847" s="3"/>
+      <c r="G847" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H847" s="3" t="s">
         <v>62</v>
       </c>
@@ -30752,10 +30840,10 @@
         <v>46002</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="D848" s="3" t="s">
         <v>62</v>
@@ -30767,7 +30855,7 @@
         <v>20</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>1490</v>
+        <v>20</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>62</v>
@@ -30778,10 +30866,10 @@
         <v>46002</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="D849" s="3" t="s">
         <v>62</v>
@@ -30793,7 +30881,7 @@
         <v>20</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>62</v>
@@ -30804,10 +30892,10 @@
         <v>46002</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D850" s="3" t="s">
         <v>206</v>
@@ -30818,7 +30906,9 @@
       <c r="F850" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G850" s="3"/>
+      <c r="G850" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H850" s="3" t="s">
         <v>206</v>
       </c>
@@ -30828,10 +30918,10 @@
         <v>46002</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="D851" s="3" t="s">
         <v>206</v>
@@ -30842,7 +30932,9 @@
       <c r="F851" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G851" s="3"/>
+      <c r="G851" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H851" s="3" t="s">
         <v>206</v>
       </c>
@@ -30852,10 +30944,10 @@
         <v>46002</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="D852" s="3" t="s">
         <v>206</v>
@@ -30866,7 +30958,9 @@
       <c r="F852" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G852" s="3"/>
+      <c r="G852" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H852" s="3" t="s">
         <v>206</v>
       </c>
@@ -30876,10 +30970,10 @@
         <v>46002</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>206</v>
@@ -30890,7 +30984,9 @@
       <c r="F853" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G853" s="3"/>
+      <c r="G853" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H853" s="3" t="s">
         <v>206</v>
       </c>
@@ -30900,10 +30996,10 @@
         <v>46002</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="D854" s="3" t="s">
         <v>154</v>
@@ -30914,7 +31010,9 @@
       <c r="F854" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G854" s="3"/>
+      <c r="G854" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H854" s="3" t="s">
         <v>154</v>
       </c>
@@ -30924,10 +31022,10 @@
         <v>46002</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="D855" s="3" t="s">
         <v>154</v>
@@ -30939,7 +31037,7 @@
         <v>20</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>2185</v>
+        <v>20</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>154</v>
@@ -30950,10 +31048,10 @@
         <v>46002</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="D856" s="3" t="s">
         <v>154</v>
@@ -30964,7 +31062,9 @@
       <c r="F856" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G856" s="3"/>
+      <c r="G856" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H856" s="3" t="s">
         <v>154</v>
       </c>
@@ -30974,10 +31074,10 @@
         <v>46002</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="D857" s="3" t="s">
         <v>154</v>
@@ -30989,7 +31089,7 @@
         <v>20</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>2256</v>
+        <v>20</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>154</v>
@@ -31000,10 +31100,10 @@
         <v>46002</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>154</v>
@@ -31014,7 +31114,9 @@
       <c r="F858" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G858" s="3"/>
+      <c r="G858" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H858" s="3" t="s">
         <v>154</v>
       </c>
@@ -31024,10 +31126,10 @@
         <v>46002</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>154</v>
@@ -31038,7 +31140,9 @@
       <c r="F859" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G859" s="3"/>
+      <c r="G859" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H859" s="3" t="s">
         <v>154</v>
       </c>
@@ -31048,10 +31152,10 @@
         <v>46002</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>154</v>
@@ -31062,7 +31166,9 @@
       <c r="F860" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G860" s="3"/>
+      <c r="G860" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H860" s="3" t="s">
         <v>154</v>
       </c>
@@ -31072,10 +31178,10 @@
         <v>46002</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="D861" s="3" t="s">
         <v>154</v>
@@ -31086,7 +31192,9 @@
       <c r="F861" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G861" s="3"/>
+      <c r="G861" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H861" s="3" t="s">
         <v>154</v>
       </c>
@@ -31096,10 +31204,10 @@
         <v>46002</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="D862" s="3" t="s">
         <v>154</v>
@@ -31110,7 +31218,9 @@
       <c r="F862" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G862" s="3"/>
+      <c r="G862" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H862" s="3" t="s">
         <v>154</v>
       </c>
@@ -31120,10 +31230,10 @@
         <v>46002</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="D863" s="3" t="s">
         <v>17</v>
@@ -31135,7 +31245,7 @@
         <v>20</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>17</v>
@@ -31146,10 +31256,10 @@
         <v>46002</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="D864" s="3" t="s">
         <v>17</v>
@@ -31160,7 +31270,9 @@
       <c r="F864" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G864" s="3"/>
+      <c r="G864" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H864" s="3" t="s">
         <v>17</v>
       </c>
@@ -31170,10 +31282,10 @@
         <v>46002</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="D865" s="3" t="s">
         <v>17</v>
@@ -31185,7 +31297,7 @@
         <v>23</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>17</v>
@@ -31196,10 +31308,10 @@
         <v>46002</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="D866" s="3" t="s">
         <v>26</v>
@@ -31211,7 +31323,7 @@
         <v>20</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>26</v>
@@ -31222,10 +31334,10 @@
         <v>46002</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="D867" s="3" t="s">
         <v>26</v>
@@ -31236,7 +31348,9 @@
       <c r="F867" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G867" s="3"/>
+      <c r="G867" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H867" s="3" t="s">
         <v>26</v>
       </c>
@@ -31246,10 +31360,10 @@
         <v>46002</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>26</v>
@@ -31261,7 +31375,7 @@
         <v>20</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>2288</v>
+        <v>20</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>26</v>
@@ -31272,10 +31386,10 @@
         <v>46002</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>2291</v>
+        <v>2283</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="D869" s="3" t="s">
         <v>26</v>
@@ -31286,7 +31400,9 @@
       <c r="F869" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G869" s="3"/>
+      <c r="G869" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H869" s="3" t="s">
         <v>26</v>
       </c>
@@ -31296,10 +31412,10 @@
         <v>46002</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
       <c r="D870" s="3" t="s">
         <v>79</v>
@@ -31310,7 +31426,9 @@
       <c r="F870" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G870" s="3"/>
+      <c r="G870" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H870" s="3" t="s">
         <v>79</v>
       </c>
@@ -31320,10 +31438,10 @@
         <v>46002</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="D871" s="3" t="s">
         <v>79</v>
@@ -31335,7 +31453,7 @@
         <v>23</v>
       </c>
       <c r="G871" s="3" t="s">
-        <v>2297</v>
+        <v>23</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>79</v>
@@ -31346,10 +31464,10 @@
         <v>46002</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2298</v>
+        <v>2289</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>2299</v>
+        <v>2290</v>
       </c>
       <c r="D872" s="3" t="s">
         <v>79</v>
@@ -31360,7 +31478,9 @@
       <c r="F872" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G872" s="3"/>
+      <c r="G872" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H872" s="3" t="s">
         <v>79</v>
       </c>
@@ -31370,10 +31490,10 @@
         <v>46002</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2300</v>
+        <v>2291</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>2301</v>
+        <v>2292</v>
       </c>
       <c r="D873" s="3" t="s">
         <v>79</v>
@@ -31385,7 +31505,7 @@
         <v>20</v>
       </c>
       <c r="G873" s="3" t="s">
-        <v>2269</v>
+        <v>20</v>
       </c>
       <c r="H873" s="3" t="s">
         <v>79</v>
@@ -31396,10 +31516,10 @@
         <v>46002</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2304</v>
+        <v>2295</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>2305</v>
+        <v>2296</v>
       </c>
       <c r="D874" s="3" t="s">
         <v>587</v>
@@ -31410,7 +31530,9 @@
       <c r="F874" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G874" s="3"/>
+      <c r="G874" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H874" s="3" t="s">
         <v>587</v>
       </c>
@@ -31420,10 +31542,10 @@
         <v>46002</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2306</v>
+        <v>2297</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>2307</v>
+        <v>2298</v>
       </c>
       <c r="D875" s="3" t="s">
         <v>587</v>
@@ -31435,7 +31557,7 @@
         <v>23</v>
       </c>
       <c r="G875" s="3" t="s">
-        <v>873</v>
+        <v>23</v>
       </c>
       <c r="H875" s="3" t="s">
         <v>587</v>
@@ -31446,10 +31568,10 @@
         <v>46002</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2317</v>
+        <v>2307</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>2318</v>
+        <v>2308</v>
       </c>
       <c r="D876" s="3" t="s">
         <v>70</v>
@@ -31460,7 +31582,9 @@
       <c r="F876" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G876" s="3"/>
+      <c r="G876" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H876" s="3" t="s">
         <v>70</v>
       </c>
@@ -31470,10 +31594,10 @@
         <v>46002</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>2319</v>
+        <v>2309</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="D877" s="3" t="s">
         <v>70</v>
@@ -31484,7 +31608,9 @@
       <c r="F877" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G877" s="3"/>
+      <c r="G877" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H877" s="3" t="s">
         <v>70</v>
       </c>
@@ -31494,10 +31620,10 @@
         <v>46002</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>2322</v>
+        <v>2312</v>
       </c>
       <c r="D878" s="3" t="s">
         <v>70</v>
@@ -31509,7 +31635,7 @@
         <v>23</v>
       </c>
       <c r="G878" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H878" s="3" t="s">
         <v>70</v>
@@ -31520,10 +31646,10 @@
         <v>46002</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2323</v>
+        <v>2313</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>2324</v>
+        <v>2314</v>
       </c>
       <c r="D879" s="3" t="s">
         <v>70</v>
@@ -31535,7 +31661,7 @@
         <v>23</v>
       </c>
       <c r="G879" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H879" s="3" t="s">
         <v>70</v>
@@ -31546,10 +31672,10 @@
         <v>46002</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2327</v>
+        <v>2317</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>2328</v>
+        <v>2318</v>
       </c>
       <c r="D880" s="3" t="s">
         <v>70</v>
@@ -31561,7 +31687,7 @@
         <v>20</v>
       </c>
       <c r="G880" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="H880" s="3" t="s">
         <v>70</v>
@@ -31572,10 +31698,10 @@
         <v>46002</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2333</v>
+        <v>2323</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>2334</v>
+        <v>2324</v>
       </c>
       <c r="D881" s="3" t="s">
         <v>157</v>
@@ -31586,7 +31712,9 @@
       <c r="F881" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G881" s="3"/>
+      <c r="G881" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H881" s="3" t="s">
         <v>157</v>
       </c>
@@ -31596,10 +31724,10 @@
         <v>46002</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>2337</v>
+        <v>2327</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="D882" s="3" t="s">
         <v>89</v>
@@ -31610,7 +31738,9 @@
       <c r="F882" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G882" s="3"/>
+      <c r="G882" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H882" s="3" t="s">
         <v>89</v>
       </c>
@@ -31620,10 +31750,10 @@
         <v>46002</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="D883" s="3" t="s">
         <v>89</v>
@@ -31634,7 +31764,9 @@
       <c r="F883" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G883" s="3"/>
+      <c r="G883" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H883" s="3" t="s">
         <v>89</v>
       </c>
@@ -31644,10 +31776,10 @@
         <v>46002</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="D884" s="3" t="s">
         <v>89</v>
@@ -31659,7 +31791,7 @@
         <v>23</v>
       </c>
       <c r="G884" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H884" s="3" t="s">
         <v>89</v>
@@ -31670,10 +31802,10 @@
         <v>46002</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="D885" s="3" t="s">
         <v>86</v>
@@ -31684,7 +31816,9 @@
       <c r="F885" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G885" s="3"/>
+      <c r="G885" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H885" s="3" t="s">
         <v>86</v>
       </c>
@@ -31694,10 +31828,10 @@
         <v>46002</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2345</v>
+        <v>2335</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="D886" s="3" t="s">
         <v>86</v>
@@ -31708,7 +31842,9 @@
       <c r="F886" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G886" s="3"/>
+      <c r="G886" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H886" s="3" t="s">
         <v>86</v>
       </c>
@@ -31718,10 +31854,10 @@
         <v>46002</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2347</v>
+        <v>2337</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>2348</v>
+        <v>2338</v>
       </c>
       <c r="D887" s="3" t="s">
         <v>86</v>
@@ -31733,7 +31869,7 @@
         <v>23</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>2349</v>
+        <v>23</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>86</v>
@@ -31744,10 +31880,10 @@
         <v>46002</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2350</v>
+        <v>2339</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>2351</v>
+        <v>2340</v>
       </c>
       <c r="D888" s="3" t="s">
         <v>86</v>
@@ -31758,7 +31894,9 @@
       <c r="F888" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G888" s="3"/>
+      <c r="G888" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H888" s="3" t="s">
         <v>86</v>
       </c>
@@ -31768,10 +31906,10 @@
         <v>46002</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>2352</v>
+        <v>2341</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>2353</v>
+        <v>2342</v>
       </c>
       <c r="D889" s="3" t="s">
         <v>140</v>
@@ -31783,7 +31921,7 @@
         <v>20</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>2354</v>
+        <v>20</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>140</v>
@@ -31794,10 +31932,10 @@
         <v>46002</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>2356</v>
+        <v>2344</v>
       </c>
       <c r="D890" s="3" t="s">
         <v>140</v>
@@ -31808,7 +31946,9 @@
       <c r="F890" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G890" s="3"/>
+      <c r="G890" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H890" s="3" t="s">
         <v>140</v>
       </c>
@@ -31818,10 +31958,10 @@
         <v>46002</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
       <c r="D891" s="3" t="s">
         <v>66</v>
@@ -31832,7 +31972,9 @@
       <c r="F891" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G891" s="3"/>
+      <c r="G891" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H891" s="3" t="s">
         <v>66</v>
       </c>
@@ -31842,10 +31984,10 @@
         <v>46002</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
       <c r="D892" s="3" t="s">
         <v>66</v>
@@ -31856,7 +31998,9 @@
       <c r="F892" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G892" s="3"/>
+      <c r="G892" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H892" s="3" t="s">
         <v>66</v>
       </c>
@@ -31866,10 +32010,10 @@
         <v>46002</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="D893" s="3" t="s">
         <v>66</v>
@@ -31881,7 +32025,7 @@
         <v>23</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>617</v>
+        <v>23</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>66</v>
@@ -31892,10 +32036,10 @@
         <v>46002</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>2366</v>
+        <v>2354</v>
       </c>
       <c r="D894" s="3" t="s">
         <v>66</v>
@@ -31906,7 +32050,9 @@
       <c r="F894" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G894" s="3"/>
+      <c r="G894" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H894" s="3" t="s">
         <v>66</v>
       </c>
@@ -31916,10 +32062,10 @@
         <v>46002</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2367</v>
+        <v>2355</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>2368</v>
+        <v>2356</v>
       </c>
       <c r="D895" s="3" t="s">
         <v>676</v>
@@ -31931,7 +32077,7 @@
         <v>20</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>2269</v>
+        <v>20</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>676</v>
@@ -31942,10 +32088,10 @@
         <v>46002</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>2371</v>
+        <v>2359</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>2372</v>
+        <v>2360</v>
       </c>
       <c r="D896" s="3" t="s">
         <v>395</v>
@@ -31957,7 +32103,7 @@
         <v>23</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>395</v>
@@ -31968,10 +32114,10 @@
         <v>46002</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>2373</v>
+        <v>2361</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>2374</v>
+        <v>2362</v>
       </c>
       <c r="D897" s="3" t="s">
         <v>243</v>
@@ -31982,7 +32128,9 @@
       <c r="F897" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G897" s="3"/>
+      <c r="G897" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H897" s="3" t="s">
         <v>243</v>
       </c>
@@ -31992,10 +32140,10 @@
         <v>46002</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>2376</v>
+        <v>2364</v>
       </c>
       <c r="D898" s="3" t="s">
         <v>243</v>
@@ -32006,7 +32154,9 @@
       <c r="F898" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G898" s="3"/>
+      <c r="G898" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H898" s="3" t="s">
         <v>243</v>
       </c>
@@ -32016,10 +32166,10 @@
         <v>46002</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2377</v>
+        <v>2365</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>2378</v>
+        <v>2366</v>
       </c>
       <c r="D899" s="3" t="s">
         <v>243</v>
@@ -32030,7 +32180,9 @@
       <c r="F899" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G899" s="3"/>
+      <c r="G899" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H899" s="3" t="s">
         <v>243</v>
       </c>
@@ -32040,10 +32192,10 @@
         <v>46002</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2379</v>
+        <v>2367</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>2380</v>
+        <v>2368</v>
       </c>
       <c r="D900" s="3" t="s">
         <v>120</v>
@@ -32054,7 +32206,9 @@
       <c r="F900" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G900" s="3"/>
+      <c r="G900" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H900" s="3" t="s">
         <v>120</v>
       </c>
@@ -32064,10 +32218,10 @@
         <v>46002</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2381</v>
+        <v>2369</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>2382</v>
+        <v>2370</v>
       </c>
       <c r="D901" s="3" t="s">
         <v>178</v>
@@ -32078,7 +32232,9 @@
       <c r="F901" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G901" s="3"/>
+      <c r="G901" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H901" s="3" t="s">
         <v>178</v>
       </c>
@@ -32088,10 +32244,10 @@
         <v>46002</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2385</v>
+        <v>2373</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>2386</v>
+        <v>2374</v>
       </c>
       <c r="D902" s="3" t="s">
         <v>109</v>
@@ -32103,7 +32259,7 @@
         <v>20</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>109</v>
@@ -32114,10 +32270,10 @@
         <v>46002</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>2387</v>
+        <v>2375</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>2388</v>
+        <v>2376</v>
       </c>
       <c r="D903" s="3" t="s">
         <v>109</v>
@@ -32129,7 +32285,7 @@
         <v>20</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>2389</v>
+        <v>20</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>109</v>
@@ -32140,10 +32296,10 @@
         <v>46002</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2390</v>
+        <v>2377</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>2391</v>
+        <v>2378</v>
       </c>
       <c r="D904" s="3" t="s">
         <v>109</v>
@@ -32155,7 +32311,7 @@
         <v>20</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>109</v>
@@ -32166,10 +32322,10 @@
         <v>46002</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2394</v>
+        <v>2381</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>2395</v>
+        <v>2382</v>
       </c>
       <c r="D905" s="3" t="s">
         <v>92</v>
@@ -32180,7 +32336,9 @@
       <c r="F905" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G905" s="3"/>
+      <c r="G905" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H905" s="3" t="s">
         <v>92</v>
       </c>
@@ -32190,10 +32348,10 @@
         <v>46002</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2396</v>
+        <v>2383</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>2397</v>
+        <v>2384</v>
       </c>
       <c r="D906" s="3" t="s">
         <v>92</v>
@@ -32204,7 +32362,9 @@
       <c r="F906" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G906" s="3"/>
+      <c r="G906" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H906" s="3" t="s">
         <v>92</v>
       </c>
@@ -32214,10 +32374,10 @@
         <v>46002</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2398</v>
+        <v>2385</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>2399</v>
+        <v>2386</v>
       </c>
       <c r="D907" s="3" t="s">
         <v>92</v>
@@ -32228,7 +32388,9 @@
       <c r="F907" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G907" s="3"/>
+      <c r="G907" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H907" s="3" t="s">
         <v>92</v>
       </c>
@@ -32238,10 +32400,10 @@
         <v>46002</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2402</v>
+        <v>2389</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>2403</v>
+        <v>2390</v>
       </c>
       <c r="D908" s="3" t="s">
         <v>31</v>
@@ -32252,7 +32414,9 @@
       <c r="F908" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G908" s="3"/>
+      <c r="G908" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H908" s="3" t="s">
         <v>31</v>
       </c>
@@ -32262,10 +32426,10 @@
         <v>46002</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2404</v>
+        <v>2391</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>2405</v>
+        <v>2392</v>
       </c>
       <c r="D909" s="3" t="s">
         <v>31</v>
@@ -32277,7 +32441,7 @@
         <v>20</v>
       </c>
       <c r="G909" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="H909" s="3" t="s">
         <v>31</v>
@@ -32288,10 +32452,10 @@
         <v>46002</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>2415</v>
+        <v>2399</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>2416</v>
+        <v>2400</v>
       </c>
       <c r="D910" s="3" t="s">
         <v>26</v>
@@ -32303,7 +32467,7 @@
         <v>20</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>1434</v>
+        <v>20</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>26</v>
@@ -32314,10 +32478,10 @@
         <v>46002</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>2422</v>
+        <v>2405</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>2423</v>
+        <v>2406</v>
       </c>
       <c r="D911" s="3" t="s">
         <v>31</v>
@@ -32329,7 +32493,7 @@
         <v>20</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>771</v>
+        <v>20</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>31</v>
@@ -32340,10 +32504,10 @@
         <v>46002</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2424</v>
+        <v>2407</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>2425</v>
+        <v>2408</v>
       </c>
       <c r="D912" s="3" t="s">
         <v>31</v>
@@ -32354,7 +32518,9 @@
       <c r="F912" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G912" s="3"/>
+      <c r="G912" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H912" s="3" t="s">
         <v>31</v>
       </c>
@@ -32364,10 +32530,10 @@
         <v>46002</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2426</v>
+        <v>2409</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>2427</v>
+        <v>2410</v>
       </c>
       <c r="D913" s="3" t="s">
         <v>1317</v>
@@ -32378,7 +32544,9 @@
       <c r="F913" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G913" s="3"/>
+      <c r="G913" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H913" s="3" t="s">
         <v>1317</v>
       </c>
@@ -32388,10 +32556,10 @@
         <v>46002</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>2430</v>
+        <v>2413</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>2431</v>
+        <v>2414</v>
       </c>
       <c r="D914" s="3" t="s">
         <v>559</v>
@@ -32400,6 +32568,9 @@
         <v>1199</v>
       </c>
       <c r="F914" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G914" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H914" t="s">
@@ -32411,10 +32582,10 @@
         <v>46002</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>2432</v>
+        <v>2415</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>2433</v>
+        <v>2416</v>
       </c>
       <c r="D915" s="3" t="s">
         <v>559</v>
@@ -32425,8 +32596,8 @@
       <c r="F915" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G915" t="s">
-        <v>191</v>
+      <c r="G915" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H915" t="s">
         <v>559</v>
@@ -32437,10 +32608,10 @@
         <v>46002</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>2436</v>
+        <v>2419</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>2437</v>
+        <v>2420</v>
       </c>
       <c r="D916" s="3" t="s">
         <v>62</v>
@@ -32451,8 +32622,8 @@
       <c r="F916" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G916" t="s">
-        <v>405</v>
+      <c r="G916" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H916" t="s">
         <v>62</v>
@@ -32463,10 +32634,10 @@
         <v>46002</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>2438</v>
+        <v>2421</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>2439</v>
+        <v>2422</v>
       </c>
       <c r="D917" s="3" t="s">
         <v>62</v>
@@ -32477,8 +32648,8 @@
       <c r="F917" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G917" t="s">
-        <v>151</v>
+      <c r="G917" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H917" t="s">
         <v>62</v>
@@ -32489,10 +32660,10 @@
         <v>46002</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>2440</v>
+        <v>2423</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>2441</v>
+        <v>2424</v>
       </c>
       <c r="D918" s="3" t="s">
         <v>83</v>
@@ -32501,6 +32672,9 @@
         <v>1212</v>
       </c>
       <c r="F918" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G918" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H918" t="s">
@@ -32512,10 +32686,10 @@
         <v>46002</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>2442</v>
+        <v>2425</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>70</v>
@@ -32524,6 +32698,9 @@
         <v>1465</v>
       </c>
       <c r="F919" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G919" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H919" t="s">
@@ -32535,10 +32712,10 @@
         <v>46002</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>2445</v>
+        <v>2428</v>
       </c>
       <c r="D920" s="3" t="s">
         <v>62</v>
@@ -32547,6 +32724,9 @@
         <v>1465</v>
       </c>
       <c r="F920" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G920" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H920" t="s">
@@ -32558,10 +32738,10 @@
         <v>46002</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2446</v>
+        <v>2429</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>2447</v>
+        <v>2430</v>
       </c>
       <c r="D921" s="3" t="s">
         <v>17</v>
@@ -32570,6 +32750,9 @@
         <v>1465</v>
       </c>
       <c r="F921" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G921" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H921" t="s">
@@ -32581,10 +32764,10 @@
         <v>46002</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2448</v>
+        <v>2431</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>2449</v>
+        <v>2432</v>
       </c>
       <c r="D922" s="3" t="s">
         <v>86</v>
@@ -32595,8 +32778,8 @@
       <c r="F922" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G922" t="s">
-        <v>232</v>
+      <c r="G922" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H922" t="s">
         <v>86</v>
@@ -32607,10 +32790,10 @@
         <v>46002</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2450</v>
+        <v>2433</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>2451</v>
+        <v>2434</v>
       </c>
       <c r="D923" s="3" t="s">
         <v>31</v>
@@ -32619,6 +32802,9 @@
         <v>1465</v>
       </c>
       <c r="F923" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G923" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H923" t="s">
@@ -32630,10 +32816,10 @@
         <v>46002</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2452</v>
+        <v>2435</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>2453</v>
+        <v>2436</v>
       </c>
       <c r="D924" s="3" t="s">
         <v>206</v>
@@ -32644,7 +32830,9 @@
       <c r="F924" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G924" s="3"/>
+      <c r="G924" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H924" s="3" t="s">
         <v>206</v>
       </c>
@@ -32654,10 +32842,10 @@
         <v>46002</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2454</v>
+        <v>2437</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>2455</v>
+        <v>2438</v>
       </c>
       <c r="D925" s="3" t="s">
         <v>83</v>
@@ -32666,6 +32854,9 @@
         <v>93</v>
       </c>
       <c r="F925" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G925" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H925" t="s">
@@ -32677,10 +32868,10 @@
         <v>46002</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>2461</v>
+        <v>2444</v>
       </c>
       <c r="D926" s="3" t="s">
         <v>92</v>
@@ -32689,6 +32880,9 @@
         <v>93</v>
       </c>
       <c r="F926" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G926" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H926" t="s">
@@ -32700,7 +32894,7 @@
         <v>46002</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2462</v>
+        <v>2445</v>
       </c>
       <c r="C927" s="4" t="s">
         <v>1811</v>
@@ -32714,8 +32908,8 @@
       <c r="F927" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G927" t="s">
-        <v>54</v>
+      <c r="G927" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H927" t="s">
         <v>31</v>
@@ -32726,10 +32920,10 @@
         <v>46002</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2463</v>
+        <v>2446</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>2464</v>
+        <v>2447</v>
       </c>
       <c r="D928" s="3" t="s">
         <v>40</v>
@@ -32738,6 +32932,9 @@
         <v>27</v>
       </c>
       <c r="F928" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G928" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H928" t="s">
@@ -32749,10 +32946,10 @@
         <v>46002</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>2467</v>
+        <v>2450</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>2468</v>
+        <v>2451</v>
       </c>
       <c r="D929" s="3" t="s">
         <v>17</v>
@@ -32761,6 +32958,9 @@
         <v>27</v>
       </c>
       <c r="F929" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G929" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H929" t="s">
@@ -32772,10 +32972,10 @@
         <v>46002</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>2469</v>
+        <v>2452</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>2470</v>
+        <v>2453</v>
       </c>
       <c r="D930" s="3" t="s">
         <v>31</v>
@@ -32784,6 +32984,9 @@
         <v>27</v>
       </c>
       <c r="F930" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G930" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H930" t="s">
@@ -32795,10 +32998,10 @@
         <v>46002</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2471</v>
+        <v>2454</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>2472</v>
+        <v>2455</v>
       </c>
       <c r="D931" s="3" t="s">
         <v>79</v>
@@ -32807,6 +33010,9 @@
         <v>128</v>
       </c>
       <c r="F931" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G931" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H931" t="s">
@@ -32818,10 +33024,10 @@
         <v>46002</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2475</v>
+        <v>2458</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>2476</v>
+        <v>2459</v>
       </c>
       <c r="D932" s="3" t="s">
         <v>89</v>
@@ -32830,6 +33036,9 @@
         <v>362</v>
       </c>
       <c r="F932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G932" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H932" t="s">
@@ -32841,10 +33050,10 @@
         <v>46002</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2477</v>
+        <v>2460</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>2478</v>
+        <v>2461</v>
       </c>
       <c r="D933" s="3" t="s">
         <v>277</v>
@@ -32853,6 +33062,9 @@
         <v>362</v>
       </c>
       <c r="F933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G933" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H933" t="s">
@@ -32864,10 +33076,10 @@
         <v>46002</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2481</v>
+        <v>2464</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>2482</v>
+        <v>2465</v>
       </c>
       <c r="D934" s="3" t="s">
         <v>36</v>
@@ -32878,7 +33090,9 @@
       <c r="F934" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G934" s="3"/>
+      <c r="G934" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H934" s="3" t="s">
         <v>36</v>
       </c>
@@ -32888,10 +33102,10 @@
         <v>46002</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2483</v>
+        <v>2466</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>2484</v>
+        <v>2467</v>
       </c>
       <c r="D935" s="3" t="s">
         <v>120</v>
@@ -32903,7 +33117,7 @@
         <v>23</v>
       </c>
       <c r="G935" s="3" t="s">
-        <v>1379</v>
+        <v>23</v>
       </c>
       <c r="H935" s="3" t="s">
         <v>120</v>
@@ -32914,10 +33128,10 @@
         <v>46002</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>2485</v>
+        <v>2468</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>2486</v>
+        <v>2469</v>
       </c>
       <c r="D936" s="3" t="s">
         <v>83</v>
@@ -32928,7 +33142,9 @@
       <c r="F936" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G936" s="3"/>
+      <c r="G936" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H936" s="3" t="s">
         <v>83</v>
       </c>
@@ -32938,10 +33154,10 @@
         <v>46002</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2487</v>
+        <v>2470</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>2488</v>
+        <v>2471</v>
       </c>
       <c r="D937" s="3" t="s">
         <v>83</v>
@@ -32953,7 +33169,7 @@
         <v>14</v>
       </c>
       <c r="G937" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H937" s="3" t="s">
         <v>83</v>
@@ -32964,10 +33180,10 @@
         <v>46002</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2489</v>
+        <v>2472</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>2490</v>
+        <v>2473</v>
       </c>
       <c r="D938" s="3" t="s">
         <v>40</v>
@@ -32979,7 +33195,7 @@
         <v>14</v>
       </c>
       <c r="G938" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H938" s="3" t="s">
         <v>40</v>
@@ -32990,10 +33206,10 @@
         <v>46002</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2491</v>
+        <v>2474</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>2492</v>
+        <v>2475</v>
       </c>
       <c r="D939" s="3" t="s">
         <v>40</v>
@@ -33004,7 +33220,9 @@
       <c r="F939" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G939" s="3"/>
+      <c r="G939" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H939" s="3" t="s">
         <v>40</v>
       </c>
@@ -33014,10 +33232,10 @@
         <v>46002</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2493</v>
+        <v>2476</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>2494</v>
+        <v>2477</v>
       </c>
       <c r="D940" s="3" t="s">
         <v>206</v>
@@ -33028,7 +33246,9 @@
       <c r="F940" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G940" s="3"/>
+      <c r="G940" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H940" s="3" t="s">
         <v>206</v>
       </c>
@@ -33038,10 +33258,10 @@
         <v>46002</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2495</v>
+        <v>2478</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>2496</v>
+        <v>2479</v>
       </c>
       <c r="D941" s="3" t="s">
         <v>26</v>
@@ -33053,7 +33273,7 @@
         <v>14</v>
       </c>
       <c r="G941" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H941" s="3" t="s">
         <v>26</v>
@@ -33064,10 +33284,10 @@
         <v>46002</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2497</v>
+        <v>2480</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>2498</v>
+        <v>2481</v>
       </c>
       <c r="D942" s="3" t="s">
         <v>196</v>
@@ -33079,7 +33299,7 @@
         <v>14</v>
       </c>
       <c r="G942" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H942" s="3" t="s">
         <v>196</v>
@@ -33090,10 +33310,10 @@
         <v>46002</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2501</v>
+        <v>2484</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>2502</v>
+        <v>2485</v>
       </c>
       <c r="D943" s="3" t="s">
         <v>62</v>
@@ -33104,7 +33324,9 @@
       <c r="F943" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G943" s="3"/>
+      <c r="G943" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H943" s="3" t="s">
         <v>62</v>
       </c>
@@ -33114,10 +33336,10 @@
         <v>46002</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2503</v>
+        <v>2486</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>2504</v>
+        <v>2487</v>
       </c>
       <c r="D944" s="3" t="s">
         <v>17</v>
@@ -33128,7 +33350,9 @@
       <c r="F944" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G944" s="3"/>
+      <c r="G944" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H944" s="3" t="s">
         <v>17</v>
       </c>
@@ -33138,10 +33362,10 @@
         <v>46002</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2505</v>
+        <v>2488</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>2506</v>
+        <v>2489</v>
       </c>
       <c r="D945" s="3" t="s">
         <v>66</v>
@@ -33152,7 +33376,9 @@
       <c r="F945" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G945" s="3"/>
+      <c r="G945" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H945" s="3" t="s">
         <v>66</v>
       </c>
@@ -33162,10 +33388,10 @@
         <v>46002</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2507</v>
+        <v>2490</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>2508</v>
+        <v>2491</v>
       </c>
       <c r="D946" s="3" t="s">
         <v>40</v>
@@ -33174,6 +33400,9 @@
         <v>750</v>
       </c>
       <c r="F946" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G946" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H946" t="s">
@@ -33199,6 +33428,9 @@
       <c r="F947" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G947" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H947" t="s">
         <v>31</v>
       </c>
@@ -33222,6 +33454,9 @@
       <c r="F948" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G948" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H948" t="s">
         <v>62</v>
       </c>
@@ -33245,7 +33480,9 @@
       <c r="F949" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G949" s="3"/>
+      <c r="G949" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H949" s="3" t="s">
         <v>79</v>
       </c>
@@ -33270,7 +33507,7 @@
         <v>23</v>
       </c>
       <c r="G950" s="3" t="s">
-        <v>2015</v>
+        <v>23</v>
       </c>
       <c r="H950" s="3" t="s">
         <v>92</v>
@@ -33281,10 +33518,10 @@
         <v>46002</v>
       </c>
       <c r="B951" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C951" s="4" t="s">
         <v>2038</v>
-      </c>
-      <c r="C951" s="4" t="s">
-        <v>2039</v>
       </c>
       <c r="D951" s="3" t="s">
         <v>79</v>
@@ -33293,6 +33530,9 @@
         <v>32</v>
       </c>
       <c r="F951" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G951" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H951" t="s">
@@ -33304,10 +33544,10 @@
         <v>46002</v>
       </c>
       <c r="B952" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C952" s="4" t="s">
         <v>2044</v>
-      </c>
-      <c r="C952" s="4" t="s">
-        <v>2045</v>
       </c>
       <c r="D952" s="3" t="s">
         <v>413</v>
@@ -33318,7 +33558,9 @@
       <c r="F952" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G952" s="3"/>
+      <c r="G952" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H952" s="3" t="s">
         <v>413</v>
       </c>
@@ -33328,10 +33570,10 @@
         <v>46002</v>
       </c>
       <c r="B953" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C953" s="4" t="s">
         <v>2048</v>
-      </c>
-      <c r="C953" s="4" t="s">
-        <v>2049</v>
       </c>
       <c r="D953" s="3" t="s">
         <v>62</v>
@@ -33342,7 +33584,9 @@
       <c r="F953" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G953" s="3"/>
+      <c r="G953" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H953" s="3" t="s">
         <v>62</v>
       </c>
@@ -33352,10 +33596,10 @@
         <v>46002</v>
       </c>
       <c r="B954" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C954" s="4" t="s">
         <v>2052</v>
-      </c>
-      <c r="C954" s="4" t="s">
-        <v>2053</v>
       </c>
       <c r="D954" s="3" t="s">
         <v>587</v>
@@ -33366,7 +33610,9 @@
       <c r="F954" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G954" s="3"/>
+      <c r="G954" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H954" s="3" t="s">
         <v>587</v>
       </c>
@@ -33376,10 +33622,10 @@
         <v>46002</v>
       </c>
       <c r="B955" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C955" s="4" t="s">
         <v>2058</v>
-      </c>
-      <c r="C955" s="4" t="s">
-        <v>2059</v>
       </c>
       <c r="D955" s="3" t="s">
         <v>196</v>
@@ -33390,7 +33636,9 @@
       <c r="F955" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G955" s="3"/>
+      <c r="G955" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H955" s="3" t="s">
         <v>196</v>
       </c>
@@ -33400,10 +33648,10 @@
         <v>46002</v>
       </c>
       <c r="B956" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C956" s="4" t="s">
         <v>2072</v>
-      </c>
-      <c r="C956" s="4" t="s">
-        <v>2073</v>
       </c>
       <c r="D956" s="3" t="s">
         <v>86</v>
@@ -33415,7 +33663,7 @@
         <v>23</v>
       </c>
       <c r="G956" s="3" t="s">
-        <v>2074</v>
+        <v>23</v>
       </c>
       <c r="H956" s="3" t="s">
         <v>86</v>
@@ -33426,10 +33674,10 @@
         <v>46002</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D957" s="3" t="s">
         <v>828</v>
@@ -33440,7 +33688,9 @@
       <c r="F957" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G957" s="3"/>
+      <c r="G957" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H957" s="3" t="s">
         <v>828</v>
       </c>
@@ -33450,10 +33700,10 @@
         <v>46002</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D958" s="3" t="s">
         <v>185</v>
@@ -33464,7 +33714,9 @@
       <c r="F958" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G958" s="3"/>
+      <c r="G958" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H958" s="3" t="s">
         <v>185</v>
       </c>
@@ -33474,10 +33726,10 @@
         <v>46002</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D959" s="3" t="s">
         <v>26</v>
@@ -33488,7 +33740,9 @@
       <c r="F959" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G959" s="3"/>
+      <c r="G959" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H959" s="3" t="s">
         <v>26</v>
       </c>
@@ -33498,10 +33752,10 @@
         <v>46002</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D960" s="3" t="s">
         <v>587</v>
@@ -33512,7 +33766,9 @@
       <c r="F960" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G960" s="3"/>
+      <c r="G960" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H960" s="3" t="s">
         <v>587</v>
       </c>
@@ -33522,10 +33778,10 @@
         <v>46002</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D961" s="3" t="s">
         <v>587</v>
@@ -33536,7 +33792,9 @@
       <c r="F961" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G961" s="3"/>
+      <c r="G961" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H961" s="3" t="s">
         <v>587</v>
       </c>
@@ -33546,10 +33804,10 @@
         <v>46002</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D962" s="3" t="s">
         <v>66</v>
@@ -33560,7 +33818,9 @@
       <c r="F962" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G962" s="3"/>
+      <c r="G962" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H962" s="3" t="s">
         <v>66</v>
       </c>
@@ -33570,10 +33830,10 @@
         <v>46002</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D963" s="3" t="s">
         <v>17</v>
@@ -33584,7 +33844,9 @@
       <c r="F963" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G963" s="3"/>
+      <c r="G963" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H963" s="3" t="s">
         <v>17</v>
       </c>
@@ -33594,10 +33856,10 @@
         <v>46002</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D964" s="3" t="s">
         <v>83</v>
@@ -33608,7 +33870,9 @@
       <c r="F964" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G964" s="3"/>
+      <c r="G964" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H964" s="3" t="s">
         <v>83</v>
       </c>
@@ -33618,10 +33882,10 @@
         <v>46002</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D965" s="3" t="s">
         <v>40</v>
@@ -33633,7 +33897,7 @@
         <v>23</v>
       </c>
       <c r="G965" s="3" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="H965" s="3" t="s">
         <v>40</v>
@@ -33644,10 +33908,10 @@
         <v>46002</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D966" s="3" t="s">
         <v>40</v>
@@ -33658,7 +33922,9 @@
       <c r="F966" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G966" s="3"/>
+      <c r="G966" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H966" s="3" t="s">
         <v>40</v>
       </c>
@@ -33668,10 +33934,10 @@
         <v>46002</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D967" s="3" t="s">
         <v>86</v>
@@ -33682,7 +33948,9 @@
       <c r="F967" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G967" s="3"/>
+      <c r="G967" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H967" s="3" t="s">
         <v>86</v>
       </c>
@@ -33692,10 +33960,10 @@
         <v>46002</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D968" s="3" t="s">
         <v>577</v>
@@ -33706,7 +33974,9 @@
       <c r="F968" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G968" s="3"/>
+      <c r="G968" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H968" s="3" t="s">
         <v>577</v>
       </c>
@@ -33716,10 +33986,10 @@
         <v>46002</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D969" s="3" t="s">
         <v>83</v>
@@ -33731,7 +34001,7 @@
         <v>20</v>
       </c>
       <c r="G969" s="3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H969" s="3" t="s">
         <v>83</v>
@@ -33742,10 +34012,10 @@
         <v>46002</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="D970" s="3" t="s">
         <v>40</v>
@@ -33757,7 +34027,7 @@
         <v>23</v>
       </c>
       <c r="G970" s="3" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="H970" s="3" t="s">
         <v>40</v>
@@ -33768,10 +34038,10 @@
         <v>46002</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="D971" s="3" t="s">
         <v>36</v>
@@ -33782,7 +34052,9 @@
       <c r="F971" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G971" s="3"/>
+      <c r="G971" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H971" s="3" t="s">
         <v>36</v>
       </c>
@@ -33792,10 +34064,10 @@
         <v>46002</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="D972" s="3" t="s">
         <v>62</v>
@@ -33806,7 +34078,9 @@
       <c r="F972" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G972" s="3"/>
+      <c r="G972" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H972" s="3" t="s">
         <v>62</v>
       </c>
@@ -33816,10 +34090,10 @@
         <v>46002</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="D973" s="3" t="s">
         <v>62</v>
@@ -33831,7 +34105,7 @@
         <v>23</v>
       </c>
       <c r="G973" s="3" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="H973" s="3" t="s">
         <v>62</v>
@@ -33842,10 +34116,10 @@
         <v>46002</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="D974" s="3" t="s">
         <v>206</v>
@@ -33856,7 +34130,9 @@
       <c r="F974" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G974" s="3"/>
+      <c r="G974" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H974" s="3" t="s">
         <v>206</v>
       </c>
@@ -33866,10 +34142,10 @@
         <v>46002</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D975" s="3" t="s">
         <v>206</v>
@@ -33880,7 +34156,9 @@
       <c r="F975" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G975" s="3"/>
+      <c r="G975" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H975" s="3" t="s">
         <v>206</v>
       </c>
@@ -33890,10 +34168,10 @@
         <v>46002</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D976" s="3" t="s">
         <v>206</v>
@@ -33904,7 +34182,9 @@
       <c r="F976" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G976" s="3"/>
+      <c r="G976" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H976" s="3" t="s">
         <v>206</v>
       </c>
@@ -33914,10 +34194,10 @@
         <v>46002</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="D977" s="3" t="s">
         <v>206</v>
@@ -33928,7 +34208,9 @@
       <c r="F977" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G977" s="3"/>
+      <c r="G977" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H977" s="3" t="s">
         <v>206</v>
       </c>
@@ -33938,10 +34220,10 @@
         <v>46002</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="D978" s="3" t="s">
         <v>154</v>
@@ -33953,7 +34235,7 @@
         <v>20</v>
       </c>
       <c r="G978" s="3" t="s">
-        <v>2251</v>
+        <v>20</v>
       </c>
       <c r="H978" s="3" t="s">
         <v>154</v>
@@ -33964,10 +34246,10 @@
         <v>46002</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="D979" s="3" t="s">
         <v>154</v>
@@ -33978,7 +34260,9 @@
       <c r="F979" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G979" s="3"/>
+      <c r="G979" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H979" s="3" t="s">
         <v>154</v>
       </c>
@@ -33988,10 +34272,10 @@
         <v>46002</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="D980" s="3" t="s">
         <v>154</v>
@@ -34002,7 +34286,9 @@
       <c r="F980" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G980" s="3"/>
+      <c r="G980" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H980" s="3" t="s">
         <v>154</v>
       </c>
@@ -34012,10 +34298,10 @@
         <v>46002</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="D981" s="3" t="s">
         <v>154</v>
@@ -34027,7 +34313,7 @@
         <v>20</v>
       </c>
       <c r="G981" s="3" t="s">
-        <v>2269</v>
+        <v>20</v>
       </c>
       <c r="H981" s="3" t="s">
         <v>154</v>
@@ -34038,10 +34324,10 @@
         <v>46002</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="D982" s="3" t="s">
         <v>26</v>
@@ -34052,7 +34338,9 @@
       <c r="F982" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G982" s="3"/>
+      <c r="G982" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H982" s="3" t="s">
         <v>26</v>
       </c>
@@ -34062,10 +34350,10 @@
         <v>46002</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="D983" s="3" t="s">
         <v>26</v>
@@ -34076,7 +34364,9 @@
       <c r="F983" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G983" s="3"/>
+      <c r="G983" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H983" s="3" t="s">
         <v>26</v>
       </c>
@@ -34086,10 +34376,10 @@
         <v>46002</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="D984" s="3" t="s">
         <v>79</v>
@@ -34100,7 +34390,9 @@
       <c r="F984" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G984" s="3"/>
+      <c r="G984" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H984" s="3" t="s">
         <v>79</v>
       </c>
@@ -34110,10 +34402,10 @@
         <v>46002</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>2308</v>
+        <v>2299</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>2309</v>
+        <v>2300</v>
       </c>
       <c r="D985" s="3" t="s">
         <v>587</v>
@@ -34124,7 +34416,9 @@
       <c r="F985" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G985" s="3"/>
+      <c r="G985" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H985" s="3" t="s">
         <v>587</v>
       </c>
@@ -34134,10 +34428,10 @@
         <v>46002</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>2310</v>
+        <v>2301</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>2311</v>
+        <v>2302</v>
       </c>
       <c r="D986" s="3" t="s">
         <v>70</v>
@@ -34148,7 +34442,9 @@
       <c r="F986" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G986" s="3"/>
+      <c r="G986" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H986" s="3" t="s">
         <v>70</v>
       </c>
@@ -34158,10 +34454,10 @@
         <v>46002</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>2312</v>
+        <v>2303</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>2313</v>
+        <v>2304</v>
       </c>
       <c r="D987" s="3" t="s">
         <v>70</v>
@@ -34173,7 +34469,7 @@
         <v>20</v>
       </c>
       <c r="G987" s="3" t="s">
-        <v>2314</v>
+        <v>20</v>
       </c>
       <c r="H987" s="3" t="s">
         <v>70</v>
@@ -34184,10 +34480,10 @@
         <v>46002</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>2315</v>
+        <v>2305</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>2316</v>
+        <v>2306</v>
       </c>
       <c r="D988" s="3" t="s">
         <v>70</v>
@@ -34198,7 +34494,9 @@
       <c r="F988" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G988" s="3"/>
+      <c r="G988" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H988" s="3" t="s">
         <v>70</v>
       </c>
@@ -34208,10 +34506,10 @@
         <v>46002</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>2325</v>
+        <v>2315</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>2326</v>
+        <v>2316</v>
       </c>
       <c r="D989" s="3" t="s">
         <v>70</v>
@@ -34222,7 +34520,9 @@
       <c r="F989" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G989" s="3"/>
+      <c r="G989" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H989" s="3" t="s">
         <v>70</v>
       </c>
@@ -34232,10 +34532,10 @@
         <v>46002</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>2329</v>
+        <v>2319</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="D990" s="3" t="s">
         <v>70</v>
@@ -34247,7 +34547,7 @@
         <v>23</v>
       </c>
       <c r="G990" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="H990" s="3" t="s">
         <v>70</v>
@@ -34258,10 +34558,10 @@
         <v>46002</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>2331</v>
+        <v>2321</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>2332</v>
+        <v>2322</v>
       </c>
       <c r="D991" s="3" t="s">
         <v>70</v>
@@ -34272,7 +34572,9 @@
       <c r="F991" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G991" s="3"/>
+      <c r="G991" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H991" s="3" t="s">
         <v>70</v>
       </c>
@@ -34282,10 +34584,10 @@
         <v>46002</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>2335</v>
+        <v>2325</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>2336</v>
+        <v>2326</v>
       </c>
       <c r="D992" s="3" t="s">
         <v>157</v>
@@ -34296,7 +34598,9 @@
       <c r="F992" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G992" s="3"/>
+      <c r="G992" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H992" s="3" t="s">
         <v>157</v>
       </c>
@@ -34306,10 +34610,10 @@
         <v>46002</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
       <c r="D993" s="3" t="s">
         <v>66</v>
@@ -34320,7 +34624,9 @@
       <c r="F993" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G993" s="3"/>
+      <c r="G993" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H993" s="3" t="s">
         <v>66</v>
       </c>
@@ -34330,10 +34636,10 @@
         <v>46002</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>2369</v>
+        <v>2357</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
       <c r="D994" s="3" t="s">
         <v>395</v>
@@ -34344,7 +34650,9 @@
       <c r="F994" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G994" s="3"/>
+      <c r="G994" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H994" s="3" t="s">
         <v>395</v>
       </c>
@@ -34354,10 +34662,10 @@
         <v>46002</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>2383</v>
+        <v>2371</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>2384</v>
+        <v>2372</v>
       </c>
       <c r="D995" s="3" t="s">
         <v>109</v>
@@ -34368,7 +34676,9 @@
       <c r="F995" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G995" s="3"/>
+      <c r="G995" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H995" s="3" t="s">
         <v>109</v>
       </c>
@@ -34378,10 +34688,10 @@
         <v>46002</v>
       </c>
       <c r="B996" s="3" t="s">
-        <v>2392</v>
+        <v>2379</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>2393</v>
+        <v>2380</v>
       </c>
       <c r="D996" s="3" t="s">
         <v>109</v>
@@ -34393,7 +34703,7 @@
         <v>20</v>
       </c>
       <c r="G996" s="3" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="H996" s="3" t="s">
         <v>109</v>
@@ -34404,10 +34714,10 @@
         <v>46002</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>2400</v>
+        <v>2387</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>2401</v>
+        <v>2388</v>
       </c>
       <c r="D997" s="3" t="s">
         <v>31</v>
@@ -34419,7 +34729,7 @@
         <v>23</v>
       </c>
       <c r="G997" s="3" t="s">
-        <v>1239</v>
+        <v>23</v>
       </c>
       <c r="H997" s="3" t="s">
         <v>31</v>
@@ -34430,10 +34740,10 @@
         <v>46002</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>2406</v>
+        <v>2393</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>2407</v>
+        <v>2394</v>
       </c>
       <c r="D998" s="3" t="s">
         <v>31</v>
@@ -34445,7 +34755,7 @@
         <v>20</v>
       </c>
       <c r="G998" s="3" t="s">
-        <v>2408</v>
+        <v>20</v>
       </c>
       <c r="H998" s="3" t="s">
         <v>31</v>
@@ -34456,10 +34766,10 @@
         <v>46002</v>
       </c>
       <c r="B999" s="3" t="s">
-        <v>2409</v>
+        <v>2395</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>2410</v>
+        <v>2396</v>
       </c>
       <c r="D999" s="3" t="s">
         <v>31</v>
@@ -34471,7 +34781,7 @@
         <v>23</v>
       </c>
       <c r="G999" s="3" t="s">
-        <v>2411</v>
+        <v>23</v>
       </c>
       <c r="H999" s="3" t="s">
         <v>31</v>
@@ -34482,10 +34792,10 @@
         <v>46002</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>2412</v>
+        <v>2397</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>2413</v>
+        <v>2398</v>
       </c>
       <c r="D1000" s="3" t="s">
         <v>31</v>
@@ -34497,7 +34807,7 @@
         <v>20</v>
       </c>
       <c r="G1000" s="3" t="s">
-        <v>2414</v>
+        <v>20</v>
       </c>
       <c r="H1000" s="3" t="s">
         <v>31</v>
@@ -34508,10 +34818,10 @@
         <v>46002</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>2417</v>
+        <v>2401</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>2418</v>
+        <v>2402</v>
       </c>
       <c r="D1001" s="3" t="s">
         <v>587</v>
@@ -34522,7 +34832,9 @@
       <c r="F1001" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1001" s="3"/>
+      <c r="G1001" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H1001" s="3" t="s">
         <v>587</v>
       </c>
@@ -34532,10 +34844,10 @@
         <v>46002</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>2419</v>
+        <v>2403</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>2420</v>
+        <v>2404</v>
       </c>
       <c r="D1002" s="3" t="s">
         <v>31</v>
@@ -34547,7 +34859,7 @@
         <v>20</v>
       </c>
       <c r="G1002" s="3" t="s">
-        <v>2421</v>
+        <v>20</v>
       </c>
       <c r="H1002" s="3" t="s">
         <v>31</v>
@@ -34558,10 +34870,10 @@
         <v>46002</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>2428</v>
+        <v>2411</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>2429</v>
+        <v>2412</v>
       </c>
       <c r="D1003" s="3" t="s">
         <v>587</v>
@@ -34572,7 +34884,9 @@
       <c r="F1003" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1003" s="3"/>
+      <c r="G1003" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H1003" s="3" t="s">
         <v>587</v>
       </c>
@@ -34582,10 +34896,10 @@
         <v>46002</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>2434</v>
+        <v>2417</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>2435</v>
+        <v>2418</v>
       </c>
       <c r="D1004" s="3" t="s">
         <v>62</v>
@@ -34596,8 +34910,8 @@
       <c r="F1004" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1004" t="s">
-        <v>771</v>
+      <c r="G1004" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H1004" t="s">
         <v>62</v>
@@ -34608,10 +34922,10 @@
         <v>46002</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>2456</v>
+        <v>2439</v>
       </c>
       <c r="C1005" s="4" t="s">
-        <v>2457</v>
+        <v>2440</v>
       </c>
       <c r="D1005" s="3" t="s">
         <v>92</v>
@@ -34620,6 +34934,9 @@
         <v>93</v>
       </c>
       <c r="F1005" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1005" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1005" t="s">
@@ -34631,10 +34948,10 @@
         <v>46002</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>2458</v>
+        <v>2441</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>2459</v>
+        <v>2442</v>
       </c>
       <c r="D1006" s="3" t="s">
         <v>92</v>
@@ -34643,6 +34960,9 @@
         <v>93</v>
       </c>
       <c r="F1006" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1006" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1006" t="s">
@@ -34654,10 +34974,10 @@
         <v>46002</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>2465</v>
+        <v>2448</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>2466</v>
+        <v>2449</v>
       </c>
       <c r="D1007" s="3" t="s">
         <v>62</v>
@@ -34666,6 +34986,9 @@
         <v>27</v>
       </c>
       <c r="F1007" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1007" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1007" t="s">
@@ -34677,10 +35000,10 @@
         <v>46002</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>2473</v>
+        <v>2456</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>2474</v>
+        <v>2457</v>
       </c>
       <c r="D1008" s="3" t="s">
         <v>89</v>
@@ -34689,6 +35012,9 @@
         <v>362</v>
       </c>
       <c r="F1008" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1008" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1008" t="s">
@@ -34700,10 +35026,10 @@
         <v>46002</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>2479</v>
+        <v>2462</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>2480</v>
+        <v>2463</v>
       </c>
       <c r="D1009" s="3" t="s">
         <v>395</v>
@@ -34712,6 +35038,9 @@
         <v>362</v>
       </c>
       <c r="F1009" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1009" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1009" t="s">
@@ -34723,10 +35052,10 @@
         <v>46002</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>2499</v>
+        <v>2482</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>2500</v>
+        <v>2483</v>
       </c>
       <c r="D1010" s="3" t="s">
         <v>36</v>
@@ -34737,7 +35066,9 @@
       <c r="F1010" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1010" s="3"/>
+      <c r="G1010" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H1010" s="3" t="s">
         <v>36</v>
       </c>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299CA07-EBF7-4B83-9775-504F39A13183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CB2D2-BFA0-469F-A1D2-19F857CC4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5CAA307-58D1-4699-B525-B473CF5DD118}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$1010</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$1009</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7219" uniqueCount="2492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="2490">
   <si>
     <t>Fecha</t>
   </si>
@@ -6041,12 +6041,6 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOdHZDeFhwX1F3ZV9ZRmZiNHN2UUxuSm5hZHlxRW81M0ZzQXFMSHNuU0xwWDdBSHVDRjhJV09zNFF2WmVIZnFaNjI2SlZFOVNTSVFxQ0JjX01xNFZESjZ0RDNYVWVFZVBpNnNqSHBaT281QkFnVE4zM1o3MUU0eFZJS3NEUER2WXBxRnZ0UEcwMWtsQ2Q0VWFzM2pvVUdaVno3Z0xPMkwyNXh6dGczMjFveVN0eFR3cVdmY1Y3U2l30gHSAUFVX3lxTE0yTUdJckNhMm8tTnVwZXg3RWRtT05ZdUxRSHpoYUxVQ2FaaVk0SFY1Z0k5VXZ1SnQxNUdzdlZ1dE5BSEJIS040REZRYmZYM21EcUVFNjBpUmRIRkVLYXVUejZXWVdrWmxaQy03UnN0WjVENkRnWXJOeW1HbUlWUmhrZ0ptdDVUeDJ0S05LakNVS0pzRXRQUi1iQkpkWmdLYnRyZW9CSk5VMGdiLTZGMV9lWWlkcUQ1ZHdCaWJ3YWFqYjFldW5pZVhwS0tnWVJIOVFfUQ?oc=5</t>
-  </si>
-  <si>
-    <t>Uribe calificó de utópica la consulta que él propuso luego de que Abelardo de la Espriella y Sergio Fajardo descartaran su participación: “Me preocupa que no se logre”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxQbHo0MzJabFRHV3JCVVFQbGIzckU1UUdpSS1MYkIwUDM3SzFsNGFmN0RYTHhzbmY1ZWFONndLR3pWUXlraVRTMDBqU0hsNzFuQmZDNG1neU9NN0VXM1FqWWZMR3dSZ013UE5QWWc2ejlQdjRtNVZEMUN2aUo1VHdsUHZLV09KMzlCZ1M2OUU5MWVoVmw1RnF6cm1nRHNjNF9EeTBlei02d19BOXJ2OHBCRXZoeW1TSS1nM2lHN2M2dFBscWJCend1RXZCT19FS3E2VUw0dXA3Zm05UHhzamxoSE56Z1BVa0tMcXZaX3B0RncyR2R3djRxamExYU3SAZcCQVVfeXFMTkpERnZ5ekR4V3dNSDJwdVpjZlQtWnU3VEhxbVBHQjhNVFlUNTUzN3Bza0xPckpLYTNUdzZybEh1MUxlZHZYNFBNZ0lhZkxlSktCVy13MGlCTjBlWlBQaVJCQVVuMkgteUpiTkNvMlZ6WWxJbkhfT2pJZ1p1MUVmX1BWZFcyQ1JNV18zWjQ2dElySkVqTTFVZWk0SkZ4MHNjamwwQXphRHRvR0tNWEZWbzJhVk5TR2ZGMHFSSm1SZ0loQjdESWRfYVZkdTFYWFNtN1FQaGRKZFhFZlRZXzZGQW96QjVaa0FHQlFVYXRMWXVJOXFSOGl3Vms0NDQ2S19PMXdFaTNGVkZSaHk0cFVwWmxoSGFQSWo0?oc=5</t>
   </si>
   <si>
     <t>Entrevista Álvaro Uribe Vélez con Néstor Morales en Mañanas Blu</t>
@@ -8360,9 +8354,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1010"/>
+  <dimension ref="A1:I1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A766" sqref="A766:XFD766"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28708,13 +28704,13 @@
         <v>46002</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>31</v>
+        <v>2010</v>
       </c>
       <c r="E766" s="3" t="s">
         <v>99</v>
@@ -28725,8 +28721,8 @@
       <c r="G766" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H766" t="s">
-        <v>31</v>
+      <c r="H766" s="3" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.3">
@@ -28734,16 +28730,16 @@
         <v>46002</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>2012</v>
+        <v>31</v>
       </c>
       <c r="E767" s="3" t="s">
-        <v>99</v>
+        <v>1439</v>
       </c>
       <c r="F767" s="3" t="s">
         <v>23</v>
@@ -28751,8 +28747,8 @@
       <c r="G767" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H767" s="3" t="s">
-        <v>2012</v>
+      <c r="H767" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.3">
@@ -28766,10 +28762,10 @@
         <v>2016</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E768" s="3" t="s">
-        <v>1439</v>
+        <v>1054</v>
       </c>
       <c r="F768" s="3" t="s">
         <v>23</v>
@@ -28778,7 +28774,7 @@
         <v>23</v>
       </c>
       <c r="H768" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.3">
@@ -28792,7 +28788,7 @@
         <v>2018</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E769" s="3" t="s">
         <v>1054</v>
@@ -28803,8 +28799,8 @@
       <c r="G769" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H769" t="s">
-        <v>83</v>
+      <c r="H769" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.3">
@@ -28818,7 +28814,7 @@
         <v>2020</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E770" s="3" t="s">
         <v>1054</v>
@@ -28830,7 +28826,7 @@
         <v>23</v>
       </c>
       <c r="H770" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.3">
@@ -28844,10 +28840,10 @@
         <v>2022</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E771" s="3" t="s">
-        <v>1054</v>
+        <v>106</v>
       </c>
       <c r="F771" s="3" t="s">
         <v>23</v>
@@ -28855,8 +28851,8 @@
       <c r="G771" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H771" s="3" t="s">
-        <v>92</v>
+      <c r="H771" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.3">
@@ -28870,7 +28866,7 @@
         <v>2024</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E772" s="3" t="s">
         <v>106</v>
@@ -28882,7 +28878,7 @@
         <v>23</v>
       </c>
       <c r="H772" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.3">
@@ -28896,19 +28892,19 @@
         <v>2026</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E773" s="3" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F773" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G773" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H773" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.3">
@@ -28922,7 +28918,7 @@
         <v>2028</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E774" s="3" t="s">
         <v>32</v>
@@ -28934,7 +28930,7 @@
         <v>14</v>
       </c>
       <c r="H774" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.3">
@@ -28948,7 +28944,7 @@
         <v>2030</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E775" s="3" t="s">
         <v>32</v>
@@ -28960,7 +28956,7 @@
         <v>14</v>
       </c>
       <c r="H775" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.3">
@@ -28974,7 +28970,7 @@
         <v>2032</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E776" s="3" t="s">
         <v>32</v>
@@ -28986,7 +28982,7 @@
         <v>14</v>
       </c>
       <c r="H776" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.3">
@@ -29000,7 +28996,7 @@
         <v>2034</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E777" s="3" t="s">
         <v>32</v>
@@ -29012,7 +29008,7 @@
         <v>14</v>
       </c>
       <c r="H777" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
@@ -29020,13 +29016,13 @@
         <v>46002</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E778" s="3" t="s">
         <v>32</v>
@@ -29038,7 +29034,7 @@
         <v>14</v>
       </c>
       <c r="H778" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.3">
@@ -29052,7 +29048,7 @@
         <v>2040</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E779" s="3" t="s">
         <v>32</v>
@@ -29064,7 +29060,7 @@
         <v>14</v>
       </c>
       <c r="H779" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.3">
@@ -29072,25 +29068,25 @@
         <v>46002</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E780" s="3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F780" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G780" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H780" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="H780" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.3">
@@ -29098,13 +29094,13 @@
         <v>46002</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E781" s="3" t="s">
         <v>116</v>
@@ -29116,7 +29112,7 @@
         <v>23</v>
       </c>
       <c r="H781" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.3">
@@ -29124,13 +29120,13 @@
         <v>46002</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
       <c r="E782" s="3" t="s">
         <v>116</v>
@@ -29142,7 +29138,7 @@
         <v>23</v>
       </c>
       <c r="H782" s="3" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.3">
@@ -29176,13 +29172,13 @@
         <v>46002</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>577</v>
+        <v>40</v>
       </c>
       <c r="E784" s="3" t="s">
         <v>116</v>
@@ -29194,7 +29190,7 @@
         <v>23</v>
       </c>
       <c r="H784" s="3" t="s">
-        <v>577</v>
+        <v>40</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.3">
@@ -29234,7 +29230,7 @@
         <v>2062</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E786" s="3" t="s">
         <v>116</v>
@@ -29246,7 +29242,7 @@
         <v>23</v>
       </c>
       <c r="H786" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.3">
@@ -29286,7 +29282,7 @@
         <v>2066</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E788" s="3" t="s">
         <v>116</v>
@@ -29298,7 +29294,7 @@
         <v>23</v>
       </c>
       <c r="H788" s="3" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.3">
@@ -29312,7 +29308,7 @@
         <v>2068</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="E789" s="3" t="s">
         <v>116</v>
@@ -29324,7 +29320,7 @@
         <v>23</v>
       </c>
       <c r="H789" s="3" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.3">
@@ -29332,13 +29328,13 @@
         <v>46002</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>86</v>
+        <v>676</v>
       </c>
       <c r="E790" s="3" t="s">
         <v>116</v>
@@ -29350,7 +29346,7 @@
         <v>23</v>
       </c>
       <c r="H790" s="3" t="s">
-        <v>86</v>
+        <v>676</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.3">
@@ -29364,19 +29360,19 @@
         <v>2074</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>676</v>
+        <v>109</v>
       </c>
       <c r="E791" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F791" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G791" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H791" s="3" t="s">
-        <v>676</v>
+        <v>109</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.3">
@@ -29396,10 +29392,10 @@
         <v>116</v>
       </c>
       <c r="F792" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G792" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H792" s="3" t="s">
         <v>109</v>
@@ -29416,7 +29412,7 @@
         <v>2078</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E793" s="3" t="s">
         <v>116</v>
@@ -29428,7 +29424,7 @@
         <v>23</v>
       </c>
       <c r="H793" s="3" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.3">
@@ -29442,7 +29438,7 @@
         <v>2080</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="E794" s="3" t="s">
         <v>116</v>
@@ -29454,7 +29450,7 @@
         <v>23</v>
       </c>
       <c r="H794" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
@@ -29462,13 +29458,13 @@
         <v>46002</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E795" s="3" t="s">
         <v>116</v>
@@ -29480,7 +29476,7 @@
         <v>23</v>
       </c>
       <c r="H795" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.3">
@@ -29520,7 +29516,7 @@
         <v>2088</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E797" s="3" t="s">
         <v>116</v>
@@ -29532,7 +29528,7 @@
         <v>23</v>
       </c>
       <c r="H797" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.3">
@@ -29540,13 +29536,13 @@
         <v>46002</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E798" s="3" t="s">
         <v>116</v>
@@ -29558,7 +29554,7 @@
         <v>23</v>
       </c>
       <c r="H798" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.3">
@@ -29598,7 +29594,7 @@
         <v>2096</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="E800" s="3" t="s">
         <v>116</v>
@@ -29610,7 +29606,7 @@
         <v>23</v>
       </c>
       <c r="H800" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.3">
@@ -29618,13 +29614,13 @@
         <v>46002</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2097</v>
+        <v>2103</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="E801" s="3" t="s">
         <v>116</v>
@@ -29636,7 +29632,7 @@
         <v>23</v>
       </c>
       <c r="H801" s="3" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.3">
@@ -29650,7 +29646,7 @@
         <v>2106</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E802" s="3" t="s">
         <v>116</v>
@@ -29662,7 +29658,7 @@
         <v>23</v>
       </c>
       <c r="H802" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.3">
@@ -29676,7 +29672,7 @@
         <v>2108</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E803" s="3" t="s">
         <v>116</v>
@@ -29688,7 +29684,7 @@
         <v>23</v>
       </c>
       <c r="H803" s="3" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.3">
@@ -29696,13 +29692,13 @@
         <v>46002</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>11</v>
+        <v>577</v>
       </c>
       <c r="E804" s="3" t="s">
         <v>116</v>
@@ -29714,7 +29710,7 @@
         <v>23</v>
       </c>
       <c r="H804" s="3" t="s">
-        <v>11</v>
+        <v>577</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.3">
@@ -29725,7 +29721,7 @@
         <v>2113</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>2114</v>
+        <v>1993</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>577</v>
@@ -29748,13 +29744,13 @@
         <v>46002</v>
       </c>
       <c r="B806" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C806" s="4" t="s">
         <v>2115</v>
       </c>
-      <c r="C806" s="4" t="s">
-        <v>1993</v>
-      </c>
       <c r="D806" s="3" t="s">
-        <v>577</v>
+        <v>145</v>
       </c>
       <c r="E806" s="3" t="s">
         <v>116</v>
@@ -29766,7 +29762,7 @@
         <v>23</v>
       </c>
       <c r="H806" s="3" t="s">
-        <v>577</v>
+        <v>145</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.3">
@@ -29780,7 +29776,7 @@
         <v>2117</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="E807" s="3" t="s">
         <v>116</v>
@@ -29792,7 +29788,7 @@
         <v>23</v>
       </c>
       <c r="H807" s="3" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.3">
@@ -29832,19 +29828,19 @@
         <v>2121</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>116</v>
+        <v>2122</v>
       </c>
       <c r="F809" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H809" s="3" t="s">
-        <v>196</v>
+        <v>14</v>
+      </c>
+      <c r="H809" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.3">
@@ -29852,25 +29848,25 @@
         <v>46002</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>2124</v>
+        <v>396</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H810" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="H810" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.3">
@@ -29884,7 +29880,7 @@
         <v>2128</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E811" s="3" t="s">
         <v>396</v>
@@ -29896,7 +29892,7 @@
         <v>23</v>
       </c>
       <c r="H811" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.3">
@@ -29910,19 +29906,19 @@
         <v>2130</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E812" s="3" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="F812" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G812" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H812" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.3">
@@ -29930,10 +29926,10 @@
         <v>46002</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="D813" s="3" t="s">
         <v>83</v>
@@ -29968,10 +29964,10 @@
         <v>37</v>
       </c>
       <c r="F814" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G814" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H814" s="3" t="s">
         <v>83</v>
@@ -29988,19 +29984,19 @@
         <v>2138</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E815" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F815" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G815" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H815" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.3">
@@ -30020,10 +30016,10 @@
         <v>37</v>
       </c>
       <c r="F816" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>40</v>
@@ -30034,10 +30030,10 @@
         <v>46002</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="D817" s="3" t="s">
         <v>40</v>
@@ -30118,7 +30114,7 @@
         <v>2152</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E820" s="3" t="s">
         <v>37</v>
@@ -30130,7 +30126,7 @@
         <v>23</v>
       </c>
       <c r="H820" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.3">
@@ -30144,7 +30140,7 @@
         <v>2154</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>206</v>
+        <v>559</v>
       </c>
       <c r="E821" s="3" t="s">
         <v>37</v>
@@ -30156,7 +30152,7 @@
         <v>23</v>
       </c>
       <c r="H821" s="3" t="s">
-        <v>206</v>
+        <v>559</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.3">
@@ -30164,13 +30160,13 @@
         <v>46002</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>559</v>
+        <v>86</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>37</v>
@@ -30182,7 +30178,7 @@
         <v>23</v>
       </c>
       <c r="H822" s="3" t="s">
-        <v>559</v>
+        <v>86</v>
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.3">
@@ -30202,10 +30198,10 @@
         <v>37</v>
       </c>
       <c r="F823" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G823" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H823" s="3" t="s">
         <v>86</v>
@@ -30222,7 +30218,7 @@
         <v>2162</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E824" s="3" t="s">
         <v>37</v>
@@ -30234,7 +30230,7 @@
         <v>20</v>
       </c>
       <c r="H824" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.3">
@@ -30248,7 +30244,7 @@
         <v>2164</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="E825" s="3" t="s">
         <v>37</v>
@@ -30260,7 +30256,7 @@
         <v>20</v>
       </c>
       <c r="H825" s="3" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.3">
@@ -30268,25 +30264,25 @@
         <v>46002</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>395</v>
+        <v>196</v>
       </c>
       <c r="E826" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F826" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G826" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H826" s="3" t="s">
-        <v>395</v>
+        <v>196</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.3">
@@ -30300,19 +30296,19 @@
         <v>2170</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="E827" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F827" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G827" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H827" s="3" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.3">
@@ -30352,7 +30348,7 @@
         <v>2174</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>37</v>
@@ -30364,7 +30360,7 @@
         <v>20</v>
       </c>
       <c r="H829" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.3">
@@ -30372,13 +30368,13 @@
         <v>46002</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E830" s="3" t="s">
         <v>37</v>
@@ -30390,7 +30386,7 @@
         <v>20</v>
       </c>
       <c r="H830" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.3">
@@ -30410,10 +30406,10 @@
         <v>37</v>
       </c>
       <c r="F831" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G831" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H831" s="3" t="s">
         <v>40</v>
@@ -30462,10 +30458,10 @@
         <v>37</v>
       </c>
       <c r="F833" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G833" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H833" s="3" t="s">
         <v>40</v>
@@ -30502,25 +30498,25 @@
         <v>46002</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E835" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F835" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G835" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H835" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.3">
@@ -30540,10 +30536,10 @@
         <v>37</v>
       </c>
       <c r="F836" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G836" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H836" s="3" t="s">
         <v>36</v>
@@ -30566,10 +30562,10 @@
         <v>37</v>
       </c>
       <c r="F837" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G837" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H837" s="3" t="s">
         <v>36</v>
@@ -30618,10 +30614,10 @@
         <v>37</v>
       </c>
       <c r="F839" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G839" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H839" s="3" t="s">
         <v>36</v>
@@ -30644,10 +30640,10 @@
         <v>37</v>
       </c>
       <c r="F840" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G840" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H840" s="3" t="s">
         <v>36</v>
@@ -30664,7 +30660,7 @@
         <v>2204</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>37</v>
@@ -30676,7 +30672,7 @@
         <v>20</v>
       </c>
       <c r="H841" s="3" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.3">
@@ -30696,10 +30692,10 @@
         <v>37</v>
       </c>
       <c r="F842" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>185</v>
@@ -30716,7 +30712,7 @@
         <v>2208</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>37</v>
@@ -30728,7 +30724,7 @@
         <v>23</v>
       </c>
       <c r="H843" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.3">
@@ -30748,10 +30744,10 @@
         <v>37</v>
       </c>
       <c r="F844" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>62</v>
@@ -30774,10 +30770,10 @@
         <v>37</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>62</v>
@@ -30814,10 +30810,10 @@
         <v>46002</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>62</v>
@@ -30826,10 +30822,10 @@
         <v>37</v>
       </c>
       <c r="F847" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>62</v>
@@ -30840,10 +30836,10 @@
         <v>46002</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="D848" s="3" t="s">
         <v>62</v>
@@ -30872,7 +30868,7 @@
         <v>2224</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>37</v>
@@ -30884,7 +30880,7 @@
         <v>20</v>
       </c>
       <c r="H849" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.3">
@@ -30892,10 +30888,10 @@
         <v>46002</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2225</v>
+        <v>2233</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="D850" s="3" t="s">
         <v>206</v>
@@ -30904,10 +30900,10 @@
         <v>37</v>
       </c>
       <c r="F850" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>206</v>
@@ -30976,7 +30972,7 @@
         <v>2240</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="E853" s="3" t="s">
         <v>37</v>
@@ -30988,7 +30984,7 @@
         <v>23</v>
       </c>
       <c r="H853" s="3" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.3">
@@ -31008,10 +31004,10 @@
         <v>37</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>154</v>
@@ -31022,10 +31018,10 @@
         <v>46002</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="D855" s="3" t="s">
         <v>154</v>
@@ -31086,10 +31082,10 @@
         <v>37</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>154</v>
@@ -31100,10 +31096,10 @@
         <v>46002</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>154</v>
@@ -31112,10 +31108,10 @@
         <v>37</v>
       </c>
       <c r="F858" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>154</v>
@@ -31138,10 +31134,10 @@
         <v>37</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>154</v>
@@ -31152,10 +31148,10 @@
         <v>46002</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>154</v>
@@ -31190,10 +31186,10 @@
         <v>37</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>154</v>
@@ -31210,7 +31206,7 @@
         <v>2266</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="E862" s="3" t="s">
         <v>37</v>
@@ -31222,7 +31218,7 @@
         <v>20</v>
       </c>
       <c r="H862" s="3" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.3">
@@ -31268,10 +31264,10 @@
         <v>37</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>17</v>
@@ -31288,19 +31284,19 @@
         <v>2272</v>
       </c>
       <c r="D865" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E865" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H865" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.3">
@@ -31334,10 +31330,10 @@
         <v>46002</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D867" s="3" t="s">
         <v>26</v>
@@ -31360,10 +31356,10 @@
         <v>46002</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>26</v>
@@ -31372,10 +31368,10 @@
         <v>37</v>
       </c>
       <c r="F868" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>26</v>
@@ -31392,19 +31388,19 @@
         <v>2284</v>
       </c>
       <c r="D869" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E869" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F869" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H869" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.3">
@@ -31424,10 +31420,10 @@
         <v>37</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>79</v>
@@ -31476,10 +31472,10 @@
         <v>37</v>
       </c>
       <c r="F872" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G872" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H872" s="3" t="s">
         <v>79</v>
@@ -31490,25 +31486,25 @@
         <v>46002</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="E873" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F873" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G873" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H873" s="3" t="s">
-        <v>79</v>
+        <v>587</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.3">
@@ -31542,13 +31538,13 @@
         <v>46002</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2297</v>
+        <v>2305</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
       <c r="E875" s="3" t="s">
         <v>37</v>
@@ -31560,7 +31556,7 @@
         <v>23</v>
       </c>
       <c r="H875" s="3" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.3">
@@ -31646,10 +31642,10 @@
         <v>46002</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="D879" s="3" t="s">
         <v>70</v>
@@ -31658,10 +31654,10 @@
         <v>37</v>
       </c>
       <c r="F879" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G879" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H879" s="3" t="s">
         <v>70</v>
@@ -31672,25 +31668,25 @@
         <v>46002</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F880" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G880" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H880" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.3">
@@ -31698,13 +31694,13 @@
         <v>46002</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>37</v>
@@ -31716,7 +31712,7 @@
         <v>23</v>
       </c>
       <c r="H881" s="3" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.3">
@@ -31736,10 +31732,10 @@
         <v>37</v>
       </c>
       <c r="F882" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G882" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H882" s="3" t="s">
         <v>89</v>
@@ -31762,10 +31758,10 @@
         <v>37</v>
       </c>
       <c r="F883" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G883" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H883" s="3" t="s">
         <v>89</v>
@@ -31782,19 +31778,19 @@
         <v>2332</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E884" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F884" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G884" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H884" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.3">
@@ -31814,10 +31810,10 @@
         <v>37</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>86</v>
@@ -31886,19 +31882,19 @@
         <v>2340</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E888" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F888" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H888" s="3" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.3">
@@ -31932,13 +31928,13 @@
         <v>46002</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="E890" s="3" t="s">
         <v>37</v>
@@ -31950,7 +31946,7 @@
         <v>20</v>
       </c>
       <c r="H890" s="3" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.3">
@@ -31970,10 +31966,10 @@
         <v>37</v>
       </c>
       <c r="F891" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>66</v>
@@ -32042,19 +32038,19 @@
         <v>2354</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>66</v>
+        <v>676</v>
       </c>
       <c r="E894" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H894" s="3" t="s">
-        <v>66</v>
+        <v>676</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.3">
@@ -32062,25 +32058,25 @@
         <v>46002</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>676</v>
+        <v>395</v>
       </c>
       <c r="E895" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F895" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H895" s="3" t="s">
-        <v>676</v>
+        <v>395</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.3">
@@ -32094,19 +32090,19 @@
         <v>2360</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>395</v>
+        <v>243</v>
       </c>
       <c r="E896" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F896" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H896" s="3" t="s">
-        <v>395</v>
+        <v>243</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.3">
@@ -32126,10 +32122,10 @@
         <v>37</v>
       </c>
       <c r="F897" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G897" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H897" s="3" t="s">
         <v>243</v>
@@ -32152,10 +32148,10 @@
         <v>37</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>243</v>
@@ -32172,7 +32168,7 @@
         <v>2366</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="E899" s="3" t="s">
         <v>37</v>
@@ -32184,7 +32180,7 @@
         <v>20</v>
       </c>
       <c r="H899" s="3" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.3">
@@ -32198,19 +32194,19 @@
         <v>2368</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E900" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F900" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H900" s="3" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.3">
@@ -32218,25 +32214,25 @@
         <v>46002</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H901" s="3" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.3">
@@ -32296,25 +32292,25 @@
         <v>46002</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E904" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H904" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.3">
@@ -32334,10 +32330,10 @@
         <v>37</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>92</v>
@@ -32374,25 +32370,25 @@
         <v>46002</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E907" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H907" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.3">
@@ -32412,10 +32408,10 @@
         <v>37</v>
       </c>
       <c r="F908" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>31</v>
@@ -32426,16 +32422,16 @@
         <v>46002</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2391</v>
+        <v>2397</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>2392</v>
+        <v>2398</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>20</v>
@@ -32444,7 +32440,7 @@
         <v>20</v>
       </c>
       <c r="H909" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.3">
@@ -32452,13 +32448,13 @@
         <v>46002</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E910" s="3" t="s">
         <v>41</v>
@@ -32470,7 +32466,7 @@
         <v>20</v>
       </c>
       <c r="H910" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.3">
@@ -32510,7 +32506,7 @@
         <v>2408</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>31</v>
+        <v>1317</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>41</v>
@@ -32522,7 +32518,7 @@
         <v>20</v>
       </c>
       <c r="H912" s="3" t="s">
-        <v>31</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.3">
@@ -32530,25 +32526,25 @@
         <v>46002</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>1317</v>
+        <v>559</v>
       </c>
       <c r="E913" s="3" t="s">
-        <v>41</v>
+        <v>1199</v>
       </c>
       <c r="F913" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H913" s="3" t="s">
-        <v>1317</v>
+        <v>14</v>
+      </c>
+      <c r="H913" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.3">
@@ -32582,25 +32578,25 @@
         <v>46002</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>559</v>
+        <v>62</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>1199</v>
+        <v>472</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H915" t="s">
-        <v>559</v>
+        <v>62</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.3">
@@ -32620,10 +32616,10 @@
         <v>472</v>
       </c>
       <c r="F916" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H916" t="s">
         <v>62</v>
@@ -32640,19 +32636,19 @@
         <v>2422</v>
       </c>
       <c r="D917" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E917" s="3" t="s">
-        <v>472</v>
+        <v>1212</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H917" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.3">
@@ -32666,10 +32662,10 @@
         <v>2424</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E918" s="3" t="s">
-        <v>1212</v>
+        <v>1465</v>
       </c>
       <c r="F918" s="3" t="s">
         <v>23</v>
@@ -32678,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="H918" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.3">
@@ -32692,19 +32688,19 @@
         <v>2426</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E919" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H919" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.3">
@@ -32718,7 +32714,7 @@
         <v>2428</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E920" s="3" t="s">
         <v>1465</v>
@@ -32730,7 +32726,7 @@
         <v>14</v>
       </c>
       <c r="H920" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.3">
@@ -32744,7 +32740,7 @@
         <v>2430</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>1465</v>
@@ -32756,7 +32752,7 @@
         <v>14</v>
       </c>
       <c r="H921" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.3">
@@ -32770,19 +32766,19 @@
         <v>2432</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="F922" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H922" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.3">
@@ -32796,10 +32792,10 @@
         <v>2434</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="E923" s="3" t="s">
-        <v>1465</v>
+        <v>1940</v>
       </c>
       <c r="F923" s="3" t="s">
         <v>23</v>
@@ -32807,8 +32803,8 @@
       <c r="G923" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H923" t="s">
-        <v>31</v>
+      <c r="H923" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.3">
@@ -32822,10 +32818,10 @@
         <v>2436</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="E924" s="3" t="s">
-        <v>1940</v>
+        <v>93</v>
       </c>
       <c r="F924" s="3" t="s">
         <v>23</v>
@@ -32833,8 +32829,8 @@
       <c r="G924" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H924" s="3" t="s">
-        <v>206</v>
+      <c r="H924" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.3">
@@ -32842,13 +32838,13 @@
         <v>46002</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="D925" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>93</v>
@@ -32860,7 +32856,7 @@
         <v>23</v>
       </c>
       <c r="H925" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.3">
@@ -32871,22 +32867,22 @@
         <v>2443</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>2444</v>
+        <v>1811</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E926" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H926" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.3">
@@ -32894,25 +32890,25 @@
         <v>46002</v>
       </c>
       <c r="B927" s="3" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C927" s="4" t="s">
         <v>2445</v>
       </c>
-      <c r="C927" s="4" t="s">
-        <v>1811</v>
-      </c>
       <c r="D927" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E927" s="3" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H927" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.3">
@@ -32920,13 +32916,13 @@
         <v>46002</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="D928" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E928" s="3" t="s">
         <v>27</v>
@@ -32938,7 +32934,7 @@
         <v>23</v>
       </c>
       <c r="H928" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.3">
@@ -32952,7 +32948,7 @@
         <v>2451</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E929" s="3" t="s">
         <v>27</v>
@@ -32964,7 +32960,7 @@
         <v>23</v>
       </c>
       <c r="H929" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.3">
@@ -32978,10 +32974,10 @@
         <v>2453</v>
       </c>
       <c r="D930" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E930" s="3" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F930" s="3" t="s">
         <v>23</v>
@@ -32990,7 +32986,7 @@
         <v>23</v>
       </c>
       <c r="H930" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.3">
@@ -32998,16 +32994,16 @@
         <v>46002</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E931" s="3" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="F931" s="3" t="s">
         <v>23</v>
@@ -33016,7 +33012,7 @@
         <v>23</v>
       </c>
       <c r="H931" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.3">
@@ -33030,7 +33026,7 @@
         <v>2459</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>362</v>
@@ -33042,7 +33038,7 @@
         <v>23</v>
       </c>
       <c r="H932" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.3">
@@ -33050,25 +33046,25 @@
         <v>46002</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="E933" s="3" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="F933" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G933" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H933" t="s">
-        <v>277</v>
+        <v>14</v>
+      </c>
+      <c r="H933" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.3">
@@ -33082,19 +33078,19 @@
         <v>2465</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F934" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G934" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H934" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.3">
@@ -33108,7 +33104,7 @@
         <v>2467</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>49</v>
@@ -33120,7 +33116,7 @@
         <v>23</v>
       </c>
       <c r="H935" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.3">
@@ -33140,10 +33136,10 @@
         <v>49</v>
       </c>
       <c r="F936" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G936" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H936" s="3" t="s">
         <v>83</v>
@@ -33160,7 +33156,7 @@
         <v>2471</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>49</v>
@@ -33172,7 +33168,7 @@
         <v>14</v>
       </c>
       <c r="H937" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.3">
@@ -33212,19 +33208,19 @@
         <v>2475</v>
       </c>
       <c r="D939" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E939" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F939" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G939" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H939" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.3">
@@ -33238,19 +33234,19 @@
         <v>2477</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F940" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G940" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H940" s="3" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.3">
@@ -33264,7 +33260,7 @@
         <v>2479</v>
       </c>
       <c r="D941" s="3" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="E941" s="3" t="s">
         <v>49</v>
@@ -33276,7 +33272,7 @@
         <v>14</v>
       </c>
       <c r="H941" s="3" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.3">
@@ -33284,25 +33280,25 @@
         <v>46002</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F942" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G942" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H942" s="3" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.3">
@@ -33316,7 +33312,7 @@
         <v>2485</v>
       </c>
       <c r="D943" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E943" s="3" t="s">
         <v>49</v>
@@ -33328,7 +33324,7 @@
         <v>23</v>
       </c>
       <c r="H943" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.3">
@@ -33342,7 +33338,7 @@
         <v>2487</v>
       </c>
       <c r="D944" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E944" s="3" t="s">
         <v>49</v>
@@ -33354,7 +33350,7 @@
         <v>23</v>
       </c>
       <c r="H944" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.3">
@@ -33368,19 +33364,19 @@
         <v>2489</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E945" s="3" t="s">
-        <v>49</v>
+        <v>750</v>
       </c>
       <c r="F945" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G945" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H945" s="3" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="H945" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.3">
@@ -33388,16 +33384,16 @@
         <v>46002</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2490</v>
+        <v>2002</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>2491</v>
+        <v>2003</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E946" s="3" t="s">
-        <v>750</v>
+        <v>18</v>
       </c>
       <c r="F946" s="3" t="s">
         <v>14</v>
@@ -33406,7 +33402,7 @@
         <v>14</v>
       </c>
       <c r="H946" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.3">
@@ -33414,25 +33410,25 @@
         <v>46002</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E947" s="3" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F947" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G947" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H947" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.3">
@@ -33440,16 +33436,16 @@
         <v>46002</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E948" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F948" s="3" t="s">
         <v>23</v>
@@ -33457,8 +33453,8 @@
       <c r="G948" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H948" t="s">
-        <v>62</v>
+      <c r="H948" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.3">
@@ -33466,16 +33462,16 @@
         <v>46002</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E949" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F949" s="3" t="s">
         <v>23</v>
@@ -33484,7 +33480,7 @@
         <v>23</v>
       </c>
       <c r="H949" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.3">
@@ -33492,25 +33488,25 @@
         <v>46002</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>2013</v>
+        <v>2035</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>2014</v>
+        <v>2036</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E950" s="3" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="F950" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G950" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H950" s="3" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="H950" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.3">
@@ -33518,25 +33514,25 @@
         <v>46002</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="E951" s="3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F951" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G951" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H951" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="H951" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.3">
@@ -33544,13 +33540,13 @@
         <v>46002</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="E952" s="3" t="s">
         <v>116</v>
@@ -33562,7 +33558,7 @@
         <v>23</v>
       </c>
       <c r="H952" s="3" t="s">
-        <v>413</v>
+        <v>62</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.3">
@@ -33570,13 +33566,13 @@
         <v>46002</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>62</v>
+        <v>587</v>
       </c>
       <c r="E953" s="3" t="s">
         <v>116</v>
@@ -33588,7 +33584,7 @@
         <v>23</v>
       </c>
       <c r="H953" s="3" t="s">
-        <v>62</v>
+        <v>587</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.3">
@@ -33596,13 +33592,13 @@
         <v>46002</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>587</v>
+        <v>196</v>
       </c>
       <c r="E954" s="3" t="s">
         <v>116</v>
@@ -33614,7 +33610,7 @@
         <v>23</v>
       </c>
       <c r="H954" s="3" t="s">
-        <v>587</v>
+        <v>196</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.3">
@@ -33622,13 +33618,13 @@
         <v>46002</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2057</v>
+        <v>2069</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>2058</v>
+        <v>2070</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="E955" s="3" t="s">
         <v>116</v>
@@ -33640,7 +33636,7 @@
         <v>23</v>
       </c>
       <c r="H955" s="3" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.3">
@@ -33648,13 +33644,13 @@
         <v>46002</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>86</v>
+        <v>828</v>
       </c>
       <c r="E956" s="3" t="s">
         <v>116</v>
@@ -33666,7 +33662,7 @@
         <v>23</v>
       </c>
       <c r="H956" s="3" t="s">
-        <v>86</v>
+        <v>828</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.3">
@@ -33674,13 +33670,13 @@
         <v>46002</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2083</v>
+        <v>2089</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>2084</v>
+        <v>2090</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>828</v>
+        <v>185</v>
       </c>
       <c r="E957" s="3" t="s">
         <v>116</v>
@@ -33692,7 +33688,7 @@
         <v>23</v>
       </c>
       <c r="H957" s="3" t="s">
-        <v>828</v>
+        <v>185</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.3">
@@ -33700,13 +33696,13 @@
         <v>46002</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>2092</v>
+        <v>2098</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="E958" s="3" t="s">
         <v>116</v>
@@ -33718,7 +33714,7 @@
         <v>23</v>
       </c>
       <c r="H958" s="3" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.3">
@@ -33732,7 +33728,7 @@
         <v>2100</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>26</v>
+        <v>587</v>
       </c>
       <c r="E959" s="3" t="s">
         <v>116</v>
@@ -33744,7 +33740,7 @@
         <v>23</v>
       </c>
       <c r="H959" s="3" t="s">
-        <v>26</v>
+        <v>587</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.3">
@@ -33778,13 +33774,13 @@
         <v>46002</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>2104</v>
+        <v>2110</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>587</v>
+        <v>66</v>
       </c>
       <c r="E961" s="3" t="s">
         <v>116</v>
@@ -33796,7 +33792,7 @@
         <v>23</v>
       </c>
       <c r="H961" s="3" t="s">
-        <v>587</v>
+        <v>66</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.3">
@@ -33804,16 +33800,16 @@
         <v>46002</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2111</v>
+        <v>2123</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>2112</v>
+        <v>2124</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E962" s="3" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="F962" s="3" t="s">
         <v>23</v>
@@ -33822,7 +33818,7 @@
         <v>23</v>
       </c>
       <c r="H962" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.3">
@@ -33830,16 +33826,16 @@
         <v>46002</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>2125</v>
+        <v>2131</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E963" s="3" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="F963" s="3" t="s">
         <v>23</v>
@@ -33848,7 +33844,7 @@
         <v>23</v>
       </c>
       <c r="H963" s="3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.3">
@@ -33856,13 +33852,13 @@
         <v>46002</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E964" s="3" t="s">
         <v>37</v>
@@ -33874,7 +33870,7 @@
         <v>23</v>
       </c>
       <c r="H964" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.3">
@@ -33908,13 +33904,13 @@
         <v>46002</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>2145</v>
+        <v>2155</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E966" s="3" t="s">
         <v>37</v>
@@ -33926,7 +33922,7 @@
         <v>23</v>
       </c>
       <c r="H966" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.3">
@@ -33934,25 +33930,25 @@
         <v>46002</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>2157</v>
+        <v>2165</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="E967" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F967" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G967" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H967" s="3" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.3">
@@ -33960,13 +33956,13 @@
         <v>46002</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>2167</v>
+        <v>2175</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>577</v>
+        <v>83</v>
       </c>
       <c r="E968" s="3" t="s">
         <v>37</v>
@@ -33978,7 +33974,7 @@
         <v>20</v>
       </c>
       <c r="H968" s="3" t="s">
-        <v>577</v>
+        <v>83</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.3">
@@ -33986,25 +33982,25 @@
         <v>46002</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2177</v>
+        <v>2187</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>2178</v>
+        <v>2188</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E969" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F969" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G969" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H969" s="3" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.3">
@@ -34018,7 +34014,7 @@
         <v>2190</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E970" s="3" t="s">
         <v>37</v>
@@ -34030,7 +34026,7 @@
         <v>23</v>
       </c>
       <c r="H970" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.3">
@@ -34038,13 +34034,13 @@
         <v>46002</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>2191</v>
+        <v>2215</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>2192</v>
+        <v>2216</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E971" s="3" t="s">
         <v>37</v>
@@ -34056,7 +34052,7 @@
         <v>23</v>
       </c>
       <c r="H971" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.3">
@@ -34064,10 +34060,10 @@
         <v>46002</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="D972" s="3" t="s">
         <v>62</v>
@@ -34090,13 +34086,13 @@
         <v>46002</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="E973" s="3" t="s">
         <v>37</v>
@@ -34108,7 +34104,7 @@
         <v>23</v>
       </c>
       <c r="H973" s="3" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.3">
@@ -34194,25 +34190,25 @@
         <v>46002</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>2233</v>
+        <v>2243</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>2234</v>
+        <v>2244</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="E977" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F977" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G977" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H977" s="3" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.3">
@@ -34220,10 +34216,10 @@
         <v>46002</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>2246</v>
+        <v>2252</v>
       </c>
       <c r="D978" s="3" t="s">
         <v>154</v>
@@ -34258,10 +34254,10 @@
         <v>37</v>
       </c>
       <c r="F979" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G979" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H979" s="3" t="s">
         <v>154</v>
@@ -34272,10 +34268,10 @@
         <v>46002</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="D980" s="3" t="s">
         <v>154</v>
@@ -34284,10 +34280,10 @@
         <v>37</v>
       </c>
       <c r="F980" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G980" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H980" s="3" t="s">
         <v>154</v>
@@ -34298,25 +34294,25 @@
         <v>46002</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>2261</v>
+        <v>2275</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>2262</v>
+        <v>2276</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="E981" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F981" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G981" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H981" s="3" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.3">
@@ -34324,10 +34320,10 @@
         <v>46002</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="D982" s="3" t="s">
         <v>26</v>
@@ -34336,10 +34332,10 @@
         <v>37</v>
       </c>
       <c r="F982" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G982" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H982" s="3" t="s">
         <v>26</v>
@@ -34350,25 +34346,25 @@
         <v>46002</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>2281</v>
+        <v>2291</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>2282</v>
+        <v>2292</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E983" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F983" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G983" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H983" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.3">
@@ -34376,13 +34372,13 @@
         <v>46002</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="E984" s="3" t="s">
         <v>37</v>
@@ -34394,7 +34390,7 @@
         <v>23</v>
       </c>
       <c r="H984" s="3" t="s">
-        <v>79</v>
+        <v>587</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.3">
@@ -34408,7 +34404,7 @@
         <v>2300</v>
       </c>
       <c r="D985" s="3" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
       <c r="E985" s="3" t="s">
         <v>37</v>
@@ -34420,7 +34416,7 @@
         <v>23</v>
       </c>
       <c r="H985" s="3" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.3">
@@ -34440,10 +34436,10 @@
         <v>37</v>
       </c>
       <c r="F986" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G986" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H986" s="3" t="s">
         <v>70</v>
@@ -34466,10 +34462,10 @@
         <v>37</v>
       </c>
       <c r="F987" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G987" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H987" s="3" t="s">
         <v>70</v>
@@ -34480,10 +34476,10 @@
         <v>46002</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>2305</v>
+        <v>2313</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="D988" s="3" t="s">
         <v>70</v>
@@ -34506,10 +34502,10 @@
         <v>46002</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="D989" s="3" t="s">
         <v>70</v>
@@ -34544,10 +34540,10 @@
         <v>37</v>
       </c>
       <c r="F990" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G990" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H990" s="3" t="s">
         <v>70</v>
@@ -34558,25 +34554,25 @@
         <v>46002</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="D991" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E991" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F991" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G991" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H991" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.3">
@@ -34584,13 +34580,13 @@
         <v>46002</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>2325</v>
+        <v>2343</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>2326</v>
+        <v>2344</v>
       </c>
       <c r="D992" s="3" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="E992" s="3" t="s">
         <v>37</v>
@@ -34602,7 +34598,7 @@
         <v>23</v>
       </c>
       <c r="H992" s="3" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.3">
@@ -34610,25 +34606,25 @@
         <v>46002</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="D993" s="3" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="E993" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F993" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G993" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H993" s="3" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.3">
@@ -34636,13 +34632,13 @@
         <v>46002</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>2357</v>
+        <v>2369</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>2358</v>
+        <v>2370</v>
       </c>
       <c r="D994" s="3" t="s">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="E994" s="3" t="s">
         <v>37</v>
@@ -34654,7 +34650,7 @@
         <v>20</v>
       </c>
       <c r="H994" s="3" t="s">
-        <v>395</v>
+        <v>109</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.3">
@@ -34662,10 +34658,10 @@
         <v>46002</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>2372</v>
+        <v>2378</v>
       </c>
       <c r="D995" s="3" t="s">
         <v>109</v>
@@ -34688,25 +34684,25 @@
         <v>46002</v>
       </c>
       <c r="B996" s="3" t="s">
-        <v>2379</v>
+        <v>2385</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="D996" s="3" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E996" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F996" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G996" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H996" s="3" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.3">
@@ -34714,10 +34710,10 @@
         <v>46002</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="D997" s="3" t="s">
         <v>31</v>
@@ -34726,10 +34722,10 @@
         <v>37</v>
       </c>
       <c r="F997" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G997" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H997" s="3" t="s">
         <v>31</v>
@@ -34752,10 +34748,10 @@
         <v>37</v>
       </c>
       <c r="F998" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G998" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H998" s="3" t="s">
         <v>31</v>
@@ -34778,10 +34774,10 @@
         <v>37</v>
       </c>
       <c r="F999" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G999" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H999" s="3" t="s">
         <v>31</v>
@@ -34792,25 +34788,25 @@
         <v>46002</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>31</v>
+        <v>587</v>
       </c>
       <c r="E1000" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1000" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1000" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1000" s="3" t="s">
-        <v>31</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
@@ -34824,19 +34820,19 @@
         <v>2402</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>587</v>
+        <v>31</v>
       </c>
       <c r="E1001" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F1001" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1001" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H1001" s="3" t="s">
-        <v>587</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
@@ -34844,13 +34840,13 @@
         <v>46002</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>2403</v>
+        <v>2409</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>2404</v>
+        <v>2410</v>
       </c>
       <c r="D1002" s="3" t="s">
-        <v>31</v>
+        <v>587</v>
       </c>
       <c r="E1002" s="3" t="s">
         <v>41</v>
@@ -34862,7 +34858,7 @@
         <v>20</v>
       </c>
       <c r="H1002" s="3" t="s">
-        <v>31</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
@@ -34870,25 +34866,25 @@
         <v>46002</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="D1003" s="3" t="s">
-        <v>587</v>
+        <v>62</v>
       </c>
       <c r="E1003" s="3" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="F1003" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1003" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1003" s="3" t="s">
-        <v>587</v>
+        <v>23</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.3">
@@ -34896,16 +34892,16 @@
         <v>46002</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>2417</v>
+        <v>2437</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>2418</v>
+        <v>2438</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E1004" s="3" t="s">
-        <v>472</v>
+        <v>93</v>
       </c>
       <c r="F1004" s="3" t="s">
         <v>23</v>
@@ -34914,7 +34910,7 @@
         <v>23</v>
       </c>
       <c r="H1004" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.3">
@@ -34948,16 +34944,16 @@
         <v>46002</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>2441</v>
+        <v>2446</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>2442</v>
+        <v>2447</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E1006" s="3" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="F1006" s="3" t="s">
         <v>23</v>
@@ -34966,7 +34962,7 @@
         <v>23</v>
       </c>
       <c r="H1006" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.3">
@@ -34974,16 +34970,16 @@
         <v>46002</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E1007" s="3" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="F1007" s="3" t="s">
         <v>23</v>
@@ -34992,7 +34988,7 @@
         <v>23</v>
       </c>
       <c r="H1007" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
@@ -35000,13 +34996,13 @@
         <v>46002</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="E1008" s="3" t="s">
         <v>362</v>
@@ -35018,7 +35014,7 @@
         <v>23</v>
       </c>
       <c r="H1008" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
@@ -35026,16 +35022,16 @@
         <v>46002</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>2462</v>
+        <v>2480</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>2463</v>
+        <v>2481</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>395</v>
+        <v>36</v>
       </c>
       <c r="E1009" s="3" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="F1009" s="3" t="s">
         <v>23</v>
@@ -35043,288 +35039,261 @@
       <c r="G1009" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1009" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1010" s="2">
-        <v>46002</v>
-      </c>
-      <c r="B1010" s="3" t="s">
-        <v>2482</v>
-      </c>
-      <c r="C1010" s="4" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D1010" s="3" t="s">
+      <c r="H1009" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1010" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1010" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1010" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1010" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1010" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1010">
-      <sortCondition ref="A1:A1023"/>
+  <autoFilter ref="A1:I1009" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1009">
+      <sortCondition ref="A1:A1022"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C910" r:id="rId1" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxObnZRNkUwblU0NXQ5REVmX0hHUmJpTnpobzVUTmhhaHFYLWRfQ2hTMVJhNXQyMkhFMTFOWWdsaG54eGJTUEtvT3BLdEV1VWVfdmdqM1hyMGxjNDdfM2JaWi13UUswZGNTazd2a2VwNVg5YUUxVTJSNUduMTFZc2U2OE15LUZtSGpnQTMxOUpBSzhFN2JnOC1GOVR3d3FZRTZvSzRQZTAxUkdqd1VranNMa3V4TjdYZGo0SW1qeHZkMFZjVXJMdkJKcVE5MlRYTTlZMWNzc21EZmx2TVdudHFndVh0Y2FibWtiS2VaRkp30gGIAkFVX3lxTE5QNnJnMHYxMzYtTVgwY3Q3dGVnOTBleFlhcmhsQXFyWHYxc2twRG9VbjNDUWdIOTFJRGNvVGtYWkowVkNjNGNLY21odU9aQXNYYWxzX2phQmdMbFFGRXdjaWdDd0tPMDhOQnNpZGlNZC1XVUdsbmRzcW9rT1lKQlZDU0wwM3NjTTdmdEZuZkhadGFTUGNGQkJCb1VOMFFJTmVLQ1RNZ2VOSG1zRlRLMDlHbUJzZUtyX2U4SE4tYzB0SkIzV3lYVXpUVVQ4cV95ZlZ3Ykt0N3BreldFR09FNXNxdDRjem5jdjRzdGQwRDluRmx4bERReTJLMC1uY3pUOEN5R3QyN2M3YQ?oc=5" xr:uid="{EF36FCB2-2689-4592-97C0-C191D04B8F4F}"/>
-    <hyperlink ref="C1001" r:id="rId2" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxNN3JhUE9yTW42S1Q1aWhWMHRldlNFbVoyM1JaQkRqT2FDY3dOZFJYOHE0a3VRUlI2dHRMc1V1RlQ4dXY2clNRaUVvUTFNMjhiNi15RjltV3EtMHBWaHIyRGo3bUpNUHRTT1JSZDk5V0I5b1dzSFdPbFVDN21JQ2k2NFozald4WThBNFFFOWJmVzFSR3FIbm5MM0NDMlNYdUtpUW1TS0pUOGl5NE9NTi1UTEJFWk5aVGxjb2U1Q0lGQ25CRkRrUTVsNXFqd9IB3wFBVV95cUxQNXJyN1FxRHY2OTN5UHh3VnlxYkpuUnJwN003eGdYTDZkOUd0RHpYNm15cWk2TnRPLUdFYTBDNkprcXJ2czVQNXd4eDR5SlI4MVdxaDNGSUxELXgxQ1VWQWNzc1ZyOGwwTDZ4Rk5yMlR3dGNIVDcydTFKWExKU0xxSno5RHV0SzF2NlByMTFDajI3TXExSjZ6ZE1odFVReXc4cnZHVW5UU0hYbVEtSFlEdE1kdFZic0NycmZFNUVfZ2xfNFZxa29zdXBlX01INGNyM0RzUDd1ZFN3YzVHVXNB?oc=5" xr:uid="{CE029E1E-64BB-42FA-97A7-A2BB77CFFBB4}"/>
-    <hyperlink ref="C1002" r:id="rId3" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxNNjI5bExtczdqUUwzc01sdlFwZ2NwS0tSVjJSdmZGeUxIWGxJOWc3VGExZHBVNjN3OUozTUl1ZWUxRllLNmlzNmxseGp2QjBGWWROT1lVQ19WUlc2TnJ3RFJCakNBRGQtbF9sb0hFX1ZIOVRfR3BLOFVlcEV6UXlOVEp3MUpmR3hKdEFLOG5XVzliVndXdWxoci1JbkZGMWlpOHlkcVF4TklYOVVzX2Q1QW83SjVVaG5mSzI3cnRDNmNfd2lES3BZcHFIQ01LVzhlMmFXVmgwUUJrMEdQWkJmVmtFY0tVVDREcE0yV3k3cDVSWVhTRWRjek1nMWp1TzN1ZXBjX2MtOF8zWVFMVGhXSmUyUdIBrgJBVV95cUxOLU8wNFk5NXh0RG1hM2wtbEQtTlhyaXA2cjVDeGt0OG1GU3pEY0RpckZocVZ3OXd5eUZKQXZzLUtfbk01VlZfMGtfVGRIMVdER0NXT292bnBPUDI4cW1zNlE2czkzVEZvY1U0c1NlVmJuaENWUEJSeFFxUUFudFdjVkRySDV3d3p0NTRFa2EzelMzSEN6Tmo5blA5UkgwUFNNa1VGaEd4WGhYbng4ZjZ4ZEszUVQ2T0tTVEsyT0ZYTDFwdkhRUXZacE1ZczBkMkM4aklYRUNiQzhlRnpxYXY3YTZzQ2NUdjB4b1FKcWkxNXBjd1FkN3R3YXJfcEd3eHJaWXJ2X1U1Y2dDZU1BNW9HRkhpT3VTQV9ZeklXSW1qX3l2R0NEN0pkNnhrVUNkdw?oc=5" xr:uid="{C0295A1F-F802-4759-92BF-424A64489EDC}"/>
-    <hyperlink ref="C911" r:id="rId4" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxQbnU0clJ6azFyVkZuY3VCa0M0clpTeFRZdnhPdU43VzNXU2o0dW9XS1labXBlZXVlcW1sQnlNb1pmZGVSUTI2NE4xTWd0VUxmM3NlN2xhajV0VGlZUXpXczBtYVVjOXlDZGdES08yUmhLSEZGNFNrWHU2czRTaEloSjJFcnNyQmUzd0RCeklNNVk3WjFJSEpnTzJyNnRHd0VVWDdBQy1DYUlKYW4yZy1sVWhRZnJJQ1JIQjY1TnAwTUlCck8tcjZjbzdydzU4bWR4eUd4M1ROTk9iZ3B1VHRFbXRSa2pmbmVmQ2pOZTVFa0UtYUNlc1hqUk0xUHhiajjSAZoCQVVfeXFMTjV1RnBLOUVKRl9wZ3hHYTJVRGMwQkpFbVhwRDRaOXhZSnlGbGhnTjdJZi1uMVZXMEhEMzF2OElKbTNMamtTdzZhVE5UdEFZYlNKTHB1Z0E3bVhkQVFuNXFhRWVPTFNwU2daVDkyeUZJYUxhb0QyaTJ5UmxQRHhhVE9yQWtSeUxzNXg0MXVUX3o2VVBRTjE0cldmYkdBZGwtYUxZcGZvVVhtWkxVTUJlS25qSFU1aTJWY1JYUHNJeDd3OXlkRmttdExMNlh5MjlPMjJRdnpQbDEyMjhHcDVYSDZPWWdwOXhsQXRiRUx6S2F4azllbkZRWkF4TkxXU1A0cFhHLVU5Zm5lV3pHTk5taVNsdF9BOUlSbkNn?oc=5" xr:uid="{1BC6124E-0BAF-4976-8042-A1FF93534973}"/>
-    <hyperlink ref="C912" r:id="rId5" display="https://news.google.com/rss/articles/CBMipAJBVV95cUxNc2NsdTlkeVVtNHNCbGR6Ti1vc1lvLXBhMW1uMVgwNTAxZ0NrQzJPcVBPbmE2dDNYc3NjZVBrVFZ1dFJGZm9aNmNPclVDU1BMUXBGa0lvZmFoZ29aNUg1UFpuVFZLblRCeVZXMGVSNVB3amgyN0lkNU1GanJfNkhxaUFfVndMLWNERGJlQ3cxTGU0Z0c2NVhuSHVFaW5kcl9lci1FU1ZlXzE5OTczaXpFcEtVWHJLVHRHNnV2dVg2Ny1xcFU3MkhzZURfVThpazh3LUp2ZGVkakNwRnpwRnpkYzVOQm1fbG45TnZldEdaRVhiUEM3bkhiSV96MXVmYjdLdmN3RXhqY2ZvckJUUUVmYkhEVDZGdmd1LTZqQ0t6SHRvX25N0gG_AkFVX3lxTFByNjFPekpPdjJCRGs0LXdRTmo5dkZxWWFsY01xdjRCaFduNXhCbVlWOUJjMmpYYURGbHp0QlZ6dVdoc0xIOW5ES2VnT3dPS1lFUGdyV2tYeW5RbW5Va1haVWpoOXA5U09qd3FUeHVtaGM5NkNCN3IxUmNLTmZ2YVJGLXlQVFdCaHl6bHQtdU1yeXdiUzNubjNYenQ4Uzk0MGNQQWFpeWFkejR0UnBneEp4Y2lHaHNNWF92eXdjTzZncmFTTzRUcjNkSXVHSDd0N3VGcjVldWRaMFhmYVJmREFDNHNnMkl1aWhOcDlOTkJiRjNSeDNNWi1UWS1nVlZxWVNSMEx5cElkSDZxMG9lZjB4aFN3T2hYNWh2U0RzU1IwLTJ4QTRMeUJNY3pzMktvVWcwaEhFQlMxWkl3SW9wTlk?oc=5" xr:uid="{EDB399FC-8132-4913-B57C-4ACD85F102CA}"/>
-    <hyperlink ref="C913" r:id="rId6" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNVWdtUWpJR1RJRjNBNmNXMjBpWVA4MjBDMzdMNVJTWjFmNTE4RVctRmlHNWR3ZjlDeGdwdW5YNmVTbGEwRW1YRkE4ZkFGSTcyTDNXRHh3a1hubUhpQ05Vc2pXU1MtWmVBZGR4clY0ZkhMMkd3cFhlRG16blFPWWpaLUpibEZyRURuZlhuRHRvaHlBdnl4TkRoZ0FQUktMQmlQamRla21SdmNJbFFIdFdjR25lb0lVWEMwTEZ2aGpn?oc=5" xr:uid="{F0351CD3-C294-4C28-A4F2-D42BFB5175DE}"/>
-    <hyperlink ref="C934" r:id="rId7" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxNOFVqU3RsWWpBSHBpSkMtckwwR0RwUWtiQUtidGpzZEdYZ0o4QUZDTlNMSHhIdkh2LW9sUWdpMGV3a3VkNzhLLUZ0ZXZPV1FzdVAyUUhSYWVwMUd6bHh3aFFEYkw1NG9KN3BFdi1DWW5qaEdfU1BvZEttenRtS1FUZlkxNkhfelhfNVMtQTlhalp3VGVLQjJoRW90MENOTDlhM3p1QXp3dGxJdVh3angxNi1NZGI1ZXFxUk1vY1lFanprcUVNZ1FLWmM2czhDQlpsV25XOHItV2hlMUNpRGVBYWFDUHUxOXlYMzczU2FSR0phYU5HNW9OakFza015dE9IVjFPQ2lZR0HSAZwCQVVfeXFMTnNieWpjM0JfX2hiZzl5QTNxYldhNXhYYU84Vld6M2xqZzV5YzYzcWRNZDlzb2FNVVVzUVByNmJ3MmZqWnNIakNlZlhuRU53MTY5OExjamY4MXN4SHVLeXNvVGdjNzJ3M0QyQ3FBNmJHLVkzbjJZTl9XOVdtRVFySHd3TlRnUExFWG1fTFoyYWEwanVWT2pic1pCZHZwM1NVdFJ4cVBDQlMxUS1EYnRpNUdrYXNxSjRlWk5vbmcwUWZlU19PU2RFRWNwTlZ5UVZucFNOUUw4R1Vxb3AxVE95UWNpUzZ4WVlKeDJwMGhLb01OUl9fU0lUMEM0cExUWlpvSmpLS0d0b0JDMGlfZTJkcG9NU3RhMWZYYW4wenM?oc=5" xr:uid="{124AF051-41D5-407E-B482-8FABD4367A97}"/>
-    <hyperlink ref="C1003" r:id="rId8" display="https://news.google.com/rss/articles/CBMid0FVX3lxTE9YazBta0FHRl96N2lOTE1tRkhvUVdJMUM3bWxKM216YmtrMXVrdG9yNGNqVl9vSm0tOFRSMzJzV1RNSG9ETG5tNHFkcFlreUFHZWU4cWJkYi1Pb0JCb2pSc202NEJvdkx1T2RsMWZIejhGY2lXMU530gGLAUFVX3lxTFBIRmVmWVRUSlhsUlpZQ1VRYWltQTVYWFNtWmI4V3NEdm9zdTNoODVyZFA0QVdpODEzU0F1Y1lQVjRScWRjX1I0WW85Um5STjVZMU5UdmstbUlRV0NGRnZ0eUJ3RHlYdUNqaEJ1QjhsWXNZMGdEU1FJUU80cmc4aU92dC02MkRwaUt3M0E?oc=5" xr:uid="{7C276986-1C14-4CAB-8356-53BFA5DB50ED}"/>
-    <hyperlink ref="C947" r:id="rId9" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxNZ1ktTlJsMEtZQVdKTXlubWhobFFBU2tuX2ZabWtFZHpIUkoydGF0aGJnRDRxZXh3OW5HaTNSNm91Um5tM0ZTZFN3UjhqNE1zOGthaVZJNlVqd1huLXI1ODdhYWFxcnF3NDJ3RFpxRGduWHdiTk5EZFloUzZDSWlYWVN5SE5kS1psMVlvY0w2M2E3Rll3ZmR4VExyOWFpTVY0eVZrUUtFWnNDQzNrUmdXQU9vVjVsemxEU2t6YWNwTnBtNGdEVlkzTVVGRms1aWZidDYzbzJ6SVNkRm5sZENhVUJnaFlpZ1g0Ui1mcVJ4bXlXSmhzU3FvU0ZkR0M1ZjVwRC0xMUFPV0xjeW5kMGdRRdIBqwJBVV95cUxPSmctTjNweExyZl8wdHh4Q2dsQWwzdl8zZFUzc01CdG5Cc3c1VlZQQzhVZ2FyY2FkSG5kNl9NUGZjcU4xaVVwX2ZHRmlJX0xUNWFJcWFtUU5sTzR2VDVuYXVydFpJRHZ0X21hRk95c3Z3QTJ0SGdyNkRob0xPaU5rNVg0aUx6LWN5VFBDQUxwbEhLSzg3a0t3bmwzbWtJVktFYmdERVI5V2RBSjlCTFQxS3M3XzVPT0hsSE5aQmQ2bzh1cFJNRUZGeGZUYXpRX0ttazlFYlNrQnRmWjd3SGNycFl0Vk91YTJWZDNGNGZYVHkxU1lCVVZ6ODM1V2NDMXhQcThXV0NZZUJveXp3d3pWbmYta2RUMU9ITGZCdHlPV0tHVmJwaGN6ZkxPSQ?oc=5" xr:uid="{1AEC7D87-BEB9-45C6-8C8A-82F93C5D0101}"/>
-    <hyperlink ref="C766" r:id="rId10" display="https://news.google.com/rss/articles/CBMi_AFBVV95cUxQbHo0MzJabFRHV3JCVVFQbGIzckU1UUdpSS1MYkIwUDM3SzFsNGFmN0RYTHhzbmY1ZWFONndLR3pWUXlraVRTMDBqU0hsNzFuQmZDNG1neU9NN0VXM1FqWWZMR3dSZ013UE5QWWc2ejlQdjRtNVZEMUN2aUo1VHdsUHZLV09KMzlCZ1M2OUU5MWVoVmw1RnF6cm1nRHNjNF9EeTBlei02d19BOXJ2OHBCRXZoeW1TSS1nM2lHN2M2dFBscWJCend1RXZCT19FS3E2VUw0dXA3Zm05UHhzamxoSE56Z1BVa0tMcXZaX3B0RncyR2R3djRxamExYU3SAZcCQVVfeXFMTkpERnZ5ekR4V3dNSDJwdVpjZlQtWnU3VEhxbVBHQjhNVFlUNTUzN3Bza0xPckpLYTNUdzZybEh1MUxlZHZYNFBNZ0lhZkxlSktCVy13MGlCTjBlWlBQaVJCQVVuMkgteUpiTkNvMlZ6WWxJbkhfT2pJZ1p1MUVmX1BWZFcyQ1JNV18zWjQ2dElySkVqTTFVZWk0SkZ4MHNjamwwQXphRHRvR0tNWEZWbzJhVk5TR2ZGMHFSSm1SZ0loQjdESWRfYVZkdTFYWFNtN1FQaGRKZFhFZlRZXzZGQW96QjVaa0FHQlFVYXRMWXVJOXFSOGl3Vms0NDQ2S19PMXdFaTNGVkZSaHk0cFVwWmxoSGFQSWo0?oc=5" xr:uid="{7D36E3D1-E44B-4E80-A135-3D20A4148B2B}"/>
-    <hyperlink ref="C919" r:id="rId11" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxOUzRmcVZQTE80X0VqcHlqV0lrMUloRl9QYUJLRE9meE41QWxQaW92RnJsMTN6aWpoZGZ3SU9nOFRtM2pVUFluSG5kVl9KTEJ1LTVrQ19MeDJCYTNFNWIzemxEUm43Mlp1Tm1zVFJPcEdnY05XcDkzbklxTUZFV3hFTkg2WGhHOEpMWnhNbEpUbXdYZDBqLTNUeW96elE5UGpPV1BUSGY4aUR6RjDSAbABQVVfeXFMTmZqYVZlQ1Jma3NtZGVBcGozTzZldGZ4eHRxTFdib3Z0eTNFQjMxV2hoQjJBaDl3SnI2eGtIaVY1NzI1UEhjUFBka2ZrODM0eWNMYkdpYUtKWnJIX3hZYlFWMmNVczNDNGw4T29jQU5KM1pVQTJxbDl6MmRuclFMT1dnc0dhTjdOZU5RQ2Q5ZUlrb2hyX1NuTnlVZTFtSndKLVFFUkJrRnN0eWdZdjFaNno?oc=5" xr:uid="{7C9D02D0-1CBD-4FF4-9A4C-93EB064C2848}"/>
-    <hyperlink ref="C935" r:id="rId12" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxNUThPY3FHTGg3Tnl4SU1wODZXOWE5WG9kcUpuajZ4Vm9HNC1BMG1qQ3BIUE5jdUxUV3lfUU45ZkVRZ3V2Qzk4MVV3bEtyeXZsTDM2dGpHY3ZQaVpwWS1rOVpVQjNtTnhIRk5pZWdvYVc2bnJNbTlYQzVQNUY2aXlEVktQYkJHcFVEYlo2Y2RWSHFva1JsN2pTR0ZkOUQ3ajR1MVE?oc=5" xr:uid="{4D86B2D4-9312-4395-8558-D9A2A7A27627}"/>
-    <hyperlink ref="C936" r:id="rId13" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxPN1pOTk9yWXR6eDMtVHBfM2NtVURtd1pmYU1xVjVCM1JlS2dhLU5QZlZJWlMyMlNIZ2JqWGpuNkNFWmkyUW55SllSMFRMSF9jbkR2ZmZVMHExMUdQX0dYMkdSUGxjZnN6SVJSQmdsWW5RZ3hyQ2Rka2tDUUpZM2Y0TjVqdjRiZ3ZIWFhUZ2ZDYVBHSTJndDdjYUt6MXg0WkZudzlhczBPcWs3WFo1NXN1ZHJCQnFFQW05OGN6VzZEQzZjY2trYnRwTm9XVE1rbEZ3aG1TYnJDM1drcnBpSFlyYmNzMFMtVF9HLVBDUG9xTUN0a0JPczV1V0J1a2hRZGVaVzNF0gGIAkFVX3lxTE9FYkxaUmRlZTZpTVJLcmFjQmFlUGJ2U20xbm53QjJ1SS12VFVjUThIN1cwNGh2U3pxVHJ5WGtVY0NOUWFTY0tNZzUzcDh4TnVuVnl0MjBoSDF5Wl9UUFlBcng3QV9QdVVwak5nUEJNRDRuQ3A4N2E1SE0tYXpBRFVGcnZ2Szc2c0t1TTZyc1liZk5kSGVHMjJBQVE4QV9UVDN2OWdUM0huOTJZakJPZWlhOUhybjdlV1RyNExNcG9xWUJZLV9zd0FsU0xiU29OaVppZUFxenk2UDVDd0UwWk9CNnRHNjdQakcxa2hEazFaU29zdXZ6eXpiZVdsY3J6Z194R2FHWWY4eQ?oc=5" xr:uid="{49C946F6-B711-41BC-9786-323B923FFE47}"/>
-    <hyperlink ref="C937" r:id="rId14" display="https://news.google.com/rss/articles/CBMitAJBVV95cUxPalY1Z2JKRHk2akw2eENhemx3aW8tMGdDV3JKTVpoWmR2LThOaW1GSXA4YWVWaW5ReGhfb054NHFZSHpUb2cwcTJoS3dOWVRzT2hGRkV3RjI4OTJKSHcxY2p5cDNDM21pUkJIQi1vNWE4Y3h2eUp0anBwdTRxUlh2REV3TlE5LW9oNXJHVWxwMmhLVDkwWm5UaWxqUkNCY0d5THlNY2p4MTQ0RTZFS3hSTHR2QkRnLVQ3aUZodmNVLVAtSEp6MWtlMlg0ZE50YTlNcmJBdWxQSWFZNmdTMVBmcjFTb045NTRneWhERll3MnNBQmNXekFRa25pUXFtNTlTcDgyWGtWM1JMcmRndkRTZm5USzFYR2RoN1JaTTlnVWNKVVMtWlBxWVY0Tm5iaW9TUzhfdNIBugJBVV95cUxQZnFOZmlYenZwYkFDWmlqckxIT2E1VEQtTm5vZ2hBQXBDQ1RTS1FtSk9JazNMbWZfQWZSUHMyWnBQVTI0QnJOb1ZsR3JuLXNtNzhITEtnMmxndlYyRURqajNKeWlsMjJ3U2dUVFJzdGhNN2duaUx3dTNkX1Q5TEZhdTZfdXhmRzJfS1R2akFjbUFnTUtqNlNVRXpGWkRnZDc5eEx1RG9LT0Zod0k1b3dGcG5sYWkwaGN5d3FOMWhWZVM2aFRROXRETVNOeTJIOVBJbE9fbzc3Nk9JM3BQOHpLT2NLb1Z6dmJaTmJtdWcyM2hTTURNaFNrcVUzTkhxcTR1N3poeFZ4LTF5YzM4ekV1TXlnZExhWnlJd3JqOXVaZUFFVTdZajg0a3Q5RGhKbkc2NnpBOURIcDlmZw?oc=5" xr:uid="{286897E2-3696-4758-837A-537A38B7C0B9}"/>
-    <hyperlink ref="C938" r:id="rId15" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxQUUs3UHU5MTZMZ2VsVWtnQTg5cnVXRFBodkJ0ci0tbFJLeDNfektENGlfb1NDNmNtd013cjF6TEJrbzVGbGFqUnRZTlRPMkw3a3p2WE4tRmdpQWN2MzBMZjQwNlJjN1dsQjVSNjZtanVVOEE1LTZBc0RVV1N3N2lraWpoU1EyODRabU9oNmJ1M1JUUWNUZElZYTQ5dHdXRF9zX2RFR2laRnU0ZERnYXRjekZ6M211X3pIMHdxeU9NZ3RySlpRMWViZTl2dWhoQ1Z1eEgxN0VEZktMYzMtZm9VSWdHUUlYdE5fRnpDWkE3MGotREswWXfSAfsBQVVfeXFMUHV2NmdvMTNhSzlQLWtaRllFaURaNExpQ0J6UHc2dDg5b0VZOEdWbUM3NE1tNG9hVWJIR0dnSElRUTFNU09BOGdlY3RKcG1DeDA5c1ZmUTBJYU5TNzBQcjlsN2dFdlZLenBuR2RvZDd3Wi02QUNDUXQzOFRoUTdoenhQdlRhNVlCdTFSSWJwcjBjTldheDJuWGc5SnR3ekJxQWUycGVaVzhzbmM4bVR0aHhHUWNuTGhNUHdHVEtZaEtBQkN5Y0hfekJYanVMQkxScHZ6SXpKVFNIYnVkZWY4dlhlZnR5aDBsNWpKMkxiNFJCenZ6NXBvWmo4SVE?oc=5" xr:uid="{E938BDC9-A076-4569-8A2F-00373EA8ACDA}"/>
-    <hyperlink ref="C939" r:id="rId16" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPYnluUEk5SkktcTd2NzNUNk5DR3UtT3JGNWJrbXFuVnFkVTdxc0VENkhxZzZnNl9fRVQ4S0h6cktZX3ZfU2NFXzNHclNFSGdvWHJfX1NUVzV5QmhvdzhLY1ZXYmFqVVZjRW5QR29zWDFKVHZhbFNvX0dIaWhsanhKOFNHMG1vRURqckF0Y3B1WlozenoxUC1Eb0czeHowbk1FMHpuS0VLaW5lTHNrbFRHcmFHZnlkSFJ6NkYtamM4bWsyYl9yVjZlOXdOVEp4Z1FNRHJQX1NrTTg4N19p0gHiAUFVX3lxTE9uOFRGekVuMlE2ZnF3RE1qWXdQZV9pLTMzaVdjOTVOVDBVbXpXSjdqREZTektsMDFrWm5EM2NGT2R4b0hjRGkzcjFIb0N1Qnd0NTlnVV9iTURUUXJselFwWnBDZThjY3NQeTA0NjItZURPWlRrMFFJQmlXUnpoM3F1dWs0bGdUWVp1YlBsT0JSOE5id0JpTVJFWXRfMDdJdVlBZDIzNkdxYUhUejd2cmktWXdBdzEtMnlDdmFxbW1qbm9YV2lVWU56eTdLUWY0Ti1sam1TNTFOR2VkZ1BuZWRVVUE?oc=5" xr:uid="{89DA114E-0043-4164-879C-03CE0412BEBE}"/>
-    <hyperlink ref="C940" r:id="rId17" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxQVl9YX3NlenhEeHlabkphbE5laXpSbHI1X1VXTjNEOEw2alN4TEZFOFI4RFdNd2psek5JMlRsYURKTEtGdjZoU19sM25xVzZpYmJBMWtPbmtUSlBGczM4alVzNVNkV2ZITEUwd3c4UWlCbk1lQW5SQU5uRER2S2t3YVFTRVREazdHTGE3d1VfRDhPT1g0alFjYlBwUTBfRnpfSGVMSUhhUXlZZlA4cXVDV21sSDh0c1ZWRUHSAc4BQVVfeXFMT3dKVTAxSWQ5YnU5WHhRcUdRQk9RcTB5dUlqZXZCVmxUWWppYzFvR2czSFN4ZDBBbEduZC10NzB1TGF1M1hHdktubW1sbTA1aC1VRjBmaGFPajFBNkk2OWw5a1BDanpKcjJZemM2NG1aVThKV29rV1FnaDJabWp5eXdTbXhVbWc0TmVmUng2WmtjVW9SblJ5RGNqaFQzRzRRMEpGVENQbFlZNjFiWm1UajBqa2M3bkRBOERqMzhlbktJdDBaZno0bFcwbm1QT1E?oc=5" xr:uid="{EAA4B1EB-046D-4C20-95B6-6E74D25CBB37}"/>
-    <hyperlink ref="C941" r:id="rId18" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxQRnJtUkVTYkdJNVBJX3VFZGdTOFBWMTFXRnFZSFFCSG04SHhxYUZYMjBxUlJYdEM3OE1yTTZsVTl3YzhPM3hrdnZtUlJkTGtaODZyVUUtbkw4QkdQdWF5TGhpN1NjWklwb2t0eTMzWGE4ajVHeUpPZkxBNFlmejdWZXFadWJEZDVXM3ZFcGpDWDF6ZllpcURSZEhyS0RBYmxxRWpiUGVud2tBNlJMd0k00gHKAUFVX3lxTFBTSGp1TERCTi02blAyVDdvVTk4aUc4ZFV5THphLWtpaWRHV09JWmRKakVLRU84YlNTdGRmb3RLUzI1eS14cWtZWF84Q1VzTHhoZEl4OWpHX05rUWU4N0hRNGdKT01RMDJKX0VuVjZyZXFaa1FxYU1OdktXXy1yejhwVy1DWHJYQWxaTzBLRTV4ckY3LWZZYThvNGw1c2ZNZ29EVFgydEdkZXhvZnFsemdlUHhYbGhmdE9Cd3VMaWxuMWsxdW9YSGk5UUE?oc=5" xr:uid="{D590734D-B501-4AFE-B8DF-4CDE587C7744}"/>
-    <hyperlink ref="C942" r:id="rId19" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxNMmhvNW1RSFBxWDRxZFhMYXpSc2p6bVhvWnllaHc5NnFrMklObGNYRXJ1c05wMzlWdFdEVUh5aHFYWHRZelVqWUFGX09USHRPdHBvUm1LQjJla0FSellkckVUbVVtRXlVbzI2d0dfcU9aLXRuZkxkb0tMdXYtdWFTVWhvNHh3VklKVVJqQWtwM2ZkZjB2SmViOEkxdW1kME9lamVqV1BVbm9CTlRRbW1RM201QW1fLW9yTlJrM1BHZi1EZw?oc=5" xr:uid="{AB60DE3F-A135-48ED-8E1F-A6C2D28F56F5}"/>
-    <hyperlink ref="C1010" r:id="rId20" display="https://news.google.com/rss/articles/CBMijAFBVV95cUxOZkJYSGNXbnZxRUxxS2FqNXNUN3A0aUF2SWNKNDJueVl3OHhXXzdCWHRSNmRCTWtCQ0ZXRHpnek5BY3NlMmdrOHQ1OE5iMGtCVjY4bjR1V1R2UUhrSGI5aHk3QzNNR3o2bG1XazIzYVRHYTlLYU55UjMyUlhSbEpWNUlaUEppVVZZWkFVRNIBoAFBVV95cUxQZkQ2N3hDa3FtZjBMWm5DSWladjVaVXZsaGZXNjJ4Wnd4UURNYUdncy0xbThUVk5hUmJVRjhxZUJhV2FKenZkMjVoZlU5bUV0QmtzekhDV1FBLVpyRGJMTVQ4Zy05YXhCMmNIMnI3NmR5STAtUjVaZzNLdmc0MmQtTnRBSmxuN2N4T0tQeGh2dFdfb0htY3czNmNCdUNrcG53?oc=5" xr:uid="{463026C1-3E95-414B-A5EC-E09E69109E57}"/>
-    <hyperlink ref="C943" r:id="rId21" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxQcmlFX0ZZYi02QjVHUExpR2xidjhZV25wM2NvNDhyZHpmVWlQWTBqd2dha19UZ0RiXzJhSk15ODBFWmZOTTNrbmdRQms3QkNmUnAwY1RYU3VDREZnc2t2dFY2ZzdsSHNVb00xb3hwRnd2eHg0TVJjOEJkOVFmZFo4S1llVGprb05sU1lSOUpoSU96SFZyYnpaWF9vWHdPNUU5REJlU3puN0xUZFFaVUlDRjMtNkFMcEZCQnN5STJXZHBqUExoUnBKOWhHM1pfdDhFd2N6QzNvVDdvVFllcW4tY2U2SFlDTXU40gHoAUFVX3lxTFByaUVfRlliLTZCNUdQTGlHbGJ2OFlXbnAzY280OHJkemZVaVBZMGp3Z2FrX1RnRGJfMmFKTXk4MEVaZk5NM2tuZ1FCazdCQ2ZScDBjVFhTdUNERmdza3Z0VjZnN2xIc1VvTTFveHBGd3Z4eDRNUmM4QmQ5UWZkWjhLWWVUamtvTmxTWVI5SmhJT3pIVnJielpYX29Yd081RTlEQmVTem43TFRkUVpVSUNGMy02QUxwRkJCc3lJMldkcGpQTGhScEo5aEczWl90OEV3Y3pDM29UN29UWWVxbi1jZTZIWUNNdTg?oc=5" xr:uid="{F58FF590-E78F-4B5D-9416-932FB4249766}"/>
-    <hyperlink ref="C944" r:id="rId22" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPWGtEOFA3NE5BZ1lYbHBIeUZFUkVBNWs4eUM2eGt3SWdBVUVCdXNPYmVnZW1PdHRJLUVjNkZIVDVjcEhYdTI5cnN6ZnZjbE5ITV9xSGZqa1VuXzNkOV9lUEl2azlBODE4MmVWUVBTeVQtRE96dGVNdUtHbWFuSGxiQjBMSHVPd1pIaDFvQjJTeGxDdzNoWU9uRm9Yb2NLdlpFQWF1ZE01ZjA?oc=5" xr:uid="{9687150D-5324-44F5-BE06-8E3BF2D83700}"/>
-    <hyperlink ref="C945" r:id="rId23" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPZ3NJWXozbXJvYkxPSVVjVU1fcXk3LVQxLTlZTk9nS2h2dmxIaC1GeUR2c0p6NnlVNjFtcXVVRU1FV05aaXJWQnVSalFHcWd0T2taSHAxYUUxS05CSXNxcGg0WDlMVzBzam0wczc4TU1PUTlDdG9pbEd3WG9VbnBMTURTU2VGZ1pHMUotQUdvQlo3NWp4anlKQS1oMW1SblBYNTZ1SnJlcFItaHBxdXNPaVZzQjZYVmY4YU1fZ01aSTJVcTd1MmfSAcYBQVVfeXFMTVRlZldRUTVxLUFsekt0MDA1M3VSMnR1MmNKcHJ0cEdjNDJSanRyUFkxWXozUjRlamhHR0stbkl4cG42bG5TaDRKRXZ3MXdyMlNValVXU2hyNEVNQXFGUWhjNjJ3VDlqVXpmTjlzYVhOdnpZdHU1MUZpMjFjNC1aMXo3TGpBUnhrN3JHdkpkVEVNVkhrQXAxUHRiRzdHd2hRTWRIRV9xdmVaekFMWGRvM2c0aWpPTWdSa1dZMTZDWU9UajhuenFR?oc=5" xr:uid="{DCF94845-352D-4BED-AC0C-C973EAFA0D7B}"/>
-    <hyperlink ref="C774" r:id="rId24" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOZVNlcDRpMkZOSTdUdDQzWVVVbzFpV2lXbUJLNC1XRDh3dUlibnlqSTR1OWstVXFlX2pVWEx4R29JQk1KLV9VVXNiY2owdDJydVhFaVJDQ2t1eEcyZlU1RHdhZ3dWX1dYRVVUQV9QZ2I4ZlZwXzdBenJCZHFacVJZVmo3MlJPQU8yZnlOS3JxdVE5WTRHOUVsNDRSSzZtM1dFZFNkVjVLNzQ1MVc5dnhaVFN1ZXBpVkZZNnZ4bldB0gHDAUFVX3lxTE01M1lWczNKc3lPVVZnUnIzTXlrWEhiRVR4ZXIxWnQ4RkZpVXAyUENralMtaDAxMnEyZmpPZDdFWUpTcE53LVpJa0tFNC1wcmJYN0NfTEdXWFhpSmdRRzI4NFpId3BJT2VZSk5fYjU5Vkp1OHp1MWRIY2dGLUx6dkNnQnJpeEpFTXBtS0pySkRWVGd2aFY5TlhOMFdKM1k1ekcyQ0lEeHZiMk91NU9rdGZtOGFDQTBpSEkyX0hWMGRENTAzVQ?oc=5" xr:uid="{0612C6CE-3FB0-4298-A1CF-D79391A79B95}"/>
-    <hyperlink ref="C775" r:id="rId25" display="https://news.google.com/rss/articles/CBMilAJBVV95cUxQdkVuSGhzOUl3TUhPb2JmRHZvUVBKVWdscDBkSFdxSlBDLVRUc1JDR1NiTEp3Y1lfcUNQV2pTRDVQNjBlc3EtbUVsUEVtNEJBTUFNRGRfMTNWTUJTOTk4Wk4tZWQ1TUpkdzF6eHYwOGwyS0VHbU92dHhrLTBwRzVQWEw2YlFIT3dVRS1kTnBQSnlYcG5VdTdaTGktbDV6VW9uMXBJNDBXNjB2b2N6aF9NRTg0N3BLME5vdU1CYWloSFdMaWd2QU5Ca0diQzVZQThpYm5qWEp3eldRczdCbGMwTFg4b3czYjdTblE5bHI1THRaaW9mSXh0YWxCT21OVS1aV21wR1l0NUNTLWNQMFZMNVNDTWPSAagCQVVfeXFMUFZ2WkxXTXEteUs5YVE0cUg2cEFjeVBiaTNVZS1feUFNU0h3dFZUY1pBRlBfZ3JXZ0ljX21fMW00SDRtTlpSTm80Y0plNU03RWJYTkFKR083V2kxdTdsYjFMWFl3bE5Qckg0QXd1T2ZtVlhYRzFNbWswSGNMckE5SnVuOVpPX2JINEVhU00wQmRkQ2RhcEVuMnNhaGhIQmU5S2tINjRER3lGdlFad3ZwTk51T3JiMXJKTFhjeTlacFVqQzlXRF9GNUdlcUNGNExXRWZyRWVTVWVqcDJFRzJ6RDNIa0Q0anliOE1yaFR6OUpmWEtLNEM1Zl92RUlWNXd5WGl2NDYxZVhsSkdISlVzS2FybWVLWTYxMFZFT2hycmxaVUdybnZMTkU?oc=5" xr:uid="{0A701E51-2FAC-4B2C-847D-53F993F5BE63}"/>
-    <hyperlink ref="C776" r:id="rId26" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxOQnlhRmN1SzRoTFVucnFSNHdRNW5xY2pBemp1WjZLTDhYUWxRZEtsTDZTOTFMd1Q3MGJqbmFRcWdBaWdubF9pcWJOY3BoVTd3M2V2ZE5JSGg4MnZuek9tcFBBRHJ4TnpjUzhpYnExNVM3TnR6S2xFd1BqRzFUNGFkazBIR29tNWJHdXEtVTZzMW5CYVVtMVhEemFYZWMtRzhZNEI3SlNwVnZ3RzNxOHU2S25rMTgweEM5U3VTMXR0X1ZsbG8wMWVZVXRFaE1QS1ZpTGpZdzV2R2ZyX1HSAdsBQVVfeXFMTkJ5YUZjdUs0aExVbnJxUjR3UTVucWNqQXpqdVo2S0w4WFFsUWRLbEw2UzkxTHdUNzBiam5hUXFnQWlnbmxfaXFiTmNwaFU3dzNldmROSUhoODJ2bnpPbXBQQURyeE56Y1M4aWJxMTVTN050ektsRXdQakcxVDRhZGswSEdvbTViR3VxLVU2czFuQmFVbTFYRHphWGVjLUc4WTRCN0pTcFZ2d0czcTh1NktuazE4MHhDOVN1UzF0dF9WbGxvMDFlWVV0RWhNUEtWaUxqWXc1dkdmcl9R?oc=5" xr:uid="{4B9198A8-FDCC-4008-89F0-DD16B3A13EE1}"/>
-    <hyperlink ref="C777" r:id="rId27" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxOTmQ1clJFSW1FLWhjdjRYQVhCdk9ScUFaamdEMV9JR283X0hXTnlOcGlMdkpzRng3bG1DXzN3WnJuTjNwT2JfaGhnNmNlLXFGZVZreU5FOUtlSVpHZ05lMkJqazJRUVhqVDNWQTczSFQ2UnR6RXFWQVhsT3pUMDdaLXZCSDU1azZwMDZIdkVuanc2dHF2QlgtRUk4Uy0tNFYyUzFmRk1FVURMTHhJVFVJ?oc=5" xr:uid="{464A19E3-415A-41B4-980B-BB3529D81779}"/>
-    <hyperlink ref="C778" r:id="rId28" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxOdDQ2TGRwTFhSUHRKUUJkR0o0bU1ibTRFdVFFSWUwdWNEeEFNbDQ2aHQ0amgwSS1tU2FOX1VyLUZLd2d6NWlzSWNZUy1BSWZSUkFUU25XY1dhV1l4VmplVXFPLW9OQ3p2SXFBcDBVeFJuNjR0MTFVR2ZwclJqUUJsNlRqMjZ6LUNOTkJWQ3dFZTN5eU4tbl9CMmpVTjRYTVlzRHdIR1VfVEZ0LXdHTmZwTGNLVnEyUDMwQmNabGs2V3FyQW9ocUVDc2tlcG00dW03alFqSndmUV9PdGZ6b2RscTN30gH8AUFVX3lxTE1MUWprT011LWlqYzMySXY4SmxRVmdHWHo3dGNjcHVzbDJQRF83cjQ1Rjk4UGJGWThmeTdSVE5SYmctMnptcGpRdVNlRFgxVXN2ak9YU2RaczFmNlRXdks0R1d1VGRjTnhzcGdJUlRTWWJCclNZNk1QZ1RJLUNWZjVOeTNwR1lWcVRsVUdLWDFBaEk0Rm9GUmFpam9laWVnVmVhaFZWZ0xIZnAtVEVFelFfSUc5Zjh1RnVwT2xRVkdzZ0k0cmF3Ml9sRTR6TzZOdlNZdWt4eEk1bFNwWkJ4c3dfN1dmZlBqWGkyR0FXV3hhckplemJHdE9mQnpqdQ?oc=5" xr:uid="{B1F8E83B-3FB8-4C89-985F-70C4F29C10E9}"/>
-    <hyperlink ref="C951" r:id="rId29" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPQjFSeV9LTERISEJMMndiLWZtOFZMcGtRVUQ0OGRnSVMzcTZfWjlobk0zeS1ObGRaZHlLYTA1RG1YOG1SZU1qOE13bV9qZG56bUE5RTBuaXZ6UkhLOC1LaXlkZ0QxZy1HM3l4VmVnTktFSVVtN1Yyc3pUek1DSVdtMko0QWJwbmFtYWs3QzEycU5zUW0xY3pCNlpPckdGcHdiN2plRUxBT09Uc20yUXdGM2NBeDlOVUJjVmpiaFpWc9IBzAFBVV95cUxOdHVoRjlmdDBkNnQxVjc4WnJ6Nm1hTUlKajU1TVdrZkdHaDZ2Z1M3NUJQRkNRS2lJOHhlVWVqaUQwQk1jMHNzV25wUmw4U20xTkNNb08tMnljOUlJTW1rSVZDeHhCU1RRZ2Ewc1RDUkQ0ZGUtTXRNYjNiMjJIQ05wNHBCaEdrWVJKSHBpMVlvTmF3UkhZYmRpQjM1R0FLZVdCY3p1VmhoNzRtOGRTZnB3dkdvSUZXcHdKUzZXdzl0czVFejE5OUZNVkktN2o?oc=5" xr:uid="{F09DF817-68B7-43B4-834C-3B6E900782AD}"/>
-    <hyperlink ref="C779" r:id="rId30" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxOOEs1czJjQzlkSm0zWnNBVE12Y2I4NWljUllid2VaRlVYaXJ2UGFyVjF3aXpYeHlsRDBEM0hOYUlfbkFhSEpIdmUtVWNjQnF3SjhXUEZfLThZTkJrbDRJWWd4YjhLRERqUXRkXzVBRk9OR1BaX0EtbzhSLVFhZmpHcEVFakdhNkEzRDRZUkNyUHpqZU92VU1vb09oZklNNUZJZ3h2MEJkS0duaXBidG5mMzdmZGJsb1F2R0FKdzA1T2VmY1Q5UzlHcTB1YWJ1ck0zYUFmTE1aNklma1QyWkV30gHfAUFVX3lxTE44SzVzMmNDOWRKbTNac0FUTXZjYjg1aWNSWWJ3ZVpGVVhpcnZQYXJWMXdpelh4eWxEMEQzSE5hSV9uQWFISkh2ZS1VY2NCcXdKOFdQRl8tOFlOQmtsNElZZ3hiOEtERGpRdGRfNUFGT05HUFpfQS1vOFItUWFmakdwRUVqR2E2QTNENFlSQ3JQemplT3ZVTW9vT2hmSU01RklneHYwQmRLR25pcGJ0bmYzN2ZkYmxvUXZHQUp3MDVPZWZjVDlTOUdxMHVhYnVyTTNhQWZMTVo2SWZrVDJaRXc?oc=5" xr:uid="{1C8E0C56-EB53-44AB-AD09-DF7B0F8B97A8}"/>
-    <hyperlink ref="C780" r:id="rId31" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxNQy1IN1M0N2JKOWw2cDR5eXRkUl9ManB2T2dBUHdDMDBpcWVsRmIxRUl3NmNEU1R2QldHek80cVZxUDlkc0xVb0FONGNiNVZIQ2ZxR3JGLVRyNkZVTTJMaDI2dWxaZUk1enJGNEh4aXJ2YnZta21ENmI0WXdUZ1JWdmkwVXFHLU56cVVxU1BTeWdWTng4cnd1dHJfV1hjNUR5WTVwdmZFWW9kbVF2XzJWOU1pNTVkWnRXcWRyRHdaZW80WXpYVm9NNjA5MUQ4V19oa2xtUzZCNVNhdnJLOFJfTFNyWmJheVlnamfSAYQCQVVfeXFMTkJOaU01M0ItVHJnVXdYSF9ha1RId3ctU0NTY2x6alE2NmpjNHpMV2t6UEVvTVcxcDNNSlB4UTlXY0h4TEMzTWFYcVEyWHJkOURlZngxempMLWo4WkJpWDZZN0tZdlFLRTZWb1BLZ3VrS3hFMjg0LW5PZWVZOENlYUVaR2lrMmFKcDFFaTFRNVZzM1BkY1FUTkx2a2FtY0dNLS1CSVM5YTF6WjU3WkRLZlJDVUNtbGpuMnZjODhINjRzeUtNRjgxTE5NV3NkMmRwMUJBNVZTS0NnbjVOTFFjcVFZM3FoR1BHUXNZU0dnN0J1RmlPcTRQanIyTTZqcEJlYXdyNkc?oc=5" xr:uid="{5BA0B6E7-1F8F-4EE2-9AB0-26E4147656A8}"/>
-    <hyperlink ref="C946" r:id="rId32" display="https://news.google.com/rss/articles/CBMihgJBVV95cUxNSUlYUDAxT3oyS0ZBMHg2bmNOcmpweHhUQWdHelM0Q2dLS1F1UXl4QjQyQXhPOXRZaTZfeU9NbmxOeWVHNk8tOUd3TW9fMENDSkdfWUEtS2tiMy1wOGJEdVdSZGF5blhCVnkwemN6Z25KLVE0bXlYNHV4TWlCd3NOa3ZDeXg2YXFwSUdUUVJkNFZGWjM1NGUyOTlaSUhQWjN0N1E3dHJRZGhjdGVIaEx5aUtTQ29YWFdEeXBWTEMwZ0tBRzFpOVB3NWlFVWVkbXNkM1YzczMyeE4ydnlWbDlVMkFQSGVFWnZLRFhzeWlCdHpxbUktU3ZQVEJmaHJETEIwUURrMWxn0gGLAkFVX3lxTE5pd2k4VkRhZTZuSXpPVC1GZzdya3BhUWMwcW41SnJzc2gwSVphN0JYYnY4aEhNM0JycVdHaFM5LVdIZVVMeEZfeTh1R2lYVGxtMlpyM1Zuc0JPa0Z0S0F2Rml4NnZFZElLdVdpN2wzUHJPZ1hScHFuTVBVTXd2WWFMMVVBYlc2SUNHWlZIbHRleWttMVVUQk9JLTRkeVVLN1NzNjVob2ZfYlFKc3kwUzlhMUxTc0JKVmtXakRQMEVXS3VRaEdsUjhBVHZ0ekN6MnJpaGRkdGJsU05kckQza1locVJwYll3blpkTVFNVEd5Q2h1VWhDRzlURjhSUXNjVHgzUU9ack5kZHNhRQ?oc=5" xr:uid="{298257CC-CDCF-4CB1-974E-11B95D8DB3CC}"/>
-    <hyperlink ref="C768" r:id="rId33" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxQYmNHYl94dVlRcTJCN0F2NTBaNjN1aFVlaEQ3UTg4bGNTc0dacmh3cndRemVvam9mMGtEUGllZVZIZ1lSQ1d6MDBzRktneXJ4bDFpNlFoY0NfMFJXdDY3TUV4UUc3c2kyRnBjOXFVNFltT3B1R0ZXSGRpT0VMUGNqcVlqMVZVb2tyZDZjcGU2NmZmek9Da2FRZkYySmR6NTBQUWo4eDhkOWNFWGZiSDQwSV9GX1hOTFlUcXVQcWJlZjYtRFB6SkpIeVpYQS1ZZFYwc1VCeC1DVmVjVDM2S1ZKMktYcXJ0Y3pscHBISU80MWJhcmhuYUx5SjN2YlVRLUZaRXlBUF92R1hBOEdvemJwcTdEVVFPeFc10gGzAkFVX3lxTFBhNGY2VVpfQjloTXA4bjl3TVlZMG16OW5EQXFOY3kxMVlCZWZDOEFJLWRPTHV5NElycndTUTY5eUFCRVl3aXpGSVlSYjFLeFRxS1lWQ2ZnckhaOUo0YWo4Sm11TnFKd0dHcUJrcmVPdTRqeXd5aUk1WGZLczNXNE9qcEd4NkRDYWc2MGRJMlJnODkzakpLWnJTU2JPWDZzZWN3d2RLdEtLdHdqMjlHT1FsYnc2eWZITFVVQW9EWXMtQzN6QTJDeVBERUpxbWViWmhFMDlPbVhNUndpbmljRnJxZUtDQ1R1aHdDcFIwdDAzdG53VUI2R1ZOUGhCMVBBbWtJVGVYYVEybmtiMnkxdWZrQ3RUTFFjQ2VLVVUzUGxiVHpXcmEtMGQwY3k2VzFRY2ZqNjA?oc=5" xr:uid="{895A4433-7954-43CD-BD9A-BC81D3A43475}"/>
-    <hyperlink ref="C1004" r:id="rId34" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcld2ZDkwNWxMRWFhMGkyVHZyZ1pyRkxPRHZKWXlaZjFXaHpCZDJmOFlwZ1BVT0lDSzhiN2V4ZHVlUmI3V0RldFliNEcwLXJ4bXM3c3BOUnRXZm45SmRkZHZYYVhjVFh2TGhUR0RpakxSUU5BTU1FQlNvd29MeVpjOWhCRUgwYUk2cXYzZkdqajBkR1VXUk1jUXA0Z1NKSFViZVpRWHpMbEtYS3ZIbnpWUkNxaURXbzlrTjJ2dVkxN1owMWpNcGMzLdIB3AFBVV95cUxPelZDM0JWVXVIMGs1bWtHVU95UGlQS1BhZ3RIaDNfeUgxeEVnWTFaWjBMMzNkSE5ONU9MRmdkN0pvWng0ekpvMDd0RnZpSERhczlIa0xqU1J0YTlrQzRtN19NanVMRkV3dGJKNVhFRy1UVW4td2ZaMnVNTmN0NW1NbDN6Uk9Mc0gtNm9lMy1obWlLOU5RbWxVZzRqcWZWNzVfQ2wwQklmRVZyQ1VfOFN2OHpVVjBUc0hLRVJJREVlOGQ2bUd6Z294QXBnZlNmNG95NjlJU09NLWRMRTI1?oc=5" xr:uid="{084C2A87-5568-47F9-B20A-2DCB60CC1121}"/>
-    <hyperlink ref="C916" r:id="rId35" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNSTRjRzlGXzZCczdhZUNrQWRrRTNYV0dldjV4RG5oVGJ1UG1HWnFMd0pSbk1PUUV1XzBwWWlVWWRnRG85aWtWcG4yR1BzRnBUaWR1eWRjZFVKREVjMmVRM3RwejZzRFJpZF9YeEQxQ2x0YktoQ3lhYks1cExwZ0h4cjlaWjE1T2NmWmU5YnNlaFUyMnp6VllMNTZOLWlGSzFKcFNQSFFia3lRNF96ZXNyamxTUks3ZUFHY1BXOHdSRERRQlYwcGNqZ1Frc1DSAeABQVVfeXFMT09kcVZpbHVXYnY1YkthNUEyZU14M3ZjN3VLSjlWVWVkN0hJR2dUcXJVZXZSNW1tT0t0V1g4Um00WWF6cWk0OVNSb19sVWRiSmZiaC1MdHFLdGxWamVrSGJXczRBd3hhTEJBQTNsaFR1N3lfRnQyUzRrMFlSZlJlQjJ0WlZLckZJSFkwb1c4YlVFUkdjcW00MTVxZ1Y5YUlGZDM0X1A3bXZXVlc4TkZFbE9TU3hqZEFRQVA1ZWtyWTFfNGRrWGp2ZS05ei0xTHdHZmZ1TWZSM3BTY2NNLUJfWUw?oc=5" xr:uid="{187ED251-5AB0-4990-B5BC-E5F246DF026F}"/>
-    <hyperlink ref="C917" r:id="rId36" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxQeEZROE9yWFV0ZVhiNHd5cWtHYzc2QldpYWtlWmhNeWVFUllYempFbkw5ZXJyeTExYTJHNnlRTW1TWlJyNXdJZ0lKZ2dCTG1qUzFpczF0OEpUNVZqZTFhTXd5VFNFTlA5aUw3NnlkY2dGUDNqNThrdVlZZEdGYXRiVlJrUU5IRTktYjdRdndLeFNYV1BqY2tSbW9nczJRZFViQXJ4OFprelYzZ2h5RUlyT005X3E0MGhhVVFzZ3pFWUV4MFhJQlg3R9IB3AFBVV95cUxQUVlreGdWb0R3RllIZEFXb21JVHhyc3l2TEFaRlRzZHV6S3R3TENlc3B4aTBUQmEtcTZQZ1BQWnEzdDh2X3dTMXVfekIxbmFHMXU4Zm00SDNYTkRhTnd5Z1BCVzBYaVVFa0dsTkljU3BJUy1Jb192REpTRTZGaHNGZlluQ0szUmphYmx3cjY4N1oyT1AyWVdsNUhnSXlNZGU3N0lNZy1iejNscVVwTk9Bc0t4RTZ5czlPV0FhcldyOVVmdWd1bUdrN3Vrd0VpbDNyUG5kc2x2UXJfcEds?oc=5" xr:uid="{9A3AE09A-365F-40BE-B011-CB5E7356A2A0}"/>
-    <hyperlink ref="C810" r:id="rId37" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxPWDNLTGgtS284QUVMT3g0UVNUY19BVzhJaXFLT1EyN1FaTko3VWM4ZFJSWVU3NmQ5dEJOMHpxSGx4THk0SFdnb2ZrZ2Vxb2xzdlR2NWp4RjFHUzZSWE1Wc1ZMeDRrNFpvUjZjTVNMVXAzemV5ZnRuaXVHOFRIdkJQd0FCeXhNUGdFN2haazNmYUJlaWxta1A0aGtWOTNDanN2b3l3dS1jN2VZNE9ud2JOS20xQVBDZ0VRV1YyOHc1Qkg3R1pMLTVEZ0djVW1rQy12Q3VoVU5oenhTNU5KMGhQaUYyRHRRWGZORXE0?oc=5" xr:uid="{6473A7C5-8528-4565-9F89-9C72026FD366}"/>
-    <hyperlink ref="C918" r:id="rId38" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxNRWpOUkpmNElWU080RHlMM1Q3ZWYzOTdEUzZNSENvTFdWUlpuT1otTTd4b09YOV9PbEdTVEFxTUt3RnFlalZZbExSM2YxbzkyMVpMZUVzbnotS0FhOWhXNW1sVFVMdGIwOVVJcDlOSW1uSlRGeXBJYnZlTGd4M0JqU2prZ1REclRzSDl2TkRlV2R3UENJdTQ4M1hfb0pQeEdFN3ItYko0SGNsMjJtdVdiNFZjS1VtcHZvZGJpcFFWU1ZpSGhBTUFXbnFacFZVVUltS0dyWWhyVG93NENmWG1peGM4dVBtUUtMcVJvb3JjaUwwQdIB9wFBVV95cUxObHBwVHpYcFRtRHZ0RWpXT3RJUnY5S0EwZWgwQVFkTnUzaVhQNmtJOVUxcTBqd2cwS3RiRGFxbFBJYk52VEhGWkpzYnBkSVpJM3g3aGxsVGJwVW9zNjZyeFAxSUkwelJUWHRfMGhwV3diLXZ5S1I2TGlBaUc3R1pmeGdMQmVLQS1ZZnNuclUwbzE3VTMzR05OaFF3NDA3M3MwaUYzWXhDWklxS3lTS0stY3F6c09SMkhsSVItaVBXQVh1YUx0a01RT1ktcFpPdDA2QlRMbzlHWWJMWjJpaUVabXAwMU1LQXJ2bE9KN1BIWnFhTzh4WWVV?oc=5" xr:uid="{1FFB278C-C066-4864-9FA8-25ADECF45ED4}"/>
-    <hyperlink ref="C769" r:id="rId39" display="https://news.google.com/rss/articles/CBMiswJBVV95cUxOX05VQlF0T1E1bFBxY3otQ2pWWWZwdng4WlNxQzFfOTRzWW0zRjFVbnNtR19pcE0wN1h3d1BZbHRVZjNaU1hyeHIwTEM2LXA4UWhNV2JFRU9ubmF6Z1NKWGNCMUF4RF9KSkFDNHI4dHRJVjlWRE9KY1pUWFd3RTBSMGxfYktDX1NFQndCMWEzZl9tajNCcGZmLTZHRXd4UlRBT3pWWm1XTkxxRDROSnpzXzMtTTloZEJaTUVhdUFEekJkMWgxNGlmT1VvV0FZNUhGQU5MNHdhWjI4a09PMzZXX2Y5ZXEwQmk1SkZvcUd6VEpVVm00cDRfRnAzdTkydFV0RGtYVWZYVGhDUVZ0YkUyTjhDbGFhM3VKeXYtT29NZkxJZ2k1WXNla2ZOUlZvT3Z3YUNN0gG4AkFVX3lxTE90eFRMeVE2ZEY1ekZ2cThkQXVmQWV6ZkF6UFVPa0xvOVExUXhvS1VVcG02UGN5ZTF5T0xUekRHeWtaVzg4QnZXNVRQWnpXVFZtdXQzc1lfeDVHbGVJWmZYRnBQQmFzSUd6UUxUaWlSUDhiamFUbHpfREFvQ0MxWVFCVjBXdnJ1R2ExY2FtMXBjRTByaWZtdHg0a2lMSUN0YUdLQklVaVFXZ2RSY3c0UjRWQzMzUmhmME1nbW55Sm5tV2luZEZfclVEUF9HWWNBVk5EUko3MlNrOUM1Ukl2M2pyWUlVbjlSU1A0Ym92aVV4WEpZamNYUG9jVHNCeGNfZDQ4eDk4Nmh2UUZ0WHd1ZFRUMVpCOVlQbDdwbXQ1cnlNSkMtbWZHZzhXTFlGUkE3Rm56UkNiV3c5Vw?oc=5" xr:uid="{519FA85D-02F9-4EF0-9671-666AAD5EB4DD}"/>
-    <hyperlink ref="C920" r:id="rId40" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxPVHFfYk0wSEN4VEV1TjNmMmtHU3k4dV9rTS1aZnN0RkpHSE5xUEQwNTVpXzZDR0lTQWlpbDhtOHZMYWRUeW4tMVBoSEJoazNpZkNfYjh0SFUtN3p3UzN2S2ZSSTRRdkJ5a255ZmhfeDkyYXYzZHZsMmtoZUN1Tm51aG04a0dlZEk2eFRuaWpSejN0QkxrSDY1LUZJZjBWa3RkRExwWFBhTEl4TU5xcWR2SE5CYjJuUWlSV1RONTRrM3ZBSkU0dkYxR2RHSEwxU19HSHdpRXFn0gHWAUFVX3lxTE9UcV9iTTBIQ3hURXVOM2Yya0dTeTh1X2tNLVpmc3RGSkdITnFQRDA1NWlfNkNHSVNBaWlsOG04dkxhZFR5bi0xUGhIQmhrM2lmQ19iOHRIVS03endTM3ZLZlJJNFF2QnlrbnlmaF94OTJhdjNkdmwya2hlQ3VObnVobThrR2VkSTZ4VG5palJ6M3RCTGtINjUtRklmMFZrdGRETHBYUGFMSXhNTnFxZHZITkJiMm5RaVJXVE41NGszdkFKRTR2RjFHZEdITDFTX0dId2lFcWc?oc=5" xr:uid="{27796175-D0C9-41A9-9B45-C678EDE254BE}"/>
-    <hyperlink ref="C921" r:id="rId41" display="https://news.google.com/rss/articles/CBMimwFBVV95cUxNa2hwNk9NVlZuNnBmd25CTEc0LXZncGdhaW5iR2otc24xR1RnLWN6YnQ4RGU1ZGd5YUdvSVRucTFSc0lvQ3Z4YTdhaVRBc1BMSldrOXJYd0RsR1o3bml4eV9DU2NNQlRaamx5VEh2ZlRuYUlaUkk4ckgzVXZ3ZmF1ai1CYUFfTkZXdWplZElzVEZTQ2xfVThjRXFpMA?oc=5" xr:uid="{75902A0F-B588-4078-972F-AEE22EEFCEE5}"/>
-    <hyperlink ref="C922" r:id="rId42" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxOUV84LURlQTNobWxITzNBR1F3Tjl2NWM5SDRlYjk0c0Z3Ml9XSk1RaERIU0o2dm9wTW9hVHRobC1Va01CeWZWUmpTcFdjeHhsdkFWNXJtaFlhd0VVSE9NY2FJazgtY1ItdEJDNEptQmw0TzhtUGM1WTZZZWZ4bGk5eUVaenV4Z1ktak15Q1VQQzRobzk2WXBBMVJRckxJc0lwVFNHM2tLUERCMnZ4STUyZ1g5aTlreHItcFZRbTgwdHo1Mng1SVlBZzcxalU5bF9yenNtddIB2gFBVV95cUxOOVpSNWJHeXljbVB6UFhqa1F6dE0xOGJGRGphUmotWkdHTHJCMnAxS2UyMklwWTUtR2pqRU1CaXFNb2QzSEk0eldNLThLRVdvMTFLS195Z2JjNml3TzB4WG9RLXpPSGxBOWJxcE5zSTFwLXoyVTVKTUVDbTVGM0NwLXhuRzNPeFBpeWFWLTRqdWdFdVdITkd3bUV1Q09zN3dsQzQxNFpoX1ZwYVJ3SVc5eUZENEhWVEtWMFJ4SXJZNjZvdmRDaHB6UDZrTTZKeENfN1RWakFDOElTQQ?oc=5" xr:uid="{62B5E20B-0668-4548-8280-2F6141191577}"/>
-    <hyperlink ref="C923" r:id="rId43" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxOTDBTbld0Y2gtRmpyTXE3NkUzMlpkc1FJWFgza1pIMTU1dWo1Z1JuX3Z4cmNHdEZRaTNzeUROQVhld1Y4N2xkSnI3SnFCdC1oUTU3dHlHZmx5c1RFTlRDMzVoRmhoR2VlQUVXS1d3cjF0R3RueUdMaW5vRlF0UUZjMS1WTHhsZkNmeGh0Q01kdG8taW9CeVFmRGYxcWJodFlTYmtHbjhUbmVvdjlwUmxDSUNLNVFxcnljQ1dzOUNLNVJJN2R3QU96M1JwRlFia0NFaEpRanlod3JLRmFYckxvM09ZcnJsbVREZkl1YVRKTTJaYm1oNVg00gGSAkFVX3lxTE9uQmxYVkxNeVpyYk1oLTBRakZTbTZkU3BXNGdvU1pKUkY4NlVGaFkwdWhZMHd1UjlJZlB2elgxNTdDWlRsTEN5MHlpNG9BSTFxNlFDWWtCdXN2cGdGaE5rVjhrOTNhcHQwSTlFbktqNk5jb0c0TkJqUXhDYTJOVFZHWHJiR2I5LXNfRnYyR2w0YTNGSXJWWFI5NzVkTWduY09DMHdXVzBmTjB1OEJIeDF1ZHBXXzlkNVhfSEMya2VMdncyZGhER0o3c1J4bUlhZ0xnRnBrR2lLSjVPWHJJOVFiTFZnVlhqWGItZFBkTlVpUkV6WUtBV1BiVk9FWlNGYzhTLS1ETFJYcFpEOGJsVWFPOUE?oc=5" xr:uid="{B7642488-EB33-4F25-B9D7-44DEAEA0E5AF}"/>
-    <hyperlink ref="C914" r:id="rId44" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxOSXItM1VIZnYtcU1CR3JMc0w5M2c2ZnBaTlNoLWVKd01KYjhvQm1qQzVsc1BFNTNCQkstOG0wNlQ3OEF5SHJ2anV0djg0bzZXUnlnOXlRWHhSTzJMcTVUaE5DV1VHTVR5c1BBYWpsb0xLX1VYaGkwYTlKS2liaWF2S3psN0xMZGVBQjlRNWlPTlpGU1NDMUhEWEVGdmZNblR5R3Q1NGRPVkNMck43a0xvSUJtUkg0OW5TalZTUHV6a0hJaVViVFg2N1lINlFmUQ?oc=5" xr:uid="{A95C3FC0-204E-451A-93F9-36E2DCDFCA3B}"/>
-    <hyperlink ref="C915" r:id="rId45" display="https://news.google.com/rss/articles/CBMi_AFBVV95cUxPRkMzOU5jcXVVcHUxWjMxTUJaMDJQMTg0bl9LcTB0ekNydTAwbmxjX0ROSWcxRGlvXy1UaWNSdnVUVzhqZEE1SWRTUTJIU3Vhako3a1FPZm81NVRJRW5vVkxqODExRGo2SjhDalN0NEY4Z0psUGI0WEIyakxVSDQtc2VIRkVTMmx1blNJWGlUaWUxSXBWeFV5dXQwWVh1SUJvQVBDZUR2bTVhZXFHOXZYM18xeWlicHh6UFpoa21NWUhUaFllbHRKcjlSempsSzctbFJXNWlDV3dONzhMSUVPdDFqekU5aTZpTXg2REJzaWNTSG5yUmxNdjhpZzQ?oc=5" xr:uid="{1A9C7567-2AAF-414D-B56E-88157D3FDD25}"/>
-    <hyperlink ref="C1008" r:id="rId46" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxNb3ZRZnlwcS1tV1N4T1NybXlnODNOWE9MVjFfMUtrc2hVckpQZTFEc2poVWZ2S0ZQWGFPNnR4SlRvSkxEZ0xQTE92X0hzb0FaZVhQWDZZRm51eEFQSFc4bElSQlhldExReWE1SVVUbk8tTmV3TDEweXlXRTY0Q3dzdG9fMDZycjJVNExMeV9wX1Bab1pDVXp4NjBUUk9LOHMzYlJfUFQwUDU4b056enM4eXlpUnBEaU4xNWwxNUtQazAxd2xQcDZj?oc=5" xr:uid="{5ACC835D-0125-44C0-8659-95113A667F92}"/>
-    <hyperlink ref="C932" r:id="rId47" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxNeGppYUlfY3o5R3ZfSDZFeVd0ZXFWM25BOURxUFFvandRS015UkRBYmRvdG1qQWtuSnF6YjhfcGRPZml5TVBVWFFremtjb3MxQ09xTEQ0c0t2TEpoYk01RHExbzRZdDBOTFFfU1NtcVJXWE9JdFo4VFlPTGEzdzRvc0pNV1hyVEJIVWNwRTBta0hrVXN3M1NQc1BYZlRhN1V1U09qMG1UMElxX05TWXBDcWxFWDA0N245UWZiRE9mY3ExaEFaYWtCSVRCZTZUb3RFb1JpMnVfenl5aDVfSlIwVWZR?oc=5" xr:uid="{06F263EE-39F2-4C2E-A718-35D8409651D0}"/>
-    <hyperlink ref="C933" r:id="rId48" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxNZ0NHRWZVS2E0dGNZdUFBcVFLc1FWR2JNc3NNSW8wclhIVnJwUHNWaXR4T0RXTHZ4Wk5DQmZJUWtIdUQxTVl4MmRyZHZ3ZTJ0TGRvdTQtS2ZyalM1UEJ2UjJtVXZMMWxwNEcxbXl6amdET1o4Qi1WNG1aUzJQc0ZfX1RJSEhDT3RITXZSZVRCZ2I1ZTM3MEg1c0ZqVHBqTjRlQlZIbGt1bEtCRnFoSVNzTHptYzZ5ZDJybXhwZVd5Q3RxOGN5aFN4alZQVThqVHlNVkNaeTBPQzc2Z3NWNFBJY1Fn?oc=5" xr:uid="{28EFDBA4-ADCF-4915-8B8B-D1F01D8ACA1A}"/>
-    <hyperlink ref="C1009" r:id="rId49" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxOWEowTnlCTHV2TWoyZTFUQmVfVHgtWVBrNDJfRkc0d0k0VWtSTnhlYWlCMzBGdDdZT1JOM2M2NUtsMWRwWmY0Wl83eTFWUFh4Z0hUYWpWdGpYUVdia1RDY3RrMWlMSDFWck0zbVp0Z2FOV3h1ZWtiQW9UX01SX2xKbjBsaDFDMnNVQ1JVekdnbVNXbktNdTRJZ0h1STd2dWtIS0VGdHEweXhraVJnZWFFZmVPdHhtT0hYTlJyblNPUFZQX1Bl?oc=5" xr:uid="{54FA5011-AD72-4633-9310-BF0C54E687F9}"/>
-    <hyperlink ref="C813" r:id="rId50" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNSzA2UXVxaU1XekF5dGRWN2RiaXQ1OEFGUmdva01jQ21jaUdxSF9lSk1FU0szZHBNc3J2dDhSYjM2aXU0OGJvTm9PaEZkQXlyMEtHSzFtLUpXUElzb2p3WGpFRncyc0tUVG5PQkZLMTdZRnY1TU1taGJHeTZTeEdSektJRWlTeTl2NHRuUFZDQjBaeXlVOHBfWmpfcVB6NUhtNkpOS1ZGdnY2TUlUSWV1SEsyNk1UQWJ0T2g2LVZoUzVIRUEtMlJRYUJndHROVVJJM0pKclhEbmVXOVkwSVRn0gHkAUFVX3lxTFBaZnJPcnkyOHcwMlVfQ0tCMTEtUlEzZDR0MVc2V3c1dXNhbkRJa2lPZlE3QkwyQ1R3MWF1TTdCMmVkR0dKc3h6Z1p2RzRGWC13eGtWUHZpenh1TjJQYWpod25TUXI5S0VYZTJwYUhhM1JieFQ0MGpOSXFnUjZaQ3AxN1d3U2NTTk92bGVYTm4tVllDTTEwOW1XWkJxVnZCLTVUcGJTWUx3MkhjamwxTERVaE9QbW9DbWNJV2ljQU5tOFFMc3pWaXJ2UUs0aV9Za3VVMnBVYy1LV280eFR4dS1TRkdNMA?oc=5" xr:uid="{51F543B9-1D80-48F4-B73F-C00381151F01}"/>
-    <hyperlink ref="C964" r:id="rId51" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxQajNjV0ZpRmlyQ2haQ3VwSFBUOGVHSjNRVXhsMlNnUWlVXzdYdW56UjJsU1dxVXNTT0xXT1hPWDRpRmo2Ri1WQVM3Tk5fTlpxOXE4WXJGZ3Z6STFPVi1uempNZXh5X2RDNF90TE9BNF9HWGZkQmxrN09MU2loUFVCdThvSlEwdnBNcXkwWVZpSnpKbzNFdEU4RlIwMG1NVnBFT3JWTUZfR0hBRG1jYWpQajY5TFg0NFZLSmFxcC1LQ2sxY01KcE9CUm1JZEpzLU9yRkgxeXliRUxFcTA2cks3dG5lVkh2aDEyVTJYd3lOYm1QLVo1Z04tSmtDcUwxc1BoWG13Mk5sb2xPMXJa0gGSAkFVX3lxTE82eXhxY3JkanRSUDRzaDNmWThSUFBuRjJiRjlKRlhJQ0Zpb05oSGZDcmNjRlJMYUxjaGFwaW00cXlWWGdjUjlrMVFqRnlMX1FqaHJoZnRBRDg2TEFxMTUyZkw1cXFIcGlXbGhSUTVfUWhQTE13OFRNYUFXT1JHd3F0U2R4X3NhVlRXZm1vY1J4c2s2WkxpTUY1SzZSRFQ4Y3RzZnVEZi15b0Z6M2lqTzJRVHZLbTVKa3gzTE9HZDFDSVZtUUJaaGI3TU50VTREaFktMmhoY1o3MkhiYmlmV0FaMEtiVVB3TW5POTJzT0xwdWQ5VTJkOThHMVIwanJienlxc1dZWlhyQjJfX3k0SnFmQUE?oc=5" xr:uid="{BDA8F169-D1B3-44FB-A306-6FA89F1DCA48}"/>
-    <hyperlink ref="C814" r:id="rId52" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxOVmxzSHZJVG1xOC14eWlJQ29tU0JCb005Q3I3RWNFdzUtT0pER3cteTg1LXh4TkRQemJaSnh3MnNhZDBvVXNQRFZ2NkVtdC1QcXdtbjRFWk9yTXp6NzQ2UzVkYzNVVUlGMkRjVF9EaUEwc2hTYl9veGh3V1pQb3JnVzVxOE1KWFFDNmhBUTZXOGR6TXJqT2hWWUdmTDJ3UnN1Y2c2Qm9zUVRKQ21nNzgzMHVYVmVTdzFYZjZ5b2VnTkpid0FvTnJTU0FzQ3N3NlpRWk1qVVYwdms2UVZaeU9XYU40LVEwdWNf0gHuAUFVX3lxTFBOXzBkUFJodG9fWU51eDY1RXJ6eFh2b0Z4eVRvZVhPc2xVYnIwU1FjQ2l0d2p6MXRXY25pTURleW8tN2w0TkJsNzNrV1M4eXd6OFJRWThjNlZ3OEtFRmtvdzQxWnBsSUVEUVJmOFFqb1o2YTI2TUlsZ210NURlQkhfTXcyV1MxNjd2MldvdEVKMHVsb3dXLXlDdklCX3BydnJOQVNuS3NnUHo4TThqVWMtOWFLMm11OVVGS3p6Qlc3Yk90SFFRTHhsc29ncXZiZVBHMnhsMXk4WWVNZDlldTZsU2ljcDlhNng4LVk1UWc?oc=5" xr:uid="{A8BB5B53-046A-4930-8F00-75C42D94610B}"/>
-    <hyperlink ref="C815" r:id="rId53" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxOVVF0ZUdnbTY5ME5fZDhsZzRoalU5bHlIYmYwbVVQcUl5dlVjZmJySndyVmZjWEllMnhJNzNpS2lDVEVGT2xpRm9iMWZOT3ZUQ2ZISlVuQ3liVkdPclhkcmY1S3AxeGNWS3RvMDJWX0NJT09ZUmxLTXZPZllLNXdkTEs0SllLMENwYXRBRmM4YTRpWVpPQVNkVWZPS0h0Y0lFY3F6YWdOVG9makFKMWtDRDlUYTdsc0xNNi1QcnRJM0tuTGNEZXRiTUQzdjJHSFotcmt4dzQtYXFlSjA4ZGlYTHkya1NjVnFkRE5GMmNaLWhiTDBCV3hBZdIB_gFBVV95cUxORTl2N0gtc1A1bThNMU12YW1DRlZNRUxmUDY0bElBdGVOVF9ZT18xVy1ZcGQ5U09mQllqcGJzOFZYVk13VENRM0ZUNGQ0VnFoTHJtRjR5V19sQ2JWaFljODAzQkdwZTNvRDQ3MzhBTFFGOFlMQm5welFTbjV6UmZHTTAtNG00VTBIZEVydzZOS01udkt2Ti1POTFQd3lLaFBsVWZwd0p0Q2R3YTJNczdfZFRNZnF4VXA4dXJXeTZOX1NXa1BwXzgySWZSM2JWRG9TZ2tILTdvTHZ3SzhaaDhwS2dpc0RnUHpMVXVmYVpJUW1XV01xejJMS2NBUWNpZw?oc=5" xr:uid="{B519A7B1-BEC6-4E9C-A897-596275A47008}"/>
-    <hyperlink ref="C816" r:id="rId54" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxObFpCekxrVzg3NERkc2NGRmgtLXNXSnRfQjBGakJ4bWktOXZtbm9kTWJmUVFMTU1NaGtpSURLbHVIMm42dHRGWmdZY21oZDdZVzlLd2ktLVJWdWlwbmhyMTRTNWdtSFZOQlN6OG82WUtxT0loSm5GMVhKb0NvNUs5VHl4OEVYY0xwdlJNY2FIUU0zRHJ3bXBTeUh1c1lfazBXRGNHTkJNWkp5NjZRSjkyRjZHNGlrcXJ2UXY3QThPTUdJRndWSXphQlBFQkoyRWlFdnVsNjFucUxMN2tKSE9TaHdWZWc2cjhpUUoyNkVWNzkxUdIB9wFBVV95cUxQSVA2eUxEVnlscUI0LXZwZjBJQnlmSnM0QlpSUDFIb3FkX21TV2Y0ZlR1U29WOEp4LUp1Q21CT0VNMWYxOTRGUzFwejVvZDhnakxFYXJzT25aX2dOalFSbjVDdHdDTkJWMko3VWlSb2kwbjBSSVFKUVlRUTBoalZvU3l3c3ZZbGdXSEViZENpTnlHMGVkUnRfak5XbnAwb3VqYVBBYkRzRkJ3M1hJVmY0a19Wb2dMaFVGVmdPMUtrT19YWXJ6QzlZNEo3d0M5REVyMGRwZXUtdkVaN0U1TzdYUHFIdG5mWFUtV2VWbGQxZGZmMDdUcE1N?oc=5" xr:uid="{FA2FC31A-DE3F-4ED9-B9D2-37E27203F2BF}"/>
-    <hyperlink ref="C817" r:id="rId55" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPRC04bUh1N0tNOXRVeTBQOGtQTUZWSHVuN3V3TDRiQnJUZVBQMU9GMXlJQlVaRGpORzVSYkFpck9LeU9hRFNlQUQzU2NNWUJWdkNhcWVES1c0emRlNFVub1NxTEdGT1ZYazRZSnA3YWRtOWhNWWpvb281MmRudGMyOEVvcDNtbDVXVUJYeXlpRkhDelFjVEwwRUdBQTU3NkpBd0NyRUc0MlVFWkVvaE5yOEUzWHYyRDZOdExTTzBHZ3RXSGvSAcgBQVVfeXFMTUlpWEVXWk5rcEp3UGNiZHY4aGlWR043TU1HZVpNSkprMUxhZVMxcFBlbzk1TTZ6MmYwRF93MGE1bVpueXVSMC1tSUtoYnJzOGhwSjdrWXAyVUNac0lhZWsyVUd5cEdwVEVKazBTS1F5ZXBUa2Q3eThhTXlmUldxSWZsMVpPQldoZWswXzZHQTlDN3pyWkZOd3B0N1dQZmxnS2xITXhUVWRmcEVsYTRFdy0tYTNscE8xUF9JMTg2M09uTGY0Mkw5aFM?oc=5" xr:uid="{B0357F14-44A0-4BCB-9A87-08A53F96F195}"/>
-    <hyperlink ref="C965" r:id="rId56" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxPX1ZpVnhMSV9oVTUzS3VrSzB4b0pCcGl6dE5wYm5Bd09MTUFiX0JpNE5fVEl6UloxNTdrLWdzYjBMQTdyQmZsQUhvRjlNZlNES2RjQi0yMU9wUFdLSU83U0pTYTQ2cUdBMVBVaXY5dExzZy1Va1htTWc1RFg4VVlHd0xCcXlHSEtjN3lVbk1YRmxQSmU2SWZNZ1NYOE1aa3g5VkZwVlFzOEtTNy1ESEk4ZzNLZVp6YUhNTXdWLU02Yi1lUnlmRE1JdFNSUkfSAdIBQVVfeXFMTnBGZUVhTk1YaFA0MWt4X0VNcWRjV3l2Q1BoQkRPR2NHOTduWXpJTnVyRVFsVDlRbEoydFViMDNCZm9iUnBzWTVLRkk5OTNLVmVRbVFlTVh4elZwMzQ1Tm9FYnA3dXBNSWdvSHMtQ3lGM0Vkd1ZzMURxZ0Q0SHVQQnZBNDRzQVhOVmJsSlRPemNVaDZxaktrTXVYVzlidUhDUXhLMHhmUExXZG1zZFREVUV3UFQtcjZpVnJQVDRrb0J0c0JRc1dNaXctRUtBRVNZbThn?oc=5" xr:uid="{1B619F45-3C5B-4A27-84B5-22305D08CC03}"/>
-    <hyperlink ref="C966" r:id="rId57" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNN3lkaUpKcUhJWjR1ZU8xNVkySXhUWFJjbE10a1RZSHNCUGFDYXpfX2VFZ2U5U09HNDlCVlJtd25XNjVWcWtTVWlIRXdwT016cEtvTjlYZ1B6VGM4cnJHZzVqQXZWTDY5OEZINzVQYWFpSzB2eTFJVkhlUDdLRXdCekJhanBaS25ld0Fxa3ZhTjRaVGV0NGNBQlp2YTNaV3ZoV1JxbEd3WWFjeEx6NENxWXluV2o0WGgzbngyZ0NR0gHDAUFVX3lxTFBqR3BYU3NGQ1NKNHpkNFRraUlaTnQyU05qZUxLdV9DT3BBMDBsV3ZHOGNBSWprNjBhLUZQZktkV1JwWm5BaHRLUDB1dmx4Y3huVWd4Zmw0bURVRm11MHhwdWpCa1A3OS1pX1BNWENTS1RYMGtoZ1BlTk0wcDIyY3JIcEtvbTN4VjhYc3JpVnJ2bFpvQkJMNmdMRHBzeU1YRFlHZ2J5cUZCX04xbHVpYmdjbTVkbnVEN1BHZHE5R2F1RXNRSQ?oc=5" xr:uid="{43B31F93-E47C-42DE-916C-1C815353F965}"/>
-    <hyperlink ref="C818" r:id="rId58" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxOdGIwSXBtdkRIUVdLRkV5M2JHbG5lQ2FpM0x6LXc4cjNGM09QR3g0dGxfcGExVC1keUl1WHB0S3BnX0VwdXkxYW0weEhpWVQ5S29qclF2UlloZDlDenZKY3RaeU4xVzJfd19LVzczRXlaWTZFUjRWeTktTVdjVGg0MVBKLTd3My1faXA5RHRRVm9VTjZLeTM0OTlqaGtQZzZSR2ZDVHpudGNxazdOcVhhRTI5Z0lsZzlXRUo4T3doT3ktLWhvR1JBRXVHTk9iTmRXcEQ0UnhWYlFRZFVX0gHiAUFVX3lxTFBNeWc2VXBHbllpeGxtQ0RCMnl2czRWS0hCSG9sa2FmcldqTW8xQ09ucUJ1emppQ21xUmRuZ0ItMEs3SGRZVkk3aWhfM3p4SmVqd0ZHNU5uRG4yWnRGSzRmODhqTUdUZzdHQmpUa0NLZG1JTWxsVE93NVpUY0FneTJfZ0NmVGlqVWdqUl9RVmQzZV9OUktCZ2QyOWIzbUlhMDl6NUhnSVV6ZXgzUHVSSmZKT1NFMTdscHpRSTdEc0s3dlRzMF9qalZUMDN1UWRhUXZxSV9JVnZFaHVnbkZPczlaMEE?oc=5" xr:uid="{B1855653-66AA-4E5B-A7B5-4018CD1DBC90}"/>
-    <hyperlink ref="C819" r:id="rId59" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxPZUZxTi1lYnBhNkVZTjY1amdqLVgwSmxBOWZ1THhzM2hITWp0TGVkVGpZdzVjOGdVb09FLTNfM2JDYk83N1lmRFNJemZoZEduQUN5TzB0MmNTOHBxcm1RTU52cEMtRkppbnFvMzdUYWpiekFJYXNmMFVRazdhRFBNVDMzOVlPUHY3dmNLYnZWWXhrdTUwMlFkZi1aQWtvQXk5R2lLQUhCYkttbmdJUm1qa19DVWdNOWFnUjFkWG1VSkc1VlBfVncwYjRHY1NmQk5LWXdKVUtOejZaeWowQXF5UWdZa9IB6AFBVV95cUxPbm9hQ0ZSTnFJbG9vcTkxc1MxSXVySUR5ZUxHcFYybUFGUDdoRmtJalBsWlF4cGlaVy1qUU1yM2VYa2pLMHhxVVd0QkRQMWlWSW01N2hOZ29DZUVuRXAzM3M4aS1GZlk3RWo3Tm5aNDJVb1RzM0tISkFaQjBIaGJqaGJ3Z0xNT1JqenV3WGRRMDJrTU5wSXFGbFFBWDVaTXY3aVc0alpFYllsbnUzd3lSQW5YOHlEdlZScHQ5eEFOaTFxVEFteXhzOWRJOHg1aEFpbm9SVlY4S1FPZHVtSFE4dzA1aVFYR0pG?oc=5" xr:uid="{D2C13C9C-55EA-4AF8-9F87-D7DB5FE0CE4D}"/>
-    <hyperlink ref="C820" r:id="rId60" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPSGNxaEltM2lpMkdZek9kdUNxNHV1cU1Pd3IzWl9VN1FmUGlaSEUxTTVRV2xwR3dSZEtnaFZuQXk0ZHhadTA3YVB6V3VBaEJ6cURqbU5FYndGOTB2cUhrYUNjSF9ydXF6eDVlOXBleEk1QWZoUVhIT1gwSVZ5Zjd6WG9CVlItT2xIVGQxY3JjUDNwTVJDMlc4VGgwRzY2YzBxRjdLUGVrdlJhZmxmdVlvV1JaUllNckM2YVJGbk9FeVp0MkREdTZCRGtnM0lPNE5uNmJHYzdpcnNYaUJmbkJzb0FIOEN6Z9IB6wFBVV95cUxOaTE3dGJld1ZyWElKNUtXdWZNcm9SUk1lUzBsYW5ZT1RXZE91T3VkbGdaNThBNEtoVFcyLWd3dm96d1M1V3Y0ckhsSjlRVzZEMzAwc3JlNXhuR3lscWliZHF1Z3l5VUU4T0tqS05RblJveE90ckxrWDFVSGgwREhMLTlJRDZLQkVyUGhlOVNlVE5fZDNuTVlZdkd3MzBpYWlDY2J3eGU1Y01IS1RBVzBaalhKbmpuX05SZDQ2Y1pDdHd0QU1JMXZ3ZUNHNS13Tlh4MURvRlBGb1FhbDZjTVBUV19RT2pYTnBFNDNz?oc=5" xr:uid="{24EBC2C3-DC4B-4649-8FC1-DDA97BF05BF7}"/>
-    <hyperlink ref="C821" r:id="rId61" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxNazBXeWVady11V2VPQWg4WVpJLUVSeFpUZEZ4TEhaZWFEOHdtRjdBNFN1a2luUzRZblJvQ25TM29xTTNDb0t6aWFZZktmcWxUcmJubnloQ1I3MmZ6VlJWNlVqOG5ROVltZ2ViMzNfWTJVUGtTcFZPWU8wcm1QajhMOV80Umw0ZU9XWjVyc2FsaE1xb0wwcDlwQVhRSzXSAbABQVVfeXFMUGVyZzZRbzEyYjlQTVhWcTA4dVBGVnJ6S3RxLVVSZ0tvS2EzTkFqb0pKTkF4b1I2eHdHaUJTZzN4NjZYbU9iUGM3eXZyOUJnZEc4VU5NWnpPMG5ldmpWSG9wVHJWbGJfUlRscHFiNHpLVVRjSV9xNTZkM0tWei0zYUdubldmNnJoWGxwTTJCb1BUdDlWczR1ZDVxZDR2OGdPX0pxYlJiZTNFaWdOTXBrNDk?oc=5" xr:uid="{5FFF30B8-26A3-4914-90C2-97850C55AE33}"/>
-    <hyperlink ref="C822" r:id="rId62" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxNZTdFcWVoeGRrUmU4dDFrbVJYTHZwbDRJVWpVRVExMmRxVC13bk4zenV0Q0FXdnFVNVRLWmtzeDJhdmZGN2pqUFpPeFVxbDdoNzNNa19iX1Zsb3BIcFpTblFKdUVNNlk2RjNIc282ZTJJNVBVVDRxZU00MTYtLXQ3bTBtbWpjcDV4TzV2MWJlSHBIVExJY1hOTnNzZUdZbmo0RkNBcS16cVNDaEdvOFBpVw?oc=5" xr:uid="{61FCB5E5-12F7-430C-87DC-2919A94C74C6}"/>
-    <hyperlink ref="C967" r:id="rId63" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxQQVExUy1EdHlydVZtbXZiUEVuWmpNVDdFTVI4QW9QbHQyc1VFNjBwWnZxVDY0T3RpMjZnak5nZFluU3hLYTY5SnhJZmV2REFFcGl1OHlfZUVtM2VuV1M1Ykl3STBSSUhMYVRmM3lyVm9lQ1dBazR3RHR1UzVVMUZPMXlXd0dMZTJscGl4ZW5sWEQ1dWRHNTdjZEk0N21mcXlXZGNjRGhDdDRqdUFNSmpZSHMwSF9JVktvbGpxeEJCb2pNNEXSAcgBQVVfeXFMT1RlRjF0YjF6ZU1FZy1jT2tsQ2Q4bmUxUVlZemlSYXRvX0plRnFCSFlZTTlvdDRXb19ya1l3VmQxVTRzRjd6Sm5CWkdfTXh4WTF1NXM3Yll6MXQzMXltNTBPR3F2ZTVrSDdZc25qTE9xc1dDOUp1dnlnY0x5MXN6OGRmTGdZUFNsbWJadnN3YTN2dzhhVXQ3RmN1djcyUHpKXzdlZ0FtN2JuUGZqeVRGUWE1WWxzeUl6SUdWUXZoUlY2bW9TSFhXWmo?oc=5" xr:uid="{ECD027EF-0859-4A86-B7A6-E9A37BC28553}"/>
-    <hyperlink ref="C823" r:id="rId64" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxNdmxDMmpYV3FDQy1HMGpyNmNlbEpfd1M2aV9vTEM4blZOY0RpWXN1anJib0hHVW5rWnhIajhsMzJpRXJmdnIwQ0dBZ192X0ttT2FaVVpMM0hBMFdzMjM0M3NTS29PdEE4WDFWdi0xTS1iZ1NJUXpXVjl1cnBMZzNVdzN0bi1UalBRZ2lHN2Njb1MyNkF3M0hwcnFLb3dCTFJ4SlFrSUhxRWFDcHRBWEdkOEtlQlREWXhtSnJ6RXduWE9LaWR0NUQ2WGVoMTRYRXBhbnhBZU1ZTF9rUDBLc1M1RXRFUkpReDUxbF9QWEpNQzNlck56UnRTZ005RmRDam0x0gGGAkFVX3lxTE9YaVJSQTZ4dVhvSEZpTVc1aE5FSW4tRTdFeWF1bm5PV1RISDlHd2RsVmVXVjg1UkhmVS1hUmMySExrNjRKeTZUS3JBRlA1alBwaHRQcndDVG9DWGV2QV8yUDlHRmFvb3dHeHEwNUtSMG5vbng0TGQ1bXduUXBzYmVLbTlqTVBRRDBPeEVwTEJuQl8tYmNzTDRwam5LSG8yR3lPRjEtNE00cnFEaTRsRmNCUWtPVy1heDBrSUZIRTB3RzJJalhCN2V2VWtUam5tZW9kczJRMWVMejZMRWY4SzNpQXpmR2o4empQNDJmWm1rdjBsY3ZkR2VweDFiQkZfVHdfVGhUQ3c?oc=5" xr:uid="{899C581B-25B8-4F7D-8757-85A70F5C86E8}"/>
-    <hyperlink ref="C824" r:id="rId65" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxNVEJMVHl0T21pUktabGs5MHYxLWVIVk5FOHRNSWFXTTNNcjJHX3Iyc2czQlZHYzJuTTFBc2RVTVV5WE43Vnk1MzFPREpPaS04akl2TksxS1VfbTRsc0NFWWRERnlrX3BxcHAxT29zWVZpTHE4UElVbU1BVVVDeW1uSmxmMVYzMmd1V0o1M1pCNGxwMHVwclRMWXpfTkgwekszdnhwQnpHQ2NudDhCTDVZRjk3UFkyODZ5MFNZSFMwbXFmQkdiYkJ6bm8xTTd6bTJxV3Nv0gHYAUFVX3lxTE0xbmw5Vjh4WWIweTlQWmdxd0xORFlXbjBNTi1UT2lrMi1aRUlyU1VoSGZYY2k3YmxRQjZHMGNacXZUQmoxbDVELTlPcUxOZ1g0bEpfTThaWkQyUlpMeHhNNW9DLTBPb04tZXREMmpmZG5yOGg3bFhrYk1BQ0xBblhIWUtPUE9Ca29rSkpOOGduY3V5TW9BNVAwV3BROVlibUY3dmtYQ25OZU5MSmY5YmxIMDAxZnR0WmdrQ1htbUZLX2RhRDkyaUFzTWl5aDViczQzLS1CRS0xeQ?oc=5" xr:uid="{56F603FD-3560-4975-85FF-A0BE52AD5754}"/>
-    <hyperlink ref="C825" r:id="rId66" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxON0pWMWpPbW80N0EtYUtIanFiZjdtcFlaaVFNTGJITkpnSmZibC0zU2ZNd3I0Z2pMcEYtTUZLVmJ4cXRJN3ltNlFTYy1MY2NPQmE0cUpLY1lSam8ydHlRUGhQbE5HSnVsQWI5eGotSHl2TGkzb1BZeHpEeFlWeU5rWEZlRzkxZFNnQndreE5iZDVhOVdfUk1odG1PVk9wd0NTNmJtZE5jRU9zTnFQLS1kaF9oS25GV3JuVldPQzBPd1hBZzZZRGVfMEQxcWcySnVXU1ZxSWM1M0FPNkRZSGJTbi1EVkjSAeQBQVVfeXFMTnBwODc0eFdqb0VOc2taV0NpNGw0VzJTS3Z6RnRNQ3Q4ZzFXRXB0Z1FQQ2NRS2Z6UWVKbksyXzZsaUt1MFNVeUhnaGR2Y1Y0aXNEY0tOS3dyZm1XZUdXNjcxMk16R2NCVnpEcmQzNUVUWE1HTERkdmFwcVFDLTNlN2RpcmVIWjQ3R1N1c0gzNzB2OFpCRWJiZmVjWmZzOTQ3dDAySnMwamFfLTJfWnRPTmt0TE1iSmY3QU0ybGFFTUg0RW9lUHpGZDFoQU0yVXNWVnQyYmtvTHlKSWY5eGVMZTNjcFpV?oc=5" xr:uid="{471608DD-4CC4-48F9-A591-D6775E43B449}"/>
-    <hyperlink ref="C826" r:id="rId67" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxNNzg0MXZIMEJaSGVJSW5ZSnRhY1d0MldzUHd1VFo4Rm5BVGRrQzUzQ1E1WFk2cTh1bWQ1RnhHVlItOVctMFJnYmc4dWVDUTVOTmQtYzdmRGZ2UHlCUTJueGwyNDVUZk1jdjh6b1hpbW9Qa0hFSVVFRDhiRXJETmlZbzJlZ29rU205alUyVEVZX3RnbWZtczhEcmwtRC1rX3NiOHpxNTRxZmZ6eld4N0VYaHo0U1o4OTUtbDhiRDU4WVpnWTNrclAzYkxyUnRRVTF0dHc?oc=5" xr:uid="{3696A47F-CB0E-415B-8202-FBAEA72FB1CC}"/>
-    <hyperlink ref="C968" r:id="rId68" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxOZGlTOHpfelQ3ZVB1TE13Rk1wU2FlR2Y0dnVSTGhuWUV1cWsyTGRSWThlOFdUaUxyQy1FaWFrRXFlcDRzSVZtVlpQbFVnVXd1dV9HVVYyTEgwbm9EamZlUTZ5aW1YRjB3UXMyQ2lTQ1hJQlcyaEdwYllsU2RZYW0yckxHTllTRGNVS3dvTk1zb3IzQllrdEZ4NkJpMHE1NHhCOG1IZUt5RlFscHNlc3VGMTE5N01OcGlaU19lbTJpMnNNdw?oc=5" xr:uid="{13D7F279-0897-4CE8-B8CC-5EC1F55BBF27}"/>
-    <hyperlink ref="C827" r:id="rId69" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOSTI2NXVDTzVMNWxoNWhEQ3pDRVlZdHE5TV8zazBKcmdxY2c5QWFkYThaZW8wSmVLVzl2Qmh5WkRfZFNDRzhxdUMxTjl0RkJqOEw5bWFiV0dFZ1Y1bUZ4RUpDU3VmbVVRdGNseVQteTVlMUg3QVMxcHJ0V1JkZFpRaHhSdjFoSzc3T1VsZFIxbmJFZGhnbEZtc2xBQVd0RlR1Z1VWUHZHY1BaVzVfaXZuLUktRkNZcF8yRDgySXdB?oc=5" xr:uid="{2D6594DB-9822-4FE8-B616-5BF760AD39C8}"/>
-    <hyperlink ref="C828" r:id="rId70" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxOZHZ2a19UaFB1NjJLdlluMVpkMUc4emdJblhOVV9obWgxa1FGMGxSNkRBcjdocjJnTGF2UUZYRmVvSW9fcmotMmJZS0p0TXdmNFItaS1wckdYTWVSblZrS1dacmxFTUVzOWVHQlpkVW9hanhwdm5lZjA3dkFkaDA0UFJYY2QtZUdnYmJ1djJteG4zTHpWWDZzNjVIMkU0a042MFp3VTg2Wkd1WTdncGJuOXlSWTl3TVRCbm85dXh5T0VYd01nMkJvZ1FMXzJrclhUcl9QbTRhd3JsUEFDX1VJYTBlVEtRd1ZyVGgxREM4TEpxaFHSAY4CQVVfeXFMTklTUnpOMjVETE93dWJ5S3RMVGo2S2QwS1lfSHpobDBqUExfbWVyTTFIaVZwZW1QUkRtQk9Rby1YTzVZa3A2dk9Ea0EwcEhkM3R3d2NqMWJUX05LV0VaN2Y4YV9McWRvakhZbXNVT2JMRHpJM2dVdUZIRlNDRURUWkpyRE9WY0RFOE4ycjZNaTZaczlxOHM5bnFnWEJYalVZcC1za3B6eEdIdmx3bDUtUXl5SGhrSk5VZlJOakNTdUJfU2RTSFBQQnhUZVFidUlDTGdTeFpJOFZaa2REZUl0NjlXMDdNenotaExWa05NbHJYZXh5RXBkZzVzakFmcHNxUFV4QXFtc0VQaTNManV3?oc=5" xr:uid="{1B206193-682E-4814-8D9B-7DB49C395B9C}"/>
-    <hyperlink ref="C829" r:id="rId71" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxQdGV5N2ZkQ3E4ellWaTdJb0FOTXNwSVgtbC1aa0V6TlRpVmxqcnQ5VWc0MjV5X3JpdG9qT3VyUTlHWms2OE9uZTBqQWU2cHNTZDNDcUU1aTVTYzVDUWNNWkRmTWwwOHdObVF2Q1hYTnBCQnZmVm5ZeGItSms5ZVhSOWFHVE5FWXBMbkdYQjk3OFI4LVIwWG9IVk5Sd3VCMnVydFlQZ0RVYVdHSUlJdFk1THZLNHZGQTJpWjVsMTVpQ09BdXN1aDRTenNyekVlRnJkQ29GLUdJZHdGQWNRMWRkTzNVNUFnUlItTHpSM3o3azgzU2Vi0gGPAkFVX3lxTFBJRlBMYTZYbHlBMmJXa29yaGtpVkROR0ZKck95QVltQXBUR3VBcGhObDRhYzNmSUlTLVpNbHdCcTFiVEVyYnVlcGVZdjBTMk1CalczYWd6elpBN1F2V2NWeGcxSy1PUmNKUkxJMGk4UmpkS2JVOUZMMnFSVXAyNGRWME9UNFpENXVnS3hJSmwzeElDT08ydGgtWFRvek5JNDh2Z1VPOFdoWTlLOUxyamhXVFFMM0RYbkdJc1RUWTUzOElHMzBkbk44TUhTc3l5Y0N1dHJGbjVvNG1uNHl4dVVIbnJReE9WYXVmQTNDaGJKM1VFZmkzVy1NcDNZZ1RNbzJqSzBfNXh2QjdYTFhPX2M?oc=5" xr:uid="{74513534-9298-4BED-9C41-1B8073C0AB2E}"/>
-    <hyperlink ref="C830" r:id="rId72" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxQWU9SX3dVUHF3Z1dQZmRaUFIwbGVscEVaVTlaOENLV1hyYjhKUHd3b3pDdmstYVRVLUlzbjh4SG5Sc3pFanVETUFnWUVGdjFJV0JGTXliVDVMSi1HLW1HcWdEaWdrOXRVUS1seWRZc1lYUjdNZzVyNEJWd1UyT3lLbjA2ZGtKWWNpTGtkR3ZRbGVXMF9xYmNUb3FBUGtUdzJHanpiaG5QMzFiV1duekJBMEFMV2RFbEhiQkpFcmt3ZjQ1S3VOeVliOHBONE40RWNDek1yTWJJNDhVREJUN2M0QjkxT1pSMFV0UzAzbTh0alJGOEctaUI1Z2pSbXVQS19WdVhr0gGIAkFVX3lxTE9sdUlwNkJHekNJTWFCbzdfYmVBSXJGZzFRblZBS0pvbE0wdk1wSWR6VUh3RVc1ZjM0SHFyYmZhbHVSRmpnTWVVbUhVdmJOQmhmakZVZXVLZHRRRF9ZV096bU1CT3dsRnFuRHBpbm5jMjlqaTFqSk5ETVlIV2RFVE85LUM0d0FDQ1lpZUdNYllhYUIwR0ZBaFJSVEdQV0xKdXEzbV93U043N1pMVnZudWdsVDBBZzBtakptV2ppUmN4NGM1eWNrTW5acVpHNnV4Rm1KQzBiQ29udDZmUjI0TlRpMThlR3A4R3NabjEzRWRWbzRkaE9nS3pzcHozLWpMb3ZEdjIxNVU5Tg?oc=5" xr:uid="{23EE7DD9-75CF-44D6-AF80-2ABD9E79D83B}"/>
-    <hyperlink ref="C969" r:id="rId73" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxPLV9ncTRaOFBRbnFBNmZLQXk5RzIxX24xdHFXYTVnOXpibWs5YlJjWTJqSlBnYjU4MmhiblVnUTFGQjEwTHZpeEs2ZWw0Y1RZRjAxNlEwZTNtczRHdTRDclRuOUpmOUl0QlRKQm5fTzc1VXVpeTBkSkVuUFRWMTJhQ1dVNDdJb0ZSN1dBbzlzdEJBTnBXWDkyR1FuUXpzRFVWanBxSnhodmZaZHBiS1VLU0ZRZ1BZczNPZEtNWTduRUhYSXRzUHVyZ1FjcHN4YmJkMWFuTUVUZmFmcVY2NURtYTZuNkU1UGJyNXRXUnduOERmcmhZUjJ2dXlxbE80VHlkaGVnNjVjY1ktSHJHN0lwVdIBlgJBVV95cUxNUWhTUHNXbnpoQzl3Q011dGFQRjdCMFgwUGVZb3dtUGltLWNZZlZWQzVOZGUwSVYxdVIyRlNsYTY2ZDQ5SGk5UkFjS0FOaVBHcTVzT08wbFlKcWd0cVhabndObW1MaU14X2E5cGp3V1A2dTVyaFB5UXVEdXktQnBUdmZ2VjcyWmJBY05GbF9kQnhjaFh3Wm1EdnJoX01GVnJwbmJyRUdIdUdpbmpFeUNKdlRsd3oyWEZ0dTFOQ3VpVkZLQ1RTQzc1a1RwUnZ3TjFudFlMejJCVXRUNi13SGtmV3g1a1A0cGVwcUJtMDUyT1hvclBJWVpUMk0tNHBQU1VXaHg3WVFpSDZ2Vm1MT1V3c3NpZzNYUQ?oc=5" xr:uid="{F690590C-A46E-403C-A509-D4790F0C3E72}"/>
-    <hyperlink ref="C831" r:id="rId74" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxQOUw1T2NYOU1WQlVEOVYwNllyMzlxTmZhZ2R3eVd5Z3d2azVNb0hwRUZnelRUVENsbHZqdkNPMWdOdUV5YmVnTHJ1VHUyUHlaS19aaDloUTg5Ym9PQWliNDZoOUk2RWtmSEJkX1pDWG9Ld2ljaFJPSGIyMUw1M3UtNllETkt0YTVIcjd5ZzJIVm9Gb1l4MHpkX2xaRUtITUNLTE9oeThvX0xDb0dBWGhTQ2tRTU5fMnZSNXBTRlpUSm9SNEM4bG5NSTJVVlpoa2tUTHZjX3NEUEYwT3U2MWdmcUE0YVJqT03SAewBQVVfeXFMT1N6elFuWTlteE4tQnF1UmJLNWFta1VHT0FIMjBiNTFZdGJ6YVVqbWVFR1ZwN09KWVBUUWhUMTRJMHFqemFzRzNyRzFPalF3YVprOVcxY2hKQkc4OU1BcHFUeEc1YTNRWXVZRk5wd25NempGU1d5ZEJuQWtXUzJBc0hLaGw2X2JrSzktZkhGSXpQX1ljczBqaGQzVnRMcDNJZmltaXR4TzRuSElNZzl1VWNtYnliWmRTUUZ3Z2xyYUplVy0wSnp5cXpVRXdsM1NnYzZCVGhQbllZVk0zRU95NTBQLVNvS2I0Z2hnM0E?oc=5" xr:uid="{95FEFDCD-C61A-4912-A049-06A202EBC7BA}"/>
-    <hyperlink ref="C832" r:id="rId75" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxQaHk1UW5RSXFzcFdrWkZJSzZlU0hOdHFxSTdNV2g4bkRUazBEVFRXVV8teTVVTm1lWVVxTVdab2VTRUJyQklhYXZJN1lZS0dETW5jVnJZYTdTSTVqdUh4Zi1sWENDRDdQOXl2X1NCNS02OHAzOUFoWElfQTY1RXBiTzJBNnk3UlIxR0NqQlBBczFfYlJJQU9oNUt2V2NOaVpYRnBlYjhxMFd3QXNuQW9CYjhFbm8yNUVxc2R5VEt2Z1MyQVQ1NlItRjVobnBIVndSX252MXgwZ1lxenZJRUJMS1VmeVFKTlZZbklCUk43bnB0VDZCT0HSAfsBQVVfeXFMT29TdmYxeGhRX0RGbDZEQkN1N1RKY1F0d043SHowcWRLWXlBdmVRcHpqaEdvLWY3XzhRZUUteVV2TVZ2cDJndWZVSVh6QmljU1lnLW81anVNTzdpeFNXX0RzUXkyMGFkaWFXdnYzbTJKWFlZWlpVR2tXR0hnd3pJUlNudmotTFdRVHpqM1ZuWVlJN1ZyNlo2NkpSRFg2WTNKVWxqdGo0aE40U1pjcXBmUG1KQXVScXFHbFBlaDdNNl9UNTB6ZG40MGdXME1FMmV0aXBCR1ZVNlQwdUY4V3ZRQUJsVDhGOGxsRG55N29vMndkc0pUZUtzbFFEYUk?oc=5" xr:uid="{668DFA48-4826-4547-BABA-6D41A901445D}"/>
-    <hyperlink ref="C833" r:id="rId76" display="https://news.google.com/rss/articles/CBMi3gJBVV95cUxNR25JOXFVa1FHUi1tVG9RVlNMb1E4QjNfN0lTUms1ZEl2a0FvSG9xazA3ZTdjMHRtVzgxeXF4N1FKeXg4Y29ZWXl4Q19zaUxYeTZRQ0VnSUVYekw0Z0pCUHdfVVhBT3FCMWpTN3lNSzJuR1gzSVdCd0g5ODREQ0FTNFQzaFFPNmgzV0U5RTN3Vm52d2VmeFV3NHd6cFBtWVgxRzdhcDdBcnQ3a0NLNFg5WXk1ZDZxekZ5eGFrYk11cUctSHZ2aGpnemFXN3Y1Z2E2SnFNYUY2dk9NTVE4NHlIMThkbGRpS09uZTFFX3o2MTNJRER4T0lkMFBaSXZqSlA0NUJTbkw1cE56UDRpUk9iN3BnN1F1T1Nqb1BhS0w5TEZ6N1pkZEIxcDc3THYtS0RzWWdmcmMyZHdNZWRkQVNEcG45TzYwUVNGU3ljbEVjSGpXcGg2N0VWalBXVjRyd9IB4wJBVV95cUxQbUx5NGZIN1dncVhDcUxVQ2VMWDE2SHA5Vms1NThqNkVNVThJeXVHcUxnRFlieWdjeW9XTUlaQlBQT3p5SmM2bW95aGtWVHBSNWRmMUJNcHRLeWlFU0hUb0hyRUIwa2VOX3R0UVdfaU1uWkJBWDNKZWdXa1BaSXMwUGRNa2NnZTNzZzA5YVZPMUR4TEVTYzB0dGJxWGZPeHg2SFNwazh3SlhNeHdsX1RtckFWOUxBWlluWTg3bV9fM2J1X2VBUURzT0pja09KV1lXNk14Zi1vQi1HbWdGZDJoX3ZpZ0d2OEhHWGhfRzlsdmtCdkM0ZUJYOFVVVmxadlhRMkltVnpRZVY2d192c3ZwMS1CcHpjZFd1eUg1YXhRQ2E2eHVNMkgwUnNnTlRzVHVHNTJCRmdaVWlDNGZqZjFoTm4zOTZUSXNSZG1vX2JpSl9ybkxfMlpFUUV4cmRmVkVMZDA4?oc=5" xr:uid="{D8B64C8A-7EC0-47C6-87C2-D3D43A845630}"/>
-    <hyperlink ref="C834" r:id="rId77" display="https://news.google.com/rss/articles/CBMilwJBVV95cUxOekx2WS1FUzNYS1Jsd2d4YlBHSDctVGp5UXE2NEttT0NrdzlvWjFFbHFldDZrWGR3YlUyOW5LVXEzem0wNFR0Q1huVUo2ZTJ4ejk3ZGtZa2ZCV3lwY3A5bnZRMThOcmhFdl9BRTk4VE55TEVZX1c2Tm84Z1RIb29mZTZrdHlodHU3dnRuVG0zTDR5Y0JqRTRlTU1JV0FsU3BnSXVhTWhaNU42VVVTWlZvQ3oxU1FEWndTQVpMa1Z1UDJ6MDU5WWNhMVZvYmphSVl5dkt5Zm5pOG54ZmdEeWlNek1mTmdkc3RKRTNLZ05acmk1aTM1VFQtbXFOQkxEd29hbmlWcERxSFZnUlo4WURLbFlYb2VjNkHSAZwCQVVfeXFMUFVqb3Vmbjl4T1Y3UlRsN21kbXRyT1V4Wi1LRkZpZmRGbE1WLUVucHhLSHdpUWh5MWhJNF91OE1oQWlncTlNVHZwMUtiVTRNLUtWY2ZUOGNnUEFRUlBsLUZCX0NUTWpBLVFSd0NQQlk0b0VhdzIwTDVZeTk4alh3TldLUUdyU0hPM2h0ZTAtOWppX09DX1g3WGlpMUJHSXNFRUVWOWdaOHV4UEFlTDRsRXJhUGRNTzFJRV82NWlrTVJpX3ZwaDRoTG5JekRUWHllcXg1a2VQMVh5VzlDc3hnZ2hhQWVuR1VPZkpYUEdQY1I2LVhqbF9MVWMxVDRFS3VnNDg0UERlNF9iZWQza0tlTGVhS0x6WkZrMlZUdlc?oc=5" xr:uid="{9111C1CF-37A1-481C-BC60-318BD676B777}"/>
-    <hyperlink ref="C835" r:id="rId78" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxQaHRTYlNFbTlhNFY4UGRndkFGYzY1cDR3YW9IdWRxZFRraGhoU0ZCT2F3QVpUdWhNWUxXbG5HOUtaX0NzejdrSGVoU0VyYnZ4ZWUxUjQ3M2pRNVhaNEpfcjRYLUhEOGJHbUJnMVE1Q2ZyampxQ0FINFUzc1lISk0wTjIzVFd2dHlXQkNyNGlIVGZ1bXNzeWppT0l2UGd2SDNmcWJEZjA3X1huV0dSbmFoQVI2WjdtRUwzc3RQeE5PUXlhM3hYY3RlaV9GcnJMM2IxN2ltcWZHWXhLUlJNd3N6U2xSWk13QkxHWWVwMjF5SWdsQ3lKNlh2X3FuQ0wtT3dhMENQbdIBigJBVV95cUxNVWhBU0xHMmJnQmlsSWgzaVE0bGdlUk9maVdaZW03Sl90eWpNRGh1MEhLZ0RxY1BxSEtWUkcteTRiUHJyYmM0emlSbEZPbmREdEI3MDR0bjh4bXEtbDc2UWZWem9rbGhWLUhwaWhaMG02YS1BZ3FmbHRYYUgwR0xuclU4bmpOTG9ON2t4V1ZyQ1hOUmJYR1BMY2cyS1dabVllRGU0ZWNPQVMxSE50T1BvYzRjTFFMRm13Qkgwa3pKTUc2MGRPOHRjZ0RMcF83LVJUTnIzYmVhUWNDZGliTW95X0szMkUwaEFjZzA5Si1KTVEzNVhvQUQwSVkyT2Z4Q0Vmal9pNGR5R3FjQQ?oc=5" xr:uid="{37722CF0-7F2A-4205-A48F-126A2740DCDC}"/>
-    <hyperlink ref="C970" r:id="rId79" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxQQUF5V192VVBHR1BPWHZNNFpWYlhld09RMC1mVWR5elFybllRVkJEX2FtVXRMNm80eFlVdjdLV0lsV2J2ZGJlVEhhWndiOHJZVDFBQXJEajhlSzlJSzFodHdVSENIOUVIZVJZMmtEYnowQmhIX1ZubFo0ejZaUWJ5cjhKOW9qVkxneUh5QXhvOHhpRkswTmg2bEk1dElwaUhtSEZMNDRJQWdCSXBkN1JLZW1RX2lhVUxpZUZCSWFSVm9fRlZJTFd1LW5YTURrQkJweHNfN0V2SmNzeF93eWk0Y2YzLUkzb243N0FZY1k0SWczd9IB9wFBVV95cUxQb21iT0ZSQ3lRamlwQWplMnZjNEJzNTZRUDgyeDhtNEIwOFl2eno1VEVlOUlMVVZkcDFUekkyUkhNYjJrWGljRWw3UGRRa0g4eG9pRW5mZEpnX2xFSFdPejZoOGlxS0NIVzBWZktTS2t3V2JCcVBmX0R3MUY5MTNYa1RGdHFjUUZxcHRiMFFoczFSeFh4Z0lWb0RuSWdYb3VGWV9ROElXWFBWeVJJb2hrMkxSdnFZVk9vTUZ3bXNRNk1JTFljTGc1NU4xWW9sa0JuUS1JTWY4RDh6RU5OTGt4NU40OWFpU3ZGM200bk9FYlRYb3RTd3E0?oc=5" xr:uid="{C73B4AC0-8BD0-4746-9A6B-6A74F60318AB}"/>
-    <hyperlink ref="C971" r:id="rId80" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxPNHdDMHNfRld0cGxIZGsxOW1mcE1qV3BBTk93OVV6TkxUSktuSzJWYm1jY2ZRNGk2eUMzUmplbXpqOHQ3LVNENm83UlBQQ2UwU0hPNDJRX3p5YkNVMjFPeGlvQ2lJNkpmRzdZRVJodk5TamQtVkJEWnFHNmpUOWZGUnp0WjdYZ3J2TFBwVnZRbGhhdlVlX3ZPVUdWYzh4ZVdQZHdmYUdncEdwcVlPSVZMYXF4WkRLbVQ0N2VMdm9yOVlFMmVzMXQ0ajQyX0Eyd243S3JJMXlvUGQwamx0STNPMjhNNUQ4eFI4bnfSAf4BQVVfeXFMUEpqNkVrWUdSam01RHB3Z3FTLW5BaERBWWV2WkR4WmJhME1wUFFrTVBBNHBneWVGMUFVajltYmNfR3JIOWI4UXdYMGxHVUxydTVIaVdHZk1takpkNjhxZ0hoSVpyVF9KbUd5MVRTVTVaNWtzZkdIRGF3a21uMVVMTjVJVzJFTHk0UFh4R2wzSl93UUlOczFIV2NQNDAyLUI5WWdfWTRTTlZ5cC1XVnJqcVc3Mm5QNHRLdkVRZ1ZaSVF4djhtZFZRcVVwZ0t6Q0Q2MktPS2ZFMWNNMzMyLUlaVmtPNWJQMGQ2MkdJWU1ib2lLbUs0SHg3VGRyVG1sV3c?oc=5" xr:uid="{B3332843-282F-4C0B-A30F-4C641A3B9275}"/>
-    <hyperlink ref="C836" r:id="rId81" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxQbFhULWhMYWQzblMtcmc3alRpakNoUnNNZDdyV2FyS09OTlpMa09yRVZPdGJiQWJkSU9XRzNFcXlvaXZLVU1YeVNneWx4anBZSmFyeENleWI0dWVRcGlHY2ZVX2UzamJ2VThvU1o5dWlFc2NQR0hoNk13OWlwNnlBRlpWNlJENGJfUG1xenk2eVFCeEtaY3NTcUNER0pKdzJkaDN5LVo1OGhDZ282cVF4ellIMk5la0xjZ01xT2tpVWpNdDViUmpDNEJRdmFyRm9KRnfSAeYBQVVfeXFMTkFUWHUwVFhZNW1OLTUxY3pDVThYc0J1XzJJX3V0VDZ3ekpERVRJMVJrWmIyMjdkZFk3XzBCLWhhcHVHbnJZWXJiUHR2eHNYLUQ5NTdraHdLWm1RamgyTjlPVVI3ZlJUNmZqOFZIcldSd2NOR3J4a2IzdHJ0R015bTdCbGJPanQzY2pEYnVQUmVSV0RCb1BjOC02Qnlxa21PSkNqclkwOEhnNTdsQkx6MUhFMzFLQmFOdUY0ekdrWjdoRWNHZl9Vc2tyeDZjVHZvN2wzWVNTYzJRZ3NaQzBLWFBoc2ZUVlE?oc=5" xr:uid="{DF71B7CA-A33C-4B8B-B10C-83D8998C738B}"/>
-    <hyperlink ref="C837" r:id="rId82" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxPekR1M2pHZGw0cmk4SlhRM2RaUGVZcmZBWnRuakpvU2VLY0g0YjgxbVBKNWNtQlRPeW85dEtObHdKXzk1akZIRUhlazNaZ2tsY2VFWHFvbmpHS3RNSDBsdUoyZHZNdTJuVEVVaHYwUU5yVVVhZ244QlVwZ2tValhGYmdlR0NEVVVxbGVzaDFfOEdWTWQtY1BOV3hoc1hJQUJuWmxQV0lNTEVQd3JlN1dKdW4xVC1fWDNmbnRneUpn0gHSAUFVX3lxTFAweWFySk1faGoycFlySEhWTUFKYjJMY3AyanpmbzhDRXdpUi1aOUJGLXpEdmJsV21oVXRWc3d0WEMtaDBnbFFfbk9IWnRDbEZ2cE4xdTgzTFF4d1R1NlJwalU5d2hCeWswSlUxZ0JQQ0tsM1JkLWhMcURSOFQ4RExhaHJYaFl2cXZtb0JsWVVRTVZ2RS1UMUhwZW43OUs5S01VMUZjOGFJYzVrUkIxdUdBOFMtR1p5RWxDOVJXdFFBY2xYbC15REhCdVBCbGllMEVPUQ?oc=5" xr:uid="{3875AA7E-94B2-4934-88D6-0FED592A8FD3}"/>
-    <hyperlink ref="C838" r:id="rId83" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxNM2ZDNnVwX003OWQ2cVlNVFZmak10ZnczZTJfMnowTDZGZlU2X21fRDRsS29QMFlGRy1KSHkxSXRuLUNYcnBqbnpoTVRyOW14TExSVG9hcUpXZFhFeWFVYlZSNzZITDhPdjR2RjdRX0xwWjQ4R0E2cEgtYjVTeUo3YmtDQUozTnplRHJqX0lXOVB6Ml9qSVdLVTV0bzVDQUJSOWRUVC1JZmd4TmFoSkYyTkZoN0szWTJIU24taXJnS3BjNHdjX0dwZVI4emZqcEtTV0x2MDJqRGl1dldpWUZWOEdUd9IB9wFBVV95cUxQaUlKbzBGZm1uQ1lxd0ZHQlEwTDJBZ1lYNlFaVVpjb21qcFdFT2lIUzNYSEVZVFBaWVZfVU45MXpQVURPYkREV2p4Unowa2szRjJTM3B4cUVsM2dERTBfanFUb05laFBJcGVOdjhtMXo4VkdPOGY4eHRjVlN1aXZUUF9PVENXcHdYNlhKbVlqWk1wR3k4RVkxS2pUWHhJLTNQRmt1dFJaTW8wQnE1dHh1VGtSSnBNWDBlOERMaWNsaEZyay10b3lha2xwTWotREJlWDhFMjFVUzdLLUNPd25TWFJCV2FBN3FQcXg3S3Ffb283cktNVXY0?oc=5" xr:uid="{49980DD5-B703-434E-9E95-6A28EB91F8E3}"/>
-    <hyperlink ref="C839" r:id="rId84" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNbHRsS2g3VE5TSWpPamI3RFFaYmgtV1FtLWkxNDVhSmlFYVNzSUhrOVhFSEhZTGhVNXZ2Zzltc3c2NW5GTmVwZ3djd0tSYUVmTWFxUmRiay1NMzhsOVZ2NXFlM01jY1BDSzYySEtwQV8ydl9MNDkyZTI3UUdRZTRwU2o0bEhxN1pDTmU4X3ZuRm54RHQtZHlFdGNYOUl3dnM0bWRoSVFzQjU5QXZCSmVFTV9uT2ZNQ19RQk52SGxqU2hTWHV5WU9waDd30gHeAUFVX3lxTE5NSFlRWGNXZnVfZGVJTlF1ZHF6dzNLcEFfQWVnb3p0LXhNVEdhWXJ1T0tyMU5HVDFnM2JDbkZVRjdMbWl3d0VZQjNMZXM5LXRZUDRWR25zU0ZNX2w5amV6dUJUX216Q0FtVUFuWlI1NG95X2I4WUpXai1zckIzYVBpWVlxeFBUMnE3azRaUDQ2cU5XN0RsMWdLRFRucnExNFpZNEx4c3JQeG5HN19EVzNIbkNaendDWDI2RnBLYkJmbGFjMGpCZzk4bENEdndKcXJYbDVNdVEyRXJtdTJGQQ?oc=5" xr:uid="{8A337ECC-BD39-4D95-B915-76A21B1AB5E0}"/>
-    <hyperlink ref="C840" r:id="rId85" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxOcnFQOHprWEE0bzE1LUFZT05hOTBhVEh5ZFo1UENZTGJCQ3JBckVUX0g1Wllud3duQU9xbF9Yb1hCV2x4anZPSXpLVDBtUXFKb3FmZmVoT09VVXVzbk92cGVsa1M2QmN1ZGdqMno2WlkzS0RoVVJkLWtKM2pCU3pLcHh5cjZHa3dka3hXQkgtMlBxWUdvYWpCS1llbHc2ck1yWC1Tc0hTQmdsWXVGUzRwWVgwOW9MWVNkbW9rdEkzRTNTYjE4Vk1mMGJDVGJJamJJell2VFlCNHBWN1VwMzRaRTVRT0fSAfgBQVVfeXFMTjR4akNVWl85TnZ0enpLUnprWURHdzBmRXpvVkdrUEdZRGFfa1gzVTV4eDRLN2UzS3BEVXRudHpjR1hEVG9Nc2lRSUpMUUQ1Z3dBMnNZbElkbWFwWFU5NFI3RGZjMkJpM1lOTEswNXRFTDhLRmV6VnI4Q0JLM3pySTJ1QktBSFY1NDN4em9raGJ4RERBWUFzeVlPMDAtN0dRRUxVYVd4LUllRVRrN3hvSnVEMVdpT3Z2eFdBUHBoakpON1F2R2ZHOC1oR0g4ZWxpY2ZnMDNzTmNqU0NkcUF1V0pYdTRkRUNDc25BT19rUnl2dHBFMTBBQ1k?oc=5" xr:uid="{630A32F5-1A8E-4D3F-BADA-1CE8BF64AFF3}"/>
-    <hyperlink ref="C841" r:id="rId86" display="https://news.google.com/rss/articles/CBMilwFBVV95cUxObTRUMEdsRzFob1A0eFN6Ry1Nc3ZGRk5vdWZ6aHZ5OUlCdlhRUDBTakNsSlE2YzFCdURGdjJld2hPcGZIc3NLd1FHbXpfSmI2dFRoTzZTSTJpQlRRNXNmc2NHRmNlSEpNZWZlQy1Nc1RuWG53X3hTNENZdEdvU2trdFJ0Y3JybGtYbHRhWE1qeUx2c0tjb0ZJ0gGrAUFVX3lxTE4wYXJOZ1FiUnFxQzBjSms5NVF3WEc0MzRNTWJWWk9nc1pGOW5peGZJaWZHRlZ4Q0RZUk01cnlzOTZvTnloeExiQ0NfVWFfSnJCWW9lVDIxUk9WWWJpX0N0bEZWLXJhS3RJZXFpeW9uV21hUDk5cHpGSGsyTVQ0NHRQOUlvYTlZUEF4bEpVbUlVM1lmdnBFZHJsS1kwOHhleXBZQkJQa1ViQ2RyUQ?oc=5" xr:uid="{86DDC239-B82C-47B6-BD98-1F92AE3BA98F}"/>
-    <hyperlink ref="C842" r:id="rId87" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxQU2VhaDNkajRjQWtUN2hIWDR3RWk1OEtLcUhCSHNINktWalRtVks5cmNhQ2ZWb0tGMXVURTA0enU5cFVLSk5heUVUUkgzQkRJbkZfTm9TMXVzN0s4a1F4OWN6YWItS2VncFptbjROcXZHNUp3amNoTnNROG9zZEg1RzNXRHNBOERxV29NOTZlOHdwdnhXV3JsN0tjMW00cTRFLW45RjZhM25kb2pnVmJmZ0FyX2RRSzhPblIyRldNaVdBZDZ6a2l4YWtqcG9PbUXSAc8BQVVfeXFMUHg0cUZfSExxNmNtSEZqQ3k2Vzk2akpmWDN3QmJWdDdIdi1ZOE5zWkNoRlliMWc2ZVZBLUpCb09kN2Z6UXVlOTByVzd0NE1NNVJYNHZ0dEM0cGh1Y2NHQW43TVBiZGo0MExGQWlScjNnOEI5d2xkejY4ZmJEYVR5Nnd3SkFMVUhSa0xiM1NNanpfcXpSVkE0QUx4T0hOTEwwY1h1eXBpTUVTX3lEODBrVU5BSHNXOUlnVmJMdEZ5bkpHazJWWVdxNWdWZGNncTdB?oc=5" xr:uid="{19E3B022-FC08-4A11-812F-25CAC1CBDB87}"/>
-    <hyperlink ref="C843" r:id="rId88" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPd3Z2cjNNakQ4VzR0bEtWREN2eHFDRHZHNmZwcWlOUTFfLVBsRTNHS1E5aTJWZlV3MTI2MVBYNVNqQjFBUXQ3RDFkc1FsTV9VdTRqOVZnbGlUY0lfcERWRENSS2s3b2VocHExMUlBV2VJV0dqRXg1cE9YTEl5ckxWYW4xbzlTOXdJQmxSbUFPbTFCMUdVYlZGbzdGQ2dGeGQxQlpZM1AySWk1aWtLVzFFZ1FONmloRy1UalVfNDVocUdvNVdmdFFV0gHHAUFVX3lxTE40RDhpVmprcmFYVi1BanBKV05iUFM5RlZ6anBEazVWbkdTOTZNcE5aY1Nmd2dac2QyZ0VRbkdhdVoxNGF0NmllUlU5X1RUWFF1S3JTV2IyaDcxTmxlZURRd2hnZFQ4Wnk5NVc3eFFLMVVDdkExZk5fbE1VbDRjLUFhTzlFUHk5RXBrSGxnSlE5VkRSVkRIWXhlRHV6bGRCVVNqdHdMeGZUQmxmVDR6b1IxMzBmVGk4ZEdERnhvWEhFdzNOT3UydFU?oc=5" xr:uid="{A496A324-662C-4540-8E10-9B199BB4C86A}"/>
-    <hyperlink ref="C844" r:id="rId89" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxQY3dNcDVvV3pYNjFkZnBHQ0dNeUdvNHp1bEowNVpVbEZMQ3JnNHpYYWJ6YVdYc2oydFp5SDZKcjh6WDRHejQ4ZUQ2a0NyYklUQTBfTVFGMWktaHVyN1ZyN3RqUllPZmgxc0hDNU94MzVoY044TWZkbDFfQXpEbnlKVURtMThPWFFRSlpFTGJZWmltNnlhY1V0M2N2RXR1T0I0bENQM0xyS0RBYmRzYlY1VjVpaGJkYm02SXRYR0wwbE5IVkdab3VQamtrQdIB3wFBVV95cUxPWWlOMXlGMkdBc1Vub0NGNWQxMVRMb1Rha3QwMlNGU3RpU2tzS1h6aVYybm9CZU9MWkRxRlN0MEZzWUZfemxMLWUzWWh3b05MWk04elNzUG1jOGFiT1VYYkd6dU5hTm9xQWZZRF8zMHpLdnVmM1NUMFZlXzhvejAtY2xKekZVeWd0TFpNcVBOMDJ2NkJLQlNxaDZqc2lyNVNQeVlrNzEyZDBwcnVXMG9FaEZHRkFYZGZka25KczBMZzI3RkRHWTJxeDU3M1VjQ0d6eG5mZ0hXNFJEVEV2STlz?oc=5" xr:uid="{EEA6D5BB-D072-4B1F-B802-0A586E8F52AB}"/>
-    <hyperlink ref="C845" r:id="rId90" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPd0VocHZmaHNVeGhKN01xVDRjTWlONGxla0h5TTMtaGl5R3c0NmhsMTdlU19nemdMYktpeHJIbVA4VWxHejZGYndhcHJmSzlyVHFCWWJiUnFyRXVrR1dKM2NCUjRyaWlFN0NiR2ZPejBvdHQ5ZVAybFhKS2NsTnVTdjc5WlRUM0JzVFlDUEFfbldRMVBweEpFYUZpeXR3RlJPZU5jRVk0WFFYUHJzaFRMTXR2d2s2ZnJtYXE2NWdPOTN1X1N1eGFDYWlB0gHeAUFVX3lxTFBtWTE5dTFNeG1BZEZ1dUtlVXF6OWF4OTZhTGlScUZySXRWMXhzYjlPRzRoSkJ2Qm5ESlVfbExFVll1TDZWWjJQUGRRZGFNM2IwX1RkakZNUlJ6eUpudVZMV3pLcnpnWWlneXltYXpDZ1htVWNQQWFBUkg2NV9QVzZUQTBDTGZiT2JWSTdGYjFneVBGcmo3clRUS2d2YTdkcndxNzE4dGJwOFh0TERkY1hGYW15T3BpWjBjeFNJNVZfLW5BNEM1WDZRRnA1aXBvNnEyT3VTdm1Db1ZneVlmUQ?oc=5" xr:uid="{674E4004-88D1-45DA-9034-D8D74F45EB9E}"/>
-    <hyperlink ref="C846" r:id="rId91" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxOTzY0dEFOc3NDeGVIQ1VnNmJCbWlUR2FPSmxObEo4U3J5dzNmM1d1bUtYLUl1QVYyRjhRZ0RVVWxkOWxMQUt0eU11U3AzTmYxLVBVRHY3SF8yZEQzXzRNWHNkLUtQOFM2eFpnQ01OYmN5RF81am95bEd5MXhwaGVMM3BSVUNUOFZnbzRHdTdqekVJenU3NnVlV3RxWkVFQ0I4Y3l3ajJORzh5TWJZZWJQbzVnazJscGczOV9xUDB4RG5icTduOFpkci0yNU3SAeABQVVfeXFMUFR6U2I1ZFVrV3FLaGRXeUUzVHZJVEZ3eWlyUXZOWFlobFJYVWxoUWZPWm9EVUY4RDVzaVJEYl95ZlhTaGZxclZPak5ES3Z4UnpEMjhnNkJtcUNwSFFhM3Z2eUhKbEdoWlVnSkc2NUxVMng3S0I0bGJBQ2YtcjJQNGtEbWFEY3FlX3pZUlhZaUdKeFNfeXFwUkE5RXVoZ01iUi1vajBSYUF6N1JhMG5QNTNBX3hQTU1nQ251LWxmQmZOU0dVX3E2WExUbmZaWGRfa2RVeFdQR3lkVU5mVWtWWU4?oc=5" xr:uid="{8A07BF7D-833C-4F50-AE50-75D737EBC591}"/>
-    <hyperlink ref="C847" r:id="rId92" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPV2ZYV2xsLUE0eDVfYlZ4QWl4ZWdnMk96Y25YR2RhMFFRaUM4dGVWVzNmYV96d0dLSjJoX2xoMXczWV83eEtoNS1tb01oRkJZQ25xRkFnbkZ0NDVLV2QySU44ZDBPY1VOb1Blem51WHIzUVpJcUZORmlFVGNuNGtIbGFlMU1RMHB6TFZVeDdVbjJsUVN2dWp5STRPVTVUZ184dkNVZFpkd3gwRHFtOGptd0JRZ2xWa09oMzRYMEJVaXRpNV9xV3fSAdoBQVVfeXFMT0xCOUpyYzB1SzZtUjF4WktDTWVEQ3BKaG1uVTFyX21iemg1bG15eUxMaUxmemg2N3dEYkpQejNiSl85bG5FT2syclhMMmI2UWpoNW14cE9sQzhfTTBZbW01U29UVVA4RmRiUlU4VkozZk0xT0lkdzZwZXZiZHM2VXFBRXd1ZmhuZmVSUXZHVFVyT2M3YVA4alRVVmlmQnNaeElpOHhEOU9fcDA3VC1WbFRCRl9lajZldDE0VVVmd3c4RHBPVTZJNlVwOVJZNmEyNFZEU2QyOFhGOGc?oc=5" xr:uid="{9B128AFD-927E-44DF-BEB6-D1AAB39803AC}"/>
-    <hyperlink ref="C972" r:id="rId93" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPOXJnVnExVno0MDRjZGNpTVctdXFMdVJ4UjFqTVVhYXd4NUVoU00xSE5XY2xiM2hmSmtrM1VBNXA5TzRZRUFob2JONmJGUXdRNEpQSkdtWThmeDJBZ1RLUm5hZ0JJa3ZGTjJCdkdIVDJfTHRjR3BidVJKT0hjVC1HbXJObUR4RE9qeWp1Nlg3Q1pPS3FSU1F6WXVpcExlYk8wZFg3eGNRbVp3S25YQVVSaWdlX2IwOUxKRDZVWnphNS1MakZGLUHSAdoBQVVfeXFMUHYzT01PMlZWeVFZc1B0eTRKQ2xkR3g3NHE2aFhWSml6THpLZU9sODEyNk03cVhPN2I0cnNBcFhEY3JkZHRKaHotZUhNYlNUOUNIX2FBTzVwbnlkUDg5Wnc1cTNDODVPbHNZTkRlSmxzdVYzQmx0TXhtT2NhODl1MFBXQkNQd3A3a2t2ZERuMHkwcnFnRjFXdVhPM3VXODRPcjZFNnQ2OWxyZUhJTEpDSGhWM3FBMEppX0dGVVd1ME1RU2ZpT1ZtNzVDRkdlX05uaGZkc09NRlZDUVE?oc=5" xr:uid="{036D269C-20A6-4647-87A4-C1C64C9F846D}"/>
-    <hyperlink ref="C848" r:id="rId94" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxPaHRMTi1DQjV4bVpjcTdoZ19ucnVFUl9aNEd6bWVKV21uZG44dWtHZ2EyMkd5d2wxTkpvNHVXaXRXZ2NpOTEwbGFWTFNqZ28xVU9ZS2NCWjF6NUpYNVZVR3dnZmlUS2NoYUdtX2c0SVF5RUdpbTFBeDhLUUFtdmRreFlTOS1LamZoQW56OTBKVXVjQ2ZBbDduQl9LaXFkanBzNWJmZFF4cmhjVjdxN1p3QjNkOUtDeG0xVV9qcWJ0UzZCX0JyTmxtaFB1S3dJSmtj0gHkAUFVX3lxTE9YTGZreW8yNTR4QjJBQWhzSzZGWFpnbnpFbWFhdlNOb3pNdGhGb3RuVWctUWMwQ0dISVBOS0trV0tkamgwNjVoYUl4T3paaWM1dDJGd1NlVVVSQ0MtZmVjbXJGNHdGdUExUFRBd3Utdk5TV2prTEluLTBva2V5QldtM0tVd0VrWUM4MEU5TEVyX3pCZmRJNld6UnlGdUlNZ0dCOUVPYUhmM20zZnhRUGs1a09iNmRBMkVlZ3lidlhLZTR4bGxDNHhpODcxdGFUZnhHSmdpNzd5b0hrRDhZYUhiQnBPaw?oc=5" xr:uid="{11FA9C50-67DF-4FB9-A6E1-9642FA53254C}"/>
-    <hyperlink ref="C973" r:id="rId95" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxNd0lIZGM0SjdaMzg5SGFDTTFHZ0NfZW5WMWpodzFZWkYzM0lod09jOEtuN3RKVW5OUGp3UXhNb2M5T1JjV1hHNVB2aVpnMlBIUEREbU52THpkdVRCYTJOcXZPdU5aUFlNRFIwem9vUEY2UHZnOEEyV1J5eU41VGxWZmdZdXNYS0RxeThLbVVESzNNV3NpV3EwbkxBWjEwbndpWVZDS3dKTmhMemRTR1hUQjhkaS11dXlhVnhZ0gHPAUFVX3lxTE5ic1p0OEkzeXhxM1pJNDNVdmtMZkp4RkpNQWp1VEVmd01GV1loNlNWOThvdlBnWjRCdHhmZ3RaU2RJOVRubDBHa3R1TlhyX2ZRdHpkdDdNbFdwZV80OUdFZUdZZ3I2czlOSk5fajlxUmpFRXBPd2s4bS1tM08zblpvVkU1M3l2NVEtX09UbGRrQmRpNElZd3lrZVZkeVkxZ1dmSGlKV21QVlNqRXpEQ0d0SUpEbl8wNWlBc1pUMFZuMm15anVQUERDbVBuelZnaw?oc=5" xr:uid="{98C14DE0-97D6-4FF0-BCAA-6D6A82C2E035}"/>
-    <hyperlink ref="C849" r:id="rId96" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQaEt4cm1nYjRQYmlVakdfZnBRZjhPWlNmaDFmdFU3U3ZRUmZyWkJtMGpxRGNuT0hqaXJqOFEzMXlRN0ZfZjNGR09xWVJCOEtOZmU4R1MwdzlmOHphc0tNbkhZcXZHWVVjVG1QcEJiTEhOam1Ya1hUcWxUV0R1Nk5fNXZhYkFBOVg5QnA0TVV3X041QWxHeDZ2ZGFzdDVaTG03ODk0aUVQZmRodUZqS0t1WXVHRE4wRDhGV3RadlZlMWw5Z9IB1gFBVV95cUxQb240QUhTVmFYMzgwdzhjMExvVmNSUTZfZ1BJa3FGY3UyZ0xEMGJMVGRlMElyNm1XNXl3QXU5aFNQWndoSUJMQmFVS0xCeDVVWk81aF9LQXllRFktSFI2bDhCMkpxc3pzX3BCRXZCbUlQbF9ZWEFZUGJ5ZHliS0VqZmZsUVlFTFNHX1BVQ2JaemJKTTEySGpwYWI2NTNJamxQNlBRV0ZLNFhMSG9zS2oycEpNenhHQ3hwSXZKTi1yTzZiT1ZaanRQSW1ObmJnQVFiTzJHZXVn?oc=5" xr:uid="{01EF4BEF-3AEF-4616-BCE7-CA08FA99ADC9}"/>
-    <hyperlink ref="C850" r:id="rId97" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxNTkdQczlFemdqdmx6WkJocGhicWgwUGd0SVFhYnR3Q19lS0pQRy1IVlBudjVtS3ZMQ2JUVVFvUFBwYW5sdDF6WUQySy1QaDNUSmxES3RCSGtHZGE5MXJrc1NXdkk3SjhBYXZaeUpjZWNxS09wZnAxRGNBQ0Fya19tRDMtSmNzRkhtemlZam15X01lc3VEU3ZEOXdIdWFjMm0zTVBMRm9FbE5UZW55VVpWaF9UQW5pWWRwaV9jNFFQSXpjblZXdXBGeU84eUlMQdIB4gFBVV95cUxQV19XY19wbnExcWFNNHVNekNIcllfUlV2Q1NrSmJ1ZnlJV3p2Y1N6MDBxX0VzbGxMamhOLUFmX20tQm5PTHhIMVF5OXhsN1lMWjc3XzhFVWZQb2QyNGFRMW12TXNIOFZ6ZUg0OHFXeEhCS2Y4TlBaNW52V0xYT0w2dFRtM3RpSnp1UmZwOWdOMWozZnl1SUY5NE1ES0FWM3BQaXFQMDgwZ3ppN0h4ZHU5Sll1dHBxZnprWTZwU25rUGJRZWRzS2VCbU43VkVwY2UxTnRNcjBoZGV4azJVbDR5dER3?oc=5" xr:uid="{5A3AC6EA-59A2-4FB2-AB49-F3D95020BDCB}"/>
-    <hyperlink ref="C974" r:id="rId98" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxOYUxZc1pZY0NQaFVBX1d6eEJlbUV4Z3dtVlZPaVNkQ0c3Q2pmMTl2VGxuQUtmdGJEVlFFT0xLR0otVm82b19XRnppTXdQSUk5MF9oRzBIYWtZNlBCaDVkc19nVWMyX0VzMXdEZnJkT2MtSXBzbVE2STFGc2Z2cGl6aTFTNG9OM0tRTVk5S3RsNi15d25lUDdhZlRfdHpqdWstalNGQWxFdV96V0tfOEV1WE1RY3VqVmpjNjNqS0Fyb0FOVENBNlhmNndDQ1DSAeABQVVfeXFMTVdoeTZ6NERVOWl5UEp3cy0ycFpPTmNMQm9YRmVDeWUxV1A2dmxLaG1wZElyVmpkU0xWV01aWmxXRWMwZnF2STh5QzNMRElHOTBhcHVlcWhhRml3YlkyN09KUURVZS0tV1VvTE9BRjU3c1dRMnN1bmFqOXpqRjhJMFlSdENkV0tCREV5VzdyVWo0cWlRVEJpNVFYRzk1eEoyQlc4ZEtabGptZzFRN2cyRjFoSF8xa2lLd3h5dng3N3V2dVZtWUhJWHdnTjdiRW1oX1BhT1lJOEJjSzVlY190OVA?oc=5" xr:uid="{025C1B58-18B8-45B3-BC36-9DE26E3A429B}"/>
-    <hyperlink ref="C975" r:id="rId99" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxNb0ZWd216YmNJMEZzZlZIc2tGdnVBZjlzQ2p4ZzJTTFRXQm5YeWh1XzJTWnVkZHBIemxmd0tLZ0ItMzczX1RzMUZXaGg5SktwQWF1TnE0UldhX1V3YVVTbXI3WFduRERZNG9ZVlA1NlVxR255S0Jub0ZTelpFanlqUWtXaUpDdzdmUl8wQmNGWE5PQU5ZNlFRY1BER1lrZGx4YlM5RUJvU2hzMjlVYjl1Skt6WHJhclo1NDZDT3pmN3RzWXY4bXEtTkZDdXVkZ2R2NzVOQdIB6AFBVV95cUxOb0JEMnN6S1hWSWZqZkZ1d3R3WkNZM3VfU2VSOW1MQUhGZ0NJUThiaXFxdXFpeFJTSDVWdUVBdWpfYksyYWYyT2tyNmF4WFduVDgtaC1VYk51c0EwU2w1S09zU3hWUlRaR0c0eVdXcFBqXzQ4VHhZS0VGOW90S2NKOGVoX3Mza0M5dFFTZ192c0NMZXZobDljRko3V3pabDAzQ0pNMkZrVVhYcFA5WGtRTlV3SHFDODJqelRwejdfVXk1Wms5dXNMY3pXZEV4ZXBvUGdoRFd2M0ZnUFRYdkNSMGV3YmJGWHZ0?oc=5" xr:uid="{C833C12E-97F6-433E-BDB9-7D1D346A1745}"/>
-    <hyperlink ref="C976" r:id="rId100" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNLWNMWGxuZWFfTFVLemtUYlZLa3E3TTE0WkpCN1Z2VmZUS3ozbTZWZGxvZzNrWkNkaEMyVm9nLWJJd2pvZzF0VXA5T1gtU29Bd3dYUmxnYmdCLWRLeE8yOGFnWkVUQkM3X0pseEJVcnEyVl9yT0pnaEctV1dtdDFsS20tUW9saXh4V1E2RHppd3R1NWNrZEZtTGJ1Y1E1S1R6aDZoNHpHaWtPWmFkZkhlaURDSlRMb2RZb2Zackl30gHSAUFVX3lxTE9zVTRPNzhITWNtVW8zbV9KN0p3UnNUS2FvcEo2dHp6OGY3M2pPdWFqYWotQVl3ZjJtbzRmdmowbGRzMVNuYWpUR0lkVGFJX3kyM3JqSHlSdVM1ZjNQOXNac2RZblVfV0RBWEJJaENGV3R2TzFiUUxrOVZHMFRJTUFWVU1HQ0NqTVN3SU5TUkxrWXVNX2s5cUxOLTJ0MnF2OUpOX0oxb0dFWjlPT0dEQU1DSi1talhUS3huTml3WjZUY3NMajhNSUltZUpiTmJTaUFCZw?oc=5" xr:uid="{B5AE52FA-B81C-4C51-9DC5-A89C381FF4B2}"/>
-    <hyperlink ref="C977" r:id="rId101" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxQbjFsR3VJYkMybmtLdEkwaC02Z2NsV0VFTThWdTk1LTMydG5uTU56eG1IQmtvcHpxazlxRzlKRnpfNDQtWUxZQ2t4UE5nOGstVktBRzZrZV9BT2YwdlVKb19VMC1EaXRXT3BkRTRWYlVuSUJNQUpGUlBFMG84eVcwS19PYXdBM2pwbDB6clg1bEQ4Q1NuZVgwcEt6NnBCRmNNQUR6TVMwb1g4UEtCZG9CM1d3a1psUzZK0gHMAUFVX3lxTE51NWhJUVZJdTMtalFSZGhpbER6VWl0Ri0xX1MwRkZpWmVvdXdwSzRfTTJrTEFHNmNvM0lBZEw5UEN0T05tYjQtZ1RyR2tyWmdtV3J4czVGcXdja2VNR2NDNUgyajJMV2lHVFNubURuZEQ1TUk3NFlqLWF1dWoxOUpkbkcxTFU3Wm5iY0dGVHVVeHBmVEJvWXlOUWdPTWlpNThLRmp3ZVhIQzRTWEwyZmpBWHF4VEJ2RFNPNmpIOERFc1BYeGVuRVFQVGZ6ag?oc=5" xr:uid="{7B43610A-CE3B-49BF-B772-C816BE4AB759}"/>
-    <hyperlink ref="C851" r:id="rId102" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPdUs4SV9aLTl5VFhoeUJNcTlpc0E5T25hSmotQlZnVlR3YUFCRzJOOU05dERIb1ptZ1Z1MU1mQ2dqSlgtQlZPN0J5U2tpTmVSNVNISWQ2bmFnVnRCRTVoNmlxR0FmbmdRTDljTGtiM2NfVkpsOTZMSnVlU0xSTXYzZ2lQbmQ1MFNhU1ZfWFhabEx1RmlRdkItUUJaZWtYTHdrN25GRG9rdFRFQlJBZ2Y4dWtpMWZWT29xazVwM2Z0ZFByLWZX0gHYAUFVX3lxTE5IenM5MVc0Y3hKMDhxQkdlWHZSU3VpZTc0SExmbnplcUtxWjR4N3dvMXh1YWlKWUFLaXRzM1k3akVxNWV1OU1zTTdFVzZmR2ctZ0hqVl9uYmdVTngzeHJ1OG1DNFpYX3dPQ2NtTlZIOV8weWtMaVNUUE5reE1VLUJvQkdxRTdlbDMtcFc3MFNKdm5XVk9fcUNtMUhQSDFTX3RTV3hzT1NLS1dzUjBnZ3VPOFE4dFFEY29aSlkxQm9XS0VEU0ZDUHBsVE5VMW1sZzRkTGNwTG5EMw?oc=5" xr:uid="{46CC75DA-6221-4109-BF49-0439EC9CF9E0}"/>
-    <hyperlink ref="C852" r:id="rId103" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQWGxtTmE2RlFFNVNWTUFDMHRiR1dJN0hVTjE0d0ZMS2h3dnZPckl5S2M4MkI0VTI3VzlCZW84ZkZIT1BKaDJnYnJ5UzZCQVNSNk1QbTVCSEVTY1ZIZU9nbnJDVU80X093c2IxSWEtVkdUU09naUduTDEzM1NLdGdEVjNLVVItXzhLZGNUZXpJalNHX3A5Q05XM3RFZE15ZURITXlyTGM4LS1HcW05elpIbDVHa01JUEdwZ3NFTXoyeTNwUdIB1gFBVV95cUxNbU1DYWZJY0NCZUNLb0s0aWt5Yk41d2F3MDEzazRTNEkyMEtuVTRNdE4zdWZnZnQzaFdsVEtkdjl4T1pjVnc1b3NZaHllSS10REdVLUpwUmxxaVQtZEwxZmtFd0I0dW1ha2JDak5OVVNtekxmZzNPbEpqZ3JVVUppV2U1UXB2eENFdjFVdjU4SHdSa1BZTUd3UlNQT1hlTng3cGhKa3pLOUVfX0ZZM1hRdFB1a2dhQURTcjJ6WlVLYTN1UmVwRDFieDYtOFBlZmFFd2tTbFZR?oc=5" xr:uid="{8F55CE70-BC1D-4DE7-8CDA-6F3B96BBB548}"/>
-    <hyperlink ref="C853" r:id="rId104" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxQODJ3MV92anVvT1ZoLTdUQ0NNVVFFNVNSQlBKb2JESzNPNnU0bF9zb042bFRvS1RzSWNyTlVmdlhVSVRDUUZFa1V3cFQwU01OU1NMaWZxbWZ0SlU2Y2dDRmVWc3hFVGJCN1VhVWVUZi12RHRMaHd2SXJEck1zS3RiZ01hZFV4eWh5R18zenNoVW10UllmWE93REVRTzZPVkJGUDVwUDJpN1hIODlyQWcyQjlWYV9WU0U2VWE4MFZ2eXpQSHFnVlEtVGZCemJiWXJKNlBpcTltbkt6UdIB2gFBVV95cUxQODJ3MV92anVvT1ZoLTdUQ0NNVVFFNVNSQlBKb2JESzNPNnU0bF9zb042bFRvS1RzSWNyTlVmdlhVSVRDUUZFa1V3cFQwU01OU1NMaWZxbWZ0SlU2Y2dDRmVWc3hFVGJCN1VhVWVUZi12RHRMaHd2SXJEck1zS3RiZ01hZFV4eWh5R18zenNoVW10UllmWE93REVRTzZPVkJGUDVwUDJpN1hIODlyQWcyQjlWYV9WU0U2VWE4MFZ2eXpQSHFnVlEtVGZCemJiWXJKNlBpcTltbkt6UQ?oc=5" xr:uid="{0DBCB5CF-BE9A-4C2F-A225-70ED64923378}"/>
-    <hyperlink ref="C854" r:id="rId105" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPbEtQVHJnOVpna0x6U1gzWmJweFpLSXBFS015ay01VjNVLWd6RmFiN1k3WEY3dC00a2doRUI1NldRM0ZyMmQzaEd6NzJlakthZHVfZWQ5dmtMU3duWTRGa05CR1BkTDV1LXdObDY2b3M0RVFnTjBMaEl6alFwaWdTRDRLWGc1MWliT3dKWGMxck5DQlV2REZaQThoT0JEYTBpYU9WM3EtNGtQclhwT3hlbklqWlRPdlFKd2xLc2JoLVhsc09BNEdF0gHMAUFVX3lxTE1lUE5WNF90Ul9DY0ozOF9TTnd2NENOSFdYZGliQlV1d3Bud01EemRzek0yOWY4WGdGNnh5ZU85UzBydC04Nk5COWpZeDFCa01jNFFhbHJtbWVYOEw3SVRPcHM2NXpYSlpic3NoMUlQaHNULVJJeGxGS2FZa1MzRlpMenBQOXhPTDA0bVZXUEw3TWR4SnROWDA4djJmZjd4YnBHcWJERk5BRTdzZk5XV2lNT0FnbDJOSXh6ZGhBejVHYm5NYmlXb0EyWmI4Mw?oc=5" xr:uid="{88EEF51C-6A52-441F-81EE-24E84C02E576}"/>
-    <hyperlink ref="C855" r:id="rId106" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxORGtSSVVGamE2SnVQYlBDdHBFUnRxRXFRR0FxZUR3SmQ2eU1uZURqR3drSHZxRmhiUEUtWUpJTnhXYUl4bnpVQVVheFdZRDZMZHhhcmQ5QkNfLUo3MUhsSVMwc0h5SU1hREd2NC1jblZ5ZkIxTWVBWHowNDB0X0xSVnc4Z01qWFhQcjNYTmhsWXJ3alkzTWlCRWM2Nk91SnlfeWRNc1VmeWdxT3BYejMw0gG0AUFVX3lxTE9oUnVZd3h6bzlyWjNBZmpkVzNLSDg0Y0tKbFNMUU1IYkJObVFNQjFUcUFINHdUeVlEWXpNVUVSMXlESk55WFJWanBQdHNVNUk3MW1wQmk4R0hHR0RtdGxfMVVaQkx5QUZnSGdhM1NwSEFidzI4UEo2TGczVXpKMTFSSVphOWFJQ2FyQlRnVjMwdWRDTy0tY3doVkU3UUVydjlKbjB2YV9jcGZMVEgwcXJicTVNQQ?oc=5" xr:uid="{17FFD04B-42CF-4BE3-BAAC-A3DC3CC647FB}"/>
-    <hyperlink ref="C978" r:id="rId107" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxOWGdMcVdjNndScktMSEZiaXhNb25NdGZYWDJGZnNVOURoTmZQWVNFNk5tVHJNUjMzWEJIdFVBeDVaX2FNbDdqbUk4RW1CWXJTVDcwY3k2b2dZZy1ING8yV185T1lUUnBIclBOSC1zOHBjbzhVbVgzTzFWNWJiRlZvTlM5elg3cmZKQWhOSWRyYy1BWXowTHoyUWhqb1MtaFE0bURhMFVrZWx0T2IyQ1JvRDRRTjRzTUJyZFpDedIBwgFBVV95cUxQZkJ6QWdvNFNLOFdEbkEwQTl4OTBnLXk1bDhVcm9HSk1XOGFDdzRvNkFiQVlscUhiUFdLNmRva2Z4YXpzdGNSYnp0NktuRmptdmpNWEFheENCS0hud3N3b2RLd190MkRXNlJxSmFTeDY1SVB0T3RzM2xibDVPb0tfcHo0QjhFUXhWSVludFkwZzBkTWV6dmdyYlItVGd5OHBkNFF1YnZ2VTRZX3lpY19ySUYzYWxSa3VnS3lUb1dmS2R3UQ?oc=5" xr:uid="{939D6C24-F533-42D0-A9E4-438888E439DE}"/>
-    <hyperlink ref="C856" r:id="rId108" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxNaUpGQS0wQWotRWVKMWE3VzBxZTZ4bzJjWDl5c0JYUk9HRFZGRFpSanZOZmU3bHNiN19oZEpJSnpWWGZJaTZqcTI2Q3c0VDBXbHVhX0VuUThJSkhJakh3elRMdnQwNll3WU9JNl9IUHdYekZub0dMNkk1SGROQ3ZpdHZGRG9iMkNucGlSdVRWOUV4UXYyTElQUNIBngFBVV95cUxQdzNJVFNIT1J4LTl6NmtNTXVKYjI5dGROVGV4d0ttZ2ZKZkFuUk92SnFZV2xTZFhWYzlkWHNnbmJiZEpMclNfVG80dHRjdzg4UVcwU3hZQnJsUUVUa0xHX2ZndUltenI1QnA1Ql8zTnp4Mjhjc0NLR3FRdmstUldzWGJYekpkeWZOV1JQbXVSYVJDSC1RZUI4bllxbGc3dw?oc=5" xr:uid="{60619D37-4A70-41C3-B66D-6B874DCFB4AB}"/>
-    <hyperlink ref="C857" r:id="rId109" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxOc1ZuNTh3RjA5NnFpWXNzX04waHEwMWJ3UkFONzIwTTcxVDBCNEdJbUhyZ0x1R2Z3ckVrNkxRYlVadmNGY2FUQzZfVUFlUGpxdlFPQ3ZVQ1BuZW9DUHZDMnBqdk05U19HMVVXWW9MQm5PZ3lmLU1Nb2R4LWNUMGlzU09oUUU2MWVodUJHZlpnSWNocVhuSlQxYnZkSm4yaEZJc0lncDV4SHHSAa4BQVVfeXFMTUk1al9Wa3FIbUlobGdVcnlNTGp5V3dOQm9MOTEweTBpcGxjbThVOXZjQVZMQ1Q0ZXNDanFzWVgwNENOUUVSbF96WWpocDBJdDNqSEM5MFV4dVo3bFdCTkRJcENQamlqQ0pUdGFERDRSRFJkcWdfWU92ekdtN1ZCamRqWFRQN29pal9RTDVqV3ZycVc1NXdJbHNuUElUYjFXZ3VzMVhnOWdxbmlOUkN3?oc=5" xr:uid="{8843B2C1-98D3-407B-B891-EA436AAE457A}"/>
-    <hyperlink ref="C858" r:id="rId110" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxPUlJiNXBpa1dvRjNiOWduM182YkdWOTlMQnRpVmE3Z0VPajNaUmdkN0dRT0tVcVZhQkVJWUNfUXZYSFlVa3RQaENMeWsxY0dINnAyVHNXcUVtUUhyMjQteEZ5M09HNVNuOGtmMVJlVUNBZU9xN28xc3F6WXVYaTd3NU9EM1U1ckthOGpaMGF1OTBLVEZLXzltUlJUTkV6R1JaSjFackNDdDJQMHpIVnfSAbMBQVVfeXFMUGxlMjhFRVp6WGJtcFQyOVlsVlBZYUdoR2RnYlM1VWVDcWNfcDBUOFN3Mkc1Z0QtSnZhRWh6dXI4WU91djVjOVcyd3RoNXdPZ2tpcW5BZDB4OEJ3SEM0R3lIVlpINkNIdktZWnRUaTkxLTM1dXFlb3VqZkU2VzZ3Nmd5aTZyX1Z1ODVZa29WODE5T2paWHV3OTROY0F2ZUhyNlRGRlozaWZYakJtT2F0bmlhQWM?oc=5" xr:uid="{2AB32E39-A359-42A2-9319-D76B8A0D9A59}"/>
-    <hyperlink ref="C979" r:id="rId111" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxPNnMxZWpvNkJ0dnFyUVdWX3NWUDBQbUF6TEVqZWdMeXJReGh2UGdTRV9GZFk0UGIwRHpwX2FGVlRHSXpSNmRzbHdkWE9LcDgxWFlGb2RWVnVuSi1jajJoRUxhNEhodEk1UVo2TlBtQ251aUdBcTI4RVg1RXJLRzZ5THFMSkdLRmZ4VG9FdHVUWDFha0hVT2JqRFZSU3E2amg4cFpkZzNkNNIBrAFBVV95cUxQYXlaakNYTEdSUkNmem5xN0ExelZiVDhKN1BsODF2c2NucUtNU1lOc0ZBMVFrTGg5UmhqVVY3UW54ak9MbkV4SEtsck9pb0FyNnRjblpMSkV5ampVY054cW9ydlZBV0FDMkZ3c29aS3Y0UGkwc1NwUi16MW1TOWI2c0hvajBGWkE5V3FsWUtUUXZNNHBUUEJhblVVMVFtaUlKbGplMGZtbTZLNWd0?oc=5" xr:uid="{36E9FB65-5063-45BA-8A84-3F1CDD2DAE24}"/>
-    <hyperlink ref="C980" r:id="rId112" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxOTE1ibjZMMUFUa3hDc2VjS1Z1TnZwbnc2RGY3bDYycXdaYnFXTU5PZDE1ZVlmX0FDT1NhUjZtd09ScVhreWdZaXNYR25rZzBSeVB1V3NFdVQxTF9oT21OT1RFMnY2NUg2cExpZE4yVGRXYldSWFNJSUUwbF9CM1NfaUZ6em91R2lrSDJVSGNWQzVHalR5MDl0d3FzeFNpZTFkQ1NieGdhVEI5NjjSAbABQVVfeXFMTVBySWRLZVV0dE1xck16VkVMelNVbzdqMEppUlkzSU1acEF0eHNwNzZPeWxzNUdqdS1FVm9OZXpIV1RsdlhOcWRxY1daaXNVYUw5bV9qSld4MTJjbkZBYU05dTNMX0FSWDFzYi1yZHhZZ3NqbE80LWJMWFdJZ1Ridm5ZSk1nNkJDZld5NlpfWHlZcGdnWE1OV2dMd0hXblpuNS1GT2w4TEZuM2VmWkpIWlo?oc=5" xr:uid="{AC3B89BF-38B6-4F96-A65F-ACC0D6B3D8A7}"/>
-    <hyperlink ref="C859" r:id="rId113" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxPd2tmSTd6c1VoMWlPYkJGREhqYTZNS2R0NWU5VDV5RkNwRlZQQV9rQ3g1TUpPbUFsZjl2TkFQNEU4dnVtYkg2U2dHZTBXRXpCME5WZl9Hb3kzV1gxdEl4SENzOVZiVXZ4WTktV21KalpVWHdQaUtSS0s5WFZDNUE1SGd6NW5aSTh3RUs3d29RWE1Zb2pUQ1dOczZpSWfSAaIBQVVfeXFMTjRIRzdtSFhobUJ2LUlobmtpNmNPTXJBUVZYUHNrd012Y0c1a0ctTEdOTlpyTmNRdTRvRVdTQVpDRXNfVlFDMHRUX1BuYmtHYkFXTFVnaWI1ZFpqRHFBNXFNTGliaWJPeDNxTXpWZ0hlMWRNVjlFQzFkUG1QamNuaEhJV0ZBTnRvcDNETi05cEJiOVNKS3RTRWVFSk1lRGh3Vlln?oc=5" xr:uid="{6B9E405D-57C9-4319-B84E-5B9A9DE26973}"/>
-    <hyperlink ref="C860" r:id="rId114" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNY3F4MUN5QmJ0aUFXT3l6eXd1WG5MVjVnT1IzMExocGJVWWR2NnlKb3VQdTc0eXpLMUNDMlE2ZnloYzIxRkE1Y2dqbEZHbEdhcTN6NVNnM0pWZG1lU3h4Nm9QeU1NMTZ2Z1c3SUhVSlJwZTM3VjZTOHVKdFRRYUZ0RHl3UmxhTE50MWp1SUZvNUtsa3NwZllCZ2FoeDBpRmlXQ0twWVc1Z2ZMOFBqVEhmcXVpYmpqZk5iWVpHOC1Uc9IBxAFBVV95cUxQN3F0UEZHeGVqWmVheWZzSkVUR2x3RmFra0wzTHJzc1hfTzltQ2JTMmlqazUtdXVXbWdGTjNtY2VhS28zNV9WY3dldXNTdEh6anBSM2hxTWFkRmxhXzZlM3JHQXA1MzR6OGt4anVXd3BVbEN4LTJjVFlqZzlJLTVjYW1oT3drWEc5emttSUtvd1FPLUxiRjVyN2w5YmYwSHZaa2c5OVd1MFJaOWRYWXdoSkR4MTBSR2k5OXZfODlQQUgtUlAy?oc=5" xr:uid="{CF7AADEC-150E-4CBC-9E1B-F0ECEEEDA85C}"/>
-    <hyperlink ref="C981" r:id="rId115" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQd0hCcEhQMldxQXFma2FoZzNkVmQyZHF2bHZKTXJFc1psUzJZaWd6eUtLWWJyRV9RV1FMYnl5ZjFoODNDYWFnQjlzUlVpdXZYR0NhTmpRaHI0NTJyb0RtZGFDMUxlZHNWNVpYOXpLT0tnS3FHcmRrZUh2Snh0NUdpcTFXNm1sOU00dzM5V2c3dTljeHhkMHdLRFJZZ0VnQzFId0E3MWZvQXlnTHky?oc=5" xr:uid="{FB25BBEC-11DA-4F75-8110-D87D79FF85B6}"/>
-    <hyperlink ref="C861" r:id="rId116" display="https://news.google.com/rss/articles/CBMikAFBVV95cUxNaDIwY1BOTjN0Z3dfbGh3cFhtempoazl5YTl6VUgyWERDVjJJcm90SEFLdndwa0gwR195SEMyc2lXRzRzWlZCQXhrVVptSzM2OGVCM3B5TlcwMVlxTGNlQ0RFeHludFozUWxVODdXTUs4ZHdyMWZvckYwYmVKTzVkU3hwTlkwLTRGU2pDRk4yZmnSAZYBQVVfeXFMUEtDVlhkQWE0aGhKVUJmWjE1UTRNZmZzaWd3RHJxU2p6S1Z6LVNySjFQbkVnOEdQWHp4V0xpdVhHOVdTMWVhNlg2RHMtN09qb1YyUjJXZlp2SWF0MFp2TmRlMWxLSS1YOWR0cUVMNTJxcEhKbm90TzNrNWNpalllbV9zek5BT2NMbTJ6eWgxVVUybzFnYzBR?oc=5" xr:uid="{442C582C-2B07-443E-A820-1A1D971D5D28}"/>
-    <hyperlink ref="C862" r:id="rId117" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxNWmRiZnRMcU42NWppS0NTbmtFenJ0NmFubTcwb1M5MWx1ZXJsNUtWNkpCajdzRkk3TXR6OXp2aVdMTnBXc185d2NKSFdGbURlWlpEZXQ0aG9Ra09kajdhS0VMbEJ1R3IyX2R1b0tidy1MSEhFM09DZktReGwwaTY0VGs4b0ItZ3M4LVUtaUZjRnA0R2FwV29nNlhTZ0VMZFRURTV5UdIBqgFBVV95cUxPOEtkV3hfclRacDVXb2FUMHl0YTBTanNDamlYRXA4RGFvckV3TjhkWVVRRVBoZGVlRGdMWXN2eEN2bDhacGR2OFVpUWFqcEJFZUhGUm12d1RsVE05RFdVbmY3RnJONDJxZUtTcHR0NnF3alVhVXFZeEJJajEyS0VXV0ZqZEJYQURVd0lTQldVbHp1Y20yY29hSF9mNnVkaWRHZV9jV3J3Sndydw?oc=5" xr:uid="{CE649444-1668-4D31-BEC6-E5123EA9486E}"/>
-    <hyperlink ref="C863" r:id="rId118" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxOemljN084c09uR1g4OXZ6clFCRTRsY0FSdnRDdkQ4Vm9sdHEwYnVyWENuYU1zY2dZZkNTdXJaTENoc3dQVFhQTUFZZkdHSzVna3FNcmtzRWtMcjVoOVhWR1lkNmZxYVFzLTVHanJWbVFhOEw3UDMxYlozTHdFT0haVVVEZVN6bmdVMV9sSWNIT1JzY3JDMkVyQzN3eHVLVFA2ZTF4Vg?oc=5" xr:uid="{594EB73D-3E8D-42F5-8E6A-C68078E75455}"/>
-    <hyperlink ref="C864" r:id="rId119" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxQUVMyRWhtYUN6b0RKdmU3V2tVczJ6aWxuNy03dTNVRDJsTGhEZlE4Z1c4NHhtY3lpaVRBRjNYdjNaSUh4Y1F6RFBlX1RoTEsybUpsZlJlX2xmQnBYalJJVWpyMExibVd5eFo1ZGRoR21PejFRZEJEMVBjOWZoYWQ3cHdoOEdYcTY3MjgwRmdiVXcwTVNWVUtFVHREeEQtZ3RTTjlDWUVVWEZIUQ?oc=5" xr:uid="{389083C5-A280-4A4E-980B-E7BF645B1C42}"/>
-    <hyperlink ref="C865" r:id="rId120" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxNeDAxR1pKM0FBWnlDX0ZHSk15UGFkd2dxQlFYTlNZMjF5S3luN1p2ZXk0a0RhekF0WkFqMmxRZjc2a0FBd08wZm5RczVSTmVSRVRVVkoyTHVnVU1SSHI2bmR1ODZ1alU5QWNYSVFHRDk0WXZ5YVB4N2FCT3g1SDVEYzJVMmdpbUlqMzBuVVBJV3Rwd2N6TXBvTTdmNWQ4bTFJaHN5NUVpTQ?oc=5" xr:uid="{CC19C807-6B29-4EA7-8E85-425D87749145}"/>
-    <hyperlink ref="C866" r:id="rId121" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxNRmFVN3ZwNTlxQy1kQW14eWFVNV9ucXVKYlpKWlZScVNoR0tCaC03cXNJZGlVeVlaRnhCN1RzZnQ1MG10cjV6cG5laWxoTkFjZ0dVOWJsWXhfT0g0RHhscVpFLWxRODNxRDRDczRCOEUxaXlaa0piamVHQjM3T3RlNGMxRkk3Qk9RU0U4cWFOX0llek9UUFhDVHc2dGltdDJQMUgwUjRHY9IBwgFBVV95cUxOQWRzWnpnNzBId0dYVEFoUy1XQkNPZHpxZ1hkc1RtZFJiSGQzODVFTFRia08xRTRDMVdpMVBlUHRNY2hWSU9RalhvSnc2WHY1akhPTkI2WFdxZ0lwdjlpblRVNmJFOGRsaVVIdDJ5Y2dZUTBfWmhWTFdYODRNNzZ1c1Fpd2U3U0RDSmNnYm8xaHFncmdLc3haUzNKLV9MSU94ZFVjNk50ajJBcllfRXlVZ1djSU5TZ2dPWlUwVlNKTVRXdw?oc=5" xr:uid="{B3DFF45C-5EF9-46E2-9453-1658D1218184}"/>
-    <hyperlink ref="C867" r:id="rId122" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxObHI5cWxURnQwbDJwMEJDVnZVZEU0YnkxZFRSU1VZQkZla0pDZTdYSXUwczllb2hFNm9Xbjd1NGhxcXZiQzJXRGJkbW5BTDhYNzlfeUt2dTdnR2NCWm81MEl1VHhDRXhRdDdvMWR5bktvMFVBQ1poUTRSV0pWaG9fQVJmbUl5WGNhSFdiN1E1TTZFdG15N1pDUkNfVWw5MlZhOEFWTDFMSzVuSllGcXNDZXJGSXNtcUlaNnVPaEdSM0xXZmlU0gHfAUFVX3lxTFBKcFVVcGZ5a0lsLTNycGJFVzdJV1VBTXlYSHJSdkJycGZsMFB5blpKZFVDbkJZQVEtTzkyT3JWSi11ZVdBUUpSNl9QU1pnYnlsalByNDlDWmFBYThwRk12eGVydC1vNjRVN3RmN3lMZ1ZJR3hnV0M1YnBJQ2VLNU9uNjNCZW5zWE81SDFySU1DWVpsQ1JhQjBqSlh2YTJqbWp3ZlFkWDk2aDM0Rlg5UXdFeTduTU01ODlTczR3NXFIcWVnZ2RoQVN0UU5Ta2JWYzdSNTBBYlJxb0VnMjl6Y3M?oc=5" xr:uid="{FEC68BAC-8AEE-46AB-B2BD-7A3E9B4C4751}"/>
-    <hyperlink ref="C982" r:id="rId123" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxOazdMYTNOVVdwOVMwVjhrRnBmczF2OVdOdnBfb0dmbUdjcmcwa1R3SjkxUU83Q0hNSHEyMEVjYkh5R2NUUE1ZNnR5R2puU0JKWEtUTzZhVlQwa0xreWRHZWZ3ajNpYmVlV2dTa1NCV1hMbkJPNWFfVlh2WDVQdi1ZWXlKSmhZeU5NWEZUY2RMeUZva2ZZOUVrb1JlS0l2cGptVThOZEhZSTVYWGw3d3JxQkg3TTJkNW1SR2pkWG9URENGeFR5MUhJ0gHiAUFVX3lxTE9INUt1YXpjNnh2WmZpUFJzMmFMQ1RkbDczS05oZjVlZGl2QV9hRWpUS084ZlMwYS1kMlFWUnZmTzhBalRXZWtTTzhBVXhhTE90RG9qaHdXeEVvSlpNTk5TYV9YMnRWQzQxYTQ0RmFRck1kQnhZTlM1blJlWGhnN2NIQmd1Y3Y0R3FpaHJRSWp5eGVwQlkzV1V0bWFqSnczV3pEM05nR1RGNU9GYUFPbzlmbXh6Y3Y2dzVWNjNTWWFMUktPRGxwNkhBOUt0OTJnSVRGYV9YaGRHYWQ5c3pZeE0zaFE?oc=5" xr:uid="{6752C404-B28A-42BA-9E28-27E90BFB8193}"/>
-    <hyperlink ref="C868" r:id="rId124" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxQU3RlZHVDT0VfSUZBUXVaNzNoYXBhTE1IN19VVGdxdjlIX25WOEhQSnJHa1dIZEJ4UXpYNlcxQy1lSWg3T3VHR0djaFVwS3BfaFlXTWFBZ0ZPMDl2b3gtbnJzR3pqbFR0SGdCbHJJamNrVjA3M1IzblJnUVZIY25aOXRHTWRmWll0Q0p5amZtbEI4RXBHQkE1aEZoYnMteFlhOU05WmRNeGlSUEVKZC1WWTJOTDhudVRlQXZIUktRRThRTUNHSzcySXB2c3lYaEdXWF9aZ0ZUb2MyZEHSAfYBQVVfeXFMUHA2ZXBmblA3X0NoZ0ZJWHZKSHJaeklkUURiWnpVVDlzSVlET3Foam1HeFl4bWpOQ2ZtY2h3VTdOREFMU0dTWFF2UFpFQ3NMVjJOUzZqNmg4dWhneVU0YWZxQzdoRnctZnoxcGNiWWNlYWV3UXFCek9RSVpvbEhHNlprSG5OUkJrTlNzSDMwQWNWTmJudGp5aTRBdlByNVVnY2FuMzNlN1k5R3R6Q0hiTmNzNmcyZ1NMUGZPeDktcnhhWjdlNnVXS2Q0SlNqalpVOHppVmhqaWNaQW9RS21nMExTcFBxdEFyQkcyTWo1OVBaRTNWMTBB?oc=5" xr:uid="{A5863597-6FE6-4410-B788-456EE25485EA}"/>
-    <hyperlink ref="C983" r:id="rId125" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxQVE8yUUdYOGZUTUpyX1YyeUJEN04zUUpvdWYzR0Q2WGhDTG5QdW1uazBuRFdvSXUtbHZaMEw4N2h6Vm11V29UOW9mYjBnS091Znh5RU9TbHVkY2Nvd1Q1T0NkcFBPNVJQdkpGSnJobGlPRWFnQUd0amJKLWluamNEaVJzamJDX1JfU0VFRWhKclByd1FnSjhZUnY5eTRDeHppVmFDczdoeXNmTzlSSE1kaXc5YlpTdHlBeUZmSEI0ZVN4d2VEWTdkYjJQZWYzb1haVDZURzJ1aEFkZGIzUVNaUDE5UVFtS1ZwV3BiMdIBhwJBVV95cUxPdVFkZ1VXX3dOUkxDMzdtLVdlaTRmQXlzSEh1Z1cxRjZYUWYwN1MxZ09NTlQ5VEJzZ0FPcDZsQ3NRYVJjWUNIOVZWVlZWS0pRdXhOQXNFVmU3aWJpVVptYnM4UGpmUEVVdWhsTnlHWmpWV0wzU3lQZ0NwVGhrbUwtN3NOcW00Mmw4THItTU8wcGhSQV9DckpDaGlfT3NtTFRLQ24tLWMwM3Y0bk0xMTBHdk5OaXBEc0xWQzM4V3V3T2I1LUZNXzZPR2JBVVJqcFhjTUJZOUVlOTQ3YXl2Tjl2Vl9fcC1SQmZNWW1MYmNOWDhjZjUyOTlWVUJTcG5OU1dJMlZRRl9OUQ?oc=5" xr:uid="{4DFBC409-7826-46FF-8DC2-0158F16DCF7B}"/>
-    <hyperlink ref="C869" r:id="rId126" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxQbnBUbUtoc1NUajJ3cTVDR2dxbG9rYXNxNHpwMHFNREYwMXZ1M3h3by1FQ1RLNVZmdWdHbFpNUmRqYy0wZG1FX2g2TE1YUXNVRmN0Ql9lYndoekY3dmRiMjlIM0dJMS1Jb3NxZm9OaEFtaG8xX1FmYzBCZnRYd2MyUGJGYmZZQURNS0cwRmg5djU5OTRoWDd3UjFhd25uUmFKMjM3OFB1cThYTGZfLTJKM0ctbFZkUmNGZHAwczY0YV85ZjJJbm5IV3RWWjlWMl9SVWhacjJkb0dETks1MXc1RTlDeGhyYVE1WFpPbG90dVA3Zmlwd2VR0gGSAkFVX3lxTFBIVWZ5aWFQSmhrSy1wZTRwWGgxSVY0QmNmRzdheFJNLXQ5dFk2YVZnTUpSOUlNYjdOOXZRRzgwVlhwcjJFZ0xrWFFoMU50V3ltM0stazdKYmp3YkNLSlBHdmF4R3EtaWNDZDJpa2hPUm13TF9kLXpQUWVtejFPVWI5eWJpVExGQ2V4cndPR2tlZ1N4QlZFenR0OWVtb0FuNWkzZVdrN2FTTVloNXpXU05qSDhZZDBMR2ZjaTdKM1JnUjVVNVdkQWk2RHNEWjZBRUhkRDlOQkgyb1lsSEd2R1NLcU1CakN4cjU2OVZWeVhFUDJYZ1F2TzJkYWw0NURnMGZ1ei0tSm1aQjdEZDBrQmdENnc?oc=5" xr:uid="{F15EF4C7-5751-434A-B953-92029086D125}"/>
-    <hyperlink ref="C770" r:id="rId127" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxOaEJ0NVc1S25WeFlFNFZWaDBJQ1dJZ1FoWFFMSENJc3R2STVRWnA5X0RJRkg5OVE3cm9XRDV2elVmbTdyWjlSbk81U1VXQkR1YTIzWDRLTF8tQWtvMUI1d1pjT0lnQzZ2blA2NFE2QmhHcG02dmtLeVBpa0t0Qmk2YVpvdmpHbTh5cy1uVDAxUkRUcWZnbjB4eDRUMGhPOUV2M3pXUG5KNjFuMU8tX0p6c0NxaE9vbEFSWkJaUFc2STFPRmJ3NWdEN1g5MlRyN1Y4VFNIV9IB4gFBVV95cUxQZ2t4aUZEUVRFS1J5OTI5V1lQdHg4cEw1WGZEZW5kcE5qeUZvUG9GNVFhZkxzQUZpTnpHWUFZNUEzWEJjRVZZRkFyOGJ2cEJ5WG85WU9UZnpkeFdpX1c2UnVNUERaU1JqT2pKRk9zUDQ4ZEFJSHNxMlRtNUhoZzlUUjFaMnhMVkpIRG9iNnV0UGNxel9ZS3JBNGFEWUZTRk56T3ZSZ2FmUllnR1NJSTkzYkh3cFh2clRpbzZSTHc5QTNuV3N3clJfUGJMQnZYRm1VTG0zZ3NSTUdlamJkZnBNMm5R?oc=5" xr:uid="{BC2221D2-6024-4760-A88D-1E798A399F12}"/>
-    <hyperlink ref="C870" r:id="rId128" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQVGs1Y2JqTm5zU3QzM2o2bWpOSUJJNEdhaVZyY2tkakxWSTIxazd1X3ZvS3ZORHdzcVB1Snh6alhubkhsY25oakZRQTRybWhGblVHYW5BOFdWUC1NSjJSNngyYVRNVVluM3dXS25OOGN5NHhPZFdDb2pzOWFzNkx3RTJDbEpRU1hzZUVpMmh4eXJFclVXWkZkbXNxNEtWdVU4dnA2TUVuTjZoSmZQQUoxaWxrMVc4NnIyQXU0OEZnNTg4d9IBzwFBVV95cUxQTW9qVUhaa1Nnb1BCTGEtRTJQNTZCVW1aR1BZWm1BQlFxLUZJY3R6a2VuUGd3TnFoYUxtc3V2VVdRNlpNdHZnT1hzUDhtM09Lal9SME1CLTA3NklUUC1zZE9CS1I5VGFmRHNxR2VUTFJIT2ZRRUJENWVRUHh2d3luS3RiQXlrSjF6aFNPeGUzdDJOcDIyUjRYQ0R2SmZHQko2a3Nnc0RyWk9IbDZVQjJTVEs5SlBoSEQzMmFPLWNQY290MkNTMVZNY1pULU5WUVU?oc=5" xr:uid="{0E657437-E45D-412F-BA8F-77E0FE80F0A5}"/>
-    <hyperlink ref="C871" r:id="rId129" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNc0dhQllPRlVqdXR1X3RnbkNkWVZ0cG1kRTN1ZmxoLWFOeVM5TlRPNTNyUXNPYnRyTUViZXBRZjBJdHZRZzhpQzFmb3phXzhOcnZwcU1leWtuU0FieFRaaDl1X0RZUXBoTFY4VEJIWVZ6NklZU2Y3T054UHJ0V2k5WDRhRS1hd21QUzRpM25MXy1DOEVTNHdwLUxQTGdMUzhhWXdmTHpjMmpEWXhSNW5mWklQdEk1WWJIOGpuTGRKNzAwX05uUXhsbi0xTnHSAdoBQVVfeXFMTS1yX1pmV1ZUemRsMXU5dTloTUJncTVjeUI1YWwxWmRxTGVSNkVpQTFFczJZajRRUlhGdlhyN29OelBWMmNZOUdyeGVIejA2clNMN09OdENZM2JOenRYWmc1ek1XS1ZjbHF1ajluczI3dmExLWJrV08zejhvOTdodjlsTFctNHFMY3VoempwTC0wOVpJNmYyNEtBVm8yRHdmdjlWUU5hWkxSdnZvd0xUMHlVVC1vUHdoM2hGY0pIcG1YQ0dEeXVRMllvemlNRUxNazJqaDZHUGNoTHc?oc=5" xr:uid="{7516006F-2E35-4F9F-8729-F3528D87641F}"/>
-    <hyperlink ref="C872" r:id="rId130" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxOckVFZkhySldKVEtISnF1dWZZQW1qaW5LeTM1T0pIVWo1Z01rcVQxZVZET0JVa2VtYlY2OU1qYkdzbVdURjRVWEZZbHhhUnVyek03WEFrNHZMTHZuWUNwSGItZXdwSmctT0poLUF4Tzh3TENrdFFLbmgwWWdUdUlud0lXbExrai00dVYtZWRnaXVEZVd5YTlIRlEwNWt3bUlQd0lRRXNkRG1GSXpqRVNHYm5qTS1kMFB5THfSAccBQVVfeXFMTk5IN0R6MXF3UEUyd3RCYlcyRndiS0NvdzV5TXhzY2J0RkZ6cy1rR05xYkpnajlYTWM1LW9UM2hQQzFvaV9GOXBBRTEtMWtubkt6NmxmclN2cm9ndXZWQThYR2VHby1vVjN2bHpSS3RhaERyZEM2cWdzUnFrWUU0b3BTLVN6bFRiVlpEYlA1c2FEMmN1Wk44N2lGbXB3X2hHc1ZzRTJMQlBDYVJ1TVY2d0xqRmV4Y3F1NGgxUGp4ckJ6ejFpN0VMNA?oc=5" xr:uid="{81610240-9BF4-4F14-A726-9244C75E96D8}"/>
-    <hyperlink ref="C873" r:id="rId131" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQQ0lvZU9weE91Mm90eEZPRk8wQUxObkZUVDU4dkFVcXl3SFR6eTg0T3FjQllQS0UwSTFVOXVETVB2N1RoYndSTHdZNXExTFdDXzhfRTM4Zk40ay1nLVIxZUhMdXVoNzJjNTg3WmJ1NXhTNlhBSlh3VHczbnpNUzRtdUVGa0NsQ3VDcmVBa2NGTUdhbXRSaGJCcFRraDVxRV9G0gGuAUFVX3lxTE51dnA3TTdoMy0yMEVZN1FVRWljNWFZVW9YeTNha19UWHpPTVVWTjllS3JWZGdXTUpZSi1UOFNFanFQN0Jsb1JSNWFMV2tJUkRsbnNmZ21XWXdhQVlPbVUtRnRRYmd5OEdhSzFaNWpnWmNVM1NNeHJLdmltODV2VmxtZnlCS3MyMFJZTFVkaHFQb05Pem5SMjFmOVMyZXItZHJFQTFrTVRlZEVZV012UQ?oc=5" xr:uid="{E936E3F0-9ADA-4F4F-A28E-F5F802ECC718}"/>
-    <hyperlink ref="C984" r:id="rId132" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxQVUJmRGRpOVRtZ0h0UDJKX0ltdVlMMVhoVU9STllYMzlVc09wTDV0a2FyRmVFQmVzVWtsUndubWU0RU5Ha0kzcERxYjB3VUVQVVp2cmozejR5cGxCcjlfME9kN0FuSGZIUG0tVUdLeFBWUk5Vajg0RktrUDRERVplQU9jUnZ6dFRNUldMLVRYNkNGeG0xY2I1b21Pc0ZRXzJtWDMtc9IBsgFBVV95cUxQeHVKbUhJbG5hS3cwTGR5ZlZTU3JLbFc3Y0ZjUEgwSEExSlpTdEVrQmQ0ZEJhTWJWM0JBSllGa3pqNXpMOUdGTjhjdWxVUWRKb1ZLV3pXaGtZUFF6SkZ1dTRZc2QxNHdfQ3lxbS00LXNyakx1U3dPZkNMTUFHbU0zMHZrU016dWpXOHZTZkhxUTZ3UTFFcEF4c1BobGgwV3BCbnJCcEJKTGRfSHA2T1FaYVZn?oc=5" xr:uid="{293CC0AA-29A9-4525-9D93-A2BFB1A29E5C}"/>
-    <hyperlink ref="C874" r:id="rId133" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxQSmZWNzFNT0RfRXhBc040Q2FXLXJ6UjJ3ZmhsdXZ5aUpkdkE5U1g5U2lNVVpDNnRmaHlid0daZGRuNmNHcFpiVVp1bE53WUdjemszODJ4a1o4bXpBNHRXazczRjR2SmExMVM5Zi1FUzdLT0c5ZmE5dThZbFB6MVc3b3ZyaTJHLXF6b2VHYWE3X1JYX0hoZWV3MlpWSXJqTGZSeks1UTBTbDFsbV9hME80SmdER1JFM2JoME91dC05MDVFLWhta0FWRmx3Sl9UQkVsNFd6bGpPYjllaTJ1cXZrVmZIVm1OaWVaR2pybnZ6cVZ3bkhnRzc4MEFYY3dsekZC0gGUAkFVX3lxTE5kMFl0RFl3b0ZRbkt6eDlrV1ViRUlfSzFraVUxNGlKQU9IOVd0LUtwbFhjUHZJcUliNVhuLWxkU3dodDJ4a3F5M1N1dVNoOUFramdXU2hYaTdwV0RuUENlLXRqbTRUODhwa1dDVnktSHhRMFlvbklzZkRxYW5TcEszVHhwU0owcFZzb0NOWGgtTlRoNWVya3VnNnVWR2Y3V3NjTmduNWp6SXVRZ2k2ZmdrbnNvS2ZFX0hJSE8zQldNS1E1NTNoaGRHZEpJUkl4eUktQk8tQ1FrUVU5VG5GUUU4Z2lYakhqLTFuaFM3aGI0b2ZXa19BNjI5azhKaldiZnRYaUx5a1pZcnFTQ3BubnZjcFVhTw?oc=5" xr:uid="{D402C3E6-A10F-426D-BDF4-100C21C42A65}"/>
-    <hyperlink ref="C875" r:id="rId134" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxPVHZwSGIxd1plNWZMcXNXdEg1M245TjJrbThwRWtsU0pnUGZ4akt0NWZsdEZHQjVtUFF6enZheWpTSU45QkxPZHhfNEN1S19OWDc2Tm9pV05mTVM3U21LMHFxT1dkODQ1cVV0YnlqOG94cHdFMkF3X0hWc3NLUVAtbjBkZG96bzB0T29lc0kzcDA5QlJBcHp2ZENqQlBKdUd6YUhjU2ozbVZ6aWE2aUJnRldLLTdybXczMWN0cnRSTUcxWjZtSXNTZWZ3RWtjYzBXWXIzREI0eUNMZkstc3NiQVJsTDEyWFZNckRpY0RLSTZHRVNIQV9V0gGLAkFVX3lxTE9YRWQ0SnJJVXNQeXlyc2NRelU2M2xiMWVTWGgzSXhRTjQ0dmdqZGFFX2I4MER1TGhtTjI1OXpIajZOSC13bnp3OEM5QXRycDYxUnREQm1OSVQyZ1pRTlNzdEZOcU00WS1mSDNlX0x4VGc0REs1cHJWT2lNcHZJb2U2bjFBNjZ0UDB2cG05NDRnNkJSWXhCUnRlN3lQcjdURkF0alRfR3ZzMS00a3JOd1FmOXNjdm5uNjNEVUpacnkzbEpsb09fN1U4LWh6T2k3SDQtZDFaM2NVZndreDFOT0xXXzNKeVROb05xTzZoQ05SVkdOa0QzaS01enFZWFE3cHFuR3N2U01kWHNmOA?oc=5" xr:uid="{27C40E90-0114-4A15-98AA-F35476F0D1D8}"/>
-    <hyperlink ref="C985" r:id="rId135" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxQblcwX2pVUjBpdmZQNjRVSXYyRHloaHRNOFVxTTNtQW1DUXlfWGNiTnE5ZGFVSm4xaGJnMFJ3YXhPMG9LWWlnRFFLNG1TcFZwekNOcE9nN2dGdTJ6eldxUGhEaVctdktCX0xXUUhCbnBYX0haMk4zZmpLdDU1NldrQ2dLU1lTSFE0bm9Kd1R2ZlZUdUI4R0JfTWlfZG92Qy1hYldBLWs0SkRyVXJhQUhEb3lRd3RXUlBJWlNjUjVkSUdUZWQ2RS1JZUhkbHE1Q3pUaURCWUZYS0FIZFdqOWdYaU5vN1JTYkZCSEFlM0c4dWhtTTNKeHZEOFNCONIBjwJBVV95cUxQTWdSak1tdm1lemtEY2ZlbUVMTDNocVhJRDlINDc4SWQ2dmEwMXRqVjIyZHFCLWZOcVJzcTNPWVFBdWFEbTNNYTh0ME5uODNDWV80NTBtcTRZYWdLbENPOGZtazhSa3NMQWd0c0R5eWtfMEZDRDV5WkhmSEVmdnNWaTV0SFFfcTgtaW1OMVRNX0t5aWk3OGZjNTZ5SXoxc2JFV0hzNGh3Y3JlRHI1aWlVNEJ0WXc1cmpLeFVCTXB0N1R4YjVEZTR5OFRvM0RacnFRYVpkZXZNZmJBR1h1VlV5V0xVQkNzU2dYc0hpOXdsNXZORmJWV25qTDBMbXFPQ3dLdi1ocGdyYS1ZVm1wbVpJ?oc=5" xr:uid="{6F2F247F-027C-4A3A-92CF-38FAA2FD57E2}"/>
-    <hyperlink ref="C986" r:id="rId136" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxQVEV6SllVdDN1NkNmN0NTbUFiRGhLWjhFelFsZEtYVkZVVW1QVjM2OFNaTFNjQzRURlpmYTV6aDJVcFFqRGZJTkZ3cS1GaEQ0Zl9SNUh3amhXT05kbXNDZUpHWFZPUFk0UkRPR3lraUFCcE1KRWVZcU1XemNkTkpnakwyMTZTYjA4MnBaZWlzYjBIUVFEek1lQ2hVeUhyc3ZBbDRKMk1RUHQtSFlzQjBNMG9ybTlnUHJqOTR1ZEhfdGZVTWk0b1pmalFjbkl5MTU4dGpKV20xd3p0NEFrZW9YTNIB5gFBVV95cUxObjFNbjYzZTdLQnBmaVQ2aWFPTW01d3NUem1lMHNyczMxaEpQZk56TTV4ZHlpREpiMnZSSW9xLU0zWVRhM3pBV3ZsSHBYZGtBa3FPd0Y3ZWV2bmZzZGduS0FVb3R0Ui1BNVhRdWp4aXpDeUMtSWkyTmQtVWRfOVpWQTk0SlFHaE04WjlrTVI5bGl1eGphYXlZLXpBQUxVTGRBQUNKTkVvX19GU2taQkJWN01HN05fWFZCZXZRVVpWSkIwMWlQbVRYX0VVT2o2dUEwdWJ0RlRheEVsZURUZU9rY2pfTXY3dw?oc=5" xr:uid="{44201B28-B2E0-43EC-BAED-2C99ABAA3CC9}"/>
-    <hyperlink ref="C987" r:id="rId137" display="https://news.google.com/rss/articles/CBMiowFBVV95cUxOWFdNSU5DcjFaN0loa1pWYTR2X0tZS3FjUlZ5UU9xdFJ3X1NKTTJwaGYzUnNrNk5wWjZiOFRGaWN2VE5KTXZuc2xMbEs1OVNfT0o0Z2dSaFdxX3VlNHJ1ZXp3RmhZbzEySUlLNS1nd0FXRUhKbndzMTNFbUJETVQ4LTIzTW9fX3pNLXNOLU5uVVJnb29zVktfQXMwMUg0bnlMVzdj0gGoAUFVX3lxTFB0SmJkOUdjY2lHaVl3UDN6Zzh4empOQlBlaWdYeldNQVpPS0dvaHJZTmJUTG05aUpDWVJuN2ZFeDlSVXJyQU9QeDdGQzc1UzlHb1d4WU9ma0VyWS1Mc19aZm81YkRySHpPWkh0OEE0RHFnM3Q0d0wzT0M2dUlpcU5GNkl5M0ZjZE1TUTRsT2tfSWFPaUp2Z016U2VxOUh6WXpIVUZ1ZG9aWg?oc=5" xr:uid="{6FEE7737-A8C2-4325-9B0C-6D23B86BFB0A}"/>
-    <hyperlink ref="C988" r:id="rId138" display="https://news.google.com/rss/articles/CBMijgFBVV95cUxOQ3JaTjVfSnlISWM3emg3dERLUU9tV2F2cm5NaVVKSy1maGlZd2tPc0c4NVAtUkd5Ymg3QXZWZjI3OEZMbWlVbmR0Uy1lY1ZESVpYcDZYbXdpUmx3TjM4WDdnS3NqWnpyVlZaY1ZoZTFKZDFKQmxMcmllV1Y0eVdFWlR6ZnY1bHQ2UXdMU19B0gGTAUFVX3lxTE0xaVJTaTVjVXppZnY2cVVwUTdua1AwZGJtUXZZVmVvNXlfU1hRWEdtZlZmLWJHbGRPcXZQZnpVWVdQaGZqUENhdWtPb29SQ2xCZ3ZFX1BTLWFiSWR2c0JjWExnNXduNlZfWm16MFhNTGZHU0JLVVlxbjNzQUxWR2d3LVhCVllpbnZmUUx4UE9lVDZTaw?oc=5" xr:uid="{E335DF33-D1CF-41C3-B7D9-07683284D829}"/>
-    <hyperlink ref="C876" r:id="rId139" display="https://news.google.com/rss/articles/CBMikgFBVV95cUxPQzdON3p4cjM4dVhtNXZMR1RtNXF3dVVQWXVRZ091WkJBTXU3bmJiNFBsMFJTdll6ZXhRTjhueWhMTTRldVJybXNjVnlVWGFLbTRIZWF3S2Q2eUcxazRmX2xMb2E2Zld0VXVCZDVaWTliU0VzdVdUd09QNENFZDZSeTBOaWdWbnFpN0ZoNndJRDc3QdIBlwFBVV95cUxNN2g4ZC1rbWgtZHZNeEphTEo1SkZKenlGLTI1dFg5bkRhZnZ4c1VNQkt5cGJ0cm1KZjJWdDFpd2tDSk4zOHM0WE03dEN3S0RxbHkyelVsVFhRT2FDM3hOV044QmVoRk9XdGVIN2oyd1VZLVByY2E3SWk1ekpiZWFzUUcxT2FQM1RNaGJkT2k0ZWs2d1doN2Nj?oc=5" xr:uid="{B3A21853-75A5-45C8-BC46-540E7CF58A36}"/>
-    <hyperlink ref="C877" r:id="rId140" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxQMUZ0dkNqNmlUbDZvNDJ4UkItYjUtOEVaRzhwUXBGWGFaTjNUQ1dnTHVTV3ZqcXM1LVdoLVRVYWdNZFNuWHdHSlljaFpxNjdVTXZLMEZLODhvaTJfbTdiTEhITV9HOTFoX3R5YjF0dzU2SEdaSTI4WjVrNDFleUVMSy11eThrNjZXdDF4MTdRWTZsQTk0MGJRZ1AwMktQeWNsaFA2ZlgyWdIBrAFBVV95cUxOOG94Z2MtdUhRN2kyYkR2OGdvNmFrUi1MOWtqQmYwazlJQWtSMXAzU2txQ1Y4NmJDQjZIUDVXM2VXMWhhNjEtbTVlT18xTDd3cUZmcW5nWTlaLS1rS1ExdlE3d213aC05V1pmanQ5ZGF1SjVjSTE4QkhSVnY0aUE2YzFSZFpuQ01RY0J4b1gzWGFReS1DSmtVMnFGdjR1aWdLbUU3enk4VWp0S3FY?oc=5" xr:uid="{9AA99058-035A-4742-9053-7755C25B874F}"/>
-    <hyperlink ref="C878" r:id="rId141" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxQWkZTZldQbDdvY3NSUHF0STI2eVI2NjFxRkRHQkp0Ri11cHBVNHRRVUVtSTFrOWlTcGVEUDBjcjg1eDc1c0pySURyaVJnWWJxbXBhRnRNSnFacXVlV1h0TklXX0VPYnRQUXZJY1BJVDlTclI1WGhnQW54VG5IWmxSSjUyN0wtb3ExUUVmNzJma1BHaGVaTk5tZXAyNHVuU1XSAaQBQVVfeXFMT1pqclRROVRwSEN3UkpfMjVBcmlOc0pJRWcyVWlaWGhnZERUWm41N1FGcFhNcGlnUmY0eDc3VVZNLXpaSWY3SFVLbG9LY3F4ZlJkdjQzRE9UNzdZeGJUM0lXM2dJak1yNlVSS0xfY1ktd0V3cWxZRFVSTElyRGw0YjYtZk9HWkhYbjhCWHNPZndVMldxeURnMnpfSkZpSmdtLWE0SUc?oc=5" xr:uid="{8B4B2DC2-54EE-49C2-84F7-7466C6783C83}"/>
-    <hyperlink ref="C879" r:id="rId142" display="https://news.google.com/rss/articles/CBMikwFBVV95cUxOc0Z5YWZpSVQzaS1hTTJTamdNaEpmOTBRZVgxUy1aZGNhUDJjOGFKM25vV29GSEdPUGJFMUNjUVc2MWN2U1loLTVFc2ZVLUgyNWtCd3BTQV9PQlhkeV9aUjN1WHJYRFU2TmFkREdLMWZtQ0hZSWlqcDlqQkRVdFVIQWx2b2ZWcU5nOUFtZUJLekhrNzTSAZgBQVVfeXFMTWhpOWx4VGdzb3RuNWFkT3Q1MHpnUmNTR19aM2dRVjUycHYyLUtLbGE1NW8tVGJQQVExa1pKOFVoZ2xWZ3BUSG96Tm44WVhJUGhnTmJzeW8wNkhtNi1CQlpaUXk4Y29faW43ZWlaS3FwQTk3eXV4NnctOEpVb0dxRXRobk5XUllGOW9jdHJGQ0JhYkcxbnFJRlQ?oc=5" xr:uid="{61833DBC-AFEB-4802-A6C0-33FDD43AC74D}"/>
-    <hyperlink ref="C989" r:id="rId143" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxPbU52WWNsTHFJSWlIaFk0X2RqV3RwUEpORFgzYjBvRDRUQVhac3h2Z2tINGFCcDRuZHBfWWtpRUFzTnlmRGtfRm1hTl8wNWxxNjd5elZkVTRndTJyckRmMEFjTnMxWndiZ1hnR3ZOVHpSVUR5czIyS2hkRUpzRThtbTRlWGpVYjJubHJwQ29TR3lHQlpZdVJ5THphQXJaa05BZE5SNDV4TE9FMVVzZWVMMUZnelprb3RLSmV2N1hoUGRocERwNGhCcA?oc=5" xr:uid="{F23B2A02-591D-4314-94CE-DB4086282697}"/>
-    <hyperlink ref="C880" r:id="rId144" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNWklHd0JQWTRUNldWRE9jTmNiZ0lZQkRMQWxvcklGT21jLS1NYng5RGhFQ1IyZk5POUpJTFlhTjlpWXV6cU05ME9ET0FlWTJTamZOZklFYXNIT2JFVnF6MmxHNlFaemVIMGNRMVFLZXJWem5sbEhOVlZUSGU5elB1SWN6RlJ2MHBUYTFubVRKVkxFNkN1NHlsZmNrYUNBYWdFeGVOWEpUTnkyT2hkWURhc0FfUWluY1UwVWZJbNIBwgFBVV95cUxOeXgxVkZOb3lpNjVXMHd1SVpSaURacUZmZGVKX1VVOUdPeDJEOFdWUkZaXzlLVUxLWThONG9jTkJyYUo5dUJDLUpiQW9NYzQySUxDRndvZEN4QmxNWkhRdm5fUG1Kei03d090WU5IbmpHaVZ2eS1LZU00aVNTWVdwb3hMV2NOYUE4c3h0ejFjeEtDX2F2c3RWWUZmcEFxRy1VTHV3N0d3WURlbzlQalF1akpGMDFFOEpic0lQTTdSbzRYdw?oc=5" xr:uid="{23F8306D-07FD-47BE-9B3C-BF204488603B}"/>
-    <hyperlink ref="C990" r:id="rId145" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxNSE5vcm1HT2Vqc2NWTjZxTV90dFpVc1JNbXY0TDdseU52S3ZkWGZMbkpMZWJndTVjUlZJRmdiME5kbXNSRkk1MG9XQmJOSkhGMERnd2ZzLUw1aVBsMkR0NW04WUowNlVWZ1VTNWIzVENsR2hYNlVDZWZ6UTVvaEhreTdUU2xrS1JOSGpUOE5KOHNWMDVnSVJobdIBngFBVV95cUxPbTVCMU5uSlpJYnUybENvdFlINmhkMG12RHBGQkJSb0RHS0JaN3k1VVd3QVBhSUpNZFItT3NqUFpIV3UyanhZaWFUUTZvalNaaHd4dV9TM0h6VnNuclVFZkd5WUIwelRfaGRHQkF5XzFkMDMxSGw5czF6bC1Cd203LXh6aWdxWTdKNHdGejhQbTVBT08tVDRvV2hKRF9Qdw?oc=5" xr:uid="{0A261918-1DD0-403A-ABEA-A125544F2AE5}"/>
-    <hyperlink ref="C991" r:id="rId146" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPa0lUR2dmWEJBdmlYVGJadGxOS3FrQWlpLUktMWN6cnZ2aWFQZmRJYTVkRmZpRHgwNzlSR1UtR182RGdZZDN0akJPS0U4d29Hc0FlT0JzdHRQLUpYdWtDSk41cW1mUmczNmMtZks1STY0UUsyZnhkZkNNcDdLdTFpUVQ3QkJmNmVQNzJtdXg0VVNQeGVndHlvaWpiajNiMnQxSU5PY1BpaEY0NElYemsxWkZidVFzSFd4MzJhWUVQNXpMaGNj0gHKAUFVX3lxTE5pNHJJempqcjhlX0NWVnVxUXpWUjl1ZDNmLTZpaUw3NXhnYnUxTUVKMTNoM2lfemQ5ald6dmRsN3NfcXY4X3NuUDVlUkJObEJRNjU3VjBDZk4xN2luWUU1NjlCZ2o2N1NuNnVvZWVvYU81SExmUy1ZekRVaVVPa1ZWZDEwNHlnSS1zZ0RHS1NRQjhFOW4tZVZuU1pnekZvRm5mYm1mR201OTJEM2lNYlRLUDdRd3FJRXIwb2haVGRCSXhXNzBkaEpTb1E?oc=5" xr:uid="{A362E858-EDB6-47A9-8F2A-F993B660D771}"/>
-    <hyperlink ref="C881" r:id="rId147" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxNQ0wtUnNqa3VQZ1duUzJObENPMHF6WmEzX1JEcllSNG1KdnZhMGVXZHZjVGdPU1lzcHRpWnpMX09OU1lweHRKVm9NN3VMSXNremhtYm54WHFPU0EwenpXNnFfNzhZc1ZGc3luZ0wzNTFFbmZiNHJKYXlKMTRoVlQ5ZHltU0VzY2xnaUotNVFVSkM4T2RxVWxDZl9RZ18yZnVqNEc1N3JDdkI0d2NaMEZVdTRkdEZKcWNUUHZGamRqclRpTmJ5cUtZ?oc=5" xr:uid="{81BF3A29-AF9D-4937-86FC-6DF6B916291E}"/>
-    <hyperlink ref="C992" r:id="rId148" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxOOUV5Y1NLUTF3RVZuTVE0bVREbVNYeVFQTW5ubFg5cWRkbTJzTDBmN0JEX3lQQ2s1dEJ4bE9IdFNFenhWQUo2X1hRR0FLLUM0OFRDZWs5VjF0azNxWnlvSDF0U1NjdmowQmJfR1hZdXpsM2N0bXVuTG50aWl0b3E0ODdKZ2J5N0VHbERtY1YxNEdMaVB1UnYza241ZXJhY2VFZmRYWC00MGlWUm5WRjQwNDB2V0JWTHA4WkJES3hxZC00X2NFT2Jr?oc=5" xr:uid="{2C138E6A-485D-4A3E-BD0D-AB08A6F5D7B9}"/>
-    <hyperlink ref="C882" r:id="rId149" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxPV2ZlazQzenZRSzg5NTFWeVVnbUsxa0hJdDUzNldGYll4OHRteVJ3T05jZWFBOFNsc2NHX2kteTgzZHczOHJhUE9seHlHUXNvaWttRjh6eUJuQW5zbU1hUVFpYWhYSzdhWXNDVVhtbENVWVhFVTVkUG1mVGFmUW5ncElPUjdxLXpPaHpST09ZSWd4OWJUMWNhWG5iVDhSSGRzT1JTSWFpWWxId0JCdV9UdlBxbUUyMFdkYVhDNngyT1NuaXNCZjEwNDkwQ3EwQjA4MEVrUklNX0ZhQQ?oc=5" xr:uid="{744C63E2-7E2E-49E9-95E7-DA10567A6390}"/>
-    <hyperlink ref="C883" r:id="rId150" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxPLUpKemItS3FaWGRlUkx0OXNlRFRXOWFzejFyX3YyZGtleFl5YTdicUwyVGFldWNwWTZnVHV1ZVhiZ3BiMVljb1V6TDR3UkVleEFVMjZ6YWlMaHJlcS1kMnpNcUN3d3VzOXd1MDlYNDJ2WDJfYnNxaVN0ZE1pT3hlSVZTdTl5aFBnUnNRSGJnR0ZGcjFzNVRoanMwSFhOWG5JZFpJQTR5YjFHTWlTUHEwMWstd1o3MXlvY3RfVm1LRC1Lb1c2a29xa1R1NUJ0c3RfMnlPaGF0aFN0TEltMFRHVkZWVnBTZ2M?oc=5" xr:uid="{D0448500-0C7D-4E22-8927-BCB8AD827734}"/>
-    <hyperlink ref="C884" r:id="rId151" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPdG9UTEQ3bVNORThpX0lTR3FNUXF3TDZMY25mLTZKWW5laXBmOW9FZmRsS3Nwc0JEV3dHMnc0WGRVYnAyVGJGT0NBa0NjTDNDbmJveHotX28zWXc2bG5jdWk4eXNPVkJienlkZUJ6cm84XzBoYUtPZ25VTEx2VHZ5LVdwNkVYSVpqSHlHbnRUVmR1QnFnS0NNUUJjck1qZ3pySzBEeG5YTHpUOFl2WVhMNks2NE4xRjRDX2FudTU5dmVudGRxSDNLOEFqRjBWUHhnZzJsSGlfSGlsc2EtVHdrQXdCOUF5Zw?oc=5" xr:uid="{B439B6FE-C7A1-4640-80FF-3B2335C15D2E}"/>
-    <hyperlink ref="C885" r:id="rId152" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPRFBXVnJDU3NvWW1oZHZ4dHJjbmVhc0FBdlo5X2h0aVpzbmo3cE8wYllzV1F2LXRyRHVlczR1dE5rQlFXSXl1bWJpSXBoSkhXTlliZTBVOFZCdDZ2Zm5mMElNQk1rbS1UbWFKbWgxWVVodWpJX2I3bUtyZWxIUkhITlJySFZraVZOWjBFbzktLUxSQkEyNl9NYkRvOWNKcUpLdnM3X3RLMWlpSWo2XzNuM2xFSlh5MWFlSWhuMERrbklDMUpWQWJJWVlQV2pxTTlTOTdpYkpfQ050cDFjRVJGM3pCTlhjQdIB6wFBVV95cUxQOEtkbmY3b2VzdE5NS0U1WWN2cXhRRVdaYk1WN0tUeWJtaWZjNG9XSVl5ZVN5Y2dlbF8wSUJ2cDZibFBXYm9Yc055UXZUdzV2Vi1fUERjTDdvWFJDTy1ITThvb3RaZHZiYXpZOVN6VVl3RXA3ejZLWHctM2dIZkQwSmFOR3d0Y0ZLN3dXZUotLS03Q3NwN1dZYXVNOUZlOWc3UnVXNDU1WW05OVRwdExDU2RxX1ZDRDlROEJMTWk2eWdlX0pKb3lKUHBHRFdIMlRVTzFaSXg3X3ZpZUpFbS04Rll3RlpTaDEyWkhN?oc=5" xr:uid="{F8630BA2-3EEB-4FD0-9CFE-B76638DD0214}"/>
-    <hyperlink ref="C886" r:id="rId153" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxPYU0wUnptSnlvZHlzM0czRjNfMUtQdEpENFNjcXJaOFFTRGowbDhFS2RZYlV5c3k2YjZqWEV0QWZYR2hWWUhHeVJsdHNWdlg5dXZuVUZxbEFEZW1oY1d2M2taYXhaMVpzUzhWenRtVHl4THYxLVlUX3gyNlhHTHVxQVhGa3ZpTlIwLXZhNkVTVDdjbE83YkowYWtqeUFqR2Q4aXRMYk1ZTHJsamhneGdYX1FvYUJBenVMRDBVZWpFQ3lDcTBGc3h5TDkxdlNmMVN6aUR2MVMwRzI3NmZLcHpv0gHkAUFVX3lxTFBlTjA3eFB3NzFNTllWUFkwX0xXcnVpUThnT1RCLWNHY01vazhNYkNaeDNIWi1aNTFKelBCeERJbEYxSGNIck5kYnliLUR4N3ZyMUZON25DUHVkYlZsN2s3Y0hYU005MWtYVkFqZXp4dmlEVlVMNU92VXROdDdEdDlZdkJjamRTUlI0NW5PMk83WkRJdDRqcHduYU9JN1llQ3lpUW5fb3Y5Q1JCemJfQURGT1hCa2YzTlhfblU1NGw3dEhjbG9ZOTVMcFJneGFLS0oxZFVzcGNkVlFMRlRLaTFYRDZlOQ?oc=5" xr:uid="{5368C102-7D47-4EAB-BC7B-F051107D4D32}"/>
-    <hyperlink ref="C887" r:id="rId154" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxNX2Zaa0xBeGpBbFF6azNNaElmVlNuNEtBdXNpTWtvVnhRZ2U5X3JoZjJwQmFNR2xPZEtRcWpQRUpqUE1jZkp2TWJITFlRZDRiRDBIejA3U3NFQ3o2VGVJRDZRVzdXc0JSc3FGWUw3MXpUMHhZQjIxLWUtTV9nWFZGTzJZWkhUVVFnbjdwWTJzNmNtb09CVUdiVy1ieWs1eXNrclhsX0dUeDgzWXlFdGNuaUpKb2RsNldKc19yUGJPanNaLXo0bXV5ZUF3aHp6SDh5d1Uxay1XUXplUGxiVFFROUVtU1NvTFQ10gHuAUFVX3lxTE93RjZoeFI4Tkp3RTFyTDYtclpSNEZKWWpTbTNmN05BOVNPMzRaZ25pZkRzcXNma2pVeVJZSlg5aWJVZUQ4V2YzeXJYM0VmUDh6aEptOWdWMnp2WVUzU2poeUxPY19ZaExGUjVVXzZQMWZzbFFSXzJla3FyNkJETDNiQkQtdjdudC0wOElMbXpRcS11LVVfb3JwaE5BMVJ4cDUweWV5ajNEV1NtQk5WMHJCUUxKWGktLWRSa21TUnA0djBFbzM1cmtHUGppSk83ZmdEZF9uUFhGTDhBblFqa08zWW14a21YRGRXYlFPNWc?oc=5" xr:uid="{E6E3BC7C-B0B5-46F8-8454-9C5178B36495}"/>
-    <hyperlink ref="C888" r:id="rId155" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxOQmlUX2dLNXlIcUJzZkpFcmdlLWI2X1BHYW95MG5COVpNc3VDUXF0VkFncWtqYVZGa1YtRURNVDlWdEF4OENWdmdCQnlaSk9xa3VCYUE0dU9RdzRMWW5BOFMxUnF4WE02dG50cEdHcmZCMWFwei1NOXdUaUFxN3pRWlRWWFNJclVVUF92eDlXLUMySm1pNjNmbjRscjkzTXBZcW5QYVBVZ2wtUi1VNDM2dFFTUnFSTzVwYnEwd1lFdW54RUx4MTdxd1g0YTR2UFBYMzVCRVMzUHJHUdIB3wFBVV95cUxNcGdkWUZQd1JTSk1lejl4eDJrbWcza3Y0VjdvcEhUeEtwLUpkdzBBUXNQd1hUQkdOZ1J6UUZmNE4zWFRRMVhwODhpajJVc3MxWG82eTlFOFhaVWZVN1ZldFlvNG1RWUd6Q0pMLWVZbDl6X1NJTHI3REM1dWZNLXRLcG1yZmNKdDZ4MHhnWjQwazVIbFFUUUp5TVVEQXdrcjZrNlc3cElBd0ktR3VndDhoYm9CVzVxVnRBbUVOWi1seGtEV1B2aU1vWnRrRGxjMFd3ME9jTG9qQTc1NmJ3MWZR?oc=5" xr:uid="{40397135-8094-4948-9818-EE0ABF7D3C33}"/>
-    <hyperlink ref="C889" r:id="rId156" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxPbC12c0hMOVJLTFBSVTFYU25wS215dmdHYjdDMHRLZnVreTdpSHNTLTlCVVZGb0hSQ1A1UE16SmxrT3RiS282c1doUEM4Y2EyYTRFOUxEMG9OdWl4SzcybUJyaFJENGR3U1VpRmkxT0VSU0l4SU8xSk9aWVNsZlhZdEZES2I1cFY2TVBNaDNJVE0ybFZINkJoMEtMb0loU2JQT3fSAacBQVVfeXFMUHlEekVVUjdsaXJoRnB1U3VaaklRNUVOVjRGQkUzX3pyWmRpZWp6Skx2QVp2SHBlaDBxVmJLQlE5NVBHV0NHaVVuc0ZNYVpodjJ4d3F3QzhpM1VsU2NaVGtMT0lQNk1BT0t3dmFKMXZRVFdjWk84MjdhaTFxajVTMzBqdGREUkRfSHp0Qmc2by11S3p2U0lPdklVUnpDTEQtNFhKZXVGdm8?oc=5" xr:uid="{E1E202F1-D70B-4F4C-8D3A-A7C67CC3C018}"/>
-    <hyperlink ref="C890" r:id="rId157" display="https://news.google.com/rss/articles/CBMikwFBVV95cUxQbWJnMDRFcVpNdGRPakhDUmxJQ2VoZVp4dXdhbFdvT0FvUy1DVWwzMlBoTFktT29JajNvY2V1Y2NSa3FjbTNfdXRsdGlBTVpvcU9JUGZ2ZzJQa25VbTNjMC11V2VOVTIzOVdjdFpwT2RoMktnZS1YRUJUOGlTc3FnN2pTWlc2a3hhVTduWU9HbWdTNmPSAZgBQVVfeXFMTUhwODlXUUhBNmRfaTJCYTljWHhVRDBYcFFEbUUzRHB2N1I3YV9BUjZlMzBsLVJmZW9yc2JFWkRXRnRZNW1FeF9oM2hsRXZZNDBzLUJVcDNwOEFKRC1PSHV1WEZLY1h4N1IycGJlcXh2SlVELTNPNEJNTDE0d1FYQUVzN2g3eVZfczdLQm9Td0N2d1hEVnpDdEk?oc=5" xr:uid="{A41A9913-28A5-4E73-A729-F9A0405CF73C}"/>
-    <hyperlink ref="C993" r:id="rId158" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxNcG5WNFdOaEZKQnViUm94TDJmLXVvN1hjc3o1RjJ2cGxkNk9vYkdXMlprQW5Qd084TnZVb3lHMkUyVW5hMUx2YXZfMlc1a2RJQWQ3bXZNd2ZVNC1LTDlCUjlmTjhqOTd0aXBpb1Fja2drZVA2aXRsdmg2UGdSdTBJTGRBTWJVdm1tNzdxNGtzbnFWcTVhSlJ1MTlabEZzRmREZkNXaVR6QTZ5elZzLXlfdmlWWXNPd9IBtgFBVV95cUxNTXN6ZEY3eHFxRkhHc01taTc2b2lCWTdIVXBUWFJ4akFlU0dTOGR5blRMY2hwcEZpWnpmZlV0V21PVG52Ry1LVFZzSVo0bW1pNm9UTTRVczJsV2Vob09LdzVkUmFRLXNxS1VZN09LMTRxMHhuYVV1aW5jLTFKTWpLcm4zaldSQ1pnQUIwTE82V1Y5UVNyVHBLMllyVnhpT3ZBODNzc2ZlZWpWaGJZR3plUUpuVnFTQQ?oc=5" xr:uid="{DEE0503C-2C4F-4035-8776-0BC871EE04DB}"/>
-    <hyperlink ref="C891" r:id="rId159" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxPbEk0ZGozRUtOc2htSWVjTnVLWi1HUWxBcjNncmtrZjIxcjBydlA3aks0RG1fQk9fV0p0ZVhPVmRmUkxLd1RQbmNzQjdBay1oeTFSSE5kZV9RcG44Tm9TSDQ4cTlWNWtDZWZSOWs2bTd0TWh1T2VaUXBPSTI4TWhvQWNwNGxkRVAxekotbUtQQjZIS0c4OU9aRlI0bkxnMlFXWElrUTMyNS1Ibjdra0lXc21uLURrYU9Tc0N2UFNFMFQyM3BBNG5RMkdZOHpnUFdKZzNIZdIB1AFBVV95cUxOTjY0UTVCbjJrdTE1cFRTa3ltZDhCWGVmZC03d20waDhUbnc5MzJDdUV5NGtZSzRKU3dvanFzUUtrMUV0RU5wWFJhYjlPMjh4eUI1Qm5RekY4N0l2Szg1Zy0zMkRFWkNqaV81MG1TUENQUEtHRDk1QlQyS3FRRzFCY2o5OUk2alU3T1NZbmxYWFZ1WDdYRmlEZkNpdHBtYmlFRnp6TUxEanpuLVdoNmJxMElkU0pydGU1ZmJUNnlaUVNjLU9YRFNLajdmV2tTUzNVLU01UA?oc=5" xr:uid="{2426B77E-56E7-4380-837A-1F525CC881A3}"/>
-    <hyperlink ref="C892" r:id="rId160" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOSTRYQjhkQ2FjRGZsUFdCc3V2VnhSeEZLamZPRXZ4Vk9JYTJHaktYV2JpNjgzUmJKenVQTkxaNTdTcmxFOW4zSVlEYlNmTW5RR1dKSUlGcjVTN0lRSHdEcXNuTnNQVi1GYnhJQ1I3a2hlVGpfS0ZWcU5Qa19RMXJOdm5WeW1hVUZpUFlVT1lxWGNXZnhJMmdEYXlSakZ2ZnA4eXZjUDBkWDdPNWV5REl0Qk5ILVQ3Ni1vdUNqMDdSRFA5bHN5Ynk3TG9TSdIBywFBVV95cUxPMDU0eDBQZThXOG1Va3diQW8xWXZyYTZxdE9YcFVrdzl5Yl9SWExBQzBLSkNLN3lzZ3ByTDhveEhsc0VnaV8tWFEybmFhT21FanA4NDhhdVhTaGY0Zjd6NGNlSmpuUWY1ck9hcVVhZjRkRng1TFF5Q2xwSVBmaTkxNUdHam1WS0hzRG5QdkFsbzR0MEQwMDFDZVR2RVAtZ1dpNl9HcFFwM1VPWmlmTGxDWWNuYW9ZQ0c2ZTdmQmY5STlrOURYZFNnR2VYWQ?oc=5" xr:uid="{06FA7A28-5F1E-4388-9728-978B69044BED}"/>
-    <hyperlink ref="C893" r:id="rId161" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxOOGxZMVRJTVZreVozMVRfUzRfWm5ueWM2YTF5cEN3QVRMaVlXeHUxbzIxbnVSVFBHQ19BeXJoNF9NeXBEaC12djBGUVhxLXZPMVF4bmZHdWRxdGhsUVN6ZGFwYjRfekdlWWEtSDc3eVhvd2J1bmE4a2s3eV96allyZnBULTFTQ0lEWXByTWpWenNkd1UzUFNTeWJWUEowY19SWXIwcXlaVWc2VzhWdUo0QzRxdkhCX05USTRMYlhteTNmbUNm0gHEAUFVX3lxTE02UlY0eE9PTlhPZl9EMXM3Y3RDdUROT0lVVFpUZzlwdzZlZk01WjRPQ1JRM3dybUczTFZ4V2NOZ01KeWRxdUdpRW96dXU2dmRONDdhRGc2WTN0OTJ3ellieE0zQ2ItQjRqOHZSRmF2OXZvZVhqdFZNQlc4NU56d21QNUl3a056Z213bzM0OFlOYjh5QkRJdVJCSGpPQ0dQcGY3MGc3Q2hxN2VRQm9CSzJheER1MHJJVkhQYXMydTMxcWV5LVo?oc=5" xr:uid="{A21D8E43-CF88-4A97-A780-E6E0A643A3B3}"/>
-    <hyperlink ref="C894" r:id="rId162" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxOeXRUQVRTMHpnYXUydjlTMTJnaGJGdk1XRTVuWHpLdUtCUXFjVVBtRVp0aW1JUHljV2drQldhdEhWSm0tYnNFX0RXcUlFeGxLZWVad0NPT2tTYXNvVk9ITzVOVW42TmprMmJ2WVhXOEVncmZxSHd6ay15VkN1Ny1EOUk4Q1NkS242eENuOVpGQTBFUFFoMHJZN0FzaGY1eGhhLTJwRXFsb2xFSVJQMVZkZFJOX2VZRHVYaTlGVWVoS0xYVU3SAcMBQVVfeXFMTW1pWC1fY3FFM1BCVTRVWFNFdThXVkdsU0dxcE1uRzg4b0VncmJWaV9FaGJ2VllpbHFGaGpZZ2dEeDNnYlB5cXdiWi1NNUtGRTBwT09FMU0xNm1uVU11ZkFiSExjMGxQOVJBMDBCdVZkalNjd21xZDJmZXIyNGtVM2pVX3JCODRuTFNMVDhScFhJdVFLZEs4M0lfNHRSMXF5RnJ1OWJiU0ZGNWFZbjlnbmRwTzRwdUdoVEZRc0R5eFl4cTNr?oc=5" xr:uid="{0F344B27-D784-470B-BB0B-F2E04DD2F773}"/>
-    <hyperlink ref="C895" r:id="rId163" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxOVFdZQzRJWE8za1VOaUhKNVJEOWtobXNHdTZkSGVVc1dkZC1vajllRTVzS0FrZ3FPU29laXBLem11SE1HbE9aRzhZNVBuSmpYSm1iQkE3YzhrbTA0TnVYTWJWTmJkclF6MkhqeWtHVzI0ZHFFZUtFeEVZRWgyNER2S1hxZGUtMnQ1YW5FZFJKVW0xeHNscFVUTzR6S0tsVmdwdkl0QUVDUXdOMnFsaWtKcVZWdU5TWHpwVWk3OUliREVFRXp0cnBmVkw2MWdzak1UNG1sR21hUzYwTkxXbHZv?oc=5" xr:uid="{6BDEE38F-B8E1-49AA-B9C8-3F18B43A95B0}"/>
-    <hyperlink ref="C994" r:id="rId164" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNenVTSFJfbmlFVS1wblBwbks2YTg5Ni05RWxnVE1DYkMxRVZZVV9DcndEeWU2VXphZEE0MmVLRmhBVlhyUTl3WFJZeXBEODBKa1B6Zy1tcEQtNUlweHhvcENKMGE0M01WVDJFYmhTYUJSSURGVzlkdTlCMUprUHpUMXRXSHAxR3JjajdBYzV4UDFsZXZJWUtMSkJnd2RfRDlMenVtbnRUUGMwbE1VdWIyUjh0QkZ6WWxVQ3V4YnBrN0o5U0pVenl2RTNuT0Y5YXV2NndnSkQyMUhTTmFfU3Vv?oc=5" xr:uid="{BA1445F3-AA9F-4028-B329-60A159EA3DCD}"/>
-    <hyperlink ref="C896" r:id="rId165" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxNdGNNaTRhRHpZVmdvb3FVVXFFa3dvMmlqR1gwaGtfcUtXM0tGdVpfVnpsM1J4aG1MMnR2QUVfclEyZlczWWN0dk16ZU9ZZ29ldVB0OWxWbS1MQ1BNVFJvNFNsNGVPaUEzYVR3blJDNTF6TWx0eE9RU1pvUmNIdkdiWmctMFcxNW9icXpnRHRUTlBYbHcxckVEbUZXWXpKVUhhNjJHdkdpdnFhOE9FUnlYQzJPMDNvZXNx?oc=5" xr:uid="{8FC32820-CBAF-4B85-BE94-50C48B399717}"/>
-    <hyperlink ref="C897" r:id="rId166" display="https://news.google.com/rss/articles/CBMif0FVX3lxTE5yVWpILWVzaThoU21LOHhLVGJ6cXBTd1hUQ0k5NkQzS3EzeG9feHFwakdiY3BSa3oxRnpuSW5ERjdzWC1ydjBYUmV0UVhJY3lmSWRka0lLZS0wbG0yMkhBVGZfdVNsZmxTOGVBRFE1Z0hjYnluX1VvNTk0S2VpbDjSAYQBQVVfeXFMTUZOTWtPVUotUThBV2tsQnNBNE9QRW4xeXFZeXlxV3FkdGZ4LWs4SXpWQTdSaFl5UDV4VFJhNU1IY1RLRW0xam4tcEhRcW05X3NXTDU5SWREZUl4aC1DX09ZMmNaOGFjRTJscXhTQVlEd0ZTcUU1ektIcDlRV0dBNmlqRmFU?oc=5" xr:uid="{708EBA4B-54DC-474C-9AC2-AE759067F465}"/>
-    <hyperlink ref="C898" r:id="rId167" display="https://news.google.com/rss/articles/CBMijwFBVV95cUxOSnVSWUY4RXlCTDlaRDBLN0o5QTJ4alhaTmRFY29UbnR0d2F4aGtZTmdkZUFBOXpNMzBjUjhUSkVEZTI5X0plankxUEVpOEtCUS1fMDVMYjJGT1JCdUcxRU1UQ3ROQWlkMnptWVYybW9LUUhjajB6ZWZ6cWtMY3FickdNT0hFU2dERVdzeWNxTdIBlAFBVV95cUxObTctMk1ZQ2hVUG5SNUVyNXVYeG1wd0NlYzY2ZnFiMFdZdWdFdTl1U1k1RHpaOFJSanRrYzNXbmJHMXdWWjNpaHBSQXYxbko3eTE3WDE4VHBBNU1mZ0xTTXlIZm8zVDB3X3FEcGZCeVc0Wm9KREN1TTNUTEdQWFNtX2RRWUQwWVBtWTVhSnNqcVd2bk03?oc=5" xr:uid="{E580E79B-20AA-40D0-9706-FFBD7D057E31}"/>
-    <hyperlink ref="C899" r:id="rId168" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNY1A5TUd1SnRwT2Qzd3FzTFlOQ2hWY09CZmdySUxBbi1kTFlORlZLNENUMnc4WUYxM3dBcWI0MVhGblEyNEtjSGtWcnVsLVFEOHl5TDhuUDBCZjdmN2JjeVRLR0FMMVg1eDZaOVQzMjVRT1lDSUY5LVdMWGNiTzNxUzZwdHlkdS14enRuUTFoazVHWHU5V0FOVE55cW5XNFdZYzBVUV9uRm5pWHJ0cGhHekJUWnB3WkhqYV9TR09xVDVvZFdRcWxaNDVB0gHPAUFVX3lxTE1uU1lhcWx0dE1HRUY4MlZ5X3dTeDM3M2t2TmZsQnhFaC1yNHYyenZoM3p1UVg2NUZ0eTZnZVFFcGtFYzN2Zy1VZ2xYMnB3Mlc0SkN4UVhjejU5NG1xaDRlV25kTVFNeFEzbW5CNWE0VnRscWJBREExblUxaTN6Z1Z6bHg4WmhMQ3dtNVJBdFliQXJmaEpVdkE5YUJnYk4wN0I5Y2dheGhwTVBpNDlTSjBKd3lIdjhRWkhxeVZZd0FMeFZIRXZReG9RTW41WVItOA?oc=5" xr:uid="{62952722-A7FB-433F-84DD-8056BE845548}"/>
-    <hyperlink ref="C900" r:id="rId169" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNVkxBd2lXZTNkRW5OTFlwaXQ0TUNQY2EycDdzbTZpOFVjNzBkazcyY2dhdlZ2ZDNPT3h6R1NRVURZRTVMLWxVQWpySlpJU3RBcjM3bVdFamQyRTdnd1dFdTdZc1BuZHpiWk1YamItdXpWX2lOS180UEZTQVZaRklDajh3SHVyc3UtNzY5MEx1VVFrZ1J5YnNfb1hicUdMQkVrTDduYmV4S0FmZkRNTHBJYWJNbkM?oc=5" xr:uid="{50903B51-C823-451A-AAB7-067C019B9CB3}"/>
-    <hyperlink ref="C901" r:id="rId170" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxPZlFoQXJpRGYza2dpb0FiSTVrUUl3SVBWZ1gxMmFwcHBrcWF6NnBJVUQ3R0Z6cFlHWjR4UG56QnQ5OUZYVnZaeEtsVDdQYWdTVFJLZ2Y1Wjkxb2FpR3h4Nzc0WGo0U2NZU0w3ZXBkM1ZaWjJ5SjNnUUpSYjRzOUJCVUVCbGJFdnJ3N1MxT1VyLUNBNVlMNjZ0dl9sMmNhZ2FWVUx2NWZuczVSY0J6N204WWZsbVg2aVVWN3hqRkdZemFCSlA1SDlkUmlaQmo4Ry0xOWQ5bGJvZFYwcnA2UGpRaVB3?oc=5" xr:uid="{5DF0542E-763C-40A4-BA0C-0394FBCB694A}"/>
-    <hyperlink ref="C995" r:id="rId171" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxPeG1uV2xUTHNPXzh1TEJNQWlObWN2N1hBUkIzYWFIMS1Wd0hFUUVDLXF0RDJ1SVhzRFVxa19rb2tzYVh5UTNqNE0wWC02UHl0VkgtRDVVNXFBSTRIeFBxNGxLWGRHMnpkWWVFZ2tobEk5OTFqSmNNU1JkMVFVM2lsemtNRzUwbWFmSHVDbHE3Mmcxa3pxQmlmS2VKYjBkNzVtX1BiVDd0MFlLOS0zdXBYTDB2Q1RBQQ?oc=5" xr:uid="{521C5B20-DDEA-4EAA-BA26-9C84E5BC276F}"/>
-    <hyperlink ref="C902" r:id="rId172" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxOYl9nVFkza2VfcExmZ2pnYzYybmRRRkMtLTUtMzVYSVMtT19INWpuMFUxUWF0RVJOTGJsRVlGdGwxanJUX3M4R2RBWGhnRzhtX0d5MjlvRW9yZ05IQmdCTF9zZEE2Y2ZJSmJMeXBUTkRoSzlsYXp6WDRiTGRHdnVJMlhQS0NOd3A0aTlQZGkzOGlndFFucmJGUFU2TlJHN0t5MjU5ZEhERk1hTGhYZWxPcXdsRXUydw?oc=5" xr:uid="{D09824B7-D1C8-4FA3-9315-0DBBC9A426B4}"/>
-    <hyperlink ref="C903" r:id="rId173" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxPSXo2VTBwMVRaaW93RzZ0dWpIZlJhRGNFZ1lMaHByUzBKeVdIUUt0N2MwVmRJbTlIekRzQnA5OTJ0VlR4NUdTX1hJSDE3a1owT1otVHNXV1BEUHhBQk9pVkUtaFBZMzBNenZLSFNtWGN6aGhDTzAxS3NWVlpoelB6aHhVQ0h3ZTg1eUtoVHI0eENCRWhWakdzTG54YmFCN3ZBS2xwQmZR?oc=5" xr:uid="{8DE9A5B8-9B5B-46E8-92D5-694F20EE3DF8}"/>
-    <hyperlink ref="C904" r:id="rId174" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxOWUN6TUV2Uy1pR1RYNU9oUUI4V0F2VnFsZXMxYnV3bGFlWTNvUEVjUkc2UnhPTDEwZlJWeERPMmJSaWZOc2kxb0FlSVpoM1pDb0YwT082LU1hWDgwdHJoQkQtNTFORDJ5YzhrYVNIdlNIeGxjdzB5SjIyYl9PbzgwUXBQUEl3VEpIeEpPWVlRRjFUYzRsVm4ydE5BQUR0YW1LRF8tUGo3MnJpLXViVm1EYWY1QQ?oc=5" xr:uid="{C4BA929F-9C61-4F8E-9706-4122D1C58029}"/>
-    <hyperlink ref="C996" r:id="rId175" xr:uid="{A8991D74-06A7-4C6D-9DF9-3EF81873CB64}"/>
-    <hyperlink ref="C771" r:id="rId176" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxQblBWQ1FaS0lsZDJ3ak81Z3U3dlVpUTFrdU9tdE85TkhfcmQwUGZhbTMxZWtuY2JJSDdSSVMxMWdZWFBKaEpZWVF3a1lYSFJrVnNwNVI1YzdoZnUxNGFhZ1c5LVJ2eWRMNi1ZZU5HU0ZhNDdxWXh3Z0x1MEZ3dGJFS1B5QlpJR3ZXa3NkMDVOQmlqV3VsbXBSa2M4Y3JMOGlyTDZiMDk0NFd2ekJyN21mZTJrQ3M4aUw3T0FuclRmY0VRcW5VZF9vY2JrUldmN0t0Smo0dXJfT1I3elVtQmww?oc=5" xr:uid="{20C1FF5C-4233-4254-9683-D1821FA93568}"/>
-    <hyperlink ref="C905" r:id="rId177" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPblNCQ2w4RklqLXlOWEtCZl9XZDhYZVRXQzk3bHF1NEZ6QU9TZW5wOWw5QVByMTdJVk03ZWRUV1Vqbi1ZQWhuT1Q4Y1VSajJNN0xyNmRia24xQ2YwTjhrRUt0RjFZTzlTdDZwTFFCUVlzV1ZDZTF3M1RQWFNXRnAzUE1hcjZkRmdBMFhqOTY5QTNqZWVtWmNtc3FlazNsQVAtckxpNDJ6Z2xEYUlsVWttUHpDMEF4QWRDM1ZmOGg2Nm16S0NManBR?oc=5" xr:uid="{727323D8-B60D-4B58-B182-D9546F69FC52}"/>
-    <hyperlink ref="C906" r:id="rId178" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOQ0h6X2RMUERsNWFqRXByXzdqaGhla0tna3ZCTktPX1NnT0w4T2JPVHp2VDZJMkpyTkNqeFI2bmY1VTBFZnJXNm1DRVJXT0RxU3VIVHVkX0NUcG1SLTEwcFR2VF9ENnJrTG51UGUySUwtOHZjcVU2WGJxMXNJMkppSy1iYkczWnNwWVZLaWg0R0taNVNsYlJ1X3pvNnMzMmRVWm0yeTl1Rnk1R0pScVdtLW5vVnVyT0Y2M080SEtuRTVRQU10WFFLSmxiSQ?oc=5" xr:uid="{E3908FE8-D35D-45FF-894C-CBB0B3D2F25C}"/>
-    <hyperlink ref="C907" r:id="rId179" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxNZmZoSGV2UUR1REpXdkR0eldnd19VbkFDVHU4S0hzZ2dIazUxRU0zakI0R25ETHVBTFVtQm5lb20xdG9DRmRzaS14UFB6cGlVSExKdHJXZ3puaDI5MTU1eWs3UHBMaWxwbHlwT2NSZ1M4NGdGSzR4c0FDbmswa014NTJKV1dTOVctWEZpdC1tQWtRYjUtTWY1RTlneGVaVzdPTkpQNDVOUHhNZ2lXalRsWUZTZmxxSjNlYXdhaVZBbTh6bFRoVUVpeA?oc=5" xr:uid="{0B98FD06-908C-4D25-B45A-04DE33C65AE5}"/>
-    <hyperlink ref="C997" r:id="rId180" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxNSVFqTDMtYlBVQkgtdFM2Ul9qSGhQdWZLVDhOVlNJaHZGOXk4OVJSX1JodzE0ZGc5WXNUY3ZzemJGU3YyLTFhNkNwV0JyMzQtbEhJbDFQX2RyM0g5ekNtWjdJNHBINGY3QlAtTmtSREtObDlDMzdwcVM1Ukc4ZDFxbU9qZk1fRE1GbEJ2TjZvRllKVkd0NFFieGRPR2dUV3VGOW9qbmFvVjZlNXpKZlZzX2NVakhpVnJOZGhQOHY4S2RJOGhadjJma3lIU3V3bTViM1ZKVUtLejVxQjA2LXk2YllETzliVXVPaEFRbWZHbmROd2PSAY4CQVVfeXFMTXVpNzZqN2ViZnBkMkJsZW1MN1MtSkRLSzJoYXVNSEtWOW1SWXNpdXlWTVpYWFVWS2VkTzFyUERpWFVfQ2tmcC1jUldoSzRQZmdVMWFpMnNXYkFfeVVjaWFjSUVhTGE0ZjFLc0VuaF9OaE52SDFUYU9MWkFYQWhmbWxLckUxbXlXUm5KT2pDLUMtZDI0MUZzTmFtdWxDV3NfTzBVS3FCUUhBWDU3UXltNlhQMWN4ME9EcE5CaFBubHBEd2d2amNXandzQ2xuSGdvUjdZTDdWdGlNbUt4ZnZvRU9SVy1adHRlX2puTDJkbHNBdERMNFdWSk0wYldyZ1hhZzNucHZob1lnX3p1c2R3?oc=5" xr:uid="{E9691879-3730-472E-A200-21EE5B3FC969}"/>
-    <hyperlink ref="C908" r:id="rId181" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxOUXNzLU0tQkF2WXZmV2pQMEdGRVpjc2xBT3oxTEJ2WlFXcGxKLWExQmdRWmNzYjVOYkJfcUU1cjJUV3g5SFJfXzAtMjR4THR3T0JRWkFOX2R4RExTdmEyaDdYTlFwSkliQUluQVVva2JIdUFyNmxyaVdHUTU1TFFxeHNrcUR0US10S0FZaXJyVG54eXdPRmMzYU92ODk4LVExOFQydnVkV25WNV9KNnZqNFk5THVpSlFRbWMwdFdsRHduUlh0aDlZWmd5UVBWbDFzSUhySlNJaFNUWEJuMW9GN1ZpdWcyOXRadFpzNjVqTEHSAYsCQVVfeXFMTXZ3aEk0Vllwc3FjMTBVaG1jR1k4QVZIcnA2aFNZeUI5U3FfLU82MHlRMXg5OE5TdzZudm1VM0d6TEp0Ung1NDA2TEJhczFBaURfZnZSVHBPVk9TX3B0MWtkdE9pYlJiRlBBOWJ2RlNxNm5Jc2xFMTY1M3RUZ1BLVF95M1l0YWdWdk1GS05FSmxNeWdqTjJrSHEybnY3NkVuckdNM25Bb3Z4QVZTaTBLRm9jRXNmR2dSLU1FZGFxSkJidS1oN05YUGFSZGIxTkVobjZ5bE5jNjlJbm9rTDZDYTk5NmpjMXd6emRpdlctTXhvTGtkWWk1NS11b3l0YmtjczFtUmd5Zk1FcFg0?oc=5" xr:uid="{C99EF32F-B953-4DA5-B2D2-8AC7CE8DA5B6}"/>
-    <hyperlink ref="C909" r:id="rId182" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxPLUh1VHJJOEV5RnA0S21GVGQ2anN6UlFCZFo3R1Q2d21TS3dfSE5udXJMZHpKMm1wWmR3cGlMR3hWejBTbmFPdk9yaTh2bkFHNy1KeC0xZXFFeFpzSkxINVFuUUlOaG5ZOTBLc09RdmhYeWxQbHFqbEppcXFEMlNzM1hDMzIyMjZkZG9KbExFbWl6WHNBcFp0U1hqQVNyM0NIUGprNERDUDkxaEk1Z3ZTTVlLZ205MzRyTDM2OW5KejJnTWNwS0lxOGx0LWswWDh4Z181NDBaelh4ZFUzcS1iWXdzdDJROU1jQmJPVHhUaFlPSjBaSjNhT3hQQ01BNDZPMWVIMtIBnwJBVV95cUxPeWJ1UGJiY0txMXhhRmFrcmNVeTZkd2VRbWY1NENuSWVOdzlCaUpBS1NOUXFkamJFSFptRE5YSUQyMGNOUDMySzNSaWhKaXRjSG5KQlo5eTdSVFBIc05nRU91X1hXeFpiME11VTd1S2xsY1BsM1l2VVdlRDhaTFF4T3IxTlpBNlNiYWNmUjZWZlFmZl9vekJ0bnNVa1BOS1ZxWTRlUUxuNC16MGZJRWhEaUJZa0I2N0gwb00xVTNORmJrM1BBSldGcnl1eGhiTk8zZlRCTjhnUllpOEZEcy1OUHhQQ0FNZFFoVU9kcVJ6UEdrZjEyRzdTMmxZc3pfbDUxVEZFSFJOZXFINS1JN0tFMkVQY2lzejZWbDA2aFA1UQ?oc=5" xr:uid="{AB0D3DBE-38CA-4FCC-9515-88C927C33643}"/>
-    <hyperlink ref="C998" r:id="rId183" display="https://news.google.com/rss/articles/CBMihgJBVV95cUxQUTJEQXZwSWZsa2ozNE1za0hqaXlLZ041WDdoelhtZ3hLUDdkUnNkMFNIWXk1SXVpLWxxUkdzZTF3TF9XQ2JmaHVIMlFwcFZZM2JyODdSQnJZOUVmSVpSREhsaElabF9kdW16YUkyWG1fRzJoMWlVM25IbTl6bldza1hPZUstZk5UMDRlSkZFcnQ0WFRwUWZhV0ItcWZ0Q3RRcloyWDRRTnZYZDk2MzVmazBYWFJIRFcxUXVhOEhhWkE3YTVWekN1RWpwQ0ktcU85cWVhcFhUVG9aNGE1NDM0VE1zbjV2bTJZYXlCcGkwOGw2SlNOTDJTeHZMM0NhLW9yOGNXT3JR0gGgAkFVX3lxTE00bEhkZHl4MnhaZDlBZmJOLXo4MnJFN21GZ0ZvcmFzdUVhR2lIdkJKZVNhREswdFNGdWRobTNNTG5oT19SMDJnbXJqclVCOXVjSjJkenBuMl91cjNNVWJiSEx2SVFJNnk0YnhQdWJKTUgyTlMwemlfc2t5c0liVVVhZkJRRUZlc21tTWFRaGtJYzhTQjNwaE92enZHS0hxMDFoMmFXOHMzYzZLYUNza09WSTU1WWtaQ05Ca2xlZkZfWTA0Mk1aYUhyaEYwVEdFeHFRV0VhSUpPSk0ybmdENmlHWGo0aTFUVVl3Slh4eWMySUx3MWFlOUFWWmF1OWxBWTkwY0JrckctOXhVOWRDMXJSSjR6TXljRWphdGdBVm80MQ?oc=5" xr:uid="{71E87019-A810-4168-870F-60FC3BC8BED4}"/>
-    <hyperlink ref="C999" r:id="rId184" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxOWGFWbUxiV1g2Vm55NFlPNkp4YVU5d0lYZ3gzZHc4aTJTNGVlaklISUN3a0ZLLTdyM1R6SExJMlY0c1RiU0NDalR4cDZRMUFjRnMwUnpTMWM0eWdjRUo2UEtIWl91cm9uSmdyNlFlc3kzT29CVWRpeEgxblcxVVNBVDYxT0NSMk9ZV0paaU5rMVkyS0g0cllDQlN0VDlJNlRuaDA3aVVhUVI1VVlINkM3QTgxeHVhUG5VWmRZRUdiam5pZElZWnltWmxGWk1HdVhMODNiemRyRGsyV3VFV0hETXBwWDVZRU50X2ZoaFJvSFY1czV0b2fSAZACQVVfeXFMTU1ZT1lnSExZc3NfdUFJX1pLNk0yaUV4NHBzZ1l3UjJKVHoyNmRoSVBIOHotV2pSNDVGVktwMTkzOFhpb1R2ZkV1ak12REgyc0FYdms0emM3cVBpVTlMQU9OOXJHczJPekZtWkYyUEJOMEp3b0hENlFFTUd2bjhBRnZJYkJlQ0VjWHVPSWJwcWF4Y3Rva2hqOXhlYlNkVjY4aXpwWHVwY1I5NS1Ycmc0dTlEdVVQLU5UZGpXWGZ2bzB2U2pIR0Z2VFBFTmdRbWU1U1dUS1N5aE1fTHp5a3JjbWFETk1icmtrOUxrY0g0NkE2NXZQTDRjR0RCQ08zY0JUMUxIQzhrbVpMM1h4ZmlWb2Q?oc=5" xr:uid="{C6B8FABF-A017-4F3E-A857-7D51C55EB275}"/>
-    <hyperlink ref="C1000" r:id="rId185" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxOQVFhbWR1TU5vMUk5NF9IUkdENE9NZUZpaDJ3Z1VHOE1zczBFWWlud1lCSWNZLUhERmxTVzBsNGgxYVlqWEw3YkJyYUdmdkhkYm9xR2Y2YVZuODZvYzJ2NHg4V2tRVGE5aTdlNkx1OXdGR25sUFpoUEtFNkQ5dl9sN2tJdXpFVHhvcTFhZGkxLTJ2VExKQzhwX3gwZ2pjdjJvZGxZNGRlQTJsTFNzUFlid3NkWFVkblJraXpBc0ZQRjhFTVhZXzY4ZDdWMld1UnU1bVg3aFFKOVhIRHprdjctQmItTXHSAf8BQVVfeXFMTVpoODlfeUpSaG9oSS02dS1leXg5RTlSZUdxMFVDMEJiNzJZejAwcEFPUUdONkxnVGpEXzF4RXVYRWhEc3Z0cXcwV1BMNWVUS0VqZk9JcE01N2xHQXFfd3NlMHVyWDAzUVFEcExWY1pBNDVQOV9Na0ZtY0xXanpCRGZCMURTWWVBV0JkMnpkblVROG9temRtZlNia0dKR0N6RUV1YkxETDh6YmlhYkJUNEd4OUlpcEYxSkx5aklmRWozT1JNUEQ0bHYtYndPNUd5ZWRpc1oyWWR1c1hFY1pWb0loMWY4UjVZS21lSEVaV2V4OG5CZWNvV2dVZ3hLMTg0?oc=5" xr:uid="{85CD6192-4A4B-4F9C-97BD-28CE09D8E5B2}"/>
-    <hyperlink ref="C924" r:id="rId186" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxOY2dTLTBzN1JnMlltNk9HWGwzVkYxVzRhcEJhd2ItUzU4emJzMmRGMVJlYkdCOUdyd0Z5dzdNd0Z5aUVHd1g3T0ZUX1g2UE5zSWlUb1FkUHBNRGVzNXhuanVaM2VGQkhhblR4ZmFzNFB4MFJxV0RUblo1VlB2VmNWek5qOU5ZM3dHWXZzTHZ6VGZMNmF5UG5xdWgtbHIyV2VrR2tEa01nX1E4eDY4NGctOVF2MTMyajhOMVM4ZExWVW1fbHA1NTN0M01R0gHeAUFVX3lxTE8wZHZsaTJ1d1RCN1JYMl9WaEdGdDVPRWxITFhuZ2ZoMDA5TERjcDJTZEkzUmZIdlQ5Qmx2TlFaRDRiZG1jdEZUOGIxcmphb0pUQU9ydGNMSm14dEYzRnBMdENDcEpLYmFDd2FKSU5JTHRnNEF4WlNjZllCV3kwaFpra3lBUXZXYjEwWkMxN1E5VFcxTFo0WWRlRFhURVBOZ0NDekw3TS1mVnJlVXNHT2JTNzVrMXo4Zm1QZ2hHQlRJbW1PRlRLczNFYXRyM01mTUEtZ1lFMXF2b25fS2tjZw?oc=5" xr:uid="{AB71220E-5420-4BA4-98AF-ECCC5C19DB0C}"/>
-    <hyperlink ref="C963" r:id="rId187" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxONGpTdTRra0NnV0xPWXlLQ1B6bm9hR05BOWZQbms2NmprcDNQTVYzRVhMNmFMU2sxQzc3Uk50UjcwdV9rRWp5UlUtSFdMSWdKejlCTEQ0a0FuSVFPeExzWWt3SzBmVllHLUhaMjFEVkhOOWJYNXc0WFhNX0FhYWZjMjA1OE1CNWp5TW1LUXNnWHJJaENfM3NTeUhOelhoX3EwSjZCWlktUlV6YjJVYkZzSktuOC1LUQ?oc=5" xr:uid="{416EBBA2-55E3-4393-8063-4B5F0455B0E6}"/>
-    <hyperlink ref="C811" r:id="rId188" display="https://news.google.com/rss/articles/CBMi2AFBVV95cUxPS0VRaGZOckVubXVjUlAtNUVvR2VsRHJ0THFuREhiRVhSaGgtbHhIbERHb2RCcFpWVjIzaGQzY0ZtZWhnbVF2YnJsV0VpZi1lZENWRzhCSE5LbDBoUlhQR0hfcjJSYTk1QWp3djdwdmdJeEZXbHdhYTRWc3lHQlR5aHRQWGVjTk5rZ3NlRTczZWJNRWh6cGRfejZOamhITXI5b2V1SmVqYXZqZTZNMC1oYjhQeklFMURUSFF2TW9URXNJSVdBR0d2Z0hCaDR4UEpQMDc0UU1wWXPSAfMBQVVfeXFMTlNfZ2JYNFZyaFVUWHR2X2FmN3J6U2plWVpJdlZnbmRiWnNFZW5UaFc3RDZoTno2Z3U3STExQ3Jtd2sxbnFtVnZWZnlYcTFtWW5DQ3k0dklwcUdmWC1tSEh4Q2hXeEJUUk5WNElHRVJSS3ZIUktJUkJSSmJrSFFfdmhkNUZrYkNpRml6eVBqc1lQS0NQUk55cWhRT3YxRWwxZF8zUjRiZEhnZENDWjFWcXkyTkxyN3ZQSlFISU8xZ2JmcndqU3d6Tm9JMmJ5VmgzT1pvOVdlcEh4ZFRFbjVJVjFpOEpZWFdURVhFNkpUQ0pOQVdz?oc=5" xr:uid="{D2C73616-085E-4AD3-8D8D-2C7676E50F06}"/>
-    <hyperlink ref="C812" r:id="rId189" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQRjJ0WmxIYnQxbGFmUmYtVzh4Q0JQNURsRF9xVnZ3bG45bDFIeUFGaW5sTDBLSFJDcWV4S19IQ1h2Ujd3UXpqR3ZGcG0xVldLeEtMZDJxallydmd5WFdFcjlydi00Y2I4c1NTM0lUa21PVmYyVTMwdU1lT011ZEQ3NGlZQmJEQ2NNWHlkOVMyMURwRmZoRzc3MnpBSVhoUjIzQ3ZoQkMyT25JVFpsSE9SQkhsZW41X0xRbHBRYy1UMEpET2xpeUh0aVZDTjRaSS1zdVlSVDhB?oc=5" xr:uid="{8364E651-16EE-4A9A-9CA9-210E6C7BC1D2}"/>
-    <hyperlink ref="C950" r:id="rId190" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQenhQeWt3Nnh2UkpyZnh3YThkS2ZFVFYzOHFKU0ZxTThUbnE1by0wVWVEdEl6MkxtQ2hXdURIV1hFdl9VMWtXWDRQam5nQnpSNFRKQTA1QUlaRnlYanNBT1ZoemxIVER1WHBKd3dlNWxidWVMc1l3ZWlFQmYxVVY3N01QM2dQamhJdHAzUFlkNlNNUTNHcUh3MlZtbktNZjhsMnlUd1pmLWwybkhfcmlHVEFZbFlKS1BQMDhrc0haNDdoT2gtUVZCczNwTzNobk9HQzJGY2Rn?oc=5" xr:uid="{66E96485-5DB0-4BD1-90B6-F0881FB6C9EC}"/>
-    <hyperlink ref="C952" r:id="rId191" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNQ1BFWl9ENkIxSEc2MXU5XzNFUjVHa3RqQUdJdHVBUnZuaENkckJmVzdxeFR6MFlaOTRiMWpvSVBVWG5MLTJGOHBzUi02NzZHcXlMSG5hLVQ4N2VZYTdFcF9DX29tUkptOHVwa09pWHBZU2h3aEtaMlNoSUZqak41M2dxVVdzc1RaZW1FM0d4aEZwRkNNMXRTS0ludkRmamZLNGk0Q1VSNWJsWV95UlVsOFl0LUY?oc=5" xr:uid="{5FDCDEB9-08C7-4759-AD4C-1ACE4BBF3281}"/>
-    <hyperlink ref="C925" r:id="rId192" display="https://news.google.com/rss/articles/CBMinAJBVV95cUxOblNDclo4cWI2bExxb0E0TGFFTnJoSmFKeHJPT0pEdzRTODU0Q29zVDhzQTFGeDFQUF9yLURYeXFlWnltZ1loanN5QTB6b2x1MU1LcHZINlVwSUwzUkZtZTdLSDVYS0JlNmp6dWMxVmcxelZVR2diVjhVLTAyenBPTTZ0b0pwMUVHaS1Ed3g1LS1fakppNVlmTWs1YUk3S2ZMRTZRYnB5eWdQaEoySVNsdWFBZy1SR1pYX1IzUDBLY3ZKVWx2QUdUYk92X0cxbW1rR1pFZEF3Mk9UalBWTTJWRmFCZWxuQl9tV1IyRzhSOGFJOXBvTEVtZjE3T3V2T3NVekk1Z2VFQ0VNTFJmYmJodXpoRkF6YmFoS01QWdIBogJBVV95cUxNbW0tMjFhRzFndDZ0aVdYY2dfM0U0S1VjaVhmTG44NVd1cjViLXNCd050aXppU1pjVXRDVzFmcXhOV3Q5UjV2TlRfMUpTc01XV3RTNVdObW5mbXBVWW13VzVYUHFpUkFmRXM5NDI0aEw4RE5jNXRuYko1bDIzMDEtZHNDbW8tcUdjQkFFZXlrZFZYZ0g1QTAzYjVJbXBrXzhUdTMtb3VQc2g4ZGZKQUdjMEF0VXRwWEtUTVpiM0xBcXNLOUNxUmtOekNoTEtpV25iS2VYbnlpRDhlVXhUdWlEX3VtLUpIckZGaExDMkM0TFRDa2JHM3F1c0lrRVVCM211NENzS3RKeWNjdUxUVG1NVVZyQzlXWjhVUzl6c0MxaFlhUQ?oc=5" xr:uid="{27371ACF-7D8F-40F2-9557-9C131C9EF68E}"/>
-    <hyperlink ref="C1005" r:id="rId193" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxON3Zib1dDMjN4N050ZU14VGotS0lZQmF1b1AtcnFwOWZDWUM1TGtORm1RWjUwam9JNkJVRkhqaG5RbnlUaFNtMWtWcE50d1Z0UWVYa1NleEs4UHlLNVNGMk1EUDEyMnBVOHZHVWZ0bUhGTExRaVVSSGkwbzQ0Tl9PekJnRDZXMk5tRXJ5bC01anZicXlFVlBLYndGa0FoOEpPMWtIaF9lSlN1Q0RyX3V4RElIZ2d6TnBJeW1xcWpVTFY4dnBVZlhtZW5ZcFZNX2xxV1lBRHp5MVRwNHppVlIw?oc=5" xr:uid="{742AAFA5-B3C9-4F40-BD19-889C49C0EC7A}"/>
-    <hyperlink ref="C1006" r:id="rId194" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOWVNCSl9mZ2Rzd2RSRXI1NHJCdmlpOF9LRlFDOU1lV2RvdHRRSzdLMGRHSGM0RFlabUVfVVpHcGVRQld3NXA0bkxNQmg5RUN3dUkxM2dMTEpMU04tNEZzZVJVNGlGdVMzYzF5LXdnMFhKMEVIOHd0T19IOEI1ZHZkTWJ6SmZzb3dTaWZnYXlwdWs0VEdDQ0VIY0xNTWw3di12bnVUMUlEbXhoYjI0VmNBRUZVMGpRNzhKd09JS3YxSjFVMGFiazZlcQ?oc=5" xr:uid="{9E27199A-6CA8-448C-82EE-6600C96C02C4}"/>
-    <hyperlink ref="C926" r:id="rId195" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxNTkd6bDU4Z0Myd1g5b3JiN3RON2JVd1lyRXJ1NHFjRVhuRXpIZEtpSWVKT09ENVlMejFlLXhmRHpNNjd4akRjaDdNdnIyTkRDd0h3ME9sVE94Y1pKQ1hwWDA1THQ5OEFmbkNqamlBdm5pZkhRU05jYkdBY3pVMmxsN2F3Q281Q1F2SnhtLWVsc1BmN1FoLVpad3NQdG43LWxiVE84bFpSTUt5STF1SFl3Z19CSEtYR1FMUWNIQnBJdmNqaWRndmI0LWV4d0xFMzF6UHFIY1g3QWxlLWw5anc?oc=5" xr:uid="{2A5B626A-0577-41D1-B355-84988C27D58D}"/>
-    <hyperlink ref="C927" r:id="rId196" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxNQ0VMWm9mNFZtcWNjOGpROEdzczRsQ3JWYUpBY2lrVzRzV3hZQU9HVm9PakNFMGdTblNGLUM5X1czNlZFOThBWWl5a3FteXNPUGhjcFd1SWx5NGVRT3ZhdloybXotWWdHSkVHM1dqQm1BNUdCNllqbS03YWtyZ25jS014RmF5RXltSk55WXdYUmlNNzJZY3UxLVg5WVBta0hfOXBoVFpjVDJ3RkpRLUJraTNoTUpyV2VxRjN6cDVWUUVFYXJSVktqSXJFZlFydUJ4aGgya1NGcm9rMFRiTlgtZ1E1Z05jN3A1b21jbXFYVUFKZHcxUGtRd0tQVDZIaUFNR1ZwY0piZ2dpUEtJcHUtSnUxWlRYMkVO0gGzAkFVX3lxTE00YzNfeGV0bUdPNVFQQ2FzZTQ2OV9qZ2tjN04tbVZuTWNnUE56dUFlcHQycldPU2IxYjgzVUVXSXpiYUMxM3J2cG94NlQzSmtBbXgtVzNSMVQycTF4VEM1c1NpR0h2a1VCUnhrRFJyUnFtZXNrSnA5ZW5FMF93NTBxTkZJcVZJRFZoNW00VGFYeFBzQ1hNTllzRm91V1VHcG9aLTl5Zkt1bWQyYUtiSjZFQTdMN3JvaW5mamxnNFN4OTR0RTYybmJPM3dySWN2dlJLOFA0N2YtdUFwektrYmliaU9CV1FPY0ZuTzFKcnFadzdfNk5GZnFDYzlfMjNhUkxGMnVMN3lpMWUyXzZnWndDaTFLeHdIS2FSWks0SC11RGVvOThzNk5RbGxjaTJkVmlUcGs?oc=5" xr:uid="{0E7198D6-837E-4F18-9A75-076CA976778D}"/>
-    <hyperlink ref="C772" r:id="rId197" display="https://news.google.com/rss/articles/CBMihwJBVV95cUxNRDV2ZGNPeTctYXRUNGE0X2F4TVN4SWhWY3RpRVlzdnlfdXZzb0RYcDUyeVJWd0lPSVhIeHVoSEwtQmhCTnZkYlNtOFFKYXk2dnZFc0xIeWdLdVFOZThUVEs3TzNyLUpvWHBlZ204ai1fZnNWYmhlUV9SR3NCZkllWUZQVkxNbW02Q0k2VnFaZEx5NU5TblFwZG56NzRweVhxSEJQcW9oOG1Neno2MUR5V2tRZUpucmNWRDFfZGp1SVNoQjVCTXpqeWU3R3pYdGFMclNqMGZsYXFaSC1LTmx3ekRFNnNWbjFSOUVtdnNIODYtVVFJZ056Q2dIQXhSWFZyYlJoOHdOb9IBmwJBVV95cUxQcHJhZzd3OFRLeHhWMEJPOFBtZVBMaU5rZUhVTUF5alFNN1RDVzQxTURpZjFKTUIxYk1WLXg4VllMNmZJLXRhM1FaZVMxal95MWxvanVFWFhyZTNxMnh0akNEcHkyYWdHSFh1anJlQ2dHS0lfYUY5Z1NKc3JyNTJzVjhqU0xtaHdBLWt3SlJwVzU2SWkyYUVZV3JfdW5hSHNwOGtEY1czeFdYX2R1bzlnVVBfNWVhM3lfa28zbm0zejR3X19SMWpaaGlIejlwSGNsVDNpUXFmMkxsUWRYSnUxdnRRdnlLRkUwVmhfclI4aVhJNnM2ZEtMeEF6NUd1V3ZYV1RnYUJsTHRDZjBJY2VQNndlY2hPekJraXU4?oc=5" xr:uid="{7B2E8071-6977-4573-957B-314F59DDF409}"/>
-    <hyperlink ref="C773" r:id="rId198" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPaXdFTS1jcXdJN3VrR3RYODNMaXdKTHlVdG0zOU0wLUg0RllnekZnS2VRQ2hfZktKNy1penJLMFgxXzY5TTVmNEpZNDBSZ0RwSFE2bDkwM2FnWXg3MjBiMm1semxzZkcxX0lfQ1czZy1EcV8tdHF4NjVaTUhudGxJVmVWbXdUXzNsbWxKZldPZEtGenVLUXJGRFdnNEtzVWVwS2U3SDk2Q3dyWmhFWHlhbUd2SUZkTHNPZlZlYnZwN1EzY0VERlpLNDFXaFhkLXlTOVpGNm5oU2ZxbHJn0gHiAUFVX3lxTE4xUkprT1ZfbVIxd3JmRkx0RjYwOFlGV1ZLYkx0dHkwMk92aG9BeFZWQUVGMVhvbFk0WHAtdFplZ0FqVm5NNkRwRWlGTXJRUk5Td3BqT0hfRUJGZnZWYW5zb2FLS0txUjdjOXhwVFdDak8xNGlMOFdrcDZud2ZLdk9YUXZabnpZc21jMFRRT2E5ZHBrNEVHbFd4d2t0SDJLSWhZRFZpQlU3bW1wNW9hMUlxRHJFWWRkQ0gybFJmVXFkeEUxd3RCUzlHaUM5NUR0R3dvX1VzUW1kVkl5S1JqOGt1WFE?oc=5" xr:uid="{31460E65-50C7-4D29-88D5-8A5B098D4DFA}"/>
-    <hyperlink ref="C931" r:id="rId199" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQVGJVZ0NSRGVaVkc5ekJCWGstS0F2b3VEYmhKaDhUU296M1dYdl9oc21rV1REUFhPU2l0VFNGTlRsdGVOTDZ6c2lULVVTQ3dvU0xYcGFzWmxUb3dJYjlUdExVVEREczdGbDI0QnllN3VBWlo4RjFCdnVfbVpBLXRPN0gtd2RxM205ajNyMXp4cHF6Nzl1dV9MMEF5RHZsc0pieVdrcUFITk91YVlrblZYNDR0ZDM3UjBUX2NjeTloMGhYY3c2aW8weDItZ0XSAdoBQVVfeXFMUG4yZ0RJR1JheW1GaHMtaDNabHprZXRzczNDYjVRNlVUMFZpYnRLQ0VsOVc2Tjhzd0tLdkdiSlpjUkxqLUVXcS11cHJ1d0tncktpUkRVRTMwd01uZ3FUdVhhMFRWZWFPbDlzS25jaWJXOEo2LWhTVks3NGt0LU5ZSlYtaHVmN1A3YVhGcmVUUlMxcV94SUxjcUJlQU00ZDFieGkzc1NKcC1EamtlZ09vMzZDa2U3eFVfUV83OWM2V2l4d1o4MEMwcG9aalpoME9jckdnRnJpelhRaGc?oc=5" xr:uid="{D2E17FB0-718E-421D-9CAF-13A7BE8D99ED}"/>
-    <hyperlink ref="C948" r:id="rId200" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOdHZDeFhwX1F3ZV9ZRmZiNHN2UUxuSm5hZHlxRW81M0ZzQXFMSHNuU0xwWDdBSHVDRjhJV09zNFF2WmVIZnFaNjI2SlZFOVNTSVFxQ0JjX01xNFZESjZ0RDNYVWVFZVBpNnNqSHBaT281QkFnVE4zM1o3MUU0eFZJS3NEUER2WXBxRnZ0UEcwMWtsQ2Q0VWFzM2pvVUdaVno3Z0xPMkwyNXh6dGczMjFveVN0eFR3cVdmY1Y3U2l30gHSAUFVX3lxTE0yTUdJckNhMm8tTnVwZXg3RWRtT05ZdUxRSHpoYUxVQ2FaaVk0SFY1Z0k5VXZ1SnQxNUdzdlZ1dE5BSEJIS040REZRYmZYM21EcUVFNjBpUmRIRkVLYXVUejZXWVdrWmxaQy03UnN0WjVENkRnWXJOeW1HbUlWUmhrZ0ptdDVUeDJ0S05LakNVS0pzRXRQUi1iQkpkWmdLYnRyZW9CSk5VMGdiLTZGMV9lWWlkcUQ1ZHdCaWJ3YWFqYjFldW5pZVhwS0tnWVJIOVFfUQ?oc=5" xr:uid="{1D4C4475-F79A-45C3-B818-70B305D3B43E}"/>
-    <hyperlink ref="C928" r:id="rId201" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxQVUl6R0RVUktVb2RaM1pEQnNMU1dVNzA4S01lS2xZRDJFQUEzQTh2a2ttQXRIU19VV3JDd1dxdmZBN3hEaWcyRF8tbUt2SXNQcWVRLVo4Ny1icFQ1XzRfSTBjdEYzTlhZTlpJQlZ5M1dhY1dYX2JiRjVLMmN0REF2aVBhM2ZtXzJHQ3d4V181YUh3WkZWaGpRcVpsMENEUUhXd0tVYnR3NndoaTZ0SFRZYXBBaGFZdnBjVFoydTQwS3ZVOGNzdEVPTmNncTdQaTNNVkV2LU04Z2RzTmZUWmhfOWtQM0xGWnpDQnp1S2tDcGfSAfYBQVVfeXFMTzVhRGNuTlAycDdvQWFKWkdocVhNRlg1aFFKaE9YcTdJZ1hMeGd0S2dxdXlMd0VWNEhibzJBZXRzcU9PaUJxTmotWUttUDlPWkJUOWhOaTM1VHJ2UHNlcHpValBHcE5wQ1ZVb3BJb0tSYVJNN01lVlZXb2ZBM0Z4OGQ2VldsVFdGNy1ENHFrM2NYZEx6c3J6RlF2MlNpQW55U2E2T0FaVGRTcFVWUlNWVXdpazZTbTFvMU5EeWI1ZnZOQlQ3U2lqdkFxNndzQjN6Nk51TG5QVGtqcWRRZ1ZMODc4Zzdfdy1wQjh5TXZkRDRucGVzUmln?oc=5" xr:uid="{4FC026E7-1B42-4988-9FCE-03EC5BF236BE}"/>
-    <hyperlink ref="C1007" r:id="rId202" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxNMzhIaUlRSXNuMjdVM2ViVlJpaklOUzFpbU9Da3FGazE5TUh6Vm9fYzZUU2NSSlVfZ2tSdEJ4MXdnX1BXZUoySFRNaGVxelJERXRSYTRxaHpvdEViVGVZanhkZ1VEdUxieXRXVTVxWllHVlFWMkpRdHFRRUU2dWdGWFlKTFYwT0VWOVhJSlY4YjBodUlpbko2YmxWOGhxV181cHVGUWZ6MjNHTFRsSEctUVln0gHGAUFVX3lxTE9EY1lPcHVIX0dXMzNrZVFwbFkwUmhoVUV6el9DTDJ4dEZtVFVTYzlmeWRfWXlUd1J5V1N2NU50LU53UkNHbTFvX3NyejlIQmJYT20tbFFIQ2VHLWpOME1yYnlrMzkwbEprQlBoc3FiWU9pTm5FeDlOY1loMjlYR2tEdjc0RjVRdGpDSWlYeDI5a0swaEJia1NaVzFRekQtZ3VhSUluZ2tDeWhwVmNiOUw0WWpBaUUtRmxQWUxEM0VMLWYtOFR6UQ?oc=5" xr:uid="{6B7E2E42-AA0F-42F5-8349-ACCF310BA3D1}"/>
-    <hyperlink ref="C929" r:id="rId203" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxPVHN6UGNEd1ZWVEVTbkNWamk4QlhuTFNiY1JGS0NXWHlYV1F2RlNWa0ZDeC1NdExrbGE5N045YUxSbzF0TUFsMDAxOVl6RC1hTF85eGJ6UUtKM2NVd3NXeG5aS01oYzBqS3JkOWYtZWhvOWhlSGJrT1pIUmVsYWJfYnFrM1MxanJoaVYzUW9Tc3lMcFRCSmhMVzk2QWVPOW9vUVhaY1F3?oc=5" xr:uid="{21BD8867-91C2-4D7B-A508-5E8C079DE097}"/>
-    <hyperlink ref="C930" r:id="rId204" display="https://news.google.com/rss/articles/CBMijgJBVV95cUxNOTVpQ0llaWhZY2JBeHpHei03Zng2eFh3NWRRYnh0UXg1NVRqQmY3S2Z0NGs3RGdwT1BpamZuV0RxMVFSck1wWFdMYUk1SXdoNjlRSnpuZ3pTbFJtaHJvZUFTSU1VaHY2REJPZG85TTNCWElLY2tUNHQtZFZSVDJRWHhodzY1eDdjcFB6WDJJTXhDN2RiNy1EbDQ3QUFsMjNodlZOVzdPWTUwSFY3VmVmUlFVNVdtcVI1Q2c5alJ0alJ6anJ3RGR4UU1SVkdhSXZOM2pVNElxd0c3TmQ4eXloZmNqclplNW10emZKaDk1WWRYX0xsR05KWnVSamx1RUhDclpPN2FjUERyX2d1MUHSAagCQVVfeXFMUHpxai16M29vLTR4YTRxMTFheVBFdHoxSTVYajBRZHVYbC0xd2tIRnA1Y0R6b0YwWnkwSjF3WngxSDVzcEVTZnZaSWpnSjdra28tM1ZCdGpLeE0xT3NDRk5saWZxbmdvX2Z3M0ljZXpMYmNhZnpKYXhZSkNINldzbGpnWmxUYzB4VjFoZ25mWEsyWWNlMU43TWdyb1BWa3JmTExOYWh4ekNDYWlGbmNXdk5BTkJ2M2dONzdFUXppZ1kxWURKZnFpRldVMXFpdmJCUGlVcjY4U0Q5c1RLNTB4NG1SU2lmR053cnBTOTJVUFZUdnlNaHVwNFQwN0oxMFRxXzRIdkVqd2RkcnVvSmU4WUNYZERlOGlmY3EtTlNkYmlCeFNka1JYazA?oc=5" xr:uid="{351BC609-BE13-4A97-9C1F-6B76CA037C4A}"/>
-    <hyperlink ref="C949" r:id="rId205" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxONUZaZ2dyejUyMDEwaU5mU19ObGlSc0VEU0JPUGJGN3RsTzJkUWJQdEwwTEVzaHN1RTFIR0dXZDdSYTUwemdiY3AwM2h3QWtCUUx2TEtPX3pjVWl2Q2xOU2F6MEJmMHBmLXZJcGVrc0JLR2ZRYVNkT1U4cG5pLW82UURJWHl1Z3JqYldLbHNKZFFNT0lCaS1kZTREdUQteVFEVGdtStIBsgFBVV95cUxQZTNIc0xISy1GR25uMmoyeHE2cGhGX0dPU0VUNDJFeldWaVlCcExNOFpLRzFjOVZldlgyOTBpNWFFeGRUMFdFeHczZ1NwdU9xaTNEUkVSZVROWWdEdzlpNmZXQ0M1WjhoTWY0V3lfMkpZN0tBaUJHTmQweGFWNXQzY3czWjhmeENKeldBUzFsaV93bUpIMFdJelJhTzJBZmI5NUZzaHBQSmUzT2lwMWpxUlVn?oc=5" xr:uid="{3112F40B-1C15-4CEA-8EA5-80BA8B35B322}"/>
-    <hyperlink ref="C767" r:id="rId206" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPS3BBdUw3bVUxdVhUSGRvQmZEcnBpM1JqUHlZRk1VYnplRll6WEZyTnN3NDZ5RzJQYUpKWk56cVVhZ1NmdGg5Q2t3R0ZEbEN6cHhMbVhLdG9td0tqWW4tLXV4QnZPTlFEMzJmaWtvXzRKRVVrRlJzNUVEcFVzdFY3TGtJY1BuZ3dWWUdYdzFyRHdXSVdoa3l6alZZaUttZmVIZnRldmg0ZWFXUVhyNGplQnB6Sm5CeXdBczZDOEVnTnNMcnc?oc=5" xr:uid="{05A57C32-F43B-4D12-BC64-4C5A7ABD9234}"/>
-    <hyperlink ref="C781" r:id="rId207" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxQOWNuYXRzNk8tV0lyd2RZdEpXUXJUbVViOGs5WWFZcFE3RDgtc1VsZVpYUXNxS2s5RFFOQnZXVWFoQlVpYVg2RDdfaXFjUUdCV2l0Uk9PQ0UtNlloOWszTmhOcnRBOTJMZDBVeFdDUHJQNy1RRzA2ckg3d0FoZFR2RmFDRmZjS21lZE93Q1RrZVhMeWVLT0x5YWg0V1VoR3pqTjVrM2pqWndyWlpnaE44NUE4SXRacno2TzRxOUMxWjVrREFSU1ZfWllaMVRNWWdQeEptV3d2M3BEbFgxbWk5UExrY1U1UVQ1eDBFd2hTYUlEYU93NHRYLUZxRDR3d05kY1BN0gGIAkFVX3lxTE1TOHhfX2w1N1A3andzTVd3ZWUtMXBCVVVjN0JSTEh3TF9jZ25fLXJYWGsyTnhVbk5PU0FwZFgwckpUM19UNHBRMkdmbmJQQ3RoR092NHB1c0VER3JZRlNmTzFjN184cWxSR3RwTENvQVppbnNNT3k5UXpYbW1tcHlDWUJwX0p4NUUwc2pHRkQ4UEk0eFNhbllHNk9CTUh4QXhfa2tUNVphaURiVVpoVnFJNGRnNWJ1a3NyZ09Vemp3a1lEQXA4WjZRRFJqdUtTNjh1UXNBY2pUdW9DUUNZa05zWENtSHZoZ3ZSMnE5S3Z1dU9tV0EtNlQ5ejIxd2VwNTRiY0pid1RKbQ?oc=5" xr:uid="{4A8AF58D-3845-4042-871D-EB222CA55FC5}"/>
-    <hyperlink ref="C953" r:id="rId208" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNY2p3N1o3VTBaRXQ1X1k5TGdBZjNOZmt1V0RoMDZNUWNtSmJaYTVTSkxqSDRWbUZBOWZsN2o4bzY1RjNXRGd1S0t4QnJNcHZndGRqdDVlbEY4WFB1VUJGYmIyd000NzNsV0ZUWml2UEJsS0JfM1pNMTNvVko5NW9JNm1NTHhQR2RkbjdmRFhVZjI0RXE5cWJYOGJrZFQyNkxwdnY3YkRNTk5sZDJ1R2lYeTdTNVrSAcgBQVVfeXFMTk1hRGJJVDY2QnY4SXRhYlVIWndYTFdEV1VUN3VuUmowWDlOdFdIOTNQTHg5bmFFTkZMa0FSUkJHaFQ0Uk8tQkp2MTFKMDI3Wm03cE43ak9jTzI4ckdVdjdLT3VYUU5SZXp5U2R6bk8tbGpwMGEyYTFYZi1hVzZxWDJuVG5uTnV5QU03VHVXOVJwd3R2LVRHUzVzbXduajEwRG9wX3d0bndsUGpZWmJQSk90OXR0ZkN4Y3B6YVg3ZG5NZGM3RG1SelY?oc=5" xr:uid="{3E91D354-A0BA-4858-BCB3-3FB43003C853}"/>
-    <hyperlink ref="C782" r:id="rId209" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQWnVFZXVtZUVEVWJUVXduNjFqSWkyeWlOOENyNExUNHZmZHpBNWFTaFJEUDlmMy1DTFdUdkpWYnNvN3A2YjJEdE00cmJBOVhZYVpwQWJkMk5SYjg3TldOM0xnUC0wZzQtdmdoNHhUU0JtWmdhU01RYU9GVEprUkJSLTZyXzdJcDlYRE5zeDUwUzV1ckRYdHVGVEhObTEtMUZZOG9tWm5aTUFfQlZY0gHAAUFVX3lxTE1TTDQxZl8yWFhJOFhHRW91SHltaGVEcU9zWGdEYmhWUEdjMFBDeG55RkJhb1dsNmpZbU9mMnUyNm90WlV3dnhocW03UE81LUM2UnBodEdIVWV4N1g3aHdjNUZ2YUI0SXhmbUNHMjRkMmhzdjFKeEFkd1JWN0w0Yk1JaFo3QTRTRDE5TWhST2J4NVRvT3VtVGxNR2dUbi1ud293dHZFMVZXVjZlWVJaTnU0aERMX0JpUDhfRnhqUGJZMw?oc=5" xr:uid="{78DD5ED3-0013-466F-B7DF-F8C301BB5217}"/>
-    <hyperlink ref="C954" r:id="rId210" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxQSFQyZUNhMkREdHVSLXFHUmtHZHpsVkxEZllocVFybnhTU011RllWcUdSd3ZULXRYQWNOMVRKdkhGdDNGVjlVVEdoQk16dExUU29jc0YzaV9Oa0U4VE1FNG4zb1ZocnJfUlp5TWpSNDNuVDM2TzRuT2o2WENYQTJ0WXBRdVBnUXRYTGpmUnNUNEFVNWxwRXJCVE5GUGlJU1ZYbmpCaTZpTnNxZmJPbmMtZ3pVenNSX2lwOUZDUXN5VW03Sm1vam9ROU1NNURmZWdxYktGbjJsWVJ6ZDgyX2ZJbnViZUNVbE55X0k5Qkloa9IBgwJBVV95cUxQOElTQXhEY3dwUGl0VEZvbV96M3hhUGZ2N1J5cmk1UVhmZk82T0lROUNhRmd1VGYzeFE2TDBLcUZXY25nb1Fhc1BOY2pkUEREWFcxZFJ6MHJEcmRCemZSaWxCM2dXRkthR1V0MnZkUVRTTEgtSmY2TzZTTk1SSkswRTlkNjNTMnFqUkNRWEJoN1d1Tk5PSVVZaU1iQkt1TzItYjhqSUZ5aElWamU2elhyandVZlA5eXYtX3lrZWNRa2tHU3RCLUMzeGxnRURVcS1MSVN5eVhqNThLUXRYTVFHa0JwYld3dHBTRDI1MEIya09DWWlaTE1jRGxrRUhMVXVPaV93?oc=5" xr:uid="{EE885265-CC16-4353-8493-33BCEB2684CE}"/>
-    <hyperlink ref="C783" r:id="rId211" xr:uid="{6F902B35-0B01-4F2E-B032-7FF1B9D2F307}"/>
-    <hyperlink ref="C784" r:id="rId212" xr:uid="{133760C7-0988-4878-8A7C-7F8A3CCB5E28}"/>
-    <hyperlink ref="C955" r:id="rId213" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPZG00UnBTU1BDbWc0UlRETl8zU3phMjIyR3ZtalcyN3ctalBYa2JTazZwLTdUaEtIVmwydWtQU0JSRS1lWjhRX3h5TUhjclY3V2hHMjZUdk55S2pGd295bnpocU5MMHlkNm51UHF0Ui1VeHM5MjhYRzF3dVFqYlVkMjRUQTlPWFNETXU2TlZyRkRsNkxCZ0dmYzVxeU43TG1KYkFTSERYSlFYZTN5T3FhQVF5NXdCbEV2YVhRanQ0Yw?oc=5" xr:uid="{BF22DD5F-8E7A-4DFB-AB7E-302BEB929D55}"/>
-    <hyperlink ref="C785" r:id="rId214" display="https://news.google.com/rss/articles/CBMioAJBVV95cUxNOTFqRXlJSWhscWpLRGdpVGVaWk1wTG93UHVzZHpKNnFYeXdsQ2RoZVB3eWFPeHBuMnZKaDBMal9HM1RXajZ2MnloY2hkS1FQZGpha1ZrNU9xdjBIX1NoTFpIb21NMzdMU19VT1NwU2hKYWlCQ2kxUkNyYnNLUVFEREp0ZkhMaVhnZzlEVF92WkVBU3VUQm02cUFLTUswdUlzN2U0eGJtNXpsTkMxMVA1Qllaa1g1V1VwczNvdHhEZ2pXSVVnTFBSZlFnblk1dGQtdUpJNjBIT01uVHlTVzFlcDM2bmczREczaGpYLUxIMmNhYUhEWXVWOEJsQW56VmI2d0pYQjNJbDh2QmhiLWlObENUZV91bjloYVdocWMxN3rSAaYCQVVfeXFMUDNZRGp5N1JRdC1rZ2lhWVE3LVl6OEozM3N4WXJJSlFVLURQdHlMajVoWmViZHlGOUFZUVEyQVdURWRWX1AyQTBpSmVIV3hIWWNlOUI5eHpITGMzYlVtZmdoZGVoVUVGTFdlS1VaOHNsXzNGVU9uS1dYMG41blFFQUxJNVAtMk4tUHZIQkdQWEFBMWxJMER6ZVBiOUF1NUJ0SWRORHdNdlJVWFI0bms0TU1DZHpVbU5nalNsdEtYWkNiUVM2LUJGZElVUDg3SkxoOFpKS2hMclBwY3NTMEVPNGJtX2haenh5LXNjVkttanhBX0Z6Vmx5N05seVJ2S1hjd2NJcGF5TC01dml5QVhkTTZkWU4tOUtBM2lDWXpSUVVFR2ZjMmN3?oc=5" xr:uid="{9AAB9BF7-FB36-4CA6-B51B-97AB4B8D7B54}"/>
-    <hyperlink ref="C786" r:id="rId215" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxObkFjZ0hqQ0V4OVdBSFVZcVR0VUZKT2dWTHFrbEk1al80anBPM2V6ZFdKZUNIa3ZhWGxyMm82bS1ZUGhfcXlmYjVXVHFWcEFzbmRZMVVlZkFKWGdMUWlkb29RNExvYmJfNmV3bWJXN200VkxLeVFTYXRfbnV5ZmdtVzFHTWw5dVVLZTRqWW94Skg1bmVxdVhycmFLVTkxdXp3S1BOcHlEdzgxRi02b05mdU81NXQyUFdiTy14enNqTk81Q3RjY2I4a1Ria0dvbDRGX0NYWXdmb0xBOUFFbGphUU9vVllKZjFJMXdDa9IB8gFBVV95cUxQRWI3aE5JaUNNcWNxN29jc1pTM1RYb0ZrZy1vX01GYzcyLWZFUW1Da3NxMEQ0ekVRa3Fvbll5WHZtWkdzMkdvYWJBNnJ1QVRaV2d2a28ydm10Q3RHNXpCZFRGV2NFa0szbTB1MEw2ZFZla1NlM2d2a1p1TDdHR2RudzZvUldvU1Aya0Q1Q1Qxa0NCQnBTSWd4MGdrakdYd3pKUkNULThaNkpHcW5CTUFJRmFoMkRDLU9mYWlMYW16Vll4aXAxWi1IVlF6MVpuZDdBZjZQa25ybVRiUWNGUms3RUdnVW8yY0N5RlBOMkVMcnNoZw?oc=5" xr:uid="{F3713B68-B2A3-4AF9-B16D-7196499225CC}"/>
-    <hyperlink ref="C787" r:id="rId216" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxPWkgwVWVTZUUzR05HTGdWMmNkek5KMWxrRk1RTGtrRGpQS01mWEJlVGUtbnoySnlqcS1LM2NDTEtWZWlQT0JzelR2Tkp1Mjg1bFBmOXBFRkI0eWRRYjhHUWZyNHlaS0JPNVppWU13MkJGbVVGa1pEcHR4Q2NMMnpCVUJ5c2REYlBxSlUyWFJreXVyVURKZ0lPaUJQTUt0Vk13UE82N0hTbFNSX1VHc3BIVjFRVVViaVB0UTFzREV5MjNQUUctcmpBQzhQQ3fSAeABQVVfeXFMTTR4dklzSDFSa21zQ2VHaExQeXR3cUVuUnBFenZvdXNWWEs0QTN6aW9BNTAzaUNKVVh5RE11cVZJSFpZZFU5UjdYb0VhNHNCbURjc29wZGlUMVVFNkVIRlFjZkJvc2lBcTNKci10TmNsZDNLM2Y0b0N4bTJWM2NNc1h5Qi1FS0dKbWhlVENJOVU5SHRNZ1pSYTVwNkw5Y04zMEZrTkdaZDYyQ09YNWx6R3Nvb09JSkFBcXhKSWNJLWVsb3c4UWVfLUdoV1M1WXZpLXJQSVlnYVBZWVNyUmEwNlM?oc=5" xr:uid="{FC048C2F-8739-49E0-BC29-DC36D8DC57B5}"/>
-    <hyperlink ref="C788" r:id="rId217" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPY1Z5Q1JzZVVKOG9CZjgtSUx0VFhXMko3dzRjbGdXa3dfNTdOZGd4M0V3bmIyX2Y1YVZIcjF2SkZwZm1Cc3lOeU9RbnRiUUtRNFNsZ3dDbzBaT3owMzFDZ2xBX1EwRFM0cW1tZ0owZHNLMzlyb2RUZWJYaVEzNmpMNGY3WXdWWG9PU1lIaF9qYWhaSkMtWk12WDd3T3ZZeU9GUFJhQUxRNnJnd2RlUnZ5RFZWT1hwT21RTUpJb0tZVdIB0wFBVV95cUxNQmZ4ZHlxcGRvR1B5djg4UjVCdGd3dGp1ZHJDUVRrSllaSzFwaENIRFpyeVJ0SWQxcE14c1RpOEwtUXRYRDdmVGN1Q29Pd25iN2VsbEpUTEMzWnhjVnp4aUpkdGVaa1ByVGRjemU0bjIyOGhHOUF0ejM3WlNENW82OEFYTDhBQ0N2S1RGMWx5M0hiekxYVUhocUtCMDZac0ZwbDhSVmRnNWZyWVp4dlBaSTdqNmhaV2NyREFqYnduQmViUHZRbUxuVExybUI1OHhzMDJZ?oc=5" xr:uid="{ED66A07F-2030-4643-9C75-FA67D764F8C0}"/>
-    <hyperlink ref="C789" r:id="rId218" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxPOHZyTW82NGJ6VWRzZ1NGSzFzaXpmN3FiYUdodXY0UEJBRzB4VGZ1UW5US19aZHFfLVg2bzNpUjVkbjAyTmpqa3BxSTJ6OFZqTVVRNTFpa2RRcGRCckZSQ1k5YzlucncxQUhFbjhvZURGUnhlNXhJY2pLV2NxQnRaMnFDWkdvUEFQcU1IY00tQXJfWlhGcllqYllBbVozWnM2REJMaE5VVWpXcVEyYWd4WW9sd9IBuAFBVV95cUxOeWlSdHZycmlEOGY3M2ZzZER1dXl2VkU5bUdhNHlIZmlmNDVXRUZNNmNXVUlOWDFidXZrZGxaSXp2QnRROF9Ra3VJeDRUX2VwYnMwT3dOWWZ0OFRTY0xtZFRQQkVQS0tQUE94N2tXOUU1VkloNDNaUjJlTVJMNlhFeTRzWmtLSnpPRGticVZJWjk0YVM3R2RHakFQM1RQa211UHlUZ1RrRWp3dTBBLVpIeGhNMm1KTmRx?oc=5" xr:uid="{47129797-EF87-4197-9FDB-A8A8AA58DF0B}"/>
-    <hyperlink ref="C790" r:id="rId219" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPRE4tOXVmRERQbHo5VHIyNGtHeUtqb01vR20ySl9zbjdQNGxxMlVDUU5DdWNSTlFGcTh4aTAwXy15S3Y3dDN5WjFZY3lfX1BzdEFlSjMzS2ppVEIzMFBJbklNam9QbDVadFpNeWtRemhHVG1xQnRiRGxDSmplQklJOG9Sc0MwS1hlRWRlelVKV1lxdDVEX21mNENuVnQwZkNhSTVsUnpkRXZIaVh6VGctc0ZVTGZad2V1bjJaTmVhTV9KYzlKN2FUbVhB0gHPAUFVX3lxTE1QMVRrNERxdGs0YzdVanQyVE1Kb0VMUWFPZVF0RTV2TGpiR1BGc3h2ekVyTHZiM3czQWpWd2JVZzdHQndJUXRiMnFHc19ILUgtNWxMSGhvWkVDQVdJVEVqSnBYczZ5UHlhQWhpdmZaeE15OVpmcDFGXzhZU3ZwdVlURXdiQlQxc2JhZ19fUnl6MFFmRE5KalJMcjJZeERuUTFkZDJ0Yjc0cEFmY0FpWWJhbTlPcjBOY1kzNU1lb0M4TkY2Qm9nOS0wajdUcUl5NA?oc=5" xr:uid="{64657BD2-B400-4CC4-9D37-FF0EF710DA18}"/>
-    <hyperlink ref="C956" r:id="rId220" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxNS255TC1tbDRldUNCRUtyWWpSenN1anJmOTU5X2RpSFV0aGdCS3VHaXFqMXNUSWZtbDZSTTg3dFI5MWNpVWdKem1pWGwxNl9GMFpkVHNDekNOaGFzT2w2Y1lYbXNGZFhwS0JGOEhfdU5NTDBnRjJiUU9CM1RUNnFLdFFYTWdCUmhJaTNTZEhoWDJWaHdDeTF6R1lFWTk3NGgzV0tZYzE1VXFHY1FLQXJwazBFY9IBuAFBVV95cUxPVHluOGM1Mm1OSDA2OWVyT2lQUFl6WnN5RHlIcm5qMUtKU0diV2d3dWF1VXYtNmwxV2xpRkt0b1BQTHpOU2xUX08yMV96ZnVBMGg4bWlRUHdfMDJfQUNndngyRzJ1TTJYVjB4eU5raF8takxOODZQOHByV1NYbTdnYldLbWt6YWRhQ0M0UC1TNG5Ta1F3cGs0YVNZLXhJcHY2Q1o5dVhZUGM2blAyeUxycEU5QW1Pd1FX?oc=5" xr:uid="{3880CCC6-20BE-4A45-ADC0-1D66E7ADADFC}"/>
-    <hyperlink ref="C791" r:id="rId221" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxPM2NvWUtsOEJOVy1YUHBtUFdrWmtSZmRlT3R1OWZnVXJHbnVwZTVTRXVNTWptTmxZLWVuRnRiZ1FfZ3F3ZW8wbHhqU19KNjBuem1UV19GT01Dc09Qb243dVk5RDdpNUZ3VDZPUk1ZSDZUUmNlZTFGWDVwY3RKbjRONE1FcW1wNEd6bTdOZWlfX2p4dDhMaGJBSmhSbE9LWFg4Q0dXRS03RWFteHA2aEtYN3AwRmNZdnhIaG5Pa0tYZzJtREIyZlFuUlR6UXFpb2xqZC1SeEJNS3MzSGU3OEIwOW1CdHJaVUctU2c?oc=5" xr:uid="{312DA8AD-7407-402C-9B41-BA1877C1A1F4}"/>
-    <hyperlink ref="C792" r:id="rId222" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxQeF8yWWpnaXFHSDRVVVVYamRTbE00REpsWUNoeEJ6UUxaeTR6WnU3ZVl5Y3dNb1VZWWk4akphMDR6cTR0QTBrRmRXTm5aM3pUS3JTVzZKTXpRUFdnMTF5cjNOX04ybi1Id1VOakFWcjlNeE5lU2c1QjBOMWNQbnNNckFscGprbDQwcklkWHhLQ29ma2VyT1JRQkFMeEs?oc=5" xr:uid="{0FD9B199-2CCD-4BB8-9B35-3DA1E4621BD3}"/>
-    <hyperlink ref="C793" r:id="rId223" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxPSy05T29WczA4N3RGZEVsTzMxVzc1eTI0cUttREhUdXZ4RDUxX01lWDYxTkdvclRKZlNWdERudEhabF9XZHBjNzJQMVFTRDNEeU0wSzVKcWJiNFlZQk8tb1c2MDNwNUcwRnVxLTgyWV9ZS0FqR2xtcWVsMTZsb3pnVGlweG1HSDhiYmxhRHlmczdCOEFrUHZPNFU1OVZqb0F2OVAybV9ZeExlWi10T0o3U0V3?oc=5" xr:uid="{8ABD520E-0709-4EB0-8E52-E12DBAFD4E83}"/>
-    <hyperlink ref="C794" r:id="rId224" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQR2hNWXlzdEs3UUNIRXJyaVBIY2xjS1Yzc01HNmV5NFhZV3QxQ05MMVBveW9CZG5IYmEzZjA5TTA4THhMS1FlTFUzWEdUdjRqOGNBanJYdnNPb0d2Ylp2ZzZ3Y0t6ZExTWnMwUGVrR0YxYm5KRjZJaFF0NzJiNGkxWmhPY2s4WUsyR01PUTd3WjMxMXAyb1BEcnZhMWVab05x?oc=5" xr:uid="{54C4D2ED-4CD3-4FC3-93A6-FC63EC49B964}"/>
-    <hyperlink ref="C795" r:id="rId225" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxQeEZpUFR2Y094SHFRckVBUjV4ekZfRktCeTQ2RFpIa05ZVll1STEycWxFWnFDYUQzdWdaMDFNRFdVYklFeW5wMV9KNGxZLUgyVDh2aTBwNjdKWUUya09Ba21Ba1BaQldfUXhhYUZENVlxVUxzY2NoOE9YWG4yMm90SXBDU2VzWHY4RUxMelVsNENGc1liZGJ6SHlOUGVjOGVySEpIRTdPNjVielhVVDY4M3Bnbl9hQVdOTFo0SThOdTY0Ri1QYjFNci1zR1hYNC0xVzhF?oc=5" xr:uid="{6F50BAAE-BC9C-4AF3-8522-B9EB85627067}"/>
-    <hyperlink ref="C957" r:id="rId226" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxOTWpEb1dxN20wSDBKWmRPM0F2ZXNheDJMRUtDOEdHOTMtUU95RXc4X3hFXzM1MXhwOXh6VW4xTHVnQmlOU3hud1NENUUyRkdFMnZSaGw4ajNzWE5mZXZMa0Jodm5BNFpwWjFVNTVyQ2VYUVkzd2RGaTNyQlNwQzlUMDB4YlAyNENFcEtJM0dzMUhJVDBpbV9teXlvNG5MMnlWUWVWeFpKc0xILVMtWFB1OFQwdUFVd2UxOEhvbnprSQ?oc=5" xr:uid="{F30E5091-2A32-4AA2-970A-C3A2ADA3896E}"/>
-    <hyperlink ref="C796" r:id="rId227" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxQUDRQblQweUxOelMxUUFmYTIyQVh0djJRSml3ZEpRbHUyRlJFQ3hjVG1IenRYS3hjOUpQZ0ktZjYteHk2SE1VcTV5U3djYi1pMk5kZVhYNmM5ek1ieGd3Y3g4ZW1XNDJfb1o5dTN6NmUyU2NUaDNzdGNPYWt4aDFucUpqOU5vRzhxelhhS09HQ0xSWF9zbEx5Rjk4LXpuRmUtWFlEbGtTbFpBaFA1NlhuRFVyaFlWbXZTdl9ZTXNEcTZQeldCTlJWX1hRNlgxYkRIT2tvVmV2dkkyODVZaEQwODV2SzFsV0c0NUtCZ2V1cGjSAfYBQVVfeXFMTmtIcFQtU1NNNFRObjB5OVNvN0E2eWF4TU1iOURjZ05RQ294NnVWcU5VbVd6NFF0OG91blVlYjBkRWhka0oyT0dtYWhSeVROZS1FSlZaUWRiZ0FtVlV1UTFlRnJla083VDZsRll5ZzVzeVJBSFNkdjZFM0F1RHNnQ01TcEoyWHBGS1d4T0VOTDVDOVpLNE5maktUU1pFX0ZrQTBZNmZmOGMwQzU0N3JYOWN1bVhRVUM1Y29FUWZIRktLNnJLN2h2X1Q5TjRmSjh3YlJLaXFmc2d2ZTdhUzk4OFU5X0p6a0lrV0gtclkybVN5R3JYcVF3?oc=5" xr:uid="{461FE5EF-6A06-4914-9951-81AF93530978}"/>
-    <hyperlink ref="C797" r:id="rId228" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxOQjFkVml5Sks2MnhyREl2eDF3NklKcVlWQm9QMGZCdHpka0FZY3BNUzJYM2RScm41aHF5WGxfaXhBSDFvMXhLM2F2NHpyRUIxYnJRYTBhY0tYajBtZ09ocTRPZFVhQ05JOGtGVkgyakZhQzBLaEpvY1paWmRIZ3lzZlFjYWFyblhHTmhsSU9wN3NZa0lTSzVoZzhJMG9Rc3BTT2xrLXFzWV9EV3NGVTB6TTZGakVEMFY1a1hIZGpTelpuaFFLVDBLbkpQYU1CaVEyRXpkaWxMWG1LaUNocmtyVmxycEM0XzN3NTZxQ3dwM3VkYUREZU94dDl2bUdkcEVKR1hoZ9IBigJBVV95cUxPUlJ2TzFVdndubHRCSlhLYXpsVlMxczB6S3ZRSHotMjAyaHhCVFdfak5PQWtscjE0UW1HWmduazNzdDV6S1lzX1Y5bXNJZ3lwSnYySy1RbGNTaTc4LVNpdWdQUDRiQ0JaUkxuNTVwN2lEQjVDSkFtVlVuVXBuQ3h6czdoRkVoWlBGVG1HLXNoeXZGTG0wUjNxdVVaUGZ2SFMxQXFORUhkLWVBcGJlRVBPYmZ2VW5ySmtOWkdQNG8zWVdXaV80a1Mwc2c3SVlsOFRtU1Z1UDczR29ySFlkV2szWWs0UGk5T1JIc0VJb3N3ZGptd3dDVm01dXBnMDlPU0NhbVFGbVVXYU5Vdw?oc=5" xr:uid="{0CAF7452-E24C-4BD6-93AE-20007604B595}"/>
-    <hyperlink ref="C798" r:id="rId229" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxQdVJZeGdXZWd5NmZfODlhSkFvb2ZZTEVJenNha0hXWVJNalRNZWVoNzA4Z3FhNHRJOV84bGM1NnktVTgzSE5aZ3BoWmJJZFFKdW1xS0xPLVRMN3NEdmlYQ3NYSjZ1RUpKaXdCUVVoTFlycmZkbnFHVnAydG9RLWxVaXhOY0dNZFA0cjhrZnlvT3AtNkJHTkVOcWdUZWVOdU95SmRRS24xQy1jTWvSAb8BQVVfeXFMTTlSRmNiNmptTVdRTjRzU2ZPUGRBdGRpTURDd2RqV3MtTFpub3ZnZlZDXzRTSHVOc2d5Qk13WnpSM2Qxb2Yxd3M1bVgxMWoxc0Z1dXpSYWk1MlBNOVFXRDkyOWE0UDJNSEpLZTRWaUNhcEptanR6NE10RWdfMm1hVTdXSWRDSFk1Y2szREl5TzlQcmV1bzBWYjJWQU9DVGNHb2Z3MEI5VFp2ZUVZNlZSZWN5WlZ2THVIZEtCSXVPR3M?oc=5" xr:uid="{3BC041DF-290E-4941-B207-B04AF4B6BF71}"/>
-    <hyperlink ref="C958" r:id="rId230" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOYzdMbFczOGJjMzloTHJTYU9PaUp5UEpwanhEN1hxa19yUUdYNUlfd3FTZTF1ZF9lYWljc1cwcnFTWVhGdnJXaFdnY01mNGprbTEtWExpcE9oeXRoeFdxWWswYmItdmVBVmk0LWRIcUZaRWhrRlJsRGU4aHM4R3A3Y2FFcHU4bEZWMmpsYTlzeXN3UzV1SGROcTUzNkJ2RzRWU1BSOWowa0JGb2ZFMnBaWWtpQVg1ZFMyWDZhSEllclBadk5kVmF2VdIByAFBVV95cUxQaW91OTNVMTNHWTRXZElGSFRyMnpud2Zrbi1DazlpWlVCRDdIVkpScHBra05BRFFUZ0FsSlVYZGJSUG42c2pwSFliSHUwcjFCZ0tPVkFoX3pnVWc0a0xFOUFYOUt3cWlNajVUSS1WaEZHaGJYMy1kaVVNMWd6UXB1bzkzVlBETGl0OE9HMnFNaEpWSEtZd0tIS1pTeDFCekVhakVuY0lSYXRucTd1anlBd05qblFLdGFnUUFKcFlwdGFtRFJhUTJxMA?oc=5" xr:uid="{4D166C39-F5AA-4F09-82E9-5082822ACD85}"/>
-    <hyperlink ref="C799" r:id="rId231" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxNUmw3ZGNVdkpHRHZteGJzQk1QYTE3UzVaWDRUd3h6bjlCZGV3S3h2d2hxNnk5ZkhZQkl0Y21Ua3owZjg0OE1WTjF2TWV5RjR0YWVCSE12dUJQUVJ0SUZFRktFUDNBa3k0Z09QeXJSTk5DZXVlc3g2QXlCVktTc2Fid3ZCWUpRbGI3MDRNWnBtZ2ZWb19tbng0MEFIZlhKM3BFWEF3RFpYeEdKNnhCWXlQMlhfTzdvZ3NXN2VtZTBfdDZzWU1WaWJVRy1uSVI2UnPSAeMBQVVfeXFMTWgzLWh5TFpyZjVoeGF6bDdVTjdmUWxrTXI0bVdqRVdzdlh6YVk2X2pCcjFpUHVpLVhHWVVfUHFqMnVkbDFEbk9xdmFqblRrcXlEQzA4eVcwYWFkUmdpZUR0ZEJLQWt4RTgzVmxBLU9XelRYODVUWWRCZGl4U3Q2T2F5QlRSYnVyWlZKSmIyRkdtLUJVS0t1SDFONy02X05KakJhS0hwRy1hZjhIcGJYdjY4OVozeUxRVS1CMzlmb29XSGNsd2ZnamZWZ0hsTllOMEtjOHkwLW9fckJIZkVQY3A2cTQ?oc=5" xr:uid="{9E478DA9-607A-457B-998E-CC77B7F1B4CB}"/>
-    <hyperlink ref="C800" r:id="rId232" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPeFpjbFVIV0lEY3o3aE4wNkh2WklTeTluaWxHN3BKM29xV0lVNWhQRXdlcTBKTUtEd05EMU9tTHVmUnpkVG13U0Z3XzM0ZnJIamVWNV82cnNCMUltOFBraV9rX2J0c1NoeFdVejhQZ2M2N3RUVzM1R09OMGRQSlRnMGo0c3l5WlloTWxWVVFuelRUTHNPdlM5LTQySTZsaXBwWjZyQ0NCRWlEUUFzdGh4YUxMNmo5WklKY3g3eTJXa2NFRzg4Vkp5cFN30gHeAUFVX3lxTE1IbEw2V1NaY2gzTEtGN1B5ME5SOHFlaXdmeGM4X1NTaXlVbXU2eEI4OXBwSmZNSjZWdTlicHR3NDdWQkxBSTN4MTIxZTlia3ZyZ2hMbEdtcHdJcU9qYjFqT0U5TnotakFTeWdzeW1vaktBSWZTYUoxblQ1WUZMQVhGeFBMRHpwQ3Q5Tnk1MUxoS0dBcE9mNUs4c2xheWFZYU1NSHItaUd4ZXczOWVDLUwtSHNKNFkyTUVNdGZELWVLVlZaWC1Ldko4N1BQUXBQZWtmdTB5Z19WVHVRWElNZw?oc=5" xr:uid="{D1DCA179-005D-44AB-B7B8-FF09322FC076}"/>
-    <hyperlink ref="C801" r:id="rId233" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPMWtVa3JzZTNlam1aWDhncE9Jc3lfWC03M1VkMG1wcG9NdnVHODBTc2g3a2NOWmExUnVULWd0UlZtUzdNWHd3Vmg3aWFIcWF0LUNPR0llQ0tsZS11MmRkaE14eW90cFpRLW45dU5HanY3M3RiSkFGYU9rSWZfZ0FOYlBwSFE5eVR2akMxUmEzSnk0SkhLX1JsMXE0TVVxM0VkZVhyNllRQkU0RmR5ZjlyN3pUZjNES3RSN1gtaUkxcUp1LVXSAdcBQVVfeXFMTmU5Smc2VjctclNnZ29iNU1wVjctb1hSRVNsTEtrMzExMERidk5CMHdqZzdRaFNienQ4VnAwcWN0VWNNaS0tclpnMUliZXpNMk5JaWlqT3YwMkNXTmNhcjlyc1hyWGxoVW5VTGJRUW9JajFtb3lZNzlMTDNYWEJOQUNfdWVhTU9NVnotSHlGeFZKRU03V3VnN2x1U3UyaHEzTjRZVEExaVVMNW1RUVNQTEQ3UWMyd0JvSDJhOU5NaGZzQzN5ZEJQU00wRHk3MUFiSUR1NmloSUk?oc=5" xr:uid="{BADA399C-67C3-488E-8FF6-8AC5E0F1B9A8}"/>
-    <hyperlink ref="C959" r:id="rId234" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNbWNCUWtUQWFMQ0o3LS1CYnBfR1A1SnBNTWZzV3lCemhIcnhkRnNPaUIzWkJWV2s0YndiR3hpMXFDNFJIUFhTd1ljd1E3ZHExTkIwbXpWeWYxeERUN2FaT2QwbnV1Q2FuVmJGbXJyMWc2S3hRcDB6WFNseFFlajIyUW51LVp4eUdhdU1XNEtZbWUtcm1oc1A1RXpiOE5YOEZBVjVtcEp4LTA4N0tGSjhxNVJrdk9PMUlpWk1xUHp3?oc=5" xr:uid="{B24A0D2E-CE79-45EE-9035-71A7CC3528C3}"/>
-    <hyperlink ref="C960" r:id="rId235" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxOUDdpNW05dlZrcFpiemd0YTJBSTZSeXh2djZiOHp1Wmw4N0RrdnVlY2hUODYwQVVJS0h3TTJwdWRuZG9lLUR1Nm12ME1XMy12SklCdnBMSVNRSTZJR1R6MUtLT3RjMEpYaGZ0eE1rZHdxWlU4dk82bzJObWpxZmtmTmhOMWYwMVQ3NnNIdDVPaWpOOFNiRHY2SFRFd1BaaGd5c1lfOVNBWDc0eXhfSDhhNlBhM2owQVdnT2V3aGdMYWlXdDlTUXJ4QVJjWFJpSTByS0x3VjVlb3Z5NkFWdWR2Y01XdFQ4a0tWMldvNEF2RdIBgwJBVV95cUxOTnl2VXlaUE52TUlJTmY4U1FBaThFdmxiRGpQV1N0aUgxQ1JNLTNkTUE1N2thMlVheVZhcmh5Z2FQZGR1bTZhUTNVVHNhWV90MU1IMjJseElBV1F4cThQQ05EX2RoRDcxMFc3Mkx4QVZ1Sk43NXd5Q1NSV3FuOVJiWEo3X1dJM1QxT092bFplcjlQZlozM3ZkbE9LcklzNWI3SmFNUjBhbUVURDZqNDN5MFRyUnIzZjdQVmZfMGpfRjFFczJGdTE2WE1Gd3phUTVHSzZSLThwQUl0Nndud3VNRi04YXVfbE53c1JoSHUzS1NYSGtEQ1c5S3FqUi1mQ3hJLWRN?oc=5" xr:uid="{6155CE8F-DA08-4B3D-A8D2-B1BB3ED42594}"/>
-    <hyperlink ref="C961" r:id="rId236" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxNY2V2WjhjaWlISlZfQlBEX2Fxc1podVB3c1c2b29pNDd0YWprRTFBTWtaVy1rZFhBT1NHSXlSMmhhbHFiQWNtR2lGWXBhT3lDN2h2M1pZYzAwaW4zZEdJeUtnYm0xemVoei1HMVY1Yk9wa2w0YjY4Z1lyb295emlqb29lQmNFeHlJYk9jTmxlYUhkTE04UUdfME5oTGhCTjVQVEt0VDBkTVR6WW56a0ZLbHhlbjdfcjdWYXIzcnUtVjE0amdnTXlXYjdUTUN0UTV4VDhRcnV6MVpOZEpCVkdvcGxiV3ZrakE5UVZOZldad3FFZ0FkSFRaRlFMWnNjUdIBkgJBVV95cUxOSnotQzBJVVVadm5oczVScHpJaFljSHVMaGhlNWpaTTMtZXp1UEFRVjFiM2ZCdTBuMV9IVDhXVHptbVFGLTQwUlRUWk9MSFpoY0VHR2E3Sy1fUEdaLWdPVWVoTk9UeEpYSFNhVmZDbDBQb3VnQWpkaWx2enhjUldzazk3ekZ5MjhOYW1fM29VQnp0V2pHUWtLTXV3U2pXRjV4TThVcVRWX3lhdExLZnFYemJtMmlUM3RRbXBXRjdXdER3ZTVlQ0kySVRKNmNIVWxxWVZfY0paYVFhbUZzaVpnTHhZWU11U0dwdmgyblJXOG1xdDdpdjhaeGgxUnZGaXNXX1JOXzRfVzgxaFVEYncwZU5B?oc=5" xr:uid="{051B9AAA-FBD2-4A89-9C8D-8D23A0069D48}"/>
-    <hyperlink ref="C802" r:id="rId237" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxOcUlBQzJtUV9sSFNfQl9nWEliSDJUdDFCQmxkdlJfS29Pd2NpR18wMXdSY25Cam05Q3NvWk96VTRjWE5UOHQ2bmtXYzVxWmtuZ3I0elRQMVBtQW1Mc0RtYlhRcGVOMy1VT3ZjYzVfcWlObi1YczVyUVMzLXJkRnRqZXY1bk9DbjBOdkt3RVR5MFNEZ19WWmxPVU1kcnhHVEdyaXk4bGVVN1IxWXNIZHV0aFYyUdIBuAFBVV95cUxNM1dnRDA2eDFoOWVpUDZ5T004Z1lCUlFKTlVCbERPQTgxa3MtbDFsYUZQc21mTFZGSEkxY19kUFc4SnlTbG92ckxvd2N4aWVBRnVsSkZyR2JOQTRzLWZpaTlubG1NVVNZekppdklCY1I4WjkzRXprTVFPcm1ETmZUb1dTdzM1dnpEdnBqTmJXNEJhZTRYNFMwbzNHc1U0anZmWndiWkxzeFRsQTJxZXlBalZtWVIzcnVD?oc=5" xr:uid="{51030607-678E-4457-80E4-2B81FC69F828}"/>
-    <hyperlink ref="C803" r:id="rId238" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxQZm5LTDBEcHVsV3pMLWd1Q1lCMHJrN2JkTkRlZnZYZjFKYW5yVllacjlqQ1JEeUVsazBiUGwzX0J0VmQtb3hUdHFuNDQ0U3RWRnVnYUIydVhMYzVRbHZGNFVqaElWQnBuN2N1dUtaVDViamRjZWJ3dVRIWVJKLWUtTzZsR3ltWV93M3FjMGNtN1dPS2ZFU215bDVMemdQN29Hd216anZ4Q0lhRnJaSmdkOEY4azJVMHFmLVVHMDFHMTNGa2ZnN0FmdS05RWVSd2hlUTJORVkzUUlXMDExeHA40gHkAUFVX3lxTFBfdE9adUhnVkRoUllmWU9rVU81cHZNSFpFVGZKUE9MS0tMVkhWczV0UkdPZUtiWE04TzVOUHB1WUJsVHJSQ1I4emZLQjFvQ3FTTUNEWXI3T0otR3pYcTNkcFI0UE5rSG93VlE2UHhWYl9SMHJPX0w4VkhvNWNUanNTTHR0UElhejFKQS1hQTlOS05pU0l3QUZmdUw1eFVYVmtIeVVpdkh6Rzlxdk94OFY1ZDdQWG5NRTZoZEpqMno5NE1PeWR6X1IweXRkUTRxcTlKdjgzOVFKX1N5UVJvbnJoaUd2NA?oc=5" xr:uid="{04C189F3-AC7B-47E5-896A-D218D38DA12F}"/>
-    <hyperlink ref="C804" r:id="rId239" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPbEZ1RF9XczZGcDdpVlluWmRqS1RfRHBGYklHVmMxVFdmQ2d5WFJxWkQ4N2R1SWFPYXNPcnY3UUxNNnN6NjNnLVBpX0w2NzNDQzdQZTFYejJmMzc0elh3d0NBaUphUkFLM28xMjA2NHQ3dzlRVEhkSl93U0dQWWg0RjFPUTdKZUpyT2g3RVJqdGVVdVdVYXM3NVpHb1lUbHhGUWtRcVQ3UWljX3JGU055UnBZc00xaENndV9CRzlnNEkxVU3SAcgBQVVfeXFMTjVFT0RtZkxtZHEyYlJkLW90dHRXLXBLa2NFZDFIVjVvZEx5WEpTdWJLZWxPRDRoU3hvTElmaDczOEIwZ0k5UUc0dlZQOGxVOGp4SzE2eFl1SHFTZVIyVXdXOVM0SmRfZ0xLRXY5Rk1LUUF5U2pSZ3pra2tDTEgxX2U3V0tkRWpyS2ZneEpETUkyLTk3Ul9GOXdRQWhoMHVueThDYkl1c2dwXzQzRm9sLUh2Ui0xYlhtZC1wOERONTdoNkZXUWlHWEQ?oc=5" xr:uid="{293965C3-8F21-449C-B079-2A4D06AD2838}"/>
-    <hyperlink ref="C962" r:id="rId240" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxNX013c2hyczg4MVNzdkhRcjM2TENaSUY5R3lNZ3dmYzlmMDF2bFJQdEpISnlkSVl2SlNDbVFyTGp4QWNSTnVXTmdBUnRWQ2tmbWNveTR3M1QxR3g3clRNU2wtWGI2TzFIVjRmMDZ1eFBoT2tQN3F0YlRiUGVWZnhRREJOWmhvLV9NejNjaGdVMDg5MFBZVEZQUVEtZWdhVlBKZlNXWjQxeDM4X1FHYjU2TVpTT3ZFakFTMGVCLVFwTUZrVWfSAcMBQVVfeXFMTllPQzkwcGVKREZjVEVmcUlfU1d6Wk9CR2k2dWs4WFFCZjlEbW1PRDBaVFpXZTU0UUd0MndjaEoxOW85a25RS3JFeE4xcHI4NXl0U3JJRmtQVTFNRkp1OS1DaWhjMXVIbk1DcmZQS09qTXdSSEtqUGU2cHNDaENtU1JDQ3lvNHowS2VUUzJPa1FpWkxlWDh6MzI4akg5WTFnS0FINENENS1KUTV1WUF1anVob2V2VnUtT3o2aThuT0JmNm1v?oc=5" xr:uid="{D12696FD-02FF-4C00-B0EF-2A21E708530A}"/>
-    <hyperlink ref="C805" r:id="rId241" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQOEtFOXB4VkgtVHotV1hMZFRvVUtER2JPNGhiSkJPTWZrb1FjbHdXVXYzN0lTSTVJMkxSay04ZnEzdTkzT3RQTzhZRGpOQmxGX2tHbzhLMHIxWjhBemNwcmJ2MnNuN2t5eVRXcndiTEd6Y243ZFRjSmhkNnJ3Wi04T0pEUl9EOGRsOGJJd2hmRThQeU1mbVlHNjFoMnJVXzJv?oc=5" xr:uid="{C2CC0CEF-240C-4722-8289-CC74B10ADF1B}"/>
-    <hyperlink ref="C806" r:id="rId242" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxPcG5nV2tlNDBKZW5FZEdVX0RUWEprYl9RYWdzcVdOWC1HakNucmZtOFp4MlVmQ1l5eVJMVUxhTnZqTk9aUUtBREMwMG0yZzB6UXJMUnI4cEpxZmdOMVB5VXBOS1ZwbVBaRFR3WEgzRlNvSTZtM0lwZnZVM2pjQUN4WWl4WEdwRElHVzk3NnNTbTg0VlJxRndjeS0xcFRQZktrUlE?oc=5" xr:uid="{6AF1F0EE-D451-44F7-8AA9-778E1B663453}"/>
-    <hyperlink ref="C807" r:id="rId243" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPMXRoVFZYS3JkaFJaYU0zRENJUFVaUU15Zk5DYWpnbTU5VHFEVUFrMzU2UzJ1MkxiSXhSNnUzTnp3c0hyU0NnWXN5NFB0NVhYMGRmLXk2dEI3LWFyaW83MmJaTmpzWnRSbWRtM2RsbDhSVFRmLThxVFpGend0Vi01TFQwMjBGcmltbDAtN1Z0TksyVjFydUpIRGJnMG54ZDhzY2lWc2RTYXlCRTJzZU55YWtVTlFNTXBBd1NwSVFfVzFKQng0UzNCS1NHME1VTlZnMDJwU2p2SVVhWWNw?oc=5" xr:uid="{0FD56D63-AFEB-47FA-AEA1-AE246E3E2A5F}"/>
-    <hyperlink ref="C808" r:id="rId244" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNRnNPVDVvcUlQMGhYQmxVYXpRSEtrdjFqT2pUdjVHWXJnVWlvUDY5MHhxcU5feUlZdTlJME9ncVlDbUF5aEtKSGpoS3lHS21IeDdkbjRJY0JLSlpPNkJZNlhFZ2V4TDRvbHdmMjNRbWdUQXBOYkprVkwzenJJc1BFV2dXenFJdlRVak9hVF9zOTU2Q0dGN2QxdEh4UVZDcXNFSllwX3J5aVl6ZklGbUs1NHJNckRZNW1vZk5CRg?oc=5" xr:uid="{82D65A3B-52E1-4CEC-B615-09DFA6FAEB07}"/>
-    <hyperlink ref="C809" r:id="rId245" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNZEJSZl9ONU4xT0plMUFIVHNQSFZSZmZOdXp5d19WVlZFalh5LU1tX1liUnBOX19ySjVLVnhJeVRvWlRsRjF2WVFBSUI4ODZNMWRtcmh0LXNIUHY3ZDgtZjdVNXdSb3Z4d2k5elJtUlNyYWdMbmRPNnUzekQyYU9NaDJSbFJLZWJuUXF3aFEwSEd6T1ZzUWYwa0ppeVphcE5uYzBFZGpjZXBKbUxVUVJoMDF4R0phUzRWMnJTcUE1Zw?oc=5" xr:uid="{E2516E7B-D064-45EE-BB70-D97202727354}"/>
+    <hyperlink ref="C909" r:id="rId1" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxObnZRNkUwblU0NXQ5REVmX0hHUmJpTnpobzVUTmhhaHFYLWRfQ2hTMVJhNXQyMkhFMTFOWWdsaG54eGJTUEtvT3BLdEV1VWVfdmdqM1hyMGxjNDdfM2JaWi13UUswZGNTazd2a2VwNVg5YUUxVTJSNUduMTFZc2U2OE15LUZtSGpnQTMxOUpBSzhFN2JnOC1GOVR3d3FZRTZvSzRQZTAxUkdqd1VranNMa3V4TjdYZGo0SW1qeHZkMFZjVXJMdkJKcVE5MlRYTTlZMWNzc21EZmx2TVdudHFndVh0Y2FibWtiS2VaRkp30gGIAkFVX3lxTE5QNnJnMHYxMzYtTVgwY3Q3dGVnOTBleFlhcmhsQXFyWHYxc2twRG9VbjNDUWdIOTFJRGNvVGtYWkowVkNjNGNLY21odU9aQXNYYWxzX2phQmdMbFFGRXdjaWdDd0tPMDhOQnNpZGlNZC1XVUdsbmRzcW9rT1lKQlZDU0wwM3NjTTdmdEZuZkhadGFTUGNGQkJCb1VOMFFJTmVLQ1RNZ2VOSG1zRlRLMDlHbUJzZUtyX2U4SE4tYzB0SkIzV3lYVXpUVVQ4cV95ZlZ3Ykt0N3BreldFR09FNXNxdDRjem5jdjRzdGQwRDluRmx4bERReTJLMC1uY3pUOEN5R3QyN2M3YQ?oc=5" xr:uid="{EF36FCB2-2689-4592-97C0-C191D04B8F4F}"/>
+    <hyperlink ref="C1000" r:id="rId2" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxNN3JhUE9yTW42S1Q1aWhWMHRldlNFbVoyM1JaQkRqT2FDY3dOZFJYOHE0a3VRUlI2dHRMc1V1RlQ4dXY2clNRaUVvUTFNMjhiNi15RjltV3EtMHBWaHIyRGo3bUpNUHRTT1JSZDk5V0I5b1dzSFdPbFVDN21JQ2k2NFozald4WThBNFFFOWJmVzFSR3FIbm5MM0NDMlNYdUtpUW1TS0pUOGl5NE9NTi1UTEJFWk5aVGxjb2U1Q0lGQ25CRkRrUTVsNXFqd9IB3wFBVV95cUxQNXJyN1FxRHY2OTN5UHh3VnlxYkpuUnJwN003eGdYTDZkOUd0RHpYNm15cWk2TnRPLUdFYTBDNkprcXJ2czVQNXd4eDR5SlI4MVdxaDNGSUxELXgxQ1VWQWNzc1ZyOGwwTDZ4Rk5yMlR3dGNIVDcydTFKWExKU0xxSno5RHV0SzF2NlByMTFDajI3TXExSjZ6ZE1odFVReXc4cnZHVW5UU0hYbVEtSFlEdE1kdFZic0NycmZFNUVfZ2xfNFZxa29zdXBlX01INGNyM0RzUDd1ZFN3YzVHVXNB?oc=5" xr:uid="{CE029E1E-64BB-42FA-97A7-A2BB77CFFBB4}"/>
+    <hyperlink ref="C1001" r:id="rId3" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxNNjI5bExtczdqUUwzc01sdlFwZ2NwS0tSVjJSdmZGeUxIWGxJOWc3VGExZHBVNjN3OUozTUl1ZWUxRllLNmlzNmxseGp2QjBGWWROT1lVQ19WUlc2TnJ3RFJCakNBRGQtbF9sb0hFX1ZIOVRfR3BLOFVlcEV6UXlOVEp3MUpmR3hKdEFLOG5XVzliVndXdWxoci1JbkZGMWlpOHlkcVF4TklYOVVzX2Q1QW83SjVVaG5mSzI3cnRDNmNfd2lES3BZcHFIQ01LVzhlMmFXVmgwUUJrMEdQWkJmVmtFY0tVVDREcE0yV3k3cDVSWVhTRWRjek1nMWp1TzN1ZXBjX2MtOF8zWVFMVGhXSmUyUdIBrgJBVV95cUxOLU8wNFk5NXh0RG1hM2wtbEQtTlhyaXA2cjVDeGt0OG1GU3pEY0RpckZocVZ3OXd5eUZKQXZzLUtfbk01VlZfMGtfVGRIMVdER0NXT292bnBPUDI4cW1zNlE2czkzVEZvY1U0c1NlVmJuaENWUEJSeFFxUUFudFdjVkRySDV3d3p0NTRFa2EzelMzSEN6Tmo5blA5UkgwUFNNa1VGaEd4WGhYbng4ZjZ4ZEszUVQ2T0tTVEsyT0ZYTDFwdkhRUXZacE1ZczBkMkM4aklYRUNiQzhlRnpxYXY3YTZzQ2NUdjB4b1FKcWkxNXBjd1FkN3R3YXJfcEd3eHJaWXJ2X1U1Y2dDZU1BNW9HRkhpT3VTQV9ZeklXSW1qX3l2R0NEN0pkNnhrVUNkdw?oc=5" xr:uid="{C0295A1F-F802-4759-92BF-424A64489EDC}"/>
+    <hyperlink ref="C910" r:id="rId4" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxQbnU0clJ6azFyVkZuY3VCa0M0clpTeFRZdnhPdU43VzNXU2o0dW9XS1labXBlZXVlcW1sQnlNb1pmZGVSUTI2NE4xTWd0VUxmM3NlN2xhajV0VGlZUXpXczBtYVVjOXlDZGdES08yUmhLSEZGNFNrWHU2czRTaEloSjJFcnNyQmUzd0RCeklNNVk3WjFJSEpnTzJyNnRHd0VVWDdBQy1DYUlKYW4yZy1sVWhRZnJJQ1JIQjY1TnAwTUlCck8tcjZjbzdydzU4bWR4eUd4M1ROTk9iZ3B1VHRFbXRSa2pmbmVmQ2pOZTVFa0UtYUNlc1hqUk0xUHhiajjSAZoCQVVfeXFMTjV1RnBLOUVKRl9wZ3hHYTJVRGMwQkpFbVhwRDRaOXhZSnlGbGhnTjdJZi1uMVZXMEhEMzF2OElKbTNMamtTdzZhVE5UdEFZYlNKTHB1Z0E3bVhkQVFuNXFhRWVPTFNwU2daVDkyeUZJYUxhb0QyaTJ5UmxQRHhhVE9yQWtSeUxzNXg0MXVUX3o2VVBRTjE0cldmYkdBZGwtYUxZcGZvVVhtWkxVTUJlS25qSFU1aTJWY1JYUHNJeDd3OXlkRmttdExMNlh5MjlPMjJRdnpQbDEyMjhHcDVYSDZPWWdwOXhsQXRiRUx6S2F4azllbkZRWkF4TkxXU1A0cFhHLVU5Zm5lV3pHTk5taVNsdF9BOUlSbkNn?oc=5" xr:uid="{1BC6124E-0BAF-4976-8042-A1FF93534973}"/>
+    <hyperlink ref="C911" r:id="rId5" display="https://news.google.com/rss/articles/CBMipAJBVV95cUxNc2NsdTlkeVVtNHNCbGR6Ti1vc1lvLXBhMW1uMVgwNTAxZ0NrQzJPcVBPbmE2dDNYc3NjZVBrVFZ1dFJGZm9aNmNPclVDU1BMUXBGa0lvZmFoZ29aNUg1UFpuVFZLblRCeVZXMGVSNVB3amgyN0lkNU1GanJfNkhxaUFfVndMLWNERGJlQ3cxTGU0Z0c2NVhuSHVFaW5kcl9lci1FU1ZlXzE5OTczaXpFcEtVWHJLVHRHNnV2dVg2Ny1xcFU3MkhzZURfVThpazh3LUp2ZGVkakNwRnpwRnpkYzVOQm1fbG45TnZldEdaRVhiUEM3bkhiSV96MXVmYjdLdmN3RXhqY2ZvckJUUUVmYkhEVDZGdmd1LTZqQ0t6SHRvX25N0gG_AkFVX3lxTFByNjFPekpPdjJCRGs0LXdRTmo5dkZxWWFsY01xdjRCaFduNXhCbVlWOUJjMmpYYURGbHp0QlZ6dVdoc0xIOW5ES2VnT3dPS1lFUGdyV2tYeW5RbW5Va1haVWpoOXA5U09qd3FUeHVtaGM5NkNCN3IxUmNLTmZ2YVJGLXlQVFdCaHl6bHQtdU1yeXdiUzNubjNYenQ4Uzk0MGNQQWFpeWFkejR0UnBneEp4Y2lHaHNNWF92eXdjTzZncmFTTzRUcjNkSXVHSDd0N3VGcjVldWRaMFhmYVJmREFDNHNnMkl1aWhOcDlOTkJiRjNSeDNNWi1UWS1nVlZxWVNSMEx5cElkSDZxMG9lZjB4aFN3T2hYNWh2U0RzU1IwLTJ4QTRMeUJNY3pzMktvVWcwaEhFQlMxWkl3SW9wTlk?oc=5" xr:uid="{EDB399FC-8132-4913-B57C-4ACD85F102CA}"/>
+    <hyperlink ref="C912" r:id="rId6" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNVWdtUWpJR1RJRjNBNmNXMjBpWVA4MjBDMzdMNVJTWjFmNTE4RVctRmlHNWR3ZjlDeGdwdW5YNmVTbGEwRW1YRkE4ZkFGSTcyTDNXRHh3a1hubUhpQ05Vc2pXU1MtWmVBZGR4clY0ZkhMMkd3cFhlRG16blFPWWpaLUpibEZyRURuZlhuRHRvaHlBdnl4TkRoZ0FQUktMQmlQamRla21SdmNJbFFIdFdjR25lb0lVWEMwTEZ2aGpn?oc=5" xr:uid="{F0351CD3-C294-4C28-A4F2-D42BFB5175DE}"/>
+    <hyperlink ref="C933" r:id="rId7" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxNOFVqU3RsWWpBSHBpSkMtckwwR0RwUWtiQUtidGpzZEdYZ0o4QUZDTlNMSHhIdkh2LW9sUWdpMGV3a3VkNzhLLUZ0ZXZPV1FzdVAyUUhSYWVwMUd6bHh3aFFEYkw1NG9KN3BFdi1DWW5qaEdfU1BvZEttenRtS1FUZlkxNkhfelhfNVMtQTlhalp3VGVLQjJoRW90MENOTDlhM3p1QXp3dGxJdVh3angxNi1NZGI1ZXFxUk1vY1lFanprcUVNZ1FLWmM2czhDQlpsV25XOHItV2hlMUNpRGVBYWFDUHUxOXlYMzczU2FSR0phYU5HNW9OakFza015dE9IVjFPQ2lZR0HSAZwCQVVfeXFMTnNieWpjM0JfX2hiZzl5QTNxYldhNXhYYU84Vld6M2xqZzV5YzYzcWRNZDlzb2FNVVVzUVByNmJ3MmZqWnNIakNlZlhuRU53MTY5OExjamY4MXN4SHVLeXNvVGdjNzJ3M0QyQ3FBNmJHLVkzbjJZTl9XOVdtRVFySHd3TlRnUExFWG1fTFoyYWEwanVWT2pic1pCZHZwM1NVdFJ4cVBDQlMxUS1EYnRpNUdrYXNxSjRlWk5vbmcwUWZlU19PU2RFRWNwTlZ5UVZucFNOUUw4R1Vxb3AxVE95UWNpUzZ4WVlKeDJwMGhLb01OUl9fU0lUMEM0cExUWlpvSmpLS0d0b0JDMGlfZTJkcG9NU3RhMWZYYW4wenM?oc=5" xr:uid="{124AF051-41D5-407E-B482-8FABD4367A97}"/>
+    <hyperlink ref="C1002" r:id="rId8" display="https://news.google.com/rss/articles/CBMid0FVX3lxTE9YazBta0FHRl96N2lOTE1tRkhvUVdJMUM3bWxKM216YmtrMXVrdG9yNGNqVl9vSm0tOFRSMzJzV1RNSG9ETG5tNHFkcFlreUFHZWU4cWJkYi1Pb0JCb2pSc202NEJvdkx1T2RsMWZIejhGY2lXMU530gGLAUFVX3lxTFBIRmVmWVRUSlhsUlpZQ1VRYWltQTVYWFNtWmI4V3NEdm9zdTNoODVyZFA0QVdpODEzU0F1Y1lQVjRScWRjX1I0WW85Um5STjVZMU5UdmstbUlRV0NGRnZ0eUJ3RHlYdUNqaEJ1QjhsWXNZMGdEU1FJUU80cmc4aU92dC02MkRwaUt3M0E?oc=5" xr:uid="{7C276986-1C14-4CAB-8356-53BFA5DB50ED}"/>
+    <hyperlink ref="C946" r:id="rId9" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxNZ1ktTlJsMEtZQVdKTXlubWhobFFBU2tuX2ZabWtFZHpIUkoydGF0aGJnRDRxZXh3OW5HaTNSNm91Um5tM0ZTZFN3UjhqNE1zOGthaVZJNlVqd1huLXI1ODdhYWFxcnF3NDJ3RFpxRGduWHdiTk5EZFloUzZDSWlYWVN5SE5kS1psMVlvY0w2M2E3Rll3ZmR4VExyOWFpTVY0eVZrUUtFWnNDQzNrUmdXQU9vVjVsemxEU2t6YWNwTnBtNGdEVlkzTVVGRms1aWZidDYzbzJ6SVNkRm5sZENhVUJnaFlpZ1g0Ui1mcVJ4bXlXSmhzU3FvU0ZkR0M1ZjVwRC0xMUFPV0xjeW5kMGdRRdIBqwJBVV95cUxPSmctTjNweExyZl8wdHh4Q2dsQWwzdl8zZFUzc01CdG5Cc3c1VlZQQzhVZ2FyY2FkSG5kNl9NUGZjcU4xaVVwX2ZHRmlJX0xUNWFJcWFtUU5sTzR2VDVuYXVydFpJRHZ0X21hRk95c3Z3QTJ0SGdyNkRob0xPaU5rNVg0aUx6LWN5VFBDQUxwbEhLSzg3a0t3bmwzbWtJVktFYmdERVI5V2RBSjlCTFQxS3M3XzVPT0hsSE5aQmQ2bzh1cFJNRUZGeGZUYXpRX0ttazlFYlNrQnRmWjd3SGNycFl0Vk91YTJWZDNGNGZYVHkxU1lCVVZ6ODM1V2NDMXhQcThXV0NZZUJveXp3d3pWbmYta2RUMU9ITGZCdHlPV0tHVmJwaGN6ZkxPSQ?oc=5" xr:uid="{1AEC7D87-BEB9-45C6-8C8A-82F93C5D0101}"/>
+    <hyperlink ref="C918" r:id="rId10" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxOUzRmcVZQTE80X0VqcHlqV0lrMUloRl9QYUJLRE9meE41QWxQaW92RnJsMTN6aWpoZGZ3SU9nOFRtM2pVUFluSG5kVl9KTEJ1LTVrQ19MeDJCYTNFNWIzemxEUm43Mlp1Tm1zVFJPcEdnY05XcDkzbklxTUZFV3hFTkg2WGhHOEpMWnhNbEpUbXdYZDBqLTNUeW96elE5UGpPV1BUSGY4aUR6RjDSAbABQVVfeXFMTmZqYVZlQ1Jma3NtZGVBcGozTzZldGZ4eHRxTFdib3Z0eTNFQjMxV2hoQjJBaDl3SnI2eGtIaVY1NzI1UEhjUFBka2ZrODM0eWNMYkdpYUtKWnJIX3hZYlFWMmNVczNDNGw4T29jQU5KM1pVQTJxbDl6MmRuclFMT1dnc0dhTjdOZU5RQ2Q5ZUlrb2hyX1NuTnlVZTFtSndKLVFFUkJrRnN0eWdZdjFaNno?oc=5" xr:uid="{7C9D02D0-1CBD-4FF4-9A4C-93EB064C2848}"/>
+    <hyperlink ref="C934" r:id="rId11" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxNUThPY3FHTGg3Tnl4SU1wODZXOWE5WG9kcUpuajZ4Vm9HNC1BMG1qQ3BIUE5jdUxUV3lfUU45ZkVRZ3V2Qzk4MVV3bEtyeXZsTDM2dGpHY3ZQaVpwWS1rOVpVQjNtTnhIRk5pZWdvYVc2bnJNbTlYQzVQNUY2aXlEVktQYkJHcFVEYlo2Y2RWSHFva1JsN2pTR0ZkOUQ3ajR1MVE?oc=5" xr:uid="{4D86B2D4-9312-4395-8558-D9A2A7A27627}"/>
+    <hyperlink ref="C935" r:id="rId12" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxPN1pOTk9yWXR6eDMtVHBfM2NtVURtd1pmYU1xVjVCM1JlS2dhLU5QZlZJWlMyMlNIZ2JqWGpuNkNFWmkyUW55SllSMFRMSF9jbkR2ZmZVMHExMUdQX0dYMkdSUGxjZnN6SVJSQmdsWW5RZ3hyQ2Rka2tDUUpZM2Y0TjVqdjRiZ3ZIWFhUZ2ZDYVBHSTJndDdjYUt6MXg0WkZudzlhczBPcWs3WFo1NXN1ZHJCQnFFQW05OGN6VzZEQzZjY2trYnRwTm9XVE1rbEZ3aG1TYnJDM1drcnBpSFlyYmNzMFMtVF9HLVBDUG9xTUN0a0JPczV1V0J1a2hRZGVaVzNF0gGIAkFVX3lxTE9FYkxaUmRlZTZpTVJLcmFjQmFlUGJ2U20xbm53QjJ1SS12VFVjUThIN1cwNGh2U3pxVHJ5WGtVY0NOUWFTY0tNZzUzcDh4TnVuVnl0MjBoSDF5Wl9UUFlBcng3QV9QdVVwak5nUEJNRDRuQ3A4N2E1SE0tYXpBRFVGcnZ2Szc2c0t1TTZyc1liZk5kSGVHMjJBQVE4QV9UVDN2OWdUM0huOTJZakJPZWlhOUhybjdlV1RyNExNcG9xWUJZLV9zd0FsU0xiU29OaVppZUFxenk2UDVDd0UwWk9CNnRHNjdQakcxa2hEazFaU29zdXZ6eXpiZVdsY3J6Z194R2FHWWY4eQ?oc=5" xr:uid="{49C946F6-B711-41BC-9786-323B923FFE47}"/>
+    <hyperlink ref="C936" r:id="rId13" display="https://news.google.com/rss/articles/CBMitAJBVV95cUxPalY1Z2JKRHk2akw2eENhemx3aW8tMGdDV3JKTVpoWmR2LThOaW1GSXA4YWVWaW5ReGhfb054NHFZSHpUb2cwcTJoS3dOWVRzT2hGRkV3RjI4OTJKSHcxY2p5cDNDM21pUkJIQi1vNWE4Y3h2eUp0anBwdTRxUlh2REV3TlE5LW9oNXJHVWxwMmhLVDkwWm5UaWxqUkNCY0d5THlNY2p4MTQ0RTZFS3hSTHR2QkRnLVQ3aUZodmNVLVAtSEp6MWtlMlg0ZE50YTlNcmJBdWxQSWFZNmdTMVBmcjFTb045NTRneWhERll3MnNBQmNXekFRa25pUXFtNTlTcDgyWGtWM1JMcmRndkRTZm5USzFYR2RoN1JaTTlnVWNKVVMtWlBxWVY0Tm5iaW9TUzhfdNIBugJBVV95cUxQZnFOZmlYenZwYkFDWmlqckxIT2E1VEQtTm5vZ2hBQXBDQ1RTS1FtSk9JazNMbWZfQWZSUHMyWnBQVTI0QnJOb1ZsR3JuLXNtNzhITEtnMmxndlYyRURqajNKeWlsMjJ3U2dUVFJzdGhNN2duaUx3dTNkX1Q5TEZhdTZfdXhmRzJfS1R2akFjbUFnTUtqNlNVRXpGWkRnZDc5eEx1RG9LT0Zod0k1b3dGcG5sYWkwaGN5d3FOMWhWZVM2aFRROXRETVNOeTJIOVBJbE9fbzc3Nk9JM3BQOHpLT2NLb1Z6dmJaTmJtdWcyM2hTTURNaFNrcVUzTkhxcTR1N3poeFZ4LTF5YzM4ekV1TXlnZExhWnlJd3JqOXVaZUFFVTdZajg0a3Q5RGhKbkc2NnpBOURIcDlmZw?oc=5" xr:uid="{286897E2-3696-4758-837A-537A38B7C0B9}"/>
+    <hyperlink ref="C937" r:id="rId14" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxQUUs3UHU5MTZMZ2VsVWtnQTg5cnVXRFBodkJ0ci0tbFJLeDNfektENGlfb1NDNmNtd013cjF6TEJrbzVGbGFqUnRZTlRPMkw3a3p2WE4tRmdpQWN2MzBMZjQwNlJjN1dsQjVSNjZtanVVOEE1LTZBc0RVV1N3N2lraWpoU1EyODRabU9oNmJ1M1JUUWNUZElZYTQ5dHdXRF9zX2RFR2laRnU0ZERnYXRjekZ6M211X3pIMHdxeU9NZ3RySlpRMWViZTl2dWhoQ1Z1eEgxN0VEZktMYzMtZm9VSWdHUUlYdE5fRnpDWkE3MGotREswWXfSAfsBQVVfeXFMUHV2NmdvMTNhSzlQLWtaRllFaURaNExpQ0J6UHc2dDg5b0VZOEdWbUM3NE1tNG9hVWJIR0dnSElRUTFNU09BOGdlY3RKcG1DeDA5c1ZmUTBJYU5TNzBQcjlsN2dFdlZLenBuR2RvZDd3Wi02QUNDUXQzOFRoUTdoenhQdlRhNVlCdTFSSWJwcjBjTldheDJuWGc5SnR3ekJxQWUycGVaVzhzbmM4bVR0aHhHUWNuTGhNUHdHVEtZaEtBQkN5Y0hfekJYanVMQkxScHZ6SXpKVFNIYnVkZWY4dlhlZnR5aDBsNWpKMkxiNFJCenZ6NXBvWmo4SVE?oc=5" xr:uid="{E938BDC9-A076-4569-8A2F-00373EA8ACDA}"/>
+    <hyperlink ref="C938" r:id="rId15" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPYnluUEk5SkktcTd2NzNUNk5DR3UtT3JGNWJrbXFuVnFkVTdxc0VENkhxZzZnNl9fRVQ4S0h6cktZX3ZfU2NFXzNHclNFSGdvWHJfX1NUVzV5QmhvdzhLY1ZXYmFqVVZjRW5QR29zWDFKVHZhbFNvX0dIaWhsanhKOFNHMG1vRURqckF0Y3B1WlozenoxUC1Eb0czeHowbk1FMHpuS0VLaW5lTHNrbFRHcmFHZnlkSFJ6NkYtamM4bWsyYl9yVjZlOXdOVEp4Z1FNRHJQX1NrTTg4N19p0gHiAUFVX3lxTE9uOFRGekVuMlE2ZnF3RE1qWXdQZV9pLTMzaVdjOTVOVDBVbXpXSjdqREZTektsMDFrWm5EM2NGT2R4b0hjRGkzcjFIb0N1Qnd0NTlnVV9iTURUUXJselFwWnBDZThjY3NQeTA0NjItZURPWlRrMFFJQmlXUnpoM3F1dWs0bGdUWVp1YlBsT0JSOE5id0JpTVJFWXRfMDdJdVlBZDIzNkdxYUhUejd2cmktWXdBdzEtMnlDdmFxbW1qbm9YV2lVWU56eTdLUWY0Ti1sam1TNTFOR2VkZ1BuZWRVVUE?oc=5" xr:uid="{89DA114E-0043-4164-879C-03CE0412BEBE}"/>
+    <hyperlink ref="C939" r:id="rId16" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxQVl9YX3NlenhEeHlabkphbE5laXpSbHI1X1VXTjNEOEw2alN4TEZFOFI4RFdNd2psek5JMlRsYURKTEtGdjZoU19sM25xVzZpYmJBMWtPbmtUSlBGczM4alVzNVNkV2ZITEUwd3c4UWlCbk1lQW5SQU5uRER2S2t3YVFTRVREazdHTGE3d1VfRDhPT1g0alFjYlBwUTBfRnpfSGVMSUhhUXlZZlA4cXVDV21sSDh0c1ZWRUHSAc4BQVVfeXFMT3dKVTAxSWQ5YnU5WHhRcUdRQk9RcTB5dUlqZXZCVmxUWWppYzFvR2czSFN4ZDBBbEduZC10NzB1TGF1M1hHdktubW1sbTA1aC1VRjBmaGFPajFBNkk2OWw5a1BDanpKcjJZemM2NG1aVThKV29rV1FnaDJabWp5eXdTbXhVbWc0TmVmUng2WmtjVW9SblJ5RGNqaFQzRzRRMEpGVENQbFlZNjFiWm1UajBqa2M3bkRBOERqMzhlbktJdDBaZno0bFcwbm1QT1E?oc=5" xr:uid="{EAA4B1EB-046D-4C20-95B6-6E74D25CBB37}"/>
+    <hyperlink ref="C940" r:id="rId17" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxQRnJtUkVTYkdJNVBJX3VFZGdTOFBWMTFXRnFZSFFCSG04SHhxYUZYMjBxUlJYdEM3OE1yTTZsVTl3YzhPM3hrdnZtUlJkTGtaODZyVUUtbkw4QkdQdWF5TGhpN1NjWklwb2t0eTMzWGE4ajVHeUpPZkxBNFlmejdWZXFadWJEZDVXM3ZFcGpDWDF6ZllpcURSZEhyS0RBYmxxRWpiUGVud2tBNlJMd0k00gHKAUFVX3lxTFBTSGp1TERCTi02blAyVDdvVTk4aUc4ZFV5THphLWtpaWRHV09JWmRKakVLRU84YlNTdGRmb3RLUzI1eS14cWtZWF84Q1VzTHhoZEl4OWpHX05rUWU4N0hRNGdKT01RMDJKX0VuVjZyZXFaa1FxYU1OdktXXy1yejhwVy1DWHJYQWxaTzBLRTV4ckY3LWZZYThvNGw1c2ZNZ29EVFgydEdkZXhvZnFsemdlUHhYbGhmdE9Cd3VMaWxuMWsxdW9YSGk5UUE?oc=5" xr:uid="{D590734D-B501-4AFE-B8DF-4CDE587C7744}"/>
+    <hyperlink ref="C941" r:id="rId18" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxNMmhvNW1RSFBxWDRxZFhMYXpSc2p6bVhvWnllaHc5NnFrMklObGNYRXJ1c05wMzlWdFdEVUh5aHFYWHRZelVqWUFGX09USHRPdHBvUm1LQjJla0FSellkckVUbVVtRXlVbzI2d0dfcU9aLXRuZkxkb0tMdXYtdWFTVWhvNHh3VklKVVJqQWtwM2ZkZjB2SmViOEkxdW1kME9lamVqV1BVbm9CTlRRbW1RM201QW1fLW9yTlJrM1BHZi1EZw?oc=5" xr:uid="{AB60DE3F-A135-48ED-8E1F-A6C2D28F56F5}"/>
+    <hyperlink ref="C1009" r:id="rId19" display="https://news.google.com/rss/articles/CBMijAFBVV95cUxOZkJYSGNXbnZxRUxxS2FqNXNUN3A0aUF2SWNKNDJueVl3OHhXXzdCWHRSNmRCTWtCQ0ZXRHpnek5BY3NlMmdrOHQ1OE5iMGtCVjY4bjR1V1R2UUhrSGI5aHk3QzNNR3o2bG1XazIzYVRHYTlLYU55UjMyUlhSbEpWNUlaUEppVVZZWkFVRNIBoAFBVV95cUxQZkQ2N3hDa3FtZjBMWm5DSWladjVaVXZsaGZXNjJ4Wnd4UURNYUdncy0xbThUVk5hUmJVRjhxZUJhV2FKenZkMjVoZlU5bUV0QmtzekhDV1FBLVpyRGJMTVQ4Zy05YXhCMmNIMnI3NmR5STAtUjVaZzNLdmc0MmQtTnRBSmxuN2N4T0tQeGh2dFdfb0htY3czNmNCdUNrcG53?oc=5" xr:uid="{463026C1-3E95-414B-A5EC-E09E69109E57}"/>
+    <hyperlink ref="C942" r:id="rId20" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxQcmlFX0ZZYi02QjVHUExpR2xidjhZV25wM2NvNDhyZHpmVWlQWTBqd2dha19UZ0RiXzJhSk15ODBFWmZOTTNrbmdRQms3QkNmUnAwY1RYU3VDREZnc2t2dFY2ZzdsSHNVb00xb3hwRnd2eHg0TVJjOEJkOVFmZFo4S1llVGprb05sU1lSOUpoSU96SFZyYnpaWF9vWHdPNUU5REJlU3puN0xUZFFaVUlDRjMtNkFMcEZCQnN5STJXZHBqUExoUnBKOWhHM1pfdDhFd2N6QzNvVDdvVFllcW4tY2U2SFlDTXU40gHoAUFVX3lxTFByaUVfRlliLTZCNUdQTGlHbGJ2OFlXbnAzY280OHJkemZVaVBZMGp3Z2FrX1RnRGJfMmFKTXk4MEVaZk5NM2tuZ1FCazdCQ2ZScDBjVFhTdUNERmdza3Z0VjZnN2xIc1VvTTFveHBGd3Z4eDRNUmM4QmQ5UWZkWjhLWWVUamtvTmxTWVI5SmhJT3pIVnJielpYX29Yd081RTlEQmVTem43TFRkUVpVSUNGMy02QUxwRkJCc3lJMldkcGpQTGhScEo5aEczWl90OEV3Y3pDM29UN29UWWVxbi1jZTZIWUNNdTg?oc=5" xr:uid="{F58FF590-E78F-4B5D-9416-932FB4249766}"/>
+    <hyperlink ref="C943" r:id="rId21" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPWGtEOFA3NE5BZ1lYbHBIeUZFUkVBNWs4eUM2eGt3SWdBVUVCdXNPYmVnZW1PdHRJLUVjNkZIVDVjcEhYdTI5cnN6ZnZjbE5ITV9xSGZqa1VuXzNkOV9lUEl2azlBODE4MmVWUVBTeVQtRE96dGVNdUtHbWFuSGxiQjBMSHVPd1pIaDFvQjJTeGxDdzNoWU9uRm9Yb2NLdlpFQWF1ZE01ZjA?oc=5" xr:uid="{9687150D-5324-44F5-BE06-8E3BF2D83700}"/>
+    <hyperlink ref="C944" r:id="rId22" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPZ3NJWXozbXJvYkxPSVVjVU1fcXk3LVQxLTlZTk9nS2h2dmxIaC1GeUR2c0p6NnlVNjFtcXVVRU1FV05aaXJWQnVSalFHcWd0T2taSHAxYUUxS05CSXNxcGg0WDlMVzBzam0wczc4TU1PUTlDdG9pbEd3WG9VbnBMTURTU2VGZ1pHMUotQUdvQlo3NWp4anlKQS1oMW1SblBYNTZ1SnJlcFItaHBxdXNPaVZzQjZYVmY4YU1fZ01aSTJVcTd1MmfSAcYBQVVfeXFMTVRlZldRUTVxLUFsekt0MDA1M3VSMnR1MmNKcHJ0cEdjNDJSanRyUFkxWXozUjRlamhHR0stbkl4cG42bG5TaDRKRXZ3MXdyMlNValVXU2hyNEVNQXFGUWhjNjJ3VDlqVXpmTjlzYVhOdnpZdHU1MUZpMjFjNC1aMXo3TGpBUnhrN3JHdkpkVEVNVkhrQXAxUHRiRzdHd2hRTWRIRV9xdmVaekFMWGRvM2c0aWpPTWdSa1dZMTZDWU9UajhuenFR?oc=5" xr:uid="{DCF94845-352D-4BED-AC0C-C973EAFA0D7B}"/>
+    <hyperlink ref="C773" r:id="rId23" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOZVNlcDRpMkZOSTdUdDQzWVVVbzFpV2lXbUJLNC1XRDh3dUlibnlqSTR1OWstVXFlX2pVWEx4R29JQk1KLV9VVXNiY2owdDJydVhFaVJDQ2t1eEcyZlU1RHdhZ3dWX1dYRVVUQV9QZ2I4ZlZwXzdBenJCZHFacVJZVmo3MlJPQU8yZnlOS3JxdVE5WTRHOUVsNDRSSzZtM1dFZFNkVjVLNzQ1MVc5dnhaVFN1ZXBpVkZZNnZ4bldB0gHDAUFVX3lxTE01M1lWczNKc3lPVVZnUnIzTXlrWEhiRVR4ZXIxWnQ4RkZpVXAyUENralMtaDAxMnEyZmpPZDdFWUpTcE53LVpJa0tFNC1wcmJYN0NfTEdXWFhpSmdRRzI4NFpId3BJT2VZSk5fYjU5Vkp1OHp1MWRIY2dGLUx6dkNnQnJpeEpFTXBtS0pySkRWVGd2aFY5TlhOMFdKM1k1ekcyQ0lEeHZiMk91NU9rdGZtOGFDQTBpSEkyX0hWMGRENTAzVQ?oc=5" xr:uid="{0612C6CE-3FB0-4298-A1CF-D79391A79B95}"/>
+    <hyperlink ref="C774" r:id="rId24" display="https://news.google.com/rss/articles/CBMilAJBVV95cUxQdkVuSGhzOUl3TUhPb2JmRHZvUVBKVWdscDBkSFdxSlBDLVRUc1JDR1NiTEp3Y1lfcUNQV2pTRDVQNjBlc3EtbUVsUEVtNEJBTUFNRGRfMTNWTUJTOTk4Wk4tZWQ1TUpkdzF6eHYwOGwyS0VHbU92dHhrLTBwRzVQWEw2YlFIT3dVRS1kTnBQSnlYcG5VdTdaTGktbDV6VW9uMXBJNDBXNjB2b2N6aF9NRTg0N3BLME5vdU1CYWloSFdMaWd2QU5Ca0diQzVZQThpYm5qWEp3eldRczdCbGMwTFg4b3czYjdTblE5bHI1THRaaW9mSXh0YWxCT21OVS1aV21wR1l0NUNTLWNQMFZMNVNDTWPSAagCQVVfeXFMUFZ2WkxXTXEteUs5YVE0cUg2cEFjeVBiaTNVZS1feUFNU0h3dFZUY1pBRlBfZ3JXZ0ljX21fMW00SDRtTlpSTm80Y0plNU03RWJYTkFKR083V2kxdTdsYjFMWFl3bE5Qckg0QXd1T2ZtVlhYRzFNbWswSGNMckE5SnVuOVpPX2JINEVhU00wQmRkQ2RhcEVuMnNhaGhIQmU5S2tINjRER3lGdlFad3ZwTk51T3JiMXJKTFhjeTlacFVqQzlXRF9GNUdlcUNGNExXRWZyRWVTVWVqcDJFRzJ6RDNIa0Q0anliOE1yaFR6OUpmWEtLNEM1Zl92RUlWNXd5WGl2NDYxZVhsSkdISlVzS2FybWVLWTYxMFZFT2hycmxaVUdybnZMTkU?oc=5" xr:uid="{0A701E51-2FAC-4B2C-847D-53F993F5BE63}"/>
+    <hyperlink ref="C775" r:id="rId25" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxOQnlhRmN1SzRoTFVucnFSNHdRNW5xY2pBemp1WjZLTDhYUWxRZEtsTDZTOTFMd1Q3MGJqbmFRcWdBaWdubF9pcWJOY3BoVTd3M2V2ZE5JSGg4MnZuek9tcFBBRHJ4TnpjUzhpYnExNVM3TnR6S2xFd1BqRzFUNGFkazBIR29tNWJHdXEtVTZzMW5CYVVtMVhEemFYZWMtRzhZNEI3SlNwVnZ3RzNxOHU2S25rMTgweEM5U3VTMXR0X1ZsbG8wMWVZVXRFaE1QS1ZpTGpZdzV2R2ZyX1HSAdsBQVVfeXFMTkJ5YUZjdUs0aExVbnJxUjR3UTVucWNqQXpqdVo2S0w4WFFsUWRLbEw2UzkxTHdUNzBiam5hUXFnQWlnbmxfaXFiTmNwaFU3dzNldmROSUhoODJ2bnpPbXBQQURyeE56Y1M4aWJxMTVTN050ektsRXdQakcxVDRhZGswSEdvbTViR3VxLVU2czFuQmFVbTFYRHphWGVjLUc4WTRCN0pTcFZ2d0czcTh1NktuazE4MHhDOVN1UzF0dF9WbGxvMDFlWVV0RWhNUEtWaUxqWXc1dkdmcl9R?oc=5" xr:uid="{4B9198A8-FDCC-4008-89F0-DD16B3A13EE1}"/>
+    <hyperlink ref="C776" r:id="rId26" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxOTmQ1clJFSW1FLWhjdjRYQVhCdk9ScUFaamdEMV9JR283X0hXTnlOcGlMdkpzRng3bG1DXzN3WnJuTjNwT2JfaGhnNmNlLXFGZVZreU5FOUtlSVpHZ05lMkJqazJRUVhqVDNWQTczSFQ2UnR6RXFWQVhsT3pUMDdaLXZCSDU1azZwMDZIdkVuanc2dHF2QlgtRUk4Uy0tNFYyUzFmRk1FVURMTHhJVFVJ?oc=5" xr:uid="{464A19E3-415A-41B4-980B-BB3529D81779}"/>
+    <hyperlink ref="C777" r:id="rId27" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxOdDQ2TGRwTFhSUHRKUUJkR0o0bU1ibTRFdVFFSWUwdWNEeEFNbDQ2aHQ0amgwSS1tU2FOX1VyLUZLd2d6NWlzSWNZUy1BSWZSUkFUU25XY1dhV1l4VmplVXFPLW9OQ3p2SXFBcDBVeFJuNjR0MTFVR2ZwclJqUUJsNlRqMjZ6LUNOTkJWQ3dFZTN5eU4tbl9CMmpVTjRYTVlzRHdIR1VfVEZ0LXdHTmZwTGNLVnEyUDMwQmNabGs2V3FyQW9ocUVDc2tlcG00dW03alFqSndmUV9PdGZ6b2RscTN30gH8AUFVX3lxTE1MUWprT011LWlqYzMySXY4SmxRVmdHWHo3dGNjcHVzbDJQRF83cjQ1Rjk4UGJGWThmeTdSVE5SYmctMnptcGpRdVNlRFgxVXN2ak9YU2RaczFmNlRXdks0R1d1VGRjTnhzcGdJUlRTWWJCclNZNk1QZ1RJLUNWZjVOeTNwR1lWcVRsVUdLWDFBaEk0Rm9GUmFpam9laWVnVmVhaFZWZ0xIZnAtVEVFelFfSUc5Zjh1RnVwT2xRVkdzZ0k0cmF3Ml9sRTR6TzZOdlNZdWt4eEk1bFNwWkJ4c3dfN1dmZlBqWGkyR0FXV3hhckplemJHdE9mQnpqdQ?oc=5" xr:uid="{B1F8E83B-3FB8-4C89-985F-70C4F29C10E9}"/>
+    <hyperlink ref="C950" r:id="rId28" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPQjFSeV9LTERISEJMMndiLWZtOFZMcGtRVUQ0OGRnSVMzcTZfWjlobk0zeS1ObGRaZHlLYTA1RG1YOG1SZU1qOE13bV9qZG56bUE5RTBuaXZ6UkhLOC1LaXlkZ0QxZy1HM3l4VmVnTktFSVVtN1Yyc3pUek1DSVdtMko0QWJwbmFtYWs3QzEycU5zUW0xY3pCNlpPckdGcHdiN2plRUxBT09Uc20yUXdGM2NBeDlOVUJjVmpiaFpWc9IBzAFBVV95cUxOdHVoRjlmdDBkNnQxVjc4WnJ6Nm1hTUlKajU1TVdrZkdHaDZ2Z1M3NUJQRkNRS2lJOHhlVWVqaUQwQk1jMHNzV25wUmw4U20xTkNNb08tMnljOUlJTW1rSVZDeHhCU1RRZ2Ewc1RDUkQ0ZGUtTXRNYjNiMjJIQ05wNHBCaEdrWVJKSHBpMVlvTmF3UkhZYmRpQjM1R0FLZVdCY3p1VmhoNzRtOGRTZnB3dkdvSUZXcHdKUzZXdzl0czVFejE5OUZNVkktN2o?oc=5" xr:uid="{F09DF817-68B7-43B4-834C-3B6E900782AD}"/>
+    <hyperlink ref="C778" r:id="rId29" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxOOEs1czJjQzlkSm0zWnNBVE12Y2I4NWljUllid2VaRlVYaXJ2UGFyVjF3aXpYeHlsRDBEM0hOYUlfbkFhSEpIdmUtVWNjQnF3SjhXUEZfLThZTkJrbDRJWWd4YjhLRERqUXRkXzVBRk9OR1BaX0EtbzhSLVFhZmpHcEVFakdhNkEzRDRZUkNyUHpqZU92VU1vb09oZklNNUZJZ3h2MEJkS0duaXBidG5mMzdmZGJsb1F2R0FKdzA1T2VmY1Q5UzlHcTB1YWJ1ck0zYUFmTE1aNklma1QyWkV30gHfAUFVX3lxTE44SzVzMmNDOWRKbTNac0FUTXZjYjg1aWNSWWJ3ZVpGVVhpcnZQYXJWMXdpelh4eWxEMEQzSE5hSV9uQWFISkh2ZS1VY2NCcXdKOFdQRl8tOFlOQmtsNElZZ3hiOEtERGpRdGRfNUFGT05HUFpfQS1vOFItUWFmakdwRUVqR2E2QTNENFlSQ3JQemplT3ZVTW9vT2hmSU01RklneHYwQmRLR25pcGJ0bmYzN2ZkYmxvUXZHQUp3MDVPZWZjVDlTOUdxMHVhYnVyTTNhQWZMTVo2SWZrVDJaRXc?oc=5" xr:uid="{1C8E0C56-EB53-44AB-AD09-DF7B0F8B97A8}"/>
+    <hyperlink ref="C779" r:id="rId30" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxNQy1IN1M0N2JKOWw2cDR5eXRkUl9ManB2T2dBUHdDMDBpcWVsRmIxRUl3NmNEU1R2QldHek80cVZxUDlkc0xVb0FONGNiNVZIQ2ZxR3JGLVRyNkZVTTJMaDI2dWxaZUk1enJGNEh4aXJ2YnZta21ENmI0WXdUZ1JWdmkwVXFHLU56cVVxU1BTeWdWTng4cnd1dHJfV1hjNUR5WTVwdmZFWW9kbVF2XzJWOU1pNTVkWnRXcWRyRHdaZW80WXpYVm9NNjA5MUQ4V19oa2xtUzZCNVNhdnJLOFJfTFNyWmJheVlnamfSAYQCQVVfeXFMTkJOaU01M0ItVHJnVXdYSF9ha1RId3ctU0NTY2x6alE2NmpjNHpMV2t6UEVvTVcxcDNNSlB4UTlXY0h4TEMzTWFYcVEyWHJkOURlZngxempMLWo4WkJpWDZZN0tZdlFLRTZWb1BLZ3VrS3hFMjg0LW5PZWVZOENlYUVaR2lrMmFKcDFFaTFRNVZzM1BkY1FUTkx2a2FtY0dNLS1CSVM5YTF6WjU3WkRLZlJDVUNtbGpuMnZjODhINjRzeUtNRjgxTE5NV3NkMmRwMUJBNVZTS0NnbjVOTFFjcVFZM3FoR1BHUXNZU0dnN0J1RmlPcTRQanIyTTZqcEJlYXdyNkc?oc=5" xr:uid="{5BA0B6E7-1F8F-4EE2-9AB0-26E4147656A8}"/>
+    <hyperlink ref="C945" r:id="rId31" display="https://news.google.com/rss/articles/CBMihgJBVV95cUxNSUlYUDAxT3oyS0ZBMHg2bmNOcmpweHhUQWdHelM0Q2dLS1F1UXl4QjQyQXhPOXRZaTZfeU9NbmxOeWVHNk8tOUd3TW9fMENDSkdfWUEtS2tiMy1wOGJEdVdSZGF5blhCVnkwemN6Z25KLVE0bXlYNHV4TWlCd3NOa3ZDeXg2YXFwSUdUUVJkNFZGWjM1NGUyOTlaSUhQWjN0N1E3dHJRZGhjdGVIaEx5aUtTQ29YWFdEeXBWTEMwZ0tBRzFpOVB3NWlFVWVkbXNkM1YzczMyeE4ydnlWbDlVMkFQSGVFWnZLRFhzeWlCdHpxbUktU3ZQVEJmaHJETEIwUURrMWxn0gGLAkFVX3lxTE5pd2k4VkRhZTZuSXpPVC1GZzdya3BhUWMwcW41SnJzc2gwSVphN0JYYnY4aEhNM0JycVdHaFM5LVdIZVVMeEZfeTh1R2lYVGxtMlpyM1Zuc0JPa0Z0S0F2Rml4NnZFZElLdVdpN2wzUHJPZ1hScHFuTVBVTXd2WWFMMVVBYlc2SUNHWlZIbHRleWttMVVUQk9JLTRkeVVLN1NzNjVob2ZfYlFKc3kwUzlhMUxTc0JKVmtXakRQMEVXS3VRaEdsUjhBVHZ0ekN6MnJpaGRkdGJsU05kckQza1locVJwYll3blpkTVFNVEd5Q2h1VWhDRzlURjhSUXNjVHgzUU9ack5kZHNhRQ?oc=5" xr:uid="{298257CC-CDCF-4CB1-974E-11B95D8DB3CC}"/>
+    <hyperlink ref="C767" r:id="rId32" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxQYmNHYl94dVlRcTJCN0F2NTBaNjN1aFVlaEQ3UTg4bGNTc0dacmh3cndRemVvam9mMGtEUGllZVZIZ1lSQ1d6MDBzRktneXJ4bDFpNlFoY0NfMFJXdDY3TUV4UUc3c2kyRnBjOXFVNFltT3B1R0ZXSGRpT0VMUGNqcVlqMVZVb2tyZDZjcGU2NmZmek9Da2FRZkYySmR6NTBQUWo4eDhkOWNFWGZiSDQwSV9GX1hOTFlUcXVQcWJlZjYtRFB6SkpIeVpYQS1ZZFYwc1VCeC1DVmVjVDM2S1ZKMktYcXJ0Y3pscHBISU80MWJhcmhuYUx5SjN2YlVRLUZaRXlBUF92R1hBOEdvemJwcTdEVVFPeFc10gGzAkFVX3lxTFBhNGY2VVpfQjloTXA4bjl3TVlZMG16OW5EQXFOY3kxMVlCZWZDOEFJLWRPTHV5NElycndTUTY5eUFCRVl3aXpGSVlSYjFLeFRxS1lWQ2ZnckhaOUo0YWo4Sm11TnFKd0dHcUJrcmVPdTRqeXd5aUk1WGZLczNXNE9qcEd4NkRDYWc2MGRJMlJnODkzakpLWnJTU2JPWDZzZWN3d2RLdEtLdHdqMjlHT1FsYnc2eWZITFVVQW9EWXMtQzN6QTJDeVBERUpxbWViWmhFMDlPbVhNUndpbmljRnJxZUtDQ1R1aHdDcFIwdDAzdG53VUI2R1ZOUGhCMVBBbWtJVGVYYVEybmtiMnkxdWZrQ3RUTFFjQ2VLVVUzUGxiVHpXcmEtMGQwY3k2VzFRY2ZqNjA?oc=5" xr:uid="{895A4433-7954-43CD-BD9A-BC81D3A43475}"/>
+    <hyperlink ref="C1003" r:id="rId33" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcld2ZDkwNWxMRWFhMGkyVHZyZ1pyRkxPRHZKWXlaZjFXaHpCZDJmOFlwZ1BVT0lDSzhiN2V4ZHVlUmI3V0RldFliNEcwLXJ4bXM3c3BOUnRXZm45SmRkZHZYYVhjVFh2TGhUR0RpakxSUU5BTU1FQlNvd29MeVpjOWhCRUgwYUk2cXYzZkdqajBkR1VXUk1jUXA0Z1NKSFViZVpRWHpMbEtYS3ZIbnpWUkNxaURXbzlrTjJ2dVkxN1owMWpNcGMzLdIB3AFBVV95cUxPelZDM0JWVXVIMGs1bWtHVU95UGlQS1BhZ3RIaDNfeUgxeEVnWTFaWjBMMzNkSE5ONU9MRmdkN0pvWng0ekpvMDd0RnZpSERhczlIa0xqU1J0YTlrQzRtN19NanVMRkV3dGJKNVhFRy1UVW4td2ZaMnVNTmN0NW1NbDN6Uk9Mc0gtNm9lMy1obWlLOU5RbWxVZzRqcWZWNzVfQ2wwQklmRVZyQ1VfOFN2OHpVVjBUc0hLRVJJREVlOGQ2bUd6Z294QXBnZlNmNG95NjlJU09NLWRMRTI1?oc=5" xr:uid="{084C2A87-5568-47F9-B20A-2DCB60CC1121}"/>
+    <hyperlink ref="C915" r:id="rId34" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNSTRjRzlGXzZCczdhZUNrQWRrRTNYV0dldjV4RG5oVGJ1UG1HWnFMd0pSbk1PUUV1XzBwWWlVWWRnRG85aWtWcG4yR1BzRnBUaWR1eWRjZFVKREVjMmVRM3RwejZzRFJpZF9YeEQxQ2x0YktoQ3lhYks1cExwZ0h4cjlaWjE1T2NmWmU5YnNlaFUyMnp6VllMNTZOLWlGSzFKcFNQSFFia3lRNF96ZXNyamxTUks3ZUFHY1BXOHdSRERRQlYwcGNqZ1Frc1DSAeABQVVfeXFMT09kcVZpbHVXYnY1YkthNUEyZU14M3ZjN3VLSjlWVWVkN0hJR2dUcXJVZXZSNW1tT0t0V1g4Um00WWF6cWk0OVNSb19sVWRiSmZiaC1MdHFLdGxWamVrSGJXczRBd3hhTEJBQTNsaFR1N3lfRnQyUzRrMFlSZlJlQjJ0WlZLckZJSFkwb1c4YlVFUkdjcW00MTVxZ1Y5YUlGZDM0X1A3bXZXVlc4TkZFbE9TU3hqZEFRQVA1ZWtyWTFfNGRrWGp2ZS05ei0xTHdHZmZ1TWZSM3BTY2NNLUJfWUw?oc=5" xr:uid="{187ED251-5AB0-4990-B5BC-E5F246DF026F}"/>
+    <hyperlink ref="C916" r:id="rId35" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxQeEZROE9yWFV0ZVhiNHd5cWtHYzc2QldpYWtlWmhNeWVFUllYempFbkw5ZXJyeTExYTJHNnlRTW1TWlJyNXdJZ0lKZ2dCTG1qUzFpczF0OEpUNVZqZTFhTXd5VFNFTlA5aUw3NnlkY2dGUDNqNThrdVlZZEdGYXRiVlJrUU5IRTktYjdRdndLeFNYV1BqY2tSbW9nczJRZFViQXJ4OFprelYzZ2h5RUlyT005X3E0MGhhVVFzZ3pFWUV4MFhJQlg3R9IB3AFBVV95cUxQUVlreGdWb0R3RllIZEFXb21JVHhyc3l2TEFaRlRzZHV6S3R3TENlc3B4aTBUQmEtcTZQZ1BQWnEzdDh2X3dTMXVfekIxbmFHMXU4Zm00SDNYTkRhTnd5Z1BCVzBYaVVFa0dsTkljU3BJUy1Jb192REpTRTZGaHNGZlluQ0szUmphYmx3cjY4N1oyT1AyWVdsNUhnSXlNZGU3N0lNZy1iejNscVVwTk9Bc0t4RTZ5czlPV0FhcldyOVVmdWd1bUdrN3Vrd0VpbDNyUG5kc2x2UXJfcEds?oc=5" xr:uid="{9A3AE09A-365F-40BE-B011-CB5E7356A2A0}"/>
+    <hyperlink ref="C809" r:id="rId36" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxPWDNLTGgtS284QUVMT3g0UVNUY19BVzhJaXFLT1EyN1FaTko3VWM4ZFJSWVU3NmQ5dEJOMHpxSGx4THk0SFdnb2ZrZ2Vxb2xzdlR2NWp4RjFHUzZSWE1Wc1ZMeDRrNFpvUjZjTVNMVXAzemV5ZnRuaXVHOFRIdkJQd0FCeXhNUGdFN2haazNmYUJlaWxta1A0aGtWOTNDanN2b3l3dS1jN2VZNE9ud2JOS20xQVBDZ0VRV1YyOHc1Qkg3R1pMLTVEZ0djVW1rQy12Q3VoVU5oenhTNU5KMGhQaUYyRHRRWGZORXE0?oc=5" xr:uid="{6473A7C5-8528-4565-9F89-9C72026FD366}"/>
+    <hyperlink ref="C917" r:id="rId37" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxNRWpOUkpmNElWU080RHlMM1Q3ZWYzOTdEUzZNSENvTFdWUlpuT1otTTd4b09YOV9PbEdTVEFxTUt3RnFlalZZbExSM2YxbzkyMVpMZUVzbnotS0FhOWhXNW1sVFVMdGIwOVVJcDlOSW1uSlRGeXBJYnZlTGd4M0JqU2prZ1REclRzSDl2TkRlV2R3UENJdTQ4M1hfb0pQeEdFN3ItYko0SGNsMjJtdVdiNFZjS1VtcHZvZGJpcFFWU1ZpSGhBTUFXbnFacFZVVUltS0dyWWhyVG93NENmWG1peGM4dVBtUUtMcVJvb3JjaUwwQdIB9wFBVV95cUxObHBwVHpYcFRtRHZ0RWpXT3RJUnY5S0EwZWgwQVFkTnUzaVhQNmtJOVUxcTBqd2cwS3RiRGFxbFBJYk52VEhGWkpzYnBkSVpJM3g3aGxsVGJwVW9zNjZyeFAxSUkwelJUWHRfMGhwV3diLXZ5S1I2TGlBaUc3R1pmeGdMQmVLQS1ZZnNuclUwbzE3VTMzR05OaFF3NDA3M3MwaUYzWXhDWklxS3lTS0stY3F6c09SMkhsSVItaVBXQVh1YUx0a01RT1ktcFpPdDA2QlRMbzlHWWJMWjJpaUVabXAwMU1LQXJ2bE9KN1BIWnFhTzh4WWVV?oc=5" xr:uid="{1FFB278C-C066-4864-9FA8-25ADECF45ED4}"/>
+    <hyperlink ref="C768" r:id="rId38" display="https://news.google.com/rss/articles/CBMiswJBVV95cUxOX05VQlF0T1E1bFBxY3otQ2pWWWZwdng4WlNxQzFfOTRzWW0zRjFVbnNtR19pcE0wN1h3d1BZbHRVZjNaU1hyeHIwTEM2LXA4UWhNV2JFRU9ubmF6Z1NKWGNCMUF4RF9KSkFDNHI4dHRJVjlWRE9KY1pUWFd3RTBSMGxfYktDX1NFQndCMWEzZl9tajNCcGZmLTZHRXd4UlRBT3pWWm1XTkxxRDROSnpzXzMtTTloZEJaTUVhdUFEekJkMWgxNGlmT1VvV0FZNUhGQU5MNHdhWjI4a09PMzZXX2Y5ZXEwQmk1SkZvcUd6VEpVVm00cDRfRnAzdTkydFV0RGtYVWZYVGhDUVZ0YkUyTjhDbGFhM3VKeXYtT29NZkxJZ2k1WXNla2ZOUlZvT3Z3YUNN0gG4AkFVX3lxTE90eFRMeVE2ZEY1ekZ2cThkQXVmQWV6ZkF6UFVPa0xvOVExUXhvS1VVcG02UGN5ZTF5T0xUekRHeWtaVzg4QnZXNVRQWnpXVFZtdXQzc1lfeDVHbGVJWmZYRnBQQmFzSUd6UUxUaWlSUDhiamFUbHpfREFvQ0MxWVFCVjBXdnJ1R2ExY2FtMXBjRTByaWZtdHg0a2lMSUN0YUdLQklVaVFXZ2RSY3c0UjRWQzMzUmhmME1nbW55Sm5tV2luZEZfclVEUF9HWWNBVk5EUko3MlNrOUM1Ukl2M2pyWUlVbjlSU1A0Ym92aVV4WEpZamNYUG9jVHNCeGNfZDQ4eDk4Nmh2UUZ0WHd1ZFRUMVpCOVlQbDdwbXQ1cnlNSkMtbWZHZzhXTFlGUkE3Rm56UkNiV3c5Vw?oc=5" xr:uid="{519FA85D-02F9-4EF0-9671-666AAD5EB4DD}"/>
+    <hyperlink ref="C919" r:id="rId39" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxPVHFfYk0wSEN4VEV1TjNmMmtHU3k4dV9rTS1aZnN0RkpHSE5xUEQwNTVpXzZDR0lTQWlpbDhtOHZMYWRUeW4tMVBoSEJoazNpZkNfYjh0SFUtN3p3UzN2S2ZSSTRRdkJ5a255ZmhfeDkyYXYzZHZsMmtoZUN1Tm51aG04a0dlZEk2eFRuaWpSejN0QkxrSDY1LUZJZjBWa3RkRExwWFBhTEl4TU5xcWR2SE5CYjJuUWlSV1RONTRrM3ZBSkU0dkYxR2RHSEwxU19HSHdpRXFn0gHWAUFVX3lxTE9UcV9iTTBIQ3hURXVOM2Yya0dTeTh1X2tNLVpmc3RGSkdITnFQRDA1NWlfNkNHSVNBaWlsOG04dkxhZFR5bi0xUGhIQmhrM2lmQ19iOHRIVS03endTM3ZLZlJJNFF2QnlrbnlmaF94OTJhdjNkdmwya2hlQ3VObnVobThrR2VkSTZ4VG5palJ6M3RCTGtINjUtRklmMFZrdGRETHBYUGFMSXhNTnFxZHZITkJiMm5RaVJXVE41NGszdkFKRTR2RjFHZEdITDFTX0dId2lFcWc?oc=5" xr:uid="{27796175-D0C9-41A9-9B45-C678EDE254BE}"/>
+    <hyperlink ref="C920" r:id="rId40" display="https://news.google.com/rss/articles/CBMimwFBVV95cUxNa2hwNk9NVlZuNnBmd25CTEc0LXZncGdhaW5iR2otc24xR1RnLWN6YnQ4RGU1ZGd5YUdvSVRucTFSc0lvQ3Z4YTdhaVRBc1BMSldrOXJYd0RsR1o3bml4eV9DU2NNQlRaamx5VEh2ZlRuYUlaUkk4ckgzVXZ3ZmF1ai1CYUFfTkZXdWplZElzVEZTQ2xfVThjRXFpMA?oc=5" xr:uid="{75902A0F-B588-4078-972F-AEE22EEFCEE5}"/>
+    <hyperlink ref="C921" r:id="rId41" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxOUV84LURlQTNobWxITzNBR1F3Tjl2NWM5SDRlYjk0c0Z3Ml9XSk1RaERIU0o2dm9wTW9hVHRobC1Va01CeWZWUmpTcFdjeHhsdkFWNXJtaFlhd0VVSE9NY2FJazgtY1ItdEJDNEptQmw0TzhtUGM1WTZZZWZ4bGk5eUVaenV4Z1ktak15Q1VQQzRobzk2WXBBMVJRckxJc0lwVFNHM2tLUERCMnZ4STUyZ1g5aTlreHItcFZRbTgwdHo1Mng1SVlBZzcxalU5bF9yenNtddIB2gFBVV95cUxOOVpSNWJHeXljbVB6UFhqa1F6dE0xOGJGRGphUmotWkdHTHJCMnAxS2UyMklwWTUtR2pqRU1CaXFNb2QzSEk0eldNLThLRVdvMTFLS195Z2JjNml3TzB4WG9RLXpPSGxBOWJxcE5zSTFwLXoyVTVKTUVDbTVGM0NwLXhuRzNPeFBpeWFWLTRqdWdFdVdITkd3bUV1Q09zN3dsQzQxNFpoX1ZwYVJ3SVc5eUZENEhWVEtWMFJ4SXJZNjZvdmRDaHB6UDZrTTZKeENfN1RWakFDOElTQQ?oc=5" xr:uid="{62B5E20B-0668-4548-8280-2F6141191577}"/>
+    <hyperlink ref="C922" r:id="rId42" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxOTDBTbld0Y2gtRmpyTXE3NkUzMlpkc1FJWFgza1pIMTU1dWo1Z1JuX3Z4cmNHdEZRaTNzeUROQVhld1Y4N2xkSnI3SnFCdC1oUTU3dHlHZmx5c1RFTlRDMzVoRmhoR2VlQUVXS1d3cjF0R3RueUdMaW5vRlF0UUZjMS1WTHhsZkNmeGh0Q01kdG8taW9CeVFmRGYxcWJodFlTYmtHbjhUbmVvdjlwUmxDSUNLNVFxcnljQ1dzOUNLNVJJN2R3QU96M1JwRlFia0NFaEpRanlod3JLRmFYckxvM09ZcnJsbVREZkl1YVRKTTJaYm1oNVg00gGSAkFVX3lxTE9uQmxYVkxNeVpyYk1oLTBRakZTbTZkU3BXNGdvU1pKUkY4NlVGaFkwdWhZMHd1UjlJZlB2elgxNTdDWlRsTEN5MHlpNG9BSTFxNlFDWWtCdXN2cGdGaE5rVjhrOTNhcHQwSTlFbktqNk5jb0c0TkJqUXhDYTJOVFZHWHJiR2I5LXNfRnYyR2w0YTNGSXJWWFI5NzVkTWduY09DMHdXVzBmTjB1OEJIeDF1ZHBXXzlkNVhfSEMya2VMdncyZGhER0o3c1J4bUlhZ0xnRnBrR2lLSjVPWHJJOVFiTFZnVlhqWGItZFBkTlVpUkV6WUtBV1BiVk9FWlNGYzhTLS1ETFJYcFpEOGJsVWFPOUE?oc=5" xr:uid="{B7642488-EB33-4F25-B9D7-44DEAEA0E5AF}"/>
+    <hyperlink ref="C913" r:id="rId43" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxOSXItM1VIZnYtcU1CR3JMc0w5M2c2ZnBaTlNoLWVKd01KYjhvQm1qQzVsc1BFNTNCQkstOG0wNlQ3OEF5SHJ2anV0djg0bzZXUnlnOXlRWHhSTzJMcTVUaE5DV1VHTVR5c1BBYWpsb0xLX1VYaGkwYTlKS2liaWF2S3psN0xMZGVBQjlRNWlPTlpGU1NDMUhEWEVGdmZNblR5R3Q1NGRPVkNMck43a0xvSUJtUkg0OW5TalZTUHV6a0hJaVViVFg2N1lINlFmUQ?oc=5" xr:uid="{A95C3FC0-204E-451A-93F9-36E2DCDFCA3B}"/>
+    <hyperlink ref="C914" r:id="rId44" display="https://news.google.com/rss/articles/CBMi_AFBVV95cUxPRkMzOU5jcXVVcHUxWjMxTUJaMDJQMTg0bl9LcTB0ekNydTAwbmxjX0ROSWcxRGlvXy1UaWNSdnVUVzhqZEE1SWRTUTJIU3Vhako3a1FPZm81NVRJRW5vVkxqODExRGo2SjhDalN0NEY4Z0psUGI0WEIyakxVSDQtc2VIRkVTMmx1blNJWGlUaWUxSXBWeFV5dXQwWVh1SUJvQVBDZUR2bTVhZXFHOXZYM18xeWlicHh6UFpoa21NWUhUaFllbHRKcjlSempsSzctbFJXNWlDV3dONzhMSUVPdDFqekU5aTZpTXg2REJzaWNTSG5yUmxNdjhpZzQ?oc=5" xr:uid="{1A9C7567-2AAF-414D-B56E-88157D3FDD25}"/>
+    <hyperlink ref="C1007" r:id="rId45" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxNb3ZRZnlwcS1tV1N4T1NybXlnODNOWE9MVjFfMUtrc2hVckpQZTFEc2poVWZ2S0ZQWGFPNnR4SlRvSkxEZ0xQTE92X0hzb0FaZVhQWDZZRm51eEFQSFc4bElSQlhldExReWE1SVVUbk8tTmV3TDEweXlXRTY0Q3dzdG9fMDZycjJVNExMeV9wX1Bab1pDVXp4NjBUUk9LOHMzYlJfUFQwUDU4b056enM4eXlpUnBEaU4xNWwxNUtQazAxd2xQcDZj?oc=5" xr:uid="{5ACC835D-0125-44C0-8659-95113A667F92}"/>
+    <hyperlink ref="C931" r:id="rId46" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxNeGppYUlfY3o5R3ZfSDZFeVd0ZXFWM25BOURxUFFvandRS015UkRBYmRvdG1qQWtuSnF6YjhfcGRPZml5TVBVWFFremtjb3MxQ09xTEQ0c0t2TEpoYk01RHExbzRZdDBOTFFfU1NtcVJXWE9JdFo4VFlPTGEzdzRvc0pNV1hyVEJIVWNwRTBta0hrVXN3M1NQc1BYZlRhN1V1U09qMG1UMElxX05TWXBDcWxFWDA0N245UWZiRE9mY3ExaEFaYWtCSVRCZTZUb3RFb1JpMnVfenl5aDVfSlIwVWZR?oc=5" xr:uid="{06F263EE-39F2-4C2E-A718-35D8409651D0}"/>
+    <hyperlink ref="C932" r:id="rId47" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxNZ0NHRWZVS2E0dGNZdUFBcVFLc1FWR2JNc3NNSW8wclhIVnJwUHNWaXR4T0RXTHZ4Wk5DQmZJUWtIdUQxTVl4MmRyZHZ3ZTJ0TGRvdTQtS2ZyalM1UEJ2UjJtVXZMMWxwNEcxbXl6amdET1o4Qi1WNG1aUzJQc0ZfX1RJSEhDT3RITXZSZVRCZ2I1ZTM3MEg1c0ZqVHBqTjRlQlZIbGt1bEtCRnFoSVNzTHptYzZ5ZDJybXhwZVd5Q3RxOGN5aFN4alZQVThqVHlNVkNaeTBPQzc2Z3NWNFBJY1Fn?oc=5" xr:uid="{28EFDBA4-ADCF-4915-8B8B-D1F01D8ACA1A}"/>
+    <hyperlink ref="C1008" r:id="rId48" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxOWEowTnlCTHV2TWoyZTFUQmVfVHgtWVBrNDJfRkc0d0k0VWtSTnhlYWlCMzBGdDdZT1JOM2M2NUtsMWRwWmY0Wl83eTFWUFh4Z0hUYWpWdGpYUVdia1RDY3RrMWlMSDFWck0zbVp0Z2FOV3h1ZWtiQW9UX01SX2xKbjBsaDFDMnNVQ1JVekdnbVNXbktNdTRJZ0h1STd2dWtIS0VGdHEweXhraVJnZWFFZmVPdHhtT0hYTlJyblNPUFZQX1Bl?oc=5" xr:uid="{54FA5011-AD72-4633-9310-BF0C54E687F9}"/>
+    <hyperlink ref="C812" r:id="rId49" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNSzA2UXVxaU1XekF5dGRWN2RiaXQ1OEFGUmdva01jQ21jaUdxSF9lSk1FU0szZHBNc3J2dDhSYjM2aXU0OGJvTm9PaEZkQXlyMEtHSzFtLUpXUElzb2p3WGpFRncyc0tUVG5PQkZLMTdZRnY1TU1taGJHeTZTeEdSektJRWlTeTl2NHRuUFZDQjBaeXlVOHBfWmpfcVB6NUhtNkpOS1ZGdnY2TUlUSWV1SEsyNk1UQWJ0T2g2LVZoUzVIRUEtMlJRYUJndHROVVJJM0pKclhEbmVXOVkwSVRn0gHkAUFVX3lxTFBaZnJPcnkyOHcwMlVfQ0tCMTEtUlEzZDR0MVc2V3c1dXNhbkRJa2lPZlE3QkwyQ1R3MWF1TTdCMmVkR0dKc3h6Z1p2RzRGWC13eGtWUHZpenh1TjJQYWpod25TUXI5S0VYZTJwYUhhM1JieFQ0MGpOSXFnUjZaQ3AxN1d3U2NTTk92bGVYTm4tVllDTTEwOW1XWkJxVnZCLTVUcGJTWUx3MkhjamwxTERVaE9QbW9DbWNJV2ljQU5tOFFMc3pWaXJ2UUs0aV9Za3VVMnBVYy1LV280eFR4dS1TRkdNMA?oc=5" xr:uid="{51F543B9-1D80-48F4-B73F-C00381151F01}"/>
+    <hyperlink ref="C963" r:id="rId50" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxQajNjV0ZpRmlyQ2haQ3VwSFBUOGVHSjNRVXhsMlNnUWlVXzdYdW56UjJsU1dxVXNTT0xXT1hPWDRpRmo2Ri1WQVM3Tk5fTlpxOXE4WXJGZ3Z6STFPVi1uempNZXh5X2RDNF90TE9BNF9HWGZkQmxrN09MU2loUFVCdThvSlEwdnBNcXkwWVZpSnpKbzNFdEU4RlIwMG1NVnBFT3JWTUZfR0hBRG1jYWpQajY5TFg0NFZLSmFxcC1LQ2sxY01KcE9CUm1JZEpzLU9yRkgxeXliRUxFcTA2cks3dG5lVkh2aDEyVTJYd3lOYm1QLVo1Z04tSmtDcUwxc1BoWG13Mk5sb2xPMXJa0gGSAkFVX3lxTE82eXhxY3JkanRSUDRzaDNmWThSUFBuRjJiRjlKRlhJQ0Zpb05oSGZDcmNjRlJMYUxjaGFwaW00cXlWWGdjUjlrMVFqRnlMX1FqaHJoZnRBRDg2TEFxMTUyZkw1cXFIcGlXbGhSUTVfUWhQTE13OFRNYUFXT1JHd3F0U2R4X3NhVlRXZm1vY1J4c2s2WkxpTUY1SzZSRFQ4Y3RzZnVEZi15b0Z6M2lqTzJRVHZLbTVKa3gzTE9HZDFDSVZtUUJaaGI3TU50VTREaFktMmhoY1o3MkhiYmlmV0FaMEtiVVB3TW5POTJzT0xwdWQ5VTJkOThHMVIwanJienlxc1dZWlhyQjJfX3k0SnFmQUE?oc=5" xr:uid="{BDA8F169-D1B3-44FB-A306-6FA89F1DCA48}"/>
+    <hyperlink ref="C813" r:id="rId51" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxOVmxzSHZJVG1xOC14eWlJQ29tU0JCb005Q3I3RWNFdzUtT0pER3cteTg1LXh4TkRQemJaSnh3MnNhZDBvVXNQRFZ2NkVtdC1QcXdtbjRFWk9yTXp6NzQ2UzVkYzNVVUlGMkRjVF9EaUEwc2hTYl9veGh3V1pQb3JnVzVxOE1KWFFDNmhBUTZXOGR6TXJqT2hWWUdmTDJ3UnN1Y2c2Qm9zUVRKQ21nNzgzMHVYVmVTdzFYZjZ5b2VnTkpid0FvTnJTU0FzQ3N3NlpRWk1qVVYwdms2UVZaeU9XYU40LVEwdWNf0gHuAUFVX3lxTFBOXzBkUFJodG9fWU51eDY1RXJ6eFh2b0Z4eVRvZVhPc2xVYnIwU1FjQ2l0d2p6MXRXY25pTURleW8tN2w0TkJsNzNrV1M4eXd6OFJRWThjNlZ3OEtFRmtvdzQxWnBsSUVEUVJmOFFqb1o2YTI2TUlsZ210NURlQkhfTXcyV1MxNjd2MldvdEVKMHVsb3dXLXlDdklCX3BydnJOQVNuS3NnUHo4TThqVWMtOWFLMm11OVVGS3p6Qlc3Yk90SFFRTHhsc29ncXZiZVBHMnhsMXk4WWVNZDlldTZsU2ljcDlhNng4LVk1UWc?oc=5" xr:uid="{A8BB5B53-046A-4930-8F00-75C42D94610B}"/>
+    <hyperlink ref="C814" r:id="rId52" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxOVVF0ZUdnbTY5ME5fZDhsZzRoalU5bHlIYmYwbVVQcUl5dlVjZmJySndyVmZjWEllMnhJNzNpS2lDVEVGT2xpRm9iMWZOT3ZUQ2ZISlVuQ3liVkdPclhkcmY1S3AxeGNWS3RvMDJWX0NJT09ZUmxLTXZPZllLNXdkTEs0SllLMENwYXRBRmM4YTRpWVpPQVNkVWZPS0h0Y0lFY3F6YWdOVG9makFKMWtDRDlUYTdsc0xNNi1QcnRJM0tuTGNEZXRiTUQzdjJHSFotcmt4dzQtYXFlSjA4ZGlYTHkya1NjVnFkRE5GMmNaLWhiTDBCV3hBZdIB_gFBVV95cUxORTl2N0gtc1A1bThNMU12YW1DRlZNRUxmUDY0bElBdGVOVF9ZT18xVy1ZcGQ5U09mQllqcGJzOFZYVk13VENRM0ZUNGQ0VnFoTHJtRjR5V19sQ2JWaFljODAzQkdwZTNvRDQ3MzhBTFFGOFlMQm5welFTbjV6UmZHTTAtNG00VTBIZEVydzZOS01udkt2Ti1POTFQd3lLaFBsVWZwd0p0Q2R3YTJNczdfZFRNZnF4VXA4dXJXeTZOX1NXa1BwXzgySWZSM2JWRG9TZ2tILTdvTHZ3SzhaaDhwS2dpc0RnUHpMVXVmYVpJUW1XV01xejJMS2NBUWNpZw?oc=5" xr:uid="{B519A7B1-BEC6-4E9C-A897-596275A47008}"/>
+    <hyperlink ref="C815" r:id="rId53" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxObFpCekxrVzg3NERkc2NGRmgtLXNXSnRfQjBGakJ4bWktOXZtbm9kTWJmUVFMTU1NaGtpSURLbHVIMm42dHRGWmdZY21oZDdZVzlLd2ktLVJWdWlwbmhyMTRTNWdtSFZOQlN6OG82WUtxT0loSm5GMVhKb0NvNUs5VHl4OEVYY0xwdlJNY2FIUU0zRHJ3bXBTeUh1c1lfazBXRGNHTkJNWkp5NjZRSjkyRjZHNGlrcXJ2UXY3QThPTUdJRndWSXphQlBFQkoyRWlFdnVsNjFucUxMN2tKSE9TaHdWZWc2cjhpUUoyNkVWNzkxUdIB9wFBVV95cUxQSVA2eUxEVnlscUI0LXZwZjBJQnlmSnM0QlpSUDFIb3FkX21TV2Y0ZlR1U29WOEp4LUp1Q21CT0VNMWYxOTRGUzFwejVvZDhnakxFYXJzT25aX2dOalFSbjVDdHdDTkJWMko3VWlSb2kwbjBSSVFKUVlRUTBoalZvU3l3c3ZZbGdXSEViZENpTnlHMGVkUnRfak5XbnAwb3VqYVBBYkRzRkJ3M1hJVmY0a19Wb2dMaFVGVmdPMUtrT19YWXJ6QzlZNEo3d0M5REVyMGRwZXUtdkVaN0U1TzdYUHFIdG5mWFUtV2VWbGQxZGZmMDdUcE1N?oc=5" xr:uid="{FA2FC31A-DE3F-4ED9-B9D2-37E27203F2BF}"/>
+    <hyperlink ref="C816" r:id="rId54" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPRC04bUh1N0tNOXRVeTBQOGtQTUZWSHVuN3V3TDRiQnJUZVBQMU9GMXlJQlVaRGpORzVSYkFpck9LeU9hRFNlQUQzU2NNWUJWdkNhcWVES1c0emRlNFVub1NxTEdGT1ZYazRZSnA3YWRtOWhNWWpvb281MmRudGMyOEVvcDNtbDVXVUJYeXlpRkhDelFjVEwwRUdBQTU3NkpBd0NyRUc0MlVFWkVvaE5yOEUzWHYyRDZOdExTTzBHZ3RXSGvSAcgBQVVfeXFMTUlpWEVXWk5rcEp3UGNiZHY4aGlWR043TU1HZVpNSkprMUxhZVMxcFBlbzk1TTZ6MmYwRF93MGE1bVpueXVSMC1tSUtoYnJzOGhwSjdrWXAyVUNac0lhZWsyVUd5cEdwVEVKazBTS1F5ZXBUa2Q3eThhTXlmUldxSWZsMVpPQldoZWswXzZHQTlDN3pyWkZOd3B0N1dQZmxnS2xITXhUVWRmcEVsYTRFdy0tYTNscE8xUF9JMTg2M09uTGY0Mkw5aFM?oc=5" xr:uid="{B0357F14-44A0-4BCB-9A87-08A53F96F195}"/>
+    <hyperlink ref="C964" r:id="rId55" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxPX1ZpVnhMSV9oVTUzS3VrSzB4b0pCcGl6dE5wYm5Bd09MTUFiX0JpNE5fVEl6UloxNTdrLWdzYjBMQTdyQmZsQUhvRjlNZlNES2RjQi0yMU9wUFdLSU83U0pTYTQ2cUdBMVBVaXY5dExzZy1Va1htTWc1RFg4VVlHd0xCcXlHSEtjN3lVbk1YRmxQSmU2SWZNZ1NYOE1aa3g5VkZwVlFzOEtTNy1ESEk4ZzNLZVp6YUhNTXdWLU02Yi1lUnlmRE1JdFNSUkfSAdIBQVVfeXFMTnBGZUVhTk1YaFA0MWt4X0VNcWRjV3l2Q1BoQkRPR2NHOTduWXpJTnVyRVFsVDlRbEoydFViMDNCZm9iUnBzWTVLRkk5OTNLVmVRbVFlTVh4elZwMzQ1Tm9FYnA3dXBNSWdvSHMtQ3lGM0Vkd1ZzMURxZ0Q0SHVQQnZBNDRzQVhOVmJsSlRPemNVaDZxaktrTXVYVzlidUhDUXhLMHhmUExXZG1zZFREVUV3UFQtcjZpVnJQVDRrb0J0c0JRc1dNaXctRUtBRVNZbThn?oc=5" xr:uid="{1B619F45-3C5B-4A27-84B5-22305D08CC03}"/>
+    <hyperlink ref="C965" r:id="rId56" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNN3lkaUpKcUhJWjR1ZU8xNVkySXhUWFJjbE10a1RZSHNCUGFDYXpfX2VFZ2U5U09HNDlCVlJtd25XNjVWcWtTVWlIRXdwT016cEtvTjlYZ1B6VGM4cnJHZzVqQXZWTDY5OEZINzVQYWFpSzB2eTFJVkhlUDdLRXdCekJhanBaS25ld0Fxa3ZhTjRaVGV0NGNBQlp2YTNaV3ZoV1JxbEd3WWFjeEx6NENxWXluV2o0WGgzbngyZ0NR0gHDAUFVX3lxTFBqR3BYU3NGQ1NKNHpkNFRraUlaTnQyU05qZUxLdV9DT3BBMDBsV3ZHOGNBSWprNjBhLUZQZktkV1JwWm5BaHRLUDB1dmx4Y3huVWd4Zmw0bURVRm11MHhwdWpCa1A3OS1pX1BNWENTS1RYMGtoZ1BlTk0wcDIyY3JIcEtvbTN4VjhYc3JpVnJ2bFpvQkJMNmdMRHBzeU1YRFlHZ2J5cUZCX04xbHVpYmdjbTVkbnVEN1BHZHE5R2F1RXNRSQ?oc=5" xr:uid="{43B31F93-E47C-42DE-916C-1C815353F965}"/>
+    <hyperlink ref="C817" r:id="rId57" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxOdGIwSXBtdkRIUVdLRkV5M2JHbG5lQ2FpM0x6LXc4cjNGM09QR3g0dGxfcGExVC1keUl1WHB0S3BnX0VwdXkxYW0weEhpWVQ5S29qclF2UlloZDlDenZKY3RaeU4xVzJfd19LVzczRXlaWTZFUjRWeTktTVdjVGg0MVBKLTd3My1faXA5RHRRVm9VTjZLeTM0OTlqaGtQZzZSR2ZDVHpudGNxazdOcVhhRTI5Z0lsZzlXRUo4T3doT3ktLWhvR1JBRXVHTk9iTmRXcEQ0UnhWYlFRZFVX0gHiAUFVX3lxTFBNeWc2VXBHbllpeGxtQ0RCMnl2czRWS0hCSG9sa2FmcldqTW8xQ09ucUJ1emppQ21xUmRuZ0ItMEs3SGRZVkk3aWhfM3p4SmVqd0ZHNU5uRG4yWnRGSzRmODhqTUdUZzdHQmpUa0NLZG1JTWxsVE93NVpUY0FneTJfZ0NmVGlqVWdqUl9RVmQzZV9OUktCZ2QyOWIzbUlhMDl6NUhnSVV6ZXgzUHVSSmZKT1NFMTdscHpRSTdEc0s3dlRzMF9qalZUMDN1UWRhUXZxSV9JVnZFaHVnbkZPczlaMEE?oc=5" xr:uid="{B1855653-66AA-4E5B-A7B5-4018CD1DBC90}"/>
+    <hyperlink ref="C818" r:id="rId58" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxPZUZxTi1lYnBhNkVZTjY1amdqLVgwSmxBOWZ1THhzM2hITWp0TGVkVGpZdzVjOGdVb09FLTNfM2JDYk83N1lmRFNJemZoZEduQUN5TzB0MmNTOHBxcm1RTU52cEMtRkppbnFvMzdUYWpiekFJYXNmMFVRazdhRFBNVDMzOVlPUHY3dmNLYnZWWXhrdTUwMlFkZi1aQWtvQXk5R2lLQUhCYkttbmdJUm1qa19DVWdNOWFnUjFkWG1VSkc1VlBfVncwYjRHY1NmQk5LWXdKVUtOejZaeWowQXF5UWdZa9IB6AFBVV95cUxPbm9hQ0ZSTnFJbG9vcTkxc1MxSXVySUR5ZUxHcFYybUFGUDdoRmtJalBsWlF4cGlaVy1qUU1yM2VYa2pLMHhxVVd0QkRQMWlWSW01N2hOZ29DZUVuRXAzM3M4aS1GZlk3RWo3Tm5aNDJVb1RzM0tISkFaQjBIaGJqaGJ3Z0xNT1JqenV3WGRRMDJrTU5wSXFGbFFBWDVaTXY3aVc0alpFYllsbnUzd3lSQW5YOHlEdlZScHQ5eEFOaTFxVEFteXhzOWRJOHg1aEFpbm9SVlY4S1FPZHVtSFE4dzA1aVFYR0pG?oc=5" xr:uid="{D2C13C9C-55EA-4AF8-9F87-D7DB5FE0CE4D}"/>
+    <hyperlink ref="C819" r:id="rId59" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPSGNxaEltM2lpMkdZek9kdUNxNHV1cU1Pd3IzWl9VN1FmUGlaSEUxTTVRV2xwR3dSZEtnaFZuQXk0ZHhadTA3YVB6V3VBaEJ6cURqbU5FYndGOTB2cUhrYUNjSF9ydXF6eDVlOXBleEk1QWZoUVhIT1gwSVZ5Zjd6WG9CVlItT2xIVGQxY3JjUDNwTVJDMlc4VGgwRzY2YzBxRjdLUGVrdlJhZmxmdVlvV1JaUllNckM2YVJGbk9FeVp0MkREdTZCRGtnM0lPNE5uNmJHYzdpcnNYaUJmbkJzb0FIOEN6Z9IB6wFBVV95cUxOaTE3dGJld1ZyWElKNUtXdWZNcm9SUk1lUzBsYW5ZT1RXZE91T3VkbGdaNThBNEtoVFcyLWd3dm96d1M1V3Y0ckhsSjlRVzZEMzAwc3JlNXhuR3lscWliZHF1Z3l5VUU4T0tqS05RblJveE90ckxrWDFVSGgwREhMLTlJRDZLQkVyUGhlOVNlVE5fZDNuTVlZdkd3MzBpYWlDY2J3eGU1Y01IS1RBVzBaalhKbmpuX05SZDQ2Y1pDdHd0QU1JMXZ3ZUNHNS13Tlh4MURvRlBGb1FhbDZjTVBUV19RT2pYTnBFNDNz?oc=5" xr:uid="{24EBC2C3-DC4B-4649-8FC1-DDA97BF05BF7}"/>
+    <hyperlink ref="C820" r:id="rId60" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxNazBXeWVady11V2VPQWg4WVpJLUVSeFpUZEZ4TEhaZWFEOHdtRjdBNFN1a2luUzRZblJvQ25TM29xTTNDb0t6aWFZZktmcWxUcmJubnloQ1I3MmZ6VlJWNlVqOG5ROVltZ2ViMzNfWTJVUGtTcFZPWU8wcm1QajhMOV80Umw0ZU9XWjVyc2FsaE1xb0wwcDlwQVhRSzXSAbABQVVfeXFMUGVyZzZRbzEyYjlQTVhWcTA4dVBGVnJ6S3RxLVVSZ0tvS2EzTkFqb0pKTkF4b1I2eHdHaUJTZzN4NjZYbU9iUGM3eXZyOUJnZEc4VU5NWnpPMG5ldmpWSG9wVHJWbGJfUlRscHFiNHpLVVRjSV9xNTZkM0tWei0zYUdubldmNnJoWGxwTTJCb1BUdDlWczR1ZDVxZDR2OGdPX0pxYlJiZTNFaWdOTXBrNDk?oc=5" xr:uid="{5FFF30B8-26A3-4914-90C2-97850C55AE33}"/>
+    <hyperlink ref="C821" r:id="rId61" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxNZTdFcWVoeGRrUmU4dDFrbVJYTHZwbDRJVWpVRVExMmRxVC13bk4zenV0Q0FXdnFVNVRLWmtzeDJhdmZGN2pqUFpPeFVxbDdoNzNNa19iX1Zsb3BIcFpTblFKdUVNNlk2RjNIc282ZTJJNVBVVDRxZU00MTYtLXQ3bTBtbWpjcDV4TzV2MWJlSHBIVExJY1hOTnNzZUdZbmo0RkNBcS16cVNDaEdvOFBpVw?oc=5" xr:uid="{61FCB5E5-12F7-430C-87DC-2919A94C74C6}"/>
+    <hyperlink ref="C966" r:id="rId62" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxQQVExUy1EdHlydVZtbXZiUEVuWmpNVDdFTVI4QW9QbHQyc1VFNjBwWnZxVDY0T3RpMjZnak5nZFluU3hLYTY5SnhJZmV2REFFcGl1OHlfZUVtM2VuV1M1Ykl3STBSSUhMYVRmM3lyVm9lQ1dBazR3RHR1UzVVMUZPMXlXd0dMZTJscGl4ZW5sWEQ1dWRHNTdjZEk0N21mcXlXZGNjRGhDdDRqdUFNSmpZSHMwSF9JVktvbGpxeEJCb2pNNEXSAcgBQVVfeXFMT1RlRjF0YjF6ZU1FZy1jT2tsQ2Q4bmUxUVlZemlSYXRvX0plRnFCSFlZTTlvdDRXb19ya1l3VmQxVTRzRjd6Sm5CWkdfTXh4WTF1NXM3Yll6MXQzMXltNTBPR3F2ZTVrSDdZc25qTE9xc1dDOUp1dnlnY0x5MXN6OGRmTGdZUFNsbWJadnN3YTN2dzhhVXQ3RmN1djcyUHpKXzdlZ0FtN2JuUGZqeVRGUWE1WWxzeUl6SUdWUXZoUlY2bW9TSFhXWmo?oc=5" xr:uid="{ECD027EF-0859-4A86-B7A6-E9A37BC28553}"/>
+    <hyperlink ref="C822" r:id="rId63" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxNdmxDMmpYV3FDQy1HMGpyNmNlbEpfd1M2aV9vTEM4blZOY0RpWXN1anJib0hHVW5rWnhIajhsMzJpRXJmdnIwQ0dBZ192X0ttT2FaVVpMM0hBMFdzMjM0M3NTS29PdEE4WDFWdi0xTS1iZ1NJUXpXVjl1cnBMZzNVdzN0bi1UalBRZ2lHN2Njb1MyNkF3M0hwcnFLb3dCTFJ4SlFrSUhxRWFDcHRBWEdkOEtlQlREWXhtSnJ6RXduWE9LaWR0NUQ2WGVoMTRYRXBhbnhBZU1ZTF9rUDBLc1M1RXRFUkpReDUxbF9QWEpNQzNlck56UnRTZ005RmRDam0x0gGGAkFVX3lxTE9YaVJSQTZ4dVhvSEZpTVc1aE5FSW4tRTdFeWF1bm5PV1RISDlHd2RsVmVXVjg1UkhmVS1hUmMySExrNjRKeTZUS3JBRlA1alBwaHRQcndDVG9DWGV2QV8yUDlHRmFvb3dHeHEwNUtSMG5vbng0TGQ1bXduUXBzYmVLbTlqTVBRRDBPeEVwTEJuQl8tYmNzTDRwam5LSG8yR3lPRjEtNE00cnFEaTRsRmNCUWtPVy1heDBrSUZIRTB3RzJJalhCN2V2VWtUam5tZW9kczJRMWVMejZMRWY4SzNpQXpmR2o4empQNDJmWm1rdjBsY3ZkR2VweDFiQkZfVHdfVGhUQ3c?oc=5" xr:uid="{899C581B-25B8-4F7D-8757-85A70F5C86E8}"/>
+    <hyperlink ref="C823" r:id="rId64" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxNVEJMVHl0T21pUktabGs5MHYxLWVIVk5FOHRNSWFXTTNNcjJHX3Iyc2czQlZHYzJuTTFBc2RVTVV5WE43Vnk1MzFPREpPaS04akl2TksxS1VfbTRsc0NFWWRERnlrX3BxcHAxT29zWVZpTHE4UElVbU1BVVVDeW1uSmxmMVYzMmd1V0o1M1pCNGxwMHVwclRMWXpfTkgwekszdnhwQnpHQ2NudDhCTDVZRjk3UFkyODZ5MFNZSFMwbXFmQkdiYkJ6bm8xTTd6bTJxV3Nv0gHYAUFVX3lxTE0xbmw5Vjh4WWIweTlQWmdxd0xORFlXbjBNTi1UT2lrMi1aRUlyU1VoSGZYY2k3YmxRQjZHMGNacXZUQmoxbDVELTlPcUxOZ1g0bEpfTThaWkQyUlpMeHhNNW9DLTBPb04tZXREMmpmZG5yOGg3bFhrYk1BQ0xBblhIWUtPUE9Ca29rSkpOOGduY3V5TW9BNVAwV3BROVlibUY3dmtYQ25OZU5MSmY5YmxIMDAxZnR0WmdrQ1htbUZLX2RhRDkyaUFzTWl5aDViczQzLS1CRS0xeQ?oc=5" xr:uid="{56F603FD-3560-4975-85FF-A0BE52AD5754}"/>
+    <hyperlink ref="C824" r:id="rId65" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxON0pWMWpPbW80N0EtYUtIanFiZjdtcFlaaVFNTGJITkpnSmZibC0zU2ZNd3I0Z2pMcEYtTUZLVmJ4cXRJN3ltNlFTYy1MY2NPQmE0cUpLY1lSam8ydHlRUGhQbE5HSnVsQWI5eGotSHl2TGkzb1BZeHpEeFlWeU5rWEZlRzkxZFNnQndreE5iZDVhOVdfUk1odG1PVk9wd0NTNmJtZE5jRU9zTnFQLS1kaF9oS25GV3JuVldPQzBPd1hBZzZZRGVfMEQxcWcySnVXU1ZxSWM1M0FPNkRZSGJTbi1EVkjSAeQBQVVfeXFMTnBwODc0eFdqb0VOc2taV0NpNGw0VzJTS3Z6RnRNQ3Q4ZzFXRXB0Z1FQQ2NRS2Z6UWVKbksyXzZsaUt1MFNVeUhnaGR2Y1Y0aXNEY0tOS3dyZm1XZUdXNjcxMk16R2NCVnpEcmQzNUVUWE1HTERkdmFwcVFDLTNlN2RpcmVIWjQ3R1N1c0gzNzB2OFpCRWJiZmVjWmZzOTQ3dDAySnMwamFfLTJfWnRPTmt0TE1iSmY3QU0ybGFFTUg0RW9lUHpGZDFoQU0yVXNWVnQyYmtvTHlKSWY5eGVMZTNjcFpV?oc=5" xr:uid="{471608DD-4CC4-48F9-A591-D6775E43B449}"/>
+    <hyperlink ref="C825" r:id="rId66" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxNNzg0MXZIMEJaSGVJSW5ZSnRhY1d0MldzUHd1VFo4Rm5BVGRrQzUzQ1E1WFk2cTh1bWQ1RnhHVlItOVctMFJnYmc4dWVDUTVOTmQtYzdmRGZ2UHlCUTJueGwyNDVUZk1jdjh6b1hpbW9Qa0hFSVVFRDhiRXJETmlZbzJlZ29rU205alUyVEVZX3RnbWZtczhEcmwtRC1rX3NiOHpxNTRxZmZ6eld4N0VYaHo0U1o4OTUtbDhiRDU4WVpnWTNrclAzYkxyUnRRVTF0dHc?oc=5" xr:uid="{3696A47F-CB0E-415B-8202-FBAEA72FB1CC}"/>
+    <hyperlink ref="C967" r:id="rId67" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxOZGlTOHpfelQ3ZVB1TE13Rk1wU2FlR2Y0dnVSTGhuWUV1cWsyTGRSWThlOFdUaUxyQy1FaWFrRXFlcDRzSVZtVlpQbFVnVXd1dV9HVVYyTEgwbm9EamZlUTZ5aW1YRjB3UXMyQ2lTQ1hJQlcyaEdwYllsU2RZYW0yckxHTllTRGNVS3dvTk1zb3IzQllrdEZ4NkJpMHE1NHhCOG1IZUt5RlFscHNlc3VGMTE5N01OcGlaU19lbTJpMnNNdw?oc=5" xr:uid="{13D7F279-0897-4CE8-B8CC-5EC1F55BBF27}"/>
+    <hyperlink ref="C826" r:id="rId68" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOSTI2NXVDTzVMNWxoNWhEQ3pDRVlZdHE5TV8zazBKcmdxY2c5QWFkYThaZW8wSmVLVzl2Qmh5WkRfZFNDRzhxdUMxTjl0RkJqOEw5bWFiV0dFZ1Y1bUZ4RUpDU3VmbVVRdGNseVQteTVlMUg3QVMxcHJ0V1JkZFpRaHhSdjFoSzc3T1VsZFIxbmJFZGhnbEZtc2xBQVd0RlR1Z1VWUHZHY1BaVzVfaXZuLUktRkNZcF8yRDgySXdB?oc=5" xr:uid="{2D6594DB-9822-4FE8-B616-5BF760AD39C8}"/>
+    <hyperlink ref="C827" r:id="rId69" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxOZHZ2a19UaFB1NjJLdlluMVpkMUc4emdJblhOVV9obWgxa1FGMGxSNkRBcjdocjJnTGF2UUZYRmVvSW9fcmotMmJZS0p0TXdmNFItaS1wckdYTWVSblZrS1dacmxFTUVzOWVHQlpkVW9hanhwdm5lZjA3dkFkaDA0UFJYY2QtZUdnYmJ1djJteG4zTHpWWDZzNjVIMkU0a042MFp3VTg2Wkd1WTdncGJuOXlSWTl3TVRCbm85dXh5T0VYd01nMkJvZ1FMXzJrclhUcl9QbTRhd3JsUEFDX1VJYTBlVEtRd1ZyVGgxREM4TEpxaFHSAY4CQVVfeXFMTklTUnpOMjVETE93dWJ5S3RMVGo2S2QwS1lfSHpobDBqUExfbWVyTTFIaVZwZW1QUkRtQk9Rby1YTzVZa3A2dk9Ea0EwcEhkM3R3d2NqMWJUX05LV0VaN2Y4YV9McWRvakhZbXNVT2JMRHpJM2dVdUZIRlNDRURUWkpyRE9WY0RFOE4ycjZNaTZaczlxOHM5bnFnWEJYalVZcC1za3B6eEdIdmx3bDUtUXl5SGhrSk5VZlJOakNTdUJfU2RTSFBQQnhUZVFidUlDTGdTeFpJOFZaa2REZUl0NjlXMDdNenotaExWa05NbHJYZXh5RXBkZzVzakFmcHNxUFV4QXFtc0VQaTNManV3?oc=5" xr:uid="{1B206193-682E-4814-8D9B-7DB49C395B9C}"/>
+    <hyperlink ref="C828" r:id="rId70" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxQdGV5N2ZkQ3E4ellWaTdJb0FOTXNwSVgtbC1aa0V6TlRpVmxqcnQ5VWc0MjV5X3JpdG9qT3VyUTlHWms2OE9uZTBqQWU2cHNTZDNDcUU1aTVTYzVDUWNNWkRmTWwwOHdObVF2Q1hYTnBCQnZmVm5ZeGItSms5ZVhSOWFHVE5FWXBMbkdYQjk3OFI4LVIwWG9IVk5Sd3VCMnVydFlQZ0RVYVdHSUlJdFk1THZLNHZGQTJpWjVsMTVpQ09BdXN1aDRTenNyekVlRnJkQ29GLUdJZHdGQWNRMWRkTzNVNUFnUlItTHpSM3o3azgzU2Vi0gGPAkFVX3lxTFBJRlBMYTZYbHlBMmJXa29yaGtpVkROR0ZKck95QVltQXBUR3VBcGhObDRhYzNmSUlTLVpNbHdCcTFiVEVyYnVlcGVZdjBTMk1CalczYWd6elpBN1F2V2NWeGcxSy1PUmNKUkxJMGk4UmpkS2JVOUZMMnFSVXAyNGRWME9UNFpENXVnS3hJSmwzeElDT08ydGgtWFRvek5JNDh2Z1VPOFdoWTlLOUxyamhXVFFMM0RYbkdJc1RUWTUzOElHMzBkbk44TUhTc3l5Y0N1dHJGbjVvNG1uNHl4dVVIbnJReE9WYXVmQTNDaGJKM1VFZmkzVy1NcDNZZ1RNbzJqSzBfNXh2QjdYTFhPX2M?oc=5" xr:uid="{74513534-9298-4BED-9C41-1B8073C0AB2E}"/>
+    <hyperlink ref="C829" r:id="rId71" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxQWU9SX3dVUHF3Z1dQZmRaUFIwbGVscEVaVTlaOENLV1hyYjhKUHd3b3pDdmstYVRVLUlzbjh4SG5Sc3pFanVETUFnWUVGdjFJV0JGTXliVDVMSi1HLW1HcWdEaWdrOXRVUS1seWRZc1lYUjdNZzVyNEJWd1UyT3lLbjA2ZGtKWWNpTGtkR3ZRbGVXMF9xYmNUb3FBUGtUdzJHanpiaG5QMzFiV1duekJBMEFMV2RFbEhiQkpFcmt3ZjQ1S3VOeVliOHBONE40RWNDek1yTWJJNDhVREJUN2M0QjkxT1pSMFV0UzAzbTh0alJGOEctaUI1Z2pSbXVQS19WdVhr0gGIAkFVX3lxTE9sdUlwNkJHekNJTWFCbzdfYmVBSXJGZzFRblZBS0pvbE0wdk1wSWR6VUh3RVc1ZjM0SHFyYmZhbHVSRmpnTWVVbUhVdmJOQmhmakZVZXVLZHRRRF9ZV096bU1CT3dsRnFuRHBpbm5jMjlqaTFqSk5ETVlIV2RFVE85LUM0d0FDQ1lpZUdNYllhYUIwR0ZBaFJSVEdQV0xKdXEzbV93U043N1pMVnZudWdsVDBBZzBtakptV2ppUmN4NGM1eWNrTW5acVpHNnV4Rm1KQzBiQ29udDZmUjI0TlRpMThlR3A4R3NabjEzRWRWbzRkaE9nS3pzcHozLWpMb3ZEdjIxNVU5Tg?oc=5" xr:uid="{23EE7DD9-75CF-44D6-AF80-2ABD9E79D83B}"/>
+    <hyperlink ref="C968" r:id="rId72" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxPLV9ncTRaOFBRbnFBNmZLQXk5RzIxX24xdHFXYTVnOXpibWs5YlJjWTJqSlBnYjU4MmhiblVnUTFGQjEwTHZpeEs2ZWw0Y1RZRjAxNlEwZTNtczRHdTRDclRuOUpmOUl0QlRKQm5fTzc1VXVpeTBkSkVuUFRWMTJhQ1dVNDdJb0ZSN1dBbzlzdEJBTnBXWDkyR1FuUXpzRFVWanBxSnhodmZaZHBiS1VLU0ZRZ1BZczNPZEtNWTduRUhYSXRzUHVyZ1FjcHN4YmJkMWFuTUVUZmFmcVY2NURtYTZuNkU1UGJyNXRXUnduOERmcmhZUjJ2dXlxbE80VHlkaGVnNjVjY1ktSHJHN0lwVdIBlgJBVV95cUxNUWhTUHNXbnpoQzl3Q011dGFQRjdCMFgwUGVZb3dtUGltLWNZZlZWQzVOZGUwSVYxdVIyRlNsYTY2ZDQ5SGk5UkFjS0FOaVBHcTVzT08wbFlKcWd0cVhabndObW1MaU14X2E5cGp3V1A2dTVyaFB5UXVEdXktQnBUdmZ2VjcyWmJBY05GbF9kQnhjaFh3Wm1EdnJoX01GVnJwbmJyRUdIdUdpbmpFeUNKdlRsd3oyWEZ0dTFOQ3VpVkZLQ1RTQzc1a1RwUnZ3TjFudFlMejJCVXRUNi13SGtmV3g1a1A0cGVwcUJtMDUyT1hvclBJWVpUMk0tNHBQU1VXaHg3WVFpSDZ2Vm1MT1V3c3NpZzNYUQ?oc=5" xr:uid="{F690590C-A46E-403C-A509-D4790F0C3E72}"/>
+    <hyperlink ref="C830" r:id="rId73" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxQOUw1T2NYOU1WQlVEOVYwNllyMzlxTmZhZ2R3eVd5Z3d2azVNb0hwRUZnelRUVENsbHZqdkNPMWdOdUV5YmVnTHJ1VHUyUHlaS19aaDloUTg5Ym9PQWliNDZoOUk2RWtmSEJkX1pDWG9Ld2ljaFJPSGIyMUw1M3UtNllETkt0YTVIcjd5ZzJIVm9Gb1l4MHpkX2xaRUtITUNLTE9oeThvX0xDb0dBWGhTQ2tRTU5fMnZSNXBTRlpUSm9SNEM4bG5NSTJVVlpoa2tUTHZjX3NEUEYwT3U2MWdmcUE0YVJqT03SAewBQVVfeXFMT1N6elFuWTlteE4tQnF1UmJLNWFta1VHT0FIMjBiNTFZdGJ6YVVqbWVFR1ZwN09KWVBUUWhUMTRJMHFqemFzRzNyRzFPalF3YVprOVcxY2hKQkc4OU1BcHFUeEc1YTNRWXVZRk5wd25NempGU1d5ZEJuQWtXUzJBc0hLaGw2X2JrSzktZkhGSXpQX1ljczBqaGQzVnRMcDNJZmltaXR4TzRuSElNZzl1VWNtYnliWmRTUUZ3Z2xyYUplVy0wSnp5cXpVRXdsM1NnYzZCVGhQbllZVk0zRU95NTBQLVNvS2I0Z2hnM0E?oc=5" xr:uid="{95FEFDCD-C61A-4912-A049-06A202EBC7BA}"/>
+    <hyperlink ref="C831" r:id="rId74" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxQaHk1UW5RSXFzcFdrWkZJSzZlU0hOdHFxSTdNV2g4bkRUazBEVFRXVV8teTVVTm1lWVVxTVdab2VTRUJyQklhYXZJN1lZS0dETW5jVnJZYTdTSTVqdUh4Zi1sWENDRDdQOXl2X1NCNS02OHAzOUFoWElfQTY1RXBiTzJBNnk3UlIxR0NqQlBBczFfYlJJQU9oNUt2V2NOaVpYRnBlYjhxMFd3QXNuQW9CYjhFbm8yNUVxc2R5VEt2Z1MyQVQ1NlItRjVobnBIVndSX252MXgwZ1lxenZJRUJMS1VmeVFKTlZZbklCUk43bnB0VDZCT0HSAfsBQVVfeXFMT29TdmYxeGhRX0RGbDZEQkN1N1RKY1F0d043SHowcWRLWXlBdmVRcHpqaEdvLWY3XzhRZUUteVV2TVZ2cDJndWZVSVh6QmljU1lnLW81anVNTzdpeFNXX0RzUXkyMGFkaWFXdnYzbTJKWFlZWlpVR2tXR0hnd3pJUlNudmotTFdRVHpqM1ZuWVlJN1ZyNlo2NkpSRFg2WTNKVWxqdGo0aE40U1pjcXBmUG1KQXVScXFHbFBlaDdNNl9UNTB6ZG40MGdXME1FMmV0aXBCR1ZVNlQwdUY4V3ZRQUJsVDhGOGxsRG55N29vMndkc0pUZUtzbFFEYUk?oc=5" xr:uid="{668DFA48-4826-4547-BABA-6D41A901445D}"/>
+    <hyperlink ref="C832" r:id="rId75" display="https://news.google.com/rss/articles/CBMi3gJBVV95cUxNR25JOXFVa1FHUi1tVG9RVlNMb1E4QjNfN0lTUms1ZEl2a0FvSG9xazA3ZTdjMHRtVzgxeXF4N1FKeXg4Y29ZWXl4Q19zaUxYeTZRQ0VnSUVYekw0Z0pCUHdfVVhBT3FCMWpTN3lNSzJuR1gzSVdCd0g5ODREQ0FTNFQzaFFPNmgzV0U5RTN3Vm52d2VmeFV3NHd6cFBtWVgxRzdhcDdBcnQ3a0NLNFg5WXk1ZDZxekZ5eGFrYk11cUctSHZ2aGpnemFXN3Y1Z2E2SnFNYUY2dk9NTVE4NHlIMThkbGRpS09uZTFFX3o2MTNJRER4T0lkMFBaSXZqSlA0NUJTbkw1cE56UDRpUk9iN3BnN1F1T1Nqb1BhS0w5TEZ6N1pkZEIxcDc3THYtS0RzWWdmcmMyZHdNZWRkQVNEcG45TzYwUVNGU3ljbEVjSGpXcGg2N0VWalBXVjRyd9IB4wJBVV95cUxQbUx5NGZIN1dncVhDcUxVQ2VMWDE2SHA5Vms1NThqNkVNVThJeXVHcUxnRFlieWdjeW9XTUlaQlBQT3p5SmM2bW95aGtWVHBSNWRmMUJNcHRLeWlFU0hUb0hyRUIwa2VOX3R0UVdfaU1uWkJBWDNKZWdXa1BaSXMwUGRNa2NnZTNzZzA5YVZPMUR4TEVTYzB0dGJxWGZPeHg2SFNwazh3SlhNeHdsX1RtckFWOUxBWlluWTg3bV9fM2J1X2VBUURzT0pja09KV1lXNk14Zi1vQi1HbWdGZDJoX3ZpZ0d2OEhHWGhfRzlsdmtCdkM0ZUJYOFVVVmxadlhRMkltVnpRZVY2d192c3ZwMS1CcHpjZFd1eUg1YXhRQ2E2eHVNMkgwUnNnTlRzVHVHNTJCRmdaVWlDNGZqZjFoTm4zOTZUSXNSZG1vX2JpSl9ybkxfMlpFUUV4cmRmVkVMZDA4?oc=5" xr:uid="{D8B64C8A-7EC0-47C6-87C2-D3D43A845630}"/>
+    <hyperlink ref="C833" r:id="rId76" display="https://news.google.com/rss/articles/CBMilwJBVV95cUxOekx2WS1FUzNYS1Jsd2d4YlBHSDctVGp5UXE2NEttT0NrdzlvWjFFbHFldDZrWGR3YlUyOW5LVXEzem0wNFR0Q1huVUo2ZTJ4ejk3ZGtZa2ZCV3lwY3A5bnZRMThOcmhFdl9BRTk4VE55TEVZX1c2Tm84Z1RIb29mZTZrdHlodHU3dnRuVG0zTDR5Y0JqRTRlTU1JV0FsU3BnSXVhTWhaNU42VVVTWlZvQ3oxU1FEWndTQVpMa1Z1UDJ6MDU5WWNhMVZvYmphSVl5dkt5Zm5pOG54ZmdEeWlNek1mTmdkc3RKRTNLZ05acmk1aTM1VFQtbXFOQkxEd29hbmlWcERxSFZnUlo4WURLbFlYb2VjNkHSAZwCQVVfeXFMUFVqb3Vmbjl4T1Y3UlRsN21kbXRyT1V4Wi1LRkZpZmRGbE1WLUVucHhLSHdpUWh5MWhJNF91OE1oQWlncTlNVHZwMUtiVTRNLUtWY2ZUOGNnUEFRUlBsLUZCX0NUTWpBLVFSd0NQQlk0b0VhdzIwTDVZeTk4alh3TldLUUdyU0hPM2h0ZTAtOWppX09DX1g3WGlpMUJHSXNFRUVWOWdaOHV4UEFlTDRsRXJhUGRNTzFJRV82NWlrTVJpX3ZwaDRoTG5JekRUWHllcXg1a2VQMVh5VzlDc3hnZ2hhQWVuR1VPZkpYUEdQY1I2LVhqbF9MVWMxVDRFS3VnNDg0UERlNF9iZWQza0tlTGVhS0x6WkZrMlZUdlc?oc=5" xr:uid="{9111C1CF-37A1-481C-BC60-318BD676B777}"/>
+    <hyperlink ref="C834" r:id="rId77" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxQaHRTYlNFbTlhNFY4UGRndkFGYzY1cDR3YW9IdWRxZFRraGhoU0ZCT2F3QVpUdWhNWUxXbG5HOUtaX0NzejdrSGVoU0VyYnZ4ZWUxUjQ3M2pRNVhaNEpfcjRYLUhEOGJHbUJnMVE1Q2ZyampxQ0FINFUzc1lISk0wTjIzVFd2dHlXQkNyNGlIVGZ1bXNzeWppT0l2UGd2SDNmcWJEZjA3X1huV0dSbmFoQVI2WjdtRUwzc3RQeE5PUXlhM3hYY3RlaV9GcnJMM2IxN2ltcWZHWXhLUlJNd3N6U2xSWk13QkxHWWVwMjF5SWdsQ3lKNlh2X3FuQ0wtT3dhMENQbdIBigJBVV95cUxNVWhBU0xHMmJnQmlsSWgzaVE0bGdlUk9maVdaZW03Sl90eWpNRGh1MEhLZ0RxY1BxSEtWUkcteTRiUHJyYmM0emlSbEZPbmREdEI3MDR0bjh4bXEtbDc2UWZWem9rbGhWLUhwaWhaMG02YS1BZ3FmbHRYYUgwR0xuclU4bmpOTG9ON2t4V1ZyQ1hOUmJYR1BMY2cyS1dabVllRGU0ZWNPQVMxSE50T1BvYzRjTFFMRm13Qkgwa3pKTUc2MGRPOHRjZ0RMcF83LVJUTnIzYmVhUWNDZGliTW95X0szMkUwaEFjZzA5Si1KTVEzNVhvQUQwSVkyT2Z4Q0Vmal9pNGR5R3FjQQ?oc=5" xr:uid="{37722CF0-7F2A-4205-A48F-126A2740DCDC}"/>
+    <hyperlink ref="C969" r:id="rId78" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxQQUF5V192VVBHR1BPWHZNNFpWYlhld09RMC1mVWR5elFybllRVkJEX2FtVXRMNm80eFlVdjdLV0lsV2J2ZGJlVEhhWndiOHJZVDFBQXJEajhlSzlJSzFodHdVSENIOUVIZVJZMmtEYnowQmhIX1ZubFo0ejZaUWJ5cjhKOW9qVkxneUh5QXhvOHhpRkswTmg2bEk1dElwaUhtSEZMNDRJQWdCSXBkN1JLZW1RX2lhVUxpZUZCSWFSVm9fRlZJTFd1LW5YTURrQkJweHNfN0V2SmNzeF93eWk0Y2YzLUkzb243N0FZY1k0SWczd9IB9wFBVV95cUxQb21iT0ZSQ3lRamlwQWplMnZjNEJzNTZRUDgyeDhtNEIwOFl2eno1VEVlOUlMVVZkcDFUekkyUkhNYjJrWGljRWw3UGRRa0g4eG9pRW5mZEpnX2xFSFdPejZoOGlxS0NIVzBWZktTS2t3V2JCcVBmX0R3MUY5MTNYa1RGdHFjUUZxcHRiMFFoczFSeFh4Z0lWb0RuSWdYb3VGWV9ROElXWFBWeVJJb2hrMkxSdnFZVk9vTUZ3bXNRNk1JTFljTGc1NU4xWW9sa0JuUS1JTWY4RDh6RU5OTGt4NU40OWFpU3ZGM200bk9FYlRYb3RTd3E0?oc=5" xr:uid="{C73B4AC0-8BD0-4746-9A6B-6A74F60318AB}"/>
+    <hyperlink ref="C970" r:id="rId79" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxPNHdDMHNfRld0cGxIZGsxOW1mcE1qV3BBTk93OVV6TkxUSktuSzJWYm1jY2ZRNGk2eUMzUmplbXpqOHQ3LVNENm83UlBQQ2UwU0hPNDJRX3p5YkNVMjFPeGlvQ2lJNkpmRzdZRVJodk5TamQtVkJEWnFHNmpUOWZGUnp0WjdYZ3J2TFBwVnZRbGhhdlVlX3ZPVUdWYzh4ZVdQZHdmYUdncEdwcVlPSVZMYXF4WkRLbVQ0N2VMdm9yOVlFMmVzMXQ0ajQyX0Eyd243S3JJMXlvUGQwamx0STNPMjhNNUQ4eFI4bnfSAf4BQVVfeXFMUEpqNkVrWUdSam01RHB3Z3FTLW5BaERBWWV2WkR4WmJhME1wUFFrTVBBNHBneWVGMUFVajltYmNfR3JIOWI4UXdYMGxHVUxydTVIaVdHZk1takpkNjhxZ0hoSVpyVF9KbUd5MVRTVTVaNWtzZkdIRGF3a21uMVVMTjVJVzJFTHk0UFh4R2wzSl93UUlOczFIV2NQNDAyLUI5WWdfWTRTTlZ5cC1XVnJqcVc3Mm5QNHRLdkVRZ1ZaSVF4djhtZFZRcVVwZ0t6Q0Q2MktPS2ZFMWNNMzMyLUlaVmtPNWJQMGQ2MkdJWU1ib2lLbUs0SHg3VGRyVG1sV3c?oc=5" xr:uid="{B3332843-282F-4C0B-A30F-4C641A3B9275}"/>
+    <hyperlink ref="C835" r:id="rId80" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxQbFhULWhMYWQzblMtcmc3alRpakNoUnNNZDdyV2FyS09OTlpMa09yRVZPdGJiQWJkSU9XRzNFcXlvaXZLVU1YeVNneWx4anBZSmFyeENleWI0dWVRcGlHY2ZVX2UzamJ2VThvU1o5dWlFc2NQR0hoNk13OWlwNnlBRlpWNlJENGJfUG1xenk2eVFCeEtaY3NTcUNER0pKdzJkaDN5LVo1OGhDZ282cVF4ellIMk5la0xjZ01xT2tpVWpNdDViUmpDNEJRdmFyRm9KRnfSAeYBQVVfeXFMTkFUWHUwVFhZNW1OLTUxY3pDVThYc0J1XzJJX3V0VDZ3ekpERVRJMVJrWmIyMjdkZFk3XzBCLWhhcHVHbnJZWXJiUHR2eHNYLUQ5NTdraHdLWm1RamgyTjlPVVI3ZlJUNmZqOFZIcldSd2NOR3J4a2IzdHJ0R015bTdCbGJPanQzY2pEYnVQUmVSV0RCb1BjOC02Qnlxa21PSkNqclkwOEhnNTdsQkx6MUhFMzFLQmFOdUY0ekdrWjdoRWNHZl9Vc2tyeDZjVHZvN2wzWVNTYzJRZ3NaQzBLWFBoc2ZUVlE?oc=5" xr:uid="{DF71B7CA-A33C-4B8B-B10C-83D8998C738B}"/>
+    <hyperlink ref="C836" r:id="rId81" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxPekR1M2pHZGw0cmk4SlhRM2RaUGVZcmZBWnRuakpvU2VLY0g0YjgxbVBKNWNtQlRPeW85dEtObHdKXzk1akZIRUhlazNaZ2tsY2VFWHFvbmpHS3RNSDBsdUoyZHZNdTJuVEVVaHYwUU5yVVVhZ244QlVwZ2tValhGYmdlR0NEVVVxbGVzaDFfOEdWTWQtY1BOV3hoc1hJQUJuWmxQV0lNTEVQd3JlN1dKdW4xVC1fWDNmbnRneUpn0gHSAUFVX3lxTFAweWFySk1faGoycFlySEhWTUFKYjJMY3AyanpmbzhDRXdpUi1aOUJGLXpEdmJsV21oVXRWc3d0WEMtaDBnbFFfbk9IWnRDbEZ2cE4xdTgzTFF4d1R1NlJwalU5d2hCeWswSlUxZ0JQQ0tsM1JkLWhMcURSOFQ4RExhaHJYaFl2cXZtb0JsWVVRTVZ2RS1UMUhwZW43OUs5S01VMUZjOGFJYzVrUkIxdUdBOFMtR1p5RWxDOVJXdFFBY2xYbC15REhCdVBCbGllMEVPUQ?oc=5" xr:uid="{3875AA7E-94B2-4934-88D6-0FED592A8FD3}"/>
+    <hyperlink ref="C837" r:id="rId82" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxNM2ZDNnVwX003OWQ2cVlNVFZmak10ZnczZTJfMnowTDZGZlU2X21fRDRsS29QMFlGRy1KSHkxSXRuLUNYcnBqbnpoTVRyOW14TExSVG9hcUpXZFhFeWFVYlZSNzZITDhPdjR2RjdRX0xwWjQ4R0E2cEgtYjVTeUo3YmtDQUozTnplRHJqX0lXOVB6Ml9qSVdLVTV0bzVDQUJSOWRUVC1JZmd4TmFoSkYyTkZoN0szWTJIU24taXJnS3BjNHdjX0dwZVI4emZqcEtTV0x2MDJqRGl1dldpWUZWOEdUd9IB9wFBVV95cUxQaUlKbzBGZm1uQ1lxd0ZHQlEwTDJBZ1lYNlFaVVpjb21qcFdFT2lIUzNYSEVZVFBaWVZfVU45MXpQVURPYkREV2p4Unowa2szRjJTM3B4cUVsM2dERTBfanFUb05laFBJcGVOdjhtMXo4VkdPOGY4eHRjVlN1aXZUUF9PVENXcHdYNlhKbVlqWk1wR3k4RVkxS2pUWHhJLTNQRmt1dFJaTW8wQnE1dHh1VGtSSnBNWDBlOERMaWNsaEZyay10b3lha2xwTWotREJlWDhFMjFVUzdLLUNPd25TWFJCV2FBN3FQcXg3S3Ffb283cktNVXY0?oc=5" xr:uid="{49980DD5-B703-434E-9E95-6A28EB91F8E3}"/>
+    <hyperlink ref="C838" r:id="rId83" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNbHRsS2g3VE5TSWpPamI3RFFaYmgtV1FtLWkxNDVhSmlFYVNzSUhrOVhFSEhZTGhVNXZ2Zzltc3c2NW5GTmVwZ3djd0tSYUVmTWFxUmRiay1NMzhsOVZ2NXFlM01jY1BDSzYySEtwQV8ydl9MNDkyZTI3UUdRZTRwU2o0bEhxN1pDTmU4X3ZuRm54RHQtZHlFdGNYOUl3dnM0bWRoSVFzQjU5QXZCSmVFTV9uT2ZNQ19RQk52SGxqU2hTWHV5WU9waDd30gHeAUFVX3lxTE5NSFlRWGNXZnVfZGVJTlF1ZHF6dzNLcEFfQWVnb3p0LXhNVEdhWXJ1T0tyMU5HVDFnM2JDbkZVRjdMbWl3d0VZQjNMZXM5LXRZUDRWR25zU0ZNX2w5amV6dUJUX216Q0FtVUFuWlI1NG95X2I4WUpXai1zckIzYVBpWVlxeFBUMnE3azRaUDQ2cU5XN0RsMWdLRFRucnExNFpZNEx4c3JQeG5HN19EVzNIbkNaendDWDI2RnBLYkJmbGFjMGpCZzk4bENEdndKcXJYbDVNdVEyRXJtdTJGQQ?oc=5" xr:uid="{8A337ECC-BD39-4D95-B915-76A21B1AB5E0}"/>
+    <hyperlink ref="C839" r:id="rId84" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxOcnFQOHprWEE0bzE1LUFZT05hOTBhVEh5ZFo1UENZTGJCQ3JBckVUX0g1Wllud3duQU9xbF9Yb1hCV2x4anZPSXpLVDBtUXFKb3FmZmVoT09VVXVzbk92cGVsa1M2QmN1ZGdqMno2WlkzS0RoVVJkLWtKM2pCU3pLcHh5cjZHa3dka3hXQkgtMlBxWUdvYWpCS1llbHc2ck1yWC1Tc0hTQmdsWXVGUzRwWVgwOW9MWVNkbW9rdEkzRTNTYjE4Vk1mMGJDVGJJamJJell2VFlCNHBWN1VwMzRaRTVRT0fSAfgBQVVfeXFMTjR4akNVWl85TnZ0enpLUnprWURHdzBmRXpvVkdrUEdZRGFfa1gzVTV4eDRLN2UzS3BEVXRudHpjR1hEVG9Nc2lRSUpMUUQ1Z3dBMnNZbElkbWFwWFU5NFI3RGZjMkJpM1lOTEswNXRFTDhLRmV6VnI4Q0JLM3pySTJ1QktBSFY1NDN4em9raGJ4RERBWUFzeVlPMDAtN0dRRUxVYVd4LUllRVRrN3hvSnVEMVdpT3Z2eFdBUHBoakpON1F2R2ZHOC1oR0g4ZWxpY2ZnMDNzTmNqU0NkcUF1V0pYdTRkRUNDc25BT19rUnl2dHBFMTBBQ1k?oc=5" xr:uid="{630A32F5-1A8E-4D3F-BADA-1CE8BF64AFF3}"/>
+    <hyperlink ref="C840" r:id="rId85" display="https://news.google.com/rss/articles/CBMilwFBVV95cUxObTRUMEdsRzFob1A0eFN6Ry1Nc3ZGRk5vdWZ6aHZ5OUlCdlhRUDBTakNsSlE2YzFCdURGdjJld2hPcGZIc3NLd1FHbXpfSmI2dFRoTzZTSTJpQlRRNXNmc2NHRmNlSEpNZWZlQy1Nc1RuWG53X3hTNENZdEdvU2trdFJ0Y3JybGtYbHRhWE1qeUx2c0tjb0ZJ0gGrAUFVX3lxTE4wYXJOZ1FiUnFxQzBjSms5NVF3WEc0MzRNTWJWWk9nc1pGOW5peGZJaWZHRlZ4Q0RZUk01cnlzOTZvTnloeExiQ0NfVWFfSnJCWW9lVDIxUk9WWWJpX0N0bEZWLXJhS3RJZXFpeW9uV21hUDk5cHpGSGsyTVQ0NHRQOUlvYTlZUEF4bEpVbUlVM1lmdnBFZHJsS1kwOHhleXBZQkJQa1ViQ2RyUQ?oc=5" xr:uid="{86DDC239-B82C-47B6-BD98-1F92AE3BA98F}"/>
+    <hyperlink ref="C841" r:id="rId86" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxQU2VhaDNkajRjQWtUN2hIWDR3RWk1OEtLcUhCSHNINktWalRtVks5cmNhQ2ZWb0tGMXVURTA0enU5cFVLSk5heUVUUkgzQkRJbkZfTm9TMXVzN0s4a1F4OWN6YWItS2VncFptbjROcXZHNUp3amNoTnNROG9zZEg1RzNXRHNBOERxV29NOTZlOHdwdnhXV3JsN0tjMW00cTRFLW45RjZhM25kb2pnVmJmZ0FyX2RRSzhPblIyRldNaVdBZDZ6a2l4YWtqcG9PbUXSAc8BQVVfeXFMUHg0cUZfSExxNmNtSEZqQ3k2Vzk2akpmWDN3QmJWdDdIdi1ZOE5zWkNoRlliMWc2ZVZBLUpCb09kN2Z6UXVlOTByVzd0NE1NNVJYNHZ0dEM0cGh1Y2NHQW43TVBiZGo0MExGQWlScjNnOEI5d2xkejY4ZmJEYVR5Nnd3SkFMVUhSa0xiM1NNanpfcXpSVkE0QUx4T0hOTEwwY1h1eXBpTUVTX3lEODBrVU5BSHNXOUlnVmJMdEZ5bkpHazJWWVdxNWdWZGNncTdB?oc=5" xr:uid="{19E3B022-FC08-4A11-812F-25CAC1CBDB87}"/>
+    <hyperlink ref="C842" r:id="rId87" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPd3Z2cjNNakQ4VzR0bEtWREN2eHFDRHZHNmZwcWlOUTFfLVBsRTNHS1E5aTJWZlV3MTI2MVBYNVNqQjFBUXQ3RDFkc1FsTV9VdTRqOVZnbGlUY0lfcERWRENSS2s3b2VocHExMUlBV2VJV0dqRXg1cE9YTEl5ckxWYW4xbzlTOXdJQmxSbUFPbTFCMUdVYlZGbzdGQ2dGeGQxQlpZM1AySWk1aWtLVzFFZ1FONmloRy1UalVfNDVocUdvNVdmdFFV0gHHAUFVX3lxTE40RDhpVmprcmFYVi1BanBKV05iUFM5RlZ6anBEazVWbkdTOTZNcE5aY1Nmd2dac2QyZ0VRbkdhdVoxNGF0NmllUlU5X1RUWFF1S3JTV2IyaDcxTmxlZURRd2hnZFQ4Wnk5NVc3eFFLMVVDdkExZk5fbE1VbDRjLUFhTzlFUHk5RXBrSGxnSlE5VkRSVkRIWXhlRHV6bGRCVVNqdHdMeGZUQmxmVDR6b1IxMzBmVGk4ZEdERnhvWEhFdzNOT3UydFU?oc=5" xr:uid="{A496A324-662C-4540-8E10-9B199BB4C86A}"/>
+    <hyperlink ref="C843" r:id="rId88" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxQY3dNcDVvV3pYNjFkZnBHQ0dNeUdvNHp1bEowNVpVbEZMQ3JnNHpYYWJ6YVdYc2oydFp5SDZKcjh6WDRHejQ4ZUQ2a0NyYklUQTBfTVFGMWktaHVyN1ZyN3RqUllPZmgxc0hDNU94MzVoY044TWZkbDFfQXpEbnlKVURtMThPWFFRSlpFTGJZWmltNnlhY1V0M2N2RXR1T0I0bENQM0xyS0RBYmRzYlY1VjVpaGJkYm02SXRYR0wwbE5IVkdab3VQamtrQdIB3wFBVV95cUxPWWlOMXlGMkdBc1Vub0NGNWQxMVRMb1Rha3QwMlNGU3RpU2tzS1h6aVYybm9CZU9MWkRxRlN0MEZzWUZfemxMLWUzWWh3b05MWk04elNzUG1jOGFiT1VYYkd6dU5hTm9xQWZZRF8zMHpLdnVmM1NUMFZlXzhvejAtY2xKekZVeWd0TFpNcVBOMDJ2NkJLQlNxaDZqc2lyNVNQeVlrNzEyZDBwcnVXMG9FaEZHRkFYZGZka25KczBMZzI3RkRHWTJxeDU3M1VjQ0d6eG5mZ0hXNFJEVEV2STlz?oc=5" xr:uid="{EEA6D5BB-D072-4B1F-B802-0A586E8F52AB}"/>
+    <hyperlink ref="C844" r:id="rId89" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPd0VocHZmaHNVeGhKN01xVDRjTWlONGxla0h5TTMtaGl5R3c0NmhsMTdlU19nemdMYktpeHJIbVA4VWxHejZGYndhcHJmSzlyVHFCWWJiUnFyRXVrR1dKM2NCUjRyaWlFN0NiR2ZPejBvdHQ5ZVAybFhKS2NsTnVTdjc5WlRUM0JzVFlDUEFfbldRMVBweEpFYUZpeXR3RlJPZU5jRVk0WFFYUHJzaFRMTXR2d2s2ZnJtYXE2NWdPOTN1X1N1eGFDYWlB0gHeAUFVX3lxTFBtWTE5dTFNeG1BZEZ1dUtlVXF6OWF4OTZhTGlScUZySXRWMXhzYjlPRzRoSkJ2Qm5ESlVfbExFVll1TDZWWjJQUGRRZGFNM2IwX1RkakZNUlJ6eUpudVZMV3pLcnpnWWlneXltYXpDZ1htVWNQQWFBUkg2NV9QVzZUQTBDTGZiT2JWSTdGYjFneVBGcmo3clRUS2d2YTdkcndxNzE4dGJwOFh0TERkY1hGYW15T3BpWjBjeFNJNVZfLW5BNEM1WDZRRnA1aXBvNnEyT3VTdm1Db1ZneVlmUQ?oc=5" xr:uid="{674E4004-88D1-45DA-9034-D8D74F45EB9E}"/>
+    <hyperlink ref="C845" r:id="rId90" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxOTzY0dEFOc3NDeGVIQ1VnNmJCbWlUR2FPSmxObEo4U3J5dzNmM1d1bUtYLUl1QVYyRjhRZ0RVVWxkOWxMQUt0eU11U3AzTmYxLVBVRHY3SF8yZEQzXzRNWHNkLUtQOFM2eFpnQ01OYmN5RF81am95bEd5MXhwaGVMM3BSVUNUOFZnbzRHdTdqekVJenU3NnVlV3RxWkVFQ0I4Y3l3ajJORzh5TWJZZWJQbzVnazJscGczOV9xUDB4RG5icTduOFpkci0yNU3SAeABQVVfeXFMUFR6U2I1ZFVrV3FLaGRXeUUzVHZJVEZ3eWlyUXZOWFlobFJYVWxoUWZPWm9EVUY4RDVzaVJEYl95ZlhTaGZxclZPak5ES3Z4UnpEMjhnNkJtcUNwSFFhM3Z2eUhKbEdoWlVnSkc2NUxVMng3S0I0bGJBQ2YtcjJQNGtEbWFEY3FlX3pZUlhZaUdKeFNfeXFwUkE5RXVoZ01iUi1vajBSYUF6N1JhMG5QNTNBX3hQTU1nQ251LWxmQmZOU0dVX3E2WExUbmZaWGRfa2RVeFdQR3lkVU5mVWtWWU4?oc=5" xr:uid="{8A07BF7D-833C-4F50-AE50-75D737EBC591}"/>
+    <hyperlink ref="C846" r:id="rId91" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPV2ZYV2xsLUE0eDVfYlZ4QWl4ZWdnMk96Y25YR2RhMFFRaUM4dGVWVzNmYV96d0dLSjJoX2xoMXczWV83eEtoNS1tb01oRkJZQ25xRkFnbkZ0NDVLV2QySU44ZDBPY1VOb1Blem51WHIzUVpJcUZORmlFVGNuNGtIbGFlMU1RMHB6TFZVeDdVbjJsUVN2dWp5STRPVTVUZ184dkNVZFpkd3gwRHFtOGptd0JRZ2xWa09oMzRYMEJVaXRpNV9xV3fSAdoBQVVfeXFMT0xCOUpyYzB1SzZtUjF4WktDTWVEQ3BKaG1uVTFyX21iemg1bG15eUxMaUxmemg2N3dEYkpQejNiSl85bG5FT2syclhMMmI2UWpoNW14cE9sQzhfTTBZbW01U29UVVA4RmRiUlU4VkozZk0xT0lkdzZwZXZiZHM2VXFBRXd1ZmhuZmVSUXZHVFVyT2M3YVA4alRVVmlmQnNaeElpOHhEOU9fcDA3VC1WbFRCRl9lajZldDE0VVVmd3c4RHBPVTZJNlVwOVJZNmEyNFZEU2QyOFhGOGc?oc=5" xr:uid="{9B128AFD-927E-44DF-BEB6-D1AAB39803AC}"/>
+    <hyperlink ref="C971" r:id="rId92" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPOXJnVnExVno0MDRjZGNpTVctdXFMdVJ4UjFqTVVhYXd4NUVoU00xSE5XY2xiM2hmSmtrM1VBNXA5TzRZRUFob2JONmJGUXdRNEpQSkdtWThmeDJBZ1RLUm5hZ0JJa3ZGTjJCdkdIVDJfTHRjR3BidVJKT0hjVC1HbXJObUR4RE9qeWp1Nlg3Q1pPS3FSU1F6WXVpcExlYk8wZFg3eGNRbVp3S25YQVVSaWdlX2IwOUxKRDZVWnphNS1MakZGLUHSAdoBQVVfeXFMUHYzT01PMlZWeVFZc1B0eTRKQ2xkR3g3NHE2aFhWSml6THpLZU9sODEyNk03cVhPN2I0cnNBcFhEY3JkZHRKaHotZUhNYlNUOUNIX2FBTzVwbnlkUDg5Wnc1cTNDODVPbHNZTkRlSmxzdVYzQmx0TXhtT2NhODl1MFBXQkNQd3A3a2t2ZERuMHkwcnFnRjFXdVhPM3VXODRPcjZFNnQ2OWxyZUhJTEpDSGhWM3FBMEppX0dGVVd1ME1RU2ZpT1ZtNzVDRkdlX05uaGZkc09NRlZDUVE?oc=5" xr:uid="{036D269C-20A6-4647-87A4-C1C64C9F846D}"/>
+    <hyperlink ref="C847" r:id="rId93" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxPaHRMTi1DQjV4bVpjcTdoZ19ucnVFUl9aNEd6bWVKV21uZG44dWtHZ2EyMkd5d2wxTkpvNHVXaXRXZ2NpOTEwbGFWTFNqZ28xVU9ZS2NCWjF6NUpYNVZVR3dnZmlUS2NoYUdtX2c0SVF5RUdpbTFBeDhLUUFtdmRreFlTOS1LamZoQW56OTBKVXVjQ2ZBbDduQl9LaXFkanBzNWJmZFF4cmhjVjdxN1p3QjNkOUtDeG0xVV9qcWJ0UzZCX0JyTmxtaFB1S3dJSmtj0gHkAUFVX3lxTE9YTGZreW8yNTR4QjJBQWhzSzZGWFpnbnpFbWFhdlNOb3pNdGhGb3RuVWctUWMwQ0dISVBOS0trV0tkamgwNjVoYUl4T3paaWM1dDJGd1NlVVVSQ0MtZmVjbXJGNHdGdUExUFRBd3Utdk5TV2prTEluLTBva2V5QldtM0tVd0VrWUM4MEU5TEVyX3pCZmRJNld6UnlGdUlNZ0dCOUVPYUhmM20zZnhRUGs1a09iNmRBMkVlZ3lidlhLZTR4bGxDNHhpODcxdGFUZnhHSmdpNzd5b0hrRDhZYUhiQnBPaw?oc=5" xr:uid="{11FA9C50-67DF-4FB9-A6E1-9642FA53254C}"/>
+    <hyperlink ref="C972" r:id="rId94" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxNd0lIZGM0SjdaMzg5SGFDTTFHZ0NfZW5WMWpodzFZWkYzM0lod09jOEtuN3RKVW5OUGp3UXhNb2M5T1JjV1hHNVB2aVpnMlBIUEREbU52THpkdVRCYTJOcXZPdU5aUFlNRFIwem9vUEY2UHZnOEEyV1J5eU41VGxWZmdZdXNYS0RxeThLbVVESzNNV3NpV3EwbkxBWjEwbndpWVZDS3dKTmhMemRTR1hUQjhkaS11dXlhVnhZ0gHPAUFVX3lxTE5ic1p0OEkzeXhxM1pJNDNVdmtMZkp4RkpNQWp1VEVmd01GV1loNlNWOThvdlBnWjRCdHhmZ3RaU2RJOVRubDBHa3R1TlhyX2ZRdHpkdDdNbFdwZV80OUdFZUdZZ3I2czlOSk5fajlxUmpFRXBPd2s4bS1tM08zblpvVkU1M3l2NVEtX09UbGRrQmRpNElZd3lrZVZkeVkxZ1dmSGlKV21QVlNqRXpEQ0d0SUpEbl8wNWlBc1pUMFZuMm15anVQUERDbVBuelZnaw?oc=5" xr:uid="{98C14DE0-97D6-4FF0-BCAA-6D6A82C2E035}"/>
+    <hyperlink ref="C848" r:id="rId95" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQaEt4cm1nYjRQYmlVakdfZnBRZjhPWlNmaDFmdFU3U3ZRUmZyWkJtMGpxRGNuT0hqaXJqOFEzMXlRN0ZfZjNGR09xWVJCOEtOZmU4R1MwdzlmOHphc0tNbkhZcXZHWVVjVG1QcEJiTEhOam1Ya1hUcWxUV0R1Nk5fNXZhYkFBOVg5QnA0TVV3X041QWxHeDZ2ZGFzdDVaTG03ODk0aUVQZmRodUZqS0t1WXVHRE4wRDhGV3RadlZlMWw5Z9IB1gFBVV95cUxQb240QUhTVmFYMzgwdzhjMExvVmNSUTZfZ1BJa3FGY3UyZ0xEMGJMVGRlMElyNm1XNXl3QXU5aFNQWndoSUJMQmFVS0xCeDVVWk81aF9LQXllRFktSFI2bDhCMkpxc3pzX3BCRXZCbUlQbF9ZWEFZUGJ5ZHliS0VqZmZsUVlFTFNHX1BVQ2JaemJKTTEySGpwYWI2NTNJamxQNlBRV0ZLNFhMSG9zS2oycEpNenhHQ3hwSXZKTi1yTzZiT1ZaanRQSW1ObmJnQVFiTzJHZXVn?oc=5" xr:uid="{01EF4BEF-3AEF-4616-BCE7-CA08FA99ADC9}"/>
+    <hyperlink ref="C849" r:id="rId96" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxNTkdQczlFemdqdmx6WkJocGhicWgwUGd0SVFhYnR3Q19lS0pQRy1IVlBudjVtS3ZMQ2JUVVFvUFBwYW5sdDF6WUQySy1QaDNUSmxES3RCSGtHZGE5MXJrc1NXdkk3SjhBYXZaeUpjZWNxS09wZnAxRGNBQ0Fya19tRDMtSmNzRkhtemlZam15X01lc3VEU3ZEOXdIdWFjMm0zTVBMRm9FbE5UZW55VVpWaF9UQW5pWWRwaV9jNFFQSXpjblZXdXBGeU84eUlMQdIB4gFBVV95cUxQV19XY19wbnExcWFNNHVNekNIcllfUlV2Q1NrSmJ1ZnlJV3p2Y1N6MDBxX0VzbGxMamhOLUFmX20tQm5PTHhIMVF5OXhsN1lMWjc3XzhFVWZQb2QyNGFRMW12TXNIOFZ6ZUg0OHFXeEhCS2Y4TlBaNW52V0xYT0w2dFRtM3RpSnp1UmZwOWdOMWozZnl1SUY5NE1ES0FWM3BQaXFQMDgwZ3ppN0h4ZHU5Sll1dHBxZnprWTZwU25rUGJRZWRzS2VCbU43VkVwY2UxTnRNcjBoZGV4azJVbDR5dER3?oc=5" xr:uid="{5A3AC6EA-59A2-4FB2-AB49-F3D95020BDCB}"/>
+    <hyperlink ref="C973" r:id="rId97" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxOYUxZc1pZY0NQaFVBX1d6eEJlbUV4Z3dtVlZPaVNkQ0c3Q2pmMTl2VGxuQUtmdGJEVlFFT0xLR0otVm82b19XRnppTXdQSUk5MF9oRzBIYWtZNlBCaDVkc19nVWMyX0VzMXdEZnJkT2MtSXBzbVE2STFGc2Z2cGl6aTFTNG9OM0tRTVk5S3RsNi15d25lUDdhZlRfdHpqdWstalNGQWxFdV96V0tfOEV1WE1RY3VqVmpjNjNqS0Fyb0FOVENBNlhmNndDQ1DSAeABQVVfeXFMTVdoeTZ6NERVOWl5UEp3cy0ycFpPTmNMQm9YRmVDeWUxV1A2dmxLaG1wZElyVmpkU0xWV01aWmxXRWMwZnF2STh5QzNMRElHOTBhcHVlcWhhRml3YlkyN09KUURVZS0tV1VvTE9BRjU3c1dRMnN1bmFqOXpqRjhJMFlSdENkV0tCREV5VzdyVWo0cWlRVEJpNVFYRzk1eEoyQlc4ZEtabGptZzFRN2cyRjFoSF8xa2lLd3h5dng3N3V2dVZtWUhJWHdnTjdiRW1oX1BhT1lJOEJjSzVlY190OVA?oc=5" xr:uid="{025C1B58-18B8-45B3-BC36-9DE26E3A429B}"/>
+    <hyperlink ref="C974" r:id="rId98" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxNb0ZWd216YmNJMEZzZlZIc2tGdnVBZjlzQ2p4ZzJTTFRXQm5YeWh1XzJTWnVkZHBIemxmd0tLZ0ItMzczX1RzMUZXaGg5SktwQWF1TnE0UldhX1V3YVVTbXI3WFduRERZNG9ZVlA1NlVxR255S0Jub0ZTelpFanlqUWtXaUpDdzdmUl8wQmNGWE5PQU5ZNlFRY1BER1lrZGx4YlM5RUJvU2hzMjlVYjl1Skt6WHJhclo1NDZDT3pmN3RzWXY4bXEtTkZDdXVkZ2R2NzVOQdIB6AFBVV95cUxOb0JEMnN6S1hWSWZqZkZ1d3R3WkNZM3VfU2VSOW1MQUhGZ0NJUThiaXFxdXFpeFJTSDVWdUVBdWpfYksyYWYyT2tyNmF4WFduVDgtaC1VYk51c0EwU2w1S09zU3hWUlRaR0c0eVdXcFBqXzQ4VHhZS0VGOW90S2NKOGVoX3Mza0M5dFFTZ192c0NMZXZobDljRko3V3pabDAzQ0pNMkZrVVhYcFA5WGtRTlV3SHFDODJqelRwejdfVXk1Wms5dXNMY3pXZEV4ZXBvUGdoRFd2M0ZnUFRYdkNSMGV3YmJGWHZ0?oc=5" xr:uid="{C833C12E-97F6-433E-BDB9-7D1D346A1745}"/>
+    <hyperlink ref="C975" r:id="rId99" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNLWNMWGxuZWFfTFVLemtUYlZLa3E3TTE0WkpCN1Z2VmZUS3ozbTZWZGxvZzNrWkNkaEMyVm9nLWJJd2pvZzF0VXA5T1gtU29Bd3dYUmxnYmdCLWRLeE8yOGFnWkVUQkM3X0pseEJVcnEyVl9yT0pnaEctV1dtdDFsS20tUW9saXh4V1E2RHppd3R1NWNrZEZtTGJ1Y1E1S1R6aDZoNHpHaWtPWmFkZkhlaURDSlRMb2RZb2Zackl30gHSAUFVX3lxTE9zVTRPNzhITWNtVW8zbV9KN0p3UnNUS2FvcEo2dHp6OGY3M2pPdWFqYWotQVl3ZjJtbzRmdmowbGRzMVNuYWpUR0lkVGFJX3kyM3JqSHlSdVM1ZjNQOXNac2RZblVfV0RBWEJJaENGV3R2TzFiUUxrOVZHMFRJTUFWVU1HQ0NqTVN3SU5TUkxrWXVNX2s5cUxOLTJ0MnF2OUpOX0oxb0dFWjlPT0dEQU1DSi1talhUS3huTml3WjZUY3NMajhNSUltZUpiTmJTaUFCZw?oc=5" xr:uid="{B5AE52FA-B81C-4C51-9DC5-A89C381FF4B2}"/>
+    <hyperlink ref="C976" r:id="rId100" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxQbjFsR3VJYkMybmtLdEkwaC02Z2NsV0VFTThWdTk1LTMydG5uTU56eG1IQmtvcHpxazlxRzlKRnpfNDQtWUxZQ2t4UE5nOGstVktBRzZrZV9BT2YwdlVKb19VMC1EaXRXT3BkRTRWYlVuSUJNQUpGUlBFMG84eVcwS19PYXdBM2pwbDB6clg1bEQ4Q1NuZVgwcEt6NnBCRmNNQUR6TVMwb1g4UEtCZG9CM1d3a1psUzZK0gHMAUFVX3lxTE51NWhJUVZJdTMtalFSZGhpbER6VWl0Ri0xX1MwRkZpWmVvdXdwSzRfTTJrTEFHNmNvM0lBZEw5UEN0T05tYjQtZ1RyR2tyWmdtV3J4czVGcXdja2VNR2NDNUgyajJMV2lHVFNubURuZEQ1TUk3NFlqLWF1dWoxOUpkbkcxTFU3Wm5iY0dGVHVVeHBmVEJvWXlOUWdPTWlpNThLRmp3ZVhIQzRTWEwyZmpBWHF4VEJ2RFNPNmpIOERFc1BYeGVuRVFQVGZ6ag?oc=5" xr:uid="{7B43610A-CE3B-49BF-B772-C816BE4AB759}"/>
+    <hyperlink ref="C850" r:id="rId101" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPdUs4SV9aLTl5VFhoeUJNcTlpc0E5T25hSmotQlZnVlR3YUFCRzJOOU05dERIb1ptZ1Z1MU1mQ2dqSlgtQlZPN0J5U2tpTmVSNVNISWQ2bmFnVnRCRTVoNmlxR0FmbmdRTDljTGtiM2NfVkpsOTZMSnVlU0xSTXYzZ2lQbmQ1MFNhU1ZfWFhabEx1RmlRdkItUUJaZWtYTHdrN25GRG9rdFRFQlJBZ2Y4dWtpMWZWT29xazVwM2Z0ZFByLWZX0gHYAUFVX3lxTE5IenM5MVc0Y3hKMDhxQkdlWHZSU3VpZTc0SExmbnplcUtxWjR4N3dvMXh1YWlKWUFLaXRzM1k3akVxNWV1OU1zTTdFVzZmR2ctZ0hqVl9uYmdVTngzeHJ1OG1DNFpYX3dPQ2NtTlZIOV8weWtMaVNUUE5reE1VLUJvQkdxRTdlbDMtcFc3MFNKdm5XVk9fcUNtMUhQSDFTX3RTV3hzT1NLS1dzUjBnZ3VPOFE4dFFEY29aSlkxQm9XS0VEU0ZDUHBsVE5VMW1sZzRkTGNwTG5EMw?oc=5" xr:uid="{46CC75DA-6221-4109-BF49-0439EC9CF9E0}"/>
+    <hyperlink ref="C851" r:id="rId102" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQWGxtTmE2RlFFNVNWTUFDMHRiR1dJN0hVTjE0d0ZMS2h3dnZPckl5S2M4MkI0VTI3VzlCZW84ZkZIT1BKaDJnYnJ5UzZCQVNSNk1QbTVCSEVTY1ZIZU9nbnJDVU80X093c2IxSWEtVkdUU09naUduTDEzM1NLdGdEVjNLVVItXzhLZGNUZXpJalNHX3A5Q05XM3RFZE15ZURITXlyTGM4LS1HcW05elpIbDVHa01JUEdwZ3NFTXoyeTNwUdIB1gFBVV95cUxNbU1DYWZJY0NCZUNLb0s0aWt5Yk41d2F3MDEzazRTNEkyMEtuVTRNdE4zdWZnZnQzaFdsVEtkdjl4T1pjVnc1b3NZaHllSS10REdVLUpwUmxxaVQtZEwxZmtFd0I0dW1ha2JDak5OVVNtekxmZzNPbEpqZ3JVVUppV2U1UXB2eENFdjFVdjU4SHdSa1BZTUd3UlNQT1hlTng3cGhKa3pLOUVfX0ZZM1hRdFB1a2dhQURTcjJ6WlVLYTN1UmVwRDFieDYtOFBlZmFFd2tTbFZR?oc=5" xr:uid="{8F55CE70-BC1D-4DE7-8CDA-6F3B96BBB548}"/>
+    <hyperlink ref="C852" r:id="rId103" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxQODJ3MV92anVvT1ZoLTdUQ0NNVVFFNVNSQlBKb2JESzNPNnU0bF9zb042bFRvS1RzSWNyTlVmdlhVSVRDUUZFa1V3cFQwU01OU1NMaWZxbWZ0SlU2Y2dDRmVWc3hFVGJCN1VhVWVUZi12RHRMaHd2SXJEck1zS3RiZ01hZFV4eWh5R18zenNoVW10UllmWE93REVRTzZPVkJGUDVwUDJpN1hIODlyQWcyQjlWYV9WU0U2VWE4MFZ2eXpQSHFnVlEtVGZCemJiWXJKNlBpcTltbkt6UdIB2gFBVV95cUxQODJ3MV92anVvT1ZoLTdUQ0NNVVFFNVNSQlBKb2JESzNPNnU0bF9zb042bFRvS1RzSWNyTlVmdlhVSVRDUUZFa1V3cFQwU01OU1NMaWZxbWZ0SlU2Y2dDRmVWc3hFVGJCN1VhVWVUZi12RHRMaHd2SXJEck1zS3RiZ01hZFV4eWh5R18zenNoVW10UllmWE93REVRTzZPVkJGUDVwUDJpN1hIODlyQWcyQjlWYV9WU0U2VWE4MFZ2eXpQSHFnVlEtVGZCemJiWXJKNlBpcTltbkt6UQ?oc=5" xr:uid="{0DBCB5CF-BE9A-4C2F-A225-70ED64923378}"/>
+    <hyperlink ref="C853" r:id="rId104" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPbEtQVHJnOVpna0x6U1gzWmJweFpLSXBFS015ay01VjNVLWd6RmFiN1k3WEY3dC00a2doRUI1NldRM0ZyMmQzaEd6NzJlakthZHVfZWQ5dmtMU3duWTRGa05CR1BkTDV1LXdObDY2b3M0RVFnTjBMaEl6alFwaWdTRDRLWGc1MWliT3dKWGMxck5DQlV2REZaQThoT0JEYTBpYU9WM3EtNGtQclhwT3hlbklqWlRPdlFKd2xLc2JoLVhsc09BNEdF0gHMAUFVX3lxTE1lUE5WNF90Ul9DY0ozOF9TTnd2NENOSFdYZGliQlV1d3Bud01EemRzek0yOWY4WGdGNnh5ZU85UzBydC04Nk5COWpZeDFCa01jNFFhbHJtbWVYOEw3SVRPcHM2NXpYSlpic3NoMUlQaHNULVJJeGxGS2FZa1MzRlpMenBQOXhPTDA0bVZXUEw3TWR4SnROWDA4djJmZjd4YnBHcWJERk5BRTdzZk5XV2lNT0FnbDJOSXh6ZGhBejVHYm5NYmlXb0EyWmI4Mw?oc=5" xr:uid="{88EEF51C-6A52-441F-81EE-24E84C02E576}"/>
+    <hyperlink ref="C854" r:id="rId105" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxORGtSSVVGamE2SnVQYlBDdHBFUnRxRXFRR0FxZUR3SmQ2eU1uZURqR3drSHZxRmhiUEUtWUpJTnhXYUl4bnpVQVVheFdZRDZMZHhhcmQ5QkNfLUo3MUhsSVMwc0h5SU1hREd2NC1jblZ5ZkIxTWVBWHowNDB0X0xSVnc4Z01qWFhQcjNYTmhsWXJ3alkzTWlCRWM2Nk91SnlfeWRNc1VmeWdxT3BYejMw0gG0AUFVX3lxTE9oUnVZd3h6bzlyWjNBZmpkVzNLSDg0Y0tKbFNMUU1IYkJObVFNQjFUcUFINHdUeVlEWXpNVUVSMXlESk55WFJWanBQdHNVNUk3MW1wQmk4R0hHR0RtdGxfMVVaQkx5QUZnSGdhM1NwSEFidzI4UEo2TGczVXpKMTFSSVphOWFJQ2FyQlRnVjMwdWRDTy0tY3doVkU3UUVydjlKbjB2YV9jcGZMVEgwcXJicTVNQQ?oc=5" xr:uid="{17FFD04B-42CF-4BE3-BAAC-A3DC3CC647FB}"/>
+    <hyperlink ref="C977" r:id="rId106" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxOWGdMcVdjNndScktMSEZiaXhNb25NdGZYWDJGZnNVOURoTmZQWVNFNk5tVHJNUjMzWEJIdFVBeDVaX2FNbDdqbUk4RW1CWXJTVDcwY3k2b2dZZy1ING8yV185T1lUUnBIclBOSC1zOHBjbzhVbVgzTzFWNWJiRlZvTlM5elg3cmZKQWhOSWRyYy1BWXowTHoyUWhqb1MtaFE0bURhMFVrZWx0T2IyQ1JvRDRRTjRzTUJyZFpDedIBwgFBVV95cUxQZkJ6QWdvNFNLOFdEbkEwQTl4OTBnLXk1bDhVcm9HSk1XOGFDdzRvNkFiQVlscUhiUFdLNmRva2Z4YXpzdGNSYnp0NktuRmptdmpNWEFheENCS0hud3N3b2RLd190MkRXNlJxSmFTeDY1SVB0T3RzM2xibDVPb0tfcHo0QjhFUXhWSVludFkwZzBkTWV6dmdyYlItVGd5OHBkNFF1YnZ2VTRZX3lpY19ySUYzYWxSa3VnS3lUb1dmS2R3UQ?oc=5" xr:uid="{939D6C24-F533-42D0-A9E4-438888E439DE}"/>
+    <hyperlink ref="C855" r:id="rId107" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxNaUpGQS0wQWotRWVKMWE3VzBxZTZ4bzJjWDl5c0JYUk9HRFZGRFpSanZOZmU3bHNiN19oZEpJSnpWWGZJaTZqcTI2Q3c0VDBXbHVhX0VuUThJSkhJakh3elRMdnQwNll3WU9JNl9IUHdYekZub0dMNkk1SGROQ3ZpdHZGRG9iMkNucGlSdVRWOUV4UXYyTElQUNIBngFBVV95cUxQdzNJVFNIT1J4LTl6NmtNTXVKYjI5dGROVGV4d0ttZ2ZKZkFuUk92SnFZV2xTZFhWYzlkWHNnbmJiZEpMclNfVG80dHRjdzg4UVcwU3hZQnJsUUVUa0xHX2ZndUltenI1QnA1Ql8zTnp4Mjhjc0NLR3FRdmstUldzWGJYekpkeWZOV1JQbXVSYVJDSC1RZUI4bllxbGc3dw?oc=5" xr:uid="{60619D37-4A70-41C3-B66D-6B874DCFB4AB}"/>
+    <hyperlink ref="C856" r:id="rId108" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxOc1ZuNTh3RjA5NnFpWXNzX04waHEwMWJ3UkFONzIwTTcxVDBCNEdJbUhyZ0x1R2Z3ckVrNkxRYlVadmNGY2FUQzZfVUFlUGpxdlFPQ3ZVQ1BuZW9DUHZDMnBqdk05U19HMVVXWW9MQm5PZ3lmLU1Nb2R4LWNUMGlzU09oUUU2MWVodUJHZlpnSWNocVhuSlQxYnZkSm4yaEZJc0lncDV4SHHSAa4BQVVfeXFMTUk1al9Wa3FIbUlobGdVcnlNTGp5V3dOQm9MOTEweTBpcGxjbThVOXZjQVZMQ1Q0ZXNDanFzWVgwNENOUUVSbF96WWpocDBJdDNqSEM5MFV4dVo3bFdCTkRJcENQamlqQ0pUdGFERDRSRFJkcWdfWU92ekdtN1ZCamRqWFRQN29pal9RTDVqV3ZycVc1NXdJbHNuUElUYjFXZ3VzMVhnOWdxbmlOUkN3?oc=5" xr:uid="{8843B2C1-98D3-407B-B891-EA436AAE457A}"/>
+    <hyperlink ref="C857" r:id="rId109" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxPUlJiNXBpa1dvRjNiOWduM182YkdWOTlMQnRpVmE3Z0VPajNaUmdkN0dRT0tVcVZhQkVJWUNfUXZYSFlVa3RQaENMeWsxY0dINnAyVHNXcUVtUUhyMjQteEZ5M09HNVNuOGtmMVJlVUNBZU9xN28xc3F6WXVYaTd3NU9EM1U1ckthOGpaMGF1OTBLVEZLXzltUlJUTkV6R1JaSjFackNDdDJQMHpIVnfSAbMBQVVfeXFMUGxlMjhFRVp6WGJtcFQyOVlsVlBZYUdoR2RnYlM1VWVDcWNfcDBUOFN3Mkc1Z0QtSnZhRWh6dXI4WU91djVjOVcyd3RoNXdPZ2tpcW5BZDB4OEJ3SEM0R3lIVlpINkNIdktZWnRUaTkxLTM1dXFlb3VqZkU2VzZ3Nmd5aTZyX1Z1ODVZa29WODE5T2paWHV3OTROY0F2ZUhyNlRGRlozaWZYakJtT2F0bmlhQWM?oc=5" xr:uid="{2AB32E39-A359-42A2-9319-D76B8A0D9A59}"/>
+    <hyperlink ref="C978" r:id="rId110" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxPNnMxZWpvNkJ0dnFyUVdWX3NWUDBQbUF6TEVqZWdMeXJReGh2UGdTRV9GZFk0UGIwRHpwX2FGVlRHSXpSNmRzbHdkWE9LcDgxWFlGb2RWVnVuSi1jajJoRUxhNEhodEk1UVo2TlBtQ251aUdBcTI4RVg1RXJLRzZ5THFMSkdLRmZ4VG9FdHVUWDFha0hVT2JqRFZSU3E2amg4cFpkZzNkNNIBrAFBVV95cUxQYXlaakNYTEdSUkNmem5xN0ExelZiVDhKN1BsODF2c2NucUtNU1lOc0ZBMVFrTGg5UmhqVVY3UW54ak9MbkV4SEtsck9pb0FyNnRjblpMSkV5ampVY054cW9ydlZBV0FDMkZ3c29aS3Y0UGkwc1NwUi16MW1TOWI2c0hvajBGWkE5V3FsWUtUUXZNNHBUUEJhblVVMVFtaUlKbGplMGZtbTZLNWd0?oc=5" xr:uid="{36E9FB65-5063-45BA-8A84-3F1CDD2DAE24}"/>
+    <hyperlink ref="C979" r:id="rId111" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxOTE1ibjZMMUFUa3hDc2VjS1Z1TnZwbnc2RGY3bDYycXdaYnFXTU5PZDE1ZVlmX0FDT1NhUjZtd09ScVhreWdZaXNYR25rZzBSeVB1V3NFdVQxTF9oT21OT1RFMnY2NUg2cExpZE4yVGRXYldSWFNJSUUwbF9CM1NfaUZ6em91R2lrSDJVSGNWQzVHalR5MDl0d3FzeFNpZTFkQ1NieGdhVEI5NjjSAbABQVVfeXFMTVBySWRLZVV0dE1xck16VkVMelNVbzdqMEppUlkzSU1acEF0eHNwNzZPeWxzNUdqdS1FVm9OZXpIV1RsdlhOcWRxY1daaXNVYUw5bV9qSld4MTJjbkZBYU05dTNMX0FSWDFzYi1yZHhZZ3NqbE80LWJMWFdJZ1Ridm5ZSk1nNkJDZld5NlpfWHlZcGdnWE1OV2dMd0hXblpuNS1GT2w4TEZuM2VmWkpIWlo?oc=5" xr:uid="{AC3B89BF-38B6-4F96-A65F-ACC0D6B3D8A7}"/>
+    <hyperlink ref="C858" r:id="rId112" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxPd2tmSTd6c1VoMWlPYkJGREhqYTZNS2R0NWU5VDV5RkNwRlZQQV9rQ3g1TUpPbUFsZjl2TkFQNEU4dnVtYkg2U2dHZTBXRXpCME5WZl9Hb3kzV1gxdEl4SENzOVZiVXZ4WTktV21KalpVWHdQaUtSS0s5WFZDNUE1SGd6NW5aSTh3RUs3d29RWE1Zb2pUQ1dOczZpSWfSAaIBQVVfeXFMTjRIRzdtSFhobUJ2LUlobmtpNmNPTXJBUVZYUHNrd012Y0c1a0ctTEdOTlpyTmNRdTRvRVdTQVpDRXNfVlFDMHRUX1BuYmtHYkFXTFVnaWI1ZFpqRHFBNXFNTGliaWJPeDNxTXpWZ0hlMWRNVjlFQzFkUG1QamNuaEhJV0ZBTnRvcDNETi05cEJiOVNKS3RTRWVFSk1lRGh3Vlln?oc=5" xr:uid="{6B9E405D-57C9-4319-B84E-5B9A9DE26973}"/>
+    <hyperlink ref="C859" r:id="rId113" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNY3F4MUN5QmJ0aUFXT3l6eXd1WG5MVjVnT1IzMExocGJVWWR2NnlKb3VQdTc0eXpLMUNDMlE2ZnloYzIxRkE1Y2dqbEZHbEdhcTN6NVNnM0pWZG1lU3h4Nm9QeU1NMTZ2Z1c3SUhVSlJwZTM3VjZTOHVKdFRRYUZ0RHl3UmxhTE50MWp1SUZvNUtsa3NwZllCZ2FoeDBpRmlXQ0twWVc1Z2ZMOFBqVEhmcXVpYmpqZk5iWVpHOC1Uc9IBxAFBVV95cUxQN3F0UEZHeGVqWmVheWZzSkVUR2x3RmFra0wzTHJzc1hfTzltQ2JTMmlqazUtdXVXbWdGTjNtY2VhS28zNV9WY3dldXNTdEh6anBSM2hxTWFkRmxhXzZlM3JHQXA1MzR6OGt4anVXd3BVbEN4LTJjVFlqZzlJLTVjYW1oT3drWEc5emttSUtvd1FPLUxiRjVyN2w5YmYwSHZaa2c5OVd1MFJaOWRYWXdoSkR4MTBSR2k5OXZfODlQQUgtUlAy?oc=5" xr:uid="{CF7AADEC-150E-4CBC-9E1B-F0ECEEEDA85C}"/>
+    <hyperlink ref="C980" r:id="rId114" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQd0hCcEhQMldxQXFma2FoZzNkVmQyZHF2bHZKTXJFc1psUzJZaWd6eUtLWWJyRV9RV1FMYnl5ZjFoODNDYWFnQjlzUlVpdXZYR0NhTmpRaHI0NTJyb0RtZGFDMUxlZHNWNVpYOXpLT0tnS3FHcmRrZUh2Snh0NUdpcTFXNm1sOU00dzM5V2c3dTljeHhkMHdLRFJZZ0VnQzFId0E3MWZvQXlnTHky?oc=5" xr:uid="{FB25BBEC-11DA-4F75-8110-D87D79FF85B6}"/>
+    <hyperlink ref="C860" r:id="rId115" display="https://news.google.com/rss/articles/CBMikAFBVV95cUxNaDIwY1BOTjN0Z3dfbGh3cFhtempoazl5YTl6VUgyWERDVjJJcm90SEFLdndwa0gwR195SEMyc2lXRzRzWlZCQXhrVVptSzM2OGVCM3B5TlcwMVlxTGNlQ0RFeHludFozUWxVODdXTUs4ZHdyMWZvckYwYmVKTzVkU3hwTlkwLTRGU2pDRk4yZmnSAZYBQVVfeXFMUEtDVlhkQWE0aGhKVUJmWjE1UTRNZmZzaWd3RHJxU2p6S1Z6LVNySjFQbkVnOEdQWHp4V0xpdVhHOVdTMWVhNlg2RHMtN09qb1YyUjJXZlp2SWF0MFp2TmRlMWxLSS1YOWR0cUVMNTJxcEhKbm90TzNrNWNpalllbV9zek5BT2NMbTJ6eWgxVVUybzFnYzBR?oc=5" xr:uid="{442C582C-2B07-443E-A820-1A1D971D5D28}"/>
+    <hyperlink ref="C861" r:id="rId116" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxNWmRiZnRMcU42NWppS0NTbmtFenJ0NmFubTcwb1M5MWx1ZXJsNUtWNkpCajdzRkk3TXR6OXp2aVdMTnBXc185d2NKSFdGbURlWlpEZXQ0aG9Ra09kajdhS0VMbEJ1R3IyX2R1b0tidy1MSEhFM09DZktReGwwaTY0VGs4b0ItZ3M4LVUtaUZjRnA0R2FwV29nNlhTZ0VMZFRURTV5UdIBqgFBVV95cUxPOEtkV3hfclRacDVXb2FUMHl0YTBTanNDamlYRXA4RGFvckV3TjhkWVVRRVBoZGVlRGdMWXN2eEN2bDhacGR2OFVpUWFqcEJFZUhGUm12d1RsVE05RFdVbmY3RnJONDJxZUtTcHR0NnF3alVhVXFZeEJJajEyS0VXV0ZqZEJYQURVd0lTQldVbHp1Y20yY29hSF9mNnVkaWRHZV9jV3J3Sndydw?oc=5" xr:uid="{CE649444-1668-4D31-BEC6-E5123EA9486E}"/>
+    <hyperlink ref="C862" r:id="rId117" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxOemljN084c09uR1g4OXZ6clFCRTRsY0FSdnRDdkQ4Vm9sdHEwYnVyWENuYU1zY2dZZkNTdXJaTENoc3dQVFhQTUFZZkdHSzVna3FNcmtzRWtMcjVoOVhWR1lkNmZxYVFzLTVHanJWbVFhOEw3UDMxYlozTHdFT0haVVVEZVN6bmdVMV9sSWNIT1JzY3JDMkVyQzN3eHVLVFA2ZTF4Vg?oc=5" xr:uid="{594EB73D-3E8D-42F5-8E6A-C68078E75455}"/>
+    <hyperlink ref="C863" r:id="rId118" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxQUVMyRWhtYUN6b0RKdmU3V2tVczJ6aWxuNy03dTNVRDJsTGhEZlE4Z1c4NHhtY3lpaVRBRjNYdjNaSUh4Y1F6RFBlX1RoTEsybUpsZlJlX2xmQnBYalJJVWpyMExibVd5eFo1ZGRoR21PejFRZEJEMVBjOWZoYWQ3cHdoOEdYcTY3MjgwRmdiVXcwTVNWVUtFVHREeEQtZ3RTTjlDWUVVWEZIUQ?oc=5" xr:uid="{389083C5-A280-4A4E-980B-E7BF645B1C42}"/>
+    <hyperlink ref="C864" r:id="rId119" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxNeDAxR1pKM0FBWnlDX0ZHSk15UGFkd2dxQlFYTlNZMjF5S3luN1p2ZXk0a0RhekF0WkFqMmxRZjc2a0FBd08wZm5RczVSTmVSRVRVVkoyTHVnVU1SSHI2bmR1ODZ1alU5QWNYSVFHRDk0WXZ5YVB4N2FCT3g1SDVEYzJVMmdpbUlqMzBuVVBJV3Rwd2N6TXBvTTdmNWQ4bTFJaHN5NUVpTQ?oc=5" xr:uid="{CC19C807-6B29-4EA7-8E85-425D87749145}"/>
+    <hyperlink ref="C865" r:id="rId120" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxNRmFVN3ZwNTlxQy1kQW14eWFVNV9ucXVKYlpKWlZScVNoR0tCaC03cXNJZGlVeVlaRnhCN1RzZnQ1MG10cjV6cG5laWxoTkFjZ0dVOWJsWXhfT0g0RHhscVpFLWxRODNxRDRDczRCOEUxaXlaa0piamVHQjM3T3RlNGMxRkk3Qk9RU0U4cWFOX0llek9UUFhDVHc2dGltdDJQMUgwUjRHY9IBwgFBVV95cUxOQWRzWnpnNzBId0dYVEFoUy1XQkNPZHpxZ1hkc1RtZFJiSGQzODVFTFRia08xRTRDMVdpMVBlUHRNY2hWSU9RalhvSnc2WHY1akhPTkI2WFdxZ0lwdjlpblRVNmJFOGRsaVVIdDJ5Y2dZUTBfWmhWTFdYODRNNzZ1c1Fpd2U3U0RDSmNnYm8xaHFncmdLc3haUzNKLV9MSU94ZFVjNk50ajJBcllfRXlVZ1djSU5TZ2dPWlUwVlNKTVRXdw?oc=5" xr:uid="{B3DFF45C-5EF9-46E2-9453-1658D1218184}"/>
+    <hyperlink ref="C866" r:id="rId121" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxObHI5cWxURnQwbDJwMEJDVnZVZEU0YnkxZFRSU1VZQkZla0pDZTdYSXUwczllb2hFNm9Xbjd1NGhxcXZiQzJXRGJkbW5BTDhYNzlfeUt2dTdnR2NCWm81MEl1VHhDRXhRdDdvMWR5bktvMFVBQ1poUTRSV0pWaG9fQVJmbUl5WGNhSFdiN1E1TTZFdG15N1pDUkNfVWw5MlZhOEFWTDFMSzVuSllGcXNDZXJGSXNtcUlaNnVPaEdSM0xXZmlU0gHfAUFVX3lxTFBKcFVVcGZ5a0lsLTNycGJFVzdJV1VBTXlYSHJSdkJycGZsMFB5blpKZFVDbkJZQVEtTzkyT3JWSi11ZVdBUUpSNl9QU1pnYnlsalByNDlDWmFBYThwRk12eGVydC1vNjRVN3RmN3lMZ1ZJR3hnV0M1YnBJQ2VLNU9uNjNCZW5zWE81SDFySU1DWVpsQ1JhQjBqSlh2YTJqbWp3ZlFkWDk2aDM0Rlg5UXdFeTduTU01ODlTczR3NXFIcWVnZ2RoQVN0UU5Ta2JWYzdSNTBBYlJxb0VnMjl6Y3M?oc=5" xr:uid="{FEC68BAC-8AEE-46AB-B2BD-7A3E9B4C4751}"/>
+    <hyperlink ref="C981" r:id="rId122" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxOazdMYTNOVVdwOVMwVjhrRnBmczF2OVdOdnBfb0dmbUdjcmcwa1R3SjkxUU83Q0hNSHEyMEVjYkh5R2NUUE1ZNnR5R2puU0JKWEtUTzZhVlQwa0xreWRHZWZ3ajNpYmVlV2dTa1NCV1hMbkJPNWFfVlh2WDVQdi1ZWXlKSmhZeU5NWEZUY2RMeUZva2ZZOUVrb1JlS0l2cGptVThOZEhZSTVYWGw3d3JxQkg3TTJkNW1SR2pkWG9URENGeFR5MUhJ0gHiAUFVX3lxTE9INUt1YXpjNnh2WmZpUFJzMmFMQ1RkbDczS05oZjVlZGl2QV9hRWpUS084ZlMwYS1kMlFWUnZmTzhBalRXZWtTTzhBVXhhTE90RG9qaHdXeEVvSlpNTk5TYV9YMnRWQzQxYTQ0RmFRck1kQnhZTlM1blJlWGhnN2NIQmd1Y3Y0R3FpaHJRSWp5eGVwQlkzV1V0bWFqSnczV3pEM05nR1RGNU9GYUFPbzlmbXh6Y3Y2dzVWNjNTWWFMUktPRGxwNkhBOUt0OTJnSVRGYV9YaGRHYWQ5c3pZeE0zaFE?oc=5" xr:uid="{6752C404-B28A-42BA-9E28-27E90BFB8193}"/>
+    <hyperlink ref="C867" r:id="rId123" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxQU3RlZHVDT0VfSUZBUXVaNzNoYXBhTE1IN19VVGdxdjlIX25WOEhQSnJHa1dIZEJ4UXpYNlcxQy1lSWg3T3VHR0djaFVwS3BfaFlXTWFBZ0ZPMDl2b3gtbnJzR3pqbFR0SGdCbHJJamNrVjA3M1IzblJnUVZIY25aOXRHTWRmWll0Q0p5amZtbEI4RXBHQkE1aEZoYnMteFlhOU05WmRNeGlSUEVKZC1WWTJOTDhudVRlQXZIUktRRThRTUNHSzcySXB2c3lYaEdXWF9aZ0ZUb2MyZEHSAfYBQVVfeXFMUHA2ZXBmblA3X0NoZ0ZJWHZKSHJaeklkUURiWnpVVDlzSVlET3Foam1HeFl4bWpOQ2ZtY2h3VTdOREFMU0dTWFF2UFpFQ3NMVjJOUzZqNmg4dWhneVU0YWZxQzdoRnctZnoxcGNiWWNlYWV3UXFCek9RSVpvbEhHNlprSG5OUkJrTlNzSDMwQWNWTmJudGp5aTRBdlByNVVnY2FuMzNlN1k5R3R6Q0hiTmNzNmcyZ1NMUGZPeDktcnhhWjdlNnVXS2Q0SlNqalpVOHppVmhqaWNaQW9RS21nMExTcFBxdEFyQkcyTWo1OVBaRTNWMTBB?oc=5" xr:uid="{A5863597-6FE6-4410-B788-456EE25485EA}"/>
+    <hyperlink ref="C982" r:id="rId124" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxQVE8yUUdYOGZUTUpyX1YyeUJEN04zUUpvdWYzR0Q2WGhDTG5QdW1uazBuRFdvSXUtbHZaMEw4N2h6Vm11V29UOW9mYjBnS091Znh5RU9TbHVkY2Nvd1Q1T0NkcFBPNVJQdkpGSnJobGlPRWFnQUd0amJKLWluamNEaVJzamJDX1JfU0VFRWhKclByd1FnSjhZUnY5eTRDeHppVmFDczdoeXNmTzlSSE1kaXc5YlpTdHlBeUZmSEI0ZVN4d2VEWTdkYjJQZWYzb1haVDZURzJ1aEFkZGIzUVNaUDE5UVFtS1ZwV3BiMdIBhwJBVV95cUxPdVFkZ1VXX3dOUkxDMzdtLVdlaTRmQXlzSEh1Z1cxRjZYUWYwN1MxZ09NTlQ5VEJzZ0FPcDZsQ3NRYVJjWUNIOVZWVlZWS0pRdXhOQXNFVmU3aWJpVVptYnM4UGpmUEVVdWhsTnlHWmpWV0wzU3lQZ0NwVGhrbUwtN3NOcW00Mmw4THItTU8wcGhSQV9DckpDaGlfT3NtTFRLQ24tLWMwM3Y0bk0xMTBHdk5OaXBEc0xWQzM4V3V3T2I1LUZNXzZPR2JBVVJqcFhjTUJZOUVlOTQ3YXl2Tjl2Vl9fcC1SQmZNWW1MYmNOWDhjZjUyOTlWVUJTcG5OU1dJMlZRRl9OUQ?oc=5" xr:uid="{4DFBC409-7826-46FF-8DC2-0158F16DCF7B}"/>
+    <hyperlink ref="C868" r:id="rId125" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxQbnBUbUtoc1NUajJ3cTVDR2dxbG9rYXNxNHpwMHFNREYwMXZ1M3h3by1FQ1RLNVZmdWdHbFpNUmRqYy0wZG1FX2g2TE1YUXNVRmN0Ql9lYndoekY3dmRiMjlIM0dJMS1Jb3NxZm9OaEFtaG8xX1FmYzBCZnRYd2MyUGJGYmZZQURNS0cwRmg5djU5OTRoWDd3UjFhd25uUmFKMjM3OFB1cThYTGZfLTJKM0ctbFZkUmNGZHAwczY0YV85ZjJJbm5IV3RWWjlWMl9SVWhacjJkb0dETks1MXc1RTlDeGhyYVE1WFpPbG90dVA3Zmlwd2VR0gGSAkFVX3lxTFBIVWZ5aWFQSmhrSy1wZTRwWGgxSVY0QmNmRzdheFJNLXQ5dFk2YVZnTUpSOUlNYjdOOXZRRzgwVlhwcjJFZ0xrWFFoMU50V3ltM0stazdKYmp3YkNLSlBHdmF4R3EtaWNDZDJpa2hPUm13TF9kLXpQUWVtejFPVWI5eWJpVExGQ2V4cndPR2tlZ1N4QlZFenR0OWVtb0FuNWkzZVdrN2FTTVloNXpXU05qSDhZZDBMR2ZjaTdKM1JnUjVVNVdkQWk2RHNEWjZBRUhkRDlOQkgyb1lsSEd2R1NLcU1CakN4cjU2OVZWeVhFUDJYZ1F2TzJkYWw0NURnMGZ1ei0tSm1aQjdEZDBrQmdENnc?oc=5" xr:uid="{F15EF4C7-5751-434A-B953-92029086D125}"/>
+    <hyperlink ref="C769" r:id="rId126" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxOaEJ0NVc1S25WeFlFNFZWaDBJQ1dJZ1FoWFFMSENJc3R2STVRWnA5X0RJRkg5OVE3cm9XRDV2elVmbTdyWjlSbk81U1VXQkR1YTIzWDRLTF8tQWtvMUI1d1pjT0lnQzZ2blA2NFE2QmhHcG02dmtLeVBpa0t0Qmk2YVpvdmpHbTh5cy1uVDAxUkRUcWZnbjB4eDRUMGhPOUV2M3pXUG5KNjFuMU8tX0p6c0NxaE9vbEFSWkJaUFc2STFPRmJ3NWdEN1g5MlRyN1Y4VFNIV9IB4gFBVV95cUxQZ2t4aUZEUVRFS1J5OTI5V1lQdHg4cEw1WGZEZW5kcE5qeUZvUG9GNVFhZkxzQUZpTnpHWUFZNUEzWEJjRVZZRkFyOGJ2cEJ5WG85WU9UZnpkeFdpX1c2UnVNUERaU1JqT2pKRk9zUDQ4ZEFJSHNxMlRtNUhoZzlUUjFaMnhMVkpIRG9iNnV0UGNxel9ZS3JBNGFEWUZTRk56T3ZSZ2FmUllnR1NJSTkzYkh3cFh2clRpbzZSTHc5QTNuV3N3clJfUGJMQnZYRm1VTG0zZ3NSTUdlamJkZnBNMm5R?oc=5" xr:uid="{BC2221D2-6024-4760-A88D-1E798A399F12}"/>
+    <hyperlink ref="C869" r:id="rId127" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQVGs1Y2JqTm5zU3QzM2o2bWpOSUJJNEdhaVZyY2tkakxWSTIxazd1X3ZvS3ZORHdzcVB1Snh6alhubkhsY25oakZRQTRybWhGblVHYW5BOFdWUC1NSjJSNngyYVRNVVluM3dXS25OOGN5NHhPZFdDb2pzOWFzNkx3RTJDbEpRU1hzZUVpMmh4eXJFclVXWkZkbXNxNEtWdVU4dnA2TUVuTjZoSmZQQUoxaWxrMVc4NnIyQXU0OEZnNTg4d9IBzwFBVV95cUxQTW9qVUhaa1Nnb1BCTGEtRTJQNTZCVW1aR1BZWm1BQlFxLUZJY3R6a2VuUGd3TnFoYUxtc3V2VVdRNlpNdHZnT1hzUDhtM09Lal9SME1CLTA3NklUUC1zZE9CS1I5VGFmRHNxR2VUTFJIT2ZRRUJENWVRUHh2d3luS3RiQXlrSjF6aFNPeGUzdDJOcDIyUjRYQ0R2SmZHQko2a3Nnc0RyWk9IbDZVQjJTVEs5SlBoSEQzMmFPLWNQY290MkNTMVZNY1pULU5WUVU?oc=5" xr:uid="{0E657437-E45D-412F-BA8F-77E0FE80F0A5}"/>
+    <hyperlink ref="C870" r:id="rId128" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNc0dhQllPRlVqdXR1X3RnbkNkWVZ0cG1kRTN1ZmxoLWFOeVM5TlRPNTNyUXNPYnRyTUViZXBRZjBJdHZRZzhpQzFmb3phXzhOcnZwcU1leWtuU0FieFRaaDl1X0RZUXBoTFY4VEJIWVZ6NklZU2Y3T054UHJ0V2k5WDRhRS1hd21QUzRpM25MXy1DOEVTNHdwLUxQTGdMUzhhWXdmTHpjMmpEWXhSNW5mWklQdEk1WWJIOGpuTGRKNzAwX05uUXhsbi0xTnHSAdoBQVVfeXFMTS1yX1pmV1ZUemRsMXU5dTloTUJncTVjeUI1YWwxWmRxTGVSNkVpQTFFczJZajRRUlhGdlhyN29OelBWMmNZOUdyeGVIejA2clNMN09OdENZM2JOenRYWmc1ek1XS1ZjbHF1ajluczI3dmExLWJrV08zejhvOTdodjlsTFctNHFMY3VoempwTC0wOVpJNmYyNEtBVm8yRHdmdjlWUU5hWkxSdnZvd0xUMHlVVC1vUHdoM2hGY0pIcG1YQ0dEeXVRMllvemlNRUxNazJqaDZHUGNoTHc?oc=5" xr:uid="{7516006F-2E35-4F9F-8729-F3528D87641F}"/>
+    <hyperlink ref="C871" r:id="rId129" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxOckVFZkhySldKVEtISnF1dWZZQW1qaW5LeTM1T0pIVWo1Z01rcVQxZVZET0JVa2VtYlY2OU1qYkdzbVdURjRVWEZZbHhhUnVyek03WEFrNHZMTHZuWUNwSGItZXdwSmctT0poLUF4Tzh3TENrdFFLbmgwWWdUdUlud0lXbExrai00dVYtZWRnaXVEZVd5YTlIRlEwNWt3bUlQd0lRRXNkRG1GSXpqRVNHYm5qTS1kMFB5THfSAccBQVVfeXFMTk5IN0R6MXF3UEUyd3RCYlcyRndiS0NvdzV5TXhzY2J0RkZ6cy1rR05xYkpnajlYTWM1LW9UM2hQQzFvaV9GOXBBRTEtMWtubkt6NmxmclN2cm9ndXZWQThYR2VHby1vVjN2bHpSS3RhaERyZEM2cWdzUnFrWUU0b3BTLVN6bFRiVlpEYlA1c2FEMmN1Wk44N2lGbXB3X2hHc1ZzRTJMQlBDYVJ1TVY2d0xqRmV4Y3F1NGgxUGp4ckJ6ejFpN0VMNA?oc=5" xr:uid="{81610240-9BF4-4F14-A726-9244C75E96D8}"/>
+    <hyperlink ref="C872" r:id="rId130" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQQ0lvZU9weE91Mm90eEZPRk8wQUxObkZUVDU4dkFVcXl3SFR6eTg0T3FjQllQS0UwSTFVOXVETVB2N1RoYndSTHdZNXExTFdDXzhfRTM4Zk40ay1nLVIxZUhMdXVoNzJjNTg3WmJ1NXhTNlhBSlh3VHczbnpNUzRtdUVGa0NsQ3VDcmVBa2NGTUdhbXRSaGJCcFRraDVxRV9G0gGuAUFVX3lxTE51dnA3TTdoMy0yMEVZN1FVRWljNWFZVW9YeTNha19UWHpPTVVWTjllS3JWZGdXTUpZSi1UOFNFanFQN0Jsb1JSNWFMV2tJUkRsbnNmZ21XWXdhQVlPbVUtRnRRYmd5OEdhSzFaNWpnWmNVM1NNeHJLdmltODV2VmxtZnlCS3MyMFJZTFVkaHFQb05Pem5SMjFmOVMyZXItZHJFQTFrTVRlZEVZV012UQ?oc=5" xr:uid="{E936E3F0-9ADA-4F4F-A28E-F5F802ECC718}"/>
+    <hyperlink ref="C983" r:id="rId131" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxQVUJmRGRpOVRtZ0h0UDJKX0ltdVlMMVhoVU9STllYMzlVc09wTDV0a2FyRmVFQmVzVWtsUndubWU0RU5Ha0kzcERxYjB3VUVQVVp2cmozejR5cGxCcjlfME9kN0FuSGZIUG0tVUdLeFBWUk5Vajg0RktrUDRERVplQU9jUnZ6dFRNUldMLVRYNkNGeG0xY2I1b21Pc0ZRXzJtWDMtc9IBsgFBVV95cUxQeHVKbUhJbG5hS3cwTGR5ZlZTU3JLbFc3Y0ZjUEgwSEExSlpTdEVrQmQ0ZEJhTWJWM0JBSllGa3pqNXpMOUdGTjhjdWxVUWRKb1ZLV3pXaGtZUFF6SkZ1dTRZc2QxNHdfQ3lxbS00LXNyakx1U3dPZkNMTUFHbU0zMHZrU016dWpXOHZTZkhxUTZ3UTFFcEF4c1BobGgwV3BCbnJCcEJKTGRfSHA2T1FaYVZn?oc=5" xr:uid="{293CC0AA-29A9-4525-9D93-A2BFB1A29E5C}"/>
+    <hyperlink ref="C873" r:id="rId132" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxQSmZWNzFNT0RfRXhBc040Q2FXLXJ6UjJ3ZmhsdXZ5aUpkdkE5U1g5U2lNVVpDNnRmaHlid0daZGRuNmNHcFpiVVp1bE53WUdjemszODJ4a1o4bXpBNHRXazczRjR2SmExMVM5Zi1FUzdLT0c5ZmE5dThZbFB6MVc3b3ZyaTJHLXF6b2VHYWE3X1JYX0hoZWV3MlpWSXJqTGZSeks1UTBTbDFsbV9hME80SmdER1JFM2JoME91dC05MDVFLWhta0FWRmx3Sl9UQkVsNFd6bGpPYjllaTJ1cXZrVmZIVm1OaWVaR2pybnZ6cVZ3bkhnRzc4MEFYY3dsekZC0gGUAkFVX3lxTE5kMFl0RFl3b0ZRbkt6eDlrV1ViRUlfSzFraVUxNGlKQU9IOVd0LUtwbFhjUHZJcUliNVhuLWxkU3dodDJ4a3F5M1N1dVNoOUFramdXU2hYaTdwV0RuUENlLXRqbTRUODhwa1dDVnktSHhRMFlvbklzZkRxYW5TcEszVHhwU0owcFZzb0NOWGgtTlRoNWVya3VnNnVWR2Y3V3NjTmduNWp6SXVRZ2k2ZmdrbnNvS2ZFX0hJSE8zQldNS1E1NTNoaGRHZEpJUkl4eUktQk8tQ1FrUVU5VG5GUUU4Z2lYakhqLTFuaFM3aGI0b2ZXa19BNjI5azhKaldiZnRYaUx5a1pZcnFTQ3BubnZjcFVhTw?oc=5" xr:uid="{D402C3E6-A10F-426D-BDF4-100C21C42A65}"/>
+    <hyperlink ref="C874" r:id="rId133" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxPVHZwSGIxd1plNWZMcXNXdEg1M245TjJrbThwRWtsU0pnUGZ4akt0NWZsdEZHQjVtUFF6enZheWpTSU45QkxPZHhfNEN1S19OWDc2Tm9pV05mTVM3U21LMHFxT1dkODQ1cVV0YnlqOG94cHdFMkF3X0hWc3NLUVAtbjBkZG96bzB0T29lc0kzcDA5QlJBcHp2ZENqQlBKdUd6YUhjU2ozbVZ6aWE2aUJnRldLLTdybXczMWN0cnRSTUcxWjZtSXNTZWZ3RWtjYzBXWXIzREI0eUNMZkstc3NiQVJsTDEyWFZNckRpY0RLSTZHRVNIQV9V0gGLAkFVX3lxTE9YRWQ0SnJJVXNQeXlyc2NRelU2M2xiMWVTWGgzSXhRTjQ0dmdqZGFFX2I4MER1TGhtTjI1OXpIajZOSC13bnp3OEM5QXRycDYxUnREQm1OSVQyZ1pRTlNzdEZOcU00WS1mSDNlX0x4VGc0REs1cHJWT2lNcHZJb2U2bjFBNjZ0UDB2cG05NDRnNkJSWXhCUnRlN3lQcjdURkF0alRfR3ZzMS00a3JOd1FmOXNjdm5uNjNEVUpacnkzbEpsb09fN1U4LWh6T2k3SDQtZDFaM2NVZndreDFOT0xXXzNKeVROb05xTzZoQ05SVkdOa0QzaS01enFZWFE3cHFuR3N2U01kWHNmOA?oc=5" xr:uid="{27C40E90-0114-4A15-98AA-F35476F0D1D8}"/>
+    <hyperlink ref="C984" r:id="rId134" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxQblcwX2pVUjBpdmZQNjRVSXYyRHloaHRNOFVxTTNtQW1DUXlfWGNiTnE5ZGFVSm4xaGJnMFJ3YXhPMG9LWWlnRFFLNG1TcFZwekNOcE9nN2dGdTJ6eldxUGhEaVctdktCX0xXUUhCbnBYX0haMk4zZmpLdDU1NldrQ2dLU1lTSFE0bm9Kd1R2ZlZUdUI4R0JfTWlfZG92Qy1hYldBLWs0SkRyVXJhQUhEb3lRd3RXUlBJWlNjUjVkSUdUZWQ2RS1JZUhkbHE1Q3pUaURCWUZYS0FIZFdqOWdYaU5vN1JTYkZCSEFlM0c4dWhtTTNKeHZEOFNCONIBjwJBVV95cUxQTWdSak1tdm1lemtEY2ZlbUVMTDNocVhJRDlINDc4SWQ2dmEwMXRqVjIyZHFCLWZOcVJzcTNPWVFBdWFEbTNNYTh0ME5uODNDWV80NTBtcTRZYWdLbENPOGZtazhSa3NMQWd0c0R5eWtfMEZDRDV5WkhmSEVmdnNWaTV0SFFfcTgtaW1OMVRNX0t5aWk3OGZjNTZ5SXoxc2JFV0hzNGh3Y3JlRHI1aWlVNEJ0WXc1cmpLeFVCTXB0N1R4YjVEZTR5OFRvM0RacnFRYVpkZXZNZmJBR1h1VlV5V0xVQkNzU2dYc0hpOXdsNXZORmJWV25qTDBMbXFPQ3dLdi1ocGdyYS1ZVm1wbVpJ?oc=5" xr:uid="{6F2F247F-027C-4A3A-92CF-38FAA2FD57E2}"/>
+    <hyperlink ref="C985" r:id="rId135" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxQVEV6SllVdDN1NkNmN0NTbUFiRGhLWjhFelFsZEtYVkZVVW1QVjM2OFNaTFNjQzRURlpmYTV6aDJVcFFqRGZJTkZ3cS1GaEQ0Zl9SNUh3amhXT05kbXNDZUpHWFZPUFk0UkRPR3lraUFCcE1KRWVZcU1XemNkTkpnakwyMTZTYjA4MnBaZWlzYjBIUVFEek1lQ2hVeUhyc3ZBbDRKMk1RUHQtSFlzQjBNMG9ybTlnUHJqOTR1ZEhfdGZVTWk0b1pmalFjbkl5MTU4dGpKV20xd3p0NEFrZW9YTNIB5gFBVV95cUxObjFNbjYzZTdLQnBmaVQ2aWFPTW01d3NUem1lMHNyczMxaEpQZk56TTV4ZHlpREpiMnZSSW9xLU0zWVRhM3pBV3ZsSHBYZGtBa3FPd0Y3ZWV2bmZzZGduS0FVb3R0Ui1BNVhRdWp4aXpDeUMtSWkyTmQtVWRfOVpWQTk0SlFHaE04WjlrTVI5bGl1eGphYXlZLXpBQUxVTGRBQUNKTkVvX19GU2taQkJWN01HN05fWFZCZXZRVVpWSkIwMWlQbVRYX0VVT2o2dUEwdWJ0RlRheEVsZURUZU9rY2pfTXY3dw?oc=5" xr:uid="{44201B28-B2E0-43EC-BAED-2C99ABAA3CC9}"/>
+    <hyperlink ref="C986" r:id="rId136" display="https://news.google.com/rss/articles/CBMiowFBVV95cUxOWFdNSU5DcjFaN0loa1pWYTR2X0tZS3FjUlZ5UU9xdFJ3X1NKTTJwaGYzUnNrNk5wWjZiOFRGaWN2VE5KTXZuc2xMbEs1OVNfT0o0Z2dSaFdxX3VlNHJ1ZXp3RmhZbzEySUlLNS1nd0FXRUhKbndzMTNFbUJETVQ4LTIzTW9fX3pNLXNOLU5uVVJnb29zVktfQXMwMUg0bnlMVzdj0gGoAUFVX3lxTFB0SmJkOUdjY2lHaVl3UDN6Zzh4empOQlBlaWdYeldNQVpPS0dvaHJZTmJUTG05aUpDWVJuN2ZFeDlSVXJyQU9QeDdGQzc1UzlHb1d4WU9ma0VyWS1Mc19aZm81YkRySHpPWkh0OEE0RHFnM3Q0d0wzT0M2dUlpcU5GNkl5M0ZjZE1TUTRsT2tfSWFPaUp2Z016U2VxOUh6WXpIVUZ1ZG9aWg?oc=5" xr:uid="{6FEE7737-A8C2-4325-9B0C-6D23B86BFB0A}"/>
+    <hyperlink ref="C987" r:id="rId137" display="https://news.google.com/rss/articles/CBMijgFBVV95cUxOQ3JaTjVfSnlISWM3emg3dERLUU9tV2F2cm5NaVVKSy1maGlZd2tPc0c4NVAtUkd5Ymg3QXZWZjI3OEZMbWlVbmR0Uy1lY1ZESVpYcDZYbXdpUmx3TjM4WDdnS3NqWnpyVlZaY1ZoZTFKZDFKQmxMcmllV1Y0eVdFWlR6ZnY1bHQ2UXdMU19B0gGTAUFVX3lxTE0xaVJTaTVjVXppZnY2cVVwUTdua1AwZGJtUXZZVmVvNXlfU1hRWEdtZlZmLWJHbGRPcXZQZnpVWVdQaGZqUENhdWtPb29SQ2xCZ3ZFX1BTLWFiSWR2c0JjWExnNXduNlZfWm16MFhNTGZHU0JLVVlxbjNzQUxWR2d3LVhCVllpbnZmUUx4UE9lVDZTaw?oc=5" xr:uid="{E335DF33-D1CF-41C3-B7D9-07683284D829}"/>
+    <hyperlink ref="C875" r:id="rId138" display="https://news.google.com/rss/articles/CBMikgFBVV95cUxPQzdON3p4cjM4dVhtNXZMR1RtNXF3dVVQWXVRZ091WkJBTXU3bmJiNFBsMFJTdll6ZXhRTjhueWhMTTRldVJybXNjVnlVWGFLbTRIZWF3S2Q2eUcxazRmX2xMb2E2Zld0VXVCZDVaWTliU0VzdVdUd09QNENFZDZSeTBOaWdWbnFpN0ZoNndJRDc3QdIBlwFBVV95cUxNN2g4ZC1rbWgtZHZNeEphTEo1SkZKenlGLTI1dFg5bkRhZnZ4c1VNQkt5cGJ0cm1KZjJWdDFpd2tDSk4zOHM0WE03dEN3S0RxbHkyelVsVFhRT2FDM3hOV044QmVoRk9XdGVIN2oyd1VZLVByY2E3SWk1ekpiZWFzUUcxT2FQM1RNaGJkT2k0ZWs2d1doN2Nj?oc=5" xr:uid="{B3A21853-75A5-45C8-BC46-540E7CF58A36}"/>
+    <hyperlink ref="C876" r:id="rId139" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxQMUZ0dkNqNmlUbDZvNDJ4UkItYjUtOEVaRzhwUXBGWGFaTjNUQ1dnTHVTV3ZqcXM1LVdoLVRVYWdNZFNuWHdHSlljaFpxNjdVTXZLMEZLODhvaTJfbTdiTEhITV9HOTFoX3R5YjF0dzU2SEdaSTI4WjVrNDFleUVMSy11eThrNjZXdDF4MTdRWTZsQTk0MGJRZ1AwMktQeWNsaFA2ZlgyWdIBrAFBVV95cUxOOG94Z2MtdUhRN2kyYkR2OGdvNmFrUi1MOWtqQmYwazlJQWtSMXAzU2txQ1Y4NmJDQjZIUDVXM2VXMWhhNjEtbTVlT18xTDd3cUZmcW5nWTlaLS1rS1ExdlE3d213aC05V1pmanQ5ZGF1SjVjSTE4QkhSVnY0aUE2YzFSZFpuQ01RY0J4b1gzWGFReS1DSmtVMnFGdjR1aWdLbUU3enk4VWp0S3FY?oc=5" xr:uid="{9AA99058-035A-4742-9053-7755C25B874F}"/>
+    <hyperlink ref="C877" r:id="rId140" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxQWkZTZldQbDdvY3NSUHF0STI2eVI2NjFxRkRHQkp0Ri11cHBVNHRRVUVtSTFrOWlTcGVEUDBjcjg1eDc1c0pySURyaVJnWWJxbXBhRnRNSnFacXVlV1h0TklXX0VPYnRQUXZJY1BJVDlTclI1WGhnQW54VG5IWmxSSjUyN0wtb3ExUUVmNzJma1BHaGVaTk5tZXAyNHVuU1XSAaQBQVVfeXFMT1pqclRROVRwSEN3UkpfMjVBcmlOc0pJRWcyVWlaWGhnZERUWm41N1FGcFhNcGlnUmY0eDc3VVZNLXpaSWY3SFVLbG9LY3F4ZlJkdjQzRE9UNzdZeGJUM0lXM2dJak1yNlVSS0xfY1ktd0V3cWxZRFVSTElyRGw0YjYtZk9HWkhYbjhCWHNPZndVMldxeURnMnpfSkZpSmdtLWE0SUc?oc=5" xr:uid="{8B4B2DC2-54EE-49C2-84F7-7466C6783C83}"/>
+    <hyperlink ref="C878" r:id="rId141" display="https://news.google.com/rss/articles/CBMikwFBVV95cUxOc0Z5YWZpSVQzaS1hTTJTamdNaEpmOTBRZVgxUy1aZGNhUDJjOGFKM25vV29GSEdPUGJFMUNjUVc2MWN2U1loLTVFc2ZVLUgyNWtCd3BTQV9PQlhkeV9aUjN1WHJYRFU2TmFkREdLMWZtQ0hZSWlqcDlqQkRVdFVIQWx2b2ZWcU5nOUFtZUJLekhrNzTSAZgBQVVfeXFMTWhpOWx4VGdzb3RuNWFkT3Q1MHpnUmNTR19aM2dRVjUycHYyLUtLbGE1NW8tVGJQQVExa1pKOFVoZ2xWZ3BUSG96Tm44WVhJUGhnTmJzeW8wNkhtNi1CQlpaUXk4Y29faW43ZWlaS3FwQTk3eXV4NnctOEpVb0dxRXRobk5XUllGOW9jdHJGQ0JhYkcxbnFJRlQ?oc=5" xr:uid="{61833DBC-AFEB-4802-A6C0-33FDD43AC74D}"/>
+    <hyperlink ref="C988" r:id="rId142" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxPbU52WWNsTHFJSWlIaFk0X2RqV3RwUEpORFgzYjBvRDRUQVhac3h2Z2tINGFCcDRuZHBfWWtpRUFzTnlmRGtfRm1hTl8wNWxxNjd5elZkVTRndTJyckRmMEFjTnMxWndiZ1hnR3ZOVHpSVUR5czIyS2hkRUpzRThtbTRlWGpVYjJubHJwQ29TR3lHQlpZdVJ5THphQXJaa05BZE5SNDV4TE9FMVVzZWVMMUZnelprb3RLSmV2N1hoUGRocERwNGhCcA?oc=5" xr:uid="{F23B2A02-591D-4314-94CE-DB4086282697}"/>
+    <hyperlink ref="C879" r:id="rId143" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNWklHd0JQWTRUNldWRE9jTmNiZ0lZQkRMQWxvcklGT21jLS1NYng5RGhFQ1IyZk5POUpJTFlhTjlpWXV6cU05ME9ET0FlWTJTamZOZklFYXNIT2JFVnF6MmxHNlFaemVIMGNRMVFLZXJWem5sbEhOVlZUSGU5elB1SWN6RlJ2MHBUYTFubVRKVkxFNkN1NHlsZmNrYUNBYWdFeGVOWEpUTnkyT2hkWURhc0FfUWluY1UwVWZJbNIBwgFBVV95cUxOeXgxVkZOb3lpNjVXMHd1SVpSaURacUZmZGVKX1VVOUdPeDJEOFdWUkZaXzlLVUxLWThONG9jTkJyYUo5dUJDLUpiQW9NYzQySUxDRndvZEN4QmxNWkhRdm5fUG1Kei03d090WU5IbmpHaVZ2eS1LZU00aVNTWVdwb3hMV2NOYUE4c3h0ejFjeEtDX2F2c3RWWUZmcEFxRy1VTHV3N0d3WURlbzlQalF1akpGMDFFOEpic0lQTTdSbzRYdw?oc=5" xr:uid="{23F8306D-07FD-47BE-9B3C-BF204488603B}"/>
+    <hyperlink ref="C989" r:id="rId144" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxNSE5vcm1HT2Vqc2NWTjZxTV90dFpVc1JNbXY0TDdseU52S3ZkWGZMbkpMZWJndTVjUlZJRmdiME5kbXNSRkk1MG9XQmJOSkhGMERnd2ZzLUw1aVBsMkR0NW04WUowNlVWZ1VTNWIzVENsR2hYNlVDZWZ6UTVvaEhreTdUU2xrS1JOSGpUOE5KOHNWMDVnSVJobdIBngFBVV95cUxPbTVCMU5uSlpJYnUybENvdFlINmhkMG12RHBGQkJSb0RHS0JaN3k1VVd3QVBhSUpNZFItT3NqUFpIV3UyanhZaWFUUTZvalNaaHd4dV9TM0h6VnNuclVFZkd5WUIwelRfaGRHQkF5XzFkMDMxSGw5czF6bC1Cd203LXh6aWdxWTdKNHdGejhQbTVBT08tVDRvV2hKRF9Qdw?oc=5" xr:uid="{0A261918-1DD0-403A-ABEA-A125544F2AE5}"/>
+    <hyperlink ref="C990" r:id="rId145" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPa0lUR2dmWEJBdmlYVGJadGxOS3FrQWlpLUktMWN6cnZ2aWFQZmRJYTVkRmZpRHgwNzlSR1UtR182RGdZZDN0akJPS0U4d29Hc0FlT0JzdHRQLUpYdWtDSk41cW1mUmczNmMtZks1STY0UUsyZnhkZkNNcDdLdTFpUVQ3QkJmNmVQNzJtdXg0VVNQeGVndHlvaWpiajNiMnQxSU5PY1BpaEY0NElYemsxWkZidVFzSFd4MzJhWUVQNXpMaGNj0gHKAUFVX3lxTE5pNHJJempqcjhlX0NWVnVxUXpWUjl1ZDNmLTZpaUw3NXhnYnUxTUVKMTNoM2lfemQ5ald6dmRsN3NfcXY4X3NuUDVlUkJObEJRNjU3VjBDZk4xN2luWUU1NjlCZ2o2N1NuNnVvZWVvYU81SExmUy1ZekRVaVVPa1ZWZDEwNHlnSS1zZ0RHS1NRQjhFOW4tZVZuU1pnekZvRm5mYm1mR201OTJEM2lNYlRLUDdRd3FJRXIwb2haVGRCSXhXNzBkaEpTb1E?oc=5" xr:uid="{A362E858-EDB6-47A9-8F2A-F993B660D771}"/>
+    <hyperlink ref="C880" r:id="rId146" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxNQ0wtUnNqa3VQZ1duUzJObENPMHF6WmEzX1JEcllSNG1KdnZhMGVXZHZjVGdPU1lzcHRpWnpMX09OU1lweHRKVm9NN3VMSXNremhtYm54WHFPU0EwenpXNnFfNzhZc1ZGc3luZ0wzNTFFbmZiNHJKYXlKMTRoVlQ5ZHltU0VzY2xnaUotNVFVSkM4T2RxVWxDZl9RZ18yZnVqNEc1N3JDdkI0d2NaMEZVdTRkdEZKcWNUUHZGamRqclRpTmJ5cUtZ?oc=5" xr:uid="{81BF3A29-AF9D-4937-86FC-6DF6B916291E}"/>
+    <hyperlink ref="C991" r:id="rId147" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxOOUV5Y1NLUTF3RVZuTVE0bVREbVNYeVFQTW5ubFg5cWRkbTJzTDBmN0JEX3lQQ2s1dEJ4bE9IdFNFenhWQUo2X1hRR0FLLUM0OFRDZWs5VjF0azNxWnlvSDF0U1NjdmowQmJfR1hZdXpsM2N0bXVuTG50aWl0b3E0ODdKZ2J5N0VHbERtY1YxNEdMaVB1UnYza241ZXJhY2VFZmRYWC00MGlWUm5WRjQwNDB2V0JWTHA4WkJES3hxZC00X2NFT2Jr?oc=5" xr:uid="{2C138E6A-485D-4A3E-BD0D-AB08A6F5D7B9}"/>
+    <hyperlink ref="C881" r:id="rId148" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxPV2ZlazQzenZRSzg5NTFWeVVnbUsxa0hJdDUzNldGYll4OHRteVJ3T05jZWFBOFNsc2NHX2kteTgzZHczOHJhUE9seHlHUXNvaWttRjh6eUJuQW5zbU1hUVFpYWhYSzdhWXNDVVhtbENVWVhFVTVkUG1mVGFmUW5ncElPUjdxLXpPaHpST09ZSWd4OWJUMWNhWG5iVDhSSGRzT1JTSWFpWWxId0JCdV9UdlBxbUUyMFdkYVhDNngyT1NuaXNCZjEwNDkwQ3EwQjA4MEVrUklNX0ZhQQ?oc=5" xr:uid="{744C63E2-7E2E-49E9-95E7-DA10567A6390}"/>
+    <hyperlink ref="C882" r:id="rId149" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxPLUpKemItS3FaWGRlUkx0OXNlRFRXOWFzejFyX3YyZGtleFl5YTdicUwyVGFldWNwWTZnVHV1ZVhiZ3BiMVljb1V6TDR3UkVleEFVMjZ6YWlMaHJlcS1kMnpNcUN3d3VzOXd1MDlYNDJ2WDJfYnNxaVN0ZE1pT3hlSVZTdTl5aFBnUnNRSGJnR0ZGcjFzNVRoanMwSFhOWG5JZFpJQTR5YjFHTWlTUHEwMWstd1o3MXlvY3RfVm1LRC1Lb1c2a29xa1R1NUJ0c3RfMnlPaGF0aFN0TEltMFRHVkZWVnBTZ2M?oc=5" xr:uid="{D0448500-0C7D-4E22-8927-BCB8AD827734}"/>
+    <hyperlink ref="C883" r:id="rId150" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPdG9UTEQ3bVNORThpX0lTR3FNUXF3TDZMY25mLTZKWW5laXBmOW9FZmRsS3Nwc0JEV3dHMnc0WGRVYnAyVGJGT0NBa0NjTDNDbmJveHotX28zWXc2bG5jdWk4eXNPVkJienlkZUJ6cm84XzBoYUtPZ25VTEx2VHZ5LVdwNkVYSVpqSHlHbnRUVmR1QnFnS0NNUUJjck1qZ3pySzBEeG5YTHpUOFl2WVhMNks2NE4xRjRDX2FudTU5dmVudGRxSDNLOEFqRjBWUHhnZzJsSGlfSGlsc2EtVHdrQXdCOUF5Zw?oc=5" xr:uid="{B439B6FE-C7A1-4640-80FF-3B2335C15D2E}"/>
+    <hyperlink ref="C884" r:id="rId151" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxPRFBXVnJDU3NvWW1oZHZ4dHJjbmVhc0FBdlo5X2h0aVpzbmo3cE8wYllzV1F2LXRyRHVlczR1dE5rQlFXSXl1bWJpSXBoSkhXTlliZTBVOFZCdDZ2Zm5mMElNQk1rbS1UbWFKbWgxWVVodWpJX2I3bUtyZWxIUkhITlJySFZraVZOWjBFbzktLUxSQkEyNl9NYkRvOWNKcUpLdnM3X3RLMWlpSWo2XzNuM2xFSlh5MWFlSWhuMERrbklDMUpWQWJJWVlQV2pxTTlTOTdpYkpfQ050cDFjRVJGM3pCTlhjQdIB6wFBVV95cUxQOEtkbmY3b2VzdE5NS0U1WWN2cXhRRVdaYk1WN0tUeWJtaWZjNG9XSVl5ZVN5Y2dlbF8wSUJ2cDZibFBXYm9Yc055UXZUdzV2Vi1fUERjTDdvWFJDTy1ITThvb3RaZHZiYXpZOVN6VVl3RXA3ejZLWHctM2dIZkQwSmFOR3d0Y0ZLN3dXZUotLS03Q3NwN1dZYXVNOUZlOWc3UnVXNDU1WW05OVRwdExDU2RxX1ZDRDlROEJMTWk2eWdlX0pKb3lKUHBHRFdIMlRVTzFaSXg3X3ZpZUpFbS04Rll3RlpTaDEyWkhN?oc=5" xr:uid="{F8630BA2-3EEB-4FD0-9CFE-B76638DD0214}"/>
+    <hyperlink ref="C885" r:id="rId152" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxPYU0wUnptSnlvZHlzM0czRjNfMUtQdEpENFNjcXJaOFFTRGowbDhFS2RZYlV5c3k2YjZqWEV0QWZYR2hWWUhHeVJsdHNWdlg5dXZuVUZxbEFEZW1oY1d2M2taYXhaMVpzUzhWenRtVHl4THYxLVlUX3gyNlhHTHVxQVhGa3ZpTlIwLXZhNkVTVDdjbE83YkowYWtqeUFqR2Q4aXRMYk1ZTHJsamhneGdYX1FvYUJBenVMRDBVZWpFQ3lDcTBGc3h5TDkxdlNmMVN6aUR2MVMwRzI3NmZLcHpv0gHkAUFVX3lxTFBlTjA3eFB3NzFNTllWUFkwX0xXcnVpUThnT1RCLWNHY01vazhNYkNaeDNIWi1aNTFKelBCeERJbEYxSGNIck5kYnliLUR4N3ZyMUZON25DUHVkYlZsN2s3Y0hYU005MWtYVkFqZXp4dmlEVlVMNU92VXROdDdEdDlZdkJjamRTUlI0NW5PMk83WkRJdDRqcHduYU9JN1llQ3lpUW5fb3Y5Q1JCemJfQURGT1hCa2YzTlhfblU1NGw3dEhjbG9ZOTVMcFJneGFLS0oxZFVzcGNkVlFMRlRLaTFYRDZlOQ?oc=5" xr:uid="{5368C102-7D47-4EAB-BC7B-F051107D4D32}"/>
+    <hyperlink ref="C886" r:id="rId153" display="https://news.google.com/rss/articles/CBMi6AFBVV95cUxNX2Zaa0xBeGpBbFF6azNNaElmVlNuNEtBdXNpTWtvVnhRZ2U5X3JoZjJwQmFNR2xPZEtRcWpQRUpqUE1jZkp2TWJITFlRZDRiRDBIejA3U3NFQ3o2VGVJRDZRVzdXc0JSc3FGWUw3MXpUMHhZQjIxLWUtTV9nWFZGTzJZWkhUVVFnbjdwWTJzNmNtb09CVUdiVy1ieWs1eXNrclhsX0dUeDgzWXlFdGNuaUpKb2RsNldKc19yUGJPanNaLXo0bXV5ZUF3aHp6SDh5d1Uxay1XUXplUGxiVFFROUVtU1NvTFQ10gHuAUFVX3lxTE93RjZoeFI4Tkp3RTFyTDYtclpSNEZKWWpTbTNmN05BOVNPMzRaZ25pZkRzcXNma2pVeVJZSlg5aWJVZUQ4V2YzeXJYM0VmUDh6aEptOWdWMnp2WVUzU2poeUxPY19ZaExGUjVVXzZQMWZzbFFSXzJla3FyNkJETDNiQkQtdjdudC0wOElMbXpRcS11LVVfb3JwaE5BMVJ4cDUweWV5ajNEV1NtQk5WMHJCUUxKWGktLWRSa21TUnA0djBFbzM1cmtHUGppSk83ZmdEZF9uUFhGTDhBblFqa08zWW14a21YRGRXYlFPNWc?oc=5" xr:uid="{E6E3BC7C-B0B5-46F8-8454-9C5178B36495}"/>
+    <hyperlink ref="C887" r:id="rId154" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxOQmlUX2dLNXlIcUJzZkpFcmdlLWI2X1BHYW95MG5COVpNc3VDUXF0VkFncWtqYVZGa1YtRURNVDlWdEF4OENWdmdCQnlaSk9xa3VCYUE0dU9RdzRMWW5BOFMxUnF4WE02dG50cEdHcmZCMWFwei1NOXdUaUFxN3pRWlRWWFNJclVVUF92eDlXLUMySm1pNjNmbjRscjkzTXBZcW5QYVBVZ2wtUi1VNDM2dFFTUnFSTzVwYnEwd1lFdW54RUx4MTdxd1g0YTR2UFBYMzVCRVMzUHJHUdIB3wFBVV95cUxNcGdkWUZQd1JTSk1lejl4eDJrbWcza3Y0VjdvcEhUeEtwLUpkdzBBUXNQd1hUQkdOZ1J6UUZmNE4zWFRRMVhwODhpajJVc3MxWG82eTlFOFhaVWZVN1ZldFlvNG1RWUd6Q0pMLWVZbDl6X1NJTHI3REM1dWZNLXRLcG1yZmNKdDZ4MHhnWjQwazVIbFFUUUp5TVVEQXdrcjZrNlc3cElBd0ktR3VndDhoYm9CVzVxVnRBbUVOWi1seGtEV1B2aU1vWnRrRGxjMFd3ME9jTG9qQTc1NmJ3MWZR?oc=5" xr:uid="{40397135-8094-4948-9818-EE0ABF7D3C33}"/>
+    <hyperlink ref="C888" r:id="rId155" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxPbC12c0hMOVJLTFBSVTFYU25wS215dmdHYjdDMHRLZnVreTdpSHNTLTlCVVZGb0hSQ1A1UE16SmxrT3RiS282c1doUEM4Y2EyYTRFOUxEMG9OdWl4SzcybUJyaFJENGR3U1VpRmkxT0VSU0l4SU8xSk9aWVNsZlhZdEZES2I1cFY2TVBNaDNJVE0ybFZINkJoMEtMb0loU2JQT3fSAacBQVVfeXFMUHlEekVVUjdsaXJoRnB1U3VaaklRNUVOVjRGQkUzX3pyWmRpZWp6Skx2QVp2SHBlaDBxVmJLQlE5NVBHV0NHaVVuc0ZNYVpodjJ4d3F3QzhpM1VsU2NaVGtMT0lQNk1BT0t3dmFKMXZRVFdjWk84MjdhaTFxajVTMzBqdGREUkRfSHp0Qmc2by11S3p2U0lPdklVUnpDTEQtNFhKZXVGdm8?oc=5" xr:uid="{E1E202F1-D70B-4F4C-8D3A-A7C67CC3C018}"/>
+    <hyperlink ref="C889" r:id="rId156" display="https://news.google.com/rss/articles/CBMikwFBVV95cUxQbWJnMDRFcVpNdGRPakhDUmxJQ2VoZVp4dXdhbFdvT0FvUy1DVWwzMlBoTFktT29JajNvY2V1Y2NSa3FjbTNfdXRsdGlBTVpvcU9JUGZ2ZzJQa25VbTNjMC11V2VOVTIzOVdjdFpwT2RoMktnZS1YRUJUOGlTc3FnN2pTWlc2a3hhVTduWU9HbWdTNmPSAZgBQVVfeXFMTUhwODlXUUhBNmRfaTJCYTljWHhVRDBYcFFEbUUzRHB2N1I3YV9BUjZlMzBsLVJmZW9yc2JFWkRXRnRZNW1FeF9oM2hsRXZZNDBzLUJVcDNwOEFKRC1PSHV1WEZLY1h4N1IycGJlcXh2SlVELTNPNEJNTDE0d1FYQUVzN2g3eVZfczdLQm9Td0N2d1hEVnpDdEk?oc=5" xr:uid="{A41A9913-28A5-4E73-A729-F9A0405CF73C}"/>
+    <hyperlink ref="C992" r:id="rId157" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxNcG5WNFdOaEZKQnViUm94TDJmLXVvN1hjc3o1RjJ2cGxkNk9vYkdXMlprQW5Qd084TnZVb3lHMkUyVW5hMUx2YXZfMlc1a2RJQWQ3bXZNd2ZVNC1LTDlCUjlmTjhqOTd0aXBpb1Fja2drZVA2aXRsdmg2UGdSdTBJTGRBTWJVdm1tNzdxNGtzbnFWcTVhSlJ1MTlabEZzRmREZkNXaVR6QTZ5elZzLXlfdmlWWXNPd9IBtgFBVV95cUxNTXN6ZEY3eHFxRkhHc01taTc2b2lCWTdIVXBUWFJ4akFlU0dTOGR5blRMY2hwcEZpWnpmZlV0V21PVG52Ry1LVFZzSVo0bW1pNm9UTTRVczJsV2Vob09LdzVkUmFRLXNxS1VZN09LMTRxMHhuYVV1aW5jLTFKTWpLcm4zaldSQ1pnQUIwTE82V1Y5UVNyVHBLMllyVnhpT3ZBODNzc2ZlZWpWaGJZR3plUUpuVnFTQQ?oc=5" xr:uid="{DEE0503C-2C4F-4035-8776-0BC871EE04DB}"/>
+    <hyperlink ref="C890" r:id="rId158" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxPbEk0ZGozRUtOc2htSWVjTnVLWi1HUWxBcjNncmtrZjIxcjBydlA3aks0RG1fQk9fV0p0ZVhPVmRmUkxLd1RQbmNzQjdBay1oeTFSSE5kZV9RcG44Tm9TSDQ4cTlWNWtDZWZSOWs2bTd0TWh1T2VaUXBPSTI4TWhvQWNwNGxkRVAxekotbUtQQjZIS0c4OU9aRlI0bkxnMlFXWElrUTMyNS1Ibjdra0lXc21uLURrYU9Tc0N2UFNFMFQyM3BBNG5RMkdZOHpnUFdKZzNIZdIB1AFBVV95cUxOTjY0UTVCbjJrdTE1cFRTa3ltZDhCWGVmZC03d20waDhUbnc5MzJDdUV5NGtZSzRKU3dvanFzUUtrMUV0RU5wWFJhYjlPMjh4eUI1Qm5RekY4N0l2Szg1Zy0zMkRFWkNqaV81MG1TUENQUEtHRDk1QlQyS3FRRzFCY2o5OUk2alU3T1NZbmxYWFZ1WDdYRmlEZkNpdHBtYmlFRnp6TUxEanpuLVdoNmJxMElkU0pydGU1ZmJUNnlaUVNjLU9YRFNLajdmV2tTUzNVLU01UA?oc=5" xr:uid="{2426B77E-56E7-4380-837A-1F525CC881A3}"/>
+    <hyperlink ref="C891" r:id="rId159" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOSTRYQjhkQ2FjRGZsUFdCc3V2VnhSeEZLamZPRXZ4Vk9JYTJHaktYV2JpNjgzUmJKenVQTkxaNTdTcmxFOW4zSVlEYlNmTW5RR1dKSUlGcjVTN0lRSHdEcXNuTnNQVi1GYnhJQ1I3a2hlVGpfS0ZWcU5Qa19RMXJOdm5WeW1hVUZpUFlVT1lxWGNXZnhJMmdEYXlSakZ2ZnA4eXZjUDBkWDdPNWV5REl0Qk5ILVQ3Ni1vdUNqMDdSRFA5bHN5Ynk3TG9TSdIBywFBVV95cUxPMDU0eDBQZThXOG1Va3diQW8xWXZyYTZxdE9YcFVrdzl5Yl9SWExBQzBLSkNLN3lzZ3ByTDhveEhsc0VnaV8tWFEybmFhT21FanA4NDhhdVhTaGY0Zjd6NGNlSmpuUWY1ck9hcVVhZjRkRng1TFF5Q2xwSVBmaTkxNUdHam1WS0hzRG5QdkFsbzR0MEQwMDFDZVR2RVAtZ1dpNl9HcFFwM1VPWmlmTGxDWWNuYW9ZQ0c2ZTdmQmY5STlrOURYZFNnR2VYWQ?oc=5" xr:uid="{06FA7A28-5F1E-4388-9728-978B69044BED}"/>
+    <hyperlink ref="C892" r:id="rId160" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxOOGxZMVRJTVZreVozMVRfUzRfWm5ueWM2YTF5cEN3QVRMaVlXeHUxbzIxbnVSVFBHQ19BeXJoNF9NeXBEaC12djBGUVhxLXZPMVF4bmZHdWRxdGhsUVN6ZGFwYjRfekdlWWEtSDc3eVhvd2J1bmE4a2s3eV96allyZnBULTFTQ0lEWXByTWpWenNkd1UzUFNTeWJWUEowY19SWXIwcXlaVWc2VzhWdUo0QzRxdkhCX05USTRMYlhteTNmbUNm0gHEAUFVX3lxTE02UlY0eE9PTlhPZl9EMXM3Y3RDdUROT0lVVFpUZzlwdzZlZk01WjRPQ1JRM3dybUczTFZ4V2NOZ01KeWRxdUdpRW96dXU2dmRONDdhRGc2WTN0OTJ3ellieE0zQ2ItQjRqOHZSRmF2OXZvZVhqdFZNQlc4NU56d21QNUl3a056Z213bzM0OFlOYjh5QkRJdVJCSGpPQ0dQcGY3MGc3Q2hxN2VRQm9CSzJheER1MHJJVkhQYXMydTMxcWV5LVo?oc=5" xr:uid="{A21D8E43-CF88-4A97-A780-E6E0A643A3B3}"/>
+    <hyperlink ref="C893" r:id="rId161" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxOeXRUQVRTMHpnYXUydjlTMTJnaGJGdk1XRTVuWHpLdUtCUXFjVVBtRVp0aW1JUHljV2drQldhdEhWSm0tYnNFX0RXcUlFeGxLZWVad0NPT2tTYXNvVk9ITzVOVW42TmprMmJ2WVhXOEVncmZxSHd6ay15VkN1Ny1EOUk4Q1NkS242eENuOVpGQTBFUFFoMHJZN0FzaGY1eGhhLTJwRXFsb2xFSVJQMVZkZFJOX2VZRHVYaTlGVWVoS0xYVU3SAcMBQVVfeXFMTW1pWC1fY3FFM1BCVTRVWFNFdThXVkdsU0dxcE1uRzg4b0VncmJWaV9FaGJ2VllpbHFGaGpZZ2dEeDNnYlB5cXdiWi1NNUtGRTBwT09FMU0xNm1uVU11ZkFiSExjMGxQOVJBMDBCdVZkalNjd21xZDJmZXIyNGtVM2pVX3JCODRuTFNMVDhScFhJdVFLZEs4M0lfNHRSMXF5RnJ1OWJiU0ZGNWFZbjlnbmRwTzRwdUdoVEZRc0R5eFl4cTNr?oc=5" xr:uid="{0F344B27-D784-470B-BB0B-F2E04DD2F773}"/>
+    <hyperlink ref="C894" r:id="rId162" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxOVFdZQzRJWE8za1VOaUhKNVJEOWtobXNHdTZkSGVVc1dkZC1vajllRTVzS0FrZ3FPU29laXBLem11SE1HbE9aRzhZNVBuSmpYSm1iQkE3YzhrbTA0TnVYTWJWTmJkclF6MkhqeWtHVzI0ZHFFZUtFeEVZRWgyNER2S1hxZGUtMnQ1YW5FZFJKVW0xeHNscFVUTzR6S0tsVmdwdkl0QUVDUXdOMnFsaWtKcVZWdU5TWHpwVWk3OUliREVFRXp0cnBmVkw2MWdzak1UNG1sR21hUzYwTkxXbHZv?oc=5" xr:uid="{6BDEE38F-B8E1-49AA-B9C8-3F18B43A95B0}"/>
+    <hyperlink ref="C993" r:id="rId163" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNenVTSFJfbmlFVS1wblBwbks2YTg5Ni05RWxnVE1DYkMxRVZZVV9DcndEeWU2VXphZEE0MmVLRmhBVlhyUTl3WFJZeXBEODBKa1B6Zy1tcEQtNUlweHhvcENKMGE0M01WVDJFYmhTYUJSSURGVzlkdTlCMUprUHpUMXRXSHAxR3JjajdBYzV4UDFsZXZJWUtMSkJnd2RfRDlMenVtbnRUUGMwbE1VdWIyUjh0QkZ6WWxVQ3V4YnBrN0o5U0pVenl2RTNuT0Y5YXV2NndnSkQyMUhTTmFfU3Vv?oc=5" xr:uid="{BA1445F3-AA9F-4028-B329-60A159EA3DCD}"/>
+    <hyperlink ref="C895" r:id="rId164" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxNdGNNaTRhRHpZVmdvb3FVVXFFa3dvMmlqR1gwaGtfcUtXM0tGdVpfVnpsM1J4aG1MMnR2QUVfclEyZlczWWN0dk16ZU9ZZ29ldVB0OWxWbS1MQ1BNVFJvNFNsNGVPaUEzYVR3blJDNTF6TWx0eE9RU1pvUmNIdkdiWmctMFcxNW9icXpnRHRUTlBYbHcxckVEbUZXWXpKVUhhNjJHdkdpdnFhOE9FUnlYQzJPMDNvZXNx?oc=5" xr:uid="{8FC32820-CBAF-4B85-BE94-50C48B399717}"/>
+    <hyperlink ref="C896" r:id="rId165" display="https://news.google.com/rss/articles/CBMif0FVX3lxTE5yVWpILWVzaThoU21LOHhLVGJ6cXBTd1hUQ0k5NkQzS3EzeG9feHFwakdiY3BSa3oxRnpuSW5ERjdzWC1ydjBYUmV0UVhJY3lmSWRka0lLZS0wbG0yMkhBVGZfdVNsZmxTOGVBRFE1Z0hjYnluX1VvNTk0S2VpbDjSAYQBQVVfeXFMTUZOTWtPVUotUThBV2tsQnNBNE9QRW4xeXFZeXlxV3FkdGZ4LWs4SXpWQTdSaFl5UDV4VFJhNU1IY1RLRW0xam4tcEhRcW05X3NXTDU5SWREZUl4aC1DX09ZMmNaOGFjRTJscXhTQVlEd0ZTcUU1ektIcDlRV0dBNmlqRmFU?oc=5" xr:uid="{708EBA4B-54DC-474C-9AC2-AE759067F465}"/>
+    <hyperlink ref="C897" r:id="rId166" display="https://news.google.com/rss/articles/CBMijwFBVV95cUxOSnVSWUY4RXlCTDlaRDBLN0o5QTJ4alhaTmRFY29UbnR0d2F4aGtZTmdkZUFBOXpNMzBjUjhUSkVEZTI5X0plankxUEVpOEtCUS1fMDVMYjJGT1JCdUcxRU1UQ3ROQWlkMnptWVYybW9LUUhjajB6ZWZ6cWtMY3FickdNT0hFU2dERVdzeWNxTdIBlAFBVV95cUxObTctMk1ZQ2hVUG5SNUVyNXVYeG1wd0NlYzY2ZnFiMFdZdWdFdTl1U1k1RHpaOFJSanRrYzNXbmJHMXdWWjNpaHBSQXYxbko3eTE3WDE4VHBBNU1mZ0xTTXlIZm8zVDB3X3FEcGZCeVc0Wm9KREN1TTNUTEdQWFNtX2RRWUQwWVBtWTVhSnNqcVd2bk03?oc=5" xr:uid="{E580E79B-20AA-40D0-9706-FFBD7D057E31}"/>
+    <hyperlink ref="C898" r:id="rId167" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNY1A5TUd1SnRwT2Qzd3FzTFlOQ2hWY09CZmdySUxBbi1kTFlORlZLNENUMnc4WUYxM3dBcWI0MVhGblEyNEtjSGtWcnVsLVFEOHl5TDhuUDBCZjdmN2JjeVRLR0FMMVg1eDZaOVQzMjVRT1lDSUY5LVdMWGNiTzNxUzZwdHlkdS14enRuUTFoazVHWHU5V0FOVE55cW5XNFdZYzBVUV9uRm5pWHJ0cGhHekJUWnB3WkhqYV9TR09xVDVvZFdRcWxaNDVB0gHPAUFVX3lxTE1uU1lhcWx0dE1HRUY4MlZ5X3dTeDM3M2t2TmZsQnhFaC1yNHYyenZoM3p1UVg2NUZ0eTZnZVFFcGtFYzN2Zy1VZ2xYMnB3Mlc0SkN4UVhjejU5NG1xaDRlV25kTVFNeFEzbW5CNWE0VnRscWJBREExblUxaTN6Z1Z6bHg4WmhMQ3dtNVJBdFliQXJmaEpVdkE5YUJnYk4wN0I5Y2dheGhwTVBpNDlTSjBKd3lIdjhRWkhxeVZZd0FMeFZIRXZReG9RTW41WVItOA?oc=5" xr:uid="{62952722-A7FB-433F-84DD-8056BE845548}"/>
+    <hyperlink ref="C899" r:id="rId168" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNVkxBd2lXZTNkRW5OTFlwaXQ0TUNQY2EycDdzbTZpOFVjNzBkazcyY2dhdlZ2ZDNPT3h6R1NRVURZRTVMLWxVQWpySlpJU3RBcjM3bVdFamQyRTdnd1dFdTdZc1BuZHpiWk1YamItdXpWX2lOS180UEZTQVZaRklDajh3SHVyc3UtNzY5MEx1VVFrZ1J5YnNfb1hicUdMQkVrTDduYmV4S0FmZkRNTHBJYWJNbkM?oc=5" xr:uid="{50903B51-C823-451A-AAB7-067C019B9CB3}"/>
+    <hyperlink ref="C900" r:id="rId169" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxPZlFoQXJpRGYza2dpb0FiSTVrUUl3SVBWZ1gxMmFwcHBrcWF6NnBJVUQ3R0Z6cFlHWjR4UG56QnQ5OUZYVnZaeEtsVDdQYWdTVFJLZ2Y1Wjkxb2FpR3h4Nzc0WGo0U2NZU0w3ZXBkM1ZaWjJ5SjNnUUpSYjRzOUJCVUVCbGJFdnJ3N1MxT1VyLUNBNVlMNjZ0dl9sMmNhZ2FWVUx2NWZuczVSY0J6N204WWZsbVg2aVVWN3hqRkdZemFCSlA1SDlkUmlaQmo4Ry0xOWQ5bGJvZFYwcnA2UGpRaVB3?oc=5" xr:uid="{5DF0542E-763C-40A4-BA0C-0394FBCB694A}"/>
+    <hyperlink ref="C994" r:id="rId170" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxPeG1uV2xUTHNPXzh1TEJNQWlObWN2N1hBUkIzYWFIMS1Wd0hFUUVDLXF0RDJ1SVhzRFVxa19rb2tzYVh5UTNqNE0wWC02UHl0VkgtRDVVNXFBSTRIeFBxNGxLWGRHMnpkWWVFZ2tobEk5OTFqSmNNU1JkMVFVM2lsemtNRzUwbWFmSHVDbHE3Mmcxa3pxQmlmS2VKYjBkNzVtX1BiVDd0MFlLOS0zdXBYTDB2Q1RBQQ?oc=5" xr:uid="{521C5B20-DDEA-4EAA-BA26-9C84E5BC276F}"/>
+    <hyperlink ref="C901" r:id="rId171" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxOYl9nVFkza2VfcExmZ2pnYzYybmRRRkMtLTUtMzVYSVMtT19INWpuMFUxUWF0RVJOTGJsRVlGdGwxanJUX3M4R2RBWGhnRzhtX0d5MjlvRW9yZ05IQmdCTF9zZEE2Y2ZJSmJMeXBUTkRoSzlsYXp6WDRiTGRHdnVJMlhQS0NOd3A0aTlQZGkzOGlndFFucmJGUFU2TlJHN0t5MjU5ZEhERk1hTGhYZWxPcXdsRXUydw?oc=5" xr:uid="{D09824B7-D1C8-4FA3-9315-0DBBC9A426B4}"/>
+    <hyperlink ref="C902" r:id="rId172" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxPSXo2VTBwMVRaaW93RzZ0dWpIZlJhRGNFZ1lMaHByUzBKeVdIUUt0N2MwVmRJbTlIekRzQnA5OTJ0VlR4NUdTX1hJSDE3a1owT1otVHNXV1BEUHhBQk9pVkUtaFBZMzBNenZLSFNtWGN6aGhDTzAxS3NWVlpoelB6aHhVQ0h3ZTg1eUtoVHI0eENCRWhWakdzTG54YmFCN3ZBS2xwQmZR?oc=5" xr:uid="{8DE9A5B8-9B5B-46E8-92D5-694F20EE3DF8}"/>
+    <hyperlink ref="C903" r:id="rId173" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxOWUN6TUV2Uy1pR1RYNU9oUUI4V0F2VnFsZXMxYnV3bGFlWTNvUEVjUkc2UnhPTDEwZlJWeERPMmJSaWZOc2kxb0FlSVpoM1pDb0YwT082LU1hWDgwdHJoQkQtNTFORDJ5YzhrYVNIdlNIeGxjdzB5SjIyYl9PbzgwUXBQUEl3VEpIeEpPWVlRRjFUYzRsVm4ydE5BQUR0YW1LRF8tUGo3MnJpLXViVm1EYWY1QQ?oc=5" xr:uid="{C4BA929F-9C61-4F8E-9706-4122D1C58029}"/>
+    <hyperlink ref="C995" r:id="rId174" xr:uid="{A8991D74-06A7-4C6D-9DF9-3EF81873CB64}"/>
+    <hyperlink ref="C770" r:id="rId175" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxQblBWQ1FaS0lsZDJ3ak81Z3U3dlVpUTFrdU9tdE85TkhfcmQwUGZhbTMxZWtuY2JJSDdSSVMxMWdZWFBKaEpZWVF3a1lYSFJrVnNwNVI1YzdoZnUxNGFhZ1c5LVJ2eWRMNi1ZZU5HU0ZhNDdxWXh3Z0x1MEZ3dGJFS1B5QlpJR3ZXa3NkMDVOQmlqV3VsbXBSa2M4Y3JMOGlyTDZiMDk0NFd2ekJyN21mZTJrQ3M4aUw3T0FuclRmY0VRcW5VZF9vY2JrUldmN0t0Smo0dXJfT1I3elVtQmww?oc=5" xr:uid="{20C1FF5C-4233-4254-9683-D1821FA93568}"/>
+    <hyperlink ref="C904" r:id="rId176" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPblNCQ2w4RklqLXlOWEtCZl9XZDhYZVRXQzk3bHF1NEZ6QU9TZW5wOWw5QVByMTdJVk03ZWRUV1Vqbi1ZQWhuT1Q4Y1VSajJNN0xyNmRia24xQ2YwTjhrRUt0RjFZTzlTdDZwTFFCUVlzV1ZDZTF3M1RQWFNXRnAzUE1hcjZkRmdBMFhqOTY5QTNqZWVtWmNtc3FlazNsQVAtckxpNDJ6Z2xEYUlsVWttUHpDMEF4QWRDM1ZmOGg2Nm16S0NManBR?oc=5" xr:uid="{727323D8-B60D-4B58-B182-D9546F69FC52}"/>
+    <hyperlink ref="C905" r:id="rId177" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOQ0h6X2RMUERsNWFqRXByXzdqaGhla0tna3ZCTktPX1NnT0w4T2JPVHp2VDZJMkpyTkNqeFI2bmY1VTBFZnJXNm1DRVJXT0RxU3VIVHVkX0NUcG1SLTEwcFR2VF9ENnJrTG51UGUySUwtOHZjcVU2WGJxMXNJMkppSy1iYkczWnNwWVZLaWg0R0taNVNsYlJ1X3pvNnMzMmRVWm0yeTl1Rnk1R0pScVdtLW5vVnVyT0Y2M080SEtuRTVRQU10WFFLSmxiSQ?oc=5" xr:uid="{E3908FE8-D35D-45FF-894C-CBB0B3D2F25C}"/>
+    <hyperlink ref="C906" r:id="rId178" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxNZmZoSGV2UUR1REpXdkR0eldnd19VbkFDVHU4S0hzZ2dIazUxRU0zakI0R25ETHVBTFVtQm5lb20xdG9DRmRzaS14UFB6cGlVSExKdHJXZ3puaDI5MTU1eWs3UHBMaWxwbHlwT2NSZ1M4NGdGSzR4c0FDbmswa014NTJKV1dTOVctWEZpdC1tQWtRYjUtTWY1RTlneGVaVzdPTkpQNDVOUHhNZ2lXalRsWUZTZmxxSjNlYXdhaVZBbTh6bFRoVUVpeA?oc=5" xr:uid="{0B98FD06-908C-4D25-B45A-04DE33C65AE5}"/>
+    <hyperlink ref="C996" r:id="rId179" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxNSVFqTDMtYlBVQkgtdFM2Ul9qSGhQdWZLVDhOVlNJaHZGOXk4OVJSX1JodzE0ZGc5WXNUY3ZzemJGU3YyLTFhNkNwV0JyMzQtbEhJbDFQX2RyM0g5ekNtWjdJNHBINGY3QlAtTmtSREtObDlDMzdwcVM1Ukc4ZDFxbU9qZk1fRE1GbEJ2TjZvRllKVkd0NFFieGRPR2dUV3VGOW9qbmFvVjZlNXpKZlZzX2NVakhpVnJOZGhQOHY4S2RJOGhadjJma3lIU3V3bTViM1ZKVUtLejVxQjA2LXk2YllETzliVXVPaEFRbWZHbmROd2PSAY4CQVVfeXFMTXVpNzZqN2ViZnBkMkJsZW1MN1MtSkRLSzJoYXVNSEtWOW1SWXNpdXlWTVpYWFVWS2VkTzFyUERpWFVfQ2tmcC1jUldoSzRQZmdVMWFpMnNXYkFfeVVjaWFjSUVhTGE0ZjFLc0VuaF9OaE52SDFUYU9MWkFYQWhmbWxLckUxbXlXUm5KT2pDLUMtZDI0MUZzTmFtdWxDV3NfTzBVS3FCUUhBWDU3UXltNlhQMWN4ME9EcE5CaFBubHBEd2d2amNXandzQ2xuSGdvUjdZTDdWdGlNbUt4ZnZvRU9SVy1adHRlX2puTDJkbHNBdERMNFdWSk0wYldyZ1hhZzNucHZob1lnX3p1c2R3?oc=5" xr:uid="{E9691879-3730-472E-A200-21EE5B3FC969}"/>
+    <hyperlink ref="C907" r:id="rId180" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxOUXNzLU0tQkF2WXZmV2pQMEdGRVpjc2xBT3oxTEJ2WlFXcGxKLWExQmdRWmNzYjVOYkJfcUU1cjJUV3g5SFJfXzAtMjR4THR3T0JRWkFOX2R4RExTdmEyaDdYTlFwSkliQUluQVVva2JIdUFyNmxyaVdHUTU1TFFxeHNrcUR0US10S0FZaXJyVG54eXdPRmMzYU92ODk4LVExOFQydnVkV25WNV9KNnZqNFk5THVpSlFRbWMwdFdsRHduUlh0aDlZWmd5UVBWbDFzSUhySlNJaFNUWEJuMW9GN1ZpdWcyOXRadFpzNjVqTEHSAYsCQVVfeXFMTXZ3aEk0Vllwc3FjMTBVaG1jR1k4QVZIcnA2aFNZeUI5U3FfLU82MHlRMXg5OE5TdzZudm1VM0d6TEp0Ung1NDA2TEJhczFBaURfZnZSVHBPVk9TX3B0MWtkdE9pYlJiRlBBOWJ2RlNxNm5Jc2xFMTY1M3RUZ1BLVF95M1l0YWdWdk1GS05FSmxNeWdqTjJrSHEybnY3NkVuckdNM25Bb3Z4QVZTaTBLRm9jRXNmR2dSLU1FZGFxSkJidS1oN05YUGFSZGIxTkVobjZ5bE5jNjlJbm9rTDZDYTk5NmpjMXd6emRpdlctTXhvTGtkWWk1NS11b3l0YmtjczFtUmd5Zk1FcFg0?oc=5" xr:uid="{C99EF32F-B953-4DA5-B2D2-8AC7CE8DA5B6}"/>
+    <hyperlink ref="C908" r:id="rId181" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxPLUh1VHJJOEV5RnA0S21GVGQ2anN6UlFCZFo3R1Q2d21TS3dfSE5udXJMZHpKMm1wWmR3cGlMR3hWejBTbmFPdk9yaTh2bkFHNy1KeC0xZXFFeFpzSkxINVFuUUlOaG5ZOTBLc09RdmhYeWxQbHFqbEppcXFEMlNzM1hDMzIyMjZkZG9KbExFbWl6WHNBcFp0U1hqQVNyM0NIUGprNERDUDkxaEk1Z3ZTTVlLZ205MzRyTDM2OW5KejJnTWNwS0lxOGx0LWswWDh4Z181NDBaelh4ZFUzcS1iWXdzdDJROU1jQmJPVHhUaFlPSjBaSjNhT3hQQ01BNDZPMWVIMtIBnwJBVV95cUxPeWJ1UGJiY0txMXhhRmFrcmNVeTZkd2VRbWY1NENuSWVOdzlCaUpBS1NOUXFkamJFSFptRE5YSUQyMGNOUDMySzNSaWhKaXRjSG5KQlo5eTdSVFBIc05nRU91X1hXeFpiME11VTd1S2xsY1BsM1l2VVdlRDhaTFF4T3IxTlpBNlNiYWNmUjZWZlFmZl9vekJ0bnNVa1BOS1ZxWTRlUUxuNC16MGZJRWhEaUJZa0I2N0gwb00xVTNORmJrM1BBSldGcnl1eGhiTk8zZlRCTjhnUllpOEZEcy1OUHhQQ0FNZFFoVU9kcVJ6UEdrZjEyRzdTMmxZc3pfbDUxVEZFSFJOZXFINS1JN0tFMkVQY2lzejZWbDA2aFA1UQ?oc=5" xr:uid="{AB0D3DBE-38CA-4FCC-9515-88C927C33643}"/>
+    <hyperlink ref="C997" r:id="rId182" display="https://news.google.com/rss/articles/CBMihgJBVV95cUxQUTJEQXZwSWZsa2ozNE1za0hqaXlLZ041WDdoelhtZ3hLUDdkUnNkMFNIWXk1SXVpLWxxUkdzZTF3TF9XQ2JmaHVIMlFwcFZZM2JyODdSQnJZOUVmSVpSREhsaElabF9kdW16YUkyWG1fRzJoMWlVM25IbTl6bldza1hPZUstZk5UMDRlSkZFcnQ0WFRwUWZhV0ItcWZ0Q3RRcloyWDRRTnZYZDk2MzVmazBYWFJIRFcxUXVhOEhhWkE3YTVWekN1RWpwQ0ktcU85cWVhcFhUVG9aNGE1NDM0VE1zbjV2bTJZYXlCcGkwOGw2SlNOTDJTeHZMM0NhLW9yOGNXT3JR0gGgAkFVX3lxTE00bEhkZHl4MnhaZDlBZmJOLXo4MnJFN21GZ0ZvcmFzdUVhR2lIdkJKZVNhREswdFNGdWRobTNNTG5oT19SMDJnbXJqclVCOXVjSjJkenBuMl91cjNNVWJiSEx2SVFJNnk0YnhQdWJKTUgyTlMwemlfc2t5c0liVVVhZkJRRUZlc21tTWFRaGtJYzhTQjNwaE92enZHS0hxMDFoMmFXOHMzYzZLYUNza09WSTU1WWtaQ05Ca2xlZkZfWTA0Mk1aYUhyaEYwVEdFeHFRV0VhSUpPSk0ybmdENmlHWGo0aTFUVVl3Slh4eWMySUx3MWFlOUFWWmF1OWxBWTkwY0JrckctOXhVOWRDMXJSSjR6TXljRWphdGdBVm80MQ?oc=5" xr:uid="{71E87019-A810-4168-870F-60FC3BC8BED4}"/>
+    <hyperlink ref="C998" r:id="rId183" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxOWGFWbUxiV1g2Vm55NFlPNkp4YVU5d0lYZ3gzZHc4aTJTNGVlaklISUN3a0ZLLTdyM1R6SExJMlY0c1RiU0NDalR4cDZRMUFjRnMwUnpTMWM0eWdjRUo2UEtIWl91cm9uSmdyNlFlc3kzT29CVWRpeEgxblcxVVNBVDYxT0NSMk9ZV0paaU5rMVkyS0g0cllDQlN0VDlJNlRuaDA3aVVhUVI1VVlINkM3QTgxeHVhUG5VWmRZRUdiam5pZElZWnltWmxGWk1HdVhMODNiemRyRGsyV3VFV0hETXBwWDVZRU50X2ZoaFJvSFY1czV0b2fSAZACQVVfeXFMTU1ZT1lnSExZc3NfdUFJX1pLNk0yaUV4NHBzZ1l3UjJKVHoyNmRoSVBIOHotV2pSNDVGVktwMTkzOFhpb1R2ZkV1ak12REgyc0FYdms0emM3cVBpVTlMQU9OOXJHczJPekZtWkYyUEJOMEp3b0hENlFFTUd2bjhBRnZJYkJlQ0VjWHVPSWJwcWF4Y3Rva2hqOXhlYlNkVjY4aXpwWHVwY1I5NS1Ycmc0dTlEdVVQLU5UZGpXWGZ2bzB2U2pIR0Z2VFBFTmdRbWU1U1dUS1N5aE1fTHp5a3JjbWFETk1icmtrOUxrY0g0NkE2NXZQTDRjR0RCQ08zY0JUMUxIQzhrbVpMM1h4ZmlWb2Q?oc=5" xr:uid="{C6B8FABF-A017-4F3E-A857-7D51C55EB275}"/>
+    <hyperlink ref="C999" r:id="rId184" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxOQVFhbWR1TU5vMUk5NF9IUkdENE9NZUZpaDJ3Z1VHOE1zczBFWWlud1lCSWNZLUhERmxTVzBsNGgxYVlqWEw3YkJyYUdmdkhkYm9xR2Y2YVZuODZvYzJ2NHg4V2tRVGE5aTdlNkx1OXdGR25sUFpoUEtFNkQ5dl9sN2tJdXpFVHhvcTFhZGkxLTJ2VExKQzhwX3gwZ2pjdjJvZGxZNGRlQTJsTFNzUFlid3NkWFVkblJraXpBc0ZQRjhFTVhZXzY4ZDdWMld1UnU1bVg3aFFKOVhIRHprdjctQmItTXHSAf8BQVVfeXFMTVpoODlfeUpSaG9oSS02dS1leXg5RTlSZUdxMFVDMEJiNzJZejAwcEFPUUdONkxnVGpEXzF4RXVYRWhEc3Z0cXcwV1BMNWVUS0VqZk9JcE01N2xHQXFfd3NlMHVyWDAzUVFEcExWY1pBNDVQOV9Na0ZtY0xXanpCRGZCMURTWWVBV0JkMnpkblVROG9temRtZlNia0dKR0N6RUV1YkxETDh6YmlhYkJUNEd4OUlpcEYxSkx5aklmRWozT1JNUEQ0bHYtYndPNUd5ZWRpc1oyWWR1c1hFY1pWb0loMWY4UjVZS21lSEVaV2V4OG5CZWNvV2dVZ3hLMTg0?oc=5" xr:uid="{85CD6192-4A4B-4F9C-97BD-28CE09D8E5B2}"/>
+    <hyperlink ref="C923" r:id="rId185" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxOY2dTLTBzN1JnMlltNk9HWGwzVkYxVzRhcEJhd2ItUzU4emJzMmRGMVJlYkdCOUdyd0Z5dzdNd0Z5aUVHd1g3T0ZUX1g2UE5zSWlUb1FkUHBNRGVzNXhuanVaM2VGQkhhblR4ZmFzNFB4MFJxV0RUblo1VlB2VmNWek5qOU5ZM3dHWXZzTHZ6VGZMNmF5UG5xdWgtbHIyV2VrR2tEa01nX1E4eDY4NGctOVF2MTMyajhOMVM4ZExWVW1fbHA1NTN0M01R0gHeAUFVX3lxTE8wZHZsaTJ1d1RCN1JYMl9WaEdGdDVPRWxITFhuZ2ZoMDA5TERjcDJTZEkzUmZIdlQ5Qmx2TlFaRDRiZG1jdEZUOGIxcmphb0pUQU9ydGNMSm14dEYzRnBMdENDcEpLYmFDd2FKSU5JTHRnNEF4WlNjZllCV3kwaFpra3lBUXZXYjEwWkMxN1E5VFcxTFo0WWRlRFhURVBOZ0NDekw3TS1mVnJlVXNHT2JTNzVrMXo4Zm1QZ2hHQlRJbW1PRlRLczNFYXRyM01mTUEtZ1lFMXF2b25fS2tjZw?oc=5" xr:uid="{AB71220E-5420-4BA4-98AF-ECCC5C19DB0C}"/>
+    <hyperlink ref="C962" r:id="rId186" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxONGpTdTRra0NnV0xPWXlLQ1B6bm9hR05BOWZQbms2NmprcDNQTVYzRVhMNmFMU2sxQzc3Uk50UjcwdV9rRWp5UlUtSFdMSWdKejlCTEQ0a0FuSVFPeExzWWt3SzBmVllHLUhaMjFEVkhOOWJYNXc0WFhNX0FhYWZjMjA1OE1CNWp5TW1LUXNnWHJJaENfM3NTeUhOelhoX3EwSjZCWlktUlV6YjJVYkZzSktuOC1LUQ?oc=5" xr:uid="{416EBBA2-55E3-4393-8063-4B5F0455B0E6}"/>
+    <hyperlink ref="C810" r:id="rId187" display="https://news.google.com/rss/articles/CBMi2AFBVV95cUxPS0VRaGZOckVubXVjUlAtNUVvR2VsRHJ0THFuREhiRVhSaGgtbHhIbERHb2RCcFpWVjIzaGQzY0ZtZWhnbVF2YnJsV0VpZi1lZENWRzhCSE5LbDBoUlhQR0hfcjJSYTk1QWp3djdwdmdJeEZXbHdhYTRWc3lHQlR5aHRQWGVjTk5rZ3NlRTczZWJNRWh6cGRfejZOamhITXI5b2V1SmVqYXZqZTZNMC1oYjhQeklFMURUSFF2TW9URXNJSVdBR0d2Z0hCaDR4UEpQMDc0UU1wWXPSAfMBQVVfeXFMTlNfZ2JYNFZyaFVUWHR2X2FmN3J6U2plWVpJdlZnbmRiWnNFZW5UaFc3RDZoTno2Z3U3STExQ3Jtd2sxbnFtVnZWZnlYcTFtWW5DQ3k0dklwcUdmWC1tSEh4Q2hXeEJUUk5WNElHRVJSS3ZIUktJUkJSSmJrSFFfdmhkNUZrYkNpRml6eVBqc1lQS0NQUk55cWhRT3YxRWwxZF8zUjRiZEhnZENDWjFWcXkyTkxyN3ZQSlFISU8xZ2JmcndqU3d6Tm9JMmJ5VmgzT1pvOVdlcEh4ZFRFbjVJVjFpOEpZWFdURVhFNkpUQ0pOQVdz?oc=5" xr:uid="{D2C73616-085E-4AD3-8D8D-2C7676E50F06}"/>
+    <hyperlink ref="C811" r:id="rId188" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQRjJ0WmxIYnQxbGFmUmYtVzh4Q0JQNURsRF9xVnZ3bG45bDFIeUFGaW5sTDBLSFJDcWV4S19IQ1h2Ujd3UXpqR3ZGcG0xVldLeEtMZDJxallydmd5WFdFcjlydi00Y2I4c1NTM0lUa21PVmYyVTMwdU1lT011ZEQ3NGlZQmJEQ2NNWHlkOVMyMURwRmZoRzc3MnpBSVhoUjIzQ3ZoQkMyT25JVFpsSE9SQkhsZW41X0xRbHBRYy1UMEpET2xpeUh0aVZDTjRaSS1zdVlSVDhB?oc=5" xr:uid="{8364E651-16EE-4A9A-9CA9-210E6C7BC1D2}"/>
+    <hyperlink ref="C949" r:id="rId189" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQenhQeWt3Nnh2UkpyZnh3YThkS2ZFVFYzOHFKU0ZxTThUbnE1by0wVWVEdEl6MkxtQ2hXdURIV1hFdl9VMWtXWDRQam5nQnpSNFRKQTA1QUlaRnlYanNBT1ZoemxIVER1WHBKd3dlNWxidWVMc1l3ZWlFQmYxVVY3N01QM2dQamhJdHAzUFlkNlNNUTNHcUh3MlZtbktNZjhsMnlUd1pmLWwybkhfcmlHVEFZbFlKS1BQMDhrc0haNDdoT2gtUVZCczNwTzNobk9HQzJGY2Rn?oc=5" xr:uid="{66E96485-5DB0-4BD1-90B6-F0881FB6C9EC}"/>
+    <hyperlink ref="C951" r:id="rId190" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNQ1BFWl9ENkIxSEc2MXU5XzNFUjVHa3RqQUdJdHVBUnZuaENkckJmVzdxeFR6MFlaOTRiMWpvSVBVWG5MLTJGOHBzUi02NzZHcXlMSG5hLVQ4N2VZYTdFcF9DX29tUkptOHVwa09pWHBZU2h3aEtaMlNoSUZqak41M2dxVVdzc1RaZW1FM0d4aEZwRkNNMXRTS0ludkRmamZLNGk0Q1VSNWJsWV95UlVsOFl0LUY?oc=5" xr:uid="{5FDCDEB9-08C7-4759-AD4C-1ACE4BBF3281}"/>
+    <hyperlink ref="C924" r:id="rId191" display="https://news.google.com/rss/articles/CBMinAJBVV95cUxOblNDclo4cWI2bExxb0E0TGFFTnJoSmFKeHJPT0pEdzRTODU0Q29zVDhzQTFGeDFQUF9yLURYeXFlWnltZ1loanN5QTB6b2x1MU1LcHZINlVwSUwzUkZtZTdLSDVYS0JlNmp6dWMxVmcxelZVR2diVjhVLTAyenBPTTZ0b0pwMUVHaS1Ed3g1LS1fakppNVlmTWs1YUk3S2ZMRTZRYnB5eWdQaEoySVNsdWFBZy1SR1pYX1IzUDBLY3ZKVWx2QUdUYk92X0cxbW1rR1pFZEF3Mk9UalBWTTJWRmFCZWxuQl9tV1IyRzhSOGFJOXBvTEVtZjE3T3V2T3NVekk1Z2VFQ0VNTFJmYmJodXpoRkF6YmFoS01QWdIBogJBVV95cUxNbW0tMjFhRzFndDZ0aVdYY2dfM0U0S1VjaVhmTG44NVd1cjViLXNCd050aXppU1pjVXRDVzFmcXhOV3Q5UjV2TlRfMUpTc01XV3RTNVdObW5mbXBVWW13VzVYUHFpUkFmRXM5NDI0aEw4RE5jNXRuYko1bDIzMDEtZHNDbW8tcUdjQkFFZXlrZFZYZ0g1QTAzYjVJbXBrXzhUdTMtb3VQc2g4ZGZKQUdjMEF0VXRwWEtUTVpiM0xBcXNLOUNxUmtOekNoTEtpV25iS2VYbnlpRDhlVXhUdWlEX3VtLUpIckZGaExDMkM0TFRDa2JHM3F1c0lrRVVCM211NENzS3RKeWNjdUxUVG1NVVZyQzlXWjhVUzl6c0MxaFlhUQ?oc=5" xr:uid="{27371ACF-7D8F-40F2-9557-9C131C9EF68E}"/>
+    <hyperlink ref="C1004" r:id="rId192" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxON3Zib1dDMjN4N050ZU14VGotS0lZQmF1b1AtcnFwOWZDWUM1TGtORm1RWjUwam9JNkJVRkhqaG5RbnlUaFNtMWtWcE50d1Z0UWVYa1NleEs4UHlLNVNGMk1EUDEyMnBVOHZHVWZ0bUhGTExRaVVSSGkwbzQ0Tl9PekJnRDZXMk5tRXJ5bC01anZicXlFVlBLYndGa0FoOEpPMWtIaF9lSlN1Q0RyX3V4RElIZ2d6TnBJeW1xcWpVTFY4dnBVZlhtZW5ZcFZNX2xxV1lBRHp5MVRwNHppVlIw?oc=5" xr:uid="{742AAFA5-B3C9-4F40-BD19-889C49C0EC7A}"/>
+    <hyperlink ref="C1005" r:id="rId193" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOWVNCSl9mZ2Rzd2RSRXI1NHJCdmlpOF9LRlFDOU1lV2RvdHRRSzdLMGRHSGM0RFlabUVfVVpHcGVRQld3NXA0bkxNQmg5RUN3dUkxM2dMTEpMU04tNEZzZVJVNGlGdVMzYzF5LXdnMFhKMEVIOHd0T19IOEI1ZHZkTWJ6SmZzb3dTaWZnYXlwdWs0VEdDQ0VIY0xNTWw3di12bnVUMUlEbXhoYjI0VmNBRUZVMGpRNzhKd09JS3YxSjFVMGFiazZlcQ?oc=5" xr:uid="{9E27199A-6CA8-448C-82EE-6600C96C02C4}"/>
+    <hyperlink ref="C925" r:id="rId194" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxNTkd6bDU4Z0Myd1g5b3JiN3RON2JVd1lyRXJ1NHFjRVhuRXpIZEtpSWVKT09ENVlMejFlLXhmRHpNNjd4akRjaDdNdnIyTkRDd0h3ME9sVE94Y1pKQ1hwWDA1THQ5OEFmbkNqamlBdm5pZkhRU05jYkdBY3pVMmxsN2F3Q281Q1F2SnhtLWVsc1BmN1FoLVpad3NQdG43LWxiVE84bFpSTUt5STF1SFl3Z19CSEtYR1FMUWNIQnBJdmNqaWRndmI0LWV4d0xFMzF6UHFIY1g3QWxlLWw5anc?oc=5" xr:uid="{2A5B626A-0577-41D1-B355-84988C27D58D}"/>
+    <hyperlink ref="C926" r:id="rId195" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxNQ0VMWm9mNFZtcWNjOGpROEdzczRsQ3JWYUpBY2lrVzRzV3hZQU9HVm9PakNFMGdTblNGLUM5X1czNlZFOThBWWl5a3FteXNPUGhjcFd1SWx5NGVRT3ZhdloybXotWWdHSkVHM1dqQm1BNUdCNllqbS03YWtyZ25jS014RmF5RXltSk55WXdYUmlNNzJZY3UxLVg5WVBta0hfOXBoVFpjVDJ3RkpRLUJraTNoTUpyV2VxRjN6cDVWUUVFYXJSVktqSXJFZlFydUJ4aGgya1NGcm9rMFRiTlgtZ1E1Z05jN3A1b21jbXFYVUFKZHcxUGtRd0tQVDZIaUFNR1ZwY0piZ2dpUEtJcHUtSnUxWlRYMkVO0gGzAkFVX3lxTE00YzNfeGV0bUdPNVFQQ2FzZTQ2OV9qZ2tjN04tbVZuTWNnUE56dUFlcHQycldPU2IxYjgzVUVXSXpiYUMxM3J2cG94NlQzSmtBbXgtVzNSMVQycTF4VEM1c1NpR0h2a1VCUnhrRFJyUnFtZXNrSnA5ZW5FMF93NTBxTkZJcVZJRFZoNW00VGFYeFBzQ1hNTllzRm91V1VHcG9aLTl5Zkt1bWQyYUtiSjZFQTdMN3JvaW5mamxnNFN4OTR0RTYybmJPM3dySWN2dlJLOFA0N2YtdUFwektrYmliaU9CV1FPY0ZuTzFKcnFadzdfNk5GZnFDYzlfMjNhUkxGMnVMN3lpMWUyXzZnWndDaTFLeHdIS2FSWks0SC11RGVvOThzNk5RbGxjaTJkVmlUcGs?oc=5" xr:uid="{0E7198D6-837E-4F18-9A75-076CA976778D}"/>
+    <hyperlink ref="C771" r:id="rId196" display="https://news.google.com/rss/articles/CBMihwJBVV95cUxNRDV2ZGNPeTctYXRUNGE0X2F4TVN4SWhWY3RpRVlzdnlfdXZzb0RYcDUyeVJWd0lPSVhIeHVoSEwtQmhCTnZkYlNtOFFKYXk2dnZFc0xIeWdLdVFOZThUVEs3TzNyLUpvWHBlZ204ai1fZnNWYmhlUV9SR3NCZkllWUZQVkxNbW02Q0k2VnFaZEx5NU5TblFwZG56NzRweVhxSEJQcW9oOG1Neno2MUR5V2tRZUpucmNWRDFfZGp1SVNoQjVCTXpqeWU3R3pYdGFMclNqMGZsYXFaSC1LTmx3ekRFNnNWbjFSOUVtdnNIODYtVVFJZ056Q2dIQXhSWFZyYlJoOHdOb9IBmwJBVV95cUxQcHJhZzd3OFRLeHhWMEJPOFBtZVBMaU5rZUhVTUF5alFNN1RDVzQxTURpZjFKTUIxYk1WLXg4VllMNmZJLXRhM1FaZVMxal95MWxvanVFWFhyZTNxMnh0akNEcHkyYWdHSFh1anJlQ2dHS0lfYUY5Z1NKc3JyNTJzVjhqU0xtaHdBLWt3SlJwVzU2SWkyYUVZV3JfdW5hSHNwOGtEY1czeFdYX2R1bzlnVVBfNWVhM3lfa28zbm0zejR3X19SMWpaaGlIejlwSGNsVDNpUXFmMkxsUWRYSnUxdnRRdnlLRkUwVmhfclI4aVhJNnM2ZEtMeEF6NUd1V3ZYV1RnYUJsTHRDZjBJY2VQNndlY2hPekJraXU4?oc=5" xr:uid="{7B2E8071-6977-4573-957B-314F59DDF409}"/>
+    <hyperlink ref="C772" r:id="rId197" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPaXdFTS1jcXdJN3VrR3RYODNMaXdKTHlVdG0zOU0wLUg0RllnekZnS2VRQ2hfZktKNy1penJLMFgxXzY5TTVmNEpZNDBSZ0RwSFE2bDkwM2FnWXg3MjBiMm1semxzZkcxX0lfQ1czZy1EcV8tdHF4NjVaTUhudGxJVmVWbXdUXzNsbWxKZldPZEtGenVLUXJGRFdnNEtzVWVwS2U3SDk2Q3dyWmhFWHlhbUd2SUZkTHNPZlZlYnZwN1EzY0VERlpLNDFXaFhkLXlTOVpGNm5oU2ZxbHJn0gHiAUFVX3lxTE4xUkprT1ZfbVIxd3JmRkx0RjYwOFlGV1ZLYkx0dHkwMk92aG9BeFZWQUVGMVhvbFk0WHAtdFplZ0FqVm5NNkRwRWlGTXJRUk5Td3BqT0hfRUJGZnZWYW5zb2FLS0txUjdjOXhwVFdDak8xNGlMOFdrcDZud2ZLdk9YUXZabnpZc21jMFRRT2E5ZHBrNEVHbFd4d2t0SDJLSWhZRFZpQlU3bW1wNW9hMUlxRHJFWWRkQ0gybFJmVXFkeEUxd3RCUzlHaUM5NUR0R3dvX1VzUW1kVkl5S1JqOGt1WFE?oc=5" xr:uid="{31460E65-50C7-4D29-88D5-8A5B098D4DFA}"/>
+    <hyperlink ref="C930" r:id="rId198" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQVGJVZ0NSRGVaVkc5ekJCWGstS0F2b3VEYmhKaDhUU296M1dYdl9oc21rV1REUFhPU2l0VFNGTlRsdGVOTDZ6c2lULVVTQ3dvU0xYcGFzWmxUb3dJYjlUdExVVEREczdGbDI0QnllN3VBWlo4RjFCdnVfbVpBLXRPN0gtd2RxM205ajNyMXp4cHF6Nzl1dV9MMEF5RHZsc0pieVdrcUFITk91YVlrblZYNDR0ZDM3UjBUX2NjeTloMGhYY3c2aW8weDItZ0XSAdoBQVVfeXFMUG4yZ0RJR1JheW1GaHMtaDNabHprZXRzczNDYjVRNlVUMFZpYnRLQ0VsOVc2Tjhzd0tLdkdiSlpjUkxqLUVXcS11cHJ1d0tncktpUkRVRTMwd01uZ3FUdVhhMFRWZWFPbDlzS25jaWJXOEo2LWhTVks3NGt0LU5ZSlYtaHVmN1A3YVhGcmVUUlMxcV94SUxjcUJlQU00ZDFieGkzc1NKcC1EamtlZ09vMzZDa2U3eFVfUV83OWM2V2l4d1o4MEMwcG9aalpoME9jckdnRnJpelhRaGc?oc=5" xr:uid="{D2E17FB0-718E-421D-9CAF-13A7BE8D99ED}"/>
+    <hyperlink ref="C947" r:id="rId199" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOdHZDeFhwX1F3ZV9ZRmZiNHN2UUxuSm5hZHlxRW81M0ZzQXFMSHNuU0xwWDdBSHVDRjhJV09zNFF2WmVIZnFaNjI2SlZFOVNTSVFxQ0JjX01xNFZESjZ0RDNYVWVFZVBpNnNqSHBaT281QkFnVE4zM1o3MUU0eFZJS3NEUER2WXBxRnZ0UEcwMWtsQ2Q0VWFzM2pvVUdaVno3Z0xPMkwyNXh6dGczMjFveVN0eFR3cVdmY1Y3U2l30gHSAUFVX3lxTE0yTUdJckNhMm8tTnVwZXg3RWRtT05ZdUxRSHpoYUxVQ2FaaVk0SFY1Z0k5VXZ1SnQxNUdzdlZ1dE5BSEJIS040REZRYmZYM21EcUVFNjBpUmRIRkVLYXVUejZXWVdrWmxaQy03UnN0WjVENkRnWXJOeW1HbUlWUmhrZ0ptdDVUeDJ0S05LakNVS0pzRXRQUi1iQkpkWmdLYnRyZW9CSk5VMGdiLTZGMV9lWWlkcUQ1ZHdCaWJ3YWFqYjFldW5pZVhwS0tnWVJIOVFfUQ?oc=5" xr:uid="{1D4C4475-F79A-45C3-B818-70B305D3B43E}"/>
+    <hyperlink ref="C927" r:id="rId200" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxQVUl6R0RVUktVb2RaM1pEQnNMU1dVNzA4S01lS2xZRDJFQUEzQTh2a2ttQXRIU19VV3JDd1dxdmZBN3hEaWcyRF8tbUt2SXNQcWVRLVo4Ny1icFQ1XzRfSTBjdEYzTlhZTlpJQlZ5M1dhY1dYX2JiRjVLMmN0REF2aVBhM2ZtXzJHQ3d4V181YUh3WkZWaGpRcVpsMENEUUhXd0tVYnR3NndoaTZ0SFRZYXBBaGFZdnBjVFoydTQwS3ZVOGNzdEVPTmNncTdQaTNNVkV2LU04Z2RzTmZUWmhfOWtQM0xGWnpDQnp1S2tDcGfSAfYBQVVfeXFMTzVhRGNuTlAycDdvQWFKWkdocVhNRlg1aFFKaE9YcTdJZ1hMeGd0S2dxdXlMd0VWNEhibzJBZXRzcU9PaUJxTmotWUttUDlPWkJUOWhOaTM1VHJ2UHNlcHpValBHcE5wQ1ZVb3BJb0tSYVJNN01lVlZXb2ZBM0Z4OGQ2VldsVFdGNy1ENHFrM2NYZEx6c3J6RlF2MlNpQW55U2E2T0FaVGRTcFVWUlNWVXdpazZTbTFvMU5EeWI1ZnZOQlQ3U2lqdkFxNndzQjN6Nk51TG5QVGtqcWRRZ1ZMODc4Zzdfdy1wQjh5TXZkRDRucGVzUmln?oc=5" xr:uid="{4FC026E7-1B42-4988-9FCE-03EC5BF236BE}"/>
+    <hyperlink ref="C1006" r:id="rId201" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxNMzhIaUlRSXNuMjdVM2ViVlJpaklOUzFpbU9Da3FGazE5TUh6Vm9fYzZUU2NSSlVfZ2tSdEJ4MXdnX1BXZUoySFRNaGVxelJERXRSYTRxaHpvdEViVGVZanhkZ1VEdUxieXRXVTVxWllHVlFWMkpRdHFRRUU2dWdGWFlKTFYwT0VWOVhJSlY4YjBodUlpbko2YmxWOGhxV181cHVGUWZ6MjNHTFRsSEctUVln0gHGAUFVX3lxTE9EY1lPcHVIX0dXMzNrZVFwbFkwUmhoVUV6el9DTDJ4dEZtVFVTYzlmeWRfWXlUd1J5V1N2NU50LU53UkNHbTFvX3NyejlIQmJYT20tbFFIQ2VHLWpOME1yYnlrMzkwbEprQlBoc3FiWU9pTm5FeDlOY1loMjlYR2tEdjc0RjVRdGpDSWlYeDI5a0swaEJia1NaVzFRekQtZ3VhSUluZ2tDeWhwVmNiOUw0WWpBaUUtRmxQWUxEM0VMLWYtOFR6UQ?oc=5" xr:uid="{6B7E2E42-AA0F-42F5-8349-ACCF310BA3D1}"/>
+    <hyperlink ref="C928" r:id="rId202" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxPVHN6UGNEd1ZWVEVTbkNWamk4QlhuTFNiY1JGS0NXWHlYV1F2RlNWa0ZDeC1NdExrbGE5N045YUxSbzF0TUFsMDAxOVl6RC1hTF85eGJ6UUtKM2NVd3NXeG5aS01oYzBqS3JkOWYtZWhvOWhlSGJrT1pIUmVsYWJfYnFrM1MxanJoaVYzUW9Tc3lMcFRCSmhMVzk2QWVPOW9vUVhaY1F3?oc=5" xr:uid="{21BD8867-91C2-4D7B-A508-5E8C079DE097}"/>
+    <hyperlink ref="C929" r:id="rId203" display="https://news.google.com/rss/articles/CBMijgJBVV95cUxNOTVpQ0llaWhZY2JBeHpHei03Zng2eFh3NWRRYnh0UXg1NVRqQmY3S2Z0NGs3RGdwT1BpamZuV0RxMVFSck1wWFdMYUk1SXdoNjlRSnpuZ3pTbFJtaHJvZUFTSU1VaHY2REJPZG85TTNCWElLY2tUNHQtZFZSVDJRWHhodzY1eDdjcFB6WDJJTXhDN2RiNy1EbDQ3QUFsMjNodlZOVzdPWTUwSFY3VmVmUlFVNVdtcVI1Q2c5alJ0alJ6anJ3RGR4UU1SVkdhSXZOM2pVNElxd0c3TmQ4eXloZmNqclplNW10emZKaDk1WWRYX0xsR05KWnVSamx1RUhDclpPN2FjUERyX2d1MUHSAagCQVVfeXFMUHpxai16M29vLTR4YTRxMTFheVBFdHoxSTVYajBRZHVYbC0xd2tIRnA1Y0R6b0YwWnkwSjF3WngxSDVzcEVTZnZaSWpnSjdra28tM1ZCdGpLeE0xT3NDRk5saWZxbmdvX2Z3M0ljZXpMYmNhZnpKYXhZSkNINldzbGpnWmxUYzB4VjFoZ25mWEsyWWNlMU43TWdyb1BWa3JmTExOYWh4ekNDYWlGbmNXdk5BTkJ2M2dONzdFUXppZ1kxWURKZnFpRldVMXFpdmJCUGlVcjY4U0Q5c1RLNTB4NG1SU2lmR053cnBTOTJVUFZUdnlNaHVwNFQwN0oxMFRxXzRIdkVqd2RkcnVvSmU4WUNYZERlOGlmY3EtTlNkYmlCeFNka1JYazA?oc=5" xr:uid="{351BC609-BE13-4A97-9C1F-6B76CA037C4A}"/>
+    <hyperlink ref="C948" r:id="rId204" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxONUZaZ2dyejUyMDEwaU5mU19ObGlSc0VEU0JPUGJGN3RsTzJkUWJQdEwwTEVzaHN1RTFIR0dXZDdSYTUwemdiY3AwM2h3QWtCUUx2TEtPX3pjVWl2Q2xOU2F6MEJmMHBmLXZJcGVrc0JLR2ZRYVNkT1U4cG5pLW82UURJWHl1Z3JqYldLbHNKZFFNT0lCaS1kZTREdUQteVFEVGdtStIBsgFBVV95cUxQZTNIc0xISy1GR25uMmoyeHE2cGhGX0dPU0VUNDJFeldWaVlCcExNOFpLRzFjOVZldlgyOTBpNWFFeGRUMFdFeHczZ1NwdU9xaTNEUkVSZVROWWdEdzlpNmZXQ0M1WjhoTWY0V3lfMkpZN0tBaUJHTmQweGFWNXQzY3czWjhmeENKeldBUzFsaV93bUpIMFdJelJhTzJBZmI5NUZzaHBQSmUzT2lwMWpxUlVn?oc=5" xr:uid="{3112F40B-1C15-4CEA-8EA5-80BA8B35B322}"/>
+    <hyperlink ref="C766" r:id="rId205" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPS3BBdUw3bVUxdVhUSGRvQmZEcnBpM1JqUHlZRk1VYnplRll6WEZyTnN3NDZ5RzJQYUpKWk56cVVhZ1NmdGg5Q2t3R0ZEbEN6cHhMbVhLdG9td0tqWW4tLXV4QnZPTlFEMzJmaWtvXzRKRVVrRlJzNUVEcFVzdFY3TGtJY1BuZ3dWWUdYdzFyRHdXSVdoa3l6alZZaUttZmVIZnRldmg0ZWFXUVhyNGplQnB6Sm5CeXdBczZDOEVnTnNMcnc?oc=5" xr:uid="{05A57C32-F43B-4D12-BC64-4C5A7ABD9234}"/>
+    <hyperlink ref="C780" r:id="rId206" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxQOWNuYXRzNk8tV0lyd2RZdEpXUXJUbVViOGs5WWFZcFE3RDgtc1VsZVpYUXNxS2s5RFFOQnZXVWFoQlVpYVg2RDdfaXFjUUdCV2l0Uk9PQ0UtNlloOWszTmhOcnRBOTJMZDBVeFdDUHJQNy1RRzA2ckg3d0FoZFR2RmFDRmZjS21lZE93Q1RrZVhMeWVLT0x5YWg0V1VoR3pqTjVrM2pqWndyWlpnaE44NUE4SXRacno2TzRxOUMxWjVrREFSU1ZfWllaMVRNWWdQeEptV3d2M3BEbFgxbWk5UExrY1U1UVQ1eDBFd2hTYUlEYU93NHRYLUZxRDR3d05kY1BN0gGIAkFVX3lxTE1TOHhfX2w1N1A3andzTVd3ZWUtMXBCVVVjN0JSTEh3TF9jZ25fLXJYWGsyTnhVbk5PU0FwZFgwckpUM19UNHBRMkdmbmJQQ3RoR092NHB1c0VER3JZRlNmTzFjN184cWxSR3RwTENvQVppbnNNT3k5UXpYbW1tcHlDWUJwX0p4NUUwc2pHRkQ4UEk0eFNhbllHNk9CTUh4QXhfa2tUNVphaURiVVpoVnFJNGRnNWJ1a3NyZ09Vemp3a1lEQXA4WjZRRFJqdUtTNjh1UXNBY2pUdW9DUUNZa05zWENtSHZoZ3ZSMnE5S3Z1dU9tV0EtNlQ5ejIxd2VwNTRiY0pid1RKbQ?oc=5" xr:uid="{4A8AF58D-3845-4042-871D-EB222CA55FC5}"/>
+    <hyperlink ref="C952" r:id="rId207" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxNY2p3N1o3VTBaRXQ1X1k5TGdBZjNOZmt1V0RoMDZNUWNtSmJaYTVTSkxqSDRWbUZBOWZsN2o4bzY1RjNXRGd1S0t4QnJNcHZndGRqdDVlbEY4WFB1VUJGYmIyd000NzNsV0ZUWml2UEJsS0JfM1pNMTNvVko5NW9JNm1NTHhQR2RkbjdmRFhVZjI0RXE5cWJYOGJrZFQyNkxwdnY3YkRNTk5sZDJ1R2lYeTdTNVrSAcgBQVVfeXFMTk1hRGJJVDY2QnY4SXRhYlVIWndYTFdEV1VUN3VuUmowWDlOdFdIOTNQTHg5bmFFTkZMa0FSUkJHaFQ0Uk8tQkp2MTFKMDI3Wm03cE43ak9jTzI4ckdVdjdLT3VYUU5SZXp5U2R6bk8tbGpwMGEyYTFYZi1hVzZxWDJuVG5uTnV5QU03VHVXOVJwd3R2LVRHUzVzbXduajEwRG9wX3d0bndsUGpZWmJQSk90OXR0ZkN4Y3B6YVg3ZG5NZGM3RG1SelY?oc=5" xr:uid="{3E91D354-A0BA-4858-BCB3-3FB43003C853}"/>
+    <hyperlink ref="C781" r:id="rId208" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQWnVFZXVtZUVEVWJUVXduNjFqSWkyeWlOOENyNExUNHZmZHpBNWFTaFJEUDlmMy1DTFdUdkpWYnNvN3A2YjJEdE00cmJBOVhZYVpwQWJkMk5SYjg3TldOM0xnUC0wZzQtdmdoNHhUU0JtWmdhU01RYU9GVEprUkJSLTZyXzdJcDlYRE5zeDUwUzV1ckRYdHVGVEhObTEtMUZZOG9tWm5aTUFfQlZY0gHAAUFVX3lxTE1TTDQxZl8yWFhJOFhHRW91SHltaGVEcU9zWGdEYmhWUEdjMFBDeG55RkJhb1dsNmpZbU9mMnUyNm90WlV3dnhocW03UE81LUM2UnBodEdIVWV4N1g3aHdjNUZ2YUI0SXhmbUNHMjRkMmhzdjFKeEFkd1JWN0w0Yk1JaFo3QTRTRDE5TWhST2J4NVRvT3VtVGxNR2dUbi1ud293dHZFMVZXVjZlWVJaTnU0aERMX0JpUDhfRnhqUGJZMw?oc=5" xr:uid="{78DD5ED3-0013-466F-B7DF-F8C301BB5217}"/>
+    <hyperlink ref="C953" r:id="rId209" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxQSFQyZUNhMkREdHVSLXFHUmtHZHpsVkxEZllocVFybnhTU011RllWcUdSd3ZULXRYQWNOMVRKdkhGdDNGVjlVVEdoQk16dExUU29jc0YzaV9Oa0U4VE1FNG4zb1ZocnJfUlp5TWpSNDNuVDM2TzRuT2o2WENYQTJ0WXBRdVBnUXRYTGpmUnNUNEFVNWxwRXJCVE5GUGlJU1ZYbmpCaTZpTnNxZmJPbmMtZ3pVenNSX2lwOUZDUXN5VW03Sm1vam9ROU1NNURmZWdxYktGbjJsWVJ6ZDgyX2ZJbnViZUNVbE55X0k5Qkloa9IBgwJBVV95cUxQOElTQXhEY3dwUGl0VEZvbV96M3hhUGZ2N1J5cmk1UVhmZk82T0lROUNhRmd1VGYzeFE2TDBLcUZXY25nb1Fhc1BOY2pkUEREWFcxZFJ6MHJEcmRCemZSaWxCM2dXRkthR1V0MnZkUVRTTEgtSmY2TzZTTk1SSkswRTlkNjNTMnFqUkNRWEJoN1d1Tk5PSVVZaU1iQkt1TzItYjhqSUZ5aElWamU2elhyandVZlA5eXYtX3lrZWNRa2tHU3RCLUMzeGxnRURVcS1MSVN5eVhqNThLUXRYTVFHa0JwYld3dHBTRDI1MEIya09DWWlaTE1jRGxrRUhMVXVPaV93?oc=5" xr:uid="{EE885265-CC16-4353-8493-33BCEB2684CE}"/>
+    <hyperlink ref="C782" r:id="rId210" xr:uid="{6F902B35-0B01-4F2E-B032-7FF1B9D2F307}"/>
+    <hyperlink ref="C783" r:id="rId211" xr:uid="{133760C7-0988-4878-8A7C-7F8A3CCB5E28}"/>
+    <hyperlink ref="C954" r:id="rId212" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPZG00UnBTU1BDbWc0UlRETl8zU3phMjIyR3ZtalcyN3ctalBYa2JTazZwLTdUaEtIVmwydWtQU0JSRS1lWjhRX3h5TUhjclY3V2hHMjZUdk55S2pGd295bnpocU5MMHlkNm51UHF0Ui1VeHM5MjhYRzF3dVFqYlVkMjRUQTlPWFNETXU2TlZyRkRsNkxCZ0dmYzVxeU43TG1KYkFTSERYSlFYZTN5T3FhQVF5NXdCbEV2YVhRanQ0Yw?oc=5" xr:uid="{BF22DD5F-8E7A-4DFB-AB7E-302BEB929D55}"/>
+    <hyperlink ref="C784" r:id="rId213" display="https://news.google.com/rss/articles/CBMioAJBVV95cUxNOTFqRXlJSWhscWpLRGdpVGVaWk1wTG93UHVzZHpKNnFYeXdsQ2RoZVB3eWFPeHBuMnZKaDBMal9HM1RXajZ2MnloY2hkS1FQZGpha1ZrNU9xdjBIX1NoTFpIb21NMzdMU19VT1NwU2hKYWlCQ2kxUkNyYnNLUVFEREp0ZkhMaVhnZzlEVF92WkVBU3VUQm02cUFLTUswdUlzN2U0eGJtNXpsTkMxMVA1Qllaa1g1V1VwczNvdHhEZ2pXSVVnTFBSZlFnblk1dGQtdUpJNjBIT01uVHlTVzFlcDM2bmczREczaGpYLUxIMmNhYUhEWXVWOEJsQW56VmI2d0pYQjNJbDh2QmhiLWlObENUZV91bjloYVdocWMxN3rSAaYCQVVfeXFMUDNZRGp5N1JRdC1rZ2lhWVE3LVl6OEozM3N4WXJJSlFVLURQdHlMajVoWmViZHlGOUFZUVEyQVdURWRWX1AyQTBpSmVIV3hIWWNlOUI5eHpITGMzYlVtZmdoZGVoVUVGTFdlS1VaOHNsXzNGVU9uS1dYMG41blFFQUxJNVAtMk4tUHZIQkdQWEFBMWxJMER6ZVBiOUF1NUJ0SWRORHdNdlJVWFI0bms0TU1DZHpVbU5nalNsdEtYWkNiUVM2LUJGZElVUDg3SkxoOFpKS2hMclBwY3NTMEVPNGJtX2haenh5LXNjVkttanhBX0Z6Vmx5N05seVJ2S1hjd2NJcGF5TC01dml5QVhkTTZkWU4tOUtBM2lDWXpSUVVFR2ZjMmN3?oc=5" xr:uid="{9AAB9BF7-FB36-4CA6-B51B-97AB4B8D7B54}"/>
+    <hyperlink ref="C785" r:id="rId214" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxObkFjZ0hqQ0V4OVdBSFVZcVR0VUZKT2dWTHFrbEk1al80anBPM2V6ZFdKZUNIa3ZhWGxyMm82bS1ZUGhfcXlmYjVXVHFWcEFzbmRZMVVlZkFKWGdMUWlkb29RNExvYmJfNmV3bWJXN200VkxLeVFTYXRfbnV5ZmdtVzFHTWw5dVVLZTRqWW94Skg1bmVxdVhycmFLVTkxdXp3S1BOcHlEdzgxRi02b05mdU81NXQyUFdiTy14enNqTk81Q3RjY2I4a1Ria0dvbDRGX0NYWXdmb0xBOUFFbGphUU9vVllKZjFJMXdDa9IB8gFBVV95cUxQRWI3aE5JaUNNcWNxN29jc1pTM1RYb0ZrZy1vX01GYzcyLWZFUW1Da3NxMEQ0ekVRa3Fvbll5WHZtWkdzMkdvYWJBNnJ1QVRaV2d2a28ydm10Q3RHNXpCZFRGV2NFa0szbTB1MEw2ZFZla1NlM2d2a1p1TDdHR2RudzZvUldvU1Aya0Q1Q1Qxa0NCQnBTSWd4MGdrakdYd3pKUkNULThaNkpHcW5CTUFJRmFoMkRDLU9mYWlMYW16Vll4aXAxWi1IVlF6MVpuZDdBZjZQa25ybVRiUWNGUms3RUdnVW8yY0N5RlBOMkVMcnNoZw?oc=5" xr:uid="{F3713B68-B2A3-4AF9-B16D-7196499225CC}"/>
+    <hyperlink ref="C786" r:id="rId215" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxPWkgwVWVTZUUzR05HTGdWMmNkek5KMWxrRk1RTGtrRGpQS01mWEJlVGUtbnoySnlqcS1LM2NDTEtWZWlQT0JzelR2Tkp1Mjg1bFBmOXBFRkI0eWRRYjhHUWZyNHlaS0JPNVppWU13MkJGbVVGa1pEcHR4Q2NMMnpCVUJ5c2REYlBxSlUyWFJreXVyVURKZ0lPaUJQTUt0Vk13UE82N0hTbFNSX1VHc3BIVjFRVVViaVB0UTFzREV5MjNQUUctcmpBQzhQQ3fSAeABQVVfeXFMTTR4dklzSDFSa21zQ2VHaExQeXR3cUVuUnBFenZvdXNWWEs0QTN6aW9BNTAzaUNKVVh5RE11cVZJSFpZZFU5UjdYb0VhNHNCbURjc29wZGlUMVVFNkVIRlFjZkJvc2lBcTNKci10TmNsZDNLM2Y0b0N4bTJWM2NNc1h5Qi1FS0dKbWhlVENJOVU5SHRNZ1pSYTVwNkw5Y04zMEZrTkdaZDYyQ09YNWx6R3Nvb09JSkFBcXhKSWNJLWVsb3c4UWVfLUdoV1M1WXZpLXJQSVlnYVBZWVNyUmEwNlM?oc=5" xr:uid="{FC048C2F-8739-49E0-BC29-DC36D8DC57B5}"/>
+    <hyperlink ref="C787" r:id="rId216" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPY1Z5Q1JzZVVKOG9CZjgtSUx0VFhXMko3dzRjbGdXa3dfNTdOZGd4M0V3bmIyX2Y1YVZIcjF2SkZwZm1Cc3lOeU9RbnRiUUtRNFNsZ3dDbzBaT3owMzFDZ2xBX1EwRFM0cW1tZ0owZHNLMzlyb2RUZWJYaVEzNmpMNGY3WXdWWG9PU1lIaF9qYWhaSkMtWk12WDd3T3ZZeU9GUFJhQUxRNnJnd2RlUnZ5RFZWT1hwT21RTUpJb0tZVdIB0wFBVV95cUxNQmZ4ZHlxcGRvR1B5djg4UjVCdGd3dGp1ZHJDUVRrSllaSzFwaENIRFpyeVJ0SWQxcE14c1RpOEwtUXRYRDdmVGN1Q29Pd25iN2VsbEpUTEMzWnhjVnp4aUpkdGVaa1ByVGRjemU0bjIyOGhHOUF0ejM3WlNENW82OEFYTDhBQ0N2S1RGMWx5M0hiekxYVUhocUtCMDZac0ZwbDhSVmRnNWZyWVp4dlBaSTdqNmhaV2NyREFqYnduQmViUHZRbUxuVExybUI1OHhzMDJZ?oc=5" xr:uid="{ED66A07F-2030-4643-9C75-FA67D764F8C0}"/>
+    <hyperlink ref="C788" r:id="rId217" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxPOHZyTW82NGJ6VWRzZ1NGSzFzaXpmN3FiYUdodXY0UEJBRzB4VGZ1UW5US19aZHFfLVg2bzNpUjVkbjAyTmpqa3BxSTJ6OFZqTVVRNTFpa2RRcGRCckZSQ1k5YzlucncxQUhFbjhvZURGUnhlNXhJY2pLV2NxQnRaMnFDWkdvUEFQcU1IY00tQXJfWlhGcllqYllBbVozWnM2REJMaE5VVWpXcVEyYWd4WW9sd9IBuAFBVV95cUxOeWlSdHZycmlEOGY3M2ZzZER1dXl2VkU5bUdhNHlIZmlmNDVXRUZNNmNXVUlOWDFidXZrZGxaSXp2QnRROF9Ra3VJeDRUX2VwYnMwT3dOWWZ0OFRTY0xtZFRQQkVQS0tQUE94N2tXOUU1VkloNDNaUjJlTVJMNlhFeTRzWmtLSnpPRGticVZJWjk0YVM3R2RHakFQM1RQa211UHlUZ1RrRWp3dTBBLVpIeGhNMm1KTmRx?oc=5" xr:uid="{47129797-EF87-4197-9FDB-A8A8AA58DF0B}"/>
+    <hyperlink ref="C789" r:id="rId218" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPRE4tOXVmRERQbHo5VHIyNGtHeUtqb01vR20ySl9zbjdQNGxxMlVDUU5DdWNSTlFGcTh4aTAwXy15S3Y3dDN5WjFZY3lfX1BzdEFlSjMzS2ppVEIzMFBJbklNam9QbDVadFpNeWtRemhHVG1xQnRiRGxDSmplQklJOG9Sc0MwS1hlRWRlelVKV1lxdDVEX21mNENuVnQwZkNhSTVsUnpkRXZIaVh6VGctc0ZVTGZad2V1bjJaTmVhTV9KYzlKN2FUbVhB0gHPAUFVX3lxTE1QMVRrNERxdGs0YzdVanQyVE1Kb0VMUWFPZVF0RTV2TGpiR1BGc3h2ekVyTHZiM3czQWpWd2JVZzdHQndJUXRiMnFHc19ILUgtNWxMSGhvWkVDQVdJVEVqSnBYczZ5UHlhQWhpdmZaeE15OVpmcDFGXzhZU3ZwdVlURXdiQlQxc2JhZ19fUnl6MFFmRE5KalJMcjJZeERuUTFkZDJ0Yjc0cEFmY0FpWWJhbTlPcjBOY1kzNU1lb0M4TkY2Qm9nOS0wajdUcUl5NA?oc=5" xr:uid="{64657BD2-B400-4CC4-9D37-FF0EF710DA18}"/>
+    <hyperlink ref="C955" r:id="rId219" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxNS255TC1tbDRldUNCRUtyWWpSenN1anJmOTU5X2RpSFV0aGdCS3VHaXFqMXNUSWZtbDZSTTg3dFI5MWNpVWdKem1pWGwxNl9GMFpkVHNDekNOaGFzT2w2Y1lYbXNGZFhwS0JGOEhfdU5NTDBnRjJiUU9CM1RUNnFLdFFYTWdCUmhJaTNTZEhoWDJWaHdDeTF6R1lFWTk3NGgzV0tZYzE1VXFHY1FLQXJwazBFY9IBuAFBVV95cUxPVHluOGM1Mm1OSDA2OWVyT2lQUFl6WnN5RHlIcm5qMUtKU0diV2d3dWF1VXYtNmwxV2xpRkt0b1BQTHpOU2xUX08yMV96ZnVBMGg4bWlRUHdfMDJfQUNndngyRzJ1TTJYVjB4eU5raF8takxOODZQOHByV1NYbTdnYldLbWt6YWRhQ0M0UC1TNG5Ta1F3cGs0YVNZLXhJcHY2Q1o5dVhZUGM2blAyeUxycEU5QW1Pd1FX?oc=5" xr:uid="{3880CCC6-20BE-4A45-ADC0-1D66E7ADADFC}"/>
+    <hyperlink ref="C790" r:id="rId220" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxPM2NvWUtsOEJOVy1YUHBtUFdrWmtSZmRlT3R1OWZnVXJHbnVwZTVTRXVNTWptTmxZLWVuRnRiZ1FfZ3F3ZW8wbHhqU19KNjBuem1UV19GT01Dc09Qb243dVk5RDdpNUZ3VDZPUk1ZSDZUUmNlZTFGWDVwY3RKbjRONE1FcW1wNEd6bTdOZWlfX2p4dDhMaGJBSmhSbE9LWFg4Q0dXRS03RWFteHA2aEtYN3AwRmNZdnhIaG5Pa0tYZzJtREIyZlFuUlR6UXFpb2xqZC1SeEJNS3MzSGU3OEIwOW1CdHJaVUctU2c?oc=5" xr:uid="{312DA8AD-7407-402C-9B41-BA1877C1A1F4}"/>
+    <hyperlink ref="C791" r:id="rId221" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxQeF8yWWpnaXFHSDRVVVVYamRTbE00REpsWUNoeEJ6UUxaeTR6WnU3ZVl5Y3dNb1VZWWk4akphMDR6cTR0QTBrRmRXTm5aM3pUS3JTVzZKTXpRUFdnMTF5cjNOX04ybi1Id1VOakFWcjlNeE5lU2c1QjBOMWNQbnNNckFscGprbDQwcklkWHhLQ29ma2VyT1JRQkFMeEs?oc=5" xr:uid="{0FD9B199-2CCD-4BB8-9B35-3DA1E4621BD3}"/>
+    <hyperlink ref="C792" r:id="rId222" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxPSy05T29WczA4N3RGZEVsTzMxVzc1eTI0cUttREhUdXZ4RDUxX01lWDYxTkdvclRKZlNWdERudEhabF9XZHBjNzJQMVFTRDNEeU0wSzVKcWJiNFlZQk8tb1c2MDNwNUcwRnVxLTgyWV9ZS0FqR2xtcWVsMTZsb3pnVGlweG1HSDhiYmxhRHlmczdCOEFrUHZPNFU1OVZqb0F2OVAybV9ZeExlWi10T0o3U0V3?oc=5" xr:uid="{8ABD520E-0709-4EB0-8E52-E12DBAFD4E83}"/>
+    <hyperlink ref="C793" r:id="rId223" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQR2hNWXlzdEs3UUNIRXJyaVBIY2xjS1Yzc01HNmV5NFhZV3QxQ05MMVBveW9CZG5IYmEzZjA5TTA4THhMS1FlTFUzWEdUdjRqOGNBanJYdnNPb0d2Ylp2ZzZ3Y0t6ZExTWnMwUGVrR0YxYm5KRjZJaFF0NzJiNGkxWmhPY2s4WUsyR01PUTd3WjMxMXAyb1BEcnZhMWVab05x?oc=5" xr:uid="{54C4D2ED-4CD3-4FC3-93A6-FC63EC49B964}"/>
+    <hyperlink ref="C794" r:id="rId224" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxQeEZpUFR2Y094SHFRckVBUjV4ekZfRktCeTQ2RFpIa05ZVll1STEycWxFWnFDYUQzdWdaMDFNRFdVYklFeW5wMV9KNGxZLUgyVDh2aTBwNjdKWUUya09Ba21Ba1BaQldfUXhhYUZENVlxVUxzY2NoOE9YWG4yMm90SXBDU2VzWHY4RUxMelVsNENGc1liZGJ6SHlOUGVjOGVySEpIRTdPNjVielhVVDY4M3Bnbl9hQVdOTFo0SThOdTY0Ri1QYjFNci1zR1hYNC0xVzhF?oc=5" xr:uid="{6F50BAAE-BC9C-4AF3-8522-B9EB85627067}"/>
+    <hyperlink ref="C956" r:id="rId225" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxOTWpEb1dxN20wSDBKWmRPM0F2ZXNheDJMRUtDOEdHOTMtUU95RXc4X3hFXzM1MXhwOXh6VW4xTHVnQmlOU3hud1NENUUyRkdFMnZSaGw4ajNzWE5mZXZMa0Jodm5BNFpwWjFVNTVyQ2VYUVkzd2RGaTNyQlNwQzlUMDB4YlAyNENFcEtJM0dzMUhJVDBpbV9teXlvNG5MMnlWUWVWeFpKc0xILVMtWFB1OFQwdUFVd2UxOEhvbnprSQ?oc=5" xr:uid="{F30E5091-2A32-4AA2-970A-C3A2ADA3896E}"/>
+    <hyperlink ref="C795" r:id="rId226" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxQUDRQblQweUxOelMxUUFmYTIyQVh0djJRSml3ZEpRbHUyRlJFQ3hjVG1IenRYS3hjOUpQZ0ktZjYteHk2SE1VcTV5U3djYi1pMk5kZVhYNmM5ek1ieGd3Y3g4ZW1XNDJfb1o5dTN6NmUyU2NUaDNzdGNPYWt4aDFucUpqOU5vRzhxelhhS09HQ0xSWF9zbEx5Rjk4LXpuRmUtWFlEbGtTbFpBaFA1NlhuRFVyaFlWbXZTdl9ZTXNEcTZQeldCTlJWX1hRNlgxYkRIT2tvVmV2dkkyODVZaEQwODV2SzFsV0c0NUtCZ2V1cGjSAfYBQVVfeXFMTmtIcFQtU1NNNFRObjB5OVNvN0E2eWF4TU1iOURjZ05RQ294NnVWcU5VbVd6NFF0OG91blVlYjBkRWhka0oyT0dtYWhSeVROZS1FSlZaUWRiZ0FtVlV1UTFlRnJla083VDZsRll5ZzVzeVJBSFNkdjZFM0F1RHNnQ01TcEoyWHBGS1d4T0VOTDVDOVpLNE5maktUU1pFX0ZrQTBZNmZmOGMwQzU0N3JYOWN1bVhRVUM1Y29FUWZIRktLNnJLN2h2X1Q5TjRmSjh3YlJLaXFmc2d2ZTdhUzk4OFU5X0p6a0lrV0gtclkybVN5R3JYcVF3?oc=5" xr:uid="{461FE5EF-6A06-4914-9951-81AF93530978}"/>
+    <hyperlink ref="C796" r:id="rId227" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxOQjFkVml5Sks2MnhyREl2eDF3NklKcVlWQm9QMGZCdHpka0FZY3BNUzJYM2RScm41aHF5WGxfaXhBSDFvMXhLM2F2NHpyRUIxYnJRYTBhY0tYajBtZ09ocTRPZFVhQ05JOGtGVkgyakZhQzBLaEpvY1paWmRIZ3lzZlFjYWFyblhHTmhsSU9wN3NZa0lTSzVoZzhJMG9Rc3BTT2xrLXFzWV9EV3NGVTB6TTZGakVEMFY1a1hIZGpTelpuaFFLVDBLbkpQYU1CaVEyRXpkaWxMWG1LaUNocmtyVmxycEM0XzN3NTZxQ3dwM3VkYUREZU94dDl2bUdkcEVKR1hoZ9IBigJBVV95cUxPUlJ2TzFVdndubHRCSlhLYXpsVlMxczB6S3ZRSHotMjAyaHhCVFdfak5PQWtscjE0UW1HWmduazNzdDV6S1lzX1Y5bXNJZ3lwSnYySy1RbGNTaTc4LVNpdWdQUDRiQ0JaUkxuNTVwN2lEQjVDSkFtVlVuVXBuQ3h6czdoRkVoWlBGVG1HLXNoeXZGTG0wUjNxdVVaUGZ2SFMxQXFORUhkLWVBcGJlRVBPYmZ2VW5ySmtOWkdQNG8zWVdXaV80a1Mwc2c3SVlsOFRtU1Z1UDczR29ySFlkV2szWWs0UGk5T1JIc0VJb3N3ZGptd3dDVm01dXBnMDlPU0NhbVFGbVVXYU5Vdw?oc=5" xr:uid="{0CAF7452-E24C-4BD6-93AE-20007604B595}"/>
+    <hyperlink ref="C797" r:id="rId228" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxQdVJZeGdXZWd5NmZfODlhSkFvb2ZZTEVJenNha0hXWVJNalRNZWVoNzA4Z3FhNHRJOV84bGM1NnktVTgzSE5aZ3BoWmJJZFFKdW1xS0xPLVRMN3NEdmlYQ3NYSjZ1RUpKaXdCUVVoTFlycmZkbnFHVnAydG9RLWxVaXhOY0dNZFA0cjhrZnlvT3AtNkJHTkVOcWdUZWVOdU95SmRRS24xQy1jTWvSAb8BQVVfeXFMTTlSRmNiNmptTVdRTjRzU2ZPUGRBdGRpTURDd2RqV3MtTFpub3ZnZlZDXzRTSHVOc2d5Qk13WnpSM2Qxb2Yxd3M1bVgxMWoxc0Z1dXpSYWk1MlBNOVFXRDkyOWE0UDJNSEpLZTRWaUNhcEptanR6NE10RWdfMm1hVTdXSWRDSFk1Y2szREl5TzlQcmV1bzBWYjJWQU9DVGNHb2Z3MEI5VFp2ZUVZNlZSZWN5WlZ2THVIZEtCSXVPR3M?oc=5" xr:uid="{3BC041DF-290E-4941-B207-B04AF4B6BF71}"/>
+    <hyperlink ref="C957" r:id="rId229" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOYzdMbFczOGJjMzloTHJTYU9PaUp5UEpwanhEN1hxa19yUUdYNUlfd3FTZTF1ZF9lYWljc1cwcnFTWVhGdnJXaFdnY01mNGprbTEtWExpcE9oeXRoeFdxWWswYmItdmVBVmk0LWRIcUZaRWhrRlJsRGU4aHM4R3A3Y2FFcHU4bEZWMmpsYTlzeXN3UzV1SGROcTUzNkJ2RzRWU1BSOWowa0JGb2ZFMnBaWWtpQVg1ZFMyWDZhSEllclBadk5kVmF2VdIByAFBVV95cUxQaW91OTNVMTNHWTRXZElGSFRyMnpud2Zrbi1DazlpWlVCRDdIVkpScHBra05BRFFUZ0FsSlVYZGJSUG42c2pwSFliSHUwcjFCZ0tPVkFoX3pnVWc0a0xFOUFYOUt3cWlNajVUSS1WaEZHaGJYMy1kaVVNMWd6UXB1bzkzVlBETGl0OE9HMnFNaEpWSEtZd0tIS1pTeDFCekVhakVuY0lSYXRucTd1anlBd05qblFLdGFnUUFKcFlwdGFtRFJhUTJxMA?oc=5" xr:uid="{4D166C39-F5AA-4F09-82E9-5082822ACD85}"/>
+    <hyperlink ref="C798" r:id="rId230" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxNUmw3ZGNVdkpHRHZteGJzQk1QYTE3UzVaWDRUd3h6bjlCZGV3S3h2d2hxNnk5ZkhZQkl0Y21Ua3owZjg0OE1WTjF2TWV5RjR0YWVCSE12dUJQUVJ0SUZFRktFUDNBa3k0Z09QeXJSTk5DZXVlc3g2QXlCVktTc2Fid3ZCWUpRbGI3MDRNWnBtZ2ZWb19tbng0MEFIZlhKM3BFWEF3RFpYeEdKNnhCWXlQMlhfTzdvZ3NXN2VtZTBfdDZzWU1WaWJVRy1uSVI2UnPSAeMBQVVfeXFMTWgzLWh5TFpyZjVoeGF6bDdVTjdmUWxrTXI0bVdqRVdzdlh6YVk2X2pCcjFpUHVpLVhHWVVfUHFqMnVkbDFEbk9xdmFqblRrcXlEQzA4eVcwYWFkUmdpZUR0ZEJLQWt4RTgzVmxBLU9XelRYODVUWWRCZGl4U3Q2T2F5QlRSYnVyWlZKSmIyRkdtLUJVS0t1SDFONy02X05KakJhS0hwRy1hZjhIcGJYdjY4OVozeUxRVS1CMzlmb29XSGNsd2ZnamZWZ0hsTllOMEtjOHkwLW9fckJIZkVQY3A2cTQ?oc=5" xr:uid="{9E478DA9-607A-457B-998E-CC77B7F1B4CB}"/>
+    <hyperlink ref="C799" r:id="rId231" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPeFpjbFVIV0lEY3o3aE4wNkh2WklTeTluaWxHN3BKM29xV0lVNWhQRXdlcTBKTUtEd05EMU9tTHVmUnpkVG13U0Z3XzM0ZnJIamVWNV82cnNCMUltOFBraV9rX2J0c1NoeFdVejhQZ2M2N3RUVzM1R09OMGRQSlRnMGo0c3l5WlloTWxWVVFuelRUTHNPdlM5LTQySTZsaXBwWjZyQ0NCRWlEUUFzdGh4YUxMNmo5WklKY3g3eTJXa2NFRzg4Vkp5cFN30gHeAUFVX3lxTE1IbEw2V1NaY2gzTEtGN1B5ME5SOHFlaXdmeGM4X1NTaXlVbXU2eEI4OXBwSmZNSjZWdTlicHR3NDdWQkxBSTN4MTIxZTlia3ZyZ2hMbEdtcHdJcU9qYjFqT0U5TnotakFTeWdzeW1vaktBSWZTYUoxblQ1WUZMQVhGeFBMRHpwQ3Q5Tnk1MUxoS0dBcE9mNUs4c2xheWFZYU1NSHItaUd4ZXczOWVDLUwtSHNKNFkyTUVNdGZELWVLVlZaWC1Ldko4N1BQUXBQZWtmdTB5Z19WVHVRWElNZw?oc=5" xr:uid="{D1DCA179-005D-44AB-B7B8-FF09322FC076}"/>
+    <hyperlink ref="C800" r:id="rId232" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPMWtVa3JzZTNlam1aWDhncE9Jc3lfWC03M1VkMG1wcG9NdnVHODBTc2g3a2NOWmExUnVULWd0UlZtUzdNWHd3Vmg3aWFIcWF0LUNPR0llQ0tsZS11MmRkaE14eW90cFpRLW45dU5HanY3M3RiSkFGYU9rSWZfZ0FOYlBwSFE5eVR2akMxUmEzSnk0SkhLX1JsMXE0TVVxM0VkZVhyNllRQkU0RmR5ZjlyN3pUZjNES3RSN1gtaUkxcUp1LVXSAdcBQVVfeXFMTmU5Smc2VjctclNnZ29iNU1wVjctb1hSRVNsTEtrMzExMERidk5CMHdqZzdRaFNienQ4VnAwcWN0VWNNaS0tclpnMUliZXpNMk5JaWlqT3YwMkNXTmNhcjlyc1hyWGxoVW5VTGJRUW9JajFtb3lZNzlMTDNYWEJOQUNfdWVhTU9NVnotSHlGeFZKRU03V3VnN2x1U3UyaHEzTjRZVEExaVVMNW1RUVNQTEQ3UWMyd0JvSDJhOU5NaGZzQzN5ZEJQU00wRHk3MUFiSUR1NmloSUk?oc=5" xr:uid="{BADA399C-67C3-488E-8FF6-8AC5E0F1B9A8}"/>
+    <hyperlink ref="C958" r:id="rId233" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNbWNCUWtUQWFMQ0o3LS1CYnBfR1A1SnBNTWZzV3lCemhIcnhkRnNPaUIzWkJWV2s0YndiR3hpMXFDNFJIUFhTd1ljd1E3ZHExTkIwbXpWeWYxeERUN2FaT2QwbnV1Q2FuVmJGbXJyMWc2S3hRcDB6WFNseFFlajIyUW51LVp4eUdhdU1XNEtZbWUtcm1oc1A1RXpiOE5YOEZBVjVtcEp4LTA4N0tGSjhxNVJrdk9PMUlpWk1xUHp3?oc=5" xr:uid="{B24A0D2E-CE79-45EE-9035-71A7CC3528C3}"/>
+    <hyperlink ref="C959" r:id="rId234" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxOUDdpNW05dlZrcFpiemd0YTJBSTZSeXh2djZiOHp1Wmw4N0RrdnVlY2hUODYwQVVJS0h3TTJwdWRuZG9lLUR1Nm12ME1XMy12SklCdnBMSVNRSTZJR1R6MUtLT3RjMEpYaGZ0eE1rZHdxWlU4dk82bzJObWpxZmtmTmhOMWYwMVQ3NnNIdDVPaWpOOFNiRHY2SFRFd1BaaGd5c1lfOVNBWDc0eXhfSDhhNlBhM2owQVdnT2V3aGdMYWlXdDlTUXJ4QVJjWFJpSTByS0x3VjVlb3Z5NkFWdWR2Y01XdFQ4a0tWMldvNEF2RdIBgwJBVV95cUxOTnl2VXlaUE52TUlJTmY4U1FBaThFdmxiRGpQV1N0aUgxQ1JNLTNkTUE1N2thMlVheVZhcmh5Z2FQZGR1bTZhUTNVVHNhWV90MU1IMjJseElBV1F4cThQQ05EX2RoRDcxMFc3Mkx4QVZ1Sk43NXd5Q1NSV3FuOVJiWEo3X1dJM1QxT092bFplcjlQZlozM3ZkbE9LcklzNWI3SmFNUjBhbUVURDZqNDN5MFRyUnIzZjdQVmZfMGpfRjFFczJGdTE2WE1Gd3phUTVHSzZSLThwQUl0Nndud3VNRi04YXVfbE53c1JoSHUzS1NYSGtEQ1c5S3FqUi1mQ3hJLWRN?oc=5" xr:uid="{6155CE8F-DA08-4B3D-A8D2-B1BB3ED42594}"/>
+    <hyperlink ref="C960" r:id="rId235" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxNY2V2WjhjaWlISlZfQlBEX2Fxc1podVB3c1c2b29pNDd0YWprRTFBTWtaVy1rZFhBT1NHSXlSMmhhbHFiQWNtR2lGWXBhT3lDN2h2M1pZYzAwaW4zZEdJeUtnYm0xemVoei1HMVY1Yk9wa2w0YjY4Z1lyb295emlqb29lQmNFeHlJYk9jTmxlYUhkTE04UUdfME5oTGhCTjVQVEt0VDBkTVR6WW56a0ZLbHhlbjdfcjdWYXIzcnUtVjE0amdnTXlXYjdUTUN0UTV4VDhRcnV6MVpOZEpCVkdvcGxiV3ZrakE5UVZOZldad3FFZ0FkSFRaRlFMWnNjUdIBkgJBVV95cUxOSnotQzBJVVVadm5oczVScHpJaFljSHVMaGhlNWpaTTMtZXp1UEFRVjFiM2ZCdTBuMV9IVDhXVHptbVFGLTQwUlRUWk9MSFpoY0VHR2E3Sy1fUEdaLWdPVWVoTk9UeEpYSFNhVmZDbDBQb3VnQWpkaWx2enhjUldzazk3ekZ5MjhOYW1fM29VQnp0V2pHUWtLTXV3U2pXRjV4TThVcVRWX3lhdExLZnFYemJtMmlUM3RRbXBXRjdXdER3ZTVlQ0kySVRKNmNIVWxxWVZfY0paYVFhbUZzaVpnTHhZWU11U0dwdmgyblJXOG1xdDdpdjhaeGgxUnZGaXNXX1JOXzRfVzgxaFVEYncwZU5B?oc=5" xr:uid="{051B9AAA-FBD2-4A89-9C8D-8D23A0069D48}"/>
+    <hyperlink ref="C801" r:id="rId236" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxOcUlBQzJtUV9sSFNfQl9nWEliSDJUdDFCQmxkdlJfS29Pd2NpR18wMXdSY25Cam05Q3NvWk96VTRjWE5UOHQ2bmtXYzVxWmtuZ3I0elRQMVBtQW1Mc0RtYlhRcGVOMy1VT3ZjYzVfcWlObi1YczVyUVMzLXJkRnRqZXY1bk9DbjBOdkt3RVR5MFNEZ19WWmxPVU1kcnhHVEdyaXk4bGVVN1IxWXNIZHV0aFYyUdIBuAFBVV95cUxNM1dnRDA2eDFoOWVpUDZ5T004Z1lCUlFKTlVCbERPQTgxa3MtbDFsYUZQc21mTFZGSEkxY19kUFc4SnlTbG92ckxvd2N4aWVBRnVsSkZyR2JOQTRzLWZpaTlubG1NVVNZekppdklCY1I4WjkzRXprTVFPcm1ETmZUb1dTdzM1dnpEdnBqTmJXNEJhZTRYNFMwbzNHc1U0anZmWndiWkxzeFRsQTJxZXlBalZtWVIzcnVD?oc=5" xr:uid="{51030607-678E-4457-80E4-2B81FC69F828}"/>
+    <hyperlink ref="C802" r:id="rId237" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxQZm5LTDBEcHVsV3pMLWd1Q1lCMHJrN2JkTkRlZnZYZjFKYW5yVllacjlqQ1JEeUVsazBiUGwzX0J0VmQtb3hUdHFuNDQ0U3RWRnVnYUIydVhMYzVRbHZGNFVqaElWQnBuN2N1dUtaVDViamRjZWJ3dVRIWVJKLWUtTzZsR3ltWV93M3FjMGNtN1dPS2ZFU215bDVMemdQN29Hd216anZ4Q0lhRnJaSmdkOEY4azJVMHFmLVVHMDFHMTNGa2ZnN0FmdS05RWVSd2hlUTJORVkzUUlXMDExeHA40gHkAUFVX3lxTFBfdE9adUhnVkRoUllmWU9rVU81cHZNSFpFVGZKUE9MS0tMVkhWczV0UkdPZUtiWE04TzVOUHB1WUJsVHJSQ1I4emZLQjFvQ3FTTUNEWXI3T0otR3pYcTNkcFI0UE5rSG93VlE2UHhWYl9SMHJPX0w4VkhvNWNUanNTTHR0UElhejFKQS1hQTlOS05pU0l3QUZmdUw1eFVYVmtIeVVpdkh6Rzlxdk94OFY1ZDdQWG5NRTZoZEpqMno5NE1PeWR6X1IweXRkUTRxcTlKdjgzOVFKX1N5UVJvbnJoaUd2NA?oc=5" xr:uid="{04C189F3-AC7B-47E5-896A-D218D38DA12F}"/>
+    <hyperlink ref="C803" r:id="rId238" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPbEZ1RF9XczZGcDdpVlluWmRqS1RfRHBGYklHVmMxVFdmQ2d5WFJxWkQ4N2R1SWFPYXNPcnY3UUxNNnN6NjNnLVBpX0w2NzNDQzdQZTFYejJmMzc0elh3d0NBaUphUkFLM28xMjA2NHQ3dzlRVEhkSl93U0dQWWg0RjFPUTdKZUpyT2g3RVJqdGVVdVdVYXM3NVpHb1lUbHhGUWtRcVQ3UWljX3JGU055UnBZc00xaENndV9CRzlnNEkxVU3SAcgBQVVfeXFMTjVFT0RtZkxtZHEyYlJkLW90dHRXLXBLa2NFZDFIVjVvZEx5WEpTdWJLZWxPRDRoU3hvTElmaDczOEIwZ0k5UUc0dlZQOGxVOGp4SzE2eFl1SHFTZVIyVXdXOVM0SmRfZ0xLRXY5Rk1LUUF5U2pSZ3pra2tDTEgxX2U3V0tkRWpyS2ZneEpETUkyLTk3Ul9GOXdRQWhoMHVueThDYkl1c2dwXzQzRm9sLUh2Ui0xYlhtZC1wOERONTdoNkZXUWlHWEQ?oc=5" xr:uid="{293965C3-8F21-449C-B079-2A4D06AD2838}"/>
+    <hyperlink ref="C961" r:id="rId239" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxNX013c2hyczg4MVNzdkhRcjM2TENaSUY5R3lNZ3dmYzlmMDF2bFJQdEpISnlkSVl2SlNDbVFyTGp4QWNSTnVXTmdBUnRWQ2tmbWNveTR3M1QxR3g3clRNU2wtWGI2TzFIVjRmMDZ1eFBoT2tQN3F0YlRiUGVWZnhRREJOWmhvLV9NejNjaGdVMDg5MFBZVEZQUVEtZWdhVlBKZlNXWjQxeDM4X1FHYjU2TVpTT3ZFakFTMGVCLVFwTUZrVWfSAcMBQVVfeXFMTllPQzkwcGVKREZjVEVmcUlfU1d6Wk9CR2k2dWs4WFFCZjlEbW1PRDBaVFpXZTU0UUd0MndjaEoxOW85a25RS3JFeE4xcHI4NXl0U3JJRmtQVTFNRkp1OS1DaWhjMXVIbk1DcmZQS09qTXdSSEtqUGU2cHNDaENtU1JDQ3lvNHowS2VUUzJPa1FpWkxlWDh6MzI4akg5WTFnS0FINENENS1KUTV1WUF1anVob2V2VnUtT3o2aThuT0JmNm1v?oc=5" xr:uid="{D12696FD-02FF-4C00-B0EF-2A21E708530A}"/>
+    <hyperlink ref="C804" r:id="rId240" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQOEtFOXB4VkgtVHotV1hMZFRvVUtER2JPNGhiSkJPTWZrb1FjbHdXVXYzN0lTSTVJMkxSay04ZnEzdTkzT3RQTzhZRGpOQmxGX2tHbzhLMHIxWjhBemNwcmJ2MnNuN2t5eVRXcndiTEd6Y243ZFRjSmhkNnJ3Wi04T0pEUl9EOGRsOGJJd2hmRThQeU1mbVlHNjFoMnJVXzJv?oc=5" xr:uid="{C2CC0CEF-240C-4722-8289-CC74B10ADF1B}"/>
+    <hyperlink ref="C805" r:id="rId241" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxPcG5nV2tlNDBKZW5FZEdVX0RUWEprYl9RYWdzcVdOWC1HakNucmZtOFp4MlVmQ1l5eVJMVUxhTnZqTk9aUUtBREMwMG0yZzB6UXJMUnI4cEpxZmdOMVB5VXBOS1ZwbVBaRFR3WEgzRlNvSTZtM0lwZnZVM2pjQUN4WWl4WEdwRElHVzk3NnNTbTg0VlJxRndjeS0xcFRQZktrUlE?oc=5" xr:uid="{6AF1F0EE-D451-44F7-8AA9-778E1B663453}"/>
+    <hyperlink ref="C806" r:id="rId242" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPMXRoVFZYS3JkaFJaYU0zRENJUFVaUU15Zk5DYWpnbTU5VHFEVUFrMzU2UzJ1MkxiSXhSNnUzTnp3c0hyU0NnWXN5NFB0NVhYMGRmLXk2dEI3LWFyaW83MmJaTmpzWnRSbWRtM2RsbDhSVFRmLThxVFpGend0Vi01TFQwMjBGcmltbDAtN1Z0TksyVjFydUpIRGJnMG54ZDhzY2lWc2RTYXlCRTJzZU55YWtVTlFNTXBBd1NwSVFfVzFKQng0UzNCS1NHME1VTlZnMDJwU2p2SVVhWWNw?oc=5" xr:uid="{0FD56D63-AFEB-47FA-AEA1-AE246E3E2A5F}"/>
+    <hyperlink ref="C807" r:id="rId243" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNRnNPVDVvcUlQMGhYQmxVYXpRSEtrdjFqT2pUdjVHWXJnVWlvUDY5MHhxcU5feUlZdTlJME9ncVlDbUF5aEtKSGpoS3lHS21IeDdkbjRJY0JLSlpPNkJZNlhFZ2V4TDRvbHdmMjNRbWdUQXBOYkprVkwzenJJc1BFV2dXenFJdlRVak9hVF9zOTU2Q0dGN2QxdEh4UVZDcXNFSllwX3J5aVl6ZklGbUs1NHJNckRZNW1vZk5CRg?oc=5" xr:uid="{82D65A3B-52E1-4CEC-B615-09DFA6FAEB07}"/>
+    <hyperlink ref="C808" r:id="rId244" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNZEJSZl9ONU4xT0plMUFIVHNQSFZSZmZOdXp5d19WVlZFalh5LU1tX1liUnBOX19ySjVLVnhJeVRvWlRsRjF2WVFBSUI4ODZNMWRtcmh0LXNIUHY3ZDgtZjdVNXdSb3Z4d2k5elJtUlNyYWdMbmRPNnUzekQyYU9NaDJSbFJLZWJuUXF3aFEwSEd6T1ZzUWYwa0ppeVphcE5uYzBFZGpjZXBKbUxVUVJoMDF4R0phUzRWMnJTcUE1Zw?oc=5" xr:uid="{E2516E7B-D064-45EE-BB70-D97202727354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CB2D2-BFA0-469F-A1D2-19F857CC4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BC1ED2-2DA2-4982-BF88-60DDC822CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5CAA307-58D1-4699-B525-B473CF5DD118}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$1009</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$1266</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="2490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="3115">
   <si>
     <t>Fecha</t>
   </si>
@@ -7493,6 +7493,1881 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMihgJBVV95cUxNSUlYUDAxT3oyS0ZBMHg2bmNOcmpweHhUQWdHelM0Q2dLS1F1UXl4QjQyQXhPOXRZaTZfeU9NbmxOeWVHNk8tOUd3TW9fMENDSkdfWUEtS2tiMy1wOGJEdVdSZGF5blhCVnkwemN6Z25KLVE0bXlYNHV4TWlCd3NOa3ZDeXg2YXFwSUdUUVJkNFZGWjM1NGUyOTlaSUhQWjN0N1E3dHJRZGhjdGVIaEx5aUtTQ29YWFdEeXBWTEMwZ0tBRzFpOVB3NWlFVWVkbXNkM1YzczMyeE4ydnlWbDlVMkFQSGVFWnZLRFhzeWlCdHpxbUktU3ZQVEJmaHJETEIwUURrMWxn0gGLAkFVX3lxTE5pd2k4VkRhZTZuSXpPVC1GZzdya3BhUWMwcW41SnJzc2gwSVphN0JYYnY4aEhNM0JycVdHaFM5LVdIZVVMeEZfeTh1R2lYVGxtMlpyM1Zuc0JPa0Z0S0F2Rml4NnZFZElLdVdpN2wzUHJPZ1hScHFuTVBVTXd2WWFMMVVBYlc2SUNHWlZIbHRleWttMVVUQk9JLTRkeVVLN1NzNjVob2ZfYlFKc3kwUzlhMUxTc0JKVmtXakRQMEVXS3VRaEdsUjhBVHZ0ekN6MnJpaGRkdGJsU05kckQza1locVJwYll3blpkTVFNVEd5Q2h1VWhDRzlURjhSUXNjVHgzUU9ack5kZHNhRQ?oc=5</t>
+  </si>
+  <si>
+    <t>¿Por qué se borró la biografía de Abelardo de la Espriella que estaba en Wikipedia?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOOVQ1dTRMNHFhY2VwNlVhdXVYRlN2N2p4OExKZkJnVmZiZEplZ3Y5OF9Xb3I3QlNzVy13dTNxbGpibFBGM08zczFodFZNVnRFa0lFNGxpR0QtZ1RwNDR4clU4QVBTVUM0TmhZdmtCUmdfQmpIRVk3MzQ3RnlEV0dJY05wRXNYanoyU0FnZEdRYmlOU0tuZzRtS09yWlBHc3dFRE5rc2tLbmFYVk8zTHc?oc=5</t>
+  </si>
+  <si>
+    <t>De los estrados a la tarima política: el ascenso financiero y mediático que impulsa a Abelardo de la Espriella rumbo a 2025</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxQRF82dnVGcTQzWlJNYUhuVmtMcEVfWjJ6VHFfX1VpYVdjc3F3UW5LQ0RHQzhWWGw2Tk1zb05xT01IV21KUjN3VEZ2NFRFaEE4cFZfWlVIclR5WUJrS1FBZU9ObkdOM0ZuWDZBZzJ0dGJvWUFFdFA2amtoR1BrMjFrMVBFQXZpd0FaQk5jOE1wVHZLZGxaaEhyMFdCZzNZRl9CYTBJUEN1S2x2bWEwN0lwREtOUUZGVzdMUmpBM1h0R1VsTFpvcGZnUnhPXzVTbEtLaVBpNzdMdF9KSW5OZERvZlFVajlpcFZHT1FObUhXdThzaTZtbTdHSTRGRXZMUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['estrados', 'tarima', 'financiero', 'mediático']</t>
+  </si>
+  <si>
+    <t>Estarían ofreciendo dinero para desprestigiar a Abelardo de la Espriella en redes sociales: su partido presentó una denuncia penal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxNNjUzU1ZyaGpRU01xcWlfSVJydzh0aHpCQ0F1Q2ZTUi15NXhhZTctYXdYNmp5TjVHRHZ5X3pkLWo2YXYxbHlIRHI5bFQtZXowRkhZV0xTWWxma3BkRDlpQjFoMVVqaGlqUF9JOW05ZjVGblAxMHFIX2tQLXVENU1BTXFobWRiQkZzdEFSMm5JMnpfVlFEUFNKQl8xZWtWS0o5TWlYZmlKY2VwNEVEeENpWUE1ZWpDUkN4MnpBTDdCem5ucERtUHZLUWZyRTVubEpxLUNJR2RvQXR4QnI3NGJCbU1RdnlZMXpLT0pRamNjS094dFIyZmhlZ19XSFo4UjE0cUpJRtIBnwJBVV95cUxPUkI1ekVZcWx5SG1MTE9JakktQjRtc2FXUDJqZjl3WTNCenZpc1hnTUJycGprbTE5ck51c21rQXpSejhOelFuZWRnMWI0ajRUdnVCOFNVRzlUT2lTN2VfSmNRNERub0F4ZTdkazdRQ0I5VHRDR3lmSlhwSW5ybnRKalg2dzhReXNDc2RDM1NUdzQ5Q2k0Ri02ZDVVQ0tKTDdKNUVPblBkM2hWbHQxdVdtd0pNZ3BucmdFa2ZpTUk4d2x1a2pISXJSd1YySnB3MkI3Z2JnMy1mZnVwZGJZYTI3RW1DYlRYaVN0MV83SVc0ZGFLbUpUV1EyYU5YUld1ekVzTElkNHdFeDVpM2o4Xy1YTXZGZEFObzBXYzhsR3RaRQ?oc=5</t>
+  </si>
+  <si>
+    <t>['sociales', 'penal']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe pasó de promover la 'megaconsulta' antipetrista a tener dudas sobre el mecanismo por la 'dispersión' de la derecha</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxOWXBzb0VCX1ZORldZUXZURFNrUDN2Rkw4M0dpWGxEZXh6c20tdnA3YlEyX1RZSUoyMW1FUGZQaVI4X1V1MXI3QTc3UWZXWTVveUxaZ0YxOUF1WGVzMXBxdldxVWRNa0Fua3g1R2UzNHBGR2xraDJfZ19UYWxEMWJTczA0VGxwYkVfX2otcV80THRFbnpoellENElXQ1JmbzhDX3F5WV8yZlZibXdkYnI4alNseUprWWJ0d2ZGTDV4NzJTcm5TWERaM3gydjQxQVVEOHduZXlzUTZCbWp1aFFvNkw5Y29YNFZITENOdlV4ckhPVHp0NW9TetIB_gFBVV95cUxOelZuWmQ1dkY3SUtvMENCY1BSTmNqLUUxQTZ3R1g1aThUMFdtb2NRLW9yZmZscGNlT0JCY2NqYmp2OWo1aGZwUzU3dlJvQ1lYS1lWLVFMYlhHX19kSUdSbEo5Y29nNXlnWTNIRHQtOXpyWjFrZlJsMU94UTFOaTNCNHBhZGR3dWMwdk95V0xBNWFjMFktWnplS1dCUXRUMTJiY1ZLSFZqclE2WEhTaV9jQzZiRHM5bC0wNG0zVk8zNU00Z3pKWmdSRm5ndl8teXNVcWdweXUyZk9fQ1djbzJ4ZC04S3dKeTBLeVJjclU4eEc5UC1yOUtLb2RyRGJrUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Entregaron tierras a campesinos que estuvieron bajo control de una sociedad del expresidente Álvaro Uribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxOX1g3UUFMRi1KQzRoNHdlRk5xMlZ6MFJUMld4QnRfYjVHaWluMlJ5WVYxTXhuUlZyS29yeFhJMlFQZ3VnLWRGclNxcnoxUXF5SVMyMEpsX1RORUQtWGNMS3dSZldWU2otMEs3NWdNMFJmekc0dzRoR0xXWHR5M09LWFpkRG8yeXJIaWxLY0ZZS3pnOTlGU0FjRHIxd2t4aGhqQ2JMWUxxN3FXclM4eFJtQ2xGVFRlM0F0N1J2T000WTlRNG9YaW85azRDMDR0SnJhYU1WQmprYmR0eVAxaERUVVRDT2_SAf8BQVVfeXFMTU5iQzZEWlpJS2ZiUE9wb1lCR2ZKNFJVRU1OMV9QdzN5S1gxbm52cU4yS2QxSnlXTktPZzdHbWkzdFB3YmNUUzg2YktIbVBNZ3JIUFZHT3VUWUpKUUNybEUtS1YzUjR3a21SRnQ2SkswM3VHTVFxSTBQZDBiVlM3YkhIdUh4N0lUTWZDTXBBQjduajZ1WjJwc1R5NExrRzI3QWtsWDIxbGZIZEg2TXpSZ0FOUmVneW5NV2R5ajZRQV9WWnB2R1Q0N1pSM1ktTnZWOVpvZ1FBSUxaZzZJdldLUncyV0FPdWRtYmZ6NDVQMmZieWFLNFVOVTZsTFI0dlcw?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe se pronunció sobre un eventual asilo político para Nicolás Maduro en Colombia: “Es un problema grande”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxPZFhYWGdUWE16S1ZlOHQ3Uk9fQ1VTVnk2Z21VNEJabVFJYmU5OHM0XzdOLUJ0M28zTExPOFdLNDRvemVYRHJObVBNRFBvTW9QdEpQaHlULVlfenFyVGVmek45Tm5KRUJDRlZJcXIzM19GRkZ0dUZJZVE3OEwwYnVMb3NwT3RqeTNDX0IxSDhhdEl3dE92OTluZ2VUXzl4SHgwV0ZVRF91bG1kVVk4Vm9DUEV5RG4xX1lDak5tOTE2SXlWNHVGMVdrTHFKNHFjVEIzcm1yVVJ5SFVxa1Jtd0RyektiZkdXeWtCVDkwYWF30gGIAkFVX3lxTE9fNU1oSVBnTlJ3VnJfUy05b1VWSUpQTG43Umw5a3VZTzlHdmhtcXNqSjdZWlc4WExyT21Xc0xpZ09Balh0Y0RWNVBZd3dCYlYtM01ETUN1a0tLdDBMNHJRd2RlUGMzamFyT3FOX0Z3ZHBtaVQ2dGJWSUh4XzVScURSWHFnRy1CVk9ySE8xNnRuenp5RVdDcFFCMFJMWlFTS1FnemtEYjNiSVhnZVU3SG9fY3BfaDZTc3g4R2EyVGxuZHpXTkppTlcwUEROS3NzcVZLb1prbzhOaVI1X1J1YWJoc2RyMHJrbk93UVRHWng4YlJlVTA1NXYzekswWnF2eTJLazZfZ1U2LQ?oc=5</t>
+  </si>
+  <si>
+    <t>['eventual', 'político', 'grande']</t>
+  </si>
+  <si>
+    <t>problema, duro</t>
+  </si>
+  <si>
+    <t>Con más de 1,5 millones de firmas, Aníbal Gaviria oficializó su candidatura presidencial ante la Registraduría Nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxQYjlfRldYeE1xNlNTWEFlZ1ZlWjEtQnpBdGd4alktazl1M3RrS1BqNVZtV0g3NFNyb0lRdy11ejNOYXo5X1p0Wmt3NGVhNzVUQWZoMFdYTlBJLTcxR19KV3VDdWhpWUtudHdobFlPRTk5VGRSOWI5c3ppTDQ3czZ3aVJXNkdCbTB6MFJaWTRBaWIxNHlVd0thcmJ5RVB6RkptU1hLdnVScjFRMTIzQ3drZ1FFdk0wWnN1NFlfMjlGdmxqejM4ZjNlbWF5bTlhRUVIUUhuMEpFVFZDMDc0NHNZaVNyVUpweVBhWmFKeXNPUmY3ZlBGbnRRYmF0U0FuYTA2MVHSAYcCQVVfeXFMTnVlRnFYV0NsX2hnZG9SeWphS21qTTFQdjZTTWhleVVZQjQ1WG5rRkRWNy1CbTlvaWl0OHp3V3FtSkZVQTY2SE1QX2tmNUdjUFZDdVIzeWY1WExNWmN1Mkd2MDZmbEpiMF9uRlViV2EyeVljV2YzZzZicTl4T20xTkI5QTh4SkZCcWVqaXA2M29Jc2MzWXJ6eVl3aXVKUTEtVlU1UTM0VXJxZk1JQURWRFFHV0VQc0R1c2tlVWNIakxtZ0NUdWRkeWs2WEVmWGRsSDNIVEN1WGdtQ1lyLVRZRGRVNDFwOU9RT0FXdmtKZGhCdXBpYmVKU0R0c211UDZhNXpvS1FfOHM?oc=5</t>
+  </si>
+  <si>
+    <t>Aníbal Gaviria</t>
+  </si>
+  <si>
+    <t>Aníbal Gaviria estaría explorando alianza con Luna, Cárdenas y Galán para consulta en marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxPMzBaaVlWQ01sYnFRQkhNT0thSTV5d3dKWVJWRFJ6a19UX3dTT0tDcFhpWHpJclVjVTVrTndEeXB6dzZPZDZ1SE5ZNW9mNndDTTBONE1LMmJ6Z21mTzJoTS1ZLVRMSDJmdTVkQ21VNVBPemFDM3RyNzhDV1NPZUVReldwdk9GNk9KdDY2QXVZUXB4RkEwLWRGQkRFMTZ0aER3Sl9aczBFT194Y2FpZkc3U1NVVWZ2SW1tZ2VDTW9qUUdaX0FtejBV0gHbAUFVX3lxTE9oNEIwOVdsMWZQMGs5VDg2OFBhbHV1NVdtanpCYl8tWEk3WmFhaDNCMGlHWUdObG5JX3JjazFFcmlqR2hTMVNtY0NqTTZmbDdTUW5CYWxadnIteGR3LXpvTTNRc0F0b05KXzlBMzhLZGxkM3AtQ21MMlNVS2w3amYtejFDa19BaTFyQ0dVcVpXVUQ0bmFxeTNPS0VmWmQwUGNjSHg1TzM3YmR5ZUV5OURRdTM2angyZUt0YzdYNUxpNVlXREFFTDR3ZFZxaHh2UmhBbUNCdkJvVUMxSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Aníbal Gaviria radicó sus firmas, acompañado de Cárdenas y Luna</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPeWFmNEdBbDlnbm0zSmtkMmNzNW1ybUpyb0ttTUVnWVdiQ2RHblVuelNhcmpzakVSOWZ2SXpSSkxGcW1NTzVvRmJ2ZDdadDhBc3o5LWdHZHgtOUticGdscEJXc0w3ZVZpc0Z2QXBlWlZwel9ROC1zVG45TEtpcm1tNWYwREkwMWs4VzFjb3dKMDNUQ18zalctVjBaN1EyeGZKaGc?oc=5</t>
+  </si>
+  <si>
+    <t>['acompañado']</t>
+  </si>
+  <si>
+    <t>Se define consulta en la que participarán Cárdenas, Luna, Oviedo, Galán y Aníbal Gaviria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNSFNEQThEX0pfbGVfSTBvRGhyck84Ung0a3JCSTRHX3piRmlZbWstTEhWT192ekJ2M0hQZ0EtbnZ6OEZkaU92YnZXNnlycE91bU9lMVpBcUhuWHBDbS1ZT0N0NVFPMjFwY2hkNnNZMnJKZGVtU1NYLTg4X2pjQ1U0dW5IUDIyYTlPa3Q1SUFjUlRSMVlaU0trcGZkQUFzcFd3S3NqMTdScVBVWW03a2ExY1RrR1VsTHV0czZ2QVVsc2xHOFEtY1ljaNIByAFBVV95cUxPS1VCQ2pfS3pHRDIzT3d1QW1XQUVEQ1lsZHc5dkJTV0x4ZTJwTE9SSk9aSlB4WUlVcEYyTW5fdThIeWFHTm40dktUSGxsaHZkWmdEMWNhUjZGckxraHJLa2hwN29BaFIyaGJtcXVTQjBqWXZGOWlQN1NrTFNQZXluclBOQm1scDQ5YVlSUjFTQkcxV21fUFNkQ1F3NElFT1gxYXhHODhJdUdLZlgyb1hnbVg1QlAwSG9uUjE3MVBUYV9oaVhsTWVWbg?oc=5</t>
+  </si>
+  <si>
+    <t>Con 1.643.327 firmas, Aníbal Gaviria busca asegurar aspiración presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPVE5YeTVBOW92c0pybXRhUVNmemV4dlNfQ2ZWczVMdjVka3JXel9lWDQ4Nk5ia2RxZTR0aXBwMmtLUTJfbW9ablhob0x1TEpLUUdkWkRpVVVpS3p4NnFBRkNSZU5PeTR4U0t5WEZiS3YwTjBrRTZ6WVlBcUlvV1F6ZDdCOS1IbmszNnhyMDBHRDlLSmlvYWhOUGhRMDR1YjU3bUNDdHJNelQ?oc=5</t>
+  </si>
+  <si>
+    <t>Aníbal Gaviria formalizó su inscripción como candidato presencial de La Fuerza de las Regiones con más de 1,6 millones de firmas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPUDNfNGNycV9MdGRCbzZwM3VtX19mbkhuYlpRaWxTWmdIVzF0amYyeEpWNVlNQmxlMXd4TUlTSXc0NmZqbDh2bkNUd3daYzJGeEE5aWxXMG85dnF2Wjg2SUVoWXFMaHIzcW80bTVQUXRUTlZZaTNWMk13Z05nNmQ2Yi15YUo2aU1oZzQ2cUtxclNUWnZvYWZQZ25hMy1CN096anBqV2xLeUwwQW95aGtVbzdPSjlzTF9wQjlqN2h5YnZadzI4RW54Z2lRUHItSHdTYkdjTHl4SXNILUx2NlgwXzQ0ZlFtOFplSHI3Q2c0anctMlFQWlEwUGRqWFBPeEU0akHSAZwCQVVfeXFMTUtpaF9PdFBZbk85bjRicXpXNlg5N0FGaFBnNlk5aGl2cjJQel9VRnlKMUxjVl9SRkw5MFNsYU5CeVJjRGpGV3ZibVZsMTdBVzdUcEloWVdDTlE0Wld0TnVTVUZrU2hzdUpyaGNrR01tbkFKNldpam1xOE1SeU5mbDhoa0YwWXJtRnByNTV2c0VvZlJPRUhPU09pb2N0M0VCc1NoZFdYeXE3dzJOUFNaMFBhTU56Y1hFNUlUbjhjeUNVb2lVd2JTc2ZEbzJTVDA5WGFPOVBNaXZRelR4c0M3ZVlVaGZIOWF6RVZpYWtLLUl0NTFMdTNrQ282ZE5SNlcyemd0ckFDTlRCcXZONlppTW9TMTNTell0dHRwX3o?oc=5</t>
+  </si>
+  <si>
+    <t>['presencial']</t>
+  </si>
+  <si>
+    <t>Anibal Gaviria inscribe candidatura presidencial: David Luna y Mauricio Cárdenas lo acompañaron</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxOR0R2ZURnN0R3R1ZvMFozZDJPY2htOWt3S1NWeFltZ0VmWms2MlhVOWg5MW90X1d2b09mbmNuRXZyc25ZeWotelotRVN1Rnk2SWxhX2hrRVN4RWJlZzBHbzFITlVYQ0R2ZjhpQnAtNWlFMWYyWVFHN1ZVTjF1aFUyY283SGNCVzM5NlA1RWttdVpvODVpcGRQaml3dFJnN2wxaENMUzNoc3VUMTZud19XQ19OMWVaaFRmc2c3Wm9DTnc2UHR6RVBDWGU4R0RnRzI0T2MzNG00WDQwenVD0gHcAUFVX3lxTE5HRHZlRGc3RHdHVm8wWjNkMk9jaG05a3dLU1Z4WW1nRWZaazYyWFU5aDkxb3RfV3ZvT2ZuY25FdnJzbll5ai16Wi1FU3VGeTZJbGFfaGtFU3hFYmVnMEdvMUhOVVhDRHZmOGlCcC01aUUxZjJZUUc3VlVOMXVoVTJjbzdIY0JXMzk2UDVFa211Wm84NWlwZFBqaXd0Umc3bDFoQ0xTM2hzdVQxNm53X1dDX04xZVpoVGZzZzdab0NOdzZQdHpFUENYZThHRGdHMjRPYzM0bTRYNDB6dUM?oc=5</t>
+  </si>
+  <si>
+    <t>“Pipe” Córdoba suma apoyos como precandidato presidencial por el Partido Conservador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQTEgtdWRab0FXRXJ1cHF2Uk5sN2hRV1hEU2VvQU1NVG5QMDVpaUJaX1I5cnVQZlBDOWJIWnp0UC1vcThFdG5maGNWNWdSbVBUeXdwZDR1UGlUV3JZSTZIek0yR3FnOXBLTVlzbXR1bHV6UTNKN2xHZEM3cHlhMTFLei1KcFdRa1dvejdNX3dFdHZUS3hUSmN2RDhOMHQxTWlNMmV4eU85b0ctNFZiY1pOeGFtYWRQOHRyRll5YXQtTU03b2U5TkxXSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Uribe alerta por dispersión en la derecha y pone en duda que Centro Democrático participe en una consulta | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNc0I3eXdWeFIwcm9CNGFDWUNnck84cS1JWDNfbFU0WTFnV3lmZlBwdHA4SzhqTW9kZkx1YlhRbWVRRE9peEZVVkxJN0RyODR0TnNpbkhIRkV6SmRWMG9IVzVEanY1RVVza2ktS0JhMVNNVE1yR2tJNDhwRi1na1AtR2RFQ1NzSzhFOTlPeEVBTDJlRkpEZ1d0Q2g4Yl9SMzBvVmlJQXln0gGrAUFVX3lxTFBTQldFRVFGU2R1Vlgtd052WDhQelhfVlNiZkpzUWVfZkMxZGRtVnBJc250aTd3cHdFQnRBeTlyOGI5X2FWa0ViRnJ4ODNsUkk5bmZHXzZ6S2t0Z1plcERqb0ZVSHJ1NGNiUERUVmNjeTF2Wm8xLWstVVpNSWpzbjVCeFhNeEROQV9Dc3UxQVZpN0pYOUExT1lQbEhqejNjRjh1c0tUVU5QdFRrYw?oc=5</t>
+  </si>
+  <si>
+    <t>Expresidente Uribe plantea posibilidad de que el Centro Democrático no participe en las consultas de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNVXNlQWNRM3Z2cGRiQUViNmZxcHpSV0lTZi1YcWx1NkZFQURlU2o5aTlycEtENkowRXBKSGxTSnlYaFc4bzU4S0t4Rm0wWGdRWUNiVmZkRkluNWZMVXppUTJXWmZXZHhxRkZ6ZlZrUnRyMWZNWkF3R2ZxOXBKWVJDT2pxV3B6SjVWdHE2NENzaGpYLWNqVkJvZk0tQ1FkM0tKY09HZzBGVXNad3VfTExDc2JqNFZ1UkxLMkE5NEhIMzVPZ1hfTWVCYlFpbTQyMURrOFdlZUIzeUxlb1Q1eDR5ZE1wOVFLcEHSAYICQVVfeXFMT2VHVk5FNk9laXdESjRiZzhHaUd5Y0J0TzJMVFhTbVJaZ2ZNWnR2aUwxaXd2RGpYZUt6NWF3bVdhX3RkMFNIaEVrQXhmYlZheEktSjZvVC1CaEF5MFBzUWJPdVdyN01jTkxSVGEwbmZCMG5JamlwaWNGWmJZRmxoQXZsVHB1aTFWamJLYzV1bXdFb1NkdmxqamYxU0hYOGRlYnVCUDB2TkFaQjBCR0d3TXhkbFc0djVLRjFnUDJuTklYVGlVVVdVc1VxSi03UVNGTW1Jb3g3aEttaVpRWUk2NGtWdEpxT3NBQ3VZQjVyM0RrQVJPenVJd3hvcEg0dGdqZUtR?oc=5</t>
+  </si>
+  <si>
+    <t>¿El Centro Democrático no irá a las consultas de marzo? Mañanas Blu, jueves, 11 de diciembre de 2025</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxORXEzemRMYkZnTUJpNVhyV1ZueFdpcTNkYXppSGV6NnhGZGNybnkwVUNyVmxnVVZfQ0ZMTHYtWlVnT2Z6UGFzaFZLWFFBbVozZjcyZTZTUFRMLU1QTEJrV191bE1lOXFaOHJHZncxLVAwYzEyUnczRWtkT3BRbWg0bXNRLWhTcEZ5RE5XRjZJeG5Ta2psRmFya2g2SUh6VXhUTHN5VWU5cGZVWjhhQW9qcTV2UGdvU0tjVUxKVnRQanpGU08zRUR0b0RKQmY3LXhYN1FDVtIB4gFBVV95cUxOMzNvaUtsbGpKSDlydFpzR2J3eWVrRm5mSlcyNHY1enE2QzBER0hSLXR5LVJ5TEhZZVFub01uZm5ZZ1JlVVNtbm5MY2YtdHJrUGJfYlZ1YnFNLTFSTjRzNVdnUzJOc1J3c25neWdwdU5LdXg2V08wUEt5bk1rLVdqcjJNeEQyQlZZaVVrSUdnSFNNS0ttZzZXU2QzN18tYXBTWUlxcEpFYXdMVlNrcHlTNkZmckxMQ1AxQjgtNG5hUzFKTmJQX3pzSUhXZWl1U21fb18zdzR4MTFKOE1lZ0RJRTZn?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe abre la puerta para que el Centro Democrático no participe en la consulta de marzo</t>
+  </si>
+  <si>
+    <t>Uribe da luces a que el Centro Democrático no participe en consulta: "Preferible que se reserve"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNaTdGbTFwbkN1MmYxdm4wM2kwRVJ2UjRRUTJKSEk5THZwcXNVOVdNTDdOQzJva21nVEkxN3lrUEVabkZ2ZFp5dmNBRUxMUE9uNGVEMDZwa3dZTmtGeDFqTkVpMlhpQ0h6aDFWckJ3MWtUTERZajVqbG5sdjBUSWRfRVY2WWZRR0M0MFRFQjZkWGRhUDExRXd3Y1VrakZybTRMQlE3Tk1kRVE5TFBy0gGyAUFVX3lxTFAwaklkMzVubG1VRHA3d3pjLWI4cGgycUVDUFg3TGFpekUtTHJWZTh0amh5cHpUYUw3eE1lbFV4Yzh2WXc5dF91b3oybElob1cwUEhidWdJM0t3VnlqV2xLV29ISnJvVXFLYXRxQXd6VFJCTWFwTjFMWjZjaTVSbDN0MXg0blZaRjJpU3pyUFM1MmhjdWYxMmY4UXFlVzBhS0hEUTdBOXdtQmI5UURLdENvZ1E?oc=5</t>
+  </si>
+  <si>
+    <t>Uribe pone en duda participación del Centro Democrático en consulta presidencial de 2026 y propone alternativa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxNZ3J6bGcxcWxGOGdQTXZ0X0k5TDRmWEJFRnZONTlnbHlkQ1BCUW16Yld3NThpejVoeW02cDRMMFJGMFV1X0lFM1FEX29XUE95a0JMZmk1eEk0ZnhiWUMtNHVOTGk3dGtZQmxTRVRoQ2I4TFJMemlLRGhwcVRGS0RoSUZET3JJeC1Ja3d0M25veWxWek5iUEJwTEJTUTlZMDVYbTFyS0NZVlNKdzM5cWZnZVVkd2JuNzFuWl9vMUxzMTNhcFpkMTNrQzRTd0RXUURyTTA3RzIzY2ZWb0E?oc=5</t>
+  </si>
+  <si>
+    <t>Centro Democrático no descarta participar en consulta interpartidista presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPS3lrcDFlU0ZoVXMzMUo2VkQ4VFVkT1JYbWg3b3lLWjJxODdCc0NuQjQwQWRkYVFiaVhjRjI2S2U5Mm1XTEtLeE15WlRaMWdpRXNzYmh3bjdsRjg2N1RGUDJySy1odElGcjRUdHpwUkVRTUlhT2pKaUNqZnV3aHF3MzRJdkhyd1lmWFdHNFlZWUxxekQ3UFk0dFp6bld4bWQ2UWd0MkRWMW50TzBXajEybEExZVJBTHo4bDlVVE10Vl9PQURRYTRZNUlydVAzUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Uribe abrió la posibilidad de que el Centro Democrático no participe en la consulta del 2026: “No vale la pena”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxON3JvSDROUlQ4ZkZRemxfY0VtSGxtRUt6Z0JhZlpNMmNVcThKbEJUM0F4Y1RNMTJuc2xKcEtDMDVOcUFFa3JDd21EcVJnT0dBeTNQMlpaWUFBZXIyRk5QVnJseGx6Sk9GRTYxZ3k1bkxnMzZjTHZNNk12OGNKaGJ3VGFNOGI2eFdKWGRZZndud3ZWV2hkcXRUZWtaTTZBdndXS2xxTU5UeEtKYzZlenNFMFhsWGJzOE9abG5fTlU1NnZkTVoySnFfLTBSWjdGWm5KRlZ4dVM2S2ZiZ2w2S0c2ZmQwcWY1VW9tM1R3VzJEc2F4a1N2MWx2Vnoxekc1by0zT0HSAZwCQVVfeXFMTnZ6ckJtWkdrUGxPQjh2OUloLTJLSzcwQjltTDZIQW1YV2NwMkp0RmZHalYtNGxQUDc4YW1vODhzX1NtLXI3c3l6bUd6RDdhYjlUN3hHZVU1M0VpUE1ickVTX3hxNHpxRVNZXzlINnhWSXNteHVvUXVRWkctU013T0ZDZkV0bTZueUcwTzJlajFoUDFnVDlPS1dJNVNpUmlrU3p6VVpPU2JZYVBLNTBqSEd2MkdxZXFyZXNxOVFKSzFQZW94V1ZTMjJjNENBbDN4TVlERmdBOTdUc1hOcXg0ZzgycmhFV2FfM2RwS21jRzdwVDNBLTdITWdTbXFHREVab1hxWmdrejYwVlk3Rm05VjcxaWhmaFJsM09rRVE?oc=5</t>
+  </si>
+  <si>
+    <t>Corte Constitucional libera sentencia del caso Petro vs CNE y sienta jurisprudencia sobre el fuero presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOSjVlU1BWdDRmaDA0ZTZNLTNSbHJPN1Q5dlNtQTRObW9DMzE5VGdZMm9kMjdQUkdsVFRqRWtGSEl1ZHFkcU1LdHc0S0xoSkk4Ym9yR1VHbVAtOHpJYktBanVjcmZ6aXdSMmItNG5jOGlqQmI1QUg5a0JqSWNjYjlMUUZaTjdGRnVIT1ByR3phTUlnVzRJS0VLWkt3TkdfOGNvekRTeVUxNUhWMGstdVQwcDdqUTNmbTRtckNMZkdpbHFCNlg5U3plTkVZZVp5RXBaZU5iWjlDNmpVc0VsdkdOckhPdlhNc3lyNFR4RlUzdkJwd9IB9wFBVV95cUxObndjdmlReHgtVGkxbGxVOE1xRjRvVGZfR1k5Z3gxMXdOc1FJRDl4LTJrNjNKU3hsM21uVExGNS12YklXaXZGYkF6cTBfS2FLVFljZTMxMU1STG1pelV4YnN6My11X2ZfN0kyNjYyUExnS1A3M29pbVJDQjlabnVpRmpPUk9NQlRfaWRubmVKZDg2Z2pGQVVwa01mQ1h0cGJ3enM3eVlHbkRSdHUzOC0ydnJjZEFGZDQyUmk1NG9RWnpBLWxfeDJxSDN5SnVDNnM1aS1YeURyMGkya3pNbTY2ck9pWncwSk03VHRQajY2WEJXY3pGMllB?oc=5</t>
+  </si>
+  <si>
+    <t>['libera', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Atención: Tribunal acepta tutela que pide tumbar sanción del CNE a campaña Petro, pero niega que se suspendan efectos mientras se falla de fondo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowJBVV95cUxOUUFIMk5VY2xCdXMxN2duLTk2NEhZc0ZQMVJiYnRUWEFWRElzdUxmbVpTSG1nNUNqUFNwbTBQbHN4M2diY1RpckJua2duYlAtZ2phSW85dlpGLU9VekludFlQOEVuWlpKSjN5aUsydDhhcjRJdVcwQjQ1b2JpNXVIOTdLQ0dsaVU3azhQSUx2c0Nac0VoNVpTRGNjXzZ3NnJMVUpPaEFNSGY1dWtxa0NtT2M0LVlUR3NkTmFrTXdHZ0dzTUxITm9LcWQwZXdvVDRhcHViRkRyTXY0cVpHbTVFc1FDdEVuX0pVaEZyQ2FsRFQzbGJCd2lxT1BCUGxMTFdjN0lYbVhWYkVvblUwR19tcmstZjRYTG1pVjRWdjBFalkzb1U?oc=5</t>
+  </si>
+  <si>
+    <t>Tribunal admite tutela que busca tumbar sanción del CNE a la campaña del presidente Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPMzBJMktWTnQyXzY4amZMRXo1cVJXRDk3ZnAwZVM3eENVTDdxVzdwSzdmbTl3ODU5Z1A0U2xZbWdfLS05M1lCNzBlUVQ3UV9tMEJQbU5kSWN3enpSRVk0M2FUQmVGQ05qQUhaV240ZDF3YldrX01VN3NTeEtnTlhoTkI3WnVBc1B5Smhia3RxTkZXMXliMThhcldKaFg5OU1WS21yM0pkck1ORzBIQ3lOVkExUF9TQlc1V3JVZm1QSk1GUW1jcHfSAdoBQVVfeXFMT251MDhBZDlGM01BLWtLWXVTLWlsbjg0bjNoOC02dHNPWkp4SkNHQW8ycWdGUE5hS2Y5YjUtN01iVm5jYkdranByNENfaDlWbGtFXzBrRGhIVHY2ZkItemlqOXRidzNyTHBwOTk1MWJxdE9DdUw0MEdvVjFrdkR0YlktejRhd2tHUm5Qemp2X0ZxdTFlOWhWTTIyeDZWUFVhRGE2UGtBRnViTGlmN2hOZVViZFNTRHpvb1ZMdWtXUG1WX3M4YWtOVnFCZi1nR2tTTC1WWTB4N29JOFE?oc=5</t>
+  </si>
+  <si>
+    <t>Listas las fechas para elecciones presidenciales de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxQSkVfZkZXMksyVlRuSFVxcmRGWkxyNkloVVoxcERxcFhmbXdhOWVpR3FuemZScC1QNGNESEpKcEpVQUxFaUJlYVV6c0FFRU1Jbzl6SFBONko1YW02NlQ4SDFJamVCeUNkVG9YUHBhelNHQUgtUXR4cFlzeHdzbkdoYXJ0czBlT0xoR1Q3Ng?oc=5</t>
+  </si>
+  <si>
+    <t>Bolívar: 18 listas buscan una curul a la Cámara de Representantes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPUmU1aG1sbkFGUlZwRll3ZG9tdENHRlJ5U1VGMlYzTFh3X01LTmlOVlQzTTdBUlRmTlpEY3VILS02QWFnMTVJXzFRRDQ4UjlJMlpLTm1TN0hIMlg0S0ZMTFk4dXJzS3hyLUVIWnBjLVNoZFZ0NWZWTzlGVUdVVW0tOFZ4U2VoRHlIZlBRQjBjS0dIcTBUeXZyMXB6UU91aXZld2N4bdIBuAFBVV95cUxPMHRrOUxUU0hlcXpQMnA4LXI5Z1ZLRUY2b1lLbG1KSWF6OTk2UnVseVVLMXNSSTZkR0E2UHJNR0FaRXVVeHdQc00wMFd4OHRZbWhVaW14bldlNllkdDJyWnZPR21LY1ZBbHlsQktpNGhSY1cxbm9DSkxPdy1uM1J6WXhqdE9raGhHRVN1WDdKOFlwSk9tblh3UTc4bWN2cXNOWFk2dW56aUVKRThVNXJlRC1kdUQ3dF9C?oc=5</t>
+  </si>
+  <si>
+    <t>Boyacá tiene 54 candidatos para la Cámara de Representantes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNTHJpd3J5N0tibktmempSczBtQllveFZKNzlzaE9xOVdHckRhUi1BLTR3ZXZqM0NrMUp2VjYyODdBR3RuQTZvR2p5UnJOM2JjcGFoRjNzOVpEOFA3OC1hR0RFMGhHVlpPd3A3eEt3R1VqZDVrRDg4MmFmODRPLXhuVXdzUmVuVkhWei1tSEJZX1lpNjBSYlFXMWFsdlBrUdIBsgFBVV95cUxPY1VLWjlFeHBPYld2cENGSEo2YmVtVEdsREtwSldYOUhqaE1YSHZXOXdmV1JQUkRpOXZFN0NLSElhaDhPVHNwZTNjdExWSGZmUjAxLWtqeEdpZWRCLU5fN01nZ1QtV0NhYlRoSHU0VDNGaVBpRVM0X2V0Qi11M0dWTGZmaDYwMHhtQk5FdzJsR0c4MVFxay1WYmdMajB0eXdqRmRQb282eDZyMkowOHMybUtn?oc=5</t>
+  </si>
+  <si>
+    <t>Más de 50 candidatos aspiran a la cámara de representantes por el Cauca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdkxHZVVYODFfUy1vWFc5REJ1SVlxVURGUmllQ18zem9Ob2FKaUNWZVRYalFRazJqVlJaOHdRaTd2RlRabU5xdGJfWTd0YTJRb1B4eGxkNFZuS1JwYmE1T21uLVRqbXAtNGRCRE4xQXZmcmo4aE5GaTBFMWVBZ1NyX3czUE96UUsxVVkxN3drTE1DWXpCeFM0MEFuUXdfUlVmaXhYeS1WdWNjQ25Ja1HSAcIBQVVfeXFMT3RmZWU1ZUN0SlpJR05KcnR5UFJ0WXB0Q1VUa21XQVN6YlN6c0xEQ3ZIZ19rME94NzZHOTFVekstZXBOdkJoVUxTcXUxSTBBekMyZ0dMZk1hbnZtYUpJeXB3VTlvdTNodllCVjRBREliWXZzN0NFRGs0anM3N1ZDM2F4MVZURG83cmQwVGNYcjdiRm8tRjZXUDdHanF4Q29CSUpWZU44TXcyM0I3VnVhNXVSZ3ljM1lKejVBMXczR3BZSkE?oc=5</t>
+  </si>
+  <si>
+    <t>Caldas: 5 candidatos renuncian y modifican su lista para Cámara de Representantes, uno es Carlos Mario Marín</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxNWEtqVWt0d1BTTTFFMGRCVWVFNUF1VXBWTkFRQW9GMmVReVVfMHlNLUFTLVRTVEhoUm1zdWw3Z0VobDZ3UEQ4SEY0VTZycFJrVFZGcmtGQ2k4VHlOV1hpNktsWXA4X3F4YlRPWG0yQmpSaHBjY2wzSzRvczVlR1NGVlRveGwyM0I2X2ttMmxxX1Q2R3pYUFVXM0NZcEtsQUlFc3BqNVU5VG1iV09jY2VFLTZPRzBTemFKb0xtMHhR?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo García, cabeza de lista al Senado por la coalición Frente Amplio Unitario: “este Congreso fracasó en tener la jurisdicción agraria”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxPMVpueUU4MzhlYS01NFpaVWQ3NUZuMUVLand1NmowNmR5OXh0TElDRzVCek0zZk5RdmJZYmdfLW1aNFhibmEta25nYmRvRHREQUFHeGVhdi1mMGhEVHBTb0sxUE5iSEJlSG1oZUo5VmRlSjNScVc4Vk4yMHREQU0wMFFObmN5V05Fb3lpNm1tMEZWYnR0WE1wc3pRUFJ0enhoZW9hUmVDc3VoZXBmeW80eTgtellRRzhWT1otT2phMExwYURIUHdQWlhrWDZjdGhGMDNrSUwxMzRfYklOUWVvRnhEYlVHRVlGS3pTdXZsVUR2VGFJSWEwM2NORnZMNEsyRWE5M3lwNF9KeHlY0gGSAkFVX3lxTE5CbXZoR2FoVjFnUC1CbnFwVlp4ZC0xeVQ5LUU1SEZqMXBOLTk0a3dWWHU2c3VXZlktQWEwdzNYRjA1ZTN1Mnp4Z0NCMzBCVmFHaXNTSG5GRmVNdndhYVVDNWNlbXdqOFVkdUpoUEhXYkg0b1pSd3IzY2xDYllTQW5iX1RhZFlJTFF5aHo0Tmo1aUU2aEFqd2ExaWhfMWhlVmkzdnFnR0VzNDhRbFpuTVlEYTc5NUhUaWtxaFBaem5fNlVBQW1UTm5wUWtiSE9uRThVdkNtRWYxMnVNQzMxRVNLYWt2MWRJNEJjQ0Y4MUcycGVOdVVjX0VUQmFreTNOUHUzSzF1MXJZYlhsS0FUQ2dEQXc?oc=5</t>
+  </si>
+  <si>
+    <t>['agraria']</t>
+  </si>
+  <si>
+    <t>Rueda de Prensa: Fuerza Ciudadana anuncia coalición para Congreso y consulta presidencial en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxPdDFlRmZJeUNXeS1CRmtJTGFlRlVMT3R0aThmakdQUUh3UzQwdWNab2h6dkxSRUM4T2xtcG5MTzYtdDBmajlfNVM5bGtOTXR6dThyTkMycEtfajNuUm96NzZpSUxXX3RUYnRKS3VZSDVZU3lJVkloZnladnN0NldHQXRFY1MzM2FDemt4TU9mNFprcXpOS21kd1dfUzExR3NOMEpCYW9NZWNzMk43MjNQelNnRjBScXZreXpJVW05T1RlZW9FeHROal9SOHFMa05ia3FHVnNBaF9OUlU?oc=5</t>
+  </si>
+  <si>
+    <t>Congresista Jennifer Pedraza cuestiona a Juliana Guerrero tras su reaparición y apoyo a una lista del Congreso en el Cesar: 'Es una tramposa'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxNaXNnd1ZfTUNEZ1I1bUZubm9XR3d4Tmp0ZHJkX3ROZ1NJUGZrM0pQNVVmcVBTSDY0akxIVlZCZ3duUXpnejR2SlBycG43ZmlsWm5yRTRLSFQ1VTB1QkVLZzgweWk3eTNjX2VWUVhBZWFIMmlYLUVpUFI5NW1WU0NvUXk0YW1SYnpOQmc4T054cXMycTBjdVptZS1CWlU0aENrNjh0bGhOVTV0Z3ZuWEQ3bTk4dDVCRkE5ZG9NNWNmYTRzdnhfUUMxMVhoYjJkOElZb1RJejNSSDNZc29Dd3NNMGNKQ3Vla2J2RmV6eHBmZ09mQmFnd2QtN1dkTEVwWVVvVDhjbHVXTjA0a3dOTV9HYkc5OWhVN3p2eUHSAZ8CQVVfeXFMUGpWcG5saWw1SmJickhBY3pvT2pWbG1XenRMbThCRDlEU1BuLVhkUmxXUlRyTjZsZDlNRnlzQlI0cnFDal9Wb2w0X2xBQlpGOFJCcEx0M0hZX1hhbXVyeERWTlVMVGgxUk1PZF8zSm52eHVHMEZGSnRyU2l5U3B1ZGhzUU8tcXFWOWctdUlzVlc2VlhnY1ZTdmM0QVVKYjlyekJlTThtU1EwTkNrR0RJTnV3WV9sLXF0bVZjeEc5QjZsMjd1N2ZNemg0RjNQRHB0Y200MTI2ZzlHd2UyN2otakNFYTQwcDByeEY3NVFvVWZfSUhNTDE4c1lQSTh0ZHZKa2hNc012OG9uS2M0R0dzeXdQVUQyRzZyYThqNXhKdzA?oc=5</t>
+  </si>
+  <si>
+    <t>['tramposa']</t>
+  </si>
+  <si>
+    <t>El Congreso entregó la orden ´Policarpa Salavarrieta’ a la alcaldesa de Ibagué, Johana Aranda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxObVZPTlRDMm5WOWxQeDNYTExfYnV5WHNJdVgwOGc3U0hNejF2SndhbXRuYjVZZXFyOGFTeEpDZUlMWDJrMkZHNGdtZWE2UDJxYmMzRXhqU20tenJoaExKb1FKbTdaclFhMUw0R21UNWNOMlQyODFrWEM0T1Bpa0tjZGVhcVdHVDJORjJXWG95bk05RVdNZHhQeDlWU1k1V0dWQUhNSXBFUzNqaC1pSFhTN192OXJCaXFoR2Z5SW10Qi1rZVnSAdcBQVVfeXFMTkktNm9VYjlXYm5Yb1dob2JHdExmY0puUHY0dk1SZ3lyVVZOSE9TZTZLVi1YT0JENFZKQUhhNkxnd0psb09aUlluM3B3UWFVZ2JFZHB0aTlkSDdfODZoVXExbkY2SThLYmtoc0wyZHFwQUJhZ2gyYUNuOVM2WXBLT1ZkTGpXTkxlVXhsU1hPcmU0cDMzYjJidll6UmRCakE5WGRLX2k1dEZuc3JSc2RfVDVmejdjMDJMWjZoZFE3bzlsR2VQMlJPeTMwLWE1QnRQSEN3RndYOHM?oc=5</t>
+  </si>
+  <si>
+    <t>Senado adelanta audiencia para escuchar a los 39 coroneles del las FF. MM. y Policía que buscan el ascenso al grado de general</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwJBVV95cUxOV3h6MGZYeVpTWmlaZjRoZHkxcXVQZHF4YXhSRmhrUkVTNnRhSlRTaUdRRHpMX3dIQnpXSEUxaDdvZFBYQy1pVU5rSHF4TTlwUzhxRzlKeHVJamlRYnhtUjdhZDFXMlZjaUNiSk1WczNTMWxjM3p0R1lQWFlTRzRZcmViMzhyazhfdXN2TlBEWWJkM1ZITEZGSzhqVVQyRVpmNHh5ZEdOZUh2cXhFdzdadTVhOU94RG1DeUpiUEdGdjQtbGdZT3ZuQnZTUHlUOUUyZXh6OWNvQlBibHBubllBSzVkdnU5MnEtVHEtM1gwZlYzUXdpVFJkU1lucHVINFN4SFM0OWFtVHl3cGdLNUVnLWpJbnJXTDZqYkNv0gGgAkFVX3lxTE5vZ1pVWlVoQVV2bVRYYV9ab18xbEd1Sml2SVRSWnUwcXh5OS1iRmVvWXg3YkEyVS02eFhOSklUbm9KdDEtTWkwMk5jU3ZWc21hbDRZcWQxNHlSelZJMUJJZTMxT2pVOXItY0JkempZaF9OQWNiSmJJdmtIWnA0Q19LMHZLR2FnU0EzbUVLWkxIei1tb3p2akp2NDN1ZEM1UkZYVHhiODZ5XzBwdTFZcm8wNkc3TzZ5cl9aeW5uaHRhcXlwLUhZYk05aE13Q0dsM1I1UmgzLTI1WTh1RFV3dzlyZkJWelU4QWd3bkVSYy1aYTJmX21BV0U5S1NmcEktM09taE1WdFJCa3c2R0VISnRUUTJDNjFFN2EtZlVWQ2kzSA?oc=5</t>
+  </si>
+  <si>
+    <t>William Rincón, director de la Policía, se refirió en el Senado al asesinato de su hijo Juan Felipe Rincón: “Perdió su dignidad”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxNVE1xR0hZQlZrSi01SlpRa1lvOTJRSmdpVExLZGNiekdSUGdKS2NOdkdOaWt5VDdkNE1GWE1ybVQ5V19BVHlZZkdxd3A0QnJZQ25pcVpPVVRydURpN2hWQkdfXzdFRHpFS1Y3eG5fQnBuT0tmRjdLeEJ1bkN4d0RDUVBJaDB0bml2ZjBTODljeXM5dFI3NEJhUjBRZEkxU1FtV3p0VVZVZlplbG1zZEI1YW04OXh1bThCWElaX1hpTDlXY3pGekV2QVV3SUpUc0w3bVVCeEJEVTNWY3NXUjQ0cmpPNWtMcVVSZm12aUR3ZEppUFZIT0owcVdrSmpzRjjSAYQCQVVfeXFMT1VhYVRXd3NlNEN2VUhCd0xsM1V5NC1aNWh4em9YY0FPQ2EwNnY5bS1Ld21Qd3VqRTlvTnNSYld3VmdyYngyVi1RZ2VHVFNjOXp3RWdrdFZHY2ZWdVM2R25lc0ZhQlNOTEV4Y0RRQXJERFpaOWhCbm5NbDFQY2ROdnk5bjd2VVQzZ3VXSmJaeXctRHBMeFlOMkI4Y0lxUTRHY09UaFNPYU81bF9GMG5CM0NaMVFadUpMU1BmenVKbVFmOFFIQjYxS05UN3R3US1PX1JaVGdzNTJQRzF3eDR3XzRSQzREWmhBYWotXzVmWjlUeFBrR050RGtrM051ZXdTXzktUnQ?oc=5</t>
+  </si>
+  <si>
+    <t>asesinato, GN, asesinato</t>
+  </si>
+  <si>
+    <t>Senado aprobó revivir la mesada 14 para docentes: ¿qué falta para que sea ley? | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOUzJWNXIweERvZVNHRjNXRE14S2Y2Q3gyY2d1SlN6X0NDR2dwd1BFOFJzOVFiX3NwSmRZUFhDdTV0LTRkUEl4SVVLQ003UmhHLXFVNk44dmhEd2RSSzNhRy10QWJDXy1wdjZhQWxmSkd3WUpEVTZRTjBfSGFrYm5qVUsxT0ItTVhlRzd1UnlB0gGTAUFVX3lxTE9icEZDTXFhZGlEWmxEQ3ExVHRXei1MYVUyX2NJV0JDZWFUZWlrSmVtN0JkUlBGa2RXbm5LbElIbTdDR2EtNnNDcFJIWjEtM2d3ckhHVzV2V3VUWDZwNG9BdnZFYjdZcENwbmc0UjBta01JbXVjQUJrVG1WdU5pNVBJWVg4V1B5b1l1bzFZdEtjV2t0bw?oc=5</t>
+  </si>
+  <si>
+    <t>['mesada', 'docentes']</t>
+  </si>
+  <si>
+    <t>robo</t>
+  </si>
+  <si>
+    <t>Senado de la República aprueba el Presupuesto General de la Nación para 2023: resumen de las noticias del 18 de octubre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgJBVV95cUxOZ3c3TkpPRmN4MjBTTDRXR2d6Y0FZQjF1NU55Ml93aVJ1ZS04VUoxR3VIbXNqNWlCQXhWN09IZS1pSFcyVmNHeko2SGdqY2NpMHB1endoV1NJYXQ3Z0tTeGl3cm1YNjctSlNoZEtlaUR0VDRULVhyVzRiLThpbW54bEhuNzFMdHU3NVNFMFZxRFRfZHRTQ0YwZVVneTJKOEFWbXF0Wkk1Sk9rTld0dlloVXdvVnR6UlFHUGVrbkJCODVERzlQNWwtcjlPeHRFYjFYUXg4TFg1TWNqSVdWb2ZOTnJZNy1lTEtNZFV5YTN4MW0tRzVackFDQmEtcDlpa1dId21ScklMM2RaV1o5VmlNQUoyeWNySVdoMlF0WEdiX0NCcG9HMDhDeENDQmhfSTFCZXpWZm56b3VtUWlSSkE?oc=5</t>
+  </si>
+  <si>
+    <t>Pechy Players se lanza al Senado: “Una cosa es el personaje y otra el profesional”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQRTZuU2MydHRiVHdUOXpNTEpiVnptTTFEdTZsSm1iaGpmWE1iLWZRR1dMZTczMDdfbmxENmhMNUlaMDZ1LUE0eG93RW5JNHZiOF9iQmktSHc2YW1OQXpvcXhHd2N3TjRWaHkxMjA0Y1U1QkdXZ2xuVFB3NUpaSDNoWVBhZDZfcm5yUXcwQThjQ0NmY1Q4aXJSUkoxU2ZHNWdLYy10RDF5N0JkLS1LeGdWOWFTZndLT1hudm45cjhobUZwZUtZaGpHS1JRSjA?oc=5</t>
+  </si>
+  <si>
+    <t>Senado aprobó revivir la mesada 14 para docentes: ¿qué falta para que sea ley?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNVFQzVGk2LUJqMVFkTUdHak9JYjlOVkRBeFVhVDZiR0hXZEVHN2tmZGhnazBhVmlEeGd0S0RsRThGaFdwSFU1dFRXQ2QtSXVKejd0c29WMDZrdkhWSUhqeVdYSEgycFpUcjdTelZ2aWNzSURwRlBHc3M2cE1UU0xNdk8wQTFWZ0dWOTBIU253NDEwTWZHZTBzNkQtdGxaS01Jb0F2c2NQa0JfMFpwd0E?oc=5</t>
+  </si>
+  <si>
+    <t>Conozca a Daniel Gómez, candidato al Senado: un enfoque en leyes, control político efectivo y política pública</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxPSHRCOEtHUkdrTmNPT0dON2ZDWm5TRzdXSEQ4LVlJWHhtczZXam5SLWlzTEtNWTl3LXRJalB4RUQ2Q2c2Vmg3a1k0MEM2VHJoTzRYOHRIa1d6aU15c2I2Y2wzTm9xMXJQMHd6bW1kRmxuWEZYQU9FRXVtMnFQWDg1aWtJenNPbTYwY3Z3Smh0dVFSR3VSdVJxakJKeHJRSmdBWkM0ajM0LW10bmJraGJfSEdqcEdjdEkxbzBOMVg2bw?oc=5</t>
+  </si>
+  <si>
+    <t>['político', 'efectivo', 'pública']</t>
+  </si>
+  <si>
+    <t>Este sábado es el lanzamiento de la candidatura de Ariel Ávila al Senado de la República</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE1ZRXdFVThabFFTSVBiVDdySHpCR0lyV0dWUG9uQW5XVUhIT1ZlaVdlcjd0SkJrX3VDdm83S3AyR0Z4NGNKd0VBbnVwaWtRcEFSNnZkOFhDR3pGVG91?oc=5</t>
+  </si>
+  <si>
+    <t>Daniel Palacios presentó 1,3 millones de firmas en la Registraduría para avalar su candidatura; hizo llamado a la unión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxQdlZyc3VCWkRhLVJjX3RPZWZwOG1ZTXpTdlR1SkU3TWJYanJWQTg3OGNZa3lSS05kamh5RE5fbmNqSVNGLWI3S0FXbXJuS1dfVTdvX01qbk1sTU9ybjhHSmZnMVJIdFBLWUN5dXEwZVF3dGFoejE0TUdtYnJLZHNUcnhYX1hpRmdSZDROTTRhZXFsZnRrdUhONlZSSmRrWGJER0RMSzNRMlF2R0E3dEhTdGxsWC0teDVKNlRBVDkxbUs0S3NlR1RoWk00WkVYbWVqT1ptWjQyMVZFcnVvY3llSW9nQTZnelVqSWJ2b25ORjd4MElXWF94VEpn0gH_AUFVX3lxTE0tamJZZ2twa3dQcXBZTWtPVXd1Znh3RnBWR1hrU3dkZTFPcDF2VmE2S2tGVTEzTVRoMDhoaGNoTC1vX3h0WGw2R19oTDRaTXViNl9uOERTMU9tZ0I0eUh1RENCdm1YN2ZlNkNNQ29XWGpobDk3SjVSVHBXZ2RrZjI5dEkwcHZzaGtCaHJPSXNwaEN4R1dCMEtuWUlfWXB4aXVsV3g0Z25ZOHpKczZZT1R0SWxqUlU5aEkyNGM4aDAtbWFmajRZb0RkVXktai1OSnZHQmppMlhGbXBHSWpEckdEcEZQejR6NEJWdl9vSlFBY09GNkhlRl8xbHo4amdfZw?oc=5</t>
+  </si>
+  <si>
+    <t>Daniel Palacios</t>
+  </si>
+  <si>
+    <t>Efraín Cepeda cocina presidencia del Conservador para atajar a sus rivales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxQbERXV2dWelBxNlVOeXlxMDBqTG9Rc1l5N1VJTkV5T3l6eGs5cDM1bngyNmx0NmQydG9NOXFMa2RFOHRDakNVRGtRX3Rya0pfd2xLYS1Ib1N5LThaSTlYYjFEbGpKRG1LTzk1ZWh6Q183aUpvcW9GVThXcmFacXZxSHRKb1FnOXRndnVDRDdMU2lBcld2UzhpLVhHS1BrNEd1SmFqYy13REpqMmZ1UlRoTE9B?oc=5</t>
+  </si>
+  <si>
+    <t>['cocina']</t>
+  </si>
+  <si>
+    <t>Efraín Cepeda se perfila como nuevo presidente del Partido Conservador tras renuncia de Blel: el martes se concretaría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxPWk5WQV9JWHd0Nk8xTTlrbzZJa0ctUEhraFJzek5aUjNMOXFYSVROcFlXZXBoRVRlZnUxbWdvYXlWbjBKU0RVWGFBR1VydnJtSkZHMTRxSTNSU3RwZW5lSV9PYU5nUnZJOC1yZ2M3QUI0cjBMYVduUElxQjZBQlFoSGc0a0ZybzJrTDZoU3ZXc1RTaGxaYWdVOHBZeS14ckJkTF9rSk5heWZWdGN3TTlPTHVfU3FIWVloNDRKZnItVnZrM3QxdnpKWjdwZzhiSVFwNlBLTTJGd0tZWVdkcEFIdHZibW9NYUZYLVhLZnRR0gHuAUFVX3lxTFBZclNEaXdvUHNmSE5Tc3RnQUtody1oeXc5bmZGWTBYMENMRU16bU1GRUtQcDRGRk9oRk9DZzNxaG02dU5rMVZJUGVoM0d6OTZYSTlMVm4zQ01tZkgxcWFBLWctanNKeWo4TnlzdkU3RVhULWhicmxJNk9xRTZXcHhMeDdlNUNXOF90MWViUTIxZlBXTG0yZFJ3ampobmJoM2JMUW1SbktVLWw5Zl9kTG9oSXpoSHNERmR6VlpaamFEUXQ2TFFreHVLMzRPU1ZXcUZlSWlXaXpCVmh6Q21QVGRobVVUOG9vdm1QYWJyTVE?oc=5</t>
+  </si>
+  <si>
+    <t>Efraín Cepeda regresaría a la presidencia del Partido Conservador tras sorpresiva renuncia de Nadia Blel: esto es lo que se sabe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxNM1NhS0kyQUU3eVBNLUl5N3BzejhpX19pNzhRZ29WSVJNQ0F2cmpHWkgyM2VUSGc2c2lQd3BITVF1d0dYTnNBTDJMY0ZVUVdtMGtELUhZVFVNb1NjY21wY3duMHJxNVdNbzNBbEpHTnJuVW8yZUJNcjBtNl9EWkpjMFZoMzBKZ045T3dfY1hTdzJoeWw1SnJmWkRKZklxSEp0Q2JNTkF0QWZ0MTQ3MEVNMWhGUFFDaFZZNktId25wMmsxSWotLUJGalFVYWZIUWtwakpkMWVoZzdKaVFLWmQ5TmttbklmbndXem1kckZMQTkxdkxDaEhNam5YTzFwYVhabmfSAZwCQVVfeXFMUE5zdExNaE0wbnJuamZUMWNsdEhXSHc4RHJ3RjBENDJxYWdzbjNQOWgxUEM5MjFDcTdhRDEyTEZCLVZkSEdXMk5nbi1iU0ZNQnU5MF80c0Q2NXdibDFFRkpZYm1nTkRDcVpwQUVWUUNjd05qMW1QaFc4N0NZc2pXVVZldWJrSV9oQzdDZUVuRGxvZjlxbEF5MzZYOFJnRVVibVRDSlhtLW1mS19zVnROWHRBc3J0cTg1aHdIQS1qTl9iTlRPT0hxRFV2andDb1hSTHdxeTZ5aHQ0U3ZXQnBzWHRvSWJqTDhSeEdHU2ZPWVQzTzlGa0tIODFFX1JZZHBWN3J0RkFQUElaelJjYWpoYlo4Z0VSRDNFS0ZmdDU?oc=5</t>
+  </si>
+  <si>
+    <t>['sorpresiva']</t>
+  </si>
+  <si>
+    <t>Habrá ley seca en Bucaramanga este domingo por elecciones atípicas de alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxOS1dQcVJ6OXJpN1kwcDRLR0NqcktfWC1ldzZRUlREVi1nWnBPdEYxZUhPajNSdDh3eVlMMjJRd245ZVNYVVBmNkNEb3FTRVJQYU1ELW1DOXM1b24zVGdBaWFreC1YNnJMbHVVTndOS1g5LVVMR05JRmhDeUhpRGppNkhOSGJ5MkhZTlNUU3Y4NzM0ZC1JVkVXV1pmWGdDODRKRV8tZWczdUJNS1RZa2hBTXdKYkZpMHpjbGJ4akVSZzgzTzdmbV9mOUhfMGJfVDFMek9pQUZ0R3hCRDNDbnfSAfIBQVVfeXFMT2tyZ2Q3YURaWDNrRTRROEowaGxGUWV5cUloS3hKdWxOOUdkWmRZZ19NVENvdUZiS2l4b0xMdUtXZHAtclh0SzdqbE91MmVnSUdCV19lVkMyM25adklETTdyY3BjcWl6OFlacnpabjFuYTB4WFJHdHZiVnhIOHF3TXJuSXRYQ0hBZDBCT1FJSmdPdDlKUGpUaHhBa3A1NnI4a2hnSG5NcEdjY3dYd1hZU1VlNXp6TzFlSkI4SkwwejV1cmE4c0xaYVZrRmFpcjlWNzhIVE1aUk9MWm55Zjg5SUw2dzhQaUFqZFhYVmVjenR3OFE?oc=5</t>
+  </si>
+  <si>
+    <t>['seca', 'atípicas']</t>
+  </si>
+  <si>
+    <t>Bucaramanga tendrá biometría facial por primera vez en las próximas elecciones atípicas de Alcaldía</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxQdFNNNjFZdWV2VjhzZnlUVnJtTzFjdXQtS0tXaGkzMUxONVZnVVU1eTNoYnNoZVV4VE9wNlVaeExhSGR2bUE5TEkza2tnbEFWU2FuSnZRTnQtdlc1TmROV2QxQWZwOHp2RkU1ZE43VTFMRkpiSm1CYm1ZX1pfcFcwV2lBbndac3lCS08xYzZVZWhOXzBDZWlXMnN3WGZ2LXdWbDg5VlI2clcwbkFSajNoWWNkWVVGZWF2dzA4aEJkLUkwOHJ5UjhTQ1BBQnBRY0E4N19yREFxdkZtMDBFWi1ualVlWdIB4wFBVV95cUxQdFNNNjFZdWV2VjhzZnlUVnJtTzFjdXQtS0tXaGkzMUxONVZnVVU1eTNoYnNoZVV4VE9wNlVaeExhSGR2bUE5TEkza2tnbEFWU2FuSnZRTnQtdlc1TmROV2QxQWZwOHp2RkU1ZE43VTFMRkpiSm1CYm1ZX1pfcFcwV2lBbndac3lCS08xYzZVZWhOXzBDZWlXMnN3WGZ2LXdWbDg5VlI2clcwbkFSajNoWWNkWVVGZWF2dzA4aEJkLUkwOHJ5UjhTQ1BBQnBRY0E4N19yREFxdkZtMDBFWi1ualVlWQ?oc=5</t>
+  </si>
+  <si>
+    <t>['facial', 'primera', 'próximas', 'atípicas']</t>
+  </si>
+  <si>
+    <t>Bucaramanga: ley seca, restricciones de movilidad y control especial por elecciones atípicas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQTGhsSE84WkxDU0E3bGZ0YmVfUHNBZ2ZDNkF0WDhpdmVoQmZJY3QxcXVlWjRhQ012RjJjQjVVdTdId0dfY2J0Rl9lem9vWDNWRmN2Y1FEeURIOGZQbDM2ejNSd2F3UFM0cVBlY2l0OGtxV3pOQ0xZQ3pzblFMS3hkaFRDZDV0dmJtRmNwSzBwcTRSTW1tdkp0Y1JQdzUxS2hIblFrUEI5ZExSTkZRM0RjNTFucjFOQjNmeGotU3J2c1pBejTSAdcBQVVfeXFMTTdlWTV6aTNTRV9IRTk1a1ZMcVVHNk1xVGtzdHBzbVZ2WnhQLW42WDBfRzNVeXpjUWRUQVUwbGVOZ1ZZaVUwMURLc1B3dF8zeHVOWE1TRldYbVFPMHc1QlRWZFhYTU1DMmNMdmt2ZTFFenVsR3FBV2s4ZVNwbVE2VGtyTWJXQTJ5cEVKbVItcGJEVGpkNkpNbzhWT2tQZVk2OXRJc2V3RDdRZ2dlb2NPYXNiZDlua0JsSlRaVzFxX1oxTDRPYVNPUE9aTzJhcnBKTXg4OXJtbXM?oc=5</t>
+  </si>
+  <si>
+    <t>['seca', 'especial', 'atípicas']</t>
+  </si>
+  <si>
+    <t>Bucaramanga está lista para elecciones atípicas: 531.239 personas habilitadas para votar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZjBlUmlyNHNES0ZvMTdsRmxOZUVMNURIeGlPd1VOWVE5YmxBc0djV3JCMThYV2s5ZGlxdkdpMXFjeWJmYXo1OEo0cHVjelVxU1FCMzlNMFpBeC1uS0pxcUd0UndmYy0tUGJmaTBNakhRVGlQQzZMOWxHXy1sRzhVTUdLb3hCRXQ0TzgxdkQzdndieHZGbVFtS2VNdVZNaEZPRVNiX0NCNmFDa21McGUxWWFFazFaWkNpb01iOUtuaklrSWMtX1VrYWZiQlV6Ti1lMmZBadIB4gFBVV95cUxQQXlDYUdGNGkzc3VvcFpGN3FtSXV2TTlFTHNGQlJrZ3QzTWQ3NTZUR293RTZBcGc4bjVCcFJ5S2pRRDRiOXoyYWlSMms5QlF2ZFllbW03NEVFQ2dJaExveG9RWDJGVzVEcWY4MTQ1cG9BYi0zVmtrbnE2QkRQcWo1cTU5aEtTbTl1SkNkOTk4Tmk0OUVuOXRaZHZUeXF2eXhfTTZSTlFRdEZzUkRuNnVBUlBDQWNtNFhpZGZhNTJtdXR2bmlVVWdWdXktMlg1bTdlbkJhYUhHeGZNTmN2MnBXbHJ3?oc=5</t>
+  </si>
+  <si>
+    <t>['lista', 'atípicas', 'habilitadas']</t>
+  </si>
+  <si>
+    <t>Habrá ley seca en Bucaramanga por elecciones atípicas: así será la medida</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPdHp2VE1EYlduaWIwTFpKSEdoZU5CdENfbWxiRGl0MVR5TTBVMmx3ejMxcTQwNklhTFA4VzZENmxTNi1hUWExbTVxYzZVak1rdENZc0ozbVhTQm5rUDV3Xy1CZXM2cUhvVWJSd25OdjBGZXRWZVdNWWl2SGZ2cDdlQnBYV2d3ZGZhZ3BsNnZ2aFA3a01FU0NtczlhTXg4bDVOYjhwZjY2cHQzMEJaczdNQnZBTS1HQUxHXzBzaE5Nb0LSAc4BQVVfeXFMT1dheUVwdm9FZ3J3Q2o0R1VKcGJaVWFSQ0k0RTZtNkM2MU12N0F5clp0MzdxZllpd3ZuaVVvUkJmd2tMZzhkcUcxeWc4VXJFZDlJSFVrTlhUSWhSMnY1VGtIdlIxNVE2SmxoMTM5VkhObmY0eHRNS21RdWVhRnBsWmJNNE1tcTRjcklfcW9oZlRCNzhUQ05PcTA4UVM3RGNqaVIwU09IZm9tb3ZSVnYzS3ZMNUViNlNORmttVEp0TG5uOXA4dDdFNnM5NFhUbHc?oc=5</t>
+  </si>
+  <si>
+    <t>Los colombianos deberán elegir entre más de 3 mil candidatos en las elecciones al Congreso en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxPRWNfMUVVVU1kZmZEYXlXSkw1N3ZPMnlybWZ2bGhBbTVyZHdwSXRxNjNqQnEwRkYwYUdNcVdpb0NQSkp6bDRDRGtmVHVtVFQ0T25Ua1lKekpyME04dW5Sc2xON0tCSU1Hdm5YaTFLSlR3MEpxenRpejVfNVdGdUZQajMzRTE2X2NqRHVzREhhb1hvVW1VMjFldTRlQlVISUdxRUFmUFltbko3SEFmbVFpbHNqeWFpRnUxZFBTWkQ4bUFUREtU?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: ¿hasta cuándo podrá inscribir su cédula si vive en el extranjero?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNb2xMMmFGR29KWngyTU9Hd2cycGNzQ2h4Um81T0xSenhnWUNCb2d4d08tMUsyanZ0NmZfekE0elphd2VxaU5ma29JTWNJdndldXBMQTF0ZnlhQnYwWUd2aXNydkhWa010TUhDRnZPR2VnU3lyYmczbFhweGNuWlRtQ2sxSU5EdWwzTEktVE5jSW9UYjgtOWJ4cVdrcXg1Q3Y5Yk0tbzJUdU1xclhFaFJLSGg2MNIBswFBVV95cUxOQko1Wm90ajhqT1lPNjBhUjhUdGVjTHV4UUZ5N1JUd3BWRzRnQzRTTjZVTGVicnM0Z1hUV29XN1RUTnNFTXl4WmNhVE4ySWw2aUlwTFFvR1dHSXZzcGw1eHB6cXFJT19mQ0w1UlMwY1k2cjUxN3IxUmpZYlZsZHdwWnNNc1ctd3c3ZDdMeXQyRzk3MmppcGhvbGtwS1VnWFV1a1J2NEQzZHJRTTlESjhUakdaUQ?oc=5</t>
+  </si>
+  <si>
+    <t>“Lo que se controla funciona”: la fórmula del gobernador de Santander para la seguridad en las elecciones atípicas de Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxNYmpLWXNjRWdVRlJ0MmJNZy1wYl9vWW41LWlGYzFVcUYzNnBEdGIySmtkTmdoN0lVQy1nM1dBWmpOQ042U0RkczRtcjB4aUEtcElTR0xIWXBnUnlVQXJtUlNLX1JmdTRralpFMTBub3h4Nl9Ndmw2cFQzM0hoY3ZWWXJCQUItM05ZRFFZakFZSzV0TmxxVjRUTW9MYXZZWHV3RTVueXVSdmo1Z3dQaF9sbDVuTkxjQ0E2LTJ2WVd5b2pLdUs0dXNQNTBCVVViTWpFaUUwbEpQcG9GdUI2QVFxRFBla3RhOFVocEpvZW1xbm1hS1JzOW9RSk1n0gH6AUFVX3lxTE5qZXBzQmwyOXZ6WHhlLWNxMXVDVnFFTDNlOFVCQU50SW1sLXZBVTFrLUlvX2k4ajFkNlFkVVI3QURnd29NOG5hanVYbzhkWFQ5WWNVV1U0RnByVXEyOGhHbkpCa3VRM21oVGh1R1Zkak5LOHMzRU1RTjE3TWs3UnBwSk1feTczR1ctYmxFQ3hfaG1VRnYzN1lPZFg5X1FMcy13SVdsZ3c4WFphbXJhNko3bEdKdi1HbWxqdG94ZDVFRDRianNRRkNIMmlNSUtHZWg1LVZQUEhjczBuTkg0STNBa2oyakxlbWFUcFVMUkV6VHZReW0yRTd6cVE?oc=5</t>
+  </si>
+  <si>
+    <t>Elecciones 2026 en Colombia: este es el plazo para inscribir cédulas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxPVUNTOEd5ZHlHMnRoS05EYllFOXJjbHBqYWZNYTd4S0s3Wkx5QmVwWkl3NnJNeW5fTnpfLVlGWWtvNlNGU0lzV1hxZk80MFEwNHVMaHN4dU1iZ3pFZERVU2g2dVVDUGN2ZVlrY2ZmVmEwcFA2cGJCY1RyWEJyUlRHTkRYSFdNUkZMcURr0gGLAUFVX3lxTE44ZTZpTXQ3blY0WFJVbVZ6X1cxMGJjbjAtQ0FVem9RUTgzOTZRdThGZ1U1THh3YmhMUTM4aVVhMExkc3d2LU03TnlrUkVQaE5zTmRpRk9jOGowVkhRVWxac2tBVFlNUXBHVEFrVE5ma0h6V0dJSVhJa0JwUFpZTy1EYlZ0b3dZSFZsaTQ?oc=5</t>
+  </si>
+  <si>
+    <t>En la antesala de las elecciones atípicas, “No soy un salvador, me considero un obrero comprometido con recuperar a Bucaramanga”: Alvernia Alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAJBVV95cUxPSUxycWJvM09QeW5iemI3bFFheHUyb0RXSDc2eXVFX1pnRHVua194bGhTZE9PT1lOcnZmdXdVM1Fidjc3eU1yR3J0SFBfMWtDcHBpTDQtMVZUYTl5QlhMVktXQklYMHJldVVRZGRjQUlSU1RGQnRFUUNqdktoaHZsVXpmYmFFX1ZVYTQwcTFSRl9VM3FFQnIwLXpTUzdJQ3BqeTZaYWJTc3lNU01TMFI4ZEpzZjQ0WVRhT2lJMmJsamc3SzVZbEd1d2dOWUU0RlEyN2hlNnE1RkFrTEFSYjJFczlhYXNlSlpBdlBYVkJQc0xfSnhzd2VoSHk5SEtQWlY4bjF1eDZCTFlqOENBcmFFcU5CVzNKNEs1RmY4REh2WjR6RnQ3dlpSTQ?oc=5</t>
+  </si>
+  <si>
+    <t>['atípicas', 'comprometido']</t>
+  </si>
+  <si>
+    <t>Encuestas seis meses antes de elecciones presidenciales todavía están crudas: Gaviria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOZjdIczJqRkVfX0tudHNuTGFGeC0yOHg1UWQydmYwQUxVcUpsMzZDMWdPTHB1Tm03anZWZ1doZU1jYUQwVUQtY0ZFSEJjVVRoN0JMZjBCMkJUYm9IeWhfNEhJZl9rdDBlUXJsTjBSTHFneFVxVW03ZDFjdEdMaThYbk1XUEdCT2xqaFJhanQyUFpLYWVsSWpaWFEyQWRiVElGWUpVbGJ2QWdOaVhLSmVma3ZHYjhOQ2pETTZFZzlXdVFsNmRkMlE?oc=5</t>
+  </si>
+  <si>
+    <t>['presidenciales', 'crudas']</t>
+  </si>
+  <si>
+    <t>Elecciones Bucaramanga: 88 puestos de votación y 90 mesas con biometría confirma la Registraduría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOU2VrUzdUQThiUkV4ZU5hZUcyUDlSWlpFdTFOS2Q5TTdZbnNCTW94YlFDcnliRm1QbldnMEhpU0RGUzJaaHU4Q0pneTZfaVFEZzJhSE4zd2cxbVZOVXFSNU1JNjZXQUROZmNtM3pwUktobUxhQmxWUW5xOVF5elFrUDNFdXVVTzRNZ01CeFd1eXNtem81bnFlZGl4bFVQLXM4bUdTRzh6OUk3aTN2WlR0Mms1T3EzejZFYU03RHRMTDFXaEtiMlEybUFJNNIB3wFBVV95cUxNUWgyQVdBVmJZMk16RU1oV2dYMWRseFJXcG40bzRvREVKUlFNcjNiZkQ5aUxITWlISzZvUmlVSjlQR2FOb0VORi00VnBsVV80SHphNWpBY0QzX0s0djdDM21jUTllM1VVMTRyMFNxMk5tdDZNQ1B5VUZ0aXdxMWJPeUROZ3dFb00tbVM0ZDh3NjMtTVBqMmh2c1RzOXY3WVJIQzhVa0lwUWVjS19FWW0ydGs4NDBCYkh2YWsxM1cwWmRBd1hxcjlncHB5bUVhVFktUkp4eGtFMGhhSkFYX1Bj?oc=5</t>
+  </si>
+  <si>
+    <t>Casa Blanca de EE. UU. dice que no conoce la invitación del presidente Gustavo Petro a Donald Trump para visitar Colombia: 'No he oído hablar de eso'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwJBVV95cUxPb2pqWXI4SmhnU1UxamZMRFkydXlwckVwRkU5RjBZbDM1Vmd0QlU3cmN4YWRsX1BRRlNnU2xjMXF2T29xancxVWRNcnB0VGktN25NVllkZURtTXFNODF4V1AwN3VEb2pnRmNFd3ByMDdOc3Z6NXhSUDVKWFNSR0FzOVFJU2g1RXA2YXp3THNVRml6SjZFUlRxd3ZEZGoyZ2NBZ3BLbEZVS2l1aDJXcUNUa290U2Y2V2R5VG1FQ1dFbzRCTW5fN1F0WFBxVWVhMmdSdlhyQjh1NHdWWHdIajhmM0ozWlhWTG9yVkRoa3o4R0FzX3RaeWFVcVBfek5FQjJnMzQwNGk1am0xTGprSHBuLWgxaHFjY2PSAZwCQVVfeXFMTm1FcUVmblhGQkcwTGNaMWl5cDNIRVdGWFFPaXZFbHE4bDZUS1BuRFJYRkJZa2R2bDByak5kbHdjS3NlYmdoVUxpRkp6N2dSOEowN0ZNYjdVdUJfeTU4VmtKWkNGU2JhVXFjMHRlZXJiMUJMZTllYkNEdmdmVHdxTVZTNUlzSV9ISzVNWW1DcUZ6VUhtNXZ3QUd3Z2lrbjF0VldYOEtwSFVJbllqMlc2Wk56NDZ4bnA0RUE4SjNuVFI0SE5ha0R3cDBSbktidWx6MFM4MVBKX3lLbzViYkFVSG5tN1p1NnloOXJrYnpQdDdNczJRb1FKdFJ5WllvZ25ubzRtQTBzZ2pqWmE0aG83ZTMzXzdiTmtaLXBjLWk?oc=5</t>
+  </si>
+  <si>
+    <t>El presidente Gustavo Petro realizó invitación formal a Donald Trump para visitar Colombia a través de una carta: esto es lo que se sabe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNT0o2MlJOOXdsMFZkcTdGdERxUnhJTEFvTm01dm5VUmNEbXhSckZsWE5RTE9maktmRjdrbERKX3hKbXpPWE4xbUd6czBmN0p6ZzNOQzhqLXIxN09iT0JCUjdiaGhxT2dvd3M0NEF6eDBqRVpjRlBIY0FwdWo4UW5uZVJJQWI4UW8wd293RzF0Mmttdi1Nb1RJX1Atb201SGNfX0QzUkpzUUxMbGFjYndodUZR0gG3AUFVX3lxTE9rNjdVZGdrTzFxVFh0bWx2M19YWC0zMFBwUmlicF8xSS1QaWNkUGktN3pqVzlFbmpEUEEyeS02dHFxeXA2OC1nSDhTbmNYSG12aWVndU5IZUljMDctX1AwS2JhRmRPbHJBT04xeEtDMlF6cDVueGZ5NmtUYVRZWmEtaXh4VEtHV2pSYk1ieG4zMFhqLVBlZC1DaE83WXBHb1RPeXZBR3FUNHhmSURYOWNaM1ZlQmsxMA?oc=5</t>
+  </si>
+  <si>
+    <t>['formal']</t>
+  </si>
+  <si>
+    <t>Congresista estadounidense Carlos Giménez responde al presidente Gustavo Petro por mensaje sobre el narcotráfico: ‘Va por su socio Maduro'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxOWnZKZ2Q1RUZmb3o5Ql9rSjMtX3RzSVZNOWZQWWNlRW1TTlBxZ3NwcmdnLWc1NklwbDdIOThZQTk4MVAwY0cxUjNEWUpHZXhHVUlKV3JMdm1SbWpIdjcyZTNBV0RxYXNkWnFBZjg1dHQ4MTNBQnRXTFFmMkxmYTEzYXduZVBZX3FHb3hLQ1VTTy01WXBEaVRkNVM1VlkxUm1PcGJINmNab2ZKTnR1dkwwQmk5bFlOVERqVFdQcnZ5R1NDUzFDek15cEJLXzh1M3ZMeDVqQWVhQlZGMUhqbnl5NVo2RXZrSmhYTUFSbF9NZWZQUmN4VFRaY1lSeU1IZDZ6QXlRVy10UXN0MlNJX0ozZ0txc2bSAZoCQVVfeXFMTTNrZE0wdVV4YTM4UnJmRDJmeHZDeXVncDdfSFNQd0x4T0pJUjJBaU5RQlhodUdkOWZPOGgwMlZpMjlKYm16WmtvNDJDUmVRa0NDbTRPbk1fc1FYSEdZaUl3elNxbUp5N0RPNGpLT0JNWWowbjNkam5ORktoak00U3lxanhtSHZmMlFGeDRfekVQRmlfalotNmZEcWMydHVtSkZXVnpaQ3hqVFRsREpNSkVYX1Y2RWJqRXBKZllVWWJpVHBaSnY4bkpQengyb2xkTmJrLVZmTkJKbWdzNV9kajNVSUk0Qjd4NVdsRFVzTTdWQk9jWFlac3U5OFZVbDNBdy1DUDJ2ZzhFX21mVklETEFNcVZhNWpKTTFB?oc=5</t>
+  </si>
+  <si>
+    <t>['estadounidense']</t>
+  </si>
+  <si>
+    <t>duro, narco, narcotráfico</t>
+  </si>
+  <si>
+    <t>“Ahí nos falló Benedetti”: el regaño de Gustavo Petro que tomó por sorpresa al ministro del Interior. Este fue el momento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxOY2lUanFQQlNnN19fakc1a3QxSEpwN2pWcjlmTkd5X2VGRWk3MVVMekh3WVRXU0RZV2dsamhTQkU3cnF0alQ5QlI3NFo1WmFpUDFqVW04VHVsZHQxRUViWHUteURTbmxEQnA2Ti1pWGJpdHlpaGo2Qjhyc3ctMlRVU0NqTE9kdHlkUEV0Mk1OTTFCU2NXRUdETS0wV2lmcWZfaHpKWjNCRzdpRU9FRy1TelplclA3bzB6OGwwY1piRWRhVzVoU3pldEpwMHJibk4wYTBUcTdlWGRFdWJDRlNLS0hFYTBDelEyQWI4aV9qeTZCb3Y2MmJIOGhB0gH_AUFVX3lxTE9YaWxvWHBMMW5aaHk4eDBqdGwxcHk3TV9GQzdvQWJERDcxcVBDcHhyWUpYZnJUNEZMZmRXdFlIWXR3NnN0RnZOR0NXbDhmS0JXVHZGSnFZTzJockd3ZWlkeGRwUEdlVkJZVVY1Q3k0TUZ4Qlc1ODN5THdQWktqcW5HbWhuRUQyZjgxWVRLejFfWndXb2hWelhwTVdNMXJaQkVjSmhUYk1JS0twSHdiNnlXWVhveUFPc3NUMVpTYWZOYmYxTEx1LTlleENWZGxtV3BqWUdncnhmX1haNUpNWVZTWkVlekF3QVc5MFJIY2RfMFdlZ3ptVkxaZS1qS0Vwcw?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro destapó quiénes están detrás de que el Gobierno de Donald Trump lo castigara drásticamente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxPZlkwOWg5V2RhRERiMG5CSDU4QUprSmp1WHlyM01hRWpvR3JlaEVUSWxSOUZFc2VQUi1DNjJHODNsWUFlbGZ0YVVEaUcxbkx3Rmh1NW51Vk85VjR0RFRTbXZMNmJkazNJNFppbml3Q1hKR0JjTFBQYlhjZWJaaURsdG16Wk5CZy1pak9WMG9fbEFlUVZBMkR5bkl1NXRLR0NSN09RWkJVbE43NVU0NnlscUVIdG5RRnNyc2VCdnlUMjZ4R3NFQTd6YmRNY3JrWi14eDVJUnd3cjZ3Y1pkSmV4WGdLUEfSAeoBQVVfeXFMUE9kc2xrMDMzWlRIeWhBa1E4TVNxSzdieDJCQlRhQ0JPU1FxQzJvMDdmQ1dRd2NmSjhxbjNiRmtGTnFFbGROd3EyM0p1alBUQXlvdFkyVGpiOHdwR3lLU011cERFem9IWlByT3YwOGltWG5mdjBPZ0RERDE0bWtoR19GSFF2bXNOSzZzYUtJbl81VXhvSXIxZmduWEllM1N3WGZ1VG9hV3BGYUE4RmR2djFuR1VNajk0M2hVVnRrbnhldW41akhtMHhFWUdDRTRPQkdIMlRybFZKcno3YU00c21SQjhNQkM3TFFn?oc=5</t>
+  </si>
+  <si>
+    <t>La Casa Blanca se refiere a la invitación de Gustavo Petro a Donald Trump para que visite Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxQaEVYUEUydHZyX1M0SjlraTNaMEpXTWc1QXJ2dXJka2VMX3gzY3kzUWQzVHR4bVBPUk93akZYT0JXR29Ea0xPQXFvWEpJSUxJNFpjMUFJdjdWTWZPMzF4all4NHVoQzZVMW51Zm5qWEdtSTJ1dENUOVhSWW9nR25YNjVCaklrd090ckFPSHJKY3hiVEdUMHlnVGd2dm9lVTFfd2N4SXZKSm12dHM4QjdvUzRhYXMzUlNta0NMU1RfbEVldU5PZkNDdTk0aUhma1paZ0ljeS1jRkljeHRu0gHiAUFVX3lxTE42ZDNFLUhnU3U5OUxvbGdEeGtGaF9oTURzRXVseEdkZnZHOThLWDZ4bV9tR1luaWZkLU1GMUtVMGFQdVJ3UE5UM3BZQXU1bkREZHd3X3FzR2s4U1hEM1kwV29aUUo5bVJndncyNTZhVVNVYnRQQmlIaFVqY3lSR0lialdTeTZDblRNVXg0MzRJMXhMcUc4a3p2cGdLVGFSQUlkZmhJZW1VRi1hYlE5bTBPX3JYc2RlSU1zZFc0bEJpUFNzTGVjcndvWlFDVXRZZjlwSkZzWHc3RFJSU3NVR1dpRXc?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro habló del fantasma del “apagón” y reveló las reservas de energía que tiene Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxQYVBHT3kwSm9JOEFMRURBZ2huZHZ6cnpvVGd4QkxBLVNZUU9LMV8tbHBIanNoMzJXb0EzMG1jQVZFRlA1V3hPSXBfeHJRNE9NVHY1NmJwY1MyVHRPYkJVTzJDY09iRzdZZDJMc3Y5ZnF1bGdVNHR4ZVhjd3g0WU4zckhHeFF1djZ5bHNiSk1vUUhrZkpEOGxPektfZnpISHF1RUR5blEyeTMzZWtFWlpxbXFKdGRVNFpKLS1uSFNmcDBOSWs4aG1KVHg4b2l3dzYyM2NvSy1UeDl3Zmps0gHiAUFVX3lxTE5SX0pKNmYzOWZzQWtpMTNtQ0psSndxbFBjY0pxenFELWstaUkwZkZ4d0lxVmdqZXNoNkEzdG9kcG1DUVYtOTdidkdITGMtUHAwd0hRT041NlV2b1RrR21rY01BZ0xsYjJEazIzbVhZMW1qVldOR2V4dnpodGJWWE5TWDZuVDMyelVGeDdNa1l1dFZaMnZobzMya084Rklacm1oOExkVjJnVmhHa2pueXZXcXhRTGVJN015SlV4ODE4V1c4ZVNZVjY2Vk1OMkpmZ1k1WWhOaDNibXBTb1lLU3lrN0E?oc=5</t>
+  </si>
+  <si>
+    <t>El crítico aumento de homicidios en la costa Caribe: las alarmantes cifras durante los tres años del Gobierno de Gustavo Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgJBVV95cUxPZVFfaE5YZ2pQZGREUWpjenRsLXlxMmRaZVZ6YV9kTFBkbTlsWlNpVVVJZWw1bmNGQ01KcE51aTNSZ1VIeVU5QjlSU0ppcDlsazVvVlIzTDJpbGpGTFlKeC1hUXdRbG94akxvbnhRMENCMHlPRHE0RzVOcWEzd0w1Q0JlcFFkd0dGWkptSURzT2pIZ1l0dW10ZHh5dVBVNlhEb3pFc0ZnT3d3U0x0ZU5JMEdXMWluYXR0VU9rSlAtMFpZV3V1cmNBWWI0blVtV29PTzIyQVR4QU1FMEp3TXN6SWtTek9CWVBoa21KdzA4YXVwVExFV3MyRTNwenRiWVhkT0RIeGpCQUNTWUFXSmNRYkhGVW5GQzl6VGxMZHpaNEdsQy1zR1E?oc=5</t>
+  </si>
+  <si>
+    <t>['crítico', 'cifras']</t>
+  </si>
+  <si>
+    <t>homicidio, dura, homicidios, arma, homicidio</t>
+  </si>
+  <si>
+    <t>Gustavo Petro nombró a Armando Benedetti como ministro de Ambiente ad hoc</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNaGtteU1FQXBfel9UX2lFWEFBaUozMnNKbXpWa1Z6N1NVQUdMdTRHX0E5LTdNLVRfQWhhbFJrWEdIWHVuTVF4QmplWmREbF9rVTBpZHVHbWxYSFdmeElUN0xhbmtJSW5CRFMtd2s2TXdwdjhreURxNGZCclByVWJXY1VlcGFoUDZNZm1SSnJkZDFORXhDZ0FweGxyNGZGUTVIRWxFcTRnVXBfc0VEY2w5cXZfM3phbHVRbXJ1c0IzSHhSazg?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro ordena extradición de alias ‘Pipe Tuluá’ a Estados Unidos: la razón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxQLVlObWRKS2Y1cWdqR2JHVVliSEJGZmpSU2NjQm5JVGIxc0tvcDB5dzFvUTBsN1dLdzFuWnNNRGNhSlo0R3hIcVpJLUZwSWF6OHc4bExkZnhEbVFuZzl6M1ZRQVFwZ2ZOQTM0d1E0WWlVUHV0Zm9Ub1dhcFZycFplMlUycW5WanIxMVBRLWRmWnRBS2kyQlNuOHJwUEYxbTVFSENlRFdGTnBuR0pMQnQtWDZzQ1M2bWZrUVl5STNpQng0TmdNMFVtRGF3?oc=5</t>
+  </si>
+  <si>
+    <t>El fuerte pronunciamiento de Gustavo Petro sobre Venezuela: “Falta democracia”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQdWpfeUYxMWlnbTlYcmxhS25sbVlOa2h5bFQ1d25LckFPTUFYLWFVaEZCMXJKampGcURtWHV1MWRJbndWZmo0bEtFVG82QTZxVnB1QW85QzNwSk1TTURPT1RFbDNhbmdNT2ZVUkxETEttUTZrNUd4QjdraVZtWkdSbFhQUVFFNWxoR1BYWmRLLWpsVGdkWEdfRlo5RzZUaXo4eU9xaXlQd01KYmFkTjNHTnV6X3VGOWhIRVhkb0lXRXE4NFQyUXc?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro da vía libre para extradición a Estados Unidos de ‘Pipe Tuluá’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxNODJ3VFp1TFdqNzR3djBOOHV0N05INkJBZ3ZSaWcyR2tOMUg0OHBpWHZIanlXUVpNM0d5UTN0V0RxWFNELU9JdzZjb0pQakRFWUxHTUhreElvT1dWN2tDQjVCVjNpMTAxTWtuVEYwNUJHQmY5d2RsUkwyQ2NsWnVqejQwd2kweVY5cHEzUDd0WmhIVk9fQ2J1Q3RSZEhkMGtmWnVsRTNJXzlKUm9iZjBEU0U2MnJaRVdtaEdR0gHAAUFVX3lxTE5XM1dCbVN5ZGMtMF85dkRqa2ZLSVcwZHNfNktRa0g3MFZJZGZibFdPdUZIVTl5U25NTXdOMjJ3aE1ham0zaDJRd1JTNjNjRVg0dmdzWjNUNmhFTWtrUm9qYWkxSC1zSE9sZ0pPYmdWUm56UmxwbldjTzdwWkRlcm9NbTNJRnBtQS1OcnlVbUZYUnk4eXFRdnVVVU41TTE1aTZJd3dqWXlwcExoOVJfR0JrYXFNQmdWb1hRazQtUkFHSg?oc=5</t>
+  </si>
+  <si>
+    <t>['libre']</t>
+  </si>
+  <si>
+    <t>Gustavo Petro señaló de “piratería” la incautación de un naviero petrolero en aguas del Caribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPV3dEd1NpeDk4cVRmNnBFeHdvc3ZFMk10T2pjYzJ2UmJIeWtuTklzUDh2ajRjMDlIZlY2X1RJMVpqWGxqT3lESE9aYS0zc0dsanVMaVVEWmIwVEQtR3g4STNKb3BkUTdTeDhRemJIaWdlcDZramtoWVI2b0dJdGE3V1g3cEpKSl9mSDViMWFXd1F5enUzM2M0enlKMDNsU1BGRjJiMXJoUlZDOXoyN0NRMlhmdDRjRUIyUGFwVDZyM3pLcl84N3BUZV9xdU1mNE1WYWtz0gHYAUFVX3lxTE5RUzktWFR4MG9UTjJpS3Z5Nkc5bmQ0YkhTYjN2bE9QaW5UQkg4ejQ3M01lbl9jX3pLYVluZTdmc2FkcVowSHphTmFiUGtnNkRYenlHdE5oZXAweWl1UE8yanZzMmJaTC1LcGk3VlRQMDBJN2lmRi1PbG9xTFZQWUZrb1dYd2NFR3hvUndMQ0hLZGNaNFdybVliMHlkb3B5VU9qWk5rcVgwZmpzblZtbGplWUhLWHo2RTlHSFFjY0tkV0dwajgzLVFwdzFzemN4Z0Q4TGJPWVZWUA?oc=5</t>
+  </si>
+  <si>
+    <t>['”', 'petrolero']</t>
+  </si>
+  <si>
+    <t>Gustavo Petro arremete contra la gestión del exfiscal Francisco Barbosa: “Le entregó la Fiscalía al cartel más poderoso”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxQTTRDNmdJakxadG55UjNTZGRqUVpMQjByOHBNRnZnR0V4dTFZOXI4TWswYmhmN3VUemVVb25rTU11SjAyX2tsVEp4OVozal9lclNGanhvdUxBbWczTFdlU1BMVG9pVlV5ZVY5VjJoOXdEdGFfQk1WNUotVU9rR2JzSmZmZzNSS29hVDlxM3Z5Q3FtRWxNSVRPV3V5WExkQzdZUVpGRTRXd1NYR05NS2wxYUl6M2ZFMm5MY0dxNEdrSG1qZFB5a3cxOFB2TjhkUk9yUkcyYzVONVJJaVlqazdab2hnMWVaa0Y4YUJPWjdJd09SYmMt0gH6AUFVX3lxTFB3MmpNVmpLYnVtOGUtN09wRjRhNHN6ZHpjZ2FfdzVSNERGSmtmMnNoSS00elRZZ2FmTGY2TVc4Wk0xMWh5SVJzVWZUY3UyVEpfTDgydDV6eE5MQV9JTlRUT1l3Q3NRRDVGMzk3Q043dk1Xd0V3cTdkeTlockRjTHpzZjZFMHFINVpMYmhrQXFtV2FIakNKWVdNYllDZUFUc1U5eHk4aHlRNW1uSTIzZHNkbmplMlN4WkN5S2dhdlZkSGlObi1rNUlOQ0gzYmwwdVZ0ZEIzUlpQRVR6c2FxUGdaZ1p6TlVPdms4dEFvWkNXZ0FEeHJ1OW1KMWc?oc=5</t>
+  </si>
+  <si>
+    <t>['poderoso']</t>
+  </si>
+  <si>
+    <t>cártel</t>
+  </si>
+  <si>
+    <t>Gustavo Petro llevará a ‘Iván Mordisco’ ante la Corte Penal Internacional tras amenazas de juicios revolucionarios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxNN3RlMFplZ2MxZGVlWEtHRzJCNXJ1c0dvSlpNM01MUmxyWFkzY05kUFRHbVBuMFY5ckl0YTNkYkxCYS14T29qaWZBcWh0TTJrQllFNEcyZGRDVXU0cmhPdTN0LXZmS2hiSEJnNzJMaXh4RjljdW9LelFnVW1ZU2tLSUVVUm5lVHlBUDc5ZDZqeHdqRnlhYkMtTTNXNHlkRGZYZGlOR0tyTUtkNGJNd1VvSFRyLTY5UDRMdEJWN1F1ZHhBajNIVG5IV044Ul8tNkZWTmxoLTBXZXZGdzQzR3o2NEIyeVg3c3prTEJJUUpvREJ4QQ?oc=5</t>
+  </si>
+  <si>
+    <t>['revolucionarios']</t>
+  </si>
+  <si>
+    <t>Trump lanza advertencia a Gustavo Petro y agita las tensiones regionales con Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOYjQtOHl2YXN2dURwVFY4Q2g1Ukk4Um5sMTFNSm5GeXJSVGk3aThVWlVINnZvYU1hRm5YUktRRkpDWW9WOERJMFV4OTdGcUNlUE9OamZ3S1RoNDNsNFdRZHlIWFQ2SWNqeWdTby1nRlBYOERyWXNGZVN5c0s3RV8wWml5ZkNRSWJiS29WTE9sdk5hOWhxTlRGdElYRFZlZno3X0swVjh2U2VHR1B1bHNZQVAydTdHMUpJdjBV?oc=5</t>
+  </si>
+  <si>
+    <t>['regionales']</t>
+  </si>
+  <si>
+    <t>Gustavo Petro presenta balance de gestión en Consejo de Ministros</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPM1NkTDlxUmNXd1M5VEw1aGRiZlpqQWthOUt0X1h4YnA1SjVSQWlNTFZmdTlYbkVIUS04QzQ1R0VCc2tvYkRtU0NTcTU3ZlJ6QTFGOUJsaTVrTkMzNlo0YlJzRVQ0ZDByejgxNE9iZXdOS2lROXU2TUhSZWJqTFJEdkJZa0dIOEt2ZXZCM2RlcVRpSml6aFJ5RXE0Z05BcUE?oc=5</t>
+  </si>
+  <si>
+    <t>El presidente Gustavo Petro avalo la extradición a Estados Unidos de Andrés Felipe Marín, alias “Pipe Tuluá”, líder de la banda La Inmaculada. La decisión del jefe de Estado se conoció después de que se anunciara el inicio de unos diálogos exploratorios c</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAJBVV95cUxOeUM0OUpFOWdnRnY5NERRYWY3U0NzeWo4NGdjSXNQLWVBQUhNZUgtNWpRU3k3VHhNdWZSeFlTVzY1NDBjWXVBUUF5dzhLTFdsMXltU2oyNkpOVDVNejc4VEdWTUotaHNTOXAzYjI3QmZYLW9mS29tcEZjTTk2eENjSUxKTzhnQVhDN0gtQW4zWXYwRTdlSUdvMTlTdkJ6Skh0cjlyOVRqUWNZUG9zcWtzT3ZlM29ZQ1pHbll3WGdSa1pib2xpdXNUTmR2eVdXby1CazkySExDT0wtTzRBeDBrd1IyOUJUbzZVN1VvN2JTWWc0Wm53MUl0VUFmdGlHdllaWFZkZVZQQTU0Q3NkcGxha051bklXWEtEQlJ4OENNRmxBQTlvdi03TkVWSllFWGE1Sm1zaTVmQjczUFotXzR1OQ?oc=5</t>
+  </si>
+  <si>
+    <t>['avalo', 'exploratorios']</t>
+  </si>
+  <si>
+    <t>El presidente Gustavo Petro Urrego y su recorrido por el Canal Teleislas en San Andrés Islas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQX2E3NkxUWktxeXlGSjdTRk5CQkFYWTU5YnRxVDg4bWJXMGFoVmtacXJiTklHVnhua2JKMUJKNkktZnlNSkh4bnJNM0lEUVJoWG1MOF85V0NOQjNaeDZmbGFOSEJibUlaVHF2WlpWbFowQ2xLZWsydHFxcXoxeHRtd085cHVOZEVEQWR2Smxma2hzLWJMN0lhUktjYllPWFRHa2tmY1ByeG16WjFMNzJwdllnOU9uTm15Ql9Zb1JGV3prUTJFbUF4YWZTT0Q4cGFSMzFIZTNR?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro volvió a hablar de una condecoración a Karol G con la Cruz de Boyacá: “Yo quiero”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNaGFoNmVhbThCcHZucVNOQndyRjhMaHUzTUxjcU1Gc0l3cDFtZFg3ZDVPQUZWRGxMMENYaVdoNk55bm12WUhzN1NUSkhjbEJLLXVKMWlRdWNsVWRLeGgtX29aamRjV1BmNTZYR1FHZC1UalowZlVSLWZZZXh5NzJlcVRhd2prVlBmaTdWZEpzQTBGWl92VldsVnY0VTczZEFfb2o5bk5tVWVENGFIX2hPVGJlTlBzdHNvZS0tT21BM0pJUXZfUGhiSVFB0gHkAUFVX3lxTE9DNXdUcUd1Skh5SE5lVkRKR2VzOTdRX3ROSHRyRF8tQUtXckZUVy12OFlaT1RYWXRJLTc0ZS1QN0hVUEE4dGZ5Uk1qbW1INmlKMzJsY00zWnh3SkVZRlktUFBmNEtrLVotLUZlS1k5aldfekxCLTdQOGY1NHh0UHV5Wkd1U1ZoVldCWUJZUXVySDdpTDhsNy1pU01MSWF0WGNTaGl1VzdGMmFCZkJtWXNZWl94bDVRNEhuTXliTDdvT2dyNUxxSGVzdVk1OHNqX2tNRHlRQUxTcjBxRDNVRnJRN2RXWA?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro firmó la extradición de alias Pipe Tuluá a los Estados Unidos: deberá responder por tres delitos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxNN1RjVkhwUG1rdU5ZT2F5QTJGQXg5Zm40WmdudVhlUWp3WjZKV1ZsaWtxcjFkZWtQYllSQTM5a3h1WjlWeDJkNTg0ZWRHV0tyV1NIZ0tRVU5WdnRibG15S2NwYy1yY1VOYThmdXFXbFNmTTVvb1FTcE5XeWxoX3JxdlZxS2trYkVwU3F2WnM4alp4cGRpMmFIajltM0xoVlUyclhMdktyY1M2eFJtMTQ3NzkybWc2d21vcGRMdEpoeVlYY1Zkd3RGdjFaYURDVVQ4ZlJSYnhpQjBMY1MyaTJrYUthT2lSeHdqakHSAYQCQVVfeXFMTTdGamdLTGx5ZjNGWE02RTJ0XzdGcDNSRFFrQWhkSWpsTG9MQmtkUVFvNFAyc0wxYnVRNGE2c0IxdVVUMWFQZklZeVRpQ2N5cmZjYXFFUnF5M18xNjNLM2tXY1ZkS0lsUEI5Ym12ak1yVGRsMjlvQ3ZzYzEtM0t6b2JKWmZneDAzQ0NGU0FBejRFYm56ek9zNzViLU93aWVJV0poWHhzc1ZGeVZDMGhyYXVxb3ZXZHlTeDdtR253dUdFMUhiU2hvTnk3U002NjRLTTVGZWs5OGw0dDFUTjBxcDhtb0RfaFFNWVBJOGdDVkd6NllleVIxbHY4REwyZ0MzUjRxM2c?oc=5</t>
+  </si>
+  <si>
+    <t>delitos</t>
+  </si>
+  <si>
+    <t>Primicia: Gobierno Petro dio luz verde a la extradición de ‘Pipe Tuluá’ a Estados Unidos por narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOYjhQNUlOcnBBWFhDNGlFbTlfWTdXTHlGQXAyWjBRZU5nb21wN0VZSTlBcmZlRUZRRHY4VUpfNXlSc21SOENwSmZQbWE1Q2ZFSUowaVdPeDBPQWFYTDBQLV9WeF9yM2dZbW5kanZfUjhVaXpOTDFEN1gtQU9ISzJXd0p1UENJeDVpdXpjWkJHMzRNUnJpejA3dHpicy1FcTRFc1I0OVBzVU53c3JYX0FpaGJUaHJqYXc3bUlfRFlfTy0yQWpKNUxoeHhzdXFqNEJjc2FqWHRyR0tRMXExY19PRTRCNNIB6AFBVV95cUxObHlrY2dlSkw0b2hNV210MHlhV3pwVTkwS3VNbDg1TzM2aXo5VTF5YnF4OEk2bzBCaVA0a3NPV1VBZ1NSV2huYm9PcDVPc0tCakM0MDRkcnJEcmM2dnJwT0oxQXBrR1U0cGlKMVNnbWJmRWlqUDZMOFkzVWxHWEpmY2w0SWhNMnFVMEp4QVhJeFJZTUNzbmMzb2tJUTV3MGREVjZfSzloRXBtU1dETVR3dlIzZThMNWVFdGI2WDBWUTd4eUpzcGlkT25GRkVEN2w4RWt6NHd0bXJ5YU94ZlBCTk1uaGM0U2RT?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro autorizó acercamientos de paz con 'La Inmaculada': ¿Qué pasará con la extradición de ‘Pipe Tuluá’ a EE. UU.?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxQUzlJbWhJd0JtMm0xUC1HRTJlZnFua3A2RHBMZXRISU5QMWt3R3BsWVBmNEROVkpLWmtLWWdaM0FYOWk0eGYzTFBOMnhQNTc2OUZGTnBpTUs5bVVUVUhDTmpNcEdoSTNSdnZIc1JBVzI3X1VaNG5aNU1oaGR5OGJCaEU0UzVGU3B6ZmdsejA5bDFFd3JaUWY0c3hHYVhCeTJ3WXEwTGRrMy1nekgtbEI4SWRUdDFHMXBWOUswSDZBZGlFeGctbHl6c1JpYU54NzJrc0VXcmkxR2RscTdIRE5SYWR3aEZRS1JNbFlkT0RPTjYtRzJ0bUR5bFVwMHd3YzDSAYQCQVVfeXFMUGlXUnhYT0ZUb1BMSXdZMlZhZmFGeXZjS05CY19Hcnk5cmlfbEZoVFlYdU5KSzl5ZDNqM0tBU01rRU1IZHZaS1VOWFlVZ2F6aDdUczNBQW9XbjZPUlNRUXl0dlA5ME1HZjVUNjRfWkhfZnc1QjlZMmpjbUt6MXlpNUJLbm9ZdlR2dmZpM1gxc0lMdHVJRC1LODB4eUR3UUFZX3NEcmJlY1g3V1ZqWmVXSVZFVUhmSmpyc2VvLThQLVhzeGl5aXlsVE5DNS1JTmlub2ZCVnNnaFVRbElQSTlzUWFqZm9FTlpSQV9wdVpqaEMzVEVZLVVLV0JhWnN4TGl5U2trVzA?oc=5</t>
+  </si>
+  <si>
+    <t>¿Está en riesgo la financiación del metro tras caída de la reforma tributaria del Gobierno Petro? Esto dice el gerente de la Empresa Metro de Bogotá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxQR0dlbGY1eWJRWmtvcmtIUVhkTlEtbTZjOFotVGsyUU1KUDR2Z0Z2NGFoLXI1WXZkWDZhRFJqeVE4MVh1SDUyUW5yNnJ2TGdOa1ZjclhIclZ4TkpDNV9ab2Y1VVA2cmtRTVZQMjRwdlFmMVVVMHIzc2UxcTNvcmNfVktUcGJPZ2VMUWRCRHpQMzNVRk1XUUYwUmdnTloyTW10YmZXSlBQVzNEc2hiUnhNaEx2M2l2eHJ3NFFpeE4tWmhGOFVHUWlxUU11dzZHQTZOV1VhdFhZbS0yRE5fdlhGZVNxcm9hUU4wNmVtVDN4UnZ6dEpCTmIzMk9uX0ItSVl4MjFRbzk5TFRsMm1DWTBKQVg3SEfSAZoCQVVfeXFMTllZVEJ3WG5LSEdVS0p4M2Nwbjl0MUF5cDRTb3pUTVR5aVhmZGpQcFpUanJMWEpuZ000akZVZFRSbmxhX0hYU2xlYjlhZTdwTkpIczA2SldfNG1GUm5qdEdwMjFHWDByOU9ubldqSzVERVJXWlVRdW43QVVBSWFmLUl3MDVocmZFQ1cwbmFnTWNUazBla0pxVmo0anpGWUVCdHYzUExIY1RQUTdDWWIxZWYyRjVfSGZHNEhPT0dGYTkwLUk0XzZJLTVJNHd0ak5PMzlfOFdqQlh3YzA1aG0tcWZ2dFUzcG92RkdBZUp0QlR6ckVHMDl5cjRkdHlLYlhiU0ZHNVktUmlpd2xscVlaYTFFVjlQejczTVBn?oc=5</t>
+  </si>
+  <si>
+    <t>Ley de sometimiento, una muerte anunciada: por qué Petro negó el mensaje de urgencia y qué pasa con las negociaciones de paz</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxPVzVUbXgtdVpQQ1V5b0ozSG81LUhZOHplQm1tY1Y4Wk9VLTJITkpoTUt4UEhHOUQ1U1F6YnJfTW9FM2RnYVZGVDJQSFdSZDU4ck9QVGNFODZnMEoydXpBNGlwNDU4bFZEd3BMWnpNNUxfSl92bHpvbW1WbEZDeWgxRGx6cGpoN1pabTBUaTZDeHV2eFFjQnV1TFNZVXRSa05fSmZmRFI2NTR4dXBXOHFfak95Rm1JalFYZkRVcTFMZmdEeWdXWFdydDdFRUtNZWp6V2FmOFJrLWk4Q1c3T2FRY1JYeTN2STZZNlHSAe8BQVVfeXFMTmtERFNJOTZmbm1SR1dOeG9RaDc0SFBSM2RMcmpCNWdFRkdieGE5Q0RuU2czMUpmTUJ2UWFXVFkyUUsxRXZxbzFVc0RpYUxscXNEYlhadTltaWxYM0hsRmRDSzNPbXAweW1CX0c1Y1BGZ3ZIM0FVNnRWaWxVSUhFelJ6R0NoaU5PZFV2dEI2aXJ3UE9VOGpfZVExU1pDV01jb096c1Vtdy03RHdrZHBCdVcyYm1rcV9lYnNxQjA3bW9DNjh3WVdsak5iSEFYMkRsSTdrZlBlNkNZdzQxZkVmazdzX1VKZUpkTnNtRDhFbG8?oc=5</t>
+  </si>
+  <si>
+    <t>['anunciada']</t>
+  </si>
+  <si>
+    <t>Estas son las 20 medidas del gobierno Petro para asegurar ‘precios justos’ del gas natural y ‘evitar la especulación’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxPMmVQSXRZXzlqdDBTbHFBSUJtSWhDY05sSjlOZEdXUXFkV1lXN2piOVh5LW9GX2twNmVKUVdOaXYzUG9tUE5yMEJiWG9nRkFtT1pzSVZNZ2xQazhqbGZOREsxa1VZcENHcVJCRnlXYW9iWkdQQ0ZyZ1B1V1lzUXBZOXBxcDRRclVmbGNOb3lsbUZNNEl1Q2dCX20zVmZDeHpMQ2lFQkN3Mm5kc0xJMXlQX2dJQmNNSkl2MmZacE5kaGRtQ2o5dmN6YVEzZHpyZ21SSS1DT0dIeHJqMU9VMWh6SGRHMzdzT0pHZ3F1S2JjMlpWOXJKZ25j0gH8AUFVX3lxTE5tQUwyR1dMNVF6MUlUWWdGejlPeUNRRFJNRm1YN3o1LUlnWDdaQmVDZUFIdmcxOWF0R2VnVW9oWU5qdmVVZTJONHQtNjZ0MXJISWNJaXM0SG9sbWhFR3JwYkJaYWVvSEd2dl9pSlZMZWtpemNEOFFhZDJTczRVY0EydlotbXVEWXJoZ3hRNi02UmZKRElPWnE5Wlo3ZUx1Y1U3NGNSOGNBVXB4WjVyYnJDTFBReDhDMEE4Y0xZRS1GcGN3Q3Z1UUhBN2dlYzhEd29laXE5el8wbXdXUlVwV0ZGb2xuSG1scF9XZ09NdzMzZExNZUw1UTYtSV8xNA?oc=5</t>
+  </si>
+  <si>
+    <t>['justos', 'natural', '’']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro insistió ante los Estados Unidos por información sobre “el colombiano número 3″, el eslabón perdido en el caso Odebrecht</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxQSy1tRG5wSnctQVZOQVlsaFBjZEFzRUNuZmZNX1E0R1ZtbDkxZEZGYjhXQmVYMFdybFJURW9yNFI2VzlubHVlYUJRai0zNDcyNldYU3RZLUZYNDQtVXhMWU9LN05zLTNSX1pYY0lEOUJ2cDdfd0JFdU5YYUIxOS1kTmVXYkl3SkxOd1p1SGRfR2xfQ2NPc0pBbmZZY0pXUy1OeW1WTFlMM0NRbDdZWVNSZ0pja0l6azloR0ZhbUtyb21LTGgySVJVSnB2dWs1MTZTai00S2xxUlZfLWdqOWVkSFdNZjNtV3dmN2EwMEI5UFc2WVVyUkVwM2xSRGhNbC0tNFl5N1NYVlhubVXSAZACQVVfeXFMTlBKSGxmOXpzdG9hTzBWMGVHSXJ6SVhRMW5LME4zR0R5cEd3ZEN4R2g1RGh2OG1KWE9FTFRadExMbllhVGJzS1h0UUppdThEbmxyZndQcmMxemNwdG1aZlE0WW5EckxzLW11bzhfeFAtYTVSbWpjcUZHa1l5QkRfYk8tT2VhZ0ltTnZrNFV0X3hCZXFuMXQtWlAweTc3SHR1aDdOUEVUVU1ZbFpISzNHZTVuMEExbENiR2RSSWZFVFZoelhQQmhnY2p3YlZNTEtFTDFMekxCcHBWVnRfRGJteVdLbEUzZHAzekRKUkhTSDIzRWJJMkpoa0w3YkpoWnU4MkplOXJkMUI1N0k5U0ZYdHo?oc=5</t>
+  </si>
+  <si>
+    <t>['perdido']</t>
+  </si>
+  <si>
+    <t>“Por mucho que le fastidie a Petro y a la ultraizquierda, la autoridad moral de Machado hoy es incuestionable”: Salud Hernández-Mora</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxOaEp1YjlkREF0S0plZkZTUEY0RjhIZzFvMVZkNkxocG9ZQlhMS0VvRG1PaU5NNVhhelQxYkdTVlJGQUEycGpmajZyWU5BYzg0SkgzWFEyaU1BcTZWdzhITzZJYW9ZUEZjQm5lbUw5Nm1CYUVnek5OeDdkN2hxcE9XQXpVRjBCT2lIaURxWDF1Mjc3QTVjeEZpOER2LVZ2b1pfc0pIWks4RTZ4bGpXZnhLN3hzRVVudmVXWTJSUkhqQmNSQUFFNFpJZ1IyOWM5bFpva3VzTk5EMGZlSnhIRnNVYmZ5SmdrcTNEek9oOXVjcE5ya1dlRjBNcG1fVnBBeFdNLWh6bNIBigJBVV95cUxNX3pHSnZoOHlweUtBWDVPVXBPUDdXUHkzOWt6WENkSGs4OExkaE5CS08zYUxFX2UzVmkwMUxReFgzZWw4TFVXTHBYTGFvMDVzc0NoN21aNnVPRlU5TUdPMkF0anJrdW9BWXpSc1pPa1Ria0QyS1FUVEtXRGRDQWphZVp3Y2RzYlBnVmhOTi1oQXRKVkkyUE1IZGtHaGRKQUl1MF84UDlTODU4MC1mMWxjQTVSZVpLRGk2ZG1nWWstUGliMVpfU1pLckxVQVlQX3VzaG9YNVRhN2FwSVlSYTFBQ3llMFRXbUZCTTl1aEJSM1o5RmpReTY3dnpkdW1MaUxsaTIzZW5OS0hvdw?oc=5</t>
+  </si>
+  <si>
+    <t>['moral', 'incuestionable']</t>
+  </si>
+  <si>
+    <t>Colpensiones aclara lo qué pasará con el aumento extra que hay para las mesadas tras nueva medida del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxNOV91aVNlTVNidEFGTVFSOFBGdTFfYnJOT1FJSUxYdGFCTHYxblBCMW9ISktqbXlqWVZpRlRKVHZmNHJDc1psRUlpSXZJenc3Tmc2U2VtNTM0RkVpZHpuXy1OcktSaDQxVGVxTUEzNVJ6VUV6Q3prRXNVbHRaTW1lSXZHU1ZpbFpzNngwb0w2ZnVGdklJRVJXTEJqLTNxcnNfelRkcHdXRHBaZEtWamlmNWhMRWtGUnZEclV3cjluY0tqb05iUUZsV2tRRGVpOFlNYTR4VzVqazRIWC0wZU92M2YxRE9FeW1fRnItVmNNejNPMWZOc3dQQ1I1enZmWDY3bXFBNmpnX01WOEVpZ21jVlNoa9IBmAJBVV95cUxPSUIzX19HV3J0c1FpTG9sMWZUdGxxRWJ5eXZOU0twNHJoT0JpMzBNS01UandWZXZEUWdwZ2hSdXBINVNuRDdpSWJlR0FHcnVPMnBGaTRGdVJ0YjNMaEU3VkduX0tZekxWWUlQcEpFeVZGbWN3S21ZdTdpMjQ3V2Npb3NEWkswUURITGFXWWFSX1VaZFMzby1JbHpuY1RfVkVENmlsRFZ2Y09teWFWNmZYbEFtcllpcmxidDZrTUNJeC1mZkN1VlcyaDlaZnVLOVFhSjR4am1VZjFQZURnbDlScGQ4SjhKZHVjbGhJSUxNcldnWTBGd29YU0Rtb2w2WXNKbTRTZDR5V0UxaXRYSmkwNjBxTXZQb180?oc=5</t>
+  </si>
+  <si>
+    <t>Un día después del Nobel de Paz a María Corina Machado, la canciller de Petro, Rosa Villavicencio, no descarta asilo a Maduro y lo llama “universal”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxQQU05MDh1bFRaUG5aMDRyZU0tdjlxaDdJOWUtaS1pbFJRcG9KTmNsNG9id0lCc2NnLXVuUXBEVzFBZUE1YWc4dkdhb1Nva280WG9YM25YVnE4b1BfTHpoNzJSYWJtNHhLQ01WMUhKbmV3SUJTSEtFX2tCdTZYeGFWRnphUXBQczNoNmRleXdvWU1pck4xX2oxZ05kd296ckJkN0JoNFd1WUVKUUc2clU5VEdaUE5VRVdJcjBnQmYxRUktTmhJTG1FaDZGbFF3dkNBUW51SFk5dk1YeWZOcEZlN053bVNWRXdfZE5CaUxTWW1hOFhlVDZ0OTVJZnJGRkVMMThMN0syblpNX0pGRkHSAZMCQVVfeXFMTU83ZngzR1Z6WF9YQTEzOVFseHYyQVJtZUNMNFV0S2ZrVDhBUXdKQlFaMl9LSGIzS1EteXVWcHhJaFlnQzlXeWVBbWRCN0VhVlcwMnRLZ0tXNDFrZ25YNGplTFM3VHp5bHpISXBTWU5MeEJxTWxHeElrbW5wVExGcmdDTmtybjRMLWg5VHdDTzZ3Z29XcFQzMXNQMG1pd1NuRmJhV3lKRGdKYnlwTWVoOGVuMnlfOHhhX29ZYTJtZWNoWl81d2lwMzVXLU9BZFo0dUZRX2xncGtSQzBGVDRNWi15Tkt0Zk1qSWh6a1pMZFNwa3J1c2xYaTI3RF82ZENLaV8wSXBEbnA2NnpOVW9kZV82RWs?oc=5</t>
+  </si>
+  <si>
+    <t>['universal']</t>
+  </si>
+  <si>
+    <t>“Una vergüenza completamente”: alta funcionaria de la Casa de Nariño estremeció al Gobierno Petro con fuerte declaración</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxPd2pBcDVNUlE0Rk9URGl4OURTdXNNYzJfN2k5Z3Y1YW1LQlR1N0UyT1ZyVzlPd1JUVi1idmZKUHFIa05Dc2g4b2xta1FXZTdwd1BZZUVOdDBFSGhNQmtFNjAweXBVQWIySHVaZC00eG1oQlhydm15U2VCLUI4eEhaMkhkWlNNVDR0S1laY3pXWXBhUk9GYkFtblRSeXBzZHo0ZF9BVEtRc1pvcWpfaWVBRXAtN1pYRW5LRV9EazMzYzlhTV9JbEh0ZHRfU2VHc1ROX3BMc21TcV9wdWpJS2tCRl9VVmRKZlVzNWtXVEQyM1RScDlYZkNMNGpR0gH_AUFVX3lxTFB4a3JJanZMOTUtMUthWFpLYVB0bjVXTlFuUWVmT2xXaXNUUHdCVGd1WXFvLW8xQ2h3UHo2RUdCc3FwUS1kc3ExSnFHWk5DWkNQQUJwZjlJVDBBdU1maGgzQmJTekdzMjgtQnJIOUFYNjBnbnJpY29ubEF4cFRzQ0RsVXlONEF6YlZZZkhkRUV1dC1ZVl9qMW1Za0dXVEZ1Y0tYRjBiNXkzZHVtZmJCTTVuR3lZSzdWcl8tOUFyMDBZS1lLWElmRmstVDhseWJuRlRuYmpmZlVKdkxRVzVDQzVlQ01Ud3pZSktlOWhpczNDc0J6b2xTM01qSkJPX3pEdw?oc=5</t>
+  </si>
+  <si>
+    <t>['alta', 'fuerte']</t>
+  </si>
+  <si>
+    <t>vergüenza</t>
+  </si>
+  <si>
+    <t>Petro habló de “cuerdas de la guitarra de la misma frecuencia o movimiento cuántico de un electrón”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOUllOcTZyaTg4ZDJkTms0WGR0TG5oNndlaHpBUXZTZWZHajBrOXVaUWdfN2VzdkVZRExCa3pOSHVDSzFtQ1Z0OERqZy1LWWFuTlpXV1Bwa3dJNDRKdkR2cUI3Vk9OejV3cGVVemhZYjdiSWJPZ2tqeWs3SXhkYjlPOFl0WGpiTUc2Y1FDbmRIbERUc0h3R2Y4RkdreFJKVkR3UFVsaEo3R2pQdEZiRjBfOUlhMVhXR3FVNW51NUlCVTluLVR2MHFQeVhwNXNGRF9PNWkyaEN0UDM3NFNKVFFV0gHkAUFVX3lxTE9NUjhTT2I3UHZrc1o1VTJlSVFac0U1Q0JVT21TNnVya3BHVldUYU54OXBGWGYwU0VGX2xhRTJBQzE0SmZpTjQ4b2tpNFhmQzlZOFdZUTJyV0gwQ19nWVJrWlpjc0F3TEFGTTNjcXJyM0lXM0NoZkdhYkZJdnQ3YkUxSWQyMzRNYW9uTVh2cnhOeFBIZUFIV0xpUERUdGhOUjRIaERWUWt3UzdRU3QwTEMtdXF3UGFKem4zY0ZiMzdlanhrMWR2Vm02Q2ZYRm1VOGZsd0ZjUWNNNUl0YU81Q3VJQkNpMA?oc=5</t>
+  </si>
+  <si>
+    <t>['cuántico']</t>
+  </si>
+  <si>
+    <t>Centro Democrático exige al Gobierno Petro más medidas de seguridad en Antioquia tras recientes atentados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQR1hSNjBDRGg0dnphN18tWUFPN0pSLUx6TUtnNjN6ak4tQTg4ZXlBZGlyREdDUlQ1QmVyd0JraXZVWjk5d3NkUWJRd0VyVVNYM3IzZFEtNloxTjltQ3R2YU5QNXAtS2gyMUdWZUNmdU9xUE5sel9HSEdGR196dWt2c0lJc0ZsX1JrNkhhZXpJaDlSTnRMaE1sdURGMG9OdzVpYWhqLTVtNTBjN1luLXZJaUwxamJ1Wmh5cHNaVXN2NHA3ZW5UTVAxOUJjS0VJbThXaFJxcElGUXlVSzdyTUpXbUZTVG9HWkFSeldfalFLRTJqUdIB9wFBVV95cUxQZlkzSGZZckVmMnVzTWR2Y2xYbVkxRTBTdndyTTdJcHNvNVZEby1oTFU4T0hjR1E0YldGNmVxZVFJNExPQm9aRUpSOWZOVlc1R0FBNm1oWmp4M3hsNkNvMU9mTUxRSlJVdnlENWhlUG1TeTA3SFdJSE1ObnpQWXZ1eV9QUGlzenNTcVNNLTNieC1xZlNzb0RLZVJmV3ZXSEp5VGVONjBnTE45Mzk2dEFuZXI2THEzeV9WUWJnQTFkMFZjN095NTltbklJXzNpeU5JMzZtYnVEbldXRHBiTnk5VFIwdHZ1WEwtS0twaTFuR180b2xHQXNN?oc=5</t>
+  </si>
+  <si>
+    <t>['recientes']</t>
+  </si>
+  <si>
+    <t>Peligrosa banda que hace la paz con Petro realiza segunda fiesta sin control en cárcel de Barranquilla, ¿y el Inpec?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxQc3ppM2FnOHk1NXRBX2ZNSFl1VkVXb2lOd2VJeUF1N3U2MUo1ZVFOY3JKUWJLaUJ2UHUyQmVTSm9samhwY0NQeDQ4YkZkcVpPbHFrbV9HS0gyMkV4NkUtQ0dkbDRGQUNFWVd4R01GVEFpM3RSRFpEc1hTdUJEZ2ZCVS1jT3NSalkydDA2ZktMcEY0b25zaExiSi1rS0d1cXZLX3VrUlZrVXdCeGtYMEZSMld4VHB3eEhmTEVlN0NOQ2ZSaHB1LWR3Y01WOW53Mk5xcUhNWTV4VGFEcFczeHQ4TmpOTHhEYktPZ2NmMGJsVS00elFIWW90bGgzcFVQeW9rYXZr0gGIAkFVX3lxTE04RjRjdFBpUWpZY2JyN1hUY3NCVjZ4ODBiRldFdGNxZm9Gc1RqREdINnRLTE1RSWJpejFhdFVmMTJaVlhaZzNzbTZQRGxkTVZYSDhva0xjaS03b1F2TDN3czV1UmEwU3RRblJKMndUX1RwbGFUa0ZzUkxxSWxTa1RDb0ZZaXNRdFRnTFV0dDZVLVFFUnVvb3dwUk9tYjRxYmZpcDlUckx3OS1Dbi15MWlBUWFFZHY1bEw3NlpFaEowTGJKNkVGMk1mc1pwOXlOeVJnaXRkQzlHS0lzak40dFI4dTlROXBaSUI1dHdiTE9mS2EyNkNfRjQzYWdhRUZPbUN6Z3lrbWxwOA?oc=5</t>
+  </si>
+  <si>
+    <t>['Peligrosa', 'segunda']</t>
+  </si>
+  <si>
+    <t>Petro tilda de “piratería” la incautación de barco petrolero por EE. UU. y cuestiona la “invasión” en el Caribe frente a las costas de Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgJBVV95cUxOakR3ZXJNSjlJUVMyRngxdzZGUng1MXlJVzRsb2dkT0Q1Z1B6RzhablNUb3RseGhBdnNEdW9hMEJYcHRmdmxLRl9PSmxsekxaTXVnR3J1cG1lVGJ5czdXOVhVTmlxaG1Gdk9BLUhESENTaUFkVExSZ1NrRXVwX1A3aVd0dlFWeFBWQnEzX1gwaDMtc1UyRDVLXzUzSmIteUxLWmZBSXZ1Q01HYl8tS2VmaTVLS0dIeXo3cUZYVVh4NF8xLW03UVBfbmV6bEQ2X3VwQmNhSjhSWElRVVdtdFlKanBTdlZNb1NTX3Q3V09XYW9odlE3ZHJ6Y0ZMand6R0JyRTA5dU5XQXpBWHU5Sk1CaFczOS1QZ9IBmwJBVV95cUxOLUxldlRTZmFDNzZZaFFjZ3NtVTZWckVPSGRySXpKOGo2bGN1RmJHSDFNV2hQaUZsbjJLOHVMa2t1TWZSQVZMWFpkbWpyVWplYWlyME1kWkZQYUpLa2ZLRWVmbW1hZjVaSmt2Q0t0ZWlBUEp0QmdsY3ZuQjFVcnkzdzdRa3BfVWJWc0NZbEEyTHdfY0tjd2lVdVdJeVhRWHZLRkY5eHAxQ2ZQM0dhMWU0UmRFMk5Pb3hOSm9FZ2RlYkg2X2FnYkNKNVg0NWxMb2ROc201R2gtNG5mRXhpTlJiQWtkQTdzUzJVSHA2RXg1U2JDVXp2SjlqVnpTNEx0aWhrVHZWVF9MZmwwTTJvUjlPdFZsbkF1c2ZEMkY0?oc=5</t>
+  </si>
+  <si>
+    <t>['”', 'petrolero', '”']</t>
+  </si>
+  <si>
+    <t>El reconocido congresista estadounidense del partido Republicano, Carlos Giménez  confirma ultimátum de Trump a Petro y lo tilda de “drogadicto alcoholizado”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxNQ1paMFNtekhhb2VqV1lFbW5qVHRBejJXNERCWTdVSUFsMjRQb1I0NVlZLV9mejhGRHlRQjFEV1l0LU5oZXhlR0xabUlMZDYyNGRMV0VXMDNmR1lXcUJLUFJWdU5FWW1QREdscEpxQ05MT2NpRWRzcUFhTnNBQzVISFA5ZWJtVHRZYlpFZmlHYkxEcjJncGFxeE1QWVJQZmx3YlVkeG16T2otQ3hNRFpUUmV0OWgwLV9peEV3aEMtcFVIa25UQWpCZUp6VjlVbnZBbGVCaGNBZmZEaUZLVWxZ0gHkAUFVX3lxTE1CbE1vd1YxckV0WllwRjh3eVJXSVlyazNFYUp5U1RiOEtnd0xPMldqY2N3WVU1NmVLNDF0ei11RG9idlNHakVvSTlNY0s1WDNfTHU3T0tsc0NEeG5SYzh0ZXg2ZElDYVA4VVVvZFVGWW1icXV2NGUtMGM4aG1EWWxkRko4RXAxNmZ6MUxsclFUcDl5enQwRlBVMjJ4Q3NLUUxEX0hfWW01UTFOUzlWTExvQ0ZYVGpPTktrZG9iaFIyVWZCV2I5SEhrMmpERGpyTWFLWC1jLXJDRnhUMENWTW10WXYzVA?oc=5</t>
+  </si>
+  <si>
+    <t>['estadounidense', 'drogadicto', 'alcoholizado']</t>
+  </si>
+  <si>
+    <t>A contracorriente: canciller del Gobierno Petro dice que no está de acuerdo con el Nobel a María Corina Machado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxNVGE1TW01dzNFTWpNVm52TkxjdVIwREJJTlpjOXZvbmF5eEU0RUVydDN5X3pLOUdMdFViQkVEREpnRFJUaWk3ZDREaHFjNnZKbEJfdmdNbFhzSFBReUxLZWxxUXRJTTJtM04wOWJtSjNrV1cxZzZhdkpkNVBBaTZCNHpfZEQtakR5OHpCTWFPZW9YZGRwMUpXUzhrYkVOek54MDZLNzU3Q1plY1I3S3A1MzZmWnozSTUwY0lJRzZiVVJ4dVpzRDk4Q1RRLWgzWjc0a2J3U0dvOWp6T3VDM3hXeUZUdmJTSkhBbnpmMU5sQXjSAfYBQVVfeXFMTzlVanlRZTRQTWxKV2MyVUlQMjlRWXpwZU9sdnJKREpXcXZsUWFWUndWZHFWUmE3QlJnOE41emxIT3ZRMkFhTnlxbHFuS0NwOUs5NW92YTYyRDVSNUt5ZldIVEo3UG95OXNjakI1N250TnhNVFkxTWpyUTEyM3J0SkpCTFh2bWtVN1JlMnVIR3hwM19KZHdaaVdfbFcwWEZhN25ERHNMRWppS2RiRkpaSlBEZG1zazF1THVYT0xmWVduMFNlVU5mRG4tSHo0VXV4STU5V2lDdkp4MnRVN2d5SlNFMUFuTlhGbkRVNVhYSDg3bUZrOThB?oc=5</t>
+  </si>
+  <si>
+    <t>Petro, cúmplales a los gobiernos de la Amazonía: el mensaje de los pueblos indígenas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPbElaSkkwa2RoWkVwQUIwVUJwWkd6RndiWEV0OEZJajlVV2pUcVVCdkhEdW1LRDZxZ2VNUWZBODhiNi1HSkdZX2xhcnlNb3JwLXcyOUw5S0ppcjNtVHpBOU5wU3ZoMzY1QkZ0UmhfZVlFbVcxNVllaVhScnRDVm8zOGhWUGJmS0dPS3NvSkpQUlQxUGdlN1hqbmIxMGlvZkFPOURTMEtqT1o2TDBiVGllNEhlZ1F4SW1RZjN3VWk4Q2V4dTlNbXNMUTBn0gHeAUFVX3lxTFBpb2ctQ2N1UlBqRTU0enhVUndTaGhkZ09Dc3BmeGFTamNLUkQxeHZ0a1RSeXo4ck42NDVLUmlYZFFCcGlYdTJBcjRQZGJYLURfbmJpRlJlcllVRUNEQnNlRjdxLWpEWWZMb0JPbmFpdkN1clJiejBzRDRkSlpFLWJSSEVQNmRac1N3eHN5Ylk1djhwSnZIYm5pUVZac1JGYTl2NF9Gajg5NE9SRVIyenNZU0V4SVhFMVRBLWNxX1diWWhlRFNPWFVNMERvNUhXM0UyN2lkUDdZTmlUWVF3dw?oc=5</t>
+  </si>
+  <si>
+    <t>['cúmplales', 'indígenas']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro ya envió invitación a Donald Trump para visitar Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxQSURQaTRRUS1kcUktay1LWm1YaGNaSUR0VUZGbktGTGVZSU5HSUxyaE5ha2huSFZNbW1uZ2NRUGlZWU1Ea0ZZR3gxOWQ0Znl0MXVmSFlEVE91WmJmQU1WWVRrUEJEbGFwclpQVE5mWllYVS1aQm5TQlZxdHZhN3l0OWF2OVpFTTUxZTFld3pzS2g1WFl3OTJOVkFvRWUzZnpmdkNRajdGVFprZS1YMjFYV2E3QUdCN0Y3eWxCa3RyM2thb25vLXlYaFQ2RHFIT3pkZ3BEZ2M2S3rSAewBQVVfeXFMUFBYelFHSXpSVXgyaUhieXZNWkg3dktZQmlQMnI5WUN2Nmk4b0VGRnVROHJ3M3lVQnM3c3pDdURCQTBhd3lCN05ZeFdRUVZ0NFgxU0M0RjNhTkJ2dndDUFRQU3E1TXdvT2JTblN4Vnpnb2E0SlF6UGF2cXctUlRjUk9KcENwN2pJWVZiaUhmXzFFek92YktJanZ1Y3AyQk5DZkdaU2ZackZ2NFJuUDRMbnBXX1k4eVdsSmk4NEJVRi0tVTRjWDdBY1VKQnNvQVFMelhJNFpYNDlDVUZhSlJoLUVhRnBOVjBGckg5Rno?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro avaló extradición de “Pipe Tuluá” un día antes de anunciar negociación con su banda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNZ3RXM0dZbXB4RDNrX1JWcjZ5WTAxN1NVWkJDbEpVX1ByMW9Pc2lzS0Zsc0RoZlM4aHB4Z2hxaXhhX2xhY2VXYmpkRTFnbWx4cDFUcEdEYlNua3FJREw4WlFsaWN4TjNjOEd1TGhXUFVpSG42SXRSOHRGRF9QOVpsS3llZGMyRGFuVHk4eE80bmdreWdrQTl6MEJ4MHZSX2wwRThGX0JBUHpvU3N2djhadjBRMNIBxwFBVV95cUxOV3l6TGlQWmIyQkNoRHktQkRtS3E1ZTBLUGxMdXJiamNpbkRwOUhyTVdBUzZ1QXB1VnF5OXV4eXZCUjhlODR0QmgyLU1GbXpPcXJfcHdWZDI0b2w5cUpwdWlrRk1TY2RxOUtlVVRVM3NjakhSZTk1TTVMbGZob3E3aFRPaXp5QkRMdGFVellNSjUzcEpMLTU3UWZtRlE2NlhEN2tHeXVLTGRlTmxZQTEtUy1STE1pUGlhWkUtQUdQWU5Od3BaZTBZ?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro da luz verde a acercamientos de paz con bandas de Barranquilla Los Pepes y Los Costeños</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxNX0otaG5sYjNkZXNDc0xMeGJoa3BGdC1ETHNyQkR2SE82dHE3cVhTVWZ4bHFfZlZxbTR1MFR2b0M3YzYyYnR3OXd5Z1FsV0xoNEI4ZnpKV1lLd2xxVjRfWmU4Y3JodkwzTEV4dzVfMFZiU0Rvb3FsT0FrbVN1T2RwS3FXaVhQQ2QzdXg1SjFfbkJKaUVQZ05RSTRoYXdQWFNKMTlEaGFsSWN0dERlYm8yUzlMR0JLRzNNRjJta2dFTndVTUJadTlnaXA2S1djNXdweVAwT01EcnRhd2RIT2V4LVdlNmpCd1I0WHF1VW9pVVctdTBGeTZxSdIBjAJBVV95cUxOb1M2cUEtd0R0UTQ5aE9xY2dXOVV3dk9GNmZWUWx4aVFGRzBQS3p6ZzlYbEZSNzN4UzNDa3pHM0REMkZNU2pGOUxJZXgxSHlzTGZnMV8xYmVDbS1hRmdHNGh5RXVHSlpnSjVaR1ZZUGVnbEkxOFB4bTRrbWxod3c3ejZybjdPUVJiVmlzd1hFMzM2TC0yWFlwUTdNWlhJVEZDckZrdW9aRVpEX0ZaenZmZF9DWTlIVy04dU9FS2x2S3c4SVlCeXdIRGNfRF9XSjhvUXctY2plSVpfbWdQc3hzMU9JRGlPX2VOTnUyRTF3NUVYUXQ3WjRBTlF0VGF1dklFYXpDeVFNaFdHb0wx?oc=5</t>
+  </si>
+  <si>
+    <t>Los otros bombardeos del gobierno Petro que denunciaron en moción de censura contra mindefensa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPbEtJcTRmSHFVVUlLbVk3cGlJbU9RRnJKNUNTdVhPSEw1SUxtam84MWtNZFdJVEllNUt2NVZxT244SHg0czJzZHh6dzZldGsyVmR1dG1KNkpGdWNGTTFlTjlJcXUyZFBZTm1Sam5zazJ5RVA4VFBJSUpfbzhIQXZuSldiRmV3Ykh6UFZ5NE5ZbjZpdmlzWHJHdlY0U2ZySHlYVFZjaHFOa3BMNHBrMFdXdW9oUTh6bEF4YWRiLWVpaXQ1MkZOZDd3bFVJU2pqQdIB4gFBVV95cUxQT2s3THd6NDJhejN2MTNPLTlvM0NUWHE2X2NTWGVBd3ZpV3g2em4xUm90XzhVMThrclFQdWVqSjFRejMwY3VFS3hFaV9fRlkwT2lpc3R4bXdXbTNETEgyZXdncWdOZzZneTFyS2tBMUVaRkZFS2NyTk1fYmJiUUhYeVZwWjdFZGZielZ6QUNCcTVNSHg4NEIxcUVPcGdlUkJPV1oydy1qZzZfVUd6Tkk3SVRsLXVrRVVXaUxKeldNMGlITEZ2ZVBfR3pTMVgyOW94VEhQTXdxd09lbHQ0SVpHQkVn?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro derogó el nombramiento de Jorge Iván Ospina como embajador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQT3FLaEE2X3c1UzU3SnV2MXFEdXRGaGZOTF9RcXFrRzVodkxvWloxdGZSczRiYzN1ZDl6SjZqMnRUMHV5c21SUWpmTTZIbFlDYkRZR0UtUDA2b2NSbVExb3k5RklMSlVNWGl5SXgyLTJ0OGtQQWh4S3JkU0lESmRmOGpsV0dVVXpHSEtqV19laldDRVgxd2piNTJERk9TRHVQdmN2LXdCR0I5OGt2T1lUZzV4SjJlOVI3UUJxS0w1QUhqODdXcmNheTJqWTBrOHVYcFlqbTZoNWd5aFV5bXdCMdIB9AFBVV95cUxOeURJZ3FSR2p5VHIwMktlQ3BpN0JUMzVKTzRlZ3Zua1A4UlZOS3NBandqbzlqUFo3NTFqQnBNRmVIR3FicmoycERmTGVtOHdnZnlPalZNYWZfVXJQY2MyVjBpQk9JaEpwOGcxVmRocXFLT2VxVWgyNW9RcWYzRVZCNVVJWFdqX3d6eWtFdEJYZy1zYndGbVZqSTZaSC1pb0lGamZHUnpTT2puVjAtMl9XVVJlUllGY29zNjJDYnctaDJveUs3emdzUms2cjJMTXdsNDhMRTBjNjUtOEtNZGJON0U0bnpQMlVDVjBfUDZfVzlSX0M1?oc=5</t>
+  </si>
+  <si>
+    <t>Petro autoriza diálogos exploratorios de paz con el grupo criminal La Inmaculada, que opera en Tuluá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxNMGR5Y1NYclN3U3Y4VjVGLWtPanVXQnk0WmxTTDNIQW9OMFhCWS1NYW9EbDREWTBhbXFPZHo2NlRCbUdSbkpVZUJEV2VXU3lOM0dGbmJHVlF3QzZjMkJKY2RwQjA4eGF5TllrVGNyQ25TT0JmcjNKMjk3bkJDSTBBeU1aS1E5aDdhN2JXN1RHX0JERFVHWVlTNWxVSHVvQ1ViY29oaElJdnMzam45cTFsSy1Ob3hiU21RZ2psdGRsTTZsaDYwd0ZtWFE5SWZWaXpKNXfSAeYBQVVfeXFMTjAwLUVGUkhnSUxJQXhvUm5tQWJoSndxMlM1cGpPSGp3LXdlcGZ1b0E2aEV3WTllNURGbUFQenItUEJGUTlmUDhGb0p3eHppSmFQNGVabmFBMS16NU51RmFkOUNDd2hVcktpdGZmZ3hrbllDMk55a3g2S1Q4a3ZMamI3eEFPVkN2ZlA3YnRQeUZqd0J6dFN4bkpyR3ZuR0FXYnNabkRDM0FDN0QxQ3dkU0E0SEpzaDVXVE9yMDFHbE8wM2xnc3dkVmx0YURpYjMwQ01HWGx5ZlZBTjB2VVZldHFFSTM1WkE?oc=5</t>
+  </si>
+  <si>
+    <t>['exploratorios', 'criminal']</t>
+  </si>
+  <si>
+    <t>Petro criticó a Mac Master y dio razones por las que declararía emergencia económica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQQlhMQVJlTndqeVlMMDJJMGtaaG5PY1ZSaTh2TVhhOUd5QXFrZjJSdzB3VFV0a3RXcjl1QXUyMGFhZjJhczZwRkRfb1UzSlRKTVZDbU03S0IyaHc5SndlVG42MUhlMWMwb1dBSlF6bHNFNmlPYl9TOHZCVlpmSDhvY3NCTGlLYk9PWVN0aWtlWUVHTG1XWXl1Qkx5R3VNRFJtb2dyRjF0enl6UmU1ZE80MEthc3hzZmItdkdfR09TMC1uSmJqcFN5bmVwcF_SAcwBQVVfeXFMTVdpT2d0QkhQNEgwYWFiSXB1NjBWQVF0SVJFNE5UZHRvQ0ZqSWVjTEM2cG1DeXVPZ2xFanBOc3pURGd1UVFHQ3ZxTFdPVURnTmIzTk85bjc1QXc5UHZhbThOMDFyN3JocWJYYWhUakFvdW5YdV8xeVBvU3hQS2NDNU54TDA5eFBqVFJ5QTE1aWZWWjBsTFB1ZDFYOVBUN2xja01NLTJ1d1NpY0dCaEEtX3QxbXVxTDhPRHNRZTdrV1FJejFmRHFIVnQwU1Bs?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro busca que algunos barrios taller se puedan convertir en zonas francas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOVDk2eDltcGhReE1OeEY4V0M4SjZSTTlCWkR6cU5EUzFiZHo3NFVlTE1PYU03ckhjaXNzcDN4dFdjZnpYZjVnN0VvdTNkb2hXXzB3bHBUa1FuTWxZaG1jZHFUYktLemtiMHkxWUVYODRoS21TUXI4cG10YjA4c1lldllWQXZSZl8zUDhqZUJRY1J3ZVVBSDR6YzJ4QUE4QmZWdEdWXzdBM09fQ09YVXZoX1NYX2FaSnZhV1VnS29xeWZZM0RIQW1z0gHHAUFVX3lxTE50bUE0bGlweW9LcUxySFdHQ1hfNldIRkhHQTA0cXdCV0E0NGx1UWdjODBXRkVlM1JsaWFtQTRGbmk4bXJpYVgwb2VCSl9Ic29Bc3BWODVZSFpFVUh4OE9SbkhXcFZjVDNVMXJHUzJlRGNKYkxGRjlxeFNRT2M5emxqSThScVFwX1lZbGlCaUxITVNLOWFlbFFhdEt6SkMyRjlEVHY5aW44WlpsUFZkemU4X3RRTXJiaDJWcGc5VVBJUWZLTEdFTGc?oc=5</t>
+  </si>
+  <si>
+    <t>['francas']</t>
+  </si>
+  <si>
+    <t>‘Pipe Tuluá’ se va extraditado a Estados Unidos: gobierno Petro dio luz verde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTlFiNlhfOGUzMFJfcF9KNGZtZFQxYVk2OFFSUzRtR3V5cVRfY1VLUmhPWjNfOUtXQlExOVptSEZWaHROcnY4aTJLYUNnMTBzdUZHcC1tVG00LWRXYXhLV1VsdEExVllRZlV4OTVYb09LaFMxMk5KeHhCSlAzckdPX0YxVEZhMG1iRWo4SzN4bnZzamw2MlBPb2xjZEJvd2JHVHFpYUthMzNxZDk4c0HSAcIBQVVfeXFMT0RDVVhKVlVQRlMxbHlWcmRVVHdlQzRPQmZEVEx5WkVqZENtaVNsQk95YW5JblI4TmpUYkc2Tk9aVm9YeEx3LXVPZFg1U0dqMmxhXzVYMk91ZWc0djVJUVZGYVkyNDVTNFNNRkxVdnpqUGlxNlJKLWtxX0JRbm1oU3pHVEFUd1Nna2dkd1BfTERXRmIwT2lmMWVOMGIwUERJdWhudjI2NnB6M3dVU1l6b0t1TW40UktMUnFjTkUtMVJNdXc?oc=5</t>
+  </si>
+  <si>
+    <t>Petro anuncia pico y placa para buses; los transportadores advierten d</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOMXV6YWlTS2cwUm1Qc3ZORTZ2RTVnTk1wcGMwTzJUbElGR2pUQTdhNElXVDd4cHNmRWk0REhHY1Z4YnpfLWlHaVd5X1diY2lQb3ZhSnoyelc0ZWhzTGtkTnhiRWJHbzZ6NlkwYjMzeG9USERiWlh3aWZfZkFkUXVaNDBySVZEMFhpUjNFcG5LSjZoMENQSjVZV2hqTm96ZnpXcVNGaVU2QS03OWo4RENDUTY0dS1KS2xBQ1JVVXNJV0lhUWtqMHfSAcsBQVVfeXFMUG1ZYnQxNnhPWXg1Wk1vZVpkcHpTNjRycDVPRlhnTVNkZEkzbGcydnRCT2pBTG1PSExxQWZVRHdRRmJkVWtBc3RDeGJZZklvTmd5R3R5MS1jN21kQnpQdjBfejNzSll2LUl6TzRZOVZ4SkU1OFdHYU9hVl9sdEo2YXJqak9rOXVIbFRWUUt3V2xweDdxY2YxYzBQejB4MFQzSVAwZGp2ZDRxM21scmh2WnR3eG9UMExUR1M0d3ZZb1dKQnZyZ3liYnRuUTg?oc=5</t>
+  </si>
+  <si>
+    <t>['pico', 'placa']</t>
+  </si>
+  <si>
+    <t>“El viceministro fue apartado del cargo, no toleramos ofensas”: MinIgualdad por insulto a Andrea Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxQMEZ3ZkRDQk15RG9EclZ5bUNlNU9sTmVvekp3cHlsbjdGc1d0RHpsemRRbGZXY2w3ME40WUw1X09uc3VsYlk0dW12bWNQaUd0VlNrVkpXbHhTczN4dGZLNndfeDRYUjVUeXRmVGVTNmNhOUlzU05ydVVKZkVEdjJBanNHVVIzUjE0MjlJZGNBQ0pmUWtBWEpLSVpYZVlqc3Rtems3akdqSmhsYmFDa3MxSVRDQ3R0U3dLbXVoN0drOVZFTHhRZzd0YWlfUkFTd2tzd0HSAeYBQVVfeXFMT1VtUmk2VTNROXBQTkpVeGliSGs5YXpWM0g3LUx0YmFBMzJvdGpFbXFFZ2Q4SkZHQXE3ZHZMUXZPblYwZEVYVl8zNXE3RmJmUDlZVXROS2pZemo2aWhIR1BGdnlnU0VCZ1YtTVhPSUFUaHhxTkNOS0tvMW9rRDIxcUZ2a1FvTHV1dmI0SHdTbEJfektwZ2FHU0Z5c2pjTzdiUWxodnFvbGV6SWRMY1BqNzhhUExfZThaYzBVUS1CUEg3MlNIMmljbmozbGJrWlgxVThZNWEzS0tYM2s3MmY0akZscFFVWFE?oc=5</t>
+  </si>
+  <si>
+    <t>['ofensas']</t>
+  </si>
+  <si>
+    <t>“Sería impertinente”: fiscal general negó señalamiento de Petro de estar preocupada por Lista Clinton</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNeHBtOHRMYTRyVV8wVkcxd3h4OGdjS2tlX1hES3MzTUQ2bm1qdkxnb1g4RmJiQU9mNkl4TDNrQ1E5SGlLS0NJWFBkZ3FKeW9kWUNOWFgtckpSeU5SV1AzMjg2NjcyQVRMZkZ3NFNyOWFpa0pGVGtBcW1jQkNtU3hNek9RZWNfR19COUQ3RVg1R0xDVUhQV21ncjA0Ni10VmdB0gG0AUFVX3lxTFBQZ05JT1RCcWpvT3owaXpRQXlNdDFuV3ZxQmVfRWlvakdON29OODFTUHJlamVscXJWUzRtMk5MdktMaXQ4bFNnNHRpZ0NlV3E1WURvdFkzM1hTX09zTE9tV09LZUtpdXUteG96UHhPSHh1cnh0NG5zX2RETXRMTmxhd1Ezd2R3MDM0UmRydzNZeHY4elFzRE5qSXRJMjRZcUZmWjJGWGRDOUtoV3Ywc2FicnEtVw?oc=5</t>
+  </si>
+  <si>
+    <t>['impertinente', 'general', 'preocupada']</t>
+  </si>
+  <si>
+    <t>Petro plantea la posibilidad de una “flotilla en el Caribe”, como en Gaza</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQeWl2NFVFTUtUTTJTTmJUQ1NLNS1rUldXZEd3MmJRQ24wY2lVM2pZdjJ2S1FXeklYT1ZGU21ON3pGdXI5azNMdWE2MlNWWmlvM2JJZkE5VmtUTVpWVF96Zk5OTXUyM3N6U2xFMlJZbnF1X1ljaXg2QkI5bU5HbGJXd01JMjNnWDE1Qmp6OE40TzRPWHdSeUV6UkItbDlVMnF2LTAtQmdnRk04OWVx0gHAAUFVX3lxTE1kb3FzcnVMV3o5b2hsemgyZHYwdUExenEwcDVxYnBxM29oZ2xvd3o3VlFSNVhfak5waXFCMnNRX0xBZWhJUEFqT0ptRWs3MXBHWVN6ejhIQ2R5RWU0YzJzUlJkRVRmREYzczJ4ZVBQcnpFZTBaS2VWVmRCRnhUNEEtQlQySDVuQ3RSa0lfWlNGWVAxa1ZLZDZJN1Q2UlhLbEFxa2o5SU9NOElYUFdqNzZTM2xSTmV3anp0c3A3YzFpMA?oc=5</t>
+  </si>
+  <si>
+    <t>Tribunal ordena al Servicio Geológico Colombiano abstenerse de emitir publicidad del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxQQzdPbU44eGpYN2t0bUVUNHV0SHBMMlByLXkxeUlWQThMcGpkR1B2cXBIa0pvVFN4Tl9JQnlFS3ZsRkNIb0YtM2ZJdUJHYlpPTklQVnFMeEw2VWNEd05tLWI2UW56aHdCSElVTmRrU0JyUnZqM3Z0RkM1SHo1YVlKd2VzRFU2Q1RLTGl3NTJMWVpNX0JNeVU0ZngzYVR3amY4WDBSYmd5aUNMV25kZkREbkZSM3RWdFdmODZLa0tMYkNZcDJCdU04a29BQW9QVjJ0cDJN0gHnAUFVX3lxTE9GY2RKZGZ6M3ZRWlBLNkJGWW1JaWxvSHlTY29WS28zZHJ5U0lMUXMyeG9pM2NtNk94OXE1cmY3Y1Z1ZGVVaFNxRnZobGF1OWcybjZoTkxuWGlYT3lWSWFpZnlvVTk3aUNnTGkxdW9nU1plbmJiUnNycXZ5V09kTnBzd1RYOHhGd1hteEZjOGNjaWg1d3FXN2VhR3hVcG9DenVTeUdzdklSSS1IN1laV0lQVmhsdk4yeE9fSWRXNUc4b2Voc2M4UWM2RVNtLUN4MFpVVmkwWnlVT1VkdGVpM1RNd3I0MXI3QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro autorizó la extradición de alias ‘Pipe Tuluá’ a Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQeHN4YTBISjBCekIyVmtuVlVhb2lqX1NXY0NDdm9RVVQwS3h3X3FmTFRCN0FtTmJRTUR4b012aEdqQjFIemc5QTE1TFV6X1BJTl9la3VkdUxxbjZsc1UwNWxtZEd2cGxnQ2RCQ2dzamREeFFtUWxSZkZEak1HZEhYRUY4eDNIb0NIc1pFRzhFU3AxVG5Ubkg4Zm1uSUQ0cHQ0TWo5S0Y5dVBXMjlEVkRrSTVwaWs2UdIBygFBVV95cUxONjVjRkpzWVlmbzVvV21zR25HVl9ldUppQTZkLUFSaGFaYUE3R3ItNWdPOWJYQm85STRpbVRBUEcyRDZUMFNENmc1ZFIxUnE4LURfcVdwTGdFMGxySkNobEZacVp5OV8zbGFlMnhXVDRwdVRTUUtWZVB3WWZrRHQyR2dFVDFJdHFSNUhpWng0bi1HVzFkNFBkc1FnMU54YTBnekdTM2FGVHFwZkQzS3lyUGozTWllOXl3N0Y2OVFUNGxXa2FnLUpSS0NR?oc=5</t>
+  </si>
+  <si>
+    <t>La Casa Blanca dijo que no le consta una invitación de Petro a Trump para visitar Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQWm02NU5Vb1VVZWRyNnBmTjRNNVByMUFKVVZSMWRuODBOekRpNlVKVDJOdWNWUkJUZVJQU2dLMTA2M0k1eWUxRC1yeUVBOG5vMHBmRnBCd2xZMjdmS0Z1dVpONnkzRmNLQW1NMWs3cDFpV3JrUlcyanVhemRVcUw1TjdWQ3g1eHRPeXhWb0lMdkMxQnhTdi1kV1V4QW9rLUJRNDNvcHBUcGItT21ObHJfbWFUUndHVXFwM05DUkZIcHQzRVdQLTlB0gHbAUFVX3lxTFB2cVV6NS0wMHBPdG9xeXRDMVhPOTFzOHgySTVaSzRjSUhUWU5GS3Z6cGtsNEd2UjJmc2trcnJicXhZdHZiSUJyeFVkbnkxUU96dm90TVFFQ1pEcXl3YlU5TVBDenI3bm5UbF9IQXROZy13TkJFZC04dXNjSU5meFctRHNoaFVfME1Pc0tkbEpYWG83S1BwTExXQlJNeHVKekpPTkU0Q21HQzF6Z0NZZFpTdEFMc3ZOY2dfQXMzNlZqQkhLZExtNHc4Ym03VU80ZHV6d2JKcWJTd0I2MA?oc=5</t>
+  </si>
+  <si>
+    <t>Advertencia de Trump a Petro: ¿por qué Colombia es el “siguiente objetivo” tras la ofensiva antidrogas?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxOd3BtVnRvQklHa1o5VzhNM2lTRk1fS2hSMUFGSVE1RUhxRFpqMlVlMzNUSkZDMWpUWmx0WlZRSlpvRWpNVFpPUjJHVzNqYUExX1QtdkZsYnFickdmQkV0RllRalFDempMeVdyb19vWFh3UVZ3MmJhc2hNWUhfLVM4czVCTlFyWmpKZTg0cWFibDNma0V3SUlVa2QtcG01QVRCUEplbG9aNm91dU1MTzl2ZmxUTG9TTkZ2bjh3ajlrb0xrT3hnai1WWURnSHNTaWJEZjBpZzZMZzNHUTB2eFpVVWpfd0VlcUM2TEF4dg?oc=5</t>
+  </si>
+  <si>
+    <t>['siguiente', 'antidrogas']</t>
+  </si>
+  <si>
+    <t>“Colombia no tendría por qué decirle que no”: gobierno Petro no descarta darle asilo a Maduro | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQNndSVy14d251VEtXUUplNGVhUmpuV3ROY0FWakMtVHA0VEFJRXU1b2wzMzdUMjlHNWt1VUVaV216SWpPRE0ydFFmV19Kc3ZkUzdLNnRvb2tISFQ0Q0RsZEZpa195SWpzRkR5RGZNaGtfNElDNzFyUVQ4a2tNQjJwVU1sd01sSjYtd3poVFZJbDNtT29oVUFmRXpQYVFUTW1oUDA5eW5ZdmlVS1hZQ0pQWXpSdEdaXzV6X0HSAb8BQVVfeXFMUHc2U29CSmRvSVk1VGU2UHRMSUYzSUYtc0JONVZmSzRVTzF4eFNBci1jTTNVUk9lYURaR0lFSHJDMGVFNHRqaWNUVEUyNlpOZU1qM1ZDaUh1dUYtRUpXd2hIS2FST29IcmVKOERGcjdkcGtlaGdEOFRpMURERHMxb1I0RDNkdEt6VUZORTVuVnRleVQ1WGc2c1NrR3FkYXBiU25SV0hlT2lDRWlaTG5xbkVoUHB5dl9ZRE4wMHZiYzg?oc=5</t>
+  </si>
+  <si>
+    <t>MinIgualdad: Destituyen a viceministro tras revelación de EL COLOMBIANO sobre insultos a la familia Petro | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNa3lhYTFGT2syUzhKRzVxVDh2c0daaHE5TkFqVHJFRWhTcmhWWk5zemlPRThndVF6bHY2aUFrcnFTWldVTTN0bjNtT2hsUTltbV96Y0wwWVZmSG1LWDd4TXNsM2E0MnhycHhUSjBSelFXU3VsbWhtM0pqRnpwUXVYTlhmV2laVEJZOG1vbGZwVkdrQ0cza05sbExuRWVudVNtaWRKRnA4TndNX1ZSd1hTSDlWdjR3NkhZcjVObGhTR3YtQjDSAcgBQVVfeXFMT25aNTNQcDRyU1dMVFhpZnhCNXFVblVmWDZLUEY2cHE1b2xzcDBiazM1Zms4STRjZXRBeVBNTTlvQjdYZ1BndFBLc1QyMU9MeHY1NGI0bkpvengtOFdtdGstZElfRVFNMjczdzZMTHhtU09JZmRwTDNpeWxQVU1COS1FbTlQdjlDS2R4T3VYT0thcGpNb2x2Z0U2dVhLVnJaY3drOVp5c01jSllYamRzS0lVdk5lQzNmYWhzTFlYZXYzT0o5Z05IYmc?oc=5</t>
+  </si>
+  <si>
+    <t>Casa Blanca reaccionó a la invitación que Petro hizo a Trump para visitar Colombia: “Ha dicho cosas alarmantes e insultantes hacia EE. UU.” | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQTExtVWU2S1BLaUtvYjhzUnhSTjBoTXVGdmptQzE0ZVBYNXY0eXBYdGV5ZHhFMjFZWTlVVS0xeTJBc1gtWFpueFI5WlZCQnhkYktuVlpPSC1UWnNINUxoRXJkVk5lVGJXMjlQWjNHQ25iVEsxZV9XZmhBYy1Nb09zZ0JsZk9KWUpPZFFacF9kZmVmQy1ZQ1pHck96V0FCVUdjUi1NVGlBbDBrZWfSAbABQVVfeXFMTU1hS0dEMkw4Y2ZrWlRSa1ZhT3gwUkVoSldMOTRTRnZrSnhXd2xRcXpGa3VqMlE0Z005QVV5ZlRybm5PWURxdWhuZV9ULUgzbEhiSWVFa3YwOXBoQ2E2RmlBQlRGOGxuaVh1eUc2X2E5bV9XaVlSWmJVNmRZNkYyZ1NkYXd1bk84ZTYxRXBmYUFBZjI5XzFzWTN4TGVlb3hzV0hnX2s2b0dxcmNUcC1oYWE?oc=5</t>
+  </si>
+  <si>
+    <t>['alarmantes']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro autoriza la extradición de ‘Pipe Tuluá’ a EE. UU. por narcotráfico | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQaUVXcHhDbFk5VER6NzNvTVlyUWg2eXJVd0wwamI4M3JBTVUyOC1YdlpVMUhOYlVOQVNHTHp6UXBjdkU1MWpaOWFtMjlfZXM2NnpERWpvZmFvMUJnTmktQnJuQVdWZWl5YUMtYXhQOWhWc2ZBSTBUVkVTcUxTbnEzV1h1NjVhaWNXNkVwX3lNaUpjSXdNamhTc09yWV9iYTVtTy13OXpqWnlsOW9KTjljSEVDU0zSAboBQVVfeXFMTzdKaDVuNU1nQU14S1NuSjlycEczX3loakdyS3ZNX2lXOGlxVG1YN2xRUEJGdHNXNVItVHQtSHVjQXlDWFUtc3hUOFVZZ3BuZ0RDQUVvZTU4ODdnM1Z4OW5PZE15QWJoOE15ZUxLMkdzSy1BLU1kVXdDNVBDTUE2b2NRLWxvSGJ4Xy1tOWkzbEJZYlBUaWtULTVmeng5UjBJeGp1NGJGdXU3REwwMDhJOTRfN3BNOXFpOHd3?oc=5</t>
+  </si>
+  <si>
+    <t>Claves diplomáticas, escenarios y lo que tendría que pasar para que venga Trump a Colombia tras invitación de Petro | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOWUFsWFppT0t2N2lNYU5rZjJCSDhmU2t4dmV4SWduTERLeEY5aFV4ZVl6a2c1Mnl0dEtuNW5SNG96TXFrQVM2ZjlhUFg0WjQxUlBYTXNCSFNUUlNPeXdzd1FrTXMxTjNQUzlZYWI2T25pZjB1aWtRSFNyS2Vmdk1vUkZpOVB4eVNIZWhkNDhzM1duMVRxQ1JNdtIBngFBVV95cUxORlBXd09PX1RhRFhwUF9KVk82YVZKSHZrYWxuVksxOEh6MU05NnJhYmw4MEZtSVEzcXlsVWJSZ2J0clowR0Z2Z1E3WW9JSm05MzBjakNJSEhHM0pRNHRZSUJfdDFERFlwTDBIWlptd3gweWladkI5X3pOa0NXbHFLXzYzcWdRTkxPRUYtTjdzWGNFaFV5N2xOSW1EUFJ6QQ?oc=5</t>
+  </si>
+  <si>
+    <t>['diplomáticas']</t>
+  </si>
+  <si>
+    <t>Petro ordena a Ecopetrol bajar el precio del gas y pide a empresas no preferir el gas importado | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQakFNV2lOOGlmeFp3Qml0UUJvWTJueVk4VGYzanFjTXRqd2ZtVDFXYkliT01tRnZXX1hoM0xKX2RzVUlqdjFSX1MtZ3dTVHhfTU5BaUxhd3FQZ0hacUlIblNXWURjdkhJUlJsakF5LV83ckJlb1RXQm0tUWZVUjdFTUxMR1RMUHBMQkI5bGs1MGQtZ29SekNkUDBXVVZIdEJJMktCcjRfMTF1aHZhYjIya1EwdF81dU1Za1HSAb8BQVVfeXFMT0o3STdScFdOOHNoT3k1WnAySzkzdEtXY3JCeWtfV2Nlbzc5b0E1M2dZdkJPTHE0Rkc3cjM3dHB6R0pFVmNYTnZFUDBYaEtVek1TeGc0WGRBSHh4bnljX1hveDVSTlhtOGdSTlRSMVpZQmhCN1V0M0J1UUNiSzc3Y28ya2Nya2MxRVh0ZlFhekNLanJZM3A0SjRUZVV6UjJWWXJkMFlzRzd0aVVyLUhYRUhlNXNseUk4MTc4dzg3aW8?oc=5</t>
+  </si>
+  <si>
+    <t>['importado']</t>
+  </si>
+  <si>
+    <t>Fiscalía evalúa ordenar captura de alias Calarcá, delegado en la paz total de Petro, tras hallazgos en sus celulares</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNVmNJMGwzX0ItWkpMYnA3cTNmQ0IzM3RTbHh1QWw0UnhIMm9MdkUwMWRRNnE3OVJocGJlRXJ1VWJtU1FZLVRzU3VJVHFCYzlWNm04TmdLQl9ybHVlbXg5N201dDFrajJnWDMtWWJmTnl5SE16bjZ0SS1lalJDc2pyemNXcDd0YmlKc3RWa1Vfaw?oc=5</t>
+  </si>
+  <si>
+    <t>Madre de joven de la Primera Línea asesinado por las disidencias le exige a Petro la entrega del cuerpo | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNQWtHblloN0JWWV9lY2JWcTRGOUNhQzMxTjlYRmdMbkpWQW1GeGdoVFJyRlBTQ1RKblFRYnRjeEQ0NUFkZF9feUQ0WlNQcVJ4WkpobUVuc0FLUFFET3V2NFc1Y3lSS2NQbEY1bEw3N25YTExWUjNaQVppaFNGbVhnTjUtempGZ2hfdW9tN1Nub3h2S3h2MWY2WllkYkE3SXdjM0RoUW1tQ0VNWDVqU292YkRmemVnMjdwTW5KeHVORUh3YzTSAcgBQVVfeXFMTkZOeGp2YmlOeVM2UE1GaHJvMy1KX3FpR0d0Z1p1TDZ2NXNKclZPaDFYMHYyUmxzV05EdVdqR1RIMkxWY3VOSGZmSGRuWjUzZzlmcXZCb3VTWUlwLV9BN0cyWlhsQklpbmVlSUNjNzJnR0pLQVpJLS1zSjFXaGZrMUZKZ0daY05EVjVFUnAzbEMtUlpRSXV5WDV4SVFzbEhKTzVIWmpUR0U0QjRpOS05eHpEY3g2XzNwVU9tZmtJVVZwSVh6QmkycE8?oc=5</t>
+  </si>
+  <si>
+    <t>['asesinado']</t>
+  </si>
+  <si>
+    <t>asesinado</t>
+  </si>
+  <si>
+    <t>Petro autoriza extradición de Pipe Tuluá y acercamientos con “La Inmaculada”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNY2ZKeGx5VlpXRTdDQTNXc2k4NUtMZ3R0VllxNVBnc2s3V0pBUHRST25fVElJRjU3QWR6SXBhcnpXcERRRHV5bUl3elR4NmdUSlFKdm5OMTZwODAySVNDWnRnRWhubk1CbWlJVU5zWkxDN1ZkSzNzQmZKTTBOdTZPVDh6b1Q2MTI3OUxkVEtGTzNsSklDYjVTUThXQXhYaTdLQmJmaXZmM3F4S2hDeVFORVFn?oc=5</t>
+  </si>
+  <si>
+    <t>Petro conoció previamente el informe de Angie Rodríguez contra Carrillo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQQ2hrbWhmZGhFcmxuTmhBX2RVZ2lHRElLMUZDMmtEVGpMSkI3R2c5cmFsUWxxNVlJdzlSanYxS2M5ZWVFVzV6YWtLVkpoNl83blRkZ0haSGcweV82c0txdllQN3d0Mm9zWUJCQTNhYzA4WmZ3ZGgtbktWcE1HVFhLNEJ6bkVHUGlzaEpLTDBSNDBCeV9HaE5DZDlkRV9EVEdOUnZMcnE5b3BwWHFYTVE?oc=5</t>
+  </si>
+  <si>
+    <t>Trump responderá directamente invitación de Petro a Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPWC1UUmV3ejdzRnpuQ3NZalJjeXlCTVcwazNQc3NLX3RMdWlUcEZrT3dfLVdFUG0wcmt3TlpSWWdnYzlDX28yVzlKejVIM291ZnlzSmdiNktSM1lYRmFCaFdKZEVmSlZMaFliM3VUbkVhRXpRWVdISE1EaERDSl8xZDUtdXJKODJ4NGIyazU0b2pSaDlJNzdhZmxPejVaR28?oc=5</t>
+  </si>
+  <si>
+    <t>Video del Times Square con mensaje “viva Petro” fue creado con IA</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxORTc3R0QzNVNEVEJqMmdkQkdOV1BXRTFfNElTQWlqdzhhdEY2bnZVa2tGY0dVY0VCV1dpTk9NVjNUOVgyTVBOQzNkdnRRTy1DZTZwZDBoVTE2TGpUekhnZy1yMTdIRHhSLVRGRk1PY25QeDdaNzIxbGNnTUpQQ2NQNWZWMHdSblNMNmtzTExPU2NZQUdIVnQ5dmFfVkZlek9PNzBxWnVKQlN4S3cya2FRUDVEWl80NXpfUHZHMA?oc=5</t>
+  </si>
+  <si>
+    <t>['viva']</t>
+  </si>
+  <si>
+    <t>Vice de Igualdad es destituido tras insultos contra hija de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNUHh1cUFwR0xVaElDZG0zSlBSbW9reGdscTAwWkZIaVJaYVpuLTV5RllsSGZNdC1EMTlrVVRSSGtSNGlRM2ZBajZDeXJYZjlxOGs0SFRDQ1lQUTVydlNrRmdOZkRpY1JoVU84dDU5eVV6T0JCNVhVcUV3YzFscGQwS1JueW5oY0Q0VWQtM0lIQm1TVE5xOXdsbjFRcFZWYnBYU0lRXzlR?oc=5</t>
+  </si>
+  <si>
+    <t>La Casa Blanca dice que no le consta una invitación de Petro a Trump para visitar Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxOaDI4SHRKUV9OSVprM0p4ZllKTWRMMHNjNFUxMzZWa3ZVN2QxYS11a083SWJ3c2FIam84RExOTEp4cTIyYmhZaUJGMEY3OFNKQzNjTGR0emhGSTFZRHpKSnRqZlJoSHAtNm9oeC02Mnl2OUFrYkZfRmxjWFVncFRVa2pfR2FtTnlGREp0Ym1iSXkxRUR2dHBjdTlnd01hV210dkRWNE5ZN0xfbjJWVHhZczBjQk9QOEcxLVVKTndjc1dBN0Vud01sLTFjcWRUdEhYY3fSAewBQVVfeXFMTWdUcW9GOUtYOE9aRkxqMXVRTTRIUzJGSU1FM0N5Z2FqS0lfRzJETG10dnNCOVA0TV9xR1J0Q3MxTlk4UFA5WU12bGVVelUwbkNkMEt3YUpNWTV6NzJYOHE2OGZ2WlQ4bWNQRWJtVkdvbTd5VHdud3pDUDk4bHhCU1NrRGRQeVp1TmI4LWcyamRfTk9uQU5sWUlvbzVTXzhkbXhtY19lcVJGeWQyckxjcjhObTJLRlJjZVl0WEZNZnhuYkpKWEFIZDJXOFhCVkxXYXd2UC1ucFBvMFROWXZSVHdiZEpXdkNlc05CMTE?oc=5</t>
+  </si>
+  <si>
+    <t>Petro cuestiona que presidentes de la región no dialoguen ante ataques de EE. UU. en el Caribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNQW1OVDAzVDZUc1RNY0poMlZaVDlrcU95UGJMRzdIbDFGNE8xV3pOVTBBMTdaMUQzUUZaRFZkM2kwMlA3cDAtNEZBTW0xc3daSDBhdWlpSnE1RWViNHRndE9DLUk0X2NLYnNORUlvS1ppa2drbUJCSVQzZWZsSTUzRUFGbndLdUFvNDBPTUZYaDZTa0x5OWlqZkNuNFFyQXV2MzFRN3JEVHZyV3Q2dlNKWFBfdDY5RVF1akhSemw5c2FBTDZvNmYwdC1sUHlfTGVacV9iaw?oc=5</t>
+  </si>
+  <si>
+    <t>Petro dio vía libre a la extradición a Estados Unidos de ‘Pipe Tuluá’, máximo cabecilla de La Inmaculada</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQMkZiRGtJWXFSQVpsUlhaMm01UFBRa2hTeDB1VlVnM3NKTmVhaGd0VVpTYWVBR3kwR2c0U0hkaHZ3VU1yWkpCZDRWY2JCX0VSRnhmbXZIT3ZTMEJoRm03Y0ZoU0JyZmt2QlNQZUJKVF9PRXpLWVdSVm9mRVJPLTUtVUJaTW1LcnhmTDlLeE5vY1FKcW1pX0RJWlAyOGt0SklqN1A2bllhRTEyTEJwTlNXQXRta2hkcFpBZWVPRGpsWV84RzNqeEsxOEZ6WmR1ci1IOXMtSzRRZl8xcWpLUmN0Y9IB-wFBVV95cUxPVVdiaU8wQ3VjdWVQMEUzdVg1dlNUR1N4aDdGTTVNR3hoeC12UEQ5d3FBajJFd1BuU2tBeXg5eDdadzAzVms1bHhjRDVYa3paa3pYMjl4QTlUY283ZjUxUmQ4cEFWdFkxTVN4bXdraUxLNWVGX1pOTmQ4ZzV1R2ZvcXFpeWZBSUlfMXhOSDJiNTEzMkl5UVZScUNQUlFIRTU4RklVY19qMG1qOUNtcFoybkxFVzhzWGVNT2tGQ3hfZ3VTMjlON19tYngzM0pHeWl6ZGs1WXZzREtqOFFmTlM5MG9Ed1p0YXllYnN4T0M5RTloWkRyUWwyODgwZw?oc=5</t>
+  </si>
+  <si>
+    <t>['libre', 'máximo']</t>
+  </si>
+  <si>
+    <t>Petro anunció la inscripción del comité para una Asamblea Constituyente antes de que termine diciembre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNY0JtU2RkUFBWNVkwbUk2cGI2MTU4Qk14WmpleUxvSFNQcVA1c0xGQ2FjVlU4aV85ck5xeTRXSU1lV2UteUh5U01Femh0M21kWmhyOFFnei12Xy0xTXJ1OE90MFBZaUpNYXhHa1RqdkhaNU5fWmJPTjZ2MGhFRW1ZLXpRSkx2cEM4VkQ1WWV1SUZXUDVqZ18xdE5MQjdmY1doV2tWRDROOUo3TXB6TGdmWjlKdXZ3R2RPN0lucWNZZGR1WlhaZy03ZDNqOVdqMTNUeFpKS1N3b0pMd1NRcXfSAfgBQVVfeXFMTXdtc1ZyMnd6RllXYUtEMHhzWVllUXFidW9CZVpDUGdFQVhwTjdUc1UxaldfUkpmM0tMYVNNbGZPWTVnLVpFbHpMQ0paQ2ZQekJiU3MteDNsTkZjVjVfQk9Nb3NzNnhXTGxXVllXREFjb3ItTVdiUzdiS0JJb1B5UFhUY3hCQXZlMDduUG9fb2J6bmJLN1dzS0gtbDk1UWphcjVtSl9fdnpzZ1RhTEVob0djb0hUZVRUTE1xUWZTZGxQQ1Jjc0x0a3E0ZkdyRjlMMWJOM054a3A2b19NaVJwM2xSQXdsT2psZ2FKNmxROGdyU2JaeFFZbko?oc=5</t>
+  </si>
+  <si>
+    <t>Petro criticó a Bruce Mac Master y expuso el por qué declararía emergencia económica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNZDk2elAyUGF5c1lzcTVCUGUyOHNZQmpHdHRERnlhd3pyeEg4WGFMMXhSdDhEUnVfNFVyYUw2ODQwRWpoUFRFMnM4OGs5TGRWbmtlcHdRREhGQ0lNNGpSNDA3bl95MnJiaHZDckV5N0NRaHFCSE9yTmFmeS1HQktKdVdzZ1JYN0ZJVzF3blVEblQ0MS0yV3VaVGdBMHk4d1hwaG1Jd1NxYm1kdGhrdEdjRVA4TUJZWW1xeGk5NkVLOGpRQXJ2ZE5NZUZB0gHkAUFVX3lxTFBtLWJVYm05MWRfX3B3T1JfYWFpRzh1TjFDR2Zxd3hnalJKeUkwSUJMMFd4VXNVaWh4U2pUVVEwOW1YXzhjOW5Ic0hmLWhBWlA5X3VhNVJMeTJEYUpoN0o5a0hlaDlzSjZvTFM4QjU1TEFZVjVXckNlN0tYUHc5MENOOHgwTWtRMDFNRk9CdTRlY1lUa2FmenV3T1cxSGNLQlRKV01XV0pjU2F2eHE4aGRIYUEzZGhYSUVpWkM2V1JjVlBOcDk0eFhZejBieVctMnl3a2FmckxzVzNUREtRMG9qMm4tTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Petro da vía libre a extradición de alias 'Pipe Tuluá', máximo cabecilla de La Inmaculada</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxOTzlaS28wNjNQWURZWXNjNWN1dWlCcEswWjFRNGpUZ3ZoM29yRzktZXo1QTBkaU9OQThCTW1rVmtyTjh3Y3g5YjB4S295YXlaWVBIbkxOWDRtUVVmd1lJREZYRUk3aWpiazlNYmZTSmFEZ3JVOHhIZE1DUjBSOE9lSzljQi0wRFdFSzE4NFhvM2lzSlM4YTM4aHlWeHdvRnlTd2U3UTNaSnlMZFZQa0lidzJXZFU4NmhocG4zWWpBLVFZU1nSAdABQVVfeXFMTjNqMzhyUE5JbUdLNzR2VmlHcVZCN0t6aUdVTU1CM1lnQnNFLUJGX3RVcHd2WGJlcThvdFVkdzc0Z1RUVVVSUVRKUlltSjdMbV9xZ2lxeVpVVlFBMEJvcEJacmYxOEVyakw0bWVvNThoNWZfVVVlMGJvQ3M0aTc1UGc5cU8yRUwzUXVpQ3NKSWRtNm8yaFdiTGoxWUpZZGNlWk9mRm5WclRPYk1JXzZDUzRsOERyU2xqSHo4bl9BblFsM1JLaHY3aXdkZTJtRTIxOA?oc=5</t>
+  </si>
+  <si>
+    <t>Escándalo de computadores de 'Calarcá' profundiza diferencias entre fiscal general y Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQal9SN3ltaE5LeEtUSjJsUGhyLTdDdFVFQzJpSk84V1BKSWdQRnlkV01ackFpMllXams3eXJfY3RwMlpMajl6ci1GMVRZSm1NOFNTd3pQc3ViS0NlbzN4U0h4dDhHUHByQ2N2MzVsSzJOdWZvOXFqWmhDNDlYQk15c255NW5OZy1OQkxrNmQ0RjRNWXo2MnVQNFozRUsxdllDTllwM0toQlktMFVhaTFZUU10Y1BERlNFRWozOG5SOXdPSXdG0gHSAUFVX3lxTFBXb0Q5MTNEVlFGS244aEJNZklBV1hRd0FoelhfOHdtcE5famRVQzlyOFRjQTc4eFoycGtRYlN3WDdTUE81RktOUTBHd1Y2NDJXVXhVT3JRYjVrU0diYmFVTS0tQnh4TGRYMktHTFlELXBQYjlqTno5RHVwUDNyalg5d0xZWjJSTmtWQ1VyVFJObDN0d1NjS19NZkxURmhIR3VpN0lKX0p6SmR5eUVoazJ2RzRNWFRQeWlKaUVfbVk2YmJ2dmc0OEJaVDB4SmNBNkJ0UQ?oc=5</t>
+  </si>
+  <si>
+    <t>['general']</t>
+  </si>
+  <si>
+    <t>Uribe responde a Petro sobre Trump: “Lo que tengo que decir del Gobierno lo digo de frente”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQLXhXNHlPdllNN256Yi1WU0hFbkgzbFUxdFM4OC1vMC1QWFpQOUk4NHZhM0YwTVh4SVVqaVVZSVJoQ015TTBZa1JEU0xtMlhqSXFYMDFmblQ5d0ZwZ3M4dFZwSjdKUEpBSFM2N0FIdk1hVzYxT2FGQTVnT18tcGxRXzM3ajctamgwTkdZU3Y2cnZyM09jeGpCeDFCMHpoRjhqVWFHc0dLd3VqYlkyV1N2MjFwWi16RVJvbVh0UUd5b2NVVFZLMXfSAdMBQVVfeXFMUHFnb24tREhwZ2JQQll6WFFTZVEtOWl4alQ2UFkwZmpiNUVJTXloQ3l4SDJCbV9FcDJkbnl4dnMyNW1rMmx3MGpid0Vwa2taMHRobnhWTkZXd21sbXNQWjJZd1JwcXJtS1Z5cTZTczE2b3ZCckpRU3p4WGk2YjYzUzNrMEg3a1FZUGhJa3dDX2lKUFRBNmtnb0tqRzJTN2VZSEU0Tjk0bDZhUUN2VlZsazFLQWZQU045Zjcxb1lZVGJ2Sm1RZ2FxcFV1OHhoRG52dnFaMA?oc=5</t>
+  </si>
+  <si>
+    <t>Casa Blanca dice que no conoce invitación de Petro a Trump para visitar Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxNYmZrQ3duRXpzdXl5M2pNZ3hQQ0lWdl9KY3NXcGRKQS1waDlsVG5LeWVpaUkzWXU1aUhEU19TYVdLYy11OWxqcDVvUDlucFhnMHNwV09MaFBZR0g2X0ZQWm9GcGVaRmI1ZXpUeHB2Q2pFTGh1MTBFYmJ2SjEzQUU1QzNQVzluSE52dkdZdXZYQm96SXpKVkNwaEtoUTR2bkJvX1RxTFJyQkQ3cW1kVnNV0gG8AUFVX3lxTE9fb0FMOW9fbElzalBMdGI2V3RfekxFQi12SFl4a1VfWlRnV2RMZjFFUEltM1c1eWdVNGwzbUhCR1UyLTZrb0QyUlI5NElueS02dGZJaVZyMVlJeXhiY2s0bFByTDhlWjFaSnhEUENxQnFpcm1Jdm1wOTE0Y3RkLTA3dFJ2cHNBeU9aREVWTjhLRHdZMm5WY1NiQlViTDVHRGROZ2I0QlpHRFNFSUZOdGpmX2lyTE1YZ0pwR0F5?oc=5</t>
+  </si>
+  <si>
+    <t>Petro y Maduro atribuyen incursión militar de EEUU en Caribe a guerra por petróleo, ¿coincidencia?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPWkRuZGxIWnh1dUhuOWoyLXBJc0FPT18wR0ZyWEQtcl9GZ2dqeWtldnFleFBDZTJubXVOa1JIdUlISmlDdF96aDEyQzBFajJMT0JpcE1yNk5xbjVXRzJWVFJ0RGs1Yk5yLXgtLTB2dGRzeFc0d09XS1h5djdWQVgzSkZuV21tUmJpWGhEdVJJNEtaZ1BLdWxjSDgxdWpMUkxPUk02S1FDTkQ0ZWFCY2pKeWZ0eDVaNzlINWNNR092T2s4d9IBzwFBVV95cUxNNld6X2pNbzhKaEt1TElTaXpwck1yOFEyNVBkclRDU1U1Znc3aTB5MVowbDZEMWsybnU5ckhPWkN0WWM0QkZwREM4QUZ5cG1hVXI1enhVdEdNMC1uUXZQdTJsZ0llbE9CbkRQbE8zNnI2VDNkeTNfV1VNTjBfOU1BM2Vqa1dzaFBkZk53TWpaQ3Q0OHRDUjZWRnhhYjM5dVN6VlAwT1Z5Rnl5ekdjNWVyMjhtWjh5TlhVVWI2eTA1cW16MU0xR19OZTc3M1FnNEk?oc=5</t>
+  </si>
+  <si>
+    <t>['militar']</t>
+  </si>
+  <si>
+    <t>Caicedo y Mr. Taxes promueven una izquierda alternativa a Petro y lanzan un salvavidas a Comunes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxNNmxaVlZaWmFTbENDd2JnS1QzNDNRdl9KeXpmRlBFRVBjQm9INWZnVjY0dzNlanRkQlh1TGM3MDF4Y3A3aFFFQ0c3S0VhUEJIQzdZRjdTZDYwd2lvTGRMcTNtbVM0b0lmVjkzVk5YeTJnNzlyNmNBTXRYWXBiNG5Yb0RjYU1OVUI2RDlNOTI2b0k5QjZNUEk1aExjaDduT0pWRmVyYmN2MUlNajBuQTYwWFVDaXNLS0psdWwyNnUxX1hxVFY2cFgwQmdKZy11bVRwYUVteUNDbGNDYndhbDhaYtIB9AFBVV95cUxOMW5Kb1hnNS0zc0lTVXVacWxiTVhKalFlWHZNZzgtcktTTC1GVVdsazI5VE5oUlE2QmUzSC1NNzFxSm5KN0NFTUhFMEppdDRhMHI3R0h0ZWs1TzFnS252OEFncHYtc2RhQ2RvbTkxQkIzb19jV2dYMmtEYm1uVzZMcmp3U2x6U0ppMDB6S3hpQU1DUGJmTE14MEZ4Q3RtMW8zOTJyRHJUS0lONjhNanlEU2dRWklRVFpvYnkwTzAzTm5rSUlTcDRudzdJckszYTJoanJSRVVqYXFmcDI4MFpkaURPVGNXdHNRN3lGQ2NtZGphamYy?oc=5</t>
+  </si>
+  <si>
+    <t>['alternativa']</t>
+  </si>
+  <si>
+    <t>Casa Blanca respondió a invitación de Petro para que Trump visite Colombia y dejó duda en el aire</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQMG83azc4QXFsbEJJUnNNYjY5akNsLXlPSWdFZGtQSVBVYmNpQXRHci1Zekx5bFJLUkdKekxfUjFhSUFFakxDbEhqVlN6WXdDTlo1Z2pUQy1BSjhzU0lBT05JUm5CY0NueWxjRWIyWTZEN3p5ZWZGN3ZFcG0tX2tqa2c4T3k0MGhkd1BIWDJXSnd6MFdmaG8tdHZwXzYtRU9uZEZHamlR0gGrAUFVX3lxTE9fVmVoekV1emthbjAwSUNmRDdnWmdVdVJaUTV6V0UyUFdjclgtYTdhNXh0SlJDWXVTN19BZGVWQlozYmFzZHZZZDB3UVNRRXBGaG1fNDJaUm1MbEIyOXU5TjZaUXk3bHNOMTFsNm9vaFpBNFRFODY5bkwybVhZeUE5eThadXpFa1ZRWDVKX3M0cmFkemE2alJqSXo5elNtaThNekxWTTRUeFFnbw?oc=5</t>
+  </si>
+  <si>
+    <t>"Es piratería": Petro se fue contra EE. UU. por operativo contra buque petrolero en Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOUTZIX2FlOXU0NXo1RURuZm1rQnJ0cHdlVEJ4cWpvUW5xODFsVzRYRWYyZVV3dnhjWl9HZzRvRElteXFPY3NFOWludkhOM05EREJnMUlGWXJxX1pZWGhNUGtLS0w2X1lwUEU1LWVzMXdaZ18xa2JyZFRKRkdXQ0swakIyV2JhWnpUVm0wNDYzeWJ3WW00c2x4dUNPZk5wSXB6OGl1VkVySEpBc1FERWtfTtIBtgFBVV95cUxPSFc1RHJUVW40SU4wYmUzbS02NTNHb3lwN2YxX1RHcGNJWmxPbVo2Y1hZd3doeU9PM3Jmdnp1Ujhid1B4dWpJdGszWDJMQVJxMWF2Qkk3TGk3NHJsdzRNcmJsTEVXbDg0cVJOZXpZUXNreko0SlNoVlZ4cTY3bUJ0VG1rYnBGd1hzTWU0anRyX3o4azVCRzgzQjU4dkRFY3hOQk44bEZGRkNkcWVRdV9mR3ZZY0J2Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['piratería', 'petrolero']</t>
+  </si>
+  <si>
+    <t>¿Colombia le dará asilo a Nicolás Maduro? Gobierno Petro dice que tiene "las puertas abiertas"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxONnd5M3g2VHItREdKdkdPdWlBUW1VUnpDcVhUcG9DbUlURHZRQ0wzWWV4Uk1fX0hkTzhYN2lDMkx3MEV2TTlvdjhtMFpfcXZPM01rTDZ4R2YycFRMempTODMzeDcwUGxUekpXYXFOOHpMNXM2anRELUV6LXV2b0thUlRFNlJUMmwwdkE4Uk5kLVpNa3J3cDY0WVdBdkNpZzhhYzhJQ3BLdmJySXFlcVHSAbMBQVVfeXFMTXpWbUQ2SWZ6NXRMZjNQVm9URVZ3ejNzS0I5b0RXSGJ1U3gwMzRGMmRFV004Ynd5R2UxNGxkS0lDTEhKQk9FTlpieGJNbkdKSlJPODQ1Wnpsbm8xeXh5NHpkazBmblVmdlktZnB1dTdZNldlYnVDYlVKLVpRR21QYjItdng0TURMR2ptUkQ0cFoza3BWNG5OU1VpVWFZMlQ0a0pJS3ZtZ2d2UUZwdENmcWZRQW8?oc=5</t>
+  </si>
+  <si>
+    <t>['abiertas']</t>
+  </si>
+  <si>
+    <t>Aprobaron la extradición de ‘Pipe Tuluá’ a Estados Unidos; Petro puso la firma final</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxQUUYxSll2TTRZVEVGUmdoWjl3eEwyOGEzU192SDRFd2tLc3pHNDl3SGk0aVJKNndSLVFLUVFuNU9OQTJMZkptUlpYcExpZWJYTzNnMkl1Wk42c2tWY1IwV0VHdUdmZU9OZ1diS29uc2N3SmgwRGdyS3dHNWUtaVdYTl9xTVpzNEQtTS1VZllwQ2xRa0xtR1VaetIBngFBVV95cUxQVTl3ekk5Yk9Qa1IxTnEzR1Fqa0hFZDRrang1blVycTdrZG00Q3gxMVhURGhXdFNpTjB6aGg5MTlkNVJ1VVhJcnlMNmNjUFdzbTRoUEFPYi1JdWxOaWVObE1ETDBsSEpINXVOQmRfc2luNzJaY0JPd3hBcGY0aXdETEVjM0tRNkFNUU9CNVlfQnpZbGJRazREdjNjdWJIZw?oc=5</t>
+  </si>
+  <si>
+    <t>['final']</t>
+  </si>
+  <si>
+    <t>“Será el siguiente”: Trump pone en la mira a Petro y escala las tensiones en la región</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxPUGJaaHVlWXBsam1KR0s4Yno4TDFZUjZ3Yno5RUZkT0xON3poZlc0LUpKeS1Cb3VJdGFBMWFJVVB3WDBlZFc2Y0JjdEFXWVRjZ2NCeWF3QVhrRHprNnlSYWFodzM0MVBqRkZISWZ1bmZhTm9NOVR0aGtRbnJYVTZsN1ppSmRqVndHQmlTWjZOeGV0d9IBlwFBVV95cUxNUkowSUczZ0tkczU4OGl3WnFLWjlpYXVFbDVsWHF0REYyX3NoQmtjY2hlbXVBWjFod2RGRXlQS2N6VVotLXFwT2U1N01YTmYydmkxX0tpcjRxbkRMSUdxb1NfYTdNbDBVR0xIUExVXzRLVEIyWGdtWWJUVDBBWFZ6RTZJOHlPblNMc2UzdjlYaDFlbWhjdTFv?oc=5</t>
+  </si>
+  <si>
+    <t>['siguiente']</t>
+  </si>
+  <si>
+    <t>Petro ya le hizo invitación formal a Trump para que visite Colombia; hasta le mandó carta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNSmVhVVliMU5DdG9nQW0zMzBmdXo1TWphSWxPMnpJTXM2TW5CSjBfblp2VVRScWJKNllVajNzU1JqS3l1SENPQXBsazl3YkZCdjU0UUt2U1RkdjNWZF80SVMyZmlYV28yNGxDTWVxOWl6MEFtYVFyYTdmc0otbHZyUnBnUWdvLUZQX3FKOUw3SnBwSzNrZ1JoREVQaklDN0gxSFpsTTlVNWVlN0E2dDVRa3BjYzhONFU2ekRUeVVHNGxJcGNV0gHKAUFVX3lxTE1KQkx1LXY5NmlTX2xsS1BkUWF6N0ROMlNqd1ItTnVPRFBCTlBVZ3BETmFmRUNvQXZEZTJpcm1wM2F2T0N1LV9PVWlmYkJIbzEzWFd6Y08tS2syeGMyYWV2WFdEZ0xJak01UHozcWk2Wk0yX1VsdXplY2wwbVl3RTlqR29KbmY4QkF1TThZNHNWdkR0anA1RUFnZC1mTDFOOFZDa0p6dVhWZFJkV1VTOTNvanMtM3NnX0RONnhTaExyQk82SWFoU0NEc3c?oc=5</t>
+  </si>
+  <si>
+    <t>“El Gobierno Petro no cumple con la labor de defender la vida”: Liévano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxQZ1hMSkpMWFBLZ3A2NnFoY1N4aVF0TV85T1M5RW1TNE00VjlxYWhFT3VjdlYyVmVkVThnbF9NYjZod1NRb1RYR1ZpYmRCeWxHam1RdV96bXZDaG1uN3o4YlFleGQ1SWg4d3M0dTJFX2RUc0VmdzFxMm5LSmNGMmxPVEZJVnc2R2dXUUFoQjZ3Ry1oS3dqcHh2S2c5R1diUDVEeWw4TDhHMnktWmdYY2FraHo3SDhFMFpTRERDUg?oc=5</t>
+  </si>
+  <si>
+    <t>Estados Unidos niega tener constancia de invitación a Colombia de Petro a Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQZkNCR1NmYWhRV1k1eVRyaVNaRHZGUXJrcFYwTGowOTcxcUJ2RkJndnZybHBzejI4bkNoUXhtOHBodVhXcVNGMFRZTU4xSDBuZ09SN1lkc01FeFBXM0dVWHpockFWUndJMnRNdGpYaXdqS2N1LWlPdG1IbTR3WVd2ZEVLNnRsbC10cEppWHVLV01abjFnUmg4OTFhYkdOMnRBSzRuUmRTcHNMVjV3VVpCdHE4MEhnRW5aTnpLZk5jaEZuMHpWVTcweGp6QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Petro cuestiona a presidentes latinos por no dialogar ante acciones de EE. UU.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQWW5DcFFJcU1ibk5OSG9zZ3d2N1ZGSXoxakpzWkxaYmdVQnVTc0VYMXVPdS1MSjBjNHdmZUhEaFFpMXFPSlNOMWc0Z3N0TURBZ1ZQRUhuZ1NFSWlMTTlHbm9kSV9oX2xiVGhyYVdwMHVzdnNTWDdyMlFKVHZtcEFSSG1uSERScHdCMTNZNDlrWVhuSWVKOE4taXk1dkRxcGVGQ3NmVXgtX1loMWxXVi16NlRxVF9paTF1LUQtdlFOUExaOUw1SlE?oc=5</t>
+  </si>
+  <si>
+    <t>['latinos']</t>
+  </si>
+  <si>
+    <t>Tras la amenaza de Trump, Petro lo invitó formalmente a Colombia: “Es un hombre muy desinformado”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxObDg5dm9BczlLN0NQcjlISFEzTDlQTWVmMDFER1VLWjlOYlNReDdHN2lnd3o3N3BZaUhPUFVJR2RrS2ZubmdKRjBkLVpMYWwtMHlpbjR4S0NsSW5RWWE3d2h1ZDNzRTVkNGpVY21kdHNFWTRCd09YQ25HR0U2SUNGWlkyNzVhb2lmaW05LUh2LVNsTXFyeXFQT29FSks1SmFWYkFIY2ZJV1JwWmxzbGlXWE1JOG5hRXVXNmZXMFRyUGYwdGg4SlFhUUlJTHg1NXR3TkJnWFdyQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['desinformado']</t>
+  </si>
+  <si>
+    <t>Tribunal hace advertencia al Servicio Geológico por usar sus redes a favor mensajes del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxNLWhaWmtGbnhjQ1VuRWVvUFVEcS1FMnczVmltUUVlaHF0T1RPQXRpbkY4R3lzNEZxcjNsMkdtX3dYM1hZVGRpVVdrYlZuYzNvVG92Q0FZM3ZZWE1MbUdpaW52SFRyVjc2a2N6QTZCRDBVeGZhTGo5dW1CUVRtZmNIeFo5SGVJemlIQVBjTUlTZ192UF8yVDgyTld6UDZGVUt0aHI2UHFKREYtY044LTdIeVJBbXNXZjJ3TVJIUDV1Z3RORWJEX19kcVJEbGlhV2xTWjEzMmdGQ0VWdTA1d2VmOdIB5gFBVV95cUxQWEcxMVB5cjNxMkJTSWVWSzVsOUVHdEJqd2xyc1MxNDhOX192bG5ITE94Y2FUaERYRlhfY3hQWDV3WGVubENnN1BldkhyWDZ2Qmg1ZmkySzlzQUxoMGRTY3pyZ0ZadG92SWtGYU9fbGV3ZDV2dlRfV0NXb2hLd2pHX3FHbFVELUxMQURGSzlmVDExbHZheWJIejIxVk05TGdzaWlrUHBqbGVTV1k3RVIzWl9NdG00c2NPaU1xWDREb184YjJtV3k5ZFcwWGhmbEd4NmZ1R05DZW85NGtmYzVSUjFlVERidw?oc=5</t>
+  </si>
+  <si>
+    <t>Tensión en la Casa de Nariño: Petro reprendió a Benedetti por el deterioro de la Imprenta Nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNc3JqNEttc0prRHZJOUhBeDFjc3o4TDZELTRTVWlfNXc2eVk2c1c0VkNKaUxNLTUyeUgtMkFsemphYU1xX21SM3c3cDBwWk1SeWtWSUFoZnhtcTBBc1l5Z3hjeVJVaW1sb3AtekJlVlI5bzNnTERwOVlyWFFTRGhTUmplN2w4NzVqTGNtUDNaTVl6blhoWjdweUIyb1NWRjFiYXFITWZocjZlZXd0RlBWZVVIXzhtek1RQmhuX2JqYzBvSV9Xd1BvakZSWk80ampTN1MwZ01JYmczUdIB3wFBVV95cUxQVGZtejFqbzlMV0JreVoyOElPcV8yRlpXMVptNjg2RnpzaEozczdnbDhBMlpSNVRFUHlIZjJtSEZFT2wwYjB6YldESVU2RTlCV1A0ZEpETTV2cWd2VDQ0VUFhS2VBOGlWTTl6NUhxbklCWldhZ0c5N0JvUGhYRW5LckVvTWM0dDBUeGNSeHhqTm1YY2sxT2R1MmxJd0xkUFVab2hvZFplMHBCUjZkcWV2VTl2T1VZWE5vQWJORGc4VkFzN2IzbVJlelFYR2JlUldoX2p6S3VPX1hnYXh4M0VV?oc=5</t>
+  </si>
+  <si>
+    <t>deterioro</t>
+  </si>
+  <si>
+    <t>Casa Blanca niega conocer invitación de Petro a Trump, y critica sus comentarios sobre EE. UU.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxNZFVyZy1pQjEtOGprQkREU3E2NkY0ZW9BSmgtSEN5Mk1CZTZmakpGcXNXUklNM0pDZlpzZHE2V0d5STJHTWpyUmdmeS1ZcDVNbW15dzNoSkgxUXBDUXVPaWplcFdVTHdGTGJ2S0lUTHZCLUpXa3Z3TFk4cFNKb0xvLXhZZ3o0X2FTQlNVZjlkSXdnNm1FeDB4SDJEV1FrVzM1VHdTTmlxRUhhdHdLbDhnUzNQWjE3ZW8yaTQ3MFdndExSb253cUFtODhMcFdvOVpiYkHSAdcBQVVfeXFMUElpVWtla1l3aWh2eldaZkYwdFhtSEJxemFWb04ydjdFaTdEZE9fUm5ZcmkyNmdXUVBBb0xwNTNqQTRDOUhqU2I5VndFOTJ4am1wNkJlUzZjMGpIRU5VLTd4cW5SSUpFcDRiTl9hZkZDZlJYYkdNYXB3Y2Jqb09DUHFqZDlLMGpKVnJoOVpac2RFbFNqR2R1N2t2LU1acU9jMXdCOUF6R0d6b2FqUVc3Q1hSM09FeWJwR1Z3RTV6NUp5elhYckJIbVhPV1JTQmRjcUtMc3BRMUU?oc=5</t>
+  </si>
+  <si>
+    <t>Petro autoriza extradición de Pipe Tuluá/Min30</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTE4waFdKUDA3RThjLWk0aU5VeW9rV1Q3cU9ySmxIWnAzOGE5TmF4ZEZKaE5Fb015MWdIRjFfdlRoWkZLdWN4cWtKZDRKLWpaMllNazNJMW5LX19hZWE3aE5HUTgxdXVyd210Z2pNQUU5ZFN1SzdEcThHWGRHOWJERWPSAYQBQVVfeXFMTjVMREN2RzByNXIzXzlCTjVjNWFnUTU4bHdIMDZyMDJURHQtUTdtN1lWY3d1Q3R2Y3JYOUE2YVRkN0FjNTRhcjItTmpmcFlMbllMNTZMTC1GVm8xV0w4aWxCMWdxR0loMURRa0s3SEdOOEk4Q3ROR195aXBsNlF0MnM2djI4?oc=5</t>
+  </si>
+  <si>
+    <t>Petro invita a Trump a Colombia/Min30</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifEFVX3lxTE5LQ24zeU5lV2dGNTB1SkNMRFRnOGx2ckV3a2k5R1EzWXl4Y1QxMU9kM3B2aXpJNGVrTmxWOTNDd1hnaFhEX1psV0d2Qi1jX1pEMVNUX2VLelpMblFldXdaLTd0ajQzRjQzRXFtVk9LQ1ZRblRGT0FYams5ajXSAYIBQVVfeXFMTVlCMnlJT1RCbTBVTGVfTXJ3SDNzQl9fQk0xWERBRlFwYVBBNEQxOWt1bGdEaHQ3SzFMNkF2YkY3bXpLSmhBTm94a093Vzh6cXNZbUtiSFFOZDJEVk5kM01tMGlFN2N3cHlfUEJSdHZ4c1hyTWRLVHBoSnFUd0FPejU1dw?oc=5</t>
+  </si>
+  <si>
+    <t>Casa Blanca dice no tener constancia de invitación de Petro a Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxNRDlfZjRDQ2c5NUpqRHBPTHN2UjJPQ2s3QUctaUc3WFIyRlMzeGNjX1diR2RVZkFWX1ZzcjlFN25iQ0dwOFh1TFhqTHhkd0pvM19STkJBeTJXalNwTDZZbXE3bVYtMDRicFlJUm0tY0xXVjRqZDRPX0lvUEQ0ZUNxT2NRSGlrVkQxV1RCOVN3R1lPamZRcW1qTWZpNNIBoAFBVV95cUxNTno3MmlFd2c4UGdxZVJDUzh2UkdLbC16YmlHc19EamEwaXlERWZ4WlF5WjBrRkhqeFM5cHIyTHlQWjJEaXdkRVBCeng1dkNCbTRJVVNkRmJHX3lvdzUzM245QmViRWVGNFFwNXlEV2wxdm1aTDJ5aEZkU28zSU0teGg3aS0zOVR3THpueHBGWFZjRDAyRFotUTdEOUlweXFE?oc=5</t>
+  </si>
+  <si>
+    <t>Calendario 2026: cómo afectaría la constituyente que propone Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxQb2p0cGZCN2lTaEFLTzRLX2FaMlo1bEJ1ZmZCbkh1TzJxRzJjamlPa2tZR2FUMXpxZUp2TmY0WUUwRTEwQmhhN20zRDRvdVh2azJXMnlkUkFMVVNVZkZYRnJTM3Z0dTdNeEEwb2ZoQWhicUFfWThNMWJpekVja1loQ2o5QWRBbW1ocU9jd09PejgtYS05ZGpRU2lZNzI3RkHSAaQBQVVfeXFMT3ZDZHIzWGNuZm9uQU12dVJoOE52aEg1T1VKSUozT3MzSmFpMEZkSWMwRnFqR2lmeEhyVkFjNDRuYWx2QTlaRUtBc1RRN1ZHZFVMdHJENVFfUUJNbC0wdmt2ZkdJSGVSdDNVbXl0dFNJdHVHNmxnMUhlUkZ2dEdmLWlFWVpvOXYwRDVJV09UNTQzekNaUkk0SFhYN3RZZWhESXNQZkM?oc=5</t>
+  </si>
+  <si>
+    <t>afecta</t>
+  </si>
+  <si>
+    <t>Petro invitó a Trump a Colombia y respondió a críticas sobre narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNWW5NU3JZRnlkd19mQmpWRnM2ZWJyVVNXVks0ZERIcmg2RUtEV2N6cGh5Y3Nad3pHVjFxNUdodHJ2UzUwbUVVdWxjbGN5RVd1eW4yMGpHN0lYRXV2eloxMjRreXVYWmJFeUpiQ3E4YWJpOTBLekp1RzlNMXl1eHJzN2RvbHdFY3BOenZ5WmstLWZrcFV6YUJJYnNsVkVLRzhweFHSAacBQVVfeXFMUHNnT1F2aUlGb2ZTYS14Yk9vTGV0ZXI1bDBONzBPTjd1VWNER0xDWlFkd0IyX25lVnBnSndfeUNKZWNsR3FFUndMd29oZDIzbU56QzlrQ1ZNaWJ1NElCQ3JwaWdhdFE2bHUyQWZuakZkaWtrQTFIdG9ZbHRLMmJKb2dkSXVsSkwzblFLRWI5V3o3a3ZwZnZXRUNzdW1TazBzQzl6bjZSUEk?oc=5</t>
+  </si>
+  <si>
+    <t>Petro firmó extradición a EE.UU. de alias Pipe Tuluá, cabecilla de 'La Inmaculada'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQZ0dTclZ1eF82U2dZMThJUk1iQ3Rqc2FyM1dOZV9vWXlsc3FRcWliWmFMNjJzbkdJcGRweXRvSWtYd25Zcml5Z0wxNmpWckNvYVdLcTk4cWRVT0xNaVgyY2lBUG1ZQlYwM0hZbnlUMHN0N1M2VTlkbTJOZ2NDR3c1ZWlDUFczcEE4M3Z4Q0RycEw5OWxHQXI2U3k0U0ZGN2tucXZEbzBBTXMxdFnSAasBQVVfeXFMT1BaNXhOaWs5a2E5VmgwV1ZDV2R5MFNhMC1WaGNWbkFEVmFGOTJOemJYRGxPenFWRUEzakU5cnlYeDdqWFdDZkpJUjBJa29ldDRpT181WjNXSU1FdUQ0b1h4UVJkNzFFekpQd3BIZlA4U2pnNGp3VHVRVXV3bmhzbjlod01ReHR5b3hUQ0hnOURGeDBOVDBPU0dEeEtTSnA5TWw4dUdoZ3JmYTJN?oc=5</t>
+  </si>
+  <si>
+    <t>Martha Lucía Ramírez y su encuentro con María Corina Machado: "Petro va a pasar, la cancillería colombiana se debe preservar"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQODAwWUhyZmFfNFdaS3A5U3NuaTV0d21KTG92VFBJemk0TXpiR3B2aXRyckFnUF8tNXlRNG1DLTQySnBZR3ZKOTZpdWg1RWY0TFFLd3Y0SWVQUklaaFItS3pQdXJsSGxnZmFhanFSTXRJOW04R2hFdzVjbDdmNS15bnZzVGxFTUhHSHQxTXFpSEJ4d09vOUR1Q0ZKRXJpT1puYnhYdHFCNVkxOVpCU24zUUJvTXBib0pBNnhPRW9YTzRIdlJmenFwbFlPQ2hUN3d5cG9XOXJYVV92dlXSAdsBQVVfeXFMT1ZhczVtRmt4RkhGclRNUDFLX0s1SDBfVml6MkNIVFB2WlcyVmpaRkRKQ2dqYlI4bTNBbmJSUEFlM1VUSEpEamFQZUNlOTIzRkVTc2pnamhVZmRDeS1rMEZkb1FKWXRDb0Y1OUlIMFVtWU02TENBTUw1b3Z4M2d1QnJNSW5OUU1aZ3lUVkROUlRsRkdkUVVEQ0Z2Z0Z2YkZ6UDBaR0x3bFZmQndOSTR6dWlzU0NHUkRiX05TcDBXQVd6MkdVUkNHTjZPQzFUaW1nX096NDRCeXpOTnI4?oc=5</t>
+  </si>
+  <si>
+    <t>“Cualquier solicitud debe ser valorada”: Gobierno Petro abre la puerta a otorgar asilo a Nicolás Maduro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQbkZ3ckVkdTlFaGQzU2l0RWlSdjlGMW1lZGR6Y1BVdGlMVF9sQlRSWjZLRFQ5bERHbUxJV3ExLVBic21qNFg5WU54YVZ0YzJodGtPb2ViMUN5X2RlY1c0SlEydno2aWhOdXdpVVcxUnFubmd3a0dIR01JNFZsOW9INGJEa3NGYXlSVVNnSVlXRFRLbmpHaWQ0RG1zSkJMWHcx0gGgAUFVX3lxTE5tTFhaY2VMRzhHb0YwZjNDeXMtY0U4SFBJRGE4eEZxVEJEY2tEQUdqMXBld0JTQ281amVMU2M5SGMyWm9GaVR3VXZUWm1fRENYRUhYNmNhdjdQaTREMTdnZjA4YXVkaWZRSWlLSHM3RFpVbndURU0zc2t3TkJMMklxbXROejJFTi1vcU1aMkZaRjI0MHlJNkNLZW1CQTZ6WnQ?oc=5</t>
+  </si>
+  <si>
+    <t>EE. UU. no está al tanto de la invitación de Petro a Trump para que visite Colombia, dice la Casa Blanca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOUnZseHBrdGgycjJwRUxROUVrYkpnZWdpS1R6ZVdVR1BHenoxUzBGUWoyXzdmUk5aSTR4cVRsSi1xRkkyb1ZxTGxKRUlGWTdzamJaQm85UExlNDRkRk9EQ0VFSXBJcVJCcklwM3ZCTDZBcHlkb1JadDhiYkJ0dzlRVHlCZjdxMmhfemFQLXpOQ1hFLXZCbk5tZE1kWkU3a0stSERLdHBDZ3BmS3psdmw4cFliTW42bUQ4Q0UwUDVUQzVObDZweGVGWExqOFQzRGZZQXY1SW1zZDFyS2F3YlFZUHFB0gHnAUFVX3lxTFBVek9CcU8wUDZwa2l6dW04QmhybWZ4SzY3SWVsb1hMeWNiSmFfbl9YR0pSWDVyOUVYR1VlY1Z4VkpfS3FHdHhENmVzXzFDTTRlUi02UG54YkdYYVkxaGl3UExPdW4xUHdhMHhHemNrb1NRaXZEaUJtelp6YXdCdk1oOHZpOHJIMnY2UjFzRkF2d1FNSGQ2d1IzeWUtQjB6MjUwRkRzcTFqaHlCMThlQXdHTE9ZOUI0Z296YjBqMk9RSG5vU0MtZmVrNDc2NmpQbTgxNE5iY1Y2NFRXcWQ3Z2l1c2NiSFFTQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Petro cuestiona pasividad latinoamericana frente a Estados Unidos: “¿Dónde están los demás presidentes?”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQdHJ3aFBLcWsxaDAybWRlZlcwTzJCYm5nd3p4MlNDZVlVMVlnWVN1RU1kdmNMd0xUN1BEeUlFRXpjcUpZczJ6dmlhYTJNZnFoRUxzVEduWDVpNHozMTFCNEloV1k2NkxWeTQ3amRYMldmNUxoaDBKZnRSak9xR0lURmZZY25hV2Y4LWJDZGtXNnh0UjFIbjM0VGdDTUJQSUl2MEpDWExweEt6blFkaWVFZ2V2LVZqWm5SejhwZ3g3N083bEJXUDM2S3VxSUhMYlY3aHNENVJIOGdqTjNZSzZ4RA?oc=5</t>
+  </si>
+  <si>
+    <t>['latinoamericana']</t>
+  </si>
+  <si>
+    <t>Bombardeos, reclutamiento infantil y el dilema de la “paz total”: la encrucijada del Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxOT0JLMU5fSGstZ1dKcEJFdk1yaFgycno4OTc1WFNGS0s1QUQwUVhkWjB3Sjd0NTFDOVVXQ0hqaDdsYktWYzg0WjNoR3d0V2x3d1NjSkx4WGFyLWdJWFNWb0MxME9nenNNYVR3QThja3pLa3dZMGZKNkxDLXd0VGotMzV6SGdJa25GOFNLWmlJT2pLclpjdWZTSDhjN1ZjYVIyc0VtMGdPYVNRSUt2Tmt3MmhRT21EaVphQ1BIVjRkYmRPbHRGeUExbUVnUWloa2JiZlZ1UzZpemVyZ1U?oc=5</t>
+  </si>
+  <si>
+    <t>['infantil', 'total']</t>
+  </si>
+  <si>
+    <t>Nuevo choque al interior del gobierno Petro por contratos y retrasos en el Fondo Adaptación</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxOY0U0VWptNEV0WXpFY3JyMEQzUjNfQkdPbnAweHhFYV9VSHRNSlNycDltc19RWU56X2kzNVhqY3o3ZUs4Q21FWTdrZlhDZE5jVWNPTjVRSXNvdVRUNmJ2cWM3eVJuUmtwRG5ZQlZOY3JHeTlfRl9MNl9ZdVBvaGNSWFdQeHRIcjl2M3hZR0ExeEZ4T2NJcnQ3TDJHRnpHa3hYWXhUWmNZU1VXbmRHRlRuU2N5c1FoLUNieklMZmhZbU3SAcYBQVVfeXFMT3hMeGtsbWN4YjZNUF9UeXFvdmhLb0pETGo5X29ncHlXbG81MUhPOC1EbUY3TkI3SzFRcGlmaW5fQktJTWw2ZTRtZ3NhckMxNjB3Z0dZQW9MQ1ZOa24xbjd4aENDR2VKM3UtQ1JkR3VTaHVUN0JqSDB1UGFkdWh2X25obmhnaTBnTU5SNkVvbGt6aFRxZkM1eEthYWdYdG1WVXlsbV9SdnhSbFZjNkdLVjNnaWROcm1yaHJtek9VMmZ3Mi1tUTBR?oc=5</t>
+  </si>
+  <si>
+    <t>retrasos</t>
+  </si>
+  <si>
+    <t>Gobierno Petro no descarta eventual asilo para Nicolás Maduro: esto dijo la canciller de Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQQ2NEaDhrVmc2U3l6b0IzUG9NUnFWdVU1azdRVmdHUndhYy1ZTU5IOXQ2aGRJMDk0b2p4ZmRXdHJIcjhTVGxqTkZucG5ZV0lkcFBaOUh5LW8zTXFpZ2UzTWxlakl6dm95ejJfdWFlNnNybmZ1U2dkQWx3bzZUMEdvdUJJWlB5NXY1dmJ0WWxMeG5lRGM3d2tsZkYzYk5DOGpEd3pRaTdpVHJhLWZsX2cyNzIzbXpPMUxCZldxOHdYdVhEb1Y2cWU00gHMAUFVX3lxTE5FM3hJVjhBeEpvTWdGb2l6OFhJWjR6T2ZCcVhFRmUzWXB5MmN1TE5LTTBuZnl2NTc4ZlhOTmkzODFIOXlQcEZPTElyT2lJZWJYZzBUU3RjV2UxeE5Oa29icWQzSWN5WmlEMVM0czBFaVJmcUhTVUJSdkxQczVmYkhMaFE5Q0k4b1FHaThGN1lOdjE4QjVqako2d1lMMWdNc0NydWlra1pGMW9XcWZ1VEQtcktQRkJYcml5T3FBdlhhT05CVzlQSGd6SnVBeg?oc=5</t>
+  </si>
+  <si>
+    <t>['eventual']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro abre la puerta a radical cambio sobre decisión del salario mínimo en Colombia para 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxOTE1ib3U5S0txVGhEM1JHX2c1SVl4S3JQOEpiRHloemxhbTdzOWE5MzFmUVRPT2ttLXB0M21tMDF2X3JxdDMzWFMtZGJKakVGQ3VEVUFQXzZwS2lIVkktOTN1YWtMMzV6OXNOS3R5MUtsMkVaLUlCUkgxWThtY2NHc1lGUEY5Q1ZDMm9fYWhCWUliMzNTQy03NUZPVnZmVXfSAaQBQVVfeXFMTzV5ek16WDgxTm9LWWdfYnI0X0kybHVlM19xazB3RTZVS09neWx3NFJydWJCUzBWTE9KRnctMEFGZlREOFBQQ1g1YktZbkhKZkRqNzBiNzlTMTVuSmFGRWxveFlsOHZYZHUzd0dPY2hYZUsycTZyXzJ3bUhqWVc0UUZDR0JObjZfREtTdHV4aVIyM2U5X3NCRWsyUXRjcFBhdlZMcko?oc=5</t>
+  </si>
+  <si>
+    <t>['radical', 'mínimo']</t>
+  </si>
+  <si>
+    <t>Petro dio vía libre a la extradición a EE.UU. de alias “Pipe Tuluá”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOUjZ2aUNndmdBYUdLc21aWkxyQmhPWGpfYjQ0aXdLMktiUEFWM3N6WGdKcnh2ek8yZElxZUxNbVBlZXE1dVdJV0Yxc0YwOFZIeHF3SGFjZGk4SGVQb0U1ZUpVS2pwWUlud3VNaTBWYklTbVBrRVpHUFd0MmtXWGJSZjNPQTJJVE5UT2o0N0txWGczYnBleWhPazctMUJzaFh6UE02NERCTFN0bTJ0elQ4dE9uTm9EWlc2bmExR2ptWQ?oc=5</t>
+  </si>
+  <si>
+    <t>'Trump está muy desinformado sobre Colombia. Desecha el país que más sabe de tráfico de Cocaína': presidente Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxNaEJITWNvMHAzem1TR0dhOFdfSFJjRFctSkFxT2M2T1k0S19uUkZ2YjdwVWF2eC1qUTFSQUFucjIySkwyQllBSW9zVjRWbVo2MloxTWJHU0tHWXZ6RXNDR1Y5a0ltNnNxOGY4Z3RTX2VOck1zNXN1SHJSLTZ5ZkFmV1JKdkRXSUsyRXIwSEljSkJ1VFZMMk53R2hYdGJMTVUzQUVOOWhRY0s1SkVEREIwVkdSX3pXVjlGd0lwRkdPOENQRkE3eXZFbllNT1hWbGw0ZjNvenlnQWhXTlE?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente Petro denuncia captura mafiosa de la DIAN en puertos y alerta por contrainteligencia ilegal en el Estado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQSEdyS1JIdGZnTHJBRVBzWUNQbV9yaFpWeTNIc1Y3ZE0xdm1FdUctcFh4TGZTRHhhRVBvNEQ1WE9kVTF6QmVXdzdrWldsR0QwUllmczRZRnFaRTN5LVpON2NLYVFBNktlaGdaOXIwSzFMSjFFNGloejN2V3JRZ0VsaEJhbDQ4VG5HVUJEOG5TWFJMRTNuOHppdUlSRk5mcGZrRlhuWGIzRU1SZFhXQ2ZhbEc4bHVVeTU0Z1NkdnRBRDVkbmVCZm85T3phSHlPaDRidGNlVmoxOTZ5LW9OUVRSb3ZR?oc=5</t>
+  </si>
+  <si>
+    <t>['captura', 'mafiosa', 'ilegal']</t>
+  </si>
+  <si>
+    <t>Dos casos de falsos positivos sacude al gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNY3otbzhSOW41ck1MN0dteUZ4eDJWT3pMQXlPdzM2MHUyV0JWZlQtdWk2X3JsVzhwRmtENElvUGxMMzBCVXQyUDlqaUZlMFM5V2VtWE1zZHRRQ3hUeE1UQTZWeUZ2SnU3WUctVTBkdnZyT2NITDlzbkxBS2wxQXYySk5RZVZCYnRib2F6N0tQVUxaekVkTUJDNFV1TWtfb3VlcHU5QTFCMWRQY1g3OGdWLV9rYkdueEt2dDVhSXBHbw?oc=5</t>
+  </si>
+  <si>
+    <t>['falsos']</t>
+  </si>
+  <si>
+    <t>Petro responde a Trump y afirma que está “desinformado”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxPcXRrOWpaOVQ3aXBIWkV2NXlERlc0c3BoaVBGcU16d18wQXJpV0dEQmZ1TE9jem04WkN4T005X3d5c1lyWnRaby0yN0FfMThLTW5RcVVzRFJOUUdSd0ZiMENHeFZScExud1BWZTBwWFpFRDZJQndhWERhdUxCeHpNOHd1LXBqQjI4Y1JrWFdkdw?oc=5</t>
+  </si>
+  <si>
+    <t>Fallo impide al Servicio Geológico difundir mensajes que exalten a Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQVXppTE5SOEhqYmJrem5mUnZhdHdFbXJqSVFGaHhwdHNVSDNtSE5wb3N2X2F1bDVhc3FCWXpoT1FPMVoyNzdBTzBGVW9ydGtpNWo2ZVdULU10a3k0SGg5ZWhTSVNiT3U2VDBfWTRZZWs4N0psYWFpc2M0UXU0bUVTNlFRYUJGOW85clRJUFFvUmktVkN6NkxGVUpjZ1B4SlI3N29ONk5ZU1VhclZnU0lr?oc=5</t>
+  </si>
+  <si>
+    <t>PEtro invita a Donald Trump a conocer Colombia y labores contra narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbkk0eWc2dzhYRDdMakwxYjlNUXpZLXdEMUtmcjR2dWNvQ1h5aUktd0hxSTVSS25mOHA3ZXowWmJhZmNKN19Xd1l0S3ZfMmpKTGRCZ05CeGtKcWR4VzlueFRiZjZrRnNWSXA4bFExUDB0QmROX1YwaUJiVnRyQ0Z4c2FpYlJBVVlCT2pWZWtmQkVHRHhOTXV6Zng5WmxnMDY5NkpwV0o5OGREcFh1?oc=5</t>
+  </si>
+  <si>
+    <t>Petro invita a Trump a Colombia: “Cada 40 minutos destruimos un laboratorio de cocaína”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQTnlLTlgxRk9oOEpmYnRBQkpTWG1GQmh1QWhjRkxKdkNwX2xYVnVwekxudUxqVEt4elJlcG9rX0RCUTZBTjluZnQtNGdybmJmeVpyVTlrM1VhbC1xUHJNQXNvNmZMcE5vYVZBdkR0NzhJRjZUTkRTM2V0LVpzalFQd0JEeUtlYjJlUExxN2QxSDI4Qmx0LXhZa1A2WDkyX3dTOFF5cFk3T1czYWVsMUxOTE5lWV9Fci1CMndNNEl3a2cyWWJORzkxZjlyTHRnYlNj?oc=5</t>
+  </si>
+  <si>
+    <t>Trump advierte a Petro: “Será el siguiente” en su ofensiva contra líderes latinoamericanos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOV2VEY0pNeGVsNWFiS0tjXzFwWXVxajhYYk1INi1YVFVfTGN0M3NKZ1ZranhCOXhpbXY2ZzdqMGl2WlRfWVdoM21RZm13YmM4ekFadGR4V2sxcGNxN1U1aHhOVVZHYzkzS2gxYnpSZTF2ZFRvX0pTSktiZlFwaWUySFA4OThIaHNvTDctc1V5NEg2RUxMQjVxd0JzMlZHbFVCaXZyNlRRQlRac25tUGpjMUpGdV9LRGRtTUQtRkNPTHNPOGVfQ0l6NHZEWWpTV2Vs?oc=5</t>
+  </si>
+  <si>
+    <t>['siguiente', 'latinoamericanos']</t>
+  </si>
+  <si>
+    <t>Quitó capacidad de pago de deuda: Petro sobre hundimiento de Ley de Financiamiento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNU0JoNmJ5eFBQNm1qTkZzZW5WRHNDNmlCTkZBLUFRUWw3d3NlSHdLTHpLakRhTHlrSFJOQjhuMUFSSm4xNFliMG1XSjUwV2l0b0NHRkVxSFg0YVpPRjg2SEtscmZZODVKSW1ycmY2REZwVTcySFE1eFc4UkRrRkxncXdnZW1jeS1lWjJVY29reEhYUndEeWVuX0h6NWp5MnRuWXo0NFNwSDNoRVNWc1NCX0JOdmlzeW4waXR5UnBwZmg0MjUwcFg4?oc=5</t>
+  </si>
+  <si>
+    <t>Petro afirma que la crisis en Venezuela se origina en la falta de democracia y no en el narcotráfico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOcERmdllaZHptWGRDOUhiZ2gwdVpGZHY4T1VQRXNuc1lMZnZtcFhKTFNXaVo1b3VvcE1xRnc0cmstZXhmTHlrZ3NTRm9lYTRFakQzWG5mbHBmSGpjRjlfR19BQnVPWk5rcVRia3FiNFItWG5yRXlZSDVUcWsxNWNiMWV2anZhY2ZhNmc2ZzV0aGtrZWpYcEw1OEhLdFZCMnBEV2ZCR2dhRFZZaWZlTHRfY1JJQkxkT00wRENaRGc5MHhXTFhDelVxQzZzb19KN3haazdZNjlkVm4yWFRCSUUzRw?oc=5</t>
+  </si>
+  <si>
+    <t>crisis, narco, narcotráfico</t>
+  </si>
+  <si>
+    <t>Petro cuestiona que presidentes latinos no dialoguen ante los ataques de EE.UU. en el Caribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxOZkVaYnM4UHluc2xYWms1NDEzLWt3MzViY05lZXBITm90UEJsQTl3MktPbzZXTEFsSlJ3X3c1WnJKcEtuWFRHWl9vSWxNcjNNeWVqdTRKTmJmN190d09QOHpnSnQ0SjFUWEJuZkJ3dmhhcWhPZ20yNnJ5R1dWcUdZb0hVRjFnOWxjUTFxdUxrUWVlNkRVVEFZT2dkQm1yVHNyd25tX3lsOG1FWkVYVi1uN21lOGE4SlJCNmlJbVBlOE8wQQ?oc=5</t>
+  </si>
+  <si>
+    <t>“Más temprano que tarde”: Maduro le propone alianza a Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNYklINy03ZFl2dDBvRnc1OFlYb0dQZjkwRmNTS1lTLXlVb2U1X3hzYllubVFidG5SMHFoRGo3V1dBbXAzcG02M21LQTdGVmltdXlUcHBzeS1KTU15REU3dmlEWnZ1Vll4di1YajR6R3h3NkJlWHFBQm1tWlJzeEJqc3lsX1dTNEFHcGJMVXVwWkVHaVczczJIdjVRYkhZOEVMMmc?oc=5</t>
+  </si>
+  <si>
+    <t>Petro le entregó el país a los narcos: Barbosa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNVU5VMlE0QUE2MkprUHNNeGRiREUxdE95Y1Zqak9ibjRvQW1vaXVGNGZna3ViZzJ0eWVaenRRODY3cjZ3eEFYSFUxQ3g0V3owdnlqTUhpNzd5VW9BTzhIcWxLOVVNNmFqS0lnUENvVlVWNmZxRGRzZ1JTRFNidllDODNfVGVyLVljM3Zid2xwTQ?oc=5</t>
+  </si>
+  <si>
+    <t>narco</t>
+  </si>
+  <si>
+    <t>Petro autorizó adelantar acercamientos con grupos criminales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQeERpcVJmLWRBYU9rVmxJS0xjS3Y2dWY1SEJfdkpuVFBHWngzYlI4eXZPRzc4YlJ0WVA0LVBXOXFUR1ZCVHZFaERxMnZ5NjNfODVvM0ViV1BHM2JXWWhiVzNRYmJxOHNtUEdXZWgtdVRReTVRNFBjS3J2ajl0MDBTdlJnSFI3N2JTYzhFWWozRWR1ck9JbVJMZUlFLTNpVTFZUkFKWHFB?oc=5</t>
+  </si>
+  <si>
+    <t>['criminales']</t>
+  </si>
+  <si>
+    <t>'Fuego amigo' en el gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE1ocUx2Y09aZEVfcTg5bzNsM0RyU0Vfa2FIa3ZONXJEUm9UV252NjQwTnM3el9STTBpRUhZb3gyNTJJMWFwdzF3RFR6UXpCRlVWYTVjTFpFR2RVNXhPZUNXUFlUUFBSMkNYNXJtMmNla3NPYWhtajhhUmR1WFJJUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Petro regañó a Armando Benedetti por “fallarle” en importante tarea para el Gobierno: esta fue la sorpresiva reacción del ministro del Interior</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxQdTRpc3lJS1lxN2ppTEJ3MzhmMENMcU5PdE1fN1lPMWZPVVBkSkEtTVo5YlZvVFd1Mm44NnRpOEtEeVVFLWdjQThKNjFXdnJIV1lTM25SZ1haeEllMFlGMzBCanY3OERJQmJXalotOE9ELXJ2Mm12NDlZS084eUtYTEk0NWFkSTNQZ2dvZXVUNFZYR3VpdzlGbkwxN2dMSVB3T1pBSWtHd2oyc0FDenNCODRXRmZ4d3BlVXRqN2dHelZEQ3JxOW5SNU4wZy00ZnZLU3ZRRFlzazh1RTFfLXBrOW41UkdUTWZWYkNPU25WXzU5dTVqV1dkV2VwN2xHVURGWUM0cUNGYjI2d0JmOE1UZllDY9IBrgJBVV95cUxPVlNtRHc1UmdSdXRIdV91dkFrNm1VWF8tUnJHdld6eHg1b1pkY0JqX2ZnajFYQUF1OHJSZlY3SFAxMHBnUkgwaHNFVEhYWjhkTFFpY2k3T1JCTGNFTEMzQW9qaC1VbHRlM2dZdDhyWUVWZFgzSjVpTzN6OEtidnY2eEhRa2hyZ0J0elNvWmxFWlV4SzMwWTFROGtKb252cEswWXRoM0padkZDVG9UVVJWWEtqbWEtZXZ1eWFOaHpGT3ctOGdjQ25oQUVrWkdjOXlJZ2IwWHh6MGI5UkVld2xjMENDck5JUzhJaUFzanQwZEJtWlVicF9RTVNKNlJmUWdNcFBjQTBpclczTWQzR09YNmFiMENZLUtVay1XQm4xbkVPRncxM1JCRTBwcTcwdw?oc=5</t>
+  </si>
+  <si>
+    <t>['importante', 'sorpresiva']</t>
+  </si>
+  <si>
+    <t>Petro arremetió contra Bruce Mac Master y expuso sus razones para una emergencia económica: “Este es el tipo de mentira que...”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxPaVhZSHVhbFFEYVEzYTZOem5HT1I0VUFlZGNYTmIydlNsZzRZZlVTTGdVbTVQSC1NSDJ2WWpjdUV6blp0RnppQ190TFB2SExsMnQ1bDBqZkpITzBDaUNnYTNPU2Y2VzU2NmFzLXotWGZPTU5KVU9jSW5nOEgxVzk1RHdWM0hINDNjXzBjUzdhQTRQQ2E2RkY1SlJRZ240SjhnS2R1SVhMN0xiWFVzNkNnRnVLakpoRkNINFk3LVhHLS1JM0JSVU4yMnAzYWdleFVLLXVqeGhoYnZkMTNJY3luRmsxeG1Zd1d4NGlTZFlpUUhJekVPZDZ4c2NR0gGUAkFVX3lxTE1DNFgxWHdDUzAzcGFyUk05TnBBVXc0RWpnLTltblROSXBjYWNMQWFYUUlIMFlndVZ4eUxreUNIbVdodVFxVGhoWklpdjVzelNCNldPTy1qNll4WmxaMldZNVdpUjk5V3dCUF94U3BjQWtMTjFhSmlCNGhBU0k1bzlhdTZmOUVGb1VXaUx6X2Z0VnVOd3dJOHEtQ2xDUXJIeUluX1FHMG1nZzlpUGZSQnUxYVdBUXYtcGVwX1VZb0VlVVFZeWYxbUNzdUNOSTJKZm5fZHNWZ2syVGgxaDBSTGlLZFJ3YnhYM2RTbS13bThfMXo0NXdEN01tMjRhdG9ESTZjQlg3NFBWNGhQd1o5NGtySmFxNA?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro no descarta darle asilo a Nicolás Maduro en Colombia, aseguró la canciller Rosa Villavicencio: “Hay que negociar”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxQOGRjNXVqenZMTnFCMmdxMFVFVDVHeXFDemJJY3VRSndjU2lWM1YzZ0hNN1JmdzdtNmlLVVMxWHl6SnlvcUczY3h0NVFMc3UzZ2ZfNzRJQnhXeVNGWVNVNDlacW16dzF3YkZJUWhiQ2IweVU1bGNJWGVoMDJ6VEZkd1o4ZTJfYVloZGNyZHBRcVFBbVQ1dGxKVDBGcGVrOE1aeTBYVTBXa0FzSDFzbDVQbWNrUWRUa3pFdGkwTjM0eWprZWN4WmQ1b0UtSGp1WjljaUR0MjJQYXl2VFZfdXhfRlc1R0FBWTA3Vm1CdXBIbThVb3V5Z2k0S09MNHBod9IBmAJBVV95cUxNY3daZlVtemt1c0R2RHdxU1VyZ1RZZHRNT1JIRUJKbV8zM0JORmxQYUJqdlU0Zjc0eDg0ak5xQXkzS2UtVzRDZVFlUngzSUFwbWdNZzluSlZXenRqemg3MDhtYzZIdWlaWkh0SlpFdDRGMU5WVExvekVVWXluaUxYVVMyWG5BT0U3LTJDLTJyOUl1VU5ZekJMOVU4cU1sTTEyWmtzdnlNcFNUeVhxdURNSUJ1YThZd3pLR1p1djY5Yy14SWJRMDlfaTJNQkZObXAwM0NQcVFEaGgxQzV2c1JoMUNwbGlLU3BCUUUxZk5aM3BhMTVCODUzM3Yya09NMl9aOGsyLVdXMDJkTUtiNTZSaWd5SkZyUU1F?oc=5</t>
+  </si>
+  <si>
+    <t>Congresista estadounidense ‘le cantó la tabla’ a Petro: dijo que sus mensajes son de un “drogadicto alcoholizado”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxPZ2JFS01vcmppUjZjdjh3TXozbUc2bHBoeG9EbDItSW9wcUI2TmhrMnBPblNlc2lKYVhiUml4clFUX3l2X1lVWUQ4WVlpemVtcFhyWGl5X3ZsMW0zRmhTOEJYNTJBdmpTTW1XOXB3LTZOT2g4TlhFNHBVam9jcmtjTzQ1S3BFRFpDWmR0ZlpTYUlYS1l4M3RJMFBQS3Y3cmVyWWhhVVhQY2w1T2ZQZmo1ZzZFN3l4YXQ4c2t4RjJzM2hBdE5FQU5JaU1zSG9RM2NoRVFxbldnakpyN0FVZFUxYno2clROLXdiTW1iMTJwSdIBigJBVV95cUxNRWt4b25iLVE5eUI1cGJsMmFPdncxTlNEUngxYU10NGdNTWRUMFVaN2l6X0RfTU1PZ3Q3SXY0WDc3NFpaNDllRHBZdVJpenVUa3VCbC1uR0pZQzduV1RlYXJHc011MzljamlvMFFJUjZseVpKYVJETGU5ei0tWVJTakl6TmZBRk12eW13QUhzYlNXeFVTOWFXMnRnZVhvUnNfQ3RfUGpaWVlwTWI1SWozMC1maVJ3cVVsYlpHNXVNMkE0NmRkVzRkZDlCdzFPTzZ0eS04TG1qUWVuaklFNXgtcHktMk42TE5tV0pRUkNzXzhHNHFnUTZSbHZtdi1TQ1ZnMVQySm5pZm5xUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Destituyeron a viceministro de la Igualdad por insultar a Andrea Petro, hija del presidente Petro: Juan Carlos Florián confirmó su salida</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxPYXlaMzExMHJfa0R3TERwRkRZWm1jZ0JhUHZHYng3UUhHSHV3UnF1ZF9FM1NVX1NxeW84dWFiWjJYNDRPWXRfWlNmbHJDeGdGNGtiT3htdFVnSEF2SjNOa0VPbno4TXlpTGI2WnctX3NXVGdrSTJWZXZ6NHJiNkRPTnRGYWREbkVTT19raXhCODRKcFByajJLNXk2b2d3M21YVjFIQk0xU201MlJ5TUM1ekV6OWtRZXozV0FPYzFlcl95LTlsNlkybGljbkU3X0hXZm82UUNEVkRpdm5XM2JnbFJDMDBQcGlqcjBXYVBaUmNka0dqU3Fmb0tMaWtkdXItSWxyUkp4UmpEeUpWd1HSAagCQVVfeXFMT3pXZmtES1MxVHpTb2FwNjJXSnY3MmxCNnZlUWNSWVR5UUVmZWFZc3lyQTMxcEJUM2prWEE2X0xnT0VTTXhDVzJZTmxNM0FTOEpwNmRaSE41cFRfSDVGaTlmRGwySS1KUEtnNmQxLTh2NU5PZHlndWRVQlIwbVVUdjR6b24yajA5QUZHeTJsQUJERE5xNVRzR3hfcWg0cFdVY2tQODhiMkZZeGZLajlnQWsxNDl5aFc5TFhidEkxaDg0aUdLR1NUd2pCUVZ4OHVwSFl3cE1NSnFMZnJlV3F3a29RdlRrczdxNEx5US0wLU5UVHVVRkp6VWFZRlNKMXM2VXU0czd4VklITDB5Ym5rUWF6V1M5alVYek5TZ3VDdEZPb1VZWnViZHg?oc=5</t>
+  </si>
+  <si>
+    <t>Tribunal Administrativo de Cundinamarca ordenó al Servicio Geológico Colombiano dejar de usar sus cuentas para promocionar la gestión de Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgJBVV95cUxNcE03U0J0YTV5YW9GMmM4YTlFbzU2ZTBoazlDRTNfcmxaZHRCY0pubmNLZ0hCU1FTU19EeTlZWm1QYUpSd0tQemVwWVNod0NQOVlCUkFyc0M0QXN5eEJLYVFSREg0SnV6VmJLUHZhdkl1NGNyV2U4dUFrLTZ6TUJnSkRHaFM2bXJrSmhfaVJtVEJMdzh6QUEySm5waEpyVHlSUm9RaDZTM3FyZldRbEJweTBiZUQxNmw0Wm4xVEpBWUtMUXRNdm9RSW16RkZZc1VxREt3dS1zSms3V0dGV0VRR1gtS0FJZndURjEtbWVBd0VYcjVOV2NtYWdiTHZSMUVQaWFqSk12cFQ5Z2ZKOHlyeG0xZzJvQdIBsAJBVV95cUxPQUd0ZEhuT3d0TEVQcXBWTV9rRnNQQTBFS24xVzQ0YnpGSDRxSU9FNGJzZl9xN092TW9ReFcxS3BORTZBV2FDdWd6QmJ3a2FFYnBrSXU2T21kUC1KSzhMSlc1T214Mk96dDd4NkFuYURJc1lfeGM0NGtZOWhYdjRmZE5FYXBFZEVFclVza1Z3VkE0UW1iYUxpbURod2ZyTExiSG9kejRUa0s2NHBYU0FSR3ZxRko5eW9CZG4zYzZVNDdGel9fZjVROWdEc1dpRk9DdVAxXzhlUlFIckFEMW9SOGhaaXV2RUNqMXFXWktWVUtSTVJBYWNtVmRLMjhtMnlxUzFtSnA1WUFTTGRBOGN4eGJNOElEaldKY2hIZ1hMR2NVcG9manh6ampoTmZoS1Yz?oc=5</t>
+  </si>
+  <si>
+    <t>Nueva medida del Gobierno Petro “es un impacto económico devastador” para los dueños de estos carros: “Cambió la tarifa por sí”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQUElqTFJ0VjRkUUphRFRyTnBjTk8wZVBzV0MtcnptZkw0TzloMGVUeksxaFp1em00YUNveXdUT2dHa0FLUks5dDRBbm01LVc4Ulh3Y3g2NlNBaHZjZDBiTW1nTVVxS3B1Wm92aEZ0N29SQ0NCQVgzSEhmOGpPNHhCZndXRk5lSFVzTXpSb1JoeTdmWkcwczJucHBodTNGQm5XTkNpQ2FVUHhHclU2NnhtanI5Xy05VklpRXdsT3RuemNjWEIzVWI5MUJkRGYtVllnaE5EdVdOQk1mSTZ4bnk1UE9YbkZHVjA5UzMxNUx4Mzl0N1VmcEo2bzRfONIBlgJBVV95cUxQbFpyR1ItU2Y3V1JVQnNSYTFjRnJrOTJQZUM1SXB5cGJ0N05md19OOUExQ0JwOGk3MThmb2NWNUhMQkw4dVU1Uk1LTjg2QTdmc1l3MjR4eVNLTDViS1hLQUFxNU5pSzVsamZtS0ctWWdQNVFyTDAwUW0xQzNzSjZ4MWh2bkk1QllIVXNxa1N2ZEg1OElNN2I4c0pPUWZNWHl3Ylg4bkxfWEFTVlRKV0hEamVNVDNmSDdlOGdVR2RzOGxNbTVuUU1wSGtqc0Jzb1RxUVZLYjM0NHlLdkJQMXp0bDh1bEZUSFdGcG83ajhKdTZiblZta1luWm9hb2ZnN3VTd2licDhRT0o4eW9tcGdETWEwMnE2QQ?oc=5</t>
+  </si>
+  <si>
+    <t>['Nueva', 'económico', 'devastador']</t>
+  </si>
+  <si>
+    <t>La Casa Blanca se pronunció sobre la invitación que Petro extendió a Trump para que viaje a Colombia: “No he tenido noticias”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxPZWdHeFpDWTZ3aUZXZEVGWTNyelFaWUsyb1R5eFlhNWp6aWd6QV9XQnROaUZXTzhoOHVlZG5sandmMll0TlhMS3UwUk1pbVNxNHRxYnRCRXVDekNQOUp2THk2QnJZMVU4NUF2VVRtQ0VDdXpfXzhMUDhzbkcwR3Nsak1ndUl3ellrUC1oaE5idWk1SjVpQ1JQSlZlUDBhWE5MVnVvSUx1V0Rydm9ObS1LRU1XTUEzN2RaaFlzRDFKYVFfT3c2Zy1zWHhRa2lJaXo5OG93UFZva0kzcGNCUFpRYm9lLWdLOHhSUVBKY0U3QzBCNnoxUmVkdHF2d9IBlgJBVV95cUxQNEVWVlp2SkJLOTFBeHJkcUFScGF1UGp6ZS1NTUt5Y1JQNVcxVmxkSlNpS1ViZ0pjbVlWOGhvX29YbndGczBHVXpNd3F5Tk53Nmx1T2h5cWZXNkcyWlh4eExYNG96b2I0SzJfR0VpdHdsQUJzM0laRS1ZTndFeHR3UWlnbVMxcXJ6WlVPRE9XbUEyalZoelU1UlF0X0tUNEVUNG5SVE0xRGVQMmpFZURjSWtlbEtnUGJYaFlhbm9yREJtbmNkc2hyMzU2U2JJVVEybF9VdGtRRllHbTJucml1SGNjRU9yWjlTWDA3bXFMRjB0dEVoSHJFa0loWW9BUDFrTzlwTlRvcE9jTVhtbTJLdmVqZWdEZw?oc=5</t>
+  </si>
+  <si>
+    <t>Excónsul Andrés Hernández, señalado de presuntos actos de misoginia y acoso, tendría nuevo cargo en el Gobierno Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxNUUhsdVlaMlRpZllPS25nVHJGLVUzVVk0X01iR0RnSldaS2ZCY0EtWUUzWlFBUGZaMHNzMzZERUhKeGtvYlBTdm56cXVkaDZVTHNvdFF6YS1oXzZNMllHRkFkazFwbDlrVHoyWkVoZVd4TW9IdkN2cVh0T3M1Wm9SNUl5OEN6cVZvMEZmNzJQMndONnpaQkZERHFJZDA0RkZ4SUx5NXRJT2xVVlhCOUJYVGF4LTUtd3plTDIyLXlaT0NVYkxwUmkxZW56eTk1MHd6QVdQV3FKN0N5N1BQZTJVXy1DWFVYZE1WMVE5TDFHbWhMd9IBjAJBVV95cUxNa3R0akRXUmxhbU5SeE9uOGNqdjZ4azl5Y2Z1aW9uSUtZSnZSZC1QRC1TaDMwVTQyZnBPdlFmQWNqbmJTNmdIZUtsenJ2U2I1eVZBUjBzM01NbVdPc2VUbkp1TVo1SWRkOXE3WEJNVENGYmlXZGIzZXkzUzRrWEgyVzR5RnpkSzN1LVN2YVcxWTVDa3JNWFNBMjJJTE0xLXJidzZtMk1vc1ljM3FmaUFJVFNsRWVpQTM1dG5UNm5TY21NRS10cGRCOVl5akRncHVyOV9LWEVBcjVuWmdXRDVCWjI1WUtwTXhUT1ZwM1ZlOFg4T01BYXZKTTgzNFIyZXRHM21tRk5FV0NuSWhp?oc=5</t>
+  </si>
+  <si>
+    <t>['señalado', 'presuntos', 'acoso', 'nuevo']</t>
+  </si>
+  <si>
+    <t>Petro acusó a Francisco Barbosa de entregarle la Fiscalía a la Junta del Narcotráfico: “No investigaron el asesinato del fiscal Pecci”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwJBVV95cUxQSWZHbF9DaUpCYkp0OXE1bDFETWRyUkxQblEzcUgxX1NadWUwaENpUmNSMHZicGJwSjJib2FGVlZkTWstTWRpaDV0OFJxNG96UUFibDRSbUpXU2plS0dWLWhfM3poajI4Zk5uYWhZcVpVX3I4ekZ2SkdUTTVLNjhUOXc5cEdlVTVhdVBvRVlDdXI4TVlvY0VFX0lXblRydzU1XzNSQU9Lb1owTTRtTUtPdVZYeGFHNWxqdW1XcGplMU0zbDNQbXZoWHdaa0JSNXh5bVV1RllJWVdySlNDeU51dDRYS3k1ZlV5OXU2UXlkcnQtT1lPSS11TUJWZS1oMmtGTGV2MERXY1UzV29zeDFjMUFxMG1JR2NoNkF3X0RKRmdzMFNVZjZiN1pac0VJc2PSAcoCQVVfeXFMUEZ6OVVUSi11enBBX09NYlgtcHgyOEpRQ1FaNWdBU0pQNXZqRnlyNEY4S3F3OE5QNGZhZk81U3hBMm9jMDZ1anBtbWFTR251Mk55ODJfWEJibFhPSHUtUWRHWGpXTUVmSGxEcWJ1WGhYOEdJcjktc1ltWG1zTFNYbkZwZk9NTTZ3enFvNGRQMDFHNjI0Rm9ST29wZlR0TUlqTU9sYnM3N2plTVdwRWFoSGE3RHFGdGp0T0VtenRabjAyZ2tyaVp6WjU1andsN2hQQldwZ3RybFN5OGJuVUNfX2pMUG5FaWdodExZSnI4UTFxb0JTd0E0Nl9JT2wzcG11NmhDM3Q2LUw5Vk1fWXhrWlFJLUp6TWV2TGEzeWctQnIxSDQtbTJLX1lTWnNzS095RFc3TjBsZXZpTThrdktkblhHYk8tSm1aYmRn?oc=5</t>
+  </si>
+  <si>
+    <t>asesinato, narco, narcotráfico, asesinato</t>
+  </si>
+  <si>
+    <t>Petro ‘culebreó’ las críticas de un apoyo a la dictadura de Nicolás Maduro: “Yo quiero defender el Caribe y la vida”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxQOHEyQUZMYm56Mm93QW9SZmpfRXdib21XMmZ0TFdRTHN5ai1DVXpxcG9hRkpmSnRvenN2LXNsaXE2WS1HYUhWMnJmMzE3TVJFV0FNd1VCcDBKTkFVMS14MDBIM1FDaWVETENsdTAzR3VTazJZYmhWbnQyM1RLelRYb2dEU0lBRU43QUpSNzFiWmxvTXp2ZGtsZ2VwdEN4ejF2aS1lTjdCaWE4cmU2ZmY3cjNkRlRqazdVRXJRM3VXajlvVlZkLXY4WHJfQ05TYWZkRXpOYWM4WFp0UHZ5SzJoanFuVDFTRWI3V25hZdIBhwJBVV95cUxQYTF6QWRXTzhxVDBHUDVGOEZsVVptamVNcFJQVmxONGEtNHFROTZEZzlYSGNVbU55dUN0MlVyanBtbkZXM1FVSUNQRXdsYmxWeGItWTRjZVctdFhoeE82Y2RUWTZBemNGV0R1SnZoMHpzakVYQ3ljLVRhLXZPbDFINmdMRTJ1dTV5c1NBRnVFajdpcHAwaDA1dHJmOHZ6RjMwWGZJSUloQkFsdkQ2dXpuSTJQOFFTSlFBd2ZwOWJoQjlpTzJhMDlhUC1EeFdHQzJYZ1BaRUZYcEZTVHVYZzR2ZFNzMHp0MHkwanhQVno3WkNiakdya2Z6UDNYWkJ0V2FQWHpCQmZHTQ?oc=5</t>
+  </si>
+  <si>
+    <t>dura, duro</t>
+  </si>
+  <si>
+    <t>Petro volvió a referirse a matemática y ciencia cuántica durante el Consejo de Ministros: “Me van a decir loco y me sacan”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxPeThCQ3ZKb3ZEUFZXYU10c3pETVYtQmI4RENvNjdhcDg0TFlaTjVfUEZPV21BczdFX2ZHQUlHSUE5WlEzWG1CLXV4QW5UWE9VbnNFVG95bGR1V3c5WHRqM1VxYzg5dVZhUmFRbWExYnkxRnotTTFOSXpiQlVhbXJqVWM1V3RjUjVveTQwcmpMMzBTNXNnMGJIY1lRWjFPNVB1UEVWUGJITG1KSm43TXJUanNlNmxkbVZXWXplVWRXXzV5NmJhR2V0c2tpellybUxfTWZLTG5jaFFOdGpLTnVHSGNKOGpzcU1jZlc5N3hURE1oM0xTNUhj0gGSAkFVX3lxTE12d3BDeTZETEFCTjhUcUtvTU5SVFAzTWxpTjE2eF9famlrRjYtcUdFNkdwc1VkZDhJRkl2XzEyTEduR0hUQlN3cFVvcHR6RklBZVBHbW1WUV9qZzdTeWFYS2tncFF4NE1aOWFkNWxGTkhqall4Q2ZFUEo1WnJUMlFQTjVhWUk0Q1QzOEplOXZaNkFrcUJpZHdUSHFEaDctbU9WdGdkTXpvMkVpWk96VjAtNW1BTGUtWTBJTG9TWjB1V1NaR0IxV2VXMFZxd0dRN0FWWU4zaklhak8wTC1Ka2w4elVkSUg5UHphY0tCQ0I4MHZNektSRFFoNC1ncE10NFk3SjdheUVhTmd3YjY3Z1RWN3c?oc=5</t>
+  </si>
+  <si>
+    <t>['cuántica']</t>
+  </si>
+  <si>
+    <t>Petro no ordenó a las aerolíneas del mundo restablecer sus vuelos hacia Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxOcTI1MmFYMXdPSzlQZUxzM1F2UWN3Tnl3OGp1Ynp6NVExcWs0c1JYQzhVSHFIeTQ5Ym03bmxQWFdkeEtiRGVMSHJHX0dDN2owUXh0UHhjMkp0V2hLNzFEX2hsbDdqclI2RFRUbGpWeVJLeXNlNVZ6LUpKdXA3MkxKU1g2b3AwZDhVS1ZKV3dpZndHdjFfazRXYWZubFV1aVFoWFRsblRPU3VsOTR2dFNsX1k3MTI?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe arremete contra María Claudia Lacouture por encuentro de Amcham con Iván Cepeda: “la parte santista del petrosantismo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxPZ2ItdUROTUpRbjBIY0VhR0NtQnJlNjgyWk5iV0x0VlNBT2RSSnFoNWd2ZGlFbjhMaENHX2JZeFh5c0M3UV9IY2dVY2Jrd3N1bUVvNXNWMUhKcFExTFBIYnY3SHV0VElmTlBKaHNvMDNCSEtLQlBEazVpT3h4aUVOa0xJV2YxT3A0SWdMUXVuTXZEbjZnOC1wSHJuZkNpSWY1Wkw3RkZ4NndRbDV5R29kZngwa1huN2FwR0pMNGlTRTdSY1o4UjQxLUs0S2JWckx0cFVUcGZIa3dEMkJ4eEVIanVJMko0NWNNMXdfLXlnbENNRnBIeXRLUjM1MWljNEtfYXNkZnI3UnVsTElUeXF1S9IBlgJBVV95cUxPeWptV2ZISU15dEEwOGVfaDlleExZQnpiWngxa2g1VFZFdzJaQ2F3Wkg3eU41SFo5RDRONG9lVmtaNDhNNnZKNGtsaHZMN1JCcmFBMTU4bE5QMDhoM0FBYnE0X1R3bXlTRjlsTkVRY2pLOFRoRDV0WGxIS2FvZkhyanJYWDgzQkpKb09wOGp6TnNBcmxYUjIzOGpHamJ0YUtfZko3M3lvSm5FMlpIM0ZiRk41akthZWVZMFktd0MxTS1LZWVtWWJoTkVfZkllaWMxY1R1UUFqVHdHcGYzSnltckhnSFNGZFJMdjU3bnVCZnlhclQ0Z3o0eWV1c1FjY09IYzNqTEVlUnIzRTNWbXlVdy1VNW5Cdw?oc=5</t>
+  </si>
+  <si>
+    <t>['santista']</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella arremete contra Iván Cepeda: “No podemos seguir permitiendo que nos vendan el veneno como medicina”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxQUFQxcEd3cG02aDlydnAwb3lqcDVqbmlXRFRNTnVCU05EOXBDeVpDaDZ6LUxtdWZPOXoxblpMSXQ5bVg0SFRlM0czU1lSVkZsWG9xQWhYTnJlY2dTbWRWSkNPSmNTVXlFcy1tWTVrSmFzQmxtYlY5aWR3RmlWczRUUGF0SVA5NXB6clNLVVQyMFdqbHB0NHhTa2tJeWNZZ1RTdUNHdzJNeG1URWN1MTlKNTRnOUpOSk80ZTZnM1JZZWVuZmZXNXlMMnpnZUZYS3JQWERmMEpHTWgtZzd0YmQ4R21ZeWdMaDBqX0hmZkVjM1dNcldqdS1weEJydC1yY2_SAYQCQVVfeXFMTnR0cnplVllmVUxHOV9FNm9rbkNHS1pyMmtYNjBlQVZQMVhoVnBuQWdqS1BwZFUwdnVhOEl2Zm1CM0NxQk1Ud1pWWk5tMTVxM0dMeE9waGlWMDVIaG1jNlQxbG5iMjRYRWQzV1RfY01IX1p6VlRYbnNBYWcwZk9VdjZKcHhvQXJ3YV9wbnJaRmRITVpYNTJMSml2Q2RJUmhob1RXMl9iTzJvSVo0VGpGZ0lObjdxaExZZl9SRGVaYmVXaUduX2VyQ2JaY01oWG9mR3VxWk5EeTBENXc5Um8xc0xYcGpveE5teF9CTFlvR25hcHBtWG0tek9sQkZGcjZrZVhuOGY?oc=5</t>
+  </si>
+  <si>
+    <t>Uribe habla de “alianza” entre Presidente Petro e Iván Cepeda con Nicolás Maduro: esto dijo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPbzA1RzZHSGY1LUk4Z2x5aFVNM1hMSVY0NDFJdGkyUmM5OTJwclZsVHQxUUZmb2V5bVlHYWtnMV9FV2xWdUl4b3VyeUJuMDlHNzlmWEM4YmJIcmNGMU1xdXlDd1kxTDhWejI5ZDdhbGRrdUprRU5UNGhPUWJRNmR3VVlLRGQ4eHhvVW81UW5uMURxSTN1ZjdMM0ZaalRGekUtSk1RU3lRNDdSbkQ2YThMcXFIN19mZFhmbVU3aEFBSEh4NGdnY3pqZlpVRFlONXhDWjVoRjVzeGhaeWs2N0g0dXFZZndYRGVnZ2F30gH_AUFVX3lxTFBhTDBUdm1Tc2lCMmM4dU8zd1hrLUZsRENCSWxUYlZFX1hpZzBfbm1UWURMRWsyeTcwc0YzdlZYWHNNUXgtMTJmMGw1RjAwcFBtZ0VnYzB1LXFPYVA2RGFpUDBfdEgzYURwbHZfSXRyU3BKLUhUZ0dQX2pQUTZwX2xHMl9pcHZTeXdNMHZGS0tHVi0xR0xocnNTak5SNXFuMGNadDBIRnQzZnRMVnJWcUo5Um0wbGZBUkI0cUl0WHF6M0lMYnJMX25Sb2tEQXpVTEMxZFlDemExZTBRc0JMR1lacEhHcmNaeDFydGtQOTh0VmFiakVGWTdOaXFZWU9iWQ?oc=5</t>
+  </si>
+  <si>
+    <t>Uribe critica a María Claudia Lacouture y la califica de “petrosantista” por reunirse con Iván Cepeda | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxPS25jWVRfUWtGSm5mbWZkeWV1YzI0V1dKS2JwTk9qU3NYZW5GbUhtR0tydjJ6OFBKZFdlb2pfUnE5aDRPWEhyNGRPUE16c05yU2NjNGJtbVNGMVppbGI1RUIxX2d5SWVzWVZENGVlS3NfX1ZEWDBLOEMzLUFGSW1WNXpWejlUUWFKeVFiQy12OWljN05CVGNuUUFraGJHLWhwRmdEZlU4WktkV2VVYnFHc3dEMXJXeVZtSDE5UlZsWlB6T1c2VEtB0gHMAUFVX3lxTE9rc2R2Y3d3eEhTOWcxVTZKQ0NLVENEU2M3M19RUjdXb2hnYURlbVRkZ1FwOU5EckNOb2llNDA3bE84VXR4emtwVDh2SV92RVhBMTZTUzFGX2VwdE4tVkpnbWpRRFdTUGFTNk5vZ2VLSnlHbXhkY05JZlF5MHdoTk1EYUlkUk5UZXpEOVczRlJtbnU3Vk5XZXFLeVRMQm5CaUo0WkFvcTNGNTIzSXBENkxQZXd5cjFXbnRHeW9rUUpKd1NSanFheGdBSkoxMw?oc=5</t>
+  </si>
+  <si>
+    <t>['petrosantista']</t>
+  </si>
+  <si>
+    <t>Sin falsa moderación: así fue la primera reunión de Iván Cepeda con empresarios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxOb1hKQmRjSC1fX0lhdGQyald4eDcteUlkaF80SGxGUjJmMjNjLWhOUks5ajlWS0k5dU9xVjFEY1MtaUV6VHkxTllDNFZ3ZlN5YVU4cVlHU1gwSG9TUGJtZGhoUlN4eEJVRDFWZjRUSFBVbVhjY01icGQyQWxiZmNNS0psdkhNcHhEVFpPYkgzRDY4enlZanFyMlpEWHhqSGVSRG1PazlvMnlsaHdtcnM1Y3d0WU5sM2xKcUdCNmhGT0Y?oc=5</t>
+  </si>
+  <si>
+    <t>['falsa', 'primera']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe arremete contra Iván Cepeda y lo llama “candidato narcoterrorista”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxPTGJLWTNibUlHV0RiYU9rc2E0VERwLTJISkJpVF9KNjhXNDZzRHcwRnFOdTc2RTJOUkFLMEhzeEZ2bU9sbEhXZnlhNUdVRmQtZmJSci11UFVGSGJTSk5OTEhrYlk3ZGhqWTVLX0FiRjNlZF8xOXJlS0F0YklyZ2NyLTdDSGFmNkhBS3JoWU96VU16RTZ4TDA2Z1hBUEsyUHZVaHZTYm1FbVh2bDlJdExvM3VkYTN6UTjSAcQBQVVfeXFMT2xSZlpzM1BKdnozX3hDeXBNeWdkSFV3UEJ1TjBrMVd0Q1ZBdEZnNGNBM1o5QzZpb25aMl81TTEtbWtnWUFveDlTZkhzS0U2NHFvdzVpUlJEM1BtOEZLMzNjTWZjMHNvN1FUV01jeGJLd1FZeUNSZl9zT0U5cjFFdF9wU1RCMUVTZHVwN2JNS08yQmxUcWFFYlhyLWU5TUJSME13cDAwU2J2T0c0enNVb2VCNG1POC1hdUZialVMWTlHaGs0eA?oc=5</t>
+  </si>
+  <si>
+    <t>['narcoterrorista']</t>
+  </si>
+  <si>
+    <t>terrorista, narco</t>
+  </si>
+  <si>
+    <t>De la Espriella respondió a María Claudia Lacouture por reunión de AmCham con Iván Cepeda: “Eso nos ha hecho perder el rumbo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQd2QzQ2VfbWVPSXBaME1PUVJ6M3JvX1VOWXk2aWR4MlQwVGVMSFA5VHJfb0FIcWN3WFVtdGY4MDZRa2I0M0NCOWtRT0lPbEpxRVExSDZnYlJ3Tmx6SU1iQmtjYXh5aG02bHNTYm5MeTdzOTVzWnhKRGdDRzFUTHpVWE0ySi1XT1dEZ2pZRzhSajhRdWtseXR0NlNvd29xX2xXZ1h2M3hxSWNoa21YYlBCemdsTXBpaF9mSXBNOGpNNlNYV0lfbzJwc1E5YUpJYVd4aDBrbWVkbm9ZTDdNdDNhVHlNemEtUjM4Q051dXZ5bXJmVVd3YTBNOV9mNNIBlgJBVV95cUxQUEE0WkEtUDFVRFROM1hZMm9nbk5PaDNMODVqT0daTFZabGpYWTJUX2NzQ1lDTGFhYmk5amZqYUdnWDlUMXZwMGRxV3B1Q1BQN2RDYkpLRDV5clZYQU1WR1dIdTRLTEY3R2dIdDFFSkhsRnVYZVh1dWlKaXRCdnp4eUtIUVpjN01Bc1J6RXFFZWRSSl95eXdfUFhhc05wRjM3eWlxUklYZlU5LTdUNkVVLVRMVDBWYUtQMUFSMUNEaFgwVlQwOEpvOVVHNFZrNVRVejNaYWtBdG5QeXRzdVlUVmlfUVFCTHM5SkVlaTM3R0p4cGZxQmpxRFg0Z25TaUJXZFNpY24ySFZKVFVuQ2QwOV9DUm5ZQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda revela sus prioridades de campaña</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOZWlFSDYtX1d4ZVkxZ0sxVl90dFVzeGhMYlRsZVd0a19kRlhtMlgxV250a0VLcW1rbWRRaVZLMHg0LVhLMVg2UkMxVzZsSTJIdWJzSEN3QUlpSUF3ZlVSVHlpVEdBcEhNb1dMZHlNNjhaYVhsdHlWYVBnU0laMU9KY080d1B5T2xrQjRKVElQVDlWdw?oc=5</t>
+  </si>
+  <si>
+    <t>Si Cepeda es presidente se consolida el narcoestado que Petro quiere imponer: Vicky Dávila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxQbHpyaVl6eXNKbnZVRWtLV3hmRGpfUUxJVmI1Z3hVOU9XMnpQc2JJYXFDYjFadGppYXVnSVVjV01xYUxxRUNpNWk5QTdtV0ZkdnV4b1haMVJJamxRV1RYWmNHSldfOFN3WjdVeXZUQncxMlVPN0o0cTJ1VjVzTS0yQ1JzeGthTmxiT2hvaVVfd1FTeW1oUENVSC1tLUp3MGh6RHBHRjc5Z0E5U29KdU5FWEllQVhGdG94Vm1oYk44RnpyQdIB1gFBVV95cUxOamthMS15ZHdkdTBmekdqckhTTUJHVjVUaG51ajRFODduMFJLdFNZY050RkIybTF1bjgyWjVBYXF2djRma1ZlV0Y2UGZuM04wdVV5WVh1RS1OR21zUDJuVWtPYU5zSUhQMkxnMUpZdm5JNFYwYk85TGRhUFhBMXhZUjdFamRhUlRDejhFN2lrQ3ZONHRwbFZyZGZDRzI5czkxcjF1ZWNaS2dCWlNlN0lYZmtzZGZSZm5BLUp6TVFEYTdVWm1MeTUwVmNvdzdlQ0tNaVE2UGt3?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila inscribe candidatura presidencial: “Abelardo pierde con Cepeda en todas las encuestas”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxNOHJSamEzX0hjVHRqNFhKTWRCNVpMSnU4dGFyY2RESXdkWEo1RUlKYVo1aFgzNFpUYjhwVUJ0R0xuSFFCcS0xckVTVkJVUXdoeDMwM3BmbENLbmRSdllhY0RSeW1rdVVyTGtBc1Z2RFdYMi1WclUxVV81d3hxOW9Wa2VfM1Z6ZHMydjYySjR4Q0ZzeHRGYzl4UWZiU1lleUNYY2h0S2pTWEl4cm5sQjRyd2p5T2g3UlNiYU9xWlRtTGM5U055Q3czU3ItYmRtczZmR1k0TlZKWVVpTTh6TE9z0gHfAUFVX3lxTE04clJqYTNfSGNUdGo0WEpNZEI1WkxKdTh0YXJjZERJd2RYSjVFSUphWjVoWDM0WlRiOHBVQnRHTG5IUUJxLTFyRVNWQlVRd2h4MzAzcGZsQ0tuZFJ2WWFjRFJ5bWt1VXJMa0FzVnZEV1gyLVZyVTFVXzV3eHE5b1ZrZV8zVnpkczJ2NjJKNHhDRnN4dEZjOXhRZmJTWWV5Q1hjaHRLalNYSXhybmxCNHJ3anlPaDdSU2JhT3FaVG1MYzlTTnlDdzNTci1iZG1zNmZHWTROVkpZVWlNOHpMT3M?oc=5</t>
+  </si>
+  <si>
+    <t>La coalición de perdedores de derecha que buscan frenar a Abelardo van a facilitarle el camino a Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOZm9BaWplXzhRSFpMb2JwMU1RaFBTa1p1TXBpV1pvT2QteHJiQlJhaUdWS0drOENjbGltb0YydFVxOXl5QlE2NVBjSktScWNUbFphdnY2WDkwWlR1eGctUkhySzU2eWxHM2xlWGt5ek1tYWJXVHd3MDJMc2Rhc1pJQnhlaG1lNTlBTTdBM283dWFaWjdBQ2w5VXBuN05VT1Zodmw1MHdXMnJFUkNnelpFblVpTHBLbFZsOGhOMlNMUnFsUzM2Rl83emNJaw?oc=5</t>
+  </si>
+  <si>
+    <t>'Le agradecemos su interés': así fue el cruce de trinos entre Armando Benedetti y Juan Fernando Cristo por las demoras de la Jurisdicción Agraria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxQQVg1QWIyR1Z3MmNkRkRNLVNPQmt2bC05b0p0RW4wa3VybmNIczYzQmtSbTh5aGlSMW1pV2V2VUlfaTVrZUltd1JnNU1KNXd6aXZCdXZDc044UlhtcGJqRVdKWmc2TG1tU29IYS1CajNOYUxoV2ZJRFBPTXNNZ1Z2Y3lsalR2eUFXWHJFU0I2WHFQY1pHZkc0NlpyUTNZMkxybklOZ1Fadm81MnZiTDdtalJqNUR2aUx3ZlN4V0RHXzBEaW5KQ0R2U0g1dlBrM0VyQmpNWVZZQm81dG9hN2xGaUdPZ9IB6AFBVV95cUxNZkYxWWR6VWtzVUxERjVSaDQ2MTk1NGZLNDN5cWtwYXBjN091QjZOLXRveG5ncFptR2FkdTBkZzdDSEFzMDBQNEFFT0RlUTFlM0tBdi03NXc3R2k0T2hpekd4bGoxUG11T011RXVtMkdfQUJoUDU1UDJJN3hpZFZ0dEVMZUltOTlrUzlvSlZBdEwwLUpYQmJ6VGY2NEtpcEF0SVprUDVLejhWN0JpM3V3TFpuLVp4Q2dZTUdxNVg3TWd6eFBEUGwtWEJseDJSdmJHdnBaWHpnSmFXMllyLTFvN0RGSkRYNnBs?oc=5</t>
+  </si>
+  <si>
+    <t>agradece, arma</t>
+  </si>
+  <si>
+    <t>Juan Manuel Galán llegó a Bucaramanga para respaldar la candidatura de Fabián Oviedo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxOdi1aQ0lDVXhpc1RjUjJMalcxSkZJaS0wUTJXWFk0by1zWC1HbDVkT05KaDJvaUFrV0xycGw0VEQyaC1BTzJ3QlpGMnd6dGJQUDdQSERNNlNBYmVMQkVVcV9XS3VCeldTcWd2STR0dmxzdXhRRXBOdVN0cWlyVTl6b3ByOE9EV2Q5T2dFMU44TzRlWVZrTW43Rk1pY1praHhXaHhOM2ZkUXNJczJCQmVaYkMzbElFblRtdjl1dURjbFg4R2VPaVNHaGlwcFE?oc=5</t>
+  </si>
+  <si>
+    <t>La izquierda se fractura de cara a las consultas de marzo: Carlos Caicedo anuncia consulta presidencial con el exministro Luis Carlos Reyes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgJBVV95cUxNUHRKNTFEYTgxYktxd2NwUUw1ZG9iVXJQUWd3TTZlTl8xcW9EOFJWbTJOTFJnMjVsaloydUl3ckxicHB0UUNQdG5GQUtsaVhBeHhLUjVkeWFPemJ5REtOQ2s5akhNNGRxYmRIMjZHOWUyXzJtLWg1cEpra2VMdEhlYnlSVjZmOHc5bjJ5V3VjNWdLcXJLYzJHcUpNVmUwcTFfUGgxdExiWk5BcnRtVHNBZGRpMEIxb1BPZU5xRHJBUldEYlJqcmJxZ1Q2UEExZy0tOTN1WUdheFpVTlBWZmZLVE9RREswUWpfd2gwNXlFQUtFaWJSYU1STzVIV0ZMVlpDczhYT09mT2V6aWY0dmVMTlJseklZeXVSTjdaLW1EOUxmdE5nVGtMNXRyUkZoQdIBswJBVV95cUxNeFpnRDRXLXlXaWNOdTFITVloQmllUS1aalM0YkcyeF8ydXozWGRmR0ZkeTFBZ0tqM211VFNmQ1hJUUk4cy13aXNjZDM2LXRGT2F6cDF2bHFfdWRhb256WmJwQ2FuTU01VlllT2pDeFNuR0oxT2FPd1FHSHZkdE5IMzc3SXJWMFQxT0FYVm43NDdfV3dnLUk5UVYzaWQtejljTHFFMHJaN0dibkpteF9VVnJiaEZ5cndMWmpDUGR3cHNLbEdCVzVQVWdSRlRrWkxqYXFHVGdJTkpKd0JEMjJ5ay0yZUVVVC1xWHVrVmRVVl9Xd1pmcEFmS3E1NzdYOHRUTEtoNG11ZGRrR2xCYlQyb1llWjhfMFVBc1QwLTlkY0wzaXJzZl93QnRTUHRVUDhMQUM0?oc=5</t>
+  </si>
+  <si>
+    <t>Luis Carlos Reyes</t>
+  </si>
+  <si>
+    <t>La izquierda se divide: Carlos Caicedo se medirá en una consulta presidencial con el exministro Luis Carlos Reyes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQN2ZrY29McmZmUVNacUN4d3ZGQ1o3QkRQSVlPdERJc2xTX2FFekdFcGlQaU9Od0RueFRSY0FhM0xNLV9IbUZSV0p2azJYSXozcGtWTzZBOFNwbWxMaHVDODEyNGVkQTZmdzIza3M4R3c1MHZoM1pTTm5jbXpTeGZ4ZU9KX1FaTndMTXRBZERVZG45dlBtMFRFV1pSN0ptMFNkdXFZR3ZIWFk4WUc4TUtKVU54eEFJQ0QyRXdtZTltajNjV1FNM3h4ZVFzdkVwcmJxQkdLcW14b01hOGZEN05zYlY0QklSb2FOXzZKYVVsZ0V4dWlGQUc0N2lJNNIBgAJBVV95cUxNOUJVYk8tRldTY3ZsSEdYUFNNbFh1bnpISzJxOWxDenByOEc2WUxOMFpZX0FyVmkteFlfeFc2a0I3LTh1bC16dW9RWXM4YnpMc2I0UEJQT21uOGRDdWpMZ28yRXQ3c3BiRHI2R1ZaTnVRRGxyV21uVGlnQ0Nob2U1WDFBdW53U2JmNWRqUXNpdUdJMW1xbENLVnNsQ1Jwal9NMDhiVVBua255YWxCYkxvYmRWZ2luZEVzVmxXUlRzR0ZXQ3RncmRRT3FBOGZVcXlvOE1ycmpPdTVwdmRNOXZFRW96UnBpblBaUDVUTHJWX0FSWmNJMFNsb2tIYlpZeUFy?oc=5</t>
+  </si>
+  <si>
+    <t>Carlos Caicedo y Luis Carlos Reyes se distancian del petrismo y anuncian consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxQdUxZZFJFR1FFcXo0MTByQll3TW53UTR6Q2pOSzNDNXJ0TUdfN21nSm83SUJYNDNydTBkOFJiekFqWGhEUjZFR3dteUZVcGRuZngxdkVlV0ktUy1sNzJqY0dBeWgwZDcxTU9qM2hDRmU4Z3pJejdaTUNEU2dYTks5Xy1FYk1fNFFEalVYMmgtR2RuSzBhZVlLcWYwZjlxc25sb3RsR0FXZVkwRS1RRm45NGxpWDJIMkotUnliZHhvZ05YVlo2QUpuaDFsNzUzWXFCakNqSDVNb1FLUzNXbmRKNmcwa1ZlRzFIVlZJOGc4STFLME83U3FBdUpxTEJQVHZhOUNtQ2kxOTbSAZwCQVVfeXFMTTdWZ2JUNXBUY2NRaDBkcHo0N0xuNnZXUUstbHlQMjZJaWpra2w2N2RmV1VEY0NLSlV3WUZYZHpVQ3RueTVUaGd2NlVRQkZSTDAtRjJNNmpFRWpBbERxR1RyY1FFNkxNdTlhY1A3OTNzY1hDN0I4REFUVXkwQ0h2VU9tcUNyWkFBTHhLRU5JRi12Z2xReEtBaVlOakVSVnF0eUVVbXpLaWppTndoV0V0SzBNVnNiaWM0dHVIMXNlaWhnamNBREVQSzdLaXRRa0hoWDZfQlhNS0VfWDJIejJ2SlFJMXBsNkVQbmVmc28tMlBxUHJWOTA0RFR1THI3bXppdndzTTZNc3FvZ3VBa0RWZjFBX0xXTXpkTFFLajQ?oc=5</t>
+  </si>
+  <si>
+    <t>Caicedo y Luis Carlos Reyes lanzan coalición de izquierda para presidenciales: se apartan del petrismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQUEJiNGxjY3hGaS1VZk9sUXpQNlU5M2E3bFN1endoUHp1SU50Rlh4NUNjUEVhc2ZNaGdYV0JBd01HRXhISy1qdmN6S2JJdk9leGlhTk9NUXpHa0VKMVl3aEpxUThyZkR5RmNZajNoQnBLUXJrQjR0eDVtelFySDVmRFZ5cXV2RG1BZlVlbFVBd28tMnJ4dGozVHo3ZzI2aWpsLTlfb19qdkFlRnYwY2VmTm93RnlKbnRFTElHSWRYSTktaktkRnJGUVE5VTkxRHpfbV9CVEt30gHqAUFVX3lxTE15bU5JRlRxWFl1WnF2YmEya0ZtdkRmeUdENWJjdHJhc3A3N1VMa1J6WVdjTTlpYjFhZElzYk1WTGJ4SmZFOWNkZV9aMmFFMHZRSjM4NTROTGRPekdOQzNHbWdvb1M4TXJKbE8xbGtPV0Fud0RDemhENnlOTjdyVGNwbTVQbnY4VmJOQlI2QTJiN1VOR3VRVzF4VWN1U2lNYTM4amN0OXlubUMtTE1nRURzNDM4TkpQdEVIUlRpcGNMZWNXRzZjUUtVcks1YVppVnF1dng1RHA2R1NIcmlZSjF5OWxBdFBLdzViZw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Fractura en la izquierda? Carlos Caicedo y Luis Carlos Reyes se unen y anuncian su propia consulta para 2026 | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxNTE96QVAzN3BRZl9oTHdibmd5U05DTTMtV0Q4RmJxZVg3aDR0bDZkQ0FjcTdDZ1lqbE1hZVgybG1Wck16enQ3R0FpQ0pvQWhkQWJXVXlqYW4xTjUwaFQ2RUhlOE1Kam9lVnN5WWVwU2RiZEpBX0hKMlpsdnduZVJMbjNMQ0FhengyVERYS0d2aHUxN1pRbEFRcWp0V3NjUkdVYWxYTjI0V1JRNDVJbWNFa1pYOVVsay1t0gG-AUFVX3lxTE50dXI3LTJQcWY4RHRHeTU3bXlwR21fTFhndkdIN0tKaUtvNkZlUVV5OVl6U3ZYNmRfcThrZUV4NjE0bFRHNzlnM3VDUlZaX1VoV1ppdmo4UjdqbkhnTDhsQndkb2FDenNtMTNTWEVxLTZEZ2pZdE8za0VJeTI3bVVDS1UxMzhrTS1udzdvTVBadXpCNkpmNnVYZWVpYVl3T3FQS2p4WnhORGsxTFlTWkFOYWNiNW9EekFpZEhfQmc?oc=5</t>
+  </si>
+  <si>
+    <t>Carlos Caicedo, Luis Carlos Reyes y Jaime Araújo anuncian que irán a consulta en marzo por fuera del Frente Amplio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOeHEzQV9va2Z3emU0bDNBWHdqR1lNYkdScVBOaGthaUx0NGlxS3c1ZktsV0N5R2xUOUp1YmsxaTFrUkxJbE5NY0tqWFFPenVOUUVrb0VrSGs5cEM1WGNCcngxd0E3NUJIZ1RJdVVaOHNIWHV3MlFLTVRLaDNjaVNMWU5iRldyRmZzcmVfZHliUTE4c0NqMXdQMWpuNEdIcjVRNkxlUU9PWHdHS19tUzdGV1dlZXpiUDJlLXBqR1pPR1pKd19GcGhPdG1KeDAtbFF0MFFVemRn?oc=5</t>
+  </si>
+  <si>
+    <t>Rueda de Prensa de Carlos Caicedo, Luis Carlos Reyes y Jaime Araujo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQbFJYWERVdDBRYVptMFJCVlNpWUZyaWZTQTl5d1ltbDV6dkdvZkh4NXRmaFFDbzFlWGdzdEdvQ0h6Uk9jRUM5dU1yelpBLVJvc1hLYnpLQjBaR2x1S1BJN3F4TFBHbTVtc2FodFlsS05LUDU4cXBwTmk1WXlkVUNWZDc1VFRNSWowUmRheGpfbk5yU0g4ZlhiWUluQUZNdFE1elZnQW9IWGdVWDRpR2pQRzBHSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Destrozan en redes a Luis Gilberto Murillo por felicitar a María Corina Machado; le recuerdan su apoyo a Maduro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxNLVdjYkI3VHRYRjBGX1VOTlV2dXFXRHl6OHhKU3QycmowU05lci11ZU9VaVlPRGFDeTVoenZPUFJvVDlKZGRUaFJvc29NaF8wU1FHMzdxTTZicmliSFBMVU1ZX0Vfa0xFUy1MNGY0ek91LXVYOGJtbFJOd21ha3paLTJ2VDViNWxHMGsycXo2VlRkYTczdHozMU5rWmFublEwbWdKdm1keTFWZkhqZndxcVl6dDlfQ1JKVGpWX182T3RoeHk4QkxRcEFnV0F3eDF0ODBrb0U1X2tTemtIb2dDRi1fX2dYTVV0MlViT2lZbWU?oc=5</t>
+  </si>
+  <si>
+    <t>María Fernanda Cabal presentó su autobiografía: 'Que este libro sea entrar en la intimidad de una persona sencilla, con deseo de servir a un país'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwJBVV95cUxPMGx5djRuSTJKNWszUlNLbWdXOHFfUGZrLUFPT19yMXFBMW1FRnRqUEo0Rk9GaDhKYjBpS3ZsMTc4RVF0YkhJWXJKOGd5UWZWU0FUS0Q5MFNtY1Nua0F5cWNZUXRTUTB4U21RWXlzZjVPTTI0NnhIbkx3Q3dsbW1vS1ZpRHljYjVCUXpZbTF4VXdQNmc0cjBQd211bXJDR1U3cXRHb2ZYMVhSMmVtY3k3VlJiRGFFTEVEUEkwYlJqNmppVGxCd2VYQi1BZ3ZYdW9mTTVwWEFWVXJMa0VkTmpYdnpMMFVJQndqVFdYOF9fUWRxSnpMdW54NUVvWlIzX3JzeUZSR1FnM2ZHZGNqVElCa1dWZ0syc2ZvbW5qNEZTZ2Z4aEFJaGdRMUtkTQ?oc=5</t>
+  </si>
+  <si>
+    <t>['sencilla']</t>
+  </si>
+  <si>
+    <t>Entre el 2023 y el 2025: María Fernanda Cabal denunció despilfarro de recursos en el Ministerio de la Igualdad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxPQl8xanY2eGhnZ3hMTDNjQk9OMzdjR2padFQ2UTk2dXo2UEVDVlZUWXhnZU1JaXZZcHlHSG9mX1FJSmh6NHBBUkx4RjZocWxDV1BObGp5TW1oa1lsQmZicmpTZ0VBaGs3Mndhc2hBU2tSOGhlaGVkNU81YXVhRUJqVWJWR2p0TXFHaXhrbWVQTnNRcll6TFk1ZTVVeG9BdjZfazlac0xmbkp3ZUhvbHVBRzFIRC1LQVBuRkJPTmhzUjEtbHFrMlRtRG5JNEM3Zl9admJUMm9BNFZLb3pwX0I4X2NXOGFSQ3hpSlU2ZA?oc=5</t>
+  </si>
+  <si>
+    <t>Paloma Valencia y María Fernanda Cabal enviaron un mensaje a Petro por posible asilo político a Maduro: “Sí, siempre y cuando sea en La Picota”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxPczZPYmR3ZmJ1U1ZHWmoyaUt0Z2QtRXpNOW4xYW0tZS14YlZwUDZ2eVdiUktoZzd3Y3VJU0ViRnZqLVh5dEtEWEo3VjVadzNBdzFxbEhJMUdfbmJDQmRrbHl4T09VeGpsaHRJSW5Hc2g0U1lHaGZlWm1MenF5eHlGYlVWckUwWkRvVjNDOTN4ajRocm5wSUg2VHNWOVV4R0VpNmpwTHZrM1JBWW1CQ1Y3azFlTXBMeWhyNndmM0NNSW8xSldlOGVURTFtU0VlV3lxUjFOMUxsbGc4R1ZVa2s2UWFZVVZSTVdzZmZGakFoSDVyNV9iemVvUmkzeFdjUTZvb3B5aWdDSkhCaS0tdFQ2UndR0gGsAkFVX3lxTE1lZG9Ba3dfRUpZNnJoX3p0YlhTcXdCNnlrMzhMNlFjUFlCSTBCakhCc1F5RTJmc1Z6Y3MzVWxzdFotdzZLYXRrQjlRVTBxN2NSUlFpcEx4aEVWRU4yZ1V6M21YSm02YjJxMUk1M3lsMFBSSWVwNFpLT3pJTUk5Q2plNzlNaDVIZUliRW9EY3RtN3BCSC1nRWt2bEtsaDlVaVRUSWVRZDltTmNLdnl2NzFueWVqUkhyYnJ3cVRtZ1lmS0Utdkc4X29BaWZKMzJYMnVNVEtpRjR4QlhBZUNBbEVQOGpFQUtnR0ZqMzFRNWJFOS1HX3RRMC1Td3BNQWFqcDVlZ0wzUWZuU1ZCSHdXRjJUQnBQZDFmSl9LRVZza1NsNGZ1U2kwTlZPUUNLUg?oc=5</t>
+  </si>
+  <si>
+    <t>['posible', 'político']</t>
+  </si>
+  <si>
+    <t>Con amor, María Fernanda Cabal recordó una anécdota curiosa con José Félix Lafaurie el día de su matrimonio: “Ay Pepe, por Dios”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxNSUROTEkyc3dYWUZmc1M5T0FGYW5WMEVkYTJEM2xpak5SYlhkZUZ6RVpQUGJCSXJ5YU1OMGtKa2s3WjJXZmsyS3N1eHFhTHprSUZPcEQtRXRRa2pwRlFaYzlyampyTXdkZlVIOTFaVE1GRFZBZThSZDdjT2Q2Rmtmc2hOcjllRG9lbnRXX2o5WTZHQWNCZFZIbVdMMGx3VUlxQ3NTZmNyZVp4Skw0MnAzXzd6bGpkSXNDS1JXZFBqV01UZFB5NUp0WGd5Yy1iY2gzbFZjeXZnZU9EYmNOREtibmtpcG9GdXBfeGZnaWV2V3RIN3BJdm1WNUZOMTXSAZcCQVVfeXFMTkhwY1NLNjRmNzF3WmdQT09fNVpJa1NyLVR5QmpXUkE5ZXhZT3NwdlVGVGFUNG5sRDFWendQUmF3WkZ1SjRRMTZ4QnVpZjBBaGxqZ0psSWRWeXpHSXRseEh4Z0thSXVRODVYQ0V1cllPTm1BVFJvd2RidloyV25yd3VfTDhvdVFHdXZmTnhuS2tNVUVNRnJoV3ZWWVdQd210Rld4aWZBbTN6VW05eC1iZ1hYLXZEX2xpRmJDSnNZYW9tZExMdUIzX0JDNFNJbmo5VHB5NU1meEJpUGxrWFVZaUtGS08tbzZhbTJuSlIxVDFHa2U3ZnhPU2lhUDdCeG1ldFJJSFJPZGRSaGZmMUNsZHZtT25TZGQ4?oc=5</t>
+  </si>
+  <si>
+    <t>['curiosa']</t>
+  </si>
+  <si>
+    <t>María Fernanda Cabal se fue contra Petro por permisividad con la dictadura de Nicolás Maduro: “Siempre defendiéndolo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxPUTR0WFVxM3RJRzh6M0pZVXdvSnpBR3lldmJPN0UxemdJMGhFQ2dmWWxEcWI1aWlNYUR6U2RGdUNFN2Jia2x1ZFJRS1BhSWs1NDJRc2UxVWFFVWRnSVlHZFVYLU9kbU05dVNiSDk3bGRsSzB3bzBwdDQ0b19PTEVJVkRWRENuQmpqVS1hSkhVR19EbDk5MHpQZUtyMDlfVHNiZXhJNHNHZHRoX3NZQzZSdHFfMlpUeV9wNXNkMWJGeFZORFpqclc2V25aN0tkOENjdmxOZUFPX0g0a0RuSVF6WW1GdlJwUXdubUVIVmo1X07SAYsCQVVfeXFMTjFaLTh3WVE1aGdGTjI5eUlwSDcxTlFQanh4bVpVcU00bnB2TFZHMFlzQzFocUoyTzRlZjQza29lcXVCczY4TnBZaTBkV003eG1wekQ1VDJNUkRhTGFrbnJBRXM1X3hON0RZVU9LT1NRZ2Mxekk3ZTQ5NU5UMlJ5ODFaV1FuNFlRbnZuSXNVeU04RmhQamttX1hUa3ZEa2s5MHpoYmFSS2JZeEFBOGs5TVVreTh6ZXZ5ck1hOS1IRTd4VXZxTkNKNWhCZHh0dkZteWc5bjVyWVlFYmdYcFM4SElNRjJxSzRsWW8xVndWY2s5MXFtTWVIcnBfZlFXbjIxZEw3UlZvRU9zTXRj?oc=5</t>
+  </si>
+  <si>
+    <t>Sentido mensaje de Miguel Uribe Londoño: “Y qué difícil ha sido todo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxNdzdMT21Zd1lvZVRFSGhjTDNZRFlQdExkdS1JbnR5bFlocFVZWG1TM3FiOFhlcGdKQTRPd0lfNVBmZUFZeGZJM2FQN0FGSE9ia2xheEtmT0NrMy1GZFBkRi1BZHViMC1WdlcyUUhmTE9zbnpjVXR1S19KX2VSNWdabVM1ZmtPX05BUVBrNlJoRmpaRzhWaVBXRGRfNC0xazhXUVhqdzBBMWVsNDA4QldiM3pOd2JSaFRiMWxRUFZn0gHDAUFVX3lxTFA4RTZPdWk0SUpqVDF5Z0RDaFZjTWJmcmt1dkdrZGhlN0FqVlJfYmRCTzdwWGZzdTFoR0RUUXhYZzZnd2VHbXQ3a1p4aDZ6ZEF0aHlBcVFJNzZsSVhWV3dmM2NkYlhlb1JfcFl6ZlhybjRkY3FoMHhVTEx2VE11X0lqSC1YR0FSQ243Q3c1bzFsUTRLNlN6NkFRV3VkQk5za2d6SDRncWlMN2RKb2FYUU8zSEoyZ1dLWHhPWkFNeUNsYkd6bw?oc=5</t>
+  </si>
+  <si>
+    <t>Miguel Uribe Londoño</t>
+  </si>
+  <si>
+    <t>['difícil']</t>
+  </si>
+  <si>
+    <t>difícil</t>
+  </si>
+  <si>
+    <t>Pacto Histórico sacó a William Dau, exalcalde de Cartagena, de su lista al Senado: este fue el motivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxOcGQwYnY4cElVb2FVelZHMF90d3VFNGtmTHhLamttdk9DSUswVC0zREJRUmZzamd5NThzSGt0OXpGcUwwZmI3c3lMLU80Zl9mZ1czX1BuRkNBOUoxYmVXcGswc0loTEhhQVBJM2NpU0VoQlZMUEVBNnRNOVJ6QWpUbmwxd3dkcW1ObGhHRy1La1VMN3drZnJJOWtJcGpNNFgzT2hxMlE0U2lUb0g1WTJRVXlQazljeHpSWkF1WTNsZEpjTGNQOWxiTS1Wc0pLYUY3NUhhaUFGckJhUVXSAfYBQVVfeXFMTWk1TzluQWNsTHVVUFlzU2lRUkJ3OHRWdDlTYkJwbndRSTFWYy1yMVZmY1ZvX2c0Z3VIUHB1SlpWWWhLbnRxQnJYcUplckduRk9tcTc2UVBVWExnaW1fQTlPT1VrY24zTktHU2NvSS11UHRzcnRKbldkQXBKSlFhRzVzWmR0NHIxOHg0NlZsdjVYcGdOekhPOFA5U0Z2Y1FHcmVKeVhFbkY4RVBQUGZLQ0tIYWRFVG9iRGNTYUJWRUVwZHl0aVlab1p3ZmVtZ0hHSHR3WTl5Q2tJT2o3aGFvOHlLODZfLWE0WnJPUDhENXk5R0hQZVpR?oc=5</t>
+  </si>
+  <si>
+    <t>Senadora Nadia Blel presenta renuncia irrevocable a su cargo como presidenta del Partido Conservador para centrarse en la campaña</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogJBVV95cUxOd05sUEMzdE5tVHpWYnVUNEg0R3ZXbzk3UHNnSGFGemZSX1dGbnpCZFVQZ0tHamVPbHJubVdIa2w0SEp5ZGJadUtqNzg1bU9aMU56dnBCVTNDMkhoNWthSGtVQU9GSmNPZzlaTnBudGNXWVJUcEdZRHB5SzE3OUk3d2V3Q08yWW42NWZBbmkyVU4ydXhob0RhQ2YxS3dZcHBzcmp6Xy00ZExhSzc3X3haWkhpdng2T1ZXN2NDOEpQYVZhcEtVWnNPMDhhV0RRWmpIVVhPS1VJM1lNY2ZYaFplZnN3UnJ2VDFZbW9oaDFnX3MxT2dTQzE1WEZ2ZU80LTJiOGVhMjZqa3N5YTlDS1B0WC1tb2ZBWW5HdERmYk9Xb1VDZ9IBpwJBVV95cUxPUFVLaC1oelBnU3FWR2xGeUtZbkRhOEYxX0tjcFFhZUIxQTM3RkdONDFOR05XcW5oakswQ2owajNNUGhCcGQtXzVhbFAtUWpLSW5fQm9YYjJjRjdSQzRNX1h0YWZGNU9YX3U0dHdleW1UZDJrTVp0SnluaVdFWnJLalBaTGlrMnlHQXFHdVh5VDNDVmZZUXZ4WlByWDhMSy1zSzhTc0lTTzV3WnNKbVJUeGx6eWY5TjNlMXc4NUZjekIzN2lnY3Jlb0RUSS1mV3dsQ3F6Rm40TU5HRmZPTXFjd1NjdXJyQ093RFRQclJMRVkzZV9WQXFYQVdfRVVaN1lzNWM0QU1tVE11VHlPSDZqX0pkbGRKM2wtVklId21YNXhMdkNiWUpB?oc=5</t>
+  </si>
+  <si>
+    <t>['irrevocable']</t>
+  </si>
+  <si>
+    <t>Piden al Partido Conservador revocar avales de candidatos al Congreso que tengan investigaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOWEZfbS1uVzlKQVkwVjlwZmJkSjY1anh0ZHJhRjBFUy1kVGl3XzE5SGIyTXdKNFNhRGtWMTlMMVFZM3JQWnBQWkhieDJqSktTbkRnc0VlUnhaYVY4Y3lpVEtRVjBZT3JWdFpfT2l6MEllaVpsbFhWYjJmZkhKRzRIUXBjdXVtZVliR1ZfM1NnRVVMeTVWek9aNi1RN3dkOTdnZmJHRl9hTmFoWmpmNUQyZVhHamdUZl9fbDRWUWM2OXAtZzZETENmdDdNdndYZGdTMlB2dVB1NGpEWi1LaHhZcVZSMUNjZ9IB6wFBVV95cUxPNlZOT0tjVWg2SkNlSENLNlZvREUydjI3M296NmR2STlxUEtOQVZta1dRdmpreWFoTkI0Wk1fb2gxMy1zY0hfcTR5Z2s0YVhZdGQ1dGpmUWkxZGhpeXF1akotODY0TUgxZW1xaHVGeExkRlMycEI1SDc2OV8ybnV2c3NNM3Fna29PVUdqY05Xbm9jb0EtNF82RWJsM1ZldDhWQXRJNlJucXZJNXBkb3BhMmR2RWtlV2hLbldyU0lmRzlUblJsSC1sdUYzY3JTNHpORmVCNW1mVU5yUlJoYjZaQ2dFOXR2X1RxRU84?oc=5</t>
+  </si>
+  <si>
+    <t>Nadia Blel renunció a la presidencia del Partido Conservador: “Lo hago con la convicción de que es lo correcto”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxNelJzQVlsOVVTV1lmVDRFNG5KWnlUcXJ1a2dnaERYSmZaZUxQX2ZCMWhiMDFreVFXWGV4YXFPZ1FKM2gxUFF2LXY0Y3JVY2dMSmMyazBGakhLQVNZV1R0X3dDeVpXU3dJTGpKX1hpNVR1c1FiXzNPSGZHbUNrX0tWUWFTLWlSZXc3Qy1kTDFKYVJhQWZMSjZwYktsczNjMFN5eE5yZXFCUXRmcGVUQi01YndRcmZsQjh5dXN1U0RuOFhRWmxPMmxXbWlEcEMyd3R3SHc4cmtHYWczbTJhZHhxeGxVQnJCWlFZM2RSeTNn0gHzAUFVX3lxTFBXTFFrV1Q4TGNqalVZeTlXcEZOVjVBNTFYZXI3Zy02SzhHcWJZcFJRR1d1Y0NqYjZhM0gxMkY0U2pzckFUeW5kN1dIRWxycVpHblRWYm1meEVzQ2g3TVFvUFBOX2FmSzhvSGpvaUNiOGlHTmwtTEw2aExPY3FlbVJwajJFaXBEOHZEcE9NNTRHdmFyRHI0N0R4aU0wX3RkbVlkbXdUUUJrV1B4MG1kbm1tRXJkQ2wxOXNOZl9sQWtsQ1hVU3JlLUo4SnAyc09TWlhWQzBmN01tSU1qQkx4bTFpRk9FeGZqd1ptVmNKNk5FQlQ0MA?oc=5</t>
+  </si>
+  <si>
+    <t>['correcto']</t>
+  </si>
+  <si>
+    <t>Denuncian que Partido Conservador avaló a Juan Gómez, mencionado en investigaciones de ‘Papa Pitufo’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNenZvYkp1dXpfSGRjZXg0dl9JSzVUc3JPSmtwY1JMU1N4djF3MGZRUmNLdHlpaGQ4VjdrSVNNejRkSUlUVTc3bE1JeEVOQkk1bTZveklORWZQU2NkLTJienRfWnktRW9OYzA3Q1lfbUNtNDg4bGlUS3kyQmNxQWtaX3gtbm02dWR0YzdPM1o3SU9kRXpEandDb1dKRi0yb2toYlpwazVEZXNlSE94SUJoT25NTUhaSzBDRnp4MDdna2ZxYl9XamRXYnJNUW3SAeABQVVfeXFMT01ZQzlEeFZ6Wkk5WUY3bUE1cWJBejV6NEFsZFpOcG11djltUmNXTnV1cVQyOTF0V1pIMVItRjhXQUcwSUpudkF1Qk9CX01mWldQWXBORUZPRjA1U2pfSmZZOVFvdklEWHNob1ZkTkhnLV9KMTROV0dxTFFwdjFSNDFhLXhnLTRZU0pLcC1hUDZyNnlzdEVsTC1sbTJhY0wzbVRIZW1uTktrYzFDY3NGR1JVNmlqR0pmR2llSHZMSWdPdGhKbjRlWVl0NUFEYlJDb3JOSFdJc25EUFFlRGktdjc?oc=5</t>
+  </si>
+  <si>
+    <t>['mencionado']</t>
+  </si>
+  <si>
+    <t>denuncian</t>
+  </si>
+  <si>
+    <t>Nadia Blel renunció de manera irrevocable a la Presidencia del Partido Conservador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQR053VUo1QTBoNVNpRHo1cGdtSXRFVWFTS0ZiY3ZqSURQX3pYTFE0MlU0RWlqOUx4cEdGeUJvblRLamIxV3l1NHF1enZReWtqWDZkZ0gwbVhuWFZRSlpaQ3VqMFFJYUlmU0JrMUFxdGhHSU95cldHVnhGMDRrSGZWUFVhM3p5T1I3TXB3ZGxpbGdwci1OdVdqZzVGSmt4UVk1Z1Z5T3NIVUxDQ3BBbVpyOHgwSzNBSWlwY19mTHUxNDljd2s0X053dkVpZGRqNkRL0gHQAUFVX3lxTFBHTndVSjVBMGg1U2lEejVwZ21JdEVVYVNLRmJjdmpJRFBfelhMUTQyVTRFaWo5THhwR0Z5Qm9uVEtqYjFXeXU0cXV6dlF5a2pYNmRnSDBtWG5YVlFKWlpDdWowUUlhSWZTQmsxQXF0aEdJT3lyV0dWeEYwNGtIZlZQVWEzenlPUjdNcHdkbGlsZ3ByLU51V2pnNUZKa3hRWTVnVnlPc0hVTENDcEFtWnI4eDBLM0FJaXBjX2ZMdTE0OWN3azRfTnd2RWlkZGo2REs?oc=5</t>
+  </si>
+  <si>
+    <t>La senadora Nadia Blel renunció “irrevocablemente” a la presidencia del Partido Conservador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOdTZPNzBRc25xbm5WYS1UeVV3QkIwQUFUT2c4MFJoUklyX0ZfZ2V4UDh6a05UTWZkNnp4dFlPTEtzenB0Zmh5elpyOW5PV3J4WE85NUpTLUN3ZENxaC0ya0hIWkJDdUVtMGxuRWIxN1NXM05FYmhweThrR3l1eGtLc3g5TTlpcTNhUE1QS1JZU2VhYlI3eUhBWE41VnNVck5UV3l2VFJuTEY1X0xYUUFqYUFUVmdreEFVX29VNURoRU5LbS1MeVRXeGRLYkU4Ukhp0gHrAUFVX3lxTE5BVlhTdWxPZ2dyLVVGY2Z3RHZnZDltSlg1VHNCckRiX1gyaTRicGZkV3RlcG5hYnZXc0VTTkMwaGxIX0NqU05xTHp5eC1aei1VT0RLeERzNnZqNS0zRWh6TUZpcTNWY21kLURKQ2diUlFtMHJzMFFqU3VpSFlib19fT05xMVQ5ZmYwMjZQVV9oY1FlQkM5eVNId0ZTaVJhT2s4d0EzYlFJb2lWR0czLUNmcENTc1pINm1acDNQOWFPQ0lsZFJQYkpqUjV3dk5EQUNrUzVHN1FqeVl5YW5zTjBxSWtNY0dud2l0V2s?oc=5</t>
+  </si>
+  <si>
+    <t>['irrevocablemente']</t>
+  </si>
+  <si>
+    <t>Senadora Nadia Blel renunció a la presidencia del partido Conservador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxOM3locGdsVnZaay1yU2paYmNBekdxdjQxeE9WOVY4bjlZanJ5M0VIWVpQQjh3Rzh5UEotbm44cnZIWTJlSXAxY1pwbGk1LUpBanlWR3VtVDgzUFJEX1NDTndDY0F2c1paWGZzSDc1MmQ2Q095WS1leUpIaTA3cWdGUFRoWUU3bC1QZUhtalFhRmcyZmtVanpNWFVNbDZxZUo4MlVRc1ZFYVVIOTlF0gG6AUFVX3lxTE5ZX0lCRFhhbWVhckt6cm5nTjg0d0ZXSzVmN0N6VUZBUGoyNkhSbE5HUGhjeVpFTWdKc1pSTVN3RGNKdVhQT3ZjZE1IMTJXSVF6cUxlc3BDdVQ4d2RnT0tCRU13dVppbERWU0x4WW5uMUhaRXhnRF9KVGJZVERqczlLZUQxMGlibmlHMkY0NXZQeDE5bTdWb2tKcVdUTjB5dF9iaVhWT1dKcmJpdDdWRDYxXzZxazRfbGFoUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Nadia Blel renunció a la presidencia del Partido Conservador</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNNWZLNENTRXByZUVHZ0VuTURaVUE2WFQ2UWFZcklwWmpOcDVHdEowWlZzeFNuRXhwZGhHSWtDRk5DaEFrUGVPYW55Vm1VVHZmNHkwOWR3Sm9XYVRXVlZYaXJBUkhyVDhycFZtUDh3YWQ5enl0eTVpVE5veDM5N2VSNEMxNGVUY1JOdTRiS1BkSnhWZmxscmRBY3I4X0lRVHYzekHSAaIBQVVfeXFMT1k3Y3AwaXhYN0QzSXhxZkkxb3ZVbUZRSGNXUkpmQk9oVmhPRjB2T29kNnd3OUM0aGtHRnVtYXdhTnNNaWFHTEJ4NGZhaEJXRlAxOXVqTnRGeGF2QkdpdlFacE9YemxZOWlGX3lWNGNyTXlRQW1BWURmMW92TGd4TVFweV9ETHdZNENjYjZ2ZkVwcHYtZG5DdXF5WFJMeWVpLTJR?oc=5</t>
+  </si>
+  <si>
+    <t>¿Quién tomará las riendas del Partido Conservador tras la renuncia de Blel?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxPUWNOUTZUcUFkLTJFbzJja3Flb0ZESXJfcDkyU29JNm1IbHd4d3RHTlRydGxtTXViQmxMQ2FoNk92czlYZXlpbUFobThYLWpfdkhocHotMmFaTXZzZ2JaNnJncVlpMVdjUkZxTnR3RkYzZFhuWkFFalplcGlpMmlBaEp5UTJUUmhXSVpqUHJwT2VyWUxONFlaTWVfMDA4TDE2dWdjWGhheWZ3Z2t2QjdUMV9SX24?oc=5</t>
+  </si>
+  <si>
+    <t>Nadia Blel renunció a la presidencia del Partido Conservador: estas son las razones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNaWNfbDRjdGd0TEE2LWJsNEt1alp2NTRMQ2doRlpyNms2Z0lVbDFiT21LMVltSTZSV2ZhMVY3UWR3eGNMQmNYSWVCLUZMT2V1bmppR1NZQ0ZSWl8tQ0duaUZNc0FxYklZbU5nNWhwODNLaFlxNGVJRFJNVTNCcUtYYkdrQzBEZUE2UEFqRmlKeTVvMm91YUZ1N2FJMi1COUVS?oc=5</t>
+  </si>
+  <si>
+    <t>Nadia Blel deja la presidencia del Partido Conservador para enfocarse en su reelección al Senado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQVWU4Z1cxb3hmMXV6b093cTVWRlFrQlZUMlRBT2dIcE41SDF2cldPcVJObkFDdi1sTGhxeTlxeHZDWVZsRmpCQkFTbm1kYkFuNGw2dndNQ3RDVDV5a2NKaFRrMnNFeEM5YVBzV25PZjZ5Y3ZIX0w2RkJjZ2VyaDhIMWswZEN4MEtQaFN4S1dtdDZBMEZvOVdvRjIteldrdk1TanRGX3FsZ2V0THhqaXdTNzRPNUVibzdqaHY3NE5QR2hfTWVRUVY2X2dpY0p1Unh3dHI4YVZwZExsVms?oc=5</t>
+  </si>
+  <si>
+    <t>Nadia Blel renunció de manera irrevocable a la presidencia del Partido Conservador: “Es lo correcto”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxPUFJLZGZiU0ZNeDNzbl9ESzdlS29nUEdZaEl1TzVzb2Fud3FhM0VUV0hmd2M0Q1l4NWptdW9KX2VXaldaOV9mNHN4RWE2N0I0RnA2Sk9wcTA2X0NtSy1LcDFwVUpBYmswbExwdzVIMFNURVA3eUFfOGg3bXdkczVQdGc4SXN3QU9BeUUtT3pqeFl1TkJTWWFubGdwTjM2RklSa3F1TXBCTmVXamVDTk1iblNKWFhENkVzUk9YMGVPSzRISXRESGxmZGh2Q3cxVU5KREtaOFAxRS1ScFRGQ1RQazRDcFBiRkRwYzN2bG9sYVRLSVo3SFNUQ0c4U0ljYlJJSkZ2dFF3UdIBogJBVV95cUxOYlp0U201T2Q5NkdlRkZycC1NUEY0YXJQRGZCYURaQlVVY01hUFlBNzZ1UU9RWTZLLTBBenBCeG1wMkxJX2JrTE1MMDlnRkJqc2hMb0Q4d293TDNiRFpqcXBCVDFaSDhuRzhicjE5UVFlbk1nSVdPXzZOZHFtOVlmek9KNlkzZlpHOFlIcVJMTml1cEtvUDBoUDdpczJZend6d3UwY000R1RUakU3cjlhZkpjclJSV1kxNHQtdmh6b2xxdENlZEpkVUY3WHByc0tTcUxzMDRSZTcxVFRheGhyZ2dYaTFHYUtsY0pWT09NU3hqTjZRMHAzOW90d1UwRU1RNTB5XzlxNzFHNjJNdTM2RUJaYjJkYTJpcnBjUXVyRGhaZw?oc=5</t>
+  </si>
+  <si>
+    <t>['irrevocable', 'correcto']</t>
+  </si>
+  <si>
+    <t>Partido Conservador es blanco de críticas por haber dado aval al Senado a expresidente del Congreso, salpicado en el escándalo de “Papá Pitufo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxPOVpRSWhkbGlrU29iTVBZSFMwcnlpVTdDd05CdFpScmIzby15Q080bEJRMXQ4X1lmUzJFWnB6MXl5RmJob2ZlbUlGTjljMlVsZDVnd2YwZzFwYm10TTBEY1NBRXB4eURhWC1jX2hYMklzQ1lveTE4OS1qSVcwZmtkSFFuOXpiY3MtM1BGbkNGMDBlY3N6ZXJPOEFvdDBfbkZFa3NtOGFjRi15M01HVC1oOEVudmNoZm5fLUM2c2UxbTU1bW1jWklkZ0tWRDdubDhJQmh0UkxxUDJIUjkzTXRpdWg4YXNiaV9zcExqTmdpc0dhUUZnUGx5QjFUckdFb0VqUHlGc2E4Z1RaR1lRdHBoc1NmVdIBrgJBVV95cUxPUDVpdVZzMFN2ZzluWlVJdUU3ZTdxQS1qQVNzUEFBZzFfRzdDMTl0ZWNEU2plRDNRc2EzWU5FamNQZ0p0SnJ5OHg0WFpuOVl5a05jaXhXLTVDRndBSWwwbnYweDd2dzRBOWtFeTl6WmxOZm1CT0lQR1V4SXA2bHZ5emFlT1k4RFh1ZzJiSDZsQjlNNFZQY1dMdk5yeFpfbk1nVUh4eFp1enlBY0J3WlZwNDdNR0o5RzVQaV93TVZKTWVHRkloakJBaFVxMTZjQS0zVzNnVXpxTDRfZDhSMzlIWDlsM0tjNnFVUDEwbWxSLUk2bmFQUXF4MXpEbUNteDVLUFhGLThHdUZsaUJCVG80LWl4QmlVNTRIRHRORlJUXzVha0ZCd3cyWXZNSTB0Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['blanco', 'salpicado']</t>
+  </si>
+  <si>
+    <t>Palacios busca la Presidencia con firmas y coaval del Partido Liberal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNSm1BWWVYQ2RLU1hNdXhyMkprRWhUcnR3eDJqQmFkSlloS21VNko0cW5UQ3lqRkVjVWE0VVdCa0tiQ2V5UUdESnQyOE4tcTQzbmVJNEQzOGZ5UUtQeXBXQ2xvYmh2UUJtd0QwWFJKZnpHbm4zR2hFek9SNThHai1nZ3hvWUJrbnc3NE9BcF9lbVd0blVTaGRsTXZlY0FoTU1Bd1NSd9IBqgFBVV95cUxQcGNwUGFCbEVOWmdpVkhsVHF5cWdQak1uenpILXctTTdiSUxWa040bDFwcjAxZ28teGF2LVVwZTZ0cy14MlBhRmxGWUJKY0Z6cUNka0d5eVVob2t1T3dXUFdZNXY2SlNnbjRGM2VzUjlHMFFoeHB3dzNtVlNwNm1NZk44NFBCbktjNFp2Y1J1WXN0SXdmYkJ1Qm01WmxYeEg5Q3ZoUU5OZWxSZw?oc=5</t>
+  </si>
+  <si>
+    <t>Registraduría probará biometría facial en elecciones atípicas de Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxNTWxVN1VqNEtFX243Qml1RENKM0QxcmVvOGFCTGdnVWpNRkZiYllZTTN0SG1UOXJaSnREckExaVJ3NGhqRVl0eEtZWDhGbnpWMkIwOGlXUEdHWnBpVFpnY2JtV0NRSkczd2tzbktDbGZUY2tPc2syVllNNmdFM29LZ1Fkd0IxbUlLWlZhc1BHX3B5OUp2TWRZQlFBZkJnTEVhbF94dklfVk9FSmxsX2hCd0d4YU91WGQyWkZIZmpDWk5ON1ZpSXfSAdMBQVVfeXFMT3NtemlyeGhBLXhpRlV0RzRwR1IyaFVlOWVsN1pvb3hxX3VqczZWY2h2b3JaWHdOLVM5dFZ3VGNyWlFSYUw2c3lUVVZhMGxDd2lacTFGQmxEVVAzYU1DS25NN2tSVFNMUzVMbktCQUx3clJZdksxd05sU1AxN19tcllpSlVSMU9PNEhsWkIzbUNucl9fYjVhZGx4UDd0aU1obGJielp2bE05UU0xRjZaUTBlLS1wYXNDOVlxdzBpZTZCWlFLNTkwX0RvZFdNb3lvdDRPcw?oc=5</t>
+  </si>
+  <si>
+    <t>['facial', 'atípicas']</t>
+  </si>
+  <si>
+    <t>Registraduría aclara error en el formulario E-8 sobre la inscripción de Cristian Portilla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOMTN4T2MwOUVrNWtzdmQtMXA5blE4QkVZZEk3a29kanBPb3lSZHh1TGVTUzhJdG9ZOHYzWlhqUE1zczF4bks2S0ZzdEt5U2t2am5XdzlBYnhQUElLRVRpWFdyYU1jeDVKNnlOTFF0VXBNUU1rZEJWYUtLUHpXb29tc2FMQm1qekktZzljcHkwYTNZVFZNTkktQjRFVExyblVrRnltRTFBamQxV2d5Q3QzdmtMWnZTeGE4SWZiZVNad1pZdTZISlBUN1lWbmpNTmtmVVZN?oc=5</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo contó en vivo cómo le quitará votos a Abelardo de la Espriella: “Esto aquí no es para hacer experimentos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxObGw2QkhTSGlfYUdjckhDV2lvWGU3bDBaLVd1dTdyN1lneWpWUG5ldm1PSml1c3BTelB2X1JuaGdqNUlleEdzbURERld6MGtMWG9veEo3M09qRlRRVFNVN0dqNF8wdkRPR3Z0d1dXWC1ZTGEtSjJwbjNzQnRkbmdUalN5dEN3blJBdk5SZnhiaDdycGtnbzFWNFBkTkZZbzJZR29aWTcyandIV3c4a3l6MmJXaDZLclJUNjA2bktFZjBoRkZySUx2NnY0eUl4OWRxM3pHREE2WmllaVdORlBIZFQ4Y3VyVXNCWmh2RlRVM1h3cmV3ODhDYVR5MGVxQ2htbUJxcWVaMk03V2cxWlJOTDNB0gGXAkFVX3lxTE93cGt3a0wtck5oRU9CRjNBY21EemhlLUtPeHRPYUFDYkxQUGZvYmFndjdoN3NKb28xd3lOaHB5SW5QWHdOQ3dRSVRIM20wbUh3YXdrTTVrWEhKMG11WktVWFV3VGhJa19LOThMbG4tc210ZC1jcFphaW9FX1dZeFVuUWprTTVDVHFMRDR1b1dkbUFNQzFaQk13NEktbzhmY3ZsS0VPOF85ZmUzVmFvYUROalU0UnZRUWxXUkhrSkdsVHlOVWZOSks5dkg5WUpvMENaU0pWUWhSOXU2UTJPREJnd1JzTXI3aXNnSzNwZTFkMWVKSG9TaXdKWTdISTFrd1o1b3hnN0ZqY0txVG4wa0otekFsX253Yw?oc=5</t>
+  </si>
+  <si>
+    <t>Fajardo sacó garras sobre su plan ante Abelardo de la Espriella: "No es para hacer experimentos"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNSFpUV3c2OVBpeS16YTZhWnRQZmVLVi1sWmVPX1pRR19jcGkxODc1NHY1cDg0bXRtTTlYNFFPTjhRNFBIMGVieDFJb1JIel9PVS1ScWY0Z1Rrd2dEQnVmXzNkQkVVd3preGt2RWJHM3AwMlJRMjZaZS1UeGJ0VTdwYTUtV3VkLUJyRGdnQTg5UWxCWFpHTWpzQmxaT0ctVjBrVzlNZWxNaElnSGvSAbABQVVfeXFMTUlCcmw1Wlpva0dZTE0wb3NkLWF0NUdIZUhtZGtpemt4dk1FSG9rRlRjakFRc0FUZm9aWVhYOWk1bUlac3RwSG5jZGd4QU1zVHdpaExNaE9qeENDbUl4a00zdVF4UTdjYVZfTW53Q0Yybm12WFAwUld3dkpmZmRWaDVLRzc0akdRVzhVb1lxbnNGbEw4N2hIU1VtS0xneC0yZXNqNXBUNnN2TExUZnczMEY?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella y Fajardo se medirán en la primera vuelta a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE1uaHhrUlNHVF9zN0xFeUFBUDNpc0lqX1FvbVVJdGtsMXNMd0lZUE5hT3liM05SdjI4amtPUVgya2FlellyNnFNNm1zNWc1V19kenkwa0pNbzl0SDhrd0VXeTU1bXhkYjQ?oc=5</t>
+  </si>
+  <si>
+    <t>Crece la desconfianza en torno a Fajardo y su papel en la división del centro político</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxOZ3NnOEJRdHktQVBmejBiakc2Sjc1VmxvNVA2MzBEaVZ0b0JoTUg2VWxrZGQ5MGlqeHJmUXZZd01PanF6YWlKOHhwNkM5SE54aTNYcGdUUHhXazJsRzloTXlqNTJzQ1l1eWJ1bjQyaXE1STVocnh5a3B3dGJKQTAxVDZqbXM4al9tQ19tLVdRemlVbEV1cXl0Y0trOXRpYlRCUUduM1NaWWF0ZkxqWUJXZ3Rya0JiQ0dpYkdPUks0NjRtQUdjem5nbEprbURjQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Propuesta de Sergio Fajardo de hacer encuestas para elegir candidato recibió guiño de Álvaro Uribe y derecha examina su viabilidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxOWVREVER5OWtwUjBsRHYzZ0pEUHdTSk9hTWEzWWM0VmlDVnhvbzVtdnR1UFlhcUNubEVQYTBrWnY5RDNuQVZxRWZyVkNqWHR4Z2RsdHV2OTctMFVZbXhxTG1OTjM3ZWowSXY1S0J5YlhwelllWXc3S2xDSHFPSm5MOWxFUm92dGVGZUxmd0FqV1BadnRHUkJOQUJvUUhFSkJqc3ZNTzM4T3gyRy1VcFF6VlBIbEhDdXY2ZW9ZMnJPU3lUdXNQQnlVZGZmN2ttb1hyRVo1eVQ0TkxMUzByeFhITEtEWnhwbW9wRmhqOUZKZC14akpsS1NyM2NOY1FRYnlwVGfSAYcCQVVfeXFMTjBnQjZwc3E3Zk93YVZLVC1NSWdHbEpIUVNWcTdNcDJDcGNCU2dodF8wWmV3TGZYRENmVWdnZmZHc2xZU0p5RGhhYUswMUs2d1JzRDhQNVItbjljbzRrcUlqNTBTbXlsRmp0dFhpNUd3djlWaUQ0a1BtVFl3eks4QXRMaHFzaGlXWlNqMnpmMkt6dUR2bUc4aG9pWTNpNWpEeHV5TWVmMFRIYkVDcmJoZk9pRmdwNDJPTWZYTUtmWm14RVJXM3Awd0E3OFpmUkFzZWRienNfUGZmRmdTTjJ2aWhTODJlbFdhMGxDMVVCS3lrc0RMUjhlWHNqcG10ZG85Zm9zbFlkc00?oc=5</t>
+  </si>
+  <si>
+    <t>['derecha', 'examina']</t>
+  </si>
+  <si>
+    <t>‘Sergio Fajardo quiere ganar sin competir y sin unir’: Claudia López habla sobre su entrega de firmas y la actualidad de la contienda presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAJBVV95cUxPbktBSzRkQ0RPOHNyanVxOGJqcjAycVZUU1NWdjREY2o1bFpPM3h5UmtmU2VGdHFWUGJzTEtCVk5HMWZPYVBtcWRIMDJzWXJpTFJpdHVFZW1fdHF2Y1dlQlBqdDFsdHFvek43VkcwbTl1RTB2MU1hcmN6Q1JhcHhick9RZVRxU2Q3RUZHRDU4blFMN0lvdFJnTUVGOEgyS1owOS1OOHRhNjQ1REJkX3ZpZjZGMTNUT3RTdkxMUkMxYS1UNkN1RGN5LXRnRTA0UVdhMkFHcHFXaWFKa0I2OTdRbnpmTU5US3hBeDF0X1VOVFkwak9WV000cXp4Mjh3emN4QWlYNEhtNkFUN0VsWl9iRXVVbDBiTHBXOFRCYmdLWlRGZTNmaVNZaFBmeHVpc0JwYUlyUNIBugJBVV95cUxNZGZWa1B5LUVuUnM0VmFwOFFUZEpDLXlWdk1tZkhPMkdMYWlDblI0dVBQbHNUeW82c3NKZDFZcHJoR3kxMFRGZHBpbHVmbFZOaGtwaGptemVoN1pnZUx6VFRiZ2Rxa3FIbDdlODk3bnRBbXJVQzVTTTYyeUIwTjZIX0RBaU9mN042aGRNcy1OeEZkRlBiZzF1RUVrZW9pVkVyaXBheTUteTRsWURmc3JFSy1tMjdxU0x3QjhoZFE1dE1PaGZOVzN4dUNRLTJnN3RJU21wYUVuaGtsQkVtelBmZ0lRUTZKcGJLZkxjb1RmZTFITDZCV2FqcDFwM2dDZFhyV0JNSGx4Z2luM1VzVFNsbTZsTTQ0TUdZbUZ4NHFRbkNnTjBIRk1zNUhnanRyY2Yzb0cydWlPaDdtQQ?oc=5</t>
+  </si>
+  <si>
+    <t>¿Por qué Sergio Fajardo no va a las consultas de marzo del 2026? Entérese aquí</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNdWNWeWxXY09KbkdyMWVwVHpBWDB4Znd4ZzJiWGk5MWhwUXhhVXkxZTZMR1NWcDBQX3ppVlVXTTVsQ1JWQ1ZTQUMzY2M0YnZjelZFN1UxVEJsOF9iMXRmRGw1bm1sWlpQNUM5eUVkNGw4TjJvZC1WUzJYdFJPRUZUaVBfSy1oSTB2X2cxVHF1Q0pFc2VGVnhUUlk0RUZsMS00SkZMeFRJUnVCYTBNQWZrN3FVOE52MVV0QzUzay13VGhHanpZ0gHKAUFVX3lxTFBzNUJmcUNmZjVEa1FSeG5RQkVNRC1xbnBlOG84QWV0VVFZbU1zc1c4aWQxdExJWXJVZ0ZRaEU5cERlU3VXN2xHY1ZLQ1g1azJsQ2FNa3VlMFRmbWRYVjB1ZTJJcjN2UTBRVXV1Zmh3ejlaVU1PWnczUGoyYWJadk1pQTJPZlMwTGwxNXByZWN1VUNiQVJVejdjN3EwdUlmX2dZSmtsT0RlTGlXMmhHbnpQT3ctTjI0OXVaWVgzVDZzWmJ4YVZyRkRuZVE?oc=5</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo no va a consulta, pero deja sobre la mesa mecanismo que le llama la atención: “Ahí es donde aparecen oportunidades”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingJBVV95cUxNUFFDU19FNVBFWnpDX050REk3T0hBdGZ3QjhDVmd3enZmZVhrUDRoR1c2TllQMFk1QjAzWU9lOXJHVnFKcFhzZEFUMkZOZ3g0bGhGRjNjWE45cEJKV2lBUlRvY18yQV9HZWcxQmRfUk42VnB0bDh3YkpmYmpBaFJGbk43NHAxLUh3RmQ5STlsdjUtVTRvQXZ5ZFVjUFgzSnFqRjk3cXkwY1gzZU02TzE4SDJuNlRaSWFrY1ltTGFYU0tDQXRpNjJTRE5Xd1RZLXJDZkVDUzlRSHhsc0R5aC1pZzRBZjZraTd2ZXBXYkFtZnRDdy0xZ2dzN0hBYlpldThDdVFDbmdOUF9mMHNBMlRYTFVzcF9palh4SmgtdnNB0gGjAkFVX3lxTE1FbDZ3bTZnc1dCWGJpRDQ4ZDV1dWJ6Y1RKMnoweGprUF9Nd1h3VHBHakRVRmY1dUpSREp4ZElIcjBieTFMVFdBNXFMcjJkalRMLU1JVkR3em1kNGdKRzdmRWpxb19LNVhkTnY5MHA5RXZZY1I1WDdIQVdzS3R6UGxUUXBDakUwN203MVBKLS1Ea3FkX3pQODZpbWsxNk16M0xXSk8xcTl1ZlBURWV0VVlYUXA3NlVKSjN5WGM1WkFhYlpUT1ZmNnhwYk1CTDVCcExjYUh3OHQ0a01xdE1JSkJZcEVnSzhtbGJqTlJfY3RhQjYyczJpNU9VMWhYdWtkVG5iUFc1NUhtQm5GZUpfWmhWU3FsenVpVTNfQzhkY01QVUhKMA?oc=5</t>
+  </si>
+  <si>
+    <t>VIDEO | Sergio Fajardo: “cero nervios, vamos a construir una nueva mayoría”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxNSDRleEwxUnItcFBXSEVkbDc0dXdUV0x0T1JwUnMyV0YyMmt4NFNia0hwV2tCLUhKVWNiSjd4Qk5rZ1JKb1h0dnhWZWExWGJGM2FOOEFzWG5EVUJ0eTcxRU0zVmJZeUpZY3lCb29vVUlmSDV5bzBPZUxkcVBfZTVRd19UelRfaGt4SXJsTFNMeVNLSnhrQzRqemFTYUNjZnQ3WmhSVHZ3UXZLeE8wLTRsLWFCb1FCX0RHS1R0UUQ1QlJ3VkxWSjI4RDV5UGFzNjliaWc?oc=5</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo reveló estrategia para superar a Abelardo de la Espriella en la primera vuelta: “Esto aquí no es para hacer experimentos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxQX0Y3cVZLZlhveEtqeW9jZVJaSWotOHUwYm5vX2pGY2loVnd3S2FQZFhoOWtha0RreUxHQkFVd3dhdjlSemhRbEhqZEZqb0ZyU203bkt3UTV6d1NpZ3F4aGFPWXhfRWtaWjhQTWF0WDU3QmpsSmlMMmlpLWtGZ1VXaFE3T29IeXhDVElKeHZHRXZHbWhPR2ZaRVFxVHlYUnZjYk9KbnplMlJtZ3RqSmFlX1FUWU5ubml6ejJqY0Y3WFZ1WVJuUllCVDBiZVlrZlJITWtJSUloVi1zWVNnQ3Y5NXVoaXQ1ckdTMEFuNVI3SmFCTTB1MFNTZkd4NTRxdDdFcklvREdsR2o1d9IBpAJBVV95cUxPOFhxWE9lcktsSEJYTjQyR2ZESFIwTzhXUVRxcGU4UEtCRUE3MDBELVhFVWNWX3hTTDJkWkpZcmpBdmVHUi1iZVN3OFU4Q214YkNZZ05OQ0pBdmhpaG5VbW1NRzAzTjhnUl9rV000djRvSFVtaVRSR3RZcnVHOW1SWl9xby1YbkZ5WGhyTFlrc0VWLXhzUS1pcGRxS2NJMlctTGNsSGJXSzNabkFsNUhyNnRISVRMdzQ5YU5iYTZnN1VMUmJMd0hYb2ZHWFd0Mk14SHE0a2d2QTdnZ0xnamhlV3JGVDE5NUZEVnQtMmN5ODFZcWhNa2lMZzZ6dmxkOGcxRUpfUEJvS1F6cWRqRXdzWU5VbFc2OTVVQjBBcWgyRXFsN0Fx?oc=5</t>
+  </si>
+  <si>
+    <t>"No desista": Vicky Dávila a Álvaro Uribe sobre consulta en marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNSHluaU1Ub2I1dlF6QUxrRWlZZjRVYnJydl9IcmVQcElBektrSlI2UzloYjZxRm1lRGhxYWJRNGhhSFdEel9aV1QzXzVDcFNBeDZMeXJ6aTJiY2ZCaEJ2bnRabGpTY08wMjFFRXZFNFU5TlE3SVhvLXRYX0RIMjJwUHFROGpHU1hpRjMzcUhmdFFlVDdXcUtnUw?oc=5</t>
+  </si>
+  <si>
+    <t>“Presidente Uribe, Cepeda es un peligro para el país, por favor, no desista para la gran consulta”: Vicky Dávila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxOelZObHc3MUpOQUlUYVpiNWlhZ2VrYUtyRDUtbHJSVGhwYURZTVdHd3VocjRlZllNWXg0MVFLZXcwYmtfV0MwSW1OMnVLOGp4ZW1xT2J6ZnREdUthSDJSN3hjRVZtdWp4dVFwVW1FbU1qbExLMzg4bC1MaEYtdmZHeWZHS3VIeHFpbW5kNy1ObkVndzV3dUlqTVVlQzVmeThselU0cXhKc2VuaTR0bThRaWVkVXpJczczcjd1Q1lNX0tNTE5aSExmSHQzbmI2eWpNQ0U2eDZ4elBVUWhDY3dTM2s3UFhuOU1LbW05clBRREM4ZHfSAfgBQVVfeXFMTVNtbzBMVjNtdno4LWhFWVlxS19ITzdsbzJjTjBEY1RQR3ZTaW9FeHlJemxLZFRMbEw3VFRlaS16LVRsOHp4ajlNZ290b1F1ZzdLYTVjMFV5RllzdjltcER4cU15dGhJM3NidmhmTkoxTXhndTFnd0gxaFJMaW9sa3hZb2U5OUtscTMzWXZvQTZFRmNkU3JqM1I1TFpZQ3J5SFZ2cTJ2cV9XU19QRG9UOE9IUDRVR01RMURRRTFqSUh5X1pZN014dTFndzVBLUFsOXYwOVVlX1FYaWdzcjUtSTJOSGd1VWx0REd0Ump0bUVxdGhwTlRQOFk?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila radicó 1,3 millones de firmas para avalar su candidatura presidencial: “Nos inspira la lucha de años de María Corina Machado”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxOeHA2VVhROUJnWVZrdU5tbzRQVW5SNGo2U1pKYkFUYUhPRWpkVUVpakZOcVZpN1NZUmhWTWpZSjdHSVdhTjFPV1AyYkRmLWFQUTRBOXpxM2VLX2hlMnExUEE1SnEyUlhZOVREMzNBbndpQThQWnctLUxGN05UMGpwS0h1bTRobmlKOWV5TnQxWE5WekEwQWJIRjlCV3NtTkZvbE8tQ3R4ZUxpRkRwaEQ3RFB0NEQ5ZmtoZTNac05PZkZEb3dqX2pHZVdHdXBZS0tTT192bXJfTU1kbHQyanF5M0hhUTdLLU9TRlctQVFlY3ZsT2lPT0U2STBrVVBfRnhUMTlIRGY4MnFnOVZqOENGddIBlgJBVV95cUxQRlh2dFA3cWVMOHhGS0tOZ2l2NWJpYjZBVmNmYlhSSHhIb1hRVkZPdHRfeXNNMEhFU01KNl84YW5qZ1lMMnBSSnZPY192Um9iZzI2NWRqeE5abVlXZEtEd0FmOVFCWmNCcU1YdEhHZkVuZ2R4Zi1palAtUS00blViQTJiMjBTSzVFTm9lU2JYd2xzckFXWDBVc0xWMDZMTVk4QW9tYW84LThXRE9tWGFkU1FFWXRDcmFaYk44OFViaTVzUml5N3Jad0p5d1A1LTh1X3J3SGZ4b1o1WU85eG52YmFuSkk0VkxwdGZVa1JMNFZmREhOZHZpUXVuSDYxQ0pzMjFvVy1iQms1bkcyRzZfRzdDTlAtZw?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila, Daniel Palacios y Aníbal Gaviria presentaron sus firmas ante la Registraduría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxQclF0YzUtbTlNZTRvaUE5ZnBmbW1JcmIwR0RTY0hHV2VvYUNldVZuT3hhVzhTWXJGVnltQ2FPeERiWXNISk9yc0o4Q0s1ZVpWcG9XNThYa19qR3RuVXVXNUhNUzBaSW9oM2lsWHA0M2ZCbjBOQmYtVEhyQlJNblVaYzVRekZGNVVtM2ZsVHZHbFBXWE5CcXBqRnlGNXRqRmNCUFZfUklzVFdGZWNhSDJteW9kQmY3Z052OEQ2ZGItY00xZGRadEVsbHNUQkVTQWZfTVpTdGlUalZENWhmbTVma3lwRndMYzhzbE1mZmlDMkJrV2pDbG0wRTVFcGNSUFUtZl9USWZ2ZkQzSnRkRjFieEViTdIBpwJBVV95cUxPbGY0U2sxUjloQ0hCYzl2emlyWVhoYV9VWW1lQVVwVHpDVFVjalhRRXR0TElSR3Vldndfal96U3FSRnV6NHMyN3FCcGk0UUxsZ1N1UklFcHBfamZOZ2V0Wmx4YWl5M1JxSWFTNHhuR2VwN1RUTkZfSGpGR0pXVHNrY2Y2Y2l2cVBGdUU2eGUySWt2RjFNZTZ6WXQwQVZMZEpBSms5bVJaM25zRklPZkVNY1FCeDYzaFB5MFlNNzEzUDJFRnRhczVtRGxlOHhCWE12TzllSFJLbFFOeHZGcWtFUVhPbFlWekxNUFpkam0wcVl5bEQxV0xIYUdLUlRXTk53TnJseXpoUDBHZ24yLWZoYmxvX1pQYkFjZHVQUFNtU3dkZGxodTJV?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila y Daniel Palacios entregaron sus firmas a la Registraduría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxOaEtlNXh5STBFdFlYTHg3cUt2T2JZTmtYMUFNMTdMNG9Ub3VPX0VHNWIydmw3S25hRU9oRGxNUERwdWhZRXZmZG51WDd0TmpJa1NrUVhqT2FleGNXdG5pZ2ZyTEdEbWdrdlVjSXJ5QzdfOEFrRy1QVmtLRFI0MGxieWktQ0xLX1BGdWl6c3dvelRFSHhrLUpNREJWRUJCMkROaGR5YXFn?oc=5</t>
+  </si>
+  <si>
+    <t>Daniel Palacios, Vicky Dávila y Aníbal Gaviria entregaron firmas a la Registraduría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNR2EyTUlnaWJTUk91ZDJQdkZXTFhDN3JXZ2QtTkM5bS1KWXhWQVc1OWc2eVBzRjRUazZWR3hVUW53cGFlQkNIRkE2eWxFcEtfVGJrX214WW1GZWo1WXVXemZoWFhVYVJweE1qZzA2S1lYM2Y0M1VDZWtYYnp3UzNqZXlIQ1BWYU9Pd0txc0VKaTM1aUxibUZNZWN2OG1mLWNHNG5XaGVBTndnQ1ZIc3UtZ1FnYk81NnAwODFhNXF6VDNrRmZZeEtZYmxR0gHXAUFVX3lxTE9kMGw5Wk44NU5IVDh3bVYzQmlubFk1Q2Y5cGkwdWRFemFIWEFGWG9DdXJ6NWdMdzF1Rzh0Mkw1bjNvMW9Jdk5Dd2J5TjVDSEFPTUtGbWhBNHVaTC1vTTVNd3I5MmwwNmxoc3dQUjU1bXljeGFVWDhadE1zdHF4c1lHSFktaHltaVF0MVhIQ0xGUEwwTS1qekgyQjJFTjZaLXhOQ1FUZjI1dHZzSFJiSUIxNnVRcDdjWHRTdUJvZGJRZUJ2dlpBQ2NWWXk4ZEVjOGowc1NNWnRZ?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila llegó con más de 1'300.000 firmas a la Registraduría e inscribió su candidatura</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQX3BPOE5IRW5mLUdsdXluMzVwRVlIM0VaZGlGajFvazljQnRkSnZzQXlsU0lPSlFBaUd0WE5adWxwamd4dXF0VU0xbEgzcFhtcng5VGliSTJsNFFMVXV3OVdCdnROZFkzeVNWUWpfYlNUdWh5QWFQbWZ4dXh5T212V0MxVm03VGZZM0VaakE2dkFoR0lBZ044YnA2ZVNrQUMzeGdSakZ30gGrAUFVX3lxTFAtenVhSkotNVd1Sk5nUXRHNVllLU81bWFUUHVQc3lBTHJSbncxay1nbjR4eXdLdWVLbHVVVkVYbkVOQ0NfS3BuSlB3Z0N2T2htSXRkdVVvRDNtdGp2WHJLc2Z3X0tJWWxuc01qWmF6UjBaakdONTFQejRfZ2NLekRZOXo1WXY3bXZQMHluYWNIVlFYcDlHT1dubTF3Qy13OHgwR3VsS2stckZRbw?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila le insiste a Álvaro Uribe que lidere el acuerdo para una consulta interpartidista y no para una encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxNN3BrQ3Npd1g3Z0lpTl9CWUhEN01MUUlOcTYzNVBvY2tnbVZCYVBvOXhELXQ0X1dLdlZYVkR1WnRnTTNnM20wbXJJam9SdlVJZnZZMTBMSTJLSUJqMFNBdXpKeE9vVEhHX1dKTkVTVzdoV0Y4V09FLVA2b2Z5Y3BYcFJKSVBabmoyUWotQWtMRDhGeU1NS1RNSzUtbDY3eURMUkduRWpTU2F4SHNBVUFpaThzS2trZGM5UThMT1lhd2R3VmZqZWtSczZVWkRYbDMxUVBBWlM4Uk83Tlo0cUZnTXRWbFdwcGFTMmFGa1hB0gHuAUFVX3lxTE96c2hBTEoyMHNuR2NVa0JaNkdjRjRIYl9qZkpQSGQzVEhUemczQXhQU2I3NV9ET2JjSXZGTnF1RTVqNGZVQ2FnRXpNWV84Q3loajV1Q1JlcVZsMmtXNm5qY2RBLUlWZ21zQXVDTGVrUHhQTlpBZHNrRl9lZXJNaGs3MDE3QU1OeGx0QjRaVG9yQjFDMXJhV09FZXlXN1NJbHV4aGpJVTNoTlowUTEtY0p2RXVtWlNsNDdiMXJZRW54aGpIcVYtZHFHOVQ4R2tsa0NQLUVfNnFpVjZsZmxfV29YNDd0bk0zdDJfM09XU3c?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila, Daniel Palacios y Aníbal Gaviria entregaron firmas y presionan por una consulta interpartidista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxQSVpHeUxYazMxSEotSXdlVkhxVUlMTXhVdnNuV1c1TTczN3RnOExoV1ZxMHh6cFBvaTZYWTYxTkh2NFB1azZLN01URVdISzRfdlJSeWtsQi15OHRwWHllVXRYQnFfdURmeFZQRVZfZE9VcHZxVFJjbHRwQTlKN1lDQnpRazYwWjlqZDd3Vy1TdzBQSDRvOU41RzF5VDZFOWRoODhJRzhXVUgxNnhaS2F4cjZNT0d1dXhq?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila entregó 1,3 millones de firmas a la Registraduría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQaVBBTDRZU1ppRWRFSUFOWV8xR003SmUwQVl0YklTVHA3VmtZSy1Oa3FsQlVIdE9BMl8zNFpJNVNwT1cwLWRMa01BZm9aZnVxZ2c3NndydUZodzZlc2k0Q1dLdVVnWWVnemhBcHpYd1ZBWjcyelFJa284cEYtRXU1b0dfRTBBNjBPajMyRExUd1R3UmRBWXpzNzZqM25kTW84NEZYTVQ4dDZDcXVt?oc=5</t>
   </si>
 </sst>
 </file>
@@ -7991,12 +9866,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8354,10 +10230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1009"/>
+  <dimension ref="A1:I1266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A766" sqref="A766:XFD766"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35017,7 +36893,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1009" s="2">
         <v>46002</v>
       </c>
@@ -35043,9 +36919,6974 @@
         <v>36</v>
       </c>
     </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1010" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D1010" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1010" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1010" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1010" s="3"/>
+      <c r="I1010" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1011" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D1011" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>2494</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1011" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I1011" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1012" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1012" s="3"/>
+      <c r="I1012" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1013" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C1013" s="5" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1014" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C1014" s="5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1015" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C1015" s="5" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1016" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C1016" s="5" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1017" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1017" s="5" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1018" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1018" s="5" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>2513</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1019" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C1019" s="5" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1020" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C1020" s="5" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1021" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C1021" s="5" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1022" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1022" s="5" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1022" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1023" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C1023" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1023" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1024" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1024" s="5" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1025" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1025" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1026" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1026" s="5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1027" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1027" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1028" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1028" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1029" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1029" s="5" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1030" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1030" s="5" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1031" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1031" s="5" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1032" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1032" s="5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1033" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1033" s="5" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1034" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1034" s="5" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1035" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1035" s="5" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1036" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1036" s="5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1037" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1037" s="5" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1038" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1038" s="5" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1039" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1039" s="5" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1040" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1040" s="5" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1041" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1041" s="5" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1042" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1042" s="5" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1043" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C1043" s="5" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1043" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1044" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C1044" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1045" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C1045" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1046" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C1046" s="5" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1047" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1047" s="5" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1048" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1048" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1049" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C1049" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1050" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1050" s="5" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1051" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1051" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1052" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C1052" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>685</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1053" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1053" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1053" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1054" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1054" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1055" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1055" s="5" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1056" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1056" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1057" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1057" s="5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1057" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1058" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1058" s="5" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1058" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1059" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1059" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1059" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1060" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1060" s="5" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1060" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1061" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C1061" s="5" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1062" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C1062" s="5" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1062" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1063" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1063" s="5" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1063" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1064" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C1064" s="5" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1065" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C1065" s="5" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1065" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1066" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1066" s="5" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1067" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1067" s="5" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1067" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1068" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D1068" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1068" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1068" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1068" s="3"/>
+      <c r="I1068" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1069" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1069" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1069" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1069" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1069" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1069" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1070" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1070" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1070" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G1070" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1070" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I1070" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1071" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1071" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1071" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1071" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1071" s="3"/>
+      <c r="I1071" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1072" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D1072" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1072" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1072" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1072" s="3"/>
+      <c r="I1072" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1073" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1073" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1073" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1073" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1073" s="3"/>
+      <c r="I1073" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1074" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1074" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1074" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1074" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1074" s="3"/>
+      <c r="I1074" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1075" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1075" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1075" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1075" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1075" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I1075" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1076" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1076" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1076" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1076" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1076" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1076" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1077" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D1077" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1077" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1077" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1077" s="3"/>
+      <c r="I1077" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1078" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1078" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G1078" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1078" s="3"/>
+      <c r="I1078" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1079" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1079" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G1079" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1079" s="3"/>
+      <c r="I1079" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1080" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D1080" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1080" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G1080" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1080" s="3"/>
+      <c r="I1080" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1081" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1081" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G1081" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1081" s="3" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I1081" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1082" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1082" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1082" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G1082" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1082" s="3"/>
+      <c r="I1082" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1083" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1083" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>2670</v>
+      </c>
+      <c r="G1083" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1083" s="3"/>
+      <c r="I1083" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1084" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1084" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1084" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1084" s="3"/>
+      <c r="I1084" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1085" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1085" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G1085" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1085" s="3"/>
+      <c r="I1085" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1086" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1086" s="4" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1086" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1086" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1086" s="3"/>
+      <c r="I1086" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1087" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D1087" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1087" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1087" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1087" s="3"/>
+      <c r="I1087" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1088" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D1088" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1088" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1088" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1088" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1088" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1089" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1089" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D1089" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1089" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G1089" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1089" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I1089" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1090" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C1090" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D1090" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1090" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1090" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1090" s="3"/>
+      <c r="I1090" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1091" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1091" s="4" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1091" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1091" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1091" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1091" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1092" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D1092" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1092" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G1092" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1092" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1092" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1093" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1093" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1093" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1093" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1093" s="3"/>
+      <c r="I1093" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1094" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C1094" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D1094" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1094" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G1094" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1094" s="3"/>
+      <c r="I1094" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1095" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1095" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1095" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G1095" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1095" s="3"/>
+      <c r="I1095" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1096" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D1096" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1096" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1096" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1096" s="3"/>
+      <c r="I1096" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1097" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1097" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G1097" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1097" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1097" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1098" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1098" s="4" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D1098" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1098" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G1098" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1098" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I1098" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1099" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1099" s="4" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1099" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1099" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G1099" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1099" s="3"/>
+      <c r="I1099" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1100" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G1100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1100" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1100" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1101" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D1101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G1101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1101" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1102" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G1102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1102" s="3"/>
+      <c r="I1102" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1103" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G1103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1103" s="3"/>
+      <c r="I1103" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1104" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1104" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1104" s="3"/>
+      <c r="I1104" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1105" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G1105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1105" s="3"/>
+      <c r="I1105" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1106" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1106" s="3"/>
+      <c r="I1106" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1107" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1107" s="3"/>
+      <c r="I1107" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1108" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D1108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1108" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G1108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1108" s="3"/>
+      <c r="I1108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1109" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1109" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1109" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I1109" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1110" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D1110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1110" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1110" s="3"/>
+      <c r="I1110" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1111" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>2742</v>
+      </c>
+      <c r="G1111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1111" s="3"/>
+      <c r="I1111" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1112" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1112" s="3"/>
+      <c r="I1112" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1113" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G1113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1113" s="3"/>
+      <c r="I1113" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1114" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G1114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1114" s="3"/>
+      <c r="I1114" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1115" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D1115" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G1115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1115" s="3"/>
+      <c r="I1115" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1116" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D1116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>2755</v>
+      </c>
+      <c r="G1116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1116" s="3"/>
+      <c r="I1116" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1117" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1117" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D1117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1117" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G1117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1117" s="3"/>
+      <c r="I1117" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1118" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1118" s="3"/>
+      <c r="I1118" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1119" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1119" s="3"/>
+      <c r="I1119" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1120" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1120" s="3"/>
+      <c r="I1120" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1121" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1121" s="3"/>
+      <c r="I1121" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1122" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1122" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1123" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1123" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1124" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1124" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1124" s="3"/>
+      <c r="I1124" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1125" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G1125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1125" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1125" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1126" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1126" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I1126" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1127" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G1127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1127" s="3"/>
+      <c r="I1127" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1128" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1128" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G1128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1128" s="3"/>
+      <c r="I1128" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1129" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G1129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1129" s="3"/>
+      <c r="I1129" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1130" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1130" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G1130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1130" s="3" t="s">
+        <v>2790</v>
+      </c>
+      <c r="I1130" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1131" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1131" s="3"/>
+      <c r="I1131" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1132" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1132" s="3"/>
+      <c r="I1132" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1133" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1133" s="3"/>
+      <c r="I1133" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1134" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G1134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1134" s="3"/>
+      <c r="I1134" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1135" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1135" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1135" s="3"/>
+      <c r="I1135" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1136" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1136" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1136" s="3"/>
+      <c r="I1136" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1137" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1137" s="3"/>
+      <c r="I1137" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1138" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G1138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1138" s="3"/>
+      <c r="I1138" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1139" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1139" s="3"/>
+      <c r="I1139" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1140" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1140" s="3"/>
+      <c r="I1140" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1141" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G1141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1141" s="3"/>
+      <c r="I1141" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1142" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1142" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G1142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1142" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1142" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1143" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1143" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D1143" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1143" s="3"/>
+      <c r="I1143" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1144" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1144" s="3" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1144" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1144" s="3"/>
+      <c r="I1144" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1145" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1145" s="3" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D1145" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1145" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>2824</v>
+      </c>
+      <c r="G1145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1145" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1145" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1146" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1146" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1146" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1146" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G1146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1146" s="3"/>
+      <c r="I1146" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1147" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1147" s="3" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D1147" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1147" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1147" s="3"/>
+      <c r="I1147" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1148" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1148" s="3" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1148" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1148" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>2832</v>
+      </c>
+      <c r="G1148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1148" s="3"/>
+      <c r="I1148" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1149" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1149" s="3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1149" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G1149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1149" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1149" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1150" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1150" s="3" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1150" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G1150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1150" s="3"/>
+      <c r="I1150" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1151" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D1151" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1151" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G1151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1151" s="3"/>
+      <c r="I1151" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1152" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1152" s="3" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1152" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1152" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1152" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1152" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1153" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1153" s="3" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1153" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1153" s="3"/>
+      <c r="I1153" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1154" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1154" s="3" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1154" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1154" s="3"/>
+      <c r="I1154" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1155" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1155" s="3" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1155" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>2850</v>
+      </c>
+      <c r="G1155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1155" s="3"/>
+      <c r="I1155" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1156" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1156" s="3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G1156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1156" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1156" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1157" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1157" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1157" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1157" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1157" s="3"/>
+      <c r="I1157" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1158" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1158" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1158" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1158" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1158" s="3" t="s">
+        <v>2858</v>
+      </c>
+      <c r="I1158" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1159" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1159" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1159" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1159" s="3"/>
+      <c r="I1159" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1160" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1160" s="3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1160" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1160" s="3"/>
+      <c r="I1160" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1161" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1161" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1161" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1161" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1161" s="3"/>
+      <c r="I1161" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1162" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1162" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1162" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1162" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1162" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1162" s="3"/>
+      <c r="I1162" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1163" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1163" s="3" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1163" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G1163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1163" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I1163" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1164" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1164" s="3" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C1164" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D1164" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1164" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1164" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I1164" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1165" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1165" s="3" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D1165" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1165" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1165" s="3"/>
+      <c r="I1165" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1166" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1166" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1166" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1166" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1166" s="3"/>
+      <c r="I1166" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1167" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D1167" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1167" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1167" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1167" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1168" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D1168" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1168" s="3"/>
+      <c r="I1168" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1169" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1169" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D1169" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G1169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1169" s="3"/>
+      <c r="I1169" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1170" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D1170" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G1170" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1170" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I1170" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1171" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D1171" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1171" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1171" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1171" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I1171" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1172" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1172" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G1172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1172" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1172" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1173" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C1173" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D1173" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G1173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1173" s="3"/>
+      <c r="I1173" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1174" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D1174" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G1174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1174" s="3"/>
+      <c r="I1174" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1175" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G1175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1175" s="3"/>
+      <c r="I1175" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1176" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C1176" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D1176" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G1176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1176" s="3"/>
+      <c r="I1176" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1177" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C1177" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1177" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G1177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1177" s="3"/>
+      <c r="I1177" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1178" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D1178" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G1178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1178" s="3"/>
+      <c r="I1178" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1179" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D1179" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1179" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1179" s="3"/>
+      <c r="I1179" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1180" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D1180" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1180" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I1180" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1181" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D1181" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1181" s="3"/>
+      <c r="I1181" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1182" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1182" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G1182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1182" s="3"/>
+      <c r="I1182" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1183" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D1183" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1183" s="3"/>
+      <c r="I1183" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1184" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D1184" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1184" s="3" t="s">
+        <v>2920</v>
+      </c>
+      <c r="I1184" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1185" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1185" s="4" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D1185" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>2850</v>
+      </c>
+      <c r="G1185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1185" s="3"/>
+      <c r="I1185" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1186" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D1186" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E1186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1186" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1186" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1187" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1187" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1187" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I1187" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1188" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D1188" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G1188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1188" s="3"/>
+      <c r="I1188" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1189" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D1189" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1189" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1189" s="3"/>
+      <c r="I1189" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1190" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D1190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G1190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1190" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1190" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1191" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D1191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1191" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1191" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1192" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D1192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1192" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1192" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1193" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1193" s="4" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D1193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G1193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1193" s="3"/>
+      <c r="I1193" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1194" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D1194" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1194" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1194" s="3"/>
+      <c r="I1194" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1195" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D1195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1195" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1195" s="3"/>
+      <c r="I1195" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1196" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D1196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G1196" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1196" s="3"/>
+      <c r="I1196" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1197" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1197" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D1197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1197" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1197" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1197" s="3"/>
+      <c r="I1197" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1198" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G1198" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1198" s="3"/>
+      <c r="I1198" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1199" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1199" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1199" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I1199" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1200" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1200" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1200" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="I1200" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1201" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1201" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G1201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1201" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1201" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1202" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1202" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1202" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1202" s="3"/>
+      <c r="I1202" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1203" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C1203" s="5" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1204" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1204" s="5" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1205" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1205" s="5" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1206" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1206" s="5" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1207" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1207" s="5" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1208" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1208" s="5" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>2981</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1209" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1209" s="5" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1210" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C1210" s="5" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1211" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1211" s="5" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1212" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1212" s="5" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1213" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C1213" s="5" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1213" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1214" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1214" s="5" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>2994</v>
+      </c>
+      <c r="I1214" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1215" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1215" s="5" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1216" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1216" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1217" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C1217" s="5" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1218" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1218" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1219" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1219" s="5" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1220" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1220" s="5" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1221" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1221" s="5" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1222" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C1222" s="5" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1223" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1223" s="5" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1224" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C1224" s="5" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1225" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1225" s="5" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1226" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1226" s="5" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>3021</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1227" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1227" s="5" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>3024</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1228" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C1228" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>2959</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1229" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1229" s="5" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1230" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C1230" s="5" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1231" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C1231" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1232" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1232" s="5" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1233" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1233" s="5" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>3041</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1234" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1234" s="5" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>3045</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1235" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1235" s="5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1236" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1236" s="5" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1237" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1237" s="5" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1238" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1238" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1239" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1239" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1240" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C1240" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1241" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1241" s="5" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1242" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1242" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1243" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1243" s="5" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1244" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1244" s="5" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1245" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1245" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>3071</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1246" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C1246" s="5" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1247" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1247" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1247" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1247" s="3"/>
+      <c r="I1247" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1248" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1248" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1248" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1248" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1248" s="3"/>
+      <c r="I1248" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1249" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1249" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1249" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1249" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1249" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1249" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1249" s="3"/>
+      <c r="I1249" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1250" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1250" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C1250" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D1250" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1250" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1250" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1250" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1250" s="3"/>
+      <c r="I1250" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1251" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1251" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1251" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D1251" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1251" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1251" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G1251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1251" s="3"/>
+      <c r="I1251" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1252" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1252" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1252" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1252" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1252" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1252" s="3"/>
+      <c r="I1252" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1253" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1253" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C1253" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D1253" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1253" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1253" s="3"/>
+      <c r="I1253" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1254" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1254" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1254" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1254" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1254" s="3"/>
+      <c r="I1254" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1255" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1255" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1255" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1255" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1255" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G1255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1255" s="3"/>
+      <c r="I1255" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1256" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1256" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1256" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1256" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1256" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1256" s="3"/>
+      <c r="I1256" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1257" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1257" s="5" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1258" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C1258" s="5" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1259" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1259" s="5" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1260" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1260" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1261" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1261" s="5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1262" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1262" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1263" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C1263" s="5" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1264" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1264" s="5" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1265" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1265" s="5" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1266" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1266" s="5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1009" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1009">
+  <autoFilter ref="A1:I1266" xr:uid="{011D68E4-A6E8-49B3-B09E-72D9E719F07A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1266">
       <sortCondition ref="A1:A1022"/>
     </sortState>
   </autoFilter>
@@ -35294,6 +44135,263 @@
     <hyperlink ref="C806" r:id="rId242" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxPMXRoVFZYS3JkaFJaYU0zRENJUFVaUU15Zk5DYWpnbTU5VHFEVUFrMzU2UzJ1MkxiSXhSNnUzTnp3c0hyU0NnWXN5NFB0NVhYMGRmLXk2dEI3LWFyaW83MmJaTmpzWnRSbWRtM2RsbDhSVFRmLThxVFpGend0Vi01TFQwMjBGcmltbDAtN1Z0TksyVjFydUpIRGJnMG54ZDhzY2lWc2RTYXlCRTJzZU55YWtVTlFNTXBBd1NwSVFfVzFKQng0UzNCS1NHME1VTlZnMDJwU2p2SVVhWWNw?oc=5" xr:uid="{0FD56D63-AFEB-47FA-AEA1-AE246E3E2A5F}"/>
     <hyperlink ref="C807" r:id="rId243" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNRnNPVDVvcUlQMGhYQmxVYXpRSEtrdjFqT2pUdjVHWXJnVWlvUDY5MHhxcU5feUlZdTlJME9ncVlDbUF5aEtKSGpoS3lHS21IeDdkbjRJY0JLSlpPNkJZNlhFZ2V4TDRvbHdmMjNRbWdUQXBOYkprVkwzenJJc1BFV2dXenFJdlRVak9hVF9zOTU2Q0dGN2QxdEh4UVZDcXNFSllwX3J5aVl6ZklGbUs1NHJNckRZNW1vZk5CRg?oc=5" xr:uid="{82D65A3B-52E1-4CEC-B615-09DFA6FAEB07}"/>
     <hyperlink ref="C808" r:id="rId244" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNZEJSZl9ONU4xT0plMUFIVHNQSFZSZmZOdXp5d19WVlZFalh5LU1tX1liUnBOX19ySjVLVnhJeVRvWlRsRjF2WVFBSUI4ODZNMWRtcmh0LXNIUHY3ZDgtZjdVNXdSb3Z4d2k5elJtUlNyYWdMbmRPNnUzekQyYU9NaDJSbFJLZWJuUXF3aFEwSEd6T1ZzUWYwa0ppeVphcE5uYzBFZGpjZXBKbUxVUVJoMDF4R0phUzRWMnJTcUE1Zw?oc=5" xr:uid="{E2516E7B-D064-45EE-BB70-D97202727354}"/>
+    <hyperlink ref="C1203" r:id="rId245" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxPZ2ItdUROTUpRbjBIY0VhR0NtQnJlNjgyWk5iV0x0VlNBT2RSSnFoNWd2ZGlFbjhMaENHX2JZeFh5c0M3UV9IY2dVY2Jrd3N1bUVvNXNWMUhKcFExTFBIYnY3SHV0VElmTlBKaHNvMDNCSEtLQlBEazVpT3h4aUVOa0xJV2YxT3A0SWdMUXVuTXZEbjZnOC1wSHJuZkNpSWY1Wkw3RkZ4NndRbDV5R29kZngwa1huN2FwR0pMNGlTRTdSY1o4UjQxLUs0S2JWckx0cFVUcGZIa3dEMkJ4eEVIanVJMko0NWNNMXdfLXlnbENNRnBIeXRLUjM1MWljNEtfYXNkZnI3UnVsTElUeXF1S9IBlgJBVV95cUxPeWptV2ZISU15dEEwOGVfaDlleExZQnpiWngxa2g1VFZFdzJaQ2F3Wkg3eU41SFo5RDRONG9lVmtaNDhNNnZKNGtsaHZMN1JCcmFBMTU4bE5QMDhoM0FBYnE0X1R3bXlTRjlsTkVRY2pLOFRoRDV0WGxIS2FvZkhyanJYWDgzQkpKb09wOGp6TnNBcmxYUjIzOGpHamJ0YUtfZko3M3lvSm5FMlpIM0ZiRk41akthZWVZMFktd0MxTS1LZWVtWWJoTkVfZkllaWMxY1R1UUFqVHdHcGYzSnltckhnSFNGZFJMdjU3bnVCZnlhclQ0Z3o0eWV1c1FjY09IYzNqTEVlUnIzRTNWbXlVdy1VNW5Cdw?oc=5" xr:uid="{A4FCC43E-7B9F-4A66-82A0-11B5C2846D82}"/>
+    <hyperlink ref="C1204" r:id="rId246" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxQUFQxcEd3cG02aDlydnAwb3lqcDVqbmlXRFRNTnVCU05EOXBDeVpDaDZ6LUxtdWZPOXoxblpMSXQ5bVg0SFRlM0czU1lSVkZsWG9xQWhYTnJlY2dTbWRWSkNPSmNTVXlFcy1tWTVrSmFzQmxtYlY5aWR3RmlWczRUUGF0SVA5NXB6clNLVVQyMFdqbHB0NHhTa2tJeWNZZ1RTdUNHdzJNeG1URWN1MTlKNTRnOUpOSk80ZTZnM1JZZWVuZmZXNXlMMnpnZUZYS3JQWERmMEpHTWgtZzd0YmQ4R21ZeWdMaDBqX0hmZkVjM1dNcldqdS1weEJydC1yY2_SAYQCQVVfeXFMTnR0cnplVllmVUxHOV9FNm9rbkNHS1pyMmtYNjBlQVZQMVhoVnBuQWdqS1BwZFUwdnVhOEl2Zm1CM0NxQk1Ud1pWWk5tMTVxM0dMeE9waGlWMDVIaG1jNlQxbG5iMjRYRWQzV1RfY01IX1p6VlRYbnNBYWcwZk9VdjZKcHhvQXJ3YV9wbnJaRmRITVpYNTJMSml2Q2RJUmhob1RXMl9iTzJvSVo0VGpGZ0lObjdxaExZZl9SRGVaYmVXaUduX2VyQ2JaY01oWG9mR3VxWk5EeTBENXc5Um8xc0xYcGpveE5teF9CTFlvR25hcHBtWG0tek9sQkZGcjZrZVhuOGY?oc=5" xr:uid="{2B3D6F09-182C-4A35-A1B3-53D7A4694EA0}"/>
+    <hyperlink ref="C1205" r:id="rId247" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxPbzA1RzZHSGY1LUk4Z2x5aFVNM1hMSVY0NDFJdGkyUmM5OTJwclZsVHQxUUZmb2V5bVlHYWtnMV9FV2xWdUl4b3VyeUJuMDlHNzlmWEM4YmJIcmNGMU1xdXlDd1kxTDhWejI5ZDdhbGRrdUprRU5UNGhPUWJRNmR3VVlLRGQ4eHhvVW81UW5uMURxSTN1ZjdMM0ZaalRGekUtSk1RU3lRNDdSbkQ2YThMcXFIN19mZFhmbVU3aEFBSEh4NGdnY3pqZlpVRFlONXhDWjVoRjVzeGhaeWs2N0g0dXFZZndYRGVnZ2F30gH_AUFVX3lxTFBhTDBUdm1Tc2lCMmM4dU8zd1hrLUZsRENCSWxUYlZFX1hpZzBfbm1UWURMRWsyeTcwc0YzdlZYWHNNUXgtMTJmMGw1RjAwcFBtZ0VnYzB1LXFPYVA2RGFpUDBfdEgzYURwbHZfSXRyU3BKLUhUZ0dQX2pQUTZwX2xHMl9pcHZTeXdNMHZGS0tHVi0xR0xocnNTak5SNXFuMGNadDBIRnQzZnRMVnJWcUo5Um0wbGZBUkI0cUl0WHF6M0lMYnJMX25Sb2tEQXpVTEMxZFlDemExZTBRc0JMR1lacEhHcmNaeDFydGtQOTh0VmFiakVGWTdOaXFZWU9iWQ?oc=5" xr:uid="{544FFACF-D1D1-4905-8A73-C9CB7EFA98DF}"/>
+    <hyperlink ref="C1206" r:id="rId248" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPS25jWVRfUWtGSm5mbWZkeWV1YzI0V1dKS2JwTk9qU3NYZW5GbUhtR0tydjJ6OFBKZFdlb2pfUnE5aDRPWEhyNGRPUE16c05yU2NjNGJtbVNGMVppbGI1RUIxX2d5SWVzWVZENGVlS3NfX1ZEWDBLOEMzLUFGSW1WNXpWejlUUWFKeVFiQy12OWljN05CVGNuUUFraGJHLWhwRmdEZlU4WktkV2VVYnFHc3dEMXJXeVZtSDE5UlZsWlB6T1c2VEtB0gHMAUFVX3lxTE9rc2R2Y3d3eEhTOWcxVTZKQ0NLVENEU2M3M19RUjdXb2hnYURlbVRkZ1FwOU5EckNOb2llNDA3bE84VXR4emtwVDh2SV92RVhBMTZTUzFGX2VwdE4tVkpnbWpRRFdTUGFTNk5vZ2VLSnlHbXhkY05JZlF5MHdoTk1EYUlkUk5UZXpEOVczRlJtbnU3Vk5XZXFLeVRMQm5CaUo0WkFvcTNGNTIzSXBENkxQZXd5cjFXbnRHeW9rUUpKd1NSanFheGdBSkoxMw?oc=5" xr:uid="{D6EA1A1E-A2FB-4A13-8284-E0D34A3FBC8E}"/>
+    <hyperlink ref="C1207" r:id="rId249" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxOb1hKQmRjSC1fX0lhdGQyald4eDcteUlkaF80SGxGUjJmMjNjLWhOUks5ajlWS0k5dU9xVjFEY1MtaUV6VHkxTllDNFZ3ZlN5YVU4cVlHU1gwSG9TUGJtZGhoUlN4eEJVRDFWZjRUSFBVbVhjY01icGQyQWxiZmNNS0psdkhNcHhEVFpPYkgzRDY4enlZanFyMlpEWHhqSGVSRG1PazlvMnlsaHdtcnM1Y3d0WU5sM2xKcUdCNmhGT0Y?oc=5" xr:uid="{26E13F9D-7118-4E63-9850-A75FCF4F4172}"/>
+    <hyperlink ref="C1208" r:id="rId250" display="https://news.google.com/rss/articles/CBMitwFBVV95cUxPTGJLWTNibUlHV0RiYU9rc2E0VERwLTJISkJpVF9KNjhXNDZzRHcwRnFOdTc2RTJOUkFLMEhzeEZ2bU9sbEhXZnlhNUdVRmQtZmJSci11UFVGSGJTSk5OTEhrYlk3ZGhqWTVLX0FiRjNlZF8xOXJlS0F0YklyZ2NyLTdDSGFmNkhBS3JoWU96VU16RTZ4TDA2Z1hBUEsyUHZVaHZTYm1FbVh2bDlJdExvM3VkYTN6UTjSAcQBQVVfeXFMT2xSZlpzM1BKdnozX3hDeXBNeWdkSFV3UEJ1TjBrMVd0Q1ZBdEZnNGNBM1o5QzZpb25aMl81TTEtbWtnWUFveDlTZkhzS0U2NHFvdzVpUlJEM1BtOEZLMzNjTWZjMHNvN1FUV01jeGJLd1FZeUNSZl9zT0U5cjFFdF9wU1RCMUVTZHVwN2JNS08yQmxUcWFFYlhyLWU5TUJSME13cDAwU2J2T0c0enNVb2VCNG1POC1hdUZialVMWTlHaGs0eA?oc=5" xr:uid="{712EB35F-D054-4E72-8AD7-44B1CAC424AC}"/>
+    <hyperlink ref="C1209" r:id="rId251" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxQd2QzQ2VfbWVPSXBaME1PUVJ6M3JvX1VOWXk2aWR4MlQwVGVMSFA5VHJfb0FIcWN3WFVtdGY4MDZRa2I0M0NCOWtRT0lPbEpxRVExSDZnYlJ3Tmx6SU1iQmtjYXh5aG02bHNTYm5MeTdzOTVzWnhKRGdDRzFUTHpVWE0ySi1XT1dEZ2pZRzhSajhRdWtseXR0NlNvd29xX2xXZ1h2M3hxSWNoa21YYlBCemdsTXBpaF9mSXBNOGpNNlNYV0lfbzJwc1E5YUpJYVd4aDBrbWVkbm9ZTDdNdDNhVHlNemEtUjM4Q051dXZ5bXJmVVd3YTBNOV9mNNIBlgJBVV95cUxQUEE0WkEtUDFVRFROM1hZMm9nbk5PaDNMODVqT0daTFZabGpYWTJUX2NzQ1lDTGFhYmk5amZqYUdnWDlUMXZwMGRxV3B1Q1BQN2RDYkpLRDV5clZYQU1WR1dIdTRLTEY3R2dIdDFFSkhsRnVYZVh1dWlKaXRCdnp4eUtIUVpjN01Bc1J6RXFFZWRSSl95eXdfUFhhc05wRjM3eWlxUklYZlU5LTdUNkVVLVRMVDBWYUtQMUFSMUNEaFgwVlQwOEpvOVVHNFZrNVRVejNaYWtBdG5QeXRzdVlUVmlfUVFCTHM5SkVlaTM3R0p4cGZxQmpxRFg0Z25TaUJXZFNpY24ySFZKVFVuQ2QwOV9DUm5ZQQ?oc=5" xr:uid="{6776B3B8-BFEE-4FE7-B36B-9DD63F4D4CD5}"/>
+    <hyperlink ref="C1210" r:id="rId252" xr:uid="{FB638BD1-8BD2-446C-99CB-5C92B8016E4E}"/>
+    <hyperlink ref="C1258" r:id="rId253" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxOelZObHc3MUpOQUlUYVpiNWlhZ2VrYUtyRDUtbHJSVGhwYURZTVdHd3VocjRlZllNWXg0MVFLZXcwYmtfV0MwSW1OMnVLOGp4ZW1xT2J6ZnREdUthSDJSN3hjRVZtdWp4dVFwVW1FbU1qbExLMzg4bC1MaEYtdmZHeWZHS3VIeHFpbW5kNy1ObkVndzV3dUlqTVVlQzVmeThselU0cXhKc2VuaTR0bThRaWVkVXpJczczcjd1Q1lNX0tNTE5aSExmSHQzbmI2eWpNQ0U2eDZ4elBVUWhDY3dTM2s3UFhuOU1LbW05clBRREM4ZHfSAfgBQVVfeXFMTVNtbzBMVjNtdno4LWhFWVlxS19ITzdsbzJjTjBEY1RQR3ZTaW9FeHlJemxLZFRMbEw3VFRlaS16LVRsOHp4ajlNZ290b1F1ZzdLYTVjMFV5RllzdjltcER4cU15dGhJM3NidmhmTkoxTXhndTFnd0gxaFJMaW9sa3hZb2U5OUtscTMzWXZvQTZFRmNkU3JqM1I1TFpZQ3J5SFZ2cTJ2cV9XU19QRG9UOE9IUDRVR01RMURRRTFqSUh5X1pZN014dTFndzVBLUFsOXYwOVVlX1FYaWdzcjUtSTJOSGd1VWx0REd0Ump0bUVxdGhwTlRQOFk?oc=5" xr:uid="{53331B3A-C3B4-4616-992E-F825C1142BAF}"/>
+    <hyperlink ref="C1211" r:id="rId254" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxQbHpyaVl6eXNKbnZVRWtLV3hmRGpfUUxJVmI1Z3hVOU9XMnpQc2JJYXFDYjFadGppYXVnSVVjV01xYUxxRUNpNWk5QTdtV0ZkdnV4b1haMVJJamxRV1RYWmNHSldfOFN3WjdVeXZUQncxMlVPN0o0cTJ1VjVzTS0yQ1JzeGthTmxiT2hvaVVfd1FTeW1oUENVSC1tLUp3MGh6RHBHRjc5Z0E5U29KdU5FWEllQVhGdG94Vm1oYk44RnpyQdIB1gFBVV95cUxOamthMS15ZHdkdTBmekdqckhTTUJHVjVUaG51ajRFODduMFJLdFNZY050RkIybTF1bjgyWjVBYXF2djRma1ZlV0Y2UGZuM04wdVV5WVh1RS1OR21zUDJuVWtPYU5zSUhQMkxnMUpZdm5JNFYwYk85TGRhUFhBMXhZUjdFamRhUlRDejhFN2lrQ3ZONHRwbFZyZGZDRzI5czkxcjF1ZWNaS2dCWlNlN0lYZmtzZGZSZm5BLUp6TVFEYTdVWm1MeTUwVmNvdzdlQ0tNaVE2UGt3?oc=5" xr:uid="{43CAB399-DD29-43D4-B2C3-6AB168E45626}"/>
+    <hyperlink ref="C1212" r:id="rId255" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNOHJSamEzX0hjVHRqNFhKTWRCNVpMSnU4dGFyY2RESXdkWEo1RUlKYVo1aFgzNFpUYjhwVUJ0R0xuSFFCcS0xckVTVkJVUXdoeDMwM3BmbENLbmRSdllhY0RSeW1rdVVyTGtBc1Z2RFdYMi1WclUxVV81d3hxOW9Wa2VfM1Z6ZHMydjYySjR4Q0ZzeHRGYzl4UWZiU1lleUNYY2h0S2pTWEl4cm5sQjRyd2p5T2g3UlNiYU9xWlRtTGM5U055Q3czU3ItYmRtczZmR1k0TlZKWVVpTTh6TE9z0gHfAUFVX3lxTE04clJqYTNfSGNUdGo0WEpNZEI1WkxKdTh0YXJjZERJd2RYSjVFSUphWjVoWDM0WlRiOHBVQnRHTG5IUUJxLTFyRVNWQlVRd2h4MzAzcGZsQ0tuZFJ2WWFjRFJ5bWt1VXJMa0FzVnZEV1gyLVZyVTFVXzV3eHE5b1ZrZV8zVnpkczJ2NjJKNHhDRnN4dEZjOXhRZmJTWWV5Q1hjaHRLalNYSXhybmxCNHJ3anlPaDdSU2JhT3FaVG1MYzlTTnlDdzNTci1iZG1zNmZHWTROVkpZVWlNOHpMT3M?oc=5" xr:uid="{704B7AF1-8CE9-4B11-8DA7-A65E9C5ECD90}"/>
+    <hyperlink ref="C1053" r:id="rId256" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxQbERXV2dWelBxNlVOeXlxMDBqTG9Rc1l5N1VJTkV5T3l6eGs5cDM1bngyNmx0NmQydG9NOXFMa2RFOHRDakNVRGtRX3Rya0pfd2xLYS1Ib1N5LThaSTlYYjFEbGpKRG1LTzk1ZWh6Q183aUpvcW9GVThXcmFacXZxSHRKb1FnOXRndnVDRDdMU2lBcld2UzhpLVhHS1BrNEd1SmFqYy13REpqMmZ1UlRoTE9B?oc=5" xr:uid="{629AC393-2B3A-4700-AEF6-DFE6EED29C7C}"/>
+    <hyperlink ref="C1213" r:id="rId257" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOZm9BaWplXzhRSFpMb2JwMU1RaFBTa1p1TXBpV1pvT2QteHJiQlJhaUdWS0drOENjbGltb0YydFVxOXl5QlE2NVBjSktScWNUbFphdnY2WDkwWlR1eGctUkhySzU2eWxHM2xlWGt5ek1tYWJXVHd3MDJMc2Rhc1pJQnhlaG1lNTlBTTdBM283dWFaWjdBQ2w5VXBuN05VT1Zodmw1MHdXMnJFUkNnelpFblVpTHBLbFZsOGhOMlNMUnFsUzM2Rl83emNJaw?oc=5" xr:uid="{512676BE-9BF7-441A-B2D3-949CCB196935}"/>
+    <hyperlink ref="C1054" r:id="rId258" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxPWk5WQV9JWHd0Nk8xTTlrbzZJa0ctUEhraFJzek5aUjNMOXFYSVROcFlXZXBoRVRlZnUxbWdvYXlWbjBKU0RVWGFBR1VydnJtSkZHMTRxSTNSU3RwZW5lSV9PYU5nUnZJOC1yZ2M3QUI0cjBMYVduUElxQjZBQlFoSGc0a0ZybzJrTDZoU3ZXc1RTaGxaYWdVOHBZeS14ckJkTF9rSk5heWZWdGN3TTlPTHVfU3FIWVloNDRKZnItVnZrM3QxdnpKWjdwZzhiSVFwNlBLTTJGd0tZWVdkcEFIdHZibW9NYUZYLVhLZnRR0gHuAUFVX3lxTFBZclNEaXdvUHNmSE5Tc3RnQUtody1oeXc5bmZGWTBYMENMRU16bU1GRUtQcDRGRk9oRk9DZzNxaG02dU5rMVZJUGVoM0d6OTZYSTlMVm4zQ01tZkgxcWFBLWctanNKeWo4TnlzdkU3RVhULWhicmxJNk9xRTZXcHhMeDdlNUNXOF90MWViUTIxZlBXTG0yZFJ3ampobmJoM2JMUW1SbktVLWw5Zl9kTG9oSXpoSHNERmR6VlpaamFEUXQ2TFFreHVLMzRPU1ZXcUZlSWlXaXpCVmh6Q21QVGRobVVUOG9vdm1QYWJyTVE?oc=5" xr:uid="{87B36059-9061-4C2C-8348-2D1939E3F23D}"/>
+    <hyperlink ref="C1055" r:id="rId259" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxNM1NhS0kyQUU3eVBNLUl5N3BzejhpX19pNzhRZ29WSVJNQ0F2cmpHWkgyM2VUSGc2c2lQd3BITVF1d0dYTnNBTDJMY0ZVUVdtMGtELUhZVFVNb1NjY21wY3duMHJxNVdNbzNBbEpHTnJuVW8yZUJNcjBtNl9EWkpjMFZoMzBKZ045T3dfY1hTdzJoeWw1SnJmWkRKZklxSEp0Q2JNTkF0QWZ0MTQ3MEVNMWhGUFFDaFZZNktId25wMmsxSWotLUJGalFVYWZIUWtwakpkMWVoZzdKaVFLWmQ5TmttbklmbndXem1kckZMQTkxdkxDaEhNam5YTzFwYVhabmfSAZwCQVVfeXFMUE5zdExNaE0wbnJuamZUMWNsdEhXSHc4RHJ3RjBENDJxYWdzbjNQOWgxUEM5MjFDcTdhRDEyTEZCLVZkSEdXMk5nbi1iU0ZNQnU5MF80c0Q2NXdibDFFRkpZYm1nTkRDcVpwQUVWUUNjd05qMW1QaFc4N0NZc2pXVVZldWJrSV9oQzdDZUVuRGxvZjlxbEF5MzZYOFJnRVVibVRDSlhtLW1mS19zVnROWHRBc3J0cTg1aHdIQS1qTl9iTlRPT0hxRFV2andDb1hSTHdxeTZ5aHQ0U3ZXQnBzWHRvSWJqTDhSeEdHU2ZPWVQzTzlGa0tIODFFX1JZZHBWN3J0RkFQUElaelJjYWpoYlo4Z0VSRDNFS0ZmdDU?oc=5" xr:uid="{548BA5BB-7265-49C3-B0E1-2FB1EEFDE070}"/>
+    <hyperlink ref="C1247" r:id="rId260" display="https://news.google.com/rss/articles/CBMikgJBVV95cUxObGw2QkhTSGlfYUdjckhDV2lvWGU3bDBaLVd1dTdyN1lneWpWUG5ldm1PSml1c3BTelB2X1JuaGdqNUlleEdzbURERld6MGtMWG9veEo3M09qRlRRVFNVN0dqNF8wdkRPR3Z0d1dXWC1ZTGEtSjJwbjNzQnRkbmdUalN5dEN3blJBdk5SZnhiaDdycGtnbzFWNFBkTkZZbzJZR29aWTcyandIV3c4a3l6MmJXaDZLclJUNjA2bktFZjBoRkZySUx2NnY0eUl4OWRxM3pHREE2WmllaVdORlBIZFQ4Y3VyVXNCWmh2RlRVM1h3cmV3ODhDYVR5MGVxQ2htbUJxcWVaMk03V2cxWlJOTDNB0gGXAkFVX3lxTE93cGt3a0wtck5oRU9CRjNBY21EemhlLUtPeHRPYUFDYkxQUGZvYmFndjdoN3NKb28xd3lOaHB5SW5QWHdOQ3dRSVRIM20wbUh3YXdrTTVrWEhKMG11WktVWFV3VGhJa19LOThMbG4tc210ZC1jcFphaW9FX1dZeFVuUWprTTVDVHFMRDR1b1dkbUFNQzFaQk13NEktbzhmY3ZsS0VPOF85ZmUzVmFvYUROalU0UnZRUWxXUkhrSkdsVHlOVWZOSks5dkg5WUpvMENaU0pWUWhSOXU2UTJPREJnd1JzTXI3aXNnSzNwZTFkMWVKSG9TaXdKWTdISTFrd1o1b3hnN0ZqY0txVG4wa0otekFsX253Yw?oc=5" xr:uid="{016E39D0-624E-43B5-A64D-7CD36C990220}"/>
+    <hyperlink ref="C1248" r:id="rId261" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxNSFpUV3c2OVBpeS16YTZhWnRQZmVLVi1sWmVPX1pRR19jcGkxODc1NHY1cDg0bXRtTTlYNFFPTjhRNFBIMGVieDFJb1JIel9PVS1ScWY0Z1Rrd2dEQnVmXzNkQkVVd3preGt2RWJHM3AwMlJRMjZaZS1UeGJ0VTdwYTUtV3VkLUJyRGdnQTg5UWxCWFpHTWpzQmxaT0ctVjBrVzlNZWxNaElnSGvSAbABQVVfeXFMTUlCcmw1Wlpva0dZTE0wb3NkLWF0NUdIZUhtZGtpemt4dk1FSG9rRlRjakFRc0FUZm9aWVhYOWk1bUlac3RwSG5jZGd4QU1zVHdpaExNaE9qeENDbUl4a00zdVF4UTdjYVZfTW53Q0Yybm12WFAwUld3dkpmZmRWaDVLRzc0akdRVzhVb1lxbnNGbEw4N2hIU1VtS0xneC0yZXNqNXBUNnN2TExUZnczMEY?oc=5" xr:uid="{7F50763E-F8E8-4829-BFE8-A711E0C94171}"/>
+    <hyperlink ref="C1010" r:id="rId262" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxOOVQ1dTRMNHFhY2VwNlVhdXVYRlN2N2p4OExKZkJnVmZiZEplZ3Y5OF9Xb3I3QlNzVy13dTNxbGpibFBGM08zczFodFZNVnRFa0lFNGxpR0QtZ1RwNDR4clU4QVBTVUM0TmhZdmtCUmdfQmpIRVk3MzQ3RnlEV0dJY05wRXNYanoyU0FnZEdRYmlOU0tuZzRtS09yWlBHc3dFRE5rc2tLbmFYVk8zTHc?oc=5" xr:uid="{A2DF6FAB-DA64-41F6-A3EA-5DA78C834022}"/>
+    <hyperlink ref="C1011" r:id="rId263" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxQRF82dnVGcTQzWlJNYUhuVmtMcEVfWjJ6VHFfX1VpYVdjc3F3UW5LQ0RHQzhWWGw2Tk1zb05xT01IV21KUjN3VEZ2NFRFaEE4cFZfWlVIclR5WUJrS1FBZU9ObkdOM0ZuWDZBZzJ0dGJvWUFFdFA2amtoR1BrMjFrMVBFQXZpd0FaQk5jOE1wVHZLZGxaaEhyMFdCZzNZRl9CYTBJUEN1S2x2bWEwN0lwREtOUUZGVzdMUmpBM1h0R1VsTFpvcGZnUnhPXzVTbEtLaVBpNzdMdF9KSW5OZERvZlFVajlpcFZHT1FObUhXdThzaTZtbTdHSTRGRXZMUQ?oc=5" xr:uid="{3294DD97-8124-43E6-BD07-E119C0A647AF}"/>
+    <hyperlink ref="C1012" r:id="rId264" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxNNjUzU1ZyaGpRU01xcWlfSVJydzh0aHpCQ0F1Q2ZTUi15NXhhZTctYXdYNmp5TjVHRHZ5X3pkLWo2YXYxbHlIRHI5bFQtZXowRkhZV0xTWWxma3BkRDlpQjFoMVVqaGlqUF9JOW05ZjVGblAxMHFIX2tQLXVENU1BTXFobWRiQkZzdEFSMm5JMnpfVlFEUFNKQl8xZWtWS0o5TWlYZmlKY2VwNEVEeENpWUE1ZWpDUkN4MnpBTDdCem5ucERtUHZLUWZyRTVubEpxLUNJR2RvQXR4QnI3NGJCbU1RdnlZMXpLT0pRamNjS094dFIyZmhlZ19XSFo4UjE0cUpJRtIBnwJBVV95cUxPUkI1ekVZcWx5SG1MTE9JakktQjRtc2FXUDJqZjl3WTNCenZpc1hnTUJycGprbTE5ck51c21rQXpSejhOelFuZWRnMWI0ajRUdnVCOFNVRzlUT2lTN2VfSmNRNERub0F4ZTdkazdRQ0I5VHRDR3lmSlhwSW5ybnRKalg2dzhReXNDc2RDM1NUdzQ5Q2k0Ri02ZDVVQ0tKTDdKNUVPblBkM2hWbHQxdVdtd0pNZ3BucmdFa2ZpTUk4d2x1a2pISXJSd1YySnB3MkI3Z2JnMy1mZnVwZGJZYTI3RW1DYlRYaVN0MV83SVc0ZGFLbUpUV1EyYU5YUld1ekVzTElkNHdFeDVpM2o4Xy1YTXZGZEFObzBXYzhsR3RaRQ?oc=5" xr:uid="{C96FA747-40D0-49D5-BFAB-682D68FA8145}"/>
+    <hyperlink ref="C1249" r:id="rId265" xr:uid="{2625BC9C-0382-445E-90AA-C905E4924405}"/>
+    <hyperlink ref="C1251" r:id="rId266" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxOWVREVER5OWtwUjBsRHYzZ0pEUHdTSk9hTWEzWWM0VmlDVnhvbzVtdnR1UFlhcUNubEVQYTBrWnY5RDNuQVZxRWZyVkNqWHR4Z2RsdHV2OTctMFVZbXhxTG1OTjM3ZWowSXY1S0J5YlhwelllWXc3S2xDSHFPSm5MOWxFUm92dGVGZUxmd0FqV1BadnRHUkJOQUJvUUhFSkJqc3ZNTzM4T3gyRy1VcFF6VlBIbEhDdXY2ZW9ZMnJPU3lUdXNQQnlVZGZmN2ttb1hyRVo1eVQ0TkxMUzByeFhITEtEWnhwbW9wRmhqOUZKZC14akpsS1NyM2NOY1FRYnlwVGfSAYcCQVVfeXFMTjBnQjZwc3E3Zk93YVZLVC1NSWdHbEpIUVNWcTdNcDJDcGNCU2dodF8wWmV3TGZYRENmVWdnZmZHc2xZU0p5RGhhYUswMUs2d1JzRDhQNVItbjljbzRrcUlqNTBTbXlsRmp0dFhpNUd3djlWaUQ0a1BtVFl3eks4QXRMaHFzaGlXWlNqMnpmMkt6dUR2bUc4aG9pWTNpNWpEeHV5TWVmMFRIYkVDcmJoZk9pRmdwNDJPTWZYTUtmWm14RVJXM3Awd0E3OFpmUkFzZWRienNfUGZmRmdTTjJ2aWhTODJlbFdhMGxDMVVCS3lrc0RMUjhlWHNqcG10ZG85Zm9zbFlkc00?oc=5" xr:uid="{F0173EFA-B9FE-4B13-9EF9-0C6F131F8E73}"/>
+    <hyperlink ref="C1252" r:id="rId267" display="https://news.google.com/rss/articles/CBMitAJBVV95cUxPbktBSzRkQ0RPOHNyanVxOGJqcjAycVZUU1NWdjREY2o1bFpPM3h5UmtmU2VGdHFWUGJzTEtCVk5HMWZPYVBtcWRIMDJzWXJpTFJpdHVFZW1fdHF2Y1dlQlBqdDFsdHFvek43VkcwbTl1RTB2MU1hcmN6Q1JhcHhick9RZVRxU2Q3RUZHRDU4blFMN0lvdFJnTUVGOEgyS1owOS1OOHRhNjQ1REJkX3ZpZjZGMTNUT3RTdkxMUkMxYS1UNkN1RGN5LXRnRTA0UVdhMkFHcHFXaWFKa0I2OTdRbnpmTU5US3hBeDF0X1VOVFkwak9WV000cXp4Mjh3emN4QWlYNEhtNkFUN0VsWl9iRXVVbDBiTHBXOFRCYmdLWlRGZTNmaVNZaFBmeHVpc0JwYUlyUNIBugJBVV95cUxNZGZWa1B5LUVuUnM0VmFwOFFUZEpDLXlWdk1tZkhPMkdMYWlDblI0dVBQbHNUeW82c3NKZDFZcHJoR3kxMFRGZHBpbHVmbFZOaGtwaGptemVoN1pnZUx6VFRiZ2Rxa3FIbDdlODk3bnRBbXJVQzVTTTYyeUIwTjZIX0RBaU9mN042aGRNcy1OeEZkRlBiZzF1RUVrZW9pVkVyaXBheTUteTRsWURmc3JFSy1tMjdxU0x3QjhoZFE1dE1PaGZOVzN4dUNRLTJnN3RJU21wYUVuaGtsQkVtelBmZ0lRUTZKcGJLZkxjb1RmZTFITDZCV2FqcDFwM2dDZFhyV0JNSGx4Z2luM1VzVFNsbTZsTTQ0TUdZbUZ4NHFRbkNnTjBIRk1zNUhnanRyY2Yzb0cydWlPaDdtQQ?oc=5" xr:uid="{55728F9D-6AB1-4B7B-8424-CED2B076DB2D}"/>
+    <hyperlink ref="C1253" r:id="rId268" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxNdWNWeWxXY09KbkdyMWVwVHpBWDB4Znd4ZzJiWGk5MWhwUXhhVXkxZTZMR1NWcDBQX3ppVlVXTTVsQ1JWQ1ZTQUMzY2M0YnZjelZFN1UxVEJsOF9iMXRmRGw1bm1sWlpQNUM5eUVkNGw4TjJvZC1WUzJYdFJPRUZUaVBfSy1oSTB2X2cxVHF1Q0pFc2VGVnhUUlk0RUZsMS00SkZMeFRJUnVCYTBNQWZrN3FVOE52MVV0QzUzay13VGhHanpZ0gHKAUFVX3lxTFBzNUJmcUNmZjVEa1FSeG5RQkVNRC1xbnBlOG84QWV0VVFZbU1zc1c4aWQxdExJWXJVZ0ZRaEU5cERlU3VXN2xHY1ZLQ1g1azJsQ2FNa3VlMFRmbWRYVjB1ZTJJcjN2UTBRVXV1Zmh3ejlaVU1PWnczUGoyYWJadk1pQTJPZlMwTGwxNXByZWN1VUNiQVJVejdjN3EwdUlmX2dZSmtsT0RlTGlXMmhHbnpQT3ctTjI0OXVaWVgzVDZzWmJ4YVZyRkRuZVE?oc=5" xr:uid="{2D656DF0-2C0B-476A-AAB6-9A6D069C4B41}"/>
+    <hyperlink ref="C1254" r:id="rId269" display="https://news.google.com/rss/articles/CBMingJBVV95cUxNUFFDU19FNVBFWnpDX050REk3T0hBdGZ3QjhDVmd3enZmZVhrUDRoR1c2TllQMFk1QjAzWU9lOXJHVnFKcFhzZEFUMkZOZ3g0bGhGRjNjWE45cEJKV2lBUlRvY18yQV9HZWcxQmRfUk42VnB0bDh3YkpmYmpBaFJGbk43NHAxLUh3RmQ5STlsdjUtVTRvQXZ5ZFVjUFgzSnFqRjk3cXkwY1gzZU02TzE4SDJuNlRaSWFrY1ltTGFYU0tDQXRpNjJTRE5Xd1RZLXJDZkVDUzlRSHhsc0R5aC1pZzRBZjZraTd2ZXBXYkFtZnRDdy0xZ2dzN0hBYlpldThDdVFDbmdOUF9mMHNBMlRYTFVzcF9palh4SmgtdnNB0gGjAkFVX3lxTE1FbDZ3bTZnc1dCWGJpRDQ4ZDV1dWJ6Y1RKMnoweGprUF9Nd1h3VHBHakRVRmY1dUpSREp4ZElIcjBieTFMVFdBNXFMcjJkalRMLU1JVkR3em1kNGdKRzdmRWpxb19LNVhkTnY5MHA5RXZZY1I1WDdIQVdzS3R6UGxUUXBDakUwN203MVBKLS1Ea3FkX3pQODZpbWsxNk16M0xXSk8xcTl1ZlBURWV0VVlYUXA3NlVKSjN5WGM1WkFhYlpUT1ZmNnhwYk1CTDVCcExjYUh3OHQ0a01xdE1JSkJZcEVnSzhtbGJqTlJfY3RhQjYyczJpNU9VMWhYdWtkVG5iUFc1NUhtQm5GZUpfWmhWU3FsenVpVTNfQzhkY01QVUhKMA?oc=5" xr:uid="{1E3A2F81-AC68-480C-9DAB-92BCAC02B68C}"/>
+    <hyperlink ref="C1255" r:id="rId270" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxNSDRleEwxUnItcFBXSEVkbDc0dXdUV0x0T1JwUnMyV0YyMmt4NFNia0hwV2tCLUhKVWNiSjd4Qk5rZ1JKb1h0dnhWZWExWGJGM2FOOEFzWG5EVUJ0eTcxRU0zVmJZeUpZY3lCb29vVUlmSDV5bzBPZUxkcVBfZTVRd19UelRfaGt4SXJsTFNMeVNLSnhrQzRqemFTYUNjZnQ3WmhSVHZ3UXZLeE8wLTRsLWFCb1FCX0RHS1R0UUQ1QlJ3VkxWSjI4RDV5UGFzNjliaWc?oc=5" xr:uid="{949AA19A-39DD-4B34-BAC0-46642A6891B7}"/>
+    <hyperlink ref="C1256" r:id="rId271" display="https://news.google.com/rss/articles/CBMiigJBVV95cUxQX0Y3cVZLZlhveEtqeW9jZVJaSWotOHUwYm5vX2pGY2loVnd3S2FQZFhoOWtha0RreUxHQkFVd3dhdjlSemhRbEhqZEZqb0ZyU203bkt3UTV6d1NpZ3F4aGFPWXhfRWtaWjhQTWF0WDU3QmpsSmlMMmlpLWtGZ1VXaFE3T29IeXhDVElKeHZHRXZHbWhPR2ZaRVFxVHlYUnZjYk9KbnplMlJtZ3RqSmFlX1FUWU5ubml6ejJqY0Y3WFZ1WVJuUllCVDBiZVlrZlJITWtJSUloVi1zWVNnQ3Y5NXVoaXQ1ckdTMEFuNVI3SmFCTTB1MFNTZkd4NTRxdDdFcklvREdsR2o1d9IBpAJBVV95cUxPOFhxWE9lcktsSEJYTjQyR2ZESFIwTzhXUVRxcGU4UEtCRUE3MDBELVhFVWNWX3hTTDJkWkpZcmpBdmVHUi1iZVN3OFU4Q214YkNZZ05OQ0pBdmhpaG5VbW1NRzAzTjhnUl9rV000djRvSFVtaVRSR3RZcnVHOW1SWl9xby1YbkZ5WGhyTFlrc0VWLXhzUS1pcGRxS2NJMlctTGNsSGJXSzNabkFsNUhyNnRISVRMdzQ5YU5iYTZnN1VMUmJMd0hYb2ZHWFd0Mk14SHE0a2d2QTdnZ0xnamhlV3JGVDE5NUZEVnQtMmN5ODFZcWhNa2lMZzZ6dmxkOGcxRUpfUEJvS1F6cWRqRXdzWU5VbFc2OTVVQjBBcWgyRXFsN0Fx?oc=5" xr:uid="{41A38297-FF05-41CC-BA98-C4C2C543A99D}"/>
+    <hyperlink ref="C1250" r:id="rId272" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxOZ3NnOEJRdHktQVBmejBiakc2Sjc1VmxvNVA2MzBEaVZ0b0JoTUg2VWxrZGQ5MGlqeHJmUXZZd01PanF6YWlKOHhwNkM5SE54aTNYcGdUUHhXazJsRzloTXlqNTJzQ1l1eWJ1bjQyaXE1STVocnh5a3B3dGJKQTAxVDZqbXM4al9tQ19tLVdRemlVbEV1cXl0Y0trOXRpYlRCUUduM1NaWWF0ZkxqWUJXZ3Rya0JiQ0dpYkdPUks0NjRtQUdjem5nbEprbURjQQ?oc=5" xr:uid="{1E2EA22E-3397-426B-9C97-91530D81B63A}"/>
+    <hyperlink ref="C1229" r:id="rId273" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNdzdMT21Zd1lvZVRFSGhjTDNZRFlQdExkdS1JbnR5bFlocFVZWG1TM3FiOFhlcGdKQTRPd0lfNVBmZUFZeGZJM2FQN0FGSE9ia2xheEtmT0NrMy1GZFBkRi1BZHViMC1WdlcyUUhmTE9zbnpjVXR1S19KX2VSNWdabVM1ZmtPX05BUVBrNlJoRmpaRzhWaVBXRGRfNC0xazhXUVhqdzBBMWVsNDA4QldiM3pOd2JSaFRiMWxRUFZn0gHDAUFVX3lxTFA4RTZPdWk0SUpqVDF5Z0RDaFZjTWJmcmt1dkdrZGhlN0FqVlJfYmRCTzdwWGZzdTFoR0RUUXhYZzZnd2VHbXQ3a1p4aDZ6ZEF0aHlBcVFJNzZsSVhWV3dmM2NkYlhlb1JfcFl6ZlhybjRkY3FoMHhVTEx2VE11X0lqSC1YR0FSQ243Q3c1bzFsUTRLNlN6NkFRV3VkQk5za2d6SDRncWlMN2RKb2FYUU8zSEoyZ1dLWHhPWkFNeUNsYkd6bw?oc=5" xr:uid="{CCB21B8B-7F8D-40E8-856A-5979A6BE4BB6}"/>
+    <hyperlink ref="C1259" r:id="rId274" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxOeHA2VVhROUJnWVZrdU5tbzRQVW5SNGo2U1pKYkFUYUhPRWpkVUVpakZOcVZpN1NZUmhWTWpZSjdHSVdhTjFPV1AyYkRmLWFQUTRBOXpxM2VLX2hlMnExUEE1SnEyUlhZOVREMzNBbndpQThQWnctLUxGN05UMGpwS0h1bTRobmlKOWV5TnQxWE5WekEwQWJIRjlCV3NtTkZvbE8tQ3R4ZUxpRkRwaEQ3RFB0NEQ5ZmtoZTNac05PZkZEb3dqX2pHZVdHdXBZS0tTT192bXJfTU1kbHQyanF5M0hhUTdLLU9TRlctQVFlY3ZsT2lPT0U2STBrVVBfRnhUMTlIRGY4MnFnOVZqOENGddIBlgJBVV95cUxQRlh2dFA3cWVMOHhGS0tOZ2l2NWJpYjZBVmNmYlhSSHhIb1hRVkZPdHRfeXNNMEhFU01KNl84YW5qZ1lMMnBSSnZPY192Um9iZzI2NWRqeE5abVlXZEtEd0FmOVFCWmNCcU1YdEhHZkVuZ2R4Zi1palAtUS00blViQTJiMjBTSzVFTm9lU2JYd2xzckFXWDBVc0xWMDZMTVk4QW9tYW84LThXRE9tWGFkU1FFWXRDcmFaYk44OFViaTVzUml5N3Jad0p5d1A1LTh1X3J3SGZ4b1o1WU85eG52YmFuSkk0VkxwdGZVa1JMNFZmREhOZHZpUXVuSDYxQ0pzMjFvVy1iQms1bkcyRzZfRzdDTlAtZw?oc=5" xr:uid="{FAFF6B1F-8535-4E1E-B221-436B05A0566F}"/>
+    <hyperlink ref="C1260" r:id="rId275" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxQclF0YzUtbTlNZTRvaUE5ZnBmbW1JcmIwR0RTY0hHV2VvYUNldVZuT3hhVzhTWXJGVnltQ2FPeERiWXNISk9yc0o4Q0s1ZVpWcG9XNThYa19qR3RuVXVXNUhNUzBaSW9oM2lsWHA0M2ZCbjBOQmYtVEhyQlJNblVaYzVRekZGNVVtM2ZsVHZHbFBXWE5CcXBqRnlGNXRqRmNCUFZfUklzVFdGZWNhSDJteW9kQmY3Z052OEQ2ZGItY00xZGRadEVsbHNUQkVTQWZfTVpTdGlUalZENWhmbTVma3lwRndMYzhzbE1mZmlDMkJrV2pDbG0wRTVFcGNSUFUtZl9USWZ2ZkQzSnRkRjFieEViTdIBpwJBVV95cUxPbGY0U2sxUjloQ0hCYzl2emlyWVhoYV9VWW1lQVVwVHpDVFVjalhRRXR0TElSR3Vldndfal96U3FSRnV6NHMyN3FCcGk0UUxsZ1N1UklFcHBfamZOZ2V0Wmx4YWl5M1JxSWFTNHhuR2VwN1RUTkZfSGpGR0pXVHNrY2Y2Y2l2cVBGdUU2eGUySWt2RjFNZTZ6WXQwQVZMZEpBSms5bVJaM25zRklPZkVNY1FCeDYzaFB5MFlNNzEzUDJFRnRhczVtRGxlOHhCWE12TzllSFJLbFFOeHZGcWtFUVhPbFlWekxNUFpkam0wcVl5bEQxV0xIYUdLUlRXTk53TnJseXpoUDBHZ24yLWZoYmxvX1pQYkFjZHVQUFNtU3dkZGxodTJV?oc=5" xr:uid="{A1714777-534A-4DD5-B436-EABDA4D8A863}"/>
+    <hyperlink ref="C1261" r:id="rId276" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxOaEtlNXh5STBFdFlYTHg3cUt2T2JZTmtYMUFNMTdMNG9Ub3VPX0VHNWIydmw3S25hRU9oRGxNUERwdWhZRXZmZG51WDd0TmpJa1NrUVhqT2FleGNXdG5pZ2ZyTEdEbWdrdlVjSXJ5QzdfOEFrRy1QVmtLRFI0MGxieWktQ0xLX1BGdWl6c3dvelRFSHhrLUpNREJWRUJCMkROaGR5YXFn?oc=5" xr:uid="{B03767A9-C638-42AF-8DFC-24532309B973}"/>
+    <hyperlink ref="C1262" r:id="rId277" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNR2EyTUlnaWJTUk91ZDJQdkZXTFhDN3JXZ2QtTkM5bS1KWXhWQVc1OWc2eVBzRjRUazZWR3hVUW53cGFlQkNIRkE2eWxFcEtfVGJrX214WW1GZWo1WXVXemZoWFhVYVJweE1qZzA2S1lYM2Y0M1VDZWtYYnp3UzNqZXlIQ1BWYU9Pd0txc0VKaTM1aUxibUZNZWN2OG1mLWNHNG5XaGVBTndnQ1ZIc3UtZ1FnYk81NnAwODFhNXF6VDNrRmZZeEtZYmxR0gHXAUFVX3lxTE9kMGw5Wk44NU5IVDh3bVYzQmlubFk1Q2Y5cGkwdWRFemFIWEFGWG9DdXJ6NWdMdzF1Rzh0Mkw1bjNvMW9Jdk5Dd2J5TjVDSEFPTUtGbWhBNHVaTC1vTTVNd3I5MmwwNmxoc3dQUjU1bXljeGFVWDhadE1zdHF4c1lHSFktaHltaVF0MVhIQ0xGUEwwTS1qekgyQjJFTjZaLXhOQ1FUZjI1dHZzSFJiSUIxNnVRcDdjWHRTdUJvZGJRZUJ2dlpBQ2NWWXk4ZEVjOGowc1NNWnRZ?oc=5" xr:uid="{A5A97C82-55D3-48EB-A72A-78F115DC7AFE}"/>
+    <hyperlink ref="C1263" r:id="rId278" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxQX3BPOE5IRW5mLUdsdXluMzVwRVlIM0VaZGlGajFvazljQnRkSnZzQXlsU0lPSlFBaUd0WE5adWxwamd4dXF0VU0xbEgzcFhtcng5VGliSTJsNFFMVXV3OVdCdnROZFkzeVNWUWpfYlNUdWh5QWFQbWZ4dXh5T212V0MxVm03VGZZM0VaakE2dkFoR0lBZ044YnA2ZVNrQUMzeGdSakZ30gGrAUFVX3lxTFAtenVhSkotNVd1Sk5nUXRHNVllLU81bWFUUHVQc3lBTHJSbncxay1nbjR4eXdLdWVLbHVVVkVYbkVOQ0NfS3BuSlB3Z0N2T2htSXRkdVVvRDNtdGp2WHJLc2Z3X0tJWWxuc01qWmF6UjBaakdONTFQejRfZ2NLekRZOXo1WXY3bXZQMHluYWNIVlFYcDlHT1dubTF3Qy13OHgwR3VsS2stckZRbw?oc=5" xr:uid="{498B579C-AEBA-4CCD-825B-501B1D273EC3}"/>
+    <hyperlink ref="C1264" r:id="rId279" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxNN3BrQ3Npd1g3Z0lpTl9CWUhEN01MUUlOcTYzNVBvY2tnbVZCYVBvOXhELXQ0X1dLdlZYVkR1WnRnTTNnM20wbXJJam9SdlVJZnZZMTBMSTJLSUJqMFNBdXpKeE9vVEhHX1dKTkVTVzdoV0Y4V09FLVA2b2Z5Y3BYcFJKSVBabmoyUWotQWtMRDhGeU1NS1RNSzUtbDY3eURMUkduRWpTU2F4SHNBVUFpaThzS2trZGM5UThMT1lhd2R3VmZqZWtSczZVWkRYbDMxUVBBWlM4Uk83Tlo0cUZnTXRWbFdwcGFTMmFGa1hB0gHuAUFVX3lxTE96c2hBTEoyMHNuR2NVa0JaNkdjRjRIYl9qZkpQSGQzVEhUemczQXhQU2I3NV9ET2JjSXZGTnF1RTVqNGZVQ2FnRXpNWV84Q3loajV1Q1JlcVZsMmtXNm5qY2RBLUlWZ21zQXVDTGVrUHhQTlpBZHNrRl9lZXJNaGs3MDE3QU1OeGx0QjRaVG9yQjFDMXJhV09FZXlXN1NJbHV4aGpJVTNoTlowUTEtY0p2RXVtWlNsNDdiMXJZRW54aGpIcVYtZHFHOVQ4R2tsa0NQLUVfNnFpVjZsZmxfV29YNDd0bk0zdDJfM09XU3c?oc=5" xr:uid="{DC11697F-76D2-4A82-968E-C6AFF1B04679}"/>
+    <hyperlink ref="C1265" r:id="rId280" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxQSVpHeUxYazMxSEotSXdlVkhxVUlMTXhVdnNuV1c1TTczN3RnOExoV1ZxMHh6cFBvaTZYWTYxTkh2NFB1azZLN01URVdISzRfdlJSeWtsQi15OHRwWHllVXRYQnFfdURmeFZQRVZfZE9VcHZxVFJjbHRwQTlKN1lDQnpRazYwWjlqZDd3Vy1TdzBQSDRvOU41RzF5VDZFOWRoODhJRzhXVUgxNnhaS2F4cjZNT0d1dXhq?oc=5" xr:uid="{F39B95F9-8E51-4E95-A9B2-F59328A2C592}"/>
+    <hyperlink ref="C1266" r:id="rId281" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQaVBBTDRZU1ppRWRFSUFOWV8xR003SmUwQVl0YklTVHA3VmtZSy1Oa3FsQlVIdE9BMl8zNFpJNVNwT1cwLWRMa01BZm9aZnVxZ2c3NndydUZodzZlc2k0Q1dLdVVnWWVnemhBcHpYd1ZBWjcyelFJa284cEYtRXU1b0dfRTBBNjBPajMyRExUd1R3UmRBWXpzNzZqM25kTW84NEZYTVQ4dDZDcXVt?oc=5" xr:uid="{16BC411E-A900-4EAA-8024-01AEEFCDD090}"/>
+    <hyperlink ref="C1215" r:id="rId282" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxOdi1aQ0lDVXhpc1RjUjJMalcxSkZJaS0wUTJXWFk0by1zWC1HbDVkT05KaDJvaUFrV0xycGw0VEQyaC1BTzJ3QlpGMnd6dGJQUDdQSERNNlNBYmVMQkVVcV9XS3VCeldTcWd2STR0dmxzdXhRRXBOdVN0cWlyVTl6b3ByOE9EV2Q5T2dFMU44TzRlWVZrTW43Rk1pY1praHhXaHhOM2ZkUXNJczJCQmVaYkMzbElFblRtdjl1dURjbFg4R2VPaVNHaGlwcFE?oc=5" xr:uid="{59F7932E-6FBB-4811-8B4F-A09571E0F5D0}"/>
+    <hyperlink ref="C1016" r:id="rId283" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxQYjlfRldYeE1xNlNTWEFlZ1ZlWjEtQnpBdGd4alktazl1M3RrS1BqNVZtV0g3NFNyb0lRdy11ejNOYXo5X1p0Wmt3NGVhNzVUQWZoMFdYTlBJLTcxR19KV3VDdWhpWUtudHdobFlPRTk5VGRSOWI5c3ppTDQ3czZ3aVJXNkdCbTB6MFJaWTRBaWIxNHlVd0thcmJ5RVB6RkptU1hLdnVScjFRMTIzQ3drZ1FFdk0wWnN1NFlfMjlGdmxqejM4ZjNlbWF5bTlhRUVIUUhuMEpFVFZDMDc0NHNZaVNyVUpweVBhWmFKeXNPUmY3ZlBGbnRRYmF0U0FuYTA2MVHSAYcCQVVfeXFMTnVlRnFYV0NsX2hnZG9SeWphS21qTTFQdjZTTWhleVVZQjQ1WG5rRkRWNy1CbTlvaWl0OHp3V3FtSkZVQTY2SE1QX2tmNUdjUFZDdVIzeWY1WExNWmN1Mkd2MDZmbEpiMF9uRlViV2EyeVljV2YzZzZicTl4T20xTkI5QTh4SkZCcWVqaXA2M29Jc2MzWXJ6eVl3aXVKUTEtVlU1UTM0VXJxZk1JQURWRFFHV0VQc0R1c2tlVWNIakxtZ0NUdWRkeWs2WEVmWGRsSDNIVEN1WGdtQ1lyLVRZRGRVNDFwOU9RT0FXdmtKZGhCdXBpYmVKU0R0c211UDZhNXpvS1FfOHM?oc=5" xr:uid="{643A9859-1D95-478E-B968-0751F95999B6}"/>
+    <hyperlink ref="C1017" r:id="rId284" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPMzBaaVlWQ01sYnFRQkhNT0thSTV5d3dKWVJWRFJ6a19UX3dTT0tDcFhpWHpJclVjVTVrTndEeXB6dzZPZDZ1SE5ZNW9mNndDTTBONE1LMmJ6Z21mTzJoTS1ZLVRMSDJmdTVkQ21VNVBPemFDM3RyNzhDV1NPZUVReldwdk9GNk9KdDY2QXVZUXB4RkEwLWRGQkRFMTZ0aER3Sl9aczBFT194Y2FpZkc3U1NVVWZ2SW1tZ2VDTW9qUUdaX0FtejBV0gHbAUFVX3lxTE9oNEIwOVdsMWZQMGs5VDg2OFBhbHV1NVdtanpCYl8tWEk3WmFhaDNCMGlHWUdObG5JX3JjazFFcmlqR2hTMVNtY0NqTTZmbDdTUW5CYWxadnIteGR3LXpvTTNRc0F0b05KXzlBMzhLZGxkM3AtQ21MMlNVS2w3amYtejFDa19BaTFyQ0dVcVpXVUQ0bmFxeTNPS0VmWmQwUGNjSHg1TzM3YmR5ZUV5OURRdTM2angyZUt0YzdYNUxpNVlXREFFTDR3ZFZxaHh2UmhBbUNCdkJvVUMxSQ?oc=5" xr:uid="{5F3C49DA-587D-461B-8218-71DD9FFD2C9C}"/>
+    <hyperlink ref="C1018" r:id="rId285" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxPeWFmNEdBbDlnbm0zSmtkMmNzNW1ybUpyb0ttTUVnWVdiQ2RHblVuelNhcmpzakVSOWZ2SXpSSkxGcW1NTzVvRmJ2ZDdadDhBc3o5LWdHZHgtOUticGdscEJXc0w3ZVZpc0Z2QXBlWlZwel9ROC1zVG45TEtpcm1tNWYwREkwMWs4VzFjb3dKMDNUQ18zalctVjBaN1EyeGZKaGc?oc=5" xr:uid="{4C06EA42-8715-4D88-8058-7DBE30B816D4}"/>
+    <hyperlink ref="C1019" r:id="rId286" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxNSFNEQThEX0pfbGVfSTBvRGhyck84Ung0a3JCSTRHX3piRmlZbWstTEhWT192ekJ2M0hQZ0EtbnZ6OEZkaU92YnZXNnlycE91bU9lMVpBcUhuWHBDbS1ZT0N0NVFPMjFwY2hkNnNZMnJKZGVtU1NYLTg4X2pjQ1U0dW5IUDIyYTlPa3Q1SUFjUlRSMVlaU0trcGZkQUFzcFd3S3NqMTdScVBVWW03a2ExY1RrR1VsTHV0czZ2QVVsc2xHOFEtY1ljaNIByAFBVV95cUxPS1VCQ2pfS3pHRDIzT3d1QW1XQUVEQ1lsZHc5dkJTV0x4ZTJwTE9SSk9aSlB4WUlVcEYyTW5fdThIeWFHTm40dktUSGxsaHZkWmdEMWNhUjZGckxraHJLa2hwN29BaFIyaGJtcXVTQjBqWXZGOWlQN1NrTFNQZXluclBOQm1scDQ5YVlSUjFTQkcxV21fUFNkQ1F3NElFT1gxYXhHODhJdUdLZlgyb1hnbVg1QlAwSG9uUjE3MVBUYV9oaVhsTWVWbg?oc=5" xr:uid="{35B22C52-E1AA-42D7-B22D-F98D6820FD82}"/>
+    <hyperlink ref="C1020" r:id="rId287" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPVE5YeTVBOW92c0pybXRhUVNmemV4dlNfQ2ZWczVMdjVka3JXel9lWDQ4Nk5ia2RxZTR0aXBwMmtLUTJfbW9ablhob0x1TEpLUUdkWkRpVVVpS3p4NnFBRkNSZU5PeTR4U0t5WEZiS3YwTjBrRTZ6WVlBcUlvV1F6ZDdCOS1IbmszNnhyMDBHRDlLSmlvYWhOUGhRMDR1YjU3bUNDdHJNelQ?oc=5" xr:uid="{A99A458E-F0C4-413C-A077-3C18776DB77C}"/>
+    <hyperlink ref="C1021" r:id="rId288" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxPUDNfNGNycV9MdGRCbzZwM3VtX19mbkhuYlpRaWxTWmdIVzF0amYyeEpWNVlNQmxlMXd4TUlTSXc0NmZqbDh2bkNUd3daYzJGeEE5aWxXMG85dnF2Wjg2SUVoWXFMaHIzcW80bTVQUXRUTlZZaTNWMk13Z05nNmQ2Yi15YUo2aU1oZzQ2cUtxclNUWnZvYWZQZ25hMy1CN096anBqV2xLeUwwQW95aGtVbzdPSjlzTF9wQjlqN2h5YnZadzI4RW54Z2lRUHItSHdTYkdjTHl4SXNILUx2NlgwXzQ0ZlFtOFplSHI3Q2c0anctMlFQWlEwUGRqWFBPeEU0akHSAZwCQVVfeXFMTUtpaF9PdFBZbk85bjRicXpXNlg5N0FGaFBnNlk5aGl2cjJQel9VRnlKMUxjVl9SRkw5MFNsYU5CeVJjRGpGV3ZibVZsMTdBVzdUcEloWVdDTlE0Wld0TnVTVUZrU2hzdUpyaGNrR01tbkFKNldpam1xOE1SeU5mbDhoa0YwWXJtRnByNTV2c0VvZlJPRUhPU09pb2N0M0VCc1NoZFdYeXE3dzJOUFNaMFBhTU56Y1hFNUlUbjhjeUNVb2lVd2JTc2ZEbzJTVDA5WGFPOVBNaXZRelR4c0M3ZVlVaGZIOWF6RVZpYWtLLUl0NTFMdTNrQ282ZE5SNlcyemd0ckFDTlRCcXZONlppTW9TMTNTell0dHRwX3o?oc=5" xr:uid="{7C530C8D-EA7B-4A48-AB19-D8A6C39446F5}"/>
+    <hyperlink ref="C1224" r:id="rId289" display="https://news.google.com/rss/articles/CBMiqwJBVV95cUxPMGx5djRuSTJKNWszUlNLbWdXOHFfUGZrLUFPT19yMXFBMW1FRnRqUEo0Rk9GaDhKYjBpS3ZsMTc4RVF0YkhJWXJKOGd5UWZWU0FUS0Q5MFNtY1Nua0F5cWNZUXRTUTB4U21RWXlzZjVPTTI0NnhIbkx3Q3dsbW1vS1ZpRHljYjVCUXpZbTF4VXdQNmc0cjBQd211bXJDR1U3cXRHb2ZYMVhSMmVtY3k3VlJiRGFFTEVEUEkwYlJqNmppVGxCd2VYQi1BZ3ZYdW9mTTVwWEFWVXJMa0VkTmpYdnpMMFVJQndqVFdYOF9fUWRxSnpMdW54NUVvWlIzX3JzeUZSR1FnM2ZHZGNqVElCa1dWZ0syc2ZvbW5qNEZTZ2Z4aEFJaGdRMUtkTQ?oc=5" xr:uid="{F4BCBBD1-605F-49F8-9FF8-C08ECB83541F}"/>
+    <hyperlink ref="C1225" r:id="rId290" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxPQl8xanY2eGhnZ3hMTDNjQk9OMzdjR2padFQ2UTk2dXo2UEVDVlZUWXhnZU1JaXZZcHlHSG9mX1FJSmh6NHBBUkx4RjZocWxDV1BObGp5TW1oa1lsQmZicmpTZ0VBaGs3Mndhc2hBU2tSOGhlaGVkNU81YXVhRUJqVWJWR2p0TXFHaXhrbWVQTnNRcll6TFk1ZTVVeG9BdjZfazlac0xmbkp3ZUhvbHVBRzFIRC1LQVBuRkJPTmhzUjEtbHFrMlRtRG5JNEM3Zl9admJUMm9BNFZLb3pwX0I4X2NXOGFSQ3hpSlU2ZA?oc=5" xr:uid="{13ACE4BC-6BAC-4D66-BCFA-01FBE7C53ABD}"/>
+    <hyperlink ref="C1226" r:id="rId291" display="https://news.google.com/rss/articles/CBMikgJBVV95cUxPczZPYmR3ZmJ1U1ZHWmoyaUt0Z2QtRXpNOW4xYW0tZS14YlZwUDZ2eVdiUktoZzd3Y3VJU0ViRnZqLVh5dEtEWEo3VjVadzNBdzFxbEhJMUdfbmJDQmRrbHl4T09VeGpsaHRJSW5Hc2g0U1lHaGZlWm1MenF5eHlGYlVWckUwWkRvVjNDOTN4ajRocm5wSUg2VHNWOVV4R0VpNmpwTHZrM1JBWW1CQ1Y3azFlTXBMeWhyNndmM0NNSW8xSldlOGVURTFtU0VlV3lxUjFOMUxsbGc4R1ZVa2s2UWFZVVZSTVdzZmZGakFoSDVyNV9iemVvUmkzeFdjUTZvb3B5aWdDSkhCaS0tdFQ2UndR0gGsAkFVX3lxTE1lZG9Ba3dfRUpZNnJoX3p0YlhTcXdCNnlrMzhMNlFjUFlCSTBCakhCc1F5RTJmc1Z6Y3MzVWxzdFotdzZLYXRrQjlRVTBxN2NSUlFpcEx4aEVWRU4yZ1V6M21YSm02YjJxMUk1M3lsMFBSSWVwNFpLT3pJTUk5Q2plNzlNaDVIZUliRW9EY3RtN3BCSC1nRWt2bEtsaDlVaVRUSWVRZDltTmNLdnl2NzFueWVqUkhyYnJ3cVRtZ1lmS0Utdkc4X29BaWZKMzJYMnVNVEtpRjR4QlhBZUNBbEVQOGpFQUtnR0ZqMzFRNWJFOS1HX3RRMC1Td3BNQWFqcDVlZ0wzUWZuU1ZCSHdXRjJUQnBQZDFmSl9LRVZza1NsNGZ1U2kwTlZPUUNLUg?oc=5" xr:uid="{CDC554A6-397A-4826-AB46-52EE86F74B84}"/>
+    <hyperlink ref="C1227" r:id="rId292" display="https://news.google.com/rss/articles/CBMi_AFBVV95cUxNSUROTEkyc3dYWUZmc1M5T0FGYW5WMEVkYTJEM2xpak5SYlhkZUZ6RVpQUGJCSXJ5YU1OMGtKa2s3WjJXZmsyS3N1eHFhTHprSUZPcEQtRXRRa2pwRlFaYzlyampyTXdkZlVIOTFaVE1GRFZBZThSZDdjT2Q2Rmtmc2hOcjllRG9lbnRXX2o5WTZHQWNCZFZIbVdMMGx3VUlxQ3NTZmNyZVp4Skw0MnAzXzd6bGpkSXNDS1JXZFBqV01UZFB5NUp0WGd5Yy1iY2gzbFZjeXZnZU9EYmNOREtibmtpcG9GdXBfeGZnaWV2V3RIN3BJdm1WNUZOMTXSAZcCQVVfeXFMTkhwY1NLNjRmNzF3WmdQT09fNVpJa1NyLVR5QmpXUkE5ZXhZT3NwdlVGVGFUNG5sRDFWendQUmF3WkZ1SjRRMTZ4QnVpZjBBaGxqZ0psSWRWeXpHSXRseEh4Z0thSXVRODVYQ0V1cllPTm1BVFJvd2RidloyV25yd3VfTDhvdVFHdXZmTnhuS2tNVUVNRnJoV3ZWWVdQd210Rld4aWZBbTN6VW05eC1iZ1hYLXZEX2xpRmJDSnNZYW9tZExMdUIzX0JDNFNJbmo5VHB5NU1meEJpUGxrWFVZaUtGS08tbzZhbTJuSlIxVDFHa2U3ZnhPU2lhUDdCeG1ldFJJSFJPZGRSaGZmMUNsZHZtT25TZGQ4?oc=5" xr:uid="{AA8C37CE-268E-432F-AEB9-349F10074338}"/>
+    <hyperlink ref="C1228" r:id="rId293" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxPUTR0WFVxM3RJRzh6M0pZVXdvSnpBR3lldmJPN0UxemdJMGhFQ2dmWWxEcWI1aWlNYUR6U2RGdUNFN2Jia2x1ZFJRS1BhSWs1NDJRc2UxVWFFVWRnSVlHZFVYLU9kbU05dVNiSDk3bGRsSzB3bzBwdDQ0b19PTEVJVkRWRENuQmpqVS1hSkhVR19EbDk5MHpQZUtyMDlfVHNiZXhJNHNHZHRoX3NZQzZSdHFfMlpUeV9wNXNkMWJGeFZORFpqclc2V25aN0tkOENjdmxOZUFPX0g0a0RuSVF6WW1GdlJwUXdubUVIVmo1X07SAYsCQVVfeXFMTjFaLTh3WVE1aGdGTjI5eUlwSDcxTlFQanh4bVpVcU00bnB2TFZHMFlzQzFocUoyTzRlZjQza29lcXVCczY4TnBZaTBkV003eG1wekQ1VDJNUkRhTGFrbnJBRXM1X3hON0RZVU9LT1NRZ2Mxekk3ZTQ5NU5UMlJ5ODFaV1FuNFlRbnZuSXNVeU04RmhQamttX1hUa3ZEa2s5MHpoYmFSS2JZeEFBOGs5TVVreTh6ZXZ5ck1hOS1IRTd4VXZxTkNKNWhCZHh0dkZteWc5bjVyWVlFYmdYcFM4SElNRjJxSzRsWW8xVndWY2s5MXFtTWVIcnBfZlFXbjIxZEw3UlZvRU9zTXRj?oc=5" xr:uid="{0B7FBCC0-A606-44E9-8855-D94F9A83E90F}"/>
+    <hyperlink ref="C1223" r:id="rId294" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxNLVdjYkI3VHRYRjBGX1VOTlV2dXFXRHl6OHhKU3QycmowU05lci11ZU9VaVlPRGFDeTVoenZPUFJvVDlKZGRUaFJvc29NaF8wU1FHMzdxTTZicmliSFBMVU1ZX0Vfa0xFUy1MNGY0ek91LXVYOGJtbFJOd21ha3paLTJ2VDViNWxHMGsycXo2VlRkYTczdHozMU5rWmFublEwbWdKdm1keTFWZkhqZndxcVl6dDlfQ1JKVGpWX182T3RoeHk4QkxRcEFnV0F3eDF0ODBrb0U1X2tTemtIb2dDRi1fX2dYTVV0MlViT2lZbWU?oc=5" xr:uid="{4918ACEC-FA41-4F0F-B547-14D3D5269992}"/>
+    <hyperlink ref="C1216" r:id="rId295" display="https://news.google.com/rss/articles/CBMirgJBVV95cUxNUHRKNTFEYTgxYktxd2NwUUw1ZG9iVXJQUWd3TTZlTl8xcW9EOFJWbTJOTFJnMjVsaloydUl3ckxicHB0UUNQdG5GQUtsaVhBeHhLUjVkeWFPemJ5REtOQ2s5akhNNGRxYmRIMjZHOWUyXzJtLWg1cEpra2VMdEhlYnlSVjZmOHc5bjJ5V3VjNWdLcXJLYzJHcUpNVmUwcTFfUGgxdExiWk5BcnRtVHNBZGRpMEIxb1BPZU5xRHJBUldEYlJqcmJxZ1Q2UEExZy0tOTN1WUdheFpVTlBWZmZLVE9RREswUWpfd2gwNXlFQUtFaWJSYU1STzVIV0ZMVlpDczhYT09mT2V6aWY0dmVMTlJseklZeXVSTjdaLW1EOUxmdE5nVGtMNXRyUkZoQdIBswJBVV95cUxNeFpnRDRXLXlXaWNOdTFITVloQmllUS1aalM0YkcyeF8ydXozWGRmR0ZkeTFBZ0tqM211VFNmQ1hJUUk4cy13aXNjZDM2LXRGT2F6cDF2bHFfdWRhb256WmJwQ2FuTU01VlllT2pDeFNuR0oxT2FPd1FHSHZkdE5IMzc3SXJWMFQxT0FYVm43NDdfV3dnLUk5UVYzaWQtejljTHFFMHJaN0dibkpteF9VVnJiaEZ5cndMWmpDUGR3cHNLbEdCVzVQVWdSRlRrWkxqYXFHVGdJTkpKd0JEMjJ5ay0yZUVVVC1xWHVrVmRVVl9Xd1pmcEFmS3E1NzdYOHRUTEtoNG11ZGRrR2xCYlQyb1llWjhfMFVBc1QwLTlkY0wzaXJzZl93QnRTUHRVUDhMQUM0?oc=5" xr:uid="{CDD36FB4-EF3F-43E4-B5AC-85B71991918F}"/>
+    <hyperlink ref="C1217" r:id="rId296" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxQN2ZrY29McmZmUVNacUN4d3ZGQ1o3QkRQSVlPdERJc2xTX2FFekdFcGlQaU9Od0RueFRSY0FhM0xNLV9IbUZSV0p2azJYSXozcGtWTzZBOFNwbWxMaHVDODEyNGVkQTZmdzIza3M4R3c1MHZoM1pTTm5jbXpTeGZ4ZU9KX1FaTndMTXRBZERVZG45dlBtMFRFV1pSN0ptMFNkdXFZR3ZIWFk4WUc4TUtKVU54eEFJQ0QyRXdtZTltajNjV1FNM3h4ZVFzdkVwcmJxQkdLcW14b01hOGZEN05zYlY0QklSb2FOXzZKYVVsZ0V4dWlGQUc0N2lJNNIBgAJBVV95cUxNOUJVYk8tRldTY3ZsSEdYUFNNbFh1bnpISzJxOWxDenByOEc2WUxOMFpZX0FyVmkteFlfeFc2a0I3LTh1bC16dW9RWXM4YnpMc2I0UEJQT21uOGRDdWpMZ28yRXQ3c3BiRHI2R1ZaTnVRRGxyV21uVGlnQ0Nob2U1WDFBdW53U2JmNWRqUXNpdUdJMW1xbENLVnNsQ1Jwal9NMDhiVVBua255YWxCYkxvYmRWZ2luZEVzVmxXUlRzR0ZXQ3RncmRRT3FBOGZVcXlvOE1ycmpPdTVwdmRNOXZFRW96UnBpblBaUDVUTHJWX0FSWmNJMFNsb2tIYlpZeUFy?oc=5" xr:uid="{C7518B63-5086-44B9-ACD4-BA6F8ACD3EED}"/>
+    <hyperlink ref="C1218" r:id="rId297" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxQdUxZZFJFR1FFcXo0MTByQll3TW53UTR6Q2pOSzNDNXJ0TUdfN21nSm83SUJYNDNydTBkOFJiekFqWGhEUjZFR3dteUZVcGRuZngxdkVlV0ktUy1sNzJqY0dBeWgwZDcxTU9qM2hDRmU4Z3pJejdaTUNEU2dYTks5Xy1FYk1fNFFEalVYMmgtR2RuSzBhZVlLcWYwZjlxc25sb3RsR0FXZVkwRS1RRm45NGxpWDJIMkotUnliZHhvZ05YVlo2QUpuaDFsNzUzWXFCakNqSDVNb1FLUzNXbmRKNmcwa1ZlRzFIVlZJOGc4STFLME83U3FBdUpxTEJQVHZhOUNtQ2kxOTbSAZwCQVVfeXFMTTdWZ2JUNXBUY2NRaDBkcHo0N0xuNnZXUUstbHlQMjZJaWpra2w2N2RmV1VEY0NLSlV3WUZYZHpVQ3RueTVUaGd2NlVRQkZSTDAtRjJNNmpFRWpBbERxR1RyY1FFNkxNdTlhY1A3OTNzY1hDN0I4REFUVXkwQ0h2VU9tcUNyWkFBTHhLRU5JRi12Z2xReEtBaVlOakVSVnF0eUVVbXpLaWppTndoV0V0SzBNVnNiaWM0dHVIMXNlaWhnamNBREVQSzdLaXRRa0hoWDZfQlhNS0VfWDJIejJ2SlFJMXBsNkVQbmVmc28tMlBxUHJWOTA0RFR1THI3bXppdndzTTZNc3FvZ3VBa0RWZjFBX0xXTXpkTFFLajQ?oc=5" xr:uid="{4B3CEADF-FB89-476D-822F-66185C6502B4}"/>
+    <hyperlink ref="C1219" r:id="rId298" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQUEJiNGxjY3hGaS1VZk9sUXpQNlU5M2E3bFN1endoUHp1SU50Rlh4NUNjUEVhc2ZNaGdYV0JBd01HRXhISy1qdmN6S2JJdk9leGlhTk9NUXpHa0VKMVl3aEpxUThyZkR5RmNZajNoQnBLUXJrQjR0eDVtelFySDVmRFZ5cXV2RG1BZlVlbFVBd28tMnJ4dGozVHo3ZzI2aWpsLTlfb19qdkFlRnYwY2VmTm93RnlKbnRFTElHSWRYSTktaktkRnJGUVE5VTkxRHpfbV9CVEt30gHqAUFVX3lxTE15bU5JRlRxWFl1WnF2YmEya0ZtdkRmeUdENWJjdHJhc3A3N1VMa1J6WVdjTTlpYjFhZElzYk1WTGJ4SmZFOWNkZV9aMmFFMHZRSjM4NTROTGRPekdOQzNHbWdvb1M4TXJKbE8xbGtPV0Fud0RDemhENnlOTjdyVGNwbTVQbnY4VmJOQlI2QTJiN1VOR3VRVzF4VWN1U2lNYTM4amN0OXlubUMtTE1nRURzNDM4TkpQdEVIUlRpcGNMZWNXRzZjUUtVcks1YVppVnF1dng1RHA2R1NIcmlZSjF5OWxBdFBLdzViZw?oc=5" xr:uid="{BC9057BC-20B7-4659-84D6-CA95F453C227}"/>
+    <hyperlink ref="C1220" r:id="rId299" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxNTE96QVAzN3BRZl9oTHdibmd5U05DTTMtV0Q4RmJxZVg3aDR0bDZkQ0FjcTdDZ1lqbE1hZVgybG1Wck16enQ3R0FpQ0pvQWhkQWJXVXlqYW4xTjUwaFQ2RUhlOE1Kam9lVnN5WWVwU2RiZEpBX0hKMlpsdnduZVJMbjNMQ0FhengyVERYS0d2aHUxN1pRbEFRcWp0V3NjUkdVYWxYTjI0V1JRNDVJbWNFa1pYOVVsay1t0gG-AUFVX3lxTE50dXI3LTJQcWY4RHRHeTU3bXlwR21fTFhndkdIN0tKaUtvNkZlUVV5OVl6U3ZYNmRfcThrZUV4NjE0bFRHNzlnM3VDUlZaX1VoV1ppdmo4UjdqbkhnTDhsQndkb2FDenNtMTNTWEVxLTZEZ2pZdE8za0VJeTI3bVVDS1UxMzhrTS1udzdvTVBadXpCNkpmNnVYZWVpYVl3T3FQS2p4WnhORGsxTFlTWkFOYWNiNW9EekFpZEhfQmc?oc=5" xr:uid="{E4D18447-025B-4C48-ABA9-9470AA024EA8}"/>
+    <hyperlink ref="C1221" r:id="rId300" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxOeHEzQV9va2Z3emU0bDNBWHdqR1lNYkdScVBOaGthaUx0NGlxS3c1ZktsV0N5R2xUOUp1YmsxaTFrUkxJbE5NY0tqWFFPenVOUUVrb0VrSGs5cEM1WGNCcngxd0E3NUJIZ1RJdVVaOHNIWHV3MlFLTVRLaDNjaVNMWU5iRldyRmZzcmVfZHliUTE4c0NqMXdQMWpuNEdIcjVRNkxlUU9PWHdHS19tUzdGV1dlZXpiUDJlLXBqR1pPR1pKd19GcGhPdG1KeDAtbFF0MFFVemRn?oc=5" xr:uid="{674F8D40-7722-4B90-BE78-BD00561A8B77}"/>
+    <hyperlink ref="C1222" r:id="rId301" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxQbFJYWERVdDBRYVptMFJCVlNpWUZyaWZTQTl5d1ltbDV6dkdvZkh4NXRmaFFDbzFlWGdzdEdvQ0h6Uk9jRUM5dU1yelpBLVJvc1hLYnpLQjBaR2x1S1BJN3F4TFBHbTVtc2FodFlsS05LUDU4cXBwTmk1WXlkVUNWZDc1VFRNSWowUmRheGpfbk5yU0g4ZlhiWUluQUZNdFE1elZnQW9IWGdVWDRpR2pQRzBHSQ?oc=5" xr:uid="{91D5418B-20DF-4C01-962E-DA2E97F43DC9}"/>
+    <hyperlink ref="C1022" r:id="rId302" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxOR0R2ZURnN0R3R1ZvMFozZDJPY2htOWt3S1NWeFltZ0VmWms2MlhVOWg5MW90X1d2b09mbmNuRXZyc25ZeWotelotRVN1Rnk2SWxhX2hrRVN4RWJlZzBHbzFITlVYQ0R2ZjhpQnAtNWlFMWYyWVFHN1ZVTjF1aFUyY283SGNCVzM5NlA1RWttdVpvODVpcGRQaml3dFJnN2wxaENMUzNoc3VUMTZud19XQ19OMWVaaFRmc2c3Wm9DTnc2UHR6RVBDWGU4R0RnRzI0T2MzNG00WDQwenVD0gHcAUFVX3lxTE5HRHZlRGc3RHdHVm8wWjNkMk9jaG05a3dLU1Z4WW1nRWZaazYyWFU5aDkxb3RfV3ZvT2ZuY25FdnJzbll5ai16Wi1FU3VGeTZJbGFfaGtFU3hFYmVnMEdvMUhOVVhDRHZmOGlCcC01aUUxZjJZUUc3VlVOMXVoVTJjbzdIY0JXMzk2UDVFa211Wm84NWlwZFBqaXd0Umc3bDFoQ0xTM2hzdVQxNm53X1dDX04xZVpoVGZzZzdab0NOdzZQdHpFUENYZThHRGdHMjRPYzM0bTRYNDB6dUM?oc=5" xr:uid="{1CFFCC3C-5FD7-4882-98A8-8351D08537A0}"/>
+    <hyperlink ref="C1214" r:id="rId303" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxQQVg1QWIyR1Z3MmNkRkRNLVNPQmt2bC05b0p0RW4wa3VybmNIczYzQmtSbTh5aGlSMW1pV2V2VUlfaTVrZUltd1JnNU1KNXd6aXZCdXZDc044UlhtcGJqRVdKWmc2TG1tU29IYS1CajNOYUxoV2ZJRFBPTXNNZ1Z2Y3lsalR2eUFXWHJFU0I2WHFQY1pHZkc0NlpyUTNZMkxybklOZ1Fadm81MnZiTDdtalJqNUR2aUx3ZlN4V0RHXzBEaW5KQ0R2U0g1dlBrM0VyQmpNWVZZQm81dG9hN2xGaUdPZ9IB6AFBVV95cUxNZkYxWWR6VWtzVUxERjVSaDQ2MTk1NGZLNDN5cWtwYXBjN091QjZOLXRveG5ncFptR2FkdTBkZzdDSEFzMDBQNEFFT0RlUTFlM0tBdi03NXc3R2k0T2hpekd4bGoxUG11T011RXVtMkdfQUJoUDU1UDJJN3hpZFZ0dEVMZUltOTlrUzlvSlZBdEwwLUpYQmJ6VGY2NEtpcEF0SVprUDVLejhWN0JpM3V3TFpuLVp4Q2dZTUdxNVg3TWd6eFBEUGwtWEJseDJSdmJHdnBaWHpnSmFXMllyLTFvN0RGSkRYNnBs?oc=5" xr:uid="{D6DE0F24-BA9E-419E-9A65-9DEFEECD4C8A}"/>
+    <hyperlink ref="C1032" r:id="rId304" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxOSjVlU1BWdDRmaDA0ZTZNLTNSbHJPN1Q5dlNtQTRObW9DMzE5VGdZMm9kMjdQUkdsVFRqRWtGSEl1ZHFkcU1LdHc0S0xoSkk4Ym9yR1VHbVAtOHpJYktBanVjcmZ6aXdSMmItNG5jOGlqQmI1QUg5a0JqSWNjYjlMUUZaTjdGRnVIT1ByR3phTUlnVzRJS0VLWkt3TkdfOGNvekRTeVUxNUhWMGstdVQwcDdqUTNmbTRtckNMZkdpbHFCNlg5U3plTkVZZVp5RXBaZU5iWjlDNmpVc0VsdkdOckhPdlhNc3lyNFR4RlUzdkJwd9IB9wFBVV95cUxObndjdmlReHgtVGkxbGxVOE1xRjRvVGZfR1k5Z3gxMXdOc1FJRDl4LTJrNjNKU3hsM21uVExGNS12YklXaXZGYkF6cTBfS2FLVFljZTMxMU1STG1pelV4YnN6My11X2ZfN0kyNjYyUExnS1A3M29pbVJDQjlabnVpRmpPUk9NQlRfaWRubmVKZDg2Z2pGQVVwa01mQ1h0cGJ3enM3eVlHbkRSdHUzOC0ydnJjZEFGZDQyUmk1NG9RWnpBLWxfeDJxSDN5SnVDNnM1aS1YeURyMGkya3pNbTY2ck9pWncwSk03VHRQajY2WEJXY3pGMllB?oc=5" xr:uid="{C095FDB2-FE22-472F-B00B-DEEE7D047C66}"/>
+    <hyperlink ref="C1033" r:id="rId305" display="https://news.google.com/rss/articles/CBMiowJBVV95cUxOUUFIMk5VY2xCdXMxN2duLTk2NEhZc0ZQMVJiYnRUWEFWRElzdUxmbVpTSG1nNUNqUFNwbTBQbHN4M2diY1RpckJua2duYlAtZ2phSW85dlpGLU9VekludFlQOEVuWlpKSjN5aUsydDhhcjRJdVcwQjQ1b2JpNXVIOTdLQ0dsaVU3azhQSUx2c0Nac0VoNVpTRGNjXzZ3NnJMVUpPaEFNSGY1dWtxa0NtT2M0LVlUR3NkTmFrTXdHZ0dzTUxITm9LcWQwZXdvVDRhcHViRkRyTXY0cVpHbTVFc1FDdEVuX0pVaEZyQ2FsRFQzbGJCd2lxT1BCUGxMTFdjN0lYbVhWYkVvblUwR19tcmstZjRYTG1pVjRWdjBFalkzb1U?oc=5" xr:uid="{C0652DB3-B2CD-4240-A1BD-7C8882D22219}"/>
+    <hyperlink ref="C1034" r:id="rId306" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPMzBJMktWTnQyXzY4amZMRXo1cVJXRDk3ZnAwZVM3eENVTDdxVzdwSzdmbTl3ODU5Z1A0U2xZbWdfLS05M1lCNzBlUVQ3UV9tMEJQbU5kSWN3enpSRVk0M2FUQmVGQ05qQUhaV240ZDF3YldrX01VN3NTeEtnTlhoTkI3WnVBc1B5Smhia3RxTkZXMXliMThhcldKaFg5OU1WS21yM0pkck1ORzBIQ3lOVkExUF9TQlc1V3JVZm1QSk1GUW1jcHfSAdoBQVVfeXFMT251MDhBZDlGM01BLWtLWXVTLWlsbjg0bjNoOC02dHNPWkp4SkNHQW8ycWdGUE5hS2Y5YjUtN01iVm5jYkdranByNENfaDlWbGtFXzBrRGhIVHY2ZkItemlqOXRidzNyTHBwOTk1MWJxdE9DdUw0MEdvVjFrdkR0YlktejRhd2tHUm5Qemp2X0ZxdTFlOWhWTTIyeDZWUFVhRGE2UGtBRnViTGlmN2hOZVViZFNTRHpvb1ZMdWtXUG1WX3M4YWtOVnFCZi1nR2tTTC1WWTB4N29JOFE?oc=5" xr:uid="{25EDD7F4-7229-4E4B-A161-262F218F67CA}"/>
+    <hyperlink ref="C1052" r:id="rId307" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxQdlZyc3VCWkRhLVJjX3RPZWZwOG1ZTXpTdlR1SkU3TWJYanJWQTg3OGNZa3lSS05kamh5RE5fbmNqSVNGLWI3S0FXbXJuS1dfVTdvX01qbk1sTU9ybjhHSmZnMVJIdFBLWUN5dXEwZVF3dGFoejE0TUdtYnJLZHNUcnhYX1hpRmdSZDROTTRhZXFsZnRrdUhONlZSSmRrWGJER0RMSzNRMlF2R0E3dEhTdGxsWC0teDVKNlRBVDkxbUs0S3NlR1RoWk00WkVYbWVqT1ptWjQyMVZFcnVvY3llSW9nQTZnelVqSWJ2b25ORjd4MElXWF94VEpn0gH_AUFVX3lxTE0tamJZZ2twa3dQcXBZTWtPVXd1Znh3RnBWR1hrU3dkZTFPcDF2VmE2S2tGVTEzTVRoMDhoaGNoTC1vX3h0WGw2R19oTDRaTXViNl9uOERTMU9tZ0I0eUh1RENCdm1YN2ZlNkNNQ29XWGpobDk3SjVSVHBXZ2RrZjI5dEkwcHZzaGtCaHJPSXNwaEN4R1dCMEtuWUlfWXB4aXVsV3g0Z25ZOHpKczZZT1R0SWxqUlU5aEkyNGM4aDAtbWFmajRZb0RkVXktai1OSnZHQmppMlhGbXBHSWpEckdEcEZQejR6NEJWdl9vSlFBY09GNkhlRl8xbHo4amdfZw?oc=5" xr:uid="{00C7717F-E89A-45AE-B2D1-F69DF6A8A4F6}"/>
+    <hyperlink ref="C1067" r:id="rId308" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxOU2VrUzdUQThiUkV4ZU5hZUcyUDlSWlpFdTFOS2Q5TTdZbnNCTW94YlFDcnliRm1QbldnMEhpU0RGUzJaaHU4Q0pneTZfaVFEZzJhSE4zd2cxbVZOVXFSNU1JNjZXQUROZmNtM3pwUktobUxhQmxWUW5xOVF5elFrUDNFdXVVTzRNZ01CeFd1eXNtem81bnFlZGl4bFVQLXM4bUdTRzh6OUk3aTN2WlR0Mms1T3EzejZFYU03RHRMTDFXaEtiMlEybUFJNNIB3wFBVV95cUxNUWgyQVdBVmJZMk16RU1oV2dYMWRseFJXcG40bzRvREVKUlFNcjNiZkQ5aUxITWlISzZvUmlVSjlQR2FOb0VORi00VnBsVV80SHphNWpBY0QzX0s0djdDM21jUTllM1VVMTRyMFNxMk5tdDZNQ1B5VUZ0aXdxMWJPeUROZ3dFb00tbVM0ZDh3NjMtTVBqMmh2c1RzOXY3WVJIQzhVa0lwUWVjS19FWW0ydGs4NDBCYkh2YWsxM1cwWmRBd1hxcjlncHB5bUVhVFktUkp4eGtFMGhhSkFYX1Bj?oc=5" xr:uid="{54E2A4D9-60E5-4D42-A785-33D33BAA29F7}"/>
+    <hyperlink ref="C1245" r:id="rId309" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxNTWxVN1VqNEtFX243Qml1RENKM0QxcmVvOGFCTGdnVWpNRkZiYllZTTN0SG1UOXJaSnREckExaVJ3NGhqRVl0eEtZWDhGbnpWMkIwOGlXUEdHWnBpVFpnY2JtV0NRSkczd2tzbktDbGZUY2tPc2syVllNNmdFM29LZ1Fkd0IxbUlLWlZhc1BHX3B5OUp2TWRZQlFBZkJnTEVhbF94dklfVk9FSmxsX2hCd0d4YU91WGQyWkZIZmpDWk5ON1ZpSXfSAdMBQVVfeXFMT3NtemlyeGhBLXhpRlV0RzRwR1IyaFVlOWVsN1pvb3hxX3VqczZWY2h2b3JaWHdOLVM5dFZ3VGNyWlFSYUw2c3lUVVZhMGxDd2lacTFGQmxEVVAzYU1DS25NN2tSVFNMUzVMbktCQUx3clJZdksxd05sU1AxN19tcllpSlVSMU9PNEhsWkIzbUNucl9fYjVhZGx4UDd0aU1obGJielp2bE05UU0xRjZaUTBlLS1wYXNDOVlxdzBpZTZCWlFLNTkwX0RvZFdNb3lvdDRPcw?oc=5" xr:uid="{C6CA9C65-2655-426F-A15B-38D217BFF5A3}"/>
+    <hyperlink ref="C1246" r:id="rId310" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxOMTN4T2MwOUVrNWtzdmQtMXA5blE4QkVZZEk3a29kanBPb3lSZHh1TGVTUzhJdG9ZOHYzWlhqUE1zczF4bks2S0ZzdEt5U2t2am5XdzlBYnhQUElLRVRpWFdyYU1jeDVKNnlOTFF0VXBNUU1rZEJWYUtLUHpXb29tc2FMQm1qekktZzljcHkwYTNZVFZNTkktQjRFVExyblVrRnltRTFBamQxV2d5Q3QzdmtMWnZTeGE4SWZiZVNad1pZdTZISlBUN1lWbmpNTmtmVVZN?oc=5" xr:uid="{5EB3C5F8-0994-4233-833F-3192D714A8B6}"/>
+    <hyperlink ref="C1068" r:id="rId311" display="https://news.google.com/rss/articles/CBMilwJBVV95cUxPb2pqWXI4SmhnU1UxamZMRFkydXlwckVwRkU5RjBZbDM1Vmd0QlU3cmN4YWRsX1BRRlNnU2xjMXF2T29xancxVWRNcnB0VGktN25NVllkZURtTXFNODF4V1AwN3VEb2pnRmNFd3ByMDdOc3Z6NXhSUDVKWFNSR0FzOVFJU2g1RXA2YXp3THNVRml6SjZFUlRxd3ZEZGoyZ2NBZ3BLbEZVS2l1aDJXcUNUa290U2Y2V2R5VG1FQ1dFbzRCTW5fN1F0WFBxVWVhMmdSdlhyQjh1NHdWWHdIajhmM0ozWlhWTG9yVkRoa3o4R0FzX3RaeWFVcVBfek5FQjJnMzQwNGk1am0xTGprSHBuLWgxaHFjY2PSAZwCQVVfeXFMTm1FcUVmblhGQkcwTGNaMWl5cDNIRVdGWFFPaXZFbHE4bDZUS1BuRFJYRkJZa2R2bDByak5kbHdjS3NlYmdoVUxpRkp6N2dSOEowN0ZNYjdVdUJfeTU4VmtKWkNGU2JhVXFjMHRlZXJiMUJMZTllYkNEdmdmVHdxTVZTNUlzSV9ISzVNWW1DcUZ6VUhtNXZ3QUd3Z2lrbjF0VldYOEtwSFVJbllqMlc2Wk56NDZ4bnA0RUE4SjNuVFI0SE5ha0R3cDBSbktidWx6MFM4MVBKX3lLbzViYkFVSG5tN1p1NnloOXJrYnpQdDdNczJRb1FKdFJ5WllvZ25ubzRtQTBzZ2pqWmE0aG83ZTMzXzdiTmtaLXBjLWk?oc=5" xr:uid="{BB30C663-AEE4-4AA2-987F-1BA960DC70DE}"/>
+    <hyperlink ref="C1069" r:id="rId312" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxNT0o2MlJOOXdsMFZkcTdGdERxUnhJTEFvTm01dm5VUmNEbXhSckZsWE5RTE9maktmRjdrbERKX3hKbXpPWE4xbUd6czBmN0p6ZzNOQzhqLXIxN09iT0JCUjdiaGhxT2dvd3M0NEF6eDBqRVpjRlBIY0FwdWo4UW5uZVJJQWI4UW8wd293RzF0Mmttdi1Nb1RJX1Atb201SGNfX0QzUkpzUUxMbGFjYndodUZR0gG3AUFVX3lxTE9rNjdVZGdrTzFxVFh0bWx2M19YWC0zMFBwUmlicF8xSS1QaWNkUGktN3pqVzlFbmpEUEEyeS02dHFxeXA2OC1nSDhTbmNYSG12aWVndU5IZUljMDctX1AwS2JhRmRPbHJBT04xeEtDMlF6cDVueGZ5NmtUYVRZWmEtaXh4VEtHV2pSYk1ieG4zMFhqLVBlZC1DaE83WXBHb1RPeXZBR3FUNHhmSURYOWNaM1ZlQmsxMA?oc=5" xr:uid="{5023F9A4-8171-42BB-9ECA-59D60E8E929B}"/>
+    <hyperlink ref="C1070" r:id="rId313" display="https://news.google.com/rss/articles/CBMilAJBVV95cUxOWnZKZ2Q1RUZmb3o5Ql9rSjMtX3RzSVZNOWZQWWNlRW1TTlBxZ3NwcmdnLWc1NklwbDdIOThZQTk4MVAwY0cxUjNEWUpHZXhHVUlKV3JMdm1SbWpIdjcyZTNBV0RxYXNkWnFBZjg1dHQ4MTNBQnRXTFFmMkxmYTEzYXduZVBZX3FHb3hLQ1VTTy01WXBEaVRkNVM1VlkxUm1PcGJINmNab2ZKTnR1dkwwQmk5bFlOVERqVFdQcnZ5R1NDUzFDek15cEJLXzh1M3ZMeDVqQWVhQlZGMUhqbnl5NVo2RXZrSmhYTUFSbF9NZWZQUmN4VFRaY1lSeU1IZDZ6QXlRVy10UXN0MlNJX0ozZ0txc2bSAZoCQVVfeXFMTTNrZE0wdVV4YTM4UnJmRDJmeHZDeXVncDdfSFNQd0x4T0pJUjJBaU5RQlhodUdkOWZPOGgwMlZpMjlKYm16WmtvNDJDUmVRa0NDbTRPbk1fc1FYSEdZaUl3elNxbUp5N0RPNGpLT0JNWWowbjNkam5ORktoak00U3lxanhtSHZmMlFGeDRfekVQRmlfalotNmZEcWMydHVtSkZXVnpaQ3hqVFRsREpNSkVYX1Y2RWJqRXBKZllVWWJpVHBaSnY4bkpQengyb2xkTmJrLVZmTkJKbWdzNV9kajNVSUk0Qjd4NVdsRFVzTTdWQk9jWFlac3U5OFZVbDNBdy1DUDJ2ZzhFX21mVklETEFNcVZhNWpKTTFB?oc=5" xr:uid="{02C9C36F-E2F1-4C3D-97C0-093A96D2D714}"/>
+    <hyperlink ref="C1071" r:id="rId314" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxOY2lUanFQQlNnN19fakc1a3QxSEpwN2pWcjlmTkd5X2VGRWk3MVVMekh3WVRXU0RZV2dsamhTQkU3cnF0alQ5QlI3NFo1WmFpUDFqVW04VHVsZHQxRUViWHUteURTbmxEQnA2Ti1pWGJpdHlpaGo2Qjhyc3ctMlRVU0NqTE9kdHlkUEV0Mk1OTTFCU2NXRUdETS0wV2lmcWZfaHpKWjNCRzdpRU9FRy1TelplclA3bzB6OGwwY1piRWRhVzVoU3pldEpwMHJibk4wYTBUcTdlWGRFdWJDRlNLS0hFYTBDelEyQWI4aV9qeTZCb3Y2MmJIOGhB0gH_AUFVX3lxTE9YaWxvWHBMMW5aaHk4eDBqdGwxcHk3TV9GQzdvQWJERDcxcVBDcHhyWUpYZnJUNEZMZmRXdFlIWXR3NnN0RnZOR0NXbDhmS0JXVHZGSnFZTzJockd3ZWlkeGRwUEdlVkJZVVY1Q3k0TUZ4Qlc1ODN5THdQWktqcW5HbWhuRUQyZjgxWVRLejFfWndXb2hWelhwTVdNMXJaQkVjSmhUYk1JS0twSHdiNnlXWVhveUFPc3NUMVpTYWZOYmYxTEx1LTlleENWZGxtV3BqWUdncnhmX1haNUpNWVZTWkVlekF3QVc5MFJIY2RfMFdlZ3ptVkxaZS1qS0Vwcw?oc=5" xr:uid="{9094E592-9315-4D3A-B91D-6C55596811C2}"/>
+    <hyperlink ref="C1072" r:id="rId315" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxPZlkwOWg5V2RhRERiMG5CSDU4QUprSmp1WHlyM01hRWpvR3JlaEVUSWxSOUZFc2VQUi1DNjJHODNsWUFlbGZ0YVVEaUcxbkx3Rmh1NW51Vk85VjR0RFRTbXZMNmJkazNJNFppbml3Q1hKR0JjTFBQYlhjZWJaaURsdG16Wk5CZy1pak9WMG9fbEFlUVZBMkR5bkl1NXRLR0NSN09RWkJVbE43NVU0NnlscUVIdG5RRnNyc2VCdnlUMjZ4R3NFQTd6YmRNY3JrWi14eDVJUnd3cjZ3Y1pkSmV4WGdLUEfSAeoBQVVfeXFMUE9kc2xrMDMzWlRIeWhBa1E4TVNxSzdieDJCQlRhQ0JPU1FxQzJvMDdmQ1dRd2NmSjhxbjNiRmtGTnFFbGROd3EyM0p1alBUQXlvdFkyVGpiOHdwR3lLU011cERFem9IWlByT3YwOGltWG5mdjBPZ0RERDE0bWtoR19GSFF2bXNOSzZzYUtJbl81VXhvSXIxZmduWEllM1N3WGZ1VG9hV3BGYUE4RmR2djFuR1VNajk0M2hVVnRrbnhldW41akhtMHhFWUdDRTRPQkdIMlRybFZKcno3YU00c21SQjhNQkM3TFFn?oc=5" xr:uid="{137E13ED-7244-4B6F-9F07-DEA65618EE66}"/>
+    <hyperlink ref="C1073" r:id="rId316" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxQaEVYUEUydHZyX1M0SjlraTNaMEpXTWc1QXJ2dXJka2VMX3gzY3kzUWQzVHR4bVBPUk93akZYT0JXR29Ea0xPQXFvWEpJSUxJNFpjMUFJdjdWTWZPMzF4all4NHVoQzZVMW51Zm5qWEdtSTJ1dENUOVhSWW9nR25YNjVCaklrd090ckFPSHJKY3hiVEdUMHlnVGd2dm9lVTFfd2N4SXZKSm12dHM4QjdvUzRhYXMzUlNta0NMU1RfbEVldU5PZkNDdTk0aUhma1paZ0ljeS1jRkljeHRu0gHiAUFVX3lxTE42ZDNFLUhnU3U5OUxvbGdEeGtGaF9oTURzRXVseEdkZnZHOThLWDZ4bV9tR1luaWZkLU1GMUtVMGFQdVJ3UE5UM3BZQXU1bkREZHd3X3FzR2s4U1hEM1kwV29aUUo5bVJndncyNTZhVVNVYnRQQmlIaFVqY3lSR0lialdTeTZDblRNVXg0MzRJMXhMcUc4a3p2cGdLVGFSQUlkZmhJZW1VRi1hYlE5bTBPX3JYc2RlSU1zZFc0bEJpUFNzTGVjcndvWlFDVXRZZjlwSkZzWHc3RFJSU3NVR1dpRXc?oc=5" xr:uid="{AAD1F5D3-87C8-4D21-B468-2318264B0C47}"/>
+    <hyperlink ref="C1074" r:id="rId317" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxQYVBHT3kwSm9JOEFMRURBZ2huZHZ6cnpvVGd4QkxBLVNZUU9LMV8tbHBIanNoMzJXb0EzMG1jQVZFRlA1V3hPSXBfeHJRNE9NVHY1NmJwY1MyVHRPYkJVTzJDY09iRzdZZDJMc3Y5ZnF1bGdVNHR4ZVhjd3g0WU4zckhHeFF1djZ5bHNiSk1vUUhrZkpEOGxPektfZnpISHF1RUR5blEyeTMzZWtFWlpxbXFKdGRVNFpKLS1uSFNmcDBOSWs4aG1KVHg4b2l3dzYyM2NvSy1UeDl3Zmps0gHiAUFVX3lxTE5SX0pKNmYzOWZzQWtpMTNtQ0psSndxbFBjY0pxenFELWstaUkwZkZ4d0lxVmdqZXNoNkEzdG9kcG1DUVYtOTdidkdITGMtUHAwd0hRT041NlV2b1RrR21rY01BZ0xsYjJEazIzbVhZMW1qVldOR2V4dnpodGJWWE5TWDZuVDMyelVGeDdNa1l1dFZaMnZobzMya084Rklacm1oOExkVjJnVmhHa2pueXZXcXhRTGVJN015SlV4ODE4V1c4ZVNZVjY2Vk1OMkpmZ1k1WWhOaDNibXBTb1lLU3lrN0E?oc=5" xr:uid="{C12E4FD1-23BD-4549-BCA4-5D6D2B5F59C8}"/>
+    <hyperlink ref="C1075" r:id="rId318" display="https://news.google.com/rss/articles/CBMipgJBVV95cUxPZVFfaE5YZ2pQZGREUWpjenRsLXlxMmRaZVZ6YV9kTFBkbTlsWlNpVVVJZWw1bmNGQ01KcE51aTNSZ1VIeVU5QjlSU0ppcDlsazVvVlIzTDJpbGpGTFlKeC1hUXdRbG94akxvbnhRMENCMHlPRHE0RzVOcWEzd0w1Q0JlcFFkd0dGWkptSURzT2pIZ1l0dW10ZHh5dVBVNlhEb3pFc0ZnT3d3U0x0ZU5JMEdXMWluYXR0VU9rSlAtMFpZV3V1cmNBWWI0blVtV29PTzIyQVR4QU1FMEp3TXN6SWtTek9CWVBoa21KdzA4YXVwVExFV3MyRTNwenRiWVhkT0RIeGpCQUNTWUFXSmNRYkhGVW5GQzl6VGxMZHpaNEdsQy1zR1E?oc=5" xr:uid="{94F9E514-C702-43BA-BFE0-1EF55CEEDFA7}"/>
+    <hyperlink ref="C1076" r:id="rId319" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxNaGtteU1FQXBfel9UX2lFWEFBaUozMnNKbXpWa1Z6N1NVQUdMdTRHX0E5LTdNLVRfQWhhbFJrWEdIWHVuTVF4QmplWmREbF9rVTBpZHVHbWxYSFdmeElUN0xhbmtJSW5CRFMtd2s2TXdwdjhreURxNGZCclByVWJXY1VlcGFoUDZNZm1SSnJkZDFORXhDZ0FweGxyNGZGUTVIRWxFcTRnVXBfc0VEY2w5cXZfM3phbHVRbXJ1c0IzSHhSazg?oc=5" xr:uid="{4E492A02-0368-4975-BE95-D37C431D3062}"/>
+    <hyperlink ref="C1077" r:id="rId320" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxQLVlObWRKS2Y1cWdqR2JHVVliSEJGZmpSU2NjQm5JVGIxc0tvcDB5dzFvUTBsN1dLdzFuWnNNRGNhSlo0R3hIcVpJLUZwSWF6OHc4bExkZnhEbVFuZzl6M1ZRQVFwZ2ZOQTM0d1E0WWlVUHV0Zm9Ub1dhcFZycFplMlUycW5WanIxMVBRLWRmWnRBS2kyQlNuOHJwUEYxbTVFSENlRFdGTnBuR0pMQnQtWDZzQ1M2bWZrUVl5STNpQng0TmdNMFVtRGF3?oc=5" xr:uid="{83F40028-0E0C-4766-B826-1E7DC78957E3}"/>
+    <hyperlink ref="C1078" r:id="rId321" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxQdWpfeUYxMWlnbTlYcmxhS25sbVlOa2h5bFQ1d25LckFPTUFYLWFVaEZCMXJKampGcURtWHV1MWRJbndWZmo0bEtFVG82QTZxVnB1QW85QzNwSk1TTURPT1RFbDNhbmdNT2ZVUkxETEttUTZrNUd4QjdraVZtWkdSbFhQUVFFNWxoR1BYWmRLLWpsVGdkWEdfRlo5RzZUaXo4eU9xaXlQd01KYmFkTjNHTnV6X3VGOWhIRVhkb0lXRXE4NFQyUXc?oc=5" xr:uid="{EEA6701D-39F6-44B3-B040-9B8B8AE79858}"/>
+    <hyperlink ref="C1079" r:id="rId322" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxNODJ3VFp1TFdqNzR3djBOOHV0N05INkJBZ3ZSaWcyR2tOMUg0OHBpWHZIanlXUVpNM0d5UTN0V0RxWFNELU9JdzZjb0pQakRFWUxHTUhreElvT1dWN2tDQjVCVjNpMTAxTWtuVEYwNUJHQmY5d2RsUkwyQ2NsWnVqejQwd2kweVY5cHEzUDd0WmhIVk9fQ2J1Q3RSZEhkMGtmWnVsRTNJXzlKUm9iZjBEU0U2MnJaRVdtaEdR0gHAAUFVX3lxTE5XM1dCbVN5ZGMtMF85dkRqa2ZLSVcwZHNfNktRa0g3MFZJZGZibFdPdUZIVTl5U25NTXdOMjJ3aE1ham0zaDJRd1JTNjNjRVg0dmdzWjNUNmhFTWtrUm9qYWkxSC1zSE9sZ0pPYmdWUm56UmxwbldjTzdwWkRlcm9NbTNJRnBtQS1OcnlVbUZYUnk4eXFRdnVVVU41TTE1aTZJd3dqWXlwcExoOVJfR0JrYXFNQmdWb1hRazQtUkFHSg?oc=5" xr:uid="{F21876E8-C1FE-4BD5-8453-CEEF3F76258B}"/>
+    <hyperlink ref="C1080" r:id="rId323" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxPV3dEd1NpeDk4cVRmNnBFeHdvc3ZFMk10T2pjYzJ2UmJIeWtuTklzUDh2ajRjMDlIZlY2X1RJMVpqWGxqT3lESE9aYS0zc0dsanVMaVVEWmIwVEQtR3g4STNKb3BkUTdTeDhRemJIaWdlcDZramtoWVI2b0dJdGE3V1g3cEpKSl9mSDViMWFXd1F5enUzM2M0enlKMDNsU1BGRjJiMXJoUlZDOXoyN0NRMlhmdDRjRUIyUGFwVDZyM3pLcl84N3BUZV9xdU1mNE1WYWtz0gHYAUFVX3lxTE5RUzktWFR4MG9UTjJpS3Z5Nkc5bmQ0YkhTYjN2bE9QaW5UQkg4ejQ3M01lbl9jX3pLYVluZTdmc2FkcVowSHphTmFiUGtnNkRYenlHdE5oZXAweWl1UE8yanZzMmJaTC1LcGk3VlRQMDBJN2lmRi1PbG9xTFZQWUZrb1dYd2NFR3hvUndMQ0hLZGNaNFdybVliMHlkb3B5VU9qWk5rcVgwZmpzblZtbGplWUhLWHo2RTlHSFFjY0tkV0dwajgzLVFwdzFzemN4Z0Q4TGJPWVZWUA?oc=5" xr:uid="{B96E5C86-39FD-4D4B-BC53-DBBD74171F46}"/>
+    <hyperlink ref="C1081" r:id="rId324" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxQTTRDNmdJakxadG55UjNTZGRqUVpMQjByOHBNRnZnR0V4dTFZOXI4TWswYmhmN3VUemVVb25rTU11SjAyX2tsVEp4OVozal9lclNGanhvdUxBbWczTFdlU1BMVG9pVlV5ZVY5VjJoOXdEdGFfQk1WNUotVU9rR2JzSmZmZzNSS29hVDlxM3Z5Q3FtRWxNSVRPV3V5WExkQzdZUVpGRTRXd1NYR05NS2wxYUl6M2ZFMm5MY0dxNEdrSG1qZFB5a3cxOFB2TjhkUk9yUkcyYzVONVJJaVlqazdab2hnMWVaa0Y4YUJPWjdJd09SYmMt0gH6AUFVX3lxTFB3MmpNVmpLYnVtOGUtN09wRjRhNHN6ZHpjZ2FfdzVSNERGSmtmMnNoSS00elRZZ2FmTGY2TVc4Wk0xMWh5SVJzVWZUY3UyVEpfTDgydDV6eE5MQV9JTlRUT1l3Q3NRRDVGMzk3Q043dk1Xd0V3cTdkeTlockRjTHpzZjZFMHFINVpMYmhrQXFtV2FIakNKWVdNYllDZUFUc1U5eHk4aHlRNW1uSTIzZHNkbmplMlN4WkN5S2dhdlZkSGlObi1rNUlOQ0gzYmwwdVZ0ZEIzUlpQRVR6c2FxUGdaZ1p6TlVPdms4dEFvWkNXZ0FEeHJ1OW1KMWc?oc=5" xr:uid="{2AEB9F76-5A39-420A-ADD9-5183C5631487}"/>
+    <hyperlink ref="C1082" r:id="rId325" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxNN3RlMFplZ2MxZGVlWEtHRzJCNXJ1c0dvSlpNM01MUmxyWFkzY05kUFRHbVBuMFY5ckl0YTNkYkxCYS14T29qaWZBcWh0TTJrQllFNEcyZGRDVXU0cmhPdTN0LXZmS2hiSEJnNzJMaXh4RjljdW9LelFnVW1ZU2tLSUVVUm5lVHlBUDc5ZDZqeHdqRnlhYkMtTTNXNHlkRGZYZGlOR0tyTUtkNGJNd1VvSFRyLTY5UDRMdEJWN1F1ZHhBajNIVG5IV044Ul8tNkZWTmxoLTBXZXZGdzQzR3o2NEIyeVg3c3prTEJJUUpvREJ4QQ?oc=5" xr:uid="{274DB256-BCA3-470F-A2CB-D7C68A058DCC}"/>
+    <hyperlink ref="C1083" r:id="rId326" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxOYjQtOHl2YXN2dURwVFY4Q2g1Ukk4Um5sMTFNSm5GeXJSVGk3aThVWlVINnZvYU1hRm5YUktRRkpDWW9WOERJMFV4OTdGcUNlUE9OamZ3S1RoNDNsNFdRZHlIWFQ2SWNqeWdTby1nRlBYOERyWXNGZVN5c0s3RV8wWml5ZkNRSWJiS29WTE9sdk5hOWhxTlRGdElYRFZlZno3X0swVjh2U2VHR1B1bHNZQVAydTdHMUpJdjBV?oc=5" xr:uid="{AED9175F-FB3F-4FDA-9638-969724C5EECE}"/>
+    <hyperlink ref="C1084" r:id="rId327" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxPM1NkTDlxUmNXd1M5VEw1aGRiZlpqQWthOUt0X1h4YnA1SjVSQWlNTFZmdTlYbkVIUS04QzQ1R0VCc2tvYkRtU0NTcTU3ZlJ6QTFGOUJsaTVrTkMzNlo0YlJzRVQ0ZDByejgxNE9iZXdOS2lROXU2TUhSZWJqTFJEdkJZa0dIOEt2ZXZCM2RlcVRpSml6aFJ5RXE0Z05BcUE?oc=5" xr:uid="{2360C1A3-50DC-42D6-96A7-35495E5A9737}"/>
+    <hyperlink ref="C1085" r:id="rId328" display="https://news.google.com/rss/articles/CBMiwAJBVV95cUxOeUM0OUpFOWdnRnY5NERRYWY3U0NzeWo4NGdjSXNQLWVBQUhNZUgtNWpRU3k3VHhNdWZSeFlTVzY1NDBjWXVBUUF5dzhLTFdsMXltU2oyNkpOVDVNejc4VEdWTUotaHNTOXAzYjI3QmZYLW9mS29tcEZjTTk2eENjSUxKTzhnQVhDN0gtQW4zWXYwRTdlSUdvMTlTdkJ6Skh0cjlyOVRqUWNZUG9zcWtzT3ZlM29ZQ1pHbll3WGdSa1pib2xpdXNUTmR2eVdXby1CazkySExDT0wtTzRBeDBrd1IyOUJUbzZVN1VvN2JTWWc0Wm53MUl0VUFmdGlHdllaWFZkZVZQQTU0Q3NkcGxha051bklXWEtEQlJ4OENNRmxBQTlvdi03TkVWSllFWGE1Sm1zaTVmQjczUFotXzR1OQ?oc=5" xr:uid="{F2475029-9039-4AA3-85B1-5A6FE36ACE18}"/>
+    <hyperlink ref="C1086" r:id="rId329" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQX2E3NkxUWktxeXlGSjdTRk5CQkFYWTU5YnRxVDg4bWJXMGFoVmtacXJiTklHVnhua2JKMUJKNkktZnlNSkh4bnJNM0lEUVJoWG1MOF85V0NOQjNaeDZmbGFOSEJibUlaVHF2WlpWbFowQ2xLZWsydHFxcXoxeHRtd085cHVOZEVEQWR2Smxma2hzLWJMN0lhUktjYllPWFRHa2tmY1ByeG16WjFMNzJwdllnOU9uTm15Ql9Zb1JGV3prUTJFbUF4YWZTT0Q4cGFSMzFIZTNR?oc=5" xr:uid="{5BD5A05A-C03C-4215-8865-F9D8293D865A}"/>
+    <hyperlink ref="C1087" r:id="rId330" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNaGFoNmVhbThCcHZucVNOQndyRjhMaHUzTUxjcU1Gc0l3cDFtZFg3ZDVPQUZWRGxMMENYaVdoNk55bm12WUhzN1NUSkhjbEJLLXVKMWlRdWNsVWRLeGgtX29aamRjV1BmNTZYR1FHZC1UalowZlVSLWZZZXh5NzJlcVRhd2prVlBmaTdWZEpzQTBGWl92VldsVnY0VTczZEFfb2o5bk5tVWVENGFIX2hPVGJlTlBzdHNvZS0tT21BM0pJUXZfUGhiSVFB0gHkAUFVX3lxTE9DNXdUcUd1Skh5SE5lVkRKR2VzOTdRX3ROSHRyRF8tQUtXckZUVy12OFlaT1RYWXRJLTc0ZS1QN0hVUEE4dGZ5Uk1qbW1INmlKMzJsY00zWnh3SkVZRlktUFBmNEtrLVotLUZlS1k5aldfekxCLTdQOGY1NHh0UHV5Wkd1U1ZoVldCWUJZUXVySDdpTDhsNy1pU01MSWF0WGNTaGl1VzdGMmFCZkJtWXNZWl94bDVRNEhuTXliTDdvT2dyNUxxSGVzdVk1OHNqX2tNRHlRQUxTcjBxRDNVRnJRN2RXWA?oc=5" xr:uid="{EDCF7AFE-46B3-4E07-A5F4-9C1A7E033AA7}"/>
+    <hyperlink ref="C1088" r:id="rId331" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxNN1RjVkhwUG1rdU5ZT2F5QTJGQXg5Zm40WmdudVhlUWp3WjZKV1ZsaWtxcjFkZWtQYllSQTM5a3h1WjlWeDJkNTg0ZWRHV0tyV1NIZ0tRVU5WdnRibG15S2NwYy1yY1VOYThmdXFXbFNmTTVvb1FTcE5XeWxoX3JxdlZxS2trYkVwU3F2WnM4alp4cGRpMmFIajltM0xoVlUyclhMdktyY1M2eFJtMTQ3NzkybWc2d21vcGRMdEpoeVlYY1Zkd3RGdjFaYURDVVQ4ZlJSYnhpQjBMY1MyaTJrYUthT2lSeHdqakHSAYQCQVVfeXFMTTdGamdLTGx5ZjNGWE02RTJ0XzdGcDNSRFFrQWhkSWpsTG9MQmtkUVFvNFAyc0wxYnVRNGE2c0IxdVVUMWFQZklZeVRpQ2N5cmZjYXFFUnF5M18xNjNLM2tXY1ZkS0lsUEI5Ym12ak1yVGRsMjlvQ3ZzYzEtM0t6b2JKWmZneDAzQ0NGU0FBejRFYm56ek9zNzViLU93aWVJV0poWHhzc1ZGeVZDMGhyYXVxb3ZXZHlTeDdtR253dUdFMUhiU2hvTnk3U002NjRLTTVGZWs5OGw0dDFUTjBxcDhtb0RfaFFNWVBJOGdDVkd6NllleVIxbHY4REwyZ0MzUjRxM2c?oc=5" xr:uid="{94FF5E56-4745-4388-AA56-DF6641DC102C}"/>
+    <hyperlink ref="C1089" r:id="rId332" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxOYjhQNUlOcnBBWFhDNGlFbTlfWTdXTHlGQXAyWjBRZU5nb21wN0VZSTlBcmZlRUZRRHY4VUpfNXlSc21SOENwSmZQbWE1Q2ZFSUowaVdPeDBPQWFYTDBQLV9WeF9yM2dZbW5kanZfUjhVaXpOTDFEN1gtQU9ISzJXd0p1UENJeDVpdXpjWkJHMzRNUnJpejA3dHpicy1FcTRFc1I0OVBzVU53c3JYX0FpaGJUaHJqYXc3bUlfRFlfTy0yQWpKNUxoeHhzdXFqNEJjc2FqWHRyR0tRMXExY19PRTRCNNIB6AFBVV95cUxObHlrY2dlSkw0b2hNV210MHlhV3pwVTkwS3VNbDg1TzM2aXo5VTF5YnF4OEk2bzBCaVA0a3NPV1VBZ1NSV2huYm9PcDVPc0tCakM0MDRkcnJEcmM2dnJwT0oxQXBrR1U0cGlKMVNnbWJmRWlqUDZMOFkzVWxHWEpmY2w0SWhNMnFVMEp4QVhJeFJZTUNzbmMzb2tJUTV3MGREVjZfSzloRXBtU1dETVR3dlIzZThMNWVFdGI2WDBWUTd4eUpzcGlkT25GRkVEN2w4RWt6NHd0bXJ5YU94ZlBCTk1uaGM0U2RT?oc=5" xr:uid="{560AAF2F-8252-4D97-B373-3A7C85490223}"/>
+    <hyperlink ref="C1090" r:id="rId333" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxQUzlJbWhJd0JtMm0xUC1HRTJlZnFua3A2RHBMZXRISU5QMWt3R3BsWVBmNEROVkpLWmtLWWdaM0FYOWk0eGYzTFBOMnhQNTc2OUZGTnBpTUs5bVVUVUhDTmpNcEdoSTNSdnZIc1JBVzI3X1VaNG5aNU1oaGR5OGJCaEU0UzVGU3B6ZmdsejA5bDFFd3JaUWY0c3hHYVhCeTJ3WXEwTGRrMy1nekgtbEI4SWRUdDFHMXBWOUswSDZBZGlFeGctbHl6c1JpYU54NzJrc0VXcmkxR2RscTdIRE5SYWR3aEZRS1JNbFlkT0RPTjYtRzJ0bUR5bFVwMHd3YzDSAYQCQVVfeXFMUGlXUnhYT0ZUb1BMSXdZMlZhZmFGeXZjS05CY19Hcnk5cmlfbEZoVFlYdU5KSzl5ZDNqM0tBU01rRU1IZHZaS1VOWFlVZ2F6aDdUczNBQW9XbjZPUlNRUXl0dlA5ME1HZjVUNjRfWkhfZnc1QjlZMmpjbUt6MXlpNUJLbm9ZdlR2dmZpM1gxc0lMdHVJRC1LODB4eUR3UUFZX3NEcmJlY1g3V1ZqWmVXSVZFVUhmSmpyc2VvLThQLVhzeGl5aXlsVE5DNS1JTmlub2ZCVnNnaFVRbElQSTlzUWFqZm9FTlpSQV9wdVpqaEMzVEVZLVVLV0JhWnN4TGl5U2trVzA?oc=5" xr:uid="{B9DDF4F6-8299-488B-AE39-83B6ED5A98C6}"/>
+    <hyperlink ref="C1091" r:id="rId334" display="https://news.google.com/rss/articles/CBMilAJBVV95cUxQR0dlbGY1eWJRWmtvcmtIUVhkTlEtbTZjOFotVGsyUU1KUDR2Z0Z2NGFoLXI1WXZkWDZhRFJqeVE4MVh1SDUyUW5yNnJ2TGdOa1ZjclhIclZ4TkpDNV9ab2Y1VVA2cmtRTVZQMjRwdlFmMVVVMHIzc2UxcTNvcmNfVktUcGJPZ2VMUWRCRHpQMzNVRk1XUUYwUmdnTloyTW10YmZXSlBQVzNEc2hiUnhNaEx2M2l2eHJ3NFFpeE4tWmhGOFVHUWlxUU11dzZHQTZOV1VhdFhZbS0yRE5fdlhGZVNxcm9hUU4wNmVtVDN4UnZ6dEpCTmIzMk9uX0ItSVl4MjFRbzk5TFRsMm1DWTBKQVg3SEfSAZoCQVVfeXFMTllZVEJ3WG5LSEdVS0p4M2Nwbjl0MUF5cDRTb3pUTVR5aVhmZGpQcFpUanJMWEpuZ000akZVZFRSbmxhX0hYU2xlYjlhZTdwTkpIczA2SldfNG1GUm5qdEdwMjFHWDByOU9ubldqSzVERVJXWlVRdW43QVVBSWFmLUl3MDVocmZFQ1cwbmFnTWNUazBla0pxVmo0anpGWUVCdHYzUExIY1RQUTdDWWIxZWYyRjVfSGZHNEhPT0dGYTkwLUk0XzZJLTVJNHd0ak5PMzlfOFdqQlh3YzA1aG0tcWZ2dFUzcG92RkdBZUp0QlR6ckVHMDl5cjRkdHlLYlhiU0ZHNVktUmlpd2xscVlaYTFFVjlQejczTVBn?oc=5" xr:uid="{5658F9A1-9118-4028-BA66-DD972D973172}"/>
+    <hyperlink ref="C1092" r:id="rId335" display="https://news.google.com/rss/articles/CBMi6gFBVV95cUxPVzVUbXgtdVpQQ1V5b0ozSG81LUhZOHplQm1tY1Y4Wk9VLTJITkpoTUt4UEhHOUQ1U1F6YnJfTW9FM2RnYVZGVDJQSFdSZDU4ck9QVGNFODZnMEoydXpBNGlwNDU4bFZEd3BMWnpNNUxfSl92bHpvbW1WbEZDeWgxRGx6cGpoN1pabTBUaTZDeHV2eFFjQnV1TFNZVXRSa05fSmZmRFI2NTR4dXBXOHFfak95Rm1JalFYZkRVcTFMZmdEeWdXWFdydDdFRUtNZWp6V2FmOFJrLWk4Q1c3T2FRY1JYeTN2STZZNlHSAe8BQVVfeXFMTmtERFNJOTZmbm1SR1dOeG9RaDc0SFBSM2RMcmpCNWdFRkdieGE5Q0RuU2czMUpmTUJ2UWFXVFkyUUsxRXZxbzFVc0RpYUxscXNEYlhadTltaWxYM0hsRmRDSzNPbXAweW1CX0c1Y1BGZ3ZIM0FVNnRWaWxVSUhFelJ6R0NoaU5PZFV2dEI2aXJ3UE9VOGpfZVExU1pDV01jb096c1Vtdy03RHdrZHBCdVcyYm1rcV9lYnNxQjA3bW9DNjh3WVdsak5iSEFYMkRsSTdrZlBlNkNZdzQxZkVmazdzX1VKZUpkTnNtRDhFbG8?oc=5" xr:uid="{31FB165A-B7DB-45FF-B538-84F33961473B}"/>
+    <hyperlink ref="C1093" r:id="rId336" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxPMmVQSXRZXzlqdDBTbHFBSUJtSWhDY05sSjlOZEdXUXFkV1lXN2piOVh5LW9GX2twNmVKUVdOaXYzUG9tUE5yMEJiWG9nRkFtT1pzSVZNZ2xQazhqbGZOREsxa1VZcENHcVJCRnlXYW9iWkdQQ0ZyZ1B1V1lzUXBZOXBxcDRRclVmbGNOb3lsbUZNNEl1Q2dCX20zVmZDeHpMQ2lFQkN3Mm5kc0xJMXlQX2dJQmNNSkl2MmZacE5kaGRtQ2o5dmN6YVEzZHpyZ21SSS1DT0dIeHJqMU9VMWh6SGRHMzdzT0pHZ3F1S2JjMlpWOXJKZ25j0gH8AUFVX3lxTE5tQUwyR1dMNVF6MUlUWWdGejlPeUNRRFJNRm1YN3o1LUlnWDdaQmVDZUFIdmcxOWF0R2VnVW9oWU5qdmVVZTJONHQtNjZ0MXJISWNJaXM0SG9sbWhFR3JwYkJaYWVvSEd2dl9pSlZMZWtpemNEOFFhZDJTczRVY0EydlotbXVEWXJoZ3hRNi02UmZKRElPWnE5Wlo3ZUx1Y1U3NGNSOGNBVXB4WjVyYnJDTFBReDhDMEE4Y0xZRS1GcGN3Q3Z1UUhBN2dlYzhEd29laXE5el8wbXdXUlVwV0ZGb2xuSG1scF9XZ09NdzMzZExNZUw1UTYtSV8xNA?oc=5" xr:uid="{A1B70CA5-5041-452E-972D-2066C02223FB}"/>
+    <hyperlink ref="C1094" r:id="rId337" display="https://news.google.com/rss/articles/CBMiiwJBVV95cUxQSy1tRG5wSnctQVZOQVlsaFBjZEFzRUNuZmZNX1E0R1ZtbDkxZEZGYjhXQmVYMFdybFJURW9yNFI2VzlubHVlYUJRai0zNDcyNldYU3RZLUZYNDQtVXhMWU9LN05zLTNSX1pYY0lEOUJ2cDdfd0JFdU5YYUIxOS1kTmVXYkl3SkxOd1p1SGRfR2xfQ2NPc0pBbmZZY0pXUy1OeW1WTFlMM0NRbDdZWVNSZ0pja0l6azloR0ZhbUtyb21LTGgySVJVSnB2dWs1MTZTai00S2xxUlZfLWdqOWVkSFdNZjNtV3dmN2EwMEI5UFc2WVVyUkVwM2xSRGhNbC0tNFl5N1NYVlhubVXSAZACQVVfeXFMTlBKSGxmOXpzdG9hTzBWMGVHSXJ6SVhRMW5LME4zR0R5cEd3ZEN4R2g1RGh2OG1KWE9FTFRadExMbllhVGJzS1h0UUppdThEbmxyZndQcmMxemNwdG1aZlE0WW5EckxzLW11bzhfeFAtYTVSbWpjcUZHa1l5QkRfYk8tT2VhZ0ltTnZrNFV0X3hCZXFuMXQtWlAweTc3SHR1aDdOUEVUVU1ZbFpISzNHZTVuMEExbENiR2RSSWZFVFZoelhQQmhnY2p3YlZNTEtFTDFMekxCcHBWVnRfRGJteVdLbEUzZHAzekRKUkhTSDIzRWJJMkpoa0w3YkpoWnU4MkplOXJkMUI1N0k5U0ZYdHo?oc=5" xr:uid="{7F4B68C9-DF32-48DB-98D7-42DDF109EC70}"/>
+    <hyperlink ref="C1095" r:id="rId338" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxOaEp1YjlkREF0S0plZkZTUEY0RjhIZzFvMVZkNkxocG9ZQlhMS0VvRG1PaU5NNVhhelQxYkdTVlJGQUEycGpmajZyWU5BYzg0SkgzWFEyaU1BcTZWdzhITzZJYW9ZUEZjQm5lbUw5Nm1CYUVnek5OeDdkN2hxcE9XQXpVRjBCT2lIaURxWDF1Mjc3QTVjeEZpOER2LVZ2b1pfc0pIWks4RTZ4bGpXZnhLN3hzRVVudmVXWTJSUkhqQmNSQUFFNFpJZ1IyOWM5bFpva3VzTk5EMGZlSnhIRnNVYmZ5SmdrcTNEek9oOXVjcE5ya1dlRjBNcG1fVnBBeFdNLWh6bNIBigJBVV95cUxNX3pHSnZoOHlweUtBWDVPVXBPUDdXUHkzOWt6WENkSGs4OExkaE5CS08zYUxFX2UzVmkwMUxReFgzZWw4TFVXTHBYTGFvMDVzc0NoN21aNnVPRlU5TUdPMkF0anJrdW9BWXpSc1pPa1Ria0QyS1FUVEtXRGRDQWphZVp3Y2RzYlBnVmhOTi1oQXRKVkkyUE1IZGtHaGRKQUl1MF84UDlTODU4MC1mMWxjQTVSZVpLRGk2ZG1nWWstUGliMVpfU1pLckxVQVlQX3VzaG9YNVRhN2FwSVlSYTFBQ3llMFRXbUZCTTl1aEJSM1o5RmpReTY3dnpkdW1MaUxsaTIzZW5OS0hvdw?oc=5" xr:uid="{3F5E4B67-6CB1-47C1-BE87-B0B605B6D97E}"/>
+    <hyperlink ref="C1096" r:id="rId339" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxNOV91aVNlTVNidEFGTVFSOFBGdTFfYnJOT1FJSUxYdGFCTHYxblBCMW9ISktqbXlqWVZpRlRKVHZmNHJDc1psRUlpSXZJenc3Tmc2U2VtNTM0RkVpZHpuXy1OcktSaDQxVGVxTUEzNVJ6VUV6Q3prRXNVbHRaTW1lSXZHU1ZpbFpzNngwb0w2ZnVGdklJRVJXTEJqLTNxcnNfelRkcHdXRHBaZEtWamlmNWhMRWtGUnZEclV3cjluY0tqb05iUUZsV2tRRGVpOFlNYTR4VzVqazRIWC0wZU92M2YxRE9FeW1fRnItVmNNejNPMWZOc3dQQ1I1enZmWDY3bXFBNmpnX01WOEVpZ21jVlNoa9IBmAJBVV95cUxPSUIzX19HV3J0c1FpTG9sMWZUdGxxRWJ5eXZOU0twNHJoT0JpMzBNS01UandWZXZEUWdwZ2hSdXBINVNuRDdpSWJlR0FHcnVPMnBGaTRGdVJ0YjNMaEU3VkduX0tZekxWWUlQcEpFeVZGbWN3S21ZdTdpMjQ3V2Npb3NEWkswUURITGFXWWFSX1VaZFMzby1JbHpuY1RfVkVENmlsRFZ2Y09teWFWNmZYbEFtcllpcmxidDZrTUNJeC1mZkN1VlcyaDlaZnVLOVFhSjR4am1VZjFQZURnbDlScGQ4SjhKZHVjbGhJSUxNcldnWTBGd29YU0Rtb2w2WXNKbTRTZDR5V0UxaXRYSmkwNjBxTXZQb180?oc=5" xr:uid="{17BEB954-7E56-4F66-97F5-787513FC680F}"/>
+    <hyperlink ref="C1097" r:id="rId340" display="https://news.google.com/rss/articles/CBMijgJBVV95cUxQQU05MDh1bFRaUG5aMDRyZU0tdjlxaDdJOWUtaS1pbFJRcG9KTmNsNG9id0lCc2NnLXVuUXBEVzFBZUE1YWc4dkdhb1Nva280WG9YM25YVnE4b1BfTHpoNzJSYWJtNHhLQ01WMUhKbmV3SUJTSEtFX2tCdTZYeGFWRnphUXBQczNoNmRleXdvWU1pck4xX2oxZ05kd296ckJkN0JoNFd1WUVKUUc2clU5VEdaUE5VRVdJcjBnQmYxRUktTmhJTG1FaDZGbFF3dkNBUW51SFk5dk1YeWZOcEZlN053bVNWRXdfZE5CaUxTWW1hOFhlVDZ0OTVJZnJGRkVMMThMN0syblpNX0pGRkHSAZMCQVVfeXFMTU83ZngzR1Z6WF9YQTEzOVFseHYyQVJtZUNMNFV0S2ZrVDhBUXdKQlFaMl9LSGIzS1EteXVWcHhJaFlnQzlXeWVBbWRCN0VhVlcwMnRLZ0tXNDFrZ25YNGplTFM3VHp5bHpISXBTWU5MeEJxTWxHeElrbW5wVExGcmdDTmtybjRMLWg5VHdDTzZ3Z29XcFQzMXNQMG1pd1NuRmJhV3lKRGdKYnlwTWVoOGVuMnlfOHhhX29ZYTJtZWNoWl81d2lwMzVXLU9BZFo0dUZRX2xncGtSQzBGVDRNWi15Tkt0Zk1qSWh6a1pMZFNwa3J1c2xYaTI3RF82ZENLaV8wSXBEbnA2NnpOVW9kZV82RWs?oc=5" xr:uid="{0DDEE374-89CC-4F17-997C-D98357DB75BB}"/>
+    <hyperlink ref="C1098" r:id="rId341" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxPd2pBcDVNUlE0Rk9URGl4OURTdXNNYzJfN2k5Z3Y1YW1LQlR1N0UyT1ZyVzlPd1JUVi1idmZKUHFIa05Dc2g4b2xta1FXZTdwd1BZZUVOdDBFSGhNQmtFNjAweXBVQWIySHVaZC00eG1oQlhydm15U2VCLUI4eEhaMkhkWlNNVDR0S1laY3pXWXBhUk9GYkFtblRSeXBzZHo0ZF9BVEtRc1pvcWpfaWVBRXAtN1pYRW5LRV9EazMzYzlhTV9JbEh0ZHRfU2VHc1ROX3BMc21TcV9wdWpJS2tCRl9VVmRKZlVzNWtXVEQyM1RScDlYZkNMNGpR0gH_AUFVX3lxTFB4a3JJanZMOTUtMUthWFpLYVB0bjVXTlFuUWVmT2xXaXNUUHdCVGd1WXFvLW8xQ2h3UHo2RUdCc3FwUS1kc3ExSnFHWk5DWkNQQUJwZjlJVDBBdU1maGgzQmJTekdzMjgtQnJIOUFYNjBnbnJpY29ubEF4cFRzQ0RsVXlONEF6YlZZZkhkRUV1dC1ZVl9qMW1Za0dXVEZ1Y0tYRjBiNXkzZHVtZmJCTTVuR3lZSzdWcl8tOUFyMDBZS1lLWElmRmstVDhseWJuRlRuYmpmZlVKdkxRVzVDQzVlQ01Ud3pZSktlOWhpczNDc0J6b2xTM01qSkJPX3pEdw?oc=5" xr:uid="{987C2658-2E9A-4F29-BD56-91E819C8CEE4}"/>
+    <hyperlink ref="C1099" r:id="rId342" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxOUllOcTZyaTg4ZDJkTms0WGR0TG5oNndlaHpBUXZTZWZHajBrOXVaUWdfN2VzdkVZRExCa3pOSHVDSzFtQ1Z0OERqZy1LWWFuTlpXV1Bwa3dJNDRKdkR2cUI3Vk9OejV3cGVVemhZYjdiSWJPZ2tqeWs3SXhkYjlPOFl0WGpiTUc2Y1FDbmRIbERUc0h3R2Y4RkdreFJKVkR3UFVsaEo3R2pQdEZiRjBfOUlhMVhXR3FVNW51NUlCVTluLVR2MHFQeVhwNXNGRF9PNWkyaEN0UDM3NFNKVFFV0gHkAUFVX3lxTE9NUjhTT2I3UHZrc1o1VTJlSVFac0U1Q0JVT21TNnVya3BHVldUYU54OXBGWGYwU0VGX2xhRTJBQzE0SmZpTjQ4b2tpNFhmQzlZOFdZUTJyV0gwQ19nWVJrWlpjc0F3TEFGTTNjcXJyM0lXM0NoZkdhYkZJdnQ3YkUxSWQyMzRNYW9uTVh2cnhOeFBIZUFIV0xpUERUdGhOUjRIaERWUWt3UzdRU3QwTEMtdXF3UGFKem4zY0ZiMzdlanhrMWR2Vm02Q2ZYRm1VOGZsd0ZjUWNNNUl0YU81Q3VJQkNpMA?oc=5" xr:uid="{878D377B-CAF2-4BFD-8A49-D75FC271E14F}"/>
+    <hyperlink ref="C1100" r:id="rId343" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxQR1hSNjBDRGg0dnphN18tWUFPN0pSLUx6TUtnNjN6ak4tQTg4ZXlBZGlyREdDUlQ1QmVyd0JraXZVWjk5d3NkUWJRd0VyVVNYM3IzZFEtNloxTjltQ3R2YU5QNXAtS2gyMUdWZUNmdU9xUE5sel9HSEdGR196dWt2c0lJc0ZsX1JrNkhhZXpJaDlSTnRMaE1sdURGMG9OdzVpYWhqLTVtNTBjN1luLXZJaUwxamJ1Wmh5cHNaVXN2NHA3ZW5UTVAxOUJjS0VJbThXaFJxcElGUXlVSzdyTUpXbUZTVG9HWkFSeldfalFLRTJqUdIB9wFBVV95cUxQZlkzSGZZckVmMnVzTWR2Y2xYbVkxRTBTdndyTTdJcHNvNVZEby1oTFU4T0hjR1E0YldGNmVxZVFJNExPQm9aRUpSOWZOVlc1R0FBNm1oWmp4M3hsNkNvMU9mTUxRSlJVdnlENWhlUG1TeTA3SFdJSE1ObnpQWXZ1eV9QUGlzenNTcVNNLTNieC1xZlNzb0RLZVJmV3ZXSEp5VGVONjBnTE45Mzk2dEFuZXI2THEzeV9WUWJnQTFkMFZjN095NTltbklJXzNpeU5JMzZtYnVEbldXRHBiTnk5VFIwdHZ1WEwtS0twaTFuR180b2xHQXNN?oc=5" xr:uid="{A5E10295-FA43-47AC-AACA-66974C42F945}"/>
+    <hyperlink ref="C1101" r:id="rId344" display="https://news.google.com/rss/articles/CBMigwJBVV95cUxQc3ppM2FnOHk1NXRBX2ZNSFl1VkVXb2lOd2VJeUF1N3U2MUo1ZVFOY3JKUWJLaUJ2UHUyQmVTSm9samhwY0NQeDQ4YkZkcVpPbHFrbV9HS0gyMkV4NkUtQ0dkbDRGQUNFWVd4R01GVEFpM3RSRFpEc1hTdUJEZ2ZCVS1jT3NSalkydDA2ZktMcEY0b25zaExiSi1rS0d1cXZLX3VrUlZrVXdCeGtYMEZSMld4VHB3eEhmTEVlN0NOQ2ZSaHB1LWR3Y01WOW53Mk5xcUhNWTV4VGFEcFczeHQ4TmpOTHhEYktPZ2NmMGJsVS00elFIWW90bGgzcFVQeW9rYXZr0gGIAkFVX3lxTE04RjRjdFBpUWpZY2JyN1hUY3NCVjZ4ODBiRldFdGNxZm9Gc1RqREdINnRLTE1RSWJpejFhdFVmMTJaVlhaZzNzbTZQRGxkTVZYSDhva0xjaS03b1F2TDN3czV1UmEwU3RRblJKMndUX1RwbGFUa0ZzUkxxSWxTa1RDb0ZZaXNRdFRnTFV0dDZVLVFFUnVvb3dwUk9tYjRxYmZpcDlUckx3OS1Dbi15MWlBUWFFZHY1bEw3NlpFaEowTGJKNkVGMk1mc1pwOXlOeVJnaXRkQzlHS0lzak40dFI4dTlROXBaSUI1dHdiTE9mS2EyNkNfRjQzYWdhRUZPbUN6Z3lrbWxwOA?oc=5" xr:uid="{BFFADD1D-E1B4-4F78-B6A5-C71EE1DC096A}"/>
+    <hyperlink ref="C1102" r:id="rId345" display="https://news.google.com/rss/articles/CBMilgJBVV95cUxOakR3ZXJNSjlJUVMyRngxdzZGUng1MXlJVzRsb2dkT0Q1Z1B6RzhablNUb3RseGhBdnNEdW9hMEJYcHRmdmxLRl9PSmxsekxaTXVnR3J1cG1lVGJ5czdXOVhVTmlxaG1Gdk9BLUhESENTaUFkVExSZ1NrRXVwX1A3aVd0dlFWeFBWQnEzX1gwaDMtc1UyRDVLXzUzSmIteUxLWmZBSXZ1Q01HYl8tS2VmaTVLS0dIeXo3cUZYVVh4NF8xLW03UVBfbmV6bEQ2X3VwQmNhSjhSWElRVVdtdFlKanBTdlZNb1NTX3Q3V09XYW9odlE3ZHJ6Y0ZMand6R0JyRTA5dU5XQXpBWHU5Sk1CaFczOS1QZ9IBmwJBVV95cUxOLUxldlRTZmFDNzZZaFFjZ3NtVTZWckVPSGRySXpKOGo2bGN1RmJHSDFNV2hQaUZsbjJLOHVMa2t1TWZSQVZMWFpkbWpyVWplYWlyME1kWkZQYUpLa2ZLRWVmbW1hZjVaSmt2Q0t0ZWlBUEp0QmdsY3ZuQjFVcnkzdzdRa3BfVWJWc0NZbEEyTHdfY0tjd2lVdVdJeVhRWHZLRkY5eHAxQ2ZQM0dhMWU0UmRFMk5Pb3hOSm9FZ2RlYkg2X2FnYkNKNVg0NWxMb2ROc201R2gtNG5mRXhpTlJiQWtkQTdzUzJVSHA2RXg1U2JDVXp2SjlqVnpTNEx0aWhrVHZWVF9MZmwwTTJvUjlPdFZsbkF1c2ZEMkY0?oc=5" xr:uid="{30E6C9E6-D190-4401-A9F4-D286D3417BEE}"/>
+    <hyperlink ref="C1103" r:id="rId346" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNQ1paMFNtekhhb2VqV1lFbW5qVHRBejJXNERCWTdVSUFsMjRQb1I0NVlZLV9mejhGRHlRQjFEV1l0LU5oZXhlR0xabUlMZDYyNGRMV0VXMDNmR1lXcUJLUFJWdU5FWW1QREdscEpxQ05MT2NpRWRzcUFhTnNBQzVISFA5ZWJtVHRZYlpFZmlHYkxEcjJncGFxeE1QWVJQZmx3YlVkeG16T2otQ3hNRFpUUmV0OWgwLV9peEV3aEMtcFVIa25UQWpCZUp6VjlVbnZBbGVCaGNBZmZEaUZLVWxZ0gHkAUFVX3lxTE1CbE1vd1YxckV0WllwRjh3eVJXSVlyazNFYUp5U1RiOEtnd0xPMldqY2N3WVU1NmVLNDF0ei11RG9idlNHakVvSTlNY0s1WDNfTHU3T0tsc0NEeG5SYzh0ZXg2ZElDYVA4VVVvZFVGWW1icXV2NGUtMGM4aG1EWWxkRko4RXAxNmZ6MUxsclFUcDl5enQwRlBVMjJ4Q3NLUUxEX0hfWW01UTFOUzlWTExvQ0ZYVGpPTktrZG9iaFIyVWZCV2I5SEhrMmpERGpyTWFLWC1jLXJDRnhUMENWTW10WXYzVA?oc=5" xr:uid="{266E1C73-E487-45BC-8590-32F9A62D7BD4}"/>
+    <hyperlink ref="C1104" r:id="rId347" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxNVGE1TW01dzNFTWpNVm52TkxjdVIwREJJTlpjOXZvbmF5eEU0RUVydDN5X3pLOUdMdFViQkVEREpnRFJUaWk3ZDREaHFjNnZKbEJfdmdNbFhzSFBReUxLZWxxUXRJTTJtM04wOWJtSjNrV1cxZzZhdkpkNVBBaTZCNHpfZEQtakR5OHpCTWFPZW9YZGRwMUpXUzhrYkVOek54MDZLNzU3Q1plY1I3S3A1MzZmWnozSTUwY0lJRzZiVVJ4dVpzRDk4Q1RRLWgzWjc0a2J3U0dvOWp6T3VDM3hXeUZUdmJTSkhBbnpmMU5sQXjSAfYBQVVfeXFMTzlVanlRZTRQTWxKV2MyVUlQMjlRWXpwZU9sdnJKREpXcXZsUWFWUndWZHFWUmE3QlJnOE41emxIT3ZRMkFhTnlxbHFuS0NwOUs5NW92YTYyRDVSNUt5ZldIVEo3UG95OXNjakI1N250TnhNVFkxTWpyUTEyM3J0SkpCTFh2bWtVN1JlMnVIR3hwM19KZHdaaVdfbFcwWEZhN25ERHNMRWppS2RiRkpaSlBEZG1zazF1THVYT0xmWVduMFNlVU5mRG4tSHo0VXV4STU5V2lDdkp4MnRVN2d5SlNFMUFuTlhGbkRVNVhYSDg3bUZrOThB?oc=5" xr:uid="{960B669D-046B-404F-B83D-E329C95E45D3}"/>
+    <hyperlink ref="C1105" r:id="rId348" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPbElaSkkwa2RoWkVwQUIwVUJwWkd6RndiWEV0OEZJajlVV2pUcVVCdkhEdW1LRDZxZ2VNUWZBODhiNi1HSkdZX2xhcnlNb3JwLXcyOUw5S0ppcjNtVHpBOU5wU3ZoMzY1QkZ0UmhfZVlFbVcxNVllaVhScnRDVm8zOGhWUGJmS0dPS3NvSkpQUlQxUGdlN1hqbmIxMGlvZkFPOURTMEtqT1o2TDBiVGllNEhlZ1F4SW1RZjN3VWk4Q2V4dTlNbXNMUTBn0gHeAUFVX3lxTFBpb2ctQ2N1UlBqRTU0enhVUndTaGhkZ09Dc3BmeGFTamNLUkQxeHZ0a1RSeXo4ck42NDVLUmlYZFFCcGlYdTJBcjRQZGJYLURfbmJpRlJlcllVRUNEQnNlRjdxLWpEWWZMb0JPbmFpdkN1clJiejBzRDRkSlpFLWJSSEVQNmRac1N3eHN5Ylk1djhwSnZIYm5pUVZac1JGYTl2NF9Gajg5NE9SRVIyenNZU0V4SVhFMVRBLWNxX1diWWhlRFNPWFVNMERvNUhXM0UyN2lkUDdZTmlUWVF3dw?oc=5" xr:uid="{9A71660F-0E5F-4435-A9AF-DCB5003DCBBB}"/>
+    <hyperlink ref="C1106" r:id="rId349" display="https://news.google.com/rss/articles/CBMi2AFBVV95cUxQSURQaTRRUS1kcUktay1LWm1YaGNaSUR0VUZGbktGTGVZSU5HSUxyaE5ha2huSFZNbW1uZ2NRUGlZWU1Ea0ZZR3gxOWQ0Znl0MXVmSFlEVE91WmJmQU1WWVRrUEJEbGFwclpQVE5mWllYVS1aQm5TQlZxdHZhN3l0OWF2OVpFTTUxZTFld3pzS2g1WFl3OTJOVkFvRWUzZnpmdkNRajdGVFprZS1YMjFYV2E3QUdCN0Y3eWxCa3RyM2thb25vLXlYaFQ2RHFIT3pkZ3BEZ2M2S3rSAewBQVVfeXFMUFBYelFHSXpSVXgyaUhieXZNWkg3dktZQmlQMnI5WUN2Nmk4b0VGRnVROHJ3M3lVQnM3c3pDdURCQTBhd3lCN05ZeFdRUVZ0NFgxU0M0RjNhTkJ2dndDUFRQU3E1TXdvT2JTblN4Vnpnb2E0SlF6UGF2cXctUlRjUk9KcENwN2pJWVZiaUhmXzFFek92YktJanZ1Y3AyQk5DZkdaU2ZackZ2NFJuUDRMbnBXX1k4eVdsSmk4NEJVRi0tVTRjWDdBY1VKQnNvQVFMelhJNFpYNDlDVUZhSlJoLUVhRnBOVjBGckg5Rno?oc=5" xr:uid="{C10D0151-F998-4C54-8AD9-441C8FA4AEDE}"/>
+    <hyperlink ref="C1107" r:id="rId350" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxNZ3RXM0dZbXB4RDNrX1JWcjZ5WTAxN1NVWkJDbEpVX1ByMW9Pc2lzS0Zsc0RoZlM4aHB4Z2hxaXhhX2xhY2VXYmpkRTFnbWx4cDFUcEdEYlNua3FJREw4WlFsaWN4TjNjOEd1TGhXUFVpSG42SXRSOHRGRF9QOVpsS3llZGMyRGFuVHk4eE80bmdreWdrQTl6MEJ4MHZSX2wwRThGX0JBUHpvU3N2djhadjBRMNIBxwFBVV95cUxOV3l6TGlQWmIyQkNoRHktQkRtS3E1ZTBLUGxMdXJiamNpbkRwOUhyTVdBUzZ1QXB1VnF5OXV4eXZCUjhlODR0QmgyLU1GbXpPcXJfcHdWZDI0b2w5cUpwdWlrRk1TY2RxOUtlVVRVM3NjakhSZTk1TTVMbGZob3E3aFRPaXp5QkRMdGFVellNSjUzcEpMLTU3UWZtRlE2NlhEN2tHeXVLTGRlTmxZQTEtUy1STE1pUGlhWkUtQUdQWU5Od3BaZTBZ?oc=5" xr:uid="{6323B855-8110-40D2-B9BE-5C34B6260C76}"/>
+    <hyperlink ref="C1108" r:id="rId351" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxNX0otaG5sYjNkZXNDc0xMeGJoa3BGdC1ETHNyQkR2SE82dHE3cVhTVWZ4bHFfZlZxbTR1MFR2b0M3YzYyYnR3OXd5Z1FsV0xoNEI4ZnpKV1lLd2xxVjRfWmU4Y3JodkwzTEV4dzVfMFZiU0Rvb3FsT0FrbVN1T2RwS3FXaVhQQ2QzdXg1SjFfbkJKaUVQZ05RSTRoYXdQWFNKMTlEaGFsSWN0dERlYm8yUzlMR0JLRzNNRjJta2dFTndVTUJadTlnaXA2S1djNXdweVAwT01EcnRhd2RIT2V4LVdlNmpCd1I0WHF1VW9pVVctdTBGeTZxSdIBjAJBVV95cUxOb1M2cUEtd0R0UTQ5aE9xY2dXOVV3dk9GNmZWUWx4aVFGRzBQS3p6ZzlYbEZSNzN4UzNDa3pHM0REMkZNU2pGOUxJZXgxSHlzTGZnMV8xYmVDbS1hRmdHNGh5RXVHSlpnSjVaR1ZZUGVnbEkxOFB4bTRrbWxod3c3ejZybjdPUVJiVmlzd1hFMzM2TC0yWFlwUTdNWlhJVEZDckZrdW9aRVpEX0ZaenZmZF9DWTlIVy04dU9FS2x2S3c4SVlCeXdIRGNfRF9XSjhvUXctY2plSVpfbWdQc3hzMU9JRGlPX2VOTnUyRTF3NUVYUXQ3WjRBTlF0VGF1dklFYXpDeVFNaFdHb0wx?oc=5" xr:uid="{FC5A90CC-5E12-4107-8B55-75EA5ACF5DB8}"/>
+    <hyperlink ref="C1109" r:id="rId352" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxPbEtJcTRmSHFVVUlLbVk3cGlJbU9RRnJKNUNTdVhPSEw1SUxtam84MWtNZFdJVEllNUt2NVZxT244SHg0czJzZHh6dzZldGsyVmR1dG1KNkpGdWNGTTFlTjlJcXUyZFBZTm1Sam5zazJ5RVA4VFBJSUpfbzhIQXZuSldiRmV3Ykh6UFZ5NE5ZbjZpdmlzWHJHdlY0U2ZySHlYVFZjaHFOa3BMNHBrMFdXdW9oUTh6bEF4YWRiLWVpaXQ1MkZOZDd3bFVJU2pqQdIB4gFBVV95cUxQT2s3THd6NDJhejN2MTNPLTlvM0NUWHE2X2NTWGVBd3ZpV3g2em4xUm90XzhVMThrclFQdWVqSjFRejMwY3VFS3hFaV9fRlkwT2lpc3R4bXdXbTNETEgyZXdncWdOZzZneTFyS2tBMUVaRkZFS2NyTk1fYmJiUUhYeVZwWjdFZGZielZ6QUNCcTVNSHg4NEIxcUVPcGdlUkJPV1oydy1qZzZfVUd6Tkk3SVRsLXVrRVVXaUxKeldNMGlITEZ2ZVBfR3pTMVgyOW94VEhQTXdxd09lbHQ0SVpHQkVn?oc=5" xr:uid="{C32D3B70-CD88-4E1E-AA0C-83F121A8C34D}"/>
+    <hyperlink ref="C1110" r:id="rId353" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxQT3FLaEE2X3c1UzU3SnV2MXFEdXRGaGZOTF9RcXFrRzVodkxvWloxdGZSczRiYzN1ZDl6SjZqMnRUMHV5c21SUWpmTTZIbFlDYkRZR0UtUDA2b2NSbVExb3k5RklMSlVNWGl5SXgyLTJ0OGtQQWh4S3JkU0lESmRmOGpsV0dVVXpHSEtqV19laldDRVgxd2piNTJERk9TRHVQdmN2LXdCR0I5OGt2T1lUZzV4SjJlOVI3UUJxS0w1QUhqODdXcmNheTJqWTBrOHVYcFlqbTZoNWd5aFV5bXdCMdIB9AFBVV95cUxOeURJZ3FSR2p5VHIwMktlQ3BpN0JUMzVKTzRlZ3Zua1A4UlZOS3NBandqbzlqUFo3NTFqQnBNRmVIR3FicmoycERmTGVtOHdnZnlPalZNYWZfVXJQY2MyVjBpQk9JaEpwOGcxVmRocXFLT2VxVWgyNW9RcWYzRVZCNVVJWFdqX3d6eWtFdEJYZy1zYndGbVZqSTZaSC1pb0lGamZHUnpTT2puVjAtMl9XVVJlUllGY29zNjJDYnctaDJveUs3emdzUms2cjJMTXdsNDhMRTBjNjUtOEtNZGJON0U0bnpQMlVDVjBfUDZfVzlSX0M1?oc=5" xr:uid="{F7DB8E36-4226-4DDC-A80F-804C17520F4F}"/>
+    <hyperlink ref="C1111" r:id="rId354" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxNMGR5Y1NYclN3U3Y4VjVGLWtPanVXQnk0WmxTTDNIQW9OMFhCWS1NYW9EbDREWTBhbXFPZHo2NlRCbUdSbkpVZUJEV2VXU3lOM0dGbmJHVlF3QzZjMkJKY2RwQjA4eGF5TllrVGNyQ25TT0JmcjNKMjk3bkJDSTBBeU1aS1E5aDdhN2JXN1RHX0JERFVHWVlTNWxVSHVvQ1ViY29oaElJdnMzam45cTFsSy1Ob3hiU21RZ2psdGRsTTZsaDYwd0ZtWFE5SWZWaXpKNXfSAeYBQVVfeXFMTjAwLUVGUkhnSUxJQXhvUm5tQWJoSndxMlM1cGpPSGp3LXdlcGZ1b0E2aEV3WTllNURGbUFQenItUEJGUTlmUDhGb0p3eHppSmFQNGVabmFBMS16NU51RmFkOUNDd2hVcktpdGZmZ3hrbllDMk55a3g2S1Q4a3ZMamI3eEFPVkN2ZlA3YnRQeUZqd0J6dFN4bkpyR3ZuR0FXYnNabkRDM0FDN0QxQ3dkU0E0SEpzaDVXVE9yMDFHbE8wM2xnc3dkVmx0YURpYjMwQ01HWGx5ZlZBTjB2VVZldHFFSTM1WkE?oc=5" xr:uid="{66B0FF63-1045-44A4-851E-4B7FE3F35AD7}"/>
+    <hyperlink ref="C1112" r:id="rId355" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQQlhMQVJlTndqeVlMMDJJMGtaaG5PY1ZSaTh2TVhhOUd5QXFrZjJSdzB3VFV0a3RXcjl1QXUyMGFhZjJhczZwRkRfb1UzSlRKTVZDbU03S0IyaHc5SndlVG42MUhlMWMwb1dBSlF6bHNFNmlPYl9TOHZCVlpmSDhvY3NCTGlLYk9PWVN0aWtlWUVHTG1XWXl1Qkx5R3VNRFJtb2dyRjF0enl6UmU1ZE80MEthc3hzZmItdkdfR09TMC1uSmJqcFN5bmVwcF_SAcwBQVVfeXFMTVdpT2d0QkhQNEgwYWFiSXB1NjBWQVF0SVJFNE5UZHRvQ0ZqSWVjTEM2cG1DeXVPZ2xFanBOc3pURGd1UVFHQ3ZxTFdPVURnTmIzTk85bjc1QXc5UHZhbThOMDFyN3JocWJYYWhUakFvdW5YdV8xeVBvU3hQS2NDNU54TDA5eFBqVFJ5QTE1aWZWWjBsTFB1ZDFYOVBUN2xja01NLTJ1d1NpY0dCaEEtX3QxbXVxTDhPRHNRZTdrV1FJejFmRHFIVnQwU1Bs?oc=5" xr:uid="{C81D7DC2-7A9B-494D-88F6-26803AAA0014}"/>
+    <hyperlink ref="C1113" r:id="rId356" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxOVDk2eDltcGhReE1OeEY4V0M4SjZSTTlCWkR6cU5EUzFiZHo3NFVlTE1PYU03ckhjaXNzcDN4dFdjZnpYZjVnN0VvdTNkb2hXXzB3bHBUa1FuTWxZaG1jZHFUYktLemtiMHkxWUVYODRoS21TUXI4cG10YjA4c1lldllWQXZSZl8zUDhqZUJRY1J3ZVVBSDR6YzJ4QUE4QmZWdEdWXzdBM09fQ09YVXZoX1NYX2FaSnZhV1VnS29xeWZZM0RIQW1z0gHHAUFVX3lxTE50bUE0bGlweW9LcUxySFdHQ1hfNldIRkhHQTA0cXdCV0E0NGx1UWdjODBXRkVlM1JsaWFtQTRGbmk4bXJpYVgwb2VCSl9Ic29Bc3BWODVZSFpFVUh4OE9SbkhXcFZjVDNVMXJHUzJlRGNKYkxGRjlxeFNRT2M5emxqSThScVFwX1lZbGlCaUxITVNLOWFlbFFhdEt6SkMyRjlEVHY5aW44WlpsUFZkemU4X3RRTXJiaDJWcGc5VVBJUWZLTEdFTGc?oc=5" xr:uid="{F365DABA-503F-41E3-A7C3-BAEECB3ACE0D}"/>
+    <hyperlink ref="C1114" r:id="rId357" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxQTlFiNlhfOGUzMFJfcF9KNGZtZFQxYVk2OFFSUzRtR3V5cVRfY1VLUmhPWjNfOUtXQlExOVptSEZWaHROcnY4aTJLYUNnMTBzdUZHcC1tVG00LWRXYXhLV1VsdEExVllRZlV4OTVYb09LaFMxMk5KeHhCSlAzckdPX0YxVEZhMG1iRWo4SzN4bnZzamw2MlBPb2xjZEJvd2JHVHFpYUthMzNxZDk4c0HSAcIBQVVfeXFMT0RDVVhKVlVQRlMxbHlWcmRVVHdlQzRPQmZEVEx5WkVqZENtaVNsQk95YW5JblI4TmpUYkc2Tk9aVm9YeEx3LXVPZFg1U0dqMmxhXzVYMk91ZWc0djVJUVZGYVkyNDVTNFNNRkxVdnpqUGlxNlJKLWtxX0JRbm1oU3pHVEFUd1Nna2dkd1BfTERXRmIwT2lmMWVOMGIwUERJdWhudjI2NnB6M3dVU1l6b0t1TW40UktMUnFjTkUtMVJNdXc?oc=5" xr:uid="{C402591E-9795-4631-AFED-A7F8F99D4857}"/>
+    <hyperlink ref="C1115" r:id="rId358" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxOMXV6YWlTS2cwUm1Qc3ZORTZ2RTVnTk1wcGMwTzJUbElGR2pUQTdhNElXVDd4cHNmRWk0REhHY1Z4YnpfLWlHaVd5X1diY2lQb3ZhSnoyelc0ZWhzTGtkTnhiRWJHbzZ6NlkwYjMzeG9USERiWlh3aWZfZkFkUXVaNDBySVZEMFhpUjNFcG5LSjZoMENQSjVZV2hqTm96ZnpXcVNGaVU2QS03OWo4RENDUTY0dS1KS2xBQ1JVVXNJV0lhUWtqMHfSAcsBQVVfeXFMUG1ZYnQxNnhPWXg1Wk1vZVpkcHpTNjRycDVPRlhnTVNkZEkzbGcydnRCT2pBTG1PSExxQWZVRHdRRmJkVWtBc3RDeGJZZklvTmd5R3R5MS1jN21kQnpQdjBfejNzSll2LUl6TzRZOVZ4SkU1OFdHYU9hVl9sdEo2YXJqak9rOXVIbFRWUUt3V2xweDdxY2YxYzBQejB4MFQzSVAwZGp2ZDRxM21scmh2WnR3eG9UMExUR1M0d3ZZb1dKQnZyZ3liYnRuUTg?oc=5" xr:uid="{E8E1A222-F24C-498A-A436-21D72715AAA6}"/>
+    <hyperlink ref="C1116" r:id="rId359" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxQMEZ3ZkRDQk15RG9EclZ5bUNlNU9sTmVvekp3cHlsbjdGc1d0RHpsemRRbGZXY2w3ME40WUw1X09uc3VsYlk0dW12bWNQaUd0VlNrVkpXbHhTczN4dGZLNndfeDRYUjVUeXRmVGVTNmNhOUlzU05ydVVKZkVEdjJBanNHVVIzUjE0MjlJZGNBQ0pmUWtBWEpLSVpYZVlqc3Rtems3akdqSmhsYmFDa3MxSVRDQ3R0U3dLbXVoN0drOVZFTHhRZzd0YWlfUkFTd2tzd0HSAeYBQVVfeXFMT1VtUmk2VTNROXBQTkpVeGliSGs5YXpWM0g3LUx0YmFBMzJvdGpFbXFFZ2Q4SkZHQXE3ZHZMUXZPblYwZEVYVl8zNXE3RmJmUDlZVXROS2pZemo2aWhIR1BGdnlnU0VCZ1YtTVhPSUFUaHhxTkNOS0tvMW9rRDIxcUZ2a1FvTHV1dmI0SHdTbEJfektwZ2FHU0Z5c2pjTzdiUWxodnFvbGV6SWRMY1BqNzhhUExfZThaYzBVUS1CUEg3MlNIMmljbmozbGJrWlgxVThZNWEzS0tYM2s3MmY0akZscFFVWFE?oc=5" xr:uid="{26585D5D-7B45-4834-A579-DE30143A580C}"/>
+    <hyperlink ref="C1117" r:id="rId360" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxNeHBtOHRMYTRyVV8wVkcxd3h4OGdjS2tlX1hES3MzTUQ2bm1qdkxnb1g4RmJiQU9mNkl4TDNrQ1E5SGlLS0NJWFBkZ3FKeW9kWUNOWFgtckpSeU5SV1AzMjg2NjcyQVRMZkZ3NFNyOWFpa0pGVGtBcW1jQkNtU3hNek9RZWNfR19COUQ3RVg1R0xDVUhQV21ncjA0Ni10VmdB0gG0AUFVX3lxTFBQZ05JT1RCcWpvT3owaXpRQXlNdDFuV3ZxQmVfRWlvakdON29OODFTUHJlamVscXJWUzRtMk5MdktMaXQ4bFNnNHRpZ0NlV3E1WURvdFkzM1hTX09zTE9tV09LZUtpdXUteG96UHhPSHh1cnh0NG5zX2RETXRMTmxhd1Ezd2R3MDM0UmRydzNZeHY4elFzRE5qSXRJMjRZcUZmWjJGWGRDOUtoV3Ywc2FicnEtVw?oc=5" xr:uid="{1140BD24-572A-4B1B-832B-001B1329CCB5}"/>
+    <hyperlink ref="C1118" r:id="rId361" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxQeWl2NFVFTUtUTTJTTmJUQ1NLNS1rUldXZEd3MmJRQ24wY2lVM2pZdjJ2S1FXeklYT1ZGU21ON3pGdXI5azNMdWE2MlNWWmlvM2JJZkE5VmtUTVpWVF96Zk5OTXUyM3N6U2xFMlJZbnF1X1ljaXg2QkI5bU5HbGJXd01JMjNnWDE1Qmp6OE40TzRPWHdSeUV6UkItbDlVMnF2LTAtQmdnRk04OWVx0gHAAUFVX3lxTE1kb3FzcnVMV3o5b2hsemgyZHYwdUExenEwcDVxYnBxM29oZ2xvd3o3VlFSNVhfak5waXFCMnNRX0xBZWhJUEFqT0ptRWs3MXBHWVN6ejhIQ2R5RWU0YzJzUlJkRVRmREYzczJ4ZVBQcnpFZTBaS2VWVmRCRnhUNEEtQlQySDVuQ3RSa0lfWlNGWVAxa1ZLZDZJN1Q2UlhLbEFxa2o5SU9NOElYUFdqNzZTM2xSTmV3anp0c3A3YzFpMA?oc=5" xr:uid="{A8AAA23D-BE7D-4DA9-B0DC-021D1FE17E83}"/>
+    <hyperlink ref="C1119" r:id="rId362" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxQQzdPbU44eGpYN2t0bUVUNHV0SHBMMlByLXkxeUlWQThMcGpkR1B2cXBIa0pvVFN4Tl9JQnlFS3ZsRkNIb0YtM2ZJdUJHYlpPTklQVnFMeEw2VWNEd05tLWI2UW56aHdCSElVTmRrU0JyUnZqM3Z0RkM1SHo1YVlKd2VzRFU2Q1RLTGl3NTJMWVpNX0JNeVU0ZngzYVR3amY4WDBSYmd5aUNMV25kZkREbkZSM3RWdFdmODZLa0tMYkNZcDJCdU04a29BQW9QVjJ0cDJN0gHnAUFVX3lxTE9GY2RKZGZ6M3ZRWlBLNkJGWW1JaWxvSHlTY29WS28zZHJ5U0lMUXMyeG9pM2NtNk94OXE1cmY3Y1Z1ZGVVaFNxRnZobGF1OWcybjZoTkxuWGlYT3lWSWFpZnlvVTk3aUNnTGkxdW9nU1plbmJiUnNycXZ5V09kTnBzd1RYOHhGd1hteEZjOGNjaWg1d3FXN2VhR3hVcG9DenVTeUdzdklSSS1IN1laV0lQVmhsdk4yeE9fSWRXNUc4b2Voc2M4UWM2RVNtLUN4MFpVVmkwWnlVT1VkdGVpM1RNd3I0MXI3QQ?oc=5" xr:uid="{D167AF17-9CE5-4736-ADCC-B3E80230CB17}"/>
+    <hyperlink ref="C1120" r:id="rId363" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxQeHN4YTBISjBCekIyVmtuVlVhb2lqX1NXY0NDdm9RVVQwS3h3X3FmTFRCN0FtTmJRTUR4b012aEdqQjFIemc5QTE1TFV6X1BJTl9la3VkdUxxbjZsc1UwNWxtZEd2cGxnQ2RCQ2dzamREeFFtUWxSZkZEak1HZEhYRUY4eDNIb0NIc1pFRzhFU3AxVG5Ubkg4Zm1uSUQ0cHQ0TWo5S0Y5dVBXMjlEVkRrSTVwaWs2UdIBygFBVV95cUxONjVjRkpzWVlmbzVvV21zR25HVl9ldUppQTZkLUFSaGFaYUE3R3ItNWdPOWJYQm85STRpbVRBUEcyRDZUMFNENmc1ZFIxUnE4LURfcVdwTGdFMGxySkNobEZacVp5OV8zbGFlMnhXVDRwdVRTUUtWZVB3WWZrRHQyR2dFVDFJdHFSNUhpWng0bi1HVzFkNFBkc1FnMU54YTBnekdTM2FGVHFwZkQzS3lyUGozTWllOXl3N0Y2OVFUNGxXa2FnLUpSS0NR?oc=5" xr:uid="{6254145F-69E1-4E59-8F57-26F87BE06C17}"/>
+    <hyperlink ref="C1121" r:id="rId364" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxQWm02NU5Vb1VVZWRyNnBmTjRNNVByMUFKVVZSMWRuODBOekRpNlVKVDJOdWNWUkJUZVJQU2dLMTA2M0k1eWUxRC1yeUVBOG5vMHBmRnBCd2xZMjdmS0Z1dVpONnkzRmNLQW1NMWs3cDFpV3JrUlcyanVhemRVcUw1TjdWQ3g1eHRPeXhWb0lMdkMxQnhTdi1kV1V4QW9rLUJRNDNvcHBUcGItT21ObHJfbWFUUndHVXFwM05DUkZIcHQzRVdQLTlB0gHbAUFVX3lxTFB2cVV6NS0wMHBPdG9xeXRDMVhPOTFzOHgySTVaSzRjSUhUWU5GS3Z6cGtsNEd2UjJmc2trcnJicXhZdHZiSUJyeFVkbnkxUU96dm90TVFFQ1pEcXl3YlU5TVBDenI3bm5UbF9IQXROZy13TkJFZC04dXNjSU5meFctRHNoaFVfME1Pc0tkbEpYWG83S1BwTExXQlJNeHVKekpPTkU0Q21HQzF6Z0NZZFpTdEFMc3ZOY2dfQXMzNlZqQkhLZExtNHc4Ym03VU80ZHV6d2JKcWJTd0I2MA?oc=5" xr:uid="{2997DD25-1873-4D49-9CA3-7928A11F5BE2}"/>
+    <hyperlink ref="C1122" r:id="rId365" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxOd3BtVnRvQklHa1o5VzhNM2lTRk1fS2hSMUFGSVE1RUhxRFpqMlVlMzNUSkZDMWpUWmx0WlZRSlpvRWpNVFpPUjJHVzNqYUExX1QtdkZsYnFickdmQkV0RllRalFDempMeVdyb19vWFh3UVZ3MmJhc2hNWUhfLVM4czVCTlFyWmpKZTg0cWFibDNma0V3SUlVa2QtcG01QVRCUEplbG9aNm91dU1MTzl2ZmxUTG9TTkZ2bjh3ajlrb0xrT3hnai1WWURnSHNTaWJEZjBpZzZMZzNHUTB2eFpVVWpfd0VlcUM2TEF4dg?oc=5" xr:uid="{DC71F4EF-3C4D-4271-9A11-13DB65954ABE}"/>
+    <hyperlink ref="C1123" r:id="rId366" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxQNndSVy14d251VEtXUUplNGVhUmpuV3ROY0FWakMtVHA0VEFJRXU1b2wzMzdUMjlHNWt1VUVaV216SWpPRE0ydFFmV19Kc3ZkUzdLNnRvb2tISFQ0Q0RsZEZpa195SWpzRkR5RGZNaGtfNElDNzFyUVQ4a2tNQjJwVU1sd01sSjYtd3poVFZJbDNtT29oVUFmRXpQYVFUTW1oUDA5eW5ZdmlVS1hZQ0pQWXpSdEdaXzV6X0HSAb8BQVVfeXFMUHc2U29CSmRvSVk1VGU2UHRMSUYzSUYtc0JONVZmSzRVTzF4eFNBci1jTTNVUk9lYURaR0lFSHJDMGVFNHRqaWNUVEUyNlpOZU1qM1ZDaUh1dUYtRUpXd2hIS2FST29IcmVKOERGcjdkcGtlaGdEOFRpMURERHMxb1I0RDNkdEt6VUZORTVuVnRleVQ1WGc2c1NrR3FkYXBiU25SV0hlT2lDRWlaTG5xbkVoUHB5dl9ZRE4wMHZiYzg?oc=5" xr:uid="{FE079CB7-87F4-4822-8F33-8843FC431246}"/>
+    <hyperlink ref="C1124" r:id="rId367" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxNa3lhYTFGT2syUzhKRzVxVDh2c0daaHE5TkFqVHJFRWhTcmhWWk5zemlPRThndVF6bHY2aUFrcnFTWldVTTN0bjNtT2hsUTltbV96Y0wwWVZmSG1LWDd4TXNsM2E0MnhycHhUSjBSelFXU3VsbWhtM0pqRnpwUXVYTlhmV2laVEJZOG1vbGZwVkdrQ0cza05sbExuRWVudVNtaWRKRnA4TndNX1ZSd1hTSDlWdjR3NkhZcjVObGhTR3YtQjDSAcgBQVVfeXFMT25aNTNQcDRyU1dMVFhpZnhCNXFVblVmWDZLUEY2cHE1b2xzcDBiazM1Zms4STRjZXRBeVBNTTlvQjdYZ1BndFBLc1QyMU9MeHY1NGI0bkpvengtOFdtdGstZElfRVFNMjczdzZMTHhtU09JZmRwTDNpeWxQVU1COS1FbTlQdjlDS2R4T3VYT0thcGpNb2x2Z0U2dVhLVnJaY3drOVp5c01jSllYamRzS0lVdk5lQzNmYWhzTFlYZXYzT0o5Z05IYmc?oc=5" xr:uid="{2E24105C-C9C5-445B-9B2A-7B0961CF3FAD}"/>
+    <hyperlink ref="C1125" r:id="rId368" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxQTExtVWU2S1BLaUtvYjhzUnhSTjBoTXVGdmptQzE0ZVBYNXY0eXBYdGV5ZHhFMjFZWTlVVS0xeTJBc1gtWFpueFI5WlZCQnhkYktuVlpPSC1UWnNINUxoRXJkVk5lVGJXMjlQWjNHQ25iVEsxZV9XZmhBYy1Nb09zZ0JsZk9KWUpPZFFacF9kZmVmQy1ZQ1pHck96V0FCVUdjUi1NVGlBbDBrZWfSAbABQVVfeXFMTU1hS0dEMkw4Y2ZrWlRSa1ZhT3gwUkVoSldMOTRTRnZrSnhXd2xRcXpGa3VqMlE0Z005QVV5ZlRybm5PWURxdWhuZV9ULUgzbEhiSWVFa3YwOXBoQ2E2RmlBQlRGOGxuaVh1eUc2X2E5bV9XaVlSWmJVNmRZNkYyZ1NkYXd1bk84ZTYxRXBmYUFBZjI5XzFzWTN4TGVlb3hzV0hnX2s2b0dxcmNUcC1oYWE?oc=5" xr:uid="{EC82964D-6270-4E6D-9E44-314C9E5B0774}"/>
+    <hyperlink ref="C1126" r:id="rId369" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxQaUVXcHhDbFk5VER6NzNvTVlyUWg2eXJVd0wwamI4M3JBTVUyOC1YdlpVMUhOYlVOQVNHTHp6UXBjdkU1MWpaOWFtMjlfZXM2NnpERWpvZmFvMUJnTmktQnJuQVdWZWl5YUMtYXhQOWhWc2ZBSTBUVkVTcUxTbnEzV1h1NjVhaWNXNkVwX3lNaUpjSXdNamhTc09yWV9iYTVtTy13OXpqWnlsOW9KTjljSEVDU0zSAboBQVVfeXFMTzdKaDVuNU1nQU14S1NuSjlycEczX3loakdyS3ZNX2lXOGlxVG1YN2xRUEJGdHNXNVItVHQtSHVjQXlDWFUtc3hUOFVZZ3BuZ0RDQUVvZTU4ODdnM1Z4OW5PZE15QWJoOE15ZUxLMkdzSy1BLU1kVXdDNVBDTUE2b2NRLWxvSGJ4Xy1tOWkzbEJZYlBUaWtULTVmeng5UjBJeGp1NGJGdXU3REwwMDhJOTRfN3BNOXFpOHd3?oc=5" xr:uid="{6FE2B3ED-A803-4729-BBA6-AD09E05780C7}"/>
+    <hyperlink ref="C1127" r:id="rId370" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxOWUFsWFppT0t2N2lNYU5rZjJCSDhmU2t4dmV4SWduTERLeEY5aFV4ZVl6a2c1Mnl0dEtuNW5SNG96TXFrQVM2ZjlhUFg0WjQxUlBYTXNCSFNUUlNPeXdzd1FrTXMxTjNQUzlZYWI2T25pZjB1aWtRSFNyS2Vmdk1vUkZpOVB4eVNIZWhkNDhzM1duMVRxQ1JNdtIBngFBVV95cUxORlBXd09PX1RhRFhwUF9KVk82YVZKSHZrYWxuVksxOEh6MU05NnJhYmw4MEZtSVEzcXlsVWJSZ2J0clowR0Z2Z1E3WW9JSm05MzBjakNJSEhHM0pRNHRZSUJfdDFERFlwTDBIWlptd3gweWladkI5X3pOa0NXbHFLXzYzcWdRTkxPRUYtTjdzWGNFaFV5N2xOSW1EUFJ6QQ?oc=5" xr:uid="{07DA0B25-8B23-4CA9-86B4-816FF3E998DF}"/>
+    <hyperlink ref="C1128" r:id="rId371" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxQakFNV2lOOGlmeFp3Qml0UUJvWTJueVk4VGYzanFjTXRqd2ZtVDFXYkliT01tRnZXX1hoM0xKX2RzVUlqdjFSX1MtZ3dTVHhfTU5BaUxhd3FQZ0hacUlIblNXWURjdkhJUlJsakF5LV83ckJlb1RXQm0tUWZVUjdFTUxMR1RMUHBMQkI5bGs1MGQtZ29SekNkUDBXVVZIdEJJMktCcjRfMTF1aHZhYjIya1EwdF81dU1Za1HSAb8BQVVfeXFMT0o3STdScFdOOHNoT3k1WnAySzkzdEtXY3JCeWtfV2Nlbzc5b0E1M2dZdkJPTHE0Rkc3cjM3dHB6R0pFVmNYTnZFUDBYaEtVek1TeGc0WGRBSHh4bnljX1hveDVSTlhtOGdSTlRSMVpZQmhCN1V0M0J1UUNiSzc3Y28ya2Nya2MxRVh0ZlFhekNLanJZM3A0SjRUZVV6UjJWWXJkMFlzRzd0aVVyLUhYRUhlNXNseUk4MTc4dzg3aW8?oc=5" xr:uid="{DDA55B62-7152-4699-A3A3-BB4ABCB9ACFB}"/>
+    <hyperlink ref="C1129" r:id="rId372" xr:uid="{5D98E471-98E1-4EE8-AAAC-9043C256DC6C}"/>
+    <hyperlink ref="C1130" r:id="rId373" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxNQWtHblloN0JWWV9lY2JWcTRGOUNhQzMxTjlYRmdMbkpWQW1GeGdoVFJyRlBTQ1RKblFRYnRjeEQ0NUFkZF9feUQ0WlNQcVJ4WkpobUVuc0FLUFFET3V2NFc1Y3lSS2NQbEY1bEw3N25YTExWUjNaQVppaFNGbVhnTjUtempGZ2hfdW9tN1Nub3h2S3h2MWY2WllkYkE3SXdjM0RoUW1tQ0VNWDVqU292YkRmemVnMjdwTW5KeHVORUh3YzTSAcgBQVVfeXFMTkZOeGp2YmlOeVM2UE1GaHJvMy1KX3FpR0d0Z1p1TDZ2NXNKclZPaDFYMHYyUmxzV05EdVdqR1RIMkxWY3VOSGZmSGRuWjUzZzlmcXZCb3VTWUlwLV9BN0cyWlhsQklpbmVlSUNjNzJnR0pLQVpJLS1zSjFXaGZrMUZKZ0daY05EVjVFUnAzbEMtUlpRSXV5WDV4SVFzbEhKTzVIWmpUR0U0QjRpOS05eHpEY3g2XzNwVU9tZmtJVVZwSVh6QmkycE8?oc=5" xr:uid="{7488B4FF-9928-480F-A962-E1DD86CD1F8D}"/>
+    <hyperlink ref="C1131" r:id="rId374" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxNY2ZKeGx5VlpXRTdDQTNXc2k4NUtMZ3R0VllxNVBnc2s3V0pBUHRST25fVElJRjU3QWR6SXBhcnpXcERRRHV5bUl3elR4NmdUSlFKdm5OMTZwODAySVNDWnRnRWhubk1CbWlJVU5zWkxDN1ZkSzNzQmZKTTBOdTZPVDh6b1Q2MTI3OUxkVEtGTzNsSklDYjVTUThXQXhYaTdLQmJmaXZmM3F4S2hDeVFORVFn?oc=5" xr:uid="{F2EB9A70-DD1A-4A39-B882-CB91ABEA0055}"/>
+    <hyperlink ref="C1132" r:id="rId375" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxQQ2hrbWhmZGhFcmxuTmhBX2RVZ2lHRElLMUZDMmtEVGpMSkI3R2c5cmFsUWxxNVlJdzlSanYxS2M5ZWVFVzV6YWtLVkpoNl83blRkZ0haSGcweV82c0txdllQN3d0Mm9zWUJCQTNhYzA4WmZ3ZGgtbktWcE1HVFhLNEJ6bkVHUGlzaEpLTDBSNDBCeV9HaE5DZDlkRV9EVEdOUnZMcnE5b3BwWHFYTVE?oc=5" xr:uid="{D1A38B8F-82F3-4598-B2E8-5FEA810C1407}"/>
+    <hyperlink ref="C1133" r:id="rId376" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxPWC1UUmV3ejdzRnpuQ3NZalJjeXlCTVcwazNQc3NLX3RMdWlUcEZrT3dfLVdFUG0wcmt3TlpSWWdnYzlDX28yVzlKejVIM291ZnlzSmdiNktSM1lYRmFCaFdKZEVmSlZMaFliM3VUbkVhRXpRWVdISE1EaERDSl8xZDUtdXJKODJ4NGIyazU0b2pSaDlJNzdhZmxPejVaR28?oc=5" xr:uid="{84E3E311-1FBB-4E50-9FFE-34D0DFE3A235}"/>
+    <hyperlink ref="C1134" r:id="rId377" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxORTc3R0QzNVNEVEJqMmdkQkdOV1BXRTFfNElTQWlqdzhhdEY2bnZVa2tGY0dVY0VCV1dpTk9NVjNUOVgyTVBOQzNkdnRRTy1DZTZwZDBoVTE2TGpUekhnZy1yMTdIRHhSLVRGRk1PY25QeDdaNzIxbGNnTUpQQ2NQNWZWMHdSblNMNmtzTExPU2NZQUdIVnQ5dmFfVkZlek9PNzBxWnVKQlN4S3cya2FRUDVEWl80NXpfUHZHMA?oc=5" xr:uid="{54CEAA1B-C110-4678-90F7-A3B867AD48D0}"/>
+    <hyperlink ref="C1135" r:id="rId378" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxNUHh1cUFwR0xVaElDZG0zSlBSbW9reGdscTAwWkZIaVJaYVpuLTV5RllsSGZNdC1EMTlrVVRSSGtSNGlRM2ZBajZDeXJYZjlxOGs0SFRDQ1lQUTVydlNrRmdOZkRpY1JoVU84dDU5eVV6T0JCNVhVcUV3YzFscGQwS1JueW5oY0Q0VWQtM0lIQm1TVE5xOXdsbjFRcFZWYnBYU0lRXzlR?oc=5" xr:uid="{9475A54D-6801-40B5-AB41-D1078BB8870D}"/>
+    <hyperlink ref="C1136" r:id="rId379" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxOaDI4SHRKUV9OSVprM0p4ZllKTWRMMHNjNFUxMzZWa3ZVN2QxYS11a083SWJ3c2FIam84RExOTEp4cTIyYmhZaUJGMEY3OFNKQzNjTGR0emhGSTFZRHpKSnRqZlJoSHAtNm9oeC02Mnl2OUFrYkZfRmxjWFVncFRVa2pfR2FtTnlGREp0Ym1iSXkxRUR2dHBjdTlnd01hV210dkRWNE5ZN0xfbjJWVHhZczBjQk9QOEcxLVVKTndjc1dBN0Vud01sLTFjcWRUdEhYY3fSAewBQVVfeXFMTWdUcW9GOUtYOE9aRkxqMXVRTTRIUzJGSU1FM0N5Z2FqS0lfRzJETG10dnNCOVA0TV9xR1J0Q3MxTlk4UFA5WU12bGVVelUwbkNkMEt3YUpNWTV6NzJYOHE2OGZ2WlQ4bWNQRWJtVkdvbTd5VHdud3pDUDk4bHhCU1NrRGRQeVp1TmI4LWcyamRfTk9uQU5sWUlvbzVTXzhkbXhtY19lcVJGeWQyckxjcjhObTJLRlJjZVl0WEZNZnhuYkpKWEFIZDJXOFhCVkxXYXd2UC1ucFBvMFROWXZSVHdiZEpXdkNlc05CMTE?oc=5" xr:uid="{3D6C3C54-EB5F-4A89-BAF4-DC1E32AF374A}"/>
+    <hyperlink ref="C1137" r:id="rId380" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxNQW1OVDAzVDZUc1RNY0poMlZaVDlrcU95UGJMRzdIbDFGNE8xV3pOVTBBMTdaMUQzUUZaRFZkM2kwMlA3cDAtNEZBTW0xc3daSDBhdWlpSnE1RWViNHRndE9DLUk0X2NLYnNORUlvS1ppa2drbUJCSVQzZWZsSTUzRUFGbndLdUFvNDBPTUZYaDZTa0x5OWlqZkNuNFFyQXV2MzFRN3JEVHZyV3Q2dlNKWFBfdDY5RVF1akhSemw5c2FBTDZvNmYwdC1sUHlfTGVacV9iaw?oc=5" xr:uid="{E0F95FDB-2FE1-4635-9456-4B269D3A4CD9}"/>
+    <hyperlink ref="C1138" r:id="rId381" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxQMkZiRGtJWXFSQVpsUlhaMm01UFBRa2hTeDB1VlVnM3NKTmVhaGd0VVpTYWVBR3kwR2c0U0hkaHZ3VU1yWkpCZDRWY2JCX0VSRnhmbXZIT3ZTMEJoRm03Y0ZoU0JyZmt2QlNQZUJKVF9PRXpLWVdSVm9mRVJPLTUtVUJaTW1LcnhmTDlLeE5vY1FKcW1pX0RJWlAyOGt0SklqN1A2bllhRTEyTEJwTlNXQXRta2hkcFpBZWVPRGpsWV84RzNqeEsxOEZ6WmR1ci1IOXMtSzRRZl8xcWpLUmN0Y9IB-wFBVV95cUxPVVdiaU8wQ3VjdWVQMEUzdVg1dlNUR1N4aDdGTTVNR3hoeC12UEQ5d3FBajJFd1BuU2tBeXg5eDdadzAzVms1bHhjRDVYa3paa3pYMjl4QTlUY283ZjUxUmQ4cEFWdFkxTVN4bXdraUxLNWVGX1pOTmQ4ZzV1R2ZvcXFpeWZBSUlfMXhOSDJiNTEzMkl5UVZScUNQUlFIRTU4RklVY19qMG1qOUNtcFoybkxFVzhzWGVNT2tGQ3hfZ3VTMjlON19tYngzM0pHeWl6ZGs1WXZzREtqOFFmTlM5MG9Ed1p0YXllYnN4T0M5RTloWkRyUWwyODgwZw?oc=5" xr:uid="{B74CBFEF-740F-404C-95B8-42F5DB623ED4}"/>
+    <hyperlink ref="C1139" r:id="rId382" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxNY0JtU2RkUFBWNVkwbUk2cGI2MTU4Qk14WmpleUxvSFNQcVA1c0xGQ2FjVlU4aV85ck5xeTRXSU1lV2UteUh5U01Femh0M21kWmhyOFFnei12Xy0xTXJ1OE90MFBZaUpNYXhHa1RqdkhaNU5fWmJPTjZ2MGhFRW1ZLXpRSkx2cEM4VkQ1WWV1SUZXUDVqZ18xdE5MQjdmY1doV2tWRDROOUo3TXB6TGdmWjlKdXZ3R2RPN0lucWNZZGR1WlhaZy03ZDNqOVdqMTNUeFpKS1N3b0pMd1NRcXfSAfgBQVVfeXFMTXdtc1ZyMnd6RllXYUtEMHhzWVllUXFidW9CZVpDUGdFQVhwTjdUc1UxaldfUkpmM0tMYVNNbGZPWTVnLVpFbHpMQ0paQ2ZQekJiU3MteDNsTkZjVjVfQk9Nb3NzNnhXTGxXVllXREFjb3ItTVdiUzdiS0JJb1B5UFhUY3hCQXZlMDduUG9fb2J6bmJLN1dzS0gtbDk1UWphcjVtSl9fdnpzZ1RhTEVob0djb0hUZVRUTE1xUWZTZGxQQ1Jjc0x0a3E0ZkdyRjlMMWJOM054a3A2b19NaVJwM2xSQXdsT2psZ2FKNmxROGdyU2JaeFFZbko?oc=5" xr:uid="{00F420B7-A4D3-416E-A02A-7DF3E4DC9E9A}"/>
+    <hyperlink ref="C1140" r:id="rId383" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxNZDk2elAyUGF5c1lzcTVCUGUyOHNZQmpHdHRERnlhd3pyeEg4WGFMMXhSdDhEUnVfNFVyYUw2ODQwRWpoUFRFMnM4OGs5TGRWbmtlcHdRREhGQ0lNNGpSNDA3bl95MnJiaHZDckV5N0NRaHFCSE9yTmFmeS1HQktKdVdzZ1JYN0ZJVzF3blVEblQ0MS0yV3VaVGdBMHk4d1hwaG1Jd1NxYm1kdGhrdEdjRVA4TUJZWW1xeGk5NkVLOGpRQXJ2ZE5NZUZB0gHkAUFVX3lxTFBtLWJVYm05MWRfX3B3T1JfYWFpRzh1TjFDR2Zxd3hnalJKeUkwSUJMMFd4VXNVaWh4U2pUVVEwOW1YXzhjOW5Ic0hmLWhBWlA5X3VhNVJMeTJEYUpoN0o5a0hlaDlzSjZvTFM4QjU1TEFZVjVXckNlN0tYUHc5MENOOHgwTWtRMDFNRk9CdTRlY1lUa2FmenV3T1cxSGNLQlRKV01XV0pjU2F2eHE4aGRIYUEzZGhYSUVpWkM2V1JjVlBOcDk0eFhZejBieVctMnl3a2FmckxzVzNUREtRMG9qMm4tTQ?oc=5" xr:uid="{A010F56E-C7F0-44D2-BF0E-571768EE06C7}"/>
+    <hyperlink ref="C1141" r:id="rId384" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxOTzlaS28wNjNQWURZWXNjNWN1dWlCcEswWjFRNGpUZ3ZoM29yRzktZXo1QTBkaU9OQThCTW1rVmtyTjh3Y3g5YjB4S295YXlaWVBIbkxOWDRtUVVmd1lJREZYRUk3aWpiazlNYmZTSmFEZ3JVOHhIZE1DUjBSOE9lSzljQi0wRFdFSzE4NFhvM2lzSlM4YTM4aHlWeHdvRnlTd2U3UTNaSnlMZFZQa0lidzJXZFU4NmhocG4zWWpBLVFZU1nSAdABQVVfeXFMTjNqMzhyUE5JbUdLNzR2VmlHcVZCN0t6aUdVTU1CM1lnQnNFLUJGX3RVcHd2WGJlcThvdFVkdzc0Z1RUVVVSUVRKUlltSjdMbV9xZ2lxeVpVVlFBMEJvcEJacmYxOEVyakw0bWVvNThoNWZfVVVlMGJvQ3M0aTc1UGc5cU8yRUwzUXVpQ3NKSWRtNm8yaFdiTGoxWUpZZGNlWk9mRm5WclRPYk1JXzZDUzRsOERyU2xqSHo4bl9BblFsM1JLaHY3aXdkZTJtRTIxOA?oc=5" xr:uid="{10CA29C7-3F09-42E6-A0D2-6A3F35B83DCD}"/>
+    <hyperlink ref="C1142" r:id="rId385" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxQal9SN3ltaE5LeEtUSjJsUGhyLTdDdFVFQzJpSk84V1BKSWdQRnlkV01ackFpMllXams3eXJfY3RwMlpMajl6ci1GMVRZSm1NOFNTd3pQc3ViS0NlbzN4U0h4dDhHUHByQ2N2MzVsSzJOdWZvOXFqWmhDNDlYQk15c255NW5OZy1OQkxrNmQ0RjRNWXo2MnVQNFozRUsxdllDTllwM0toQlktMFVhaTFZUU10Y1BERlNFRWozOG5SOXdPSXdG0gHSAUFVX3lxTFBXb0Q5MTNEVlFGS244aEJNZklBV1hRd0FoelhfOHdtcE5famRVQzlyOFRjQTc4eFoycGtRYlN3WDdTUE81RktOUTBHd1Y2NDJXVXhVT3JRYjVrU0diYmFVTS0tQnh4TGRYMktHTFlELXBQYjlqTno5RHVwUDNyalg5d0xZWjJSTmtWQ1VyVFJObDN0d1NjS19NZkxURmhIR3VpN0lKX0p6SmR5eUVoazJ2RzRNWFRQeWlKaUVfbVk2YmJ2dmc0OEJaVDB4SmNBNkJ0UQ?oc=5" xr:uid="{B42C2BDF-C120-4804-84A8-DC8DA3D215FD}"/>
+    <hyperlink ref="C1143" r:id="rId386" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxQLXhXNHlPdllNN256Yi1WU0hFbkgzbFUxdFM4OC1vMC1QWFpQOUk4NHZhM0YwTVh4SVVqaVVZSVJoQ015TTBZa1JEU0xtMlhqSXFYMDFmblQ5d0ZwZ3M4dFZwSjdKUEpBSFM2N0FIdk1hVzYxT2FGQTVnT18tcGxRXzM3ajctamgwTkdZU3Y2cnZyM09jeGpCeDFCMHpoRjhqVWFHc0dLd3VqYlkyV1N2MjFwWi16RVJvbVh0UUd5b2NVVFZLMXfSAdMBQVVfeXFMUHFnb24tREhwZ2JQQll6WFFTZVEtOWl4alQ2UFkwZmpiNUVJTXloQ3l4SDJCbV9FcDJkbnl4dnMyNW1rMmx3MGpid0Vwa2taMHRobnhWTkZXd21sbXNQWjJZd1JwcXJtS1Z5cTZTczE2b3ZCckpRU3p4WGk2YjYzUzNrMEg3a1FZUGhJa3dDX2lKUFRBNmtnb0tqRzJTN2VZSEU0Tjk0bDZhUUN2VlZsazFLQWZQU045Zjcxb1lZVGJ2Sm1RZ2FxcFV1OHhoRG52dnFaMA?oc=5" xr:uid="{5CF5EC80-522A-46AE-8C3C-F95F430B76D4}"/>
+    <hyperlink ref="C1144" r:id="rId387" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxNYmZrQ3duRXpzdXl5M2pNZ3hQQ0lWdl9KY3NXcGRKQS1waDlsVG5LeWVpaUkzWXU1aUhEU19TYVdLYy11OWxqcDVvUDlucFhnMHNwV09MaFBZR0g2X0ZQWm9GcGVaRmI1ZXpUeHB2Q2pFTGh1MTBFYmJ2SjEzQUU1QzNQVzluSE52dkdZdXZYQm96SXpKVkNwaEtoUTR2bkJvX1RxTFJyQkQ3cW1kVnNV0gG8AUFVX3lxTE9fb0FMOW9fbElzalBMdGI2V3RfekxFQi12SFl4a1VfWlRnV2RMZjFFUEltM1c1eWdVNGwzbUhCR1UyLTZrb0QyUlI5NElueS02dGZJaVZyMVlJeXhiY2s0bFByTDhlWjFaSnhEUENxQnFpcm1Jdm1wOTE0Y3RkLTA3dFJ2cHNBeU9aREVWTjhLRHdZMm5WY1NiQlViTDVHRGROZ2I0QlpHRFNFSUZOdGpmX2lyTE1YZ0pwR0F5?oc=5" xr:uid="{27F6CA46-C095-4D9C-84DB-453FB5A50AAF}"/>
+    <hyperlink ref="C1145" r:id="rId388" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxPWkRuZGxIWnh1dUhuOWoyLXBJc0FPT18wR0ZyWEQtcl9GZ2dqeWtldnFleFBDZTJubXVOa1JIdUlISmlDdF96aDEyQzBFajJMT0JpcE1yNk5xbjVXRzJWVFJ0RGs1Yk5yLXgtLTB2dGRzeFc0d09XS1h5djdWQVgzSkZuV21tUmJpWGhEdVJJNEtaZ1BLdWxjSDgxdWpMUkxPUk02S1FDTkQ0ZWFCY2pKeWZ0eDVaNzlINWNNR092T2s4d9IBzwFBVV95cUxNNld6X2pNbzhKaEt1TElTaXpwck1yOFEyNVBkclRDU1U1Znc3aTB5MVowbDZEMWsybnU5ckhPWkN0WWM0QkZwREM4QUZ5cG1hVXI1enhVdEdNMC1uUXZQdTJsZ0llbE9CbkRQbE8zNnI2VDNkeTNfV1VNTjBfOU1BM2Vqa1dzaFBkZk53TWpaQ3Q0OHRDUjZWRnhhYjM5dVN6VlAwT1Z5Rnl5ekdjNWVyMjhtWjh5TlhVVWI2eTA1cW16MU0xR19OZTc3M1FnNEk?oc=5" xr:uid="{F21C4DBA-F170-4971-8B5B-441C29298449}"/>
+    <hyperlink ref="C1146" r:id="rId389" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxNNmxaVlZaWmFTbENDd2JnS1QzNDNRdl9KeXpmRlBFRVBjQm9INWZnVjY0dzNlanRkQlh1TGM3MDF4Y3A3aFFFQ0c3S0VhUEJIQzdZRjdTZDYwd2lvTGRMcTNtbVM0b0lmVjkzVk5YeTJnNzlyNmNBTXRYWXBiNG5Yb0RjYU1OVUI2RDlNOTI2b0k5QjZNUEk1aExjaDduT0pWRmVyYmN2MUlNajBuQTYwWFVDaXNLS0psdWwyNnUxX1hxVFY2cFgwQmdKZy11bVRwYUVteUNDbGNDYndhbDhaYtIB9AFBVV95cUxOMW5Kb1hnNS0zc0lTVXVacWxiTVhKalFlWHZNZzgtcktTTC1GVVdsazI5VE5oUlE2QmUzSC1NNzFxSm5KN0NFTUhFMEppdDRhMHI3R0h0ZWs1TzFnS252OEFncHYtc2RhQ2RvbTkxQkIzb19jV2dYMmtEYm1uVzZMcmp3U2x6U0ppMDB6S3hpQU1DUGJmTE14MEZ4Q3RtMW8zOTJyRHJUS0lONjhNanlEU2dRWklRVFpvYnkwTzAzTm5rSUlTcDRudzdJckszYTJoanJSRVVqYXFmcDI4MFpkaURPVGNXdHNRN3lGQ2NtZGphamYy?oc=5" xr:uid="{11056407-D41F-401D-B18B-897F2EFEC4F8}"/>
+    <hyperlink ref="C1147" r:id="rId390" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxQMG83azc4QXFsbEJJUnNNYjY5akNsLXlPSWdFZGtQSVBVYmNpQXRHci1Zekx5bFJLUkdKekxfUjFhSUFFakxDbEhqVlN6WXdDTlo1Z2pUQy1BSjhzU0lBT05JUm5CY0NueWxjRWIyWTZEN3p5ZWZGN3ZFcG0tX2tqa2c4T3k0MGhkd1BIWDJXSnd6MFdmaG8tdHZwXzYtRU9uZEZHamlR0gGrAUFVX3lxTE9fVmVoekV1emthbjAwSUNmRDdnWmdVdVJaUTV6V0UyUFdjclgtYTdhNXh0SlJDWXVTN19BZGVWQlozYmFzZHZZZDB3UVNRRXBGaG1fNDJaUm1MbEIyOXU5TjZaUXk3bHNOMTFsNm9vaFpBNFRFODY5bkwybVhZeUE5eThadXpFa1ZRWDVKX3M0cmFkemE2alJqSXo5elNtaThNekxWTTRUeFFnbw?oc=5" xr:uid="{AA1778A7-EA43-4384-A62B-4BC753380EED}"/>
+    <hyperlink ref="C1148" r:id="rId391" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxOUTZIX2FlOXU0NXo1RURuZm1rQnJ0cHdlVEJ4cWpvUW5xODFsVzRYRWYyZVV3dnhjWl9HZzRvRElteXFPY3NFOWludkhOM05EREJnMUlGWXJxX1pZWGhNUGtLS0w2X1lwUEU1LWVzMXdaZ18xa2JyZFRKRkdXQ0swakIyV2JhWnpUVm0wNDYzeWJ3WW00c2x4dUNPZk5wSXB6OGl1VkVySEpBc1FERWtfTtIBtgFBVV95cUxPSFc1RHJUVW40SU4wYmUzbS02NTNHb3lwN2YxX1RHcGNJWmxPbVo2Y1hZd3doeU9PM3Jmdnp1Ujhid1B4dWpJdGszWDJMQVJxMWF2Qkk3TGk3NHJsdzRNcmJsTEVXbDg0cVJOZXpZUXNreko0SlNoVlZ4cTY3bUJ0VG1rYnBGd1hzTWU0anRyX3o4azVCRzgzQjU4dkRFY3hOQk44bEZGRkNkcWVRdV9mR3ZZY0J2Zw?oc=5" xr:uid="{7EF3006C-22CB-4436-9684-9E4A3BD69108}"/>
+    <hyperlink ref="C1149" r:id="rId392" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxONnd5M3g2VHItREdKdkdPdWlBUW1VUnpDcVhUcG9DbUlURHZRQ0wzWWV4Uk1fX0hkTzhYN2lDMkx3MEV2TTlvdjhtMFpfcXZPM01rTDZ4R2YycFRMempTODMzeDcwUGxUekpXYXFOOHpMNXM2anRELUV6LXV2b0thUlRFNlJUMmwwdkE4Uk5kLVpNa3J3cDY0WVdBdkNpZzhhYzhJQ3BLdmJySXFlcVHSAbMBQVVfeXFMTXpWbUQ2SWZ6NXRMZjNQVm9URVZ3ejNzS0I5b0RXSGJ1U3gwMzRGMmRFV004Ynd5R2UxNGxkS0lDTEhKQk9FTlpieGJNbkdKSlJPODQ1Wnpsbm8xeXh5NHpkazBmblVmdlktZnB1dTdZNldlYnVDYlVKLVpRR21QYjItdng0TURMR2ptUkQ0cFoza3BWNG5OU1VpVWFZMlQ0a0pJS3ZtZ2d2UUZwdENmcWZRQW8?oc=5" xr:uid="{34A517EE-1AEE-44CA-A7C1-E29DE52B42BC}"/>
+    <hyperlink ref="C1150" r:id="rId393" display="https://news.google.com/rss/articles/CBMimAFBVV95cUxQUUYxSll2TTRZVEVGUmdoWjl3eEwyOGEzU192SDRFd2tLc3pHNDl3SGk0aVJKNndSLVFLUVFuNU9OQTJMZkptUlpYcExpZWJYTzNnMkl1Wk42c2tWY1IwV0VHdUdmZU9OZ1diS29uc2N3SmgwRGdyS3dHNWUtaVdYTl9xTVpzNEQtTS1VZllwQ2xRa0xtR1VaetIBngFBVV95cUxQVTl3ekk5Yk9Qa1IxTnEzR1Fqa0hFZDRrang1blVycTdrZG00Q3gxMVhURGhXdFNpTjB6aGg5MTlkNVJ1VVhJcnlMNmNjUFdzbTRoUEFPYi1JdWxOaWVObE1ETDBsSEpINXVOQmRfc2luNzJaY0JPd3hBcGY0aXdETEVjM0tRNkFNUU9CNVlfQnpZbGJRazREdjNjdWJIZw?oc=5" xr:uid="{B6EDDF86-920D-44C1-8A79-E0A8AE26023B}"/>
+    <hyperlink ref="C1151" r:id="rId394" display="https://news.google.com/rss/articles/CBMikgFBVV95cUxPUGJaaHVlWXBsam1KR0s4Yno4TDFZUjZ3Yno5RUZkT0xON3poZlc0LUpKeS1Cb3VJdGFBMWFJVVB3WDBlZFc2Y0JjdEFXWVRjZ2NCeWF3QVhrRHprNnlSYWFodzM0MVBqRkZISWZ1bmZhTm9NOVR0aGtRbnJYVTZsN1ppSmRqVndHQmlTWjZOeGV0d9IBlwFBVV95cUxNUkowSUczZ0tkczU4OGl3WnFLWjlpYXVFbDVsWHF0REYyX3NoQmtjY2hlbXVBWjFod2RGRXlQS2N6VVotLXFwT2U1N01YTmYydmkxX0tpcjRxbkRMSUdxb1NfYTdNbDBVR0xIUExVXzRLVEIyWGdtWWJUVDBBWFZ6RTZJOHlPblNMc2UzdjlYaDFlbWhjdTFv?oc=5" xr:uid="{3F9C2B7A-3F88-41F1-A4F3-0AF2DCFB02AB}"/>
+    <hyperlink ref="C1152" r:id="rId395" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxNSmVhVVliMU5DdG9nQW0zMzBmdXo1TWphSWxPMnpJTXM2TW5CSjBfblp2VVRScWJKNllVajNzU1JqS3l1SENPQXBsazl3YkZCdjU0UUt2U1RkdjNWZF80SVMyZmlYV28yNGxDTWVxOWl6MEFtYVFyYTdmc0otbHZyUnBnUWdvLUZQX3FKOUw3SnBwSzNrZ1JoREVQaklDN0gxSFpsTTlVNWVlN0E2dDVRa3BjYzhONFU2ekRUeVVHNGxJcGNV0gHKAUFVX3lxTE1KQkx1LXY5NmlTX2xsS1BkUWF6N0ROMlNqd1ItTnVPRFBCTlBVZ3BETmFmRUNvQXZEZTJpcm1wM2F2T0N1LV9PVWlmYkJIbzEzWFd6Y08tS2syeGMyYWV2WFdEZ0xJak01UHozcWk2Wk0yX1VsdXplY2wwbVl3RTlqR29KbmY4QkF1TThZNHNWdkR0anA1RUFnZC1mTDFOOFZDa0p6dVhWZFJkV1VTOTNvanMtM3NnX0RONnhTaExyQk82SWFoU0NEc3c?oc=5" xr:uid="{682B8D60-E0A6-496F-AA34-DE4D7E97B2B5}"/>
+    <hyperlink ref="C1153" r:id="rId396" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxQZ1hMSkpMWFBLZ3A2NnFoY1N4aVF0TV85T1M5RW1TNE00VjlxYWhFT3VjdlYyVmVkVThnbF9NYjZod1NRb1RYR1ZpYmRCeWxHam1RdV96bXZDaG1uN3o4YlFleGQ1SWg4d3M0dTJFX2RUc0VmdzFxMm5LSmNGMmxPVEZJVnc2R2dXUUFoQjZ3Ry1oS3dqcHh2S2c5R1diUDVEeWw4TDhHMnktWmdYY2FraHo3SDhFMFpTRERDUg?oc=5" xr:uid="{5CCA3CF5-0050-4C22-9792-DD5B6A725F49}"/>
+    <hyperlink ref="C1154" r:id="rId397" display="https://news.google.com/rss/articles/CBMiywFBVV95cUxQZkNCR1NmYWhRV1k1eVRyaVNaRHZGUXJrcFYwTGowOTcxcUJ2RkJndnZybHBzejI4bkNoUXhtOHBodVhXcVNGMFRZTU4xSDBuZ09SN1lkc01FeFBXM0dVWHpockFWUndJMnRNdGpYaXdqS2N1LWlPdG1IbTR3WVd2ZEVLNnRsbC10cEppWHVLV01abjFnUmg4OTFhYkdOMnRBSzRuUmRTcHNMVjV3VVpCdHE4MEhnRW5aTnpLZk5jaEZuMHpWVTcweGp6QQ?oc=5" xr:uid="{B9A4BA01-4ADC-4FE2-B67A-1496AF1478F9}"/>
+    <hyperlink ref="C1155" r:id="rId398" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxQWW5DcFFJcU1ibk5OSG9zZ3d2N1ZGSXoxakpzWkxaYmdVQnVTc0VYMXVPdS1MSjBjNHdmZUhEaFFpMXFPSlNOMWc0Z3N0TURBZ1ZQRUhuZ1NFSWlMTTlHbm9kSV9oX2xiVGhyYVdwMHVzdnNTWDdyMlFKVHZtcEFSSG1uSERScHdCMTNZNDlrWVhuSWVKOE4taXk1dkRxcGVGQ3NmVXgtX1loMWxXVi16NlRxVF9paTF1LUQtdlFOUExaOUw1SlE?oc=5" xr:uid="{663C678C-0349-4981-866A-0C821A9E7A1D}"/>
+    <hyperlink ref="C1156" r:id="rId399" display="https://news.google.com/rss/articles/CBMi1wFBVV95cUxObDg5dm9BczlLN0NQcjlISFEzTDlQTWVmMDFER1VLWjlOYlNReDdHN2lnd3o3N3BZaUhPUFVJR2RrS2ZubmdKRjBkLVpMYWwtMHlpbjR4S0NsSW5RWWE3d2h1ZDNzRTVkNGpVY21kdHNFWTRCd09YQ25HR0U2SUNGWlkyNzVhb2lmaW05LUh2LVNsTXFyeXFQT29FSks1SmFWYkFIY2ZJV1JwWmxzbGlXWE1JOG5hRXVXNmZXMFRyUGYwdGg4SlFhUUlJTHg1NXR3TkJnWFdyQQ?oc=5" xr:uid="{701C9F8F-D8A5-4672-918B-A3641A99D0F1}"/>
+    <hyperlink ref="C1157" r:id="rId400" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxNLWhaWmtGbnhjQ1VuRWVvUFVEcS1FMnczVmltUUVlaHF0T1RPQXRpbkY4R3lzNEZxcjNsMkdtX3dYM1hZVGRpVVdrYlZuYzNvVG92Q0FZM3ZZWE1MbUdpaW52SFRyVjc2a2N6QTZCRDBVeGZhTGo5dW1CUVRtZmNIeFo5SGVJemlIQVBjTUlTZ192UF8yVDgyTld6UDZGVUt0aHI2UHFKREYtY044LTdIeVJBbXNXZjJ3TVJIUDV1Z3RORWJEX19kcVJEbGlhV2xTWjEzMmdGQ0VWdTA1d2VmOdIB5gFBVV95cUxQWEcxMVB5cjNxMkJTSWVWSzVsOUVHdEJqd2xyc1MxNDhOX192bG5ITE94Y2FUaERYRlhfY3hQWDV3WGVubENnN1BldkhyWDZ2Qmg1ZmkySzlzQUxoMGRTY3pyZ0ZadG92SWtGYU9fbGV3ZDV2dlRfV0NXb2hLd2pHX3FHbFVELUxMQURGSzlmVDExbHZheWJIejIxVk05TGdzaWlrUHBqbGVTV1k3RVIzWl9NdG00c2NPaU1xWDREb184YjJtV3k5ZFcwWGhmbEd4NmZ1R05DZW85NGtmYzVSUjFlVERidw?oc=5" xr:uid="{034BF13C-E750-49EC-9366-2DEA02DAEABB}"/>
+    <hyperlink ref="C1158" r:id="rId401" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxNc3JqNEttc0prRHZJOUhBeDFjc3o4TDZELTRTVWlfNXc2eVk2c1c0VkNKaUxNLTUyeUgtMkFsemphYU1xX21SM3c3cDBwWk1SeWtWSUFoZnhtcTBBc1l5Z3hjeVJVaW1sb3AtekJlVlI5bzNnTERwOVlyWFFTRGhTUmplN2w4NzVqTGNtUDNaTVl6blhoWjdweUIyb1NWRjFiYXFITWZocjZlZXd0RlBWZVVIXzhtek1RQmhuX2JqYzBvSV9Xd1BvakZSWk80ampTN1MwZ01JYmczUdIB3wFBVV95cUxQVGZtejFqbzlMV0JreVoyOElPcV8yRlpXMVptNjg2RnpzaEozczdnbDhBMlpSNVRFUHlIZjJtSEZFT2wwYjB6YldESVU2RTlCV1A0ZEpETTV2cWd2VDQ0VUFhS2VBOGlWTTl6NUhxbklCWldhZ0c5N0JvUGhYRW5LckVvTWM0dDBUeGNSeHhqTm1YY2sxT2R1MmxJd0xkUFVab2hvZFplMHBCUjZkcWV2VTl2T1VZWE5vQWJORGc4VkFzN2IzbVJlelFYR2JlUldoX2p6S3VPX1hnYXh4M0VV?oc=5" xr:uid="{B610B4D9-A39B-4D18-80CA-3230756C026D}"/>
+    <hyperlink ref="C1159" r:id="rId402" display="https://news.google.com/rss/articles/CBMi0gFBVV95cUxNZFVyZy1pQjEtOGprQkREU3E2NkY0ZW9BSmgtSEN5Mk1CZTZmakpGcXNXUklNM0pDZlpzZHE2V0d5STJHTWpyUmdmeS1ZcDVNbW15dzNoSkgxUXBDUXVPaWplcFdVTHdGTGJ2S0lUTHZCLUpXa3Z3TFk4cFNKb0xvLXhZZ3o0X2FTQlNVZjlkSXdnNm1FeDB4SDJEV1FrVzM1VHdTTmlxRUhhdHdLbDhnUzNQWjE3ZW8yaTQ3MFdndExSb253cUFtODhMcFdvOVpiYkHSAdcBQVVfeXFMUElpVWtla1l3aWh2eldaZkYwdFhtSEJxemFWb04ydjdFaTdEZE9fUm5ZcmkyNmdXUVBBb0xwNTNqQTRDOUhqU2I5VndFOTJ4am1wNkJlUzZjMGpIRU5VLTd4cW5SSUpFcDRiTl9hZkZDZlJYYkdNYXB3Y2Jqb09DUHFqZDlLMGpKVnJoOVpac2RFbFNqR2R1N2t2LU1acU9jMXdCOUF6R0d6b2FqUVc3Q1hSM09FeWJwR1Z3RTV6NUp5elhYckJIbVhPV1JTQmRjcUtMc3BRMUU?oc=5" xr:uid="{740BCE54-4D86-4001-874C-62ADB7B41343}"/>
+    <hyperlink ref="C1160" r:id="rId403" display="https://news.google.com/rss/articles/CBMif0FVX3lxTE4waFdKUDA3RThjLWk0aU5VeW9rV1Q3cU9ySmxIWnAzOGE5TmF4ZEZKaE5Fb015MWdIRjFfdlRoWkZLdWN4cWtKZDRKLWpaMllNazNJMW5LX19hZWE3aE5HUTgxdXVyd210Z2pNQUU5ZFN1SzdEcThHWGRHOWJERWPSAYQBQVVfeXFMTjVMREN2RzByNXIzXzlCTjVjNWFnUTU4bHdIMDZyMDJURHQtUTdtN1lWY3d1Q3R2Y3JYOUE2YVRkN0FjNTRhcjItTmpmcFlMbllMNTZMTC1GVm8xV0w4aWxCMWdxR0loMURRa0s3SEdOOEk4Q3ROR195aXBsNlF0MnM2djI4?oc=5" xr:uid="{D70DCB61-E3E0-47A7-A338-7524B5ABD2D2}"/>
+    <hyperlink ref="C1161" r:id="rId404" display="https://news.google.com/rss/articles/CBMifEFVX3lxTE5LQ24zeU5lV2dGNTB1SkNMRFRnOGx2ckV3a2k5R1EzWXl4Y1QxMU9kM3B2aXpJNGVrTmxWOTNDd1hnaFhEX1psV0d2Qi1jX1pEMVNUX2VLelpMblFldXdaLTd0ajQzRjQzRXFtVk9LQ1ZRblRGT0FYams5ajXSAYIBQVVfeXFMTVlCMnlJT1RCbTBVTGVfTXJ3SDNzQl9fQk0xWERBRlFwYVBBNEQxOWt1bGdEaHQ3SzFMNkF2YkY3bXpLSmhBTm94a093Vzh6cXNZbUtiSFFOZDJEVk5kM01tMGlFN2N3cHlfUEJSdHZ4c1hyTWRLVHBoSnFUd0FPejU1dw?oc=5" xr:uid="{73DDF552-E8DC-4D84-A149-9A02560F386F}"/>
+    <hyperlink ref="C1162" r:id="rId405" display="https://news.google.com/rss/articles/CBMimwFBVV95cUxNRDlfZjRDQ2c5NUpqRHBPTHN2UjJPQ2s3QUctaUc3WFIyRlMzeGNjX1diR2RVZkFWX1ZzcjlFN25iQ0dwOFh1TFhqTHhkd0pvM19STkJBeTJXalNwTDZZbXE3bVYtMDRicFlJUm0tY0xXVjRqZDRPX0lvUEQ0ZUNxT2NRSGlrVkQxV1RCOVN3R1lPamZRcW1qTWZpNNIBoAFBVV95cUxNTno3MmlFd2c4UGdxZVJDUzh2UkdLbC16YmlHc19EamEwaXlERWZ4WlF5WjBrRkhqeFM5cHIyTHlQWjJEaXdkRVBCeng1dkNCbTRJVVNkRmJHX3lvdzUzM245QmViRWVGNFFwNXlEV2wxdm1aTDJ5aEZkU28zSU0teGg3aS0zOVR3THpueHBGWFZjRDAyRFotUTdEOUlweXFE?oc=5" xr:uid="{91215092-E769-4C69-A69C-1010FA112781}"/>
+    <hyperlink ref="C1163" r:id="rId406" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxQb2p0cGZCN2lTaEFLTzRLX2FaMlo1bEJ1ZmZCbkh1TzJxRzJjamlPa2tZR2FUMXpxZUp2TmY0WUUwRTEwQmhhN20zRDRvdVh2azJXMnlkUkFMVVNVZkZYRnJTM3Z0dTdNeEEwb2ZoQWhicUFfWThNMWJpekVja1loQ2o5QWRBbW1ocU9jd09PejgtYS05ZGpRU2lZNzI3RkHSAaQBQVVfeXFMT3ZDZHIzWGNuZm9uQU12dVJoOE52aEg1T1VKSUozT3MzSmFpMEZkSWMwRnFqR2lmeEhyVkFjNDRuYWx2QTlaRUtBc1RRN1ZHZFVMdHJENVFfUUJNbC0wdmt2ZkdJSGVSdDNVbXl0dFNJdHVHNmxnMUhlUkZ2dEdmLWlFWVpvOXYwRDVJV09UNTQzekNaUkk0SFhYN3RZZWhESXNQZkM?oc=5" xr:uid="{42FF0DBA-9896-4E24-9B5C-D328C9821099}"/>
+    <hyperlink ref="C1164" r:id="rId407" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxNWW5NU3JZRnlkd19mQmpWRnM2ZWJyVVNXVks0ZERIcmg2RUtEV2N6cGh5Y3Nad3pHVjFxNUdodHJ2UzUwbUVVdWxjbGN5RVd1eW4yMGpHN0lYRXV2eloxMjRreXVYWmJFeUpiQ3E4YWJpOTBLekp1RzlNMXl1eHJzN2RvbHdFY3BOenZ5WmstLWZrcFV6YUJJYnNsVkVLRzhweFHSAacBQVVfeXFMUHNnT1F2aUlGb2ZTYS14Yk9vTGV0ZXI1bDBONzBPTjd1VWNER0xDWlFkd0IyX25lVnBnSndfeUNKZWNsR3FFUndMd29oZDIzbU56QzlrQ1ZNaWJ1NElCQ3JwaWdhdFE2bHUyQWZuakZkaWtrQTFIdG9ZbHRLMmJKb2dkSXVsSkwzblFLRWI5V3o3a3ZwZnZXRUNzdW1TazBzQzl6bjZSUEk?oc=5" xr:uid="{6F2EABF8-EB62-4EFE-8C7F-1E8FC3D73913}"/>
+    <hyperlink ref="C1165" r:id="rId408" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxQZ0dTclZ1eF82U2dZMThJUk1iQ3Rqc2FyM1dOZV9vWXlsc3FRcWliWmFMNjJzbkdJcGRweXRvSWtYd25Zcml5Z0wxNmpWckNvYVdLcTk4cWRVT0xNaVgyY2lBUG1ZQlYwM0hZbnlUMHN0N1M2VTlkbTJOZ2NDR3c1ZWlDUFczcEE4M3Z4Q0RycEw5OWxHQXI2U3k0U0ZGN2tucXZEbzBBTXMxdFnSAasBQVVfeXFMT1BaNXhOaWs5a2E5VmgwV1ZDV2R5MFNhMC1WaGNWbkFEVmFGOTJOemJYRGxPenFWRUEzakU5cnlYeDdqWFdDZkpJUjBJa29ldDRpT181WjNXSU1FdUQ0b1h4UVJkNzFFekpQd3BIZlA4U2pnNGp3VHVRVXV3bmhzbjlod01ReHR5b3hUQ0hnOURGeDBOVDBPU0dEeEtTSnA5TWw4dUdoZ3JmYTJN?oc=5" xr:uid="{56E8C5F2-E9C3-4893-8C2D-594859AE048D}"/>
+    <hyperlink ref="C1166" r:id="rId409" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxQODAwWUhyZmFfNFdaS3A5U3NuaTV0d21KTG92VFBJemk0TXpiR3B2aXRyckFnUF8tNXlRNG1DLTQySnBZR3ZKOTZpdWg1RWY0TFFLd3Y0SWVQUklaaFItS3pQdXJsSGxnZmFhanFSTXRJOW04R2hFdzVjbDdmNS15bnZzVGxFTUhHSHQxTXFpSEJ4d09vOUR1Q0ZKRXJpT1puYnhYdHFCNVkxOVpCU24zUUJvTXBib0pBNnhPRW9YTzRIdlJmenFwbFlPQ2hUN3d5cG9XOXJYVV92dlXSAdsBQVVfeXFMT1ZhczVtRmt4RkhGclRNUDFLX0s1SDBfVml6MkNIVFB2WlcyVmpaRkRKQ2dqYlI4bTNBbmJSUEFlM1VUSEpEamFQZUNlOTIzRkVTc2pnamhVZmRDeS1rMEZkb1FKWXRDb0Y1OUlIMFVtWU02TENBTUw1b3Z4M2d1QnJNSW5OUU1aZ3lUVkROUlRsRkdkUVVEQ0Z2Z0Z2YkZ6UDBaR0x3bFZmQndOSTR6dWlzU0NHUkRiX05TcDBXQVd6MkdVUkNHTjZPQzFUaW1nX096NDRCeXpOTnI4?oc=5" xr:uid="{12E38CE0-073F-4082-9789-A0FDD487B695}"/>
+    <hyperlink ref="C1167" r:id="rId410" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQbkZ3ckVkdTlFaGQzU2l0RWlSdjlGMW1lZGR6Y1BVdGlMVF9sQlRSWjZLRFQ5bERHbUxJV3ExLVBic21qNFg5WU54YVZ0YzJodGtPb2ViMUN5X2RlY1c0SlEydno2aWhOdXdpVVcxUnFubmd3a0dIR01JNFZsOW9INGJEa3NGYXlSVVNnSVlXRFRLbmpHaWQ0RG1zSkJMWHcx0gGgAUFVX3lxTE5tTFhaY2VMRzhHb0YwZjNDeXMtY0U4SFBJRGE4eEZxVEJEY2tEQUdqMXBld0JTQ281amVMU2M5SGMyWm9GaVR3VXZUWm1fRENYRUhYNmNhdjdQaTREMTdnZjA4YXVkaWZRSWlLSHM3RFpVbndURU0zc2t3TkJMMklxbXROejJFTi1vcU1aMkZaRjI0MHlJNkNLZW1CQTZ6WnQ?oc=5" xr:uid="{488F19D7-948E-4444-9AA6-365B2FBBB188}"/>
+    <hyperlink ref="C1168" r:id="rId411" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxOUnZseHBrdGgycjJwRUxROUVrYkpnZWdpS1R6ZVdVR1BHenoxUzBGUWoyXzdmUk5aSTR4cVRsSi1xRkkyb1ZxTGxKRUlGWTdzamJaQm85UExlNDRkRk9EQ0VFSXBJcVJCcklwM3ZCTDZBcHlkb1JadDhiYkJ0dzlRVHlCZjdxMmhfemFQLXpOQ1hFLXZCbk5tZE1kWkU3a0stSERLdHBDZ3BmS3psdmw4cFliTW42bUQ4Q0UwUDVUQzVObDZweGVGWExqOFQzRGZZQXY1SW1zZDFyS2F3YlFZUHFB0gHnAUFVX3lxTFBVek9CcU8wUDZwa2l6dW04QmhybWZ4SzY3SWVsb1hMeWNiSmFfbl9YR0pSWDVyOUVYR1VlY1Z4VkpfS3FHdHhENmVzXzFDTTRlUi02UG54YkdYYVkxaGl3UExPdW4xUHdhMHhHemNrb1NRaXZEaUJtelp6YXdCdk1oOHZpOHJIMnY2UjFzRkF2d1FNSGQ2d1IzeWUtQjB6MjUwRkRzcTFqaHlCMThlQXdHTE9ZOUI0Z296YjBqMk9RSG5vU0MtZmVrNDc2NmpQbTgxNE5iY1Y2NFRXcWQ3Z2l1c2NiSFFTQQ?oc=5" xr:uid="{9B5A4721-F715-4154-BF0C-700C2AEF49A4}"/>
+    <hyperlink ref="C1169" r:id="rId412" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxQdHJ3aFBLcWsxaDAybWRlZlcwTzJCYm5nd3p4MlNDZVlVMVlnWVN1RU1kdmNMd0xUN1BEeUlFRXpjcUpZczJ6dmlhYTJNZnFoRUxzVEduWDVpNHozMTFCNEloV1k2NkxWeTQ3amRYMldmNUxoaDBKZnRSak9xR0lURmZZY25hV2Y4LWJDZGtXNnh0UjFIbjM0VGdDTUJQSUl2MEpDWExweEt6blFkaWVFZ2V2LVZqWm5SejhwZ3g3N083bEJXUDM2S3VxSUhMYlY3aHNENVJIOGdqTjNZSzZ4RA?oc=5" xr:uid="{590CA1B2-C174-4498-8025-434A0C4BEB4E}"/>
+    <hyperlink ref="C1170" r:id="rId413" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxOT0JLMU5fSGstZ1dKcEJFdk1yaFgycno4OTc1WFNGS0s1QUQwUVhkWjB3Sjd0NTFDOVVXQ0hqaDdsYktWYzg0WjNoR3d0V2x3d1NjSkx4WGFyLWdJWFNWb0MxME9nenNNYVR3QThja3pLa3dZMGZKNkxDLXd0VGotMzV6SGdJa25GOFNLWmlJT2pLclpjdWZTSDhjN1ZjYVIyc0VtMGdPYVNRSUt2Tmt3MmhRT21EaVphQ1BIVjRkYmRPbHRGeUExbUVnUWloa2JiZlZ1UzZpemVyZ1U?oc=5" xr:uid="{8AFD82A3-4F2A-42F7-B204-A93EF5A189E9}"/>
+    <hyperlink ref="C1171" r:id="rId414" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxOY0U0VWptNEV0WXpFY3JyMEQzUjNfQkdPbnAweHhFYV9VSHRNSlNycDltc19RWU56X2kzNVhqY3o3ZUs4Q21FWTdrZlhDZE5jVWNPTjVRSXNvdVRUNmJ2cWM3eVJuUmtwRG5ZQlZOY3JHeTlfRl9MNl9ZdVBvaGNSWFdQeHRIcjl2M3hZR0ExeEZ4T2NJcnQ3TDJHRnpHa3hYWXhUWmNZU1VXbmRHRlRuU2N5c1FoLUNieklMZmhZbU3SAcYBQVVfeXFMT3hMeGtsbWN4YjZNUF9UeXFvdmhLb0pETGo5X29ncHlXbG81MUhPOC1EbUY3TkI3SzFRcGlmaW5fQktJTWw2ZTRtZ3NhckMxNjB3Z0dZQW9MQ1ZOa24xbjd4aENDR2VKM3UtQ1JkR3VTaHVUN0JqSDB1UGFkdWh2X25obmhnaTBnTU5SNkVvbGt6aFRxZkM1eEthYWdYdG1WVXlsbV9SdnhSbFZjNkdLVjNnaWROcm1yaHJtek9VMmZ3Mi1tUTBR?oc=5" xr:uid="{499E7125-09A4-4E53-95AA-117EAAEF1924}"/>
+    <hyperlink ref="C1172" r:id="rId415" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxQQ2NEaDhrVmc2U3l6b0IzUG9NUnFWdVU1azdRVmdHUndhYy1ZTU5IOXQ2aGRJMDk0b2p4ZmRXdHJIcjhTVGxqTkZucG5ZV0lkcFBaOUh5LW8zTXFpZ2UzTWxlakl6dm95ejJfdWFlNnNybmZ1U2dkQWx3bzZUMEdvdUJJWlB5NXY1dmJ0WWxMeG5lRGM3d2tsZkYzYk5DOGpEd3pRaTdpVHJhLWZsX2cyNzIzbXpPMUxCZldxOHdYdVhEb1Y2cWU00gHMAUFVX3lxTE5FM3hJVjhBeEpvTWdGb2l6OFhJWjR6T2ZCcVhFRmUzWXB5MmN1TE5LTTBuZnl2NTc4ZlhOTmkzODFIOXlQcEZPTElyT2lJZWJYZzBUU3RjV2UxeE5Oa29icWQzSWN5WmlEMVM0czBFaVJmcUhTVUJSdkxQczVmYkhMaFE5Q0k4b1FHaThGN1lOdjE4QjVqako2d1lMMWdNc0NydWlra1pGMW9XcWZ1VEQtcktQRkJYcml5T3FBdlhhT05CVzlQSGd6SnVBeg?oc=5" xr:uid="{7378012B-03B1-4A65-8259-4B3284D81530}"/>
+    <hyperlink ref="C1173" r:id="rId416" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxOTE1ib3U5S0txVGhEM1JHX2c1SVl4S3JQOEpiRHloemxhbTdzOWE5MzFmUVRPT2ttLXB0M21tMDF2X3JxdDMzWFMtZGJKakVGQ3VEVUFQXzZwS2lIVkktOTN1YWtMMzV6OXNOS3R5MUtsMkVaLUlCUkgxWThtY2NHc1lGUEY5Q1ZDMm9fYWhCWUliMzNTQy03NUZPVnZmVXfSAaQBQVVfeXFMTzV5ek16WDgxTm9LWWdfYnI0X0kybHVlM19xazB3RTZVS09neWx3NFJydWJCUzBWTE9KRnctMEFGZlREOFBQQ1g1YktZbkhKZkRqNzBiNzlTMTVuSmFGRWxveFlsOHZYZHUzd0dPY2hYZUsycTZyXzJ3bUhqWVc0UUZDR0JObjZfREtTdHV4aVIyM2U5X3NCRWsyUXRjcFBhdlZMcko?oc=5" xr:uid="{F504E045-8443-483B-AFC9-3E15828D2B87}"/>
+    <hyperlink ref="C1174" r:id="rId417" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxOUjZ2aUNndmdBYUdLc21aWkxyQmhPWGpfYjQ0aXdLMktiUEFWM3N6WGdKcnh2ek8yZElxZUxNbVBlZXE1dVdJV0Yxc0YwOFZIeHF3SGFjZGk4SGVQb0U1ZUpVS2pwWUlud3VNaTBWYklTbVBrRVpHUFd0MmtXWGJSZjNPQTJJVE5UT2o0N0txWGczYnBleWhPazctMUJzaFh6UE02NERCTFN0bTJ0elQ4dE9uTm9EWlc2bmExR2ptWQ?oc=5" xr:uid="{42597B6D-8524-4EBD-A78D-731EDB8A7CC5}"/>
+    <hyperlink ref="C1175" r:id="rId418" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxNaEJITWNvMHAzem1TR0dhOFdfSFJjRFctSkFxT2M2T1k0S19uUkZ2YjdwVWF2eC1qUTFSQUFucjIySkwyQllBSW9zVjRWbVo2MloxTWJHU0tHWXZ6RXNDR1Y5a0ltNnNxOGY4Z3RTX2VOck1zNXN1SHJSLTZ5ZkFmV1JKdkRXSUsyRXIwSEljSkJ1VFZMMk53R2hYdGJMTVUzQUVOOWhRY0s1SkVEREIwVkdSX3pXVjlGd0lwRkdPOENQRkE3eXZFbllNT1hWbGw0ZjNvenlnQWhXTlE?oc=5" xr:uid="{D19586CC-800A-4AFA-AEA1-8A97D8DC1612}"/>
+    <hyperlink ref="C1176" r:id="rId419" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxQSEdyS1JIdGZnTHJBRVBzWUNQbV9yaFpWeTNIc1Y3ZE0xdm1FdUctcFh4TGZTRHhhRVBvNEQ1WE9kVTF6QmVXdzdrWldsR0QwUllmczRZRnFaRTN5LVpON2NLYVFBNktlaGdaOXIwSzFMSjFFNGloejN2V3JRZ0VsaEJhbDQ4VG5HVUJEOG5TWFJMRTNuOHppdUlSRk5mcGZrRlhuWGIzRU1SZFhXQ2ZhbEc4bHVVeTU0Z1NkdnRBRDVkbmVCZm85T3phSHlPaDRidGNlVmoxOTZ5LW9OUVRSb3ZR?oc=5" xr:uid="{415A1BD8-4560-4328-AFAD-677E26F3162B}"/>
+    <hyperlink ref="C1177" r:id="rId420" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNY3otbzhSOW41ck1MN0dteUZ4eDJWT3pMQXlPdzM2MHUyV0JWZlQtdWk2X3JsVzhwRmtENElvUGxMMzBCVXQyUDlqaUZlMFM5V2VtWE1zZHRRQ3hUeE1UQTZWeUZ2SnU3WUctVTBkdnZyT2NITDlzbkxBS2wxQXYySk5RZVZCYnRib2F6N0tQVUxaekVkTUJDNFV1TWtfb3VlcHU5QTFCMWRQY1g3OGdWLV9rYkdueEt2dDVhSXBHbw?oc=5" xr:uid="{E89F9614-EF05-431E-9A8A-458E24223D27}"/>
+    <hyperlink ref="C1178" r:id="rId421" xr:uid="{D923DFBF-DF7C-42E4-B730-48C92FE6B0AD}"/>
+    <hyperlink ref="C1179" r:id="rId422" display="https://news.google.com/rss/articles/CBMirwFBVV95cUxQVXppTE5SOEhqYmJrem5mUnZhdHdFbXJqSVFGaHhwdHNVSDNtSE5wb3N2X2F1bDVhc3FCWXpoT1FPMVoyNzdBTzBGVW9ydGtpNWo2ZVdULU10a3k0SGg5ZWhTSVNiT3U2VDBfWTRZZWs4N0psYWFpc2M0UXU0bUVTNlFRYUJGOW85clRJUFFvUmktVkN6NkxGVUpjZ1B4SlI3N29ONk5ZU1VhclZnU0lr?oc=5" xr:uid="{A99EDAE4-DDBE-4A5C-BA15-288D1E52B381}"/>
+    <hyperlink ref="C1180" r:id="rId423" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxNbkk0eWc2dzhYRDdMakwxYjlNUXpZLXdEMUtmcjR2dWNvQ1h5aUktd0hxSTVSS25mOHA3ZXowWmJhZmNKN19Xd1l0S3ZfMmpKTGRCZ05CeGtKcWR4VzlueFRiZjZrRnNWSXA4bFExUDB0QmROX1YwaUJiVnRyQ0Z4c2FpYlJBVVlCT2pWZWtmQkVHRHhOTXV6Zng5WmxnMDY5NkpwV0o5OGREcFh1?oc=5" xr:uid="{233935D3-C485-4AF7-8A9B-E9417286234D}"/>
+    <hyperlink ref="C1181" r:id="rId424" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxQTnlLTlgxRk9oOEpmYnRBQkpTWG1GQmh1QWhjRkxKdkNwX2xYVnVwekxudUxqVEt4elJlcG9rX0RCUTZBTjluZnQtNGdybmJmeVpyVTlrM1VhbC1xUHJNQXNvNmZMcE5vYVZBdkR0NzhJRjZUTkRTM2V0LVpzalFQd0JEeUtlYjJlUExxN2QxSDI4Qmx0LXhZa1A2WDkyX3dTOFF5cFk3T1czYWVsMUxOTE5lWV9Fci1CMndNNEl3a2cyWWJORzkxZjlyTHRnYlNj?oc=5" xr:uid="{F6C7F91B-ECC2-463A-904A-63630D27C6C1}"/>
+    <hyperlink ref="C1182" r:id="rId425" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxOV2VEY0pNeGVsNWFiS0tjXzFwWXVxajhYYk1INi1YVFVfTGN0M3NKZ1ZranhCOXhpbXY2ZzdqMGl2WlRfWVdoM21RZm13YmM4ekFadGR4V2sxcGNxN1U1aHhOVVZHYzkzS2gxYnpSZTF2ZFRvX0pTSktiZlFwaWUySFA4OThIaHNvTDctc1V5NEg2RUxMQjVxd0JzMlZHbFVCaXZyNlRRQlRac25tUGpjMUpGdV9LRGRtTUQtRkNPTHNPOGVfQ0l6NHZEWWpTV2Vs?oc=5" xr:uid="{735D46FB-208D-4AC1-A685-4283EFCDD2AC}"/>
+    <hyperlink ref="C1183" r:id="rId426" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxNU0JoNmJ5eFBQNm1qTkZzZW5WRHNDNmlCTkZBLUFRUWw3d3NlSHdLTHpLakRhTHlrSFJOQjhuMUFSSm4xNFliMG1XSjUwV2l0b0NHRkVxSFg0YVpPRjg2SEtscmZZODVKSW1ycmY2REZwVTcySFE1eFc4UkRrRkxncXdnZW1jeS1lWjJVY29reEhYUndEeWVuX0h6NWp5MnRuWXo0NFNwSDNoRVNWc1NCX0JOdmlzeW4waXR5UnBwZmg0MjUwcFg4?oc=5" xr:uid="{9990200A-C640-432B-9258-30080B67A6DD}"/>
+    <hyperlink ref="C1184" r:id="rId427" display="https://news.google.com/rss/articles/CBMi4AFBVV95cUxOcERmdllaZHptWGRDOUhiZ2gwdVpGZHY4T1VQRXNuc1lMZnZtcFhKTFNXaVo1b3VvcE1xRnc0cmstZXhmTHlrZ3NTRm9lYTRFakQzWG5mbHBmSGpjRjlfR19BQnVPWk5rcVRia3FiNFItWG5yRXlZSDVUcWsxNWNiMWV2anZhY2ZhNmc2ZzV0aGtrZWpYcEw1OEhLdFZCMnBEV2ZCR2dhRFZZaWZlTHRfY1JJQkxkT00wRENaRGc5MHhXTFhDelVxQzZzb19KN3haazdZNjlkVm4yWFRCSUUzRw?oc=5" xr:uid="{630A546E-AC44-4B1B-9E96-5B1CB651EDB1}"/>
+    <hyperlink ref="C1185" r:id="rId428" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxOZkVaYnM4UHluc2xYWms1NDEzLWt3MzViY05lZXBITm90UEJsQTl3MktPbzZXTEFsSlJ3X3c1WnJKcEtuWFRHWl9vSWxNcjNNeWVqdTRKTmJmN190d09QOHpnSnQ0SjFUWEJuZkJ3dmhhcWhPZ20yNnJ5R1dWcUdZb0hVRjFnOWxjUTFxdUxrUWVlNkRVVEFZT2dkQm1yVHNyd25tX3lsOG1FWkVYVi1uN21lOGE4SlJCNmlJbVBlOE8wQQ?oc=5" xr:uid="{B7BC190E-7218-43D5-BB34-D60965170F05}"/>
+    <hyperlink ref="C1186" r:id="rId429" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxNYklINy03ZFl2dDBvRnc1OFlYb0dQZjkwRmNTS1lTLXlVb2U1X3hzYllubVFidG5SMHFoRGo3V1dBbXAzcG02M21LQTdGVmltdXlUcHBzeS1KTU15REU3dmlEWnZ1Vll4di1YajR6R3h3NkJlWHFBQm1tWlJzeEJqc3lsX1dTNEFHcGJMVXVwWkVHaVczczJIdjVRYkhZOEVMMmc?oc=5" xr:uid="{4BDB5ADE-4156-4BE3-8C4F-82659B5D7F91}"/>
+    <hyperlink ref="C1187" r:id="rId430" xr:uid="{CCBD92FF-79A1-4D84-8AF5-AFA7A554EBA2}"/>
+    <hyperlink ref="C1188" r:id="rId431" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxQeERpcVJmLWRBYU9rVmxJS0xjS3Y2dWY1SEJfdkpuVFBHWngzYlI4eXZPRzc4YlJ0WVA0LVBXOXFUR1ZCVHZFaERxMnZ5NjNfODVvM0ViV1BHM2JXWWhiVzNRYmJxOHNtUEdXZWgtdVRReTVRNFBjS3J2ajl0MDBTdlJnSFI3N2JTYzhFWWozRWR1ck9JbVJMZUlFLTNpVTFZUkFKWHFB?oc=5" xr:uid="{29A8D243-9722-4891-B987-253EDABBF603}"/>
+    <hyperlink ref="C1189" r:id="rId432" xr:uid="{96E48D88-0285-4D66-A0C8-4635BAA3D277}"/>
+    <hyperlink ref="C1190" r:id="rId433" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxQdTRpc3lJS1lxN2ppTEJ3MzhmMENMcU5PdE1fN1lPMWZPVVBkSkEtTVo5YlZvVFd1Mm44NnRpOEtEeVVFLWdjQThKNjFXdnJIV1lTM25SZ1haeEllMFlGMzBCanY3OERJQmJXalotOE9ELXJ2Mm12NDlZS084eUtYTEk0NWFkSTNQZ2dvZXVUNFZYR3VpdzlGbkwxN2dMSVB3T1pBSWtHd2oyc0FDenNCODRXRmZ4d3BlVXRqN2dHelZEQ3JxOW5SNU4wZy00ZnZLU3ZRRFlzazh1RTFfLXBrOW41UkdUTWZWYkNPU25WXzU5dTVqV1dkV2VwN2xHVURGWUM0cUNGYjI2d0JmOE1UZllDY9IBrgJBVV95cUxPVlNtRHc1UmdSdXRIdV91dkFrNm1VWF8tUnJHdld6eHg1b1pkY0JqX2ZnajFYQUF1OHJSZlY3SFAxMHBnUkgwaHNFVEhYWjhkTFFpY2k3T1JCTGNFTEMzQW9qaC1VbHRlM2dZdDhyWUVWZFgzSjVpTzN6OEtidnY2eEhRa2hyZ0J0elNvWmxFWlV4SzMwWTFROGtKb252cEswWXRoM0padkZDVG9UVVJWWEtqbWEtZXZ1eWFOaHpGT3ctOGdjQ25oQUVrWkdjOXlJZ2IwWHh6MGI5UkVld2xjMENDck5JUzhJaUFzanQwZEJtWlVicF9RTVNKNlJmUWdNcFBjQTBpclczTWQzR09YNmFiMENZLUtVay1XQm4xbkVPRncxM1JCRTBwcTcwdw?oc=5" xr:uid="{33110DE3-544E-4EE8-9808-D810C7F6ACE6}"/>
+    <hyperlink ref="C1191" r:id="rId434" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxPaVhZSHVhbFFEYVEzYTZOem5HT1I0VUFlZGNYTmIydlNsZzRZZlVTTGdVbTVQSC1NSDJ2WWpjdUV6blp0RnppQ190TFB2SExsMnQ1bDBqZkpITzBDaUNnYTNPU2Y2VzU2NmFzLXotWGZPTU5KVU9jSW5nOEgxVzk1RHdWM0hINDNjXzBjUzdhQTRQQ2E2RkY1SlJRZ240SjhnS2R1SVhMN0xiWFVzNkNnRnVLakpoRkNINFk3LVhHLS1JM0JSVU4yMnAzYWdleFVLLXVqeGhoYnZkMTNJY3luRmsxeG1Zd1d4NGlTZFlpUUhJekVPZDZ4c2NR0gGUAkFVX3lxTE1DNFgxWHdDUzAzcGFyUk05TnBBVXc0RWpnLTltblROSXBjYWNMQWFYUUlIMFlndVZ4eUxreUNIbVdodVFxVGhoWklpdjVzelNCNldPTy1qNll4WmxaMldZNVdpUjk5V3dCUF94U3BjQWtMTjFhSmlCNGhBU0k1bzlhdTZmOUVGb1VXaUx6X2Z0VnVOd3dJOHEtQ2xDUXJIeUluX1FHMG1nZzlpUGZSQnUxYVdBUXYtcGVwX1VZb0VlVVFZeWYxbUNzdUNOSTJKZm5fZHNWZ2syVGgxaDBSTGlLZFJ3YnhYM2RTbS13bThfMXo0NXdEN01tMjRhdG9ESTZjQlg3NFBWNGhQd1o5NGtySmFxNA?oc=5" xr:uid="{62CEB6E1-CD4A-4530-9657-DEC75DBCCCF2}"/>
+    <hyperlink ref="C1192" r:id="rId435" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxQOGRjNXVqenZMTnFCMmdxMFVFVDVHeXFDemJJY3VRSndjU2lWM1YzZ0hNN1JmdzdtNmlLVVMxWHl6SnlvcUczY3h0NVFMc3UzZ2ZfNzRJQnhXeVNGWVNVNDlacW16dzF3YkZJUWhiQ2IweVU1bGNJWGVoMDJ6VEZkd1o4ZTJfYVloZGNyZHBRcVFBbVQ1dGxKVDBGcGVrOE1aeTBYVTBXa0FzSDFzbDVQbWNrUWRUa3pFdGkwTjM0eWprZWN4WmQ1b0UtSGp1WjljaUR0MjJQYXl2VFZfdXhfRlc1R0FBWTA3Vm1CdXBIbThVb3V5Z2k0S09MNHBod9IBmAJBVV95cUxNY3daZlVtemt1c0R2RHdxU1VyZ1RZZHRNT1JIRUJKbV8zM0JORmxQYUJqdlU0Zjc0eDg0ak5xQXkzS2UtVzRDZVFlUngzSUFwbWdNZzluSlZXenRqemg3MDhtYzZIdWlaWkh0SlpFdDRGMU5WVExvekVVWXluaUxYVVMyWG5BT0U3LTJDLTJyOUl1VU5ZekJMOVU4cU1sTTEyWmtzdnlNcFNUeVhxdURNSUJ1YThZd3pLR1p1djY5Yy14SWJRMDlfaTJNQkZObXAwM0NQcVFEaGgxQzV2c1JoMUNwbGlLU3BCUUUxZk5aM3BhMTVCODUzM3Yya09NMl9aOGsyLVdXMDJkTUtiNTZSaWd5SkZyUU1F?oc=5" xr:uid="{D6EAFA9D-48DD-4BAD-AD57-D594F6A8A127}"/>
+    <hyperlink ref="C1193" r:id="rId436" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxPZ2JFS01vcmppUjZjdjh3TXozbUc2bHBoeG9EbDItSW9wcUI2TmhrMnBPblNlc2lKYVhiUml4clFUX3l2X1lVWUQ4WVlpemVtcFhyWGl5X3ZsMW0zRmhTOEJYNTJBdmpTTW1XOXB3LTZOT2g4TlhFNHBVam9jcmtjTzQ1S3BFRFpDWmR0ZlpTYUlYS1l4M3RJMFBQS3Y3cmVyWWhhVVhQY2w1T2ZQZmo1ZzZFN3l4YXQ4c2t4RjJzM2hBdE5FQU5JaU1zSG9RM2NoRVFxbldnakpyN0FVZFUxYno2clROLXdiTW1iMTJwSdIBigJBVV95cUxNRWt4b25iLVE5eUI1cGJsMmFPdncxTlNEUngxYU10NGdNTWRUMFVaN2l6X0RfTU1PZ3Q3SXY0WDc3NFpaNDllRHBZdVJpenVUa3VCbC1uR0pZQzduV1RlYXJHc011MzljamlvMFFJUjZseVpKYVJETGU5ei0tWVJTakl6TmZBRk12eW13QUhzYlNXeFVTOWFXMnRnZVhvUnNfQ3RfUGpaWVlwTWI1SWozMC1maVJ3cVVsYlpHNXVNMkE0NmRkVzRkZDlCdzFPTzZ0eS04TG1qUWVuaklFNXgtcHktMk42TE5tV0pRUkNzXzhHNHFnUTZSbHZtdi1TQ1ZnMVQySm5pZm5xUQ?oc=5" xr:uid="{518936AF-D1DF-4016-A169-3891444CB1E4}"/>
+    <hyperlink ref="C1194" r:id="rId437" display="https://news.google.com/rss/articles/CBMijgJBVV95cUxPYXlaMzExMHJfa0R3TERwRkRZWm1jZ0JhUHZHYng3UUhHSHV3UnF1ZF9FM1NVX1NxeW84dWFiWjJYNDRPWXRfWlNmbHJDeGdGNGtiT3htdFVnSEF2SjNOa0VPbno4TXlpTGI2WnctX3NXVGdrSTJWZXZ6NHJiNkRPTnRGYWREbkVTT19raXhCODRKcFByajJLNXk2b2d3M21YVjFIQk0xU201MlJ5TUM1ekV6OWtRZXozV0FPYzFlcl95LTlsNlkybGljbkU3X0hXZm82UUNEVkRpdm5XM2JnbFJDMDBQcGlqcjBXYVBaUmNka0dqU3Fmb0tMaWtkdXItSWxyUkp4UmpEeUpWd1HSAagCQVVfeXFMT3pXZmtES1MxVHpTb2FwNjJXSnY3MmxCNnZlUWNSWVR5UUVmZWFZc3lyQTMxcEJUM2prWEE2X0xnT0VTTXhDVzJZTmxNM0FTOEpwNmRaSE41cFRfSDVGaTlmRGwySS1KUEtnNmQxLTh2NU5PZHlndWRVQlIwbVVUdjR6b24yajA5QUZHeTJsQUJERE5xNVRzR3hfcWg0cFdVY2tQODhiMkZZeGZLajlnQWsxNDl5aFc5TFhidEkxaDg0aUdLR1NUd2pCUVZ4OHVwSFl3cE1NSnFMZnJlV3F3a29RdlRrczdxNEx5US0wLU5UVHVVRkp6VWFZRlNKMXM2VXU0czd4VklITDB5Ym5rUWF6V1M5alVYek5TZ3VDdEZPb1VZWnViZHg?oc=5" xr:uid="{3CD3C749-42FD-4D40-8207-B411B91E5E58}"/>
+    <hyperlink ref="C1195" r:id="rId438" display="https://news.google.com/rss/articles/CBMilgJBVV95cUxNcE03U0J0YTV5YW9GMmM4YTlFbzU2ZTBoazlDRTNfcmxaZHRCY0pubmNLZ0hCU1FTU19EeTlZWm1QYUpSd0tQemVwWVNod0NQOVlCUkFyc0M0QXN5eEJLYVFSREg0SnV6VmJLUHZhdkl1NGNyV2U4dUFrLTZ6TUJnSkRHaFM2bXJrSmhfaVJtVEJMdzh6QUEySm5waEpyVHlSUm9RaDZTM3FyZldRbEJweTBiZUQxNmw0Wm4xVEpBWUtMUXRNdm9RSW16RkZZc1VxREt3dS1zSms3V0dGV0VRR1gtS0FJZndURjEtbWVBd0VYcjVOV2NtYWdiTHZSMUVQaWFqSk12cFQ5Z2ZKOHlyeG0xZzJvQdIBsAJBVV95cUxPQUd0ZEhuT3d0TEVQcXBWTV9rRnNQQTBFS24xVzQ0YnpGSDRxSU9FNGJzZl9xN092TW9ReFcxS3BORTZBV2FDdWd6QmJ3a2FFYnBrSXU2T21kUC1KSzhMSlc1T214Mk96dDd4NkFuYURJc1lfeGM0NGtZOWhYdjRmZE5FYXBFZEVFclVza1Z3VkE0UW1iYUxpbURod2ZyTExiSG9kejRUa0s2NHBYU0FSR3ZxRko5eW9CZG4zYzZVNDdGel9fZjVROWdEc1dpRk9DdVAxXzhlUlFIckFEMW9SOGhaaXV2RUNqMXFXWktWVUtSTVJBYWNtVmRLMjhtMnlxUzFtSnA1WUFTTGRBOGN4eGJNOElEaldKY2hIZ1hMR2NVcG9manh6ampoTmZoS1Yz?oc=5" xr:uid="{4DB870B6-975E-43CD-9C89-71FBB26E506B}"/>
+    <hyperlink ref="C1196" r:id="rId439" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxQUElqTFJ0VjRkUUphRFRyTnBjTk8wZVBzV0MtcnptZkw0TzloMGVUeksxaFp1em00YUNveXdUT2dHa0FLUks5dDRBbm01LVc4Ulh3Y3g2NlNBaHZjZDBiTW1nTVVxS3B1Wm92aEZ0N29SQ0NCQVgzSEhmOGpPNHhCZndXRk5lSFVzTXpSb1JoeTdmWkcwczJucHBodTNGQm5XTkNpQ2FVUHhHclU2NnhtanI5Xy05VklpRXdsT3RuemNjWEIzVWI5MUJkRGYtVllnaE5EdVdOQk1mSTZ4bnk1UE9YbkZHVjA5UzMxNUx4Mzl0N1VmcEo2bzRfONIBlgJBVV95cUxQbFpyR1ItU2Y3V1JVQnNSYTFjRnJrOTJQZUM1SXB5cGJ0N05md19OOUExQ0JwOGk3MThmb2NWNUhMQkw4dVU1Uk1LTjg2QTdmc1l3MjR4eVNLTDViS1hLQUFxNU5pSzVsamZtS0ctWWdQNVFyTDAwUW0xQzNzSjZ4MWh2bkk1QllIVXNxa1N2ZEg1OElNN2I4c0pPUWZNWHl3Ylg4bkxfWEFTVlRKV0hEamVNVDNmSDdlOGdVR2RzOGxNbTVuUU1wSGtqc0Jzb1RxUVZLYjM0NHlLdkJQMXp0bDh1bEZUSFdGcG83ajhKdTZiblZta1luWm9hb2ZnN3VTd2licDhRT0o4eW9tcGdETWEwMnE2QQ?oc=5" xr:uid="{175C63A1-1439-4D3E-AD8C-15D003E3480B}"/>
+    <hyperlink ref="C1197" r:id="rId440" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxPZWdHeFpDWTZ3aUZXZEVGWTNyelFaWUsyb1R5eFlhNWp6aWd6QV9XQnROaUZXTzhoOHVlZG5sandmMll0TlhMS3UwUk1pbVNxNHRxYnRCRXVDekNQOUp2THk2QnJZMVU4NUF2VVRtQ0VDdXpfXzhMUDhzbkcwR3Nsak1ndUl3ellrUC1oaE5idWk1SjVpQ1JQSlZlUDBhWE5MVnVvSUx1V0Rydm9ObS1LRU1XTUEzN2RaaFlzRDFKYVFfT3c2Zy1zWHhRa2lJaXo5OG93UFZva0kzcGNCUFpRYm9lLWdLOHhSUVBKY0U3QzBCNnoxUmVkdHF2d9IBlgJBVV95cUxQNEVWVlp2SkJLOTFBeHJkcUFScGF1UGp6ZS1NTUt5Y1JQNVcxVmxkSlNpS1ViZ0pjbVlWOGhvX29YbndGczBHVXpNd3F5Tk53Nmx1T2h5cWZXNkcyWlh4eExYNG96b2I0SzJfR0VpdHdsQUJzM0laRS1ZTndFeHR3UWlnbVMxcXJ6WlVPRE9XbUEyalZoelU1UlF0X0tUNEVUNG5SVE0xRGVQMmpFZURjSWtlbEtnUGJYaFlhbm9yREJtbmNkc2hyMzU2U2JJVVEybF9VdGtRRllHbTJucml1SGNjRU9yWjlTWDA3bXFMRjB0dEVoSHJFa0loWW9BUDFrTzlwTlRvcE9jTVhtbTJLdmVqZWdEZw?oc=5" xr:uid="{43F5AC77-1986-481C-885F-64851197539A}"/>
+    <hyperlink ref="C1198" r:id="rId441" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxNUUhsdVlaMlRpZllPS25nVHJGLVUzVVk0X01iR0RnSldaS2ZCY0EtWUUzWlFBUGZaMHNzMzZERUhKeGtvYlBTdm56cXVkaDZVTHNvdFF6YS1oXzZNMllHRkFkazFwbDlrVHoyWkVoZVd4TW9IdkN2cVh0T3M1Wm9SNUl5OEN6cVZvMEZmNzJQMndONnpaQkZERHFJZDA0RkZ4SUx5NXRJT2xVVlhCOUJYVGF4LTUtd3plTDIyLXlaT0NVYkxwUmkxZW56eTk1MHd6QVdQV3FKN0N5N1BQZTJVXy1DWFVYZE1WMVE5TDFHbWhMd9IBjAJBVV95cUxNa3R0akRXUmxhbU5SeE9uOGNqdjZ4azl5Y2Z1aW9uSUtZSnZSZC1QRC1TaDMwVTQyZnBPdlFmQWNqbmJTNmdIZUtsenJ2U2I1eVZBUjBzM01NbVdPc2VUbkp1TVo1SWRkOXE3WEJNVENGYmlXZGIzZXkzUzRrWEgyVzR5RnpkSzN1LVN2YVcxWTVDa3JNWFNBMjJJTE0xLXJidzZtMk1vc1ljM3FmaUFJVFNsRWVpQTM1dG5UNm5TY21NRS10cGRCOVl5akRncHVyOV9LWEVBcjVuWmdXRDVCWjI1WUtwTXhUT1ZwM1ZlOFg4T01BYXZKTTgzNFIyZXRHM21tRk5FV0NuSWhp?oc=5" xr:uid="{80ABCB48-AD09-4600-80E9-8196BBF54EFC}"/>
+    <hyperlink ref="C1199" r:id="rId442" display="https://news.google.com/rss/articles/CBMirwJBVV95cUxQSWZHbF9DaUpCYkp0OXE1bDFETWRyUkxQblEzcUgxX1NadWUwaENpUmNSMHZicGJwSjJib2FGVlZkTWstTWRpaDV0OFJxNG96UUFibDRSbUpXU2plS0dWLWhfM3poajI4Zk5uYWhZcVpVX3I4ekZ2SkdUTTVLNjhUOXc5cEdlVTVhdVBvRVlDdXI4TVlvY0VFX0lXblRydzU1XzNSQU9Lb1owTTRtTUtPdVZYeGFHNWxqdW1XcGplMU0zbDNQbXZoWHdaa0JSNXh5bVV1RllJWVdySlNDeU51dDRYS3k1ZlV5OXU2UXlkcnQtT1lPSS11TUJWZS1oMmtGTGV2MERXY1UzV29zeDFjMUFxMG1JR2NoNkF3X0RKRmdzMFNVZjZiN1pac0VJc2PSAcoCQVVfeXFMUEZ6OVVUSi11enBBX09NYlgtcHgyOEpRQ1FaNWdBU0pQNXZqRnlyNEY4S3F3OE5QNGZhZk81U3hBMm9jMDZ1anBtbWFTR251Mk55ODJfWEJibFhPSHUtUWRHWGpXTUVmSGxEcWJ1WGhYOEdJcjktc1ltWG1zTFNYbkZwZk9NTTZ3enFvNGRQMDFHNjI0Rm9ST29wZlR0TUlqTU9sYnM3N2plTVdwRWFoSGE3RHFGdGp0T0VtenRabjAyZ2tyaVp6WjU1andsN2hQQldwZ3RybFN5OGJuVUNfX2pMUG5FaWdodExZSnI4UTFxb0JTd0E0Nl9JT2wzcG11NmhDM3Q2LUw5Vk1fWXhrWlFJLUp6TWV2TGEzeWctQnIxSDQtbTJLX1lTWnNzS095RFc3TjBsZXZpTThrdktkblhHYk8tSm1aYmRn?oc=5" xr:uid="{A55B7997-9B2F-4FD5-AFC0-30789A3B44B8}"/>
+    <hyperlink ref="C1200" r:id="rId443" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxQOHEyQUZMYm56Mm93QW9SZmpfRXdib21XMmZ0TFdRTHN5ai1DVXpxcG9hRkpmSnRvenN2LXNsaXE2WS1HYUhWMnJmMzE3TVJFV0FNd1VCcDBKTkFVMS14MDBIM1FDaWVETENsdTAzR3VTazJZYmhWbnQyM1RLelRYb2dEU0lBRU43QUpSNzFiWmxvTXp2ZGtsZ2VwdEN4ejF2aS1lTjdCaWE4cmU2ZmY3cjNkRlRqazdVRXJRM3VXajlvVlZkLXY4WHJfQ05TYWZkRXpOYWM4WFp0UHZ5SzJoanFuVDFTRWI3V25hZdIBhwJBVV95cUxQYTF6QWRXTzhxVDBHUDVGOEZsVVptamVNcFJQVmxONGEtNHFROTZEZzlYSGNVbU55dUN0MlVyanBtbkZXM1FVSUNQRXdsYmxWeGItWTRjZVctdFhoeE82Y2RUWTZBemNGV0R1SnZoMHpzakVYQ3ljLVRhLXZPbDFINmdMRTJ1dTV5c1NBRnVFajdpcHAwaDA1dHJmOHZ6RjMwWGZJSUloQkFsdkQ2dXpuSTJQOFFTSlFBd2ZwOWJoQjlpTzJhMDlhUC1EeFdHQzJYZ1BaRUZYcEZTVHVYZzR2ZFNzMHp0MHkwanhQVno3WkNiakdya2Z6UDNYWkJ0V2FQWHpCQmZHTQ?oc=5" xr:uid="{B4272C3A-99D4-4E0F-9A8A-3061500388C2}"/>
+    <hyperlink ref="C1201" r:id="rId444" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxPeThCQ3ZKb3ZEUFZXYU10c3pETVYtQmI4RENvNjdhcDg0TFlaTjVfUEZPV21BczdFX2ZHQUlHSUE5WlEzWG1CLXV4QW5UWE9VbnNFVG95bGR1V3c5WHRqM1VxYzg5dVZhUmFRbWExYnkxRnotTTFOSXpiQlVhbXJqVWM1V3RjUjVveTQwcmpMMzBTNXNnMGJIY1lRWjFPNVB1UEVWUGJITG1KSm43TXJUanNlNmxkbVZXWXplVWRXXzV5NmJhR2V0c2tpellybUxfTWZLTG5jaFFOdGpLTnVHSGNKOGpzcU1jZlc5N3hURE1oM0xTNUhj0gGSAkFVX3lxTE12d3BDeTZETEFCTjhUcUtvTU5SVFAzTWxpTjE2eF9famlrRjYtcUdFNkdwc1VkZDhJRkl2XzEyTEduR0hUQlN3cFVvcHR6RklBZVBHbW1WUV9qZzdTeWFYS2tncFF4NE1aOWFkNWxGTkhqall4Q2ZFUEo1WnJUMlFQTjVhWUk0Q1QzOEplOXZaNkFrcUJpZHdUSHFEaDctbU9WdGdkTXpvMkVpWk96VjAtNW1BTGUtWTBJTG9TWjB1V1NaR0IxV2VXMFZxd0dRN0FWWU4zaklhak8wTC1Ka2w4elVkSUg5UHphY0tCQ0I4MHZNektSRFFoNC1ncE10NFk3SjdheUVhTmd3YjY3Z1RWN3c?oc=5" xr:uid="{A688FB83-0516-479A-8D09-199B8205E665}"/>
+    <hyperlink ref="C1202" r:id="rId445" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxOcTI1MmFYMXdPSzlQZUxzM1F2UWN3Tnl3OGp1Ynp6NVExcWs0c1JYQzhVSHFIeTQ5Ym03bmxQWFdkeEtiRGVMSHJHX0dDN2owUXh0UHhjMkp0V2hLNzFEX2hsbDdqclI2RFRUbGpWeVJLeXNlNVZ6LUpKdXA3MkxKU1g2b3AwZDhVS1ZKV3dpZndHdjFfazRXYWZubFV1aVFoWFRsblRPU3VsOTR2dFNsX1k3MTI?oc=5" xr:uid="{4A99296F-C752-4E57-BB91-3BC4D4404AAF}"/>
+    <hyperlink ref="C1056" r:id="rId446" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxOS1dQcVJ6OXJpN1kwcDRLR0NqcktfWC1ldzZRUlREVi1nWnBPdEYxZUhPajNSdDh3eVlMMjJRd245ZVNYVVBmNkNEb3FTRVJQYU1ELW1DOXM1b24zVGdBaWFreC1YNnJMbHVVTndOS1g5LVVMR05JRmhDeUhpRGppNkhOSGJ5MkhZTlNUU3Y4NzM0ZC1JVkVXV1pmWGdDODRKRV8tZWczdUJNS1RZa2hBTXdKYkZpMHpjbGJ4akVSZzgzTzdmbV9mOUhfMGJfVDFMek9pQUZ0R3hCRDNDbnfSAfIBQVVfeXFMT2tyZ2Q3YURaWDNrRTRROEowaGxGUWV5cUloS3hKdWxOOUdkWmRZZ19NVENvdUZiS2l4b0xMdUtXZHAtclh0SzdqbE91MmVnSUdCV19lVkMyM25adklETTdyY3BjcWl6OFlacnpabjFuYTB4WFJHdHZiVnhIOHF3TXJuSXRYQ0hBZDBCT1FJSmdPdDlKUGpUaHhBa3A1NnI4a2hnSG5NcEdjY3dYd1hZU1VlNXp6TzFlSkI4SkwwejV1cmE4c0xaYVZrRmFpcjlWNzhIVE1aUk9MWm55Zjg5SUw2dzhQaUFqZFhYVmVjenR3OFE?oc=5" xr:uid="{CEC6E763-F6C5-4A49-8F0D-BA606F9E6FEA}"/>
+    <hyperlink ref="C1057" r:id="rId447" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxQdFNNNjFZdWV2VjhzZnlUVnJtTzFjdXQtS0tXaGkzMUxONVZnVVU1eTNoYnNoZVV4VE9wNlVaeExhSGR2bUE5TEkza2tnbEFWU2FuSnZRTnQtdlc1TmROV2QxQWZwOHp2RkU1ZE43VTFMRkpiSm1CYm1ZX1pfcFcwV2lBbndac3lCS08xYzZVZWhOXzBDZWlXMnN3WGZ2LXdWbDg5VlI2clcwbkFSajNoWWNkWVVGZWF2dzA4aEJkLUkwOHJ5UjhTQ1BBQnBRY0E4N19yREFxdkZtMDBFWi1ualVlWdIB4wFBVV95cUxQdFNNNjFZdWV2VjhzZnlUVnJtTzFjdXQtS0tXaGkzMUxONVZnVVU1eTNoYnNoZVV4VE9wNlVaeExhSGR2bUE5TEkza2tnbEFWU2FuSnZRTnQtdlc1TmROV2QxQWZwOHp2RkU1ZE43VTFMRkpiSm1CYm1ZX1pfcFcwV2lBbndac3lCS08xYzZVZWhOXzBDZWlXMnN3WGZ2LXdWbDg5VlI2clcwbkFSajNoWWNkWVVGZWF2dzA4aEJkLUkwOHJ5UjhTQ1BBQnBRY0E4N19yREFxdkZtMDBFWi1ualVlWQ?oc=5" xr:uid="{55655DC7-60A5-4EF8-AAE1-5151058A811F}"/>
+    <hyperlink ref="C1058" r:id="rId448" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxQTGhsSE84WkxDU0E3bGZ0YmVfUHNBZ2ZDNkF0WDhpdmVoQmZJY3QxcXVlWjRhQ012RjJjQjVVdTdId0dfY2J0Rl9lem9vWDNWRmN2Y1FEeURIOGZQbDM2ejNSd2F3UFM0cVBlY2l0OGtxV3pOQ0xZQ3pzblFMS3hkaFRDZDV0dmJtRmNwSzBwcTRSTW1tdkp0Y1JQdzUxS2hIblFrUEI5ZExSTkZRM0RjNTFucjFOQjNmeGotU3J2c1pBejTSAdcBQVVfeXFMTTdlWTV6aTNTRV9IRTk1a1ZMcVVHNk1xVGtzdHBzbVZ2WnhQLW42WDBfRzNVeXpjUWRUQVUwbGVOZ1ZZaVUwMURLc1B3dF8zeHVOWE1TRldYbVFPMHc1QlRWZFhYTU1DMmNMdmt2ZTFFenVsR3FBV2s4ZVNwbVE2VGtyTWJXQTJ5cEVKbVItcGJEVGpkNkpNbzhWT2tQZVk2OXRJc2V3RDdRZ2dlb2NPYXNiZDlua0JsSlRaVzFxX1oxTDRPYVNPUE9aTzJhcnBKTXg4OXJtbXM?oc=5" xr:uid="{A9746E24-C425-413B-843C-DE36529F4CD0}"/>
+    <hyperlink ref="C1059" r:id="rId449" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZjBlUmlyNHNES0ZvMTdsRmxOZUVMNURIeGlPd1VOWVE5YmxBc0djV3JCMThYV2s5ZGlxdkdpMXFjeWJmYXo1OEo0cHVjelVxU1FCMzlNMFpBeC1uS0pxcUd0UndmYy0tUGJmaTBNakhRVGlQQzZMOWxHXy1sRzhVTUdLb3hCRXQ0TzgxdkQzdndieHZGbVFtS2VNdVZNaEZPRVNiX0NCNmFDa21McGUxWWFFazFaWkNpb01iOUtuaklrSWMtX1VrYWZiQlV6Ti1lMmZBadIB4gFBVV95cUxQQXlDYUdGNGkzc3VvcFpGN3FtSXV2TTlFTHNGQlJrZ3QzTWQ3NTZUR293RTZBcGc4bjVCcFJ5S2pRRDRiOXoyYWlSMms5QlF2ZFllbW03NEVFQ2dJaExveG9RWDJGVzVEcWY4MTQ1cG9BYi0zVmtrbnE2QkRQcWo1cTU5aEtTbTl1SkNkOTk4Tmk0OUVuOXRaZHZUeXF2eXhfTTZSTlFRdEZzUkRuNnVBUlBDQWNtNFhpZGZhNTJtdXR2bmlVVWdWdXktMlg1bTdlbkJhYUhHeGZNTmN2MnBXbHJ3?oc=5" xr:uid="{4983AF74-5C6C-4B7D-967B-509F53B39ABF}"/>
+    <hyperlink ref="C1060" r:id="rId450" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxPdHp2VE1EYlduaWIwTFpKSEdoZU5CdENfbWxiRGl0MVR5TTBVMmx3ejMxcTQwNklhTFA4VzZENmxTNi1hUWExbTVxYzZVak1rdENZc0ozbVhTQm5rUDV3Xy1CZXM2cUhvVWJSd25OdjBGZXRWZVdNWWl2SGZ2cDdlQnBYV2d3ZGZhZ3BsNnZ2aFA3a01FU0NtczlhTXg4bDVOYjhwZjY2cHQzMEJaczdNQnZBTS1HQUxHXzBzaE5Nb0LSAc4BQVVfeXFMT1dheUVwdm9FZ3J3Q2o0R1VKcGJaVWFSQ0k0RTZtNkM2MU12N0F5clp0MzdxZllpd3ZuaVVvUkJmd2tMZzhkcUcxeWc4VXJFZDlJSFVrTlhUSWhSMnY1VGtIdlIxNVE2SmxoMTM5VkhObmY0eHRNS21RdWVhRnBsWmJNNE1tcTRjcklfcW9oZlRCNzhUQ05PcTA4UVM3RGNqaVIwU09IZm9tb3ZSVnYzS3ZMNUViNlNORmttVEp0TG5uOXA4dDdFNnM5NFhUbHc?oc=5" xr:uid="{9F8A931C-16E9-4C3E-A8B7-6F44AAE1FAB9}"/>
+    <hyperlink ref="C1035" r:id="rId451" xr:uid="{5769B5C7-B57F-4141-A154-1575F74483F1}"/>
+    <hyperlink ref="C1061" r:id="rId452" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPRWNfMUVVVU1kZmZEYXlXSkw1N3ZPMnlybWZ2bGhBbTVyZHdwSXRxNjNqQnEwRkYwYUdNcVdpb0NQSkp6bDRDRGtmVHVtVFQ0T25Ua1lKekpyME04dW5Sc2xON0tCSU1Hdm5YaTFLSlR3MEpxenRpejVfNVdGdUZQajMzRTE2X2NqRHVzREhhb1hvVW1VMjFldTRlQlVISUdxRUFmUFltbko3SEFmbVFpbHNqeWFpRnUxZFBTWkQ4bUFUREtU?oc=5" xr:uid="{DA493CC4-7502-4E52-8CF0-C3B7873FE50B}"/>
+    <hyperlink ref="C1062" r:id="rId453" display="https://news.google.com/rss/articles/CBMiswFBVV95cUxNb2xMMmFGR29KWngyTU9Hd2cycGNzQ2h4Um81T0xSenhnWUNCb2d4d08tMUsyanZ0NmZfekE0elphd2VxaU5ma29JTWNJdndldXBMQTF0ZnlhQnYwWUd2aXNydkhWa010TUhDRnZPR2VnU3lyYmczbFhweGNuWlRtQ2sxSU5EdWwzTEktVE5jSW9UYjgtOWJ4cVdrcXg1Q3Y5Yk0tbzJUdU1xclhFaFJLSGg2MNIBswFBVV95cUxOQko1Wm90ajhqT1lPNjBhUjhUdGVjTHV4UUZ5N1JUd3BWRzRnQzRTTjZVTGVicnM0Z1hUV29XN1RUTnNFTXl4WmNhVE4ySWw2aUlwTFFvR1dHSXZzcGw1eHB6cXFJT19mQ0w1UlMwY1k2cjUxN3IxUmpZYlZsZHdwWnNNc1ctd3c3ZDdMeXQyRzk3MmppcGhvbGtwS1VnWFV1a1J2NEQzZHJRTTlESjhUakdaUQ?oc=5" xr:uid="{BE94CD23-6CFD-4E97-B37A-F3AF42BA8A88}"/>
+    <hyperlink ref="C1063" r:id="rId454" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxNYmpLWXNjRWdVRlJ0MmJNZy1wYl9vWW41LWlGYzFVcUYzNnBEdGIySmtkTmdoN0lVQy1nM1dBWmpOQ042U0RkczRtcjB4aUEtcElTR0xIWXBnUnlVQXJtUlNLX1JmdTRralpFMTBub3h4Nl9Ndmw2cFQzM0hoY3ZWWXJCQUItM05ZRFFZakFZSzV0TmxxVjRUTW9MYXZZWHV3RTVueXVSdmo1Z3dQaF9sbDVuTkxjQ0E2LTJ2WVd5b2pLdUs0dXNQNTBCVVViTWpFaUUwbEpQcG9GdUI2QVFxRFBla3RhOFVocEpvZW1xbm1hS1JzOW9RSk1n0gH6AUFVX3lxTE5qZXBzQmwyOXZ6WHhlLWNxMXVDVnFFTDNlOFVCQU50SW1sLXZBVTFrLUlvX2k4ajFkNlFkVVI3QURnd29NOG5hanVYbzhkWFQ5WWNVV1U0RnByVXEyOGhHbkpCa3VRM21oVGh1R1Zkak5LOHMzRU1RTjE3TWs3UnBwSk1feTczR1ctYmxFQ3hfaG1VRnYzN1lPZFg5X1FMcy13SVdsZ3c4WFphbXJhNko3bEdKdi1HbWxqdG94ZDVFRDRianNRRkNIMmlNSUtHZWg1LVZQUEhjczBuTkg0STNBa2oyakxlbWFUcFVMUkV6VHZReW0yRTd6cVE?oc=5" xr:uid="{54E13F5C-045E-4154-99D1-D32D0FB19649}"/>
+    <hyperlink ref="C1064" r:id="rId455" display="https://news.google.com/rss/articles/CBMiiwFBVV95cUxPVUNTOEd5ZHlHMnRoS05EYllFOXJjbHBqYWZNYTd4S0s3Wkx5QmVwWkl3NnJNeW5fTnpfLVlGWWtvNlNGU0lzV1hxZk80MFEwNHVMaHN4dU1iZ3pFZERVU2g2dVVDUGN2ZVlrY2ZmVmEwcFA2cGJCY1RyWEJyUlRHTkRYSFdNUkZMcURr0gGLAUFVX3lxTE44ZTZpTXQ3blY0WFJVbVZ6X1cxMGJjbjAtQ0FVem9RUTgzOTZRdThGZ1U1THh3YmhMUTM4aVVhMExkc3d2LU03TnlrUkVQaE5zTmRpRk9jOGowVkhRVWxac2tBVFlNUXBHVEFrVE5ma0h6V0dJSVhJa0JwUFpZTy1EYlZ0b3dZSFZsaTQ?oc=5" xr:uid="{97F45F64-551A-4A12-9EE7-E9D98407166F}"/>
+    <hyperlink ref="C1065" r:id="rId456" display="https://news.google.com/rss/articles/CBMiqAJBVV95cUxPSUxycWJvM09QeW5iemI3bFFheHUyb0RXSDc2eXVFX1pnRHVua194bGhTZE9PT1lOcnZmdXdVM1Fidjc3eU1yR3J0SFBfMWtDcHBpTDQtMVZUYTl5QlhMVktXQklYMHJldVVRZGRjQUlSU1RGQnRFUUNqdktoaHZsVXpmYmFFX1ZVYTQwcTFSRl9VM3FFQnIwLXpTUzdJQ3BqeTZaYWJTc3lNU01TMFI4ZEpzZjQ0WVRhT2lJMmJsamc3SzVZbEd1d2dOWUU0RlEyN2hlNnE1RkFrTEFSYjJFczlhYXNlSlpBdlBYVkJQc0xfSnhzd2VoSHk5SEtQWlY4bjF1eDZCTFlqOENBcmFFcU5CVzNKNEs1RmY4REh2WjR6RnQ3dlpSTQ?oc=5" xr:uid="{1E648693-BA39-4308-8C16-A10F8D28F555}"/>
+    <hyperlink ref="C1066" r:id="rId457" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxOZjdIczJqRkVfX0tudHNuTGFGeC0yOHg1UWQydmYwQUxVcUpsMzZDMWdPTHB1Tm03anZWZ1doZU1jYUQwVUQtY0ZFSEJjVVRoN0JMZjBCMkJUYm9IeWhfNEhJZl9rdDBlUXJsTjBSTHFneFVxVW03ZDFjdEdMaThYbk1XUEdCT2xqaFJhanQyUFpLYWVsSWpaWFEyQWRiVElGWUpVbGJ2QWdOaVhLSmVma3ZHYjhOQ2pETTZFZzlXdVFsNmRkMlE?oc=5" xr:uid="{0243AE1F-A40F-4F93-AB40-8F7CDBE15C68}"/>
+    <hyperlink ref="C1040" r:id="rId458" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxPMVpueUU4MzhlYS01NFpaVWQ3NUZuMUVLand1NmowNmR5OXh0TElDRzVCek0zZk5RdmJZYmdfLW1aNFhibmEta25nYmRvRHREQUFHeGVhdi1mMGhEVHBTb0sxUE5iSEJlSG1oZUo5VmRlSjNScVc4Vk4yMHREQU0wMFFObmN5V05Fb3lpNm1tMEZWYnR0WE1wc3pRUFJ0enhoZW9hUmVDc3VoZXBmeW80eTgtellRRzhWT1otT2phMExwYURIUHdQWlhrWDZjdGhGMDNrSUwxMzRfYklOUWVvRnhEYlVHRVlGS3pTdXZsVUR2VGFJSWEwM2NORnZMNEsyRWE5M3lwNF9KeHlY0gGSAkFVX3lxTE5CbXZoR2FoVjFnUC1CbnFwVlp4ZC0xeVQ5LUU1SEZqMXBOLTk0a3dWWHU2c3VXZlktQWEwdzNYRjA1ZTN1Mnp4Z0NCMzBCVmFHaXNTSG5GRmVNdndhYVVDNWNlbXdqOFVkdUpoUEhXYkg0b1pSd3IzY2xDYllTQW5iX1RhZFlJTFF5aHo0Tmo1aUU2aEFqd2ExaWhfMWhlVmkzdnFnR0VzNDhRbFpuTVlEYTc5NUhUaWtxaFBaem5fNlVBQW1UTm5wUWtiSE9uRThVdkNtRWYxMnVNQzMxRVNLYWt2MWRJNEJjQ0Y4MUcycGVOdVVjX0VUQmFreTNOUHUzSzF1MXJZYlhsS0FUQ2dEQXc?oc=5" xr:uid="{46609773-2903-4205-85C5-5886D7A8BFE1}"/>
+    <hyperlink ref="C1041" r:id="rId459" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxPdDFlRmZJeUNXeS1CRmtJTGFlRlVMT3R0aThmakdQUUh3UzQwdWNab2h6dkxSRUM4T2xtcG5MTzYtdDBmajlfNVM5bGtOTXR6dThyTkMycEtfajNuUm96NzZpSUxXX3RUYnRKS3VZSDVZU3lJVkloZnladnN0NldHQXRFY1MzM2FDemt4TU9mNFprcXpOS21kd1dfUzExR3NOMEpCYW9NZWNzMk43MjNQelNnRjBScXZreXpJVW05T1RlZW9FeHROal9SOHFMa05ia3FHVnNBaF9OUlU?oc=5" xr:uid="{8A290777-3C33-4D5E-8E50-5B0DC7D80341}"/>
+    <hyperlink ref="C1230" r:id="rId460" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxOcGQwYnY4cElVb2FVelZHMF90d3VFNGtmTHhLamttdk9DSUswVC0zREJRUmZzamd5NThzSGt0OXpGcUwwZmI3c3lMLU80Zl9mZ1czX1BuRkNBOUoxYmVXcGswc0loTEhhQVBJM2NpU0VoQlZMUEVBNnRNOVJ6QWpUbmwxd3dkcW1ObGhHRy1La1VMN3drZnJJOWtJcGpNNFgzT2hxMlE0U2lUb0g1WTJRVXlQazljeHpSWkF1WTNsZEpjTGNQOWxiTS1Wc0pLYUY3NUhhaUFGckJhUVXSAfYBQVVfeXFMTWk1TzluQWNsTHVVUFlzU2lRUkJ3OHRWdDlTYkJwbndRSTFWYy1yMVZmY1ZvX2c0Z3VIUHB1SlpWWWhLbnRxQnJYcUplckduRk9tcTc2UVBVWExnaW1fQTlPT1VrY24zTktHU2NvSS11UHRzcnRKbldkQXBKSlFhRzVzWmR0NHIxOHg0NlZsdjVYcGdOekhPOFA5U0Z2Y1FHcmVKeVhFbkY4RVBQUGZLQ0tIYWRFVG9iRGNTYUJWRUVwZHl0aVlab1p3ZmVtZ0hHSHR3WTl5Q2tJT2o3aGFvOHlLODZfLWE0WnJPUDhENXk5R0hQZVpR?oc=5" xr:uid="{D4AFB61B-0376-4442-A01E-01942F08C2F2}"/>
+    <hyperlink ref="C1024" r:id="rId461" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxNc0I3eXdWeFIwcm9CNGFDWUNnck84cS1JWDNfbFU0WTFnV3lmZlBwdHA4SzhqTW9kZkx1YlhRbWVRRE9peEZVVkxJN0RyODR0TnNpbkhIRkV6SmRWMG9IVzVEanY1RVVza2ktS0JhMVNNVE1yR2tJNDhwRi1na1AtR2RFQ1NzSzhFOTlPeEVBTDJlRkpEZ1d0Q2g4Yl9SMzBvVmlJQXln0gGrAUFVX3lxTFBTQldFRVFGU2R1Vlgtd052WDhQelhfVlNiZkpzUWVfZkMxZGRtVnBJc250aTd3cHdFQnRBeTlyOGI5X2FWa0ViRnJ4ODNsUkk5bmZHXzZ6S2t0Z1plcERqb0ZVSHJ1NGNiUERUVmNjeTF2Wm8xLWstVVpNSWpzbjVCeFhNeEROQV9Dc3UxQVZpN0pYOUExT1lQbEhqejNjRjh1c0tUVU5QdFRrYw?oc=5" xr:uid="{E62CAE23-02C2-4D3F-817D-1B77B7173428}"/>
+    <hyperlink ref="C1025" r:id="rId462" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxNVXNlQWNRM3Z2cGRiQUViNmZxcHpSV0lTZi1YcWx1NkZFQURlU2o5aTlycEtENkowRXBKSGxTSnlYaFc4bzU4S0t4Rm0wWGdRWUNiVmZkRkluNWZMVXppUTJXWmZXZHhxRkZ6ZlZrUnRyMWZNWkF3R2ZxOXBKWVJDT2pxV3B6SjVWdHE2NENzaGpYLWNqVkJvZk0tQ1FkM0tKY09HZzBGVXNad3VfTExDc2JqNFZ1UkxLMkE5NEhIMzVPZ1hfTWVCYlFpbTQyMURrOFdlZUIzeUxlb1Q1eDR5ZE1wOVFLcEHSAYICQVVfeXFMT2VHVk5FNk9laXdESjRiZzhHaUd5Y0J0TzJMVFhTbVJaZ2ZNWnR2aUwxaXd2RGpYZUt6NWF3bVdhX3RkMFNIaEVrQXhmYlZheEktSjZvVC1CaEF5MFBzUWJPdVdyN01jTkxSVGEwbmZCMG5JamlwaWNGWmJZRmxoQXZsVHB1aTFWamJLYzV1bXdFb1NkdmxqamYxU0hYOGRlYnVCUDB2TkFaQjBCR0d3TXhkbFc0djVLRjFnUDJuTklYVGlVVVdVc1VxSi03UVNGTW1Jb3g3aEttaVpRWUk2NGtWdEpxT3NBQ3VZQjVyM0RrQVJPenVJd3hvcEg0dGdqZUtR?oc=5" xr:uid="{75B93D63-05A3-4956-9590-92E1AF782B5E}"/>
+    <hyperlink ref="C1026" r:id="rId463" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxORXEzemRMYkZnTUJpNVhyV1ZueFdpcTNkYXppSGV6NnhGZGNybnkwVUNyVmxnVVZfQ0ZMTHYtWlVnT2Z6UGFzaFZLWFFBbVozZjcyZTZTUFRMLU1QTEJrV191bE1lOXFaOHJHZncxLVAwYzEyUnczRWtkT3BRbWg0bXNRLWhTcEZ5RE5XRjZJeG5Ta2psRmFya2g2SUh6VXhUTHN5VWU5cGZVWjhhQW9qcTV2UGdvU0tjVUxKVnRQanpGU08zRUR0b0RKQmY3LXhYN1FDVtIB4gFBVV95cUxOMzNvaUtsbGpKSDlydFpzR2J3eWVrRm5mSlcyNHY1enE2QzBER0hSLXR5LVJ5TEhZZVFub01uZm5ZZ1JlVVNtbm5MY2YtdHJrUGJfYlZ1YnFNLTFSTjRzNVdnUzJOc1J3c25neWdwdU5LdXg2V08wUEt5bk1rLVdqcjJNeEQyQlZZaVVrSUdnSFNNS0ttZzZXU2QzN18tYXBTWUlxcEpFYXdMVlNrcHlTNkZmckxMQ1AxQjgtNG5hUzFKTmJQX3pzSUhXZWl1U21fb18zdzR4MTFKOE1lZ0RJRTZn?oc=5" xr:uid="{CF8284FD-50E9-4142-83F3-BAE4BEC1697E}"/>
+    <hyperlink ref="C1027" r:id="rId464" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxONUZaZ2dyejUyMDEwaU5mU19ObGlSc0VEU0JPUGJGN3RsTzJkUWJQdEwwTEVzaHN1RTFIR0dXZDdSYTUwemdiY3AwM2h3QWtCUUx2TEtPX3pjVWl2Q2xOU2F6MEJmMHBmLXZJcGVrc0JLR2ZRYVNkT1U4cG5pLW82UURJWHl1Z3JqYldLbHNKZFFNT0lCaS1kZTREdUQteVFEVGdtStIBsgFBVV95cUxQZTNIc0xISy1GR25uMmoyeHE2cGhGX0dPU0VUNDJFeldWaVlCcExNOFpLRzFjOVZldlgyOTBpNWFFeGRUMFdFeHczZ1NwdU9xaTNEUkVSZVROWWdEdzlpNmZXQ0M1WjhoTWY0V3lfMkpZN0tBaUJHTmQweGFWNXQzY3czWjhmeENKeldBUzFsaV93bUpIMFdJelJhTzJBZmI5NUZzaHBQSmUzT2lwMWpxUlVn?oc=5" xr:uid="{3D03428F-63E8-49CE-892C-A4C4F6E7A939}"/>
+    <hyperlink ref="C1028" r:id="rId465" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxNaTdGbTFwbkN1MmYxdm4wM2kwRVJ2UjRRUTJKSEk5THZwcXNVOVdNTDdOQzJva21nVEkxN3lrUEVabkZ2ZFp5dmNBRUxMUE9uNGVEMDZwa3dZTmtGeDFqTkVpMlhpQ0h6aDFWckJ3MWtUTERZajVqbG5sdjBUSWRfRVY2WWZRR0M0MFRFQjZkWGRhUDExRXd3Y1VrakZybTRMQlE3Tk1kRVE5TFBy0gGyAUFVX3lxTFAwaklkMzVubG1VRHA3d3pjLWI4cGgycUVDUFg3TGFpekUtTHJWZTh0amh5cHpUYUw3eE1lbFV4Yzh2WXc5dF91b3oybElob1cwUEhidWdJM0t3VnlqV2xLV29ISnJvVXFLYXRxQXd6VFJCTWFwTjFMWjZjaTVSbDN0MXg0blZaRjJpU3pyUFM1MmhjdWYxMmY4UXFlVzBhS0hEUTdBOXdtQmI5UURLdENvZ1E?oc=5" xr:uid="{46977A9E-D824-4CD9-B96E-CADA5B051BA5}"/>
+    <hyperlink ref="C1029" r:id="rId466" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxNZ3J6bGcxcWxGOGdQTXZ0X0k5TDRmWEJFRnZONTlnbHlkQ1BCUW16Yld3NThpejVoeW02cDRMMFJGMFV1X0lFM1FEX29XUE95a0JMZmk1eEk0ZnhiWUMtNHVOTGk3dGtZQmxTRVRoQ2I4TFJMemlLRGhwcVRGS0RoSUZET3JJeC1Ja3d0M25veWxWek5iUEJwTEJTUTlZMDVYbTFyS0NZVlNKdzM5cWZnZVVkd2JuNzFuWl9vMUxzMTNhcFpkMTNrQzRTd0RXUURyTTA3RzIzY2ZWb0E?oc=5" xr:uid="{9E2C60E0-BA61-41B1-B76A-871BB4264BFE}"/>
+    <hyperlink ref="C1030" r:id="rId467" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxPS3lrcDFlU0ZoVXMzMUo2VkQ4VFVkT1JYbWg3b3lLWjJxODdCc0NuQjQwQWRkYVFiaVhjRjI2S2U5Mm1XTEtLeE15WlRaMWdpRXNzYmh3bjdsRjg2N1RGUDJySy1odElGcjRUdHpwUkVRTUlhT2pKaUNqZnV3aHF3MzRJdkhyd1lmWFdHNFlZWUxxekQ3UFk0dFp6bld4bWQ2UWd0MkRWMW50TzBXajEybEExZVJBTHo4bDlVVE10Vl9PQURRYTRZNUlydVAzUQ?oc=5" xr:uid="{937E4897-32A4-4D53-9255-F92689BDAE60}"/>
+    <hyperlink ref="C1031" r:id="rId468" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxON3JvSDROUlQ4ZkZRemxfY0VtSGxtRUt6Z0JhZlpNMmNVcThKbEJUM0F4Y1RNMTJuc2xKcEtDMDVOcUFFa3JDd21EcVJnT0dBeTNQMlpaWUFBZXIyRk5QVnJseGx6Sk9GRTYxZ3k1bkxnMzZjTHZNNk12OGNKaGJ3VGFNOGI2eFdKWGRZZndud3ZWV2hkcXRUZWtaTTZBdndXS2xxTU5UeEtKYzZlenNFMFhsWGJzOE9abG5fTlU1NnZkTVoySnFfLTBSWjdGWm5KRlZ4dVM2S2ZiZ2w2S0c2ZmQwcWY1VW9tM1R3VzJEc2F4a1N2MWx2Vnoxekc1by0zT0HSAZwCQVVfeXFMTnZ6ckJtWkdrUGxPQjh2OUloLTJLSzcwQjltTDZIQW1YV2NwMkp0RmZHalYtNGxQUDc4YW1vODhzX1NtLXI3c3l6bUd6RDdhYjlUN3hHZVU1M0VpUE1ickVTX3hxNHpxRVNZXzlINnhWSXNteHVvUXVRWkctU013T0ZDZkV0bTZueUcwTzJlajFoUDFnVDlPS1dJNVNpUmlrU3p6VVpPU2JZYVBLNTBqSEd2MkdxZXFyZXNxOVFKSzFQZW94V1ZTMjJjNENBbDN4TVlERmdBOTdUc1hOcXg0ZzgycmhFV2FfM2RwS21jRzdwVDNBLTdITWdTbXFHREVab1hxWmdrejYwVlk3Rm05VjcxaWhmaFJsM09rRVE?oc=5" xr:uid="{061A5FFB-DABF-4F5E-9E22-BF256B12ABA4}"/>
+    <hyperlink ref="C1244" r:id="rId469" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxNSm1BWWVYQ2RLU1hNdXhyMkprRWhUcnR3eDJqQmFkSlloS21VNko0cW5UQ3lqRkVjVWE0VVdCa0tiQ2V5UUdESnQyOE4tcTQzbmVJNEQzOGZ5UUtQeXBXQ2xvYmh2UUJtd0QwWFJKZnpHbm4zR2hFek9SNThHai1nZ3hvWUJrbnc3NE9BcF9lbVd0blVTaGRsTXZlY0FoTU1Bd1NSd9IBqgFBVV95cUxQcGNwUGFCbEVOWmdpVkhsVHF5cWdQak1uenpILXctTTdiSUxWa040bDFwcjAxZ28teGF2LVVwZTZ0cy14MlBhRmxGWUJKY0Z6cUNka0d5eVVob2t1T3dXUFdZNXY2SlNnbjRGM2VzUjlHMFFoeHB3dzNtVlNwNm1NZk44NFBCbktjNFp2Y1J1WXN0SXdmYkJ1Qm01WmxYeEg5Q3ZoUU5OZWxSZw?oc=5" xr:uid="{570E86FD-3845-4C48-BA9F-A71F8200793B}"/>
+    <hyperlink ref="C1231" r:id="rId470" display="https://news.google.com/rss/articles/CBMiogJBVV95cUxOd05sUEMzdE5tVHpWYnVUNEg0R3ZXbzk3UHNnSGFGemZSX1dGbnpCZFVQZ0tHamVPbHJubVdIa2w0SEp5ZGJadUtqNzg1bU9aMU56dnBCVTNDMkhoNWthSGtVQU9GSmNPZzlaTnBudGNXWVJUcEdZRHB5SzE3OUk3d2V3Q08yWW42NWZBbmkyVU4ydXhob0RhQ2YxS3dZcHBzcmp6Xy00ZExhSzc3X3haWkhpdng2T1ZXN2NDOEpQYVZhcEtVWnNPMDhhV0RRWmpIVVhPS1VJM1lNY2ZYaFplZnN3UnJ2VDFZbW9oaDFnX3MxT2dTQzE1WEZ2ZU80LTJiOGVhMjZqa3N5YTlDS1B0WC1tb2ZBWW5HdERmYk9Xb1VDZ9IBpwJBVV95cUxPUFVLaC1oelBnU3FWR2xGeUtZbkRhOEYxX0tjcFFhZUIxQTM3RkdONDFOR05XcW5oakswQ2owajNNUGhCcGQtXzVhbFAtUWpLSW5fQm9YYjJjRjdSQzRNX1h0YWZGNU9YX3U0dHdleW1UZDJrTVp0SnluaVdFWnJLalBaTGlrMnlHQXFHdVh5VDNDVmZZUXZ4WlByWDhMSy1zSzhTc0lTTzV3WnNKbVJUeGx6eWY5TjNlMXc4NUZjekIzN2lnY3Jlb0RUSS1mV3dsQ3F6Rm40TU5HRmZPTXFjd1NjdXJyQ093RFRQclJMRVkzZV9WQXFYQVdfRVVaN1lzNWM0QU1tVE11VHlPSDZqX0pkbGRKM2wtVklId21YNXhMdkNiWUpB?oc=5" xr:uid="{1F3CEBCB-80CE-42FE-98D6-59F929475883}"/>
+    <hyperlink ref="C1232" r:id="rId471" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxOWEZfbS1uVzlKQVkwVjlwZmJkSjY1anh0ZHJhRjBFUy1kVGl3XzE5SGIyTXdKNFNhRGtWMTlMMVFZM3JQWnBQWkhieDJqSktTbkRnc0VlUnhaYVY4Y3lpVEtRVjBZT3JWdFpfT2l6MEllaVpsbFhWYjJmZkhKRzRIUXBjdXVtZVliR1ZfM1NnRVVMeTVWek9aNi1RN3dkOTdnZmJHRl9hTmFoWmpmNUQyZVhHamdUZl9fbDRWUWM2OXAtZzZETENmdDdNdndYZGdTMlB2dVB1NGpEWi1LaHhZcVZSMUNjZ9IB6wFBVV95cUxPNlZOT0tjVWg2SkNlSENLNlZvREUydjI3M296NmR2STlxUEtOQVZta1dRdmpreWFoTkI0Wk1fb2gxMy1zY0hfcTR5Z2s0YVhZdGQ1dGpmUWkxZGhpeXF1akotODY0TUgxZW1xaHVGeExkRlMycEI1SDc2OV8ybnV2c3NNM3Fna29PVUdqY05Xbm9jb0EtNF82RWJsM1ZldDhWQXRJNlJucXZJNXBkb3BhMmR2RWtlV2hLbldyU0lmRzlUblJsSC1sdUYzY3JTNHpORmVCNW1mVU5yUlJoYjZaQ2dFOXR2X1RxRU84?oc=5" xr:uid="{681814C5-08DC-4F9B-9445-09FE708F577A}"/>
+    <hyperlink ref="C1233" r:id="rId472" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxNelJzQVlsOVVTV1lmVDRFNG5KWnlUcXJ1a2dnaERYSmZaZUxQX2ZCMWhiMDFreVFXWGV4YXFPZ1FKM2gxUFF2LXY0Y3JVY2dMSmMyazBGakhLQVNZV1R0X3dDeVpXU3dJTGpKX1hpNVR1c1FiXzNPSGZHbUNrX0tWUWFTLWlSZXc3Qy1kTDFKYVJhQWZMSjZwYktsczNjMFN5eE5yZXFCUXRmcGVUQi01YndRcmZsQjh5dXN1U0RuOFhRWmxPMmxXbWlEcEMyd3R3SHc4cmtHYWczbTJhZHhxeGxVQnJCWlFZM2RSeTNn0gHzAUFVX3lxTFBXTFFrV1Q4TGNqalVZeTlXcEZOVjVBNTFYZXI3Zy02SzhHcWJZcFJRR1d1Y0NqYjZhM0gxMkY0U2pzckFUeW5kN1dIRWxycVpHblRWYm1meEVzQ2g3TVFvUFBOX2FmSzhvSGpvaUNiOGlHTmwtTEw2aExPY3FlbVJwajJFaXBEOHZEcE9NNTRHdmFyRHI0N0R4aU0wX3RkbVlkbXdUUUJrV1B4MG1kbm1tRXJkQ2wxOXNOZl9sQWtsQ1hVU3JlLUo4SnAyc09TWlhWQzBmN01tSU1qQkx4bTFpRk9FeGZqd1ptVmNKNk5FQlQ0MA?oc=5" xr:uid="{BE40979B-CE18-4011-9044-51F23B5C67BB}"/>
+    <hyperlink ref="C1234" r:id="rId473" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNenZvYkp1dXpfSGRjZXg0dl9JSzVUc3JPSmtwY1JMU1N4djF3MGZRUmNLdHlpaGQ4VjdrSVNNejRkSUlUVTc3bE1JeEVOQkk1bTZveklORWZQU2NkLTJienRfWnktRW9OYzA3Q1lfbUNtNDg4bGlUS3kyQmNxQWtaX3gtbm02dWR0YzdPM1o3SU9kRXpEandDb1dKRi0yb2toYlpwazVEZXNlSE94SUJoT25NTUhaSzBDRnp4MDdna2ZxYl9XamRXYnJNUW3SAeABQVVfeXFMT01ZQzlEeFZ6Wkk5WUY3bUE1cWJBejV6NEFsZFpOcG11djltUmNXTnV1cVQyOTF0V1pIMVItRjhXQUcwSUpudkF1Qk9CX01mWldQWXBORUZPRjA1U2pfSmZZOVFvdklEWHNob1ZkTkhnLV9KMTROV0dxTFFwdjFSNDFhLXhnLTRZU0pLcC1hUDZyNnlzdEVsTC1sbTJhY0wzbVRIZW1uTktrYzFDY3NGR1JVNmlqR0pmR2llSHZMSWdPdGhKbjRlWVl0NUFEYlJDb3JOSFdJc25EUFFlRGktdjc?oc=5" xr:uid="{0C83B631-E02A-4262-8C0D-1009262AAC99}"/>
+    <hyperlink ref="C1235" r:id="rId474" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxQR053VUo1QTBoNVNpRHo1cGdtSXRFVWFTS0ZiY3ZqSURQX3pYTFE0MlU0RWlqOUx4cEdGeUJvblRLamIxV3l1NHF1enZReWtqWDZkZ0gwbVhuWFZRSlpaQ3VqMFFJYUlmU0JrMUFxdGhHSU95cldHVnhGMDRrSGZWUFVhM3p5T1I3TXB3ZGxpbGdwci1OdVdqZzVGSmt4UVk1Z1Z5T3NIVUxDQ3BBbVpyOHgwSzNBSWlwY19mTHUxNDljd2s0X053dkVpZGRqNkRL0gHQAUFVX3lxTFBHTndVSjVBMGg1U2lEejVwZ21JdEVVYVNLRmJjdmpJRFBfelhMUTQyVTRFaWo5THhwR0Z5Qm9uVEtqYjFXeXU0cXV6dlF5a2pYNmRnSDBtWG5YVlFKWlpDdWowUUlhSWZTQmsxQXF0aEdJT3lyV0dWeEYwNGtIZlZQVWEzenlPUjdNcHdkbGlsZ3ByLU51V2pnNUZKa3hRWTVnVnlPc0hVTENDcEFtWnI4eDBLM0FJaXBjX2ZMdTE0OWN3azRfTnd2RWlkZGo2REs?oc=5" xr:uid="{07897119-6F94-4E86-9F0E-434C08F633BB}"/>
+    <hyperlink ref="C1236" r:id="rId475" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxOdTZPNzBRc25xbm5WYS1UeVV3QkIwQUFUT2c4MFJoUklyX0ZfZ2V4UDh6a05UTWZkNnp4dFlPTEtzenB0Zmh5elpyOW5PV3J4WE85NUpTLUN3ZENxaC0ya0hIWkJDdUVtMGxuRWIxN1NXM05FYmhweThrR3l1eGtLc3g5TTlpcTNhUE1QS1JZU2VhYlI3eUhBWE41VnNVck5UV3l2VFJuTEY1X0xYUUFqYUFUVmdreEFVX29VNURoRU5LbS1MeVRXeGRLYkU4Ukhp0gHrAUFVX3lxTE5BVlhTdWxPZ2dyLVVGY2Z3RHZnZDltSlg1VHNCckRiX1gyaTRicGZkV3RlcG5hYnZXc0VTTkMwaGxIX0NqU05xTHp5eC1aei1VT0RLeERzNnZqNS0zRWh6TUZpcTNWY21kLURKQ2diUlFtMHJzMFFqU3VpSFlib19fT05xMVQ5ZmYwMjZQVV9oY1FlQkM5eVNId0ZTaVJhT2s4d0EzYlFJb2lWR0czLUNmcENTc1pINm1acDNQOWFPQ0lsZFJQYkpqUjV3dk5EQUNrUzVHN1FqeVl5YW5zTjBxSWtNY0dud2l0V2s?oc=5" xr:uid="{1217EE79-97DB-44C2-A119-D81A3D7B338B}"/>
+    <hyperlink ref="C1237" r:id="rId476" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxOM3locGdsVnZaay1yU2paYmNBekdxdjQxeE9WOVY4bjlZanJ5M0VIWVpQQjh3Rzh5UEotbm44cnZIWTJlSXAxY1pwbGk1LUpBanlWR3VtVDgzUFJEX1NDTndDY0F2c1paWGZzSDc1MmQ2Q095WS1leUpIaTA3cWdGUFRoWUU3bC1QZUhtalFhRmcyZmtVanpNWFVNbDZxZUo4MlVRc1ZFYVVIOTlF0gG6AUFVX3lxTE5ZX0lCRFhhbWVhckt6cm5nTjg0d0ZXSzVmN0N6VUZBUGoyNkhSbE5HUGhjeVpFTWdKc1pSTVN3RGNKdVhQT3ZjZE1IMTJXSVF6cUxlc3BDdVQ4d2RnT0tCRU13dVppbERWU0x4WW5uMUhaRXhnRF9KVGJZVERqczlLZUQxMGlibmlHMkY0NXZQeDE5bTdWb2tKcVdUTjB5dF9iaVhWT1dKcmJpdDdWRDYxXzZxazRfbGFoUQ?oc=5" xr:uid="{19D3ADFE-750D-4E48-AA39-9AEA52106F4C}"/>
+    <hyperlink ref="C1238" r:id="rId477" display="https://news.google.com/rss/articles/CBMiogFBVV95cUxNNWZLNENTRXByZUVHZ0VuTURaVUE2WFQ2UWFZcklwWmpOcDVHdEowWlZzeFNuRXhwZGhHSWtDRk5DaEFrUGVPYW55Vm1VVHZmNHkwOWR3Sm9XYVRXVlZYaXJBUkhyVDhycFZtUDh3YWQ5enl0eTVpVE5veDM5N2VSNEMxNGVUY1JOdTRiS1BkSnhWZmxscmRBY3I4X0lRVHYzekHSAaIBQVVfeXFMT1k3Y3AwaXhYN0QzSXhxZkkxb3ZVbUZRSGNXUkpmQk9oVmhPRjB2T29kNnd3OUM0aGtHRnVtYXdhTnNNaWFHTEJ4NGZhaEJXRlAxOXVqTnRGeGF2QkdpdlFacE9YemxZOWlGX3lWNGNyTXlRQW1BWURmMW92TGd4TVFweV9ETHdZNENjYjZ2ZkVwcHYtZG5DdXF5WFJMeWVpLTJR?oc=5" xr:uid="{E258CBBE-7D92-484D-9BB4-23F223C3BE46}"/>
+    <hyperlink ref="C1023" r:id="rId478" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxQTEgtdWRab0FXRXJ1cHF2Uk5sN2hRV1hEU2VvQU1NVG5QMDVpaUJaX1I5cnVQZlBDOWJIWnp0UC1vcThFdG5maGNWNWdSbVBUeXdwZDR1UGlUV3JZSTZIek0yR3FnOXBLTVlzbXR1bHV6UTNKN2xHZEM3cHlhMTFLei1KcFdRa1dvejdNX3dFdHZUS3hUSmN2RDhOMHQxTWlNMmV4eU85b0ctNFZiY1pOeGFtYWRQOHRyRll5YXQtTU03b2U5TkxXSQ?oc=5" xr:uid="{E7B45212-BD1B-4074-8466-1007A5D5FED8}"/>
+    <hyperlink ref="C1239" r:id="rId479" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxPUWNOUTZUcUFkLTJFbzJja3Flb0ZESXJfcDkyU29JNm1IbHd4d3RHTlRydGxtTXViQmxMQ2FoNk92czlYZXlpbUFobThYLWpfdkhocHotMmFaTXZzZ2JaNnJncVlpMVdjUkZxTnR3RkYzZFhuWkFFalplcGlpMmlBaEp5UTJUUmhXSVpqUHJwT2VyWUxONFlaTWVfMDA4TDE2dWdjWGhheWZ3Z2t2QjdUMV9SX24?oc=5" xr:uid="{077FCD1E-BC81-452F-A387-6B885ABE6D2A}"/>
+    <hyperlink ref="C1240" r:id="rId480" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxNaWNfbDRjdGd0TEE2LWJsNEt1alp2NTRMQ2doRlpyNms2Z0lVbDFiT21LMVltSTZSV2ZhMVY3UWR3eGNMQmNYSWVCLUZMT2V1bmppR1NZQ0ZSWl8tQ0duaUZNc0FxYklZbU5nNWhwODNLaFlxNGVJRFJNVTNCcUtYYkdrQzBEZUE2UEFqRmlKeTVvMm91YUZ1N2FJMi1COUVS?oc=5" xr:uid="{3447CFED-3D3E-485E-A5C6-A6103E0D5E9B}"/>
+    <hyperlink ref="C1241" r:id="rId481" display="https://news.google.com/rss/articles/CBMi2wFBVV95cUxQVWU4Z1cxb3hmMXV6b093cTVWRlFrQlZUMlRBT2dIcE41SDF2cldPcVJObkFDdi1sTGhxeTlxeHZDWVZsRmpCQkFTbm1kYkFuNGw2dndNQ3RDVDV5a2NKaFRrMnNFeEM5YVBzV25PZjZ5Y3ZIX0w2RkJjZ2VyaDhIMWswZEN4MEtQaFN4S1dtdDZBMEZvOVdvRjIteldrdk1TanRGX3FsZ2V0THhqaXdTNzRPNUVibzdqaHY3NE5QR2hfTWVRUVY2X2dpY0p1Unh3dHI4YVZwZExsVms?oc=5" xr:uid="{7B6FFED6-6F0D-4357-8406-E36DC5112A40}"/>
+    <hyperlink ref="C1242" r:id="rId482" display="https://news.google.com/rss/articles/CBMihwJBVV95cUxPUFJLZGZiU0ZNeDNzbl9ESzdlS29nUEdZaEl1TzVzb2Fud3FhM0VUV0hmd2M0Q1l4NWptdW9KX2VXaldaOV9mNHN4RWE2N0I0RnA2Sk9wcTA2X0NtSy1LcDFwVUpBYmswbExwdzVIMFNURVA3eUFfOGg3bXdkczVQdGc4SXN3QU9BeUUtT3pqeFl1TkJTWWFubGdwTjM2RklSa3F1TXBCTmVXamVDTk1iblNKWFhENkVzUk9YMGVPSzRISXRESGxmZGh2Q3cxVU5KREtaOFAxRS1ScFRGQ1RQazRDcFBiRkRwYzN2bG9sYVRLSVo3SFNUQ0c4U0ljYlJJSkZ2dFF3UdIBogJBVV95cUxOYlp0U201T2Q5NkdlRkZycC1NUEY0YXJQRGZCYURaQlVVY01hUFlBNzZ1UU9RWTZLLTBBenBCeG1wMkxJX2JrTE1MMDlnRkJqc2hMb0Q4d293TDNiRFpqcXBCVDFaSDhuRzhicjE5UVFlbk1nSVdPXzZOZHFtOVlmek9KNlkzZlpHOFlIcVJMTml1cEtvUDBoUDdpczJZend6d3UwY000R1RUakU3cjlhZkpjclJSV1kxNHQtdmh6b2xxdENlZEpkVUY3WHByc0tTcUxzMDRSZTcxVFRheGhyZ2dYaTFHYUtsY0pWT09NU3hqTjZRMHAzOW90d1UwRU1RNTB5XzlxNzFHNjJNdTM2RUJaYjJkYTJpcnBjUXVyRGhaZw?oc=5" xr:uid="{08DE6B69-EDB3-42FE-B6EA-EBB643E1A024}"/>
+    <hyperlink ref="C1243" r:id="rId483" display="https://news.google.com/rss/articles/CBMikwJBVV95cUxPOVpRSWhkbGlrU29iTVBZSFMwcnlpVTdDd05CdFpScmIzby15Q080bEJRMXQ4X1lmUzJFWnB6MXl5RmJob2ZlbUlGTjljMlVsZDVnd2YwZzFwYm10TTBEY1NBRXB4eURhWC1jX2hYMklzQ1lveTE4OS1qSVcwZmtkSFFuOXpiY3MtM1BGbkNGMDBlY3N6ZXJPOEFvdDBfbkZFa3NtOGFjRi15M01HVC1oOEVudmNoZm5fLUM2c2UxbTU1bW1jWklkZ0tWRDdubDhJQmh0UkxxUDJIUjkzTXRpdWg4YXNiaV9zcExqTmdpc0dhUUZnUGx5QjFUckdFb0VqUHlGc2E4Z1RaR1lRdHBoc1NmVdIBrgJBVV95cUxPUDVpdVZzMFN2ZzluWlVJdUU3ZTdxQS1qQVNzUEFBZzFfRzdDMTl0ZWNEU2plRDNRc2EzWU5FamNQZ0p0SnJ5OHg0WFpuOVl5a05jaXhXLTVDRndBSWwwbnYweDd2dzRBOWtFeTl6WmxOZm1CT0lQR1V4SXA2bHZ5emFlT1k4RFh1ZzJiSDZsQjlNNFZQY1dMdk5yeFpfbk1nVUh4eFp1enlBY0J3WlZwNDdNR0o5RzVQaV93TVZKTWVHRkloakJBaFVxMTZjQS0zVzNnVXpxTDRfZDhSMzlIWDlsM0tjNnFVUDEwbWxSLUk2bmFQUXF4MXpEbUNteDVLUFhGLThHdUZsaUJCVG80LWl4QmlVNTRIRHRORlJUXzVha0ZCd3cyWXZNSTB0Zw?oc=5" xr:uid="{3F96950D-E790-4682-BE97-1C0532BD36F4}"/>
+    <hyperlink ref="C1013" r:id="rId484" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxOWXBzb0VCX1ZORldZUXZURFNrUDN2Rkw4M0dpWGxEZXh6c20tdnA3YlEyX1RZSUoyMW1FUGZQaVI4X1V1MXI3QTc3UWZXWTVveUxaZ0YxOUF1WGVzMXBxdldxVWRNa0Fua3g1R2UzNHBGR2xraDJfZ19UYWxEMWJTczA0VGxwYkVfX2otcV80THRFbnpoellENElXQ1JmbzhDX3F5WV8yZlZibXdkYnI4alNseUprWWJ0d2ZGTDV4NzJTcm5TWERaM3gydjQxQVVEOHduZXlzUTZCbWp1aFFvNkw5Y29YNFZITENOdlV4ckhPVHp0NW9TetIB_gFBVV95cUxOelZuWmQ1dkY3SUtvMENCY1BSTmNqLUUxQTZ3R1g1aThUMFdtb2NRLW9yZmZscGNlT0JCY2NqYmp2OWo1aGZwUzU3dlJvQ1lYS1lWLVFMYlhHX19kSUdSbEo5Y29nNXlnWTNIRHQtOXpyWjFrZlJsMU94UTFOaTNCNHBhZGR3dWMwdk95V0xBNWFjMFktWnplS1dCUXRUMTJiY1ZLSFZqclE2WEhTaV9jQzZiRHM5bC0wNG0zVk8zNU00Z3pKWmdSRm5ndl8teXNVcWdweXUyZk9fQ1djbzJ4ZC04S3dKeTBLeVJjclU4eEc5UC1yOUtLb2RyRGJrUQ?oc=5" xr:uid="{C5AA0D0A-4679-46BD-9FD5-644EF1070E40}"/>
+    <hyperlink ref="C1257" r:id="rId485" xr:uid="{FB892039-38DF-4130-A8F7-9872DE4993BF}"/>
+    <hyperlink ref="C1014" r:id="rId486" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxOX1g3UUFMRi1KQzRoNHdlRk5xMlZ6MFJUMld4QnRfYjVHaWluMlJ5WVYxTXhuUlZyS29yeFhJMlFQZ3VnLWRGclNxcnoxUXF5SVMyMEpsX1RORUQtWGNMS3dSZldWU2otMEs3NWdNMFJmekc0dzRoR0xXWHR5M09LWFpkRG8yeXJIaWxLY0ZZS3pnOTlGU0FjRHIxd2t4aGhqQ2JMWUxxN3FXclM4eFJtQ2xGVFRlM0F0N1J2T000WTlRNG9YaW85azRDMDR0SnJhYU1WQmprYmR0eVAxaERUVVRDT2_SAf8BQVVfeXFMTU5iQzZEWlpJS2ZiUE9wb1lCR2ZKNFJVRU1OMV9QdzN5S1gxbm52cU4yS2QxSnlXTktPZzdHbWkzdFB3YmNUUzg2YktIbVBNZ3JIUFZHT3VUWUpKUUNybEUtS1YzUjR3a21SRnQ2SkswM3VHTVFxSTBQZDBiVlM3YkhIdUh4N0lUTWZDTXBBQjduajZ1WjJwc1R5NExrRzI3QWtsWDIxbGZIZEg2TXpSZ0FOUmVneW5NV2R5ajZRQV9WWnB2R1Q0N1pSM1ktTnZWOVpvZ1FBSUxaZzZJdldLUncyV0FPdWRtYmZ6NDVQMmZieWFLNFVOVTZsTFI0dlcw?oc=5" xr:uid="{083F1B7F-E31D-437B-ABD6-A2B5BCF770A4}"/>
+    <hyperlink ref="C1015" r:id="rId487" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxPZFhYWGdUWE16S1ZlOHQ3Uk9fQ1VTVnk2Z21VNEJabVFJYmU5OHM0XzdOLUJ0M28zTExPOFdLNDRvemVYRHJObVBNRFBvTW9QdEpQaHlULVlfenFyVGVmek45Tm5KRUJDRlZJcXIzM19GRkZ0dUZJZVE3OEwwYnVMb3NwT3RqeTNDX0IxSDhhdEl3dE92OTluZ2VUXzl4SHgwV0ZVRF91bG1kVVk4Vm9DUEV5RG4xX1lDak5tOTE2SXlWNHVGMVdrTHFKNHFjVEIzcm1yVVJ5SFVxa1Jtd0RyektiZkdXeWtCVDkwYWF30gGIAkFVX3lxTE9fNU1oSVBnTlJ3VnJfUy05b1VWSUpQTG43Umw5a3VZTzlHdmhtcXNqSjdZWlc4WExyT21Xc0xpZ09Balh0Y0RWNVBZd3dCYlYtM01ETUN1a0tLdDBMNHJRd2RlUGMzamFyT3FOX0Z3ZHBtaVQ2dGJWSUh4XzVScURSWHFnRy1CVk9ySE8xNnRuenp5RVdDcFFCMFJMWlFTS1FnemtEYjNiSVhnZVU3SG9fY3BfaDZTc3g4R2EyVGxuZHpXTkppTlcwUEROS3NzcVZLb1prbzhOaVI1X1J1YWJoc2RyMHJrbk93UVRHWng4YlJlVTA1NXYzekswWnF2eTJLazZfZ1U2LQ?oc=5" xr:uid="{FD6CB892-EF92-4D87-8099-18BE97FEF47B}"/>
+    <hyperlink ref="C1036" r:id="rId488" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxPUmU1aG1sbkFGUlZwRll3ZG9tdENHRlJ5U1VGMlYzTFh3X01LTmlOVlQzTTdBUlRmTlpEY3VILS02QWFnMTVJXzFRRDQ4UjlJMlpLTm1TN0hIMlg0S0ZMTFk4dXJzS3hyLUVIWnBjLVNoZFZ0NWZWTzlGVUdVVW0tOFZ4U2VoRHlIZlBRQjBjS0dIcTBUeXZyMXB6UU91aXZld2N4bdIBuAFBVV95cUxPMHRrOUxUU0hlcXpQMnA4LXI5Z1ZLRUY2b1lLbG1KSWF6OTk2UnVseVVLMXNSSTZkR0E2UHJNR0FaRXVVeHdQc00wMFd4OHRZbWhVaW14bldlNllkdDJyWnZPR21LY1ZBbHlsQktpNGhSY1cxbm9DSkxPdy1uM1J6WXhqdE9raGhHRVN1WDdKOFlwSk9tblh3UTc4bWN2cXNOWFk2dW56aUVKRThVNXJlRC1kdUQ3dF9C?oc=5" xr:uid="{562FAAC0-A333-4E4C-9392-059A291F0AEF}"/>
+    <hyperlink ref="C1037" r:id="rId489" display="https://news.google.com/rss/articles/CBMingFBVV95cUxNTHJpd3J5N0tibktmempSczBtQllveFZKNzlzaE9xOVdHckRhUi1BLTR3ZXZqM0NrMUp2VjYyODdBR3RuQTZvR2p5UnJOM2JjcGFoRjNzOVpEOFA3OC1hR0RFMGhHVlpPd3A3eEt3R1VqZDVrRDg4MmFmODRPLXhuVXdzUmVuVkhWei1tSEJZX1lpNjBSYlFXMWFsdlBrUdIBsgFBVV95cUxPY1VLWjlFeHBPYld2cENGSEo2YmVtVEdsREtwSldYOUhqaE1YSHZXOXdmV1JQUkRpOXZFN0NLSElhaDhPVHNwZTNjdExWSGZmUjAxLWtqeEdpZWRCLU5fN01nZ1QtV0NhYlRoSHU0VDNGaVBpRVM0X2V0Qi11M0dWTGZmaDYwMHhtQk5FdzJsR0c4MVFxay1WYmdMajB0eXdqRmRQb282eDZyMkowOHMybUtn?oc=5" xr:uid="{4FBC794D-3F2D-4F46-9B7C-330702F64920}"/>
+    <hyperlink ref="C1038" r:id="rId490" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxPdkxHZVVYODFfUy1vWFc5REJ1SVlxVURGUmllQ18zem9Ob2FKaUNWZVRYalFRazJqVlJaOHdRaTd2RlRabU5xdGJfWTd0YTJRb1B4eGxkNFZuS1JwYmE1T21uLVRqbXAtNGRCRE4xQXZmcmo4aE5GaTBFMWVBZ1NyX3czUE96UUsxVVkxN3drTE1DWXpCeFM0MEFuUXdfUlVmaXhYeS1WdWNjQ25Ja1HSAcIBQVVfeXFMT3RmZWU1ZUN0SlpJR05KcnR5UFJ0WXB0Q1VUa21XQVN6YlN6c0xEQ3ZIZ19rME94NzZHOTFVekstZXBOdkJoVUxTcXUxSTBBekMyZ0dMZk1hbnZtYUpJeXB3VTlvdTNodllCVjRBREliWXZzN0NFRGs0anM3N1ZDM2F4MVZURG83cmQwVGNYcjdiRm8tRjZXUDdHanF4Q29CSUpWZU44TXcyM0I3VnVhNXVSZ3ljM1lKejVBMXczR3BZSkE?oc=5" xr:uid="{38DBB50A-9DAF-4B9A-A0C5-5EEA406975EE}"/>
+    <hyperlink ref="C1039" r:id="rId491" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxNWEtqVWt0d1BTTTFFMGRCVWVFNUF1VXBWTkFRQW9GMmVReVVfMHlNLUFTLVRTVEhoUm1zdWw3Z0VobDZ3UEQ4SEY0VTZycFJrVFZGcmtGQ2k4VHlOV1hpNktsWXA4X3F4YlRPWG0yQmpSaHBjY2wzSzRvczVlR1NGVlRveGwyM0I2X2ttMmxxX1Q2R3pYUFVXM0NZcEtsQUlFc3BqNVU5VG1iV09jY2VFLTZPRzBTemFKb0xtMHhR?oc=5" xr:uid="{DBCB2F18-D5E8-4032-879B-29806521B991}"/>
+    <hyperlink ref="C1044" r:id="rId492" display="https://news.google.com/rss/articles/CBMimwJBVV95cUxOV3h6MGZYeVpTWmlaZjRoZHkxcXVQZHF4YXhSRmhrUkVTNnRhSlRTaUdRRHpMX3dIQnpXSEUxaDdvZFBYQy1pVU5rSHF4TTlwUzhxRzlKeHVJamlRYnhtUjdhZDFXMlZjaUNiSk1WczNTMWxjM3p0R1lQWFlTRzRZcmViMzhyazhfdXN2TlBEWWJkM1ZITEZGSzhqVVQyRVpmNHh5ZEdOZUh2cXhFdzdadTVhOU94RG1DeUpiUEdGdjQtbGdZT3ZuQnZTUHlUOUUyZXh6OWNvQlBibHBubllBSzVkdnU5MnEtVHEtM1gwZlYzUXdpVFJkU1lucHVINFN4SFM0OWFtVHl3cGdLNUVnLWpJbnJXTDZqYkNv0gGgAkFVX3lxTE5vZ1pVWlVoQVV2bVRYYV9ab18xbEd1Sml2SVRSWnUwcXh5OS1iRmVvWXg3YkEyVS02eFhOSklUbm9KdDEtTWkwMk5jU3ZWc21hbDRZcWQxNHlSelZJMUJJZTMxT2pVOXItY0JkempZaF9OQWNiSmJJdmtIWnA0Q19LMHZLR2FnU0EzbUVLWkxIei1tb3p2akp2NDN1ZEM1UkZYVHhiODZ5XzBwdTFZcm8wNkc3TzZ5cl9aeW5uaHRhcXlwLUhZYk05aE13Q0dsM1I1UmgzLTI1WTh1RFV3dzlyZkJWelU4QWd3bkVSYy1aYTJmX21BV0U5S1NmcEktM09taE1WdFJCa3c2R0VISnRUUTJDNjFFN2EtZlVWQ2kzSA?oc=5" xr:uid="{13A9773A-9BCA-4057-A3B4-E874A39B5E6C}"/>
+    <hyperlink ref="C1045" r:id="rId493" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxNVE1xR0hZQlZrSi01SlpRa1lvOTJRSmdpVExLZGNiekdSUGdKS2NOdkdOaWt5VDdkNE1GWE1ybVQ5V19BVHlZZkdxd3A0QnJZQ25pcVpPVVRydURpN2hWQkdfXzdFRHpFS1Y3eG5fQnBuT0tmRjdLeEJ1bkN4d0RDUVBJaDB0bml2ZjBTODljeXM5dFI3NEJhUjBRZEkxU1FtV3p0VVZVZlplbG1zZEI1YW04OXh1bThCWElaX1hpTDlXY3pGekV2QVV3SUpUc0w3bVVCeEJEVTNWY3NXUjQ0cmpPNWtMcVVSZm12aUR3ZEppUFZIT0owcVdrSmpzRjjSAYQCQVVfeXFMT1VhYVRXd3NlNEN2VUhCd0xsM1V5NC1aNWh4em9YY0FPQ2EwNnY5bS1Ld21Qd3VqRTlvTnNSYld3VmdyYngyVi1RZ2VHVFNjOXp3RWdrdFZHY2ZWdVM2R25lc0ZhQlNOTEV4Y0RRQXJERFpaOWhCbm5NbDFQY2ROdnk5bjd2VVQzZ3VXSmJaeXctRHBMeFlOMkI4Y0lxUTRHY09UaFNPYU81bF9GMG5CM0NaMVFadUpMU1BmenVKbVFmOFFIQjYxS05UN3R3US1PX1JaVGdzNTJQRzF3eDR3XzRSQzREWmhBYWotXzVmWjlUeFBrR050RGtrM051ZXdTXzktUnQ?oc=5" xr:uid="{08488F63-275E-42A1-B951-5369E26A06B6}"/>
+    <hyperlink ref="C1046" r:id="rId494" display="https://news.google.com/rss/articles/CBMijgFBVV95cUxOUzJWNXIweERvZVNHRjNXRE14S2Y2Q3gyY2d1SlN6X0NDR2dwd1BFOFJzOVFiX3NwSmRZUFhDdTV0LTRkUEl4SVVLQ003UmhHLXFVNk44dmhEd2RSSzNhRy10QWJDXy1wdjZhQWxmSkd3WUpEVTZRTjBfSGFrYm5qVUsxT0ItTVhlRzd1UnlB0gGTAUFVX3lxTE9icEZDTXFhZGlEWmxEQ3ExVHRXei1MYVUyX2NJV0JDZWFUZWlrSmVtN0JkUlBGa2RXbm5LbElIbTdDR2EtNnNDcFJIWjEtM2d3ckhHVzV2V3VUWDZwNG9BdnZFYjdZcENwbmc0UjBta01JbXVjQUJrVG1WdU5pNVBJWVg4V1B5b1l1bzFZdEtjV2t0bw?oc=5" xr:uid="{E8E057C7-E008-4860-95C5-1D68CB769F93}"/>
+    <hyperlink ref="C1047" r:id="rId495" display="https://news.google.com/rss/articles/CBMivgJBVV95cUxOZ3c3TkpPRmN4MjBTTDRXR2d6Y0FZQjF1NU55Ml93aVJ1ZS04VUoxR3VIbXNqNWlCQXhWN09IZS1pSFcyVmNHeko2SGdqY2NpMHB1endoV1NJYXQ3Z0tTeGl3cm1YNjctSlNoZEtlaUR0VDRULVhyVzRiLThpbW54bEhuNzFMdHU3NVNFMFZxRFRfZHRTQ0YwZVVneTJKOEFWbXF0Wkk1Sk9rTld0dlloVXdvVnR6UlFHUGVrbkJCODVERzlQNWwtcjlPeHRFYjFYUXg4TFg1TWNqSVdWb2ZOTnJZNy1lTEtNZFV5YTN4MW0tRzVackFDQmEtcDlpa1dId21ScklMM2RaV1o5VmlNQUoyeWNySVdoMlF0WEdiX0NCcG9HMDhDeENDQmhfSTFCZXpWZm56b3VtUWlSSkE?oc=5" xr:uid="{7A2F0763-ADC6-40BF-8C70-9A35EBB6F7F8}"/>
+    <hyperlink ref="C1048" r:id="rId496" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQRTZuU2MydHRiVHdUOXpNTEpiVnptTTFEdTZsSm1iaGpmWE1iLWZRR1dMZTczMDdfbmxENmhMNUlaMDZ1LUE0eG93RW5JNHZiOF9iQmktSHc2YW1OQXpvcXhHd2N3TjRWaHkxMjA0Y1U1QkdXZ2xuVFB3NUpaSDNoWVBhZDZfcm5yUXcwQThjQ0NmY1Q4aXJSUkoxU2ZHNWdLYy10RDF5N0JkLS1LeGdWOWFTZndLT1hudm45cjhobUZwZUtZaGpHS1JRSjA?oc=5" xr:uid="{9F60CB37-3605-49CC-B69D-022CE781F48F}"/>
+    <hyperlink ref="C1049" r:id="rId497" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxNVFQzVGk2LUJqMVFkTUdHak9JYjlOVkRBeFVhVDZiR0hXZEVHN2tmZGhnazBhVmlEeGd0S0RsRThGaFdwSFU1dFRXQ2QtSXVKejd0c29WMDZrdkhWSUhqeVdYSEgycFpUcjdTelZ2aWNzSURwRlBHc3M2cE1UU0xNdk8wQTFWZ0dWOTBIU253NDEwTWZHZTBzNkQtdGxaS01Jb0F2c2NQa0JfMFpwd0E?oc=5" xr:uid="{4143C869-CA48-4FAB-A781-04E266C4E54D}"/>
+    <hyperlink ref="C1050" r:id="rId498" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPSHRCOEtHUkdrTmNPT0dON2ZDWm5TRzdXSEQ4LVlJWHhtczZXam5SLWlzTEtNWTl3LXRJalB4RUQ2Q2c2Vmg3a1k0MEM2VHJoTzRYOHRIa1d6aU15c2I2Y2wzTm9xMXJQMHd6bW1kRmxuWEZYQU9FRXVtMnFQWDg1aWtJenNPbTYwY3Z3Smh0dVFSR3VSdVJxakJKeHJRSmdBWkM0ajM0LW10bmJraGJfSEdqcEdjdEkxbzBOMVg2bw?oc=5" xr:uid="{3A6C4E9D-CB1E-4F75-98A9-FC53CA936F9F}"/>
+    <hyperlink ref="C1051" r:id="rId499" xr:uid="{26D13211-8A20-4F72-9981-A01B1BAF5D5A}"/>
+    <hyperlink ref="C1042" r:id="rId500" display="https://news.google.com/rss/articles/CBMimgJBVV95cUxNaXNnd1ZfTUNEZ1I1bUZubm9XR3d4Tmp0ZHJkX3ROZ1NJUGZrM0pQNVVmcVBTSDY0akxIVlZCZ3duUXpnejR2SlBycG43ZmlsWm5yRTRLSFQ1VTB1QkVLZzgweWk3eTNjX2VWUVhBZWFIMmlYLUVpUFI5NW1WU0NvUXk0YW1SYnpOQmc4T054cXMycTBjdVptZS1CWlU0aENrNjh0bGhOVTV0Z3ZuWEQ3bTk4dDVCRkE5ZG9NNWNmYTRzdnhfUUMxMVhoYjJkOElZb1RJejNSSDNZc29Dd3NNMGNKQ3Vla2J2RmV6eHBmZ09mQmFnd2QtN1dkTEVwWVVvVDhjbHVXTjA0a3dOTV9HYkc5OWhVN3p2eUHSAZ8CQVVfeXFMUGpWcG5saWw1SmJickhBY3pvT2pWbG1XenRMbThCRDlEU1BuLVhkUmxXUlRyTjZsZDlNRnlzQlI0cnFDal9Wb2w0X2xBQlpGOFJCcEx0M0hZX1hhbXVyeERWTlVMVGgxUk1PZF8zSm52eHVHMEZGSnRyU2l5U3B1ZGhzUU8tcXFWOWctdUlzVlc2VlhnY1ZTdmM0QVVKYjlyekJlTThtU1EwTkNrR0RJTnV3WV9sLXF0bVZjeEc5QjZsMjd1N2ZNemg0RjNQRHB0Y200MTI2ZzlHd2UyN2otakNFYTQwcDByeEY3NVFvVWZfSUhNTDE4c1lQSTh0ZHZKa2hNc012OG9uS2M0R0dzeXdQVUQyRzZyYThqNXhKdzA?oc=5" xr:uid="{9D814E8D-AB6F-432C-8743-FA8D16D4510E}"/>
+    <hyperlink ref="C1043" r:id="rId501" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxObVZPTlRDMm5WOWxQeDNYTExfYnV5WHNJdVgwOGc3U0hNejF2SndhbXRuYjVZZXFyOGFTeEpDZUlMWDJrMkZHNGdtZWE2UDJxYmMzRXhqU20tenJoaExKb1FKbTdaclFhMUw0R21UNWNOMlQyODFrWEM0T1Bpa0tjZGVhcVdHVDJORjJXWG95bk05RVdNZHhQeDlWU1k1V0dWQUhNSXBFUzNqaC1pSFhTN192OXJCaXFoR2Z5SW10Qi1rZVnSAdcBQVVfeXFMTkktNm9VYjlXYm5Yb1dob2JHdExmY0puUHY0dk1SZ3lyVVZOSE9TZTZLVi1YT0JENFZKQUhhNkxnd0psb09aUlluM3B3UWFVZ2JFZHB0aTlkSDdfODZoVXExbkY2SThLYmtoc0wyZHFwQUJhZ2gyYUNuOVM2WXBLT1ZkTGpXTkxlVXhsU1hPcmU0cDMzYjJidll6UmRCakE5WGRLX2k1dEZuc3JSc2RfVDVmejdjMDJMWjZoZFE3bzlsR2VQMlJPeTMwLWE1QnRQSEN3RndYOHM?oc=5" xr:uid="{2B17261B-A39A-4D0E-B3A7-8CEBB21273E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FBEA65-0430-4A54-80EA-7FA41A93E283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FA08E-2AC5-40A1-873B-73610F89A6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$87</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="264">
   <si>
     <t>Fecha</t>
   </si>
@@ -772,6 +775,53 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMiX0FVX3lxTFBhY3BnT2wwVGpUWHJyREdPUmRHUFIxU2g4bUFtdWV2OTlRQVJvYlJUb0FLZVJkbnNzWVgzSGtIVldTcE9CU3d3VkNxWkVQQ0JFRUwyaGhRZjU0TFNkRXJR?oc=5</t>
+  </si>
+  <si>
+    <t>Fajardo es el hombre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiekFVX3lxTE5sYUxzNXBKUERfcDA1c1ZnMndvY1N6ZWJhWjRUSzZIMDRoYjdoSVZQbHZYWG0wREZ1R2F3clpYeW51akJmclVfZzRZWEFBQXRXeVZvMXFGcll2Q0RTSDRJZ1g0WXhnc3lpd0JHRTI5dTFYSFZWaHhycWhR0gF_QVVfeXFMTmRvRUlUNVV5c3Q5Z1RBV1VVZGo3R3FzR19uRW9YWV9VY0gtZGxfc3ZsMlBtOF8xWEFUODBhZmR6UXl4ZndRWlIyNWlLUjZkeHJGR21ZQXN0ZkZ6SzJ3cE5jVDQ2NWRuUjFpZ0FLOURjNlJJQjNLeVBvVHBpcXotOA?oc=5</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Exclusiva | Juan Daniel Oviedo habló sobre su campaña presidencial de consensos; criticó a Sergio Fajardo no participar en una consulta interpartidista</t>
+  </si>
+  <si>
+    <t>https://90minutos.co/colombia/exclusiva-juan-daniel-oviedo-hablo-sobre-su-campana-presidencial-de-consensos-15-12-2025/amp/</t>
+  </si>
+  <si>
+    <t>90minutos.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tras anuncio de candidatura de Paloma Valencia en el Centro Democrático, Abelardo de la Espriella se dispara en Polymarket; Reporta el 40 % de probabilidades de ganar la Presidencia, frente al 33 % de Iván Cepeda y el 14 % de Sergio Fajardo.
+</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/confidenciales/articulo/tras-anuncio-de-candidatura-de-paloma-valencia-en-el-centro-democratico-abelardo-de-la-espriella-se-dispara-en-polymarket/202520/</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella se dispara en Polymarket, luego de anunciarse la candidatura de Paloma Valencia por el Centro Democrático; rendría 39% de probabilidades de ganar la Presidencia en 2026, seguido de Iván Cepeda, candidato de la izquierda, con un 33 %, Sergio Fajardo, con el 14 % por ciento</t>
+  </si>
+  <si>
+    <t>https://www.elpais.com.co/amp/colombia/abelardo-de-la-espriella-se-dispara-en-polymarket-luego-de-anunciarse-la-candidatura-de-paloma-valencia-por-el-centro-democratico-1602.html</t>
+  </si>
+  <si>
+    <t>Candidaturas a la Cámara por Antioquia enunciaron respaldo a Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>https://ifmnoticias.com/candidaturas-a-la-camara-por-antioquia-enunciaron-respaldo-a-sergio-fajardo/</t>
+  </si>
+  <si>
+    <t>ifmnoticias.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precandidata Vicky Dávila se unirá a coalición de centroderecha; Juan Daniel Oviedo, Juan Manuel Galán, David Luna, Aníbal Gaviria y Mauricio Cárdenas ya hacen parte de esa coalición, mientras que Abelardo de la Espriella y Sergio Fajardo irían directo a la primera vuelta.
+</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/politica/precandidata-vicky-davila-se-unira-a-coalicion-de-centroderecha-rg10?_amp=true</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3494,164 @@
         <v>213</v>
       </c>
     </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>135</v>
+      </c>
+      <c r="I89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>251</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I87" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}"/>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPZ3NJWXozbXJvYkxPSVVjVU1fcXk3LVQxLTlZTk9nS2h2dmxIaC1GeUR2c0p6NnlVNjFtcXVVRU1FV05aaXJWQnVSalFHcWd0T2taSHAxYUUxS05CSXNxcGg0WDlMVzBzam0wczc4TU1PUTlDdG9pbEd3WG9VbnBMTURTU2VGZ1pHMUotQUdvQlo3NWp4anlKQS1oMW1SblBYNTZ1SnJlcFItaHBxdXNPaVZzQjZYVmY4YU1fZ01aSTJVcTd1MmfSAcYBQVVfeXFMTVRlZldRUTVxLUFsekt0MDA1M3VSMnR1MmNKcHJ0cEdjNDJSanRyUFkxWXozUjRlamhHR0stbkl4cG42bG5TaDRKRXZ3MXdyMlNValVXU2hyNEVNQXFGUWhjNjJ3VDlqVXpmTjlzYVhOdnpZdHU1MUZpMjFjNC1aMXo3TGpBUnhrN3JHdkpkVEVNVkhrQXAxUHRiRzdHd2hRTWRIRV9xdmVaekFMWGRvM2c0aWpPTWdSa1dZMTZDWU9UajhuenFR?oc=5" xr:uid="{8F4601AD-6630-45E9-A0AF-048BDAADF1EB}"/>
     <hyperlink ref="C69" r:id="rId2" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPWGtEOFA3NE5BZ1lYbHBIeUZFUkVBNWs4eUM2eGt3SWdBVUVCdXNPYmVnZW1PdHRJLUVjNkZIVDVjcEhYdTI5cnN6ZnZjbE5ITV9xSGZqa1VuXzNkOV9lUEl2azlBODE4MmVWUVBTeVQtRE96dGVNdUtHbWFuSGxiQjBMSHVPd1pIaDFvQjJTeGxDdzNoWU9uRm9Yb2NLdlpFQWF1ZE01ZjA?oc=5" xr:uid="{EB3F8D3B-0C53-491E-8DF8-A287BBFFD385}"/>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FA08E-2AC5-40A1-873B-73610F89A6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325DACBF-8743-44E8-9A6A-89489DDACA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="263">
   <si>
     <t>Fecha</t>
   </si>
@@ -783,45 +783,42 @@
     <t>https://news.google.com/rss/articles/CBMiekFVX3lxTE5sYUxzNXBKUERfcDA1c1ZnMndvY1N6ZWJhWjRUSzZIMDRoYjdoSVZQbHZYWG0wREZ1R2F3clpYeW51akJmclVfZzRZWEFBQXRXeVZvMXFGcll2Q0RTSDRJZ1g0WXhnc3lpd0JHRTI5dTFYSFZWaHhycWhR0gF_QVVfeXFMTmRvRUlUNVV5c3Q5Z1RBV1VVZGo3R3FzR19uRW9YWV9VY0gtZGxfc3ZsMlBtOF8xWEFUODBhZmR6UXl4ZndRWlIyNWlLUjZkeHJGR21ZQXN0ZkZ6SzJ3cE5jVDQ2NWRuUjFpZ0FLOURjNlJJQjNLeVBvVHBpcXotOA?oc=5</t>
   </si>
   <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Exclusiva | Juan Daniel Oviedo habló sobre su campaña presidencial de consensos; criticó a Sergio Fajardo no participar en una consulta interpartidista</t>
-  </si>
-  <si>
     <t>https://90minutos.co/colombia/exclusiva-juan-daniel-oviedo-hablo-sobre-su-campana-presidencial-de-consensos-15-12-2025/amp/</t>
   </si>
   <si>
     <t>90minutos.co</t>
   </si>
   <si>
-    <t xml:space="preserve">Tras anuncio de candidatura de Paloma Valencia en el Centro Democrático, Abelardo de la Espriella se dispara en Polymarket; Reporta el 40 % de probabilidades de ganar la Presidencia, frente al 33 % de Iván Cepeda y el 14 % de Sergio Fajardo.
+    <t>https://www.semana.com/confidenciales/articulo/tras-anuncio-de-candidatura-de-paloma-valencia-en-el-centro-democratico-abelardo-de-la-espriella-se-dispara-en-polymarket/202520/</t>
+  </si>
+  <si>
+    <t>https://www.elpais.com.co/amp/colombia/abelardo-de-la-espriella-se-dispara-en-polymarket-luego-de-anunciarse-la-candidatura-de-paloma-valencia-por-el-centro-democratico-1602.html</t>
+  </si>
+  <si>
+    <t>Candidaturas a la Cámara por Antioquia enunciaron respaldo a Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>https://ifmnoticias.com/candidaturas-a-la-camara-por-antioquia-enunciaron-respaldo-a-sergio-fajardo/</t>
+  </si>
+  <si>
+    <t>ifmnoticias.com</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/politica/precandidata-vicky-davila-se-unira-a-coalicion-de-centroderecha-rg10?_amp=true</t>
+  </si>
+  <si>
+    <t>Exclusiva | Juan Daniel Oviedo habló sobre su campaña presidencial de consensos y criticó a Sergio Fajardo no participar en una consulta interpartidista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tras anuncio de candidatura de Paloma Valencia en el Centro Democrático Abelardo de la Espriella se dispara en Polymarket y reporta el 40 % de probabilidades de ganar la Presidencia frente al 33 % de Iván Cepeda y el 14 % de Sergio Fajardo.
 </t>
   </si>
   <si>
-    <t>https://www.semana.com/confidenciales/articulo/tras-anuncio-de-candidatura-de-paloma-valencia-en-el-centro-democratico-abelardo-de-la-espriella-se-dispara-en-polymarket/202520/</t>
-  </si>
-  <si>
-    <t>Abelardo de la Espriella se dispara en Polymarket, luego de anunciarse la candidatura de Paloma Valencia por el Centro Democrático; rendría 39% de probabilidades de ganar la Presidencia en 2026, seguido de Iván Cepeda, candidato de la izquierda, con un 33 %, Sergio Fajardo, con el 14 % por ciento</t>
-  </si>
-  <si>
-    <t>https://www.elpais.com.co/amp/colombia/abelardo-de-la-espriella-se-dispara-en-polymarket-luego-de-anunciarse-la-candidatura-de-paloma-valencia-por-el-centro-democratico-1602.html</t>
-  </si>
-  <si>
-    <t>Candidaturas a la Cámara por Antioquia enunciaron respaldo a Sergio Fajardo</t>
-  </si>
-  <si>
-    <t>https://ifmnoticias.com/candidaturas-a-la-camara-por-antioquia-enunciaron-respaldo-a-sergio-fajardo/</t>
-  </si>
-  <si>
-    <t>ifmnoticias.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precandidata Vicky Dávila se unirá a coalición de centroderecha; Juan Daniel Oviedo, Juan Manuel Galán, David Luna, Aníbal Gaviria y Mauricio Cárdenas ya hacen parte de esa coalición, mientras que Abelardo de la Espriella y Sergio Fajardo irían directo a la primera vuelta.
+    <t xml:space="preserve">Abelardo de la Espriella se dispara en Polymarket luego de anunciarse la candidatura de Paloma Valencia por el Centro Democrático con 39% de probabilidades de ganar la Presidencia en 2026 seguido de Iván Cepeda con un 33 % y Sergio Fajardo con el 14 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precandidata Vicky Dávila se unirá a coalición de centroderecha: Juan Daniel Oviedo, Juan Manuel Galán, David Luna, Aníbal Gaviria y Mauricio Cárdenas ya hacen parte de esa coalición, mientras que Abelardo de la Espriella y Sergio Fajardo irían directo a la primera vuelta.
 </t>
-  </si>
-  <si>
-    <t>https://www.bluradio.com/politica/precandidata-vicky-davila-se-unira-a-coalicion-de-centroderecha-rg10?_amp=true</t>
   </si>
 </sst>
 </file>
@@ -872,12 +869,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1195,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3508,7 +3506,7 @@
         <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -3525,16 +3523,16 @@
         <v>46007</v>
       </c>
       <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" t="s">
         <v>252</v>
       </c>
-      <c r="C89" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" t="s">
-        <v>254</v>
-      </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -3543,24 +3541,24 @@
         <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>46007</v>
       </c>
-      <c r="B90" t="s">
-        <v>255</v>
+      <c r="B90" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -3577,16 +3575,16 @@
         <v>46007</v>
       </c>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
         <v>124</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -3603,16 +3601,16 @@
         <v>46007</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -3621,24 +3619,24 @@
         <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>46007</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
         <v>59</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -3651,7 +3649,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I87" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}"/>
+  <autoFilter ref="A1:I93" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}"/>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPZ3NJWXozbXJvYkxPSVVjVU1fcXk3LVQxLTlZTk9nS2h2dmxIaC1GeUR2c0p6NnlVNjFtcXVVRU1FV05aaXJWQnVSalFHcWd0T2taSHAxYUUxS05CSXNxcGg0WDlMVzBzam0wczc4TU1PUTlDdG9pbEd3WG9VbnBMTURTU2VGZ1pHMUotQUdvQlo3NWp4anlKQS1oMW1SblBYNTZ1SnJlcFItaHBxdXNPaVZzQjZYVmY4YU1fZ01aSTJVcTd1MmfSAcYBQVVfeXFMTVRlZldRUTVxLUFsekt0MDA1M3VSMnR1MmNKcHJ0cEdjNDJSanRyUFkxWXozUjRlamhHR0stbkl4cG42bG5TaDRKRXZ3MXdyMlNValVXU2hyNEVNQXFGUWhjNjJ3VDlqVXpmTjlzYVhOdnpZdHU1MUZpMjFjNC1aMXo3TGpBUnhrN3JHdkpkVEVNVkhrQXAxUHRiRzdHd2hRTWRIRV9xdmVaekFMWGRvM2c0aWpPTWdSa1dZMTZDWU9UajhuenFR?oc=5" xr:uid="{8F4601AD-6630-45E9-A0AF-048BDAADF1EB}"/>
     <hyperlink ref="C69" r:id="rId2" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPWGtEOFA3NE5BZ1lYbHBIeUZFUkVBNWs4eUM2eGt3SWdBVUVCdXNPYmVnZW1PdHRJLUVjNkZIVDVjcEhYdTI5cnN6ZnZjbE5ITV9xSGZqa1VuXzNkOV9lUEl2azlBODE4MmVWUVBTeVQtRE96dGVNdUtHbWFuSGxiQjBMSHVPd1pIaDFvQjJTeGxDdzNoWU9uRm9Yb2NLdlpFQWF1ZE01ZjA?oc=5" xr:uid="{EB3F8D3B-0C53-491E-8DF8-A287BBFFD385}"/>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325DACBF-8743-44E8-9A6A-89489DDACA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E65A764-AB65-41FF-BF12-E67B0B897EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="275">
   <si>
     <t>Fecha</t>
   </si>
@@ -819,6 +819,42 @@
   <si>
     <t xml:space="preserve">Precandidata Vicky Dávila se unirá a coalición de centroderecha: Juan Daniel Oviedo, Juan Manuel Galán, David Luna, Aníbal Gaviria y Mauricio Cárdenas ya hacen parte de esa coalición, mientras que Abelardo de la Espriella y Sergio Fajardo irían directo a la primera vuelta.
 </t>
+  </si>
+  <si>
+    <t>Sin Abelardo de la Espriella y Sergio Fajardo, así se cocinan las alianzas para las consultas interpartidistas de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxOZFNGUGFsaGdiQnFKVllSSnBDcjhfX1o5LWVhNjFNaG1sSlVWMVlUUUs1N1gyQTIzVzRPTS1SUHNreGstdnZyR3pmOUFzSXRMRVZYQkd0MzZ5OERoMXkzTndGRzM2X0JjM3FEUjNJbjNua09yQVctcEstejByM1p0QjFzQU5NNEFqZGR0TEpRWnJOemp5TmxtWjVnTldKbWJFd09RM1BET0ZGZFN3a0hUdjN4ci1zUDNUZ2JFNk1fWjNtOTF4UGxYbktDRllydW45UURCZlhGTDUzYzJvYzBmZXpBZnNsWlNGTlNkR0U4Mjd1Z0RGY2YtandqdVVGallCLS1YMjNteE5iNWNsOWs0SXJNSdIBmAJBVV95cUxOTzFqaXhSWTQ2azJYaS1lZmxiV0RtSWh4aE8xeDE4RUNjcDlHaHd1MWpMZURrOGR0aWxCaFU4RXRTQzRwRWlVSlBTUm84OHZOUWVmbWVqU0R5bjZOVE9QRWluVTR5R3lDUHFTREcyN3ZHU1hCT2N4MFVCWkMtcXlTLUNHbmNFU0dlMlI5V1c5Xy1DbjA0bjBBUENEbWwyTU1BQ2N5Z2FtYTI1akpkWXFoNjdSS1pRZEhtWnRBXzdEVVFCaXVyYjhxM2JJcm9aYnNOSFNJQjFNeE83YU1IV3J0Q2s2dVNNcVpURnc0T1Jwc253aDItd1ZybkhETEZfZXZ0cGVnSWVWYmhvbVJvNml4aWlDS01NT1Vl?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Petro y su agitada noche en X: lamentó el hundimiento de su reforma a la salud, cuestionó a Sergio Fajardo, Catherine Juvinao y Cambio Radical</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogJBVV95cUxQbEJQWXVJWXVQd2dJRFdiZVJTc21wTWFnOThqa0tINU1VeWwtYmRQWXRMMEVVZ1Z5aDZaeHM4R3hMbmlXWmRLX2hYS0sxRElKcElLS1VqRDk4bWl0a09DcDJwV3VxdnJ6X3hZam9HMG4xRm9hVE1YbHZINXhvMW9qakF0N1BwOFFkOVVfdzlLazRqbHFnQUx6aDZqdDRYRVZUdzI5VlF1M0xueXdoaWJselo1a2k0XzNqYkpnUU1zbU1vYjFLM1d5VDNwTHg2VnloenUyeVhsNUJld1ctSjZVWWVwU2ZmcnRkXzZFcGhFVzNtMGpraXk2NjJQSHZDa241LUxaUDFDak5KMzZReVVIUnNtOWNkb1l0X2ViU1VQbmxkZ9IBpwJBVV95cUxQZWk4MDZkY2pRenB1blZNWEtQMEJjNlNIcUFJWkY4SE9CMFQzY0VUZlpiTHVWV2s1U1FQb2dkeFowQmhHSVhjRkRIa3pXSlhXVk9xcmlNS3VpUFFvQU9BNENYSktyNU9vQWRhNF83MExVem9YdV9OaVhtR2FBU2ZSblF4dDVJWUxFRmhFS2pWLTVwQTk1dFUtV3FsbEU5Y0NFUE9FYTczLUhNOGtGSmVzT3M5bDNFajRPVUtPaXdaUmhKMS1XZmJuRzVRR3ZneGV6MlYxaWZ5X2lrZFY2cTg0M29ETmtRTHkxSDRFRWUyWTdIbTcxMjNwYmpFUlpLTXZSVHNJdEw1ZF9LV1RVY2laNWJSbjc2R09lQ0ZXc3o1c3ZOVTlLdUxv?oc=5</t>
+  </si>
+  <si>
+    <t>['agitada']</t>
+  </si>
+  <si>
+    <t>La arriesgada apuesta de Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOdlFITDlEY1VBUUhQbzRmSzJBcVVoQlZMejRVc3NXc2tuYURHMktqZWhKaG1Mbzh1OFZuVWxaQTI5dWJVMEVXRmRPR2pKNHpZdFlOcWVkYkVUNDI2Y1c0RkZDajhJOFQ1OTA3TGlMWUItNzktZjFqSk92bHVmUjhYV2hHR0dEbEZySW9mUTlKdjI3aVltN0ZjX2dqUlNvd0U5MmdpYtIBuAFBVV95cUxPQy1hcElCRk1OQ0Fhc0tlclFmaDAyaGhOZEtjTFBkNnJtd21pQm1RNThhenNYMmZCaW53TkMwNjM4RjZUX0dRTUY5SVVadmNTQkJURFdqX2NiTzRHUERyRGktOGZnWDMyczRWaU1PQkVZZUoxWklQQzlPUzFqNVpXay1CRVNpNzNGY0Q1Y19ab0J6bENjdzAxUk5RQTdCbTltNkZVdXh5ZUltaFhzV1JhbFBDd1BXZXMy?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda vs. Fajardo: ¿la final probable?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNTnFBX0xpbTQ0a0dtWkNsQjJYN0U0U3E2Q0xVMXpRZVBKaXVhaXVERmpGRzVhUFRiRW9jM2ZTOVYzTGE4Q3JMTTFCVkJZLUc3RTl6MzJ3TnZXMW9Xel9qakRubktTbWtVUWgzWmlFeTZSYVJTMHJZaEZGcUNwSklvQ3ZkRFVCMUs2SUVEWTBQNmM1R0x4T3dVWjltWXFwZkhwZzVjcdIBpAFBVV95cUxNTnFBX0xpbTQ0a0dtWkNsQjJYN0U0U3E2Q0xVMXpRZVBKaXVhaXVERmpGRzVhUFRiRW9jM2ZTOVYzTGE4Q3JMTTFCVkJZLUc3RTl6MzJ3TnZXMW9Xel9qakRubktTbWtVUWgzWmlFeTZSYVJTMHJZaEZGcUNwSklvQ3ZkRFVCMUs2SUVEWTBQNmM1R0x4T3dVWjltWXFwZkhwZzVjcQ?oc=5</t>
+  </si>
+  <si>
+    <t>['probable']</t>
+  </si>
+  <si>
+    <t>¿La gran jugada de Uribe?: Esta elección tenía tres candidatos, por la izquierda comunista, Iván Cepeda, por el centro santista, Sergio Fajardo, y por la derecha, Abelardo de la Espriella; con la decisión del Centro Democrático aparece una cuarta figura, Paloma Valencia</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/america/opinion/2025/12/17/la-gran-jugada-de-uribe/</t>
   </si>
 </sst>
 </file>
@@ -869,13 +905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1191,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,7 +3583,7 @@
       <c r="A90" s="1">
         <v>46007</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>260</v>
       </c>
       <c r="C90" t="s">
@@ -3626,7 +3661,7 @@
       <c r="A93" s="1">
         <v>46007</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>262</v>
       </c>
       <c r="C93" t="s">
@@ -3646,6 +3681,136 @@
       </c>
       <c r="I93" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>267</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>272</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>135</v>
+      </c>
+      <c r="I98" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E65A764-AB65-41FF-BF12-E67B0B897EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28C372-65DF-4BDA-A283-0B9FDD1BBA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="noticias_fajardo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_fajardo!$A$1:$I$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="288">
   <si>
     <t>Fecha</t>
   </si>
@@ -855,6 +855,45 @@
   </si>
   <si>
     <t>https://www.infobae.com/america/opinion/2025/12/17/la-gran-jugada-de-uribe/</t>
+  </si>
+  <si>
+    <t>Seducir a Uribe y aislar a Fajardo: la apuesta de la consulta de centroderecha</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/silla-nacional/seducir-a-uribe-y-aislar-a-fajardo-la-apuesta-de-la-consulta-de-centroderecha/</t>
+  </si>
+  <si>
+    <t>Seis candidatos irán a consulta presidencial y meten presión a Paloma Valencia y Fajardo</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/nacion/seis-candidatos-acordaron-ir-consulta-presidencial-marzo-piden-apoyos-PP4954741</t>
+  </si>
+  <si>
+    <t>Tablero de consultas interpartidistas en marzo entró en fase de depuración: Sin Sergio Fajardo ni Abelardo de La Espriella en disposición de ir a urnas en una interpartidista, seis aspirantes sellaron un primer acuerdo, pero los plazos aún están abiertos.</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/asi-se-mueven-las-consultas-para-las-elecciones-del-2026-vicky-davila-sergio-fajardo-juan-manuel-galan-paloma-valencia-alvaro-uribe-ivan-cepeda-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>https://elirreverenteibague.com/noticia/2534026/me-gusta-sergio-fajardo-para-la-presidencia-el-pais-debe-salir-de-la-polarizacion-juan-carlos-losada</t>
+  </si>
+  <si>
+    <t>elirreverenteibague.com</t>
+  </si>
+  <si>
+    <t>Alejandro Gaviria se destapó sobre el hecho de haber sido descartado por el Nuevo Liberalismo: “Yo iba a ser la cabeza de lista”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2025/12/18/alejandro-gaviria-se-destapo-sobre-el-hecho-de-haber-sido-descartado-por-el-nuevo-liberalismo-yo-iba-a-ser-la-cabeza-de-lista/</t>
+  </si>
+  <si>
+    <t>https://elcronista.co/columnistas/cepeda-vs-fajardo-la-final-probable</t>
+  </si>
+  <si>
+    <t>elcronista.co</t>
+  </si>
+  <si>
+    <t>“Me gusta Sergio Fajardo para la Presidencia; el país debe salir de la polarización”: Juan Carlos Losada, representante a la Cámara y hoy candidato al Senado</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,13 +2815,14 @@
       <c r="E59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2802,13 +2842,14 @@
       <c r="E60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2828,13 +2869,14 @@
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2854,13 +2896,14 @@
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2880,13 +2923,14 @@
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2906,13 +2950,14 @@
       <c r="E64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2932,13 +2977,14 @@
       <c r="E65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2958,13 +3004,14 @@
       <c r="E66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2984,13 +3031,14 @@
       <c r="E67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3010,13 +3058,14 @@
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3036,13 +3085,14 @@
       <c r="E69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3062,13 +3112,14 @@
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3088,13 +3139,14 @@
       <c r="E71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3813,8 +3865,164 @@
         <v>51</v>
       </c>
     </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>223</v>
+      </c>
+      <c r="G100" t="s">
+        <v>135</v>
+      </c>
+      <c r="I100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" t="s">
+        <v>282</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>284</v>
+      </c>
+      <c r="D103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>135</v>
+      </c>
+      <c r="I103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B104" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" t="s">
+        <v>285</v>
+      </c>
+      <c r="D104" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I93" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}"/>
+  <autoFilter ref="A1:I104" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}"/>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPZ3NJWXozbXJvYkxPSVVjVU1fcXk3LVQxLTlZTk9nS2h2dmxIaC1GeUR2c0p6NnlVNjFtcXVVRU1FV05aaXJWQnVSalFHcWd0T2taSHAxYUUxS05CSXNxcGg0WDlMVzBzam0wczc4TU1PUTlDdG9pbEd3WG9VbnBMTURTU2VGZ1pHMUotQUdvQlo3NWp4anlKQS1oMW1SblBYNTZ1SnJlcFItaHBxdXNPaVZzQjZYVmY4YU1fZ01aSTJVcTd1MmfSAcYBQVVfeXFMTVRlZldRUTVxLUFsekt0MDA1M3VSMnR1MmNKcHJ0cEdjNDJSanRyUFkxWXozUjRlamhHR0stbkl4cG42bG5TaDRKRXZ3MXdyMlNValVXU2hyNEVNQXFGUWhjNjJ3VDlqVXpmTjlzYVhOdnpZdHU1MUZpMjFjNC1aMXo3TGpBUnhrN3JHdkpkVEVNVkhrQXAxUHRiRzdHd2hRTWRIRV9xdmVaekFMWGRvM2c0aWpPTWdSa1dZMTZDWU9UajhuenFR?oc=5" xr:uid="{8F4601AD-6630-45E9-A0AF-048BDAADF1EB}"/>
     <hyperlink ref="C69" r:id="rId2" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPWGtEOFA3NE5BZ1lYbHBIeUZFUkVBNWs4eUM2eGt3SWdBVUVCdXNPYmVnZW1PdHRJLUVjNkZIVDVjcEhYdTI5cnN6ZnZjbE5ITV9xSGZqa1VuXzNkOV9lUEl2azlBODE4MmVWUVBTeVQtRE96dGVNdUtHbWFuSGxiQjBMSHVPd1pIaDFvQjJTeGxDdzNoWU9uRm9Yb2NLdlpFQWF1ZE01ZjA?oc=5" xr:uid="{EB3F8D3B-0C53-491E-8DF8-A287BBFFD385}"/>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28C372-65DF-4BDA-A283-0B9FDD1BBA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C14F2-388B-4F9E-AE56-3B4C8562780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="310">
   <si>
     <t>Fecha</t>
   </si>
@@ -894,6 +894,72 @@
   </si>
   <si>
     <t>“Me gusta Sergio Fajardo para la Presidencia; el país debe salir de la polarización”: Juan Carlos Losada, representante a la Cámara y hoy candidato al Senado</t>
+  </si>
+  <si>
+    <t>El eterno reencauche de Fajardo, un tipo tibio pero con buenas ideas</t>
+  </si>
+  <si>
+    <t>https://www.las2orillas.co/el-eterno-reencauche-de-fajardo-un-tipo-tibio-pero-con-buenas-ideas/</t>
+  </si>
+  <si>
+    <t>['eterno', 'tibio', 'buenas']</t>
+  </si>
+  <si>
+    <t>Fajardo se planta: “Tengo carácter, propuestas y el equipo para gobernar”</t>
+  </si>
+  <si>
+    <t>https://contextomedia.com/fajardo-se-planta-tengo-caracter-propuestas-y-el-equipo-para-gobernar/</t>
+  </si>
+  <si>
+    <t>contextomedia.com</t>
+  </si>
+  <si>
+    <t>Paloma Valencia y Juan Carlos Pinzón se acercan a la "Gran Consulta por Colombia", conuslta interpartidista de centro derecha</t>
+  </si>
+  <si>
+    <t>https://www.wradio.com.co/2025/12/19/paloma-valencia-y-juan-carlos-pinzon-se-acercan-a-coalicion-de-centro-derecha/</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>['derecha']</t>
+  </si>
+  <si>
+    <t>La"Gran Consulta por Colombia" de centro derecha suma nuevo precandidato que se medirá en consulta en marzo: aterriza Daniel Palacios | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/colombia/daniel-palacios-se-une-a-coalicion-centro-derecha-BD31892928</t>
+  </si>
+  <si>
+    <t>Daniel Palacios se une a la "Gran Consulta por Colombia" de centro derecha</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/en-vivo/daniel-palacios-entra-a-la-consulta-de-centroderecha/</t>
+  </si>
+  <si>
+    <t>Nueva coalición de centroderecha,  mueve tablero político: ¿Paloma Valencia y Juan Carlos Pinzón se sumarán o no a la Gran Consulta por Colombia? ¿Habrá más de una consulta interpartidista en la Centro Derecha?</t>
+  </si>
+  <si>
+    <t>https://www.elnuevosiglo.com.co/politica/campana-presidencial-respuestas-varios-interrogantes-clave</t>
+  </si>
+  <si>
+    <t>['Nueva', 'político']</t>
+  </si>
+  <si>
+    <t>Daniel Palacios se une a la gran consulta de centro derecha</t>
+  </si>
+  <si>
+    <t>https://www.laopinion.co/politica/daniel-palacios-se-une-la-gran-consulta-de-la-derecha</t>
+  </si>
+  <si>
+    <t>Elecciones 2026: Daniel Palacios se suma a ‘la Gran Consulta por Colombia’ de la centroderecha</t>
+  </si>
+  <si>
+    <t>https://www.elnuevosiglo.com.co/politica/daniel-palacios-se-suma-la-gran-consulta-de-la-centroderecha</t>
+  </si>
+  <si>
+    <t>['Gran']</t>
   </si>
 </sst>
 </file>
@@ -944,12 +1010,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1265,10 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
-  <dimension ref="A1:I104"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4019,6 +4087,214 @@
       </c>
       <c r="I104" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>293</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>296</v>
+      </c>
+      <c r="F107" t="s">
+        <v>297</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s">
+        <v>296</v>
+      </c>
+      <c r="F108" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" t="s">
+        <v>80</v>
+      </c>
+      <c r="E109" t="s">
+        <v>296</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" t="s">
+        <v>296</v>
+      </c>
+      <c r="F110" t="s">
+        <v>304</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" t="s">
+        <v>183</v>
+      </c>
+      <c r="E111" t="s">
+        <v>296</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>296</v>
+      </c>
+      <c r="F112" t="s">
+        <v>309</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4047,6 +4323,7 @@
     <hyperlink ref="C74" r:id="rId21" xr:uid="{54641699-65A1-4DE5-A79D-2F44757E485B}"/>
     <hyperlink ref="C73" r:id="rId22" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxNSFpUV3c2OVBpeS16YTZhWnRQZmVLVi1sWmVPX1pRR19jcGkxODc1NHY1cDg0bXRtTTlYNFFPTjhRNFBIMGVieDFJb1JIel9PVS1ScWY0Z1Rrd2dEQnVmXzNkQkVVd3preGt2RWJHM3AwMlJRMjZaZS1UeGJ0VTdwYTUtV3VkLUJyRGdnQTg5UWxCWFpHTWpzQmxaT0ctVjBrVzlNZWxNaElnSGvSAbABQVVfeXFMTUlCcmw1Wlpva0dZTE0wb3NkLWF0NUdIZUhtZGtpemt4dk1FSG9rRlRjakFRc0FUZm9aWVhYOWk1bUlac3RwSG5jZGd4QU1zVHdpaExNaE9qeENDbUl4a00zdVF4UTdjYVZfTW53Q0Yybm12WFAwUld3dkpmZmRWaDVLRzc0akdRVzhVb1lxbnNGbEw4N2hIU1VtS0xneC0yZXNqNXBUNnN2TExUZnczMEY?oc=5" xr:uid="{5C7F0DD7-7F27-4249-8146-E065374C54BE}"/>
     <hyperlink ref="C72" r:id="rId23" display="https://news.google.com/rss/articles/CBMikgJBVV95cUxObGw2QkhTSGlfYUdjckhDV2lvWGU3bDBaLVd1dTdyN1lneWpWUG5ldm1PSml1c3BTelB2X1JuaGdqNUlleEdzbURERld6MGtMWG9veEo3M09qRlRRVFNVN0dqNF8wdkRPR3Z0d1dXWC1ZTGEtSjJwbjNzQnRkbmdUalN5dEN3blJBdk5SZnhiaDdycGtnbzFWNFBkTkZZbzJZR29aWTcyandIV3c4a3l6MmJXaDZLclJUNjA2bktFZjBoRkZySUx2NnY0eUl4OWRxM3pHREE2WmllaVdORlBIZFQ4Y3VyVXNCWmh2RlRVM1h3cmV3ODhDYVR5MGVxQ2htbUJxcWVaMk03V2cxWlJOTDNB0gGXAkFVX3lxTE93cGt3a0wtck5oRU9CRjNBY21EemhlLUtPeHRPYUFDYkxQUGZvYmFndjdoN3NKb28xd3lOaHB5SW5QWHdOQ3dRSVRIM20wbUh3YXdrTTVrWEhKMG11WktVWFV3VGhJa19LOThMbG4tc210ZC1jcFphaW9FX1dZeFVuUWprTTVDVHFMRDR1b1dkbUFNQzFaQk13NEktbzhmY3ZsS0VPOF85ZmUzVmFvYUROalU0UnZRUWxXUkhrSkdsVHlOVWZOSks5dkg5WUpvMENaU0pWUWhSOXU2UTJPREJnd1JzTXI3aXNnSzNwZTFkMWVKSG9TaXdKWTdISTFrd1o1b3hnN0ZqY0txVG4wa0otekFsX253Yw?oc=5" xr:uid="{C9C967E0-B98E-4909-A9EB-AB0D421FF64B}"/>
+    <hyperlink ref="C105" r:id="rId24" xr:uid="{081F16FA-7DC2-4181-8125-0927B530C09A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C14F2-388B-4F9E-AE56-3B4C8562780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93756F2F-BB30-4960-BE54-B850AF03CEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C5A2E1D-AD34-44CE-9B92-ED90A8BDAC45}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="317">
   <si>
     <t>Fecha</t>
   </si>
@@ -960,13 +960,34 @@
   </si>
   <si>
     <t>['Gran']</t>
+  </si>
+  <si>
+    <t>La Gran Consulta por Colombia, la apuesta de la centroderecha para el 2026</t>
+  </si>
+  <si>
+    <t>https://pluralidadz.com/politica/la-gran-consulta-por-colombia-la-apuesta-de-la-centroderecha-para-el-2026/</t>
+  </si>
+  <si>
+    <t>pluralidadz.com</t>
+  </si>
+  <si>
+    <t>¿Paloma Valencia y Claudia López estarán en la Gran Consulta por Colombia?</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/politica/consulta-por-colombia-analiza-inclusion-de-claudia-lopez-y-paloma-valencia-385713</t>
+  </si>
+  <si>
+    <t>¿Es la cura peor que la enfermedad?: Aunque la ‘Gran Consulta por Colombia’ busca unir a la oposición, sus riesgos de dividir al electorado podrían facilitar el triunfo de los extremos.</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/amp/opinion/columnistas/es-la-cura-peor-que-la-enfermedad-3518107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +999,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1010,13 +1039,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1333,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B109DF-43E2-480E-AFA9-E36113F18130}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4295,6 +4325,84 @@
       </c>
       <c r="I112" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113" t="s">
+        <v>312</v>
+      </c>
+      <c r="E113" t="s">
+        <v>296</v>
+      </c>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>313</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" t="s">
+        <v>296</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6B34D6-8DC9-4F32-8D2F-FBDD4FF56B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E726F509-04C7-4EFB-BFF2-173B82F06F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>Fecha</t>
   </si>
@@ -239,6 +239,81 @@
   </si>
   <si>
     <t>Cauca</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo rechaza comunicado del ELN en apoyo a Acuerdo Nacional y constituyente: 'Manipular elecciones'</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/politica/elecciones-colombia-2026/sergio-fajardo-rechaza-comunicado-del-eln-en-apoyo-a-acuerdo-nacional-y-constituyente-manipular-elecciones-3523649</t>
+  </si>
+  <si>
+    <t>eltiempo.com</t>
+  </si>
+  <si>
+    <t>['constituyente']</t>
+  </si>
+  <si>
+    <t>Camila Paola Sánchez Fajardo</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo rechaza propuesta del ELN para un acuerdo nacional y asegura que intentan “manipular las elecciones”</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/amp/politica/articulo/sergio-fajardo-rechaza-propuesta-del-eln-para-un-acuerdo-nacional-y-asegura-que-intentan-manipular-las-elecciones/202622/</t>
+  </si>
+  <si>
+    <t>['nacional']</t>
+  </si>
+  <si>
+    <t>Rechazo a propuesta de acuerdo nacional del ELN: esto dijeron Petro y los presidenciables</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/asi-respondieron-el-presidente-gustavo-petro-vicky-davila-sergio-fajardo-y-otros-candidatos-a-la-propuesta-de-acuerdo-nacional-del-eln-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNR0F4Zjc5Q0tkSTBXUl9VeTAyQkFPeFE0WndvbUFxeDJBdUljdkVRcGxjQnB5ZWlpVk1mTlhFU0dmM3Z6V0lzSjg2R1JZNWFYRUhuaGRYSFM3MnZwNmdWY3ROWTdrOXBkQzVqWkMtdWhGaENDRVp6UXk3STZDbW0yZW1yQUM2ZUtCV3F0ckNFNmxmekFfWE1EUzRHZHh0blFyQm1jcnduTGVtd0RiZWlJMGFlUFFCVDY3Mmhia0xKb1RtNWUwSktST3FB0gHPAUFVX3lxTE56Y2d4aFM5ZmhERnNvTEVkendzWW42NmZtaDhQLWp1QjI1MFF2QXRVTWFLU1dMVTg4bFVnWjh2OFp4bUJKdFlJczFmQWZfdW11RkZ3SkNaaEFnYl96eWxRZkJyd1NKQVVEaDZPSXJocnZyaWVGNUF2TkpUYXJNdmNaMENjaUhtM2l1enZlSkFvVHI3MUdUZTBwbUx5OElmS0hpUkVfUGJxd1A3NnVqTUdRaENMN20zWVBxYndHN3poWTUwVGZKV3B3MFA0WkFUQQ?oc=5</t>
+  </si>
+  <si>
+    <t>El universo empresarial De la Espriella: socios cuestionados, saldos en rojo y bienes raíces</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcUJwS3dyTUJxazFGRjQ0a3hCRmlRWFdzcU14RXMzSHVRaE1sSGJFN0ZrbDh0S1pNNC1Da2RFeDZIZDgwdUs0TDJ1NDdDRDNyOHdQZVNIM01ycmxMTTVwZ0VvdnFlcTVpUXA2RXBxa3VoNFEzcVpTZnVyMGdOYzM1RXllMlRycnJsLWc5ZllLclFuek9qa3dtN2R4VUdOOGN2M3NwZndUN3BrMm5vUHYteDB4dHVQa25GQV96a2x6bktVYjdSMjZuVFNvcWU0b2dT?oc=5</t>
+  </si>
+  <si>
+    <t>lasillavacia.com</t>
+  </si>
+  <si>
+    <t>['empresarial', 'cuestionados', 'saldos']</t>
+  </si>
+  <si>
+    <t>Jineth Prieto</t>
+  </si>
+  <si>
+    <t>Encuesta perfila a Abelardo De La Espriella como favorito para las presidenciales de 2026</t>
+  </si>
+  <si>
+    <t>https://emisoraatlantico.com.co/politica/encuesta-perfila-a-abelardo-de-la-espriella-como-favorito-para-las-presidenciales-de-2026/</t>
+  </si>
+  <si>
+    <t>emisoraatlantico.com.co</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Los movimientos que agitarán el ajedrez político en la campaña presidencial esta semana</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/estos-son-los-movimientos-de-los-candidatos-presidenciales-de-esta-semana-ivan-cepeda-sergio-fajardo-claudia-lopez-y-la-gran-consulta-se-mueven-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>Líderes políticos rechazaron la propuesta de un ‘acuerdo nacional’ del ELN: “No vamos a negociar con narcos las elecciones”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/12/lideres-politicos-rechazaron-la-propuesta-de-un-acuerdo-nacional-del-eln-no-vamos-a-negociar-con-narcos-las-elecciones/</t>
+  </si>
+  <si>
+    <t>Katherine Lancheros</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A16" sqref="A16:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,9 +1607,240 @@
         <v>72</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{37F821CE-F9F4-4AEC-85AD-658434228B3C}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{0444B67F-2E96-4695-8BAD-36B4BEC22110}"/>
+    <hyperlink ref="C20" r:id="rId3" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcUJwS3dyTUJxazFGRjQ0a3hCRmlRWFdzcU14RXMzSHVRaE1sSGJFN0ZrbDh0S1pNNC1Da2RFeDZIZDgwdUs0TDJ1NDdDRDNyOHdQZVNIM01ycmxMTTVwZ0VvdnFlcTVpUXA2RXBxa3VoNFEzcVpTZnVyMGdOYzM1RXllMlRycnJsLWc5ZllLclFuek9qa3dtN2R4VUdOOGN2M3NwZndUN3BrMm5vUHYteDB4dHVQa25GQV96a2x6bktVYjdSMjZuVFNvcWU0b2dT?oc=5" xr:uid="{BBDB7E46-32A3-4D21-9A0A-11BF3D3C7BB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E726F509-04C7-4EFB-BFF2-173B82F06F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F583743C-F88B-4424-943C-39DD80928978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="193">
   <si>
     <t>Fecha</t>
   </si>
@@ -314,6 +314,292 @@
   </si>
   <si>
     <t>Katherine Lancheros</t>
+  </si>
+  <si>
+    <t>Fajardo puede pacificar a Colombia</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/opinion/columnistas/gonzalo-mallarino/fajardo-puede-pacificar-a-colombia/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gonzalo Mallarino Flórez</t>
+  </si>
+  <si>
+    <t>Fajardo, y ¿como con quién va a administrar este país?</t>
+  </si>
+  <si>
+    <t>https://www.cambioin.com/actualidad/fajardo-como-y-con-quien-va-a-administrar-este-pais</t>
+  </si>
+  <si>
+    <t>cambioin.com</t>
+  </si>
+  <si>
+    <t>Tolima</t>
+  </si>
+  <si>
+    <t>Ramiro Suárez Peña</t>
+  </si>
+  <si>
+    <t>En suma de intención de voto, la Gran Consulta supera a Fajardo y se acerca a De la Espriella</t>
+  </si>
+  <si>
+    <t>https://cambiocolombia.com/elecciones-colombia-2026/articulo/2026/1/en-suma-de-intencion-de-voto-la-gran-consulta-supera-a-fajardo-y-se-acerca-a-de-la-espriella/</t>
+  </si>
+  <si>
+    <t>cambiocolombia.com</t>
+  </si>
+  <si>
+    <t>['Gran']</t>
+  </si>
+  <si>
+    <t>Armando Neira</t>
+  </si>
+  <si>
+    <t>Para segunda vuelta en Colombia: ¿Matemático experimentado o abogado disruptivo?</t>
+  </si>
+  <si>
+    <t>https://www.enter.co/colombia/para-segunda-vuelta-en-colombia-matematico-experimentado-o-abogado-disruptivo/</t>
+  </si>
+  <si>
+    <t>enter.co</t>
+  </si>
+  <si>
+    <t>Iván Cepeda radicó ante la Corte Suprema el recurso de casación contra el fallo que absolvió al expresidente Álvaro Uribe Vélez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxNQnBUVUNHb2I2U2RvNXZ1Z3hHdVRYcEU4TjZDRXNrQUZZMkhMcVhzTlJZUWprcUFGUWcycEY5Ny1KZ0YySENxWHM2V0NDbzBabW5mbXVQSGJyRGk1LTl4bGpIN3NoX3pWT1hkdXpTMTR0SThPS3NXN3VzMmFWSVF0cE0wU1dnakxjQ1luOFFRaEZldkVVM0k4N3ZCMWdMakRxaEN0TURaS3dENW1MLTJ4Y2o3b0RBOFhhOWRwZFVhUUhlaFpHUVdUNjJES2NRM1JWRDBFRGk2djhveEk0dUJQWWEtcGVJZHAxWHpuWjhlbmh6M1o2YkZza3oxbTlMRUdjdHpictIBigJBVV95cUxONHlIRWtwWjB3ZzJZdk41UkJORzFETVRBdHRPZV9pZm1Sa2cwTDdqYmx4T2FmN0FRNXdzdC15NzlnT0thTlRnS19NMlgxcVZybDNIckRKeFFVUERpQVJtVzJHdmlCNHZtc1lEX3BjRjc4aWxRRlg4WVdiQ1VXMG9iX2dTV2M3bm8ydllQbERTODIzZ1lxRUpqUXI5NzZJSHd2VC1iZjNFMjB3WW5wMTVpVFRPZEVtdUxGdTVoM3BHb1ZqT3BnbWRsLW1Odk5TMXFJMzltQ21MaFNfd2drcDdqMXpuU0o4OVphMUdDaVVmcVZDZkhOMkhoR1BwcFYzX3VjYk96RmR6cGNQUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella: “En tierras petristas, Iván Cepeda y yo estamos empatados; eso es muy importante”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxOOU9ndzV6Qm5oZjZnRFhKclhKMTI2QU1KNHFLNU0tXzFNaUowOThSZHZsWmxEQ1VaY3IzaWRMY29oY3dtR01JUU9LSGduMGU0ZHM0M3F1eDVwY3JNay05RDZBXzBLTkh2NmZsUXB5MXdmZHg2WF9TcVV2RHF4THd5cGpiZ0pDWjMwaWVldmtXa0Zhc3NFOUJXRm9TTnQtZmFrSmFsTzJlTmU0Ri15SXRMMTJWZ3hodmk0V2R1aHFiUUNnNkJMa2xGcjdtZlhBcFdKNHlYNnNZZjB2cno1OUtNcXdSa0RXTE9IOHVIbHVKU0o3Wkpzd1FKVXFmUjQtd9IBgwJBVV95cUxPTU5CY2d0ZFVKOXd4a3NZbnUtSXdBRS05dGp5c0syNlpQUVdYR1NvYU5EWEI4U2FQTDl3OU5PVF8ydnZNWldBTkpuV1ZJSGt6a2ZFajY2YzFEZEwxVlA3cjZmUllxQS1JVDZFdkdlTjRsSjkyRjdPblJzT3g1Z1BRalZCWlRzLUg0OTliN28xNVV0N2dHaXVNWVgxT1hWVWlKVDhRQ2Vfd1lxNy1KQzNFRGpvWlNpZi1QdFRCbG1Vcjk0Y1VZWEhsV1R0WktFSkltQmVPUllEQU11Z2JNejZoWWhEc1B5U2hvZXBBTWg2ckhNazU3QmVLZGZxbURzVUJBcGZB?oc=5</t>
+  </si>
+  <si>
+    <t>['petristas', 'empatados', 'importante']</t>
+  </si>
+  <si>
+    <t>Abelardo De La Espriella reacciona a la encuesta en la que derrota a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxOU2dDb0lEeXc3MGdOSWVtUUJfZ2VGQTRWLTJVNE9RbVVVdi1mODBGSHBMWmNxX0xmcjVhZ3IyRnFycl9OSHppNkkwbHJFRVI2a3RHVE84V2FCb2Z5TzM4Zm5jZ3paaldmMzJyVFhIZDJ1b0s5dnRsN3VMQm1XaFdGajFtMGN3MmVNdFJFYjlEd3NzQzVlT19aNGQxM1Q3UmxVdVVVdG9hSmxyQkl4amo5bVgzal9rVENGZWVnM0JwNFI3bjZKdm9hT09R0gHPAUFVX3lxTE1sajRCczVWcEFPaXUzclJDWEw4ak5WNW5qV1dqMVVOeW1jdTdWSFc5N3U3QUR0ZWV6NGF5dW5JN0tWR1JSMEVJN0xLYzF2bHFjaG9na2ZLUVVYQkNlTVhJYWZ4V00zX2F3NjR5ZWhoN0pJME5MWWRKN3M1cnRQS0RVQXZRVDFnUDNlajFMNC1wVS1SMFRLZmRDRDQxTUZRTGFURTVuV2c5eUs4eHdQdUxQclJScXJNMlJ3T0daNFhINEVwUXkxM2lPaUptZFVGcw?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda desmiente rumores sobre su salud y niega retiro de la campaña presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOLWFWT3JrdFcwdmRta3gzODEzbHdueVZrWV9fZlUwdzdEN2FHdmZnMzBpRGxNNlQ3SVNWdFVmbFNKWTY3U25wVEtLZlIwbm1UTW43R3JZVmNQR3k2ZnhrVjJmM0pOa3JGbjhzQVpha0FId2pPY2V2cUY1cmhhV0ZvVXhjNjE5Yjg2?oc=5</t>
+  </si>
+  <si>
+    <t>elcolombiano.com</t>
+  </si>
+  <si>
+    <t>['presidencial']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda desmiente rumores sobre su salud y niega retiro de la campaña presidencial | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxQZFlVTVVOeHZxbzctNEJld0c2VENFY3M0OEhlY051Mkt0VEYyRHNxd1RmOU1KYzRiUkNKMEE3MHRNUk40NWx5Q0lyLUNvZV83bkxqU1RMRjB6TGNJLWxhTE9PdHhJemFiZ0VqQmF1THhCSkV3Q0hjYUFoYXN6dS1OUkJvczhfU0t10gGOAUFVX3lxTFBxZHlyR2hWdUxsZWlRQVM2OEZWbWw4SVdmT2JJVFRGU283VVhUQUx5bWlvajU4NzhhLUxQM2hLdk1HZ21ZX1paZ1VmYTY4Qm9GMzhsMEsxZ0s1TEJXdmFScGt0VDFtUXJPSU14Q0RvRnNtR2o5YXkwVGI5OW9nSFd4bjQxa0tNYVpIX0FKWmc?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda revela si es verdad que tiene cáncer y si se va a retirar de la campaña presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxPcklKSXdna0IzMllFUTNuRXRiX3VyMTBWOFJpdDZTYTJTeVk0VVUzVWhyeXpHX2VCeUtlOW9sSUdqRHF6NHBFNl82a3czZVU0QXlVYXoyVzdXcWVUd0N6UnNtRkNVLVlCZXdGTlk1bi1rYnJGdXhUUmxrbXVNdTROQ3Rid05zUXBWek1fOU1UQnlrbnJYZUpfbTAyLWFGaUw30gGmAUFVX3lxTE5KYW11OGJqb29qYmlmaG5WaDlYckl5cS1MNzZyTWdkVVBoZlpBTW9IM2V2cWQwMW9wS2tPWHdJNnc5Z0pOSk9YWUttYms1cVFFMVFKcVZiRnYzSlVUZzBjRUhiU2RWbjh3a3ZWelQzaW96dGZCWmp4QTdkbmhndjFZcTAxWE5xcm1xaS1JUXFTelgtZVZVWGViTjhDNDBKVUZ5bDNsMHc?oc=5</t>
+  </si>
+  <si>
+    <t>pulzo.com</t>
+  </si>
+  <si>
+    <t>tira</t>
+  </si>
+  <si>
+    <t>Iván Cepeda radica recurso de casación ante la Corte Suprema contra fallo que absolvió a Álvaro Uribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxNVWdWSlpJeTZOMGlPUGlDQnhxT3VtMFdYM0pzMC1aNFhtRm82ekNpdkl2Unh0azdCbUxFSWt6ZVJmQU9CdGh4dXUwMW5QRzRxc1c3dW9jQUlVbXBoTVh6N0JmbS1LUy1yZ3ZSUlA5YzBhcFBQYlUtZUxialBkeHNPeDFIVlJFbGVSOXBxanp2dEVaYUgya0lxV1pyT05NbHBtcDhoWmNtZHFJY1dzeUJRV2daNnAxTllaMDBQV1RGNGI4blJyUm9OWDlWaEZodDFsNGtPWnJEeFVDTzNKTDY40gHkAUFVX3lxTE1zTUNnZnVTZFI4MEVxR3FIM0ozM0F6dERwcDdWdDVxNUh4UzlVQ3ZHT3RURXlaUmhlYnFBR0ZFNzFDY1VoT2c4X1JxaEtMTGtLdGxILTdTQ0ZLYUM5SUExS3BuaEJLOUMyRVZLb3AtVHh6QVZRWHo1a3NGZ1FrUmVKTVM5WmNrOUU5TW5UcnJsWGRteW1XazlVRk9xa3hqbjM0WWJnc2c2TjV2dFFNQUZHUUhuczRlYkh0Yk5zMDA3ZGdrRG92YUpIN1E0M19xb0ZxMEVCY0VoZ2xSZm1iQm5DY2NKVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda niega rumores sobre su salud y confirma que sigue en la carrera presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQSEpGaDJicVdIUDBIak8wd1JfU0l5NURNellqU0ZEdXZ1TmJELWJrQjFYUFZYNno2bFh0dU1MWVdwMmp2am11clpUUTRlRkIteFNBUmhDejlvVHMxQUxEekVvZ3VhVVdvZnBGMzhaa3FHQjBlVkl3ZVM5SHBsQkdwLURBOTcwSzlLMUZ2Ny12MVJpSkNaeEhndnB3R3QtTm1PZVlrWjZRalJyazVHb2tlY1VZUC1aeWZwc3JVcDFxRWFNWkZFTzc0MG1zV0NVS1JP?oc=5</t>
+  </si>
+  <si>
+    <t>vanguardia.com</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Margarita Rosa de Francisco responde a críticas por apoyar a Iván Cepeda viviendo en EE.UU.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOY25MVks5U3hrMUJwaFJaTDdpM25NMW5zWTA0dEw0VG01bldxOWIwdThHNm5qVjl2SHJLN2s0YkxuYVdxN3NZUG9QQWUzNFhCVTZ0SmpWSFJWWDVYcFJMYzBUcEtNYnhaSVdYWXJtNlQ2UHZBZ09MMUNKQ3h3Mi1UOFAxZWhhSEVTeTFiWXdyOUxacXM1RFZfZUlmMUdoSDQ2LWI3ckltTGxRdmJmaUxMbW96Smg5dVNUdHQ2TjlRVTQ5TE16MjJaQ2R1ZU12NGNmM3RmdW5BRTJqeWNId092T0lpbm5nQXRfa0ZV?oc=5</t>
+  </si>
+  <si>
+    <t>Caso Álvaro Uribe: Iván Cepeda, candidato del Pacto Histórico a la presidencia, radicó recuso de casación a la libertad del expresidente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxQcGZXM1RBMGVBcmcwb094ZFA0SldPMkpDQV9KODRFMU9FbTFsV1hCWjdFcE04MlYtSVp6WWtfdGQtVnM1a0pFdmtLRkxkS3BRd2tWaFlYOG9uVTZ6dDFfeGZ6TjVfYlJnVmxqcG9kSktHajhKbVJFZ29NZ0FmQ1NMY21USzVnandIMVJISHo3MEw3RXhPYkZuQkVNNzl3cUltMEtTbVYycFJGSlNCN3hRU0RUbHQ5cUtWakNleF9jeFpndHpCdjlvbWJBemlHNjJDOUQyczZ2TEJnSTlqakV3VUR0RDVnTlloZW1KNmdESGxFNXhrSVFub0tPcFZZaldNYVRqS2ZMdlpuZ9IBpAJBVV95cUxQUVNkdnZWMFNUWTlzai05eGxWRm9IcURremZ1QU9vcXhhREJWVFA3bnJGbk1rVWZJak40MG5fMkk0eWZobk9nTTBzaEtwZUFzdG5FSEFsZVpZQW5ETS1CdDlqRTFFOEJ2VmhrLVYtSllsMzV2RGVvaXl6UEtfT3VSek1iNFFoNEl3OWNxU19Xc2lGS1V5NTdNTlpXazQ3Yzg5NVIzcU5SeVFBbHhiYnJvMEdaQ0RGRGc2QXJwcjZsYVMtN3pvUi1VcURRR2JaUGhFcDZkMVhzMjdlUTJTVnN6dTdSdHVmRm9VQlJUY0NjTFhUcjJDUDBvYlFUaHVPNjNqUU9NYzhDVTU1bnVvNk5fRVhvTDZ6aE5vTTRyVzBHWHZEXy1Y?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella se pronunció tras encuesta en la que le lleva ventaja a Iván Cepeda: “Estamos ganando terreno en todo el país”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxQWV8wMGtiNXNXM1Jlakw4T3MtZzRvamh1S25TMWl5Z2J6TVpHb2FqZEhfWkVaQzRpbUoxRnRYblRLM1FJLUZSWFcxZVJTNHBOd3lKVnh6bUlmYzMteW1GcEd5ZnR6T1FOY3R2SHNwUWFhMzdOUFJEZ25YUHR6SVpGS3hjWG1RZC1SU3I2M0Y0ZVVSc2NyVk9GSElIdU9LaGptRGVYS3JtRWNQQzViVTB2ekZ5ZVpjb3ZCV3ZTVUFidFR0UkVpUWtKZ2NuR1ZzU0dIZl9xeF85Sko3clBqdkZLaXdwVmUtMzRTTDdoOWhDOXM4cEQ3TUN2OVBWTld3dElidHhyWWJfMHPSAaMCQVVfeXFMTVdSemtsMWx4ZnJfWVVqTGllWFRhRDg3b3JsR1dpNDFDM3NBRl9reFZMRUlTWXczMGZ5T2NpU3NnN0lpd2w3ZjhVblJFMWswMEJveGtTM3h5NXhwd0djLXFhSFhSVlNLTWxucno0ZTRJTndTOGdHVWhjWURtNHV6M0ZfcXZfNHVVOHBISG9lWGJDaHN4RlFvU3gzOC03a2dkVkJJb25uZXMwMzFTcVNRM2o0NXI4T0E4OUhlVUhKQ2JxWThfTGhHUFBnVFVYdzBsUEhGOURyZmZEd0piSldpV29rZHhhLUR0ckQtLWhrUHVjd0FaR0ZZNVhfaFU5SGpEbFVhbEd6d1NqRkFURFI3WGNOWXZfRUVDSTRPRnc2T2RsM2NR?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Paloma Valencia ganarían consultas interpartidistas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTFBDNWdqQlBnWUZtc2hVQVlidER2UDh1SU5NdVZWdlFxMm01OWhxUDdfZWdTZXdQNzU2cXVhTmt4VnU2enNTUlNkcU84SjJURHh6Q1V0RXkyUlJCcHpC?oc=5</t>
+  </si>
+  <si>
+    <t>boyacaradio.com</t>
+  </si>
+  <si>
+    <t>['interpartidistas']</t>
+  </si>
+  <si>
+    <t>Boyacá</t>
+  </si>
+  <si>
+    <t>Montaje a El Tiempo atribuye cita falsa a Cepeda que promete ayudar a que Maduro vuelva al poder</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPOWpyN2o2MzVZX0NaQmhVUWFRUlRTUy1HVllrYmpFeDNOOU56cGhmWjF1eFI4ay1kbmFvSDFWN3E4c21jalRVWXJMYjhxY2tXaHROVnBfRWJoSGhSVDRJNmFSUmhTczhGRDBYSkdJUlVOR1RVMG9CUmxLXzFFMkJ0WlpNbm8tY1dnT2lVeHJmR09FbHVSYVlKY0ZucTVkUWdvQVFXS2Fzb0dBODRNWjRhb1pEWFZ2QjRydmpIRmp3RG9VSzg?oc=5</t>
+  </si>
+  <si>
+    <t>colombiacheck.com</t>
+  </si>
+  <si>
+    <t>['falsa']</t>
+  </si>
+  <si>
+    <t>duro</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe apoyaría a Abelardo de la Espriella si llega a segunda vuelta: 'Si pasa, estaremos con él'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxQRkVKTEZqeXdraWhjVjE2QWFGcGVjLWFoSkMtcVp4cXpNWGV5dmE4eWNzLS01TXVWVkNzdU1hWUxRS01rR25nMFNfeXAwOWhWUXRZd3UtQ1cxMFVxNGhwb0JNdTMyWlJFelN0Y3N5NG5sZ1hNQldvU0RvZnQ2OHVmMWNxZmwyR0NkNUdtZGMxNEFCVXVCTEJhRXg2aWJxM0wtd2x4SXd5cHg1NVlWaDk0SFctTmJyUFhFaTBqQzFsaWJBZjNpckVsdW1RcGQtczV6UWRJeV9OM0FJMnZIa0Q0RXhmSTdDSnVUdUFnaWwtMTAxWnB2eHI3clB6YVF1Z19kenhuV0M0SXVOeUHSAZACQVVfeXFMTW03c1J6M0tsdE9PSllKQVVxTjJVcHoxcWRJb2VRdVVwQ29fTDBaZ2gxSlRIb1ppdkpJS1VCSVloLTd0ZER6NEZNY1ZHRXg2dHR5VFl4a2NtQTZtbGUweTlsOUNsTHQyME50ZHZCU01hRTJRd0QzQmd6N2paVl94c05pc056ZkExOVNzazUyaDVJOXhfVjRUXzV4cUhQRGZjdjBfdmVsWHhyUlJwWEpzd3NQSm1abVBtNjFFWnpya2xTRGlLZ3QzQV9OMGVJUGdJUXFQa3Fwd2ZGX1JJdjlKVjFDX0JDQXl0VUJITl9xVWh4YkVNNlJmaGgxdDl1UHdSSzJmZ29TUVFhX0ZQQ1l5THI?oc=5</t>
+  </si>
+  <si>
+    <t>['segunda']</t>
+  </si>
+  <si>
+    <t>Los cálculos matemáticos de Abelardo de la Espriella para ganar en primera vuelta: “Lo digo con humildad”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxPcmFfbzBieFMzbXVCcWtheVhqUWJaSmdXZW9fazdiQnlCYTA5eDJUVWFTQTFUVlRmeC1lMnNha2N0VlBmdmtrVmVBRG14eGFGV2ZXTnloQkhSQS1YOHBZMGNMbG91b2hmVTM1UlRZRWJfenc5QnBrQjRfYjR2SUF2Yy1IRk9HVlJUYmFQdFZKVGZJa08zeUhCczlxeXRPU2kwSkstZFZORG5hb1pRQlhGLTVoYjN5eEZvblByOXB6dE9lbUludDFFdks1ZW41YUh6TEhoRFkySS1MRVIwc190Wm1XOEh0anJ2Umw5bUJBRTFVWUxTSllBbEZ4dlRrQdIBgwJBVV95cUxQTzIwbVRFWDJUTTBzVURaSmJaeFZtVEpyZHZzXzE0VnlHR2JuSmpKWHVWbFE5MV96MVcyLTJNUGN4UGFHcFhEVldSM3pxRGNzaXdLWDdQRGhJcjVWczdabkF6Y3R6M2VUTzRhbDR6NklCaDZ2b0ZRN2VhTW5iU0hhLS1mcS1NUlppTGFYd3I1MzNiMkYydllaZUVES1BjM3hsU0tKWS1aalNLS0FleGV1VjluVWhLTDVkS3B5Wm45UmtNLU1sb1lfX2VEWERGdlpUeTREczJPdllQUVpjYjhUN05FNFpFR3FoSHZUTE5kMVlqY2NCdmNHaUFQeFdDdWlnQXFF?oc=5</t>
+  </si>
+  <si>
+    <t>['matemáticos', 'primera']</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella propone cambio extremo para fijar el salario mínimo y evitar que se decrete con “populismo”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxNSzNIU0RQVXFucnhmZzRNakIwT2c3a2E4N3NjVG9tSlFZdmhOVVgyOTVQbWM2WGE3MURBdjMxUEFKN1pWaXZ6V3FYcmQ1SlhjZngxX3pHSnJoU1VuMzc0YmFxeEFVM2c1UEpFWGpfOHVMUmtCeVFnZWFqSWt2dDRoU1RXNlI1cmxjUXNpQWNfWDJLb2c3YVVSOUpqdGdTTzl6VlUtcjh2Y2xNVjhleGhhdl8xZlIzSDVMSE1KaGVROTg5SzRYWlFrQ2RmNDdfNlkxY2dHWlhBYlRYa05ZWUFxSDViTTFyM0lvWjNpcXNVTHZyWUVNTHJDcGJJdnF0aHdvSVFqNkRsRnMxZWJVdEHSAZMCQVVfeXFMTUxKX0RMclYwSmJxUGROYnRTOWFBeWNzVFFfQjQ0TGlMUmVKc194UndrYW9qNVVoSUZucXhySnRkQnREM2c4X25xTnhrWk9xSWhvemd4TWlOS2ZGZ2k1TXlBSnZPSXo5UTUyQjVvQXcwS2ZsSWhBeWZwQUJEemZkTUxJZ3RFNDlCODZqeUtqTkM2dFBWZnhuZGc2LWFWTmZhYzM2b2Fzd2pSRGlnM1E0bjhBOEQ1NWY0SUJ3S3JvZ2liOC1waE9CajFoS1BhNDlaX0ZCcnc0cERKS2xvdG05elZLTjl5QXo1WDJlakl1NHZ1LXJSTUVIcXliajlHVkZNMWVHMVhDd2xhQXhZLTBNM01TcW8?oc=5</t>
+  </si>
+  <si>
+    <t>['extremo', 'mínimo']</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella da pistas sobre quién podría ser su fórmula para las elecciones 2026: “Quiero ser responsable”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxNNDJoT1VpNGhKNEs2aGZHb21CMVMyT29ZRVZtcTRoYU44bmpLTXhfMDJDU2w3UzhWRzIySVZtTFpRQkRzS0QtOWlZandsSHZ0SzhwRVAwNllrY25Uc21fQjg0b0RTcmNsRk1ja1JKSUFnQUZ4b0UtSWU5dlVjWmE3dHY1RVdpakFkejkycU9NYUdLZ0FhXzFjUHZCSVB1eXduM1J6ZzRCazFFWWVmUXBFYVZMZk9jTWdUM2ljZzZleGE1b0J2ZU5xNTd3Si05TG8zTjVVMEMxNmlxTmZ5NHlBSFh2N2hxLV9haWNJM2RNYTNCS2tuV2YyZTZyNkhad3ptSjJZaHZ2OGt6SG80VGU5cdIBlgJBVV95cUxQcHBDLUJrM3ktTkNLYV9hS2lhamJrb1AyYlV3SmFDdXJjNHBuQ3RaOGoteFhQWEkxOHFhQk0tMVU5YVFOeVhEdlgxQmdtbzlhaWJNZUpMenlsQXpUQXpOUzNfQ2VBQnVZUjB4cll1a01rMVlnVTY4SF9QRUNXeUtUclVEeEZzQnM4WEhSekNTTThBaGJldDNKTzhQVnJHVTMtclF1RGRYT3BEZGdRaU9OVV9oTklGOXZObExQZlhfamFaRTJTNVp4ZTJrU2daRlF0c0V1bm5TVTJ6SzdJeWdxQzJDeHVSMFNZR1VIOHdndW03aldEbEhwSlp0TXAtLVFMUkVWd0Nvd21Ta0JYN2F4UzNRRy03Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['responsable']</t>
+  </si>
+  <si>
+    <t>¿Gran Consulta por Colombia apoyaría a Abelardo De la Espriella? Esto respondieron sus integrantes sobre la segunda vuelta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxNOEZMTDEyclFuUmdnZU1wQ0RyVWFkWXlyQUk4VFp1NUNBUmdscEFrNV9JUlpzNGkyOV9NSkJVb184UzBUazRtVktuRzdvLUYxaFpwVlBwanVXQmdvWnpSQkFZQWptMUZaMXN3bFJfVVZUekJnZ3BOWE1pdy1ab3o1blYzeFYxQThLdURsVFNHLVQ3LVhCanFGNE9qdkVrRXd5NDNrdFdNbVNkN3JhOEVUd0N2STB3M0lkSDk1dUtTdzYzLTFhV2JyS1Z3XzRES2otREZWcHlnUGFqbzFyWTVhbXNRMmphek02S2dLT1VOWmdLN1psdFBIdWg1YTNMZ9IBgwJBVV95cUxQOUZWV1Q3dGhxTTV5MlJ6MnB6bGxxREFKVXYxeHhSUWxjVW8wN29SaThwV2ZWUmc5VE5xdXlSalRHcHhfdjV1UVZmak1wcDFXVWpndWRveFV4S29HbjBrMkZicXpqQ3VBdWNBQ25EbW1zTU90QzR0S19KNmFCWFlWYkFrQVpwYVVpQUNabmNfT2kxbDJPd0d4MGdLLTk2Q0lpdzVfazhleERoQTNnZGU3MXJfY0kwSnhpcUdLSDhJdllnRk8wd3hlVnJZYWZhYnVkempsWVpmMHB4b0Q0WHp3bkMzVU1xSHhWVjlpNS1WMktxNnVGUDFianNmaGZGMUJVSEF3?oc=5</t>
+  </si>
+  <si>
+    <t>['Gran', 'segunda']</t>
+  </si>
+  <si>
+    <t>Gran Consulta por Colombia: hablan del posible ingreso de Peñalosa y sobre la segunda vuelta</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/gran-coalicion-por-colombia-hablan-del-posible-ingreso-de-penalosa-y-la-segunda-vuelta-si-pasa-abelardo-o-fajardo-noticias-hoy/?outputType=amp</t>
+  </si>
+  <si>
+    <t>¿Gran consulta por Colombia apoyaría a Abelardo De la Espriella en una segunda vuelta? Esto respondieron</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQT1ozNWhqYVhidzkzT2wxOG5oSnFjRXVhTV91VnVmSk9WOURTVC1maUZId1hkRHJlQ2VYZmRSYUVNU3lVekpJcC1DTXZhQ1h4VEp3cHViTkVyZWt5cXd1TlNVOU1RTFZ2Y2p4cHJKVDAzYW9hRG1MMTY0YldWdjUwWUdtS2JteTRHbjM5UFhfVDdVRzcyOEY3SnJGd3JoWDJFRmJsSEZPTUhuS292ckxVVzh4RWt0WjRCcFVqcGtvSjZLbk54bWxKdkJrSWFqOWRtb0lCNTREaDFoUdIB2gFBVV95cUxQZ1RYNGd2QmFXQjJpbDVCQkpoWlg2NnBGdnhmZ1l2SUtNRHVXTFZQZXlhekRtWE9pYWdkTDRyZ3BOTm1qYmRjSUMxX0RaNHpJZmhUTy00LUhzVUhhQnJ0MzZEYjN4WmhSWWhmT1FFaVpqRmo0aks2eEhpX2ZsazdrdkM3bTQxeFNkSFNtWVNGRWxJZmhkNlhPM3BzVkJ2c09xXzJ5YUUzWnk1OW9rTFpIa000MFBQME1uZjBCQ3pMMURWaFpHdmJjOXc1WEdOdFpuR3YtSXJFOC1rZw?oc=5</t>
+  </si>
+  <si>
+    <t>lafm.com.co</t>
+  </si>
+  <si>
+    <t>Gossaín y su esposa, dentro del entramado societario de Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxPb1cxeXg0amlMQ0pxVlNHRVEwYkRTUEFKNWhRaHNJZkJUX1UtdWF0WjF2RERra2hzWnk4YmZmX1JSYnFCLXlZZDNRek1xVWpab25UY3BFTFNIOVVqTnlzOUJDaGU3TTJxU2tTSGZkZ2lsQzVHNlRMdFNYS3NlcFI2MDJGb3ByUXVZZ011MWNoV1AxaGFVSGxTZWVzdV93XzQyNVlRWEFLZXBYX19kTUNSQmloMGpCOHFyTTZEcnJ0MEFXdy1t?oc=5</t>
+  </si>
+  <si>
+    <t>diariolalibertad.com</t>
+  </si>
+  <si>
+    <t>['societario']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe se refirió a una eventual segunda vuelta presidencial y mencionó posible apoyo a Abelardo de la Espriella: “Estaremos con él”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxPdnNVQ0FNSDNoYTRodFZKTDYySi1jSWhET2ppb2ktUFJsdVJ1azNZOWtCSjVwd1NBYlZrdkRtZ1FZUVRsdHNINkpuUkR4ZDZqZ215MEdQWUdxOUUzZWJ1dkJPa2hmOXJhQkdVM1EwQV9wekY4MFdhd1FzR3oyZmc5eUdLWWpaMnQ1VlAyTGxZQk9Od3BLbkoyQXF4Y2ZVRjBHY2p3eXZUa2xBdFVmMGpKQkdSUzFwUzE4VTRvbGtHOVZqQzZZRkxMLXh3aktuRDI5czNrQjlpNmNxZ3EtRzRibkl0SUJYX2s5RXgtMEhUZC1xUHprWW5KeEpJWjFIWU1ob3ZiSjYycTBGLUVi0gGnAkFVX3lxTE1rNzZ1b2hjSHZTYkwyV2ZpWlBSYUtjN3BpUVZuenViRjBOM0o5VV9GMzhOOElLQl94cWFsWTdPMG5kWVh5Unc2SUE0VjJXaXExZDZCa1R1U3pFS2xEOGdYaVlIQWZYZGpmSGZiSkF0Tlp1dVNnT05vd2RlOXphWVlUS3VnUHloUExwNFZWTWR3WlVvWTRiWl9zU3RaanRoZmppaDAxblRyenNEVEdZRldJUW4zajlYSTNra2FXTklWWjdtdXhsc3ZJSmY1RWRJV294R1RhMXBZb0ZmeFFIblNmTlU1aVF5VVRGSTl3bUowaFNrdmlmVUlzVkZJQmV3MGlLbl9idVBjdGFEZmRpRDdBNlVrT0VFdUpfQXRnbWU2R1pOOHpYZ0k?oc=5</t>
+  </si>
+  <si>
+    <t>['eventual', 'segunda', 'presidencial', 'posible']</t>
+  </si>
+  <si>
+    <t>Uribe apoyará a De la Espriella si pasa a segunda vuelta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxPT25EMWJaVjczM19BUkoxdnlpbjJsQXViYjlmYWlnQkZzWi0zQzVEUkFHRXFCR3FUWVU4LXBMWUpPS1Uxd2NQcWNrQzZHX25FUWZCTnFtbk9OeExITTBEeUpoZFpRcE9iOWczb3libW5sQmUtU091N1RHVllOemNyaF9qVTlqckJWNEYxTzBUNkNTRTZGZGN4ZHFB?oc=5</t>
+  </si>
+  <si>
+    <t>“Miserable y cobarde”: De la Espriella se despacha contra ‘Matador’ tras burla misógina a Paloma Valencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxNNEkxR3hDOWpMX2FxY0NOOVM3R1FLZTdoeWoxQ0M5aEIwN3YtcnhFNHlOUHBpaHQ5bVBoandlSjh5TU9iRXo5YU5FQ01OMVVELUF2amdFX2lGVnBXQk02Y251OFRDTl9rcnR4Z0lNUnRDYXVHc2JLNUN0S29DeTBXRmN5WVhyb3JBQWVmNW5aRk1LeG5uWlk0ZWdUXzhKYVFlVEp6NU1ZWFlwc1ZsQVM2OF9kRTVwWWRTTWRfQklPQ0YzdmdFNkNNNmxIbHdROTZLRy0ya01pNU1wdi1YTVA00gH6AUFVX3lxTE1QMjcwQ1hqQll2aGFER0ZjNEFIakZyY09JY2JpNVZGUUxjS3h1bGREajBqVTFUUVBlNFEzLUZnS3BRLVdnbHpZQXg0c0l0SDU5c0FGc0l1dHI4SzhjTHFqS3liVm1XWFVKT1h2dWxnVlhZS0tsQU9rYlNOUmFlN0ZJaWh2MDIzN19yMTFEV1dETWRVTjJ6ZW1vQjhRVVZUejQ4MThzQXR5RFlVVUpjSUNYdThCLTVhRG92aWN5YVZlYkFKWkpoTHdpRkhHcDlFSnl4eGlnZ0Y2YXdobUpSeHFqSW4ydFh1MUM4SU1iU3BZTkR5bVl6TVJvUEE?oc=5</t>
+  </si>
+  <si>
+    <t>elheraldo.co</t>
+  </si>
+  <si>
+    <t>['misógina']</t>
+  </si>
+  <si>
+    <t>“Si Abelardo es el que pasa a la segunda vuelta, estaremos con él”: Uribe sobre candidatura presidencial de De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxNeDl1NF9HNlE2eE13a3otbS0xOVpXUWNHeGh3aFlxTVJla2hpX3NnY19iT0NTUWk1RkZqekJMT254LW5VRzFLMUZGeEIwSWM3NWpuLVMxSzVPRVJDN1ByOTRka2FGaWFPUGIwVFVHdC1rUTdSRGl2eHNGeVZ4VTVGVHNRMkN5NFVhTW9KQnhTN1kyaWJKd3ZTWmlveGx4dnE1SmVwV0tzYzRldU00UG5jSE1vY2FvLVFUU1hQQtIBvAFBVV95cUxOT3BrYW9lZjhoeFZYZm9uLXRKaW42MEFSWWpZMnBmems1M3kzRXYycHo2M1FVRkNzeDg1V3pKeE1Nd09iR25nazNqUDZfUUdpSVRzVy1XTWlQakl5bDRTNENUY2RmUktzOFl0RmtkQ2pXbWNiM0p5NVNVeVRRWk5PcmZ1Vk9fZG44cDBXZmwwTWlEQm16Q1BmTEMtRUJmTGlqMi1LallzUXNaUjVscTFIWXFJV1RCT1NiSks1Zg?oc=5</t>
+  </si>
+  <si>
+    <t>['segunda', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Juan Carlos Pinzón dijo que por ahora no respaldará a De la Espriella si pasa a segunda vuelta presidencial: “No vinimos a hacerle campaña a nadie”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAJBVV95cUxQcndxTnM3bkN4dXppbnZXeWdBWk1NNUlrNWpFQzc1ZFREZC02MXNkMk95NEFwRTBPNmJuUGtWRFB6UjZSVHdGYl9vSUJrU2RRVVViUzl3Z1RfSWMwUkdaamR1RGV4QU9mbUQtX3BiNi1Bd1FVRTh5b0g4RTJualR1OVpCN2pVel9STEh5Vm1LVk1JcUJSMV9CcURZV3I1NVZIalBCYjk0dnBYUEdCQ055Z1ZqQkc0Q0RaSmF3N09UUklyOUo3UVBqOGItOGIwR3B1UWMtbGd3eEV0TWlfbGMyVWltYjdFZVFyR055THVBVjBaT0RwUkttN0U3QjM0ZmxQVFBJX2FqZThJX3NjbkM5WUxXWTRGZmdZ0gGzAkFVX3lxTE8tVVh0OVZGRE9UbEhaYTR2V204YXh3NVpNcVZzMVBNTmI0M0hvZWtXbm5DRXFHRDVQY2xHN1BTcjkwNU9xTlNVdnF0VFFWdWZDdFItTi1yRFQxY3JYc2JEUGoxeGtpMi1rSHd5bVJSQ0k1SXE4cUpnZlVjRHZCMkF4U091NTZ0bVNpdkViZkVzQm1XNXp1bWJwRUxlRmpFejNEU2t1cElINUVZdFpUMFB4anR5Z3pFVDRFbjZwXzAzckYwQ1FFcm9lRThGdGZUWDhmemkwdjVMZXA5aXNjUWpkWnA2Qzl3OUZ5SzRCNW4yOXEyWGx2ckdTZDFfV2ExV3V4UWhTY3FlMk9zM2kzeHBwWF9LYXZCU3VOUFFUcnRwa0Q2UnFFSF94dU5xQmVFdUJPak0?oc=5</t>
+  </si>
+  <si>
+    <t>Consulta por Colombia alista llegada de nuevos integrantes</t>
+  </si>
+  <si>
+    <t>https://hoydiariodelmagdalena.com.co/1228469/consulta-por-colombia-alista-llegada-de-nuevos-integrantes-este-es-el-panorama/</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:K23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,11 +2122,938 @@
         <v>97</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{37F821CE-F9F4-4AEC-85AD-658434228B3C}"/>
     <hyperlink ref="C21" r:id="rId2" xr:uid="{0444B67F-2E96-4695-8BAD-36B4BEC22110}"/>
     <hyperlink ref="C20" r:id="rId3" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcUJwS3dyTUJxazFGRjQ0a3hCRmlRWFdzcU14RXMzSHVRaE1sSGJFN0ZrbDh0S1pNNC1Da2RFeDZIZDgwdUs0TDJ1NDdDRDNyOHdQZVNIM01ycmxMTTVwZ0VvdnFlcTVpUXA2RXBxa3VoNFEzcVpTZnVyMGdOYzM1RXllMlRycnJsLWc5ZllLclFuek9qa3dtN2R4VUdOOGN2M3NwZndUN3BrMm5vUHYteDB4dHVQa25GQV96a2x6bktVYjdSMjZuVFNvcWU0b2dT?oc=5" xr:uid="{BBDB7E46-32A3-4D21-9A0A-11BF3D3C7BB7}"/>
+    <hyperlink ref="C28" r:id="rId4" display="https://news.google.com/rss/articles/CBMihAJBVV95cUxNQnBUVUNHb2I2U2RvNXZ1Z3hHdVRYcEU4TjZDRXNrQUZZMkhMcVhzTlJZUWprcUFGUWcycEY5Ny1KZ0YySENxWHM2V0NDbzBabW5mbXVQSGJyRGk1LTl4bGpIN3NoX3pWT1hkdXpTMTR0SThPS3NXN3VzMmFWSVF0cE0wU1dnakxjQ1luOFFRaEZldkVVM0k4N3ZCMWdMakRxaEN0TURaS3dENW1MLTJ4Y2o3b0RBOFhhOWRwZFVhUUhlaFpHUVdUNjJES2NRM1JWRDBFRGk2djhveEk0dUJQWWEtcGVJZHAxWHpuWjhlbmh6M1o2YkZza3oxbTlMRUdjdHpictIBigJBVV95cUxONHlIRWtwWjB3ZzJZdk41UkJORzFETVRBdHRPZV9pZm1Sa2cwTDdqYmx4T2FmN0FRNXdzdC15NzlnT0thTlRnS19NMlgxcVZybDNIckRKeFFVUERpQVJtVzJHdmlCNHZtc1lEX3BjRjc4aWxRRlg4WVdiQ1VXMG9iX2dTV2M3bm8ydllQbERTODIzZ1lxRUpqUXI5NzZJSHd2VC1iZjNFMjB3WW5wMTVpVFRPZEVtdUxGdTVoM3BHb1ZqT3BnbWRsLW1Odk5TMXFJMzltQ21MaFNfd2drcDdqMXpuU0o4OVphMUdDaVVmcVZDZkhOMkhoR1BwcFYzX3VjYk96RmR6cGNQUQ?oc=5" xr:uid="{C4A19B40-BF10-4B48-B7F3-AFD24BC3CAC1}"/>
+    <hyperlink ref="C29" r:id="rId5" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxOOU9ndzV6Qm5oZjZnRFhKclhKMTI2QU1KNHFLNU0tXzFNaUowOThSZHZsWmxEQ1VaY3IzaWRMY29oY3dtR01JUU9LSGduMGU0ZHM0M3F1eDVwY3JNay05RDZBXzBLTkh2NmZsUXB5MXdmZHg2WF9TcVV2RHF4THd5cGpiZ0pDWjMwaWVldmtXa0Zhc3NFOUJXRm9TTnQtZmFrSmFsTzJlTmU0Ri15SXRMMTJWZ3hodmk0V2R1aHFiUUNnNkJMa2xGcjdtZlhBcFdKNHlYNnNZZjB2cno1OUtNcXdSa0RXTE9IOHVIbHVKU0o3Wkpzd1FKVXFmUjQtd9IBgwJBVV95cUxPTU5CY2d0ZFVKOXd4a3NZbnUtSXdBRS05dGp5c0syNlpQUVdYR1NvYU5EWEI4U2FQTDl3OU5PVF8ydnZNWldBTkpuV1ZJSGt6a2ZFajY2YzFEZEwxVlA3cjZmUllxQS1JVDZFdkdlTjRsSjkyRjdPblJzT3g1Z1BRalZCWlRzLUg0OTliN28xNVV0N2dHaXVNWVgxT1hWVWlKVDhRQ2Vfd1lxNy1KQzNFRGpvWlNpZi1QdFRCbG1Vcjk0Y1VZWEhsV1R0WktFSkltQmVPUllEQU11Z2JNejZoWWhEc1B5U2hvZXBBTWg2ckhNazU3QmVLZGZxbURzVUJBcGZB?oc=5" xr:uid="{9A7F9E8E-1CFC-45C1-9AB2-8834DAE32621}"/>
+    <hyperlink ref="C30" r:id="rId6" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxOU2dDb0lEeXc3MGdOSWVtUUJfZ2VGQTRWLTJVNE9RbVVVdi1mODBGSHBMWmNxX0xmcjVhZ3IyRnFycl9OSHppNkkwbHJFRVI2a3RHVE84V2FCb2Z5TzM4Zm5jZ3paaldmMzJyVFhIZDJ1b0s5dnRsN3VMQm1XaFdGajFtMGN3MmVNdFJFYjlEd3NzQzVlT19aNGQxM1Q3UmxVdVVVdG9hSmxyQkl4amo5bVgzal9rVENGZWVnM0JwNFI3bjZKdm9hT09R0gHPAUFVX3lxTE1sajRCczVWcEFPaXUzclJDWEw4ak5WNW5qV1dqMVVOeW1jdTdWSFc5N3U3QUR0ZWV6NGF5dW5JN0tWR1JSMEVJN0xLYzF2bHFjaG9na2ZLUVVYQkNlTVhJYWZ4V00zX2F3NjR5ZWhoN0pJME5MWWRKN3M1cnRQS0RVQXZRVDFnUDNlajFMNC1wVS1SMFRLZmRDRDQxTUZRTGFURTVuV2c5eUs4eHdQdUxQclJScXJNMlJ3T0daNFhINEVwUXkxM2lPaUptZFVGcw?oc=5" xr:uid="{3650841F-51A8-4562-8819-546F434E488F}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{5FC67150-D244-42A3-83B4-1ACE4C2CBCD0}"/>
+    <hyperlink ref="C32" r:id="rId8" display="https://news.google.com/rss/articles/CBMiiAFBVV95cUxQZFlVTVVOeHZxbzctNEJld0c2VENFY3M0OEhlY051Mkt0VEYyRHNxd1RmOU1KYzRiUkNKMEE3MHRNUk40NWx5Q0lyLUNvZV83bkxqU1RMRjB6TGNJLWxhTE9PdHhJemFiZ0VqQmF1THhCSkV3Q0hjYUFoYXN6dS1OUkJvczhfU0t10gGOAUFVX3lxTFBxZHlyR2hWdUxsZWlRQVM2OEZWbWw4SVdmT2JJVFRGU283VVhUQUx5bWlvajU4NzhhLUxQM2hLdk1HZ21ZX1paZ1VmYTY4Qm9GMzhsMEsxZ0s1TEJXdmFScGt0VDFtUXJPSU14Q0RvRnNtR2o5YXkwVGI5OW9nSFd4bjQxa0tNYVpIX0FKWmc?oc=5" xr:uid="{E4CEC43B-42EE-4C67-BA7C-126AF15E4D61}"/>
+    <hyperlink ref="C33" r:id="rId9" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxPcklKSXdna0IzMllFUTNuRXRiX3VyMTBWOFJpdDZTYTJTeVk0VVUzVWhyeXpHX2VCeUtlOW9sSUdqRHF6NHBFNl82a3czZVU0QXlVYXoyVzdXcWVUd0N6UnNtRkNVLVlCZXdGTlk1bi1rYnJGdXhUUmxrbXVNdTROQ3Rid05zUXBWek1fOU1UQnlrbnJYZUpfbTAyLWFGaUw30gGmAUFVX3lxTE5KYW11OGJqb29qYmlmaG5WaDlYckl5cS1MNzZyTWdkVVBoZlpBTW9IM2V2cWQwMW9wS2tPWHdJNnc5Z0pOSk9YWUttYms1cVFFMVFKcVZiRnYzSlVUZzBjRUhiU2RWbjh3a3ZWelQzaW96dGZCWmp4QTdkbmhndjFZcTAxWE5xcm1xaS1JUXFTelgtZVZVWGViTjhDNDBKVUZ5bDNsMHc?oc=5" xr:uid="{5EF0EF68-12CB-45E2-B74B-97D29195C401}"/>
+    <hyperlink ref="C34" r:id="rId10" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNVWdWSlpJeTZOMGlPUGlDQnhxT3VtMFdYM0pzMC1aNFhtRm82ekNpdkl2Unh0azdCbUxFSWt6ZVJmQU9CdGh4dXUwMW5QRzRxc1c3dW9jQUlVbXBoTVh6N0JmbS1LUy1yZ3ZSUlA5YzBhcFBQYlUtZUxialBkeHNPeDFIVlJFbGVSOXBxanp2dEVaYUgya0lxV1pyT05NbHBtcDhoWmNtZHFJY1dzeUJRV2daNnAxTllaMDBQV1RGNGI4blJyUm9OWDlWaEZodDFsNGtPWnJEeFVDTzNKTDY40gHkAUFVX3lxTE1zTUNnZnVTZFI4MEVxR3FIM0ozM0F6dERwcDdWdDVxNUh4UzlVQ3ZHT3RURXlaUmhlYnFBR0ZFNzFDY1VoT2c4X1JxaEtMTGtLdGxILTdTQ0ZLYUM5SUExS3BuaEJLOUMyRVZLb3AtVHh6QVZRWHo1a3NGZ1FrUmVKTVM5WmNrOUU5TW5UcnJsWGRteW1XazlVRk9xa3hqbjM0WWJnc2c2TjV2dFFNQUZHUUhuczRlYkh0Yk5zMDA3ZGdrRG92YUpIN1E0M19xb0ZxMEVCY0VoZ2xSZm1iQm5DY2NKVQ?oc=5" xr:uid="{B47690F2-B026-4BB7-A5F2-DB2C68CEA970}"/>
+    <hyperlink ref="C35" r:id="rId11" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxQSEpGaDJicVdIUDBIak8wd1JfU0l5NURNellqU0ZEdXZ1TmJELWJrQjFYUFZYNno2bFh0dU1MWVdwMmp2am11clpUUTRlRkIteFNBUmhDejlvVHMxQUxEekVvZ3VhVVdvZnBGMzhaa3FHQjBlVkl3ZVM5SHBsQkdwLURBOTcwSzlLMUZ2Ny12MVJpSkNaeEhndnB3R3QtTm1PZVlrWjZRalJyazVHb2tlY1VZUC1aeWZwc3JVcDFxRWFNWkZFTzc0MG1zV0NVS1JP?oc=5" xr:uid="{D594B177-5677-46F0-B820-89A80E0F5B4E}"/>
+    <hyperlink ref="C36" r:id="rId12" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxOY25MVks5U3hrMUJwaFJaTDdpM25NMW5zWTA0dEw0VG01bldxOWIwdThHNm5qVjl2SHJLN2s0YkxuYVdxN3NZUG9QQWUzNFhCVTZ0SmpWSFJWWDVYcFJMYzBUcEtNYnhaSVdYWXJtNlQ2UHZBZ09MMUNKQ3h3Mi1UOFAxZWhhSEVTeTFiWXdyOUxacXM1RFZfZUlmMUdoSDQ2LWI3ckltTGxRdmJmaUxMbW96Smg5dVNUdHQ2TjlRVTQ5TE16MjJaQ2R1ZU12NGNmM3RmdW5BRTJqeWNId092T0lpbm5nQXRfa0ZV?oc=5" xr:uid="{AFBE3C33-49C6-4EBD-AACD-F7CE02062FB9}"/>
+    <hyperlink ref="C37" r:id="rId13" display="https://news.google.com/rss/articles/CBMiigJBVV95cUxQcGZXM1RBMGVBcmcwb094ZFA0SldPMkpDQV9KODRFMU9FbTFsV1hCWjdFcE04MlYtSVp6WWtfdGQtVnM1a0pFdmtLRkxkS3BRd2tWaFlYOG9uVTZ6dDFfeGZ6TjVfYlJnVmxqcG9kSktHajhKbVJFZ29NZ0FmQ1NMY21USzVnandIMVJISHo3MEw3RXhPYkZuQkVNNzl3cUltMEtTbVYycFJGSlNCN3hRU0RUbHQ5cUtWakNleF9jeFpndHpCdjlvbWJBemlHNjJDOUQyczZ2TEJnSTlqakV3VUR0RDVnTlloZW1KNmdESGxFNXhrSVFub0tPcFZZaldNYVRqS2ZMdlpuZ9IBpAJBVV95cUxQUVNkdnZWMFNUWTlzai05eGxWRm9IcURremZ1QU9vcXhhREJWVFA3bnJGbk1rVWZJak40MG5fMkk0eWZobk9nTTBzaEtwZUFzdG5FSEFsZVpZQW5ETS1CdDlqRTFFOEJ2VmhrLVYtSllsMzV2RGVvaXl6UEtfT3VSek1iNFFoNEl3OWNxU19Xc2lGS1V5NTdNTlpXazQ3Yzg5NVIzcU5SeVFBbHhiYnJvMEdaQ0RGRGc2QXJwcjZsYVMtN3pvUi1VcURRR2JaUGhFcDZkMVhzMjdlUTJTVnN6dTdSdHVmRm9VQlJUY0NjTFhUcjJDUDBvYlFUaHVPNjNqUU9NYzhDVTU1bnVvNk5fRVhvTDZ6aE5vTTRyVzBHWHZEXy1Y?oc=5" xr:uid="{5C426664-4741-4C3A-863A-DAA07E9D9A98}"/>
+    <hyperlink ref="C38" r:id="rId14" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxQWV8wMGtiNXNXM1Jlakw4T3MtZzRvamh1S25TMWl5Z2J6TVpHb2FqZEhfWkVaQzRpbUoxRnRYblRLM1FJLUZSWFcxZVJTNHBOd3lKVnh6bUlmYzMteW1GcEd5ZnR6T1FOY3R2SHNwUWFhMzdOUFJEZ25YUHR6SVpGS3hjWG1RZC1SU3I2M0Y0ZVVSc2NyVk9GSElIdU9LaGptRGVYS3JtRWNQQzViVTB2ekZ5ZVpjb3ZCV3ZTVUFidFR0UkVpUWtKZ2NuR1ZzU0dIZl9xeF85Sko3clBqdkZLaXdwVmUtMzRTTDdoOWhDOXM4cEQ3TUN2OVBWTld3dElidHhyWWJfMHPSAaMCQVVfeXFMTVdSemtsMWx4ZnJfWVVqTGllWFRhRDg3b3JsR1dpNDFDM3NBRl9reFZMRUlTWXczMGZ5T2NpU3NnN0lpd2w3ZjhVblJFMWswMEJveGtTM3h5NXhwd0djLXFhSFhSVlNLTWxucno0ZTRJTndTOGdHVWhjWURtNHV6M0ZfcXZfNHVVOHBISG9lWGJDaHN4RlFvU3gzOC03a2dkVkJJb25uZXMwMzFTcVNRM2o0NXI4T0E4OUhlVUhKQ2JxWThfTGhHUFBnVFVYdzBsUEhGOURyZmZEd0piSldpV29rZHhhLUR0ckQtLWhrUHVjd0FaR0ZZNVhfaFU5SGpEbFVhbEd6d1NqRkFURFI3WGNOWXZfRUVDSTRPRnc2T2RsM2NR?oc=5" xr:uid="{F22DDC8D-DA3D-4BE3-97DC-34100A35FA4D}"/>
+    <hyperlink ref="C40" r:id="rId15" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPOWpyN2o2MzVZX0NaQmhVUWFRUlRTUy1HVllrYmpFeDNOOU56cGhmWjF1eFI4ay1kbmFvSDFWN3E4c21jalRVWXJMYjhxY2tXaHROVnBfRWJoSGhSVDRJNmFSUmhTczhGRDBYSkdJUlVOR1RVMG9CUmxLXzFFMkJ0WlpNbm8tY1dnT2lVeHJmR09FbHVSYVlKY0ZucTVkUWdvQVFXS2Fzb0dBODRNWjRhb1pEWFZ2QjRydmpIRmp3RG9VSzg?oc=5" xr:uid="{A6382393-1D4F-4D27-BC30-2D3CFC1A2F5C}"/>
+    <hyperlink ref="C41" r:id="rId16" display="https://news.google.com/rss/articles/CBMiiwJBVV95cUxQRkVKTEZqeXdraWhjVjE2QWFGcGVjLWFoSkMtcVp4cXpNWGV5dmE4eWNzLS01TXVWVkNzdU1hWUxRS01rR25nMFNfeXAwOWhWUXRZd3UtQ1cxMFVxNGhwb0JNdTMyWlJFelN0Y3N5NG5sZ1hNQldvU0RvZnQ2OHVmMWNxZmwyR0NkNUdtZGMxNEFCVXVCTEJhRXg2aWJxM0wtd2x4SXd5cHg1NVlWaDk0SFctTmJyUFhFaTBqQzFsaWJBZjNpckVsdW1RcGQtczV6UWRJeV9OM0FJMnZIa0Q0RXhmSTdDSnVUdUFnaWwtMTAxWnB2eHI3clB6YVF1Z19kenhuV0M0SXVOeUHSAZACQVVfeXFMTW03c1J6M0tsdE9PSllKQVVxTjJVcHoxcWRJb2VRdVVwQ29fTDBaZ2gxSlRIb1ppdkpJS1VCSVloLTd0ZER6NEZNY1ZHRXg2dHR5VFl4a2NtQTZtbGUweTlsOUNsTHQyME50ZHZCU01hRTJRd0QzQmd6N2paVl94c05pc056ZkExOVNzazUyaDVJOXhfVjRUXzV4cUhQRGZjdjBfdmVsWHhyUlJwWEpzd3NQSm1abVBtNjFFWnpya2xTRGlLZ3QzQV9OMGVJUGdJUXFQa3Fwd2ZGX1JJdjlKVjFDX0JDQXl0VUJITl9xVWh4YkVNNlJmaGgxdDl1UHdSSzJmZ29TUVFhX0ZQQ1l5THI?oc=5" xr:uid="{844B60C6-8D06-473B-83E3-3326FA92F72B}"/>
+    <hyperlink ref="C42" r:id="rId17" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxPcmFfbzBieFMzbXVCcWtheVhqUWJaSmdXZW9fazdiQnlCYTA5eDJUVWFTQTFUVlRmeC1lMnNha2N0VlBmdmtrVmVBRG14eGFGV2ZXTnloQkhSQS1YOHBZMGNMbG91b2hmVTM1UlRZRWJfenc5QnBrQjRfYjR2SUF2Yy1IRk9HVlJUYmFQdFZKVGZJa08zeUhCczlxeXRPU2kwSkstZFZORG5hb1pRQlhGLTVoYjN5eEZvblByOXB6dE9lbUludDFFdks1ZW41YUh6TEhoRFkySS1MRVIwc190Wm1XOEh0anJ2Umw5bUJBRTFVWUxTSllBbEZ4dlRrQdIBgwJBVV95cUxQTzIwbVRFWDJUTTBzVURaSmJaeFZtVEpyZHZzXzE0VnlHR2JuSmpKWHVWbFE5MV96MVcyLTJNUGN4UGFHcFhEVldSM3pxRGNzaXdLWDdQRGhJcjVWczdabkF6Y3R6M2VUTzRhbDR6NklCaDZ2b0ZRN2VhTW5iU0hhLS1mcS1NUlppTGFYd3I1MzNiMkYydllaZUVES1BjM3hsU0tKWS1aalNLS0FleGV1VjluVWhLTDVkS3B5Wm45UmtNLU1sb1lfX2VEWERGdlpUeTREczJPdllQUVpjYjhUN05FNFpFR3FoSHZUTE5kMVlqY2NCdmNHaUFQeFdDdWlnQXFF?oc=5" xr:uid="{73ECAD89-E3BA-47A7-AF02-A4357D1E08DD}"/>
+    <hyperlink ref="C43" r:id="rId18" display="https://news.google.com/rss/articles/CBMijgJBVV95cUxNSzNIU0RQVXFucnhmZzRNakIwT2c3a2E4N3NjVG9tSlFZdmhOVVgyOTVQbWM2WGE3MURBdjMxUEFKN1pWaXZ6V3FYcmQ1SlhjZngxX3pHSnJoU1VuMzc0YmFxeEFVM2c1UEpFWGpfOHVMUmtCeVFnZWFqSWt2dDRoU1RXNlI1cmxjUXNpQWNfWDJLb2c3YVVSOUpqdGdTTzl6VlUtcjh2Y2xNVjhleGhhdl8xZlIzSDVMSE1KaGVROTg5SzRYWlFrQ2RmNDdfNlkxY2dHWlhBYlRYa05ZWUFxSDViTTFyM0lvWjNpcXNVTHZyWUVNTHJDcGJJdnF0aHdvSVFqNkRsRnMxZWJVdEHSAZMCQVVfeXFMTUxKX0RMclYwSmJxUGROYnRTOWFBeWNzVFFfQjQ0TGlMUmVKc194UndrYW9qNVVoSUZucXhySnRkQnREM2c4X25xTnhrWk9xSWhvemd4TWlOS2ZGZ2k1TXlBSnZPSXo5UTUyQjVvQXcwS2ZsSWhBeWZwQUJEemZkTUxJZ3RFNDlCODZqeUtqTkM2dFBWZnhuZGc2LWFWTmZhYzM2b2Fzd2pSRGlnM1E0bjhBOEQ1NWY0SUJ3S3JvZ2liOC1waE9CajFoS1BhNDlaX0ZCcnc0cERKS2xvdG05elZLTjl5QXo1WDJlakl1NHZ1LXJSTUVIcXliajlHVkZNMWVHMVhDd2xhQXhZLTBNM01TcW8?oc=5" xr:uid="{9CC14C48-91B4-49FF-A58A-3D42FF8ED758}"/>
+    <hyperlink ref="C44" r:id="rId19" display="https://news.google.com/rss/articles/CBMikAJBVV95cUxNNDJoT1VpNGhKNEs2aGZHb21CMVMyT29ZRVZtcTRoYU44bmpLTXhfMDJDU2w3UzhWRzIySVZtTFpRQkRzS0QtOWlZandsSHZ0SzhwRVAwNllrY25Uc21fQjg0b0RTcmNsRk1ja1JKSUFnQUZ4b0UtSWU5dlVjWmE3dHY1RVdpakFkejkycU9NYUdLZ0FhXzFjUHZCSVB1eXduM1J6ZzRCazFFWWVmUXBFYVZMZk9jTWdUM2ljZzZleGE1b0J2ZU5xNTd3Si05TG8zTjVVMEMxNmlxTmZ5NHlBSFh2N2hxLV9haWNJM2RNYTNCS2tuV2YyZTZyNkhad3ptSjJZaHZ2OGt6SG80VGU5cdIBlgJBVV95cUxQcHBDLUJrM3ktTkNLYV9hS2lhamJrb1AyYlV3SmFDdXJjNHBuQ3RaOGoteFhQWEkxOHFhQk0tMVU5YVFOeVhEdlgxQmdtbzlhaWJNZUpMenlsQXpUQXpOUzNfQ2VBQnVZUjB4cll1a01rMVlnVTY4SF9QRUNXeUtUclVEeEZzQnM4WEhSekNTTThBaGJldDNKTzhQVnJHVTMtclF1RGRYT3BEZGdRaU9OVV9oTklGOXZObExQZlhfamFaRTJTNVp4ZTJrU2daRlF0c0V1bm5TVTJ6SzdJeWdxQzJDeHVSMFNZR1VIOHdndW03aldEbEhwSlp0TXAtLVFMUkVWd0Nvd21Ta0JYN2F4UzNRRy03Zw?oc=5" xr:uid="{05993A41-4AC7-421C-86E8-6AE913D0FFB2}"/>
+    <hyperlink ref="C45" r:id="rId20" display="https://news.google.com/rss/articles/CBMi_gFBVV95cUxNOEZMTDEyclFuUmdnZU1wQ0RyVWFkWXlyQUk4VFp1NUNBUmdscEFrNV9JUlpzNGkyOV9NSkJVb184UzBUazRtVktuRzdvLUYxaFpwVlBwanVXQmdvWnpSQkFZQWptMUZaMXN3bFJfVVZUekJnZ3BOWE1pdy1ab3o1blYzeFYxQThLdURsVFNHLVQ3LVhCanFGNE9qdkVrRXd5NDNrdFdNbVNkN3JhOEVUd0N2STB3M0lkSDk1dUtTdzYzLTFhV2JyS1Z3XzRES2otREZWcHlnUGFqbzFyWTVhbXNRMmphek02S2dLT1VOWmdLN1psdFBIdWg1YTNMZ9IBgwJBVV95cUxQOUZWV1Q3dGhxTTV5MlJ6MnB6bGxxREFKVXYxeHhSUWxjVW8wN29SaThwV2ZWUmc5VE5xdXlSalRHcHhfdjV1UVZmak1wcDFXVWpndWRveFV4S29HbjBrMkZicXpqQ3VBdWNBQ25EbW1zTU90QzR0S19KNmFCWFlWYkFrQVpwYVVpQUNabmNfT2kxbDJPd0d4MGdLLTk2Q0lpdzVfazhleERoQTNnZGU3MXJfY0kwSnhpcUdLSDhJdllnRk8wd3hlVnJZYWZhYnVkempsWVpmMHB4b0Q0WHp3bkMzVU1xSHhWVjlpNS1WMktxNnVGUDFianNmaGZGMUJVSEF3?oc=5" xr:uid="{448A85E9-338D-4CFC-ACED-FD46504DD2E9}"/>
+    <hyperlink ref="C47" r:id="rId21" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxQT1ozNWhqYVhidzkzT2wxOG5oSnFjRXVhTV91VnVmSk9WOURTVC1maUZId1hkRHJlQ2VYZmRSYUVNU3lVekpJcC1DTXZhQ1h4VEp3cHViTkVyZWt5cXd1TlNVOU1RTFZ2Y2p4cHJKVDAzYW9hRG1MMTY0YldWdjUwWUdtS2JteTRHbjM5UFhfVDdVRzcyOEY3SnJGd3JoWDJFRmJsSEZPTUhuS292ckxVVzh4RWt0WjRCcFVqcGtvSjZLbk54bWxKdkJrSWFqOWRtb0lCNTREaDFoUdIB2gFBVV95cUxQZ1RYNGd2QmFXQjJpbDVCQkpoWlg2NnBGdnhmZ1l2SUtNRHVXTFZQZXlhekRtWE9pYWdkTDRyZ3BOTm1qYmRjSUMxX0RaNHpJZmhUTy00LUhzVUhhQnJ0MzZEYjN4WmhSWWhmT1FFaVpqRmo0aks2eEhpX2ZsazdrdkM3bTQxeFNkSFNtWVNGRWxJZmhkNlhPM3BzVkJ2c09xXzJ5YUUzWnk1OW9rTFpIa000MFBQME1uZjBCQ3pMMURWaFpHdmJjOXc1WEdOdFpuR3YtSXJFOC1rZw?oc=5" xr:uid="{AB5D6856-7CA1-4914-91EC-6C2CB8039F4B}"/>
+    <hyperlink ref="C48" r:id="rId22" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxPb1cxeXg0amlMQ0pxVlNHRVEwYkRTUEFKNWhRaHNJZkJUX1UtdWF0WjF2RERra2hzWnk4YmZmX1JSYnFCLXlZZDNRek1xVWpab25UY3BFTFNIOVVqTnlzOUJDaGU3TTJxU2tTSGZkZ2lsQzVHNlRMdFNYS3NlcFI2MDJGb3ByUXVZZ011MWNoV1AxaGFVSGxTZWVzdV93XzQyNVlRWEFLZXBYX19kTUNSQmloMGpCOHFyTTZEcnJ0MEFXdy1t?oc=5" xr:uid="{DEC64031-C961-47EB-A6D6-76A474EB1FC4}"/>
+    <hyperlink ref="C49" r:id="rId23" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxPdnNVQ0FNSDNoYTRodFZKTDYySi1jSWhET2ppb2ktUFJsdVJ1azNZOWtCSjVwd1NBYlZrdkRtZ1FZUVRsdHNINkpuUkR4ZDZqZ215MEdQWUdxOUUzZWJ1dkJPa2hmOXJhQkdVM1EwQV9wekY4MFdhd1FzR3oyZmc5eUdLWWpaMnQ1VlAyTGxZQk9Od3BLbkoyQXF4Y2ZVRjBHY2p3eXZUa2xBdFVmMGpKQkdSUzFwUzE4VTRvbGtHOVZqQzZZRkxMLXh3aktuRDI5czNrQjlpNmNxZ3EtRzRibkl0SUJYX2s5RXgtMEhUZC1xUHprWW5KeEpJWjFIWU1ob3ZiSjYycTBGLUVi0gGnAkFVX3lxTE1rNzZ1b2hjSHZTYkwyV2ZpWlBSYUtjN3BpUVZuenViRjBOM0o5VV9GMzhOOElLQl94cWFsWTdPMG5kWVh5Unc2SUE0VjJXaXExZDZCa1R1U3pFS2xEOGdYaVlIQWZYZGpmSGZiSkF0Tlp1dVNnT05vd2RlOXphWVlUS3VnUHloUExwNFZWTWR3WlVvWTRiWl9zU3RaanRoZmppaDAxblRyenNEVEdZRldJUW4zajlYSTNra2FXTklWWjdtdXhsc3ZJSmY1RWRJV294R1RhMXBZb0ZmeFFIblNmTlU1aVF5VVRGSTl3bUowaFNrdmlmVUlzVkZJQmV3MGlLbl9idVBjdGFEZmRpRDdBNlVrT0VFdUpfQXRnbWU2R1pOOHpYZ0k?oc=5" xr:uid="{A73FB18B-BE29-4B33-8A69-D24142A77984}"/>
+    <hyperlink ref="C50" r:id="rId24" xr:uid="{DA11FDBF-BECD-481B-91D9-45D84F3AF307}"/>
+    <hyperlink ref="C51" r:id="rId25" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxNNEkxR3hDOWpMX2FxY0NOOVM3R1FLZTdoeWoxQ0M5aEIwN3YtcnhFNHlOUHBpaHQ5bVBoandlSjh5TU9iRXo5YU5FQ01OMVVELUF2amdFX2lGVnBXQk02Y251OFRDTl9rcnR4Z0lNUnRDYXVHc2JLNUN0S29DeTBXRmN5WVhyb3JBQWVmNW5aRk1LeG5uWlk0ZWdUXzhKYVFlVEp6NU1ZWFlwc1ZsQVM2OF9kRTVwWWRTTWRfQklPQ0YzdmdFNkNNNmxIbHdROTZLRy0ya01pNU1wdi1YTVA00gH6AUFVX3lxTE1QMjcwQ1hqQll2aGFER0ZjNEFIakZyY09JY2JpNVZGUUxjS3h1bGREajBqVTFUUVBlNFEzLUZnS3BRLVdnbHpZQXg0c0l0SDU5c0FGc0l1dHI4SzhjTHFqS3liVm1XWFVKT1h2dWxnVlhZS0tsQU9rYlNOUmFlN0ZJaWh2MDIzN19yMTFEV1dETWRVTjJ6ZW1vQjhRVVZUejQ4MThzQXR5RFlVVUpjSUNYdThCLTVhRG92aWN5YVZlYkFKWkpoTHdpRkhHcDlFSnl4eGlnZ0Y2YXdobUpSeHFqSW4ydFh1MUM4SU1iU3BZTkR5bVl6TVJvUEE?oc=5" xr:uid="{A61A0131-AEC2-4DE9-925A-79E102D67F56}"/>
+    <hyperlink ref="C52" r:id="rId26" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNeDl1NF9HNlE2eE13a3otbS0xOVpXUWNHeGh3aFlxTVJla2hpX3NnY19iT0NTUWk1RkZqekJMT254LW5VRzFLMUZGeEIwSWM3NWpuLVMxSzVPRVJDN1ByOTRka2FGaWFPUGIwVFVHdC1rUTdSRGl2eHNGeVZ4VTVGVHNRMkN5NFVhTW9KQnhTN1kyaWJKd3ZTWmlveGx4dnE1SmVwV0tzYzRldU00UG5jSE1vY2FvLVFUU1hQQtIBvAFBVV95cUxOT3BrYW9lZjhoeFZYZm9uLXRKaW42MEFSWWpZMnBmems1M3kzRXYycHo2M1FVRkNzeDg1V3pKeE1Nd09iR25nazNqUDZfUUdpSVRzVy1XTWlQakl5bDRTNENUY2RmUktzOFl0RmtkQ2pXbWNiM0p5NVNVeVRRWk5PcmZ1Vk9fZG44cDBXZmwwTWlEQm16Q1BmTEMtRUJmTGlqMi1LallzUXNaUjVscTFIWXFJV1RCT1NiSks1Zg?oc=5" xr:uid="{C2683A71-3CBD-47BB-AD86-9BEFC23AB2E2}"/>
+    <hyperlink ref="C53" r:id="rId27" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxQcndxTnM3bkN4dXppbnZXeWdBWk1NNUlrNWpFQzc1ZFREZC02MXNkMk95NEFwRTBPNmJuUGtWRFB6UjZSVHdGYl9vSUJrU2RRVVViUzl3Z1RfSWMwUkdaamR1RGV4QU9mbUQtX3BiNi1Bd1FVRTh5b0g4RTJualR1OVpCN2pVel9STEh5Vm1LVk1JcUJSMV9CcURZV3I1NVZIalBCYjk0dnBYUEdCQ055Z1ZqQkc0Q0RaSmF3N09UUklyOUo3UVBqOGItOGIwR3B1UWMtbGd3eEV0TWlfbGMyVWltYjdFZVFyR055THVBVjBaT0RwUkttN0U3QjM0ZmxQVFBJX2FqZThJX3NjbkM5WUxXWTRGZmdZ0gGzAkFVX3lxTE8tVVh0OVZGRE9UbEhaYTR2V204YXh3NVpNcVZzMVBNTmI0M0hvZWtXbm5DRXFHRDVQY2xHN1BTcjkwNU9xTlNVdnF0VFFWdWZDdFItTi1yRFQxY3JYc2JEUGoxeGtpMi1rSHd5bVJSQ0k1SXE4cUpnZlVjRHZCMkF4U091NTZ0bVNpdkViZkVzQm1XNXp1bWJwRUxlRmpFejNEU2t1cElINUVZdFpUMFB4anR5Z3pFVDRFbjZwXzAzckYwQ1FFcm9lRThGdGZUWDhmemkwdjVMZXA5aXNjUWpkWnA2Qzl3OUZ5SzRCNW4yOXEyWGx2ckdTZDFfV2ExV3V4UWhTY3FlMk9zM2kzeHBwWF9LYXZCU3VOUFFUcnRwa0Q2UnFFSF94dU5xQmVFdUJPak0?oc=5" xr:uid="{DEFE0C4D-B485-4BFD-A9F6-093E91202140}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{02B90841-9E5D-46A2-A64D-C27EE6D985B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F583743C-F88B-4424-943C-39DD80928978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A718F0B-9C53-4643-9C93-BF4F3F09694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="250">
   <si>
     <t>Fecha</t>
   </si>
@@ -600,6 +600,178 @@
   </si>
   <si>
     <t>https://hoydiariodelmagdalena.com.co/1228469/consulta-por-colombia-alista-llegada-de-nuevos-integrantes-este-es-el-panorama/</t>
+  </si>
+  <si>
+    <t>Carta abierta al candidato Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/opinion/columnistas/cristinacarrizosa/carta-abierta-al-candidato-sergio-fajardo/</t>
+  </si>
+  <si>
+    <t>['abierta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cristina Carrizosa Calle</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Carolina Corcho reportaron lo que gastaron en campaña para la consulta del Pacto Histórico, estas son las cifras</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxOMVpyMDBtRGI0SnRETzRKbUdIMzNKbUI4WFNFazBSdjNHc1JBU0s1TUU5eU9yRlFOeHBEZzUyazBxeVQzblI0clVicGhpbnU0WTBfQmVoMEQ3aVMyTjZ2cC13QXNQNDBpRk5CZE5LMFpUdVJ6WFBNQXd6LUFhWXB6d2pzQkVSQ0ZjdUI1cHkyM05ZVHFaZWllRllFRVJhVTFVb0NjdURkM0JzNWtoRnhCdmVUSE9wa3Y4QTNXQktGelNWMjFkUm5rYmNoY09DejVIcURCbWFpUXlXME8yT1dMdzJmek9ZS3d1S1hmeURPREpMOUtady16MThWbTg2c3JhZHlxd2hOR3ZGdVRzcG1QeG04Ty3SAZoCQVVfeXFMT1hYbE5Cd1laakpYdDd2cEdacV81N0ItMlptbHlNMHVkUXk5UFhQT05RMTBnWm51MGpxbmp3NWhvajlvTDZGMFc2cS1kekZ1bUxHNnl4LVVkSVJjVXpnSXhCUEtLU1h5c1EyNFN1R3NPQk9wY3h5ZW1iQVVZWVkya09yUENJRTNRUVY5b3djLUU4d21SVDNDTm16cVY3MFdUekxFZGQ1LVB6SWhxa3hCWHhteDlub1ktQVRuY0oyZ3lPTHRQWWRMT2pSY3c5amRjNHFWZ21iNTRfMm1HSEI2MW5WRFlGQzFONmVhLTRRT3RVdTVGQ0JBaFhGWFdBMzVYZFVyd3JvclRfT081UEpQRkdMSzFJWW1ndkFn?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe habla del “desespero” del Gobierno Petro por elegir a Iván Cepeda: “Lo ha llevado a endeudarse otros once mil millones de dólares”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxQQXBRdy1uQXFCc0tSU2ZrTjBFSVhROFp3UWU5dURlZVBRUm95TC1jMDRqeEd5Z3Y5czBwYU9CdE0zZXBpd1d1anpZMzB6TnlsSEtXaWpjZkVBOUEwZWhLM3pGVk9GTEtkdHJSUXRmM2hMY240UVRwTkxYMDJYODNORFMtbUVob2dOWjFQLWhzSS1pZGUzalBiSkxTLWM0YS0weTRoYzZ1U2JpdEFxdllwX251aU1ONjhrOHRQZzZLVEFxUzI5bzdHTzcwWmZLWXpOb1NTaFNqUDM1aEJoZEdwaVN5Ql9lcFJTVk54aFcwazhETm9pT2s5ek1MX3k1MVFhN21Dem9fNnhtMC1kWE5TWXVQb1pqcWVMV3fSAZ8CQVVfeXFMT1ZOS3Q2SS0xdklnTEZpTS1oT0h2a1BxTGI1dGdfQTdfc1NBZkVkcVpIbWtlUVNYdUlLakdUVTFDZ2lQc2M3VkpZUUxkQmdQWEp3ZEJiUHBWdmRmWEFNNzVuM0xDcTc0RXZsTXdRUkJOTzZpVW5CcWdmZDBoQ01tM25QbTlyZk1ZRHM1Q1YxeFhLcXE1Sk9BSUIyOUlUWFJHaTZCM0hmNmtPcVFmVjAzeVdnSmxJUnlzQTB0dk95SkllaWZ2NDZleVhZU255dXJseG5ER3B5NWZmT2ptZm9xeEZobVBMQ1RPeXd6WTlkcmU1cVVMVnp1TTl3LUFmVjFKS3RfVjBsLWs5eUNMNktSQ2dBcHNQYVc2bWtRb21LaXc?oc=5</t>
+  </si>
+  <si>
+    <t>['”']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe dice que “Petro tiene una narrativa mentirosa para buscar la elección de su candidato Iván Cepeda”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxNZmozOTBhYXViNm9fRVhyUXhoQTZLcm8wZG1HYi1PdWV4Vzdhc3BlZ3lwX2FYY0pQdEpwTEg3WGdpNEtHb1ktR2lubTFCdjBzSTZhUjZZTWxVQmxzTXFIZFQ1ODNnb1FZa2tTTGJZVjU0NVZJLVljZnRZRUx6emYwR1JoUm9sNEhBcWlkcnhzVG0xQjZkeDFveTFKUWRHaFU4cUxGS3ExQjh2T1hhaU1qckdCRjJtbk5YUmxNbmZmNmZTdFB2bmo5dlJnQ0hGdm5KbEZfZVVabEVUTlZZQ3lnRVJtV3JHZDBBc2FNRTc0TQ?oc=5</t>
+  </si>
+  <si>
+    <t>['mentirosa']</t>
+  </si>
+  <si>
+    <t>tiros</t>
+  </si>
+  <si>
+    <t>Revelan gastos de la consulta del Pacto Histórico: Iván Cepeda y Carolina Corcho reportaron más de $2.300 millones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxOeDNVOUFsSG9TQXpWOE5zaGZNdGw1VkRnRUpuZzJGUk1YZ1FPamZfcUxxYjlMeWlaMWlpaml6X0lZRGpoZWhEN1JreUc2Zm1GRkJ4SmpwTjNyTXE0NmhLZmp6UWoyMTJOSElvdTZWUktjR0RkUGxmYzRJUVZ2R1ptUzhyNDhGYk9oQnR4dU1QMG1hVE5Ba1c2R1F5Q0oybGhEQTVuZW1KX1duMUYxMGFrNXNtZS1RVXR3RUszV2xqN29UN19vWnFodzRCQUZfOEtEYlhVbnl2RklHUFEzd1p4NnlMdktDTzhhMEVLQtIBhwJBVV95cUxNaUlRYVVJdEdFblRFSmNxYUJPNUprZGRvZkxxM0d1VnJFOHIyMmdUQjFNUjRPQWxaX0Q1ektXWHBUbTgzM1k3a1E5U2lBWk1BbEdtbG0tRlBDNzJtV2dHNl94U0Fob2pFTjFKVnNaQ1Zld2t5cWc5WEdjcy10N19JaFQ2N01odk5jcy1GemVWWmZUZjlLcXdVV0V3UW9LM0pZenlabWxMQnVFYmlfRWpWMG91Mzl2QndlWXdjcUNwUEpkT2J4YkYyckk5X0NMT2tTRFozUjBQZWZIbkl5MDBzYkdOVDV2Slk1OFc5R29PU2tFa2RYN19jdDRUQ29WdkROYWx0RklpTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe acusó a Gustavo Petro de usar una “narrativa mentirosa” para impulsar a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOYkUwWmMyXzJHNWJrcmdIY2RNNUFpbnR5RFdoNW5UQ0xpbjhGTjZLM2FwM0RTUnNpZXMybHZQbVdTT2tqVDhiX3ozbl9abW1HOHZOa1J0cHV3aUxRcFRoeHZyR2E5cnZ4RWoyR25tM1l5Vm1RcFRnUV9YVmJzSFpOMjZPeXBHMV9lU0xRcVJhSmQyd3VzaDgyRTQ4RjdvemhOMkg1Q3l5Y3NpanBId2htY2NzZFZsbnFWYXN4QU16NjJSYjZ2V2trbTFKN0JTX0JPUGpiMEVB0gHwAUFVX3lxTFAtOGg3U1JQRHVRaGZEY3JIT3pYRWtrMzYxclVfNFlDZFpCMlpsT2kxb3JTVEpDSDlyTzlrRkF3WVhmb0tIYjh2czlFTVJxQzNjU1VXY054UkotWE8xWFpsUFhhN3JOY3FYMTBGMENEa0JJemRHWk4yQUlUdzJZQ2wwSVNCSlhOR2g2c1l6Y2NnSG91OHowNGVmQ0VzNTBfNHZDYnZfWk5QMVQxUklJeUszUkQwRF9rWTRMQ1JwVnhrR1BsQmREZ3NiM3ZBQjlETGVwQUR1YWdFTjdwQ0RuSThBdjlaVVVIWklIRDlzQmdrUA?oc=5</t>
+  </si>
+  <si>
+    <t>['mentirosa', '”']</t>
+  </si>
+  <si>
+    <t>impulsa, tiros</t>
+  </si>
+  <si>
+    <t>El dato: Cepeda gastó 960 millones en la consulta. Corcho, 1.428</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNNUhGRlR2c3NVVF9ZUng4SThTZHU0cUdSOVMyaVF0UTA3c2F3WWFzeHJHaHd4a0ZualN2Vkp2UjRLRl9rNEpXZmFqbzlfUlNZZFJvM25pMjNIZHZ0MlhlLUhCamdzRjhiRWREY2lzQXNtTjJBYlVxSk1mOGxBZEF2TlNhX1pLeGFaVkFmZ19jcExyc2pEaUhDY1RIeHdkdXV2?oc=5</t>
+  </si>
+  <si>
+    <t>¿Cuánto gastaron Cepeda y Corcho en la campaña a la consulta del Pacto Histórico?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQbjFvZTljM01Dc0h4OFZYRjNCY2FxY2w1dS1nNGd5MGtCQ2M3UWEtVTVrU0Q4ZklMMjlMYzhrZXdTaVhmd0pVMUFwUVp3WDExb1NBS3I0d195c3otSkxGZk1aVG5CVlFLR2VLVk1TMEVNQ3dCNTBoS2JpODE2d3pXRUR3ZndmdnFsT0VnTGxQNURIVFhGQnJpWC01V0dXZ2xfeDlBNGlBREN3U1hvYXA3QVdmVEd1eVJHeXfSAccBQVVfeXFMUEdrbnpRaFhZdDZJd0hpSjlVVDdpUDFWRk5qZEtydmRfbXFoWjZyREZ5VnBYbHI2VF9xaGFQSy1KSjFhOHRnbmhYNG1PNDc4VExDeUJ4SnptMWxHNzVaT0ZVdWw2WXVVOGVnczY4S3hCLXFMcThsZnBIcTJxaGZ6LUZPRWVHNmRyWkNlNzI4Q0xmUFIyTV9jZnJTOEoxdXVERmlMXzZENkg3TWxTZEtsb1pvSHRNcEFiRmh5N2JGMF9QSXNtUmxFdw?oc=5</t>
+  </si>
+  <si>
+    <t>bluradio.com</t>
+  </si>
+  <si>
+    <t>La candidata Nataly Vélez formaliza respaldo a Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNYWt3cmtTMWkwMHBuZjlNS25mSzlHZnotZkc0Tl9tUUtsNnN4NnowekdpX3ZraUptQ0JGZ3BvdDcwcjYwcU1XS01ncnEtT19nb2lCWXZjMl84M2dzblBuRnlnN1h3YWJRT2xFcUpIbk9lT09ocjZvX095RFdpWHl1eUt0bnU4Z1RZUW5FbmF2eFVwWnloQ0dCRHNkUmNCajRNOUZQNWVXd21TQdIBvgFBVV95cUxOZmNDaURHWTluSEZwMFhmcGFuNHBBdlFrT0dncW1KNjE3NmdyOWFGeEdlbUtPRVI1c1dEdnM0X09jdWtaVzlid3c3V0swZ2FURGFhOWRnU045eHhoQ1VrckhUQV8yaDNBeC1jalUwaXZ5bjBKaUk4aXdoZVV2bnVuRDZTdlNOcmJydEk0WkFMbUR6OERJdDNpTFFWUGhLaVRvTWxLdWNBbWFGLXN2X2lZMlJLZExBbkREVmlWckpB?oc=5</t>
+  </si>
+  <si>
+    <t>caracol.com.co</t>
+  </si>
+  <si>
+    <t>['respaldo']</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>El candidato Abelardo de la Espriella se aproxima a la ultraderecha global para arrebatarle espacio al uribismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxPc2VqV0xGRVRyMHRlb3ZGLUdKNlYtYVpfWjdPLS1vSGxxYWI0MzAxZ1lfNHZWVzI3elZrb1UyZ1ZmWU1PQncxcW9LRGxwc01KUnItWEQxNnJKTEdDLVRuNXFkVHZDSjZERkNKTjJMRUdPOW1OWlNTMUxqNTV2cVFnNGYtUjJVMUU2ckQxUTZKRmNoM3Z4ZGl0VHZBS2RveXNwUjBuZ2lITkxIOTkyN3VPRFBDU3RvbmE4TUlUdUlzQ3NZdGptT0k3bHZXTkJZOU5WOFgtUjcwTEYydlVEeDhGS0ZPQ2VXT09sek5uVE1Rdlg5cXZQcUHSAYoCQVVfeXFMT0xVSC1wdkpTV1Y2YnRJZ0pFdUdKaGJGQjc2YkdmSHJPc25hRkVud1laSC1uVEFxRHBuUnNGeWRHeEpvdGJMWjFOOG5OSkJ1ZVFnak5CUllGQ3R3STl2TURRWmJFTThEN05YS3k5WWVtbWNVYVM4RnIyc3lTLWFyLUV6ai14enhvRGhtUXlOUU5tdHE5X01jVnZGR3dpQkk4ZjA1Y3lNX3FIMnZaYzFxQ3BxM3VFbi1yc19TMjVHdU1KU2FlZE00ZE5FTjVqOTJPQjA4amRrazJTV0tubVFtMndtR3hvSUU2QXFoUGY2bjZma1Z6NU1aX04zbUctSzNEcTA3MV95M1lFZUE?oc=5</t>
+  </si>
+  <si>
+    <t>['global']</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella se adhiere a la Carta de Madrid, red en la que hay presidentes como Milei</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQWnlFLXNCRHFtMDlVX1RxTFdJUUNlTUlZcGRFR2hDUjhRWTlXR0dkOVVuVzQ4QkFIS0tBTFU0R04yX3MwYjFiZUh0TTVjSlNaOVBYSDVaTHp0M29HNTI5RUFVeFJPWmlsWnRvRUxPMHJIZ0VQZWdZSjdWSHo0bnl3VNIBgAFBVV95cUxQWnlFLXNCRHFtMDlVX1RxTFdJUUNlTUlZcGRFR2hDUjhRWTlXR0dkOVVuVzQ4QkFIS0tBTFU0R04yX3MwYjFiZUh0TTVjSlNaOVBYSDVaTHp0M29HNTI5RUFVeFJPWmlsWnRvRUxPMHJIZ0VQZWdZSjdWSHo0bnl3VA?oc=5</t>
+  </si>
+  <si>
+    <t>minuto30.com</t>
+  </si>
+  <si>
+    <t>Supuesto imperio empresarial de Abelardo de la Espriella queda en entredicho tras revisión financiera</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQb29kZzItZ2Y1QVBQelJBdFRtY1lNQ0lheXdTc3JUU3htdFBIbHdENzhFZ255SnM2a09OSVhDV1pKX1huc0t2TzhsdW5yTHRhajJKMm91WXhwUFZtX1BvNHN3MFRSbDR2X3BwTDIzdlFCMllZdFZ4WmpqMmJoa2o3LVA2WDVVT3ZNeHdnVmM5SmRHcW1xRmdHRmJXVGpqLTNIa0xaQjdfZnprQ0FUcmdzS0I2WmhQc092YXZCNUpWLTc5OGlZVERXWVFQbC1UTHYta0tGajdxTE83UEZqdVBfVXl3?oc=5</t>
+  </si>
+  <si>
+    <t>['Supuesto', 'empresarial', 'financiera']</t>
+  </si>
+  <si>
+    <t>La exconcejal Nataly Vélez anunció su apoyo a Abelardo De la Espriella en la carrera presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNLXdwQVo5eVJVeks5aDVqZmVES0ZteGQ4WHBZYkhIaWRkWnpuek4tSk01NElQd2Zmc2s3ME56dFRQNXZPVW9DUFFEcDktWFBmSWlMMy1VaWpDR2FQcmFrbzc5WFVSOGJ5X09iSHVNQ181QXFlM2Y5UmhFVzA2dzA4Z2ZXSE9YMzI3RWZINkFjY1RGMlcwemlfTUdIQVhtMWpvV1hDLTdaSGNmUFZpMlh4QUwzLU8yZXBsd2hOS0llRQ?oc=5</t>
+  </si>
+  <si>
+    <t>¿Molestia? Así cayó en campaña de Paloma Valencia el guiño de Uribe a De la Espriella | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPV1lTM1J4emlQN1NTYVJDSE8xdVFYZWtKd1hYWW9SNDZUM1JyTWw2LXJJblpzNllLQVVrUUZGTHZZS1hzQllNY3doZXo5QUxqR0ZSZ21rYjdESWpUSnhYSmluS0JkbXpqbnJLY3J0aWxoZG5FVDdCRXVKUDVEWXhtMEs2d0ZBWEZPV2x1enY4dUQ2VDZ1a1RIVDA2WFZlbTV5RHljblVQb0VJYXNCdGhNdldTUHJvLVVVWk5DaEVWVmVFSVZsanfSAcsBQVVfeXFMTXNLektTbUwyVVVSZjN3aURNSEFDaUVmSWxvZ3NrOGpCcE1KazNzbzgyTzcySFpBRDY3WFZEOEtaZE9Zd3A2MDBCV2psUi1iZ0VWWHAyMnNkZS1xWUZPUV90YnhUVmNSaG1mTlNPcnRtQm1EVzZLcnlndkhZOHZXMktzVjUzVlZVR3BzZmgycFVzSTQ3MFEwWVhINkd0dFA2dEd3aG1rR25XTUxtUVhJMlhCdG9CaXFVbFV2d3lpQl91QVFNbkNPT21pVGM?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella asegura músculo político y se va del todo con Salvación Nacional en su campaña</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNR29BS2xzVVQ3M3lfdnBfN0hHU3VMVHFJZnFMRXNsdzQ4b05ieGY5MFdZWm8yTzI5VENEcnRLak1zYWNCTnVvTlh2SWh5RWRTYTNkRVU5U2phRlhDeUQ5aWxNUk1EV2dfQmJ5TFlqVXYxU21CODg4cEVBbTdieENQNWtqZDdlQkZUclRVSTdJV2F5TWkxSW400gGcAUFVX3lxTE1HSjBjYkxBSW13NUUxN0pDTWd1UGZCRTZ1dGZ1U3NpRmpwNjlVWVZzM05KVllsX3dwS3RiTUt6QlJBVjJnSndQSWxMa3FOTkt6UEg5RHVURk9Da0VmeE80c0YyekEwNDRHdURjcGtzWllCWENZbk1mZWVCMkMyQ1lTaXB1R2RhNU01QWREanFwSlhOREpLZnV2TXpnZg?oc=5</t>
+  </si>
+  <si>
+    <t>['político']</t>
+  </si>
+  <si>
+    <t>Primera encuesta</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/opinion/articulo/primera-encuesta/202626/</t>
+  </si>
+  <si>
+    <t>Juan Manuel Charry Urueña</t>
+  </si>
+  <si>
+    <t>La ‘Gran Consulta por Colombia’ evalúa sumar a Peñalosa: Esto dicen</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/politica/2026/01/14/la-gran-consulta-por-colombia-evalua-sumar-a-penalosa-esto-dicen/</t>
+  </si>
+  <si>
+    <t>eluniversal.com</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Petrotrumpismo</t>
+  </si>
+  <si>
+    <t>https://www.elpais.com.co/amp/opinion/columnistas/petrotrumpismo-1427.html</t>
+  </si>
+  <si>
+    <t>Jorge Restrepo Potes</t>
+  </si>
+  <si>
+    <t>La carrera presidencial a mitad de enero inicia con giras, viajes al exterior y coaliciones: Fajardo estará en Norte de Santander</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/asi-va-la-carrera-presidencial-a-mitad-de-enero-abelardo-y-abascal-cepeda-regresa-al-pais-fajardo-y-roy-de-gira-gran-consulta-por-colombia-en-aprietos/</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,7 +3025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46036</v>
       </c>
@@ -2882,7 +3054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46036</v>
       </c>
@@ -2911,7 +3083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>46036</v>
       </c>
@@ -2940,7 +3112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>46036</v>
       </c>
@@ -2969,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>46036</v>
       </c>
@@ -2998,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>46036</v>
       </c>
@@ -3022,6 +3194,563 @@
       </c>
       <c r="J54" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>211</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" t="s">
+        <v>219</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B71" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>243</v>
+      </c>
+      <c r="J71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3054,6 +3783,21 @@
     <hyperlink ref="C52" r:id="rId26" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxNeDl1NF9HNlE2eE13a3otbS0xOVpXUWNHeGh3aFlxTVJla2hpX3NnY19iT0NTUWk1RkZqekJMT254LW5VRzFLMUZGeEIwSWM3NWpuLVMxSzVPRVJDN1ByOTRka2FGaWFPUGIwVFVHdC1rUTdSRGl2eHNGeVZ4VTVGVHNRMkN5NFVhTW9KQnhTN1kyaWJKd3ZTWmlveGx4dnE1SmVwV0tzYzRldU00UG5jSE1vY2FvLVFUU1hQQtIBvAFBVV95cUxOT3BrYW9lZjhoeFZYZm9uLXRKaW42MEFSWWpZMnBmems1M3kzRXYycHo2M1FVRkNzeDg1V3pKeE1Nd09iR25nazNqUDZfUUdpSVRzVy1XTWlQakl5bDRTNENUY2RmUktzOFl0RmtkQ2pXbWNiM0p5NVNVeVRRWk5PcmZ1Vk9fZG44cDBXZmwwTWlEQm16Q1BmTEMtRUJmTGlqMi1LallzUXNaUjVscTFIWXFJV1RCT1NiSks1Zg?oc=5" xr:uid="{C2683A71-3CBD-47BB-AD86-9BEFC23AB2E2}"/>
     <hyperlink ref="C53" r:id="rId27" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxQcndxTnM3bkN4dXppbnZXeWdBWk1NNUlrNWpFQzc1ZFREZC02MXNkMk95NEFwRTBPNmJuUGtWRFB6UjZSVHdGYl9vSUJrU2RRVVViUzl3Z1RfSWMwUkdaamR1RGV4QU9mbUQtX3BiNi1Bd1FVRTh5b0g4RTJualR1OVpCN2pVel9STEh5Vm1LVk1JcUJSMV9CcURZV3I1NVZIalBCYjk0dnBYUEdCQ055Z1ZqQkc0Q0RaSmF3N09UUklyOUo3UVBqOGItOGIwR3B1UWMtbGd3eEV0TWlfbGMyVWltYjdFZVFyR055THVBVjBaT0RwUkttN0U3QjM0ZmxQVFBJX2FqZThJX3NjbkM5WUxXWTRGZmdZ0gGzAkFVX3lxTE8tVVh0OVZGRE9UbEhaYTR2V204YXh3NVpNcVZzMVBNTmI0M0hvZWtXbm5DRXFHRDVQY2xHN1BTcjkwNU9xTlNVdnF0VFFWdWZDdFItTi1yRFQxY3JYc2JEUGoxeGtpMi1rSHd5bVJSQ0k1SXE4cUpnZlVjRHZCMkF4U091NTZ0bVNpdkViZkVzQm1XNXp1bWJwRUxlRmpFejNEU2t1cElINUVZdFpUMFB4anR5Z3pFVDRFbjZwXzAzckYwQ1FFcm9lRThGdGZUWDhmemkwdjVMZXA5aXNjUWpkWnA2Qzl3OUZ5SzRCNW4yOXEyWGx2ckdTZDFfV2ExV3V4UWhTY3FlMk9zM2kzeHBwWF9LYXZCU3VOUFFUcnRwa0Q2UnFFSF94dU5xQmVFdUJPak0?oc=5" xr:uid="{DEFE0C4D-B485-4BFD-A9F6-093E91202140}"/>
     <hyperlink ref="C39" r:id="rId28" xr:uid="{02B90841-9E5D-46A2-A64D-C27EE6D985B0}"/>
+    <hyperlink ref="C56" r:id="rId29" display="https://news.google.com/rss/articles/CBMilAJBVV95cUxOMVpyMDBtRGI0SnRETzRKbUdIMzNKbUI4WFNFazBSdjNHc1JBU0s1TUU5eU9yRlFOeHBEZzUyazBxeVQzblI0clVicGhpbnU0WTBfQmVoMEQ3aVMyTjZ2cC13QXNQNDBpRk5CZE5LMFpUdVJ6WFBNQXd6LUFhWXB6d2pzQkVSQ0ZjdUI1cHkyM05ZVHFaZWllRllFRVJhVTFVb0NjdURkM0JzNWtoRnhCdmVUSE9wa3Y4QTNXQktGelNWMjFkUm5rYmNoY09DejVIcURCbWFpUXlXME8yT1dMdzJmek9ZS3d1S1hmeURPREpMOUtady16MThWbTg2c3JhZHlxd2hOR3ZGdVRzcG1QeG04Ty3SAZoCQVVfeXFMT1hYbE5Cd1laakpYdDd2cEdacV81N0ItMlptbHlNMHVkUXk5UFhQT05RMTBnWm51MGpxbmp3NWhvajlvTDZGMFc2cS1kekZ1bUxHNnl4LVVkSVJjVXpnSXhCUEtLU1h5c1EyNFN1R3NPQk9wY3h5ZW1iQVVZWVkya09yUENJRTNRUVY5b3djLUU4d21SVDNDTm16cVY3MFdUekxFZGQ1LVB6SWhxa3hCWHhteDlub1ktQVRuY0oyZ3lPTHRQWWRMT2pSY3c5amRjNHFWZ21iNTRfMm1HSEI2MW5WRFlGQzFONmVhLTRRT3RVdTVGQ0JBaFhGWFdBMzVYZFVyd3JvclRfT081UEpQRkdMSzFJWW1ndkFn?oc=5" xr:uid="{98A2AF7D-57AA-47E6-85A7-3BFC6A6AB42E}"/>
+    <hyperlink ref="C57" r:id="rId30" display="https://news.google.com/rss/articles/CBMimgJBVV95cUxQQXBRdy1uQXFCc0tSU2ZrTjBFSVhROFp3UWU5dURlZVBRUm95TC1jMDRqeEd5Z3Y5czBwYU9CdE0zZXBpd1d1anpZMzB6TnlsSEtXaWpjZkVBOUEwZWhLM3pGVk9GTEtkdHJSUXRmM2hMY240UVRwTkxYMDJYODNORFMtbUVob2dOWjFQLWhzSS1pZGUzalBiSkxTLWM0YS0weTRoYzZ1U2JpdEFxdllwX251aU1ONjhrOHRQZzZLVEFxUzI5bzdHTzcwWmZLWXpOb1NTaFNqUDM1aEJoZEdwaVN5Ql9lcFJTVk54aFcwazhETm9pT2s5ek1MX3k1MVFhN21Dem9fNnhtMC1kWE5TWXVQb1pqcWVMV3fSAZ8CQVVfeXFMT1ZOS3Q2SS0xdklnTEZpTS1oT0h2a1BxTGI1dGdfQTdfc1NBZkVkcVpIbWtlUVNYdUlLakdUVTFDZ2lQc2M3VkpZUUxkQmdQWEp3ZEJiUHBWdmRmWEFNNzVuM0xDcTc0RXZsTXdRUkJOTzZpVW5CcWdmZDBoQ01tM25QbTlyZk1ZRHM1Q1YxeFhLcXE1Sk9BSUIyOUlUWFJHaTZCM0hmNmtPcVFmVjAzeVdnSmxJUnlzQTB0dk95SkllaWZ2NDZleVhZU255dXJseG5ER3B5NWZmT2ptZm9xeEZobVBMQ1RPeXd6WTlkcmU1cVVMVnp1TTl3LUFmVjFKS3RfVjBsLWs5eUNMNktSQ2dBcHNQYVc2bWtRb21LaXc?oc=5" xr:uid="{56075E40-B978-46C1-B454-C7DE661BF92E}"/>
+    <hyperlink ref="C58" r:id="rId31" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxNZmozOTBhYXViNm9fRVhyUXhoQTZLcm8wZG1HYi1PdWV4Vzdhc3BlZ3lwX2FYY0pQdEpwTEg3WGdpNEtHb1ktR2lubTFCdjBzSTZhUjZZTWxVQmxzTXFIZFQ1ODNnb1FZa2tTTGJZVjU0NVZJLVljZnRZRUx6emYwR1JoUm9sNEhBcWlkcnhzVG0xQjZkeDFveTFKUWRHaFU4cUxGS3ExQjh2T1hhaU1qckdCRjJtbk5YUmxNbmZmNmZTdFB2bmo5dlJnQ0hGdm5KbEZfZVVabEVUTlZZQ3lnRVJtV3JHZDBBc2FNRTc0TQ?oc=5" xr:uid="{375E8798-0296-4D1B-B07F-2FA177E305FD}"/>
+    <hyperlink ref="C59" r:id="rId32" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxOeDNVOUFsSG9TQXpWOE5zaGZNdGw1VkRnRUpuZzJGUk1YZ1FPamZfcUxxYjlMeWlaMWlpaml6X0lZRGpoZWhEN1JreUc2Zm1GRkJ4SmpwTjNyTXE0NmhLZmp6UWoyMTJOSElvdTZWUktjR0RkUGxmYzRJUVZ2R1ptUzhyNDhGYk9oQnR4dU1QMG1hVE5Ba1c2R1F5Q0oybGhEQTVuZW1KX1duMUYxMGFrNXNtZS1RVXR3RUszV2xqN29UN19vWnFodzRCQUZfOEtEYlhVbnl2RklHUFEzd1p4NnlMdktDTzhhMEVLQtIBhwJBVV95cUxNaUlRYVVJdEdFblRFSmNxYUJPNUprZGRvZkxxM0d1VnJFOHIyMmdUQjFNUjRPQWxaX0Q1ektXWHBUbTgzM1k3a1E5U2lBWk1BbEdtbG0tRlBDNzJtV2dHNl94U0Fob2pFTjFKVnNaQ1Zld2t5cWc5WEdjcy10N19JaFQ2N01odk5jcy1GemVWWmZUZjlLcXdVV0V3UW9LM0pZenlabWxMQnVFYmlfRWpWMG91Mzl2QndlWXdjcUNwUEpkT2J4YkYyckk5X0NMT2tTRFozUjBQZWZIbkl5MDBzYkdOVDV2Slk1OFc5R29PU2tFa2RYN19jdDRUQ29WdkROYWx0RklpTQ?oc=5" xr:uid="{42F9D118-D4C2-43FE-950D-28A935772F36}"/>
+    <hyperlink ref="C60" r:id="rId33" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxOYkUwWmMyXzJHNWJrcmdIY2RNNUFpbnR5RFdoNW5UQ0xpbjhGTjZLM2FwM0RTUnNpZXMybHZQbVdTT2tqVDhiX3ozbl9abW1HOHZOa1J0cHV3aUxRcFRoeHZyR2E5cnZ4RWoyR25tM1l5Vm1RcFRnUV9YVmJzSFpOMjZPeXBHMV9lU0xRcVJhSmQyd3VzaDgyRTQ4RjdvemhOMkg1Q3l5Y3NpanBId2htY2NzZFZsbnFWYXN4QU16NjJSYjZ2V2trbTFKN0JTX0JPUGpiMEVB0gHwAUFVX3lxTFAtOGg3U1JQRHVRaGZEY3JIT3pYRWtrMzYxclVfNFlDZFpCMlpsT2kxb3JTVEpDSDlyTzlrRkF3WVhmb0tIYjh2czlFTVJxQzNjU1VXY054UkotWE8xWFpsUFhhN3JOY3FYMTBGMENEa0JJemRHWk4yQUlUdzJZQ2wwSVNCSlhOR2g2c1l6Y2NnSG91OHowNGVmQ0VzNTBfNHZDYnZfWk5QMVQxUklJeUszUkQwRF9rWTRMQ1JwVnhrR1BsQmREZ3NiM3ZBQjlETGVwQUR1YWdFTjdwQ0RuSThBdjlaVVVIWklIRDlzQmdrUA?oc=5" xr:uid="{ED16B6F7-50DA-4A27-9179-30740D3DEF5C}"/>
+    <hyperlink ref="C61" r:id="rId34" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxNNUhGRlR2c3NVVF9ZUng4SThTZHU0cUdSOVMyaVF0UTA3c2F3WWFzeHJHaHd4a0ZualN2Vkp2UjRLRl9rNEpXZmFqbzlfUlNZZFJvM25pMjNIZHZ0MlhlLUhCamdzRjhiRWREY2lzQXNtTjJBYlVxSk1mOGxBZEF2TlNhX1pLeGFaVkFmZ19jcExyc2pEaUhDY1RIeHdkdXV2?oc=5" xr:uid="{0A804691-B61E-446E-B321-BFCA27F08D18}"/>
+    <hyperlink ref="C62" r:id="rId35" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxQbjFvZTljM01Dc0h4OFZYRjNCY2FxY2w1dS1nNGd5MGtCQ2M3UWEtVTVrU0Q4ZklMMjlMYzhrZXdTaVhmd0pVMUFwUVp3WDExb1NBS3I0d195c3otSkxGZk1aVG5CVlFLR2VLVk1TMEVNQ3dCNTBoS2JpODE2d3pXRUR3ZndmdnFsT0VnTGxQNURIVFhGQnJpWC01V0dXZ2xfeDlBNGlBREN3U1hvYXA3QVdmVEd1eVJHeXfSAccBQVVfeXFMUEdrbnpRaFhZdDZJd0hpSjlVVDdpUDFWRk5qZEtydmRfbXFoWjZyREZ5VnBYbHI2VF9xaGFQSy1KSjFhOHRnbmhYNG1PNDc4VExDeUJ4SnptMWxHNzVaT0ZVdWw2WXVVOGVnczY4S3hCLXFMcThsZnBIcTJxaGZ6LUZPRWVHNmRyWkNlNzI4Q0xmUFIyTV9jZnJTOEoxdXVERmlMXzZENkg3TWxTZEtsb1pvSHRNcEFiRmh5N2JGMF9QSXNtUmxFdw?oc=5" xr:uid="{4BA1868A-5A8D-4A02-BEFF-14B05323E406}"/>
+    <hyperlink ref="C63" r:id="rId36" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxNYWt3cmtTMWkwMHBuZjlNS25mSzlHZnotZkc0Tl9tUUtsNnN4NnowekdpX3ZraUptQ0JGZ3BvdDcwcjYwcU1XS01ncnEtT19nb2lCWXZjMl84M2dzblBuRnlnN1h3YWJRT2xFcUpIbk9lT09ocjZvX095RFdpWHl1eUt0bnU4Z1RZUW5FbmF2eFVwWnloQ0dCRHNkUmNCajRNOUZQNWVXd21TQdIBvgFBVV95cUxOZmNDaURHWTluSEZwMFhmcGFuNHBBdlFrT0dncW1KNjE3NmdyOWFGeEdlbUtPRVI1c1dEdnM0X09jdWtaVzlid3c3V0swZ2FURGFhOWRnU045eHhoQ1VrckhUQV8yaDNBeC1jalUwaXZ5bjBKaUk4aXdoZVV2bnVuRDZTdlNOcmJydEk0WkFMbUR6OERJdDNpTFFWUGhLaVRvTWxLdWNBbWFGLXN2X2lZMlJLZExBbkREVmlWckpB?oc=5" xr:uid="{91F26071-522D-476F-88F9-B7D3B09ACC2D}"/>
+    <hyperlink ref="C64" r:id="rId37" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxPc2VqV0xGRVRyMHRlb3ZGLUdKNlYtYVpfWjdPLS1vSGxxYWI0MzAxZ1lfNHZWVzI3elZrb1UyZ1ZmWU1PQncxcW9LRGxwc01KUnItWEQxNnJKTEdDLVRuNXFkVHZDSjZERkNKTjJMRUdPOW1OWlNTMUxqNTV2cVFnNGYtUjJVMUU2ckQxUTZKRmNoM3Z4ZGl0VHZBS2RveXNwUjBuZ2lITkxIOTkyN3VPRFBDU3RvbmE4TUlUdUlzQ3NZdGptT0k3bHZXTkJZOU5WOFgtUjcwTEYydlVEeDhGS0ZPQ2VXT09sek5uVE1Rdlg5cXZQcUHSAYoCQVVfeXFMT0xVSC1wdkpTV1Y2YnRJZ0pFdUdKaGJGQjc2YkdmSHJPc25hRkVud1laSC1uVEFxRHBuUnNGeWRHeEpvdGJMWjFOOG5OSkJ1ZVFnak5CUllGQ3R3STl2TURRWmJFTThEN05YS3k5WWVtbWNVYVM4RnIyc3lTLWFyLUV6ai14enhvRGhtUXlOUU5tdHE5X01jVnZGR3dpQkk4ZjA1Y3lNX3FIMnZaYzFxQ3BxM3VFbi1yc19TMjVHdU1KU2FlZE00ZE5FTjVqOTJPQjA4amRrazJTV0tubVFtMndtR3hvSUU2QXFoUGY2bjZma1Z6NU1aX04zbUctSzNEcTA3MV95M1lFZUE?oc=5" xr:uid="{E3DC0B9F-4A13-4CED-8D69-B17436FE5EBE}"/>
+    <hyperlink ref="C65" r:id="rId38" display="https://news.google.com/rss/articles/CBMigAFBVV95cUxQWnlFLXNCRHFtMDlVX1RxTFdJUUNlTUlZcGRFR2hDUjhRWTlXR0dkOVVuVzQ4QkFIS0tBTFU0R04yX3MwYjFiZUh0TTVjSlNaOVBYSDVaTHp0M29HNTI5RUFVeFJPWmlsWnRvRUxPMHJIZ0VQZWdZSjdWSHo0bnl3VNIBgAFBVV95cUxQWnlFLXNCRHFtMDlVX1RxTFdJUUNlTUlZcGRFR2hDUjhRWTlXR0dkOVVuVzQ4QkFIS0tBTFU0R04yX3MwYjFiZUh0TTVjSlNaOVBYSDVaTHp0M29HNTI5RUFVeFJPWmlsWnRvRUxPMHJIZ0VQZWdZSjdWSHo0bnl3VA?oc=5" xr:uid="{AC4430FA-8910-4DB5-BE61-BA189DA75533}"/>
+    <hyperlink ref="C66" r:id="rId39" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxQb29kZzItZ2Y1QVBQelJBdFRtY1lNQ0lheXdTc3JUU3htdFBIbHdENzhFZ255SnM2a09OSVhDV1pKX1huc0t2TzhsdW5yTHRhajJKMm91WXhwUFZtX1BvNHN3MFRSbDR2X3BwTDIzdlFCMllZdFZ4WmpqMmJoa2o3LVA2WDVVT3ZNeHdnVmM5SmRHcW1xRmdHRmJXVGpqLTNIa0xaQjdfZnprQ0FUcmdzS0I2WmhQc092YXZCNUpWLTc5OGlZVERXWVFQbC1UTHYta0tGajdxTE83UEZqdVBfVXl3?oc=5" xr:uid="{E78BA1D6-F8B2-4A50-B1F6-55DB37A0DDF9}"/>
+    <hyperlink ref="C67" r:id="rId40" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxNLXdwQVo5eVJVeks5aDVqZmVES0ZteGQ4WHBZYkhIaWRkWnpuek4tSk01NElQd2Zmc2s3ME56dFRQNXZPVW9DUFFEcDktWFBmSWlMMy1VaWpDR2FQcmFrbzc5WFVSOGJ5X09iSHVNQ181QXFlM2Y5UmhFVzA2dzA4Z2ZXSE9YMzI3RWZINkFjY1RGMlcwemlfTUdIQVhtMWpvV1hDLTdaSGNmUFZpMlh4QUwzLU8yZXBsd2hOS0llRQ?oc=5" xr:uid="{F0B69CFC-46D5-49AC-84AF-D0B0EB3F5606}"/>
+    <hyperlink ref="C68" r:id="rId41" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPV1lTM1J4emlQN1NTYVJDSE8xdVFYZWtKd1hYWW9SNDZUM1JyTWw2LXJJblpzNllLQVVrUUZGTHZZS1hzQllNY3doZXo5QUxqR0ZSZ21rYjdESWpUSnhYSmluS0JkbXpqbnJLY3J0aWxoZG5FVDdCRXVKUDVEWXhtMEs2d0ZBWEZPV2x1enY4dUQ2VDZ1a1RIVDA2WFZlbTV5RHljblVQb0VJYXNCdGhNdldTUHJvLVVVWk5DaEVWVmVFSVZsanfSAcsBQVVfeXFMTXNLektTbUwyVVVSZjN3aURNSEFDaUVmSWxvZ3NrOGpCcE1KazNzbzgyTzcySFpBRDY3WFZEOEtaZE9Zd3A2MDBCV2psUi1iZ0VWWHAyMnNkZS1xWUZPUV90YnhUVmNSaG1mTlNPcnRtQm1EVzZLcnlndkhZOHZXMktzVjUzVlZVR3BzZmgycFVzSTQ3MFEwWVhINkd0dFA2dEd3aG1rR25XTUxtUVhJMlhCdG9CaXFVbFV2d3lpQl91QVFNbkNPT21pVGM?oc=5" xr:uid="{0B5BDC61-7111-4D85-ABB4-514E654016BF}"/>
+    <hyperlink ref="C69" r:id="rId42" display="https://news.google.com/rss/articles/CBMilwFBVV95cUxNR29BS2xzVVQ3M3lfdnBfN0hHU3VMVHFJZnFMRXNsdzQ4b05ieGY5MFdZWm8yTzI5VENEcnRLak1zYWNCTnVvTlh2SWh5RWRTYTNkRVU5U2phRlhDeUQ5aWxNUk1EV2dfQmJ5TFlqVXYxU21CODg4cEVBbTdieENQNWtqZDdlQkZUclRVSTdJV2F5TWkxSW400gGcAUFVX3lxTE1HSjBjYkxBSW13NUUxN0pDTWd1UGZCRTZ1dGZ1U3NpRmpwNjlVWVZzM05KVllsX3dwS3RiTUt6QlJBVjJnSndQSWxMa3FOTkt6UEg5RHVURk9Da0VmeE80c0YyekEwNDRHdURjcGtzWllCWENZbk1mZWVCMkMyQ1lTaXB1R2RhNU01QWREanFwSlhOREpLZnV2TXpnZg?oc=5" xr:uid="{4B4D42E3-34DD-4AF8-BDE1-383C16EC21E9}"/>
+    <hyperlink ref="C73" r:id="rId43" xr:uid="{56C23D34-9EDE-4EC2-AB10-DCD8BEF9ABE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A718F0B-9C53-4643-9C93-BF4F3F09694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A27896-54D0-4473-BC29-35F5CBE09663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="294">
   <si>
     <t>Fecha</t>
   </si>
@@ -772,6 +772,138 @@
   </si>
   <si>
     <t>https://www.elespectador.com/politica/asi-va-la-carrera-presidencial-a-mitad-de-enero-abelardo-y-abascal-cepeda-regresa-al-pais-fajardo-y-roy-de-gira-gran-consulta-por-colombia-en-aprietos/</t>
+  </si>
+  <si>
+    <t>A 136 días para las elecciones presidenciales, De La Espriella, Cepeda y Fajardo, puntean en encuesta de AtlasIntel para Semana de enero</t>
+  </si>
+  <si>
+    <t>https://www.diariodelsur.com.co/elecciones-presidenciales-2/</t>
+  </si>
+  <si>
+    <t>diariodelsur.com.co</t>
+  </si>
+  <si>
+    <t>['presidenciales']</t>
+  </si>
+  <si>
+    <t>Nariño</t>
+  </si>
+  <si>
+    <t>https://diariodelcauca.com.co/a-136-dias-para-las-elecciones-presidenciales-de-la-espriella-cepeda-y-fajardo-puntean/</t>
+  </si>
+  <si>
+    <t>https://www.hsbnoticias.com/a-136-dias-para-las-elecciones-presidenciales-de-la-espriella-cepeda-y-fajardo-puntean/</t>
+  </si>
+  <si>
+    <t>hsbnoticias.com</t>
+  </si>
+  <si>
+    <t>Enrique Peñalosa aterriza en la “Gran Consulta” de centroderecha</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOMklXNm01ZTdFcVhjSEd4RGFIcW50RzNWTktfSVJDTUU0QTV0c2hxQVU5Qm1ZTnZTem9pNmktOGJGdFZlenhiazQzbjQ3MlFBYWlOUXlrMW5WdU9YcVdpajNGUFJaelFaZ2tiOUNQa2tTS0hMb1hMN2pwRURkUlpHYW0zRTZ3VVZ1NmVtaGZtdkRKRG1XQV9ZOFBKN1lPMkRESnhYNg?oc=5</t>
+  </si>
+  <si>
+    <t>['aterriza', 'Gran']</t>
+  </si>
+  <si>
+    <t>“Me atacan día y noche”, De La Espriella ‘botó el chupo’ por los ataques de la izquierda petrista</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE5nbXhqdkpFYWNXRGFuSjNyZVl5OEdmRzlVZTNGZHZ3QmQtbWI3QUpNSDJOQi1aMTNFbTZxRW1ydHBfNkxhV0hNZjhkQkdoMlZmWi04cFZBNm9fcFhybFVidVFBcDQ0RzRXeFJxdlM4elA1cUNz?oc=5</t>
+  </si>
+  <si>
+    <t>chicanoticias.com</t>
+  </si>
+  <si>
+    <t>['”', 'petrista']</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Abelardo adhiere al Foro de Madrid tras reunión con ultraderecha española</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxQbWdDcVlOdEszWF9CTy1ZeVpDLTM1Wi1ramVHUGxEbzVrY0w5Y0xCTXVESEREMEpoQnhDeVlmalY5VFh4elJoYU52VW91Z3JKMkxJS1FUS1o0ejFxRkVPQXJlZ2JIc3ZHVWRPaDRON2xWUlB0UTJwMEhNWmM3VV81MTBzMzZ6WVZROXdwMkFnQkNnX2dBNC1IZThTaTYyUGd6WU5IcDh5b2RBWXZQTmxuLQ?oc=5</t>
+  </si>
+  <si>
+    <t>['española']</t>
+  </si>
+  <si>
+    <t>Viraje de Petro con Trump choca con el antiimperialismo de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNZ2NQbUdXVDdOYjh2UURNYlpPWURHWjhCYV9zUFlHbFlNZXVtYzRnSVJjcXNBZzVvQk9VQUFwVHVEQ3VxS0FpU1dYakRHQmhoWW94Y191MUtiLVlCdUNVZ3o1Wkd5c1AwM1M5SGxXa0M2dW54bXU3NTVXY1JnNkcyZElHMGVNS2VtLVBJbGJUMlFiQzEyZmhEVUZWWWpoUlA5cVBVYVdEbU0wekVBNmMwaDFmRFBlZw?oc=5</t>
+  </si>
+  <si>
+    <t>Estallaría lío para campaña de Iván Cepeda por donaciones de empresa que no reporta ingresos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPQjNOd2NscWhKNXZPdmpfZXpXSGhhcTlpV21meHZOVW54SG9Sb2puaExJb1dXcHV1LUlockxZdVdsUFl0eE9udExfeDZPM1M1c1Z6SUc2MGZoMzhqTWVJNHlxeGluTmN1LVYtNThab3pxanpZTl9DSkVvOTRqODBNWENxTHVCVXdIYW9mdUM4ZHlmZkVZRWV5b0FZTHFvT0ZseENOdEFlUUl6Z9IBrwFBVV95cUxNckc1ZkNfU0VORkFsVnlQQ250ZEdpcXlvTklKYmFSLXR1eDBsWF9RNkpwS3QtNVp4cjRfZ1FQVTNnV3JrWWhJbkVKWTZWQkdHNGFmdTVxTUVNOHdDNzZyM3pyMC1NWjhaRnZYZEE4QmxXU0dIanRIMW8xcGVzeHhFVmxWUGZIRWJZaHJQOWFSTDZVck5GeGhQNGNRRHg1TE54ZVhfeHRkaHpGdWJJSjkw?oc=5</t>
+  </si>
+  <si>
+    <t>Enrique Gómez arremetió contra Gustavo Petro e Iván Cepeda: “Medio país está repartido entre las Farc de Calarcá y Mordisco”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxQQmVsM3k0clM5anR5dUFVbWR2SHgyaTBaMy1GOEtmYUxzb0dIR29uT256T0pPdXZ5LWJ4T0hmakIzaHB3dEJDRG5nbEdBUWtJbEs5SmgyYmVrSDIzZUU5Qll1Z1BOYXNVV3hGTGZNY3IzdXdWLUNSS0VXaGV3NXhVTnNFTzlIRGlHOFF4U2JiWnVybjA5aGllVm5fOGdLbk5uSE5Pb2dybmY1cVV0VkczMllQcVJBT0FsLU5Xdy04RmF6RmVjQ1Y2aUhBcDN3UHpXekFrdlgxUDV2QllwYWQ1RDdaUzhnZmMzZlpvUDNvazE1bWhuZDItUWZn0gGUAkFVX3lxTE5HLWF2SENGeFVQd3JaeUkxNWZQSFpaYm1qcDhSeUpkbHRoMjdpUWVTZThMclkwQ1lpS3c5R1hHVGxwNFNPVDg3M3B3VkViQ2ZvZ2F6V2RKNzdBYUFVdmtENzJQV01LbjQ3UU1sZ3FkcktiX2FmR2g2dVhfNmVBNU1GVDNRbmpjc3NGRVozRVFCOGRpLTg2ZVVza1NhMEZiNFlQRzNyOUJodkdmZGZsX1A1OVNHMGstTTVNR2hvV2d6SGgzQW5uSGxFelpnMVMxWkZRb1JvZFpxWXJvVmN6eHZ6WElrYUNmYmJUQ3VMajNNVUFpU1ZwYWhjMnhPUEJycmVQSTNzT3lYdzQyUHVNN1dWX0FfTQ?oc=5</t>
+  </si>
+  <si>
+    <t>['repartido']</t>
+  </si>
+  <si>
+    <t>Viejos conocidos de la campaña Petro y empresas le donaron a Corcho y Cepeda en la consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxQdFpTVXdXbnBHbmktcnZfeVBjWENjUUMwQUJrbW9nZ0daT3hwOGFBc0ZOLUFZNlFLOXlnaEhkYXNWdjBHZmhETERTalZ0VEFCZU1ncm50bVgyRjF4ck9UbVpQRDNnQnRlTkx6elY3bFY3WHlXTG4xRlNiUkE4d2pPX0xpV054OHVxSFFtOFdwWUJTTk12QnpSbDE2SGd3UGhwenZuZDdPaExZbnZsX0VIMm1QWVF3MmduOVdiYy1uYlo3b3Z4WUVXcjJzT21HUEVSelYtZUpVWFBWTzBRY1lGMEV4aC04UXJ1QlVyTkd4R3VVTnl5NVFlSEpIdWdWd3U1OU91YWtJS2dxSnpS0gGgAkFVX3lxTE9jS09vTEZwalBwUzBJVmxpNVRHUTNFNzQyNFpVWG1mcmpyX0JCVWcxa1lGbTloaVBFSEY2OHR6Y19VV21EVDFIQUtCQzlTaDJjcG95aXM4akhLcXVxY3hhMk1uNUtXZ191WEpkSVYySWwzR1MzRk5DeVBCbjBKY3JmTGlJVEpwQkl0eG93SE1HaG1TS0RKSjVHZnhPOHB2T3pjVnpyek1UbUVZYTVEeU8tdzZtSDRZNHQwQ3U2Tml4bVYwblVzLWUzYkE3dXNHNUR0cXRfYVd6djFhcjlnUkk5b0NpWGZoMzI1MEZJMWlUNWdhcklzTlpINWNzUTV1dmxSQ2hPSVA1Z1lrWVJYQU1rbnVpbzBiT2JfaXdZZ3FENA?oc=5</t>
+  </si>
+  <si>
+    <t>['conocidos']</t>
+  </si>
+  <si>
+    <t>Financiadores de Cepeda y Corcho que dieron $1.462 millones para consulta: una empresa en liquidación y un local sin ingresos | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxOMlZEWnc2NDR1UTBTY09TeDdTelpQUTZZVEo1aXFNRmRUdWFZbTVfSG1aTXR3cWN3Rk12RW54V1JmcXRNbEJzdWZaN3F5STJ6QmlvTXVwTkdULWZKdlRsRzlfazdaZWdDajB5STFsa0lVb2l6eXdEQ3gwamxmeFZ2a0tpY3JYb0RUQmFpczdULUxCZW5w0gGaAUFVX3lxTE1mYzNGbWhKanItMFFxMVJTd1E4bnhLeHdSMlZEaVBHTk5ydms3dXIwbmxTOGZhUVRoQXhLQ3Vzd01iMnlqUGRjazN1cnk3T21FN2RQTmNBa1lsay0xRmVqTW14ZWhFSV9zQ2VYOWFFa0FfLXAwVlY5VVh6ZlZTSGNvb2NaQUV0Ty1Cby1ZV1pxb19pZmN4R2FKU2c?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda no dijo ayudará a Maduro a volver al poder ni El Tiempo lo publicó</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPSGNGdElnR3VNSUc5WGlZM1BGU1Z5ekZOV0RqdElfWlVNR0N6YmxBUHVjdGdsZUJGVU1EQzdIRWdrR0c0X2pxUC0zYkh6aWtRcmxoeHJYck9IWWE0YlRwcjlhZndwZEh5emJzNVN6S3BBYVpBb3RXS0t2QVA4dzRaQXo1YXIzUW9MYkVHMTdRei1IMVh4bXdrSExtWDlHb0NlNmthZl9Rb0stRGlVV2J0OXA3SXBDOVRJUV9UN1Q5cTFqZ3JEaW5DcnBB?oc=5</t>
+  </si>
+  <si>
+    <t>Mucho cuidado con Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxPVmd6QndMOExNZURBRjJuRWotbFJXWmsxeHlkaEZxemU4NDZDNW1nNDhBdDNDSkRlenZydkFJSGV1Z1BPNWpRYjZDR1YtaGFNdmdqRm9uRi05enVpOEVpdVdTMDRwenRaajktcTE3VW0xa2FwN2N1eUJUMjFybkQxUDBfMEFTbnPSAYwBQVVfeXFMTzl6SXB2bGlLUGIzdFpKUGpMa1EzNjJYZUFTMDlwSkpQaDhJTUtaekRkS2JWMVpmSkdWWTJoRlNxWEpwSDMxYlZYUjNrY0lXdzh5ZWQ4WnlWVE50SjhmQWpYODZncU9wY2pmVktqUU16OGJzSkFLTXprYVUyRExtZGNYWXQxc0U1U2JjRHo?oc=5</t>
+  </si>
+  <si>
+    <t>‘Cuando quedé embarazada, los equipos políticos se fueron con Duque’: Paloma Valencia</t>
+  </si>
+  <si>
+    <t>https://cambiocolombia.com/poder/articulo/2026/1/cuando-quede-embarazada-los-equipos-politicos-se-fueron-con-duque-paloma-valencia/</t>
+  </si>
+  <si>
+    <t>MATEMÁTICO Y PROFESOR, SERGIO FAJARDO</t>
+  </si>
+  <si>
+    <t>https://revistaelcongreso.com/matematico-y-profesor-sergio-fajardo/</t>
+  </si>
+  <si>
+    <t>revistaelcongreso.com</t>
+  </si>
+  <si>
+    <t>Mauren Hernández</t>
+  </si>
+  <si>
+    <t>De Maduro y de Sergio</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/opinion/columnistas/patricia-lara-salive/de-nicolas-maduro-y-de-sergio-fajardo/</t>
+  </si>
+  <si>
+    <t>Patricia Lara Salive</t>
   </si>
 </sst>
 </file>
@@ -1625,10 +1757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:K73"/>
+      <selection activeCell="A74" sqref="A74:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3751,6 +3883,502 @@
       </c>
       <c r="J73" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B77" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>263</v>
+      </c>
+      <c r="J78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" t="s">
+        <v>268</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B81" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B82" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>152</v>
+      </c>
+      <c r="I85" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B86" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>172</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>108</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B89" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>289</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3798,6 +4426,17 @@
     <hyperlink ref="C68" r:id="rId41" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxPV1lTM1J4emlQN1NTYVJDSE8xdVFYZWtKd1hYWW9SNDZUM1JyTWw2LXJJblpzNllLQVVrUUZGTHZZS1hzQllNY3doZXo5QUxqR0ZSZ21rYjdESWpUSnhYSmluS0JkbXpqbnJLY3J0aWxoZG5FVDdCRXVKUDVEWXhtMEs2d0ZBWEZPV2x1enY4dUQ2VDZ1a1RIVDA2WFZlbTV5RHljblVQb0VJYXNCdGhNdldTUHJvLVVVWk5DaEVWVmVFSVZsanfSAcsBQVVfeXFMTXNLektTbUwyVVVSZjN3aURNSEFDaUVmSWxvZ3NrOGpCcE1KazNzbzgyTzcySFpBRDY3WFZEOEtaZE9Zd3A2MDBCV2psUi1iZ0VWWHAyMnNkZS1xWUZPUV90YnhUVmNSaG1mTlNPcnRtQm1EVzZLcnlndkhZOHZXMktzVjUzVlZVR3BzZmgycFVzSTQ3MFEwWVhINkd0dFA2dEd3aG1rR25XTUxtUVhJMlhCdG9CaXFVbFV2d3lpQl91QVFNbkNPT21pVGM?oc=5" xr:uid="{0B5BDC61-7111-4D85-ABB4-514E654016BF}"/>
     <hyperlink ref="C69" r:id="rId42" display="https://news.google.com/rss/articles/CBMilwFBVV95cUxNR29BS2xzVVQ3M3lfdnBfN0hHU3VMVHFJZnFMRXNsdzQ4b05ieGY5MFdZWm8yTzI5VENEcnRLak1zYWNCTnVvTlh2SWh5RWRTYTNkRVU5U2phRlhDeUQ5aWxNUk1EV2dfQmJ5TFlqVXYxU21CODg4cEVBbTdieENQNWtqZDdlQkZUclRVSTdJV2F5TWkxSW400gGcAUFVX3lxTE1HSjBjYkxBSW13NUUxN0pDTWd1UGZCRTZ1dGZ1U3NpRmpwNjlVWVZzM05KVllsX3dwS3RiTUt6QlJBVjJnSndQSWxMa3FOTkt6UEg5RHVURk9Da0VmeE80c0YyekEwNDRHdURjcGtzWllCWENZbk1mZWVCMkMyQ1lTaXB1R2RhNU01QWREanFwSlhOREpLZnV2TXpnZg?oc=5" xr:uid="{4B4D42E3-34DD-4AF8-BDE1-383C16EC21E9}"/>
     <hyperlink ref="C73" r:id="rId43" xr:uid="{56C23D34-9EDE-4EC2-AB10-DCD8BEF9ABE0}"/>
+    <hyperlink ref="C77" r:id="rId44" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxOMklXNm01ZTdFcVhjSEd4RGFIcW50RzNWTktfSVJDTUU0QTV0c2hxQVU5Qm1ZTnZTem9pNmktOGJGdFZlenhiazQzbjQ3MlFBYWlOUXlrMW5WdU9YcVdpajNGUFJaelFaZ2tiOUNQa2tTS0hMb1hMN2pwRURkUlpHYW0zRTZ3VVZ1NmVtaGZtdkRKRG1XQV9ZOFBKN1lPMkRESnhYNg?oc=5" xr:uid="{7D491583-E257-4B1E-9B29-03F0F21B1F04}"/>
+    <hyperlink ref="C78" r:id="rId45" xr:uid="{2636DB72-0BB5-4F3F-92A1-623D292C8122}"/>
+    <hyperlink ref="C79" r:id="rId46" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxQbWdDcVlOdEszWF9CTy1ZeVpDLTM1Wi1ramVHUGxEbzVrY0w5Y0xCTXVESEREMEpoQnhDeVlmalY5VFh4elJoYU52VW91Z3JKMkxJS1FUS1o0ejFxRkVPQXJlZ2JIc3ZHVWRPaDRON2xWUlB0UTJwMEhNWmM3VV81MTBzMzZ6WVZROXdwMkFnQkNnX2dBNC1IZThTaTYyUGd6WU5IcDh5b2RBWXZQTmxuLQ?oc=5" xr:uid="{AB1E62EE-EDE3-4E84-965B-5206D084C80B}"/>
+    <hyperlink ref="C80" r:id="rId47" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxNZ2NQbUdXVDdOYjh2UURNYlpPWURHWjhCYV9zUFlHbFlNZXVtYzRnSVJjcXNBZzVvQk9VQUFwVHVEQ3VxS0FpU1dYakRHQmhoWW94Y191MUtiLVlCdUNVZ3o1Wkd5c1AwM1M5SGxXa0M2dW54bXU3NTVXY1JnNkcyZElHMGVNS2VtLVBJbGJUMlFiQzEyZmhEVUZWWWpoUlA5cVBVYVdEbU0wekVBNmMwaDFmRFBlZw?oc=5" xr:uid="{61ED35F7-3B60-4916-8039-88B9D68924E8}"/>
+    <hyperlink ref="C81" r:id="rId48" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxPQjNOd2NscWhKNXZPdmpfZXpXSGhhcTlpV21meHZOVW54SG9Sb2puaExJb1dXcHV1LUlockxZdVdsUFl0eE9udExfeDZPM1M1c1Z6SUc2MGZoMzhqTWVJNHlxeGluTmN1LVYtNThab3pxanpZTl9DSkVvOTRqODBNWENxTHVCVXdIYW9mdUM4ZHlmZkVZRWV5b0FZTHFvT0ZseENOdEFlUUl6Z9IBrwFBVV95cUxNckc1ZkNfU0VORkFsVnlQQ250ZEdpcXlvTklKYmFSLXR1eDBsWF9RNkpwS3QtNVp4cjRfZ1FQVTNnV3JrWWhJbkVKWTZWQkdHNGFmdTVxTUVNOHdDNzZyM3pyMC1NWjhaRnZYZEE4QmxXU0dIanRIMW8xcGVzeHhFVmxWUGZIRWJZaHJQOWFSTDZVck5GeGhQNGNRRHg1TE54ZVhfeHRkaHpGdWJJSjkw?oc=5" xr:uid="{ADA31126-4BFF-4CF9-94B5-D46CF9D17188}"/>
+    <hyperlink ref="C82" r:id="rId49" display="https://news.google.com/rss/articles/CBMi-gFBVV95cUxQQmVsM3k0clM5anR5dUFVbWR2SHgyaTBaMy1GOEtmYUxzb0dIR29uT256T0pPdXZ5LWJ4T0hmakIzaHB3dEJDRG5nbEdBUWtJbEs5SmgyYmVrSDIzZUU5Qll1Z1BOYXNVV3hGTGZNY3IzdXdWLUNSS0VXaGV3NXhVTnNFTzlIRGlHOFF4U2JiWnVybjA5aGllVm5fOGdLbk5uSE5Pb2dybmY1cVV0VkczMllQcVJBT0FsLU5Xdy04RmF6RmVjQ1Y2aUhBcDN3UHpXekFrdlgxUDV2QllwYWQ1RDdaUzhnZmMzZlpvUDNvazE1bWhuZDItUWZn0gGUAkFVX3lxTE5HLWF2SENGeFVQd3JaeUkxNWZQSFpaYm1qcDhSeUpkbHRoMjdpUWVTZThMclkwQ1lpS3c5R1hHVGxwNFNPVDg3M3B3VkViQ2ZvZ2F6V2RKNzdBYUFVdmtENzJQV01LbjQ3UU1sZ3FkcktiX2FmR2g2dVhfNmVBNU1GVDNRbmpjc3NGRVozRVFCOGRpLTg2ZVVza1NhMEZiNFlQRzNyOUJodkdmZGZsX1A1OVNHMGstTTVNR2hvV2d6SGgzQW5uSGxFelpnMVMxWkZRb1JvZFpxWXJvVmN6eHZ6WElrYUNmYmJUQ3VMajNNVUFpU1ZwYWhjMnhPUEJycmVQSTNzT3lYdzQyUHVNN1dWX0FfTQ?oc=5" xr:uid="{AD911145-A83F-4404-A186-14B17E6DF3C3}"/>
+    <hyperlink ref="C83" r:id="rId50" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxQdFpTVXdXbnBHbmktcnZfeVBjWENjUUMwQUJrbW9nZ0daT3hwOGFBc0ZOLUFZNlFLOXlnaEhkYXNWdjBHZmhETERTalZ0VEFCZU1ncm50bVgyRjF4ck9UbVpQRDNnQnRlTkx6elY3bFY3WHlXTG4xRlNiUkE4d2pPX0xpV054OHVxSFFtOFdwWUJTTk12QnpSbDE2SGd3UGhwenZuZDdPaExZbnZsX0VIMm1QWVF3MmduOVdiYy1uYlo3b3Z4WUVXcjJzT21HUEVSelYtZUpVWFBWTzBRY1lGMEV4aC04UXJ1QlVyTkd4R3VVTnl5NVFlSEpIdWdWd3U1OU91YWtJS2dxSnpS0gGgAkFVX3lxTE9jS09vTEZwalBwUzBJVmxpNVRHUTNFNzQyNFpVWG1mcmpyX0JCVWcxa1lGbTloaVBFSEY2OHR6Y19VV21EVDFIQUtCQzlTaDJjcG95aXM4akhLcXVxY3hhMk1uNUtXZ191WEpkSVYySWwzR1MzRk5DeVBCbjBKY3JmTGlJVEpwQkl0eG93SE1HaG1TS0RKSjVHZnhPOHB2T3pjVnpyek1UbUVZYTVEeU8tdzZtSDRZNHQwQ3U2Tml4bVYwblVzLWUzYkE3dXNHNUR0cXRfYVd6djFhcjlnUkk5b0NpWGZoMzI1MEZJMWlUNWdhcklzTlpINWNzUTV1dmxSQ2hPSVA1Z1lrWVJYQU1rbnVpbzBiT2JfaXdZZ3FENA?oc=5" xr:uid="{19A4EDA7-7B5B-459C-A3BD-A0C802D1789C}"/>
+    <hyperlink ref="C84" r:id="rId51" display="https://news.google.com/rss/articles/CBMilAFBVV95cUxOMlZEWnc2NDR1UTBTY09TeDdTelpQUTZZVEo1aXFNRmRUdWFZbTVfSG1aTXR3cWN3Rk12RW54V1JmcXRNbEJzdWZaN3F5STJ6QmlvTXVwTkdULWZKdlRsRzlfazdaZWdDajB5STFsa0lVb2l6eXdEQ3gwamxmeFZ2a0tpY3JYb0RUQmFpczdULUxCZW5w0gGaAUFVX3lxTE1mYzNGbWhKanItMFFxMVJTd1E4bnhLeHdSMlZEaVBHTk5ydms3dXIwbmxTOGZhUVRoQXhLQ3Vzd01iMnlqUGRjazN1cnk3T21FN2RQTmNBa1lsay0xRmVqTW14ZWhFSV9zQ2VYOWFFa0FfLXAwVlY5VVh6ZlZTSGNvb2NaQUV0Ty1Cby1ZV1pxb19pZmN4R2FKU2c?oc=5" xr:uid="{9823C8AE-D51F-4123-A028-45DE6A5A9DB3}"/>
+    <hyperlink ref="C85" r:id="rId52" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPSGNGdElnR3VNSUc5WGlZM1BGU1Z5ekZOV0RqdElfWlVNR0N6YmxBUHVjdGdsZUJGVU1EQzdIRWdrR0c0X2pxUC0zYkh6aWtRcmxoeHJYck9IWWE0YlRwcjlhZndwZEh5emJzNVN6S3BBYVpBb3RXS0t2QVA4dzRaQXo1YXIzUW9MYkVHMTdRei1IMVh4bXdrSExtWDlHb0NlNmthZl9Rb0stRGlVV2J0OXA3SXBDOVRJUV9UN1Q5cTFqZ3JEaW5DcnBB?oc=5" xr:uid="{FB3836D5-612B-427C-9D7C-67C26B54B9D9}"/>
+    <hyperlink ref="C86" r:id="rId53" display="https://news.google.com/rss/articles/CBMihwFBVV95cUxPVmd6QndMOExNZURBRjJuRWotbFJXWmsxeHlkaEZxemU4NDZDNW1nNDhBdDNDSkRlenZydkFJSGV1Z1BPNWpRYjZDR1YtaGFNdmdqRm9uRi05enVpOEVpdVdTMDRwenRaajktcTE3VW0xa2FwN2N1eUJUMjFybkQxUDBfMEFTbnPSAYwBQVVfeXFMTzl6SXB2bGlLUGIzdFpKUGpMa1EzNjJYZUFTMDlwSkpQaDhJTUtaekRkS2JWMVpmSkdWWTJoRlNxWEpwSDMxYlZYUjNrY0lXdzh5ZWQ4WnlWVE50SjhmQWpYODZncU9wY2pmVktqUU16OGJzSkFLTXprYVUyRExtZGNYWXQxc0U1U2JjRHo?oc=5" xr:uid="{033E2612-2221-4D8E-B7D6-DCA727EACF0F}"/>
+    <hyperlink ref="C87" r:id="rId54" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxQT1ozNWhqYVhidzkzT2wxOG5oSnFjRXVhTV91VnVmSk9WOURTVC1maUZId1hkRHJlQ2VYZmRSYUVNU3lVekpJcC1DTXZhQ1h4VEp3cHViTkVyZWt5cXd1TlNVOU1RTFZ2Y2p4cHJKVDAzYW9hRG1MMTY0YldWdjUwWUdtS2JteTRHbjM5UFhfVDdVRzcyOEY3SnJGd3JoWDJFRmJsSEZPTUhuS292ckxVVzh4RWt0WjRCcFVqcGtvSjZLbk54bWxKdkJrSWFqOWRtb0lCNTREaDFoUdIB2gFBVV95cUxQZ1RYNGd2QmFXQjJpbDVCQkpoWlg2NnBGdnhmZ1l2SUtNRHVXTFZQZXlhekRtWE9pYWdkTDRyZ3BOTm1qYmRjSUMxX0RaNHpJZmhUTy00LUhzVUhhQnJ0MzZEYjN4WmhSWWhmT1FFaVpqRmo0aks2eEhpX2ZsazdrdkM3bTQxeFNkSFNtWVNGRWxJZmhkNlhPM3BzVkJ2c09xXzJ5YUUzWnk1OW9rTFpIa000MFBQME1uZjBCQ3pMMURWaFpHdmJjOXc1WEdOdFpuR3YtSXJFOC1rZw?oc=5" xr:uid="{7ACC5153-C661-4249-92C8-DC1EF4AD57B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A27896-54D0-4473-BC29-35F5CBE09663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75D232A-066A-4C9F-B376-069914CB0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="445">
   <si>
     <t>Fecha</t>
   </si>
@@ -904,6 +904,460 @@
   </si>
   <si>
     <t>Patricia Lara Salive</t>
+  </si>
+  <si>
+    <t>Encuesta Datexco revela los políticos con mejor imagen en Colombia: Sergio Fajardo, Juan Manuel Galán y Roy Barreras</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/19/encuesta-datexco-revela-los-politicos-con-mejor-imagen-en-colombia-sergio-fajardo-juan-manuel-galan-y-roy-barreras/</t>
+  </si>
+  <si>
+    <t>['mejor']</t>
+  </si>
+  <si>
+    <t>Se necesita una consulta del centro</t>
+  </si>
+  <si>
+    <t>https://cambiocolombia.com/puntos-de-vista/articulo/2026/1/se-necesita-una-consulta-del-centro/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El centro político se estanca mientras la izquierda consolida la unidad y la derecha suma apoyos: Claudia López y Sergio Fajardo se mantienen fuera de las consultas de marzo y sus candidaturas no despegan en las encuestas
+</t>
+  </si>
+  <si>
+    <t>https://elpais.com/america-colombia/2026-01-19/el-centro-politico-se-estanca-mientras-la-izquierda-consolida-la-unidad-y-la-derecha-suma-apoyos.html?outputType=amp</t>
+  </si>
+  <si>
+    <t>['político', 'suma']</t>
+  </si>
+  <si>
+    <t>Encuesta: Cepeda 30 % y De la Espriella 22 %; Valencia ganaría consulta de la Centro Derecha</t>
+  </si>
+  <si>
+    <t>https://www.elnuevosiglo.com.co/politica/encuesta-cepeda-30-y-de-la-espriella-22-valencia-ganaria-consulta-de-la-centro-derecha</t>
+  </si>
+  <si>
+    <t>elnuevosiglo.com.co</t>
+  </si>
+  <si>
+    <t>El Pacto Amplio y la Gran Consulta por Colombia: así se empiezan a perfilar las consultas de izquierda y derecha</t>
+  </si>
+  <si>
+    <t>https://www.elpais.com.co/politica/el-pacto-amplio-y-la-gran-consulta-por-colombia-asi-se-empiezan-a-perfilar-las-consultas-de-izquierda-y-derecha-1834.html</t>
+  </si>
+  <si>
+    <t>['Gran', 'derecha']</t>
+  </si>
+  <si>
+    <t>Senador colombiano de izquierda se mantiene adelante en la intención de voto presidencial</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/america/agencias/2026/01/19/senador-colombiano-de-izquierda-se-mantiene-adelante-en-la-intencion-de-voto-presidencial/</t>
+  </si>
+  <si>
+    <t>['colombiano', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Los 6 símbolos con los que Abelardo conquistó anticipadamente a la derecha</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOZlNJM1pwaE53eGt5WUJVVjQ1Wmt3emdvTlRHaGpQNFdTU092dUhJZVR0dWoxckhraDhzSWRvelUwRC00MW5Jc2lCWlI1QXlHemN4cEhiY2ZaeXNTUnhibWFVc1VwY3JoU0J3bEE0QzZDYU9hallZRWFCSlBpYVhBaXRrMGFXQU51TW1fUWNmbDNSeElnV1AxbVZHbDZtZW55aUVoUTkyaUlUa2hhMENyWjhPQjJ2N251YVNV?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda (30%), Abelardo de la Espriella (22%) y Paloma Valencia (3%) lideran la más reciente encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxQalBQbE1DVlZnSzhKRTFQelRFUUxPeUJEOTN0Ti1FZVhod09iYnUzWXJOTTYyT3dFaVVmOEFDeVExZ2JhZjFuUHdhZHRXaGdGN0JhektOV2dTa01ia2FWZndXSHh5VU1nZ3BTalh5bTI0aGhfeGZ1TE84WkFCUUxhNEJGNGd6YVhFTElsUTY1ZGFBSkJtRi1WZmFoNUhmVk5qb3VKX3lrY0hoeE0tY29ac2pUckt2WlBkaFI1ZFNnNF9TNDdyMG9GdElqR1BhX2FUT1hSc1NUU1pnQjRZVzBkRnhXV0tTYS03VUxNSmQwb2d0ZmN10gH6AUFVX3lxTE44aVhWRGJ6MVlkYWdKX3Q2X2E3MzNpVHU4eXBnLUdjQXQ4aUg1WDEwbzdqeEVvT2d4TlRFY01RUlRJYWpVRWNwTHQydHVqcmFxbU5OY1BaMGNsQy1Bb0tNdGZlWHRmNV9BV3JNMWFmNFFSdlpmdHNMWkEyQ3pyNHZDWG5MSGFYdGVDbjFQbXlQSi12UU5Rek9XRmlSbFRJazJGaFhfWlhFa1dnWFV4eUhqT2Flc21zRGdHRXBQeHZyei04RGxZU2dwZVo5N3h6UzRhamVPaUE1eFJaSzctWWxmdVR2WG82X1dZaXhuUzB0VDY3dEE5Q0Z0c0E?oc=5</t>
+  </si>
+  <si>
+    <t>['reciente']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda (30%) y Abelardo de la Espriella (22%) lideran la intención de voto a la Presidencia, según encuesta de GAD3 para ‘Noticias RCN’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxQU1lSZ2pEcWN4QkpyR1U0VUpSbEo0MjctNmc4NG9vdFk2NEdwbTZXOWFNXzBiM0ZXdnpmdS1OSzRDakVLSlZfN3pOc3U5a19heUxPZko4N2pFa2xSMGUxWUg1NEUySkZobnE2QXltRzBIQklscEo2N3V6RWN1ZnZVbm9VX0FwY201YlFyeWl6YzQ0NzhuX0NIV0NnRkx4WFprUW01NzlqTWo1aDltSHIyOXF0elg0S0hhczZOcWRZR2JUWDhEcG03alltM1lpdnQzV2hlSVNKNE5xZzJCUnNtbGEtd1J3UlFrNEdJVHZoZnRtXzB2NjNGb3dvVlVTdmFTa3FudUxVR09TU0Ey0gGSAkFVX3lxTE9PQ0VVNHlvYm9RVkNEZzczVUc3VGlLdDB4bFo5U041WHdlMVBDOXM4ZzRJTnlLRnRqUk4tUGtYSHNoYTJKVi16cU9ZZlpTSmd5QWdRaWY1eEItT2dDZjNRT2JMOUNMQVRSZTJCd0NBMnNlUGZGb2psdkRVcWp4VHFBR0V0cmdCaGdGMEZaOGFTOGJ0Z1lNWG41WEYzeW9Pb2ZWTFpYMnNkTHJValRrMVZZbHItb2FUTnE3WEEwTURkU0dpOEQ4aDFQbnlqb0JtSjY2NVNnV3ltb1hpenlaRUlsQkZnZjU1bVFPY3dnVXBtYlQ3UG5YdXhJdW5qYVFURXBTY2g5ejh3aHp0QzViMldFVkE?oc=5</t>
+  </si>
+  <si>
+    <t>['’']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe arremete contra Gustavo Petro e Iván Cepeda por la seguridad del país: “Viven enamorados de los criminales”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxQSkF0cm5ZYXhBbVNrWm5TaW9nNnpjLXBaYy1qLUpGYzk2RkpOXzBNcEF0SWRkTm5iTmMwbi1qeVVobmRUeXlDVW15bUJteFd2T1lRWmVzQlRjNld6NXc5ZG85YTAzWV9FV3dpR3YweURfVzV3R1ZnN1hrOWdXVE9rRGJNVjYxdGFFR0ZYRll0T01WX3VDczgxeEw4ZDhrYW1jMjJTNG1nTUFxSjRKYnEyRE9kQmhIMUJYMHZBdEFjc0d1b083Mm9WR2piQW1hZHRvZDV2OWlnZmgwVkN1Y01FWk0zOEFjd3ZxaEFSWUNWRm5yOXJFWWRPYVA1T3JFaG_SAf8BQVVfeXFMUEpBdHJuWWF4QW1Ta1puU2lvZzZ6Yy1wWmMtai1KRmM5NkZKTl8wTXBBdElkZE5uYk5jMG4tanlVaG5kVHl5Q1VteW1CbXhXdk9ZUVplc0JUYzZXejV3OWRvOWEwM1lfRVd3aUd2MHlEX1c1d0dWZzdYazlnV1RPa0RiTVY2MXRhRUdGWEZZdE9NVl91Q3M4MXhMOGQ4a2FtYzIyUzRtZ01BcUo0SmJxMkRPZEJoSDFCWDB2QXRBY3NHdW9PNzJvVkdqYkFtYWR0b2Q1djlpZ2ZoMFZDdWNNRVpNMzhBY3d2cWhBUllDVkZucjlyRVlkT2FQNU9yRWhv?oc=5</t>
+  </si>
+  <si>
+    <t>['enamorados']</t>
+  </si>
+  <si>
+    <t>La Gran Encuesta reveló que Iván Cepeda lidera con 30% la intención de voto presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNekZiZmdNRGdNYzRGQ3BqWmJOcUNlZ1Fjd2dpZW5qbGRzNTcyNXVSSG9LZnp6NDBhb0JIT0Flc2swSS1vRms3SkdMZ2VvaWpDX2ZNalNuMVhOMmttMGVRX24wZ2UzeUx1MmExSFdDWk5rcXpMOFllR3paVnhzTGRxazdBcEJ4aU5KUEpXZ1NHUUNTUFdyTVJUbFZLXzBSQXNpSl9FQ0pTXzFkUUtIVTdyd3FkYXhtNWJMX2MyYjVfczMyZUZmX2FRSUMzUF93SEl1ODY5bWdVQXpZWXBORUHSAd4BQVVfeXFMUC1vS1NXaU5Zc3hQN1BNOWZKRnM5a1RnUjlNMjM1blhNYUNDZ1l3X3gybktjQ29vY0I3N3hzRDh6QXhHQkl6QTVtU1VLWHUtMW1Mck92NWFDcHF1NVRReXd4cml0U3V3d3h6c3pNbnNFcjJmVmxtMmRRYjhDcEZfUXVKOENjZm5vaDdKODV3N3BaUWhWa0VqS0VDVzRINXF5LURiTFVEVU5TVTdzcW8zRF9CSlVZVEFPa0dpS1lKQm5IRWRwX1pEU2RRTS1mb21wMkRjb1pZc1FsSHpQblpR?oc=5</t>
+  </si>
+  <si>
+    <t>larepublica.co</t>
+  </si>
+  <si>
+    <t>['Gran', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Abelardo De La Espriella encabezan intención de voto a la presidencia, según encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxObUJHXzU1OVpFNUoxcjJRX1NGVEpJdnBEZmcyX2VOeks2VUVwYWYtSTJhbkcwY2xkcVk2dmhRVk9YTlZ6TTJkVUI2UUYwZ0taRzUyaVpWczlnT3BuT0wteU80SmZDOXo3Q0hjeDNGYkt4WW9GOFZWS2swc1ZxajhzUDJkR0tEQ3VkT0ljVTJwYUN4MU1rTmRmQU9YcjEtQ2NlekpNZjVRZlV0MEhTV2JhdUVvbzdKbDllN3BOZ2ZnYmpFanVITWEyLVVXWWhfQdIB4gFBVV95cUxQc1BtUXVsajh0dEtnMFluME5jQlRQWmlKQkRQVmVLYmtRc1BJSlFjUEVMOXVqdUVRSERrOGswX0VhcUNERUd1N0s1allTLUJWbHJKWVN2LW05OWpaR3NmekNobHRjQUlkS0hTS1B6elZQdlVoSWFYNnprUFMxZmFqeUVtbkJDVEhVa0FoblhUTVRjc1JhZFk4dldNQzNiT2ZMTkNqc194bzZ6SXpQZFQzQTF3UTdLeER0UHNpVzlsa0VXVlp5a3g2aFpad3JlRjEwSGpUWF9HdmhzdmFSbnNOSmJR?oc=5</t>
+  </si>
+  <si>
+    <t>Empresario de Barranquilla niega donaciones a campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNVEo2d05pOEZsUWV2SkQ0TFN3azV0S2k1T2xwb1NiSWhjVnBiZEVadTFhYU9oVlp0cEZ3aGhlVnlvRU1QMXdkYmFqQUFVQ19DQWJIOFoyaWVLdkhPS280dFpTdnUwQy1fV3pFb2lqZmVQR2NadktKcE1XdE92WlZrN3VBRWVhclRVUjMxbW1mMVlMZnkzTTB0Y1RPQ2NlcGVJWXlrczJn0gG6AUFVX3lxTFBjZDN4cElaRXFBWlE4MWhCOHZtSFhkSzF2N3JCQTV5VV92YWpFZUVsMUQ0VkkyOXNDbTlVdTloMTlFWlJ3LXkxMHpiMko2eE83OFpMZDZJSzctRjBPUUxZVngwVHhRVFVsdzE4LUUxX2J3NjUxMlR6emRza2hOeGEySUFlR1IwLUFMNGhOd0VjMEYwWU1lbDFQRjFOWGkwcTVmQVVTS3pGczM4UUUzX093TXFEMEpmNW1LUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Caso Iván Cepeda: ¿Está inhabilitado para participar en la consulta de marzo? | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPMFpBYjRfakh4ekpweTM2R1FzLTh0cjlraUUzWndYYXVQUHE2NnQ3QjhQT0ZReE1IV0NpLWNHenpkNm53U2YyaTQ4X05DQjMwWDZQaUZ5QXljaDQwWUlqVWllbG15bEpVVnlNNzR3MVFRYXZpQ0N0dVFhT2FIcUxSNjJsanppNVM5aFQtTUZTZFc3RUZ5UXpLZ3RQUThMZVM5VWVnUDY4WEFucFFwSm1WN1dzYkxtTTF1N0HSAb8BQVVfeXFMUFNFcWlJMHlPMU5jMUl3QWI0OU5Cb285czRxcTFpaUhtSW5ZY1czWTc1Y2xXQkFoMUlaMTJQSkM1LVlsTUdvUnlHRGZ1Yml6OFRxc0NFRmRPWGM0bzlPSWNZWEwtcHBvZzVSVUxGa2txY0xkbGg1TDlIWGVPWWlLZzFwRUJ2dzV2MlB6VnNIMTdxeWV0LWpFR254eFJjbE4tNXVZcG14dWkzWmhsakQ5SXZqdndUTHAzMjB3ZTdoSmc?oc=5</t>
+  </si>
+  <si>
+    <t>['inhabilitado']</t>
+  </si>
+  <si>
+    <t>“Yo no he regalado nada, no estoy en condiciones de hacerlo”: Javier Pérez sobre la campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxOaGc1eWFvX2g2UUUzQ0xMUnFuTHZ0VUlIUk80cC1iV3lFLXlfZ0dldmhXMW5pZEZySVQ0WWNZbDFQQURNYlNueUk3aDJ2X0hvWVlYVm5OM0c3S0dBNVhuNld2Sl80M2tJQ2lJRlBhRkRZaGFkVTUxYnpwLTg2SUNYcmpsamtDakhuQWhPMkxfRTBEQTBMdEdybm5NR1hYTXowSFl0SjJKcGR2ekJvVXJzdnhkOS0wSUZteVlabEo2Skk4M2dVN3R1aTEwWm1rMDlGRUZEbzVVWEE2bjlKM21yc216MGxPbVHSAYICQVVfeXFMTjNOYnlKXzFLbURlWTk2R1VPWlRNT091V0l2REU4MnZwT3AtejNFaFVfMmEwd3N6c2s2UFFWbDNmTGRPSXVIdWlZVXB1a19VQkZNR1hoV25yODYtMUJGWkUyanJOczV6YUhxV3NNSjJ3RmszRlVpUGRBSVdFUHBySDlIX2F0SlBNVmZqc3JUVW51QzMwYkFZZENXNjFOTmpoUDVGSjRHR1BSSkgyTjFiMk9mSEstU0staV9lQk9RQUoyUmpkTHpNcVJacVFxQ0tiakw1ODBOd0VfOU1EREdmNTFoUlkzQ1k5NzlhdmxyQklsSU9KMjltMWMwYUFQaHZPQl93?oc=5</t>
+  </si>
+  <si>
+    <t>Los datos de la litografía de Barranquilla que aparece donando $600 millones a la campaña presidencial de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxOcmp2MmRncG5nSXM0WGJFSlJPNkRieXdUdEpJY2RCd2JFRlN6RFA0QmF0RGFzZkNLMlUtSmRleWdhZVZxekRrMDU1ZGV5aVBOMzhIbl81cXVxODhJOUt1S1dlbFFLVjNDWFhJU1NCaWUtWGk1QlFrWmctRTZOc1R4YjVfYkRBaFppYVlTSXVWdEVmaVJNVmYwd2FaZE1EZ1h4dU16Q2JWXzlkdmJLS01XMWUyQTV2c2R1aVU1dkgzYWRiNnhhY21mVTh0c2JXNG9WOEtUMTl4aEh6Vmtudy1PZGRvcENGU1RDZmpkNE5TYlRxSnZN0gGPAkFVX3lxTE9iNlk1dXFoZ2dHamFrRUtkQkpyUmdaOFBITWdYLVZUX1lvbHNtWjEyS3J2OS1ScDhSMzRuWnJHV0hPN0l6S2QxdkxrdHpLQ21lN2dGN1JMQUZvZUJTT3ptOENzMEIteTJSdndXeDhyUWdnWWlyWktrYWF5SWoxNHNOV2ZHblAtOVc0TFdpRnJCb2N4aTZueXljYTVkMU13dnIwZTlFNmZ5MGxvSGgxYTE3Yl9QZ2RPTDFpNnFDOVlBLU1kYmduM0pfOXMwbW5wODRodGJnZUVOWmdwUndWUjB6VHlqLVU0RjExT0dwd2ZyNURXSHJELXdsclVNNkxhUEJpREdUMTl5b3drWXNwZDg?oc=5</t>
+  </si>
+  <si>
+    <t>Más de $600 millones habría donado litografía de Barranquilla a campaña de Iván Cepeda a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOS0lENjFuNTh0OC0tR0IxMHRaZnJjSXpGMk9rVlI1NkNBeDAwTlhtLVVDcE1ZVUJtdFZhbGctQ3kyZWpKNTZsWS1Ba05UUkhJMjI5c1R6QnY0UFAxU3lMUEc4TVFCVFBpajJNMHA1RXNQM2VWd1N6Zy1yRUkzVEJ5cFlXb3NpSUhBUTZnaUx6ZWxjX1oybk5xdlRYMGNpbzBzR3puelhHMXI4ZExUMG82TEszWkZDUTlZeEJ5SDYzaGdia0s2dTREWjVoQTVtMEdaOEhpUXpJTWF0QVJhYnFhRHhB0gH8AUFVX3lxTE8xQV9nNkhHTlk0b3kxMnlud1IyRFFKZE5YaG5wU185aGVXRzRYWGQyTVB0WlQ2d2lHSHRlSzlNelRKM19aTWV6MjZoaFcycnFfbDhwQXVtNkF5SHlJWXh5cVhDbjlQdTJreDk1TVFUbm9LNmNVTUlaeG55R3g2Zk1TNDROSjY2emYxTmVLeEZya0QxbDhpMmxsSnQyVmtRbVBBcXktTWdGLTVHT0lLNE5sU1E2VURSSG5JZ2NWVWZpamgyOHhOOHpsXzZaU0FDenloZF9RY2RiUWllZ1dvNzZkWVhmSXRKY1BWQmp6U01BM1ZUcUR1X3poUmVOaQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Abelardo de la Espriella lideran las preferencias electorales, según un sondeo de GD3 para RCN</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxOS2o0dWNPY1dhX2d5WktzY2wyNUVRamxXTXhobWdQOXVkQm5TajFZN0l4bEt4YUo4WlpMU2g4OEllV2N3VjdGLVhoRExIaFczTDdRR1dJdVlNOWtoZFl2VTZ0RnZBUXp0VHptLUdJRnk4TmZEbVBaMXRWdmRzTTNtbHdUbWgyVmU0SW4zZmJsV3hsaUV0d0VnVDdCQk5CWHdRMDdwY2NjTDBOS3pGRkZSc29fZmwwaTQtdnRKX2lVQVlQVEdNMUlJQndvbFRYSzctLXRvaFdzMHlNcm9LYTE5N0ZKeFZ0Rk9tTS1GTnRUdUvSAYQCQVVfeXFMUGVZWXM3NUlISDJFNkxUM3lqUVhQSTF1YVc3TU9ad2MxOWtkVk5sdG5OTEJxejJzTHpSVTJ4VGdaeERqWmVqdzFldjJMRHlrRmFqdHJFZkZQbGdVTngwaVZKdVAtNXhFbFo0T0JENW9FUjlUeGV3blBtdWFrSUZ0ZEt6d0FJaVhZdmtLY2VTUFhydXg5WGpSVTBudy0wM0JYSlVQdDVRc2V0NHZlbGhqYzZkeG5EM3A2TGxDd2NNeG56TWJIYktqTXhyX291cEJlbkJFcEJCXzZpTC14N0FUYWtoZENRdm90c1lGNDNjSzdlV2czczFHTlB5SkdoREN4SlN1ZkU?oc=5</t>
+  </si>
+  <si>
+    <t>['electorales']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda les gana a de la Espriella y Paloma Valencia en nueva encuesta de RCN</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxPbkZWeFhlT1BkOHlzbWh5ZUdTbC1Xcm1PVTY3U0JiV2hybFZCMnBZajRFMEhmNHJnVDM1TlFuV3oxRTNuUGFmMW12M3NfUUFXUmtwVGxlSWdwM0VXTmkyLVZBblBMaXluWnRwOWFUbjVKWWs1a25FdVFCbUo2X3NJRGZ1djJzWnJDZWpZNXhxenQ4UWgtSWJDME5CRGNQVGtPRDQ5Qm44VEVtXzkxa0YwY2t5Z1lJWE5lZ1hJTkt1T0s4R2p4MjFz0gHMAUFVX3lxTE5xV3IzMzZVQVJaQWRpVk5GemlfSkcxc3JrYUtaSGRCX1NfZVNqNC1NUXhvNUw3SU1aVGdJbERSSWxQaGZNTG1VTFF4aFVkYmFYbjZ4UDdvekcwbzl3OTI5eVRvbUhqTWo5emNhOUFoY0NuTjdJMEFWWXBja2l1Y1ZHWHo0MWU0M21zRmFwSGxqbFZnQ1dISUxUTVRIWXlPTzBpaEZpdFpsaWhIbHNqN0c3cVlNMExCOXNEcmEzZnJweFo4RkZ0WEt2bDBUcg?oc=5</t>
+  </si>
+  <si>
+    <t>['nueva']</t>
+  </si>
+  <si>
+    <t>De la Espriella reacciona a encuesta de RCN que lo pone en segunda vuelta con Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxQV0ZEQUZtNFVfTmhReU0yVUp6aUV5bXRMZVEzcDc0ZXBZRUFZMGxwVWc3N1lhOWY5a1AtZXluRWZxLTF4WVVkMU5YUUF0WVlpaDhHMENPRzQtRUZrOVBMRTFmR0tSbWRzRlNUbUZMWVFkOVE0YVBPWUxORGMtdUhYMnJ2T1ZUVTNJYnROOGxHc1cxY2pvT080RG95eENHYlRYNGYxMjQ2YWRPSW5ZcmhxMkpNeEE4SzByZGZmStIBwgFBVV95cUxOUmQtS3NNdVpIZFFobUZsX1F3TUxCdk85Y015NHU3WlJ5elgybTNjSzlab3VDd3RDZnZKSldqcTJ4a0RaS1FPaW9ub2pXbkwzdVRYREZEekczaDZoelZfQlI1VGt5TzdseTBNU01yRzRfTzc1dlNIRlh5RWgybFBhU1NKR3NrcGZhVmVzWDJWeWVBWGdKNXdudXM1QzRDMDR4RFI1dExGelNTcXZ0OFEtb1VHWC13Y2dPdEEwbjd1SmlrQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda sigue liderando intención de voto según nueva encuesta contratada por Noticias RCN</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAJBVV95cUxOM2ZiZW00NEVMV0R3SGcwRGdnRUlhODZIR1BBa1Z5OUdKMzJ0enM3UjlXNXAyTDdDX2w5aUxSY2NqcDhiWGtXaXFvZUZzd2RFZ3lsWVBURjRMWHo5Ykl6RG5hRzlsYlVQcnBxWk1BaUJxMk9HV05OdGdad2g0SGpHS3QyOGZWcnlzR19IdGV0eTIxYjFKZmtnU0VSdEQzcE9EY0ZSU2JTeV9iTnRxTXB2dGhSVVRTVExpcUxmQXM0aFd0ejRaVTZPZjktMlVTSENLcWtsQmFVOXBfRkppbHlBQ2RLdGNIODJQMU1FMHhrZVREM0hTQW5NdmpEV3pGa2ZG?oc=5</t>
+  </si>
+  <si>
+    <t>publimetro.co</t>
+  </si>
+  <si>
+    <t>['nueva', 'contratada']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Abelardo de la Espriella lideran intención de voto presidencial, según reciente encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPNG1ITHBZc2d6blB2Z2sybHhfZmdmc3R1RFlCLUJMXzJLellNTHBhYVlYVDhFYXZyQzA4TkhNMlJmVFk5NDA4UU1VVnc1R0lNMlBEYU0tbVdYa0ZUWk5rWG0yX2IyUTROMWYyMHJaRGZWYk9odUZYa2RlZzVnRTlwcFlYalhic0xlZkhWb01adDNrSm9SRG5peVFzR1hWcHRvUUZLYXlrMzhRMkhOMVN5ejZka3lyTVVSWUh5aFNhNUVGQzVLYUFUY3pvdVFCd05xZHVWaW4xN1N3SHZlU2xj0gHkAUFVX3lxTFB2X2FHWVZGQjFxNm4taTVoamFsNkZtMFpUOThUNTJwTHhOakQ5Rjk5WVN1NGlwX1otUEZtWEhPOURMdGV5Z0dhVnF2NzVKMHgtdE9fR3JTSUVIUFJDekU5TTFmMmpadnpSWGtpSWJ4YlpSQWZpWVJBb0RVcDNoTy1lcXd5Z3RxeElKVS0zaE1pNEdoeWIydUI1RVBqNUJXZ0lhUnZ4eFpoc1p4c05Ra2t5Tlpkc1JpZTN3aWVWTV84d2EyYXFENG1uVm0wMGRqWE5PSnJMWE1CSFUzX3c1dEJQVGZWZw?oc=5</t>
+  </si>
+  <si>
+    <t>['presidencial', 'reciente']</t>
+  </si>
+  <si>
+    <t>Polémica por uso de finca de la SAE en reunión de campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPNUlDUDB5OExWT1BMd1NCRk82dVlzUkU2X284d3YtUE0yV1FrMkZNaHlNaUtQZWFXdDdXUWdFdGxqMjFTX0t4VFFucFEycktfdU43ZTBIZi1hRjlXbnRyRHU5eDZaeUZJQUpSQ2xpMC1lRWtqcThvYkdsZDBDWEJTWFp4U2FBYTdQVmJ4SURfWlZXeU1zOEw4Sm9Kc2tsZ3p5aGU4Z3NPVDg?oc=5</t>
+  </si>
+  <si>
+    <t>kienyke.com</t>
+  </si>
+  <si>
+    <t>polémica</t>
+  </si>
+  <si>
+    <t>Encuesta de RCN: Iván Cepeda encabeza intención de voto; Abelardo de la Espriella es segundo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOMFV2QnpjanJYSVU0WlQ0OGtqSW9xd3NpOTczVUp2S2VFWDZkTWJNZHZfY2hkekxraEpySHRKNW1xNGxvejR1NWV2YXktdzU2V3I1cVFJUlVuWGhWU1EzeFZmeGM4b0drdzJhRlpQV3pwRmFyS0pjak92d0MzakJlR09XNEZaWXJHZ01oWEFYaWtkTlN4WHlVa2VwRUlUZ0RCRm9mYWp1cGtNVkQ2VS1ydkVFTUtBdkVQT2VMVNIBvAFBVV95cUxPZ3VmeTJxMlhnOHROMVQwRFI0NWY4R1hKcDdVZ29nTHZtc2ZMMjVDWDE4QmpFc0x2bUI4dmRxWWNpakc1VE0zR3JfbkUtYXhtNzFwVmZpVXVLVGJlSlA2TEMwVVpjV2lwanJMZS1MYVZFbnR2OXAwSUEtRnFlRkt2TlF0SUZVbjd2UW1vZzBPY0NaTHNyV3FLY3BXNGlkbjJtbk9DU3dmLWRkMmE0Ny05U0pwVmEya1Q2QXo3dQ?oc=5</t>
+  </si>
+  <si>
+    <t>['segundo']</t>
+  </si>
+  <si>
+    <t>Las interrogantes en las cuentas de las campañas de Iván Cepeda y Carolina Corcho en consulta del Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxOelpYUk4zQzI2S3JldUFXb0hXeGNkSXJKVGZEN2FFbTlBVlI0NHBkdDBVUGZ5Vk1SVkJkWHBWOEhFTDJtT1AydThfbWJyZU9oY2c0UTNDZG9oNEVhUDVObmNiZ1VIVEpWblV2ZWJERE1aMGx5SzRwOWc4TmNPM0V1eUY5TU9seDZ0Z3NmY005akQweUlNSzdVMi1nZXdGbVNzeVphc1QwQ3lUR2Rad1FuZmpZTGJ6MVgwU1hXZklCa1psSUtkd29tdEoxOXZZc2ZuRU55M3o5LUd1Nl9zZy1veDhiMmZVaUxqUjNOZ0M4a0ZtbUI2UjNR0gH8AUFVX3lxTE9HWHBvMzJKWGlkejN0eENLa1N2T0JkV1VUNlFnazlLX2VXQkQyQ0FlbG53UThvQWUzMVpkU2FIZDZ1djE3bDJuaWtJWUdVZjFKSnBxRHlxRnoxOG5BSTNQNzhBaVZIZS1IYUp0WEstUmhKZ1E3dHhOSjNTNllwdDBmTkRRVnBYbE44T0VMMVBvSElFSWJ4eFlZMlBIRFBETWpTYm1PZnBOb3dEOFkxQ2k5eEFLUWdWSWpoNExHLUZsYVVUTEJHcUdaYlBZM2dTc0VoX0RlTlVvZjZPZFoyLVoydXpNTTZLcUszV1NsMXJ0eWxrbThmNjFNaFZ6bw?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y De la Espriella encabezan intención de voto, según encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNVmtnallVTEU5bkpXSWhnanBiNWt1MHNNV01TS1lmR1NGWXM1ckpkLVBZWXBjYW5oaXYza2ZJQnJZWGgtSnFfcG5zTi04UjlocXlBOG12QUk1N2hnOWJfNVNQLUIzTWFlUVVrOE40S090bWVTem5KVGlYZFdhU2hLOGRwN2ZoR1FGZ1l4ZjF5SFpXWjkyNGdIM1hjd0pLZTM0NGx3RVBibHdkZw?oc=5</t>
+  </si>
+  <si>
+    <t>laopinion.co</t>
+  </si>
+  <si>
+    <t>Norte de Santander</t>
+  </si>
+  <si>
+    <t>Polémica en el Atlántico: finca estatal usada en reunión vinculada a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNcUNfclhqRzBpTE83QURRSlVaSnhLREVTRlAyUm1sclJvOFlPbE5yNXBiWG1NUDg1YUhZcUJoOWplY25KUTVmYm1hOF9iWkQ2M1JULWlZeWVSVFF5Y01CaEhBbXduM2dEcXFIckh1MzJ1RlpRLTQ5ckE1ei1idWJpTWY4Y0Z4aEkxVjFramFkRkFocktuRGxNMUt2QjNGeTBtWTRtZ3JtakZ6NTBhTUJzRjMxbnZYd1FoVlc5YnR6ZzdINXBn?oc=5</t>
+  </si>
+  <si>
+    <t>['estatal', 'usada', 'vinculada']</t>
+  </si>
+  <si>
+    <t>Microempresa de Barranquilla niega donaciones millonarias a campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcHV4aTI5NjJsRnFIeGREdXh0bzU3OGF2dW4xRmExR09aSThRbTBCd0djR1pNTkM4V0RldkdoTjE3MFlNZ19pQWpRWGVfbEJEVjY1cUVNa2tIVzBWREQ0cVNtajV3UzJMZ3ctWElfOEhialBfZHFtdmJ1QWlQeFJqcXJyMHhUeWFYWVBTbU1reE1iZUhUOUtpaVExVzlRaDA5OGplYV9pWHFxLVg2MnJOMnhubks2X1B0N1NiWnRMOGFzSWFpQXhZQw?oc=5</t>
+  </si>
+  <si>
+    <t>['millonarias']</t>
+  </si>
+  <si>
+    <t>Katherine Miranda cuestiona a Iván Cepeda por presunto uso de finca incautada como sede de campaña</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNWUk1WUgwd25XZGQ2eFdPdkJVZ1FiWThyQ0o2YVlMcm5JaFRpZGZUbmttdE1kYWlaTlRBUzBpMVNScUVnc0VsT0hacXptZ3hkLV9vcXpRcVNhLVl5ZVlaTU5vcWk0c1FMYzB0U3dQRnlHUXBmLXZsM2Z6VzJrc2RXVGpRTG1taWdOYnpCblVzbkdvWV9xbHNkLVVQenBxSmdrb2haeEhjWnpxZjlJYnhRYUVpSUNQbzVwbkhYWXI0cTZiMDQ3aHVYZ0tEcmVyUHdDMmxDOGdVMS1lNnhzWVE?oc=5</t>
+  </si>
+  <si>
+    <t>['presunto', 'incautada']</t>
+  </si>
+  <si>
+    <t>Encuesta Gad3: Iván Cepeda marca diferencia sobre Abelardo de la Espriella en una eventual primera vuelta; así está la intención de voto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxNUzRBRWtmNHU2VzNMODBLd1Y5emNXRG41QWhMaE9QT180bVVnbkg5eDREVnNPa0g3am5IQjRUeW1ZNFpnSUFhOUsxRjBqZldJd3hLdUNhNUNtdFNvRGY0SXRRRnF4d1VlcnVfYnFsNFlqYnAxNEJWdXVtV3dxREV4OFhtaXdvZG5PUllZam5FWnpzT2xhNmlKVFE1WVBZcTdEbzI3eXp1S0U5aEdWV3k2bmlBa2hoSG5ibE9RQjlQQ014VmpsVzNNSk1wS0JEeTBoN05YdGNhUUtjZXM2TFhCSjl2OHViLTVSLWVOMlVIT1ZtZW14cFZOWUVaM1piNmVpQkhySzlYRFFoeUnSAaYCQVVfeXFMT3MzR1dnakhQREhsRVJnSHJwd21kZ2RFdG5aNjVhTTJMbU52bWlua2lCNXRSSUpjQ0N3ME1YN2E0ZzhLNHVJNXhaR29vQ3FNUjE0VTNMQTUtU1BPeTZPcXI1b0R3T3V2MGxER0JVTEg1cFNNdmJfbk5pV2NpZW1jNElOR3JZMjBWQTNtNU5Oc3BPQjlvTTh1aTJKUXFHZlRTZDVJRnBqQXZqaWF2cktYd2lleW9NdllMR3BJTk5vc3p5Z2s2eEdaVDdiMk85X3gwa3ZoZThWdF9UVU9lanlFWUlqT3VROVJvTUx0Nlp5a085Zy1Tb2M1TjVMRDlVejZoQ090RDZkdXNjQmNXVndLRVlZdkxwdDNReEp0WTJyVTR2UThlRGdR?oc=5</t>
+  </si>
+  <si>
+    <t>['eventual', 'primera']</t>
+  </si>
+  <si>
+    <t>Katherine Miranda cuestionó a Iván Cepeda por uso de una finca incautada por la SAE: “Casas del narcotráfico en sedes de campaña”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAJBVV95cUxNT09sWTVabWtITnZRQUNTMjZjVzV3QWZnbXotZjFRU2lBQnduaVBFa0JVVE5RRndnb3gwVW1WXzBBOUtza1dKakFzYjU3N0d4YklBZHBQOE1VcFlVYUJnYTc5cjItd0daTXU5dk95S3g3WWVvRDNpY3NQMGVnMmN0RkNWUHRROWZ5eGp5NU1CSmxaNmNLRmJoOWdsZURoWUhoODhRLUU0TEIwT2ZwVkNQM0RNWjhCaV9CZHhyX3JwSVEtZlFPV0ZsNU04Q3RJTldNcFpRRWVaRUszcXFzUGo5T0NpZTJnUzlxSzZBN3BJU0hJYkhHdXRyRWx5VlBZSGl20gGbAkFVX3lxTE1MWFFEWHJ6RzR4OFZ2dlZmTE00TUFUeWE0X2NpcTUxVVpEYW5wNnhxMFY0YWZUeldSaDhMV2tjNWp5cm9hNXBseTBMcUtHSXpsQVFuN2dzUTRsYXNUZWlMRjZqVnY2WERHckhPZ3pvWnJRejkycTV2dDFyT0FJUXBzanlkU0hIcXNOODI1T0dMYmxubVNINnJ1MHlfM3hHWDd2R2czVXFmMWhFTmxVVTdCbTN6YXVZSF9mcXhGUDdvMXZ5MjFUamtYMmhWcUpRMjVpNFBzVGQ1UWVqY3ZSUEcybmRkcWFTSHVPeU1IS0FRS2VkQUNuY0dpcUdwbXFMY2g1Y0dUdi1aQlpFV2JnQ0JLaVc5SHNzMXVqNE0?oc=5</t>
+  </si>
+  <si>
+    <t>['incautada']</t>
+  </si>
+  <si>
+    <t>narco, narcotráfico</t>
+  </si>
+  <si>
+    <t>Finca incautada por la SAE fue usada para acto político de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE5tc1lJdkUwc3kzV2ZiaS14ajc1aDRoMTNFNmtjeEZWSmRDbzlYMGlaM2xhUTNGTzl6YW9rd08zeVNMMjhzRGMxUUljNjhaQ1kzUzBsSUd0elVsLThWRlNIVkNfaElGNHg0Y3VFS0hlWHhjdWx5cHBIOA?oc=5</t>
+  </si>
+  <si>
+    <t>['incautada', 'político']</t>
+  </si>
+  <si>
+    <t>La ‘Gran Encuesta’, Iván Cepeda gana en todos los escenarios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxQWFZtSjVQaWVkMm9OejNsTXc5SENXNDJTVUxmQ2FHUDBPb2UzY3FSNUlwcEo2aFlFUUZENjh0c0lmNkdLZGkwbXBDQ0FwUTJRYUdDWF9zYVFnd1NNOVRzRVZma1dib3VwZlNCZGZ0OFdxNFBNWFJwMFc1Mm5YZ3lzNVUwWElRNHh1QVJxWFFYZE1SQQ?oc=5</t>
+  </si>
+  <si>
+    <t>elcronista.co</t>
+  </si>
+  <si>
+    <t>Con un 30%, Iván Cepeda se mantiene adelante en la intención de voto, según encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOYjBDU0lLckN3T1dDZndiWEIyMnNTdXl1RVhCc0QwX1RKV2JtMVA0YXpvNEhKWm84YnNPVFNqN1hkWTNWX0pRVW1uSmtSRG1vVFBkbjdmRy15SGc1ZHQwVXE3MVQxNUU1R0VPbkR4QlRsUHJaSXlyajAxY01mSTRRc1NOTVhvbGJYTVdqc1h3TFUtLXcySGtzZEdqcHdZODRCejRyQjlkZ0x3RmNyS0dwbw?oc=5</t>
+  </si>
+  <si>
+    <t>zonacero.com</t>
+  </si>
+  <si>
+    <t>Empresario niega donación a la campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxORWthcGk2dXY1dy1qamJ4ZlVnN0Njb3hRSW9tOGdQOURNU09YOXRrYVRUUk55a1BmeXp2MGgzY0s0cENIVXFtZzU5MjAyaTZJZG5tQWx3ZHB3Mml1d3Z1eDlOSFNQZUY5TG9wbU5tVmlURGNTcGZwaGdWcDJsVVNHdnlaNDJJdGpFM1dFdWtyZF84MnJhMXphRXhiazBwX0NL?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo De la Espriella reacciona a nueva encuesta: 'El único enemigo es Cepeda; la pelea es con él, concentrémonos'</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/politica/elecciones-colombia-2026/abelardo-de-la-espriella-reacciona-a-nueva-encuesta-el-unico-enemigo-es-cepeda-la-pelea-es-con-el-concentremonos-3525178</t>
+  </si>
+  <si>
+    <t>['nueva', 'único']</t>
+  </si>
+  <si>
+    <t>Cepeda tiene el 30 %, De la Espriella el 22 % y Valencia el 3 %: encuesta GAD3</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/ivan-cepeda-abelardo-de-la-espriella-y-paloma-valencia-lideran-intencion-de-voto-encuesta-rcn-y-gad3-noticias-hoy</t>
+  </si>
+  <si>
+    <t>Cepeda y De la Espriella, al frente en la pelea presidencial; Paloma lidera consulta: encuesta RCN | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/colombia/cepeda-y-de-la-espriella-al-frente-en-la-pelea-presidencial-paloma-lidera-consulta-encuesta-rcn-ME32639984</t>
+  </si>
+  <si>
+    <t>Finca bajo control de la SAE fue usada para evento polÃtico de IvÃ¡n Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxOLWoxWTFMMGZxQThLRHhTSS1VRXJuQjdheExMTGotQlA0aExTbnlKVk1PV2d3WUJ3TFZONFFqbUdsbXFaeWhuUDhlTG9BSVF3ekdJbEtlWWJGOEZnVTRjRlNRS3F5c3ZkakJ6Uzh0SjljMmhxaTBxdlh3amVCbFhsUXhkbXQ2STZYU0ZORkVEZDV1akE?oc=5</t>
+  </si>
+  <si>
+    <t>['polÃtico']</t>
+  </si>
+  <si>
+    <t>Las dudas sobre empresas que hicieron donaciones a campañas de Cepeda y Corcho para consultas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNZ3ctQjgtX2ozX3lsQUNzME12UnAtRFBFbGVUeDFWRTRkTnRYazV6MVdYcTdTUGJCeUxqXzdiS2VzNUplb3A0R1NwT2lIS3Z4UWw2cm1SazFHUG9fVXpSdlZZenhnN3pxN1MydTdTU3BIVnp5MXpQbUFGTmZfTW1mLWNNVTFfR2xhLUVyeXp3ZEl4dDBJWFk5b3l4NG9Bajl1MzVIb0c1LTlzWkFTZVVIenhBYTg1d1pNNHp6d2pkeTlienJ5X0ZEaDVfY3rSAdoBQVVfeXFMTTRVV1lqMEhzWldNQ01pVFRaMmlhZ1QxNVVYY0w5VXpnSE9pRVFkRXpSajZwbTI4TFdad2J2LS1wQThieEVlMkhFRVVSZVUtMFdTN2RRVXhUX0NzdjhLT1YyUG1OX3pMOWFWbmNNbXRQRjVOR09iVXRMS3V4MnR1V3gzNXdWdjNEYkpXSXpqWmNrRlRpSHY5QW9hclVuanhuaE1CTURuREZCSkVwTTE3YTcwUUwzYnpia28yNlo5RXp6TmZFUGFOYTRaMjhyWGtUdDFVVGFEWUdWUXc?oc=5</t>
+  </si>
+  <si>
+    <t>Encuesta de GAD3: Cepeda y de la Espriella lideran intención de voto a Presidencia</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/politica/2026/01/18/encuesta-de-gad3-cepeda-y-de-la-espriella-lideran-intencion-de-voto-a-presidencia/</t>
+  </si>
+  <si>
+    <t>eluniversal.com.co</t>
+  </si>
+  <si>
+    <t>Encuesta RCN-GAD3: Cepeda y De la Espriella liderarían en elecciones presidenciales de Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQLUxNRkk1aTdJNnhiUFl5czRQZFA0OHZ3YnBDeF90UWlyMUxISmhDVWhScngtT3VqZDQyRVhtX0RQM3lucGNtOHRVbUNCUmttTHJseW9GTDdhV3A2S3R3MjdxNVN5WjBydWxPQS1DcjFyZUxkeFJFSWJpMlhDZGFnYWxCZGxOaGh0Y2NmdGRWc2EzSXNUelBXRVd4MXctRk5BQmFVekxPY3FUTWZLTF9sajNBeUcxYjZ6SFZzVjZwTk1jRGJk0gHKAUFVX3lxTE5hd1pQdHJxTUFwbDVTVHVzTWRRM0FjVFNBTGYwbFR5aXBQRWtKVHd5SjItaHBvQ0R5RDZaZ0xtTThoaXlReFVoRjdFeWtTZVlPWXhUTE94QVZkYVkydjlIT0ZNczJFZVktRVVBRHFDZ3pBUk9EMGpnU0cwTjJTRWtSNV9VejQ3UTlXb2tkQ3NXalk5YjBEOFBrUGU4Uk04WG51Y0txZlpxUGdsSzlzZzhGVE0xOUkzMExZQ3N0b09JZ3hoM3pRMWR4SFE?oc=5</t>
+  </si>
+  <si>
+    <t>valoraanalitik.com</t>
+  </si>
+  <si>
+    <t>Urgen a CNE y Fiscalía poner lupa a financiación de Cepeda y Corcho</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQc1BTZk9ybnNqUWRxZlB1YU5DemtvaFZ1VWV2UW5MSVRPdExNTUl5RThGOXhRam10RlFVbXNEak4xRVBPUXFtVUJhVHE3ZHJOY19nV0c5MzRXeDBYZ2MwVmx5UXRiMTYyNFgtN0RvajFmd3NxVWhGb3FYU3ctQWNYNkNLMXlwQXNJUnd4T0FjYmV6eGdvbFlJYmFpMTZyUXdBVWI1TzM5MA?oc=5</t>
+  </si>
+  <si>
+    <t>Según La Gran Encuesta, Cepeda lidera intención de voto para las presidenciales 2026: estos son los resultados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxQVUlNeEJITXhOVlY4UmtQdGxOemxfVjVGTVJqemVYcVhYSEo0V01qb0xXZUotOTBJX1dvdjRfbXd5VjYxNGU3emNaUVRMV3M1ODZyeWJCNlBMMjdiaUNQODJhMHRUSnpDU05MSU5IM3ZQcC1fQUE5X2dQZTAwZmpmbE5EVF9EX05aRVg5MVplYjhtb0ZCSjNIMHpmUHlmQlh1TDBHX0Z4bnZxX1k4eUkzdWJnaDRVX0ZxQlBxZmJmRXl4VGZLekJaTkVfRXJHYXd3N0tnZ1Q0QjN4YTVyN29vSFRBUUhVRG4yQWEw?oc=5</t>
+  </si>
+  <si>
+    <t>['Gran', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>Amaranta Hank la actriz Porno que se ha constituido en la relacionista pública del candidato Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOSmluX2p0RHZSc185aXRGQXZBbVlocFdZaWRQbHZYUl8xa3pHdmt6VVJVUWpjOW1fSjc3SHppNG01OG5HXzFhRkVFdVlFM1JEQnd4Ml82b3ZFNXRxMmpLcU5rb1RGSHMyZ1RNNVgwRnhORlJjdWpYOW1rYl91SDBZTWRfSU9Oeld3NnhkUWNhd3IxMDktc3VJcmZXTHpFNjBPVE5lZFJ2aGsxSHNReGRQb3h4UmNjdHJJYUVLMlcwQjg1SVJLUk1nSmtzRjFsRXl2UWEwOTk5c3FwaFNUN1B6ZmExVnQydw?oc=5</t>
+  </si>
+  <si>
+    <t>['pública']</t>
+  </si>
+  <si>
+    <t>Cepeda le toma la delantera a De La Espriella en nueva encuesta de RCN</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxQejFwWU5NbnhidnRKV0xOSW5NbGQzT3ZVYzcxMU9QUlVlS21PMmNVOUN0aGtTV2Y3dkw0aC0xZ0dta2hSQXVjeDhlZEp5N2FwWkR1c3B2ZE45Vm5BdXJBd2ViYzBoUzZkNjVMNUtHTWlsVFFMOGdxS3ptVU5wNjA3MjZoQmdwS3FKaktKRkJxbTJ5aF8wUXdtUHJzMi1UR3BSZGtPTVNXR25VX0d4WmItYldn?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella le pide a Donald Trump que en su reunión con el presidente Petro le exija garantías para las elecciones presidenciales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAJBVV95cUxOSWMzV0x4VGg3X0JtMkdXTEdGWHdtVEZuMGxuUkJMNlJlZWxwVG84NkhoelBFenZnUmdPSzROdTltSS1FdnMxN3RqLUtBcW9jbUx5R1Q0MGNpSE1RU2Q3MndXbTl3ZzFlQUVKUGJBQmJrVk9kRUtMSjlUSUsyYjg2QVRCQTZPWjE1Y0hZWXp0RWYyN3JEWFZXYUZPZFVKd2hNUWNFMm5QTnNsdU5xblBXejY3ODU3MExoUmVSbUkzbng5Zy1xLTB5X3VneVpTX3lBVU1XZGhpblVmOGpFM1RBVVRvY1FUQXVEcFR5aHN2dWtCb05LSkdXdXRXcE5qM1RFdkhvdlY5TEZkbHhFWnNVYk1vMk13SlFxUDB4elFqNHBMM1BzdFZXS2VrVzNRdTNpTTZkYdIBugJBVV95cUxOX3FrTThnS1BwNmtlNTNOdXUzSUJLdWZVb01oby1xWExGdFg2U3FUeG0wdDFmNGYza0FkTzBpVmVDWkt6YnAxUEN5MFlrdXFXa09HQWRiZGlKanpVcFZxNVRHX21aNUNxd2U0QXBVckpZSm1kUko1Sk0zc1VsaXpucnQtazZvcXhPVFpTYUlyYk1SNVd1czhyQ0JVNEZTZW9TbU5qRG04RENtM0pxZ3E1S3RvWDE2UmkzRGxjRHUzNk81eF83bkZJb3NGamJmSy00WGxLZVBwUF9rSTNJOUl5bklETlY5Vi1Tc1VZZU54TzJuZi1Tb2RXc2huNVlJQjJKWEVMdUlXZ19ZVHMxNjFyY2NldGZWeVdLMTV0MDUzb0tmM09kSXRjUHFZUjRmcFJSMDFjem13S1NCZw?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella le dice a Donald Trump lo que debe hacer con Petro cuando se reúnan: “Es un peligro”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxQMUx4WGRBc1ZwZWtRZkJQTWVQVGFfbVQ5Z1VWMmtMLWN5bEVSMHdERF9NX2pMNzU4NmZPdXQ0N05Gdy13SmFKMjg5TlIxR1U2VUczbVZRaU9UNjdyMW1lQ24xcXIwWEx0enk5dHlUdnlBNnlGRGVIajBhOFpqYWpZeEYxLWpwRHZ6bzJvckpXUC15bkJMRzlSQnRLemxYMVRzUlNmWTJsaXl1T1ZQbllyR0NFYjlfTk1mcUh4YXZOX2hlVDhSRlRnV2l2eG91bDl0dzYtU2RMYTFOaFU0RGJaT2lvNG9RU2VNVF9j?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo De la Espriella anuncia demanda contra periodista que lo vincula con Alex Saab: la FLIP lo rechazó</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxONE44LUx3UGR5T3A0UmtKOENRWGwtVHN5cVJMQl9aZzlTekZsZTBYR240T29LaVNXWVVKbkl0WmRVeGlWM0xESmgwcEdtYjluWlpScWgyQnRFb3FZUjB2XzVWOWp4RlEzOXFNbW41NDJ3Uk5BUF9qbTdwZkppc0ZsRGlzU0NtU1BHcEpFRldFQlM4dkd2NTFoQ3pESlZKVzRtUEpmREtFb3JGUnZuUFZzdGZlNzFjbnRTemNNZGR0SGF4bHlDQ1dkaktLQzBtRGszb1BlSUV0RGFiU25pcWhKWVVNbkNSMmfSAYICQVVfeXFMTVloNVk5ak9iRGdOd3hqRzRhdFN4WHRQVm1VbGxfWVVhMGxFY1drU2ladW42UzhGeUVJMlU0b1BPT3FvQ0YyTWNKRXZFY1VjNXM5RFctZy1xTlJIeEFPcUJTYkRtamVXcDZKakZBNjhDMXc5RlBSTzlnZ0N5WVFDbldibWJBdjFpS3RVUnRYUnkwY0R3c1g3QzZhSTZpUTRLRUVOaGNIVUlsWDZWX3NNYVlDMHZmblNDQ2FyVWNPb0kwT3pDR0U1ZlRMSUN6UDdEU1Rtc1QzMnRlSEZEd2I3ckMzRjBOaUdKakJrbl8wNG5RTDY5OUUwNWM2cVhlaHZYVy13?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda lidera la intención de voto y Abelardo de la Espriella lo sigue de cerca, según encuesta de RCN</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxQNDRMTnNqNlJEYnE1YWVhSUItRXFrSTREdUQ4Y0xyTGRiZ2h5eEQ3RXh4anBzd3o4MkFhdjEzLXhSaE01OGRYZzkyUk05Q3l1Q2lwRWRBbGxjYm1vd0ZkMFctc0hSbGx6TmdzU2p5MzczV1gzQXRNQjN1cVpMZUx1TGxrV2dneU1VTFhZRGpIc1BLQkdUcWZmNDFfZlJNQS1yX3FIbkl6eWltS2c2QjBSeFJmX3VrTXB0WEpHVlQ0dTNjb0E3ZlpIclFnUjlCb3BocXFpNk03d2RtSXVuUF9BRE5qZw?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo De la Espriella exige a Trump garantías democráticas para Colombia y frenar uso indebido de recursos públicos en la contienda electoral</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwJBVV95cUxONHlhS3Z6LUVZT3h0Q1NlU0JranpJZVQwWXJaeWZveTRxcWJJVGZGU0Y0M3RSM0k5VkQyd29icktoWDY2VmtGMEo4VURiQ2NrYVFNUEJhal9QOG41QVM0eElEdHJXcnk0NkhVdWJRajhGeWVYeUhzamxmX3NjaDRfSzRYUDFUODhpS1c1dk9WdWVtUFRxc0QtTWhzYmIwbFpFUWhSUlROQmZlb00tdFJIb1lKdm9MODhiai0wak11TFFNMkY1bXMxZk9EN3VndWZ0RGNrcGFqc2FMWENLWjNKQUZFUUc3UGoyeWh6UWVRQjJab3ljRjN2TnNPLWpuQXRtbjlTS25kb0htcVBlcE1oQ05XaDhyNXp5UWJr?oc=5</t>
+  </si>
+  <si>
+    <t>['democráticas', 'indebido', 'públicos', 'electoral']</t>
+  </si>
+  <si>
+    <t>En video, Abelardo de la Espriella se declara único rival frente a Iván Cepeda, a quien llama “la peor amenaza para Colombia”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/19/en-video-abelardo-de-la-espriella-se-declara-unico-rival-frente-a-ivan-cepeda-a-quien-llama-la-peor-amenaza-para-colombia/</t>
+  </si>
+  <si>
+    <t>['único', 'peor']</t>
+  </si>
+  <si>
+    <t>La FLIP expresó preocupación por acciones judiciales anunciadas desde la campaña de Abelardo De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNOVBFX0wxUDFIdVhBdk95WWhOdDJJSkJJY1ZWNFZFUUVZeUVFN040bm1iSmEycTlQOG1yejUweFFOanpSbEIySnpMSXZ1UklORngxRHBTV1pLUnN3V05RWTlLYWZJclZ1VUVTU3VMNkNNRnZzUXVVdkxGQmVrYWRveUs2akw5QnJsbHJRdTdyUWc2OHZvbTlTbkRKVXdOTGZrZnB2c05PV1JDWjg1M3FEdkR4Sm9PaC1PeFRRR2M5VUFCZ1JqeDJwS0Q3bUl1dw?oc=5</t>
+  </si>
+  <si>
+    <t>['judiciales', 'anunciadas']</t>
+  </si>
+  <si>
+    <t>De la Espriella y Galán reaccionan a los resultados de la encuesta. ¿Qué dijeron?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQM3NlRGpIRFFycEoyLW5XTFRJQWs1LTNUcnlZQnhWbXV1V1hMUWJyQkZRM3BwRkQySGZGcExQU1Rzd0ljSGJlYnpHM2gxQUxaQnFPeXFnRUluM3YxMklycTE5dEJFdm12QWdPc2QxQWV3OVd3b0FPaU9mZ1FwdnN6cE9KcXJYS0tSU1Z4VXBVTnpPb2NydktTbGQ5SHp0NFFycVNQTzNRWWhreHhtM0FieGVqZUlqUU85SnB5OTF3UU9xczA0SjNz0gHHAUFVX3lxTFAzc2VEakhEUXJwSjItbldMVElBazUtM1RyeVlCeFZtdXVXWExRYnJCRlEzcHBGRDJIZkZwTFBTVHN3SWNIYmViekczaDFBTFpCcU95cWdFSW4zdjEySXJxMTl0QkV2bXZBZ09zZDFBZXc5V3dvQU9pT2ZnUXB2c3pwT0pxclhLS1JTVnhVcFVOek9vY3J2S1NsZDlIenQ0UXJxU1BPM1FZaGt4eG0zQWJ4ZWplSWpRTzlKcHk5MXdRT3FzMDRKM3M?oc=5</t>
+  </si>
+  <si>
+    <t>Tras columna crítica, De la Espriella anuncia acciones legales contra periodista; Flip llama a respetar la libertad de prensa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPUDlYOGdLc2JHWEY2cml0XzlKQTRYQ3ZuTWhXejVSMDVla0htcFpwbkc3RVdGSUlTai1WcUZ3cnVQNy1kMVJYZkhQRUNmcEZmVWpXMVNaY19vMDN0MktjQzItaXFyQVdRUExEOC1BMkR6UFdFTjhkTkVJeHA3TnhkQUhiSWQtTGdUMjk4b3ZKT2R5NXU3RGVSUmpkWjRCOURIbUUzYWpJQU9zSlhQMnN6bFRkU2JLcFRJS1A3bXBXcm56am1kRHViZ2JFcnAtZXdQSkxXVmpUV19POE9TYUx5M1V6RGhMSTJDSF9zbkY1MDl4cDNQYjM1VF9hM1JwLXFOUkHSAYICQVVfeXFMT1A5WDhnS3NiR1hGNnJpdF85SkE0WEN2bk1oV3o1UjA1ZWtIbXBacG5HN0VXRklJU2otVnFGd3J1UDctZDFSWGZIUEVDZnBGZlVqVzFTWmNfbzAzdDJLY0MyLWlxckFXUVBMRDgtQTJEelBXRU44ZE5FSXhwN054ZEFIYklkLUxnVDI5OG92Sk9keTV1N0RlUlJqZFo0QjlESG1FM2FqSUFPc0pYUDJzemxUZFNiS3BUSUtQN21wV3JuemptZER1YmdiRXJwLWV3UEpMV1ZqVFdfTzhPU2FMeTNVekRoTEkyQ0hfc25GNTA5eHAzUGIzNVRfYTNScC1xTlJB?oc=5</t>
+  </si>
+  <si>
+    <t>['crítica', 'legales']</t>
+  </si>
+  <si>
+    <t>Mauricio Cabrera</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +2211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4379,6 +4833,1613 @@
       </c>
       <c r="K90" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B91" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B92" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>108</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B93" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
+        <v>301</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>304</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>304</v>
+      </c>
+      <c r="J94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>307</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B96" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>310</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B97" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>315</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B99" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>318</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B100" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" t="s">
+        <v>324</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s">
+        <v>324</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>219</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>219</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B104" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>332</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
+        <v>123</v>
+      </c>
+      <c r="J104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>184</v>
+      </c>
+      <c r="J105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B106" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>184</v>
+      </c>
+      <c r="J106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B107" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s">
+        <v>184</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B108" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B109" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>344</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>129</v>
+      </c>
+      <c r="J109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B110" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s">
+        <v>129</v>
+      </c>
+      <c r="J110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B111" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" t="s">
+        <v>349</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B112" t="s">
+        <v>351</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>353</v>
+      </c>
+      <c r="G112" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B113" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D113" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
+        <v>357</v>
+      </c>
+      <c r="I113" t="s">
+        <v>356</v>
+      </c>
+      <c r="J113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B114" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" t="s">
+        <v>172</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>360</v>
+      </c>
+      <c r="G114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B115" t="s">
+        <v>361</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B116" t="s">
+        <v>363</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D116" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" t="s">
+        <v>365</v>
+      </c>
+      <c r="J116" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B117" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>369</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s">
+        <v>357</v>
+      </c>
+      <c r="I117" t="s">
+        <v>175</v>
+      </c>
+      <c r="J117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B118" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" t="s">
+        <v>372</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>175</v>
+      </c>
+      <c r="J118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B119" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" t="s">
+        <v>375</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B120" t="s">
+        <v>376</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" t="s">
+        <v>381</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>382</v>
+      </c>
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B122" t="s">
+        <v>383</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>385</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>263</v>
+      </c>
+      <c r="J122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B123" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" t="s">
+        <v>388</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" t="s">
+        <v>388</v>
+      </c>
+      <c r="J123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" t="s">
+        <v>391</v>
+      </c>
+      <c r="J124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B125" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s">
+        <v>63</v>
+      </c>
+      <c r="J125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B126" t="s">
+        <v>394</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D126" t="s">
+        <v>75</v>
+      </c>
+      <c r="E126" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" t="s">
+        <v>396</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B127" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B128" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D128" t="s">
+        <v>123</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" t="s">
+        <v>124</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>123</v>
+      </c>
+      <c r="J128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B129" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>403</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>123</v>
+      </c>
+      <c r="J129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B130" t="s">
+        <v>404</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D130" t="s">
+        <v>216</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>216</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B131" t="s">
+        <v>406</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>408</v>
+      </c>
+      <c r="J131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B132" t="s">
+        <v>409</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D132" t="s">
+        <v>411</v>
+      </c>
+      <c r="E132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" t="s">
+        <v>253</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>411</v>
+      </c>
+      <c r="J132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B133" t="s">
+        <v>412</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D133" t="s">
+        <v>304</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s">
+        <v>304</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B134" t="s">
+        <v>414</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D134" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" t="s">
+        <v>416</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>175</v>
+      </c>
+      <c r="J134" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B135" t="s">
+        <v>417</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" t="s">
+        <v>419</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>175</v>
+      </c>
+      <c r="J135" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B136" t="s">
+        <v>420</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" t="s">
+        <v>344</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" t="s">
+        <v>263</v>
+      </c>
+      <c r="J136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B137" t="s">
+        <v>422</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D137" t="s">
+        <v>75</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>253</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="I137" t="s">
+        <v>75</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B138" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B139" t="s">
+        <v>426</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D139" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" t="s">
+        <v>184</v>
+      </c>
+      <c r="J139" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B140" t="s">
+        <v>428</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" t="s">
+        <v>135</v>
+      </c>
+      <c r="J140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B141" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D141" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>432</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+      <c r="J141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B142" t="s">
+        <v>433</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" t="s">
+        <v>435</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B143" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>438</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s">
+        <v>30</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B144" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4437,6 +6498,51 @@
     <hyperlink ref="C85" r:id="rId52" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPSGNGdElnR3VNSUc5WGlZM1BGU1Z5ekZOV0RqdElfWlVNR0N6YmxBUHVjdGdsZUJGVU1EQzdIRWdrR0c0X2pxUC0zYkh6aWtRcmxoeHJYck9IWWE0YlRwcjlhZndwZEh5emJzNVN6S3BBYVpBb3RXS0t2QVA4dzRaQXo1YXIzUW9MYkVHMTdRei1IMVh4bXdrSExtWDlHb0NlNmthZl9Rb0stRGlVV2J0OXA3SXBDOVRJUV9UN1Q5cTFqZ3JEaW5DcnBB?oc=5" xr:uid="{FB3836D5-612B-427C-9D7C-67C26B54B9D9}"/>
     <hyperlink ref="C86" r:id="rId53" display="https://news.google.com/rss/articles/CBMihwFBVV95cUxPVmd6QndMOExNZURBRjJuRWotbFJXWmsxeHlkaEZxemU4NDZDNW1nNDhBdDNDSkRlenZydkFJSGV1Z1BPNWpRYjZDR1YtaGFNdmdqRm9uRi05enVpOEVpdVdTMDRwenRaajktcTE3VW0xa2FwN2N1eUJUMjFybkQxUDBfMEFTbnPSAYwBQVVfeXFMTzl6SXB2bGlLUGIzdFpKUGpMa1EzNjJYZUFTMDlwSkpQaDhJTUtaekRkS2JWMVpmSkdWWTJoRlNxWEpwSDMxYlZYUjNrY0lXdzh5ZWQ4WnlWVE50SjhmQWpYODZncU9wY2pmVktqUU16OGJzSkFLTXprYVUyRExtZGNYWXQxc0U1U2JjRHo?oc=5" xr:uid="{033E2612-2221-4D8E-B7D6-DCA727EACF0F}"/>
     <hyperlink ref="C87" r:id="rId54" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxQT1ozNWhqYVhidzkzT2wxOG5oSnFjRXVhTV91VnVmSk9WOURTVC1maUZId1hkRHJlQ2VYZmRSYUVNU3lVekpJcC1DTXZhQ1h4VEp3cHViTkVyZWt5cXd1TlNVOU1RTFZ2Y2p4cHJKVDAzYW9hRG1MMTY0YldWdjUwWUdtS2JteTRHbjM5UFhfVDdVRzcyOEY3SnJGd3JoWDJFRmJsSEZPTUhuS292ckxVVzh4RWt0WjRCcFVqcGtvSjZLbk54bWxKdkJrSWFqOWRtb0lCNTREaDFoUdIB2gFBVV95cUxQZ1RYNGd2QmFXQjJpbDVCQkpoWlg2NnBGdnhmZ1l2SUtNRHVXTFZQZXlhekRtWE9pYWdkTDRyZ3BOTm1qYmRjSUMxX0RaNHpJZmhUTy00LUhzVUhhQnJ0MzZEYjN4WmhSWWhmT1FFaVpqRmo0aks2eEhpX2ZsazdrdkM3bTQxeFNkSFNtWVNGRWxJZmhkNlhPM3BzVkJ2c09xXzJ5YUUzWnk1OW9rTFpIa000MFBQME1uZjBCQ3pMMURWaFpHdmJjOXc1WEdOdFpuR3YtSXJFOC1rZw?oc=5" xr:uid="{7ACC5153-C661-4249-92C8-DC1EF4AD57B1}"/>
+    <hyperlink ref="C97" r:id="rId55" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxOZlNJM1pwaE53eGt5WUJVVjQ1Wmt3emdvTlRHaGpQNFdTU092dUhJZVR0dWoxckhraDhzSWRvelUwRC00MW5Jc2lCWlI1QXlHemN4cEhiY2ZaeXNTUnhibWFVc1VwY3JoU0J3bEE0QzZDYU9hallZRWFCSlBpYVhBaXRrMGFXQU51TW1fUWNmbDNSeElnV1AxbVZHbDZtZW55aUVoUTkyaUlUa2hhMENyWjhPQjJ2N251YVNV?oc=5" xr:uid="{1CC7BFED-552F-40D4-A04C-E3C6BB8B211C}"/>
+    <hyperlink ref="C98" r:id="rId56" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxQalBQbE1DVlZnSzhKRTFQelRFUUxPeUJEOTN0Ti1FZVhod09iYnUzWXJOTTYyT3dFaVVmOEFDeVExZ2JhZjFuUHdhZHRXaGdGN0JhektOV2dTa01ia2FWZndXSHh5VU1nZ3BTalh5bTI0aGhfeGZ1TE84WkFCUUxhNEJGNGd6YVhFTElsUTY1ZGFBSkJtRi1WZmFoNUhmVk5qb3VKX3lrY0hoeE0tY29ac2pUckt2WlBkaFI1ZFNnNF9TNDdyMG9GdElqR1BhX2FUT1hSc1NUU1pnQjRZVzBkRnhXV0tTYS03VUxNSmQwb2d0ZmN10gH6AUFVX3lxTE44aVhWRGJ6MVlkYWdKX3Q2X2E3MzNpVHU4eXBnLUdjQXQ4aUg1WDEwbzdqeEVvT2d4TlRFY01RUlRJYWpVRWNwTHQydHVqcmFxbU5OY1BaMGNsQy1Bb0tNdGZlWHRmNV9BV3JNMWFmNFFSdlpmdHNMWkEyQ3pyNHZDWG5MSGFYdGVDbjFQbXlQSi12UU5Rek9XRmlSbFRJazJGaFhfWlhFa1dnWFV4eUhqT2Flc21zRGdHRXBQeHZyei04RGxZU2dwZVo5N3h6UzRhamVPaUE1eFJaSzctWWxmdVR2WG82X1dZaXhuUzB0VDY3dEE5Q0Z0c0E?oc=5" xr:uid="{B093C7A7-50BD-46D2-AEF3-440420B1EA96}"/>
+    <hyperlink ref="C99" r:id="rId57" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxQU1lSZ2pEcWN4QkpyR1U0VUpSbEo0MjctNmc4NG9vdFk2NEdwbTZXOWFNXzBiM0ZXdnpmdS1OSzRDakVLSlZfN3pOc3U5a19heUxPZko4N2pFa2xSMGUxWUg1NEUySkZobnE2QXltRzBIQklscEo2N3V6RWN1ZnZVbm9VX0FwY201YlFyeWl6YzQ0NzhuX0NIV0NnRkx4WFprUW01NzlqTWo1aDltSHIyOXF0elg0S0hhczZOcWRZR2JUWDhEcG03alltM1lpdnQzV2hlSVNKNE5xZzJCUnNtbGEtd1J3UlFrNEdJVHZoZnRtXzB2NjNGb3dvVlVTdmFTa3FudUxVR09TU0Ey0gGSAkFVX3lxTE9PQ0VVNHlvYm9RVkNEZzczVUc3VGlLdDB4bFo5U041WHdlMVBDOXM4ZzRJTnlLRnRqUk4tUGtYSHNoYTJKVi16cU9ZZlpTSmd5QWdRaWY1eEItT2dDZjNRT2JMOUNMQVRSZTJCd0NBMnNlUGZGb2psdkRVcWp4VHFBR0V0cmdCaGdGMEZaOGFTOGJ0Z1lNWG41WEYzeW9Pb2ZWTFpYMnNkTHJValRrMVZZbHItb2FUTnE3WEEwTURkU0dpOEQ4aDFQbnlqb0JtSjY2NVNnV3ltb1hpenlaRUlsQkZnZjU1bVFPY3dnVXBtYlQ3UG5YdXhJdW5qYVFURXBTY2g5ejh3aHp0QzViMldFVkE?oc=5" xr:uid="{65624098-B651-4FA3-8CB7-BB5D415DF05D}"/>
+    <hyperlink ref="C100" r:id="rId58" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxQSkF0cm5ZYXhBbVNrWm5TaW9nNnpjLXBaYy1qLUpGYzk2RkpOXzBNcEF0SWRkTm5iTmMwbi1qeVVobmRUeXlDVW15bUJteFd2T1lRWmVzQlRjNld6NXc5ZG85YTAzWV9FV3dpR3YweURfVzV3R1ZnN1hrOWdXVE9rRGJNVjYxdGFFR0ZYRll0T01WX3VDczgxeEw4ZDhrYW1jMjJTNG1nTUFxSjRKYnEyRE9kQmhIMUJYMHZBdEFjc0d1b083Mm9WR2piQW1hZHRvZDV2OWlnZmgwVkN1Y01FWk0zOEFjd3ZxaEFSWUNWRm5yOXJFWWRPYVA1T3JFaG_SAf8BQVVfeXFMUEpBdHJuWWF4QW1Ta1puU2lvZzZ6Yy1wWmMtai1KRmM5NkZKTl8wTXBBdElkZE5uYk5jMG4tanlVaG5kVHl5Q1VteW1CbXhXdk9ZUVplc0JUYzZXejV3OWRvOWEwM1lfRVd3aUd2MHlEX1c1d0dWZzdYazlnV1RPa0RiTVY2MXRhRUdGWEZZdE9NVl91Q3M4MXhMOGQ4a2FtYzIyUzRtZ01BcUo0SmJxMkRPZEJoSDFCWDB2QXRBY3NHdW9PNzJvVkdqYkFtYWR0b2Q1djlpZ2ZoMFZDdWNNRVpNMzhBY3d2cWhBUllDVkZucjlyRVlkT2FQNU9yRWhv?oc=5" xr:uid="{3A14A810-C57F-4A19-AF5D-462493E71B09}"/>
+    <hyperlink ref="C101" r:id="rId59" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxNekZiZmdNRGdNYzRGQ3BqWmJOcUNlZ1Fjd2dpZW5qbGRzNTcyNXVSSG9LZnp6NDBhb0JIT0Flc2swSS1vRms3SkdMZ2VvaWpDX2ZNalNuMVhOMmttMGVRX24wZ2UzeUx1MmExSFdDWk5rcXpMOFllR3paVnhzTGRxazdBcEJ4aU5KUEpXZ1NHUUNTUFdyTVJUbFZLXzBSQXNpSl9FQ0pTXzFkUUtIVTdyd3FkYXhtNWJMX2MyYjVfczMyZUZmX2FRSUMzUF93SEl1ODY5bWdVQXpZWXBORUHSAd4BQVVfeXFMUC1vS1NXaU5Zc3hQN1BNOWZKRnM5a1RnUjlNMjM1blhNYUNDZ1l3X3gybktjQ29vY0I3N3hzRDh6QXhHQkl6QTVtU1VLWHUtMW1Mck92NWFDcHF1NVRReXd4cml0U3V3d3h6c3pNbnNFcjJmVmxtMmRRYjhDcEZfUXVKOENjZm5vaDdKODV3N3BaUWhWa0VqS0VDVzRINXF5LURiTFVEVU5TVTdzcW8zRF9CSlVZVEFPa0dpS1lKQm5IRWRwX1pEU2RRTS1mb21wMkRjb1pZc1FsSHpQblpR?oc=5" xr:uid="{ABF320A2-BCD1-47A7-BA2D-D1EDE9B1FC5C}"/>
+    <hyperlink ref="C102" r:id="rId60" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxObUJHXzU1OVpFNUoxcjJRX1NGVEpJdnBEZmcyX2VOeks2VUVwYWYtSTJhbkcwY2xkcVk2dmhRVk9YTlZ6TTJkVUI2UUYwZ0taRzUyaVpWczlnT3BuT0wteU80SmZDOXo3Q0hjeDNGYkt4WW9GOFZWS2swc1ZxajhzUDJkR0tEQ3VkT0ljVTJwYUN4MU1rTmRmQU9YcjEtQ2NlekpNZjVRZlV0MEhTV2JhdUVvbzdKbDllN3BOZ2ZnYmpFanVITWEyLVVXWWhfQdIB4gFBVV95cUxQc1BtUXVsajh0dEtnMFluME5jQlRQWmlKQkRQVmVLYmtRc1BJSlFjUEVMOXVqdUVRSERrOGswX0VhcUNERUd1N0s1allTLUJWbHJKWVN2LW05OWpaR3NmekNobHRjQUlkS0hTS1B6elZQdlVoSWFYNnprUFMxZmFqeUVtbkJDVEhVa0FoblhUTVRjc1JhZFk4dldNQzNiT2ZMTkNqc194bzZ6SXpQZFQzQTF3UTdLeER0UHNpVzlsa0VXVlp5a3g2aFpad3JlRjEwSGpUWF9HdmhzdmFSbnNOSmJR?oc=5" xr:uid="{2FC0CA39-EEDF-4F17-A874-216C7D55CE1A}"/>
+    <hyperlink ref="C103" r:id="rId61" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxNVEo2d05pOEZsUWV2SkQ0TFN3azV0S2k1T2xwb1NiSWhjVnBiZEVadTFhYU9oVlp0cEZ3aGhlVnlvRU1QMXdkYmFqQUFVQ19DQWJIOFoyaWVLdkhPS280dFpTdnUwQy1fV3pFb2lqZmVQR2NadktKcE1XdE92WlZrN3VBRWVhclRVUjMxbW1mMVlMZnkzTTB0Y1RPQ2NlcGVJWXlrczJn0gG6AUFVX3lxTFBjZDN4cElaRXFBWlE4MWhCOHZtSFhkSzF2N3JCQTV5VV92YWpFZUVsMUQ0VkkyOXNDbTlVdTloMTlFWlJ3LXkxMHpiMko2eE83OFpMZDZJSzctRjBPUUxZVngwVHhRVFVsdzE4LUUxX2J3NjUxMlR6emRza2hOeGEySUFlR1IwLUFMNGhOd0VjMEYwWU1lbDFQRjFOWGkwcTVmQVVTS3pGczM4UUUzX093TXFEMEpmNW1LUQ?oc=5" xr:uid="{9714395C-AAA5-47EB-B44F-F7517AC208BD}"/>
+    <hyperlink ref="C104" r:id="rId62" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxPMFpBYjRfakh4ekpweTM2R1FzLTh0cjlraUUzWndYYXVQUHE2NnQ3QjhQT0ZReE1IV0NpLWNHenpkNm53U2YyaTQ4X05DQjMwWDZQaUZ5QXljaDQwWUlqVWllbG15bEpVVnlNNzR3MVFRYXZpQ0N0dVFhT2FIcUxSNjJsanppNVM5aFQtTUZTZFc3RUZ5UXpLZ3RQUThMZVM5VWVnUDY4WEFucFFwSm1WN1dzYkxtTTF1N0HSAb8BQVVfeXFMUFNFcWlJMHlPMU5jMUl3QWI0OU5Cb285czRxcTFpaUhtSW5ZY1czWTc1Y2xXQkFoMUlaMTJQSkM1LVlsTUdvUnlHRGZ1Yml6OFRxc0NFRmRPWGM0bzlPSWNZWEwtcHBvZzVSVUxGa2txY0xkbGg1TDlIWGVPWWlLZzFwRUJ2dzV2MlB6VnNIMTdxeWV0LWpFR254eFJjbE4tNXVZcG14dWkzWmhsakQ5SXZqdndUTHAzMjB3ZTdoSmc?oc=5" xr:uid="{8B2EE6D5-250A-492A-A8D0-A62868055F8A}"/>
+    <hyperlink ref="C105" r:id="rId63" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxOaGc1eWFvX2g2UUUzQ0xMUnFuTHZ0VUlIUk80cC1iV3lFLXlfZ0dldmhXMW5pZEZySVQ0WWNZbDFQQURNYlNueUk3aDJ2X0hvWVlYVm5OM0c3S0dBNVhuNld2Sl80M2tJQ2lJRlBhRkRZaGFkVTUxYnpwLTg2SUNYcmpsamtDakhuQWhPMkxfRTBEQTBMdEdybm5NR1hYTXowSFl0SjJKcGR2ekJvVXJzdnhkOS0wSUZteVlabEo2Skk4M2dVN3R1aTEwWm1rMDlGRUZEbzVVWEE2bjlKM21yc216MGxPbVHSAYICQVVfeXFMTjNOYnlKXzFLbURlWTk2R1VPWlRNT091V0l2REU4MnZwT3AtejNFaFVfMmEwd3N6c2s2UFFWbDNmTGRPSXVIdWlZVXB1a19VQkZNR1hoV25yODYtMUJGWkUyanJOczV6YUhxV3NNSjJ3RmszRlVpUGRBSVdFUHBySDlIX2F0SlBNVmZqc3JUVW51QzMwYkFZZENXNjFOTmpoUDVGSjRHR1BSSkgyTjFiMk9mSEstU0staV9lQk9RQUoyUmpkTHpNcVJacVFxQ0tiakw1ODBOd0VfOU1EREdmNTFoUlkzQ1k5NzlhdmxyQklsSU9KMjltMWMwYUFQaHZPQl93?oc=5" xr:uid="{DF615248-CD3E-4C90-A5F6-6BBE05E294CD}"/>
+    <hyperlink ref="C106" r:id="rId64" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxOcmp2MmRncG5nSXM0WGJFSlJPNkRieXdUdEpJY2RCd2JFRlN6RFA0QmF0RGFzZkNLMlUtSmRleWdhZVZxekRrMDU1ZGV5aVBOMzhIbl81cXVxODhJOUt1S1dlbFFLVjNDWFhJU1NCaWUtWGk1QlFrWmctRTZOc1R4YjVfYkRBaFppYVlTSXVWdEVmaVJNVmYwd2FaZE1EZ1h4dU16Q2JWXzlkdmJLS01XMWUyQTV2c2R1aVU1dkgzYWRiNnhhY21mVTh0c2JXNG9WOEtUMTl4aEh6Vmtudy1PZGRvcENGU1RDZmpkNE5TYlRxSnZN0gGPAkFVX3lxTE9iNlk1dXFoZ2dHamFrRUtkQkpyUmdaOFBITWdYLVZUX1lvbHNtWjEyS3J2OS1ScDhSMzRuWnJHV0hPN0l6S2QxdkxrdHpLQ21lN2dGN1JMQUZvZUJTT3ptOENzMEIteTJSdndXeDhyUWdnWWlyWktrYWF5SWoxNHNOV2ZHblAtOVc0TFdpRnJCb2N4aTZueXljYTVkMU13dnIwZTlFNmZ5MGxvSGgxYTE3Yl9QZ2RPTDFpNnFDOVlBLU1kYmduM0pfOXMwbW5wODRodGJnZUVOWmdwUndWUjB6VHlqLVU0RjExT0dwd2ZyNURXSHJELXdsclVNNkxhUEJpREdUMTl5b3drWXNwZDg?oc=5" xr:uid="{2C1C35DF-7641-4272-B01F-A0788945F352}"/>
+    <hyperlink ref="C107" r:id="rId65" display="https://news.google.com/rss/articles/CBMi4gFBVV95cUxOS0lENjFuNTh0OC0tR0IxMHRaZnJjSXpGMk9rVlI1NkNBeDAwTlhtLVVDcE1ZVUJtdFZhbGctQ3kyZWpKNTZsWS1Ba05UUkhJMjI5c1R6QnY0UFAxU3lMUEc4TVFCVFBpajJNMHA1RXNQM2VWd1N6Zy1yRUkzVEJ5cFlXb3NpSUhBUTZnaUx6ZWxjX1oybk5xdlRYMGNpbzBzR3puelhHMXI4ZExUMG82TEszWkZDUTlZeEJ5SDYzaGdia0s2dTREWjVoQTVtMEdaOEhpUXpJTWF0QVJhYnFhRHhB0gH8AUFVX3lxTE8xQV9nNkhHTlk0b3kxMnlud1IyRFFKZE5YaG5wU185aGVXRzRYWGQyTVB0WlQ2d2lHSHRlSzlNelRKM19aTWV6MjZoaFcycnFfbDhwQXVtNkF5SHlJWXh5cVhDbjlQdTJreDk1TVFUbm9LNmNVTUlaeG55R3g2Zk1TNDROSjY2emYxTmVLeEZya0QxbDhpMmxsSnQyVmtRbVBBcXktTWdGLTVHT0lLNE5sU1E2VURSSG5JZ2NWVWZpamgyOHhOOHpsXzZaU0FDenloZF9RY2RiUWllZ1dvNzZkWVhmSXRKY1BWQmp6U01BM1ZUcUR1X3poUmVOaQ?oc=5" xr:uid="{77975285-9791-4803-975A-B3D4DAC3123A}"/>
+    <hyperlink ref="C108" r:id="rId66" display="https://news.google.com/rss/articles/CBMi8AFBVV95cUxOS2o0dWNPY1dhX2d5WktzY2wyNUVRamxXTXhobWdQOXVkQm5TajFZN0l4bEt4YUo4WlpMU2g4OEllV2N3VjdGLVhoRExIaFczTDdRR1dJdVlNOWtoZFl2VTZ0RnZBUXp0VHptLUdJRnk4TmZEbVBaMXRWdmRzTTNtbHdUbWgyVmU0SW4zZmJsV3hsaUV0d0VnVDdCQk5CWHdRMDdwY2NjTDBOS3pGRkZSc29fZmwwaTQtdnRKX2lVQVlQVEdNMUlJQndvbFRYSzctLXRvaFdzMHlNcm9LYTE5N0ZKeFZ0Rk9tTS1GTnRUdUvSAYQCQVVfeXFMUGVZWXM3NUlISDJFNkxUM3lqUVhQSTF1YVc3TU9ad2MxOWtkVk5sdG5OTEJxejJzTHpSVTJ4VGdaeERqWmVqdzFldjJMRHlrRmFqdHJFZkZQbGdVTngwaVZKdVAtNXhFbFo0T0JENW9FUjlUeGV3blBtdWFrSUZ0ZEt6d0FJaVhZdmtLY2VTUFhydXg5WGpSVTBudy0wM0JYSlVQdDVRc2V0NHZlbGhqYzZkeG5EM3A2TGxDd2NNeG56TWJIYktqTXhyX291cEJlbkJFcEJCXzZpTC14N0FUYWtoZENRdm90c1lGNDNjSzdlV2czczFHTlB5SkdoREN4SlN1ZkU?oc=5" xr:uid="{12DE8BA3-8E79-48CC-824E-658FE1CFE433}"/>
+    <hyperlink ref="C109" r:id="rId67" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxPbkZWeFhlT1BkOHlzbWh5ZUdTbC1Xcm1PVTY3U0JiV2hybFZCMnBZajRFMEhmNHJnVDM1TlFuV3oxRTNuUGFmMW12M3NfUUFXUmtwVGxlSWdwM0VXTmkyLVZBblBMaXluWnRwOWFUbjVKWWs1a25FdVFCbUo2X3NJRGZ1djJzWnJDZWpZNXhxenQ4UWgtSWJDME5CRGNQVGtPRDQ5Qm44VEVtXzkxa0YwY2t5Z1lJWE5lZ1hJTkt1T0s4R2p4MjFz0gHMAUFVX3lxTE5xV3IzMzZVQVJaQWRpVk5GemlfSkcxc3JrYUtaSGRCX1NfZVNqNC1NUXhvNUw3SU1aVGdJbERSSWxQaGZNTG1VTFF4aFVkYmFYbjZ4UDdvekcwbzl3OTI5eVRvbUhqTWo5emNhOUFoY0NuTjdJMEFWWXBja2l1Y1ZHWHo0MWU0M21zRmFwSGxqbFZnQ1dISUxUTVRIWXlPTzBpaEZpdFpsaWhIbHNqN0c3cVlNMExCOXNEcmEzZnJweFo4RkZ0WEt2bDBUcg?oc=5" xr:uid="{3DDF57CA-3F7F-4FD5-939A-7C7313B7312E}"/>
+    <hyperlink ref="C110" r:id="rId68" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxQV0ZEQUZtNFVfTmhReU0yVUp6aUV5bXRMZVEzcDc0ZXBZRUFZMGxwVWc3N1lhOWY5a1AtZXluRWZxLTF4WVVkMU5YUUF0WVlpaDhHMENPRzQtRUZrOVBMRTFmR0tSbWRzRlNUbUZMWVFkOVE0YVBPWUxORGMtdUhYMnJ2T1ZUVTNJYnROOGxHc1cxY2pvT080RG95eENHYlRYNGYxMjQ2YWRPSW5ZcmhxMkpNeEE4SzByZGZmStIBwgFBVV95cUxOUmQtS3NNdVpIZFFobUZsX1F3TUxCdk85Y015NHU3WlJ5elgybTNjSzlab3VDd3RDZnZKSldqcTJ4a0RaS1FPaW9ub2pXbkwzdVRYREZEekczaDZoelZfQlI1VGt5TzdseTBNU01yRzRfTzc1dlNIRlh5RWgybFBhU1NKR3NrcGZhVmVzWDJWeWVBWGdKNXdudXM1QzRDMDR4RFI1dExGelNTcXZ0OFEtb1VHWC13Y2dPdEEwbjd1SmlrQQ?oc=5" xr:uid="{99733199-7DC6-4B0D-9C95-4C372AE62004}"/>
+    <hyperlink ref="C111" r:id="rId69" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxOM2ZiZW00NEVMV0R3SGcwRGdnRUlhODZIR1BBa1Z5OUdKMzJ0enM3UjlXNXAyTDdDX2w5aUxSY2NqcDhiWGtXaXFvZUZzd2RFZ3lsWVBURjRMWHo5Ykl6RG5hRzlsYlVQcnBxWk1BaUJxMk9HV05OdGdad2g0SGpHS3QyOGZWcnlzR19IdGV0eTIxYjFKZmtnU0VSdEQzcE9EY0ZSU2JTeV9iTnRxTXB2dGhSVVRTVExpcUxmQXM0aFd0ejRaVTZPZjktMlVTSENLcWtsQmFVOXBfRkppbHlBQ2RLdGNIODJQMU1FMHhrZVREM0hTQW5NdmpEV3pGa2ZG?oc=5" xr:uid="{83FEF726-7F6E-440A-A7E0-B71F3D60BD49}"/>
+    <hyperlink ref="C112" r:id="rId70" display="https://news.google.com/rss/articles/CBMi3wFBVV95cUxPNG1ITHBZc2d6blB2Z2sybHhfZmdmc3R1RFlCLUJMXzJLellNTHBhYVlYVDhFYXZyQzA4TkhNMlJmVFk5NDA4UU1VVnc1R0lNMlBEYU0tbVdYa0ZUWk5rWG0yX2IyUTROMWYyMHJaRGZWYk9odUZYa2RlZzVnRTlwcFlYalhic0xlZkhWb01adDNrSm9SRG5peVFzR1hWcHRvUUZLYXlrMzhRMkhOMVN5ejZka3lyTVVSWUh5aFNhNUVGQzVLYUFUY3pvdVFCd05xZHVWaW4xN1N3SHZlU2xj0gHkAUFVX3lxTFB2X2FHWVZGQjFxNm4taTVoamFsNkZtMFpUOThUNTJwTHhOakQ5Rjk5WVN1NGlwX1otUEZtWEhPOURMdGV5Z0dhVnF2NzVKMHgtdE9fR3JTSUVIUFJDekU5TTFmMmpadnpSWGtpSWJ4YlpSQWZpWVJBb0RVcDNoTy1lcXd5Z3RxeElKVS0zaE1pNEdoeWIydUI1RVBqNUJXZ0lhUnZ4eFpoc1p4c05Ra2t5Tlpkc1JpZTN3aWVWTV84d2EyYXFENG1uVm0wMGRqWE5PSnJMWE1CSFUzX3c1dEJQVGZWZw?oc=5" xr:uid="{BC0B724E-DB8E-4ED6-A856-5C66BBA5F9C1}"/>
+    <hyperlink ref="C113" r:id="rId71" display="https://news.google.com/rss/articles/CBMiqAFBVV95cUxPNUlDUDB5OExWT1BMd1NCRk82dVlzUkU2X284d3YtUE0yV1FrMkZNaHlNaUtQZWFXdDdXUWdFdGxqMjFTX0t4VFFucFEycktfdU43ZTBIZi1hRjlXbnRyRHU5eDZaeUZJQUpSQ2xpMC1lRWtqcThvYkdsZDBDWEJTWFp4U2FBYTdQVmJ4SURfWlZXeU1zOEw4Sm9Kc2tsZ3p5aGU4Z3NPVDg?oc=5" xr:uid="{1A41903B-23F0-4C74-B8CF-FCEAC31C6205}"/>
+    <hyperlink ref="C114" r:id="rId72" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxOMFV2QnpjanJYSVU0WlQ0OGtqSW9xd3NpOTczVUp2S2VFWDZkTWJNZHZfY2hkekxraEpySHRKNW1xNGxvejR1NWV2YXktdzU2V3I1cVFJUlVuWGhWU1EzeFZmeGM4b0drdzJhRlpQV3pwRmFyS0pjak92d0MzakJlR09XNEZaWXJHZ01oWEFYaWtkTlN4WHlVa2VwRUlUZ0RCRm9mYWp1cGtNVkQ2VS1ydkVFTUtBdkVQT2VMVNIBvAFBVV95cUxPZ3VmeTJxMlhnOHROMVQwRFI0NWY4R1hKcDdVZ29nTHZtc2ZMMjVDWDE4QmpFc0x2bUI4dmRxWWNpakc1VE0zR3JfbkUtYXhtNzFwVmZpVXVLVGJlSlA2TEMwVVpjV2lwanJMZS1MYVZFbnR2OXAwSUEtRnFlRkt2TlF0SUZVbjd2UW1vZzBPY0NaTHNyV3FLY3BXNGlkbjJtbk9DU3dmLWRkMmE0Ny05U0pwVmEya1Q2QXo3dQ?oc=5" xr:uid="{33040D95-BADE-42F1-AF88-8FE7C73A693E}"/>
+    <hyperlink ref="C115" r:id="rId73" display="https://news.google.com/rss/articles/CBMi9wFBVV95cUxOelpYUk4zQzI2S3JldUFXb0hXeGNkSXJKVGZEN2FFbTlBVlI0NHBkdDBVUGZ5Vk1SVkJkWHBWOEhFTDJtT1AydThfbWJyZU9oY2c0UTNDZG9oNEVhUDVObmNiZ1VIVEpWblV2ZWJERE1aMGx5SzRwOWc4TmNPM0V1eUY5TU9seDZ0Z3NmY005akQweUlNSzdVMi1nZXdGbVNzeVphc1QwQ3lUR2Rad1FuZmpZTGJ6MVgwU1hXZklCa1psSUtkd29tdEoxOXZZc2ZuRU55M3o5LUd1Nl9zZy1veDhiMmZVaUxqUjNOZ0M4a0ZtbUI2UjNR0gH8AUFVX3lxTE9HWHBvMzJKWGlkejN0eENLa1N2T0JkV1VUNlFnazlLX2VXQkQyQ0FlbG53UThvQWUzMVpkU2FIZDZ1djE3bDJuaWtJWUdVZjFKSnBxRHlxRnoxOG5BSTNQNzhBaVZIZS1IYUp0WEstUmhKZ1E3dHhOSjNTNllwdDBmTkRRVnBYbE44T0VMMVBvSElFSWJ4eFlZMlBIRFBETWpTYm1PZnBOb3dEOFkxQ2k5eEFLUWdWSWpoNExHLUZsYVVUTEJHcUdaYlBZM2dTc0VoX0RlTlVvZjZPZFoyLVoydXpNTTZLcUszV1NsMXJ0eWxrbThmNjFNaFZ6bw?oc=5" xr:uid="{24FB798D-6166-43C6-B26E-040B9A50DADB}"/>
+    <hyperlink ref="C116" r:id="rId74" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxNVmtnallVTEU5bkpXSWhnanBiNWt1MHNNV01TS1lmR1NGWXM1ckpkLVBZWXBjYW5oaXYza2ZJQnJZWGgtSnFfcG5zTi04UjlocXlBOG12QUk1N2hnOWJfNVNQLUIzTWFlUVVrOE40S090bWVTem5KVGlYZFdhU2hLOGRwN2ZoR1FGZ1l4ZjF5SFpXWjkyNGdIM1hjd0pLZTM0NGx3RVBibHdkZw?oc=5" xr:uid="{EC1F359B-154E-4384-8F12-6380A4F09DDA}"/>
+    <hyperlink ref="C117" r:id="rId75" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxNcUNfclhqRzBpTE83QURRSlVaSnhLREVTRlAyUm1sclJvOFlPbE5yNXBiWG1NUDg1YUhZcUJoOWplY25KUTVmYm1hOF9iWkQ2M1JULWlZeWVSVFF5Y01CaEhBbXduM2dEcXFIckh1MzJ1RlpRLTQ5ckE1ei1idWJpTWY4Y0Z4aEkxVjFramFkRkFocktuRGxNMUt2QjNGeTBtWTRtZ3JtakZ6NTBhTUJzRjMxbnZYd1FoVlc5YnR6ZzdINXBn?oc=5" xr:uid="{A08139D7-D1A7-47F2-9851-B0F20A4ED334}"/>
+    <hyperlink ref="C118" r:id="rId76" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcHV4aTI5NjJsRnFIeGREdXh0bzU3OGF2dW4xRmExR09aSThRbTBCd0djR1pNTkM4V0RldkdoTjE3MFlNZ19pQWpRWGVfbEJEVjY1cUVNa2tIVzBWREQ0cVNtajV3UzJMZ3ctWElfOEhialBfZHFtdmJ1QWlQeFJqcXJyMHhUeWFYWVBTbU1reE1iZUhUOUtpaVExVzlRaDA5OGplYV9pWHFxLVg2MnJOMnhubks2X1B0N1NiWnRMOGFzSWFpQXhZQw?oc=5" xr:uid="{ECA9A43E-D15D-4E55-A003-6B67DD589AF1}"/>
+    <hyperlink ref="C119" r:id="rId77" display="https://news.google.com/rss/articles/CBMi3gFBVV95cUxNWUk1WUgwd25XZGQ2eFdPdkJVZ1FiWThyQ0o2YVlMcm5JaFRpZGZUbmttdE1kYWlaTlRBUzBpMVNScUVnc0VsT0hacXptZ3hkLV9vcXpRcVNhLVl5ZVlaTU5vcWk0c1FMYzB0U3dQRnlHUXBmLXZsM2Z6VzJrc2RXVGpRTG1taWdOYnpCblVzbkdvWV9xbHNkLVVQenBxSmdrb2haeEhjWnpxZjlJYnhRYUVpSUNQbzVwbkhYWXI0cTZiMDQ3aHVYZ0tEcmVyUHdDMmxDOGdVMS1lNnhzWVE?oc=5" xr:uid="{8B09A702-0491-453A-B5F8-DCA11234203A}"/>
+    <hyperlink ref="C120" r:id="rId78" display="https://news.google.com/rss/articles/CBMiiwJBVV95cUxNUzRBRWtmNHU2VzNMODBLd1Y5emNXRG41QWhMaE9QT180bVVnbkg5eDREVnNPa0g3am5IQjRUeW1ZNFpnSUFhOUsxRjBqZldJd3hLdUNhNUNtdFNvRGY0SXRRRnF4d1VlcnVfYnFsNFlqYnAxNEJWdXVtV3dxREV4OFhtaXdvZG5PUllZam5FWnpzT2xhNmlKVFE1WVBZcTdEbzI3eXp1S0U5aEdWV3k2bmlBa2hoSG5ibE9RQjlQQ014VmpsVzNNSk1wS0JEeTBoN05YdGNhUUtjZXM2TFhCSjl2OHViLTVSLWVOMlVIT1ZtZW14cFZOWUVaM1piNmVpQkhySzlYRFFoeUnSAaYCQVVfeXFMT3MzR1dnakhQREhsRVJnSHJwd21kZ2RFdG5aNjVhTTJMbU52bWlua2lCNXRSSUpjQ0N3ME1YN2E0ZzhLNHVJNXhaR29vQ3FNUjE0VTNMQTUtU1BPeTZPcXI1b0R3T3V2MGxER0JVTEg1cFNNdmJfbk5pV2NpZW1jNElOR3JZMjBWQTNtNU5Oc3BPQjlvTTh1aTJKUXFHZlRTZDVJRnBqQXZqaWF2cktYd2lleW9NdllMR3BJTk5vc3p5Z2s2eEdaVDdiMk85X3gwa3ZoZThWdF9UVU9lanlFWUlqT3VROVJvTUx0Nlp5a085Zy1Tb2M1TjVMRDlVejZoQ090RDZkdXNjQmNXVndLRVlZdkxwdDNReEp0WTJyVTR2UThlRGdR?oc=5" xr:uid="{002CB398-DC48-4997-B798-3D8E0D7C30FD}"/>
+    <hyperlink ref="C121" r:id="rId79" display="https://news.google.com/rss/articles/CBMigAJBVV95cUxNT09sWTVabWtITnZRQUNTMjZjVzV3QWZnbXotZjFRU2lBQnduaVBFa0JVVE5RRndnb3gwVW1WXzBBOUtza1dKakFzYjU3N0d4YklBZHBQOE1VcFlVYUJnYTc5cjItd0daTXU5dk95S3g3WWVvRDNpY3NQMGVnMmN0RkNWUHRROWZ5eGp5NU1CSmxaNmNLRmJoOWdsZURoWUhoODhRLUU0TEIwT2ZwVkNQM0RNWjhCaV9CZHhyX3JwSVEtZlFPV0ZsNU04Q3RJTldNcFpRRWVaRUszcXFzUGo5T0NpZTJnUzlxSzZBN3BJU0hJYkhHdXRyRWx5VlBZSGl20gGbAkFVX3lxTE1MWFFEWHJ6RzR4OFZ2dlZmTE00TUFUeWE0X2NpcTUxVVpEYW5wNnhxMFY0YWZUeldSaDhMV2tjNWp5cm9hNXBseTBMcUtHSXpsQVFuN2dzUTRsYXNUZWlMRjZqVnY2WERHckhPZ3pvWnJRejkycTV2dDFyT0FJUXBzanlkU0hIcXNOODI1T0dMYmxubVNINnJ1MHlfM3hHWDd2R2czVXFmMWhFTmxVVTdCbTN6YXVZSF9mcXhGUDdvMXZ5MjFUamtYMmhWcUpRMjVpNFBzVGQ1UWVqY3ZSUEcybmRkcWFTSHVPeU1IS0FRS2VkQUNuY0dpcUdwbXFMY2g1Y0dUdi1aQlpFV2JnQ0JLaVc5SHNzMXVqNE0?oc=5" xr:uid="{9632D537-9F42-4277-BFDD-5EA342669F99}"/>
+    <hyperlink ref="C122" r:id="rId80" xr:uid="{084CA6ED-03A7-4216-ABA3-942529BB4784}"/>
+    <hyperlink ref="C123" r:id="rId81" xr:uid="{D8F36D05-D831-47BE-B731-8418174A8517}"/>
+    <hyperlink ref="C124" r:id="rId82" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxOYjBDU0lLckN3T1dDZndiWEIyMnNTdXl1RVhCc0QwX1RKV2JtMVA0YXpvNEhKWm84YnNPVFNqN1hkWTNWX0pRVW1uSmtSRG1vVFBkbjdmRy15SGc1ZHQwVXE3MVQxNUU1R0VPbkR4QlRsUHJaSXlyajAxY01mSTRRc1NOTVhvbGJYTVdqc1h3TFUtLXcySGtzZEdqcHdZODRCejRyQjlkZ0x3RmNyS0dwbw?oc=5" xr:uid="{F08CAD1C-7F7D-4267-B2EE-29AF82EAE664}"/>
+    <hyperlink ref="C125" r:id="rId83" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxORWthcGk2dXY1dy1qamJ4ZlVnN0Njb3hRSW9tOGdQOURNU09YOXRrYVRUUk55a1BmeXp2MGgzY0s0cENIVXFtZzU5MjAyaTZJZG5tQWx3ZHB3Mml1d3Z1eDlOSFNQZUY5TG9wbU5tVmlURGNTcGZwaGdWcDJsVVNHdnlaNDJJdGpFM1dFdWtyZF84MnJhMXphRXhiazBwX0NL?oc=5" xr:uid="{DB13478C-AAD6-4A3F-A0B4-3B2B84A1B264}"/>
+    <hyperlink ref="C129" r:id="rId84" xr:uid="{75B0E621-54C7-4353-A5C2-6B990D95395E}"/>
+    <hyperlink ref="C130" r:id="rId85" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNZ3ctQjgtX2ozX3lsQUNzME12UnAtRFBFbGVUeDFWRTRkTnRYazV6MVdYcTdTUGJCeUxqXzdiS2VzNUplb3A0R1NwT2lIS3Z4UWw2cm1SazFHUG9fVXpSdlZZenhnN3pxN1MydTdTU3BIVnp5MXpQbUFGTmZfTW1mLWNNVTFfR2xhLUVyeXp3ZEl4dDBJWFk5b3l4NG9Bajl1MzVIb0c1LTlzWkFTZVVIenhBYTg1d1pNNHp6d2pkeTlienJ5X0ZEaDVfY3rSAdoBQVVfeXFMTTRVV1lqMEhzWldNQ01pVFRaMmlhZ1QxNVVYY0w5VXpnSE9pRVFkRXpSajZwbTI4TFdad2J2LS1wQThieEVlMkhFRVVSZVUtMFdTN2RRVXhUX0NzdjhLT1YyUG1OX3pMOWFWbmNNbXRQRjVOR09iVXRMS3V4MnR1V3gzNXdWdjNEYkpXSXpqWmNrRlRpSHY5QW9hclVuanhuaE1CTURuREZCSkVwTTE3YTcwUUwzYnpia28yNlo5RXp6TmZFUGFOYTRaMjhyWGtUdDFVVGFEWUdWUXc?oc=5" xr:uid="{6D84838F-91D9-4D71-B001-8ECE663AF1E8}"/>
+    <hyperlink ref="C132" r:id="rId86" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxQLUxNRkk1aTdJNnhiUFl5czRQZFA0OHZ3YnBDeF90UWlyMUxISmhDVWhScngtT3VqZDQyRVhtX0RQM3lucGNtOHRVbUNCUmttTHJseW9GTDdhV3A2S3R3MjdxNVN5WjBydWxPQS1DcjFyZUxkeFJFSWJpMlhDZGFnYWxCZGxOaGh0Y2NmdGRWc2EzSXNUelBXRVd4MXctRk5BQmFVekxPY3FUTWZLTF9sajNBeUcxYjZ6SFZzVjZwTk1jRGJk0gHKAUFVX3lxTE5hd1pQdHJxTUFwbDVTVHVzTWRRM0FjVFNBTGYwbFR5aXBQRWtKVHd5SjItaHBvQ0R5RDZaZ0xtTThoaXlReFVoRjdFeWtTZVlPWXhUTE94QVZkYVkydjlIT0ZNczJFZVktRVVBRHFDZ3pBUk9EMGpnU0cwTjJTRWtSNV9VejQ3UTlXb2tkQ3NXalk5YjBEOFBrUGU4Uk04WG51Y0txZlpxUGdsSzlzZzhGVE0xOUkzMExZQ3N0b09JZ3hoM3pRMWR4SFE?oc=5" xr:uid="{3C7E8C04-881E-4371-89B0-2AB1ED0255B2}"/>
+    <hyperlink ref="C133" r:id="rId87" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxQc1BTZk9ybnNqUWRxZlB1YU5DemtvaFZ1VWV2UW5MSVRPdExNTUl5RThGOXhRam10RlFVbXNEak4xRVBPUXFtVUJhVHE3ZHJOY19nV0c5MzRXeDBYZ2MwVmx5UXRiMTYyNFgtN0RvajFmd3NxVWhGb3FYU3ctQWNYNkNLMXlwQXNJUnd4T0FjYmV6eGdvbFlJYmFpMTZyUXdBVWI1TzM5MA?oc=5" xr:uid="{5357BD15-9781-4ECF-AFDD-096F9A86D206}"/>
+    <hyperlink ref="C134" r:id="rId88" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxQVUlNeEJITXhOVlY4UmtQdGxOemxfVjVGTVJqemVYcVhYSEo0V01qb0xXZUotOTBJX1dvdjRfbXd5VjYxNGU3emNaUVRMV3M1ODZyeWJCNlBMMjdiaUNQODJhMHRUSnpDU05MSU5IM3ZQcC1fQUE5X2dQZTAwZmpmbE5EVF9EX05aRVg5MVplYjhtb0ZCSjNIMHpmUHlmQlh1TDBHX0Z4bnZxX1k4eUkzdWJnaDRVX0ZxQlBxZmJmRXl4VGZLekJaTkVfRXJHYXd3N0tnZ1Q0QjN4YTVyN29vSFRBUUhVRG4yQWEw?oc=5" xr:uid="{8641D7FB-6A12-4382-BCBB-A88C41ECF96D}"/>
+    <hyperlink ref="C135" r:id="rId89" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxOSmluX2p0RHZSc185aXRGQXZBbVlocFdZaWRQbHZYUl8xa3pHdmt6VVJVUWpjOW1fSjc3SHppNG01OG5HXzFhRkVFdVlFM1JEQnd4Ml82b3ZFNXRxMmpLcU5rb1RGSHMyZ1RNNVgwRnhORlJjdWpYOW1rYl91SDBZTWRfSU9Oeld3NnhkUWNhd3IxMDktc3VJcmZXTHpFNjBPVE5lZFJ2aGsxSHNReGRQb3h4UmNjdHJJYUVLMlcwQjg1SVJLUk1nSmtzRjFsRXl2UWEwOTk5c3FwaFNUN1B6ZmExVnQydw?oc=5" xr:uid="{B4329334-9E59-4E12-8183-9093C00C0BEF}"/>
+    <hyperlink ref="C136" r:id="rId90" display="https://news.google.com/rss/articles/CBMisgFBVV95cUxQejFwWU5NbnhidnRKV0xOSW5NbGQzT3ZVYzcxMU9QUlVlS21PMmNVOUN0aGtTV2Y3dkw0aC0xZ0dta2hSQXVjeDhlZEp5N2FwWkR1c3B2ZE45Vm5BdXJBd2ViYzBoUzZkNjVMNUtHTWlsVFFMOGdxS3ptVU5wNjA3MjZoQmdwS3FKaktKRkJxbTJ5aF8wUXdtUHJzMi1UR3BSZGtPTVNXR25VX0d4WmItYldn?oc=5" xr:uid="{87860099-E486-44E0-9901-E9497AADD882}"/>
+    <hyperlink ref="C137" r:id="rId91" display="https://news.google.com/rss/articles/CBMitAJBVV95cUxOSWMzV0x4VGg3X0JtMkdXTEdGWHdtVEZuMGxuUkJMNlJlZWxwVG84NkhoelBFenZnUmdPSzROdTltSS1FdnMxN3RqLUtBcW9jbUx5R1Q0MGNpSE1RU2Q3MndXbTl3ZzFlQUVKUGJBQmJrVk9kRUtMSjlUSUsyYjg2QVRCQTZPWjE1Y0hZWXp0RWYyN3JEWFZXYUZPZFVKd2hNUWNFMm5QTnNsdU5xblBXejY3ODU3MExoUmVSbUkzbng5Zy1xLTB5X3VneVpTX3lBVU1XZGhpblVmOGpFM1RBVVRvY1FUQXVEcFR5aHN2dWtCb05LSkdXdXRXcE5qM1RFdkhvdlY5TEZkbHhFWnNVYk1vMk13SlFxUDB4elFqNHBMM1BzdFZXS2VrVzNRdTNpTTZkYdIBugJBVV95cUxOX3FrTThnS1BwNmtlNTNOdXUzSUJLdWZVb01oby1xWExGdFg2U3FUeG0wdDFmNGYza0FkTzBpVmVDWkt6YnAxUEN5MFlrdXFXa09HQWRiZGlKanpVcFZxNVRHX21aNUNxd2U0QXBVckpZSm1kUko1Sk0zc1VsaXpucnQtazZvcXhPVFpTYUlyYk1SNVd1czhyQ0JVNEZTZW9TbU5qRG04RENtM0pxZ3E1S3RvWDE2UmkzRGxjRHUzNk81eF83bkZJb3NGamJmSy00WGxLZVBwUF9rSTNJOUl5bklETlY5Vi1Tc1VZZU54TzJuZi1Tb2RXc2huNVlJQjJKWEVMdUlXZ19ZVHMxNjFyY2NldGZWeVdLMTV0MDUzb0tmM09kSXRjUHFZUjRmcFJSMDFjem13S1NCZw?oc=5" xr:uid="{5CD68F9F-E25A-4E0C-9178-BFA3B1F6A1FB}"/>
+    <hyperlink ref="C138" r:id="rId92" display="https://news.google.com/rss/articles/CBMi6wFBVV95cUxQMUx4WGRBc1ZwZWtRZkJQTWVQVGFfbVQ5Z1VWMmtMLWN5bEVSMHdERF9NX2pMNzU4NmZPdXQ0N05Gdy13SmFKMjg5TlIxR1U2VUczbVZRaU9UNjdyMW1lQ24xcXIwWEx0enk5dHlUdnlBNnlGRGVIajBhOFpqYWpZeEYxLWpwRHZ6bzJvckpXUC15bkJMRzlSQnRLemxYMVRzUlNmWTJsaXl1T1ZQbllyR0NFYjlfTk1mcUh4YXZOX2hlVDhSRlRnV2l2eG91bDl0dzYtU2RMYTFOaFU0RGJaT2lvNG9RU2VNVF9j?oc=5" xr:uid="{241C3BFE-86D6-46E5-9336-F295B15F01E2}"/>
+    <hyperlink ref="C139" r:id="rId93" display="https://news.google.com/rss/articles/CBMi5wFBVV95cUxONE44LUx3UGR5T3A0UmtKOENRWGwtVHN5cVJMQl9aZzlTekZsZTBYR240T29LaVNXWVVKbkl0WmRVeGlWM0xESmgwcEdtYjluWlpScWgyQnRFb3FZUjB2XzVWOWp4RlEzOXFNbW41NDJ3Uk5BUF9qbTdwZkppc0ZsRGlzU0NtU1BHcEpFRldFQlM4dkd2NTFoQ3pESlZKVzRtUEpmREtFb3JGUnZuUFZzdGZlNzFjbnRTemNNZGR0SGF4bHlDQ1dkaktLQzBtRGszb1BlSUV0RGFiU25pcWhKWVVNbkNSMmfSAYICQVVfeXFMTVloNVk5ak9iRGdOd3hqRzRhdFN4WHRQVm1VbGxfWVVhMGxFY1drU2ladW42UzhGeUVJMlU0b1BPT3FvQ0YyTWNKRXZFY1VjNXM5RFctZy1xTlJIeEFPcUJTYkRtamVXcDZKakZBNjhDMXc5RlBSTzlnZ0N5WVFDbldibWJBdjFpS3RVUnRYUnkwY0R3c1g3QzZhSTZpUTRLRUVOaGNIVUlsWDZWX3NNYVlDMHZmblNDQ2FyVWNPb0kwT3pDR0U1ZlRMSUN6UDdEU1Rtc1QzMnRlSEZEd2I3ckMzRjBOaUdKakJrbl8wNG5RTDY5OUUwNWM2cVhlaHZYVy13?oc=5" xr:uid="{E58956CE-40C8-4530-B200-0CE44DEBFBF6}"/>
+    <hyperlink ref="C140" r:id="rId94" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxQNDRMTnNqNlJEYnE1YWVhSUItRXFrSTREdUQ4Y0xyTGRiZ2h5eEQ3RXh4anBzd3o4MkFhdjEzLXhSaE01OGRYZzkyUk05Q3l1Q2lwRWRBbGxjYm1vd0ZkMFctc0hSbGx6TmdzU2p5MzczV1gzQXRNQjN1cVpMZUx1TGxrV2dneU1VTFhZRGpIc1BLQkdUcWZmNDFfZlJNQS1yX3FIbkl6eWltS2c2QjBSeFJmX3VrTXB0WEpHVlQ0dTNjb0E3ZlpIclFnUjlCb3BocXFpNk03d2RtSXVuUF9BRE5qZw?oc=5" xr:uid="{2FDC78E1-E1E0-41EA-ADF3-D026047679ED}"/>
+    <hyperlink ref="C141" r:id="rId95" display="https://news.google.com/rss/articles/CBMimwJBVV95cUxONHlhS3Z6LUVZT3h0Q1NlU0JranpJZVQwWXJaeWZveTRxcWJJVGZGU0Y0M3RSM0k5VkQyd29icktoWDY2VmtGMEo4VURiQ2NrYVFNUEJhal9QOG41QVM0eElEdHJXcnk0NkhVdWJRajhGeWVYeUhzamxmX3NjaDRfSzRYUDFUODhpS1c1dk9WdWVtUFRxc0QtTWhzYmIwbFpFUWhSUlROQmZlb00tdFJIb1lKdm9MODhiai0wak11TFFNMkY1bXMxZk9EN3VndWZ0RGNrcGFqc2FMWENLWjNKQUZFUUc3UGoyeWh6UWVRQjJab3ljRjN2TnNPLWpuQXRtbjlTS25kb0htcVBlcE1oQ05XaDhyNXp5UWJr?oc=5" xr:uid="{1B809F80-D08D-4318-BA11-B349A4CCF82E}"/>
+    <hyperlink ref="C143" r:id="rId96" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxNOVBFX0wxUDFIdVhBdk95WWhOdDJJSkJJY1ZWNFZFUUVZeUVFN040bm1iSmEycTlQOG1yejUweFFOanpSbEIySnpMSXZ1UklORngxRHBTV1pLUnN3V05RWTlLYWZJclZ1VUVTU3VMNkNNRnZzUXVVdkxGQmVrYWRveUs2akw5QnJsbHJRdTdyUWc2OHZvbTlTbkRKVXdOTGZrZnB2c05PV1JDWjg1M3FEdkR4Sm9PaC1PeFRRR2M5VUFCZ1JqeDJwS0Q3bUl1dw?oc=5" xr:uid="{255EACA3-D5EF-4F2C-9057-9318FB9B0BA8}"/>
+    <hyperlink ref="C144" r:id="rId97" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxQM3NlRGpIRFFycEoyLW5XTFRJQWs1LTNUcnlZQnhWbXV1V1hMUWJyQkZRM3BwRkQySGZGcExQU1Rzd0ljSGJlYnpHM2gxQUxaQnFPeXFnRUluM3YxMklycTE5dEJFdm12QWdPc2QxQWV3OVd3b0FPaU9mZ1FwdnN6cE9KcXJYS0tSU1Z4VXBVTnpPb2NydktTbGQ5SHp0NFFycVNQTzNRWWhreHhtM0FieGVqZUlqUU85SnB5OTF3UU9xczA0SjNz0gHHAUFVX3lxTFAzc2VEakhEUXJwSjItbldMVElBazUtM1RyeVlCeFZtdXVXWExRYnJCRlEzcHBGRDJIZkZwTFBTVHN3SWNIYmViekczaDFBTFpCcU95cWdFSW4zdjEySXJxMTl0QkV2bXZBZ09zZDFBZXc5V3dvQU9pT2ZnUXB2c3pwT0pxclhLS1JTVnhVcFVOek9vY3J2S1NsZDlIenQ0UXJxU1BPM1FZaGt4eG0zQWJ4ZWplSWpRTzlKcHk5MXdRT3FzMDRKM3M?oc=5" xr:uid="{D5DF1C42-AFD8-4DF3-88A7-50139944468B}"/>
+    <hyperlink ref="C145" r:id="rId98" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxPUDlYOGdLc2JHWEY2cml0XzlKQTRYQ3ZuTWhXejVSMDVla0htcFpwbkc3RVdGSUlTai1WcUZ3cnVQNy1kMVJYZkhQRUNmcEZmVWpXMVNaY19vMDN0MktjQzItaXFyQVdRUExEOC1BMkR6UFdFTjhkTkVJeHA3TnhkQUhiSWQtTGdUMjk4b3ZKT2R5NXU3RGVSUmpkWjRCOURIbUUzYWpJQU9zSlhQMnN6bFRkU2JLcFRJS1A3bXBXcm56am1kRHViZ2JFcnAtZXdQSkxXVmpUV19POE9TYUx5M1V6RGhMSTJDSF9zbkY1MDl4cDNQYjM1VF9hM1JwLXFOUkHSAYICQVVfeXFMT1A5WDhnS3NiR1hGNnJpdF85SkE0WEN2bk1oV3o1UjA1ZWtIbXBacG5HN0VXRklJU2otVnFGd3J1UDctZDFSWGZIUEVDZnBGZlVqVzFTWmNfbzAzdDJLY0MyLWlxckFXUVBMRDgtQTJEelBXRU44ZE5FSXhwN054ZEFIYklkLUxnVDI5OG92Sk9keTV1N0RlUlJqZFo0QjlESG1FM2FqSUFPc0pYUDJzemxUZFNiS3BUSUtQN21wV3JuemptZER1YmdiRXJwLWV3UEpMV1ZqVFdfTzhPU2FMeTNVekRoTEkyQ0hfc25GNTA5eHAzUGIzNVRfYTNScC1xTlJB?oc=5" xr:uid="{9DEB7A06-0174-4F35-A59F-B01FB53ED475}"/>
+    <hyperlink ref="C127" r:id="rId99" xr:uid="{B5CF2C9B-1434-4585-852D-94CF1581C814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75D232A-066A-4C9F-B376-069914CB0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A20209-BD42-49AE-A169-5AA6028008B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="678">
   <si>
     <t>Fecha</t>
   </si>
@@ -1358,13 +1358,712 @@
   </si>
   <si>
     <t>Mauricio Cabrera</t>
+  </si>
+  <si>
+    <t>Iván Cepeda lidera encuesta de GAD3 seguido de De la Espriella y Fajardo se desploma</t>
+  </si>
+  <si>
+    <t>https://elnorte.com.co/ivan-cepeda-lidera-encuesta-seguido-de-de-la-espriella-y-fajardo-se-desploma/</t>
+  </si>
+  <si>
+    <t>elnorte.com.co</t>
+  </si>
+  <si>
+    <t>['nueva', 'seguido']</t>
+  </si>
+  <si>
+    <t>Ponderador electoral 2026: la foto de las presidenciales arrancando el año</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/silla-nacional/ponderador-electoral-2026-la-foto-de-las-presidenciales-arrancando-el-ano/</t>
+  </si>
+  <si>
+    <t>Pablo Manrique</t>
+  </si>
+  <si>
+    <t>El centro busca alcanzar al petrismo y el uribismo sin caminos definidos</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/claudia-lopez-y-juan-fernando-cristo-arman-coalicion-en-el-centro-buscan-a-sergio-fajardo-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>['definidos']</t>
+  </si>
+  <si>
+    <t>El centro busca su propia consulta: Claudia López, Cristo y Armitage abren la puerta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAJBVV95cUxNWGc1dUdtREpkMHFCeTBnMEgtVEZMT0JXMzVWbDlvMHJyczFtdGh0NkVsVGpsamVzTGhVWGVibTFJRTN1Y1FBdjNzcl9qTWgzemxJdHlVMk1UWXA2dE9mQ1ZvQmpmMVgzMWdUQk5UbkdDaUNFWnNSRDFqcXpLa01yWGg5bGFqSzZ5NXI0a2ZKRF8wZ3VlU0tFcDJaSXdrUF9yM0xYQzRNUlVQdlMwYnV2a2ljaWlIQkJFcGR0SDI4NDJBV3NOTEFFbWZXb09BaUNIOGVFRWNDSUY1TDlELTVyOVVwMTlUTXpYS1RxaHRSUXpSVlBxWnZPbDJMdld6akxYVnk5cNIBmAJBVV95cUxQSS0xMnl5MWdlNmt4WDMzMkloZXp1V290b0haS1hDcGdlLV9DQWsxTTQ4ZHJ4VUVpUjR5dGhpbGkxTFE2MnBlNFRSSUhQTVQtaDBOSUhqX1RYNGc5QzVpMFU0OFdkUTJGN2paWU1HdzVyOURJdW1iYW9XeFYxTGJoYzkzT01CVGJqN2VCR0FxSmpQU1ZOXzlvYTU5V2JnYlczTUE5RUxUdDJpOVhfaEZnanIxc3ljWEp6NW1yZUF5M0F4cnFhTTVFdVU5dXZUbzhOa1ZQeHcxSllzYy1MX1lmdEt0WVhrSDFkU1JOejZuZ1NuTVMzY20xSHByaDVXLTZxaURISG5DMUU2OEFyZ0FzSDJuNXh1VW9o?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella respondió a Donald Trump Jr. tras afirmar que la izquierda se estaba radicalizando en Colombia: “Tu padre debe poner a Petro en su lugar”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwJBVV95cUxORGdrb3BqODFHbWhOdnVad0gxLUtDNFRxQlBkRFk2c2MzNFBnT0dKZWVncXJwREpFTDlVQl92MWhCQTYzN0JKSjRwSHVESlJ1OWVWbHBmekcxRlZ3cm81OERrRlZ2dzNZRjVjMlN4blp4WnZIMnM5Mk8xMGZ1U3pJZ0VVYlpmMTc0ZDRoSkI0TDF6ZG1xUGh6cjJvS3JPX1hLMXVqQUgwM3h5cmxhV1d6VHgzZ1JZc2dqTlVZbTZKSjMtd19tcUtpWjFqQklNV3N2a2RlS2xsT0d2ZzJVQm9FOWZlSkJVS0hETG52dHVZY1hUN0RGWE11a3J6RnBSTmNWNTJRaU5KU3NjUmYzX0VQU2ZvMVkzOFY5MzQydXJfUnJDNWVGejFDSUthRdIBxgJBVV95cUxOMUdnbWJjM3BGU2lRZEs2bmd2RG9rTmhKdmpxd290dmFsQkdINkJjWUc2OTc5LXk1VWF6bGN2WkNNSXdUaTlYY1JYZG80SEhqQ2NpU1NWSFN4ekxiOTluQmtuUVhPWFFDYWVldWl1bW0tM3BOODZlNWt4TlR3eFp2V3g0c29HcWhoa1Bpdm53bGptZlBGRmpUZG56WlRDMDRfSDVxanJ4V3JFZGpGZERkYlNpLVFrWTdBQ0Y0NEZPNmRRQk1IdjYyN2RDOE00U0Q2M2JsMnBSX1pjQjd0NGxTeEFTcWc2Nmp6S0VqbVdheE5QWWxNRERfNmVvdkRRdjJVMFNpdHAzNGNrZlh6TDJhOU5ITXFFbWwyVUd3YWJpU0ZNQjNIZV9mTk50cC1ZOTRpVEhZREFhbW16a1R2M3lRVkkxR3pDZw?oc=5</t>
+  </si>
+  <si>
+    <t>El silencio de la SAE ante grave denuncia de reunión política en uno de sus predios en el Atlántico: eran simpatizantes de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingJBVV95cUxPVk1MakZBM2RheE1EcVY4OEdPazBUcjlHNlFFdVUyRTNOSHI1NlNuT3o2Y1V6QTAzeEpva2lKeklVTDdMdzdaVU01RjRVOEltRG5sbjlCaHJUX1JwTkxZV1VHUjRjYjdybUE3RklWWG1wc3ZkZHNQdndmNXRJTUNEYnBMLWZ4WW5NWGZmOXd4cWRKNUJHMW93X204MGZiaURWVHdLMldpTDNOTnpHT0hSZjZjMFpWYnloTUpBUDZ2TWxKMHdRWU5YNTdXUDZiLUdraWZKZ2RVWWZUVDRuMVh0aTRYNzhfWnl0eXRBajNVT1FMSWU1c0Z2RlBRVGdKY1h4cklxeUNrT3VmY3NNZ095ZzNjVlBtOUJrZExPMzh30gGjAkFVX3lxTE1NaDV4alFlYTRmVUNQNWRmZ1RVWVZtemJHdzNRVTBIZER3UThvTEdPakllR0JCeWJZQ0ZVQ3o5MnZwRzExWEtuc01tcEY4bXB2WGt1YTktZ0lSSk1uTVZ2XzJ6aTl6TUF0SzhPb2FZYXhZU1FweDczR1MwaWdNdGZLZ21CVHpncFoxcHkxQXMyNTQzTFFBV1JRV0hTSFVlVEQ5ZVE2X3FGQnhWOEwteHRNWDVoWEY1R19TYzVkYmlNSVF2c1RuS3lqZVJEakRJUEh5TUZma0dQUkU5dUpSeldHSTdDMHZkaU0teGR5WUlqVExGRVFwUnNOR2VPaGJ2NGNLVS1ueDNsX3IyaWJmVVNUZGhTVVp0cTZiQmU5bnh3R2pIdw?oc=5</t>
+  </si>
+  <si>
+    <t>['grave', 'política', 'simpatizantes']</t>
+  </si>
+  <si>
+    <t>grave</t>
+  </si>
+  <si>
+    <t>Vicky Dávila pide a los candidatos a la Presidencia revelar su estado de salud y envía un mensaje a Iván Cepeda: “Vamos a decirle la verdad al país”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwJBVV95cUxQLXJudG1QUnhNTjg2OUlHenNjOXdINHF5cF9jQ1B4Zk4yUE5aWTltQk1fS3lOenBCbk9NNWIzdGdKSnRVWC11Q0w3LXpnZ3d0ZlRWWVdjZk1UY1M4d3dwX0djQ3ZtZ0hqaDRxVWtfczFaYVFqVkE2UGh3SlZUa0ZLT0h2a3JNYmwwczdfMVdHUEcyMGNJald6RHVDMFVWcVdQRFdBY1VTMWdfWmRtU2p2dmM4ZHllRDJfMS10aENHMUc1RFFfWkRyb0xIdWUtLTc1MC01MGluaU5KMXhiX3k0YWIzZDUyU21acVFDd2QzaEMta3FmeE1GVVFJNTEzZHBXMV93bUVESFpmSWpnNlpkT01oM08yTjNTemwtdFozVdIBpAJBVV95cUxNVV9WRnA2U19XdGg5N1Nla2FMSUNobTRkdldRZEhFSlNycjVEMUFUNWhld2hGUExmdXR0VUtWcDZyeVUzYldUOE11ZXF1bDYyVzRVUlh1MnVYSDJrdVZTNTJhRE50dGlDYUxsbl8wT184Y0Q3S20wMm5jZzZfM3pZOUVqVzJNdlphV2RsTmQyNUdZanlDVDlvYmg5TWNrd190Smd2Nm9LYURzQmo3LWI3dlJNd2Q4YldRWUVkcjFtb0pqSHVaODhUNkxKWXRVT2RuY3RVVTJLZUcwRHhJUkd6MHVVWDkzQ2FWMGE3UnIza3VnNjlHRl9OSmhPWVh1M1A2R3A4YXhMTHQtQWNmYVBfNXpOOXhTeWpXYVp2OWVhaDRGTnhk?oc=5</t>
+  </si>
+  <si>
+    <t>La candidatura de “los 3 ivanes” por la que Paloma Valencia criticó a Iván Cepeda: “Sería el verdadero sucesor”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxOeW5TNXRua2V0ZHFORVBsQjIySkJPM2ExX2FPN2J1ODBJd051bTdFdlp1UGhjWF9DdVVtUHJBWUlYX0x3eThVNGY1d01fUXVsY28yWWlNNV91UExvbkEtMG9fSWh4X1pfQTRpRGNVYXFieGJpVHVQQ3hoQWJpQl9vVERHdm5XM1BUbGRFUDlnT1JSLUQzREJqLWVWeXdnUFBmSlc3ak5NelhrYm5RX29qSFg4UlFWSjZEOVAzUXZBSktZS3ZLQW5veDc2Y1dzT1FhaTlpREQ5RnFZQ3FSWTlIVmt0MWFRSDBCUm9TR21YaEZGQWvSAfgBQVVfeXFMT0h4MHhiRDJvTWI0emptTk0xckM5ZHNqckRyUTFDck9OLWoweTdMRzlwWnNCQjQwbmZBMS1uUkh5SlRPTWMyUDlSYTVCS19MS3IwOV9UaDYtZnF4dDdwMUlJTkVvcnJMZDE1VE0td3M2X1M5S25kNjdJSmNpSkNURVlURkdBcndfd0ZUZ1VRck92QkxudV8tdEZhc0lDanJNS2MyWkMzc1ZmRW9oTzExYVd4SzJUQ0U4TmxiZF95VWVRQVZ0bkdmUDZGTFJ0YlU4elVDQXFHU1hoT3ltWVVTSE14a29pR21WSDJuY25YWHAxYmFTSThlWU8?oc=5</t>
+  </si>
+  <si>
+    <t>['”', 'verdadero']</t>
+  </si>
+  <si>
+    <t>“El populismo radical está unido en torno al heredero de Petro”: Abelardo de la Espriella sobre encuesta en la que gana Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxNVnhiYmVwdjZiZ3BBRUxMTzZFU0JILVgtVU9fOXY1VTduRkJLM2NDVE1qVGUtSzgzTUNnZi1oblVOVW42bDR6eDFZZlBScDJudDN6MzJCZHViamdnVW4tMC1XWmEtM2luaVc3MFExVWVnVE1KbjRyRjFpdVNVMzJBVmp4WDRJNFRFMFQ0QXAyemluRXk2c3Qza3g1SVljQmxsRTRveTlOanRVR2czbVlGd0pRN3pkczRhWDdVQmVyZXZCZGM2YWJzOU50MHRYWUlOQXNPT0FVZGpxZHQ2QmRrdDMxaFJRSks2enBwelpyQVpLSENFVndxQS1scl9hUHlYVFFUQ2xOT2LSAY4CQVVfeXFMTWp6bWJQU2VnZ2xUUjloNXhHdU5yXzkzQm9TeHp4aUt5d1FtRklhdVJnRTZhX2lJd2UtZ0k2dFhVSnR0Ykhfa3pmR2p0VFNsdUJwaEtYZEpOU29IRmNkaktVUzdvdXRkOGE3OUpPelpOMDVZb0xXcHJfMkhPdjVlXzhDcXlyMVZSX0JaVWJ6OUkzT1pjWHR0MV96SWxvazVtX3FyZkpzb0Jzc09PczRicUxzWnFhX3hDeFF6Q2t1ZUFLVjVBWXJvNXd6Z2tFc0xmbFR2UHAtYXViUldhTHdoR1dpcmFhLUpBQ3E3Y0NKSmF2MlN0WDdDV1BPLS1MbjZfMTh3WGxnVGIwQlJUUzZR?oc=5</t>
+  </si>
+  <si>
+    <t>['radical', 'unido']</t>
+  </si>
+  <si>
+    <t>Sesgos, estimaciones y preguntas: los reparos técnicos y académicos a encuesta que da como favorito a Iván Cepeda | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPakhOQ0ExVUhFX2dUQzlESjh0bno1YjVySEJ3cmMwdklCSVE2RGZCc2VXTXJtcmthd2pKX2kybkdtS0dKV240YzVzOTVjS1VyZWRoNjV5WW9Gdk85SmpENjRsLVJHWDk2bUdYMmtMXzctZjhESG1ORlZETUpZVGh6U2JKS1dYeDF6bU85cHR4d1VuOERycXVaZkxPTkpXbk4wQk1FZTU4UkVjcjDSAbABQVVfeXFMTWVmbFpGWnZJcUg4eWtwdDJtTk5iZF8zXzBiSDRTUE9wZkZRU2dhWUZWRlR5YUp3bG5mQkROV1dPOUlPd1ZXa0MtR2Y1SE5vUGY5Z0gwYjUzNXgwcGhRUDF6UUtfNXVrakV0SHZIUHlMRGNpWVhaanpGMVFPZEpEcHRacnE0cENja0M3b0EzbE95UUhFR0xyaGx4SnNDaHV0dkNqY2hESnNTRzRleUk4U3M?oc=5</t>
+  </si>
+  <si>
+    <t>['técnicos', 'académicos']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda busca mantener el respaldo indígena en Putumayo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxQdlBoOXVPc0dyRjB0VUFBZ3JVTEIybTZKMWRqNTBJWmRwOWtfcy04bV9TMHNNZU4wNDduNWxFamRwd2duTGdhSzFweTZKeFRpTm5YOWJ4WkFhWm9VMnFReExnNk9KM1NSUU5JXzM2aGhKdjlXbXhhWVJNMHVCSVFFMHg2VGxpdnJPNFlfRDY5U1J1VGlVNW9LMF9SSHZaaVVGWG05cGdUVTZMMHFzNmRQU2pjOFdsZWs4SlgzNURJcw?oc=5</t>
+  </si>
+  <si>
+    <t>"No doné eso": empresario que aparece como donante en campaña de Iván Cepeda rompe silencio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPR1d3NW9PSHFGYkQ5SFRkVkhVWWFHemR5Wm8yR0dReHEtUzJQZmk1V0dGWk5GdGxhOGtITks2OXY5b092NUVVeUxsQ1V2Q2Q3dDZLVk05NzdzVENzNGs2VzdPUXZKVUIxeHlodTB2QXpTRGUxc2ktalJMazExbzdTbHdUTkQxSUpzUGM3T19NVWZodkVHWUR4bWt2eVhuQWt5TTJZMXpGU0VnSW5mSExTTmxsejduNHFjTXdvNVd1endBSlE0ejU4aUt2RDBxMVHSAdwBQVVfeXFMT3pPUC1lMWpPWDlmWkN0UHB6YWkza09iaFA1NVZBczNXejRmdWRJczVkREVsczduSDBUa0FUM01ZTS1yV1o4VzE0WDVJLXBPbG1zbXpqTUtpa3VzWHk2NUxPUkdObnlqMkZQU1gydTRJOFU4MjN6cmx6eW10eVBST3Q5Z3NDVTZickkwZVZoV21aT0RzbmhJNHFVM2s5SWZTaV9WMnd2bUlELW5LZG1Ddk9ENVFVV08xS2pfTmRVN2pnc3hHT2ZoLWkyZjh6YS1TUHhqRGRTSGJnN0MxcQ?oc=5</t>
+  </si>
+  <si>
+    <t>['silencio']</t>
+  </si>
+  <si>
+    <t>"Iván Cepeda tiene afinidad política con Farc, pero eso no lo gradúa de guerrillero”: Gral. Naranjo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQUThlU3NHc0J5OUg0UUFTWWttUnFSR2V5YnBQN0JYSmhxMjNsVVNSMG9ZZFlxSHdSY0N5MnYtZTJTUFo1RGR2SXVOOWE5MUNrZ21pbGd1dGc0bWRwZVdTLXVzbTZhVjZnWU0xenpQam1oUFhucE9RcmdBbHF2WGZ5WjNucFpVQU1zNXgxVXBLLUhXQll3THdsS01tQXp6Ml9WbE9BMkVZdk5RcWF3Y0JZTnlaSnJnanBPNGVsTXdMa1FHM0pWaGJ3a1hYWE1Nd9IB2wFBVV95cUxOZERwVWowMFI2TmthWmZrRmhkVEpfSjFqY2swM0RNNTJHRUNzanBWZnBfZVdtY2RjYVNPaG5JRC1EcmxlOXN3cXZ1VzVMZEIzZlRyM0swQ29MQWlpX2ZUeDAzaktGSWI3d3h0aGRaVFhERlRzWS15VWktU0dGbTBTZjFuREdFQVk2aVBlMFFreDhqN18zc0VyZlJnREIwS2ZCSlVOc1ktS19VNmpRektrblNjOWF6NVlvZTlXbHhlSk1HUFdRcjZsM0l4cFRhOHNOTGwzTFItbGNpaXc?oc=5</t>
+  </si>
+  <si>
+    <t>['política']</t>
+  </si>
+  <si>
+    <t>Intención de voto 2026 Colombia: Iván Cepeda se posiciona como favorito en encuestas presidenciales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQRXc5MVRTWHZQOThUdHR0bjA5Y1V1TjNUdnowME5KcGh1SGMwWWRoQk55Mk1TSHVkYUZjc1ZjSngzeW8yQmtKbGo2d0twU0RvVnc3UmlaM29LQUU1ZEMwT2dHbmE2X3ZXQnE4cE11Z2xZaU1OSndxUWJKVVVJLTdwLUtxN2VzVHgySktzSi1SN1dYUFNBM3E5TzRyV3o3QWdlYnh4YU1oenkzZzJhU1FUVENYYnBydGRhbDZOYnppY1RmVmQ1MGdDbHR3NA?oc=5</t>
+  </si>
+  <si>
+    <t>Petro le sacó chispas a Uribe por pulla electoral contra Iván Cepeda: "Cambie su parapensamiento"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxONmhtcUJYRko2bWZHcXVMM0lTQ2dlbTY4azltaV9jSzF3NjNEaS1lMDF6cHFkMnpsUThjNE1XczcyTWZIOUxzV2lTcUE2WlJhRjY4Q0NuejdFZEV4QWktOXhtTnptV0l2SFBUZmNqdWh3T1poUzlYaDhDLXdjNDMyLWFxQTBOeG92akFCZlZoTEhLMF9iczBxV2VwOUV1bGY0WHZjd2NBMDh5NnN6VVdaOVJHcGdqQmptalAydjRJaklLcFhJWURpd3lR0gHPAUFVX3lxTE9Zamw0cEZ0LThRUVJrb1NSd3lzYWVuMWMxSUZNcS02QmpYUk1MRGt0VmNyeGZrTnBRY2pjMGU0Y24xaUtZeVFWcTc3dFFvOGhWZS1zeGlxLTQ0XzBUZjg5UTRfRFZlRUl3U01PdHBsUVMyUlBwQ0NCVlhZVDZCbktjME1hTXh6UnlIZE94dGgxMEV1TmVGT0taRDZkeHd6MnhCVVBZVG5wS0cyVkhYblJ2Zjdkd1ZXZ0E0enBvbHgtLWJya0hRbC0yaFVlb29waw?oc=5</t>
+  </si>
+  <si>
+    <t>['electoral']</t>
+  </si>
+  <si>
+    <t>“Soy el único que puede derrotar a Iván Cepeda”: De la Espriella sobre encuesta de GAD3</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxOSGtMSnl4QXF1MmUwb1RScFdyQklRVTJtaWtwdjhXWVFuUE91eGxZS2NiUnZJV0doR0tkQTVBcmkwTm16eWtqalplakRpS2FjemxyVUJSMjg5OXo4VFZWeFFHWWZ1QlpZWExHc1IzLXFoS2VnVC1wMG1OSlJuQTREb3BzVXQ0akVtT1lSSTE3TzBYNERTNmJ1UjJLMkgtYnV2cDZjWThFNnFBRUNSMGRIWjhlN1M2SU5tcGJQNzJnSnBBUdIBwgFBVV95cUxNYjVmb3JhZVBFRThjU3JGUk8yMTNUVUN4MkNFY0taMy1KTU1BR0FKLWhqaFpXbXNsOFFMdVI2dzBDVm9PS0F3Z0NiUFhCbjJiOHhoUjNKLXNmN2hQcGVhRTF6Unk4d182VkotMWg2ems0YjhHVC1fV2dKZ2JWUWl5MGlOaDlUeF9RUEZFQ2RacS13d3E0OE5hbkFIY0JLY0doREpteWtPWmpucUdzZWxpbkZvYVVvYjNMVWx4VGFtRER4dw?oc=5</t>
+  </si>
+  <si>
+    <t>['único']</t>
+  </si>
+  <si>
+    <t>Elecciones presidenciales 2026: Candidatos reaccionan a encuesta de GAD3 que posiciona a Iván Cepeda y Abelardo De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNOW4xQWZyWS03WVJub29rSjhtR29aVklPcjNTeHB1TER3SDhvSHY0Z2tfbjZ3N29rajJPSDJqa1BaSHpCeWljaG1GM1JSdW5LaGhnVkhwR2Z4Znpnd2d5eGFqYy1BRGJic1NrckQzRVl2aXdYUHE5NGhQZ1RBRklONFVCZjhPZHBQbndEWm04VzBUY3kxb3V5ckJ0MDN1QVIydUZuZlR5amI2ZVdwaFhuT0w5a9IBswFBVV95cUxNUTNNbEE0dGx1WnRPM2F1Tnd1YTFkUk1UY2xMYXR6LXNNMXJzbDM3cHNfdGRtTEFhVVh4ei12bUR3WGFuTl9LbmRvWHNqYjZfWU9UWkk4bE1JY29FZk5XaG9xYVhFaE1peHQyR2xxa2ZUTEdrU0JCc1pMVHVMU0hiUElnSXZmX3dDWUtXYmNaQUhZcEFhQnJtWWRBcDhfVmUySjAxWVZpLV9ibF9EYUhnRmNDRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda lidera intención de voto presidencial, según La Gran Encuesta 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZ2U2T2RSYmExaXMwRmhCeWFJZHJsb1BvWEFQSmZzb2l5THpJTVBlamNDQm9UQjh1Qzk4UExvWUpOTE1Da2tSTHNUNXRvWkRIU0dmSllCX0lRYTAxdER3NkxYb1E5bmJRdmljb21JTHRvQ0hRWEpNYTB0RlFVT1JpeG1wRzBfTXJkUkt0Q0Q3ck1pMU8zalZ3cFEzSHhFbE9jSld2ZWc1MUwteGFtaWtLSlAwck1VYTU4NWVNNG93eFd0RktsaEQw?oc=5</t>
+  </si>
+  <si>
+    <t>cronicadelquindio.com</t>
+  </si>
+  <si>
+    <t>['presidencial', 'Gran']</t>
+  </si>
+  <si>
+    <t>Quindio</t>
+  </si>
+  <si>
+    <t>Podcast de Carolina Corcho e Iván Cepeda genera polémica por cuentas de consulta del Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOUnM4MG80YWozYzNwYW5ZYlpyT3Vibk42cHJabkhGdjA0NEhZXzVRaktwSU44NktCcUZUeHlRbWJ6UkZlblpTaUZtYWVwWU54NUxHY0lHaERrd0dtUDRiRUR6SEg2bTRfalc5Y2tZa3hyNzBaMHE4RkVrUDN6NnY1by1DN21LSVg0cW8yaTFXNlVCZVZ6dndES014RWV0U2c1VHYyaTB4c0V6aGJDRFpnTGhlMGFVemRvdFNlMWd4SzV3OF96Yjhob3lfa0RzVUI1ZGxaVU81VHRMNHNpZFAwWg?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y Abelardo de la Espriella lideran intención de voto, según encuesta Gad3: expertos evaluaron los resultados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxOd3RyR1lOVmlUZmRUNDBtV1RnRUFuMHZDQ0ZtZy04NFVtdWtSblNRcmtxMHY5dDQ0eUxjeGlIOFlUbm4yd2l3eXl6OWRtOV9FSGYtbTl3d09nMDNYMTRHUTZvYmhkNWZRZ3FBSG5yaUt3SFJEMzBBcmZWN2VORXNHZWRYd2Z6bjJ2SGVDZXdGNTB6WlRtdjY2aTM0WE1lZlJXeHZOT2lLZTBuWmYtaXF6R1dlTlpoTWx1LU5LUklza21JdGNHcUo2bGQwZU1qTTFHUHFXS3lCeUVVd2NjcEJ5QTVSc3N4ZzVlN1NnN3hFX0c5aGs0MHfSAZACQVVfeXFMTjVoNnF3NmJEQUtIaGFDcFAtUHJBOS1VY0J1eTVCR0c4OE85a3BuZ2R0RGp2V2VnamFNVFE5RTFRdENidElUY29YYTUtdzlBX3lGbml0WUdRQjhFTUhKVzl3eVhsZl9aZG9pY2JRczh4Q0xSeUQ0emNBLWFrNEV1c21YclJraEpvUFVzR085UTZZM0VpbkpEdnNzRm1NNzJmb3E5Y0x1RjR2VVJGeENPTXNaYkIxemJWQ3pqQTYwbFZqZHlKdlZLNlBFaGh1alpBX1JDeFZhU0VTajducUJZRkhVOG5hZTMyUkgzU0NyenkwS21sNnVJbjI3WmEzS1pSMDFUdTV2enBLMV9sTXlPNjE?oc=5</t>
+  </si>
+  <si>
+    <t>Exministro de Justicia denunciará a Iván Cepeda y Carolina Corcho ante el Consejo Nacional Electoral: “Eso no es democracia”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxPQ20yTkNuOG5qY2VGRnNWcDlLUXZmMEp6bWlibFB6czctczA1elRsUk0xZm5NSjBPX3hvM2VfVEFTT3ROeWx2dTN5Ujd2bkhjMGVwcUVDZWNLZ1lUUGx5WE9xRElXQzkxTXBmQ24zeHdKQjVsUG9CcFpuanhMQmlsN0FhbS1RM0kzRzZGQVZad0tlVTM0UFZtM3FZemxlZnlUcE1tWWR1OUk0V0VVYjBId2ZIbXhwZ2JVWjY5aExEQnNkNjNBTHBfRFlsNzJ0ckZjMjVCWXJlZDZFVGJZNFFuUk5rWFFXeU94X3ptVTJOQTRoWGhiQ3VXb0pn0gGUAkFVX3lxTE9nVDFaSGl6eVhmYUc5TDczLWNrZnRFSzQ3WW4zYTNGZGE3LXd2ZURFcGZKTkJlcldZcjhOa0xZNzhqNENWYjl3RjBUemdqZkMyT2VEUUZoeS01OU9rckI2eWtvLW50cjVUVk9mN3pNR2w4QWJkcEhKMDJQQTV1aW1kZ2N0el94VVpPY1F3Q0otTDJHZVRfdG9mV3RONzhGTlJpMHUzNGNGOGhCSGRaNHJ6VFRGYTFRY0d1WEJSTFo1WjB1dmNoUWhFV1RvQVloWi1XaE1LZXpwcVk2dGgyajRlTUZ5dDlmcEQ3enItSmpOYlN0bFBmbkp5bmpLQkhnUzBtMkhYRWRfRmRlZ216MkEtV190aA?oc=5</t>
+  </si>
+  <si>
+    <t>José Obdulio Gaviria calificó la encuesta de Gad3, en la que gana Iván Cepeda, de “adefesio” metodológico: “No refleja la realidad”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_gFBVV95cUxPaWczRWRQenp3c19FQ2p5eEd0OXVoTUZaT0J3N1lpdFl0TDBlcm5iRy1PTGx2emNKNlplN0pWRERHdXd1TlR3NFdYTS1qbXFabjhJdjZmbDFEWHJ3QjF3b0hUNHdXOUZIRGtGYzh5bFA3YnRucFlraDJpSkF6UXNqNGVXUTY3cHlPNEFGNHYzQ0FLSXpsT0pqZ2ZoNDhDbEcwTG5MWEpiX01NY0x5ZExIN0Q5eGY5d3FxdXFlcFRXbkdOUVlJeHY3NWJrX1FUeUlyV0RtVzRLUkp6ODVaYTJmRDRxZEs1MGxLYWM5aGJJa0Y4eU5BOURSZ0NwLXExZ9IBmAJBVV95cUxQaUdsVEF4aWlUeElHTXV2S056aGRvdDVEenc3c3hvRjB2Qk8wX0tSdWRzaEZLa1ZzRktYQW1VSEdVVGxBVXQ4U29qU1R1T0VJTUxFc00zdlRUaWxKTnBGSVFCUXRNZ0FqYzRvSnNrenIwaWo2QTVFMDg5SVZRYkh5OEV3d0dMNmcwazhlUHRfc1FUeE0wV2d1TkVQZmhFdW5DM3BlYXBBblhPVUxLbHQxWnB2MVhxMUpqb0k5ZVQ4M1BtSEVjMmtyaHphZE5lMHEwdF9IeV9XM1dvNkpDSnAxQUFsYXV2NUxSckQ0ZzBtUFVlWkhuY3hGbnN2T0lGZFcxMkNyNkYxUF9PWkdEd05zMlpJelBxQ0c4?oc=5</t>
+  </si>
+  <si>
+    <t>['metodológico']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda sigue al frente de las preferencias electorales presidenciales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE5wY2FPdmNkanZ1UTJpWmtPM3VESWR1bXNVU2piMDdzODl6T1dWZThCcGo1Zm5mTFhDU0FBUThfVzJEZUJoaVFLMDlFX1RWdzZWVXFzcC1JT0hNcnc2?oc=5</t>
+  </si>
+  <si>
+    <t>['electorales', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>Encuesta perfila a Iván Cepeda y Abelardo De La Espriella como favoritos a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPdzg3d2RpVjVsaThRX2pSWkc4NzduTnduSWRTQURQRTNLTEEwSlFhY3lMdUdWcmthNndtbGZIZy1rSVoycnJPTVQzRmdjUnRKQVpGa0tEMVB5aV80QkNkMFFsVUVKOVc1OEFiMkxCWkcxT0FPMUtkUHBSVGR3RGYtRDZ3Z0RDQnVqNmlsc2ZKeDVjcjlkTDVzTVl2YVpZTUYtT29QREh5MzNoeTlBX2haMEROQlhnQWhUenpkdmUzTUZlS0tvQnY2TVN5SmVac240eHVn?oc=5</t>
+  </si>
+  <si>
+    <t>elirreverenteibague.com</t>
+  </si>
+  <si>
+    <t>Encuesta pone a Iván Cepeda como favorito para la Presidencia 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxPR3lUampxbVRkdWw1ckJCVXpId3paUVNCeWQtazRqNEFOV20yVkVOVHNaYTF5S2dIS01UelYtb1BFMURSTlVmSk8zSVFmZk1zQmJ3cmRMVmxWaXNMN3FrNXVaZ29yWExGSjBQQUVMSzY3QzRzc1NGVFVKdVFuTy1HMXF3T0hhR2Jjal91WWwyUWRWUEJnZi1SdFpB?oc=5</t>
+  </si>
+  <si>
+    <t>['favorito']</t>
+  </si>
+  <si>
+    <t>Iván cepeda y De La Espriella encabezan intención de voto, según encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPMGpCTlRwaTdfeDZ6NWtrNVdWRnJnb1ozLTJRUzA0LUg2TzJqTVJLMjNRTHJwM3pWX0JEQTB6NDg4VUYtX0lLaUlMd3I0Q0FYUXlYcFlvS09ZaUdFSkl4dk80WlFxc2dYOEZ3SlhaX2xpd2FIMU5QZW9SVWNvUl9BdEl2S3U5a3NtdDJFS1J6YUdLcGR3Y0FKUjVEbGoyQnl1Y05zUXBURXN4OElobVNpYy1mWWdJTS13MVE?oc=5</t>
+  </si>
+  <si>
+    <t>Primicia | Crecen sospechas en plata de la campaña de Cepeda: ahora dicen que “fue un crédito” | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQRFp3b3BlUUJWMXFBQk1EWmxuZmhnaUo3RlZxVUpybWdGOUptREFIeUF5Sk9LbnJNYUM4cFJlUHlmVFNmcXNHajFzaDhLZGlkTlp3YTFia1R5UGgxYmItUXB3VUFFRW44WUtCeHVPS1huTnpGN2xQaUI3NnE5VjlQXzdRX01wN0VXNmdELXRfU2hXbkZUcEg5WlBnZ1FvZ9IBowFBVV95cUxPYnNNX09MSEt4a01ZVUp3R1ZGMzdmTXhoWmRMWVZJY1F1bkdfZzAzR1hnWHJZTWktcElWQ3RNN3BzcmpZd3Z4RnJRenpERWYzQ2Q3MFpVRVV1YTBrclZJNndZZXluS2piZmZua2dURHFnVkoza18yM1hXaWREaGs0ODQ4WU1ScTA5Q2pmdFc1djVTQVYxSGZWUC0waWthYmlJR1pV?oc=5</t>
+  </si>
+  <si>
+    <t>Caso IvÃ¡n Cepeda: Â¿EstÃ¡ inhabilitado para participar en la consulta de marzo?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPbkh4b25td1NOV2J5Q3RmSk82SW5ockRDMjQ3VExXM0g0Y0NSREFTak1fbW8wekNFM0ZKenMyLUtSb2lmSW1wRTB5aFpFTjhEVzJ4OHdWN0ZEVm1VbTFldXFQVFhwdTUwVnU1dU1NQjlaSS1YZ2pVOW1UVFBBT1lJM1hDUFdTbGpCVlBVaGVoTVVCaVU?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda y De la Espriella, al frente en la pelea presidencial; Paloma lidera consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPdEU1YjN6QzBhbEczczB6WFNSckNsRTNZeUo2XzBGM21lZm1PUmNSWGQ1QVM0S3lvbm1OaDhVYS1OMF9hTFh2LVBsTWJzQUZsTW5sSEZvTXh1UndCaERyajVpbTI3YUZVNGdBdzlZZWdhZ1Y0RExHTW5TeUNnSllSXzdLRTJaaUhoUnJTaWs4ZU1uYlU?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda, de la Espriella y Valencia lideran intención de voto en encuesta GAD3</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxPNkdPQVV6aFdrWktoM2ItVm0wNk1uUDJ4eTRSbmY5T1VYZlpySV9XUmN6cmMzRklsQjVlRnA3TURSV2JVTEZZOUc4R0RKSUxwWlJiN3ZwUGdRRWpBM3F5dGZ6U0duYzlwQURMQnBwREd1TnhNWC1JdnB5MkdUM3NMY05IWWV6R2l5SlFzbDRJOUNsTTAxRkUyY2owVVdGbVFsUVhJVGJuV2ctY1VLWFVoX2ZPX24?oc=5</t>
+  </si>
+  <si>
+    <t>Las dudas que le encontraron a encuesta de RCN en que Cepeda gana a De la Espriella: "Engañoso"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxPT3pleWRWWmhIWlFkbHZ3UlZ2Sy1HUjZrX292N1FTRmdtQXVsd0t5TDdoVkxGb0dBZ2ZSaThhejlGUE1RUHg4dlFmeUpVMzZ0dm8zRk5RbUhzUGlnTEJ6cENKdkl3U216c2hkOVZoX0lFWG9QQVBhVjIzaUZxNUo3bVBFcHpFT0szVHdtczR2TmhsTkV6VHQ5QXlhNXYyc0lz0gGmAUFVX3lxTE5iZjhwVEdHX3FIWmg4cWQ4UUtMUFdnTjdLbnVEVVRZX3BaeXgzYWJNN0JoSFFJZW1aa1dtUWxaNHlISEsxTFM4LURvZ3hrdjFVZmYyYTV0RW9Cbm9xQk9Mb2pRVDhyNFJ5bmxaaUZJTXgyZkxfb0tnTFVBdWJ6VmE4eTZfemFtYWN6M2w3M3hSSUpJVHZHdVFtd2QtWHEta0dlaGJ2RVE?oc=5</t>
+  </si>
+  <si>
+    <t>['Engañoso']</t>
+  </si>
+  <si>
+    <t>engaño</t>
+  </si>
+  <si>
+    <t>Encuesta de GAD3 desata controversia: ¿muestra sesgada favorece a Cepeda y al petrismo rumbo a 2026?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxPT3lXWE9SZjF5V29EckRGdDhJMzRhZkNIeTItXzdaMEg2MXdkRi1sSnhUWUVnb01wQ2x6UjFLZGtTWktQelItcWtFT0Rab19IWkJSMWF2emdkWWtmeFhPS1A5X3NFNkkzbF9hODJ1UWhOQjVrTkUwY25lMW11TTd3MVdfQVZqSjVCZWt1aGVuOUNubU5zVkN6bWpmU0p4S1NYUDRpLWVLQXZWU3RGTWF6anc0TldNVkVUT2VuVENIUDdkQVhjS044WHpwNHBpRzZNeWRZSWlB0gHWAUFVX3lxTE9PeVdYT1JmMXlXb0RyREZ0OEkzNGFmQ0h5Mi1fN1owSDYxd2RGLWxKeFRZRWdvTXBDbHpSMUtka1NaS1B6Ui1xa0VPRFpvX0haQlIxYXZ6Z2RZa2Z4WE9LUDlfc0U2STNsX2E4MnVRaE5CNWtORTBjbmUxbXVNN3cxV19BVmpKNUJla3VoZW45Q25tTnNWQ3ptamZTSnhLU1hQNGktZUtBdlZTdEZNYXpqdzROV01WRVRPZW5UQ0hQN2RBWGNLTjhYenA0cGlHNk15ZFlJaUE?oc=5</t>
+  </si>
+  <si>
+    <t>['controversia', 'sesgada']</t>
+  </si>
+  <si>
+    <t>Petro se metió en pulla entre Álvaro Uribe e Iván Cepeda y así arremetió contra su contradictor: “Cambie su parapensamiento”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxONHY2c3EwQURJdTdBY1ZXb0lQNjROTVR3NVRPb0JuOGptanhydlkzRW9mVkVQakJJdHV2cEcyY0tDVE5FOUllSVRhT1BQRGQ2TFlTVzhPb3cybzBFZDdNSGdVbmp4NGtyb1BfeXFXSDBYRk12XzdMY3lGV3Nva0NGVE1WVmZwaV9XSjlZSG9IaGp2YWZzWElxYUNSUGpWNEJHdHdtUGNHZzIwSHZJVDF1Mnh0SFA2Vng0bHBuYlNuNkVhZWlSOFd6and0bnNlN1FNR0lVN29EY3c2QTFYMHp1bjNBTUtHVl9ibWhacnNUZE1jRDI4aFo5dW5R0gGUAkFVX3lxTE1UQzB0NE41eHBIMHpmRTVBWU9jVjRjVFNTNklpa1BMRDU2UEoyVzhhUUx3VHdVdXpyOWRySEJKTTRHSXlPTmVBWnZKQ0lrZE9mbnhxOGVlZGdoRE5Tbjc4RVVEZkhmaUMtZkdveXB4dVluS0VBSFBLeUZHUXprSlVHY0ZIa3FCY2tWX0tPNXJZNHVnM19HZU9xS1RQTDZwQ0xPY3J0ekF6UGgyLUVWRE9SWUZUUk1YWUxjZVY1VFZISHBEQlNMRTFxUTdaNEItUVJCSy1xTURzOXFTLTR4VXNlOFJLNEFpZXEtNjVaLTU5MENMY0pMS2dRcFZKWlpMNVh0ZGlVbDFrNzR2WUxaUEdWMUlYRw?oc=5</t>
+  </si>
+  <si>
+    <t>Enrique Gómez le recordó a Iván Cepeda por qué es el “heredero de las Farc”: “Su padre era el gran comisario de la subversión en Colombia”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxNZXUySmpGT0d4VUs0eXFlcnlheXJtZ042bjBFcHVlRFV1MFFnMXBOU3pmWXdyTUJfN0l6N3pTNmpnYUU5QzdsNmpZQ29DRWN3X3RQU05XWEFJWmVwaHBBZkpqLThWaVBSZ3F0eHAwZVhBTVFsYWx0d3pLRzRyRkNUZE03dEdaWk5CVXNwbWJFcFZYUHVQOFNwVXYxd3R6LWZfV0NPWUEyd3huUlpIQ05JNTNuZHVVR3FreURFcXNqNFM4ZWJCQXdxVkZPV19SemZVbEZfWUZlQVN6LTJ0ZGxrUmpuZngyakRQNXB1UW41WnpHLUl2TFFreDZZdXQxeWpZMWtuVlRWcG5zd9IBpAJBVV95cUxQa3NpOW1tV2tQOU9PWUdodjhfZTZXMWtqSk5tOXBaTWRwY2YyYmhhWmxvSURqQTdaa2VEenhpNjhTbTltdjVGS1BtZDBYckNhdjFLdk5HeVBRaTJTMjJGQnZ4bDlJWjZReUplN01EVnlGN0NiQnNGQ1JWMlNSV09WaGtUYTBKTGg3NkFSLVVKZ0prQnpodFl5a3haQ3loX0YtVF9JM2dxQkNCRXBlT25aQkVZdFB6czZ6SjlieG9XNER6QlZxNUpTY0s0WW83dloxRGVMYzlLMHlyR3FBV2J2ZjVVTDNaUTBISF9sNzB3Vk1lb3k3bkhhRTFpMUtXMDh3VWdNWW9WeTdDRmtYWklOcl9KbnFOSk5sMV9nZmpHU2lydjdp?oc=5</t>
+  </si>
+  <si>
+    <t>['heredero', 'gran']</t>
+  </si>
+  <si>
+    <t>Cepeda y De la Espriella lideraron la medición electoral en medio de una amplia franja sin decisión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxOOVU0RTBrTG04LXVPdDJOTWVSaGl1cW5ULW5Vb1FWV1lTS1k0QUotVEVSeksyNUpsNmRjNmtjWVNnQWFKTk55X08wLXY3TzNGVDV2aXU1MWxldHI4U2NmX3A5cE1MYlEyOHloeVkwMk1WMEV3UTVNZHp3dzBHZ2dQSFVLb1N1dTJELXhFRXFiVUkzcDBic1BROGR1S1VDS3k3bjBtYVFfeWV4ak1WOWM4NWJFaWxLd1ZWX0NrTWR6VWc4dw?oc=5</t>
+  </si>
+  <si>
+    <t>['electoral', 'amplia']</t>
+  </si>
+  <si>
+    <t>"Viven enamorados de los criminales", Uribe arremetió contra Cepeda y Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE9pSVlGNjVHbXI5dW9TUldob2c4WGFVTXZkMEtqR01FLW5TdllpVkY5a0NxVFl5ekhtdlZ3TjBCLTdzVnN5TzF3R0oyeEdfWlphVUZJSzlET1o2bTBOME1tOHRmdW9TMUJKU1RGbTFmbnB5NmFtV3FkXw?oc=5</t>
+  </si>
+  <si>
+    <t>Tras La Gran Encuesta, Abelardo De La Espriella afirma que su candidatura es la única que puede derrotar a Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQaXl4MkpjYkotZ1VRdWJXdEE4ZGUzUFFoQVNqX085eFdaWlBLWjhWeWUxeFZualRaREtRS21nMFJOZnduSV9iRkpzT1d5QVpiS0xaNFB5bHBfTUJVSzhQZEpQWDZlVElEdldsQk44Wm5NSkVTaUxMM1lCQ214TnRGSA?oc=5</t>
+  </si>
+  <si>
+    <t>['Gran', 'única']</t>
+  </si>
+  <si>
+    <t>Encuesta GAD3: Cepeda primero, De la Espriella segundo y Valencia rezagada</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPcmZpQTYtOUFNcHZfS3hUX2xxalZHd3FDeWV5d3luQWc0LVdrSV9ZOFBhSEswaE1HdjV5cEk2cVN1UGhPb0hDaTh5aTlySlRKSEFieUViWlM4Zm5KSUlBRi1DZXdFejBsT29vU0dIaG5vZnNISG1DSk9lSjU5VGVWSlRVbHFTZ0JuUlhkcnBMUVRxeXlrbThuVXY5c2QtbmRORXc?oc=5</t>
+  </si>
+  <si>
+    <t>['segundo', 'rezagada']</t>
+  </si>
+  <si>
+    <t>Luna admite que se siente como un cu&amp;*@ por encuesta: Cepeda y Abelardo celebran</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxPRG80ZVpSOHF0RkJKeXdEM2ZwOFVEOXJOMVdJSTQwUVdaQXRYNGNtQ3hRX2xNVjNlWW1xVXlJb2o1ZU05MXZDVnRMX01ob0RLZE1LN2hwVHdxdGdyOGNvSkRDSWJPYTBtNWNJNVl3WHJRblFFdGhDcWhrS0JwcjJFMjUtLVhlY3lSMjF1YkxHM09aWUN6MVhTSzg0UE1Gc09HZzhYaVRleVZ2OXpQVGM0aEI3dkUyaTZTdnhiZnd6cw?oc=5</t>
+  </si>
+  <si>
+    <t>celebra</t>
+  </si>
+  <si>
+    <t>Registraduría termina revisión de firmas y certifica candidaturas de Abelardo de la Espriella, Carlos Felipe Córdoba, Carlos Caicedo y Daniel Palacios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwJBVV95cUxPUjNPbEZNSUtFQWRkRHJvcFo5TUV4dmpSV2dDelY0ZkM1cGE3RlN5SlI1OENLdEYwT0EtaHhpb0tqampBM2hXTmNjSi1hZy1MRnMzRkxxb1pyMW8xbG5kSVBTTS1YWjVwcmRaT09ieWpUT1FJTW1HeDlDVWtvSDhLcEFwcGotaWl0cGprT3hia1N4NkVLY2dnV3c0cVJ2U0ctcm5oalRWcGw0Uk5zVG1mNDZVV1hsRXJtOU1EY21rMFBtN3lKYmNKbGZ5SDF3LW5ZWWdyYkFhUHYyQlMtUjg5Z2N1aWY3V1BzUW5BNnhENVcydF9iU2w2TUdOeHgtaVZ6X3hpLWpHd0Y2T1JLRktMSlVKckFnTkVNZGZDaWM0cndQM1dlSmw1clRPNmpCRzlTZFZ3UXZGUHI3dlHSAcACQVVfeXFMTlpzTVN0SUNyOFFmUDhDYzJyREpMVzJHMmh6SmRCanI4QU9BMXFLUkt4enFvcl9jQ0c4SFZOUUFxc21ZTzVyVmhIMnh1TVZGTUhXMGtYMEFTclhHTzhuWV9EUGlucm5rbHAyOExJcmNvVlAxaGdHM0hXUzhleFZndklyVk5vc29BSGVrMl9qTFpGSGJkOWhkZWlKalhpd2g1QTd0dlRlNGpJYlo4THhfWjZEd3dXU09xTE81YkJaS3c5UjNUaURYRmo0U2lSMngwcEhqV3B3WFNBY29UUHZ2eHE0bldSQzUzWnIwaVNxVjZFdXZBQkM0QTBhajhmenE5MkVqR2szdHJBZFFNSlBYLTU4SFdzZk1pMUF0Qk1VeWpRX0xWMC1JYUFFeDdpVkRWY3ZKU2ZtQmw2c0lUV1lrdTM?oc=5</t>
+  </si>
+  <si>
+    <t>['certifica']</t>
+  </si>
+  <si>
+    <t>Defendió a criminales que perseguí: Óscar Naranjo reveló diferencias con Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNT2xleEJXMHRZQTBjN3h6MDNxeTFaU0Jaa2NOT1l1cmNDWmJuYzF0YlI5TDY5SjhYR29oMXRscFlfQlNYdjZFOXhlR19QamhUZ2hBN2dNcExRaVJ3VFVWZm90R1ZOSE1kc0J6djhyWU0wVHdFQVVtRFdWOHVjNU9Ub0xPdDU2dDZBMElrRWN4OHlfSzF2WFlKNERxb3Y1SGlqa2JBNTI3VDZDUUNZWDZjUEZHaEhkY0hCR3ZKSXd0QkVGVEpVZUVFSVZTONIB3wFBVV95cUxPdXFyaDdfQTJmSVZYdTdkWlA0ek5pOXFEN0VRQ3lxYzU2QmN3WnY0WkhOcWc5NU9zQVBWOFFCdVFWRzA0T1B5UlQyVFVKRnk4eTU2VlNQRzkzcGlJdUVpNm81d29BOEYtQ1hHa01WbkwwZUJSNXgxRlpBLWswbWhOc1JfbS1aLXZUS3l0cmxtSGxLazlucm9teWpvaDh5SllZQ1d4NFBDcThuTkpGZE1SVVV6MVYtLW5YemJiY0lJbnVJRzh3MnNwYUVsY19wbDZXaUM1MmZQMG1USVpRemJz?oc=5</t>
+  </si>
+  <si>
+    <t>Alertan por pasado de Abelardo de la Espriella en defensa a criminales: "Serios interrogantes"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxOYjFpMWV3QkxjRUg2LTBfbXpiazIyVHlkd1JjWVlSdkpoQVhYUG9VWWFjcmF0UGxjclB0Y29Id05DUHhjaHVJWGxVa2l5Ym9iUnZnRGx0TlJhMDEwZUMwZE5nbTVZa3YzOGtCMFdVQlRpclRRekNnOXNuRXBXM09GQkpCMzEtaDhJR0RTZ1VEZnJDVExfWWlPOGZiWG8yUW9Nb2NlSXQzbVJHT1lQa0dWeDdVWFBiRDNLdWdQeDZ0Q1VmUi1i0gHKAUFVX3lxTE92OGM1V19TWVQ2czlxWXc5M0tLSXVPTUI5WjFWTDZQS3VhU01ST2NkSUhLX3U2Vm1HRVg1RmJkb29jaDN1SHRTcTlNSUJTR2Ezdl9wcUZfYktZLXBja3BBbVgzTUEyWXNPbUk0ZHY2TnZ6RlVxUWtSQ1FySXJ3TUJzYmxodWQtall4Vm9RVFhRLUFNTEcxNmw2dzlzbVJxSTdZYlgxWjhsakNvMGh0TnVITGZPWnluX2Nsci02bUhCbEthX25EMjRud3c?oc=5</t>
+  </si>
+  <si>
+    <t>['interrogantes']</t>
+  </si>
+  <si>
+    <t>Flip alerta sobre presunto hostigamiento judicial contra periodistas que investigan a Abelardo De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxQQmRuVEk2dHFTQ3M4NFBDNVdoUTM1alh0c3JQUHRLTmNKOUVldnd2R0t4UTVWbVdIMXV6SHNVX0xFRXRrV0hlQkZycHQ3UmJQckJNYkZobHhyOS1sY2NCa2ZXb3lHSWRBR0lBRXZjY281aXZkZ0lSdlUyeTJYOFpPaWo4UmF3SnBZNVpWcnJ6dkJCNnRFSzdmeDJQMVplLWRQVTJwel9wV0txMzA3dmhzZWNJY3RhX3o5RzhObFIybVRfREo4U19PRlY3Y0xVNl9yeGoyZV9wa1oyaS15cUprQXlTN2tUeWxvUlEwSWpB?oc=5</t>
+  </si>
+  <si>
+    <t>['presunto', 'judicial']</t>
+  </si>
+  <si>
+    <t>La Registraduría certificó a los últimos aspirantes por firmas para las elecciones presidenciales, entre ellos Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxOVGEyakhuTUhsQVI3UTVDR0RKTmZ3ajlENlh3MHpKbWJIVmdEOThOeXo4Z2ctbl92NFVGMDNaaVA3MHlaR3FsMGlFM0hQaXRGVUItLW53a1REbHdvNlRicHJ5Q3BuajlrSXh0elpLOTJsbjBwMXpTeUFoQ2x2dEFlUGFWRVR2eXUyZWk1b0NrbF9yRHBVOGpna0lkRlc0YlIzYTcyWENGYXgxeTh4eFhxb3NfOVhRWW9ndW53RGRrUnZyaHg3elJGMnJXRzNoeGdYNkpCeHVrOEZ4YzFNcEJ0QlViTmZOUy1HUWpnQTNDR0dZbHFnQmc4QkRuUGFPZzVBdGVsR2hOMEV2bEHSAaYCQVVfeXFMTlRRTmtwckRMd09mZEwxczRYUVpsWUxiOU1VMUp4X0JhS1VuYXJqekNZbHFldFB1V21fRk0yc2FhNXdwdUtSZ09nZ2s1WE9Sb0NuS05MLTVXNjlfXzRwQ1pKTDFYcjRwV19hbGtzYVZwMUVJSk9taW4wb1dkdlNfNERXTVJBQVFZQjdNOFhDSTg5aVFvWmdJRzlUVjJOV3M4UEtPZUZBRzZDbzR5MkR1OUxmWHFreXp2OHlVRXVFV080NGdjcVZnTTVlajZzVzZfUXRZamZnb1J5MjVmVjFrU3BDWTI5T09POWVsR3U1eXhOcUZDY2dIbGpEOHZGNTV1R1p4ak9GQnBlQTRkQUhPUEhRbFhuZW02WFpiOC0ya25sbmtsYzV3?oc=5</t>
+  </si>
+  <si>
+    <t>['últimos', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>Miguel Polo Polo afirmó que el candidato que puede enfrentar al petrismo es Abelardo de la Espriella: “La única opción real”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxNSHNQMThSZm5sLUtjUmRxTUV5d1BncVZsdm82TXZvcXlvUHRWZHR5UUluT2U3ck9FaC1nRldKcE9QU3VmT0w5bi1pV1RXMXJ2WkFOUERDU3F0M1RJcDBCUmtTbXJDZDBrUlRmaFQ3WEs3S2F0aHdiMlFLOUNzQU9vemdxT3ItRjFqZDVwTnA5cmYwM3lfUzNoV0FiZjRsQWxzazJma3JSWS1BOXFfZ1BoeTdhY1dVdkFUdmdERDNOSVp0TVduOEREdTR4UVBxS1l2dEY2dnNZbWZLNDNoV0ZXUS1JVXY0WG42VXctUEdTRzVVZFVBOTdYa2h30gGUAkFVX3lxTE9wdEJ4NVFIOU85VHZWRU5VU0hyNUdpMWN3OW94a1ZuSFIwSXJwVWNCdl9acWI5MVotM3VLWUNDQjUzTHRXbWxhYmhsQ00tSjRNWGI5cnJHM1A3d2FadUpEYjIxM2lSWnI5enBCYXFFT3pRdDA5UkhaWDlnTllJc3pSTVlDQXctT2tuTzA3VU5LYmkwMVlpTG10T3dLRTVVZ0F6UWhMMGNUejV2WlEzOUVGVVJtUWtuMGpnZFNxMFlaUF9YODZoNmtIS0h3SjY3dVJ2QlpQOEtkSjh5eTdOUkNDcGdUb2ZWampMd2YxWkFOdms5TWRTbDc3SDB6VHk4VC0tcDJnaWxpMlU3ekY4N0M5UThzRg?oc=5</t>
+  </si>
+  <si>
+    <t>['única', 'real']</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella advirtió a Donald Trump sobre riesgos para la democracia en Colombia y pidió que se aborden en reunión con Petro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwJBVV95cUxNU3NBLS1OT1RycVJORXdDS1pDLS01RXo3VDFMOEp6cVVsYVZidGZwTlZyUG51NTF1SDhFMWs0Z0FvN3pTVG90bFk5aDU1dUszSFFEN0Z0N1c2SW4wOXhXV0hCaDVDc2ZGb0I2ekVGdEZDRGdFMHEtT2d2eFE2cXRzczlzTWEzRFFySE9ZNmwyZkdBVjM1b2tBQWI0bWNNQTF3dGp1RGZmRnlNa2FIVEZ1VXVIOThzUy1fSlVuSkJvZFMwX2EyWXBJVTdxMjZfRVU4NERQWnU2dWVacXZlZGM4ZjN1bXh5OEE5Sl9hU0lQM0toLWVTY2tIZ3NWRWNOTldhRW1IMEdWU3ZiUmNjLWZn0gGqAkFVX3lxTE5vbWhSbmF3eV9Qek5CU085R3JSVGxDU04tSWttNHlKM1pQNGFNWjJLRWFwVzQzZVVaNldJemlNVjM0OGpqTzlHYmdsSUVRcUdWSkdxbTFETjB1NGZaMnJzQkZUVmpBUi05YnBNZkswLW1jZ0lhbzFObGp5SWdxOTJIVmV2ZlpiX1A4dXJMT1Q4ZDBhS000QWlLMmdJcWRqN25YaWgzTUhUSlpBOFFqNjYxQlVZeDJQT0UxTFd6V2dzY3NqWDktblN5NVJ0RTNFdjl1SlVUWDNDd21fb1A5U0ZzUE9zY1hRTHZVaHFvNFRMdnhYNk1qc2Y2RTUyNEtfUC1TcU8wQkZ6dHB6QUhaSlh6bnNEWVBMZVE5RHRTdlBCdDlQVmk0R3NQWGc?oc=5</t>
+  </si>
+  <si>
+    <t>riesgo</t>
+  </si>
+  <si>
+    <t>El papel que jugó Abelardo de la Espriella en el entramado de DMG</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxQRXpXbmowTVV5S3ZiWllZck1HQTZmMF93ZXJOM0pFd2M0ekNuZk9vZUpOajd2c3VNMnVTWFhaSjhOb1pfeGZ1WEwtbTNmNmd0eEwzRWZwOUdVYzFBbDRxQ3cxZ0pWNEdsSDBNUVVtRWxEUThmaGMwdDRteFpXRElEMEkyVU1JZnE4ajkwQzkwTWdMaW5nRXc?oc=5</t>
+  </si>
+  <si>
+    <t>pares.com.co</t>
+  </si>
+  <si>
+    <t>Registraduría avala firmas de De La Espriella, Caicedo y otros tres: ya van 15 certificados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxQLUdva2t5OGhuZHl4alI1S1p1UXgxNVQxOTI2MEtyVDVfb3MzeXd3bHFFc0d3MDNMTzg5SEVVc2NQU2tuTF9hNHFWM054aTQzYk54cDdBSnNBWkVqXzdCeDUxeWZLcklLMEs5UU8tLVFOSTB3N3ZJQ0ExaGh5b0tKd1c3aGpCeW9PVXhWWnozeXNtbU14SnlQOXhFa2xTaFAycVVxc3NNdmV1ZV9nYXd5emMydlhTM2lIcmt3dUVXLWNOMEF6elFvWEVkaTY3VDREWVlUODBtM3NiZS1vQjZ4X2lXWTRpZUlXMktUNjBMSzF0cUl5RlVfWkJ0U2lzTG1IUzB1cl9NY3M0RzlVX0pBZ0p5VXHSAagCQVVfeXFMTnN3WlRUSU5kaDVTWmlhS252dHZ3anF5eVlFMW5fZnZvVS12WmJhSVdTdXZtM0tET0Fub3J4WjNmeTFQWXVxVG8ya0g4V2FtOHMzSnVrdDlVdnQwY19QVWRmcmhRd2RvUDlMUEZEYTFiZWdfZWh0YU5ENlk4VUJQWnNkQmwwSmFteThqZ3BFZ1FJV2ROYS1Xdldwd3lzeVZ0V2Z2U0xPcU8zOFRlMkFBblNWVVYtMmF4QzNjXzJURlZvMHA4Y2ZKbms0aDd4ZlZWR3NiNHdLUkQ1VFozeDVPVzg5UGhkX1Y1VVNWSTNuZ0ZOTDlpa01OeDQ4ZXZGOEtRcUZlTzZzZWhCOWJCSGRocm5ZbHhIcXoxYkNjTlFmSUpUdWQtVF9teWs?oc=5</t>
+  </si>
+  <si>
+    <t>Naranjo descarta aspirar a la presidencia y cuestiona a De la Espriella: “Tenemos estilos de vida abismalmente distintos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxOMktfNzlTNTFpR1hKUFJ2VFRVQ2ZROWloVDRuMmFzRzRZUWNqMDEtWmw0VlFuRXN5NExldXh1eEJ6a2NtaERKRi1JOUxpVFJKTGJiRmpLWEl1YmJTSjNlazhfc0ZaZHc3SS1LTzBVYkxKdlllNTFGaWdhWDZqdGFWLWwwWXdLMDd4V240ZTF1cWdCZGJJNW1ZNEhVVk85a05iWTBOSG9kOF91eDVPVG9QUWJUal9SbXJiUGgtaGVGRk9fWEFKRHZMNlh3cFp5UXQ2S2Mxb1ppbTREb04xNHhMaTd6OEtHaWxnOVFGTWo2RVlKZzFFQ1RTdg?oc=5</t>
+  </si>
+  <si>
+    <t>['distintos']</t>
+  </si>
+  <si>
+    <t>“Tengo con de la Espriella una diferencia abismal de vida, defendió a muchos criminales que yo llevé a prisión”: General Naranjo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxNNjNvbnl4d05sTlNuYVVoOFRDUzYwa0Rvekoxby1IQkFtVGZHWEM0U0dkWXJydGdMTThma21ZZ05FRnFWcU5FQ0Y0WHBZSHh0eGQ0ZHk3UUs0UGw3SE9pUzVCTFJKMFhzWXBMZC1LTnNaZDItNDhtV3llZHh3eXE0Tl9SUlJhWnJJdXJWVGtMbFdsWmdfNXhvbDJ4STFrMUhrVTR0cFk3cHBRblpTTkp0TEhLNWpFTFBBV05xMFVPXzk4R3dVSXBHYTF1V2VLMzdfQ1JSZGJ2UG1ackhsR2RqYnVlRGQ?oc=5</t>
+  </si>
+  <si>
+    <t>['abismal']</t>
+  </si>
+  <si>
+    <t>Claudia López pide a Sergio Fajardo reconsiderar decisión de no participar en una tercera consulta</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/20/claudia-lopez-pide-a-sergio-fajardo-reconsiderar-decision-de-no-participar-en-una-tercera-consulta/</t>
+  </si>
+  <si>
+    <t>['tercera']</t>
+  </si>
+  <si>
+    <t>Claudia López propone una tercera consulta con Fajardo, Cristo y Armitage; ya uno le cerró la puerta | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/colombia/claudia-lopez-propone-una-tercera-consulta-presidencial-CG32706985</t>
+  </si>
+  <si>
+    <t>Espero que cambie de opinión: Claudia López invita a Fajardo a una consulta de centro</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/politica/espero-que-cambie-de-opinion-claudia-lopez-invita-a-fajardo-a-una-consulta-de-centro-rg10</t>
+  </si>
+  <si>
+    <t>Claudia López busca cónclave con tres fichas presidenciales y promueve consulta; le tocó la puerta a Fajardo</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/elecciones-colombia-2026/claudia-lopez-promueve-tercera-consulta-presidencial-fajardo-cristo-armitage-PP5003736A</t>
+  </si>
+  <si>
+    <t>“Cinismo inaceptable”: Fajardo luego de que el ministro de Salud se burló del gerente de hospital que lloró</t>
+  </si>
+  <si>
+    <t>https://www.publimetro.co/noticias/2026/01/20/cinismo-inaceptable-fajardo-luego-de-que-el-ministro-de-salud-se-burlo-del-gerente-de-hospital-que-lloro/</t>
+  </si>
+  <si>
+    <t>['inaceptable']</t>
+  </si>
+  <si>
+    <t>Claudia López invitó a Fajardo, Cristo y Armitage a participar en una consulta presidencial, ¿será viable?</t>
+  </si>
+  <si>
+    <t>https://www.publimetro.co/noticias/2026/01/20/claudia-lopez-invito-a-fajardo-cristo-y-armitage-a-participar-en-una-consulta-presidencial-sera-viable/</t>
+  </si>
+  <si>
+    <t>['presidencial', 'viable']</t>
+  </si>
+  <si>
+    <t>Claudia López plantea nueva consulta con Fajardo, Cristo y Armitage</t>
+  </si>
+  <si>
+    <t>https://www.laopinion.co/politica/claudia-lopez-plantea-nueva-consulta-con-fajardo-cristo-y-armitage-pero-ya-recibio-un-no</t>
+  </si>
+  <si>
+    <t>Cepeda, Roy y Romero se reunieron con Juan Fernando Cristo para pedirle que se sume al 'Pacto Amplio' y no a la eventual consulta de centro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwJBVV95cUxOOXgtbWNwTjcwcFN0ZTl0NC1mQ2lGS0g4dnFBbGY2ajFKRnFLYmF2c1I2UVZFUnM3al9ZMUh5eUtfWnJEMzZaTFpiN3pvNm9NZ2ZtXy1ybmxWV3A0Y0JQdUxyNy1BS0FJYldpVUhVVnRlWW9sVW9uelh2eFRpUGFDaF9xOWd1eWcwVnpmWjdTRWJKNGlxM05jZzFZbXhsM0lxWG0tUWhQeGRvZEJ6RTZpb1NZTjlHZVJISVpsb29kUTdiMkprNlpIeS1EVVk3ZU1BZFNPMUVnRDJjSnowbU9oQTUzcHp6ZFZQOWZwSk80c3NjRmJXZll1WGJHb0VlWk4tU0QtSm11MUtDZ1AxMU13Q2JaMXhkdEVaSndCNG5jUDdaLVJpY2tBSTQ3MNIBsAJBVV95cUxPNThDRzVMWjExLXJxb3B6T2tydVJPd25mUHpjN2dPR2wycU5lWGU2bkx4OUo5LWp6YkhicUJOc29ZaXkydlNpcW16TkFPbEthai0zaFQyRms3R1M1VE1ibzFwa1JvUXpYZEo2TjFQQ2pGa2ZrdE1NbW92LTU2eGMxYlFWQ21vb1M2Tk1yTGZTWF9FWWlIQ2pVZFMzam1GOGlqc2FhV3B2cGV1Wl9iazBmeF9MamJOREtDdzJINGN0aWVEdHM2RVZkdnZEczVDa3Y4OFpkaHd0WmpVeHdfQjZEU0s5TWJuc0ZEQnpxd0hmTGpBelBYa3NWb0p6Sk5vS1NNQnBkS2lKMnc5cU1DVGdPT0Y5OUtSZzhUM2ZMUkhiRUpZU0x6X0RNbExjVmRrMWNj?oc=5</t>
+  </si>
+  <si>
+    <t>['eventual']</t>
+  </si>
+  <si>
+    <t>Claudia López busca candidatos para una consulta de centro, se acerca a Fajardo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxOVnFobVNjcXJmOC1HS0RwQjB0RFNKMElrcTF3cEpCVkdRdGxMUE5KaDdQdUQxMzY0VTRUUjI2c01FOWxPbzhuSURjeFJ3VkZicUE3UmVJWWJNNmtEYmR4WmkwNkJOTzJvZzNmZnNmNUtFWWxDZjYxak0ySWx5dEJXMlU2amE1bWdURVU1VER4WHVRWUxWNERrMVdn?oc=5</t>
+  </si>
+  <si>
+    <t>Claudia López impulsa una tercera consulta de centro para las presidenciales de 2026, se acerca a Fajardo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxPR1JtWEtya0FnaWFxRTBMbVpqdC1aTW9PZ0UwVkZIV0hmYnNTeXd6X2NiVWRORDVaWkg5YnhnUjI0RzREcndDMXA3Ui1yemVzc2xiMjdTLThhVUhTTGN1NGp4M0FfcHZNTXJsVWxpNk9udndpUGtpUDlCRW5ETzAtY1VXamhMaThSMTg0TktadHJhQnRrSHAzR2J6OTBVdlRWRmFNN1JEbWZtSksxLTRlbFhWbmdjOFnSAbwBQVVfeXFMT21kNENKa0xTQW42eWMxMFpqMkdrUU1ucGN0NzUxT21iOVd4RnJvNUdBSGw0bTJmdzU5ZF9nSDdFZUdoUzlHVU1HbFM0LVRtUmhxUHVRWUFVV2hJTGdkMGRleV94RW1RQ2JYVE5RSVJUd3dFNkdTVVp4US1weWU2OFlKZVc0LWRNMDZ2dnpENEtfRV9jWmVtckFXelA2LVpwSEw4WFUxcmhEaW9uUlExTzVoYlBjS2txWkFieHo?oc=5</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>['tercera', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>impulsa</t>
+  </si>
+  <si>
+    <t>Ni de la derecha ni de la izquierda: una tercera consulta interpartidista empieza a moverse para elegir candidato</t>
+  </si>
+  <si>
+    <t>https://www.vanguardia.com/politica/2026/01/20/ni-de-la-derecha-ni-de-la-izquierda-una-tercera-consulta-interpartidista-empieza-a-moverse-para-elegir-candidato/</t>
+  </si>
+  <si>
+    <t>['posible']</t>
+  </si>
+  <si>
+    <t>Arley Sánchez</t>
+  </si>
+  <si>
+    <t>Impulsan diálogo sobre ciudades más humanas</t>
+  </si>
+  <si>
+    <t>https://www.vertigopolitico.com/nacional/notas/impulsan-dialogo-ciudades-mas-humanas/</t>
+  </si>
+  <si>
+    <t>vertigopolitico.com</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>4 claves para crear ciudades más justas, según político colombiano</t>
+  </si>
+  <si>
+    <t>https://conecta.tec.mx/es/noticias/ciudad-de-mexico/sostenibilidad/4-claves-para-crear-ciudades-mas-justas-segun-politico-colombiano</t>
+  </si>
+  <si>
+    <t>tec.com.mx</t>
+  </si>
+  <si>
+    <t>Candidato presidencial colombiano fortalece alianzas con la ultraderecha internacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxONDNYSmdIdy1Zajk1RHZ6Y2pZbzZzUkplcldTbUs5QUY4S2lTdFkzazFoMVhrVjNRekJ2YTBERTdqeGFiVExYWTZZM1BtMFBXb2pLWTI2WjdhbU5xVExQcW5YZmFra2xnU2ZyNzA3ajBHNThnNVFsS0lVY3pfdjFNcFZycUdCSEpnLTFVdWZCdkFiRHEwclhvb2VUX3R2T1dhRTM4WmRBWWEyUGtQcTRKeWZOZnpOcDhNUllR?oc=5</t>
+  </si>
+  <si>
+    <t>['presidencial', 'colombiano', 'internacional']</t>
+  </si>
+  <si>
+    <t>fortalece</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZVM4Z2dlSU1VY0pRUkpnZDlvVVdTR0tvRUZlaHh3MWg4eTNsN0I0YTBlaDQ4cU56bGlDOXhLR2doeElRMGJzMTBnQ2VjU2VxVXRKajl1VEFuYTc1c1JlSWprX0VzYW1ybDdEbnNjcjZKYUR6MTlrSWV3aWlpVHoxaWd4d0tjMHlaVWppZW1XelgxSjhCbjVqTFpyellBeTRpak5QVTRFRC1tdE5SNkpnTlZ1QTBFd3hP?oc=5</t>
+  </si>
+  <si>
+    <t>Los anteriores contratos con el Estado de los contribuyentes a las campañas de Iván Cepeda y Carolina Corcho para la consulta del Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxQbkFZSGE1Yko4TmNEcXl4MGpsb0hJSG01UW8wWXV0V1dDbHZ6TXJDeWRKTE9vZUVpS3lTTHp1UjgxbXlieHMwc1FnUXdsekgwMmdJMTJRTXdieEdndDAxcV9iS096WHNzLTRPOHN5cFdGZGoxbElvdzRhWUxibWxoajNZR0JwcU1NYnpjeFZQZU9SUl9oWXBDa3E4ZHpRZTRueXNjb0NuTnlYempVU2JST19kME5WcVRubEVUbklDNUFKQkJkMXJ1RHlUZHUyYk9XSjJxVm1QZExCZWpCem11OGQtU0Nqc2ROVk5KSnRoOWhiQkNKMElXU2xXUzJRTzR3RDNfajlSeUlidXZib2E0UVNn?oc=5</t>
+  </si>
+  <si>
+    <t>['anteriores']</t>
+  </si>
+  <si>
+    <t>Rumores de una posible inhabilidad en la candidatura de Iván Cepeda lo llevaron a advertir “presiones” para evitar su participación en la consulta de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgJBVV95cUxOSUFqcHpzQWZvaDFHbmFWUjJnVWVEQVFUWWZ5S080a3Vyd2tsSmxNX2NQMmk0UExfYUFVSkNPRGRVYW1ka3ZxcXZzYlNiaXVvMXZUVWFhcGJvczFaN1hRbDFPRzhJUlB5NWpfeVNwdmpLdGRDUFN2Mk1kMDU4MnlvSVJyS19CVnZVc1dpRUYtMG1XQlRoYWRBZkZCYTIyMzV1VTQ2cVZrSU1xMUhzek1KRk9TQ3R2enFBVGhyaEJoQ2lrZkxoQXZmLWpzRU9vRXQ4SGpIeXBVS0o0UWk0aTBkbnViRnI3UlJMUjJmLTVHRzNSbW1kMUl6NDZZdmo5LTZvZ0FEanlWT1dfQUJOdkpKRFJhb0x5V1ZKcmY4dldJcncwTEtiMl9vV0dR0gGvAkFVX3lxTE9NLVgtbkNzUTBxdnphTENEMkVUdjRyY3pQMzBGdTYxQ2NfR1FVM0M1WFhPWTNySXJac2FCZXlMUkdFQWZZMlk2M3V6Qzh2WGpZU2c3NWZ0UndoSngxMUZrcG1EaFF4NWF3a3hHcXRHaTNSZm1BR3FERVB4d050dWxlc2pKTzZZSzFPMjM3VmlCT25ud2RLVGtUdGxPWW8wZ2Y3N25RWFYySXBhWVV1RVh6dVJQZ3l5YWpOZmNDeU82VWVhSkJJUFJHUEtsODV4a3p3MEZ1LU5MMlpBbExQVzhTcGdvQjRLTERHcmN1ZENueGZpRFItdXBDb1YzbWZTSWdnS1dtblRWYkp0WDJRZG43emwzS2FsQTBrQjg4Rl91S21mT0ZCZXdPU2JkcUZTaw?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda y los secretos de un desayuno en su apartamento, en Bogotá, donde se habló del 2026: ¿quiénes asistieron?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNUVdydzJTTWJjRkpwRzRRZ2Nxam02c1lQc2E2U0hieTkzNEZOREowc0JxV3dwdE9sYTZuZlc1ajktMFN5VDd4ZXVqNXZubmNtb01GVm1PUFNwN1hGdU5tOUdsa0FvbkFlcFNieEptWDRxLTVyYkdEelJSUjBpOFJXS2c0ajBpeUQxaHpndElYQ0tOMW8wbnctRF9EeHplT01xQ3NVNFE1WE5LWUhtMUpoaFdsSURmdlRnXzFWMEtGeUx3akhsM3N1aHZTdVR2M3hhNU5FcTNuRDg2dFdqNmdnRm9lY0daZ2o5NzhtekZjRHZOclgtZUNHUWRPc9IBgAJBVV95cUxQWTd0c3FhUG5ZN2dzY1U2VmFILUJFNU1scmZzQTItYjBWMnYyam9HX2VoeXhlTnZEM3ZSYlJyNHc2aTdBQ2FOOG9rZzBpbFRiZlE1Z1BuVWQ4WnhQUjVsSWpkbGtKaVhOYjFRam9hdnU4ZF9VNlhhRWNPZUFHZmpIMWJKYS1SLUMwNnlMazk3TFdJdTl3NHA4RTRXV1h4dW0zcHpSYUZ4RHltV1g3aUpjM1AzSVRsd3VMcnJIMUhBTjQwa2o2TEVGanRyRlJ4NG9la2Y0U0xLVUJMNE9XVjZDWU1hZjh3cENBSEpmZmpsck1zSjJmM0RsLU9DWWY1OU55?oc=5</t>
+  </si>
+  <si>
+    <t>Campaña de Iván Cepeda confirma que irá a consulta de marzo: dicen que no está impedido</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOZUgxZFNDMUJSdWtnS3BuRGJfOHctTjJ3WnZ6bkNrVXNETzNMZzBsT0tEdjRGQkxkTkpTbkVXa3FEOG05UmdwNndwTGg0OWtsSG5hX01nVjJHUEZwd3kwWVFGM0J1azY0WVJScF8tamE3N3hCVnJvTXEtRmFOSXNnRUlaeml3c2sxN3JxMlhWeEtHR052d3N5RnktNUE4Snp2OE94dlBjcjFZZHNKYjluMlFkdzh4amVPdW81VGV30gHSAUFVX3lxTE9XazNBT0c4OGFDak5leGVxTHlhY0o5TXF5RVBCNkJneXFyX2lXaFdrckZJa0N6d2ozd1FTSGhzTzBkeVBTMEFTSEJoWVZqWXNWaUd6LTNZZXZWci1PTDh6bEpDZ0VaLW1QTV8xMTMtSEozX2tURF95U3l6bzF4TmFqaS1SUWlLMjBaZXIwX2FyTl9xNEMzX3V3TVhoWGtpY1pDQ2NQdlBGZlRMUGxOWjBMc1ltQlljX29TRkdFeVFDOWltRG05LVZzWlJJcXJqQTJxZw?oc=5</t>
+  </si>
+  <si>
+    <t>['impedido']</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQQVZlV0lGUWV1ZDV2T2haRGNUdFI4dkpRZVBkVVZ4Zl94TTFqczZUUDlOMExhalI5b211cmFMRVlGV2VMRTEwX0RTNjdHeU95WERXMWNURnZUM3N2M0d4UVFYU3E5ejZXVkVfN0hKdVBJTWwtNlZmTjc0S09KTF9sbVEyOXBPOFROM3hyQUdwQUYxdXR4d0tsZFlIOHNvenJzb082UmtCUQ?oc=5</t>
+  </si>
+  <si>
+    <t>De La Espriella, de frente con quienes no lo apoyan ante Iván Cepeda: "Viene una batalla muy dura"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQT01MUk81bTZTWWowVGx5c1JaWjQwV3Fyay03MEFGak1pVDg4N2pjSjVlZHdRd1BtOS12Q0tYTHl2dEJnOGdCQ25IREc1QzZZelFXN1NMREoyX0Vkc2ZEMk50QUJnTFZQWXc3LUxnRHJQMGlZbkxOLUYzS0g2WXJHX2VseWxUQ0lyeklYYlJxVlBJQm9Ka2N6QnRpSmZYTlFBSFphQjNlY213aFdmamJTZFNyTGVMVjl3cGE1SjVDcW3SAcYBQVVfeXFMUFJlWHlLcldXU2pncndhN2k2RDNFOXpNUVNKYWdOcFpJRTUzSDFURlJKdHdRbGJhUEN1M1g4VzMtTDAxSEtPcW95X3RTSUptN190ci1CRE9zSjFoeWNLTFpwVnN1R1U0ZVU4VlF4SlFlSTFtdHNVRkNJTW1xQkJoVTdObGVVR0N1RE1UZG9qNEFwblJoalFBb2JPREFyQzJoRDMtN3lhRUI1dlpUOFhpNW9wQmI4dG95dUc4czZROEVSZFdmTW9n?oc=5</t>
+  </si>
+  <si>
+    <t>['dura']</t>
+  </si>
+  <si>
+    <t>dura</t>
+  </si>
+  <si>
+    <t>Consulta del Pacto Histórico: las dudas en las cuentas de Iván Cepeda y Carolina Corcho</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxONzdfbXhVaVNlYWc1QWR2MzdQaWlYdmhrVVgydWZtbFY4RE5pT0JMUWtXSmYzbjdaWi1PUmlJN1NiVFBlS1BsRXJzd3N4RXVOVWllU042UVFfcjh0WUpTOVNqLWEwS2VWQmFoWldkUEpiaUF5bDc2X0xhcngxSHZLMXNiT2JOdzczY3NKME5FU0lQSFg2M0JNVm1fei1qRzlDbEg3UllvM3d0OGdrNVpwOVFSclktT0wzaEZtNVlpYjhwdGxWakFCOXpGSHFmUdIB0wFBVV95cUxNYXJ6S1ltZzhCQ1lWbUc4aTlERERHWXZsUzRvWUxma0VzSlpVeW42ZUhxYVh2M2tJR2trN1RYUHoyUUhNMy1CbEg5SUZGTmZuSDNLbDNVTnVpbVZ1cWNhU2VHalhOU0FQRUx3LXczcjN2OVlzQktLQkp0X2haZHBIUktORnE2aEhnOUlKbEdGNUhpRjhLSWhuRVU0WnViUDE5NVpCd0lIUFVyNFVBbXFJci0wb1BReXpXNEQyR3Q1a0dueVB2WkRQUlJIUzlhMGpsYWMw?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda advierte sobre presiones para impedir su participación en la consulta interpartidista; esto denunció</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxQNXpBVW9HMXdoR3UtbFo3dlVoVnduZEFpcHFoTVItTzRLZXdTUXBoNXlITmdNNmhFUmdMUlFjUm5kTjRhNW5DNXloaFUxV0I1bU51RGNudnQwLXZIUWpoMkI4M3pqbkp5aFowbS1pX3ZzLTVEZzF2NHZJSGtVVUFNU0wybmJDNXlPSmNjU0J3eTQ2TjJxN01GeUlmQlNXOTFBRlpqZDRzRkpwYU5FUDU0Zk83bEN0NVlMZTRVRUtRMHQxYXE5LTNHUE0yalpZTWRyY0J1ZXE5QThlVk11QkpOQXNJN0g3WkY2QnRpV2k3M3ZTbEJC0gH0AUFVX3lxTFA1ekFVb0cxd2hHdS1sWjd2VWhWd25kQWlwcWhNUi1PNEtld1NRcGg1eUhOZ002aEVSZ0xSUWNSbmRONGE1bkM1eWhoVTFXQjVtTnVEY252dDAtdkhRamgyQjgzempuSnloWjBtLWlfdnMtNURnMXY0dklIa1VVQU1TTDJuYkM1eU9KY2NTQnd5NDZOMnE3TUZ5SWZCU1c5MUFGWmpkNHNGSnBhTkVQNTRmTzdsQ3Q1WUxlNFVFS1EwdDFhcTktM0dQTTJqWllNZHJjQnVlcTlBOGVWTXVCSk5Bc0k3SDdaRjZCdGlXaTczdlNsQkI?oc=5</t>
+  </si>
+  <si>
+    <t>['interpartidista']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda insiste en que puede participar en consulta amplia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQVi1ZaDI0RVNjdjM1U01KQWlxd3JqUVppZHQyOUpqdEZxb0dkdXROUUh5T0UwdU9EWWdNOEpKcll6TzZPOU5VY3NMdXpRa2U0ZnlSV3NIdGVXQ3hub09HWTBqWUNtYl9xSTdqZ0ZLaGFrV0ZvZGtqU2JHRFpqcllzeHBKMmZpbmRjWWx0LTFVaG1jSmlTUWtLc1p4M2RZVEFZRVRCbVp3?oc=5</t>
+  </si>
+  <si>
+    <t>['amplia']</t>
+  </si>
+  <si>
+    <t>Empresario de Barranquilla niega aporte millonario a campaña presidencial de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNWDJVbzFZeXlSTThSNy0yb21BQ0E5eUROMjEyaWtZYVItdW1JcV9uZHpkR2ZXWGV3Q001UXpHYkdxNTdrb0RwckNiMndjNUZXdGdLVzY1OC1xOG9HbFRiWmxiazgtVUg5N25JVVpyamhYNWhTdHVwcXZyNzU1elVkdnY4VHc4SHBRenk5LS1aT01tNk1nQV9yOWxhelhLY25lUEVsX1JBOE5yai10dnZOYkNKa1ZfR2xrMnZLaGhEZjU3S0FpdkdtRjhWQW5JMDJi?oc=5</t>
+  </si>
+  <si>
+    <t>Dudas en las cuentas de la campaña presidencial de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxPZFVnZ1Bqc3NtOEYwTmVuN0IzUEJIalZGTWhXejB4TTF1enEwdllDemszQ3BWWWl6bDZtQUY3UjVrTUl3ZjVNb005WWZBcnlucjdTTlBvS1ROQlVCdUdkTnhWMjRtOVdJcUZLd2tyc0ExNFVWNE1NXzlQY1FpekpVR0tOWHNrQ2VmSzkxWXhNTWFWNjZkWnB5Q3dlWlk?oc=5</t>
+  </si>
+  <si>
+    <t>lapatria.com</t>
+  </si>
+  <si>
+    <t>Caldas</t>
+  </si>
+  <si>
+    <t>Iván Cepeda advirtió sobre presiones de sectores del país para obstaculizar su participación en consulta del 8 de marzo: “Violación a los derechos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAJBVV95cUxQS0ZNVmh6TEVaWjc4MkZQeGQ2TFVpc21yV2J5bllJbEJZbG9sUlNLLXNjR21sQjJWQUxON3pnNXZRYXNBUGlMeDhmakdXTVV4U2w1TDJLU2NIdUR0ajdqam5xdDBXbldOSjJTR0UyME1tamxfaXd6c2F0Y1E4XzRFWEFodE9fbkZUdDJ0dmN6YnduLS1rQlJfUW9ONkFYekpmVFFpVHIyRHR4b1N5T08xWHVZV2xCNFozMnMtamtPNTk3Q253VW10OEhhUWtaeWJnOG5qeXB3ck9jTHhjdFVydHItOFJzZVlUUWRKYV8tZ1Q1RlRiNVRfRXFHWE90U3dRc1RRMjd5RDBURFlZbGRVbnBOLW1TT09Q0gGzAkFVX3lxTE9ScWpQbktfMTFYdlZObU13WHZYdWZMZ283MExjUkJTX3FTazdTci0tcG5OZmhULVBxcTNEV0ZlZkFKMjhweXkzdjN4RU91VzNzY2FzR3BPN0FwUmNuVm1WbzJYSkQtS09EdU8zaFBGV3VwcjFwV2VaVHJYeU45MVltRWlPMGQ0dHdfNlZRN1pQbFJaQmV6MmtEc2s0SExBXy1kN2JxeWZ1UG5mZGRteHFrY1RfVHRSc2pZdnZrRWgwekF4aTFEMmhqZndEdlFUTTZjMWlVVHduTE9UTVBBUjdpUUF2Y05SQVdnLU9QZ3l4TmdReGR1QUNmVnl5YmtGQVpjcnJqa0tqVzhwdjNGaUhFQ2w3TWpLeFdhcHdDaERTSGpmRDFqR29KQkcwS1Y0cWxjWmM?oc=5</t>
+  </si>
+  <si>
+    <t>violación</t>
+  </si>
+  <si>
+    <t>Empresa de Barranquilla dice que no ha aportado dinero a campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPajA2VE50cm85dkR4QzIwZHBpM1FoWkJ2WDU3Z1JSRk9Lc2UyVl9hc3doR0pKWFRGekdBMkFiNVRPeHhoWEk4aFA2bjJxQWk3Y1RkejlobnFXNDVuRGxDOThxeFhqVTV6RXNOVVF2V2d6SnE3RzV6Wkh5VVpLNG9ORl9OdUg2MHhvT2MyNTdxRmRUTXg3dzdHd0VYX192cE91NXJQanNmZzlpZw?oc=5</t>
+  </si>
+  <si>
+    <t>Bogotá: Cepeda inicia campaña con elogios a Petro y a la Primera Línea</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPN2hZVDJraEVUQ0dSX0FLZHpiM0NKdldFODUxQmpBRmVQck9WWVNyemhVZWlXVzFkLXVySUZWbVNsd3JZUGxRTF9VZTFJZGt2QTlETTdSV3ByV1NvZ3RNdExNNUtKX0s2WXRWY1RqMkkydmVLc3k3aUJ0WXZzWUR2NDV4OVpmc2pLZzBjT3BfWllacW9WYk8xOFVxZEdsRlc4QzJVVFNiWDl3SlU?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda lleva una década de silencio frente a la opresión del chavismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQRmdHNVpnQnNDUG5tUVA3NnliM2lOOVU1NVhMX3BPS21nUmg2dW0yakhUTFNzTFIyUlhaOHZFUXlfazRnSVVFaTQ5c2lldzk4R1FXWEt2OE1uTmw1QnZIZzYyVVducFMxa0pLRk5nMVpuQ1hIUEtYQmFpWmVsOXhpVUFyQkI0dUFGdy1rXzVLTzNiWGliTGdBM1ZGSEJlZWJnOVhiQTVLcmpwWTJjdEZmWm16d3g?oc=5</t>
+  </si>
+  <si>
+    <t>Jaime Andrés Beltrán desiste de su candidatura al Senado y se une a campaña de Abelardo de La Espriella: la 'jugada' política detrás de esta decisión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogJBVV95cUxNYlRxdTctVWlLUE5aRmVHNHYtOGloV1loVVJ0QVcyMnVXZ01pSVByU2x4WUdlWUs4WmNrNzZ5VmpsVVc3clBKcUxXV3NLZ04wMVNNTGlpV3dQd1BLY3RtS2U1Mkh0dU9pUTBIc2Mzb1Y5cThLY3h3WlJvWTdRUVVxdV96aGpIREU2a3hRUEZCVC1jUHdYTkg1azZkWnk1ZEQyb2c1a2pEZ0pBLXpCdV9xSklNQWx4N251X3hGenYxdTJ6dUJXc2VuaThwYks0SXhQZElON3RkX2xmd0JUSWJOTEYxanJLdXlWbjRHMjdwbC1CZll3d203aDNOWmotVWJtb0U0c1hibExOaGhYaDJtS0xTbm1OUHh5U1ZsNVpTVFJzUdIBpwJBVV95cUxOVWpwR19aZjM3SExVaEgzVDBXY0tGbVU2WGM0V1FpSjBGNzlWbjE2VUlaQ1VIZmUwcTFxQVAyOGpjN0hkMEg5R1oyRml1ckN1R216Z08tMVJFNHQ1Y0FjU3JLdGo3eUc3WUtqX2FyT1NTcEhmRFczZEFUeGZKM0hXeXQxVjd4Tkp5aDZmVEphYzRqWUtLMXZoRHlXcnlnTHFrQzlqWGNYVXd6V2F6MmlLUmJtTkFqTnVkLWlEcExCZDJoVjVTeWtIaEJiNmdSRmVpcUpGb2hLLVpvcDdpSFQ1Xy1DdjlILW9xdFJQRkpObGkxTW5McDNTaFFDOUpJR3FxdnNCc05PSGtjeFZxTXdwZmRIXzJSNmwtWnN3aFMyT1d0eW9mZ0Fv?oc=5</t>
+  </si>
+  <si>
+    <t>Exalcalde de Bucaramanga Jaime Andrés Beltrán declinó su aspiración al Senado: apoyará a Abelardo de la Espriella en su carrera presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxNQzFnQUJQdkZNT1dKV2FHdTlkaHdscEY1MmN6LTNrU0g4MmswQnRFeWNUeU0xYUFROTR3ZUFQUktIYS1lRVFjSGtPdTB5OTB1b0Z1WU9CQm5oNDFhbC0xcHl2ZGNBSk51M1NxZFJCOVdQaW41YTZGYnhNTDV0N0VNTTlTYWVUSmRXY2x1ZTRubjNkdHdiSWtlLS1nT0UtOEpDVC1iQ3kwZ2FacXZoUm11T01mb05zOUR2Z2huVjBnQmFoYTB3YnkyOTd2TmdiWnBDeGZuR3ZXTldkQkhqMG4wM2xDLVItUFVXXzFyNnRuV3VTQ2tnQVlKcDI3N3hYTG5sM21ESVYxNUgxWmphQ05aOW1B0gGsAkFVX3lxTE56UFNBN2xWZ3RKemNDZVpZa29vNWZHclUzZWpGanVsMlNCUUVvSW9Xa3IyMjJvNlpvaGxWZk41dWJsOUVyeGZCbDY3MXlEbm0yT2dtSnM2WHZfamg4LWs3QlJxcU5pYTk1QUZvNHlHLVE2SzF5R2lDbE1PYmRXVk9oSUZTNGZvWTJ4UjVjTmV0TG9XTWZPYXB6OU9FLTJ6SWNJYkQ1N0NibTRRRmtDRFhzekJDV0I5SVFuT0N1TVRFRlowVnUzNDRINXBPSkFJbDFlNThDOXNoQWZlVkdxU0FZdHE5UTdfMXhTMThhVEJJa0dZZG9BUHBReVBSZWwyUEpJa0V5ZXBRSWNWLURkREdLZUxFd3RzX2NKM1dFbVlXcXFsUWxMMjh2eXN1Tg?oc=5</t>
+  </si>
+  <si>
+    <t>Registraduría da luz verde a Abelardo de la Espriella como candidato presidencial por firmas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFB4WWVaamNUb2puLUxUR1VXR1BrNVNEMWJrR3NKTi03cTVZcXhLZXpTNmUtX1NtbjM1dkQzOUgtaV9ZR0J6MFpaWFY1eENoRjAyZDNYUkNPMXFZNDhPUTV1Vm9JY0lHb21LdEdRQlRLNkZLUzNzUFUtUXhlSmRJOGM?oc=5</t>
+  </si>
+  <si>
+    <t>['verde', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Jaime Andrés Beltrán se une a la campaña de Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxOMXR3SXdacWEyV3JYUzN2WWVqdTRrdzEyNDJuRlRQSHlaeGhWaEhWQndvMk1QeUlKajczQW9GTUNqZzU3S1U0MzY5Wi1DYS1NeVNsN0ZhcGlUbnVwTGtOc3Y1UGVUblNjNnEwRzR6M2tzdXd2el9NWktpcnJIZHoxd3VXMk1aV0kxWnE2V2xjdVZrWUp5QVprdWhKczZFdWZxLW9haGFCTXRqMThkRExCa25yRjk?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella, el candidato de la censura</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxPSEdGZnhQc0hRNHZqQlpPVTZKUWR1N2RlZzNNMXQwWlhLUWM5RC1VZkozRWRhYnBnbjdvYkdNTDVraXdDR3JKbUctZFdzRFhjX2VudUp6bHBlN1c5bG5kYVZNbFlFTVRPdTVudXcyTFgyLU1MdExDUVMwa1lfRFZEekUxZWVtT0ZRV3RBZkl1RjlCTm9nSDZ4QmdZTDd6V25vcVdndERWeEdBaVFvZ3dXQUJxNUPSAcgBQVVfeXFMUE0tTkVra0V4R1Q0NHQxbENSS1MtbXlvTi1JU1dKbXlPREJETVljVEh5YVlkU05HY3N1bEwtX3dzTDFEUkxXbko0WjAzbWUwVElZUVJISVpPaE1HWE9EenFJMmtnUTh4LVNGdTY2UHoySThMb3FndnlOUEtNX1A5WTZXRGpRZ0Y0UjBCVWlsYVYzTGNwSndYeVFqeDhQMVBGUkE3bFhpaHprQUpIb2RKSTEySVRqelRzdEJJV09rR1pRTnhxVlRhQTQ?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella, entre los confirmados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxOMFJBTmFTOG9maFBLT1czdlZycVZoQjRISnFuM1pfZHREZzd0LU5ySTNRbEY2dEw2aklfa2tyWjJfRWt3S3R1dUtFRW1UWE14MVFNX1hBbGxJcnJ0eC1OeERIWDM3RHNPX19FWXBrQ3RndnVZcUpsMHNUeVFkcm5xTHp4RC1BZ2M?oc=5</t>
+  </si>
+  <si>
+    <t>elmeridiano.co</t>
+  </si>
+  <si>
+    <t>['confirmados']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,6 +2202,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1850,10 +2557,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2211,10 +2919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6413,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>46041</v>
       </c>
@@ -6440,6 +7148,2562 @@
       </c>
       <c r="J145" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B146" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" t="s">
+        <v>446</v>
+      </c>
+      <c r="D146" t="s">
+        <v>447</v>
+      </c>
+      <c r="E146" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" t="s">
+        <v>448</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s">
+        <v>447</v>
+      </c>
+      <c r="J146" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B147" t="s">
+        <v>449</v>
+      </c>
+      <c r="C147" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" t="s">
+        <v>86</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B148" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" t="s">
+        <v>454</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B149" t="s">
+        <v>455</v>
+      </c>
+      <c r="C149" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B150" t="s">
+        <v>457</v>
+      </c>
+      <c r="C150" t="s">
+        <v>458</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>21</v>
+      </c>
+      <c r="I150" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B151" t="s">
+        <v>459</v>
+      </c>
+      <c r="C151" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" t="s">
+        <v>461</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
+        <v>462</v>
+      </c>
+      <c r="I151" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B152" t="s">
+        <v>463</v>
+      </c>
+      <c r="C152" t="s">
+        <v>464</v>
+      </c>
+      <c r="D152" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>24</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B153" t="s">
+        <v>465</v>
+      </c>
+      <c r="C153" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" t="s">
+        <v>467</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s">
+        <v>24</v>
+      </c>
+      <c r="J153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B154" t="s">
+        <v>468</v>
+      </c>
+      <c r="C154" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="s">
+        <v>470</v>
+      </c>
+      <c r="G154" t="s">
+        <v>21</v>
+      </c>
+      <c r="I154" t="s">
+        <v>24</v>
+      </c>
+      <c r="J154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B155" t="s">
+        <v>471</v>
+      </c>
+      <c r="C155" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" t="s">
+        <v>473</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s">
+        <v>123</v>
+      </c>
+      <c r="J155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B156" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" t="s">
+        <v>86</v>
+      </c>
+      <c r="J156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B157" t="s">
+        <v>476</v>
+      </c>
+      <c r="C157" t="s">
+        <v>477</v>
+      </c>
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" t="s">
+        <v>478</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s">
+        <v>216</v>
+      </c>
+      <c r="J157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B158" t="s">
+        <v>479</v>
+      </c>
+      <c r="C158" t="s">
+        <v>480</v>
+      </c>
+      <c r="D158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="s">
+        <v>481</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>216</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B159" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" t="s">
+        <v>483</v>
+      </c>
+      <c r="D159" t="s">
+        <v>108</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
+        <v>253</v>
+      </c>
+      <c r="G159" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>108</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B160" t="s">
+        <v>484</v>
+      </c>
+      <c r="C160" t="s">
+        <v>485</v>
+      </c>
+      <c r="D160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" t="s">
+        <v>486</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>129</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B161" t="s">
+        <v>487</v>
+      </c>
+      <c r="C161" t="s">
+        <v>488</v>
+      </c>
+      <c r="D161" t="s">
+        <v>172</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>489</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="I161" t="s">
+        <v>172</v>
+      </c>
+      <c r="J161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B162" t="s">
+        <v>490</v>
+      </c>
+      <c r="C162" t="s">
+        <v>491</v>
+      </c>
+      <c r="D162" t="s">
+        <v>172</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" t="s">
+        <v>253</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>172</v>
+      </c>
+      <c r="J162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B163" t="s">
+        <v>492</v>
+      </c>
+      <c r="C163" t="s">
+        <v>493</v>
+      </c>
+      <c r="D163" t="s">
+        <v>494</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="s">
+        <v>495</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="I163" t="s">
+        <v>494</v>
+      </c>
+      <c r="J163" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B164" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164" t="s">
+        <v>498</v>
+      </c>
+      <c r="D164" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s">
+        <v>357</v>
+      </c>
+      <c r="I164" t="s">
+        <v>175</v>
+      </c>
+      <c r="J164" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B165" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" t="s">
+        <v>500</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>21</v>
+      </c>
+      <c r="I165" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B166" t="s">
+        <v>501</v>
+      </c>
+      <c r="C166" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>22</v>
+      </c>
+      <c r="J166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B167" t="s">
+        <v>503</v>
+      </c>
+      <c r="C167" t="s">
+        <v>504</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" t="s">
+        <v>505</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B168" t="s">
+        <v>506</v>
+      </c>
+      <c r="C168" t="s">
+        <v>507</v>
+      </c>
+      <c r="D168" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>508</v>
+      </c>
+      <c r="G168" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" t="s">
+        <v>145</v>
+      </c>
+      <c r="J168" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B169" t="s">
+        <v>509</v>
+      </c>
+      <c r="C169" t="s">
+        <v>510</v>
+      </c>
+      <c r="D169" t="s">
+        <v>511</v>
+      </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>21</v>
+      </c>
+      <c r="I169" t="s">
+        <v>511</v>
+      </c>
+      <c r="J169" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B170" t="s">
+        <v>512</v>
+      </c>
+      <c r="C170" t="s">
+        <v>513</v>
+      </c>
+      <c r="D170" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" t="s">
+        <v>514</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="I170" t="s">
+        <v>48</v>
+      </c>
+      <c r="J170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B171" t="s">
+        <v>515</v>
+      </c>
+      <c r="C171" t="s">
+        <v>516</v>
+      </c>
+      <c r="D171" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="I171" t="s">
+        <v>63</v>
+      </c>
+      <c r="J171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B172" t="s">
+        <v>517</v>
+      </c>
+      <c r="C172" t="s">
+        <v>518</v>
+      </c>
+      <c r="D172" t="s">
+        <v>123</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" t="s">
+        <v>201</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" t="s">
+        <v>123</v>
+      </c>
+      <c r="J172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B173" t="s">
+        <v>519</v>
+      </c>
+      <c r="C173" t="s">
+        <v>520</v>
+      </c>
+      <c r="D173" t="s">
+        <v>123</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="s">
+        <v>332</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" t="s">
+        <v>123</v>
+      </c>
+      <c r="J173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B174" t="s">
+        <v>521</v>
+      </c>
+      <c r="C174" t="s">
+        <v>522</v>
+      </c>
+      <c r="D174" t="s">
+        <v>123</v>
+      </c>
+      <c r="E174" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" t="s">
+        <v>124</v>
+      </c>
+      <c r="G174" t="s">
+        <v>21</v>
+      </c>
+      <c r="I174" t="s">
+        <v>123</v>
+      </c>
+      <c r="J174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B175" t="s">
+        <v>523</v>
+      </c>
+      <c r="C175" t="s">
+        <v>524</v>
+      </c>
+      <c r="D175" t="s">
+        <v>86</v>
+      </c>
+      <c r="E175" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>21</v>
+      </c>
+      <c r="I175" t="s">
+        <v>86</v>
+      </c>
+      <c r="J175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B176" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" t="s">
+        <v>526</v>
+      </c>
+      <c r="D176" t="s">
+        <v>129</v>
+      </c>
+      <c r="E176" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" t="s">
+        <v>527</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>528</v>
+      </c>
+      <c r="I176" t="s">
+        <v>129</v>
+      </c>
+      <c r="J176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B177" t="s">
+        <v>529</v>
+      </c>
+      <c r="C177" t="s">
+        <v>530</v>
+      </c>
+      <c r="D177" t="s">
+        <v>129</v>
+      </c>
+      <c r="E177" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" t="s">
+        <v>531</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s">
+        <v>129</v>
+      </c>
+      <c r="J177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B178" t="s">
+        <v>532</v>
+      </c>
+      <c r="C178" t="s">
+        <v>533</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" t="s">
+        <v>535</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" t="s">
+        <v>536</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B180" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" t="s">
+        <v>538</v>
+      </c>
+      <c r="D180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" t="s">
+        <v>539</v>
+      </c>
+      <c r="G180" t="s">
+        <v>21</v>
+      </c>
+      <c r="I180" t="s">
+        <v>30</v>
+      </c>
+      <c r="J180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" t="s">
+        <v>541</v>
+      </c>
+      <c r="D181" t="s">
+        <v>263</v>
+      </c>
+      <c r="E181" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s">
+        <v>263</v>
+      </c>
+      <c r="J181" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B182" t="s">
+        <v>542</v>
+      </c>
+      <c r="C182" t="s">
+        <v>543</v>
+      </c>
+      <c r="D182" t="s">
+        <v>263</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" t="s">
+        <v>544</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="I182" t="s">
+        <v>263</v>
+      </c>
+      <c r="J182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B183" t="s">
+        <v>545</v>
+      </c>
+      <c r="C183" t="s">
+        <v>546</v>
+      </c>
+      <c r="D183" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" t="s">
+        <v>547</v>
+      </c>
+      <c r="G183" t="s">
+        <v>21</v>
+      </c>
+      <c r="I183" t="s">
+        <v>48</v>
+      </c>
+      <c r="J183" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B184" t="s">
+        <v>548</v>
+      </c>
+      <c r="C184" t="s">
+        <v>549</v>
+      </c>
+      <c r="D184" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" t="s">
+        <v>550</v>
+      </c>
+      <c r="I184" t="s">
+        <v>63</v>
+      </c>
+      <c r="J184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B185" t="s">
+        <v>551</v>
+      </c>
+      <c r="C185" t="s">
+        <v>552</v>
+      </c>
+      <c r="D185" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>553</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="I185" t="s">
+        <v>75</v>
+      </c>
+      <c r="J185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B186" t="s">
+        <v>554</v>
+      </c>
+      <c r="C186" t="s">
+        <v>555</v>
+      </c>
+      <c r="D186" t="s">
+        <v>219</v>
+      </c>
+      <c r="E186" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>219</v>
+      </c>
+      <c r="J186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B187" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" t="s">
+        <v>557</v>
+      </c>
+      <c r="D187" t="s">
+        <v>129</v>
+      </c>
+      <c r="E187" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" t="s">
+        <v>558</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" t="s">
+        <v>129</v>
+      </c>
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B188" t="s">
+        <v>559</v>
+      </c>
+      <c r="C188" t="s">
+        <v>560</v>
+      </c>
+      <c r="D188" t="s">
+        <v>175</v>
+      </c>
+      <c r="E188" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" t="s">
+        <v>561</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" t="s">
+        <v>175</v>
+      </c>
+      <c r="J188" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B189" t="s">
+        <v>562</v>
+      </c>
+      <c r="C189" t="s">
+        <v>563</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>564</v>
+      </c>
+      <c r="G189" t="s">
+        <v>21</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B190" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" t="s">
+        <v>566</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" t="s">
+        <v>567</v>
+      </c>
+      <c r="G190" t="s">
+        <v>21</v>
+      </c>
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B191" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" t="s">
+        <v>569</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>21</v>
+      </c>
+      <c r="H191" t="s">
+        <v>570</v>
+      </c>
+      <c r="I191" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B192" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" t="s">
+        <v>572</v>
+      </c>
+      <c r="D192" t="s">
+        <v>573</v>
+      </c>
+      <c r="E192" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s">
+        <v>573</v>
+      </c>
+      <c r="J192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B193" t="s">
+        <v>574</v>
+      </c>
+      <c r="C193" t="s">
+        <v>575</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>21</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B194" t="s">
+        <v>576</v>
+      </c>
+      <c r="C194" t="s">
+        <v>577</v>
+      </c>
+      <c r="D194" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" t="s">
+        <v>578</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
+        <v>221</v>
+      </c>
+      <c r="I194" t="s">
+        <v>175</v>
+      </c>
+      <c r="J194" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195" t="s">
+        <v>573</v>
+      </c>
+      <c r="E195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" t="s">
+        <v>581</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s">
+        <v>221</v>
+      </c>
+      <c r="I195" t="s">
+        <v>573</v>
+      </c>
+      <c r="J195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B196" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D196" t="s">
+        <v>219</v>
+      </c>
+      <c r="E196" t="s">
+        <v>34</v>
+      </c>
+      <c r="F196" t="s">
+        <v>584</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>219</v>
+      </c>
+      <c r="J196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B197" t="s">
+        <v>585</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D197" t="s">
+        <v>123</v>
+      </c>
+      <c r="E197" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197" t="s">
+        <v>584</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>123</v>
+      </c>
+      <c r="J197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B198" t="s">
+        <v>587</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D198" t="s">
+        <v>216</v>
+      </c>
+      <c r="E198" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>216</v>
+      </c>
+      <c r="J198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B199" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D199" t="s">
+        <v>129</v>
+      </c>
+      <c r="E199" t="s">
+        <v>34</v>
+      </c>
+      <c r="F199" t="s">
+        <v>253</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>129</v>
+      </c>
+      <c r="J199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B200" t="s">
+        <v>591</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D200" t="s">
+        <v>349</v>
+      </c>
+      <c r="E200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" t="s">
+        <v>593</v>
+      </c>
+      <c r="G200" t="s">
+        <v>21</v>
+      </c>
+      <c r="I200" t="s">
+        <v>349</v>
+      </c>
+      <c r="J200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B201" t="s">
+        <v>594</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D201" t="s">
+        <v>349</v>
+      </c>
+      <c r="E201" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" t="s">
+        <v>596</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>349</v>
+      </c>
+      <c r="J201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B202" t="s">
+        <v>597</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D202" t="s">
+        <v>365</v>
+      </c>
+      <c r="E202" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" t="s">
+        <v>344</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>365</v>
+      </c>
+      <c r="J202" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B203" t="s">
+        <v>599</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D203" t="s">
+        <v>75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>25</v>
+      </c>
+      <c r="F203" t="s">
+        <v>601</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>75</v>
+      </c>
+      <c r="J203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B204" t="s">
+        <v>602</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D204" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>86</v>
+      </c>
+      <c r="J204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B205" t="s">
+        <v>604</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D205" t="s">
+        <v>411</v>
+      </c>
+      <c r="E205" t="s">
+        <v>606</v>
+      </c>
+      <c r="F205" t="s">
+        <v>607</v>
+      </c>
+      <c r="G205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H205" t="s">
+        <v>608</v>
+      </c>
+      <c r="I205" t="s">
+        <v>411</v>
+      </c>
+      <c r="J205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B206" t="s">
+        <v>609</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" t="s">
+        <v>611</v>
+      </c>
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>135</v>
+      </c>
+      <c r="J206" t="s">
+        <v>136</v>
+      </c>
+      <c r="K206" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B207" t="s">
+        <v>613</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D207" t="s">
+        <v>615</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" t="s">
+        <v>21</v>
+      </c>
+      <c r="I207" t="s">
+        <v>615</v>
+      </c>
+      <c r="J207" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B208" t="s">
+        <v>617</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D208" t="s">
+        <v>619</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" t="s">
+        <v>21</v>
+      </c>
+      <c r="I208" t="s">
+        <v>619</v>
+      </c>
+      <c r="J208" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B209" t="s">
+        <v>620</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D209" t="s">
+        <v>252</v>
+      </c>
+      <c r="E209" t="s">
+        <v>28</v>
+      </c>
+      <c r="F209" t="s">
+        <v>622</v>
+      </c>
+      <c r="G209" t="s">
+        <v>21</v>
+      </c>
+      <c r="H209" t="s">
+        <v>623</v>
+      </c>
+      <c r="I209" t="s">
+        <v>252</v>
+      </c>
+      <c r="J209" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B210" t="s">
+        <v>620</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D210" t="s">
+        <v>71</v>
+      </c>
+      <c r="E210" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" t="s">
+        <v>622</v>
+      </c>
+      <c r="G210" t="s">
+        <v>21</v>
+      </c>
+      <c r="H210" t="s">
+        <v>623</v>
+      </c>
+      <c r="I210" t="s">
+        <v>71</v>
+      </c>
+      <c r="J210" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B211" t="s">
+        <v>625</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D211" t="s">
+        <v>75</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211" t="s">
+        <v>627</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>75</v>
+      </c>
+      <c r="J211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B212" t="s">
+        <v>628</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" t="s">
+        <v>611</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>24</v>
+      </c>
+      <c r="J212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B213" t="s">
+        <v>630</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>24</v>
+      </c>
+      <c r="J213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B214" t="s">
+        <v>632</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D214" t="s">
+        <v>219</v>
+      </c>
+      <c r="E214" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" t="s">
+        <v>634</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>219</v>
+      </c>
+      <c r="J214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B215" t="s">
+        <v>474</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D215" t="s">
+        <v>86</v>
+      </c>
+      <c r="E215" t="s">
+        <v>25</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>86</v>
+      </c>
+      <c r="J215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B216" t="s">
+        <v>636</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D216" t="s">
+        <v>129</v>
+      </c>
+      <c r="E216" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216" t="s">
+        <v>638</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" t="s">
+        <v>639</v>
+      </c>
+      <c r="I216" t="s">
+        <v>129</v>
+      </c>
+      <c r="J216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B217" t="s">
+        <v>640</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D217" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B218" t="s">
+        <v>642</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D218" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>644</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B219" t="s">
+        <v>645</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D219" t="s">
+        <v>304</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F219" t="s">
+        <v>647</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>304</v>
+      </c>
+      <c r="J219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B220" t="s">
+        <v>648</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D220" t="s">
+        <v>175</v>
+      </c>
+      <c r="E220" t="s">
+        <v>25</v>
+      </c>
+      <c r="F220" t="s">
+        <v>124</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>175</v>
+      </c>
+      <c r="J220" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B221" t="s">
+        <v>650</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D221" t="s">
+        <v>652</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
+      </c>
+      <c r="F221" t="s">
+        <v>124</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>652</v>
+      </c>
+      <c r="J221" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B222" t="s">
+        <v>654</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D222" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" t="s">
+        <v>656</v>
+      </c>
+      <c r="I222" t="s">
+        <v>22</v>
+      </c>
+      <c r="J222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B223" t="s">
+        <v>657</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D223" t="s">
+        <v>391</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>391</v>
+      </c>
+      <c r="J223" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B224" t="s">
+        <v>659</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D224" t="s">
+        <v>86</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>86</v>
+      </c>
+      <c r="J224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B225" t="s">
+        <v>661</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D225" t="s">
+        <v>86</v>
+      </c>
+      <c r="E225" t="s">
+        <v>25</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>86</v>
+      </c>
+      <c r="J225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B226" t="s">
+        <v>663</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D226" t="s">
+        <v>75</v>
+      </c>
+      <c r="E226" t="s">
+        <v>28</v>
+      </c>
+      <c r="F226" t="s">
+        <v>481</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>75</v>
+      </c>
+      <c r="J226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B227" t="s">
+        <v>665</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D227" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" t="s">
+        <v>28</v>
+      </c>
+      <c r="F227" t="s">
+        <v>124</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>22</v>
+      </c>
+      <c r="J227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B228" t="s">
+        <v>667</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D228" t="s">
+        <v>263</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+      <c r="F228" t="s">
+        <v>669</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>263</v>
+      </c>
+      <c r="J228" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B229" t="s">
+        <v>670</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D229" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>63</v>
+      </c>
+      <c r="J229" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B230" t="s">
+        <v>672</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>28</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B231" t="s">
+        <v>674</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D231" t="s">
+        <v>676</v>
+      </c>
+      <c r="E231" t="s">
+        <v>28</v>
+      </c>
+      <c r="F231" t="s">
+        <v>677</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>676</v>
+      </c>
+      <c r="J231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B232" t="s">
+        <v>674</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D232" t="s">
+        <v>676</v>
+      </c>
+      <c r="E232" t="s">
+        <v>28</v>
+      </c>
+      <c r="F232" t="s">
+        <v>677</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>676</v>
+      </c>
+      <c r="J232" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6543,6 +9807,34 @@
     <hyperlink ref="C144" r:id="rId97" display="https://news.google.com/rss/articles/CBMixwFBVV95cUxQM3NlRGpIRFFycEoyLW5XTFRJQWs1LTNUcnlZQnhWbXV1V1hMUWJyQkZRM3BwRkQySGZGcExQU1Rzd0ljSGJlYnpHM2gxQUxaQnFPeXFnRUluM3YxMklycTE5dEJFdm12QWdPc2QxQWV3OVd3b0FPaU9mZ1FwdnN6cE9KcXJYS0tSU1Z4VXBVTnpPb2NydktTbGQ5SHp0NFFycVNQTzNRWWhreHhtM0FieGVqZUlqUU85SnB5OTF3UU9xczA0SjNz0gHHAUFVX3lxTFAzc2VEakhEUXJwSjItbldMVElBazUtM1RyeVlCeFZtdXVXWExRYnJCRlEzcHBGRDJIZkZwTFBTVHN3SWNIYmViekczaDFBTFpCcU95cWdFSW4zdjEySXJxMTl0QkV2bXZBZ09zZDFBZXc5V3dvQU9pT2ZnUXB2c3pwT0pxclhLS1JTVnhVcFVOek9vY3J2S1NsZDlIenQ0UXJxU1BPM1FZaGt4eG0zQWJ4ZWplSWpRTzlKcHk5MXdRT3FzMDRKM3M?oc=5" xr:uid="{D5DF1C42-AFD8-4DF3-88A7-50139944468B}"/>
     <hyperlink ref="C145" r:id="rId98" display="https://news.google.com/rss/articles/CBMiggJBVV95cUxPUDlYOGdLc2JHWEY2cml0XzlKQTRYQ3ZuTWhXejVSMDVla0htcFpwbkc3RVdGSUlTai1WcUZ3cnVQNy1kMVJYZkhQRUNmcEZmVWpXMVNaY19vMDN0MktjQzItaXFyQVdRUExEOC1BMkR6UFdFTjhkTkVJeHA3TnhkQUhiSWQtTGdUMjk4b3ZKT2R5NXU3RGVSUmpkWjRCOURIbUUzYWpJQU9zSlhQMnN6bFRkU2JLcFRJS1A3bXBXcm56am1kRHViZ2JFcnAtZXdQSkxXVmpUV19POE9TYUx5M1V6RGhMSTJDSF9zbkY1MDl4cDNQYjM1VF9hM1JwLXFOUkHSAYICQVVfeXFMT1A5WDhnS3NiR1hGNnJpdF85SkE0WEN2bk1oV3o1UjA1ZWtIbXBacG5HN0VXRklJU2otVnFGd3J1UDctZDFSWGZIUEVDZnBGZlVqVzFTWmNfbzAzdDJLY0MyLWlxckFXUVBMRDgtQTJEelBXRU44ZE5FSXhwN054ZEFIYklkLUxnVDI5OG92Sk9keTV1N0RlUlJqZFo0QjlESG1FM2FqSUFPc0pYUDJzemxUZFNiS3BUSUtQN21wV3JuemptZER1YmdiRXJwLWV3UEpMV1ZqVFdfTzhPU2FMeTNVekRoTEkyQ0hfc25GNTA5eHAzUGIzNVRfYTNScC1xTlJB?oc=5" xr:uid="{9DEB7A06-0174-4F35-A59F-B01FB53ED475}"/>
     <hyperlink ref="C127" r:id="rId99" xr:uid="{B5CF2C9B-1434-4585-852D-94CF1581C814}"/>
+    <hyperlink ref="C196" r:id="rId100" xr:uid="{FDB386CA-86F9-4440-B76F-08172A584BEA}"/>
+    <hyperlink ref="C203" r:id="rId101" display="https://news.google.com/rss/articles/CBMiqwJBVV95cUxOOXgtbWNwTjcwcFN0ZTl0NC1mQ2lGS0g4dnFBbGY2ajFKRnFLYmF2c1I2UVZFUnM3al9ZMUh5eUtfWnJEMzZaTFpiN3pvNm9NZ2ZtXy1ybmxWV3A0Y0JQdUxyNy1BS0FJYldpVUhVVnRlWW9sVW9uelh2eFRpUGFDaF9xOWd1eWcwVnpmWjdTRWJKNGlxM05jZzFZbXhsM0lxWG0tUWhQeGRvZEJ6RTZpb1NZTjlHZVJISVpsb29kUTdiMkprNlpIeS1EVVk3ZU1BZFNPMUVnRDJjSnowbU9oQTUzcHp6ZFZQOWZwSk80c3NjRmJXZll1WGJHb0VlWk4tU0QtSm11MUtDZ1AxMU13Q2JaMXhkdEVaSndCNG5jUDdaLVJpY2tBSTQ3MNIBsAJBVV95cUxPNThDRzVMWjExLXJxb3B6T2tydVJPd25mUHpjN2dPR2wycU5lWGU2bkx4OUo5LWp6YkhicUJOc29ZaXkydlNpcW16TkFPbEthai0zaFQyRms3R1M1VE1ibzFwa1JvUXpYZEo2TjFQQ2pGa2ZrdE1NbW92LTU2eGMxYlFWQ21vb1M2Tk1yTGZTWF9FWWlIQ2pVZFMzam1GOGlqc2FhV3B2cGV1Wl9iazBmeF9MamJOREtDdzJINGN0aWVEdHM2RVZkdnZEczVDa3Y4OFpkaHd0WmpVeHdfQjZEU0s5TWJuc0ZEQnpxd0hmTGpBelBYa3NWb0p6Sk5vS1NNQnBkS2lKMnc5cU1DVGdPT0Y5OUtSZzhUM2ZMUkhiRUpZU0x6X0RNbExjVmRrMWNj?oc=5" xr:uid="{71D5C7A9-4004-49C1-91FC-BD4427B3C619}"/>
+    <hyperlink ref="C204" r:id="rId102" xr:uid="{38E55DE0-B0F7-48D4-857D-7CB9A20AF5C9}"/>
+    <hyperlink ref="C205" r:id="rId103" display="https://news.google.com/rss/articles/CBMitwFBVV95cUxPR1JtWEtya0FnaWFxRTBMbVpqdC1aTW9PZ0UwVkZIV0hmYnNTeXd6X2NiVWRORDVaWkg5YnhnUjI0RzREcndDMXA3Ui1yemVzc2xiMjdTLThhVUhTTGN1NGp4M0FfcHZNTXJsVWxpNk9udndpUGtpUDlCRW5ETzAtY1VXamhMaThSMTg0TktadHJhQnRrSHAzR2J6OTBVdlRWRmFNN1JEbWZtSksxLTRlbFhWbmdjOFnSAbwBQVVfeXFMT21kNENKa0xTQW42eWMxMFpqMkdrUU1ucGN0NzUxT21iOVd4RnJvNUdBSGw0bTJmdzU5ZF9nSDdFZUdoUzlHVU1HbFM0LVRtUmhxUHVRWUFVV2hJTGdkMGRleV94RW1RQ2JYVE5RSVJUd3dFNkdTVVp4US1weWU2OFlKZVc0LWRNMDZ2dnpENEtfRV9jWmVtckFXelA2LVpwSEw4WFUxcmhEaW9uUlExTzVoYlBjS2txWkFieHo?oc=5" xr:uid="{4D8D5D0B-774C-403E-A85A-88789B3FE2F3}"/>
+    <hyperlink ref="C209" r:id="rId104" display="https://news.google.com/rss/articles/CBMiuwFBVV95cUxONDNYSmdIdy1Zajk1RHZ6Y2pZbzZzUkplcldTbUs5QUY4S2lTdFkzazFoMVhrVjNRekJ2YTBERTdqeGFiVExYWTZZM1BtMFBXb2pLWTI2WjdhbU5xVExQcW5YZmFra2xnU2ZyNzA3ajBHNThnNVFsS0lVY3pfdjFNcFZycUdCSEpnLTFVdWZCdkFiRHEwclhvb2VUX3R2T1dhRTM4WmRBWWEyUGtQcTRKeWZOZnpOcDhNUllR?oc=5" xr:uid="{9DAF57DA-B5DF-45EA-83E6-D30925FDA307}"/>
+    <hyperlink ref="C210" r:id="rId105" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZVM4Z2dlSU1VY0pRUkpnZDlvVVdTR0tvRUZlaHh3MWg4eTNsN0I0YTBlaDQ4cU56bGlDOXhLR2doeElRMGJzMTBnQ2VjU2VxVXRKajl1VEFuYTc1c1JlSWprX0VzYW1ybDdEbnNjcjZKYUR6MTlrSWV3aWlpVHoxaWd4d0tjMHlaVWppZW1XelgxSjhCbjVqTFpyellBeTRpak5QVTRFRC1tdE5SNkpnTlZ1QTBFd3hP?oc=5" xr:uid="{FC36230A-C5F2-4A28-8DAA-F66FD4FA699B}"/>
+    <hyperlink ref="C211" r:id="rId106" display="https://news.google.com/rss/articles/CBMikgJBVV95cUxQbkFZSGE1Yko4TmNEcXl4MGpsb0hJSG01UW8wWXV0V1dDbHZ6TXJDeWRKTE9vZUVpS3lTTHp1UjgxbXlieHMwc1FnUXdsekgwMmdJMTJRTXdieEdndDAxcV9iS096WHNzLTRPOHN5cFdGZGoxbElvdzRhWUxibWxoajNZR0JwcU1NYnpjeFZQZU9SUl9oWXBDa3E4ZHpRZTRueXNjb0NuTnlYempVU2JST19kME5WcVRubEVUbklDNUFKQkJkMXJ1RHlUZHUyYk9XSjJxVm1QZExCZWpCem11OGQtU0Nqc2ROVk5KSnRoOWhiQkNKMElXU2xXUzJRTzR3RDNfajlSeUlidXZib2E0UVNn?oc=5" xr:uid="{2F37E029-E229-4F47-86F6-4C468C68D514}"/>
+    <hyperlink ref="C212" r:id="rId107" display="https://news.google.com/rss/articles/CBMiqgJBVV95cUxOSUFqcHpzQWZvaDFHbmFWUjJnVWVEQVFUWWZ5S080a3Vyd2tsSmxNX2NQMmk0UExfYUFVSkNPRGRVYW1ka3ZxcXZzYlNiaXVvMXZUVWFhcGJvczFaN1hRbDFPRzhJUlB5NWpfeVNwdmpLdGRDUFN2Mk1kMDU4MnlvSVJyS19CVnZVc1dpRUYtMG1XQlRoYWRBZkZCYTIyMzV1VTQ2cVZrSU1xMUhzek1KRk9TQ3R2enFBVGhyaEJoQ2lrZkxoQXZmLWpzRU9vRXQ4SGpIeXBVS0o0UWk0aTBkbnViRnI3UlJMUjJmLTVHRzNSbW1kMUl6NDZZdmo5LTZvZ0FEanlWT1dfQUJOdkpKRFJhb0x5V1ZKcmY4dldJcncwTEtiMl9vV0dR0gGvAkFVX3lxTE9NLVgtbkNzUTBxdnphTENEMkVUdjRyY3pQMzBGdTYxQ2NfR1FVM0M1WFhPWTNySXJac2FCZXlMUkdFQWZZMlk2M3V6Qzh2WGpZU2c3NWZ0UndoSngxMUZrcG1EaFF4NWF3a3hHcXRHaTNSZm1BR3FERVB4d050dWxlc2pKTzZZSzFPMjM3VmlCT25ud2RLVGtUdGxPWW8wZ2Y3N25RWFYySXBhWVV1RVh6dVJQZ3l5YWpOZmNDeU82VWVhSkJJUFJHUEtsODV4a3p3MEZ1LU5MMlpBbExQVzhTcGdvQjRLTERHcmN1ZENueGZpRFItdXBDb1YzbWZTSWdnS1dtblRWYkp0WDJRZG43emwzS2FsQTBrQjg4Rl91S21mT0ZCZXdPU2JkcUZTaw?oc=5" xr:uid="{91E7AE43-18B9-4FC9-956A-AE34F7D47472}"/>
+    <hyperlink ref="C213" r:id="rId108" display="https://news.google.com/rss/articles/CBMi-wFBVV95cUxNUVdydzJTTWJjRkpwRzRRZ2Nxam02c1lQc2E2U0hieTkzNEZOREowc0JxV3dwdE9sYTZuZlc1ajktMFN5VDd4ZXVqNXZubmNtb01GVm1PUFNwN1hGdU5tOUdsa0FvbkFlcFNieEptWDRxLTVyYkdEelJSUjBpOFJXS2c0ajBpeUQxaHpndElYQ0tOMW8wbnctRF9EeHplT01xQ3NVNFE1WE5LWUhtMUpoaFdsSURmdlRnXzFWMEtGeUx3akhsM3N1aHZTdVR2M3hhNU5FcTNuRDg2dFdqNmdnRm9lY0daZ2o5NzhtekZjRHZOclgtZUNHUWRPc9IBgAJBVV95cUxQWTd0c3FhUG5ZN2dzY1U2VmFILUJFNU1scmZzQTItYjBWMnYyam9HX2VoeXhlTnZEM3ZSYlJyNHc2aTdBQ2FOOG9rZzBpbFRiZlE1Z1BuVWQ4WnhQUjVsSWpkbGtKaVhOYjFRam9hdnU4ZF9VNlhhRWNPZUFHZmpIMWJKYS1SLUMwNnlMazk3TFdJdTl3NHA4RTRXV1h4dW0zcHpSYUZ4RHltV1g3aUpjM1AzSVRsd3VMcnJIMUhBTjQwa2o2TEVGanRyRlJ4NG9la2Y0U0xLVUJMNE9XVjZDWU1hZjh3cENBSEpmZmpsck1zSjJmM0RsLU9DWWY1OU55?oc=5" xr:uid="{616C654D-9A64-4681-83EC-425E0FA0E8B6}"/>
+    <hyperlink ref="C214" r:id="rId109" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxOZUgxZFNDMUJSdWtnS3BuRGJfOHctTjJ3WnZ6bkNrVXNETzNMZzBsT0tEdjRGQkxkTkpTbkVXa3FEOG05UmdwNndwTGg0OWtsSG5hX01nVjJHUEZwd3kwWVFGM0J1azY0WVJScF8tamE3N3hCVnJvTXEtRmFOSXNnRUlaeml3c2sxN3JxMlhWeEtHR052d3N5RnktNUE4Snp2OE94dlBjcjFZZHNKYjluMlFkdzh4amVPdW81VGV30gHSAUFVX3lxTE9XazNBT0c4OGFDak5leGVxTHlhY0o5TXF5RVBCNkJneXFyX2lXaFdrckZJa0N6d2ozd1FTSGhzTzBkeVBTMEFTSEJoWVZqWXNWaUd6LTNZZXZWci1PTDh6bEpDZ0VaLW1QTV8xMTMtSEozX2tURF95U3l6bzF4TmFqaS1SUWlLMjBaZXIwX2FyTl9xNEMzX3V3TVhoWGtpY1pDQ2NQdlBGZlRMUGxOWjBMc1ltQlljX29TRkdFeVFDOWltRG05LVZzWlJJcXJqQTJxZw?oc=5" xr:uid="{6403778A-306D-4DA3-A6CD-683873C677E9}"/>
+    <hyperlink ref="C215" r:id="rId110" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxQQVZlV0lGUWV1ZDV2T2haRGNUdFI4dkpRZVBkVVZ4Zl94TTFqczZUUDlOMExhalI5b211cmFMRVlGV2VMRTEwX0RTNjdHeU95WERXMWNURnZUM3N2M0d4UVFYU3E5ejZXVkVfN0hKdVBJTWwtNlZmTjc0S09KTF9sbVEyOXBPOFROM3hyQUdwQUYxdXR4d0tsZFlIOHNvenJzb082UmtCUQ?oc=5" xr:uid="{9A202633-9589-44AB-AC79-A5F6B07F8FB2}"/>
+    <hyperlink ref="C216" r:id="rId111" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxQT01MUk81bTZTWWowVGx5c1JaWjQwV3Fyay03MEFGak1pVDg4N2pjSjVlZHdRd1BtOS12Q0tYTHl2dEJnOGdCQ25IREc1QzZZelFXN1NMREoyX0Vkc2ZEMk50QUJnTFZQWXc3LUxnRHJQMGlZbkxOLUYzS0g2WXJHX2VseWxUQ0lyeklYYlJxVlBJQm9Ka2N6QnRpSmZYTlFBSFphQjNlY213aFdmamJTZFNyTGVMVjl3cGE1SjVDcW3SAcYBQVVfeXFMUFJlWHlLcldXU2pncndhN2k2RDNFOXpNUVNKYWdOcFpJRTUzSDFURlJKdHdRbGJhUEN1M1g4VzMtTDAxSEtPcW95X3RTSUptN190ci1CRE9zSjFoeWNLTFpwVnN1R1U0ZVU4VlF4SlFlSTFtdHNVRkNJTW1xQkJoVTdObGVVR0N1RE1UZG9qNEFwblJoalFBb2JPREFyQzJoRDMtN3lhRUI1dlpUOFhpNW9wQmI4dG95dUc4czZROEVSZFdmTW9n?oc=5" xr:uid="{593AC466-A71A-4CC6-8241-97A550548CEF}"/>
+    <hyperlink ref="C217" r:id="rId112" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxONzdfbXhVaVNlYWc1QWR2MzdQaWlYdmhrVVgydWZtbFY4RE5pT0JMUWtXSmYzbjdaWi1PUmlJN1NiVFBlS1BsRXJzd3N4RXVOVWllU042UVFfcjh0WUpTOVNqLWEwS2VWQmFoWldkUEpiaUF5bDc2X0xhcngxSHZLMXNiT2JOdzczY3NKME5FU0lQSFg2M0JNVm1fei1qRzlDbEg3UllvM3d0OGdrNVpwOVFSclktT0wzaEZtNVlpYjhwdGxWakFCOXpGSHFmUdIB0wFBVV95cUxNYXJ6S1ltZzhCQ1lWbUc4aTlERERHWXZsUzRvWUxma0VzSlpVeW42ZUhxYVh2M2tJR2trN1RYUHoyUUhNMy1CbEg5SUZGTmZuSDNLbDNVTnVpbVZ1cWNhU2VHalhOU0FQRUx3LXczcjN2OVlzQktLQkp0X2haZHBIUktORnE2aEhnOUlKbEdGNUhpRjhLSWhuRVU0WnViUDE5NVpCd0lIUFVyNFVBbXFJci0wb1BReXpXNEQyR3Q1a0dueVB2WkRQUlJIUzlhMGpsYWMw?oc=5" xr:uid="{DDE57AC4-0976-4402-93A7-EAE3EB4FCABA}"/>
+    <hyperlink ref="C218" r:id="rId113" display="https://news.google.com/rss/articles/CBMi9AFBVV95cUxQNXpBVW9HMXdoR3UtbFo3dlVoVnduZEFpcHFoTVItTzRLZXdTUXBoNXlITmdNNmhFUmdMUlFjUm5kTjRhNW5DNXloaFUxV0I1bU51RGNudnQwLXZIUWpoMkI4M3pqbkp5aFowbS1pX3ZzLTVEZzF2NHZJSGtVVUFNU0wybmJDNXlPSmNjU0J3eTQ2TjJxN01GeUlmQlNXOTFBRlpqZDRzRkpwYU5FUDU0Zk83bEN0NVlMZTRVRUtRMHQxYXE5LTNHUE0yalpZTWRyY0J1ZXE5QThlVk11QkpOQXNJN0g3WkY2QnRpV2k3M3ZTbEJC0gH0AUFVX3lxTFA1ekFVb0cxd2hHdS1sWjd2VWhWd25kQWlwcWhNUi1PNEtld1NRcGg1eUhOZ002aEVSZ0xSUWNSbmRONGE1bkM1eWhoVTFXQjVtTnVEY252dDAtdkhRamgyQjgzempuSnloWjBtLWlfdnMtNURnMXY0dklIa1VVQU1TTDJuYkM1eU9KY2NTQnd5NDZOMnE3TUZ5SWZCU1c5MUFGWmpkNHNGSnBhTkVQNTRmTzdsQ3Q1WUxlNFVFS1EwdDFhcTktM0dQTTJqWllNZHJjQnVlcTlBOGVWTXVCSk5Bc0k3SDdaRjZCdGlXaTczdlNsQkI?oc=5" xr:uid="{75606181-865F-47B3-ADDE-01559370EFAA}"/>
+    <hyperlink ref="C219" r:id="rId114" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxQVi1ZaDI0RVNjdjM1U01KQWlxd3JqUVppZHQyOUpqdEZxb0dkdXROUUh5T0UwdU9EWWdNOEpKcll6TzZPOU5VY3NMdXpRa2U0ZnlSV3NIdGVXQ3hub09HWTBqWUNtYl9xSTdqZ0ZLaGFrV0ZvZGtqU2JHRFpqcllzeHBKMmZpbmRjWWx0LTFVaG1jSmlTUWtLc1p4M2RZVEFZRVRCbVp3?oc=5" xr:uid="{404AC0E3-5FA8-42E0-9B30-767F0E9B00E2}"/>
+    <hyperlink ref="C220" r:id="rId115" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxNWDJVbzFZeXlSTThSNy0yb21BQ0E5eUROMjEyaWtZYVItdW1JcV9uZHpkR2ZXWGV3Q001UXpHYkdxNTdrb0RwckNiMndjNUZXdGdLVzY1OC1xOG9HbFRiWmxiazgtVUg5N25JVVpyamhYNWhTdHVwcXZyNzU1elVkdnY4VHc4SHBRenk5LS1aT01tNk1nQV9yOWxhelhLY25lUEVsX1JBOE5yai10dnZOYkNKa1ZfR2xrMnZLaGhEZjU3S0FpdkdtRjhWQW5JMDJi?oc=5" xr:uid="{983213B1-71B1-40AC-820E-CDE9E0B19456}"/>
+    <hyperlink ref="C221" r:id="rId116" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxPZFVnZ1Bqc3NtOEYwTmVuN0IzUEJIalZGTWhXejB4TTF1enEwdllDemszQ3BWWWl6bDZtQUY3UjVrTUl3ZjVNb005WWZBcnlucjdTTlBvS1ROQlVCdUdkTnhWMjRtOVdJcUZLd2tyc0ExNFVWNE1NXzlQY1FpekpVR0tOWHNrQ2VmSzkxWXhNTWFWNjZkWnB5Q3dlWlk?oc=5" xr:uid="{F556818C-6C9E-4771-92CC-552B318597C9}"/>
+    <hyperlink ref="C222" r:id="rId117" display="https://news.google.com/rss/articles/CBMimAJBVV95cUxQS0ZNVmh6TEVaWjc4MkZQeGQ2TFVpc21yV2J5bllJbEJZbG9sUlNLLXNjR21sQjJWQUxON3pnNXZRYXNBUGlMeDhmakdXTVV4U2w1TDJLU2NIdUR0ajdqam5xdDBXbldOSjJTR0UyME1tamxfaXd6c2F0Y1E4XzRFWEFodE9fbkZUdDJ0dmN6YnduLS1rQlJfUW9ONkFYekpmVFFpVHIyRHR4b1N5T08xWHVZV2xCNFozMnMtamtPNTk3Q253VW10OEhhUWtaeWJnOG5qeXB3ck9jTHhjdFVydHItOFJzZVlUUWRKYV8tZ1Q1RlRiNVRfRXFHWE90U3dRc1RRMjd5RDBURFlZbGRVbnBOLW1TT09Q0gGzAkFVX3lxTE9ScWpQbktfMTFYdlZObU13WHZYdWZMZ283MExjUkJTX3FTazdTci0tcG5OZmhULVBxcTNEV0ZlZkFKMjhweXkzdjN4RU91VzNzY2FzR3BPN0FwUmNuVm1WbzJYSkQtS09EdU8zaFBGV3VwcjFwV2VaVHJYeU45MVltRWlPMGQ0dHdfNlZRN1pQbFJaQmV6MmtEc2s0SExBXy1kN2JxeWZ1UG5mZGRteHFrY1RfVHRSc2pZdnZrRWgwekF4aTFEMmhqZndEdlFUTTZjMWlVVHduTE9UTVBBUjdpUUF2Y05SQVdnLU9QZ3l4TmdReGR1QUNmVnl5YmtGQVpjcnJqa0tqVzhwdjNGaUhFQ2w3TWpLeFdhcHdDaERTSGpmRDFqR29KQkcwS1Y0cWxjWmM?oc=5" xr:uid="{7D1F2F32-37EA-414A-A45B-9D7B0D99161A}"/>
+    <hyperlink ref="C223" r:id="rId118" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxPajA2VE50cm85dkR4QzIwZHBpM1FoWkJ2WDU3Z1JSRk9Lc2UyVl9hc3doR0pKWFRGekdBMkFiNVRPeHhoWEk4aFA2bjJxQWk3Y1RkejlobnFXNDVuRGxDOThxeFhqVTV6RXNOVVF2V2d6SnE3RzV6Wkh5VVpLNG9ORl9OdUg2MHhvT2MyNTdxRmRUTXg3dzdHd0VYX192cE91NXJQanNmZzlpZw?oc=5" xr:uid="{CC6A719B-C604-45DD-9213-D2804D7E1DE8}"/>
+    <hyperlink ref="C224" r:id="rId119" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxPN2hZVDJraEVUQ0dSX0FLZHpiM0NKdldFODUxQmpBRmVQck9WWVNyemhVZWlXVzFkLXVySUZWbVNsd3JZUGxRTF9VZTFJZGt2QTlETTdSV3ByV1NvZ3RNdExNNUtKX0s2WXRWY1RqMkkydmVLc3k3aUJ0WXZzWUR2NDV4OVpmc2pLZzBjT3BfWllacW9WYk8xOFVxZEdsRlc4QzJVVFNiWDl3SlU?oc=5" xr:uid="{F7B951EA-07EA-4763-A5C5-A6B64F515E11}"/>
+    <hyperlink ref="C225" r:id="rId120" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxQRmdHNVpnQnNDUG5tUVA3NnliM2lOOVU1NVhMX3BPS21nUmg2dW0yakhUTFNzTFIyUlhaOHZFUXlfazRnSVVFaTQ5c2lldzk4R1FXWEt2OE1uTmw1QnZIZzYyVVducFMxa0pLRk5nMVpuQ1hIUEtYQmFpWmVsOXhpVUFyQkI0dUFGdy1rXzVLTzNiWGliTGdBM1ZGSEJlZWJnOVhiQTVLcmpwWTJjdEZmWm16d3g?oc=5" xr:uid="{1D2EB6C0-08B4-411B-B361-239241245591}"/>
+    <hyperlink ref="C226" r:id="rId121" display="https://news.google.com/rss/articles/CBMiogJBVV95cUxNYlRxdTctVWlLUE5aRmVHNHYtOGloV1loVVJ0QVcyMnVXZ01pSVByU2x4WUdlWUs4WmNrNzZ5VmpsVVc3clBKcUxXV3NLZ04wMVNNTGlpV3dQd1BLY3RtS2U1Mkh0dU9pUTBIc2Mzb1Y5cThLY3h3WlJvWTdRUVVxdV96aGpIREU2a3hRUEZCVC1jUHdYTkg1azZkWnk1ZEQyb2c1a2pEZ0pBLXpCdV9xSklNQWx4N251X3hGenYxdTJ6dUJXc2VuaThwYks0SXhQZElON3RkX2xmd0JUSWJOTEYxanJLdXlWbjRHMjdwbC1CZll3d203aDNOWmotVWJtb0U0c1hibExOaGhYaDJtS0xTbm1OUHh5U1ZsNVpTVFJzUdIBpwJBVV95cUxOVWpwR19aZjM3SExVaEgzVDBXY0tGbVU2WGM0V1FpSjBGNzlWbjE2VUlaQ1VIZmUwcTFxQVAyOGpjN0hkMEg5R1oyRml1ckN1R216Z08tMVJFNHQ1Y0FjU3JLdGo3eUc3WUtqX2FyT1NTcEhmRFczZEFUeGZKM0hXeXQxVjd4Tkp5aDZmVEphYzRqWUtLMXZoRHlXcnlnTHFrQzlqWGNYVXd6V2F6MmlLUmJtTkFqTnVkLWlEcExCZDJoVjVTeWtIaEJiNmdSRmVpcUpGb2hLLVpvcDdpSFQ1Xy1DdjlILW9xdFJQRkpObGkxTW5McDNTaFFDOUpJR3FxdnNCc05PSGtjeFZxTXdwZmRIXzJSNmwtWnN3aFMyT1d0eW9mZ0Fv?oc=5" xr:uid="{0A8621B1-E197-42E7-BFF0-1D91CE34929E}"/>
+    <hyperlink ref="C227" r:id="rId122" display="https://news.google.com/rss/articles/CBMikgJBVV95cUxNQzFnQUJQdkZNT1dKV2FHdTlkaHdscEY1MmN6LTNrU0g4MmswQnRFeWNUeU0xYUFROTR3ZUFQUktIYS1lRVFjSGtPdTB5OTB1b0Z1WU9CQm5oNDFhbC0xcHl2ZGNBSk51M1NxZFJCOVdQaW41YTZGYnhNTDV0N0VNTTlTYWVUSmRXY2x1ZTRubjNkdHdiSWtlLS1nT0UtOEpDVC1iQ3kwZ2FacXZoUm11T01mb05zOUR2Z2huVjBnQmFoYTB3YnkyOTd2TmdiWnBDeGZuR3ZXTldkQkhqMG4wM2xDLVItUFVXXzFyNnRuV3VTQ2tnQVlKcDI3N3hYTG5sM21ESVYxNUgxWmphQ05aOW1B0gGsAkFVX3lxTE56UFNBN2xWZ3RKemNDZVpZa29vNWZHclUzZWpGanVsMlNCUUVvSW9Xa3IyMjJvNlpvaGxWZk41dWJsOUVyeGZCbDY3MXlEbm0yT2dtSnM2WHZfamg4LWs3QlJxcU5pYTk1QUZvNHlHLVE2SzF5R2lDbE1PYmRXVk9oSUZTNGZvWTJ4UjVjTmV0TG9XTWZPYXB6OU9FLTJ6SWNJYkQ1N0NibTRRRmtDRFhzekJDV0I5SVFuT0N1TVRFRlowVnUzNDRINXBPSkFJbDFlNThDOXNoQWZlVkdxU0FZdHE5UTdfMXhTMThhVEJJa0dZZG9BUHBReVBSZWwyUEpJa0V5ZXBRSWNWLURkREdLZUxFd3RzX2NKM1dFbVlXcXFsUWxMMjh2eXN1Tg?oc=5" xr:uid="{A731AACE-E8F0-4C92-A8D8-9C2F5FFA046F}"/>
+    <hyperlink ref="C228" r:id="rId123" xr:uid="{80FE7794-0262-4404-BE42-1C61767CE8CE}"/>
+    <hyperlink ref="C229" r:id="rId124" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxOMXR3SXdacWEyV3JYUzN2WWVqdTRrdzEyNDJuRlRQSHlaeGhWaEhWQndvMk1QeUlKajczQW9GTUNqZzU3S1U0MzY5Wi1DYS1NeVNsN0ZhcGlUbnVwTGtOc3Y1UGVUblNjNnEwRzR6M2tzdXd2el9NWktpcnJIZHoxd3VXMk1aV0kxWnE2V2xjdVZrWUp5QVprdWhKczZFdWZxLW9haGFCTXRqMThkRExCa25yRjk?oc=5" xr:uid="{53DD7793-AEEC-49EE-A482-2E4122680254}"/>
+    <hyperlink ref="C230" r:id="rId125" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxPSEdGZnhQc0hRNHZqQlpPVTZKUWR1N2RlZzNNMXQwWlhLUWM5RC1VZkozRWRhYnBnbjdvYkdNTDVraXdDR3JKbUctZFdzRFhjX2VudUp6bHBlN1c5bG5kYVZNbFlFTVRPdTVudXcyTFgyLU1MdExDUVMwa1lfRFZEekUxZWVtT0ZRV3RBZkl1RjlCTm9nSDZ4QmdZTDd6V25vcVdndERWeEdBaVFvZ3dXQUJxNUPSAcgBQVVfeXFMUE0tTkVra0V4R1Q0NHQxbENSS1MtbXlvTi1JU1dKbXlPREJETVljVEh5YVlkU05HY3N1bEwtX3dzTDFEUkxXbko0WjAzbWUwVElZUVJISVpPaE1HWE9EenFJMmtnUTh4LVNGdTY2UHoySThMb3FndnlOUEtNX1A5WTZXRGpRZ0Y0UjBCVWlsYVYzTGNwSndYeVFqeDhQMVBGUkE3bFhpaHprQUpIb2RKSTEySVRqelRzdEJJV09rR1pRTnhxVlRhQTQ?oc=5" xr:uid="{197C04E8-78A2-4011-95A3-4789577A1767}"/>
+    <hyperlink ref="C231" r:id="rId126" xr:uid="{A4B122F3-358B-43B7-909B-4A2E58197529}"/>
+    <hyperlink ref="C232" r:id="rId127" xr:uid="{5A6ADCAA-4883-4716-A944-A6424D9A3262}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A20209-BD42-49AE-A169-5AA6028008B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF02E25-8A32-4CBE-B36B-7BF723B24D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -2921,13 +2921,13 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD232"/>
+    <sheetView tabSelected="1" topLeftCell="B208" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.109375" customWidth="1"/>
+    <col min="2" max="2" width="111.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9082,7 +9082,7 @@
         <v>627</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I211" t="s">
         <v>75</v>
@@ -9111,7 +9111,7 @@
         <v>611</v>
       </c>
       <c r="G212" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I212" t="s">
         <v>24</v>
@@ -9140,7 +9140,7 @@
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I213" t="s">
         <v>24</v>
@@ -9227,7 +9227,7 @@
         <v>638</v>
       </c>
       <c r="G216" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H216" t="s">
         <v>639</v>
@@ -9259,7 +9259,7 @@
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I217" t="s">
         <v>19</v>
@@ -9346,7 +9346,7 @@
         <v>124</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I220" t="s">
         <v>175</v>
@@ -9375,7 +9375,7 @@
         <v>124</v>
       </c>
       <c r="G221" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I221" t="s">
         <v>652</v>
@@ -9436,7 +9436,7 @@
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I223" t="s">
         <v>391</v>
@@ -9465,7 +9465,7 @@
         <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I224" t="s">
         <v>86</v>
@@ -9494,7 +9494,7 @@
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I225" t="s">
         <v>86</v>
@@ -9523,7 +9523,7 @@
         <v>481</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I226" t="s">
         <v>75</v>
@@ -9552,7 +9552,7 @@
         <v>124</v>
       </c>
       <c r="G227" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I227" t="s">
         <v>22</v>
@@ -9581,7 +9581,7 @@
         <v>669</v>
       </c>
       <c r="G228" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I228" t="s">
         <v>263</v>
@@ -9610,7 +9610,7 @@
         <v>13</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I229" t="s">
         <v>63</v>
@@ -9639,7 +9639,7 @@
         <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I230" t="s">
         <v>16</v>
@@ -9668,7 +9668,7 @@
         <v>677</v>
       </c>
       <c r="G231" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I231" t="s">
         <v>676</v>
@@ -9697,7 +9697,7 @@
         <v>677</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I232" t="s">
         <v>676</v>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF02E25-8A32-4CBE-B36B-7BF723B24D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB4D46-F41F-4FB0-A31C-3CDF80C387D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="677">
   <si>
     <t>Fecha</t>
   </si>
@@ -1841,9 +1841,6 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxPR1JtWEtya0FnaWFxRTBMbVpqdC1aTW9PZ0UwVkZIV0hmYnNTeXd6X2NiVWRORDVaWkg5YnhnUjI0RzREcndDMXA3Ui1yemVzc2xiMjdTLThhVUhTTGN1NGp4M0FfcHZNTXJsVWxpNk9udndpUGtpUDlCRW5ETzAtY1VXamhMaThSMTg0TktadHJhQnRrSHAzR2J6OTBVdlRWRmFNN1JEbWZtSksxLTRlbFhWbmdjOFnSAbwBQVVfeXFMT21kNENKa0xTQW42eWMxMFpqMkdrUU1ucGN0NzUxT21iOVd4RnJvNUdBSGw0bTJmdzU5ZF9nSDdFZUdoUzlHVU1HbFM0LVRtUmhxUHVRWUFVV2hJTGdkMGRleV94RW1RQ2JYVE5RSVJUd3dFNkdTVVp4US1weWU2OFlKZVc0LWRNMDZ2dnpENEtfRV9jWmVtckFXelA2LVpwSEw4WFUxcmhEaW9uUlExTzVoYlBjS2txWkFieHo?oc=5</t>
-  </si>
-  <si>
-    <t>Centro</t>
   </si>
   <si>
     <t>['tercera', 'presidenciales']</t>
@@ -2921,8 +2918,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B208" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233"/>
+    <sheetView tabSelected="1" topLeftCell="B199" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8896,16 +8893,16 @@
         <v>411</v>
       </c>
       <c r="E205" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" t="s">
         <v>606</v>
-      </c>
-      <c r="F205" t="s">
-        <v>607</v>
       </c>
       <c r="G205" t="s">
         <v>21</v>
       </c>
       <c r="H205" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I205" t="s">
         <v>411</v>
@@ -8919,10 +8916,10 @@
         <v>46043</v>
       </c>
       <c r="B206" t="s">
+        <v>608</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="D206" t="s">
         <v>135</v>
@@ -8931,7 +8928,7 @@
         <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -8943,7 +8940,7 @@
         <v>136</v>
       </c>
       <c r="K206" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -8951,13 +8948,13 @@
         <v>46043</v>
       </c>
       <c r="B207" t="s">
+        <v>612</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" t="s">
         <v>614</v>
-      </c>
-      <c r="D207" t="s">
-        <v>615</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>34</v>
@@ -8966,10 +8963,10 @@
         <v>21</v>
       </c>
       <c r="I207" t="s">
+        <v>614</v>
+      </c>
+      <c r="J207" t="s">
         <v>615</v>
-      </c>
-      <c r="J207" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8977,13 +8974,13 @@
         <v>46043</v>
       </c>
       <c r="B208" t="s">
+        <v>616</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" t="s">
         <v>618</v>
-      </c>
-      <c r="D208" t="s">
-        <v>619</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>34</v>
@@ -8992,10 +8989,10 @@
         <v>21</v>
       </c>
       <c r="I208" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J208" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9003,10 +9000,10 @@
         <v>46043</v>
       </c>
       <c r="B209" t="s">
+        <v>619</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D209" t="s">
         <v>252</v>
@@ -9015,13 +9012,13 @@
         <v>28</v>
       </c>
       <c r="F209" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G209" t="s">
         <v>21</v>
       </c>
       <c r="H209" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I209" t="s">
         <v>252</v>
@@ -9035,10 +9032,10 @@
         <v>46043</v>
       </c>
       <c r="B210" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D210" t="s">
         <v>71</v>
@@ -9047,13 +9044,13 @@
         <v>28</v>
       </c>
       <c r="F210" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G210" t="s">
         <v>21</v>
       </c>
       <c r="H210" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I210" t="s">
         <v>71</v>
@@ -9067,10 +9064,10 @@
         <v>46043</v>
       </c>
       <c r="B211" t="s">
+        <v>624</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D211" t="s">
         <v>75</v>
@@ -9079,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="F211" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G211" t="s">
         <v>17</v>
@@ -9096,10 +9093,10 @@
         <v>46043</v>
       </c>
       <c r="B212" t="s">
+        <v>627</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="D212" t="s">
         <v>24</v>
@@ -9108,7 +9105,7 @@
         <v>25</v>
       </c>
       <c r="F212" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G212" t="s">
         <v>17</v>
@@ -9125,10 +9122,10 @@
         <v>46043</v>
       </c>
       <c r="B213" t="s">
+        <v>629</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="D213" t="s">
         <v>24</v>
@@ -9154,10 +9151,10 @@
         <v>46043</v>
       </c>
       <c r="B214" t="s">
+        <v>631</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D214" t="s">
         <v>219</v>
@@ -9166,7 +9163,7 @@
         <v>25</v>
       </c>
       <c r="F214" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
@@ -9186,7 +9183,7 @@
         <v>474</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D215" t="s">
         <v>86</v>
@@ -9212,10 +9209,10 @@
         <v>46043</v>
       </c>
       <c r="B216" t="s">
+        <v>635</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="D216" t="s">
         <v>129</v>
@@ -9224,13 +9221,13 @@
         <v>25</v>
       </c>
       <c r="F216" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G216" t="s">
         <v>21</v>
       </c>
       <c r="H216" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I216" t="s">
         <v>129</v>
@@ -9244,10 +9241,10 @@
         <v>46043</v>
       </c>
       <c r="B217" t="s">
+        <v>639</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D217" t="s">
         <v>19</v>
@@ -9273,10 +9270,10 @@
         <v>46043</v>
       </c>
       <c r="B218" t="s">
+        <v>641</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -9285,7 +9282,7 @@
         <v>25</v>
       </c>
       <c r="F218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G218" t="s">
         <v>14</v>
@@ -9302,10 +9299,10 @@
         <v>46043</v>
       </c>
       <c r="B219" t="s">
+        <v>644</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D219" t="s">
         <v>304</v>
@@ -9314,7 +9311,7 @@
         <v>25</v>
       </c>
       <c r="F219" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G219" t="s">
         <v>14</v>
@@ -9331,10 +9328,10 @@
         <v>46043</v>
       </c>
       <c r="B220" t="s">
+        <v>647</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="D220" t="s">
         <v>175</v>
@@ -9360,13 +9357,13 @@
         <v>46043</v>
       </c>
       <c r="B221" t="s">
+        <v>649</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="D221" t="s">
         <v>651</v>
-      </c>
-      <c r="D221" t="s">
-        <v>652</v>
       </c>
       <c r="E221" t="s">
         <v>25</v>
@@ -9378,10 +9375,10 @@
         <v>17</v>
       </c>
       <c r="I221" t="s">
+        <v>651</v>
+      </c>
+      <c r="J221" t="s">
         <v>652</v>
-      </c>
-      <c r="J221" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9389,10 +9386,10 @@
         <v>46043</v>
       </c>
       <c r="B222" t="s">
+        <v>653</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="D222" t="s">
         <v>22</v>
@@ -9407,7 +9404,7 @@
         <v>17</v>
       </c>
       <c r="H222" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
@@ -9421,10 +9418,10 @@
         <v>46043</v>
       </c>
       <c r="B223" t="s">
+        <v>656</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D223" t="s">
         <v>391</v>
@@ -9450,10 +9447,10 @@
         <v>46043</v>
       </c>
       <c r="B224" t="s">
+        <v>658</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D224" t="s">
         <v>86</v>
@@ -9479,10 +9476,10 @@
         <v>46043</v>
       </c>
       <c r="B225" t="s">
+        <v>660</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D225" t="s">
         <v>86</v>
@@ -9508,10 +9505,10 @@
         <v>46043</v>
       </c>
       <c r="B226" t="s">
+        <v>662</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D226" t="s">
         <v>75</v>
@@ -9537,10 +9534,10 @@
         <v>46043</v>
       </c>
       <c r="B227" t="s">
+        <v>664</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D227" t="s">
         <v>22</v>
@@ -9566,10 +9563,10 @@
         <v>46043</v>
       </c>
       <c r="B228" t="s">
+        <v>666</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D228" t="s">
         <v>263</v>
@@ -9578,7 +9575,7 @@
         <v>28</v>
       </c>
       <c r="F228" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G228" t="s">
         <v>21</v>
@@ -9595,10 +9592,10 @@
         <v>46043</v>
       </c>
       <c r="B229" t="s">
+        <v>669</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="D229" t="s">
         <v>63</v>
@@ -9624,10 +9621,10 @@
         <v>46043</v>
       </c>
       <c r="B230" t="s">
+        <v>671</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
@@ -9653,25 +9650,25 @@
         <v>46043</v>
       </c>
       <c r="B231" t="s">
+        <v>673</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" t="s">
         <v>675</v>
-      </c>
-      <c r="D231" t="s">
-        <v>676</v>
       </c>
       <c r="E231" t="s">
         <v>28</v>
       </c>
       <c r="F231" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G231" t="s">
         <v>21</v>
       </c>
       <c r="I231" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J231" t="s">
         <v>265</v>
@@ -9682,25 +9679,25 @@
         <v>46043</v>
       </c>
       <c r="B232" t="s">
+        <v>673</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="D232" t="s">
         <v>675</v>
-      </c>
-      <c r="D232" t="s">
-        <v>676</v>
       </c>
       <c r="E232" t="s">
         <v>28</v>
       </c>
       <c r="F232" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G232" t="s">
         <v>21</v>
       </c>
       <c r="I232" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J232" t="s">
         <v>55</v>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB4D46-F41F-4FB0-A31C-3CDF80C387D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283B176-8C8D-41AE-AE3F-5485AADBE02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="726">
   <si>
     <t>Fecha</t>
   </si>
@@ -2054,6 +2054,153 @@
   </si>
   <si>
     <t>['confirmados']</t>
+  </si>
+  <si>
+    <t>¿Reencuentro entre Sergio Fajardo y Claudia López? Se exploran vías jurídicas para definir si el candidato puede ir a consulta</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/politica/elecciones-colombia-2026/reencuentro-entre-sergio-fajardo-y-claudia-lopez-se-exploran-vias-juridicas-para-definir-si-el-candidato-puede-ir-a-consulta-3526036</t>
+  </si>
+  <si>
+    <t>['jurídicas']</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo y Claudia López, al borde del reloj para definir si habrá o no una consulta de centro-izquierda</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/politica/articulo/sergio-fajardo-y-claudia-lopez-al-borde-del-reloj-para-definir-si-habra-o-no-una-consulta-de-centro-izquierda/202603/</t>
+  </si>
+  <si>
+    <t>Katherine Miranda dice que votará en la Gran Consulta por Colombia y le pidió a Fajardo que se sume: “O nos unimos o nos hunde el petrismo”</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/semana-tv/semana-el-debate/articulo/katherine-miranda-dice-que-votara-en-la-gran-consulta-por-colombia-y-le-pidio-a-fajardo-que-se-sume-o-nos-unimos-o-nos-hunde-el-petrismo/202611/</t>
+  </si>
+  <si>
+    <t>Se acerca hora cero para definir si habrá consulta de centro: Fajardo y López tendrían nueva reunión</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/21/se-acerca-hora-cero-para-definir-si-habra-consulta-de-centro-fajardo-y-lopez-tendrian-nueva-reunion/</t>
+  </si>
+  <si>
+    <t>Iván Cepeda reitera su participación en el 'Pacto Amplio' e insiste en no estar inhabilitado: 'Motivaría la movilización del Pacto Histórico'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwJBVV95cUxOVUx1cThzTUdlVWFkZVlOMUQ5SWxnb2sweDFCUVhzandKNFpnbmotYlE0R0hWOEVUcVVMd3pYZTlsUktBOFhWaEVHWFJjLWkwYWp5YmowbU1nQzdDcVR2VzhLXzdvQXJkN3gxSFZ2R0hXWmxLbGlseGNkRm1xU2FUWjV0SDZ3VzhCbW80d09rYW1nb29YWndHWHBsb3BWQUp2TUx1SmpyaVUzZkw0Z0dQak5VRmkzNkFLZ3FveEFXYmRzczNTczRtdlBwT3liZi12dnR3S1gyVGRWeHhjQWFndF9XQlZ2M1NaeU1ubUlxYXk1RFI0bEpiclprQzZ0TFpOMmY2dVZBWFctSVlQTWIyRFltbWRoWXd3bV9FMVRHQVlfSld3WnNoaFpMa9IBsAJBVV95cUxQamJyanZhaFFQUTd5b0NaVEFDOW5EMEpUZnBjcHAyMl9WRFMyVlo2SzY4NEI5N1NWX01ZOW1EWHd3RmZ0YW9Rcm9ibHNLc19JVXNiTGV0VnZrei1yWUNubVZBZzRsVFJ2TV9ZOUpYYVBEZ1hzNVpfeHVmcGUxWVYyWHpuWDQ1NXlKWk9RVDBNS0R2RTBfbHMybTgyR0haaThpNEtZSnRka0NhVmM0a1M5Yk5iM09waTFqS1VQV0QwZ1l5TGcwbWJiclJIX2Y0cEVyeU5hYUplN21MaDhWVEppeUk1RU5nZmI1R1JZUUJUbUoyalRUOW9RYjZ2c2NOYjhDejhfeU1LOU1ZZF9lcGF2a2xDTWN6RWl3MVVyNU1JX3JINzMybWsyNUhtSHlmdmJS?oc=5</t>
+  </si>
+  <si>
+    <t>Katherine Miranda advierte en vivo que Iván Cepeda es un riesgo y deja en evidencia sus contradicciones: “Conmigo no cuenten”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAJBVV95cUxOLTdRaXZxNmlNc2VQWUU1ZDloa3dlVXpCSkduQkFuNXo1OTM4TFBEbmRDUGF4TTQwNXpST2I3YzdGTDZGQm0yZmpQR2VHYml2ekU5ZW9zb3otVGdIUHpUTng3cDhmdHBubUo1NHkwc3VkbkxsMWV1RWd4eUdQdG1nZFhOR25hdVFlSkRsMXhtT25VVWpuTlRRX2RWSXRaSVYzeEkzTnloTUp5b0lHOHVkdXNqZWI4R1dOck1oQjVkbi1ydlRmZHJrNFJRNVRZZzlHSFpMOTFXcWZoM3lNU2JHMF9odlMwRzNuQndkTENOOHkwWW9rblYzY1hjMG9hRmstbjd3WmdpOVlUdG9RS2tMRXBIU0dxY05q0gGeAkFVX3lxTE00OFl2SkFHYURkNnZNRTAzMXRUSERKU3d3MGFBNGZuWGMtbkVQYTAzQjNoaUgtdjhCem5VM0p6UVpoWWVpRHJmQVVWYmpCckRwMUYyN19fLUhXR0JpMDFXWTB6eF9hOE5zTVREWWR5dFhuRjVrNWJ2SFBUQUZid3F6ZWh5ZjBtOWhTWXFHSURicjVSSWIxTmx6R1pveThHZUk0REU5azFxYnFJeVhqaGJpdG52Z1ZGVzhRTERQZjluY0hrS2h6UUV4SE80aDFGQ0Q5MWE3UzlqaXpkWEdHb0F6VWJLUURwTlVsckNxdVo4VFZJdUVNSzBPR0FMRFBoaDdwWlhuMHNleW9wcTZlV1RkZkp3VzFwVW5VdDRQZnc?oc=5</t>
+  </si>
+  <si>
+    <t>['vivo']</t>
+  </si>
+  <si>
+    <t>El café de las estrategias entre Iván Cepeda y Roy Barreras: ¿Nuevas alianzas?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQS0NBbGlBSjZkckVNZ3ZDQjBjaG42NFNVSnJqbTFtRzdlTWl5T0pESGdLUnZ3OFoxVWQwWVJ0aXZ5SWV5MUhHWEtnMGlPb1JTTWFHeHJtMmJGZUpsYjg2M1N0ZHB2X0F3OEZjVEdENU1VWDhTT3RMSFhJQ2EyZ0tadnU2RGpUaG1FN3QwaTBNV1JhZENPaVBJMEt3N0FYY0FBNUYyWnlZVnYzQkNuUmxj0gHDAUFVX3lxTFBjMVYwQ0FLNVBRV1MtTHlqc1lSY0J0akFpaWlZS1FzeERMSm4yTXFmUzhWYUp5VkRYWkgyQmtnVDV4VVdSc0tEZ2R4bEJ1S0tna0VGWGtGSUlsVmM3UVo1SGRsenBQOWg3UkhwTHRYdi04V0J5S0dIT0hpZWxZbnFMV1I4R3lvbUM5OVI0T25tTlZKQm83T2FLc1dLb0hRN3paR01YbEZ6REE3RHhKRnF1OGNiZEZzMWMxOVctaHQ2VDE1RQ?oc=5</t>
+  </si>
+  <si>
+    <t>['Nuevas']</t>
+  </si>
+  <si>
+    <t>“¿Quién es la ambigua e incoherente?“: María José Pizarro lanza dura crítica a Katherine Miranda por comentarios sobre Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxNMlFNWmJhU2lSNlZYWlExVXp5MVQ0cl9lVzJGWW84WW9xNlU1RHFuVkJ6UU1QZG5kUG5ObFZDQi01Vkk3Mld1ZnZMN1UwTDIyU1NuU092LUdoNmk4bFRMa3FsMkRCeHZySllVeTZIa01UUHA1SU5ZZW5LY3NQN1pzOFVVcndtYWc3SjkycmV2QVh2ZVROZXFyVmVpc21lNWhCV0Jyd1Y3Rjc2blVBemlCWnpzNzE1aDA5SU41RUNBeG95T3JOWmFzVkxuSlo5dE10MGZHZFRfYmdRdXVkdzhvUmtrY2hkaTh1UHZ1SUN5UTljN21xZzk1a1lvVlZDZXdOeWc?oc=5</t>
+  </si>
+  <si>
+    <t>['ambigua', 'incoherente', 'dura']</t>
+  </si>
+  <si>
+    <t>Derrotar a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://www.elnuevosiglo.com.co/columnistas/derrotar-ivan-cepeda</t>
+  </si>
+  <si>
+    <t>Diego Arango</t>
+  </si>
+  <si>
+    <t>Iván Cepeda en el corazón del Quindío</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOX1paMjRLLWpuRE5Vb0RIbFVDSG9VTEcwMXgwdTQtc0R1WTlBRUVacjNRZlI1VTZCMVBiZms2Z2NEOXhzaHhvaDJQWG56cUl3YXlDMTFESDRrWjVhR1Y1TFNjSVB1UExFcnFiNG56akQ0blFmVUhaRTJ3eUw0Y1VUQkhVVWhFRFBlZW1fVUpIUDBvUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda advierte sobre presiones para impedir su participación en la consulta del Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOV0o1UHgtZS16LUpwdmE0elk5NWQtN1pVUlliMldPV2RXN0dGandtWkRSYlB2dzMxRGNNcWFrNnNQa3cyQUE2aFNIWEtyc0NNcU9DdUpuSzZjTmdIdDdFdm9xdm1LWlRJOWlfX2dVZDA1UGNPRlFKVEFiWUdtOExReEtTaTBvZ25BN3hSV3A3T25kRlVhcGh3c3hPSmdaYzhmVE11OFJVbTh1Tm9ScmVNcjZGcmpTd0pnbi03TFk0N0o5OFJkaEs2Qm5vTDcxdzNfcmJfMzNUQjBlZXcxSy1GcFhR?oc=5</t>
+  </si>
+  <si>
+    <t>Crecen sospechas en plata de la campaÃ±a de Cepeda: ahora dicen que â€œfue un crÃ©ditoâ</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQT2pmSXBjZ0xzckhWdlVranI4M1NJRzRFNVRpdDg4Wl8yelVGblhBNTBxMWhyYUp2S1Z1TUNtZnlXVWg5U2ItVEV4OGxLc1d4ZE5SN05tYlBxMGZtVHU4cnU5WlliVUVtYUhRa2wwWDdmcE9jZkVjQy1RMTQxMTVIQnYySGk0OUpDdWp0SmVaSFVjcWs?oc=5</t>
+  </si>
+  <si>
+    <t>Piden al CNE investigar origen de la financiación de la campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQcTY3a1dsR2xWT0RyTnZ6cUhlVTYxTklqLUUwMkllYmdjNWJUVGFaTGlXUFhMWThydzBKNTlUT21ZeUtURzRXSG1HYnlydzhZTDgzLXphR05mMlY4WnNYWU5UNFVoRkhSbXNydmFPNFkzcFNRRTk2bExTeDRyWTF4czgzSmJpWkc4ZUtnYndaLVNpbVlnb1BLM3hRZ2prYjNzLTZDSjI2aGp4Sk1jSUpHdXpfYmdRcVRjLXfSAboBQVVfeXFMTkVKZ3VGUG9Zc2xQajNLc29kTFhqWlVTaHRUV0ktNEV2eDZveElad2daU2ZrT3B0SXg0WTItbFYwSFBfUlJqX1FqYmtXaWVxWDhYSHJrdHk2Q3BUd1lrbklGSWVyMXJtc2plM0FtWl9FbU1odk5NeHZUUlg2T3BwODFYS25FY1V2aWhNaWllc3BkLTBZOXN1VktDSThldFdMMjVlb1lPalV1OTRvSWlfc0syUkdyN0pub093?oc=5</t>
+  </si>
+  <si>
+    <t>Samat Publicidad dio un crédito en especie a la campaña de Cepeda, no donó sus impresiones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxQVUQwRlpXUE9ub1RzZTBOM0x1YXRWa01NZXM4OGRnLUZGMnFLZnJUSldxM0xLS3hqZU1IS2w2TGYzLXJDVnQwTXNDODNnMnF1TmtmWjJlMUpIcHhLU1h2ZUw5QkI3bmRXLXdlUDY3TDRLU3VpZTJuMGhyN1BoeDVSYlRaNUh4b1VDY2wxTkpKSHhldmxfbzRnLTZUSnlHODVyUXBYQmhJVzF5ekxabkhoNXNjZVhqenlzc3pOU2xyQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda denunció intentos de frenar su aspiración presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNSEdwaTRkeUVWOUFKVXo4YlNaSWV4TGthTmtFdlZxa0ZUVUxCNkJnZE1pM0xfSGhQR0FHYm4tWHZIQWY3U0lhdERCdDNMYmw1TllvUEFIRkVXUnJiRi13cXVVejNqUG5IY21fRklhZ1hmdVBTM1ZKbk56SWxfZkt2dG04UkVVaVlOLU9BYW1lRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella redobla su ofensiva contra los periodistas que investigan su relación con Álex Saab</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQZnRHVHRleVJwNVVRYm0xeVBnOExVYVRVd1FTNWtEMk5pRG4xV2R3OGswcjM5RENJUXhicWFnTXZCak5iOGJkUnpJOHhkSFU5bXRqdFBibmNtS1B1clVjRDRBQTh3V0VWYW40M0dMV3YyNjlnZ2NIblVkSzFQZVBzWElpbG52UVVDZ0NldWNDTTZrdlR6SnoyOWs5RDhmYXRxYjJtYWN0SFZEYjlHNEd3aHhvUk1yNUhwcm12eFItdWpHZlhZYmdpMWZmRFBTNnNLWVo5emY4N0Rid29pRkhYNzRnRnRKLWdydVdKRFlReHRRd9IBhgJBVV95cUxOdjhXLVU4WWs0ZzliQy1Jd1RHNVRRdVRUMkowSVpkWmZtSnoxcm5QLUdxVVMzSTVXdkV4OFZNX0FJY1BueWhVdzNYWGFHdGxhU25DSW5Kajlra0VXNzFBQjVsX2pENzNZeHRqVk45YV9jSVVienhnV0hnSlpCbkF2empsRjhBcDNXNXljWmJRR1BnSWtTNHhfV01TSXhkQjNpdUdWcGFYUFNmRVZ3bmxIRk9xVjl6NWJDbG1FVnpOQ0NBa193dzR0QU5VNGliYWdwbG95a2RjUUVJOHkxV1JKTURvZUZlRzFUUWcwQlgxaXlWMmFDbzMxS2Z6OXhFem1RM3NpMm5R?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella sumó nuevo apoyo: 'Bukele' abandonó elección al Senado y se le unirá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQQnUtNkRBNDVYaUpoMk55RnZEM1lFLVhVdml2NHgwTGM0Vm90SXNRS2N0NkhsWHZzZjE3bWwxUHB1SnJKdklMNHRsWWFSdVd4VmVaUUx0Rm9kMzlHUXotVEN5UXlUV2l0c2E2MlJTWXlnVU9SQjRKZnNrbjFUeTNEMFRTRDV2dV8wT3ZBTWJfaTNWYWZyRWl5NElsdXg1cERoZi0tdmFDdmRvbDRtdjUtUkpNT24xX1MzTEk4bEdmYU1NS2fSAcgBQVVfeXFMUGZGWDFUcTRqZzFoVXl1ZHdwd1VKbGhXWW5QVGtmOXpyZVBiWWlNWUJMc2tGM1pWQWRDSlFTbmhMWHg1ODRTZ0NpVl9Yc1RmUUJFSWRrcVNkTy0tSk5wY3pqcEJLekVEb3BaYjloSVR2RFZxMW00c0oyRHBRS0liaVdHZXRESWNEdGdTWF80cmVZMWozOTNiREM4bXRFT04wUV9sazhwT3pCZTVkd09kakVkcVRzYTR0THp6TE8wZkxKMkRwU3RYeFE?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevo']</t>
+  </si>
+  <si>
+    <t>“Deje de hablar mier**”, periodista deportivo a Abelardo de La Espriella por referencia a otro político</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxQV19tMjJlNGVuU2dyLXEzNFQ3aW5KT0Y1Wl9nN050bE9QZFVXa0NiX3J6X185T3hqNjRUZGMwVWtqcWk4Q29DVEpEUVl2Qi1rNGZ0aG9kQTNBYUdKUHJ5ZGFDbURSTDV6aWhQUTZOVHl0YW5lMzdJV1VwR2stLVgydGZyRHA3NjFMUWotdlZoT0VRSzFEVzAwcHpPZzNNYTFMZk8tQm9vUVVUVjdsQ09FSEZZbUhWcEZ3LW92S2NiMVpFYVVDTFhjUl9sUVVkdUZQR1pENndtcUJlNDVvWkE?oc=5</t>
+  </si>
+  <si>
+    <t>['deportivo']</t>
+  </si>
+  <si>
+    <t>Tres títulos en un día para secretaria privada de Petro desató la furia de Sergio Fajardo: “Sigue promoviendo la mediocridad”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/21/tres-titulos-en-un-dia-para-secretaria-privada-de-petro-desato-la-furia-de-sergio-fajardo-sigue-promoviendo-la-mediocridad/</t>
+  </si>
+  <si>
+    <t>Yeison Andrés López Romero</t>
+  </si>
+  <si>
+    <t>Miranda se mueve, Fajardo duda y Cristo pone condiciones: así se reconfigura el ajedrez de las consultas presidenciales</t>
+  </si>
+  <si>
+    <t>https://www.noticiasrcn.com/colombia/como-se-estan-configurando-las-consultas-presidenciales-982934</t>
+  </si>
+  <si>
+    <t>noticiasrcn.com</t>
   </si>
 </sst>
 </file>
@@ -2916,10 +3063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233:XFD252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9701,6 +9848,592 @@
       </c>
       <c r="J232" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B233" t="s">
+        <v>677</v>
+      </c>
+      <c r="C233" t="s">
+        <v>678</v>
+      </c>
+      <c r="D233" t="s">
+        <v>75</v>
+      </c>
+      <c r="E233" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" t="s">
+        <v>679</v>
+      </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>75</v>
+      </c>
+      <c r="J233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B234" t="s">
+        <v>680</v>
+      </c>
+      <c r="C234" t="s">
+        <v>681</v>
+      </c>
+      <c r="D234" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234" t="s">
+        <v>34</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>24</v>
+      </c>
+      <c r="J234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B235" t="s">
+        <v>682</v>
+      </c>
+      <c r="C235" t="s">
+        <v>683</v>
+      </c>
+      <c r="D235" t="s">
+        <v>24</v>
+      </c>
+      <c r="E235" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" t="s">
+        <v>109</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>24</v>
+      </c>
+      <c r="J235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B236" t="s">
+        <v>684</v>
+      </c>
+      <c r="C236" t="s">
+        <v>685</v>
+      </c>
+      <c r="D236" t="s">
+        <v>219</v>
+      </c>
+      <c r="E236" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" t="s">
+        <v>344</v>
+      </c>
+      <c r="G236" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>219</v>
+      </c>
+      <c r="J236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B237" t="s">
+        <v>686</v>
+      </c>
+      <c r="C237" t="s">
+        <v>687</v>
+      </c>
+      <c r="D237" t="s">
+        <v>75</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F237" t="s">
+        <v>332</v>
+      </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>75</v>
+      </c>
+      <c r="J237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B238" t="s">
+        <v>688</v>
+      </c>
+      <c r="C238" t="s">
+        <v>689</v>
+      </c>
+      <c r="D238" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" t="s">
+        <v>25</v>
+      </c>
+      <c r="F238" t="s">
+        <v>690</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" t="s">
+        <v>570</v>
+      </c>
+      <c r="I238" t="s">
+        <v>24</v>
+      </c>
+      <c r="J238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B239" t="s">
+        <v>691</v>
+      </c>
+      <c r="C239" t="s">
+        <v>692</v>
+      </c>
+      <c r="D239" t="s">
+        <v>219</v>
+      </c>
+      <c r="E239" t="s">
+        <v>25</v>
+      </c>
+      <c r="F239" t="s">
+        <v>693</v>
+      </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>219</v>
+      </c>
+      <c r="J239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B240" t="s">
+        <v>694</v>
+      </c>
+      <c r="C240" t="s">
+        <v>695</v>
+      </c>
+      <c r="D240" t="s">
+        <v>349</v>
+      </c>
+      <c r="E240" t="s">
+        <v>25</v>
+      </c>
+      <c r="F240" t="s">
+        <v>696</v>
+      </c>
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>638</v>
+      </c>
+      <c r="I240" t="s">
+        <v>349</v>
+      </c>
+      <c r="J240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B241" t="s">
+        <v>697</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D241" t="s">
+        <v>304</v>
+      </c>
+      <c r="E241" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" t="s">
+        <v>304</v>
+      </c>
+      <c r="J241" t="s">
+        <v>15</v>
+      </c>
+      <c r="K241" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B242" t="s">
+        <v>700</v>
+      </c>
+      <c r="C242" t="s">
+        <v>701</v>
+      </c>
+      <c r="D242" t="s">
+        <v>494</v>
+      </c>
+      <c r="E242" t="s">
+        <v>25</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" t="s">
+        <v>21</v>
+      </c>
+      <c r="I242" t="s">
+        <v>494</v>
+      </c>
+      <c r="J242" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B243" t="s">
+        <v>702</v>
+      </c>
+      <c r="C243" t="s">
+        <v>703</v>
+      </c>
+      <c r="D243" t="s">
+        <v>175</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" t="s">
+        <v>175</v>
+      </c>
+      <c r="J243" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B244" t="s">
+        <v>704</v>
+      </c>
+      <c r="C244" t="s">
+        <v>705</v>
+      </c>
+      <c r="D244" t="s">
+        <v>123</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s">
+        <v>17</v>
+      </c>
+      <c r="I244" t="s">
+        <v>123</v>
+      </c>
+      <c r="J244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B245" t="s">
+        <v>706</v>
+      </c>
+      <c r="C245" t="s">
+        <v>707</v>
+      </c>
+      <c r="D245" t="s">
+        <v>172</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+      <c r="F245" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" t="s">
+        <v>17</v>
+      </c>
+      <c r="I245" t="s">
+        <v>172</v>
+      </c>
+      <c r="J245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B246" t="s">
+        <v>708</v>
+      </c>
+      <c r="C246" t="s">
+        <v>709</v>
+      </c>
+      <c r="D246" t="s">
+        <v>150</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" t="s">
+        <v>150</v>
+      </c>
+      <c r="J246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B247" t="s">
+        <v>710</v>
+      </c>
+      <c r="C247" t="s">
+        <v>711</v>
+      </c>
+      <c r="D247" t="s">
+        <v>30</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="F247" t="s">
+        <v>124</v>
+      </c>
+      <c r="G247" t="s">
+        <v>17</v>
+      </c>
+      <c r="I247" t="s">
+        <v>30</v>
+      </c>
+      <c r="J247" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B248" t="s">
+        <v>712</v>
+      </c>
+      <c r="C248" t="s">
+        <v>713</v>
+      </c>
+      <c r="D248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>28</v>
+      </c>
+      <c r="F248" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" t="s">
+        <v>17</v>
+      </c>
+      <c r="I248" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B249" t="s">
+        <v>714</v>
+      </c>
+      <c r="C249" t="s">
+        <v>715</v>
+      </c>
+      <c r="D249" t="s">
+        <v>129</v>
+      </c>
+      <c r="E249" t="s">
+        <v>28</v>
+      </c>
+      <c r="F249" t="s">
+        <v>716</v>
+      </c>
+      <c r="G249" t="s">
+        <v>21</v>
+      </c>
+      <c r="I249" t="s">
+        <v>129</v>
+      </c>
+      <c r="J249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B250" t="s">
+        <v>717</v>
+      </c>
+      <c r="C250" t="s">
+        <v>718</v>
+      </c>
+      <c r="D250" t="s">
+        <v>349</v>
+      </c>
+      <c r="E250" t="s">
+        <v>28</v>
+      </c>
+      <c r="F250" t="s">
+        <v>719</v>
+      </c>
+      <c r="G250" t="s">
+        <v>17</v>
+      </c>
+      <c r="I250" t="s">
+        <v>349</v>
+      </c>
+      <c r="J250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B251" t="s">
+        <v>720</v>
+      </c>
+      <c r="C251" t="s">
+        <v>721</v>
+      </c>
+      <c r="D251" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" t="s">
+        <v>34</v>
+      </c>
+      <c r="G251" t="s">
+        <v>21</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+      <c r="J251" t="s">
+        <v>15</v>
+      </c>
+      <c r="K251" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B252" t="s">
+        <v>723</v>
+      </c>
+      <c r="C252" t="s">
+        <v>724</v>
+      </c>
+      <c r="D252" t="s">
+        <v>725</v>
+      </c>
+      <c r="E252" t="s">
+        <v>34</v>
+      </c>
+      <c r="G252" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>725</v>
+      </c>
+      <c r="J252" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -9832,6 +10565,7 @@
     <hyperlink ref="C230" r:id="rId125" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxPSEdGZnhQc0hRNHZqQlpPVTZKUWR1N2RlZzNNMXQwWlhLUWM5RC1VZkozRWRhYnBnbjdvYkdNTDVraXdDR3JKbUctZFdzRFhjX2VudUp6bHBlN1c5bG5kYVZNbFlFTVRPdTVudXcyTFgyLU1MdExDUVMwa1lfRFZEekUxZWVtT0ZRV3RBZkl1RjlCTm9nSDZ4QmdZTDd6V25vcVdndERWeEdBaVFvZ3dXQUJxNUPSAcgBQVVfeXFMUE0tTkVra0V4R1Q0NHQxbENSS1MtbXlvTi1JU1dKbXlPREJETVljVEh5YVlkU05HY3N1bEwtX3dzTDFEUkxXbko0WjAzbWUwVElZUVJISVpPaE1HWE9EenFJMmtnUTh4LVNGdTY2UHoySThMb3FndnlOUEtNX1A5WTZXRGpRZ0Y0UjBCVWlsYVYzTGNwSndYeVFqeDhQMVBGUkE3bFhpaHprQUpIb2RKSTEySVRqelRzdEJJV09rR1pRTnhxVlRhQTQ?oc=5" xr:uid="{197C04E8-78A2-4011-95A3-4789577A1767}"/>
     <hyperlink ref="C231" r:id="rId126" xr:uid="{A4B122F3-358B-43B7-909B-4A2E58197529}"/>
     <hyperlink ref="C232" r:id="rId127" xr:uid="{5A6ADCAA-4883-4716-A944-A6424D9A3262}"/>
+    <hyperlink ref="C241" r:id="rId128" xr:uid="{58ACC7F2-D2A1-42FF-BBF7-8E85BDA2346F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283B176-8C8D-41AE-AE3F-5485AADBE02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E679FF3E-D168-43E8-8434-F88F3FACDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="806">
   <si>
     <t>Fecha</t>
   </si>
@@ -2201,13 +2201,253 @@
   </si>
   <si>
     <t>noticiasrcn.com</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo cierra la puerta a alianzas con Iván Cepeda: 'Su silencio en campaña es cómplice con el caos total de este Gobierno'</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/politica/elecciones-colombia-2026/sergio-fajardo-cierra-la-puerta-a-alianzas-con-ivan-cepeda-su-silencio-en-campana-es-complice-con-el-caos-total-de-este-gobierno-3526395</t>
+  </si>
+  <si>
+    <t>['total']</t>
+  </si>
+  <si>
+    <t>Esteban Mejía Serrano</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella habló del “comunismo” y Sergio Fajardo le contestó: “Colombia no necesita ni show ni miedo, sino soluciones”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/22/abelardo-de-la-espriella-hablo-del-comunismo-y-sergio-fajardo-le-contesto-colombia-no-necesita-ni-show-ni-miedo-sino-soluciones/</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo acusó a Iván Cepeda de ser cómplice del Gobierno Petro y descartó alianza: “No se pronuncia ante la grave crisis”</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/22/sergio-fajardo-acuso-a-ivan-cepeda-de-ser-complice-del-gobierno-petro-y-descarto-alianza-no-se-pronuncia-ante-la-grave-crisis/</t>
+  </si>
+  <si>
+    <t>['grave']</t>
+  </si>
+  <si>
+    <t>crisis, grave</t>
+  </si>
+  <si>
+    <t>Iván Cepeda estaría inhabilitado para participar de la consulta del Frente Amplio, según uno de los conceptos de la MOE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPUXFvTHhGQXBaa3NUZ3hwS19HMVYtS0h5Q0VTWjF1c0hmLUFoMGJET01nZnpqLWU1akRHMFhsYzg1TDR1ZGZqTHdkb0JyRW5OWFpnbHFibFJwZExlREY4cUExbmt2UWh0QV9qVUZURnMxb0RKOUZQLXk1SEpPLWxYMzM3MFpXNTVkUlFEUGYyU2VMaTZpUVZwby15YWJwQjAzRk9DQ3NnNzc1OFFwYlViNmNDZXl3aE9xYmxrVENwNzlHVlNkeklGZGZ30gHPAUFVX3lxTFA4TUc1bWlUNUNvcktYX0Y5V1puZjhSVC03Z2gxREU5U2stdGw2c0RodGVwNXd6NFlGWnhuanN6dFlHMXdtNmV2dldzTmMtVjhpYUdOTm4yaUlFRWdncENINkFRaTJwbFNIM1dqREQzenlkUUJ2ZS1LQmh6Nl9LV2Etc3hRQXJiV3VNcUlJV3BlMENQYU9pSG5mSzlPN0g2b0MzRXp0U0ZDYS1xUmlYcEpUZ1l4c2l3VGJPNG1MOFQ4ek05bWZzTkNNS3pkOFlHUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Uribismo pide al CNE investigar origen de la financiación de la campaña de Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQbHIweXA4NTlZM2JfT2VmRElCNExHclZKcDFiNi1renJLbE9zX2hIT014WFltOURYTXJqUHZlTGIzc3p2eGo1NWFXemg5WUJ4SDhNX0Njc09ob3BYeXdhb3NqNWZmR016cWE0WkRwU3JWOU02a1pGbnV0Q2ZrR1RJMDI5alhBUl9YMEFJUWlHMkE2MFF1WUk4emtYVXFBYU5LQmdoa0FxVi1iOGQ0WU82SDc1am96c1RxdC1wSmNR0gHSAUFVX3lxTFA2WHJjRjVFS0RtTjYxdG1INlctcnljYTFIeXJ6SzBUV0hRYm9EYklZeC1Bc3ZxcUVoS19xVVVUZC0zWDZiYnh1b3UzY2k0SFNGRDB2SHRaZHo1RjhOM0JET0pNeHRpQ0J5RmpDZ1o3T0FfSndNQ2VvaU1iVV9kSXlOdnZiYllISHpHRzJpY01qRjNvWF9USXFXbGNSSEN6S1lOdnVqU2kwWHVGalo3UXVkdUU3dlpCZTZVZ3FNY3lHXzBGN3pnbklWTWcwenN1WkFMdw?oc=5</t>
+  </si>
+  <si>
+    <t>Exregistrador pide a la Registraduría rechazar eventual inscripción de Iván Cepeda en la consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNT2tPeUp5cFdjMWcyVjFMUmRDTVpLNzNqdWlxUXA5dTQxSGVaSS1RNC14Wkx0QjJxbllYeUo0XzRELVFnS1FUQzljRXJoNmFHUjFDQ0lmVDB0ZFBCc2ZJVkxFUTJMRk1WMUVKUkJMR2FSeFFIb1h6ckh6bnVENFBWb2dUdDZsb25ydEYxMXVHSzNJS2FMRVlwejZBVEtqanFUUElGV3I2enlDZ0RzeGJSR0FzVkp6OXBGdTJ6ckU0LXd6Umh0cU0weEc5bXnSAeABQVVfeXFMTkRDcklXZ0hOSkNlXzVUbFFzakJNc2dKeFQyOWJ4TmJBWjVFUVY4emU2M2otUUhXVldna0M3NWJjZmI0MzE0TTJwUzlvWDJrVDUtdkFyWEJFR3h3U1ZGRW9Mc0tSVjhnNDUtMnZMdVp3OEZfSkFEZEF4VC1RTDdMZm94VmU2TXY0cXFkRi1HNGN4NUhmWFdkdlhZNThOWmMwSlNPMmhWUm5OS1NGei1rOTRuWWxGYWpKUVc3NWRvT3p2Tm9XRUVzUlpsTXFJX2tlZzNDaFdNY205SlR6TTNuNDE?oc=5</t>
+  </si>
+  <si>
+    <t>No existe solicitud para impedir participación de Iván Cepeda en las consultas: presidente del CNE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQWVZTUnlJc3pmRU5jOXdwZDQ0SGlfdjh6cUppSGc0cTRDVUZrdXVOY0pKSHdSTi1mMXF1UGY4WDc1MG4zVXZCYzV0ZUExU3dyM2FOcjQwRzYyR3Y3MDdXeFhuMnJqX1lEVVZVdVgwVGw5NGNObVJWdGktSU9tZ0EzR2p2aXFyMWIzY2dZdllRZHZTb2pmUkJrdlozZTB0NDVZQVRHMzZsQlhYM1pMOGRfNWdtMzYxdWt1VlI3aGZtdUZkdndVU3NwcUFKQlbSAeABQVVfeXFMUFhOajd4dHBQai1qSDNTRzd6Y1hJTVp5THdtMmtNdnhkblR2S19iaC0yc01Bdk92dTVLVFA5TkxoSDQ3Ylh4OVBLMFhsdWhzVEFzZkVVRGxIbmM0cjd2aTY1TEVRWF9jclVVY2k0cllJbVpsbnlHUFA5dFNWUUpMRF9YNXUxaFFJSnNaaEJvWHNiT0hvVV9Vc1pVM08yVTZTelpjTUNkUmcyb3h1WEYwUUNzWUlrcEptbHlnc2dZY0p6LS1nRy1vcXI4QjNUMHUtQUE2OFp4MERfam13UGEtN3c?oc=5</t>
+  </si>
+  <si>
+    <t>MOE dice que Iván Cepeda no puede participar en consulta de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQ0pjN3ljMFE3VXdKR3ZwcWtoZ2JlanlQbTY1dURPdjdydS0xckRSd0hUbTZlc2pTc2NXRmktRUNGMzhfT1pCcmROXzhLbVJnQXU0UlBBLUZnY0poTFBwd0lTMlRaaFd6YkM3Z2pJeVZIVzJ2eHNCX3hVNFRhN0VZZGtVa2RjVjNPY01ENXhsVU1rbThYTUhRWDE5bUhmSkRQeTBILXhB?oc=5</t>
+  </si>
+  <si>
+    <t>MOE duda de participación de Iván Cepeda en consulta de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQY0xrN21WM3BWOHdQMVBlQ1ZwczQtVDFkSjhESmk4elFOQXZWeGJ4MUc5Tld5X2lBVkhtWGxwRW1aNEUwOWpCd2F0d1MyV0swVFJqM0tibzNMQVpETG5kMWhhUTllTDJTOVk4eTRSZG9VVTJ5SEFrc3ZheWlpVEZXR2lXc2tIZVBzSHN1OVhmSGpkVm9WWkl0ckhoVFhjZVFD?oc=5</t>
+  </si>
+  <si>
+    <t>La MOE asegura que Iván Cepeda no puede participar en la consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOZGlIUmxVYjFnOGpCSGJjMVRqVDlmRVB4cHFuM3UyVmp6NmY5a1poMEJMNHdxZVRCZzQxMldqdFBfekM0WGhpS2NSaUhUNnNnOGxsRGd6U3FaZWI4S2hUd3g0clZvQlFXRThlNkxWaU80emFDTU9abG9GekFpc00zeXVlWTlaYWlsU19SU2I1U3NxZUE1bnRMczI0Y2JLbU5fMHNHUXpNZFBuOE5VZEJwR9IBywFBVV95cUxOYUd4cl8ya09fcVZxOWRkYklmazJ4MU1IYlpTVTBVRzVYdUtrMVVKOVB0QkNUTU11Tm1VWi14ZE5naks3Ull1bmRha1MxdlFVTlM4aHBoUEhJdW05bER3SVZTOURhZzZfcWpUcVVrclk2WEF5a0x6M0d2azhoRXRvb0ZtZlNtMjlSVlBzX29jSlc3Snl3WWRHSGNoV2FFOE5NbE9vVnAxZnc4Y3NGZUxXQmFnLUZKUVBvMzZ5REM4eks1Zm5PelRMTUpFZw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Puede participar Iván Cepeda en consulta del petrismo del 8 de marzo pese a consulta de octubre?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPaldGaTQxY0l5aW05bS1NdDlzU1ZzVVhTVTVXVVJlNkUwVVppdGwtMFNzOTZsZS1Pdmc3QUc3cXhrUlk2dmpScHE3R1lXbmxsLTlGdkZiNFNoTTlXS1F5TDljam5vSTNpeDBublNZRTB4eDFBZm1uMkVZZllSdVY5ZlZGOUlwSWR0SnZFYnVtTldySVBYYVdhcEdmby1QTTVrSFpwTWRZeXFETzM2Z3NOcWhNYVVsYkN0WkV4MjVxY1dodmhfeFBiS1V4RmRJeEnSAdwBQVVfeXFMTmd2UmF1TG8yd0RlcEIwS1FudTVWLWJYVUdIcGx1YlBBeUpYaG9lOTEyR3U4Rmg0NzR6WmhacjdVU1g4TkQ2WmxOM29raElSOVpaMVZJd1ExWDNrelFlVm1zWWc2X0d2eG50OHAzQ1p5c2xpXzhzT3h0VDRkbjcyekZIcjhQeXBSWjJUNjRUT2NISUZRbFVuaS1nNXN2bVdqaHYwN3dTOWp1eXdwcHB0dDZvOGxqWW5SbFhsVU1NYmFqaTFpdlJqMGhodW8wZzhrRTFVWFEwenEzQjV1NQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda podría quedar por fuera de consulta clave: concepto de la MOE deja dudas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQWDhwVjNzZi1ZZlB5al9fYnB4ckxMRnRjR0JSQmNEOVRaMWsyaWJNOUx1N1lmSU4wRTdtLWJGNDBzdFZZX3dMNGxSZ2VqUi1mMWN0YVJ1T1pmYjlBWUpJMzNhWXZHSFEyQklWMi0tOUQwS0VWODZaQmhIVVIwNjhXcTlhQUxrdmtfeTFiU1F4Q2FsQUVVUk9EcGZEV285MjFWcXhiVy1OejR3eG9QTEJlUHVVYTgweElZWGxoN2c3WjjSAcYBQVVfeXFMTXVyeHJ5OG5Ec1hxRDF4SkwtT3NGOFBla2dLcmVmTVlnMTB2N1BXd1pSM3hZX1BUWVVFVFNIdnpfY3hyU2FHM0xQOURzdmxvWmg5bnJ0cjBKdEs3bl9tS1ZBamJnb3hSYTJzbTFCSk9hYWQ1b0hNRzNPU3ZKM0xWeFVZeDl3SXhvRlJzVi1wZ2dxYW5rOGttc0ltamktN05wTW1tWDRZdklpODI2WUViLV9Ka2FScy00am1jdWN5VE12UWJaekxB?oc=5</t>
+  </si>
+  <si>
+    <t>Uribismo apunta a Iván Cepeda y pide investigar campaña: “Fraude que ellos hicieron”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOcmJxbWtncmZ3ZkwwWnZVRW5seXJ4NzJWX19jR2U2djZ6TkNtalpIM2JBa1JxNnlGUU9IMzZmMloySUkxOG1qZDN6TjBYNXMyMk1pYWF5Q3U3SXNzR1ZidzktZXV6Wm1rS3RNZkNFSXFtZ21LazRJbHpaU3RhMzJUOW9nQXpSYjFkSUtwazRhRkNkWDhFcmY0QnNxdjhlMEFfM0ZFdko1b3JwUFZUT3V0ZHhhRlJ6RFNfVG9MOUFFZ25rVzViN2fSAcsBQVVfeXFMUGtWSk1DbDhKajYybzNmS1BaS3lITHl4WGJTejBVbVZfN2VRWGZ1MlVrRVl0bGN4VzZHN0M2Nno4TkJsV3laRjY4MVVvMWNFM3NyaUFPTGpTRFpza3p0THhscFhRdlZSenhOaS1JUVZrWHlSMjJGNkhtSTRtX0owSFplb1d2MmppdFZiTEtLQ2t2QkFrZUs5Ym80MGFVeFhtWVQzZWl1RFVwODRiMTFEanB4YXQ5SUJEZ1dyUDdzUVQ4Z29MSy03TEVaZm8?oc=5</t>
+  </si>
+  <si>
+    <t>¿Iván Cepeda inhabilitado? El dilema jurídico que sacude las consultas presidenciales de marzo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxOTmcwZDlLaDRKUlFpX0N0cFB1VmZoaFpCNm14NDJPWGNzR0RTcmtqUEV4WTUtclVqeGpMa1JMUFV4TFJkUG9NUlRubEJyaHdQQVBUSl9GYjE2UDJpT085NDJnaTdLenU1ODNSZktFcW03NTBTYlFFVjVUb2hrWFhNNTJOaDVISEZRM01PZ3ZlcS1oUEgwR3RILURsbnhLVGlYV2w2NWF1SS00bzR1T3pBVXdWQVZSTEhOWGNqT3cteEJPQTNaQmpLVW56Q0RQX2l0ekkwN0FlcmxKSDRBUVo2d0RmWEFMSFpRMDJmLXNiMkpCM1ZVSkdaQg?oc=5</t>
+  </si>
+  <si>
+    <t>['inhabilitado', 'jurídico', 'presidenciales']</t>
+  </si>
+  <si>
+    <t>CNE no registra demandas contra las candidaturas de Iván Cepeda y Daniel Quintero; pronunciamiento oficial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxQSjNTYTE5ZnJLMmc3eWRvT3pZSWlES1BfRHd6OEJLX2pPcHB2VThhVjd2b3JWM2JDekdqNjF4eWxzQWY2Y1VnY0tRMVdWQjBXNGxWbXJhMUlEaF9nSFpkakRzRm1lZERfNUlEQmplc296a256X1Qwd0FMT3NUc0dNNGpieTYzTlZ4OUFnMXhkNk51YXB0MWtHaVlIdEZHaGRYZjNlV3lHRVYtU2hJcWNQU3picnpSS0RsbUpMSTYyQU1Db2xGVkNrNkVMdjZoYWhZS1FHeHVNZGxQQkNycmRsdWU3UXnSAeoBQVVfeXFMT1FrR1VJV1VKOGRxNm42V0J3Z29sTTlWLWtlZ2VTVHJZN3ZSUVRyZnVvcGQwUjdEbS1WVzhNNmlBUDFXN0JVSFZHWmNYMVNKcmU0Q3Q3Sm9mZ05zc09jS3ZkMXZsMnhCbEtTZ2szOFNMNlNZbmVWUmN3NVRJRkt6SFdlMExVVVBMWUZPenpBQjF1MVZjbnZtaE5XVC1WeHNCM0luY01JT0NmOEszS1NzaEU0NXZTNG04WTIxSlZRb0s5VHA4dndjYUUyemdwb1ZtZU5zQ19TY1VzTHNwQkZOdGlsa1VuSXBtdUpn?oc=5</t>
+  </si>
+  <si>
+    <t>['oficial']</t>
+  </si>
+  <si>
+    <t>Consejo Nacional Electoral estudiará legalidad de Iván Cepeda y Enrique Peñalosa en las consultas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPWllENThDTmZwUGFYSWdTQjFueE1CUlhiYTBWTzBQZE9qa25CaC11UHkzdmlIeDFJWkY0Ry1zQjhSc2EzelBNRkdjc1c3QWZVNGxRdnN4aDRlY0J0UWJnTVBxbnF1LTdMSGszdTBTaE1qdmJEMmpMVll0UTNyNnMtQWFodzg0LUVDRmJ3NDg2aEEzaUZHRGpWeE1HM3VnbWVvM3VYQ1FZczk5SHJXaTJBTzV6bWw2azcwWS1qaXFlR1pad9IBwgFBVV95cUxQaHJTLWJ3OU1oLUNENGx5Mi02dWhPTmRQd1RrQWVrMGI4S2hfcURWV1cxa0FRY29NU0lOc0ZKbHpleDl3M3k5SFZpR1NHUUY3SDVrcExZb2lVTHhtU054VkRZWFYyUVIxUkdKRjBtU2dCUUtfWURBQlFET3FZQXIzUXhqUTA2eWMxRTZMSXNNbFJDeDV3ZUJVNG5WZjM5ODhLQVg0dmozVEdvaU5oUl82bmU2SVdJWmFoOW5Oby1uZWZ3QQ?oc=5</t>
+  </si>
+  <si>
+    <t>CNE confirma que no han llegado demandas contra candidaturas de Iván Cepeda o Daniel Quintero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNWFk5SUZ2cnhGOXR1QkQtMnpfc19kTjVzNUNzN2RKanFRc0RWYTQ2Q2xhVFNjT05WYzhrXzZ3a0tlTTdlTjl2aWxoWW1nc2tSeTRxdzU1bE5OS2dlVVlxYlI0SjlNdmRjTGIyYlljV3hZQTZwRURXUUZqVWVKYm5BRVJXSWY0UWpSWmF6QzVmWGlzYURjZDRybnZVMFdCMjlkdVlvY1hEellzSHBxdDBzNWpMcW5kX2NCOFBVOFI1UGhpQU5UWWMxMDY5S1Zod9IBzgFBVV95cUxOTDIyZjhZTEhFcUV1dHN5QmJhR0lCRmVwUTQ4dHpGZUtyVFdoQTJRYWY3RTJ0WEdmSC1kd1dqNmVrUjBsSzVfTktwX2dMX1VPYzd6MHdwMUN6Z3JVel9qa1pUUFo5TjdLOEk1Yzh3XzhHM0RjS0ltdjY1dm1DTmhjY0JUM2l0ekpvZUdLcW1selJ5S09pejNoem11blBHemFLSUswcGJpOTJpUmJSNk0tN2thYV9ZSHo4VXBBb1JmVFQzcXREbXZfRTNyQTR2Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['demandas']</t>
+  </si>
+  <si>
+    <t>CNE tendrá última palabra sobre si Iván Cepeda puede estar o no en la consulta del Pacto Amplio: MOE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOSXdwR0VQeU1WbDNyUGI4eFBxMjRMT0E1NWplTWRkaVl0OWt1bVhFZkVTcklsNExKQXg4cjA2c2xCcWpOSWJHM1UzRHJLRDBXb3EtbHNjZ0ZLMUhkY05oWVVZU1ZTMGRwd0dnSkJxenJGdVplTTFfLVFjYmVpZ0pNOENsLVIxbVVwYTZFbnZxZHd6cndER2pWUkItdXo0ODZBYU5yeXh4ck1NVG9nZFItc0hsSWtwMzNUeDZrTDlhSE82M2FLSWZPbVNBWno5ZFBRSlp4LWNR0gHWAUFVX3lxTE5LTThqYVptOV9JUUxrd1Zfd0Q2cEt5aFdEWG11TENNTmNteHhyVU5GVllSYUNtWXBBaGhHV1kyMUMzbm95V2hIMUZDWmxXVGNTM3RuUXhDajVzcFhVdXAtQ095aWg2VGlRMmpfS0NSSFdsc25pdXk2dVJ4b19lXzFRMkFQeUdSWTZ0MXVBeG5Dem02czNVQjNFb1dkN0xDM3lhTGY4ZUNXajBOWU5ENGVVVHdRMzdRSkREbDR3V0RzYjdfeWZLRkdoUF9WY1pGeWRDMDlHaUE?oc=5</t>
+  </si>
+  <si>
+    <t>['última']</t>
+  </si>
+  <si>
+    <t>Indicadores de Jeremías | Club Cazadores será escenario de la visita de Iván Cepeda a Cúcuta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOR3VkbG5XU1FkTG5DWHNGYjZkLXI4NFdyXzdiRXRqTWt6UnJCb3drc3BRLWRlb0dTMFMwQS14cVJkanFSNWp4ZnNHQmtZWE9jbjhzNzg1amtZRnV5ZHprSHM2U1hWNkRYYnB3cjBnYnlaZEMxb3BkM2NRZnBWUFFFTUZLN0w5OFU0MWlFMWc5aWtvQkptd2t1c2NhWUhjX09vOUg4WE1nR0plR0VLN2xjUG9RQ0NkaTk2QkktSXFiTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda no podría participar en la consulta del Pacto Amplio, según la MOE: este es el motivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxOeFhCYnRSOGFKUWlaTHY1QUhILUJwRWJFYWFWbVU3dm9OcWp6YVlfUFpzOWJlRDIxVkQzczFrTmd2Q0xaZDZoSWszTUxhS21DVExtbjhfVF92cm9wOFBwdTV1SVJXc3c5TUNWMFNOV0RDRjB6UDhNNFA4ZTF1ekVDdS1fSzdkbENSLXE1RVFUc2FUeC1SUVdUYmd5QU9hVUswUHROLUVFMXVZNDkzX21GMl92VUhZbHYyVjExWm83aDQyQ0ZfcE83WHFxREdNT1ZMOTFMTmtkWdIB8gFBVV95cUxQaHdFVFRXVWhnamZZNWsxeGd0U2c2c3V3ek1PY21QX1lsSXZ2WE9pUUtxYmh5U1pVMmktdF9KVWY3cWVpY1hfZUV5Z1E0OWFEdGd5b19MLU1qZ3NBbmdieVhJTzVwVHhmLVV1V001VE4walBxSWZLdkZVZ3ROVGRTMTlseGlzWXVZbzBkX2NwRE5LcWtKTURXNTlrbnRPQkYyZ2VmM0dZQS1YZDZ4MVVadGtMb2tXdUFoclVuWU8xODRfa3lHSDBDMnFpYnhmaGx6U1NHcGJvb3d2UTZSaVJ4YjBNeTRnMkNqWnBCRFRxWkpidw?oc=5</t>
+  </si>
+  <si>
+    <t>Daniel Briceño se despachó contra Iván Cepeda por su discurso en Kennedy, Bogotá: lo culpó de “ocultar” hechos graves y lo tildó de “charlatán”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwJBVV95cUxPbmthb3dLblJYUmY4OWU1TEFKdjRscnVNY2RaWllnbVphZmZVdGE0M1VDUjFTd0tmeXJXc0VkcVdER2tpcEIzaHA4QlVZMDdNMmpUT3ZLbFdGVTc0YWhjSkd5Z21jNFVUYWxfSHdTeGxadW5pQURYampabG1QZHVOUGtFYkhZT1V3YVhQd3JpR2NGd3FHTDlONzk3YTM1d1BwVDlBQTB2blZoWHRFTTZHeVA3Ti01N25CeGJuMXAwLUVqMDd6MVVzQkcwTFl5bkRuQ0hBR0JiZmdlb1Mzc0tILU80V01uaDcwS3NZLXBXYkk2MTJjUVlFT0ZKM2pFY25wSjh6dUNGZ3JiU1BDOVJN0gGqAkFVX3lxTFBMZGNhMDA4UlVOWlFEVjRUSjlOVC16YkU0RVFNWHlUcHpOdlZVRmE5TmZHeHhzRzlybzRWWGQtaVdBSHpwVGV5TkNNa2hLdkFaMmhPR1FWUXJfNnRfUHl6VXoyT25tOHRvOWxqdmlKVEg1WFZMSjN5eTdZTm5SeHAxNWMxdXVaQnJoa2hjVEl6WVV4eGIxNEZ4MlIyMEE5WXEzVjhqWjdtMkRtZkN3SEp6ejl2WXlVUFhOUVdvSUVyaWd3QmRLeG50R25wMzFINHFNSzJlSlJZOThLTlBzdW5lMHl0bG5xdWhJUkxuZU5jc19UQ3NvZ1lfeWUzampDY2hBaGVsT2oyX2tPSEZ6Nm1zR3kwcWtTT1Ria2JYZmtpcTMxMmNjUU5NSHc?oc=5</t>
+  </si>
+  <si>
+    <t>['graves']</t>
+  </si>
+  <si>
+    <t>María José Pizarro cuestionó a Katherine Miranda por sus críticas a Iván Cepeda: “¿Quién es la ambigua?”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNQ2xXaFQycXZleVBoOHRjRzQzblE2QlFsRDY0NlNBVHVIaVVoZHRuZGVjS1U5SmpKbXYyeEk1Y2s1OVhxMUJPdjJheDNvZ1JVUUxYdmJpRXItZVJ6YTYyaHptSUpnR3M1NEExRlBjeF8zR1VxZE00Tk0za1lHRUxRbnY5RkRmQmFmS3lJeDM0ajgyZUJGVjNEMHJpM1hxRXJaaG0tNFNIQ3d4dEZDX3g5OGM5REtzanMtVGJFWTZwM1RwLVU5OUFZQl9PLXJkUVFGcWQ1bHU0TGJJZTRQ0gH3AUFVX3lxTE9pR1I3TkdZSXZMTldveFVlcm1uVzYwaXdtSWJ0R0pyVWhHRlI1dndnQV8yeUpERU9nZndHbWlzLWNSWm16MUt3clU2ejA5ZDVFcEl4d0d3UUhVTy1EbXRLYllabVF2dGQ2VTI1TmppTjlWWFRGeUw3T2xsU3FzVGtlRXpDTkFheU80UExoZmpYMGVtcGpiRDU1dFFVdTRsbDQ4VEdDanR3R1NOTVdCRklpaS1GVzhBdktDRWdMS0pSMk15QThWUWhHSHM1Y05UOVY2QWw2ekEzMERUTUlnWUhyOTcteURBRm1ySUg3VktlckduLXpVdkk?oc=5</t>
+  </si>
+  <si>
+    <t>['ambigua']</t>
+  </si>
+  <si>
+    <t>Camilo Romero se suma a Iván Cepeda y Roy Barreras para la consulta del Pacto Amplio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE9UWEc1UGN5a184Y2FiV1czWm82c1ZXaG5GTTVHSHBDNFhNdFIyemdaMjZMNkItNUVuTzhueXJrbzE0T253ZENkb3VzcHM0VVdQc1pqQS05eUVZZEpL?oc=5</t>
+  </si>
+  <si>
+    <t>¿Iván Cepeda podrá participar en la consulta del petrismo el 8 de marzo pese a su participación en la de octubre?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFBObTZtTU5mZTRmcHdJNERhYzBEd0dDa3F0ei1HRUV6aEk5blZ5VC1fWjJnYmplVUFoazAyUG1IZ0pqNjAtVlRyckRGWU12eC1ZNkdXaTRSaDNpNXlWVFNYNnJUSDhzX3dVY3NTYjUzSnI?oc=5</t>
+  </si>
+  <si>
+    <t>El candidato presidencial del Pacto Histórico, Iván Cepeda, estará en Ibagué</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOYlpadkUydm9mb2N4T3R2UDRDUTUwUFIzY0t6TU9HMDFfWU5XbVhMUVlLUS00WllKbW1HLTUxdzNoSHJhSmd0eWplVnZTMzRIQWtXYWFXMkF3TlpMaktOZ2dGMVhqb0k4YjExbWJrTFFzRTh2UVFVOWdnbmdnaEd0SG4wQ1FLWGRKdndVVWtSc016anozcHZHTDhVYzFfeTJXYmlmOGZRQXE1YXc?oc=5</t>
+  </si>
+  <si>
+    <t>Encuestas revelan que esto es entre Cepeda y yo; el tercero está muy lejos: Abelardo De La Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQY0piWkxEU3JPX0ZrUi1KT2MwZG9CX2tvODhiSXBVcWVLZXh1WGJKYUM1YWRFN1dxYWlzaGwtbmdYRG52UUdUMVJTM0x5Q09ZWTZzZGZXaFUxTzdnVTZSMmRiNW9TRjctVzdUVGRLWmxtMGhwa0RTYkxMNHAwUnFkakJ2SDBSV2xYSF96dDI0M0kzRHVNWndOUThRRDhzN3VKX29CdU9OWHNPenRtR2drSGFYRkNoMEpST3JHaWRrb3JWdXltd3IzNmJTWGVtd9IB4gFBVV95cUxPREhkMFNfaUdvQUpYbGRkSElpX3hBM0ZHa094R1lvYTA5NkExNktxMjdVRzVMNk1SQjY3aG5saW5SYWpuTEJLOU5LMDU1aEJaWGQxNmMzZzRGWllYX3AzMnJjVjd5WnBpcENncjdWeDhwSU12RXpkdGhFWTdTeDRVeDdXaFdtN3pGYmx4My1GU1pTam5WQ05NZG1mY1ctUGkzN1NjY1ZrU011SU1iVmtmYnpURTJ4aWFzbjJnd1dVNDd2QzRTanRPTlUtTzdKMHgxYkN5UXZ6NVowdmhfWTV3b0RR?oc=5</t>
+  </si>
+  <si>
+    <t>['tercero']</t>
+  </si>
+  <si>
+    <t>La cronología de conceptos que complica la consulta de Cepeda con Roy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQVEFZcTI4cnpGZHRGcFpzdW9uQ3BNVERFb3JmS2NWbG92SkY3ZjZJTVA4eWUwVktmVmpUX21OUmtidTMyNThLanZxTUhvN0hfOEVvVHJYeU5sLWktYVhJTmVIcWhQNGk1enNGLXRoUzdleThzNko5bG5MQVpQM1lBNkNkTWRoRUdpWFo2MmYycDQtbHFfczFUWkpaeEpxaUhfb1NSOE1SY1NnV1NNY0ZDUDJ2T3c?oc=5</t>
+  </si>
+  <si>
+    <t>El “freno” de la MOE a las candidaturas de Iván Cepeda y Daniel Quintero: no podrían estar en la consulta de la izquierda</t>
+  </si>
+  <si>
+    <t>['freno']</t>
+  </si>
+  <si>
+    <t>Cepeda y las consultas 2025-2026: debate por inhabilidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxNWV8xZWZGbFJJNzJzNG1qNVRsMmJONzFDVUdLX3VhY3o3dURhb20zb1ZYSkZqaVBMQlZGandsUTJxOXVzQUd4MEhsY1BXSGhzVm5GY1ZTUU11bFpOTWhjdFFGaUVTZEdZT3NtNC1jcU5nYTFCNmY1Y0hheGdYNk9SUzZMdGhnekN5MzNFMng3bUVud9IBlwFBVV95cUxNcXloRS1aUTl3TTFUQThLVFpWSFlTMGp1UGQzQlg4SzRXOFdqS3hjUy10aDBranNJbkVEamQ1UDBwUGFVWExaYkxOTmlTVzctZWhGNlpCMFJlZzlOWm9PZkkwa00wX0I2aXFfQzYtUEY0Rmc5T1JhM01oaXFGWC03U25lbzBUcm5iSy1ZczZCY1dscUNLcnpR?oc=5</t>
+  </si>
+  <si>
+    <t>Cepeda podría estar inhabilitado para consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxNNFdxV1BKUnFWOTNweklxdlpmUldIM005d3BZU3FWWW43NWpWY3BVQXNIRUdiN1Z5RlRpMl9lYU53SDdYVDlVcG5BaWpfV0hsOGcycU1CVXhGTlRmblhIeWZ0b0ZiTnVkOGk5QVV0Rkd0SVBYYTdYM3lPdHNObmNNTFlFZUxCMTNoTFg0M1MzeHptSHM?oc=5</t>
+  </si>
+  <si>
+    <t>Enrique Gómez arremetió contra Iván Cepeda tras conocer el concepto de la MOE: “Harán lo que les dé la gana”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxQck5jLU1mLVpjdkJabGp6bjJRalhEN1FzRU95RVZvdTdzYk1YUmdPSmNXNGpzR0xmZ0M3R0FZaVdGX0duZUZZZ1FjUWVfbjMyUjNPZlRqVFlCQUFUM2drYzBOWlhCQzcxRUdrMUR0cGhxLWt0bkd1aEZ6bkNjNlBvNXVDU29FZWtnZmVmaGJnVWQ1TlZHOGw1eFJ6MklYbzF2c3EtMWZKSzNiZGxDRVZLcDh0em00ME05VFNhTkNULWdjbnU5cHZjRUJoUVQxbWluOEZaQW1PME9PMl9rbzNoMUV3RnnSAf8BQVVfeXFMT28zVVpVVjJTV3VXU2ZBdVFReEJVSHJXelJuVi12WmZpbWhJUDNWbDVJU3BWbm5vc3QydUlKVnFUaWdUWnRiYTdzdHBZeU96dG1jQ3hmc3JqV0ozZEVDSlUtc1M5Tlo2V184dXhSZHFZdE5xdm5QUVI0VWJwa2xuUGhIbUkyVWZfeW5VYzVST0MybXRSYzNBeWN3b0dVNGltLUNiTzhUNlFramJwb2l4QV9KQVBweEdPcEhiaVNyTmVNUmozamtSWFQzQjNEQ3dlXzJ2YW9qZVlvSTFqUnFSdUhJZEx0ZmlnQzJTTmNIQVE3eEtVZFkwX1NhM2VvSElJ?oc=5</t>
+  </si>
+  <si>
+    <t>Gustavo Bolívar acusó a Abelardo de la Espriella de tener “doble moral” con el caso Alex Saab: “Defendiendo el castrochavismo en tribunales”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxPZnp0OUlvUk80R29lU09KM2dZa2haQVdiZXl0V0U5bkxHcWJHeG84eklQd0czbnlOSWRFaUpvVU1CSVZEVWpTV2RuWFMtN2E2WXlwZ2hyZlBxWXh3RTFPWG9tOHJ3VDlNVWhyeXRpZFdfNVRDaElXcEs0cTVEbWYyU1IxXy1DXy1fTWIwTW9TeS1KSUtaaVoxZWdDRjBXQ3pnX05VcGVhUHJSbTZXeDRDeV9BYVU3WnlTUFNpc0I0aDBDZWExRXV1Q3lmSy0wM2hzU2pWRjh5cUthcjR3cXpLUXJQbGcyYkNuTkNFTkdOa1FjdFlJS1NDdFFxWXltc2R5OUVyWGxtNGZmclA10gGnAkFVX3lxTE9Qa0E4SFRhNnBuX05YQ1ktbGFweVgwY3JCTmFXZ05pTk9UbThWLVVWd3pxeGFlSnA4a3F3YjhiN2JJZjVYRGdhMWR6OUlvdTN6R2FQdl93Zm1UNmdycDB1OVRPRVpvSko3RGtvSWd0dWxWWE5oSUtRSVJMSFJEOTRLQWlvd1dyMDE4Z1JxZEVvZmFLRktjY3FsSXhza01WOGFhNDlGYlV4ZVNQZFhXbWx1clp5c2xXR0daY2tPckJ6QW1mQURXbF9CMXBoNnFqX0J0aERXZnJiSzVLQTlRLUx6UFE4MzRkdzlKYUlBWkNWWm1odlNGbEpla0tIRUxXVXhDUW82QXlHSkVjLThxX0NBZkFFV3BRaGZwRXRGM29SejctREdFUTA?oc=5</t>
+  </si>
+  <si>
+    <t>['doble', '”', '”']</t>
+  </si>
+  <si>
+    <t>De la Espriella: un bacán</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxQcGc2dTdJNHp6ZXJDM0o0THU4V0ZOWi1oUkQtM2JWVjF2SjhjLWc0ckdocU5TUE5pcjIwQkFoWlJEMXM2bDN3N2tPRllQbmNFYnFYNDQyY3Y2ZXVqMWNwQmFpd0JSR1daaWRrbG0xXzJmQVlLS0M4djRTMnFORVJtc3ZNeGFBQnN5WXdnbUd1TmJyQkRINWdGTGtRTdIBmwFBVV95cUxPWDNpR3VrU3RNeDFwYlVNemR2TWVwTE9XenJzYXl2bnBNSkktdzRkb0FsM3k3R0RoUGJ3eDRNYURXNzVoaFNwWGVjcS1rSlh4akJpb0lRMm40V1Mzc3FwYnNNVDA0SWFkQ1dYdmF3M3RsV25wZEdMNlVabDlDWWNVVzJKZlg1ajZSSmFSeHJHYUJrQmZOUkdIMmM3cw?oc=5</t>
+  </si>
+  <si>
+    <t>Montaje de Pinzón abrazando a Juanita León busca tapar investigación sobre De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQZE1jX25uSHFuUHZDaV9pMEo0ak04SWNpLTJXSFBiVS1ESFM3OTFEVktQV2pCRTZ3MUNSTXNVc0JONWNoOUE2STdPaW5SSTByTXJZOEc1am9ENWN0c2ExMkllVFBxWmRwTVpZZzVlWXJqNGZEdXBnU1JPMmtWOW1wV09GU3pJRTVnVkJDMUsyVDdLOVJZeEJuWWZRRWNEcER1Mkw0QTJJV3ZkM0tTODZ4V0ZhSDhOQWJMMjhVMExJTWw?oc=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,6 +2597,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2701,11 +2947,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3063,10 +3310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD252"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253:K287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10433,6 +10680,1036 @@
         <v>725</v>
       </c>
       <c r="J252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B253" t="s">
+        <v>726</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D253" t="s">
+        <v>75</v>
+      </c>
+      <c r="E253" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" t="s">
+        <v>728</v>
+      </c>
+      <c r="G253" t="s">
+        <v>21</v>
+      </c>
+      <c r="I253" t="s">
+        <v>75</v>
+      </c>
+      <c r="J253" t="s">
+        <v>15</v>
+      </c>
+      <c r="K253" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B254" t="s">
+        <v>730</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D254" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" t="s">
+        <v>34</v>
+      </c>
+      <c r="F254" t="s">
+        <v>201</v>
+      </c>
+      <c r="G254" t="s">
+        <v>21</v>
+      </c>
+      <c r="I254" t="s">
+        <v>22</v>
+      </c>
+      <c r="J254" t="s">
+        <v>15</v>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B255" t="s">
+        <v>732</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D255" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" t="s">
+        <v>34</v>
+      </c>
+      <c r="F255" t="s">
+        <v>734</v>
+      </c>
+      <c r="G255" t="s">
+        <v>21</v>
+      </c>
+      <c r="H255" t="s">
+        <v>735</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+      <c r="J255" t="s">
+        <v>15</v>
+      </c>
+      <c r="K255" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B256" t="s">
+        <v>736</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D256" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" t="s">
+        <v>332</v>
+      </c>
+      <c r="G256" t="s">
+        <v>17</v>
+      </c>
+      <c r="I256" t="s">
+        <v>24</v>
+      </c>
+      <c r="J256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B257" t="s">
+        <v>738</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D257" t="s">
+        <v>219</v>
+      </c>
+      <c r="E257" t="s">
+        <v>25</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" t="s">
+        <v>17</v>
+      </c>
+      <c r="I257" t="s">
+        <v>219</v>
+      </c>
+      <c r="J257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B258" t="s">
+        <v>740</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D258" t="s">
+        <v>219</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258" t="s">
+        <v>601</v>
+      </c>
+      <c r="G258" t="s">
+        <v>17</v>
+      </c>
+      <c r="I258" t="s">
+        <v>219</v>
+      </c>
+      <c r="J258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B259" t="s">
+        <v>742</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D259" t="s">
+        <v>219</v>
+      </c>
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" t="s">
+        <v>17</v>
+      </c>
+      <c r="I259" t="s">
+        <v>219</v>
+      </c>
+      <c r="J259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B260" t="s">
+        <v>744</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D260" t="s">
+        <v>86</v>
+      </c>
+      <c r="E260" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" t="s">
+        <v>17</v>
+      </c>
+      <c r="I260" t="s">
+        <v>86</v>
+      </c>
+      <c r="J260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B261" t="s">
+        <v>746</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D261" t="s">
+        <v>86</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" t="s">
+        <v>17</v>
+      </c>
+      <c r="I261" t="s">
+        <v>86</v>
+      </c>
+      <c r="J261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B262" t="s">
+        <v>748</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D262" t="s">
+        <v>184</v>
+      </c>
+      <c r="E262" t="s">
+        <v>25</v>
+      </c>
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+      <c r="I262" t="s">
+        <v>184</v>
+      </c>
+      <c r="J262" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B263" t="s">
+        <v>750</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D263" t="s">
+        <v>216</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" t="s">
+        <v>17</v>
+      </c>
+      <c r="I263" t="s">
+        <v>216</v>
+      </c>
+      <c r="J263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B264" t="s">
+        <v>752</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D264" t="s">
+        <v>129</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" t="s">
+        <v>129</v>
+      </c>
+      <c r="J264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B265" t="s">
+        <v>754</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D265" t="s">
+        <v>129</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" t="s">
+        <v>17</v>
+      </c>
+      <c r="I265" t="s">
+        <v>129</v>
+      </c>
+      <c r="J265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B266" t="s">
+        <v>756</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D266" t="s">
+        <v>349</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+      <c r="F266" t="s">
+        <v>758</v>
+      </c>
+      <c r="G266" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" t="s">
+        <v>349</v>
+      </c>
+      <c r="J266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B267" t="s">
+        <v>759</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F267" t="s">
+        <v>761</v>
+      </c>
+      <c r="G267" t="s">
+        <v>14</v>
+      </c>
+      <c r="I267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B268" t="s">
+        <v>762</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D268" t="s">
+        <v>172</v>
+      </c>
+      <c r="E268" t="s">
+        <v>25</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" t="s">
+        <v>17</v>
+      </c>
+      <c r="I268" t="s">
+        <v>172</v>
+      </c>
+      <c r="J268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B269" t="s">
+        <v>764</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D269" t="s">
+        <v>172</v>
+      </c>
+      <c r="E269" t="s">
+        <v>25</v>
+      </c>
+      <c r="F269" t="s">
+        <v>766</v>
+      </c>
+      <c r="G269" t="s">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s">
+        <v>172</v>
+      </c>
+      <c r="J269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B270" t="s">
+        <v>767</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D270" t="s">
+        <v>172</v>
+      </c>
+      <c r="E270" t="s">
+        <v>25</v>
+      </c>
+      <c r="F270" t="s">
+        <v>769</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="I270" t="s">
+        <v>172</v>
+      </c>
+      <c r="J270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B271" t="s">
+        <v>770</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D271" t="s">
+        <v>365</v>
+      </c>
+      <c r="E271" t="s">
+        <v>25</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s">
+        <v>365</v>
+      </c>
+      <c r="J271" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B272" t="s">
+        <v>772</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D272" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" t="s">
+        <v>25</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" t="s">
+        <v>22</v>
+      </c>
+      <c r="J272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B273" t="s">
+        <v>774</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D273" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273" t="s">
+        <v>776</v>
+      </c>
+      <c r="G273" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" t="s">
+        <v>462</v>
+      </c>
+      <c r="I273" t="s">
+        <v>22</v>
+      </c>
+      <c r="J273" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B274" t="s">
+        <v>777</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D274" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274" t="s">
+        <v>779</v>
+      </c>
+      <c r="G274" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" t="s">
+        <v>22</v>
+      </c>
+      <c r="J274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B275" t="s">
+        <v>780</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D275" t="s">
+        <v>145</v>
+      </c>
+      <c r="E275" t="s">
+        <v>25</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>21</v>
+      </c>
+      <c r="I275" t="s">
+        <v>145</v>
+      </c>
+      <c r="J275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B276" t="s">
+        <v>782</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D276" t="s">
+        <v>263</v>
+      </c>
+      <c r="E276" t="s">
+        <v>25</v>
+      </c>
+      <c r="F276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>263</v>
+      </c>
+      <c r="J276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B277" t="s">
+        <v>784</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D277" t="s">
+        <v>388</v>
+      </c>
+      <c r="E277" t="s">
+        <v>25</v>
+      </c>
+      <c r="F277" t="s">
+        <v>124</v>
+      </c>
+      <c r="G277" t="s">
+        <v>21</v>
+      </c>
+      <c r="I277" t="s">
+        <v>388</v>
+      </c>
+      <c r="J277" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B278" t="s">
+        <v>786</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D278" t="s">
+        <v>219</v>
+      </c>
+      <c r="E278" t="s">
+        <v>28</v>
+      </c>
+      <c r="F278" t="s">
+        <v>788</v>
+      </c>
+      <c r="G278" t="s">
+        <v>21</v>
+      </c>
+      <c r="I278" t="s">
+        <v>219</v>
+      </c>
+      <c r="J278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B279" t="s">
+        <v>789</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D279" t="s">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" t="s">
+        <v>86</v>
+      </c>
+      <c r="J279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B280" t="s">
+        <v>791</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D280" t="s">
+        <v>349</v>
+      </c>
+      <c r="E280" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" t="s">
+        <v>792</v>
+      </c>
+      <c r="G280" t="s">
+        <v>17</v>
+      </c>
+      <c r="I280" t="s">
+        <v>349</v>
+      </c>
+      <c r="J280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B281" t="s">
+        <v>793</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D281" t="s">
+        <v>356</v>
+      </c>
+      <c r="E281" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>17</v>
+      </c>
+      <c r="I281" t="s">
+        <v>356</v>
+      </c>
+      <c r="J281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B282" t="s">
+        <v>795</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D282" t="s">
+        <v>675</v>
+      </c>
+      <c r="E282" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282" t="s">
+        <v>332</v>
+      </c>
+      <c r="G282" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" t="s">
+        <v>675</v>
+      </c>
+      <c r="J282" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B283" t="s">
+        <v>795</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D283" t="s">
+        <v>675</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" t="s">
+        <v>332</v>
+      </c>
+      <c r="G283" t="s">
+        <v>17</v>
+      </c>
+      <c r="I283" t="s">
+        <v>675</v>
+      </c>
+      <c r="J283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B284" t="s">
+        <v>797</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D284" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" t="s">
+        <v>13</v>
+      </c>
+      <c r="G284" t="s">
+        <v>17</v>
+      </c>
+      <c r="I284" t="s">
+        <v>22</v>
+      </c>
+      <c r="J284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B285" t="s">
+        <v>799</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D285" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" t="s">
+        <v>801</v>
+      </c>
+      <c r="G285" t="s">
+        <v>17</v>
+      </c>
+      <c r="I285" t="s">
+        <v>22</v>
+      </c>
+      <c r="J285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B286" t="s">
+        <v>802</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D286" t="s">
+        <v>324</v>
+      </c>
+      <c r="E286" t="s">
+        <v>28</v>
+      </c>
+      <c r="F286" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" t="s">
+        <v>17</v>
+      </c>
+      <c r="I286" t="s">
+        <v>324</v>
+      </c>
+      <c r="J286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B287" t="s">
+        <v>804</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D287" t="s">
+        <v>150</v>
+      </c>
+      <c r="E287" t="s">
+        <v>28</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" t="s">
+        <v>150</v>
+      </c>
+      <c r="J287" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10566,6 +11843,38 @@
     <hyperlink ref="C231" r:id="rId126" xr:uid="{A4B122F3-358B-43B7-909B-4A2E58197529}"/>
     <hyperlink ref="C232" r:id="rId127" xr:uid="{5A6ADCAA-4883-4716-A944-A6424D9A3262}"/>
     <hyperlink ref="C241" r:id="rId128" xr:uid="{58ACC7F2-D2A1-42FF-BBF7-8E85BDA2346F}"/>
+    <hyperlink ref="C256" r:id="rId129" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPUXFvTHhGQXBaa3NUZ3hwS19HMVYtS0h5Q0VTWjF1c0hmLUFoMGJET01nZnpqLWU1akRHMFhsYzg1TDR1ZGZqTHdkb0JyRW5OWFpnbHFibFJwZExlREY4cUExbmt2UWh0QV9qVUZURnMxb0RKOUZQLXk1SEpPLWxYMzM3MFpXNTVkUlFEUGYyU2VMaTZpUVZwby15YWJwQjAzRk9DQ3NnNzc1OFFwYlViNmNDZXl3aE9xYmxrVENwNzlHVlNkeklGZGZ30gHPAUFVX3lxTFA4TUc1bWlUNUNvcktYX0Y5V1puZjhSVC03Z2gxREU5U2stdGw2c0RodGVwNXd6NFlGWnhuanN6dFlHMXdtNmV2dldzTmMtVjhpYUdOTm4yaUlFRWdncENINkFRaTJwbFNIM1dqREQzenlkUUJ2ZS1LQmh6Nl9LV2Etc3hRQXJiV3VNcUlJV3BlMENQYU9pSG5mSzlPN0g2b0MzRXp0U0ZDYS1xUmlYcEpUZ1l4c2l3VGJPNG1MOFQ4ek05bWZzTkNNS3pkOFlHUQ?oc=5" xr:uid="{83C42F93-FD47-474B-8313-A0BA419C614A}"/>
+    <hyperlink ref="C257" r:id="rId130" display="https://news.google.com/rss/articles/CBMivgFBVV95cUxQbHIweXA4NTlZM2JfT2VmRElCNExHclZKcDFiNi1renJLbE9zX2hIT014WFltOURYTXJqUHZlTGIzc3p2eGo1NWFXemg5WUJ4SDhNX0Njc09ob3BYeXdhb3NqNWZmR016cWE0WkRwU3JWOU02a1pGbnV0Q2ZrR1RJMDI5alhBUl9YMEFJUWlHMkE2MFF1WUk4emtYVXFBYU5LQmdoa0FxVi1iOGQ0WU82SDc1am96c1RxdC1wSmNR0gHSAUFVX3lxTFA2WHJjRjVFS0RtTjYxdG1INlctcnljYTFIeXJ6SzBUV0hRYm9EYklZeC1Bc3ZxcUVoS19xVVVUZC0zWDZiYnh1b3UzY2k0SFNGRDB2SHRaZHo1RjhOM0JET0pNeHRpQ0J5RmpDZ1o3T0FfSndNQ2VvaU1iVV9kSXlOdnZiYllISHpHRzJpY01qRjNvWF9USXFXbGNSSEN6S1lOdnVqU2kwWHVGalo3UXVkdUU3dlpCZTZVZ3FNY3lHXzBGN3pnbklWTWcwenN1WkFMdw?oc=5" xr:uid="{3E960C4E-E1C4-4B7E-A715-491847A42181}"/>
+    <hyperlink ref="C258" r:id="rId131" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxNT2tPeUp5cFdjMWcyVjFMUmRDTVpLNzNqdWlxUXA5dTQxSGVaSS1RNC14Wkx0QjJxbllYeUo0XzRELVFnS1FUQzljRXJoNmFHUjFDQ0lmVDB0ZFBCc2ZJVkxFUTJMRk1WMUVKUkJMR2FSeFFIb1h6ckh6bnVENFBWb2dUdDZsb25ydEYxMXVHSzNJS2FMRVlwejZBVEtqanFUUElGV3I2enlDZ0RzeGJSR0FzVkp6OXBGdTJ6ckU0LXd6Umh0cU0weEc5bXnSAeABQVVfeXFMTkRDcklXZ0hOSkNlXzVUbFFzakJNc2dKeFQyOWJ4TmJBWjVFUVY4emU2M2otUUhXVldna0M3NWJjZmI0MzE0TTJwUzlvWDJrVDUtdkFyWEJFR3h3U1ZGRW9Mc0tSVjhnNDUtMnZMdVp3OEZfSkFEZEF4VC1RTDdMZm94VmU2TXY0cXFkRi1HNGN4NUhmWFdkdlhZNThOWmMwSlNPMmhWUm5OS1NGei1rOTRuWWxGYWpKUVc3NWRvT3p2Tm9XRUVzUlpsTXFJX2tlZzNDaFdNY205SlR6TTNuNDE?oc=5" xr:uid="{AE95DCC0-7D88-4FB8-BA7F-BAA0E9794851}"/>
+    <hyperlink ref="C259" r:id="rId132" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQWVZTUnlJc3pmRU5jOXdwZDQ0SGlfdjh6cUppSGc0cTRDVUZrdXVOY0pKSHdSTi1mMXF1UGY4WDc1MG4zVXZCYzV0ZUExU3dyM2FOcjQwRzYyR3Y3MDdXeFhuMnJqX1lEVVZVdVgwVGw5NGNObVJWdGktSU9tZ0EzR2p2aXFyMWIzY2dZdllRZHZTb2pmUkJrdlozZTB0NDVZQVRHMzZsQlhYM1pMOGRfNWdtMzYxdWt1VlI3aGZtdUZkdndVU3NwcUFKQlbSAeABQVVfeXFMUFhOajd4dHBQai1qSDNTRzd6Y1hJTVp5THdtMmtNdnhkblR2S19iaC0yc01Bdk92dTVLVFA5TkxoSDQ3Ylh4OVBLMFhsdWhzVEFzZkVVRGxIbmM0cjd2aTY1TEVRWF9jclVVY2k0cllJbVpsbnlHUFA5dFNWUUpMRF9YNXUxaFFJSnNaaEJvWHNiT0hvVV9Vc1pVM08yVTZTelpjTUNkUmcyb3h1WEYwUUNzWUlrcEptbHlnc2dZY0p6LS1nRy1vcXI4QjNUMHUtQUE2OFp4MERfam13UGEtN3c?oc=5" xr:uid="{31DDE09A-2EFA-481F-B7CD-AC460183D1E9}"/>
+    <hyperlink ref="C260" r:id="rId133" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxPQ0pjN3ljMFE3VXdKR3ZwcWtoZ2JlanlQbTY1dURPdjdydS0xckRSd0hUbTZlc2pTc2NXRmktRUNGMzhfT1pCcmROXzhLbVJnQXU0UlBBLUZnY0poTFBwd0lTMlRaaFd6YkM3Z2pJeVZIVzJ2eHNCX3hVNFRhN0VZZGtVa2RjVjNPY01ENXhsVU1rbThYTUhRWDE5bUhmSkRQeTBILXhB?oc=5" xr:uid="{6B52AFE3-9271-4528-99E2-01FC2C43F62A}"/>
+    <hyperlink ref="C261" r:id="rId134" display="https://news.google.com/rss/articles/CBMioAFBVV95cUxQY0xrN21WM3BWOHdQMVBlQ1ZwczQtVDFkSjhESmk4elFOQXZWeGJ4MUc5Tld5X2lBVkhtWGxwRW1aNEUwOWpCd2F0d1MyV0swVFJqM0tibzNMQVpETG5kMWhhUTllTDJTOVk4eTRSZG9VVTJ5SEFrc3ZheWlpVEZXR2lXc2tIZVBzSHN1OVhmSGpkVm9WWkl0ckhoVFhjZVFD?oc=5" xr:uid="{D5DB249B-BBFF-4DD3-9310-F4E91C592DF9}"/>
+    <hyperlink ref="C262" r:id="rId135" display="https://news.google.com/rss/articles/CBMisAFBVV95cUxOZGlIUmxVYjFnOGpCSGJjMVRqVDlmRVB4cHFuM3UyVmp6NmY5a1poMEJMNHdxZVRCZzQxMldqdFBfekM0WGhpS2NSaUhUNnNnOGxsRGd6U3FaZWI4S2hUd3g0clZvQlFXRThlNkxWaU80emFDTU9abG9GekFpc00zeXVlWTlaYWlsU19SU2I1U3NxZUE1bnRMczI0Y2JLbU5fMHNHUXpNZFBuOE5VZEJwR9IBywFBVV95cUxOYUd4cl8ya09fcVZxOWRkYklmazJ4MU1IYlpTVTBVRzVYdUtrMVVKOVB0QkNUTU11Tm1VWi14ZE5naks3Ull1bmRha1MxdlFVTlM4aHBoUEhJdW05bER3SVZTOURhZzZfcWpUcVVrclk2WEF5a0x6M0d2azhoRXRvb0ZtZlNtMjlSVlBzX29jSlc3Snl3WWRHSGNoV2FFOE5NbE9vVnAxZnc4Y3NGZUxXQmFnLUZKUVBvMzZ5REM4eks1Zm5PelRMTUpFZw?oc=5" xr:uid="{2645E111-2E92-4B35-A67D-D02414DFE4A0}"/>
+    <hyperlink ref="C263" r:id="rId136" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxPaldGaTQxY0l5aW05bS1NdDlzU1ZzVVhTVTVXVVJlNkUwVVppdGwtMFNzOTZsZS1Pdmc3QUc3cXhrUlk2dmpScHE3R1lXbmxsLTlGdkZiNFNoTTlXS1F5TDljam5vSTNpeDBublNZRTB4eDFBZm1uMkVZZllSdVY5ZlZGOUlwSWR0SnZFYnVtTldySVBYYVdhcEdmby1QTTVrSFpwTWRZeXFETzM2Z3NOcWhNYVVsYkN0WkV4MjVxY1dodmhfeFBiS1V4RmRJeEnSAdwBQVVfeXFMTmd2UmF1TG8yd0RlcEIwS1FudTVWLWJYVUdIcGx1YlBBeUpYaG9lOTEyR3U4Rmg0NzR6WmhacjdVU1g4TkQ2WmxOM29raElSOVpaMVZJd1ExWDNrelFlVm1zWWc2X0d2eG50OHAzQ1p5c2xpXzhzT3h0VDRkbjcyekZIcjhQeXBSWjJUNjRUT2NISUZRbFVuaS1nNXN2bVdqaHYwN3dTOWp1eXdwcHB0dDZvOGxqWW5SbFhsVU1NYmFqaTFpdlJqMGhodW8wZzhrRTFVWFEwenEzQjV1NQ?oc=5" xr:uid="{5FB65DDD-3D17-4842-B1EE-93142B11B569}"/>
+    <hyperlink ref="C264" r:id="rId137" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxQWDhwVjNzZi1ZZlB5al9fYnB4ckxMRnRjR0JSQmNEOVRaMWsyaWJNOUx1N1lmSU4wRTdtLWJGNDBzdFZZX3dMNGxSZ2VqUi1mMWN0YVJ1T1pmYjlBWUpJMzNhWXZHSFEyQklWMi0tOUQwS0VWODZaQmhIVVIwNjhXcTlhQUxrdmtfeTFiU1F4Q2FsQUVVUk9EcGZEV285MjFWcXhiVy1OejR3eG9QTEJlUHVVYTgweElZWGxoN2c3WjjSAcYBQVVfeXFMTXVyeHJ5OG5Ec1hxRDF4SkwtT3NGOFBla2dLcmVmTVlnMTB2N1BXd1pSM3hZX1BUWVVFVFNIdnpfY3hyU2FHM0xQOURzdmxvWmg5bnJ0cjBKdEs3bl9tS1ZBamJnb3hSYTJzbTFCSk9hYWQ1b0hNRzNPU3ZKM0xWeFVZeDl3SXhvRlJzVi1wZ2dxYW5rOGttc0ltamktN05wTW1tWDRZdklpODI2WUViLV9Ka2FScy00am1jdWN5VE12UWJaekxB?oc=5" xr:uid="{554DEDEA-9C01-4B23-B922-41F456AA552B}"/>
+    <hyperlink ref="C265" r:id="rId138" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxOcmJxbWtncmZ3ZkwwWnZVRW5seXJ4NzJWX19jR2U2djZ6TkNtalpIM2JBa1JxNnlGUU9IMzZmMloySUkxOG1qZDN6TjBYNXMyMk1pYWF5Q3U3SXNzR1ZidzktZXV6Wm1rS3RNZkNFSXFtZ21LazRJbHpaU3RhMzJUOW9nQXpSYjFkSUtwazRhRkNkWDhFcmY0QnNxdjhlMEFfM0ZFdko1b3JwUFZUT3V0ZHhhRlJ6RFNfVG9MOUFFZ25rVzViN2fSAcsBQVVfeXFMUGtWSk1DbDhKajYybzNmS1BaS3lITHl4WGJTejBVbVZfN2VRWGZ1MlVrRVl0bGN4VzZHN0M2Nno4TkJsV3laRjY4MVVvMWNFM3NyaUFPTGpTRFpza3p0THhscFhRdlZSenhOaS1JUVZrWHlSMjJGNkhtSTRtX0owSFplb1d2MmppdFZiTEtLQ2t2QkFrZUs5Ym80MGFVeFhtWVQzZWl1RFVwODRiMTFEanB4YXQ5SUJEZ1dyUDdzUVQ4Z29MSy03TEVaZm8?oc=5" xr:uid="{A9B24084-982F-41CA-839D-A717DCB5DC45}"/>
+    <hyperlink ref="C266" r:id="rId139" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxOTmcwZDlLaDRKUlFpX0N0cFB1VmZoaFpCNm14NDJPWGNzR0RTcmtqUEV4WTUtclVqeGpMa1JMUFV4TFJkUG9NUlRubEJyaHdQQVBUSl9GYjE2UDJpT085NDJnaTdLenU1ODNSZktFcW03NTBTYlFFVjVUb2hrWFhNNTJOaDVISEZRM01PZ3ZlcS1oUEgwR3RILURsbnhLVGlYV2w2NWF1SS00bzR1T3pBVXdWQVZSTEhOWGNqT3cteEJPQTNaQmpLVW56Q0RQX2l0ekkwN0FlcmxKSDRBUVo2d0RmWEFMSFpRMDJmLXNiMkpCM1ZVSkdaQg?oc=5" xr:uid="{7FB26325-BB12-42EB-A9A6-F0726712F3F6}"/>
+    <hyperlink ref="C267" r:id="rId140" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxQSjNTYTE5ZnJLMmc3eWRvT3pZSWlES1BfRHd6OEJLX2pPcHB2VThhVjd2b3JWM2JDekdqNjF4eWxzQWY2Y1VnY0tRMVdWQjBXNGxWbXJhMUlEaF9nSFpkakRzRm1lZERfNUlEQmplc296a256X1Qwd0FMT3NUc0dNNGpieTYzTlZ4OUFnMXhkNk51YXB0MWtHaVlIdEZHaGRYZjNlV3lHRVYtU2hJcWNQU3picnpSS0RsbUpMSTYyQU1Db2xGVkNrNkVMdjZoYWhZS1FHeHVNZGxQQkNycmRsdWU3UXnSAeoBQVVfeXFMT1FrR1VJV1VKOGRxNm42V0J3Z29sTTlWLWtlZ2VTVHJZN3ZSUVRyZnVvcGQwUjdEbS1WVzhNNmlBUDFXN0JVSFZHWmNYMVNKcmU0Q3Q3Sm9mZ05zc09jS3ZkMXZsMnhCbEtTZ2szOFNMNlNZbmVWUmN3NVRJRkt6SFdlMExVVVBMWUZPenpBQjF1MVZjbnZtaE5XVC1WeHNCM0luY01JT0NmOEszS1NzaEU0NXZTNG04WTIxSlZRb0s5VHA4dndjYUUyemdwb1ZtZU5zQ19TY1VzTHNwQkZOdGlsa1VuSXBtdUpn?oc=5" xr:uid="{DE056011-93C4-483A-AEE7-E865BCAFDDBE}"/>
+    <hyperlink ref="C268" r:id="rId141" display="https://news.google.com/rss/articles/CBMiwgFBVV95cUxPWllENThDTmZwUGFYSWdTQjFueE1CUlhiYTBWTzBQZE9qa25CaC11UHkzdmlIeDFJWkY0Ry1zQjhSc2EzelBNRkdjc1c3QWZVNGxRdnN4aDRlY0J0UWJnTVBxbnF1LTdMSGszdTBTaE1qdmJEMmpMVll0UTNyNnMtQWFodzg0LUVDRmJ3NDg2aEEzaUZHRGpWeE1HM3VnbWVvM3VYQ1FZczk5SHJXaTJBTzV6bWw2azcwWS1qaXFlR1pad9IBwgFBVV95cUxQaHJTLWJ3OU1oLUNENGx5Mi02dWhPTmRQd1RrQWVrMGI4S2hfcURWV1cxa0FRY29NU0lOc0ZKbHpleDl3M3k5SFZpR1NHUUY3SDVrcExZb2lVTHhtU054VkRZWFYyUVIxUkdKRjBtU2dCUUtfWURBQlFET3FZQXIzUXhqUTA2eWMxRTZMSXNNbFJDeDV3ZUJVNG5WZjM5ODhLQVg0dmozVEdvaU5oUl82bmU2SVdJWmFoOW5Oby1uZWZ3QQ?oc=5" xr:uid="{8237CD0F-029E-461E-A02F-DC6E5D6ABB8D}"/>
+    <hyperlink ref="C269" r:id="rId142" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxNWFk5SUZ2cnhGOXR1QkQtMnpfc19kTjVzNUNzN2RKanFRc0RWYTQ2Q2xhVFNjT05WYzhrXzZ3a0tlTTdlTjl2aWxoWW1nc2tSeTRxdzU1bE5OS2dlVVlxYlI0SjlNdmRjTGIyYlljV3hZQTZwRURXUUZqVWVKYm5BRVJXSWY0UWpSWmF6QzVmWGlzYURjZDRybnZVMFdCMjlkdVlvY1hEellzSHBxdDBzNWpMcW5kX2NCOFBVOFI1UGhpQU5UWWMxMDY5S1Zod9IBzgFBVV95cUxOTDIyZjhZTEhFcUV1dHN5QmJhR0lCRmVwUTQ4dHpGZUtyVFdoQTJRYWY3RTJ0WEdmSC1kd1dqNmVrUjBsSzVfTktwX2dMX1VPYzd6MHdwMUN6Z3JVel9qa1pUUFo5TjdLOEk1Yzh3XzhHM0RjS0ltdjY1dm1DTmhjY0JUM2l0ekpvZUdLcW1selJ5S09pejNoem11blBHemFLSUswcGJpOTJpUmJSNk0tN2thYV9ZSHo4VXBBb1JmVFQzcXREbXZfRTNyQTR2Zw?oc=5" xr:uid="{B748CEF7-4B91-4951-B6B1-AE21A5979E60}"/>
+    <hyperlink ref="C270" r:id="rId143" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxOSXdwR0VQeU1WbDNyUGI4eFBxMjRMT0E1NWplTWRkaVl0OWt1bVhFZkVTcklsNExKQXg4cjA2c2xCcWpOSWJHM1UzRHJLRDBXb3EtbHNjZ0ZLMUhkY05oWVVZU1ZTMGRwd0dnSkJxenJGdVplTTFfLVFjYmVpZ0pNOENsLVIxbVVwYTZFbnZxZHd6cndER2pWUkItdXo0ODZBYU5yeXh4ck1NVG9nZFItc0hsSWtwMzNUeDZrTDlhSE82M2FLSWZPbVNBWno5ZFBRSlp4LWNR0gHWAUFVX3lxTE5LTThqYVptOV9JUUxrd1Zfd0Q2cEt5aFdEWG11TENNTmNteHhyVU5GVllSYUNtWXBBaGhHV1kyMUMzbm95V2hIMUZDWmxXVGNTM3RuUXhDajVzcFhVdXAtQ095aWg2VGlRMmpfS0NSSFdsc25pdXk2dVJ4b19lXzFRMkFQeUdSWTZ0MXVBeG5Dem02czNVQjNFb1dkN0xDM3lhTGY4ZUNXajBOWU5ENGVVVHdRMzdRSkREbDR3V0RzYjdfeWZLRkdoUF9WY1pGeWRDMDlHaUE?oc=5" xr:uid="{ACF1543C-75AD-455F-811C-B6635521177B}"/>
+    <hyperlink ref="C271" r:id="rId144" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxOR3VkbG5XU1FkTG5DWHNGYjZkLXI4NFdyXzdiRXRqTWt6UnJCb3drc3BRLWRlb0dTMFMwQS14cVJkanFSNWp4ZnNHQmtZWE9jbjhzNzg1amtZRnV5ZHprSHM2U1hWNkRYYnB3cjBnYnlaZEMxb3BkM2NRZnBWUFFFTUZLN0w5OFU0MWlFMWc5aWtvQkptd2t1c2NhWUhjX09vOUg4WE1nR0plR0VLN2xjUG9RQ0NkaTk2QkktSXFiTQ?oc=5" xr:uid="{B04AB7C7-0B81-4EDE-95E8-DD712B8B276E}"/>
+    <hyperlink ref="C272" r:id="rId145" display="https://news.google.com/rss/articles/CBMi1wFBVV95cUxOeFhCYnRSOGFKUWlaTHY1QUhILUJwRWJFYWFWbVU3dm9OcWp6YVlfUFpzOWJlRDIxVkQzczFrTmd2Q0xaZDZoSWszTUxhS21DVExtbjhfVF92cm9wOFBwdTV1SVJXc3c5TUNWMFNOV0RDRjB6UDhNNFA4ZTF1ekVDdS1fSzdkbENSLXE1RVFUc2FUeC1SUVdUYmd5QU9hVUswUHROLUVFMXVZNDkzX21GMl92VUhZbHYyVjExWm83aDQyQ0ZfcE83WHFxREdNT1ZMOTFMTmtkWdIB8gFBVV95cUxQaHdFVFRXVWhnamZZNWsxeGd0U2c2c3V3ek1PY21QX1lsSXZ2WE9pUUtxYmh5U1pVMmktdF9KVWY3cWVpY1hfZUV5Z1E0OWFEdGd5b19MLU1qZ3NBbmdieVhJTzVwVHhmLVV1V001VE4walBxSWZLdkZVZ3ROVGRTMTlseGlzWXVZbzBkX2NwRE5LcWtKTURXNTlrbnRPQkYyZ2VmM0dZQS1YZDZ4MVVadGtMb2tXdUFoclVuWU8xODRfa3lHSDBDMnFpYnhmaGx6U1NHcGJvb3d2UTZSaVJ4YjBNeTRnMkNqWnBCRFRxWkpidw?oc=5" xr:uid="{0FCBC5F8-E4B2-489E-B52F-4F5AD748B3D0}"/>
+    <hyperlink ref="C273" r:id="rId146" display="https://news.google.com/rss/articles/CBMijwJBVV95cUxPbmthb3dLblJYUmY4OWU1TEFKdjRscnVNY2RaWllnbVphZmZVdGE0M1VDUjFTd0tmeXJXc0VkcVdER2tpcEIzaHA4QlVZMDdNMmpUT3ZLbFdGVTc0YWhjSkd5Z21jNFVUYWxfSHdTeGxadW5pQURYampabG1QZHVOUGtFYkhZT1V3YVhQd3JpR2NGd3FHTDlONzk3YTM1d1BwVDlBQTB2blZoWHRFTTZHeVA3Ti01N25CeGJuMXAwLUVqMDd6MVVzQkcwTFl5bkRuQ0hBR0JiZmdlb1Mzc0tILU80V01uaDcwS3NZLXBXYkk2MTJjUVlFT0ZKM2pFY25wSjh6dUNGZ3JiU1BDOVJN0gGqAkFVX3lxTFBMZGNhMDA4UlVOWlFEVjRUSjlOVC16YkU0RVFNWHlUcHpOdlZVRmE5TmZHeHhzRzlybzRWWGQtaVdBSHpwVGV5TkNNa2hLdkFaMmhPR1FWUXJfNnRfUHl6VXoyT25tOHRvOWxqdmlKVEg1WFZMSjN5eTdZTm5SeHAxNWMxdXVaQnJoa2hjVEl6WVV4eGIxNEZ4MlIyMEE5WXEzVjhqWjdtMkRtZkN3SEp6ejl2WXlVUFhOUVdvSUVyaWd3QmRLeG50R25wMzFINHFNSzJlSlJZOThLTlBzdW5lMHl0bG5xdWhJUkxuZU5jc19UQ3NvZ1lfeWUzampDY2hBaGVsT2oyX2tPSEZ6Nm1zR3kwcWtTT1Ria2JYZmtpcTMxMmNjUU5NSHc?oc=5" xr:uid="{B4F2B431-AB24-4EC9-BFF4-E7863AE51829}"/>
+    <hyperlink ref="C274" r:id="rId147" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxNQ2xXaFQycXZleVBoOHRjRzQzblE2QlFsRDY0NlNBVHVIaVVoZHRuZGVjS1U5SmpKbXYyeEk1Y2s1OVhxMUJPdjJheDNvZ1JVUUxYdmJpRXItZVJ6YTYyaHptSUpnR3M1NEExRlBjeF8zR1VxZE00Tk0za1lHRUxRbnY5RkRmQmFmS3lJeDM0ajgyZUJGVjNEMHJpM1hxRXJaaG0tNFNIQ3d4dEZDX3g5OGM5REtzanMtVGJFWTZwM1RwLVU5OUFZQl9PLXJkUVFGcWQ1bHU0TGJJZTRQ0gH3AUFVX3lxTE9pR1I3TkdZSXZMTldveFVlcm1uVzYwaXdtSWJ0R0pyVWhHRlI1dndnQV8yeUpERU9nZndHbWlzLWNSWm16MUt3clU2ejA5ZDVFcEl4d0d3UUhVTy1EbXRLYllabVF2dGQ2VTI1TmppTjlWWFRGeUw3T2xsU3FzVGtlRXpDTkFheU80UExoZmpYMGVtcGpiRDU1dFFVdTRsbDQ4VEdDanR3R1NOTVdCRklpaS1GVzhBdktDRWdMS0pSMk15QThWUWhHSHM1Y05UOVY2QWw2ekEzMERUTUlnWUhyOTcteURBRm1ySUg3VktlckduLXpVdkk?oc=5" xr:uid="{759F3EBB-DF63-466C-B602-15EC9B5496AD}"/>
+    <hyperlink ref="C275" r:id="rId148" xr:uid="{9A0C5881-0384-4C64-8CCC-087317384DC1}"/>
+    <hyperlink ref="C276" r:id="rId149" xr:uid="{39D66E3E-4762-4C90-B624-A6A5B37C72FE}"/>
+    <hyperlink ref="C277" r:id="rId150" display="https://news.google.com/rss/articles/CBMiqwFBVV95cUxOYlpadkUydm9mb2N4T3R2UDRDUTUwUFIzY0t6TU9HMDFfWU5XbVhMUVlLUS00WllKbW1HLTUxdzNoSHJhSmd0eWplVnZTMzRIQWtXYWFXMkF3TlpMaktOZ2dGMVhqb0k4YjExbWJrTFFzRTh2UVFVOWdnbmdnaEd0SG4wQ1FLWGRKdndVVWtSc016anozcHZHTDhVYzFfeTJXYmlmOGZRQXE1YXc?oc=5" xr:uid="{2573C88E-98C9-47FF-B9FD-361FD50FC7DC}"/>
+    <hyperlink ref="C278" r:id="rId151" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxQY0piWkxEU3JPX0ZrUi1KT2MwZG9CX2tvODhiSXBVcWVLZXh1WGJKYUM1YWRFN1dxYWlzaGwtbmdYRG52UUdUMVJTM0x5Q09ZWTZzZGZXaFUxTzdnVTZSMmRiNW9TRjctVzdUVGRLWmxtMGhwa0RTYkxMNHAwUnFkakJ2SDBSV2xYSF96dDI0M0kzRHVNWndOUThRRDhzN3VKX29CdU9OWHNPenRtR2drSGFYRkNoMEpST3JHaWRrb3JWdXltd3IzNmJTWGVtd9IB4gFBVV95cUxPREhkMFNfaUdvQUpYbGRkSElpX3hBM0ZHa094R1lvYTA5NkExNktxMjdVRzVMNk1SQjY3aG5saW5SYWpuTEJLOU5LMDU1aEJaWGQxNmMzZzRGWllYX3AzMnJjVjd5WnBpcENncjdWeDhwSU12RXpkdGhFWTdTeDRVeDdXaFdtN3pGYmx4My1GU1pTam5WQ05NZG1mY1ctUGkzN1NjY1ZrU011SU1iVmtmYnpURTJ4aWFzbjJnd1dVNDd2QzRTanRPTlUtTzdKMHgxYkN5UXZ6NVowdmhfWTV3b0RR?oc=5" xr:uid="{2A650B4C-58C6-40CA-B305-0F2C67121503}"/>
+    <hyperlink ref="C279" r:id="rId152" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxQVEFZcTI4cnpGZHRGcFpzdW9uQ3BNVERFb3JmS2NWbG92SkY3ZjZJTVA4eWUwVktmVmpUX21OUmtidTMyNThLanZxTUhvN0hfOEVvVHJYeU5sLWktYVhJTmVIcWhQNGk1enNGLXRoUzdleThzNko5bG5MQVpQM1lBNkNkTWRoRUdpWFo2MmYycDQtbHFfczFUWkpaeEpxaUhfb1NSOE1SY1NnV1NNY0ZDUDJ2T3c?oc=5" xr:uid="{2B26E335-47E8-430C-A698-6B2C2484ABBF}"/>
+    <hyperlink ref="C280" r:id="rId153" display="https://news.google.com/rss/articles/CBMi-AFBVV95cUxOTmcwZDlLaDRKUlFpX0N0cFB1VmZoaFpCNm14NDJPWGNzR0RTcmtqUEV4WTUtclVqeGpMa1JMUFV4TFJkUG9NUlRubEJyaHdQQVBUSl9GYjE2UDJpT085NDJnaTdLenU1ODNSZktFcW03NTBTYlFFVjVUb2hrWFhNNTJOaDVISEZRM01PZ3ZlcS1oUEgwR3RILURsbnhLVGlYV2w2NWF1SS00bzR1T3pBVXdWQVZSTEhOWGNqT3cteEJPQTNaQmpLVW56Q0RQX2l0ekkwN0FlcmxKSDRBUVo2d0RmWEFMSFpRMDJmLXNiMkpCM1ZVSkdaQg?oc=5" xr:uid="{27BF83F3-6367-4FA5-A370-8C369B32FCE3}"/>
+    <hyperlink ref="C281" r:id="rId154" display="https://news.google.com/rss/articles/CBMikgFBVV95cUxNWV8xZWZGbFJJNzJzNG1qNVRsMmJONzFDVUdLX3VhY3o3dURhb20zb1ZYSkZqaVBMQlZGandsUTJxOXVzQUd4MEhsY1BXSGhzVm5GY1ZTUU11bFpOTWhjdFFGaUVTZEdZT3NtNC1jcU5nYTFCNmY1Y0hheGdYNk9SUzZMdGhnekN5MzNFMng3bUVud9IBlwFBVV95cUxNcXloRS1aUTl3TTFUQThLVFpWSFlTMGp1UGQzQlg4SzRXOFdqS3hjUy10aDBranNJbkVEamQ1UDBwUGFVWExaYkxOTmlTVzctZWhGNlpCMFJlZzlOWm9PZkkwa00wX0I2aXFfQzYtUEY0Rmc5T1JhM01oaXFGWC03U25lbzBUcm5iSy1ZczZCY1dscUNLcnpR?oc=5" xr:uid="{2A8D9EB4-F344-4A3B-BF86-03AF49A5B3E9}"/>
+    <hyperlink ref="C282" r:id="rId155" xr:uid="{424F48E0-69B3-4A98-A5D2-DDC4CF3831AC}"/>
+    <hyperlink ref="C283" r:id="rId156" xr:uid="{5F227991-5A10-4CFD-AEB6-EEEB8731FC3D}"/>
+    <hyperlink ref="C284" r:id="rId157" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxQck5jLU1mLVpjdkJabGp6bjJRalhEN1FzRU95RVZvdTdzYk1YUmdPSmNXNGpzR0xmZ0M3R0FZaVdGX0duZUZZZ1FjUWVfbjMyUjNPZlRqVFlCQUFUM2drYzBOWlhCQzcxRUdrMUR0cGhxLWt0bkd1aEZ6bkNjNlBvNXVDU29FZWtnZmVmaGJnVWQ1TlZHOGw1eFJ6MklYbzF2c3EtMWZKSzNiZGxDRVZLcDh0em00ME05VFNhTkNULWdjbnU5cHZjRUJoUVQxbWluOEZaQW1PME9PMl9rbzNoMUV3RnnSAf8BQVVfeXFMT28zVVpVVjJTV3VXU2ZBdVFReEJVSHJXelJuVi12WmZpbWhJUDNWbDVJU3BWbm5vc3QydUlKVnFUaWdUWnRiYTdzdHBZeU96dG1jQ3hmc3JqV0ozZEVDSlUtc1M5Tlo2V184dXhSZHFZdE5xdm5QUVI0VWJwa2xuUGhIbUkyVWZfeW5VYzVST0MybXRSYzNBeWN3b0dVNGltLUNiTzhUNlFramJwb2l4QV9KQVBweEdPcEhiaVNyTmVNUmozamtSWFQzQjNEQ3dlXzJ2YW9qZVlvSTFqUnFSdUhJZEx0ZmlnQzJTTmNIQVE3eEtVZFkwX1NhM2VvSElJ?oc=5" xr:uid="{F96C7019-4FDD-446B-962B-706EEFADBD7A}"/>
+    <hyperlink ref="C285" r:id="rId158" display="https://news.google.com/rss/articles/CBMijAJBVV95cUxPZnp0OUlvUk80R29lU09KM2dZa2haQVdiZXl0V0U5bkxHcWJHeG84eklQd0czbnlOSWRFaUpvVU1CSVZEVWpTV2RuWFMtN2E2WXlwZ2hyZlBxWXh3RTFPWG9tOHJ3VDlNVWhyeXRpZFdfNVRDaElXcEs0cTVEbWYyU1IxXy1DXy1fTWIwTW9TeS1KSUtaaVoxZWdDRjBXQ3pnX05VcGVhUHJSbTZXeDRDeV9BYVU3WnlTUFNpc0I0aDBDZWExRXV1Q3lmSy0wM2hzU2pWRjh5cUthcjR3cXpLUXJQbGcyYkNuTkNFTkdOa1FjdFlJS1NDdFFxWXltc2R5OUVyWGxtNGZmclA10gGnAkFVX3lxTE9Qa0E4SFRhNnBuX05YQ1ktbGFweVgwY3JCTmFXZ05pTk9UbThWLVVWd3pxeGFlSnA4a3F3YjhiN2JJZjVYRGdhMWR6OUlvdTN6R2FQdl93Zm1UNmdycDB1OVRPRVpvSko3RGtvSWd0dWxWWE5oSUtRSVJMSFJEOTRLQWlvd1dyMDE4Z1JxZEVvZmFLRktjY3FsSXhza01WOGFhNDlGYlV4ZVNQZFhXbWx1clp5c2xXR0daY2tPckJ6QW1mQURXbF9CMXBoNnFqX0J0aERXZnJiSzVLQTlRLUx6UFE4MzRkdzlKYUlBWkNWWm1odlNGbEpla0tIRUxXVXhDUW82QXlHSkVjLThxX0NBZkFFV3BRaGZwRXRGM29SejctREdFUTA?oc=5" xr:uid="{A149DB88-CFF4-4DAB-889E-DBC866D7D208}"/>
+    <hyperlink ref="C286" r:id="rId159" display="https://news.google.com/rss/articles/CBMimwFBVV95cUxQcGc2dTdJNHp6ZXJDM0o0THU4V0ZOWi1oUkQtM2JWVjF2SjhjLWc0ckdocU5TUE5pcjIwQkFoWlJEMXM2bDN3N2tPRllQbmNFYnFYNDQyY3Y2ZXVqMWNwQmFpd0JSR1daaWRrbG0xXzJmQVlLS0M4djRTMnFORVJtc3ZNeGFBQnN5WXdnbUd1TmJyQkRINWdGTGtRTdIBmwFBVV95cUxPWDNpR3VrU3RNeDFwYlVNemR2TWVwTE9XenJzYXl2bnBNSkktdzRkb0FsM3k3R0RoUGJ3eDRNYURXNzVoaFNwWGVjcS1rSlh4akJpb0lRMm40V1Mzc3FwYnNNVDA0SWFkQ1dYdmF3M3RsV25wZEdMNlVabDlDWWNVVzJKZlg1ajZSSmFSeHJHYUJrQmZOUkdIMmM3cw?oc=5" xr:uid="{A7284EA8-CB7C-47CF-A0A9-5C647216DD3E}"/>
+    <hyperlink ref="C287" r:id="rId160" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxQZE1jX25uSHFuUHZDaV9pMEo0ak04SWNpLTJXSFBiVS1ESFM3OTFEVktQV2pCRTZ3MUNSTXNVc0JONWNoOUE2STdPaW5SSTByTXJZOEc1am9ENWN0c2ExMkllVFBxWmRwTVpZZzVlWXJqNGZEdXBnU1JPMmtWOW1wV09GU3pJRTVnVkJDMUsyVDdLOVJZeEJuWWZRRWNEcER1Mkw0QTJJV3ZkM0tTODZ4V0ZhSDhOQWJMMjhVMExJTWw?oc=5" xr:uid="{52150F8E-363F-41AE-A5A8-7B349EED7A0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_fajardo.xlsx
+++ b/noticias_fajardo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fajardo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E679FF3E-D168-43E8-8434-F88F3FACDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3B469-C97F-46E6-B458-31FC2ED2CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B4D1DC0-AA7A-4A9D-8434-21C26BE298B5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="918">
   <si>
     <t>Fecha</t>
   </si>
@@ -2441,6 +2441,342 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQZE1jX25uSHFuUHZDaV9pMEo0ak04SWNpLTJXSFBiVS1ESFM3OTFEVktQV2pCRTZ3MUNSTXNVc0JONWNoOUE2STdPaW5SSTByTXJZOEc1am9ENWN0c2ExMkllVFBxWmRwTVpZZzVlWXJqNGZEdXBnU1JPMmtWOW1wV09GU3pJRTVnVkJDMUsyVDdLOVJZeEJuWWZRRWNEcER1Mkw0QTJJV3ZkM0tTODZ4V0ZhSDhOQWJMMjhVMExJTWw?oc=5</t>
+  </si>
+  <si>
+    <t>“Claudia López le resta a Sergio Fajardo; es camaleónica, es una política en la que no se puede creer”: Vicky Dávila</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/politica/articulo/claudia-lopez-le-resta-a-sergio-fajardo-es-camaleonica-es-una-politica-en-la-que-no-se-puede-creer-vicky-davila/202607/</t>
+  </si>
+  <si>
+    <t>['camaleónica']</t>
+  </si>
+  <si>
+    <t>Se alistan decisiones sobre consulta que López busca con Fajardo y otros de centro</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/noticias-hoy/</t>
+  </si>
+  <si>
+    <t>Cepeda tiene el 28 %, De La Espriella el 15 % y Fajardo el 9 %: encuesta del CNC</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/politica/elecciones-colombia-2026/ivan-cepeda-abelardo-de-la-espriella-y-sergio-fajardo-lideran-la-encuesta-del-centro-nacional-de-consultoria-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>Encuesta del CNC: Cepeda puntea, seguido de De la Espriella y Fajardo</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/en-vivo/encuesta-del-cnc-cepeda-puntea-seguido-de-de-la-espriella-y-fajardo/</t>
+  </si>
+  <si>
+    <t>['puntea', 'seguido']</t>
+  </si>
+  <si>
+    <t>Caricatura: Lo único que levanta la campaña de Fajardo y Claudia López son las encuestas que ellos mismos compran</t>
+  </si>
+  <si>
+    <t>https://www.las2orillas.co/caricatura-lo-unico-que-levanta-la-campana-de-fajardo-y-claudia-lopez-son-las-encuestas-que-ellos-mismos-compran/</t>
+  </si>
+  <si>
+    <t>las2orillas.co</t>
+  </si>
+  <si>
+    <t>Cepeda lidera nueva encuesta del CNC y el centro sorprende con un crecimiento notable</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/elecciones-colombia-2026/cepeda-lidera-nueva-encuesta-cnc-centro-sorprende-con-crecimiento-PP5011634</t>
+  </si>
+  <si>
+    <t>['nueva', 'notable']</t>
+  </si>
+  <si>
+    <t>crecimiento</t>
+  </si>
+  <si>
+    <t>(OPINIÓN) La consulta del Centro: es necesario que candidatos progresistas del Centro como Fajardo, Claudia López, Cristo, Murillo o Armitage realicen una consulta</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/opinion/analisis/la-consulta-del-centro-486963</t>
+  </si>
+  <si>
+    <t>Mauricio Cabrera Galvis</t>
+  </si>
+  <si>
+    <t>Panorama de elecciones presidenciales en Colombia según encuesta de CNC: una izquierda fuerte, derecha dividida y centro débil</t>
+  </si>
+  <si>
+    <t>https://www.lapatria.com/politica/panorama-de-elecciones-presidenciales-en-colombia-una-izquierda-fuerte-derecha-dividida-y</t>
+  </si>
+  <si>
+    <t>['presidenciales', 'fuerte', 'dividida', 'débil']</t>
+  </si>
+  <si>
+    <t>débil</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella habla de encuesta de Guarumo y de Iván Cepeda: 'Más trabajo'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOby14TWYzdmhqSjRmbGkzdVl0VFpGMGk1ZVcwY1hHS0pfRTlKV19iVWVrM1ZId2V0MlJ3c3BYM0VWR1MxV0RybnlMMUtrNE92LUNjRnF1UXFKcmQ4ZUlLeEhhSzJWS3I4ZWZFSGFyV0o5RnRZcTdyWHJzQjZCX2ZJV2g2RUV6TDZrNDFSMGVLcFpuQjQzQlZCUGp4R244NzBwRno2azU2a2xSclFBLUI4aGdOam81Y2dmQmt0cnB2aURqazhqaHN2dDV3N1U4S1R3YXhMaUtNeFJYZkdZOVc4VFBsY9IB6AFBVV95cUxPb0JWeHJrbE1DMS1uS3kxOEdTQzRWRFh5UmNGQjRSVUVtdmtvSVJNMU1WaGt2YWR2S1dtQTJ1cmdxODZLY2daWjd2TjlNbTJJcDV0Y2lFQUh6QVExTld5ZHpQOWpMR1l4aUxjQXV4OU0taHA0al9KMEt2aFFLcFd2WE1xUW1UUnJfZnRFTHNLdGd3TENsTWR2Z0pVbF9GWW1Kd0V4VDd4RTVkckJNMTJueGh2eVdGQlBCdzk4alZVYUQyTkVMdkwxQjloVEppZE1RaGtXN004OWp0d0NXdDFKbG9CeDJlVlph?oc=5</t>
+  </si>
+  <si>
+    <t>‘Debate de la Gente’: Enrique Peñalosa responde sobre intervención de EE.UU. en Colombia y segunda vuelta entre Abelardo de la Espriella e Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAJBVV95cUxNbVIwUWFUcXV1RnRDb2JDVmRQSDBBTWs0bFluVjlzNkdiX2xkMjY2aFB0NjVGT2RFaGtUNGFEblhoZ3JISHBQT1JtYW1KeURSYUJVSXJzeG8yZnhMMmZ5VDA4cEpRYS1CWUpweDBrcHlCNGhDb2ZNODhFYmlPa0l1MjBjUHJxbHBEbkNxYnJWU2k4QXJRb0t4cUNOLU1KazNVNURyb2k1LWNfYVZRbGFteWE5eGpCQmJzWVdMdU1ka3VQVWhYUGpMaThPa3NhYi05R1ZNOHY2eXMxTXNhb1BmREVqcVQtbEQzZFlGRDUxQUN2eWYzNEJVWmhGUy1Pd3NoRnIwbzlSVFN4dlMwV2tkbkdaOWZjZ09WM0s1S1BvVXFia0FScXNRQ0lWeXNvcHZQRWsxTVlVa1DSAb4CQVVfeXFMTkoyV3V5THNQcUo5TDJ0QmxpUllfT1JJeXYzZF9YRkNpRHFHYjZ6eE9hamdKRndxMVhOc0hrOFZFM1pfMTVmS0VRTU0wdGVkS0ZzXy1PamhGTFlTUFU5NXQwZ200TVYyZWVXWmpkQzNmMkJkN2FNMDBZZDdkRmYwaFZwQmV6bTlVTjgxRGF3ZE5iWnN4cUZWTGhxc1BUamRRSzU5V1JtMWZJdm1XdlNRMktfTWY5LTg0d0t3MjYzbzBGMnJtSlVQM0F4V1hzNEVqNEk0ZXdUVTk5TFgxc1diaVU1TFNXVzVmTXo3R1gxYVhXRWZiZlc0anpEcU5fUkxBZTJQcFZPNUU3X0lmTGlhMmNvd3VKdVhXTEVpckRUOUVTUXlRRmlpWmphX2xuc1VHZDYyZG1tdWRDWGlCdFhn?oc=5</t>
+  </si>
+  <si>
+    <t>['‘', 'segunda']</t>
+  </si>
+  <si>
+    <t>Pacto Histórico le pidió al CNE aclarar si Iván Cepeda puede participar en la consulta del frente amplio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxQRWUxSDZtZkhPR1ZKN096UGdlZDRocVMzQU9DTHk0SUVrZ3ZVMFA2N3BQS2l4dC1lWkg5c0NKZFJYT2dMeVFaR0hpYXpKVWtfdENKaHp6UUMzZjJ1Y2RURllweVhtNnFVRWhJZjdFMm5sNk9VMHZMMzRzdzZZRUhTN3R1dG5tQVE1Nkt5Zk5hQlZwUTU5SmxsNjVtRnRSVU9LU01ham1OM0Q1QnhWcVR5UUdNYUY0QnRkVXJ6ME1xRW9IV3ZOb1N6QVFQT2pRY1kwaW5OY1o5QzZsRTF2dUY2dmtuUjItY2tv0gHuAUFVX3lxTE11RFFGQXFWTHBMZ0prejFUSHFSNTVPRFFhZjBjNlZBSXlEczRPeGdtNTVPUGhkVGZRTWZZR3kyaDlTTWxTSXRaQUR2TUN0T1RETktHenRDbmFIRUFDS0FvM3ZoYlIxdEJyMW9uTEk3b2NRZk1PSkFjWmV5NWk1ZnR5cENkWDR4SGg5ZFlsM2lEQUFfeVV2MGtKSzJPOHdwYkZBMkNZYUtNNU5acktEV2R5T0xtSDl5QWl2UWE0Y3A2Ty04bDhndkpvUndwa2paNHAxZ25tUks1WGdTLWtjWDNTUGNHZFJnWlpzV1FteXc?oc=5</t>
+  </si>
+  <si>
+    <t>['amplio']</t>
+  </si>
+  <si>
+    <t>“El ELN obliga a votar por Iván Cepeda”: Álvaro Uribe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxOamhlNER1QnJ6NWJ2bG9vRE1WTi1TVkFwU3JFMU9oTmdqS3hEbnRNNTFHY3FZZU1NZm5zdTBtQXcxY0lOYy1aQWdydU5FWWVQUmppM1RlNlZTdFNKbUxlQ191WW1ncmw5THZaWEhkMERiMnhMRnRObFFMUjJhVFNGSmtPS25mQjJ3NklXUXRybDFCRDNLNDJVZnlJX3FwOHAy0gGmAUFVX3lxTFBQLVhPX2luM3JhR2tDYVBNSWZLam5uVWdEYVdaN0lFcEJnWXg3UzFIS0ZjbUZQVlhyVHJ4YjFqcC1CQURUaUtoNUtMdE5FWUFvUTJqSlFwQnhuTFo5em1rX1Y5OU1YOFBVTXpYa2NmZ0xWdnlRZDhpbk5oa2FEb3h4bjU3TDdzblpzRFBkSnE5WDNVRjdnZl9kZzVTLUpaQ0xhRFhoS2c?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda se afianza como el líder de las encuestas presidenciales en Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxObGhGZmZ6YkhfUnZhMnNXSXlxc2EzOVFFMFpYR2FrS1hRZV9zXzFxY3hiZTNoRUFnMzFjRzV0Mk1fNXppbXJ3Z0NnX3lwM2oxS1dTc2RFcXA5cWV3bTBsbnl0cFdCUS1FR1ZRU0pETUdJS0tSR0xVLWhvRUFCMUtBX3VVMW82RmhvdDBvaWhzaXVLSEo0eXM2U3M1T0h1X1M5UTJzX29uNk10WXNKX2NpWHlhcld6YjJCN1VoYm5BQVZuRjN0LVBCUzFQWmLSAeABQVVfeXFMTVJQWTNXa2lCbTdmeXI2V0RVSElCSGg4YzZkZHMyOXJRcjlKWlZMSmNtRVlwX25EOXMzcE9nWnVEa1lvbjJLRFUxcFM4RlpjU2NnOHZ0bEl4ZjdrLW5PV21vamI0NEs0UG5UUUU5cWZKeVhBX0J2cWYydWdDZWtFOEMzRFBhd3NXcDdIMzVfRUtZelJjX05lVTJwTWFPVTZwcnlfWTNNQVVCdlc1TTBtelFtRFExUXBQTExMbG5Yd3cyNmF6enRuTk1IbFFST2VjZnA0bDFBbDFUMzc3VGRzRlk?oc=5</t>
+  </si>
+  <si>
+    <t>Vicky Dávila sacó fotos de Iván Cepeda en pleno debate presidencial: en RCN le dieron aviso en vivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQNDdHdDZQYWtUVjBkdnBSNzM4N2htbVJqaTczMXZLck56ZGhkdm5sLTNkc0FUU1FfenppdHNhcmplaDd2Y0JjVTBhNDRNQW1kck5Eak9mX09oVk1fdktURDNlMlk4anJrVFhZX05kZlY5eFV4UVNLcXg2WHhUdldBWlhfbmxMZTEtUVJDMXotelktSnZibjJlcVlCY3lUbmN0bk15TlNtOG1yOHEyRU1LZWp5ZGJiQVpoSG5tYlFZbEx3cjTSAcgBQVVfeXFMUEpsX2J3UGtUcXVqZ3BVRjRVRGRQNF9UdWZacWdDQUhTQzE5azlSTm8zeWFOLWVvTk1qeXRseVl0a1AtRENaVFNoV1dfOTFZbVJtekFxTnpDd1Vhb0RvenlBcUh3cV9JczNrcEtnZmRWU2Z2RS1LbTFxRU53NjA0SlczdlgxRXZuNjVvYVpQLWVST2FLQXNtUk5BMXMyWkRELWpGMzdHQzNjemRDUTV0XzdXc3VIcDdCR2JXdEJwRkhyUk5QMWx1eDE?oc=5</t>
+  </si>
+  <si>
+    <t>['pleno', 'presidencial', 'vivo']</t>
+  </si>
+  <si>
+    <t>“Voy a derrotar al heredero de la guerrilla”: Abelardo De la Espriella reacciona a resultados de encuesta que favorecen a Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxNSjkxQXZwNGN1RFJwY3p3V3dhSXJ3MnZGTi0zVnV5X1RleXBZTkRpdzNSdWVxbXdlOGF2dGFabnV6RkNMdlFwTUZSNFMyTTlhdF85MFZQWXpVSE96bW4wOGp3MnNXWkRXeFZuVzNEUGJFWkhuYjI1VDJYWWlIRkk0SzZZNFUtMkRCeXFLd3gyNm0tUWlaWWlPWFowWEk5OUh6eGV1b2M0Q3A3MGVLMkZDQk1TSkM4S3phdG9xUkdvX0N0S0djUzI5Z0c5LTRIWnkxVk9YTjFNRzlCZHhWLVBIQkNNV3VSODVYbEN1YllRd3JfUUJ0aWRiRzlEdWpHOTBhT1plU05UaUs?oc=5</t>
+  </si>
+  <si>
+    <t>Debate entre candidatos presidenciales: respuestas divididas ante el escenario De la Espriella vs. Iván Cepeda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxOUGQ3THJlUzZKTm9WbFFQeDhabHNyYUJqLVh4ZVVJUzNJOGE0M1Fwc1J2cVRmS1dqMlRvc1cwVUs3RW9NUlZnbUVaRGJEdzBLVVcyejRUMXprQ05TMWtiQXgxR3F5RU5kdG9YZ2ZibGczWWhUVGtPTmNQYzZLSTlOSUZWYVhiaTVrU001U0NHRm1qTjJybE4ySElsR0FScllaYWttQTZYdXdTbFJkZExmRDRYOWlpbXlxc1ZZTVlVNjU1WGdEd29CeXZTelFYRW1QUEZKeTdLcFlNX3JjbEp3c0tTdkJfVWQwR3l1NGxGTktCdVRDd3NLR1VyRzRPSll1TGNNUHJQRTd1N1U?oc=5</t>
+  </si>
+  <si>
+    <t>['presidenciales', 'divididas']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda regaña y responde con ironía a periodista: “Mataron a 6000 personas por preguntas como esas”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxObm9JX1VQWXJMNFlNTnl3NUJxaUthRW11OTFTbVZmMWtjQ1V4LWN0VHlkUEpwR2swN3FpNVQ2MS1SU202UkV0dlBkMHpkVnFzSTFCS2dXUnI0STZGVUYtVkxEMGhjaGxfcExwUUhnNGRKRS12Z2x5UWRGSmlnT01ET2ZBS3NfWFl2OWFLR1BjTTVvUXBBVW12bHZwdmpERFczZHdJaEdtX01vVnB1dm1TMHpsaDRibWphcVJzR0tCWTVSSWlRbXg4RS1FXzZKSkxlbklOak5rYkNkOVNPNHZV0gHkAUFVX3lxTFB1WERaY0RCMEt3R0IyZHdQM2JVblFpZm4zaVZSaVBBSWhsNjZhRzVseWN1VlFUMUpjaWpzS0RLYmMwZlpEdGJ4c3RmYURxQkJxTGpoUkNFcDhrMUc4Qy1feU1GcGU4eWJDTi1GWDRvbEpCYmhDQ2tibTN6WXl1Zl9uQUlkcGRpQnJ0R2d3dFg3cW8wbmRsWnRrdEpmQlo2MU5qaWFMZUV6ZVFrb2hELUxfSjFGdjFKbG1RUlFPdUlhbV91emsyMkV6czNqTVFlc0JUcmYtNks0emEyLWFCZ0RtX0c0cA?oc=5</t>
+  </si>
+  <si>
+    <t>Pacto Histórico pide al CNE definir si Iván Cepeda puede estar en la consulta del Pacto Amplio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxNQnc3NXBYVUNibFN5MUVaRzBpeE1ITmtEbTF1V1Y0V1dUMUZ1eDF3Ny1RbjNQYl9wbVVnd2MzWWFnYndfaHVyWElUS29EMFB1dFJXTHA1U2NzZjYxdl95cDNOcjVnYWdQaE1NWmVxZGVMbE9kc0ZEbElNbk5zUnczSm55RWZockV0TVdMd3kzUGl2dGZxbGZGSnN1T3NoNFVrWGFtRzhjSlhqU25jTnJ5Q1VjUmJpN2VWWmh3Vnp4d1RLYnF5QjhfTlRoNU9UbzTSAc8BQVVfeXFMUG1GcDJUQm9jYXVhMklaVDlSeDFOa2lhdlBGY0t2cW11Rk9BaldqUmRuNnM1ekdjLVRKd3JzbHRPeEF1SGs4b2EzQWhTOTh1bEZCX1d6SW11SUgzNk5LNlFNMEwtTTV1QnBseXEzMUFtQ0dDODJSeU04ci1CMjJiNzN2WGlPMGVHTGJlVkxXcExZaWtReW1FU1JiZi1QbjJnR1VTX2VJb2xGZHVuR1MxbnhYbktDSlUzYTExOG1Obmd4N0ROSFpNa3RuaW1rT0FN?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda lidera la carrera presidencial y se perfila como el ‘preferido’ de los colombianos, según nueva encuesta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxPb01BVkRiaFpTRkM2MnpYMjBxbE0wQlNnZFc5Z1dKZ3o1cy1zb1BfbWE0ZW9Lb2NONnZMTTFpa0d5WVlyczh4WEdCaV9hZkkzWklrNVZ0NjJTSGJyMlNMTGhZS25mY0ZaUkVaOEQ1bC05T0VIcVU4LXhDQ2RjcGpGYU9zbHFuSjgyMUtuUkw0TC1GVFlyaFNKcFM4cXN2UmJkSGpYTW1XQXV2N0c1ZHhvbnNjTnhCSmpsNlhxeXByVk1qQWhZYzliSTR6WEFUbDN4dlNYUVFyMlN3a1g4djctYmNYRUE4dlFlNWpOVXp5X3JxUQ?oc=5</t>
+  </si>
+  <si>
+    <t>eldiario.com.co</t>
+  </si>
+  <si>
+    <t>['presidencial', 'preferido', 'nueva']</t>
+  </si>
+  <si>
+    <t>Risaralda</t>
+  </si>
+  <si>
+    <t>Iván Cepeda desata entusiasmo en Valledupar y Patricia Caicedo llama a consolidar el cambio con el Pacto Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxQbHp4dkhGZzFFWFMyang1RHBfcnhKZ25xamZFTTZqRmtsTkRRdkVDOENvWkxsRHNrZW0wdFhQaEdaNzdOWnVZajJxS1R2OGFrS1c2WGhfbFRyOFBQczJmeGd0aWxnZjdNclRzWHV3clB1RjVzNGFGWmE0ZXVhdE5Xc2hReXQ0ZGhITHpnTmVFdW8yTmo0V3BraURKZFZWMVhUbzBnc2lRVWJ4TFQ2MzlkRGVpdURXY3M5TkVucmdvNS00WDNUczF2SWZRUk5tZXVEY1NqcVJKT2hzRV9UWnR3SmNhNWxBTVNBN042WVZDT2lTSk0?oc=5</t>
+  </si>
+  <si>
+    <t>Lina María Garrido denunciará a Iván Cepeda por “corrupto” y lo acusó de quererse robar 20.000 millones de pesos: “Bandidos”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxOMnk3akZxYWhoTVdtMEYwNWNIenNxVWVEX1ZabVJiOERwZ3otLXRPdUdiY2FLQ2IyRWlQU1JhaFcxZlgzaWItaTVJWkVtbFFseUFldUdXMm9ZaHBQMHBhQXJXTjd4cDhZMV9scjdNRURMdnd4SktPa0JpekN6d1VVNlZjN2o3Q0lhNk5BMXpROXVGSXJ3T3BDaUZTX0VxWTNoMFEybENVaHVxcE5JeFY5SC1rbDhLQXpxd09sVDBGSGZ1WWpUM19rSVVzQVg1aGxnRW1WenFNc2NGQWdRTGxyRTVFNlk1cVR1Mm85anBrVzNQNGhKZ0HSAZACQVVfeXFMUExXWm82OC05ZTFzMFhVaGhWaHYycXhVR2dvdDdyN0g1ckIybVAzQTQxRG0xdHc2YjJZNHFJN1BmbTEzU2VmMmxhTmhwYkRhSl9IaFJCQURub3BITE5sSmlJWmJ5UlFuRDhUcnhBa3BvWUlhZC1taFVKel9TRlJ4MVMtdjlXUXJkVzRIcm9fS3RkSFBpNGQ0d2tJM2hNaE9GQWVEUjAwMkhWcThyTHJSOFdxazVPbjl6dDF0TDNWejdscXZXWkdrOTFfanZoVGFsY2o1Zk1rZ0lZWWpWc1JXc0xBcUUtaTliU2xaY1g5YlQxM0l4LUx0Zk1HN0l1Y0xMdTlLa2hhdkZyemwtVTYybVk?oc=5</t>
+  </si>
+  <si>
+    <t>['corrupto']</t>
+  </si>
+  <si>
+    <t>Iván Cepeda sería el candidato ‘preferido’ por los colombianos, según nueva encuesta: Abelardo de la Espriella es segundo, pero está lejos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxPN0lJQWY1bEpaRWZTSnpPMmR6cUxpdVpDQmRvbmRWczR1TTR5Nk9BOGU4ZTRTVFdfd1hHSHhzU2JMWG5oMmJBNGFiMm1zMjNTZDhQV3kza00welBiYXVFb002TFFPTlVmSXFkVHJQMGNKQmJadUZCbm9samVtNTRkSXBqMklSYmNLSVZnLUdHZXNSU0lTeG90azg2WC0yeE5fOTVPN0V4dXY4RUc4MTJtMFJkUjN5V3pqd2xuVlpkVmVYenZlYjZRb2l3bXNwM2V2ZXo5WnhWcXBBU1JIU1V2Ykc2TDdQdDg3Nm9yVUdRTGo2VXBVbWpSTGk4S1Q1VFhXc1hGVFZHS25FUdIBpAJBVV95cUxPYzZyWWtVdFNISUoyeEpQWV9TZklNUTJiekRXWFBCclVUQXBHNGxsLXpTSFdZNVgyc0l0WDEzUEhSSUxjdEFFSHBCUUpfRUcwNEZFbFBlRzhvN1VNRXY2MkFWcl9qbEVJM3o4QVlzUURPdWYwalJGR2IyZEdlcE8yaTNvNFZuTWlMWWJKZ3Iwb3RlaTZfaWlydEFXMERPZWlMVjJMTXBiN0xwSGRpLUZkSGJLM0YxdU9MMmY0ZFY3WE8xcGtwbUxoMVBUR2hiVnhGYW1uNEszc3JwREFPeGVBNmRKWXNOU05oVjl2QTM3QVRxenUxUmdKUEJwdUxINEc2NFFsNEJwRkhpakZ0aU5ZUjQxLWhKNUtXS21kd0l1M1VTRzIy?oc=5</t>
+  </si>
+  <si>
+    <t>['preferido', 'nueva', 'segundo']</t>
+  </si>
+  <si>
+    <t>En una hipotética segunda vuelta con De la Espriella e Iván Cepeda en el tarjetón, así se inclinarían los aspirantes de la Gran Consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxPcWRkbHpvS3dpQVVNbkZKcFhleHlLV1RpTU5CM3A3Q0tCOFpTenlDUUtZbVJDYWMzakR1d2Q1UHZmTXdoNHY0MU9wb1NIMm9fTWJXWTBBYzM5R19tTm5RVmxLY0o1NjByeUk3X2RIbmxXdlNHRWxtQ1lOS19VQ2hraF9OdWlvVkR2RXR6al9HSTV3eWdPalpTWEwwZ1liYUp0Y25IcDBET0ZycWdEU2xOUGtaRURwdERCd1A1WTZiVEdjVnA3N1EzWTNxd0lOaDAwRHNjN1o2bXJqMmV1QU5SNkJmOWxvaGduN2lWTDQtQTFpdHJnWW1qWGx3QTdnSXdNdjBabllyRGE5MDhJ0gGnAkFVX3lxTE5RdTEtbmVET2QtZWFieHNSUFRJOWhhdW5yVlBENnVMdDlDZklxLUNsMGhLdmItdE5CcVZZaWRNOF9QeDNsZExWZGtyekcyUWV1TXloM3JMNzNnOEs4S0VXUG5DM0hGMmo5NDM2eVAzSG43bzYzOXg2STI1WG80elRzd3ZDM2c2WHZ6V2h6WnhHWkppMTFRUkhRQ19kWlh4Y2VvdFBwZEFUcWdrenFvRGtqbEZJMnpDUWtkQ2JBWmNnWDg2MzFMZFVYOWVrdkxOQ2ZvWmNMMVZzZjkzQWwxdWpwbzl1Zms0Wm1NbXRQRTN0US11YlhQMHBqZGYwNWF2cVlQZ0dTWWpSck81ajdvTHNzT0owVUQtdHltd1pidEpYdkNaODBtdkU?oc=5</t>
+  </si>
+  <si>
+    <t>['hipotética', 'segunda', 'Gran']</t>
+  </si>
+  <si>
+    <t>Álvaro Uribe acusó al ELN de obligar a los ciudadanos a votar a Iván Cepeda: “Los tienen extorsionados permanentemente”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxQZk05NHUtaVIzZGlJd2twbmpNenJNck1xN2VydFN5RzF3QTVTM1p5WUFIX0twa3JjTVB6NG5VZzdsSUVuUTY2MUdmM0VlNW5qdVlvX3UzcWN2ZW04X1JIb01NTE9rYlctS2RxdHJaNlhMRG55NDRpTHh6WVh3X2FKMUVXVGJtQ1NZWjVSVkpXdjY3ak90RXl5OXJIUmI1eWRaVTdYV2xYRG4tMzRlSzZ5SWZFdHFMX1Zub0Itby1YblVmSmRXZndTc1ppdEVvNkRuckkzNTNtZ25zcy1pSWZwMGN6QzByV1JkZ01GMFo1X21zajDSAY4CQVVfeXFMTWRnd3puVlBkOUY3OUJYc2FzU0xqSzR5YTd2OW9tLWVKWFZNSzZ5VUljcXUwQ09ON1ZwMEhhdWRSN1UyNGMwRHJ1LXA2VmRJYk8xYWdKdXhrZkNtTjg3TVVXMFdoU0U2TmJ0Qk9IZnVsZ3pJcUd0Rl83SWliaU1IOEZoTWQtTDkzLUVZc051ZU52ak4yb0xPS1JXQ3Y3dDNQQ2kydmV2YllNdEdsQnFKdVdHU1JDMFpEQ2JaTkY1NFZ5d1Btc3Fyb00ta1dUV2FOd0pxN1JBRDloSlZudHhpOWEzR3hLNG9kZHd4UHV6SXlJNDQyVTZ0YzFVeGNfcDJsZEN0ZG5iS0V0d3QxU0Jn?oc=5</t>
+  </si>
+  <si>
+    <t>daños</t>
+  </si>
+  <si>
+    <t>Vicky Dávila se despachó contra Iván Cepeda en el debate de La Gran Consulta por Colombia y recordó fotos con ‘Jesús Santrich’ e ‘Iván Márquez’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxNWnZVWjZYUGc0czZ3cFhjaU44UE8xRkd0bXdvckVNbk9FNTNzN1VzM1BPbEdEbTBna29vdHV4VnlZLW5KSC1CU19iVl9hY2tYTld5S2U0ZDlxNnNXMFRnYmYzR1JXbDF0dW4xb29DY3dUZjluNm5mbUtTUVNZNzNyT1R5QVdINHUzY1NPNDJCRFd4eXQyM3drWVphMWU2Q25kalhzcGR4T0V2SGgzSVYtZ2tOa1hvTF80cDZkdlFpbjFiTDN0YXhoc3VxaDRab0lzMWJQaWlCa1FuczJ1b1k3VE4zdkg2aDFrZ1NCRHdFX0ozYTZYNEdtaV94d2xzMF9zVVRydkN0X3VSODJlXzcza2F30gGsAkFVX3lxTE9XRUFXZ2lkN1VqcGxyb2J6aTJCNFJrdHZXODRSMHd3MFUyTUlLY1JkQ1BLa1plbENHdDFkTDV1d05vcGNaOGowNEZjVjJfazFpVzFJcEx4dHlIOG9CR3NvN3oxY1hjamxNbnZvMFFYMDhQeWdzYURYWTI2MTJteHhyWHZOTnNRLXVocmxhY2V5VkMxRlFOYUJOdWNPbTFLa20zWjU3Vl9LTElab19hdXZxS2Q2Z0o3N042RlhMTmV0SGFfbnRDZmFYdEw4Tm1uWTdXSWM4LWFHY1l0azR6QVZDb3V3YXZJbGlLRkFmbFYzZ3pFNGFOamptRWE0NkJZY3BvNWZCV01ROGlyeDB5UUtYQXNNVFktM1lLV0stVnZrb2RRUTdoVlZVaEdHcw?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda gana en todos los escenarios en encuesta del CNC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxNbFRWMUVva2J2VnB4ZDRTM1Nyc2dCOVhud1ZYeDY1ejBUVHZfX0VWOU5FQ1ZpbnVjNVZGS1J4MkIxSnlidzh5dFNDTGhTYnlRWnlnT1V0bUJWSUNWMV85bjJWaDlzNGtqenY3RFZIdUdteE1xNFV3cDJjenhreGp0alVzcVpWN1VyMVcyeQ?oc=5</t>
+  </si>
+  <si>
+    <t>Otra encuesta en la que Iván Cepeda gana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9ocUZISjBrRm5URTd3Rm8tUlFOSWtTeER6TFd2ajlfanlMamU5TkMySGhYTlcySUg0X05RaWRlN2ZCYTVfYnN0RnVlMGtmdTl4SWhPeUZWYm5hRXpIVHhZY3JsZFp0ZmtqTFFOUWpCeHFxdGtldF9KcEtnUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda lidera intención de voto en encuesta del CNC, con 28,2%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxNa1FRS1Q4bWxmM1hBdnNINUFtbE41SnRZT3F2N2J2REpJUmV1OEVjNWRvUjFYeTI0YURBZE0tMzJoZjV2aDF2T0xoNnpCNXU1Q1luTm9uQVhLMVJ4WjBVajRyY05EdUNUS0UzNVZsZ2NKU0hyRmxWT0YxbVU4bjhBXzNXd0VONVpfLW1YTHNlTVVpSllSaENOMV9R?oc=5</t>
+  </si>
+  <si>
+    <t>Iván Cepeda al frente en intención de voto presidencial en la encuesta del CNC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxQYXdrWlNjV3dkU0VIODlKSWRFaS1ndi1VUVYxOHotdlFKek14UlBTdmx4OFJ4bDZnTGM4UUlvOG93MXpQWjNmWFJHaGpRYmRnV1ZzN0haVFlEU0VnMjdTdlVOVU1xcWNJaFdoYVR2Mno3TnlJSnZOcnJBNGdVcDNFZHB1amNkRjFSUXNrWXRTMy1iRGVkUlMtdjBsOE5yZ09xNG1hSU85bWw2QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Así respondieron los candidatos de la Gran Consulta sobre a quién apoyarían en una segunda vuelta entre Cepeda y De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxPNjR3STBaLTJFbHc4ektsS1lvNEZmVmozS1RoQktYVVRYVXhRYndQZ1hrcnJiYkhMd2RYWExTS0lsRlBuWDd2bWZUcGF3RE5uQ01MWEpfbElFV3ZJSGpyZF9PRzBrb0ZMY1N3TXl1akNzV3lrSW5KdkJOS2hzdU5kMEM0bjI5VnVyR2FPOWtYUTNlS3hWTEtHZlc3QmNDMExpN1Y0Y1VLZ1dnQmNnRHpkT1JMQ0N4SzVMZ1NNOUtiNkFpSkVXZXpKS0dObkpRU0J0TWNjSDh1cU91X2doQnd4ZU5vZmgzNEJLR3hCOTkyOUdLZjZrcnNCeVNYS2VoR0Y4X2NfVkNrX3ZFUk8wbG5lWtIBlgJBVV95cUxPLVZDTmpUX1d4QlczTlVsa1JPVEV5TE1LOFg4bmNjSFU4UXVjY1VKVEJTcXkyN0MwSmRkSm5pMFFNLXNROV9QOUR2VUVDQXFmSmVkRzViMFo1UGZGMUVWbXptVlU4YTNITEl5eW5tZjJxVnNNVy1iaG9uMTdPbFdDYmNUQUlrcjhBeFN3QWZoMDNBem5NcF9Wdms5SFdYb01iZXFNeEo5al93VVktV1VxY3dYQkczN18tQWpISk9ldTJ1dmZpazVkTHgwaTZ5cUJ6RUFfdVVFcnY3N2NzeGRZZFc2OWZ4R0hFejZ0SE9FeGZTb0RUOEpQRE9fSG1UUU9MZFphdnZBcHVMMmZlbl85T1FDb1BEUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Esteban Santos habló de la campaña presidencial y dio su opinión sobre Cepeda y De la Espriella: “Se vendrán con toda a atacarme”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxNU3BtTTRVU0wtWS1YcjVyQ0ZpVzNpWTZiVVZEaG5IaVplanplSGpiWmVuVzlOdlJtbFZOWVgyMGNtWFMwRHJDRTdkTTZoQnBQUHVCdXpGZjVQcTA5UmRQbFNIekkta3JuUF94QXNuMmlrTG5nU2Q2ZUpLdF81VUhGUUtEcTJfeXJOcmpvR3NkZXZmeExxNk9kUXJBblh0YjB5ZXAySlk2Qm44WVVMS2xyZUFlSlBIYkpaMDFWRHFmM1h2RzNleVNlRDlRdF9JdG5ldEJHNU95TEVES2FGdVcza21qdDhMbzg1aHRPVUlHeVVTcEdoQ3k2TWk4M25Ma3ZoVmstU3hadFlQVHo2d2fSAZMCQVVfeXFMTUtfMG9IOUJRclNHZkkydVdSR0NCTzE5Z3hkc21wRUpFbW5BbC1iWUljVXk1S253dE5mTi10NEhSalBQMWxQbEh0b1p5NWNsT0NjR0I4cjI5aFk4d0NDN0g5bTJWOXVnR1lGeEwwa1ZpdGk5eHo2Z0hYZ3FPWFZUMXU0TVN2dHpZLUFvY2dnT01wdUhwb29hQ1R6aHhJMHg1U1RoQTR6UmEwN2lWb3pNYzV2aDBDMEtNWkxfQi1jSDRrUGpoTHNQcnNqX2NweFN5dUJ1em9PWDJBdHBlZnB1YnhVWHRoemduNm4tMzIzSE0wOEFmT1p6LXRyMVhkNnFCYXJIRGxBdVotdGp6WmJnM3JWTms?oc=5</t>
+  </si>
+  <si>
+    <t>Encuesta CNC: Cepeda lidera intención de voto y se proyecta alta participación en la Gran Consulta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQQTQ3OTB1dUtSMWdaOGlYSUdrNjRFS0pLYks2VEsxQkg0U2pBSDZRaDgtdEE0X1NBYlFodjZzYkpWOFVPbWp4dnVYZFF4VVJJNF9rU2puUHp5V3BobktkSS1CeVVGUEdlY1VIZ3FiRGZoVmJaRFpUNzZiQTdzMURZUFZQS29kTzZvLVFEOVNXUWNyWW9ONzcyR3lPdEpha3pPQ0JkX1JWRUF6WFhXVFE2QkRmNWYzc0xDbDdSSzAzbU1XOG01dk5HLVdOSkrSAeABQVVfeXFMT3hUY1dNTDcxdEVidHVjRUQtZGhmWWc5dEtRaDNHR1NVcmJsWm5zSzBsY1M1Q21ueWNmQk9iLU10T2J4cGk3NzBabmRpa3lScmJQUDhfZmtOUmI1Mm1XS1EyU3AzWTFXa0VlMzlJZTlxZklvVWpyU3p6dWtqSDBzVC1aWnRhTXc2bG9tcnhVbnFxc3hLcnR2RlE5clk3WC1tVFp6cFE0SUluNXhKRU04eWgxaDFDN2Nyd05wY2lyeVB6ckZFeHBBNlZ1X3ZQSDZrYVNjYVZacjBRVW04OVpkZUM?oc=5</t>
+  </si>
+  <si>
+    <t>['alta', 'Gran']</t>
+  </si>
+  <si>
+    <t>La carrera presidencial entra en zona gris por el caso Cepeda-Quintero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQZnU3YkF3X25TMm5yWkhjQ2tIQ1RaNWpMeGdybS1oZGdHZDJhNC1GZWUycFFsRVV4T0xzZkdUMDFrRDEyLWNNaDlzZXlpSkMxZEhZcGl2RjNYU0ZqLXl2aFc1eHdoUmZXODVMZzMtb2FRcXJuYWhQR2xzMjNmYlNmQlRiSF9FbloxUzQtLTV0d3J6Uk9HQXAwNWx6RTZHbDVZVU9aLTZQUmU1VE02U0RnZGdJLXZWZnc?oc=5</t>
+  </si>
+  <si>
+    <t>['presidencial', 'gris']</t>
+  </si>
+  <si>
+    <t>La encuesta que pagó RCN puso a Cepeda como favorito para segunda vuelta frente a de la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxOS0R6ZldIbUNpbnNTTTlXUFRIVzl2MGFHWjVBTEpuS2FYV1pFU0R3Z0Q1RkUza3Y0cVItYmVxanRid3ZvdVpUczVzQ25CdjAwWnJ0dUFZb0JfVTlibFRJV2JRcW9yNVo2bFFtYlpuQl9pQ2E2ZDRtU1ctRXZ2XzdjY0J0U2g5cUViNzdITmxXVF8yTzZyVlZ3a25scUhuV0pkN2RNWllnZ2lKaWJFTnZQY0dzaktmTzZSbkFIT3pJb0UyWDg?oc=5</t>
+  </si>
+  <si>
+    <t>['favorito', 'segunda']</t>
+  </si>
+  <si>
+    <t>Juan Daniel Oviedo propone a Abelardo de la Espriella como su embajador en El Salvador si llega a la Presidencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxPWDJfVFA4MVdxTE9oTEgxZWFYRDNyUUV5WDFha1NxRm9PYXFEWWRKZ1M0dlBoUlYyVk40UFAtc2pPU0tOOXZxN3AtS193aW0tbnVGYXFfSXZ2SU02cUJKOWVFN00tQy1fMmhjanBrdG5nV0pwaXBfajJmdVp6a2tSRHBwU21LZXBUb3dzSmhCMFI0SFNyYTdvZmVHQ3JMazRVelZ2ZmNUUm5FZlpXeEtPNzZiUE1Vcy00eFpTUVZSS25fUHNTMjFESWF3YThTTVc1aEdZb2NWd3pxYUtsLW1VQkNBOWJWTWptS1Qxb1pUcFZ0WFJaVFVFNXh6aWQ0dnlDd2hYRkVrOGZHTmfSAZACQVVfeXFMUGpmWVhZeFRpME5oZTdsVkpOandPUWJISVpVazlhNWRlci0tOUE1Vy1BVUVLRjU0UkJzRjdOcjFJcHJ0aGxmSWV4MW1zMVVheHdkNDFydlllQWhNWDdWNU1NMm1HTjh4cnVWVjBjZVVpbFJVMmZiUE5ZQ1AzQzU1cndCQ2xIYmZqcXlueWpZNTk5RFJKb2tCVmN4VEN5YTBIZDN1Vm1XTGpZT1RCSW1ocUJOU0cyN0tkaFA1YnVTSXA5alFfX3o4eFZzM2hVOWNybHNyUFNSbjZyLVdxZ3lLTWFSYVNiTk1yb2hiUkJUQ3BqdzlCRU1PSUJsc3gyQ05OZTJBRFBnNVBGSUZEeU1BaTk?oc=5</t>
+  </si>
+  <si>
+    <t>Abelardo de la Espriella responde a críticas del general (r) Óscar Naranjo: “No creo que haya combatido siempre el crimen, como se jacta”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxNWlFVQkhXbEhpd3RBUjJiZHVIMVZtSDJzMGstRWlYSG1kdXFSd0hVUVNHdlhoV0JhUHE0cTZBa1FueHZINzFESi16UGwxa3NCZkJtOGNkSGxnODlaS0MyVmFyQ08tYVQ0T1F1RkU4QUlJS0dnZTNubUFZeng4TnRCS2VacXR0NHpEUVBCU1EyVXVzeFZqQkRpTXZneXRHOEQyUWxwMGxvZnlNRUVYLXF5SXJPNWJtMnRoSUg5Y1V0Z2Vab1JJUkR1dm16Yi1PZDZMLU5WVno1YnZXUV9VOWJvcm1lY20tcDZWd2MtVVRTT0l6RzZSTWktWW1VZ2hQVmxtUEh6M085d2xrT0dOcWpmZ3d1eHbSAZoCQVVfeXFMTlMwM2NvZ2JNaDZWX2VpckJWRHZXVUlBYUM2c3djS3VaY1JIazlvbHNLZ2VrTjFjanF1bG1PR2ZmZHUyZWlaRHRSeHpnOElSdUJsbmdSbS1vZnJHaFNLS2MyVEhIa2xjaHB6M0REYVFOUHl6d0tuX3c3a3Eyd2Z3bzA1elZPU19kWWlZVUY2MF9KTU01V2pYcTl6LWRZTnlCdER3enF2cXdsM2t2MEtleU5rWHVxeTF1WFJmR3lwUUFBN1ZEOV9mVnhiclc2NTMxY0tsTl9fX0NvZXE2dzNpamRnYkljcDhMT1NfQkI4ZGloZHBNLU5Ub2RPd1NpRmtCT3U4WXpBVjdJOGVvQnUtUGo2OWtIQ3dvaElR?oc=5</t>
+  </si>
+  <si>
+    <t>crimen</t>
+  </si>
+  <si>
+    <t>Posible alianza entre Paloma Valencia y Abelardo de la Espriella agita la contienda presidencial de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNeUdpU3BfeElZb2VELXFPSEp2eG84a2ZDUWpjT2xoSUdsSGxkaXE5TDdNN0xPckhfTU1IS0k5Z3czQ0Z3RVlfR0FiczBRSjBRRUl5by1zd3RCZXVxWWhiQlBxaGRtLXZ1dnQ5MjFWaDd4NWpxbFBjTHFMT3VORVNKbjNpRWxvbDJLOHAtcWpHUWtRcFdzYWxxVGhIeGxkTk9WM0kyeXhyNHFLU0tWQzMzZkNGTnB1TlBRN0J6elEwd0d0NWpaOVZYNWo2SVg2QUJ5QS1qbXhSaDJKU0xvLVZENzFQQloxUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['Posible', 'presidencial']</t>
+  </si>
+  <si>
+    <t>General (r) Óscar Naranjo acusó a Abelardo de la Espriella de defensor de criminales y el candidato le contestó: “Usted es de la vieja política”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgJBVV95cUxQbW1WOHlxQzB5TkF0TzVlaVR5UGZmaVhYTDZRaXE1QTRfMHJIcGdIN3F0T1BrVHRObHVYbzl3MW5Nei0tZmVkV0xkUEFTcGJSNlZBa1JmcWNvQjJaMHcwcUh6cnRiSWdLa3N3VHZKNUpnVEdJbWxyaXVBd0EwWmZPME1BTDBjeUdnRllrNkZpc0ZPOWRJSE1DQWM5VmtwN0txcHZ1RE54NFB6MUFBZlRiMWVMUngwRGhCdC1VYWd1S3dPeUNYWkMtWTlFNm5MZ1ZIUUxES3Z2ajJzUWpCYUlKUlFKV19pOXZUUjFDM1J0cEIyZm8wT3A2Tm1oWFdfSFRpcUVQVFRhWHg3bWQyTXZuM21n0gGsAkFVX3lxTFBQRTRJS0V2N3ltcnlmZG16c1RaNmQyc1gySjloMldRY01pajBoRXpPQUFfN3RKd25EeF8zRXBRbG5hazJadlA5ZVd6TFR1RzRaWHk2OHpySE5HdVdXVm9feHBpRTlBUHBBeEZJVUZmRnhCdndONmlCbTBNdTVvdHZmQlJFN200WTcyR19FcVhFT2RTaEdJUzlNcVRDLUMzN0xTczl2eEJiYlR6OUlnVXZpQXoyXy1Rb3FaOElKMV9pbU5EZXN3dXBzMWJMWXdUM0cxU1RTUEs4aWplWF9aaHBIWlFDbGctak9MZmZ3OWN1b3c1TmhzOFpWLS1xaGJZd0FYT2dkd2ROTFN0Z19OMWVINEgzb2J3b3dTSTluQ21Yd3lnSDlVZm1ySFMyOA?oc=5</t>
+  </si>
+  <si>
+    <t>['vieja']</t>
+  </si>
+  <si>
+    <t>Jaime Andrés Beltrán entregó detalles de su renuncia a las elecciones para seguir con Abelardo de la Espriella: “Para apoyar una aspiración de país”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxPYjU2ZmhFUWJVOFNKTHpBbGxzeFE2NEthRnN1OHZwZUdqWEUyLVBKeWFuaUNCX2d4TW9yeC1UamtScWFONnh0YmpHeUx1M05jaFNRZkViay0xc1dKb0ZBYUticnNxdHp6NEgzSUpSc0dySWg5dmotTzFwUzAtUGRQU09WV3hrR3g5R0JMVC1BOUkxelQ3NkN5Mk1Nbmcycms0VmczcE0zZDZSYjBIbS1rd0VKUVpwWXVBamIzZ1ktdWNpU0lDUVFKNy16SXozNk5LYjl5R0todnJ0dnRUY2JSYUFHelJBeWYzc0lhbUpieHJDQmhaQk5hdEpfZnlUZ2dqVjU0c2FlV1hSbVl5RF9nRjhMMTJxWm5PbFHSAbQCQVVfeXFMUGxhY3VzWURRS05pMmItTDk5ajF3SVRYcEpralFGMHlhd1ZRcE1IS0tHb21POV8xZ1dFVHBocDFwZzJicTFyZzA2QWZYd1BOVGpkRno5d0tfXzFxdHU5Z21qanlSLWpkQ0xKdWFVeDVnR0pMQm80WDNRalpKUGh1eGlOcGUxaXQxRUpkc0pNVGVwcl9kQzN4aVU1S1o4LUZHU0VuSWdMbEluWi11bk9fRXZqY0FzTHpLdEZzYklEbnRSRVVTOUh6Q0h2cWZVTHdXb1FiZGl0OFMwdUl4ZVBwUjd2blVMSTJqQzE0VUhPbFpBbWdNQ0h2LXZKZi02MjNJbXBoR05ObG5jZjhqZHNyMEU0a1g1SjVWZGZRQ2x4UUkwQm1oeXhvdG5vTG5MUGlsUFAtaGU?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella acusa a Naranjo de representar la vieja política</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNZVJyTTMzbkF3eXlpNnN3ZHpOc2RESHRwd2hvT3VUS2k3d2x3SnBLWW1nb2IzMVVmWGJDZjB2M2k5SS1BR3NVRkRwampGNktpZlJHNTltVjZ5aDBlUkVOV3AyTkFjNXlwYzQ5b2hmeXplaHBnLXJxR2dVcXRrSjkzYnN0cjc1VU9CNU01TlhmZVRtSW1rNXFMME9FXzVGaGdV0gG0AUFVX3lxTE52Q3gySmUtZmZYQmNwYVRPTklCOTdHdk11YzNxMm03YjFGSUM2WXo2UV9OM0NjYnFWWTkwcUI3Vjdfb0dhM1VsQWpPczNpTW5neUFpOUUxMG5ZeGVNaXB6TnNocFNtckZ5WEUzSm8xbU9EX1ZkeDY1YW1mZmhWQzgwbXJsTlhsVFJOVUxZSUdyRV9TeVhWak02ZWZIRV9ydXpUMlNqRlpzczJ4Mm9VYlExLVVqMw?oc=5</t>
+  </si>
+  <si>
+    <t>De petrista a abelardista: el giro de Germán Calderón, abogado de la campaña De la Espriella</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOTjZ6NTg2NFgwN0xjWXBSRmZWVmJPWEl5RXRPMEROaDhzcVBIdVZ0YjgtZUd1UVdHUkRaXzFOOEwwZVV5RjhSZF9mWlNIN2x6ZUtIVEtIMnNfQ011RzliSG5IWGxCT3JVbm5uS1dNRkNGaGx5RVNGQlJlRTBOZGZFanU2cnpSbDNSRGVicFI2SVc2TDMtRXFnbmYzY3YydjJLOEdRVFFubnVVblRsN0E?oc=5</t>
+  </si>
+  <si>
+    <t>De La Espriella responde a señalamientos por haber sido el defensor de criminales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOMUxMbTBmZ0lkU1NjMzF3OUk2dkpVQnU4OWRsTllyMnFHWnRydXJDOVROczA5dE5uVlBMeUZkeEYwUHU2SGI0S2VYM0tVU1JKRi0wNEJlMWRnSHJXdWtmY3dlWi1GYWVNZE1nWUZNRDc3T1lodEtwbHQ2d0VkcGktNTJNLXVuYWdqNGFoUDNzTTdIdUR1TXNVWVAtcEpMZHpRSzhlSUN5Nmo2VFNOcnk5VVY2Q0FoX0ZKM0xlRDhMSzJDSkFrNUF3?oc=5</t>
+  </si>
+  <si>
+    <t>De la Espriella marca distancia de Óscar Naranjo y asegura que su campaña no depende de respaldos políticos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxPUEZDMGdOX0wxZTdxano3QmRVRGdQQnlJR0tMdTQyWTk4b2NRS05fdmdhWjEteklfdm4wN2ZKRU9FeFhuNE9FSzNlTkRBeVdjNUxaT0dTYlFSanh0SG5HM1RQVXN3a2k3V2JMdUhkQXgzcGZTUFJwSmgzeVdwYnFRX2tzZUpwRDQ1bXQ1b0s2dVgxY1IwX2g0bWlzbm91c1VlVjdBMlpOU1NlOUxfb1pmczQ0TzJwYXpXZFBqUGNmVGsxdWdBVnhPaTVPUmdTaVJBb2xSZDlHYklnaDZXNFV5cnhXRTc2Q3J2NWc?oc=5</t>
+  </si>
+  <si>
+    <t>['distancia', 'políticos']</t>
   </si>
 </sst>
 </file>
@@ -3310,10 +3646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD868A0A-5DCB-4C39-9B81-89E4E099C06B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K287"/>
+  <dimension ref="A1:K330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253:K287"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11711,6 +12047,1271 @@
       </c>
       <c r="J287" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B288" t="s">
+        <v>806</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288" t="s">
+        <v>34</v>
+      </c>
+      <c r="F288" t="s">
+        <v>808</v>
+      </c>
+      <c r="G288" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" t="s">
+        <v>221</v>
+      </c>
+      <c r="I288" t="s">
+        <v>24</v>
+      </c>
+      <c r="J288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B289" t="s">
+        <v>809</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D289" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" t="s">
+        <v>34</v>
+      </c>
+      <c r="F289" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289" t="s">
+        <v>16</v>
+      </c>
+      <c r="J289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B290" t="s">
+        <v>811</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290" t="s">
+        <v>16</v>
+      </c>
+      <c r="J290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B291" t="s">
+        <v>813</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D291" t="s">
+        <v>86</v>
+      </c>
+      <c r="E291" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" t="s">
+        <v>815</v>
+      </c>
+      <c r="G291" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>86</v>
+      </c>
+      <c r="J291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B292" t="s">
+        <v>816</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D292" t="s">
+        <v>818</v>
+      </c>
+      <c r="E292" t="s">
+        <v>34</v>
+      </c>
+      <c r="F292" t="s">
+        <v>489</v>
+      </c>
+      <c r="G292" t="s">
+        <v>17</v>
+      </c>
+      <c r="I292" t="s">
+        <v>818</v>
+      </c>
+      <c r="J292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B293" t="s">
+        <v>819</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D293" t="s">
+        <v>129</v>
+      </c>
+      <c r="E293" t="s">
+        <v>34</v>
+      </c>
+      <c r="F293" t="s">
+        <v>821</v>
+      </c>
+      <c r="G293" t="s">
+        <v>21</v>
+      </c>
+      <c r="H293" t="s">
+        <v>822</v>
+      </c>
+      <c r="I293" t="s">
+        <v>129</v>
+      </c>
+      <c r="J293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B294" t="s">
+        <v>823</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>34</v>
+      </c>
+      <c r="F294" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294" t="s">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s">
+        <v>12</v>
+      </c>
+      <c r="J294" t="s">
+        <v>15</v>
+      </c>
+      <c r="K294" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B295" t="s">
+        <v>826</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D295" t="s">
+        <v>651</v>
+      </c>
+      <c r="E295" t="s">
+        <v>34</v>
+      </c>
+      <c r="F295" t="s">
+        <v>828</v>
+      </c>
+      <c r="G295" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" t="s">
+        <v>829</v>
+      </c>
+      <c r="I295" t="s">
+        <v>651</v>
+      </c>
+      <c r="J295" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B296" t="s">
+        <v>830</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D296" t="s">
+        <v>75</v>
+      </c>
+      <c r="E296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296" t="s">
+        <v>75</v>
+      </c>
+      <c r="J296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B297" t="s">
+        <v>832</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D297" t="s">
+        <v>75</v>
+      </c>
+      <c r="E297" t="s">
+        <v>25</v>
+      </c>
+      <c r="F297" t="s">
+        <v>834</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s">
+        <v>75</v>
+      </c>
+      <c r="J297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B298" t="s">
+        <v>835</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D298" t="s">
+        <v>24</v>
+      </c>
+      <c r="E298" t="s">
+        <v>25</v>
+      </c>
+      <c r="F298" t="s">
+        <v>837</v>
+      </c>
+      <c r="G298" t="s">
+        <v>14</v>
+      </c>
+      <c r="I298" t="s">
+        <v>24</v>
+      </c>
+      <c r="J298" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B299" t="s">
+        <v>838</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D299" t="s">
+        <v>24</v>
+      </c>
+      <c r="E299" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" t="s">
+        <v>17</v>
+      </c>
+      <c r="I299" t="s">
+        <v>24</v>
+      </c>
+      <c r="J299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B300" t="s">
+        <v>840</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D300" t="s">
+        <v>18</v>
+      </c>
+      <c r="E300" t="s">
+        <v>25</v>
+      </c>
+      <c r="F300" t="s">
+        <v>253</v>
+      </c>
+      <c r="G300" t="s">
+        <v>21</v>
+      </c>
+      <c r="I300" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B301" t="s">
+        <v>842</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D301" t="s">
+        <v>129</v>
+      </c>
+      <c r="E301" t="s">
+        <v>25</v>
+      </c>
+      <c r="F301" t="s">
+        <v>844</v>
+      </c>
+      <c r="G301" t="s">
+        <v>17</v>
+      </c>
+      <c r="I301" t="s">
+        <v>129</v>
+      </c>
+      <c r="J301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B302" t="s">
+        <v>845</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D302" t="s">
+        <v>349</v>
+      </c>
+      <c r="E302" t="s">
+        <v>28</v>
+      </c>
+      <c r="F302" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" t="s">
+        <v>21</v>
+      </c>
+      <c r="I302" t="s">
+        <v>349</v>
+      </c>
+      <c r="J302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B303" t="s">
+        <v>847</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D303" t="s">
+        <v>349</v>
+      </c>
+      <c r="E303" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" t="s">
+        <v>849</v>
+      </c>
+      <c r="G303" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s">
+        <v>349</v>
+      </c>
+      <c r="J303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B304" t="s">
+        <v>850</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D304" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" t="s">
+        <v>25</v>
+      </c>
+      <c r="F304" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" t="s">
+        <v>14</v>
+      </c>
+      <c r="I304" t="s">
+        <v>19</v>
+      </c>
+      <c r="J304" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B305" t="s">
+        <v>852</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D305" t="s">
+        <v>172</v>
+      </c>
+      <c r="E305" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" t="s">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s">
+        <v>172</v>
+      </c>
+      <c r="J305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B306" t="s">
+        <v>854</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D306" t="s">
+        <v>856</v>
+      </c>
+      <c r="E306" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306" t="s">
+        <v>857</v>
+      </c>
+      <c r="G306" t="s">
+        <v>21</v>
+      </c>
+      <c r="I306" t="s">
+        <v>856</v>
+      </c>
+      <c r="J306" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B307" t="s">
+        <v>859</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D307" t="s">
+        <v>175</v>
+      </c>
+      <c r="E307" t="s">
+        <v>25</v>
+      </c>
+      <c r="F307" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" t="s">
+        <v>21</v>
+      </c>
+      <c r="I307" t="s">
+        <v>175</v>
+      </c>
+      <c r="J307" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B308" t="s">
+        <v>861</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D308" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308" t="s">
+        <v>863</v>
+      </c>
+      <c r="G308" t="s">
+        <v>17</v>
+      </c>
+      <c r="I308" t="s">
+        <v>22</v>
+      </c>
+      <c r="J308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B309" t="s">
+        <v>864</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D309" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" t="s">
+        <v>25</v>
+      </c>
+      <c r="F309" t="s">
+        <v>866</v>
+      </c>
+      <c r="G309" t="s">
+        <v>21</v>
+      </c>
+      <c r="I309" t="s">
+        <v>22</v>
+      </c>
+      <c r="J309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B310" t="s">
+        <v>867</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D310" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" t="s">
+        <v>25</v>
+      </c>
+      <c r="F310" t="s">
+        <v>869</v>
+      </c>
+      <c r="G310" t="s">
+        <v>21</v>
+      </c>
+      <c r="I310" t="s">
+        <v>22</v>
+      </c>
+      <c r="J310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B311" t="s">
+        <v>870</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D311" t="s">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>25</v>
+      </c>
+      <c r="F311" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
+        <v>872</v>
+      </c>
+      <c r="I311" t="s">
+        <v>22</v>
+      </c>
+      <c r="J311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B312" t="s">
+        <v>873</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D312" t="s">
+        <v>22</v>
+      </c>
+      <c r="E312" t="s">
+        <v>25</v>
+      </c>
+      <c r="F312" t="s">
+        <v>109</v>
+      </c>
+      <c r="G312" t="s">
+        <v>17</v>
+      </c>
+      <c r="I312" t="s">
+        <v>22